--- a/Consommation spécifique.xlsx
+++ b/Consommation spécifique.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\Projects\wave2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBA36C6A-442C-4EB9-86DA-0005023A0E6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99446354-24AB-4AE6-B277-8C3841C44943}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" activeTab="1" xr2:uid="{4E830341-EBCA-4A95-9BBE-9CDD49815F8C}"/>
+    <workbookView xWindow="4008" yWindow="4008" windowWidth="23040" windowHeight="12204" activeTab="3" xr2:uid="{4E830341-EBCA-4A95-9BBE-9CDD49815F8C}"/>
   </bookViews>
   <sheets>
     <sheet name="Produits chimiques" sheetId="1" r:id="rId1"/>
@@ -691,6 +691,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -698,12 +704,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -3079,6 +3079,108 @@
             <v>2.8942864806958379</v>
           </cell>
         </row>
+        <row r="38">
+          <cell r="B38">
+            <v>45692</v>
+          </cell>
+          <cell r="C38">
+            <v>17411.400000000001</v>
+          </cell>
+          <cell r="D38">
+            <v>210000</v>
+          </cell>
+          <cell r="E38">
+            <v>68826</v>
+          </cell>
+          <cell r="F38">
+            <v>3.0511725220120303</v>
+          </cell>
+        </row>
+        <row r="39">
+          <cell r="B39">
+            <v>45693</v>
+          </cell>
+          <cell r="C39">
+            <v>17610.2</v>
+          </cell>
+          <cell r="D39">
+            <v>198799.99999999927</v>
+          </cell>
+          <cell r="E39">
+            <v>66010</v>
+          </cell>
+          <cell r="F39">
+            <v>3.0116648992576773</v>
+          </cell>
+        </row>
+        <row r="40">
+          <cell r="B40">
+            <v>45694</v>
+          </cell>
+          <cell r="C40">
+            <v>17775.7</v>
+          </cell>
+          <cell r="D40">
+            <v>165500</v>
+          </cell>
+          <cell r="E40">
+            <v>52915</v>
+          </cell>
+          <cell r="F40">
+            <v>3.1276575640177642</v>
+          </cell>
+        </row>
+        <row r="41">
+          <cell r="B41">
+            <v>45695</v>
+          </cell>
+          <cell r="C41">
+            <v>17962.900000000001</v>
+          </cell>
+          <cell r="D41">
+            <v>187200.00000000073</v>
+          </cell>
+          <cell r="E41">
+            <v>70336</v>
+          </cell>
+          <cell r="F41">
+            <v>2.661510464058245</v>
+          </cell>
+        </row>
+        <row r="42">
+          <cell r="B42">
+            <v>45696</v>
+          </cell>
+          <cell r="C42">
+            <v>18217.900000000001</v>
+          </cell>
+          <cell r="D42">
+            <v>255000</v>
+          </cell>
+          <cell r="E42">
+            <v>77269</v>
+          </cell>
+          <cell r="F42">
+            <v>3.3001591841488827</v>
+          </cell>
+        </row>
+        <row r="43">
+          <cell r="B43">
+            <v>45697</v>
+          </cell>
+          <cell r="C43">
+            <v>18459.5</v>
+          </cell>
+          <cell r="D43">
+            <v>241599.99999999854</v>
+          </cell>
+          <cell r="E43">
+            <v>81052</v>
+          </cell>
+          <cell r="F43">
+            <v>2.9808024478112638</v>
+          </cell>
+        </row>
       </sheetData>
     </sheetDataSet>
   </externalBook>
@@ -4396,6 +4498,234 @@
             <v>0</v>
           </cell>
           <cell r="AH38">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="39">
+          <cell r="A39">
+            <v>45692</v>
+          </cell>
+          <cell r="D39">
+            <v>7.0400000000002905E-2</v>
+          </cell>
+          <cell r="G39">
+            <v>0</v>
+          </cell>
+          <cell r="J39">
+            <v>0</v>
+          </cell>
+          <cell r="M39">
+            <v>0</v>
+          </cell>
+          <cell r="P39">
+            <v>0.39039999999999964</v>
+          </cell>
+          <cell r="S39">
+            <v>0.43200000000000038</v>
+          </cell>
+          <cell r="V39">
+            <v>0.64640000000000164</v>
+          </cell>
+          <cell r="Y39">
+            <v>0.1636</v>
+          </cell>
+          <cell r="AB39">
+            <v>0.32849999999999913</v>
+          </cell>
+          <cell r="AE39">
+            <v>0</v>
+          </cell>
+          <cell r="AH39">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="40">
+          <cell r="A40">
+            <v>45693</v>
+          </cell>
+          <cell r="D40">
+            <v>7.0399999999999352E-2</v>
+          </cell>
+          <cell r="G40">
+            <v>0</v>
+          </cell>
+          <cell r="J40">
+            <v>0</v>
+          </cell>
+          <cell r="M40">
+            <v>0</v>
+          </cell>
+          <cell r="P40">
+            <v>0.31359999999999921</v>
+          </cell>
+          <cell r="S40">
+            <v>0.329600000000001</v>
+          </cell>
+          <cell r="V40">
+            <v>-0.6272000000000002</v>
+          </cell>
+          <cell r="Y40">
+            <v>9.9199999999999733E-2</v>
+          </cell>
+          <cell r="AB40">
+            <v>0.33450000000000202</v>
+          </cell>
+          <cell r="AE40">
+            <v>0</v>
+          </cell>
+          <cell r="AH40">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="41">
+          <cell r="A41">
+            <v>45694</v>
+          </cell>
+          <cell r="D41">
+            <v>0.30399999999999849</v>
+          </cell>
+          <cell r="G41">
+            <v>0</v>
+          </cell>
+          <cell r="J41">
+            <v>0</v>
+          </cell>
+          <cell r="M41">
+            <v>0</v>
+          </cell>
+          <cell r="P41">
+            <v>0.25919999999999999</v>
+          </cell>
+          <cell r="S41">
+            <v>0.34499999999999997</v>
+          </cell>
+          <cell r="V41">
+            <v>-9.6000000000007191E-3</v>
+          </cell>
+          <cell r="Y41">
+            <v>0.12800000000000011</v>
+          </cell>
+          <cell r="AB41">
+            <v>0.31799999999999873</v>
+          </cell>
+          <cell r="AE41">
+            <v>0</v>
+          </cell>
+          <cell r="AH41">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="42">
+          <cell r="A42">
+            <v>45695</v>
+          </cell>
+          <cell r="D42">
+            <v>0.9247999999999994</v>
+          </cell>
+          <cell r="G42">
+            <v>0</v>
+          </cell>
+          <cell r="J42">
+            <v>0</v>
+          </cell>
+          <cell r="M42">
+            <v>0</v>
+          </cell>
+          <cell r="P42">
+            <v>0.36480000000000068</v>
+          </cell>
+          <cell r="S42">
+            <v>0.17280000000000051</v>
+          </cell>
+          <cell r="V42">
+            <v>9.6000000000007191E-3</v>
+          </cell>
+          <cell r="Y42">
+            <v>0.15680000000000049</v>
+          </cell>
+          <cell r="AB42">
+            <v>0.32099999999999973</v>
+          </cell>
+          <cell r="AE42">
+            <v>0</v>
+          </cell>
+          <cell r="AH42">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="43">
+          <cell r="A43">
+            <v>45696</v>
+          </cell>
+          <cell r="D43">
+            <v>3.8400000000002876E-2</v>
+          </cell>
+          <cell r="G43">
+            <v>0</v>
+          </cell>
+          <cell r="J43">
+            <v>0</v>
+          </cell>
+          <cell r="M43">
+            <v>0</v>
+          </cell>
+          <cell r="P43">
+            <v>0.36160000000000103</v>
+          </cell>
+          <cell r="S43">
+            <v>0.34879999999999889</v>
+          </cell>
+          <cell r="V43">
+            <v>-1.6000000000001791E-2</v>
+          </cell>
+          <cell r="Y43">
+            <v>0.15680000000000049</v>
+          </cell>
+          <cell r="AB43">
+            <v>0.30750000000000011</v>
+          </cell>
+          <cell r="AE43">
+            <v>0</v>
+          </cell>
+          <cell r="AH43">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="44">
+          <cell r="A44">
+            <v>45697</v>
+          </cell>
+          <cell r="D44">
+            <v>0.12479999999999691</v>
+          </cell>
+          <cell r="G44">
+            <v>0</v>
+          </cell>
+          <cell r="J44">
+            <v>0</v>
+          </cell>
+          <cell r="M44">
+            <v>0</v>
+          </cell>
+          <cell r="P44">
+            <v>0.33599999999999852</v>
+          </cell>
+          <cell r="S44">
+            <v>0.28800000000000203</v>
+          </cell>
+          <cell r="V44">
+            <v>-6.3999999999992951E-3</v>
+          </cell>
+          <cell r="Y44">
+            <v>5.7600000000000762E-2</v>
+          </cell>
+          <cell r="AB44">
+            <v>0.32250000000000068</v>
+          </cell>
+          <cell r="AE44">
+            <v>0</v>
+          </cell>
+          <cell r="AH44">
             <v>0</v>
           </cell>
         </row>
@@ -4780,56 +5110,56 @@
     </row>
     <row r="2" spans="1:31" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="3"/>
-      <c r="B2" s="42" t="s">
+      <c r="B2" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="43"/>
-      <c r="D2" s="43"/>
-      <c r="E2" s="39" t="s">
+      <c r="C2" s="40"/>
+      <c r="D2" s="40"/>
+      <c r="E2" s="41" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="40"/>
-      <c r="G2" s="41"/>
-      <c r="H2" s="39" t="s">
+      <c r="F2" s="42"/>
+      <c r="G2" s="43"/>
+      <c r="H2" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="40"/>
-      <c r="J2" s="41"/>
-      <c r="K2" s="40" t="s">
+      <c r="I2" s="42"/>
+      <c r="J2" s="43"/>
+      <c r="K2" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="L2" s="40"/>
-      <c r="M2" s="41"/>
-      <c r="N2" s="39" t="s">
+      <c r="L2" s="42"/>
+      <c r="M2" s="43"/>
+      <c r="N2" s="41" t="s">
         <v>11</v>
       </c>
-      <c r="O2" s="40"/>
-      <c r="P2" s="41"/>
-      <c r="Q2" s="39" t="s">
+      <c r="O2" s="42"/>
+      <c r="P2" s="43"/>
+      <c r="Q2" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="R2" s="40"/>
-      <c r="S2" s="41"/>
-      <c r="T2" s="39" t="s">
+      <c r="R2" s="42"/>
+      <c r="S2" s="43"/>
+      <c r="T2" s="41" t="s">
         <v>6</v>
       </c>
-      <c r="U2" s="40"/>
-      <c r="V2" s="41"/>
-      <c r="W2" s="39" t="s">
+      <c r="U2" s="42"/>
+      <c r="V2" s="43"/>
+      <c r="W2" s="41" t="s">
         <v>7</v>
       </c>
-      <c r="X2" s="40"/>
-      <c r="Y2" s="41"/>
-      <c r="Z2" s="40" t="s">
+      <c r="X2" s="42"/>
+      <c r="Y2" s="43"/>
+      <c r="Z2" s="42" t="s">
         <v>8</v>
       </c>
-      <c r="AA2" s="40"/>
-      <c r="AB2" s="41"/>
-      <c r="AC2" s="39" t="s">
+      <c r="AA2" s="42"/>
+      <c r="AB2" s="43"/>
+      <c r="AC2" s="41" t="s">
         <v>9</v>
       </c>
-      <c r="AD2" s="40"/>
-      <c r="AE2" s="41"/>
+      <c r="AD2" s="42"/>
+      <c r="AE2" s="43"/>
     </row>
     <row r="3" spans="1:31" ht="48.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="26" t="s">
@@ -7992,16 +8322,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="Q2:S2"/>
+    <mergeCell ref="T2:V2"/>
+    <mergeCell ref="W2:Y2"/>
+    <mergeCell ref="Z2:AB2"/>
+    <mergeCell ref="AC2:AE2"/>
     <mergeCell ref="B2:D2"/>
     <mergeCell ref="E2:G2"/>
     <mergeCell ref="H2:J2"/>
     <mergeCell ref="K2:M2"/>
     <mergeCell ref="N2:P2"/>
-    <mergeCell ref="Q2:S2"/>
-    <mergeCell ref="T2:V2"/>
-    <mergeCell ref="W2:Y2"/>
-    <mergeCell ref="Z2:AB2"/>
-    <mergeCell ref="AC2:AE2"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8010,10 +8340,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07CB649B-6F18-453D-B029-557EF373D866}">
-  <dimension ref="A1:E35"/>
+  <dimension ref="A1:E41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="A34" sqref="A34:E35"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="A35" sqref="A35:E41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8769,7 +9099,7 @@
         <v>2.9197309206089894</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A35" s="35">
         <f>[3]Energie!B37</f>
         <v>45691</v>
@@ -8789,6 +9119,138 @@
       <c r="E35" s="25">
         <f>[3]Energie!F37</f>
         <v>2.8942864806958379</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A36" s="35">
+        <f>[3]Energie!B38</f>
+        <v>45692</v>
+      </c>
+      <c r="B36" s="32">
+        <f>[3]Energie!C38</f>
+        <v>17411.400000000001</v>
+      </c>
+      <c r="C36" s="20">
+        <f>[3]Energie!D38</f>
+        <v>210000</v>
+      </c>
+      <c r="D36" s="34">
+        <f>[3]Energie!E38</f>
+        <v>68826</v>
+      </c>
+      <c r="E36" s="25">
+        <f>[3]Energie!F38</f>
+        <v>3.0511725220120303</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A37" s="35">
+        <f>[3]Energie!B39</f>
+        <v>45693</v>
+      </c>
+      <c r="B37" s="32">
+        <f>[3]Energie!C39</f>
+        <v>17610.2</v>
+      </c>
+      <c r="C37" s="20">
+        <f>[3]Energie!D39</f>
+        <v>198799.99999999927</v>
+      </c>
+      <c r="D37" s="34">
+        <f>[3]Energie!E39</f>
+        <v>66010</v>
+      </c>
+      <c r="E37" s="25">
+        <f>[3]Energie!F39</f>
+        <v>3.0116648992576773</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A38" s="35">
+        <f>[3]Energie!B40</f>
+        <v>45694</v>
+      </c>
+      <c r="B38" s="32">
+        <f>[3]Energie!C40</f>
+        <v>17775.7</v>
+      </c>
+      <c r="C38" s="20">
+        <f>[3]Energie!D40</f>
+        <v>165500</v>
+      </c>
+      <c r="D38" s="34">
+        <f>[3]Energie!E40</f>
+        <v>52915</v>
+      </c>
+      <c r="E38" s="25">
+        <f>[3]Energie!F40</f>
+        <v>3.1276575640177642</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A39" s="35">
+        <f>[3]Energie!B41</f>
+        <v>45695</v>
+      </c>
+      <c r="B39" s="32">
+        <f>[3]Energie!C41</f>
+        <v>17962.900000000001</v>
+      </c>
+      <c r="C39" s="20">
+        <f>[3]Energie!D41</f>
+        <v>187200.00000000073</v>
+      </c>
+      <c r="D39" s="34">
+        <f>[3]Energie!E41</f>
+        <v>70336</v>
+      </c>
+      <c r="E39" s="25">
+        <f>[3]Energie!F41</f>
+        <v>2.661510464058245</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A40" s="35">
+        <f>[3]Energie!B42</f>
+        <v>45696</v>
+      </c>
+      <c r="B40" s="32">
+        <f>[3]Energie!C42</f>
+        <v>18217.900000000001</v>
+      </c>
+      <c r="C40" s="20">
+        <f>[3]Energie!D42</f>
+        <v>255000</v>
+      </c>
+      <c r="D40" s="34">
+        <f>[3]Energie!E42</f>
+        <v>77269</v>
+      </c>
+      <c r="E40" s="25">
+        <f>[3]Energie!F42</f>
+        <v>3.3001591841488827</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A41" s="35">
+        <f>[3]Energie!B43</f>
+        <v>45697</v>
+      </c>
+      <c r="B41" s="32">
+        <f>[3]Energie!C43</f>
+        <v>18459.5</v>
+      </c>
+      <c r="C41" s="20">
+        <f>[3]Energie!D43</f>
+        <v>241599.99999999854</v>
+      </c>
+      <c r="D41" s="34">
+        <f>[3]Energie!E43</f>
+        <v>81052</v>
+      </c>
+      <c r="E41" s="25">
+        <f>[3]Energie!F43</f>
+        <v>2.9808024478112638</v>
       </c>
     </row>
   </sheetData>
@@ -11216,10 +11678,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE558220-6FB4-4A8F-AF2C-00CD6BBB50CF}">
-  <dimension ref="A1:L36"/>
+  <dimension ref="A1:L41"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A34" sqref="A34:L35"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="A35" sqref="A35:L41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -12970,7 +13432,304 @@
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A36" s="37"/>
+      <c r="A36" s="37">
+        <f>'[4]Suivi journaliére'!A39</f>
+        <v>45692</v>
+      </c>
+      <c r="B36">
+        <f>'[4]Suivi journaliére'!D39</f>
+        <v>7.0400000000002905E-2</v>
+      </c>
+      <c r="C36">
+        <f>'[4]Suivi journaliére'!G39</f>
+        <v>0</v>
+      </c>
+      <c r="D36">
+        <f>'[4]Suivi journaliére'!J39</f>
+        <v>0</v>
+      </c>
+      <c r="E36">
+        <f>'[4]Suivi journaliére'!M39</f>
+        <v>0</v>
+      </c>
+      <c r="F36">
+        <f>'[4]Suivi journaliére'!P39</f>
+        <v>0.39039999999999964</v>
+      </c>
+      <c r="G36">
+        <f>'[4]Suivi journaliére'!S39</f>
+        <v>0.43200000000000038</v>
+      </c>
+      <c r="H36">
+        <f>'[4]Suivi journaliére'!V39</f>
+        <v>0.64640000000000164</v>
+      </c>
+      <c r="I36">
+        <f>'[4]Suivi journaliére'!Y39</f>
+        <v>0.1636</v>
+      </c>
+      <c r="J36">
+        <f>'[4]Suivi journaliére'!AB39</f>
+        <v>0.32849999999999913</v>
+      </c>
+      <c r="K36">
+        <f>'[4]Suivi journaliére'!AE39</f>
+        <v>0</v>
+      </c>
+      <c r="L36">
+        <f>'[4]Suivi journaliére'!AH39</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A37" s="37">
+        <f>'[4]Suivi journaliére'!A40</f>
+        <v>45693</v>
+      </c>
+      <c r="B37">
+        <f>'[4]Suivi journaliére'!D40</f>
+        <v>7.0399999999999352E-2</v>
+      </c>
+      <c r="C37">
+        <f>'[4]Suivi journaliére'!G40</f>
+        <v>0</v>
+      </c>
+      <c r="D37">
+        <f>'[4]Suivi journaliére'!J40</f>
+        <v>0</v>
+      </c>
+      <c r="E37">
+        <f>'[4]Suivi journaliére'!M40</f>
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <f>'[4]Suivi journaliére'!P40</f>
+        <v>0.31359999999999921</v>
+      </c>
+      <c r="G37">
+        <f>'[4]Suivi journaliére'!S40</f>
+        <v>0.329600000000001</v>
+      </c>
+      <c r="H37">
+        <f>'[4]Suivi journaliére'!V40</f>
+        <v>-0.6272000000000002</v>
+      </c>
+      <c r="I37">
+        <f>'[4]Suivi journaliére'!Y40</f>
+        <v>9.9199999999999733E-2</v>
+      </c>
+      <c r="J37">
+        <f>'[4]Suivi journaliére'!AB40</f>
+        <v>0.33450000000000202</v>
+      </c>
+      <c r="K37">
+        <f>'[4]Suivi journaliére'!AE40</f>
+        <v>0</v>
+      </c>
+      <c r="L37">
+        <f>'[4]Suivi journaliére'!AH40</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A38" s="37">
+        <f>'[4]Suivi journaliére'!A41</f>
+        <v>45694</v>
+      </c>
+      <c r="B38">
+        <f>'[4]Suivi journaliére'!D41</f>
+        <v>0.30399999999999849</v>
+      </c>
+      <c r="C38">
+        <f>'[4]Suivi journaliére'!G41</f>
+        <v>0</v>
+      </c>
+      <c r="D38">
+        <f>'[4]Suivi journaliére'!J41</f>
+        <v>0</v>
+      </c>
+      <c r="E38">
+        <f>'[4]Suivi journaliére'!M41</f>
+        <v>0</v>
+      </c>
+      <c r="F38">
+        <f>'[4]Suivi journaliére'!P41</f>
+        <v>0.25919999999999999</v>
+      </c>
+      <c r="G38">
+        <f>'[4]Suivi journaliére'!S41</f>
+        <v>0.34499999999999997</v>
+      </c>
+      <c r="H38">
+        <f>'[4]Suivi journaliére'!V41</f>
+        <v>-9.6000000000007191E-3</v>
+      </c>
+      <c r="I38">
+        <f>'[4]Suivi journaliére'!Y41</f>
+        <v>0.12800000000000011</v>
+      </c>
+      <c r="J38">
+        <f>'[4]Suivi journaliére'!AB41</f>
+        <v>0.31799999999999873</v>
+      </c>
+      <c r="K38">
+        <f>'[4]Suivi journaliére'!AE41</f>
+        <v>0</v>
+      </c>
+      <c r="L38">
+        <f>'[4]Suivi journaliére'!AH41</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A39" s="37">
+        <f>'[4]Suivi journaliére'!A42</f>
+        <v>45695</v>
+      </c>
+      <c r="B39">
+        <f>'[4]Suivi journaliére'!D42</f>
+        <v>0.9247999999999994</v>
+      </c>
+      <c r="C39">
+        <f>'[4]Suivi journaliére'!G42</f>
+        <v>0</v>
+      </c>
+      <c r="D39">
+        <f>'[4]Suivi journaliére'!J42</f>
+        <v>0</v>
+      </c>
+      <c r="E39">
+        <f>'[4]Suivi journaliére'!M42</f>
+        <v>0</v>
+      </c>
+      <c r="F39">
+        <f>'[4]Suivi journaliére'!P42</f>
+        <v>0.36480000000000068</v>
+      </c>
+      <c r="G39">
+        <f>'[4]Suivi journaliére'!S42</f>
+        <v>0.17280000000000051</v>
+      </c>
+      <c r="H39">
+        <f>'[4]Suivi journaliére'!V42</f>
+        <v>9.6000000000007191E-3</v>
+      </c>
+      <c r="I39">
+        <f>'[4]Suivi journaliére'!Y42</f>
+        <v>0.15680000000000049</v>
+      </c>
+      <c r="J39">
+        <f>'[4]Suivi journaliére'!AB42</f>
+        <v>0.32099999999999973</v>
+      </c>
+      <c r="K39">
+        <f>'[4]Suivi journaliére'!AE42</f>
+        <v>0</v>
+      </c>
+      <c r="L39">
+        <f>'[4]Suivi journaliére'!AH42</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A40" s="37">
+        <f>'[4]Suivi journaliére'!A43</f>
+        <v>45696</v>
+      </c>
+      <c r="B40">
+        <f>'[4]Suivi journaliére'!D43</f>
+        <v>3.8400000000002876E-2</v>
+      </c>
+      <c r="C40">
+        <f>'[4]Suivi journaliére'!G43</f>
+        <v>0</v>
+      </c>
+      <c r="D40">
+        <f>'[4]Suivi journaliére'!J43</f>
+        <v>0</v>
+      </c>
+      <c r="E40">
+        <f>'[4]Suivi journaliére'!M43</f>
+        <v>0</v>
+      </c>
+      <c r="F40">
+        <f>'[4]Suivi journaliére'!P43</f>
+        <v>0.36160000000000103</v>
+      </c>
+      <c r="G40">
+        <f>'[4]Suivi journaliére'!S43</f>
+        <v>0.34879999999999889</v>
+      </c>
+      <c r="H40">
+        <f>'[4]Suivi journaliére'!V43</f>
+        <v>-1.6000000000001791E-2</v>
+      </c>
+      <c r="I40">
+        <f>'[4]Suivi journaliére'!Y43</f>
+        <v>0.15680000000000049</v>
+      </c>
+      <c r="J40">
+        <f>'[4]Suivi journaliére'!AB43</f>
+        <v>0.30750000000000011</v>
+      </c>
+      <c r="K40">
+        <f>'[4]Suivi journaliére'!AE43</f>
+        <v>0</v>
+      </c>
+      <c r="L40">
+        <f>'[4]Suivi journaliére'!AH43</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A41" s="37">
+        <f>'[4]Suivi journaliére'!A44</f>
+        <v>45697</v>
+      </c>
+      <c r="B41">
+        <f>'[4]Suivi journaliére'!D44</f>
+        <v>0.12479999999999691</v>
+      </c>
+      <c r="C41">
+        <f>'[4]Suivi journaliére'!G44</f>
+        <v>0</v>
+      </c>
+      <c r="D41">
+        <f>'[4]Suivi journaliére'!J44</f>
+        <v>0</v>
+      </c>
+      <c r="E41">
+        <f>'[4]Suivi journaliére'!M44</f>
+        <v>0</v>
+      </c>
+      <c r="F41">
+        <f>'[4]Suivi journaliére'!P44</f>
+        <v>0.33599999999999852</v>
+      </c>
+      <c r="G41">
+        <f>'[4]Suivi journaliére'!S44</f>
+        <v>0.28800000000000203</v>
+      </c>
+      <c r="H41">
+        <f>'[4]Suivi journaliére'!V44</f>
+        <v>-6.3999999999992951E-3</v>
+      </c>
+      <c r="I41">
+        <f>'[4]Suivi journaliére'!Y44</f>
+        <v>5.7600000000000762E-2</v>
+      </c>
+      <c r="J41">
+        <f>'[4]Suivi journaliére'!AB44</f>
+        <v>0.32250000000000068</v>
+      </c>
+      <c r="K41">
+        <f>'[4]Suivi journaliére'!AE44</f>
+        <v>0</v>
+      </c>
+      <c r="L41">
+        <f>'[4]Suivi journaliére'!AH44</f>
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Consommation spécifique.xlsx
+++ b/Consommation spécifique.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\Projects\wave2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99446354-24AB-4AE6-B277-8C3841C44943}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7A1939C-6634-4816-924F-F81E4161BD61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4008" yWindow="4008" windowWidth="23040" windowHeight="12204" activeTab="3" xr2:uid="{4E830341-EBCA-4A95-9BBE-9CDD49815F8C}"/>
+    <workbookView xWindow="30612" yWindow="-108" windowWidth="30936" windowHeight="16896" activeTab="1" xr2:uid="{4E830341-EBCA-4A95-9BBE-9CDD49815F8C}"/>
   </bookViews>
   <sheets>
     <sheet name="Produits chimiques" sheetId="1" r:id="rId1"/>
@@ -2501,8 +2501,8 @@
       <sheetName val="Energie"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1">
+      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="1" refreshError="1">
         <row r="4">
           <cell r="B4">
             <v>45658</v>
@@ -4468,7 +4468,7 @@
             <v>45691</v>
           </cell>
           <cell r="D38">
-            <v>14.8992</v>
+            <v>0.13759999999999906</v>
           </cell>
           <cell r="G38">
             <v>0</v>
@@ -4480,19 +4480,19 @@
             <v>0</v>
           </cell>
           <cell r="P38">
-            <v>11.744000000000002</v>
+            <v>0.46080000000000254</v>
           </cell>
           <cell r="S38">
-            <v>12.457599999999999</v>
+            <v>0.46079999999999899</v>
           </cell>
           <cell r="V38">
-            <v>15.3568</v>
+            <v>1.9199999999999662E-2</v>
           </cell>
           <cell r="Y38">
-            <v>11.6608</v>
+            <v>0.2366</v>
           </cell>
           <cell r="AB38">
-            <v>2.9895</v>
+            <v>0.32090000000000002</v>
           </cell>
           <cell r="AE38">
             <v>0</v>
@@ -4726,6 +4726,44 @@
             <v>0</v>
           </cell>
           <cell r="AH44">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="45">
+          <cell r="A45">
+            <v>45698</v>
+          </cell>
+          <cell r="D45">
+            <v>0.19200000000000017</v>
+          </cell>
+          <cell r="G45">
+            <v>0</v>
+          </cell>
+          <cell r="J45">
+            <v>0</v>
+          </cell>
+          <cell r="M45">
+            <v>0</v>
+          </cell>
+          <cell r="P45">
+            <v>0.4480000000000004</v>
+          </cell>
+          <cell r="S45">
+            <v>0.45439999999999792</v>
+          </cell>
+          <cell r="V45">
+            <v>-6.4000000000010715E-3</v>
+          </cell>
+          <cell r="Y45">
+            <v>0.30079999999999885</v>
+          </cell>
+          <cell r="AB45">
+            <v>0.16799999999999971</v>
+          </cell>
+          <cell r="AE45">
+            <v>0</v>
+          </cell>
+          <cell r="AH45">
             <v>0</v>
           </cell>
         </row>
@@ -5046,7 +5084,7 @@
   <dimension ref="A1:AE68"/>
   <sheetViews>
     <sheetView topLeftCell="E1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A53" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="3" topLeftCell="A50" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="Q45" sqref="Q45:Q68"/>
     </sheetView>
   </sheetViews>
@@ -8342,8 +8380,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07CB649B-6F18-453D-B029-557EF373D866}">
   <dimension ref="A1:E41"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="A35" sqref="A35:E41"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="D43" sqref="D43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -11678,10 +11716,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE558220-6FB4-4A8F-AF2C-00CD6BBB50CF}">
-  <dimension ref="A1:L41"/>
+  <dimension ref="A1:L42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="A35" sqref="A35:L41"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="A41" sqref="A41:L42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -13388,7 +13426,7 @@
       </c>
       <c r="B35">
         <f>'[4]Suivi journaliére'!D38</f>
-        <v>14.8992</v>
+        <v>0.13759999999999906</v>
       </c>
       <c r="C35">
         <f>'[4]Suivi journaliére'!G38</f>
@@ -13404,23 +13442,23 @@
       </c>
       <c r="F35">
         <f>'[4]Suivi journaliére'!P38</f>
-        <v>11.744000000000002</v>
+        <v>0.46080000000000254</v>
       </c>
       <c r="G35">
         <f>'[4]Suivi journaliére'!S38</f>
-        <v>12.457599999999999</v>
+        <v>0.46079999999999899</v>
       </c>
       <c r="H35">
         <f>'[4]Suivi journaliére'!V38</f>
-        <v>15.3568</v>
+        <v>1.9199999999999662E-2</v>
       </c>
       <c r="I35">
         <f>'[4]Suivi journaliére'!Y38</f>
-        <v>11.6608</v>
+        <v>0.2366</v>
       </c>
       <c r="J35">
         <f>'[4]Suivi journaliére'!AB38</f>
-        <v>2.9895</v>
+        <v>0.32090000000000002</v>
       </c>
       <c r="K35">
         <f>'[4]Suivi journaliére'!AE38</f>
@@ -13731,6 +13769,56 @@
         <v>0</v>
       </c>
     </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A42" s="37">
+        <f>'[4]Suivi journaliére'!A45</f>
+        <v>45698</v>
+      </c>
+      <c r="B42">
+        <f>'[4]Suivi journaliére'!D45</f>
+        <v>0.19200000000000017</v>
+      </c>
+      <c r="C42">
+        <f>'[4]Suivi journaliére'!G45</f>
+        <v>0</v>
+      </c>
+      <c r="D42">
+        <f>'[4]Suivi journaliére'!J45</f>
+        <v>0</v>
+      </c>
+      <c r="E42">
+        <f>'[4]Suivi journaliére'!M45</f>
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <f>'[4]Suivi journaliére'!P45</f>
+        <v>0.4480000000000004</v>
+      </c>
+      <c r="G42">
+        <f>'[4]Suivi journaliére'!S45</f>
+        <v>0.45439999999999792</v>
+      </c>
+      <c r="H42">
+        <f>'[4]Suivi journaliére'!V45</f>
+        <v>-6.4000000000010715E-3</v>
+      </c>
+      <c r="I42">
+        <f>'[4]Suivi journaliére'!Y45</f>
+        <v>0.30079999999999885</v>
+      </c>
+      <c r="J42">
+        <f>'[4]Suivi journaliére'!AB45</f>
+        <v>0.16799999999999971</v>
+      </c>
+      <c r="K42">
+        <f>'[4]Suivi journaliére'!AE45</f>
+        <v>0</v>
+      </c>
+      <c r="L42">
+        <f>'[4]Suivi journaliére'!AH45</f>
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Consommation spécifique.xlsx
+++ b/Consommation spécifique.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\Projects\wave2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B43F555A-64BD-419A-88DE-4D2A38C83A9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B36DD3BA-57F9-4A65-94EF-7173A2EE3032}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="30612" yWindow="-108" windowWidth="30936" windowHeight="16896" activeTab="1" xr2:uid="{4E830341-EBCA-4A95-9BBE-9CDD49815F8C}"/>
   </bookViews>
@@ -907,6 +907,36 @@
             <v>3.8106579339088782</v>
           </cell>
         </row>
+        <row r="46">
+          <cell r="F46">
+            <v>2.0032692240809507</v>
+          </cell>
+        </row>
+        <row r="47">
+          <cell r="F47">
+            <v>2.4514104259078868</v>
+          </cell>
+        </row>
+        <row r="48">
+          <cell r="F48">
+            <v>2.6314457770355548</v>
+          </cell>
+        </row>
+        <row r="49">
+          <cell r="F49">
+            <v>2.7791563275434124</v>
+          </cell>
+        </row>
+        <row r="50">
+          <cell r="F50">
+            <v>2.3995715050883875</v>
+          </cell>
+        </row>
+        <row r="51">
+          <cell r="F51">
+            <v>2.605863192182404</v>
+          </cell>
+        </row>
       </sheetData>
       <sheetData sheetId="3">
         <row r="3">
@@ -1124,6 +1154,36 @@
             <v>0</v>
           </cell>
         </row>
+        <row r="46">
+          <cell r="F46">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="47">
+          <cell r="F47">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="48">
+          <cell r="F48">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="49">
+          <cell r="F49">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="50">
+          <cell r="F50">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="51">
+          <cell r="F51">
+            <v>0</v>
+          </cell>
+        </row>
       </sheetData>
       <sheetData sheetId="4">
         <row r="3">
@@ -1338,6 +1398,36 @@
         </row>
         <row r="45">
           <cell r="F45">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="46">
+          <cell r="F46">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="47">
+          <cell r="F47">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="48">
+          <cell r="F48">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="49">
+          <cell r="F49">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="50">
+          <cell r="F50">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="51">
+          <cell r="F51">
             <v>0</v>
           </cell>
         </row>
@@ -1559,6 +1649,36 @@
             <v>10.876252853031605</v>
           </cell>
         </row>
+        <row r="46">
+          <cell r="I46">
+            <v>11.94542018803835</v>
+          </cell>
+        </row>
+        <row r="47">
+          <cell r="I47">
+            <v>8.1450088344680189</v>
+          </cell>
+        </row>
+        <row r="48">
+          <cell r="I48">
+            <v>10.201912858661021</v>
+          </cell>
+        </row>
+        <row r="49">
+          <cell r="I49">
+            <v>7.8081058726219492</v>
+          </cell>
+        </row>
+        <row r="50">
+          <cell r="I50">
+            <v>7.3510682616199858</v>
+          </cell>
+        </row>
+        <row r="51">
+          <cell r="I51">
+            <v>9.3344353152802615</v>
+          </cell>
+        </row>
       </sheetData>
       <sheetData sheetId="7">
         <row r="3">
@@ -1776,221 +1896,281 @@
             <v>0</v>
           </cell>
         </row>
+        <row r="46">
+          <cell r="F46">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="47">
+          <cell r="F47">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="48">
+          <cell r="F48">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="49">
+          <cell r="F49">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="50">
+          <cell r="F50">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="51">
+          <cell r="F51">
+            <v>0</v>
+          </cell>
+        </row>
       </sheetData>
       <sheetData sheetId="8">
         <row r="3">
           <cell r="F3">
-            <v>0.11903433396572316</v>
+            <v>0</v>
           </cell>
         </row>
         <row r="4">
           <cell r="F4">
-            <v>0.26315248452951973</v>
+            <v>0.11903433396572316</v>
           </cell>
         </row>
         <row r="5">
           <cell r="F5">
-            <v>0.13483903590087845</v>
+            <v>0.26315248452951973</v>
           </cell>
         </row>
         <row r="6">
           <cell r="F6">
-            <v>-0.11039241052176448</v>
+            <v>0.13483903590087845</v>
           </cell>
         </row>
         <row r="7">
           <cell r="F7">
-            <v>-5.4849934008667105E-2</v>
+            <v>-0.11039241052176448</v>
           </cell>
         </row>
         <row r="8">
           <cell r="F8">
-            <v>0.7858843087618349</v>
+            <v>-5.4849934008667105E-2</v>
           </cell>
         </row>
         <row r="9">
           <cell r="F9">
-            <v>0.19029495718364889</v>
+            <v>0.7858843087618349</v>
           </cell>
         </row>
         <row r="10">
           <cell r="F10">
-            <v>0.24440540746961334</v>
+            <v>0.19029495718364889</v>
           </cell>
         </row>
         <row r="11">
           <cell r="F11">
-            <v>0.32863769405887133</v>
+            <v>0.24440540746961334</v>
           </cell>
         </row>
         <row r="12">
           <cell r="F12">
-            <v>0.34031088817596311</v>
+            <v>0.32863769405887133</v>
           </cell>
         </row>
         <row r="13">
           <cell r="F13">
-            <v>0.21813967756229535</v>
+            <v>0.34031088817596311</v>
           </cell>
         </row>
         <row r="14">
           <cell r="F14">
-            <v>0.43982475732323606</v>
+            <v>0.21813967756229535</v>
           </cell>
         </row>
         <row r="15">
           <cell r="F15">
-            <v>0.55202870549271676</v>
+            <v>0.43982475732323606</v>
           </cell>
         </row>
         <row r="16">
           <cell r="F16">
-            <v>0.64897951658400188</v>
+            <v>0.55202870549271676</v>
           </cell>
         </row>
         <row r="17">
           <cell r="F17">
-            <v>0.43002403953832707</v>
+            <v>0.64897951658400188</v>
           </cell>
         </row>
         <row r="18">
           <cell r="F18">
-            <v>0.28026333075449056</v>
+            <v>0.43002403953832707</v>
           </cell>
         </row>
         <row r="19">
           <cell r="F19">
-            <v>0.76332236057440073</v>
+            <v>0.28026333075449056</v>
           </cell>
         </row>
         <row r="20">
           <cell r="F20">
-            <v>0.83827026155645723</v>
+            <v>0.76332236057440073</v>
           </cell>
         </row>
         <row r="21">
           <cell r="F21">
-            <v>1.4230736337979941</v>
+            <v>0.83827026155645723</v>
           </cell>
         </row>
         <row r="22">
           <cell r="F22">
-            <v>5.5201625988488559</v>
+            <v>1.4230736337979941</v>
           </cell>
         </row>
         <row r="23">
           <cell r="F23">
-            <v>2.0273424474824782</v>
+            <v>5.5201625988488559</v>
           </cell>
         </row>
         <row r="24">
           <cell r="F24">
-            <v>0.38441901672824474</v>
+            <v>2.0273424474824782</v>
           </cell>
         </row>
         <row r="25">
           <cell r="F25">
-            <v>2.25510923185342</v>
+            <v>0.38441901672824474</v>
           </cell>
         </row>
         <row r="26">
           <cell r="F26">
-            <v>0.36656144995416207</v>
+            <v>2.25510923185342</v>
           </cell>
         </row>
         <row r="27">
           <cell r="F27">
-            <v>-1.7462605118446342</v>
+            <v>0.36656144995416207</v>
           </cell>
         </row>
         <row r="28">
           <cell r="F28">
-            <v>-5.8266731531030649</v>
+            <v>-1.7462605118446342</v>
           </cell>
         </row>
         <row r="29">
           <cell r="F29">
-            <v>-1.7561341940701449</v>
+            <v>-5.8266731531030649</v>
           </cell>
         </row>
         <row r="30">
           <cell r="F30">
-            <v>-4.4429308673669858</v>
+            <v>-1.7561341940701449</v>
           </cell>
         </row>
         <row r="31">
           <cell r="F31">
-            <v>0.31440361564157016</v>
+            <v>-4.4429308673669858</v>
           </cell>
         </row>
         <row r="32">
           <cell r="F32">
-            <v>0.30740517099414127</v>
+            <v>0.31440361564157016</v>
           </cell>
         </row>
         <row r="33">
           <cell r="F33">
-            <v>-0.2231862628855196</v>
+            <v>0.30740517099414127</v>
           </cell>
         </row>
         <row r="34">
           <cell r="F34">
-            <v>-0.25088987502548121</v>
+            <v>0</v>
           </cell>
         </row>
         <row r="35">
           <cell r="F35">
-            <v>0.26889626486281615</v>
+            <v>0</v>
           </cell>
         </row>
         <row r="36">
           <cell r="F36">
-            <v>9.3917996106122921</v>
+            <v>0</v>
           </cell>
         </row>
         <row r="37">
           <cell r="F37">
-            <v>-9.5015906680805973</v>
+            <v>0</v>
           </cell>
         </row>
         <row r="38">
           <cell r="F38">
-            <v>-0.18142303694605913</v>
+            <v>0</v>
           </cell>
         </row>
         <row r="39">
           <cell r="F39">
-            <v>0.13648771610556074</v>
+            <v>0</v>
           </cell>
         </row>
         <row r="40">
           <cell r="F40">
-            <v>-0.20706881155446286</v>
+            <v>0</v>
           </cell>
         </row>
         <row r="41">
           <cell r="F41">
-            <v>-7.8961654246647778E-2</v>
+            <v>0</v>
           </cell>
         </row>
         <row r="42">
           <cell r="F42">
-            <v>-7.5836572186949849E-2</v>
+            <v>0</v>
           </cell>
         </row>
         <row r="43">
           <cell r="F43">
-            <v>4.2176296921125678E-2</v>
+            <v>0</v>
           </cell>
         </row>
         <row r="44">
           <cell r="F44">
-            <v>7.9388706956470767E-2</v>
+            <v>0</v>
           </cell>
         </row>
         <row r="45">
           <cell r="F45">
-            <v>-2.3398973640920748</v>
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="46">
+          <cell r="F46">
+            <v>0.18548789111860808</v>
+          </cell>
+        </row>
+        <row r="47">
+          <cell r="F47">
+            <v>0.51400541188391324</v>
+          </cell>
+        </row>
+        <row r="48">
+          <cell r="F48">
+            <v>-8.0967562370338947E-2</v>
+          </cell>
+        </row>
+        <row r="49">
+          <cell r="F49">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="50">
+          <cell r="F50">
+            <v>0.49514967565316609</v>
+          </cell>
+        </row>
+        <row r="51">
+          <cell r="F51">
+            <v>0.11668044144101219</v>
           </cell>
         </row>
       </sheetData>
@@ -2210,221 +2390,281 @@
             <v>6.3510965565147979</v>
           </cell>
         </row>
+        <row r="46">
+          <cell r="G46">
+            <v>2.2629522716470141</v>
+          </cell>
+        </row>
+        <row r="47">
+          <cell r="G47">
+            <v>2.016482769698412</v>
+          </cell>
+        </row>
+        <row r="48">
+          <cell r="G48">
+            <v>1.4574161226658537</v>
+          </cell>
+        </row>
+        <row r="49">
+          <cell r="G49">
+            <v>1.632202922525495</v>
+          </cell>
+        </row>
+        <row r="50">
+          <cell r="G50">
+            <v>1.5997143367255986</v>
+          </cell>
+        </row>
+        <row r="51">
+          <cell r="G51">
+            <v>1.6335261801740624</v>
+          </cell>
+        </row>
       </sheetData>
       <sheetData sheetId="10">
         <row r="3">
           <cell r="F3">
-            <v>3.1525499386229088</v>
+            <v>3.7800428780983282</v>
           </cell>
         </row>
         <row r="4">
           <cell r="F4">
-            <v>3.1763327234226373</v>
+            <v>3.1525499386229088</v>
           </cell>
         </row>
         <row r="5">
           <cell r="F5">
-            <v>3.9503623799089835</v>
+            <v>3.1763327234226373</v>
           </cell>
         </row>
         <row r="6">
           <cell r="F6">
-            <v>3.7257438551099495</v>
+            <v>3.9503623799089835</v>
           </cell>
         </row>
         <row r="7">
           <cell r="F7">
-            <v>1.5169434874273937</v>
+            <v>3.7257438551099495</v>
           </cell>
         </row>
         <row r="8">
           <cell r="F8">
-            <v>6.3191899346355722</v>
+            <v>1.5169434874273937</v>
           </cell>
         </row>
         <row r="9">
           <cell r="F9">
-            <v>4.9952426260704046</v>
+            <v>6.3191899346355722</v>
           </cell>
         </row>
         <row r="10">
           <cell r="F10">
-            <v>4.3763843275032466</v>
+            <v>4.9952426260704046</v>
           </cell>
         </row>
         <row r="11">
           <cell r="F11">
-            <v>2.5845985314003048</v>
+            <v>4.3763843275032466</v>
           </cell>
         </row>
         <row r="12">
           <cell r="F12">
-            <v>2.4991580850422732</v>
+            <v>2.5845985314003048</v>
           </cell>
         </row>
         <row r="13">
           <cell r="F13">
-            <v>2.863083268005032</v>
+            <v>2.4991580850422732</v>
           </cell>
         </row>
         <row r="14">
           <cell r="F14">
-            <v>3.0409758611803195</v>
+            <v>2.863083268005032</v>
           </cell>
         </row>
         <row r="15">
           <cell r="F15">
-            <v>2.9757797405465141</v>
+            <v>3.0409758611803195</v>
           </cell>
         </row>
         <row r="16">
           <cell r="F16">
-            <v>3.2356791238776443</v>
+            <v>2.9757797405465141</v>
           </cell>
         </row>
         <row r="17">
           <cell r="F17">
-            <v>4.0986666268496226</v>
+            <v>3.2356791238776443</v>
           </cell>
         </row>
         <row r="18">
           <cell r="F18">
-            <v>4.4885924066153846</v>
+            <v>4.0986666268496226</v>
           </cell>
         </row>
         <row r="19">
           <cell r="F19">
-            <v>3.4588044463527545</v>
+            <v>4.4885924066153846</v>
           </cell>
         </row>
         <row r="20">
           <cell r="F20">
-            <v>3.173739571998544</v>
+            <v>3.4588044463527545</v>
           </cell>
         </row>
         <row r="21">
           <cell r="F21">
-            <v>2.8478576926366217</v>
+            <v>3.173739571998544</v>
           </cell>
         </row>
         <row r="22">
           <cell r="F22">
-            <v>2.9462501494474767</v>
+            <v>2.8478576926366217</v>
           </cell>
         </row>
         <row r="23">
           <cell r="F23">
-            <v>4.4514838279426527</v>
+            <v>2.9462501494474767</v>
           </cell>
         </row>
         <row r="24">
           <cell r="F24">
-            <v>4.6625822146139289</v>
+            <v>4.4514838279426527</v>
           </cell>
         </row>
         <row r="25">
           <cell r="F25">
-            <v>4.2494714587738072</v>
+            <v>4.6625822146139289</v>
           </cell>
         </row>
         <row r="26">
           <cell r="F26">
-            <v>4.1238163119845206</v>
+            <v>4.2494714587738072</v>
           </cell>
         </row>
         <row r="27">
           <cell r="F27">
-            <v>4.2607077392362775</v>
+            <v>4.1238163119845206</v>
           </cell>
         </row>
         <row r="28">
           <cell r="F28">
-            <v>4.3991938286190901</v>
+            <v>4.2607077392362775</v>
           </cell>
         </row>
         <row r="29">
           <cell r="F29">
-            <v>4.505870629522108</v>
+            <v>4.3991938286190901</v>
           </cell>
         </row>
         <row r="30">
           <cell r="F30">
-            <v>4.0277159248683638</v>
+            <v>4.505870629522108</v>
           </cell>
         </row>
         <row r="31">
           <cell r="F31">
-            <v>4.3160317772225829</v>
+            <v>4.0277159248683638</v>
           </cell>
         </row>
         <row r="32">
           <cell r="F32">
-            <v>4.5081517264093982</v>
+            <v>4.3160317772225829</v>
           </cell>
         </row>
         <row r="33">
           <cell r="F33">
-            <v>4.1847424291034923</v>
+            <v>4.5081517264093982</v>
           </cell>
         </row>
         <row r="34">
           <cell r="F34">
-            <v>5.0099571919150687</v>
+            <v>4.1847424291034923</v>
           </cell>
         </row>
         <row r="35">
           <cell r="F35">
-            <v>4.4942089267957934</v>
+            <v>5.0099571919150687</v>
           </cell>
         </row>
         <row r="36">
           <cell r="F36">
-            <v>4.7729055880045212</v>
+            <v>4.4942089267957934</v>
           </cell>
         </row>
         <row r="37">
           <cell r="F37">
-            <v>5.0674140281775806</v>
+            <v>4.7729055880045212</v>
           </cell>
         </row>
         <row r="38">
           <cell r="F38">
-            <v>6.0096380988377351</v>
+            <v>5.0674140281775806</v>
           </cell>
         </row>
         <row r="39">
           <cell r="F39">
-            <v>4.5638080072793414</v>
+            <v>6.0096380988377351</v>
           </cell>
         </row>
         <row r="40">
           <cell r="F40">
-            <v>3.9796037220618894</v>
+            <v>4.5638080072793414</v>
           </cell>
         </row>
         <row r="41">
           <cell r="F41">
-            <v>3.9789271085229321</v>
+            <v>3.9796037220618894</v>
           </cell>
         </row>
         <row r="42">
           <cell r="F42">
-            <v>1.9907100199070968</v>
+            <v>3.9789271085229321</v>
           </cell>
         </row>
         <row r="43">
           <cell r="F43">
-            <v>6.1682834247153098</v>
+            <v>1.9907100199070968</v>
           </cell>
         </row>
         <row r="44">
           <cell r="F44">
-            <v>3.2747841619529536</v>
+            <v>6.1682834247153098</v>
           </cell>
         </row>
         <row r="45">
           <cell r="F45">
-            <v>1.7706181262426244</v>
+            <v>3.2747841619529621</v>
+          </cell>
+        </row>
+        <row r="46">
+          <cell r="F46">
+            <v>3.7909087747365486</v>
+          </cell>
+        </row>
+        <row r="47">
+          <cell r="F47">
+            <v>3.8179728911568849</v>
+          </cell>
+        </row>
+        <row r="48">
+          <cell r="F48">
+            <v>3.9471686655533547</v>
+          </cell>
+        </row>
+        <row r="49">
+          <cell r="F49">
+            <v>4.4251447477254011</v>
+          </cell>
+        </row>
+        <row r="50">
+          <cell r="F50">
+            <v>3.5707909301910372</v>
+          </cell>
+        </row>
+        <row r="51">
+          <cell r="F51">
+            <v>3.7009577519568282</v>
           </cell>
         </row>
       </sheetData>
@@ -2662,6 +2902,31 @@
         <row r="48">
           <cell r="U48">
             <v>40308</v>
+          </cell>
+        </row>
+        <row r="49">
+          <cell r="U49">
+            <v>86259</v>
+          </cell>
+        </row>
+        <row r="50">
+          <cell r="U50">
+            <v>80933</v>
+          </cell>
+        </row>
+        <row r="51">
+          <cell r="U51">
+            <v>79044</v>
+          </cell>
+        </row>
+        <row r="52">
+          <cell r="U52">
+            <v>72540</v>
+          </cell>
+        </row>
+        <row r="53">
+          <cell r="U53">
+            <v>84015</v>
           </cell>
         </row>
       </sheetData>
@@ -2971,11 +3236,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BC5C344-277E-4945-8E25-AE6A0B860AD5}">
-  <dimension ref="A1:K44"/>
+  <dimension ref="A1:K50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:XFD1"/>
+      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A51" sqref="A51:XFD366"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3053,7 +3318,7 @@
       </c>
       <c r="G2" s="4">
         <f>'[1]Acide CEB2'!F3</f>
-        <v>0.11903433396572316</v>
+        <v>0</v>
       </c>
       <c r="H2" s="4">
         <f>[1]SBS!G3</f>
@@ -3061,7 +3326,7 @@
       </c>
       <c r="I2" s="4">
         <f>[1]ASC!F3</f>
-        <v>3.1525499386229088</v>
+        <v>3.7800428780983282</v>
       </c>
       <c r="J2" s="4"/>
       <c r="K2" s="38"/>
@@ -3092,7 +3357,7 @@
       </c>
       <c r="G3" s="4">
         <f>'[1]Acide CEB2'!F4</f>
-        <v>0.26315248452951973</v>
+        <v>0.11903433396572316</v>
       </c>
       <c r="H3" s="4">
         <f>[1]SBS!G4</f>
@@ -3100,7 +3365,7 @@
       </c>
       <c r="I3" s="4">
         <f>[1]ASC!F4</f>
-        <v>3.1763327234226373</v>
+        <v>3.1525499386229088</v>
       </c>
       <c r="J3" s="4"/>
       <c r="K3" s="38"/>
@@ -3131,7 +3396,7 @@
       </c>
       <c r="G4" s="4">
         <f>'[1]Acide CEB2'!F5</f>
-        <v>0.13483903590087845</v>
+        <v>0.26315248452951973</v>
       </c>
       <c r="H4" s="4">
         <f>[1]SBS!G5</f>
@@ -3139,7 +3404,7 @@
       </c>
       <c r="I4" s="4">
         <f>[1]ASC!F5</f>
-        <v>3.9503623799089835</v>
+        <v>3.1763327234226373</v>
       </c>
       <c r="J4" s="4"/>
       <c r="K4" s="38"/>
@@ -3170,7 +3435,7 @@
       </c>
       <c r="G5" s="4">
         <f>'[1]Acide CEB2'!F6</f>
-        <v>-0.11039241052176448</v>
+        <v>0.13483903590087845</v>
       </c>
       <c r="H5" s="4">
         <f>[1]SBS!G6</f>
@@ -3178,7 +3443,7 @@
       </c>
       <c r="I5" s="4">
         <f>[1]ASC!F6</f>
-        <v>3.7257438551099495</v>
+        <v>3.9503623799089835</v>
       </c>
       <c r="J5" s="4"/>
       <c r="K5" s="38"/>
@@ -3209,7 +3474,7 @@
       </c>
       <c r="G6" s="4">
         <f>'[1]Acide CEB2'!F7</f>
-        <v>-5.4849934008667105E-2</v>
+        <v>-0.11039241052176448</v>
       </c>
       <c r="H6" s="4">
         <f>[1]SBS!G7</f>
@@ -3217,7 +3482,7 @@
       </c>
       <c r="I6" s="4">
         <f>[1]ASC!F7</f>
-        <v>1.5169434874273937</v>
+        <v>3.7257438551099495</v>
       </c>
       <c r="J6" s="4"/>
       <c r="K6" s="38"/>
@@ -3248,7 +3513,7 @@
       </c>
       <c r="G7" s="4">
         <f>'[1]Acide CEB2'!F8</f>
-        <v>0.7858843087618349</v>
+        <v>-5.4849934008667105E-2</v>
       </c>
       <c r="H7" s="4">
         <f>[1]SBS!G8</f>
@@ -3256,7 +3521,7 @@
       </c>
       <c r="I7" s="4">
         <f>[1]ASC!F8</f>
-        <v>6.3191899346355722</v>
+        <v>1.5169434874273937</v>
       </c>
       <c r="J7" s="4"/>
       <c r="K7" s="38"/>
@@ -3287,7 +3552,7 @@
       </c>
       <c r="G8" s="4">
         <f>'[1]Acide CEB2'!F9</f>
-        <v>0.19029495718364889</v>
+        <v>0.7858843087618349</v>
       </c>
       <c r="H8" s="4">
         <f>[1]SBS!G9</f>
@@ -3295,7 +3560,7 @@
       </c>
       <c r="I8" s="4">
         <f>[1]ASC!F9</f>
-        <v>4.9952426260704046</v>
+        <v>6.3191899346355722</v>
       </c>
       <c r="J8" s="4"/>
       <c r="K8" s="38"/>
@@ -3326,7 +3591,7 @@
       </c>
       <c r="G9" s="4">
         <f>'[1]Acide CEB2'!F10</f>
-        <v>0.24440540746961334</v>
+        <v>0.19029495718364889</v>
       </c>
       <c r="H9" s="4">
         <f>[1]SBS!G10</f>
@@ -3334,7 +3599,7 @@
       </c>
       <c r="I9" s="4">
         <f>[1]ASC!F10</f>
-        <v>4.3763843275032466</v>
+        <v>4.9952426260704046</v>
       </c>
       <c r="J9" s="4"/>
       <c r="K9" s="38"/>
@@ -3365,7 +3630,7 @@
       </c>
       <c r="G10" s="4">
         <f>'[1]Acide CEB2'!F11</f>
-        <v>0.32863769405887133</v>
+        <v>0.24440540746961334</v>
       </c>
       <c r="H10" s="4">
         <f>[1]SBS!G11</f>
@@ -3373,7 +3638,7 @@
       </c>
       <c r="I10" s="4">
         <f>[1]ASC!F11</f>
-        <v>2.5845985314003048</v>
+        <v>4.3763843275032466</v>
       </c>
       <c r="J10" s="4"/>
       <c r="K10" s="38"/>
@@ -3404,7 +3669,7 @@
       </c>
       <c r="G11" s="4">
         <f>'[1]Acide CEB2'!F12</f>
-        <v>0.34031088817596311</v>
+        <v>0.32863769405887133</v>
       </c>
       <c r="H11" s="4">
         <f>[1]SBS!G12</f>
@@ -3412,7 +3677,7 @@
       </c>
       <c r="I11" s="4">
         <f>[1]ASC!F12</f>
-        <v>2.4991580850422732</v>
+        <v>2.5845985314003048</v>
       </c>
       <c r="J11" s="4"/>
       <c r="K11" s="38"/>
@@ -3443,7 +3708,7 @@
       </c>
       <c r="G12" s="4">
         <f>'[1]Acide CEB2'!F13</f>
-        <v>0.21813967756229535</v>
+        <v>0.34031088817596311</v>
       </c>
       <c r="H12" s="4">
         <f>[1]SBS!G13</f>
@@ -3451,7 +3716,7 @@
       </c>
       <c r="I12" s="4">
         <f>[1]ASC!F13</f>
-        <v>2.863083268005032</v>
+        <v>2.4991580850422732</v>
       </c>
       <c r="J12" s="4"/>
       <c r="K12" s="38"/>
@@ -3482,7 +3747,7 @@
       </c>
       <c r="G13" s="4">
         <f>'[1]Acide CEB2'!F14</f>
-        <v>0.43982475732323606</v>
+        <v>0.21813967756229535</v>
       </c>
       <c r="H13" s="4">
         <f>[1]SBS!G14</f>
@@ -3490,7 +3755,7 @@
       </c>
       <c r="I13" s="4">
         <f>[1]ASC!F14</f>
-        <v>3.0409758611803195</v>
+        <v>2.863083268005032</v>
       </c>
       <c r="J13" s="4"/>
       <c r="K13" s="38"/>
@@ -3521,7 +3786,7 @@
       </c>
       <c r="G14" s="4">
         <f>'[1]Acide CEB2'!F15</f>
-        <v>0.55202870549271676</v>
+        <v>0.43982475732323606</v>
       </c>
       <c r="H14" s="4">
         <f>[1]SBS!G15</f>
@@ -3529,7 +3794,7 @@
       </c>
       <c r="I14" s="4">
         <f>[1]ASC!F15</f>
-        <v>2.9757797405465141</v>
+        <v>3.0409758611803195</v>
       </c>
       <c r="J14" s="4"/>
       <c r="K14" s="38"/>
@@ -3560,7 +3825,7 @@
       </c>
       <c r="G15" s="4">
         <f>'[1]Acide CEB2'!F16</f>
-        <v>0.64897951658400188</v>
+        <v>0.55202870549271676</v>
       </c>
       <c r="H15" s="4">
         <f>[1]SBS!G16</f>
@@ -3568,7 +3833,7 @@
       </c>
       <c r="I15" s="4">
         <f>[1]ASC!F16</f>
-        <v>3.2356791238776443</v>
+        <v>2.9757797405465141</v>
       </c>
       <c r="J15" s="4"/>
       <c r="K15" s="38"/>
@@ -3599,7 +3864,7 @@
       </c>
       <c r="G16" s="4">
         <f>'[1]Acide CEB2'!F17</f>
-        <v>0.43002403953832707</v>
+        <v>0.64897951658400188</v>
       </c>
       <c r="H16" s="4">
         <f>[1]SBS!G17</f>
@@ -3607,7 +3872,7 @@
       </c>
       <c r="I16" s="4">
         <f>[1]ASC!F17</f>
-        <v>4.0986666268496226</v>
+        <v>3.2356791238776443</v>
       </c>
       <c r="J16" s="4"/>
       <c r="K16" s="38"/>
@@ -3638,7 +3903,7 @@
       </c>
       <c r="G17" s="4">
         <f>'[1]Acide CEB2'!F18</f>
-        <v>0.28026333075449056</v>
+        <v>0.43002403953832707</v>
       </c>
       <c r="H17" s="4">
         <f>[1]SBS!G18</f>
@@ -3646,7 +3911,7 @@
       </c>
       <c r="I17" s="4">
         <f>[1]ASC!F18</f>
-        <v>4.4885924066153846</v>
+        <v>4.0986666268496226</v>
       </c>
       <c r="J17" s="4"/>
       <c r="K17" s="38"/>
@@ -3677,7 +3942,7 @@
       </c>
       <c r="G18" s="4">
         <f>'[1]Acide CEB2'!F19</f>
-        <v>0.76332236057440073</v>
+        <v>0.28026333075449056</v>
       </c>
       <c r="H18" s="4">
         <f>[1]SBS!G19</f>
@@ -3685,7 +3950,7 @@
       </c>
       <c r="I18" s="4">
         <f>[1]ASC!F19</f>
-        <v>3.4588044463527545</v>
+        <v>4.4885924066153846</v>
       </c>
       <c r="J18" s="4"/>
       <c r="K18" s="38"/>
@@ -3716,7 +3981,7 @@
       </c>
       <c r="G19" s="4">
         <f>'[1]Acide CEB2'!F20</f>
-        <v>0.83827026155645723</v>
+        <v>0.76332236057440073</v>
       </c>
       <c r="H19" s="4">
         <f>[1]SBS!G20</f>
@@ -3724,7 +3989,7 @@
       </c>
       <c r="I19" s="4">
         <f>[1]ASC!F20</f>
-        <v>3.173739571998544</v>
+        <v>3.4588044463527545</v>
       </c>
       <c r="J19" s="4"/>
       <c r="K19" s="38"/>
@@ -3755,7 +4020,7 @@
       </c>
       <c r="G20" s="4">
         <f>'[1]Acide CEB2'!F21</f>
-        <v>1.4230736337979941</v>
+        <v>0.83827026155645723</v>
       </c>
       <c r="H20" s="4">
         <f>[1]SBS!G21</f>
@@ -3763,7 +4028,7 @@
       </c>
       <c r="I20" s="4">
         <f>[1]ASC!F21</f>
-        <v>2.8478576926366217</v>
+        <v>3.173739571998544</v>
       </c>
       <c r="J20" s="4"/>
       <c r="K20" s="38"/>
@@ -3794,7 +4059,7 @@
       </c>
       <c r="G21" s="4">
         <f>'[1]Acide CEB2'!F22</f>
-        <v>5.5201625988488559</v>
+        <v>1.4230736337979941</v>
       </c>
       <c r="H21" s="4">
         <f>[1]SBS!G22</f>
@@ -3802,7 +4067,7 @@
       </c>
       <c r="I21" s="4">
         <f>[1]ASC!F22</f>
-        <v>2.9462501494474767</v>
+        <v>2.8478576926366217</v>
       </c>
       <c r="J21" s="4"/>
       <c r="K21" s="38"/>
@@ -3833,7 +4098,7 @@
       </c>
       <c r="G22" s="4">
         <f>'[1]Acide CEB2'!F23</f>
-        <v>2.0273424474824782</v>
+        <v>5.5201625988488559</v>
       </c>
       <c r="H22" s="4">
         <f>[1]SBS!G23</f>
@@ -3841,7 +4106,7 @@
       </c>
       <c r="I22" s="4">
         <f>[1]ASC!F23</f>
-        <v>4.4514838279426527</v>
+        <v>2.9462501494474767</v>
       </c>
       <c r="J22" s="4"/>
       <c r="K22" s="38"/>
@@ -3872,7 +4137,7 @@
       </c>
       <c r="G23" s="4">
         <f>'[1]Acide CEB2'!F24</f>
-        <v>0.38441901672824474</v>
+        <v>2.0273424474824782</v>
       </c>
       <c r="H23" s="4">
         <f>[1]SBS!G24</f>
@@ -3880,7 +4145,7 @@
       </c>
       <c r="I23" s="4">
         <f>[1]ASC!F24</f>
-        <v>4.6625822146139289</v>
+        <v>4.4514838279426527</v>
       </c>
       <c r="J23" s="4"/>
       <c r="K23" s="38"/>
@@ -3911,7 +4176,7 @@
       </c>
       <c r="G24" s="4">
         <f>'[1]Acide CEB2'!F25</f>
-        <v>2.25510923185342</v>
+        <v>0.38441901672824474</v>
       </c>
       <c r="H24" s="4">
         <f>[1]SBS!G25</f>
@@ -3919,7 +4184,7 @@
       </c>
       <c r="I24" s="4">
         <f>[1]ASC!F25</f>
-        <v>4.2494714587738072</v>
+        <v>4.6625822146139289</v>
       </c>
       <c r="J24" s="4"/>
       <c r="K24" s="38"/>
@@ -3950,7 +4215,7 @@
       </c>
       <c r="G25" s="4">
         <f>'[1]Acide CEB2'!F26</f>
-        <v>0.36656144995416207</v>
+        <v>2.25510923185342</v>
       </c>
       <c r="H25" s="4">
         <f>[1]SBS!G26</f>
@@ -3958,7 +4223,7 @@
       </c>
       <c r="I25" s="4">
         <f>[1]ASC!F26</f>
-        <v>4.1238163119845206</v>
+        <v>4.2494714587738072</v>
       </c>
       <c r="J25" s="4"/>
       <c r="K25" s="38"/>
@@ -3989,7 +4254,7 @@
       </c>
       <c r="G26" s="4">
         <f>'[1]Acide CEB2'!F27</f>
-        <v>-1.7462605118446342</v>
+        <v>0.36656144995416207</v>
       </c>
       <c r="H26" s="4">
         <f>[1]SBS!G27</f>
@@ -3997,7 +4262,7 @@
       </c>
       <c r="I26" s="4">
         <f>[1]ASC!F27</f>
-        <v>4.2607077392362775</v>
+        <v>4.1238163119845206</v>
       </c>
       <c r="J26" s="4"/>
       <c r="K26" s="38"/>
@@ -4028,7 +4293,7 @@
       </c>
       <c r="G27" s="4">
         <f>'[1]Acide CEB2'!F28</f>
-        <v>-5.8266731531030649</v>
+        <v>-1.7462605118446342</v>
       </c>
       <c r="H27" s="4">
         <f>[1]SBS!G28</f>
@@ -4036,7 +4301,7 @@
       </c>
       <c r="I27" s="4">
         <f>[1]ASC!F28</f>
-        <v>4.3991938286190901</v>
+        <v>4.2607077392362775</v>
       </c>
       <c r="J27" s="4"/>
       <c r="K27" s="38"/>
@@ -4067,7 +4332,7 @@
       </c>
       <c r="G28" s="4">
         <f>'[1]Acide CEB2'!F29</f>
-        <v>-1.7561341940701449</v>
+        <v>-5.8266731531030649</v>
       </c>
       <c r="H28" s="4">
         <f>[1]SBS!G29</f>
@@ -4075,7 +4340,7 @@
       </c>
       <c r="I28" s="4">
         <f>[1]ASC!F29</f>
-        <v>4.505870629522108</v>
+        <v>4.3991938286190901</v>
       </c>
       <c r="J28" s="4"/>
       <c r="K28" s="38"/>
@@ -4106,7 +4371,7 @@
       </c>
       <c r="G29" s="4">
         <f>'[1]Acide CEB2'!F30</f>
-        <v>-4.4429308673669858</v>
+        <v>-1.7561341940701449</v>
       </c>
       <c r="H29" s="4">
         <f>[1]SBS!G30</f>
@@ -4114,7 +4379,7 @@
       </c>
       <c r="I29" s="4">
         <f>[1]ASC!F30</f>
-        <v>4.0277159248683638</v>
+        <v>4.505870629522108</v>
       </c>
       <c r="J29" s="4"/>
       <c r="K29" s="38"/>
@@ -4145,7 +4410,7 @@
       </c>
       <c r="G30" s="4">
         <f>'[1]Acide CEB2'!F31</f>
-        <v>0.31440361564157016</v>
+        <v>-4.4429308673669858</v>
       </c>
       <c r="H30" s="4">
         <f>[1]SBS!G31</f>
@@ -4153,7 +4418,7 @@
       </c>
       <c r="I30" s="4">
         <f>[1]ASC!F31</f>
-        <v>4.3160317772225829</v>
+        <v>4.0277159248683638</v>
       </c>
       <c r="J30" s="4"/>
       <c r="K30" s="38"/>
@@ -4184,7 +4449,7 @@
       </c>
       <c r="G31" s="4">
         <f>'[1]Acide CEB2'!F32</f>
-        <v>0.30740517099414127</v>
+        <v>0.31440361564157016</v>
       </c>
       <c r="H31" s="4">
         <f>[1]SBS!G32</f>
@@ -4192,7 +4457,7 @@
       </c>
       <c r="I31" s="4">
         <f>[1]ASC!F32</f>
-        <v>4.5081517264093982</v>
+        <v>4.3160317772225829</v>
       </c>
       <c r="J31" s="4"/>
       <c r="K31" s="38"/>
@@ -4223,7 +4488,7 @@
       </c>
       <c r="G32" s="4">
         <f>'[1]Acide CEB2'!F33</f>
-        <v>-0.2231862628855196</v>
+        <v>0.30740517099414127</v>
       </c>
       <c r="H32" s="4">
         <f>[1]SBS!G33</f>
@@ -4231,7 +4496,7 @@
       </c>
       <c r="I32" s="4">
         <f>[1]ASC!F33</f>
-        <v>4.1847424291034923</v>
+        <v>4.5081517264093982</v>
       </c>
       <c r="J32" s="4"/>
       <c r="K32" s="38"/>
@@ -4262,7 +4527,7 @@
       </c>
       <c r="G33" s="4">
         <f>'[1]Acide CEB2'!F34</f>
-        <v>-0.25088987502548121</v>
+        <v>0</v>
       </c>
       <c r="H33" s="4">
         <f>[1]SBS!G34</f>
@@ -4270,7 +4535,7 @@
       </c>
       <c r="I33" s="4">
         <f>[1]ASC!F34</f>
-        <v>5.0099571919150687</v>
+        <v>4.1847424291034923</v>
       </c>
       <c r="J33" s="4"/>
       <c r="K33" s="38"/>
@@ -4301,7 +4566,7 @@
       </c>
       <c r="G34" s="4">
         <f>'[1]Acide CEB2'!F35</f>
-        <v>0.26889626486281615</v>
+        <v>0</v>
       </c>
       <c r="H34" s="4">
         <f>[1]SBS!G35</f>
@@ -4309,7 +4574,7 @@
       </c>
       <c r="I34" s="4">
         <f>[1]ASC!F35</f>
-        <v>4.4942089267957934</v>
+        <v>5.0099571919150687</v>
       </c>
       <c r="J34" s="4"/>
       <c r="K34" s="38"/>
@@ -4340,7 +4605,7 @@
       </c>
       <c r="G35" s="4">
         <f>'[1]Acide CEB2'!F36</f>
-        <v>9.3917996106122921</v>
+        <v>0</v>
       </c>
       <c r="H35" s="4">
         <f>[1]SBS!G36</f>
@@ -4348,7 +4613,7 @@
       </c>
       <c r="I35" s="4">
         <f>[1]ASC!F36</f>
-        <v>4.7729055880045212</v>
+        <v>4.4942089267957934</v>
       </c>
       <c r="J35" s="4"/>
       <c r="K35" s="38"/>
@@ -4379,7 +4644,7 @@
       </c>
       <c r="G36" s="4">
         <f>'[1]Acide CEB2'!F37</f>
-        <v>-9.5015906680805973</v>
+        <v>0</v>
       </c>
       <c r="H36" s="4">
         <f>[1]SBS!G37</f>
@@ -4387,7 +4652,7 @@
       </c>
       <c r="I36" s="4">
         <f>[1]ASC!F37</f>
-        <v>5.0674140281775806</v>
+        <v>4.7729055880045212</v>
       </c>
       <c r="J36" s="4"/>
       <c r="K36" s="38"/>
@@ -4418,7 +4683,7 @@
       </c>
       <c r="G37" s="4">
         <f>'[1]Acide CEB2'!F38</f>
-        <v>-0.18142303694605913</v>
+        <v>0</v>
       </c>
       <c r="H37" s="4">
         <f>[1]SBS!G38</f>
@@ -4426,7 +4691,7 @@
       </c>
       <c r="I37" s="4">
         <f>[1]ASC!F38</f>
-        <v>6.0096380988377351</v>
+        <v>5.0674140281775806</v>
       </c>
       <c r="J37" s="4"/>
       <c r="K37" s="38"/>
@@ -4457,7 +4722,7 @@
       </c>
       <c r="G38" s="4">
         <f>'[1]Acide CEB2'!F39</f>
-        <v>0.13648771610556074</v>
+        <v>0</v>
       </c>
       <c r="H38" s="4">
         <f>[1]SBS!G39</f>
@@ -4465,7 +4730,7 @@
       </c>
       <c r="I38" s="4">
         <f>[1]ASC!F39</f>
-        <v>4.5638080072793414</v>
+        <v>6.0096380988377351</v>
       </c>
       <c r="J38" s="4"/>
       <c r="K38" s="38"/>
@@ -4496,7 +4761,7 @@
       </c>
       <c r="G39" s="4">
         <f>'[1]Acide CEB2'!F40</f>
-        <v>-0.20706881155446286</v>
+        <v>0</v>
       </c>
       <c r="H39" s="4">
         <f>[1]SBS!G40</f>
@@ -4504,7 +4769,7 @@
       </c>
       <c r="I39" s="4">
         <f>[1]ASC!F40</f>
-        <v>3.9796037220618894</v>
+        <v>4.5638080072793414</v>
       </c>
       <c r="J39" s="4"/>
       <c r="K39" s="38"/>
@@ -4535,7 +4800,7 @@
       </c>
       <c r="G40" s="4">
         <f>'[1]Acide CEB2'!F41</f>
-        <v>-7.8961654246647778E-2</v>
+        <v>0</v>
       </c>
       <c r="H40" s="4">
         <f>[1]SBS!G41</f>
@@ -4543,7 +4808,7 @@
       </c>
       <c r="I40" s="4">
         <f>[1]ASC!F41</f>
-        <v>3.9789271085229321</v>
+        <v>3.9796037220618894</v>
       </c>
       <c r="J40" s="4"/>
       <c r="K40" s="38"/>
@@ -4574,7 +4839,7 @@
       </c>
       <c r="G41" s="4">
         <f>'[1]Acide CEB2'!F42</f>
-        <v>-7.5836572186949849E-2</v>
+        <v>0</v>
       </c>
       <c r="H41" s="4">
         <f>[1]SBS!G42</f>
@@ -4582,7 +4847,7 @@
       </c>
       <c r="I41" s="4">
         <f>[1]ASC!F42</f>
-        <v>1.9907100199070968</v>
+        <v>3.9789271085229321</v>
       </c>
       <c r="J41" s="4"/>
       <c r="K41" s="38"/>
@@ -4613,7 +4878,7 @@
       </c>
       <c r="G42" s="4">
         <f>'[1]Acide CEB2'!F43</f>
-        <v>4.2176296921125678E-2</v>
+        <v>0</v>
       </c>
       <c r="H42" s="4">
         <f>[1]SBS!G43</f>
@@ -4621,7 +4886,7 @@
       </c>
       <c r="I42" s="4">
         <f>[1]ASC!F43</f>
-        <v>6.1682834247153098</v>
+        <v>1.9907100199070968</v>
       </c>
       <c r="J42" s="4"/>
       <c r="K42" s="38"/>
@@ -4652,7 +4917,7 @@
       </c>
       <c r="G43" s="4">
         <f>'[1]Acide CEB2'!F44</f>
-        <v>7.9388706956470767E-2</v>
+        <v>0</v>
       </c>
       <c r="H43" s="4">
         <f>[1]SBS!G44</f>
@@ -4660,7 +4925,7 @@
       </c>
       <c r="I43" s="4">
         <f>[1]ASC!F44</f>
-        <v>3.2747841619529536</v>
+        <v>6.1682834247153098</v>
       </c>
       <c r="J43" s="4"/>
       <c r="K43" s="38"/>
@@ -4691,7 +4956,7 @@
       </c>
       <c r="G44" s="4">
         <f>'[1]Acide CEB2'!F45</f>
-        <v>-2.3398973640920748</v>
+        <v>0</v>
       </c>
       <c r="H44" s="4">
         <f>[1]SBS!G45</f>
@@ -4699,10 +4964,244 @@
       </c>
       <c r="I44" s="4">
         <f>[1]ASC!F45</f>
-        <v>1.7706181262426244</v>
+        <v>3.2747841619529621</v>
       </c>
       <c r="J44" s="4"/>
       <c r="K44" s="38"/>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A45" s="23">
+        <v>45701</v>
+      </c>
+      <c r="B45" s="4">
+        <f>'[1]NaOCl Pré'!F46</f>
+        <v>2.0032692240809507</v>
+      </c>
+      <c r="C45" s="4">
+        <f>[1]Acide!F46</f>
+        <v>0</v>
+      </c>
+      <c r="D45" s="4">
+        <f>[1]FeCl3!F46</f>
+        <v>0</v>
+      </c>
+      <c r="E45" s="4">
+        <f>'[1]NaOCl 2 CEB 1'!I46</f>
+        <v>11.94542018803835</v>
+      </c>
+      <c r="F45" s="4">
+        <f>'[1]Soude CEB 1'!F46</f>
+        <v>0</v>
+      </c>
+      <c r="G45" s="4">
+        <f>'[1]Acide CEB2'!F46</f>
+        <v>0.18548789111860808</v>
+      </c>
+      <c r="H45" s="4">
+        <f>[1]SBS!G46</f>
+        <v>2.2629522716470141</v>
+      </c>
+      <c r="I45" s="4">
+        <f>[1]ASC!F46</f>
+        <v>3.7909087747365486</v>
+      </c>
+      <c r="J45" s="4"/>
+      <c r="K45" s="38"/>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A46" s="23">
+        <v>45702</v>
+      </c>
+      <c r="B46" s="4">
+        <f>'[1]NaOCl Pré'!F47</f>
+        <v>2.4514104259078868</v>
+      </c>
+      <c r="C46" s="4">
+        <f>[1]Acide!F47</f>
+        <v>0</v>
+      </c>
+      <c r="D46" s="4">
+        <f>[1]FeCl3!F47</f>
+        <v>0</v>
+      </c>
+      <c r="E46" s="4">
+        <f>'[1]NaOCl 2 CEB 1'!I47</f>
+        <v>8.1450088344680189</v>
+      </c>
+      <c r="F46" s="4">
+        <f>'[1]Soude CEB 1'!F47</f>
+        <v>0</v>
+      </c>
+      <c r="G46" s="4">
+        <f>'[1]Acide CEB2'!F47</f>
+        <v>0.51400541188391324</v>
+      </c>
+      <c r="H46" s="4">
+        <f>[1]SBS!G47</f>
+        <v>2.016482769698412</v>
+      </c>
+      <c r="I46" s="4">
+        <f>[1]ASC!F47</f>
+        <v>3.8179728911568849</v>
+      </c>
+      <c r="J46" s="4"/>
+      <c r="K46" s="38"/>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A47" s="23">
+        <v>45703</v>
+      </c>
+      <c r="B47" s="4">
+        <f>'[1]NaOCl Pré'!F48</f>
+        <v>2.6314457770355548</v>
+      </c>
+      <c r="C47" s="4">
+        <f>[1]Acide!F48</f>
+        <v>0</v>
+      </c>
+      <c r="D47" s="4">
+        <f>[1]FeCl3!F48</f>
+        <v>0</v>
+      </c>
+      <c r="E47" s="4">
+        <f>'[1]NaOCl 2 CEB 1'!I48</f>
+        <v>10.201912858661021</v>
+      </c>
+      <c r="F47" s="4">
+        <f>'[1]Soude CEB 1'!F48</f>
+        <v>0</v>
+      </c>
+      <c r="G47" s="4">
+        <f>'[1]Acide CEB2'!F48</f>
+        <v>-8.0967562370338947E-2</v>
+      </c>
+      <c r="H47" s="4">
+        <f>[1]SBS!G48</f>
+        <v>1.4574161226658537</v>
+      </c>
+      <c r="I47" s="4">
+        <f>[1]ASC!F48</f>
+        <v>3.9471686655533547</v>
+      </c>
+      <c r="J47" s="4"/>
+      <c r="K47" s="38"/>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A48" s="23">
+        <v>45704</v>
+      </c>
+      <c r="B48" s="4">
+        <f>'[1]NaOCl Pré'!F49</f>
+        <v>2.7791563275434124</v>
+      </c>
+      <c r="C48" s="4">
+        <f>[1]Acide!F49</f>
+        <v>0</v>
+      </c>
+      <c r="D48" s="4">
+        <f>[1]FeCl3!F49</f>
+        <v>0</v>
+      </c>
+      <c r="E48" s="4">
+        <f>'[1]NaOCl 2 CEB 1'!I49</f>
+        <v>7.8081058726219492</v>
+      </c>
+      <c r="F48" s="4">
+        <f>'[1]Soude CEB 1'!F49</f>
+        <v>0</v>
+      </c>
+      <c r="G48" s="4">
+        <f>'[1]Acide CEB2'!F49</f>
+        <v>0</v>
+      </c>
+      <c r="H48" s="4">
+        <f>[1]SBS!G49</f>
+        <v>1.632202922525495</v>
+      </c>
+      <c r="I48" s="4">
+        <f>[1]ASC!F49</f>
+        <v>4.4251447477254011</v>
+      </c>
+      <c r="J48" s="4"/>
+      <c r="K48" s="38"/>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A49" s="23">
+        <v>45705</v>
+      </c>
+      <c r="B49" s="4">
+        <f>'[1]NaOCl Pré'!F50</f>
+        <v>2.3995715050883875</v>
+      </c>
+      <c r="C49" s="4">
+        <f>[1]Acide!F50</f>
+        <v>0</v>
+      </c>
+      <c r="D49" s="4">
+        <f>[1]FeCl3!F50</f>
+        <v>0</v>
+      </c>
+      <c r="E49" s="4">
+        <f>'[1]NaOCl 2 CEB 1'!I50</f>
+        <v>7.3510682616199858</v>
+      </c>
+      <c r="F49" s="4">
+        <f>'[1]Soude CEB 1'!F50</f>
+        <v>0</v>
+      </c>
+      <c r="G49" s="4">
+        <f>'[1]Acide CEB2'!F50</f>
+        <v>0.49514967565316609</v>
+      </c>
+      <c r="H49" s="4">
+        <f>[1]SBS!G50</f>
+        <v>1.5997143367255986</v>
+      </c>
+      <c r="I49" s="4">
+        <f>[1]ASC!F50</f>
+        <v>3.5707909301910372</v>
+      </c>
+      <c r="J49" s="4"/>
+      <c r="K49" s="38"/>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A50" s="23">
+        <v>45706</v>
+      </c>
+      <c r="B50" s="4">
+        <f>'[1]NaOCl Pré'!F51</f>
+        <v>2.605863192182404</v>
+      </c>
+      <c r="C50" s="4">
+        <f>[1]Acide!F51</f>
+        <v>0</v>
+      </c>
+      <c r="D50" s="4">
+        <f>[1]FeCl3!F51</f>
+        <v>0</v>
+      </c>
+      <c r="E50" s="4">
+        <f>'[1]NaOCl 2 CEB 1'!I51</f>
+        <v>9.3344353152802615</v>
+      </c>
+      <c r="F50" s="4">
+        <f>'[1]Soude CEB 1'!F51</f>
+        <v>0</v>
+      </c>
+      <c r="G50" s="4">
+        <f>'[1]Acide CEB2'!F51</f>
+        <v>0.11668044144101219</v>
+      </c>
+      <c r="H50" s="4">
+        <f>[1]SBS!G51</f>
+        <v>1.6335261801740624</v>
+      </c>
+      <c r="I50" s="4">
+        <f>[1]ASC!F51</f>
+        <v>3.7009577519568282</v>
+      </c>
+      <c r="J50" s="4"/>
+      <c r="K50" s="38"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -4712,10 +5211,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07CB649B-6F18-453D-B029-557EF373D866}">
-  <dimension ref="A1:E44"/>
+  <dimension ref="A1:E49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A45" sqref="A45:XFD366"/>
+      <selection activeCell="A50" sqref="A50:XFD366"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5370,7 +5869,7 @@
         <v>16796.900000000001</v>
       </c>
       <c r="C33" s="35">
-        <f t="shared" ref="C33:C44" si="2">(B33-B32)*1000</f>
+        <f t="shared" ref="C33:C49" si="2">(B33-B32)*1000</f>
         <v>226700.00000000073</v>
       </c>
       <c r="D33" s="36">
@@ -5378,7 +5877,7 @@
         <v>71689</v>
       </c>
       <c r="E33" s="37">
-        <f t="shared" ref="E33:E44" si="3">C33/D33</f>
+        <f t="shared" ref="E33:E49" si="3">C33/D33</f>
         <v>3.1622703622592132</v>
       </c>
     </row>
@@ -5600,6 +6099,106 @@
       <c r="E44" s="33">
         <f t="shared" si="3"/>
         <v>3.0986404683934072</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A45" s="21">
+        <v>45701</v>
+      </c>
+      <c r="B45" s="4">
+        <v>19299.7</v>
+      </c>
+      <c r="C45" s="31">
+        <f t="shared" si="2"/>
+        <v>252200.00000000073</v>
+      </c>
+      <c r="D45" s="32">
+        <f>[2]Sheet1!U49</f>
+        <v>86259</v>
+      </c>
+      <c r="E45" s="33">
+        <f t="shared" si="3"/>
+        <v>2.9237528837570657</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A46" s="21">
+        <v>45702</v>
+      </c>
+      <c r="B46" s="4">
+        <v>19539.599999999999</v>
+      </c>
+      <c r="C46" s="31">
+        <f t="shared" si="2"/>
+        <v>239899.99999999782</v>
+      </c>
+      <c r="D46" s="32">
+        <f>[2]Sheet1!U50</f>
+        <v>80933</v>
+      </c>
+      <c r="E46" s="33">
+        <f t="shared" si="3"/>
+        <v>2.9641802478593133</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A47" s="21">
+        <v>45703</v>
+      </c>
+      <c r="B47" s="4">
+        <v>19772.099999999999</v>
+      </c>
+      <c r="C47" s="31">
+        <f t="shared" si="2"/>
+        <v>232500</v>
+      </c>
+      <c r="D47" s="32">
+        <f>[2]Sheet1!U51</f>
+        <v>79044</v>
+      </c>
+      <c r="E47" s="33">
+        <f t="shared" si="3"/>
+        <v>2.9413997267344771</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A48" s="21">
+        <v>45704</v>
+      </c>
+      <c r="B48" s="4">
+        <v>19986.5</v>
+      </c>
+      <c r="C48" s="31">
+        <f t="shared" si="2"/>
+        <v>214400.00000000146</v>
+      </c>
+      <c r="D48" s="32">
+        <f>[2]Sheet1!U52</f>
+        <v>72540</v>
+      </c>
+      <c r="E48" s="33">
+        <f t="shared" si="3"/>
+        <v>2.9556106975462013</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A49" s="21">
+        <v>45705</v>
+      </c>
+      <c r="B49" s="4">
+        <v>20235.3</v>
+      </c>
+      <c r="C49" s="31">
+        <f t="shared" si="2"/>
+        <v>248799.99999999927</v>
+      </c>
+      <c r="D49" s="32">
+        <f>[2]Sheet1!U53</f>
+        <v>84015</v>
+      </c>
+      <c r="E49" s="33">
+        <f t="shared" si="3"/>
+        <v>2.9613759447717585</v>
       </c>
     </row>
   </sheetData>

--- a/Consommation spécifique.xlsx
+++ b/Consommation spécifique.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\Projects\wave2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B36DD3BA-57F9-4A65-94EF-7173A2EE3032}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{569E1697-04E2-4BAC-9EC9-269C16850899}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="30612" yWindow="-108" windowWidth="30936" windowHeight="16896" activeTab="1" xr2:uid="{4E830341-EBCA-4A95-9BBE-9CDD49815F8C}"/>
   </bookViews>
@@ -937,6 +937,16 @@
             <v>2.605863192182404</v>
           </cell>
         </row>
+        <row r="52">
+          <cell r="F52">
+            <v>2.4198884582663829</v>
+          </cell>
+        </row>
+        <row r="53">
+          <cell r="F53">
+            <v>2.6478802018089196</v>
+          </cell>
+        </row>
       </sheetData>
       <sheetData sheetId="3">
         <row r="3">
@@ -1184,6 +1194,16 @@
             <v>0</v>
           </cell>
         </row>
+        <row r="52">
+          <cell r="F52">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="53">
+          <cell r="F53">
+            <v>0</v>
+          </cell>
+        </row>
       </sheetData>
       <sheetData sheetId="4">
         <row r="3">
@@ -1428,6 +1448,16 @@
         </row>
         <row r="51">
           <cell r="F51">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="52">
+          <cell r="F52">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="53">
+          <cell r="F53">
             <v>0</v>
           </cell>
         </row>
@@ -1679,6 +1709,16 @@
             <v>9.3344353152802615</v>
           </cell>
         </row>
+        <row r="52">
+          <cell r="I52">
+            <v>7.5621514320824348</v>
+          </cell>
+        </row>
+        <row r="53">
+          <cell r="I53">
+            <v>9.7088940732993834</v>
+          </cell>
+        </row>
       </sheetData>
       <sheetData sheetId="7">
         <row r="3">
@@ -1926,6 +1966,16 @@
             <v>0</v>
           </cell>
         </row>
+        <row r="52">
+          <cell r="F52">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="53">
+          <cell r="F53">
+            <v>0</v>
+          </cell>
+        </row>
       </sheetData>
       <sheetData sheetId="8">
         <row r="3">
@@ -2171,6 +2221,16 @@
         <row r="51">
           <cell r="F51">
             <v>0.11668044144101219</v>
+          </cell>
+        </row>
+        <row r="52">
+          <cell r="F52">
+            <v>0.11343227148120294</v>
+          </cell>
+        </row>
+        <row r="53">
+          <cell r="F53">
+            <v>0.33098502522614043</v>
           </cell>
         </row>
       </sheetData>
@@ -2420,6 +2480,16 @@
             <v>1.6335261801740624</v>
           </cell>
         </row>
+        <row r="52">
+          <cell r="G52">
+            <v>0.83183665752905933</v>
+          </cell>
+        </row>
+        <row r="53">
+          <cell r="G53">
+            <v>1.2871639869904508</v>
+          </cell>
+        </row>
       </sheetData>
       <sheetData sheetId="10">
         <row r="3">
@@ -2665,6 +2735,16 @@
         <row r="51">
           <cell r="F51">
             <v>3.7009577519568282</v>
+          </cell>
+        </row>
+        <row r="52">
+          <cell r="F52">
+            <v>3.6333774458833537</v>
+          </cell>
+        </row>
+        <row r="53">
+          <cell r="F53">
+            <v>3.7580591405881778</v>
           </cell>
         </row>
       </sheetData>
@@ -2927,6 +3007,21 @@
         <row r="53">
           <cell r="U53">
             <v>84015</v>
+          </cell>
+        </row>
+        <row r="54">
+          <cell r="U54">
+            <v>82276</v>
+          </cell>
+        </row>
+        <row r="55">
+          <cell r="U55">
+            <v>84632</v>
+          </cell>
+        </row>
+        <row r="56">
+          <cell r="U56">
+            <v>87013</v>
           </cell>
         </row>
       </sheetData>
@@ -3236,11 +3331,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BC5C344-277E-4945-8E25-AE6A0B860AD5}">
-  <dimension ref="A1:K50"/>
+  <dimension ref="A1:K52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A51" sqref="A51:XFD366"/>
+      <pane ySplit="1" topLeftCell="A25" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C56" sqref="C56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5203,6 +5298,84 @@
       <c r="J50" s="4"/>
       <c r="K50" s="38"/>
     </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A51" s="23">
+        <v>45707</v>
+      </c>
+      <c r="B51" s="4">
+        <f>'[1]NaOCl Pré'!F52</f>
+        <v>2.4198884582663829</v>
+      </c>
+      <c r="C51" s="4">
+        <f>[1]Acide!F52</f>
+        <v>0</v>
+      </c>
+      <c r="D51" s="4">
+        <f>[1]FeCl3!F52</f>
+        <v>0</v>
+      </c>
+      <c r="E51" s="4">
+        <f>'[1]NaOCl 2 CEB 1'!I52</f>
+        <v>7.5621514320824348</v>
+      </c>
+      <c r="F51" s="4">
+        <f>'[1]Soude CEB 1'!F52</f>
+        <v>0</v>
+      </c>
+      <c r="G51" s="4">
+        <f>'[1]Acide CEB2'!F52</f>
+        <v>0.11343227148120294</v>
+      </c>
+      <c r="H51" s="4">
+        <f>[1]SBS!G52</f>
+        <v>0.83183665752905933</v>
+      </c>
+      <c r="I51" s="4">
+        <f>[1]ASC!F52</f>
+        <v>3.6333774458833537</v>
+      </c>
+      <c r="J51" s="4"/>
+      <c r="K51" s="38"/>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A52" s="23">
+        <v>45708</v>
+      </c>
+      <c r="B52" s="4">
+        <f>'[1]NaOCl Pré'!F53</f>
+        <v>2.6478802018089196</v>
+      </c>
+      <c r="C52" s="4">
+        <f>[1]Acide!F53</f>
+        <v>0</v>
+      </c>
+      <c r="D52" s="4">
+        <f>[1]FeCl3!F53</f>
+        <v>0</v>
+      </c>
+      <c r="E52" s="4">
+        <f>'[1]NaOCl 2 CEB 1'!I53</f>
+        <v>9.7088940732993834</v>
+      </c>
+      <c r="F52" s="4">
+        <f>'[1]Soude CEB 1'!F53</f>
+        <v>0</v>
+      </c>
+      <c r="G52" s="4">
+        <f>'[1]Acide CEB2'!F53</f>
+        <v>0.33098502522614043</v>
+      </c>
+      <c r="H52" s="4">
+        <f>[1]SBS!G53</f>
+        <v>1.2871639869904508</v>
+      </c>
+      <c r="I52" s="4">
+        <f>[1]ASC!F53</f>
+        <v>3.7580591405881778</v>
+      </c>
+      <c r="J52" s="4"/>
+      <c r="K52" s="38"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5211,10 +5384,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07CB649B-6F18-453D-B029-557EF373D866}">
-  <dimension ref="A1:E49"/>
+  <dimension ref="A1:E52"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A50" sqref="A50:XFD366"/>
+    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="A53" sqref="A53:XFD366"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5869,7 +6042,7 @@
         <v>16796.900000000001</v>
       </c>
       <c r="C33" s="35">
-        <f t="shared" ref="C33:C49" si="2">(B33-B32)*1000</f>
+        <f t="shared" ref="C33:C52" si="2">(B33-B32)*1000</f>
         <v>226700.00000000073</v>
       </c>
       <c r="D33" s="36">
@@ -5877,7 +6050,7 @@
         <v>71689</v>
       </c>
       <c r="E33" s="37">
-        <f t="shared" ref="E33:E49" si="3">C33/D33</f>
+        <f t="shared" ref="E33:E52" si="3">C33/D33</f>
         <v>3.1622703622592132</v>
       </c>
     </row>
@@ -6089,7 +6262,7 @@
         <v>19047.5</v>
       </c>
       <c r="C44" s="31">
-        <f t="shared" si="2"/>
+        <f>(B44-B43)*1000</f>
         <v>124900.00000000146</v>
       </c>
       <c r="D44" s="32">
@@ -6199,6 +6372,66 @@
       <c r="E49" s="33">
         <f t="shared" si="3"/>
         <v>2.9613759447717585</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A50" s="21">
+        <v>45706</v>
+      </c>
+      <c r="B50" s="4">
+        <v>20486.3</v>
+      </c>
+      <c r="C50" s="31">
+        <f t="shared" si="2"/>
+        <v>251000</v>
+      </c>
+      <c r="D50" s="32">
+        <f>[2]Sheet1!U54</f>
+        <v>82276</v>
+      </c>
+      <c r="E50" s="33">
+        <f t="shared" si="3"/>
+        <v>3.0507073751762359</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A51" s="21">
+        <v>45707</v>
+      </c>
+      <c r="B51" s="4">
+        <v>20737.599999999999</v>
+      </c>
+      <c r="C51" s="31">
+        <f t="shared" si="2"/>
+        <v>251299.99999999927</v>
+      </c>
+      <c r="D51" s="32">
+        <f>[2]Sheet1!U55</f>
+        <v>84632</v>
+      </c>
+      <c r="E51" s="33">
+        <f t="shared" si="3"/>
+        <v>2.9693260232536072</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A52" s="21">
+        <v>45708</v>
+      </c>
+      <c r="B52" s="4">
+        <v>20990.2</v>
+      </c>
+      <c r="C52" s="31">
+        <f t="shared" si="2"/>
+        <v>252600.00000000218</v>
+      </c>
+      <c r="D52" s="32">
+        <f>[2]Sheet1!U56</f>
+        <v>87013</v>
+      </c>
+      <c r="E52" s="33">
+        <f t="shared" si="3"/>
+        <v>2.9030144920874141</v>
       </c>
     </row>
   </sheetData>

--- a/Consommation spécifique.xlsx
+++ b/Consommation spécifique.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\Projects\wave2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{569E1697-04E2-4BAC-9EC9-269C16850899}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F8E49C89-BAA0-44B7-9872-00696D61B08E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30612" yWindow="-108" windowWidth="30936" windowHeight="16896" activeTab="1" xr2:uid="{4E830341-EBCA-4A95-9BBE-9CDD49815F8C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" activeTab="1" xr2:uid="{4E830341-EBCA-4A95-9BBE-9CDD49815F8C}"/>
   </bookViews>
   <sheets>
     <sheet name="Produits chimiques" sheetId="1" r:id="rId1"/>
@@ -121,7 +121,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="32">
+  <borders count="39">
     <border>
       <left/>
       <right/>
@@ -296,6 +296,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
@@ -536,11 +551,87 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -572,7 +663,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
@@ -581,43 +672,43 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -627,9 +718,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
@@ -653,7 +741,31 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -691,6 +803,7 @@
       <sheetName val="Acide CEB2"/>
       <sheetName val="SBS"/>
       <sheetName val="ASC"/>
+      <sheetName val="NaOCl Trait"/>
       <sheetName val="Dépotage"/>
     </sheetNames>
     <sheetDataSet>
@@ -947,6 +1060,61 @@
             <v>2.6478802018089196</v>
           </cell>
         </row>
+        <row r="54">
+          <cell r="F54">
+            <v>3.557294677397842</v>
+          </cell>
+        </row>
+        <row r="55">
+          <cell r="F55">
+            <v>2.6387672009483136</v>
+          </cell>
+        </row>
+        <row r="56">
+          <cell r="F56">
+            <v>1.8930110707343712</v>
+          </cell>
+        </row>
+        <row r="57">
+          <cell r="F57">
+            <v>2.2053522201959388</v>
+          </cell>
+        </row>
+        <row r="58">
+          <cell r="F58">
+            <v>1.9352788626136568</v>
+          </cell>
+        </row>
+        <row r="59">
+          <cell r="F59">
+            <v>2.1416051415520356</v>
+          </cell>
+        </row>
+        <row r="60">
+          <cell r="F60">
+            <v>2.2074118096531645</v>
+          </cell>
+        </row>
+        <row r="61">
+          <cell r="F61">
+            <v>2.1022336232246852</v>
+          </cell>
+        </row>
+        <row r="62">
+          <cell r="F62">
+            <v>2.2259271936313847</v>
+          </cell>
+        </row>
+        <row r="63">
+          <cell r="F63">
+            <v>2.2444081578976069</v>
+          </cell>
+        </row>
+        <row r="64">
+          <cell r="F64">
+            <v>-1.1001264830232989</v>
+          </cell>
+        </row>
       </sheetData>
       <sheetData sheetId="3">
         <row r="3">
@@ -1204,6 +1372,61 @@
             <v>0</v>
           </cell>
         </row>
+        <row r="54">
+          <cell r="F54">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="55">
+          <cell r="F55">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="56">
+          <cell r="F56">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="57">
+          <cell r="F57">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="58">
+          <cell r="F58">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="59">
+          <cell r="F59">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="60">
+          <cell r="F60">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="61">
+          <cell r="F61">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="62">
+          <cell r="F62">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="63">
+          <cell r="F63">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="64">
+          <cell r="F64">
+            <v>0</v>
+          </cell>
+        </row>
       </sheetData>
       <sheetData sheetId="4">
         <row r="3">
@@ -1458,6 +1681,61 @@
         </row>
         <row r="53">
           <cell r="F53">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="54">
+          <cell r="F54">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="55">
+          <cell r="F55">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="56">
+          <cell r="F56">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="57">
+          <cell r="F57">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="58">
+          <cell r="F58">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="59">
+          <cell r="F59">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="60">
+          <cell r="F60">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="61">
+          <cell r="F61">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="62">
+          <cell r="F62">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="63">
+          <cell r="F63">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="64">
+          <cell r="F64">
             <v>0</v>
           </cell>
         </row>
@@ -1719,6 +1997,61 @@
             <v>9.7088940732993834</v>
           </cell>
         </row>
+        <row r="54">
+          <cell r="I54">
+            <v>7.8971941838232027</v>
+          </cell>
+        </row>
+        <row r="55">
+          <cell r="I55">
+            <v>7.9987630778745666</v>
+          </cell>
+        </row>
+        <row r="56">
+          <cell r="I56">
+            <v>5.2154386642681922</v>
+          </cell>
+        </row>
+        <row r="57">
+          <cell r="I57">
+            <v>6.6160566605878355</v>
+          </cell>
+        </row>
+        <row r="58">
+          <cell r="I58">
+            <v>8.0363274803448039</v>
+          </cell>
+        </row>
+        <row r="59">
+          <cell r="I59">
+            <v>6.8667339459287371</v>
+          </cell>
+        </row>
+        <row r="60">
+          <cell r="I60">
+            <v>5.9769919769070778</v>
+          </cell>
+        </row>
+        <row r="61">
+          <cell r="I61">
+            <v>6.7738638970572742</v>
+          </cell>
+        </row>
+        <row r="62">
+          <cell r="I62">
+            <v>6.9957711799843256</v>
+          </cell>
+        </row>
+        <row r="63">
+          <cell r="I63">
+            <v>6.7332244736928706</v>
+          </cell>
+        </row>
+        <row r="64">
+          <cell r="I64">
+            <v>-1.6391569374559181</v>
+          </cell>
+        </row>
       </sheetData>
       <sheetData sheetId="7">
         <row r="3">
@@ -1976,6 +2309,61 @@
             <v>0</v>
           </cell>
         </row>
+        <row r="54">
+          <cell r="F54">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="55">
+          <cell r="F55">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="56">
+          <cell r="F56">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="57">
+          <cell r="F57">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="58">
+          <cell r="F58">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="59">
+          <cell r="F59">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="60">
+          <cell r="F60">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="61">
+          <cell r="F61">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="62">
+          <cell r="F62">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="63">
+          <cell r="F63">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="64">
+          <cell r="F64">
+            <v>0</v>
+          </cell>
+        </row>
       </sheetData>
       <sheetData sheetId="8">
         <row r="3">
@@ -2231,6 +2619,61 @@
         <row r="53">
           <cell r="F53">
             <v>0.33098502522614043</v>
+          </cell>
+        </row>
+        <row r="54">
+          <cell r="F54">
+            <v>0.14229178709589788</v>
+          </cell>
+        </row>
+        <row r="55">
+          <cell r="F55">
+            <v>0.12369221254446115</v>
+          </cell>
+        </row>
+        <row r="56">
+          <cell r="F56">
+            <v>0.42496166894036869</v>
+          </cell>
+        </row>
+        <row r="57">
+          <cell r="F57">
+            <v>3.3928495695318375E-2</v>
+          </cell>
+        </row>
+        <row r="58">
+          <cell r="F58">
+            <v>0.26241069323577509</v>
+          </cell>
+        </row>
+        <row r="59">
+          <cell r="F59">
+            <v>0.78185584532850683</v>
+          </cell>
+        </row>
+        <row r="60">
+          <cell r="F60">
+            <v>3.3960181686949434E-2</v>
+          </cell>
+        </row>
+        <row r="61">
+          <cell r="F61">
+            <v>0.50053181505349476</v>
+          </cell>
+        </row>
+        <row r="62">
+          <cell r="F62">
+            <v>-7.0664355353369207E-2</v>
+          </cell>
+        </row>
+        <row r="63">
+          <cell r="F63">
+            <v>0.31561989720435707</v>
+          </cell>
+        </row>
+        <row r="64">
+          <cell r="F64">
+            <v>-1.8428694703080117</v>
           </cell>
         </row>
       </sheetData>
@@ -2490,6 +2933,61 @@
             <v>1.2871639869904508</v>
           </cell>
         </row>
+        <row r="54">
+          <cell r="G54">
+            <v>0.64031304193159966</v>
+          </cell>
+        </row>
+        <row r="55">
+          <cell r="G55">
+            <v>3.9169200639076465</v>
+          </cell>
+        </row>
+        <row r="56">
+          <cell r="G56">
+            <v>25.265902862454865</v>
+          </cell>
+        </row>
+        <row r="57">
+          <cell r="G57">
+            <v>4.783917893040436</v>
+          </cell>
+        </row>
+        <row r="58">
+          <cell r="G58">
+            <v>1.6441669998052419</v>
+          </cell>
+        </row>
+        <row r="59">
+          <cell r="G59">
+            <v>1.52971795825143</v>
+          </cell>
+        </row>
+        <row r="60">
+          <cell r="G60">
+            <v>1.9357303561574186</v>
+          </cell>
+        </row>
+        <row r="61">
+          <cell r="G61">
+            <v>1.7685457465223371</v>
+          </cell>
+        </row>
+        <row r="62">
+          <cell r="G62">
+            <v>2.5439167927215856</v>
+          </cell>
+        </row>
+        <row r="63">
+          <cell r="G63">
+            <v>1.8937193832261037</v>
+          </cell>
+        </row>
+        <row r="64">
+          <cell r="G64">
+            <v>-1.6572822305143251</v>
+          </cell>
+        </row>
       </sheetData>
       <sheetData sheetId="10">
         <row r="3">
@@ -2747,8 +3245,64 @@
             <v>3.7580591405881778</v>
           </cell>
         </row>
+        <row r="54">
+          <cell r="F54">
+            <v>3.8018586864689459</v>
+          </cell>
+        </row>
+        <row r="55">
+          <cell r="F55">
+            <v>3.6721125599134168</v>
+          </cell>
+        </row>
+        <row r="56">
+          <cell r="F56">
+            <v>4.1288889425456716</v>
+          </cell>
+        </row>
+        <row r="57">
+          <cell r="F57">
+            <v>3.467068153865728</v>
+          </cell>
+        </row>
+        <row r="58">
+          <cell r="F58">
+            <v>3.3826378424920818</v>
+          </cell>
+        </row>
+        <row r="59">
+          <cell r="F59">
+            <v>3.7127529611727734</v>
+          </cell>
+        </row>
+        <row r="60">
+          <cell r="F60">
+            <v>3.7250074287897532</v>
+          </cell>
+        </row>
+        <row r="61">
+          <cell r="F61">
+            <v>3.5975724206969883</v>
+          </cell>
+        </row>
+        <row r="62">
+          <cell r="F62">
+            <v>3.7098786560522949</v>
+          </cell>
+        </row>
+        <row r="63">
+          <cell r="F63">
+            <v>3.5671623798616863</v>
+          </cell>
+        </row>
+        <row r="64">
+          <cell r="F64">
+            <v>1.1065417531886723</v>
+          </cell>
+        </row>
       </sheetData>
       <sheetData sheetId="11"/>
+      <sheetData sheetId="12"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -3024,11 +3578,61 @@
             <v>87013</v>
           </cell>
         </row>
+        <row r="57">
+          <cell r="U57">
+            <v>89956</v>
+          </cell>
+        </row>
+        <row r="58">
+          <cell r="U58">
+            <v>77612</v>
+          </cell>
+        </row>
+        <row r="59">
+          <cell r="U59">
+            <v>82831</v>
+          </cell>
+        </row>
+        <row r="60">
+          <cell r="U60">
+            <v>94316</v>
+          </cell>
+        </row>
+        <row r="61">
+          <cell r="U61">
+            <v>97557</v>
+          </cell>
+        </row>
+        <row r="62">
+          <cell r="U62">
+            <v>94135</v>
+          </cell>
+        </row>
+        <row r="63">
+          <cell r="U63">
+            <v>94228</v>
+          </cell>
+        </row>
+        <row r="64">
+          <cell r="U64">
+            <v>95898</v>
+          </cell>
+        </row>
+        <row r="65">
+          <cell r="U65">
+            <v>90569</v>
+          </cell>
+        </row>
+        <row r="66">
+          <cell r="U66">
+            <v>91249</v>
+          </cell>
+        </row>
       </sheetData>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
+      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="3" refreshError="1"/>
+      <sheetData sheetId="4" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -3331,11 +3935,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BC5C344-277E-4945-8E25-AE6A0B860AD5}">
-  <dimension ref="A1:K52"/>
+  <dimension ref="A1:K63"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A25" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C56" sqref="C56"/>
+      <pane ySplit="1" topLeftCell="A45" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A64" sqref="A64:XFD64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5376,6 +5980,435 @@
       <c r="J52" s="4"/>
       <c r="K52" s="38"/>
     </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A53" s="23">
+        <v>45709</v>
+      </c>
+      <c r="B53" s="4">
+        <f>'[1]NaOCl Pré'!F54</f>
+        <v>3.557294677397842</v>
+      </c>
+      <c r="C53" s="4">
+        <f>[1]Acide!F54</f>
+        <v>0</v>
+      </c>
+      <c r="D53" s="4">
+        <f>[1]FeCl3!F54</f>
+        <v>0</v>
+      </c>
+      <c r="E53" s="4">
+        <f>'[1]NaOCl 2 CEB 1'!I54</f>
+        <v>7.8971941838232027</v>
+      </c>
+      <c r="F53" s="4">
+        <f>'[1]Soude CEB 1'!F54</f>
+        <v>0</v>
+      </c>
+      <c r="G53" s="4">
+        <f>'[1]Acide CEB2'!F54</f>
+        <v>0.14229178709589788</v>
+      </c>
+      <c r="H53" s="4">
+        <f>[1]SBS!G54</f>
+        <v>0.64031304193159966</v>
+      </c>
+      <c r="I53" s="4">
+        <f>[1]ASC!F54</f>
+        <v>3.8018586864689459</v>
+      </c>
+      <c r="J53" s="4"/>
+      <c r="K53" s="38"/>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A54" s="23">
+        <v>45710</v>
+      </c>
+      <c r="B54" s="4">
+        <f>'[1]NaOCl Pré'!F55</f>
+        <v>2.6387672009483136</v>
+      </c>
+      <c r="C54" s="4">
+        <f>[1]Acide!F55</f>
+        <v>0</v>
+      </c>
+      <c r="D54" s="4">
+        <f>[1]FeCl3!F55</f>
+        <v>0</v>
+      </c>
+      <c r="E54" s="4">
+        <f>'[1]NaOCl 2 CEB 1'!I55</f>
+        <v>7.9987630778745666</v>
+      </c>
+      <c r="F54" s="4">
+        <f>'[1]Soude CEB 1'!F55</f>
+        <v>0</v>
+      </c>
+      <c r="G54" s="4">
+        <f>'[1]Acide CEB2'!F55</f>
+        <v>0.12369221254446115</v>
+      </c>
+      <c r="H54" s="4">
+        <f>[1]SBS!G55</f>
+        <v>3.9169200639076465</v>
+      </c>
+      <c r="I54" s="4">
+        <f>[1]ASC!F55</f>
+        <v>3.6721125599134168</v>
+      </c>
+      <c r="J54" s="4"/>
+      <c r="K54" s="38"/>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A55" s="23">
+        <v>45711</v>
+      </c>
+      <c r="B55" s="4">
+        <f>'[1]NaOCl Pré'!F56</f>
+        <v>1.8930110707343712</v>
+      </c>
+      <c r="C55" s="4">
+        <f>[1]Acide!F56</f>
+        <v>0</v>
+      </c>
+      <c r="D55" s="4">
+        <f>[1]FeCl3!F56</f>
+        <v>0</v>
+      </c>
+      <c r="E55" s="4">
+        <f>'[1]NaOCl 2 CEB 1'!I56</f>
+        <v>5.2154386642681922</v>
+      </c>
+      <c r="F55" s="4">
+        <f>'[1]Soude CEB 1'!F56</f>
+        <v>0</v>
+      </c>
+      <c r="G55" s="4">
+        <f>'[1]Acide CEB2'!F56</f>
+        <v>0.42496166894036869</v>
+      </c>
+      <c r="H55" s="4">
+        <f>[1]SBS!G56</f>
+        <v>25.265902862454865</v>
+      </c>
+      <c r="I55" s="4">
+        <f>[1]ASC!F56</f>
+        <v>4.1288889425456716</v>
+      </c>
+      <c r="J55" s="4"/>
+      <c r="K55" s="38"/>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A56" s="23">
+        <v>45712</v>
+      </c>
+      <c r="B56" s="4">
+        <f>'[1]NaOCl Pré'!F57</f>
+        <v>2.2053522201959388</v>
+      </c>
+      <c r="C56" s="4">
+        <f>[1]Acide!F57</f>
+        <v>0</v>
+      </c>
+      <c r="D56" s="4">
+        <f>[1]FeCl3!F57</f>
+        <v>0</v>
+      </c>
+      <c r="E56" s="4">
+        <f>'[1]NaOCl 2 CEB 1'!I57</f>
+        <v>6.6160566605878355</v>
+      </c>
+      <c r="F56" s="4">
+        <f>'[1]Soude CEB 1'!F57</f>
+        <v>0</v>
+      </c>
+      <c r="G56" s="4">
+        <f>'[1]Acide CEB2'!F57</f>
+        <v>3.3928495695318375E-2</v>
+      </c>
+      <c r="H56" s="4">
+        <f>[1]SBS!G57</f>
+        <v>4.783917893040436</v>
+      </c>
+      <c r="I56" s="4">
+        <f>[1]ASC!F57</f>
+        <v>3.467068153865728</v>
+      </c>
+      <c r="J56" s="4"/>
+      <c r="K56" s="38"/>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A57" s="23">
+        <v>45713</v>
+      </c>
+      <c r="B57" s="4">
+        <f>'[1]NaOCl Pré'!F58</f>
+        <v>1.9352788626136568</v>
+      </c>
+      <c r="C57" s="4">
+        <f>[1]Acide!F58</f>
+        <v>0</v>
+      </c>
+      <c r="D57" s="4">
+        <f>[1]FeCl3!F58</f>
+        <v>0</v>
+      </c>
+      <c r="E57" s="4">
+        <f>'[1]NaOCl 2 CEB 1'!I58</f>
+        <v>8.0363274803448039</v>
+      </c>
+      <c r="F57" s="4">
+        <f>'[1]Soude CEB 1'!F58</f>
+        <v>0</v>
+      </c>
+      <c r="G57" s="4">
+        <f>'[1]Acide CEB2'!F58</f>
+        <v>0.26241069323577509</v>
+      </c>
+      <c r="H57" s="4">
+        <f>[1]SBS!G58</f>
+        <v>1.6441669998052419</v>
+      </c>
+      <c r="I57" s="4">
+        <f>[1]ASC!F58</f>
+        <v>3.3826378424920818</v>
+      </c>
+      <c r="J57" s="4"/>
+      <c r="K57" s="38"/>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A58" s="23">
+        <v>45714</v>
+      </c>
+      <c r="B58" s="4">
+        <f>'[1]NaOCl Pré'!F59</f>
+        <v>2.1416051415520356</v>
+      </c>
+      <c r="C58" s="4">
+        <f>[1]Acide!F59</f>
+        <v>0</v>
+      </c>
+      <c r="D58" s="4">
+        <f>[1]FeCl3!F59</f>
+        <v>0</v>
+      </c>
+      <c r="E58" s="4">
+        <f>'[1]NaOCl 2 CEB 1'!I59</f>
+        <v>6.8667339459287371</v>
+      </c>
+      <c r="F58" s="4">
+        <f>'[1]Soude CEB 1'!F59</f>
+        <v>0</v>
+      </c>
+      <c r="G58" s="4">
+        <f>'[1]Acide CEB2'!F59</f>
+        <v>0.78185584532850683</v>
+      </c>
+      <c r="H58" s="4">
+        <f>[1]SBS!G59</f>
+        <v>1.52971795825143</v>
+      </c>
+      <c r="I58" s="4">
+        <f>[1]ASC!F59</f>
+        <v>3.7127529611727734</v>
+      </c>
+      <c r="J58" s="4"/>
+      <c r="K58" s="38"/>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A59" s="23">
+        <v>45715</v>
+      </c>
+      <c r="B59" s="4">
+        <f>'[1]NaOCl Pré'!F60</f>
+        <v>2.2074118096531645</v>
+      </c>
+      <c r="C59" s="4">
+        <f>[1]Acide!F60</f>
+        <v>0</v>
+      </c>
+      <c r="D59" s="4">
+        <f>[1]FeCl3!F60</f>
+        <v>0</v>
+      </c>
+      <c r="E59" s="4">
+        <f>'[1]NaOCl 2 CEB 1'!I60</f>
+        <v>5.9769919769070778</v>
+      </c>
+      <c r="F59" s="4">
+        <f>'[1]Soude CEB 1'!F60</f>
+        <v>0</v>
+      </c>
+      <c r="G59" s="4">
+        <f>'[1]Acide CEB2'!F60</f>
+        <v>3.3960181686949434E-2</v>
+      </c>
+      <c r="H59" s="4">
+        <f>[1]SBS!G60</f>
+        <v>1.9357303561574186</v>
+      </c>
+      <c r="I59" s="4">
+        <f>[1]ASC!F60</f>
+        <v>3.7250074287897532</v>
+      </c>
+      <c r="J59" s="4"/>
+      <c r="K59" s="38"/>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A60" s="23">
+        <v>45716</v>
+      </c>
+      <c r="B60" s="4">
+        <f>'[1]NaOCl Pré'!F61</f>
+        <v>2.1022336232246852</v>
+      </c>
+      <c r="C60" s="4">
+        <f>[1]Acide!F61</f>
+        <v>0</v>
+      </c>
+      <c r="D60" s="4">
+        <f>[1]FeCl3!F61</f>
+        <v>0</v>
+      </c>
+      <c r="E60" s="4">
+        <f>'[1]NaOCl 2 CEB 1'!I61</f>
+        <v>6.7738638970572742</v>
+      </c>
+      <c r="F60" s="4">
+        <f>'[1]Soude CEB 1'!F61</f>
+        <v>0</v>
+      </c>
+      <c r="G60" s="4">
+        <f>'[1]Acide CEB2'!F61</f>
+        <v>0.50053181505349476</v>
+      </c>
+      <c r="H60" s="4">
+        <f>[1]SBS!G61</f>
+        <v>1.7685457465223371</v>
+      </c>
+      <c r="I60" s="4">
+        <f>[1]ASC!F61</f>
+        <v>3.5975724206969883</v>
+      </c>
+      <c r="J60" s="4"/>
+      <c r="K60" s="38"/>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A61" s="23">
+        <v>45717</v>
+      </c>
+      <c r="B61" s="4">
+        <f>'[1]NaOCl Pré'!F62</f>
+        <v>2.2259271936313847</v>
+      </c>
+      <c r="C61" s="4">
+        <f>[1]Acide!F62</f>
+        <v>0</v>
+      </c>
+      <c r="D61" s="4">
+        <f>[1]FeCl3!F62</f>
+        <v>0</v>
+      </c>
+      <c r="E61" s="4">
+        <f>'[1]NaOCl 2 CEB 1'!I62</f>
+        <v>6.9957711799843256</v>
+      </c>
+      <c r="F61" s="4">
+        <f>'[1]Soude CEB 1'!F62</f>
+        <v>0</v>
+      </c>
+      <c r="G61" s="4">
+        <f>'[1]Acide CEB2'!F62</f>
+        <v>-7.0664355353369207E-2</v>
+      </c>
+      <c r="H61" s="4">
+        <f>[1]SBS!G62</f>
+        <v>2.5439167927215856</v>
+      </c>
+      <c r="I61" s="4">
+        <f>[1]ASC!F62</f>
+        <v>3.7098786560522949</v>
+      </c>
+      <c r="J61" s="4"/>
+      <c r="K61" s="38"/>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A62" s="23">
+        <v>45718</v>
+      </c>
+      <c r="B62" s="4">
+        <f>'[1]NaOCl Pré'!F63</f>
+        <v>2.2444081578976069</v>
+      </c>
+      <c r="C62" s="4">
+        <f>[1]Acide!F63</f>
+        <v>0</v>
+      </c>
+      <c r="D62" s="4">
+        <f>[1]FeCl3!F63</f>
+        <v>0</v>
+      </c>
+      <c r="E62" s="4">
+        <f>'[1]NaOCl 2 CEB 1'!I63</f>
+        <v>6.7332244736928706</v>
+      </c>
+      <c r="F62" s="4">
+        <f>'[1]Soude CEB 1'!F63</f>
+        <v>0</v>
+      </c>
+      <c r="G62" s="4">
+        <f>'[1]Acide CEB2'!F63</f>
+        <v>0.31561989720435707</v>
+      </c>
+      <c r="H62" s="4">
+        <f>[1]SBS!G63</f>
+        <v>1.8937193832261037</v>
+      </c>
+      <c r="I62" s="4">
+        <f>[1]ASC!F63</f>
+        <v>3.5671623798616863</v>
+      </c>
+      <c r="J62" s="4"/>
+      <c r="K62" s="38"/>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A63" s="23">
+        <v>45719</v>
+      </c>
+      <c r="B63" s="4">
+        <f>'[1]NaOCl Pré'!F64</f>
+        <v>-1.1001264830232989</v>
+      </c>
+      <c r="C63" s="4">
+        <f>[1]Acide!F64</f>
+        <v>0</v>
+      </c>
+      <c r="D63" s="4">
+        <f>[1]FeCl3!F64</f>
+        <v>0</v>
+      </c>
+      <c r="E63" s="4">
+        <f>'[1]NaOCl 2 CEB 1'!I64</f>
+        <v>-1.6391569374559181</v>
+      </c>
+      <c r="F63" s="4">
+        <f>'[1]Soude CEB 1'!F64</f>
+        <v>0</v>
+      </c>
+      <c r="G63" s="4">
+        <f>'[1]Acide CEB2'!F64</f>
+        <v>-1.8428694703080117</v>
+      </c>
+      <c r="H63" s="4">
+        <f>[1]SBS!G64</f>
+        <v>-1.6572822305143251</v>
+      </c>
+      <c r="I63" s="4">
+        <f>[1]ASC!F64</f>
+        <v>1.1065417531886723</v>
+      </c>
+      <c r="J63" s="4"/>
+      <c r="K63" s="38"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5384,10 +6417,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07CB649B-6F18-453D-B029-557EF373D866}">
-  <dimension ref="A1:E52"/>
+  <dimension ref="A1:E62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="A53" sqref="A53:XFD366"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A63" sqref="A63:XFD366"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6035,27 +7068,27 @@
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A33" s="23">
+      <c r="A33" s="40">
         <v>45689</v>
       </c>
-      <c r="B33" s="34">
+      <c r="B33" s="42">
         <v>16796.900000000001</v>
       </c>
-      <c r="C33" s="35">
-        <f t="shared" ref="C33:C52" si="2">(B33-B32)*1000</f>
+      <c r="C33" s="43">
+        <f t="shared" ref="C33:C62" si="2">(B33-B32)*1000</f>
         <v>226700.00000000073</v>
       </c>
-      <c r="D33" s="36">
+      <c r="D33" s="44">
         <f>[2]Sheet1!U37</f>
         <v>71689</v>
       </c>
-      <c r="E33" s="37">
-        <f t="shared" ref="E33:E52" si="3">C33/D33</f>
+      <c r="E33" s="45">
+        <f t="shared" ref="E33:E62" si="3">C33/D33</f>
         <v>3.1622703622592132</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A34" s="21">
+      <c r="A34" s="13">
         <v>45690</v>
       </c>
       <c r="B34" s="4">
@@ -6075,7 +7108,7 @@
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A35" s="21">
+      <c r="A35" s="13">
         <v>45691</v>
       </c>
       <c r="B35" s="4">
@@ -6095,7 +7128,7 @@
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A36" s="21">
+      <c r="A36" s="13">
         <v>45692</v>
       </c>
       <c r="B36" s="4">
@@ -6115,7 +7148,7 @@
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A37" s="21">
+      <c r="A37" s="13">
         <v>45693</v>
       </c>
       <c r="B37" s="4">
@@ -6135,7 +7168,7 @@
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A38" s="21">
+      <c r="A38" s="13">
         <v>45694</v>
       </c>
       <c r="B38" s="4">
@@ -6155,7 +7188,7 @@
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A39" s="21">
+      <c r="A39" s="13">
         <v>45695</v>
       </c>
       <c r="B39" s="4">
@@ -6175,7 +7208,7 @@
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A40" s="21">
+      <c r="A40" s="13">
         <v>45696</v>
       </c>
       <c r="B40" s="4">
@@ -6195,7 +7228,7 @@
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A41" s="21">
+      <c r="A41" s="13">
         <v>45697</v>
       </c>
       <c r="B41" s="4">
@@ -6215,7 +7248,7 @@
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A42" s="21">
+      <c r="A42" s="13">
         <v>45698</v>
       </c>
       <c r="B42" s="4">
@@ -6235,7 +7268,7 @@
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A43" s="21">
+      <c r="A43" s="13">
         <v>45699</v>
       </c>
       <c r="B43" s="4">
@@ -6255,7 +7288,7 @@
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A44" s="21">
+      <c r="A44" s="13">
         <v>45700</v>
       </c>
       <c r="B44" s="4">
@@ -6275,7 +7308,7 @@
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A45" s="21">
+      <c r="A45" s="13">
         <v>45701</v>
       </c>
       <c r="B45" s="4">
@@ -6295,7 +7328,7 @@
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A46" s="21">
+      <c r="A46" s="13">
         <v>45702</v>
       </c>
       <c r="B46" s="4">
@@ -6315,7 +7348,7 @@
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A47" s="21">
+      <c r="A47" s="13">
         <v>45703</v>
       </c>
       <c r="B47" s="4">
@@ -6335,7 +7368,7 @@
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A48" s="21">
+      <c r="A48" s="13">
         <v>45704</v>
       </c>
       <c r="B48" s="4">
@@ -6355,7 +7388,7 @@
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A49" s="21">
+      <c r="A49" s="13">
         <v>45705</v>
       </c>
       <c r="B49" s="4">
@@ -6375,7 +7408,7 @@
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A50" s="21">
+      <c r="A50" s="13">
         <v>45706</v>
       </c>
       <c r="B50" s="4">
@@ -6395,7 +7428,7 @@
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A51" s="21">
+      <c r="A51" s="13">
         <v>45707</v>
       </c>
       <c r="B51" s="4">
@@ -6415,7 +7448,7 @@
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A52" s="21">
+      <c r="A52" s="13">
         <v>45708</v>
       </c>
       <c r="B52" s="4">
@@ -6432,6 +7465,206 @@
       <c r="E52" s="33">
         <f t="shared" si="3"/>
         <v>2.9030144920874141</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A53" s="13">
+        <v>45709</v>
+      </c>
+      <c r="B53" s="4">
+        <v>21255.7</v>
+      </c>
+      <c r="C53" s="31">
+        <f t="shared" si="2"/>
+        <v>265500</v>
+      </c>
+      <c r="D53" s="32">
+        <f>[2]Sheet1!U57</f>
+        <v>89956</v>
+      </c>
+      <c r="E53" s="33">
+        <f t="shared" si="3"/>
+        <v>2.9514429276535195</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A54" s="13">
+        <v>45710</v>
+      </c>
+      <c r="B54" s="4">
+        <v>21479.9</v>
+      </c>
+      <c r="C54" s="31">
+        <f t="shared" si="2"/>
+        <v>224200.00000000073</v>
+      </c>
+      <c r="D54" s="32">
+        <f>[2]Sheet1!U58</f>
+        <v>77612</v>
+      </c>
+      <c r="E54" s="33">
+        <f t="shared" si="3"/>
+        <v>2.8887285471318962</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A55" s="13">
+        <v>45711</v>
+      </c>
+      <c r="B55" s="4">
+        <v>21728.1</v>
+      </c>
+      <c r="C55" s="31">
+        <f t="shared" si="2"/>
+        <v>248199.99999999709</v>
+      </c>
+      <c r="D55" s="32">
+        <f>[2]Sheet1!U59</f>
+        <v>82831</v>
+      </c>
+      <c r="E55" s="33">
+        <f t="shared" si="3"/>
+        <v>2.9964626770170235</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A56" s="13">
+        <v>45712</v>
+      </c>
+      <c r="B56" s="4">
+        <v>21999.599999999999</v>
+      </c>
+      <c r="C56" s="31">
+        <f t="shared" si="2"/>
+        <v>271500</v>
+      </c>
+      <c r="D56" s="32">
+        <f>[2]Sheet1!U60</f>
+        <v>94316</v>
+      </c>
+      <c r="E56" s="33">
+        <f t="shared" si="3"/>
+        <v>2.8786208066499852</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A57" s="13">
+        <v>45713</v>
+      </c>
+      <c r="B57" s="4">
+        <v>22284.5</v>
+      </c>
+      <c r="C57" s="31">
+        <f t="shared" si="2"/>
+        <v>284900.00000000146</v>
+      </c>
+      <c r="D57" s="32">
+        <f>[2]Sheet1!U61</f>
+        <v>97557</v>
+      </c>
+      <c r="E57" s="33">
+        <f t="shared" si="3"/>
+        <v>2.9203440040181787</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A58" s="13">
+        <v>45714</v>
+      </c>
+      <c r="B58" s="4">
+        <v>22510</v>
+      </c>
+      <c r="C58" s="31">
+        <f t="shared" si="2"/>
+        <v>225500</v>
+      </c>
+      <c r="D58" s="32">
+        <f>[2]Sheet1!U62</f>
+        <v>94135</v>
+      </c>
+      <c r="E58" s="33">
+        <f t="shared" si="3"/>
+        <v>2.3954958304562597</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A59" s="13">
+        <v>45715</v>
+      </c>
+      <c r="B59" s="4">
+        <v>22827.5</v>
+      </c>
+      <c r="C59" s="31">
+        <f t="shared" si="2"/>
+        <v>317500</v>
+      </c>
+      <c r="D59" s="32">
+        <f>[2]Sheet1!U63</f>
+        <v>94228</v>
+      </c>
+      <c r="E59" s="33">
+        <f t="shared" si="3"/>
+        <v>3.3694867767542558</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A60" s="41">
+        <v>45716</v>
+      </c>
+      <c r="B60" s="7">
+        <v>23088.400000000001</v>
+      </c>
+      <c r="C60" s="30">
+        <f t="shared" si="2"/>
+        <v>260900.00000000146</v>
+      </c>
+      <c r="D60" s="10">
+        <f>[2]Sheet1!U64</f>
+        <v>95898</v>
+      </c>
+      <c r="E60" s="8">
+        <f t="shared" si="3"/>
+        <v>2.7205989697386959</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A61" s="39">
+        <v>45717</v>
+      </c>
+      <c r="B61" s="34">
+        <v>23352.1</v>
+      </c>
+      <c r="C61" s="35">
+        <f t="shared" si="2"/>
+        <v>263699.99999999709</v>
+      </c>
+      <c r="D61" s="36">
+        <f>[2]Sheet1!U65</f>
+        <v>90569</v>
+      </c>
+      <c r="E61" s="37">
+        <f t="shared" si="3"/>
+        <v>2.911592266669579</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A62" s="21">
+        <v>45718</v>
+      </c>
+      <c r="B62" s="4">
+        <v>23616.6</v>
+      </c>
+      <c r="C62" s="31">
+        <f t="shared" si="2"/>
+        <v>264500</v>
+      </c>
+      <c r="D62" s="32">
+        <f>[2]Sheet1!U66</f>
+        <v>91249</v>
+      </c>
+      <c r="E62" s="33">
+        <f t="shared" si="3"/>
+        <v>2.8986619031441441</v>
       </c>
     </row>
   </sheetData>

--- a/Consommation spécifique.xlsx
+++ b/Consommation spécifique.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\Projects\wave2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F8E49C89-BAA0-44B7-9872-00696D61B08E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{ECA1B9F7-7513-4501-97D0-306249163FAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" activeTab="1" xr2:uid="{4E830341-EBCA-4A95-9BBE-9CDD49815F8C}"/>
+    <workbookView xWindow="30612" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{4E830341-EBCA-4A95-9BBE-9CDD49815F8C}"/>
   </bookViews>
   <sheets>
     <sheet name="Produits chimiques" sheetId="1" r:id="rId1"/>
@@ -121,7 +121,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="39">
+  <borders count="42">
     <border>
       <left/>
       <right/>
@@ -557,6 +557,15 @@
       </left>
       <right/>
       <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
@@ -627,11 +636,33 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -753,10 +784,10 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
@@ -766,6 +797,15 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -805,6 +845,7 @@
       <sheetName val="ASC"/>
       <sheetName val="NaOCl Trait"/>
       <sheetName val="Dépotage"/>
+      <sheetName val="Feuil1"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0"/>
@@ -1112,7 +1153,47 @@
         </row>
         <row r="64">
           <cell r="F64">
-            <v>-1.1001264830232989</v>
+            <v>2.2871913368711692</v>
+          </cell>
+        </row>
+        <row r="65">
+          <cell r="F65">
+            <v>2.4312750379886907</v>
+          </cell>
+        </row>
+        <row r="66">
+          <cell r="F66">
+            <v>2.2608554650853008</v>
+          </cell>
+        </row>
+        <row r="67">
+          <cell r="F67">
+            <v>2.1678584870154216</v>
+          </cell>
+        </row>
+        <row r="68">
+          <cell r="F68">
+            <v>2.1104903786468117</v>
+          </cell>
+        </row>
+        <row r="69">
+          <cell r="F69">
+            <v>2.1647483283986015</v>
+          </cell>
+        </row>
+        <row r="70">
+          <cell r="F70">
+            <v>2.0587894065159822</v>
+          </cell>
+        </row>
+        <row r="71">
+          <cell r="F71">
+            <v>2.7415725203047945</v>
+          </cell>
+        </row>
+        <row r="72">
+          <cell r="F72">
+            <v>2.6021867774424812</v>
           </cell>
         </row>
       </sheetData>
@@ -1427,6 +1508,46 @@
             <v>0</v>
           </cell>
         </row>
+        <row r="65">
+          <cell r="F65">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="66">
+          <cell r="F66">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="67">
+          <cell r="F67">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="68">
+          <cell r="F68">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="69">
+          <cell r="F69">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="70">
+          <cell r="F70">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="71">
+          <cell r="F71">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="72">
+          <cell r="F72">
+            <v>0</v>
+          </cell>
+        </row>
       </sheetData>
       <sheetData sheetId="4">
         <row r="3">
@@ -1736,6 +1857,46 @@
         </row>
         <row r="64">
           <cell r="F64">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="65">
+          <cell r="F65">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="66">
+          <cell r="F66">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="67">
+          <cell r="F67">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="68">
+          <cell r="F68">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="69">
+          <cell r="F69">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="70">
+          <cell r="F70">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="71">
+          <cell r="F71">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="72">
+          <cell r="F72">
             <v>0</v>
           </cell>
         </row>
@@ -2049,7 +2210,47 @@
         </row>
         <row r="64">
           <cell r="I64">
-            <v>-1.6391569374559181</v>
+            <v>6.6735856815555978</v>
+          </cell>
+        </row>
+        <row r="65">
+          <cell r="I65">
+            <v>5.9676750932449316</v>
+          </cell>
+        </row>
+        <row r="66">
+          <cell r="I66">
+            <v>6.4489975561449526</v>
+          </cell>
+        </row>
+        <row r="67">
+          <cell r="I67">
+            <v>8.7402548524114216</v>
+          </cell>
+        </row>
+        <row r="68">
+          <cell r="I68">
+            <v>6.6728739913097437</v>
+          </cell>
+        </row>
+        <row r="69">
+          <cell r="I69">
+            <v>6.9020961195317616</v>
+          </cell>
+        </row>
+        <row r="70">
+          <cell r="I70">
+            <v>5.7376098214379754</v>
+          </cell>
+        </row>
+        <row r="71">
+          <cell r="I71">
+            <v>8.078500359831402</v>
+          </cell>
+        </row>
+        <row r="72">
+          <cell r="I72">
+            <v>7.555747148959524</v>
           </cell>
         </row>
       </sheetData>
@@ -2364,6 +2565,46 @@
             <v>0</v>
           </cell>
         </row>
+        <row r="65">
+          <cell r="F65">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="66">
+          <cell r="F66">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="67">
+          <cell r="F67">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="68">
+          <cell r="F68">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="69">
+          <cell r="F69">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="70">
+          <cell r="F70">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="71">
+          <cell r="F71">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="72">
+          <cell r="F72">
+            <v>0</v>
+          </cell>
+        </row>
       </sheetData>
       <sheetData sheetId="8">
         <row r="3">
@@ -2673,7 +2914,47 @@
         </row>
         <row r="64">
           <cell r="F64">
-            <v>-1.8428694703080117</v>
+            <v>0.187988329057901</v>
+          </cell>
+        </row>
+        <row r="65">
+          <cell r="F65">
+            <v>0.11051250172676612</v>
+          </cell>
+        </row>
+        <row r="66">
+          <cell r="F66">
+            <v>0.25944243041961695</v>
+          </cell>
+        </row>
+        <row r="67">
+          <cell r="F67">
+            <v>0.309694069573618</v>
+          </cell>
+        </row>
+        <row r="68">
+          <cell r="F68">
+            <v>3.1036623215425201E-2</v>
+          </cell>
+        </row>
+        <row r="69">
+          <cell r="F69">
+            <v>0.4392242985156436</v>
+          </cell>
+        </row>
+        <row r="70">
+          <cell r="F70">
+            <v>0.13500258403383891</v>
+          </cell>
+        </row>
+        <row r="71">
+          <cell r="F71">
+            <v>0.10966290081219908</v>
+          </cell>
+        </row>
+        <row r="72">
+          <cell r="F72">
+            <v>9.4054943762953772E-2</v>
           </cell>
         </row>
       </sheetData>
@@ -2985,7 +3266,47 @@
         </row>
         <row r="64">
           <cell r="G64">
-            <v>-1.6572822305143251</v>
+            <v>1.7232263496974751</v>
+          </cell>
+        </row>
+        <row r="65">
+          <cell r="G65">
+            <v>2.0629000322327902</v>
+          </cell>
+        </row>
+        <row r="66">
+          <cell r="G66">
+            <v>7.0420088256755617</v>
+          </cell>
+        </row>
+        <row r="67">
+          <cell r="G67">
+            <v>3.131351147911158</v>
+          </cell>
+        </row>
+        <row r="68">
+          <cell r="G68">
+            <v>1.4587212911235201</v>
+          </cell>
+        </row>
+        <row r="69">
+          <cell r="G69">
+            <v>0.97256808957039853</v>
+          </cell>
+        </row>
+        <row r="70">
+          <cell r="G70">
+            <v>0.16875323004227519</v>
+          </cell>
+        </row>
+        <row r="71">
+          <cell r="G71">
+            <v>0.65797740487315393</v>
+          </cell>
+        </row>
+        <row r="72">
+          <cell r="G72">
+            <v>1.8183955794176516</v>
           </cell>
         </row>
       </sheetData>
@@ -3297,12 +3618,53 @@
         </row>
         <row r="64">
           <cell r="F64">
-            <v>1.1065417531886723</v>
+            <v>3.495407993420419</v>
+          </cell>
+        </row>
+        <row r="65">
+          <cell r="F65">
+            <v>3.7125293548832712</v>
+          </cell>
+        </row>
+        <row r="66">
+          <cell r="F66">
+            <v>4.065370226664669</v>
+          </cell>
+        </row>
+        <row r="67">
+          <cell r="F67">
+            <v>3.9195655680412789</v>
+          </cell>
+        </row>
+        <row r="68">
+          <cell r="F68">
+            <v>3.3606843575418974</v>
+          </cell>
+        </row>
+        <row r="69">
+          <cell r="F69">
+            <v>3.3383007509951308</v>
+          </cell>
+        </row>
+        <row r="70">
+          <cell r="F70">
+            <v>3.5596384462046293</v>
+          </cell>
+        </row>
+        <row r="71">
+          <cell r="F71">
+            <v>3.786797043670957</v>
+          </cell>
+        </row>
+        <row r="72">
+          <cell r="F72">
+            <v>3.2772269467413881</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="11"/>
       <sheetData sheetId="12"/>
+      <sheetData sheetId="13"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -3319,7 +3681,6 @@
       <sheetName val="Sheet2"/>
       <sheetName val="Suivi performance"/>
       <sheetName val="Historique des pannes"/>
-      <sheetName val="Feuil1"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
@@ -3628,11 +3989,55 @@
             <v>91249</v>
           </cell>
         </row>
+        <row r="67">
+          <cell r="U67">
+            <v>102134</v>
+          </cell>
+        </row>
+        <row r="68">
+          <cell r="U68">
+            <v>86868</v>
+          </cell>
+        </row>
+        <row r="69">
+          <cell r="U69">
+            <v>86339</v>
+          </cell>
+        </row>
+        <row r="70">
+          <cell r="U70">
+            <v>92995</v>
+          </cell>
+        </row>
+        <row r="71">
+          <cell r="U71">
+            <v>103104</v>
+          </cell>
+        </row>
+        <row r="72">
+          <cell r="U72">
+            <v>101998</v>
+          </cell>
+        </row>
+        <row r="73">
+          <cell r="U73">
+            <v>94813</v>
+          </cell>
+        </row>
+        <row r="74">
+          <cell r="U74">
+            <v>87541</v>
+          </cell>
+        </row>
+        <row r="75">
+          <cell r="U75">
+            <v>102068</v>
+          </cell>
+        </row>
       </sheetData>
-      <sheetData sheetId="1" refreshError="1"/>
-      <sheetData sheetId="2" refreshError="1"/>
-      <sheetData sheetId="3" refreshError="1"/>
-      <sheetData sheetId="4" refreshError="1"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -3935,11 +4340,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BC5C344-277E-4945-8E25-AE6A0B860AD5}">
-  <dimension ref="A1:K63"/>
+  <dimension ref="A1:K71"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A45" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A64" sqref="A64:XFD64"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6376,7 +6781,7 @@
       </c>
       <c r="B63" s="4">
         <f>'[1]NaOCl Pré'!F64</f>
-        <v>-1.1001264830232989</v>
+        <v>2.2871913368711692</v>
       </c>
       <c r="C63" s="4">
         <f>[1]Acide!F64</f>
@@ -6388,7 +6793,7 @@
       </c>
       <c r="E63" s="4">
         <f>'[1]NaOCl 2 CEB 1'!I64</f>
-        <v>-1.6391569374559181</v>
+        <v>6.6735856815555978</v>
       </c>
       <c r="F63" s="4">
         <f>'[1]Soude CEB 1'!F64</f>
@@ -6396,18 +6801,330 @@
       </c>
       <c r="G63" s="4">
         <f>'[1]Acide CEB2'!F64</f>
-        <v>-1.8428694703080117</v>
+        <v>0.187988329057901</v>
       </c>
       <c r="H63" s="4">
         <f>[1]SBS!G64</f>
-        <v>-1.6572822305143251</v>
+        <v>1.7232263496974751</v>
       </c>
       <c r="I63" s="4">
         <f>[1]ASC!F64</f>
-        <v>1.1065417531886723</v>
+        <v>3.495407993420419</v>
       </c>
       <c r="J63" s="4"/>
       <c r="K63" s="38"/>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A64" s="23">
+        <v>45720</v>
+      </c>
+      <c r="B64" s="4">
+        <f>'[1]NaOCl Pré'!F65</f>
+        <v>2.4312750379886907</v>
+      </c>
+      <c r="C64" s="4">
+        <f>[1]Acide!F65</f>
+        <v>0</v>
+      </c>
+      <c r="D64" s="4">
+        <f>[1]FeCl3!F65</f>
+        <v>0</v>
+      </c>
+      <c r="E64" s="4">
+        <f>'[1]NaOCl 2 CEB 1'!I65</f>
+        <v>5.9676750932449316</v>
+      </c>
+      <c r="F64" s="4">
+        <f>'[1]Soude CEB 1'!F65</f>
+        <v>0</v>
+      </c>
+      <c r="G64" s="4">
+        <f>'[1]Acide CEB2'!F65</f>
+        <v>0.11051250172676612</v>
+      </c>
+      <c r="H64" s="4">
+        <f>[1]SBS!G65</f>
+        <v>2.0629000322327902</v>
+      </c>
+      <c r="I64" s="4">
+        <f>[1]ASC!F65</f>
+        <v>3.7125293548832712</v>
+      </c>
+      <c r="J64" s="4"/>
+      <c r="K64" s="38"/>
+    </row>
+    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A65" s="23">
+        <v>45721</v>
+      </c>
+      <c r="B65" s="4">
+        <f>'[1]NaOCl Pré'!F66</f>
+        <v>2.2608554650853008</v>
+      </c>
+      <c r="C65" s="4">
+        <f>[1]Acide!F66</f>
+        <v>0</v>
+      </c>
+      <c r="D65" s="4">
+        <f>[1]FeCl3!F66</f>
+        <v>0</v>
+      </c>
+      <c r="E65" s="4">
+        <f>'[1]NaOCl 2 CEB 1'!I66</f>
+        <v>6.4489975561449526</v>
+      </c>
+      <c r="F65" s="4">
+        <f>'[1]Soude CEB 1'!F66</f>
+        <v>0</v>
+      </c>
+      <c r="G65" s="4">
+        <f>'[1]Acide CEB2'!F66</f>
+        <v>0.25944243041961695</v>
+      </c>
+      <c r="H65" s="4">
+        <f>[1]SBS!G66</f>
+        <v>7.0420088256755617</v>
+      </c>
+      <c r="I65" s="4">
+        <f>[1]ASC!F66</f>
+        <v>4.065370226664669</v>
+      </c>
+      <c r="J65" s="4"/>
+      <c r="K65" s="38"/>
+    </row>
+    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A66" s="23">
+        <v>45722</v>
+      </c>
+      <c r="B66" s="4">
+        <f>'[1]NaOCl Pré'!F67</f>
+        <v>2.1678584870154216</v>
+      </c>
+      <c r="C66" s="4">
+        <f>[1]Acide!F67</f>
+        <v>0</v>
+      </c>
+      <c r="D66" s="4">
+        <f>[1]FeCl3!F67</f>
+        <v>0</v>
+      </c>
+      <c r="E66" s="4">
+        <f>'[1]NaOCl 2 CEB 1'!I67</f>
+        <v>8.7402548524114216</v>
+      </c>
+      <c r="F66" s="4">
+        <f>'[1]Soude CEB 1'!F67</f>
+        <v>0</v>
+      </c>
+      <c r="G66" s="4">
+        <f>'[1]Acide CEB2'!F67</f>
+        <v>0.309694069573618</v>
+      </c>
+      <c r="H66" s="4">
+        <f>[1]SBS!G67</f>
+        <v>3.131351147911158</v>
+      </c>
+      <c r="I66" s="4">
+        <f>[1]ASC!F67</f>
+        <v>3.9195655680412789</v>
+      </c>
+      <c r="J66" s="4"/>
+      <c r="K66" s="38"/>
+    </row>
+    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A67" s="23">
+        <v>45723</v>
+      </c>
+      <c r="B67" s="4">
+        <f>'[1]NaOCl Pré'!F68</f>
+        <v>2.1104903786468117</v>
+      </c>
+      <c r="C67" s="4">
+        <f>[1]Acide!F68</f>
+        <v>0</v>
+      </c>
+      <c r="D67" s="4">
+        <f>[1]FeCl3!F68</f>
+        <v>0</v>
+      </c>
+      <c r="E67" s="4">
+        <f>'[1]NaOCl 2 CEB 1'!I68</f>
+        <v>6.6728739913097437</v>
+      </c>
+      <c r="F67" s="4">
+        <f>'[1]Soude CEB 1'!F68</f>
+        <v>0</v>
+      </c>
+      <c r="G67" s="4">
+        <f>'[1]Acide CEB2'!F68</f>
+        <v>3.1036623215425201E-2</v>
+      </c>
+      <c r="H67" s="4">
+        <f>[1]SBS!G68</f>
+        <v>1.4587212911235201</v>
+      </c>
+      <c r="I67" s="4">
+        <f>[1]ASC!F68</f>
+        <v>3.3606843575418974</v>
+      </c>
+      <c r="J67" s="4"/>
+      <c r="K67" s="38"/>
+    </row>
+    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A68" s="23">
+        <v>45724</v>
+      </c>
+      <c r="B68" s="4">
+        <f>'[1]NaOCl Pré'!F69</f>
+        <v>2.1647483283986015</v>
+      </c>
+      <c r="C68" s="4">
+        <f>[1]Acide!F69</f>
+        <v>0</v>
+      </c>
+      <c r="D68" s="4">
+        <f>[1]FeCl3!F69</f>
+        <v>0</v>
+      </c>
+      <c r="E68" s="4">
+        <f>'[1]NaOCl 2 CEB 1'!I69</f>
+        <v>6.9020961195317616</v>
+      </c>
+      <c r="F68" s="4">
+        <f>'[1]Soude CEB 1'!F69</f>
+        <v>0</v>
+      </c>
+      <c r="G68" s="4">
+        <f>'[1]Acide CEB2'!F69</f>
+        <v>0.4392242985156436</v>
+      </c>
+      <c r="H68" s="4">
+        <f>[1]SBS!G69</f>
+        <v>0.97256808957039853</v>
+      </c>
+      <c r="I68" s="4">
+        <f>[1]ASC!F69</f>
+        <v>3.3383007509951308</v>
+      </c>
+      <c r="J68" s="4"/>
+      <c r="K68" s="38"/>
+    </row>
+    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A69" s="23">
+        <v>45725</v>
+      </c>
+      <c r="B69" s="4">
+        <f>'[1]NaOCl Pré'!F70</f>
+        <v>2.0587894065159822</v>
+      </c>
+      <c r="C69" s="4">
+        <f>[1]Acide!F70</f>
+        <v>0</v>
+      </c>
+      <c r="D69" s="4">
+        <f>[1]FeCl3!F70</f>
+        <v>0</v>
+      </c>
+      <c r="E69" s="4">
+        <f>'[1]NaOCl 2 CEB 1'!I70</f>
+        <v>5.7376098214379754</v>
+      </c>
+      <c r="F69" s="4">
+        <f>'[1]Soude CEB 1'!F70</f>
+        <v>0</v>
+      </c>
+      <c r="G69" s="4">
+        <f>'[1]Acide CEB2'!F70</f>
+        <v>0.13500258403383891</v>
+      </c>
+      <c r="H69" s="4">
+        <f>[1]SBS!G70</f>
+        <v>0.16875323004227519</v>
+      </c>
+      <c r="I69" s="4">
+        <f>[1]ASC!F70</f>
+        <v>3.5596384462046293</v>
+      </c>
+      <c r="J69" s="4"/>
+      <c r="K69" s="38"/>
+    </row>
+    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A70" s="23">
+        <v>45726</v>
+      </c>
+      <c r="B70" s="4">
+        <f>'[1]NaOCl Pré'!F71</f>
+        <v>2.7415725203047945</v>
+      </c>
+      <c r="C70" s="4">
+        <f>[1]Acide!F71</f>
+        <v>0</v>
+      </c>
+      <c r="D70" s="4">
+        <f>[1]FeCl3!F71</f>
+        <v>0</v>
+      </c>
+      <c r="E70" s="4">
+        <f>'[1]NaOCl 2 CEB 1'!I71</f>
+        <v>8.078500359831402</v>
+      </c>
+      <c r="F70" s="4">
+        <f>'[1]Soude CEB 1'!F71</f>
+        <v>0</v>
+      </c>
+      <c r="G70" s="4">
+        <f>'[1]Acide CEB2'!F71</f>
+        <v>0.10966290081219908</v>
+      </c>
+      <c r="H70" s="4">
+        <f>[1]SBS!G71</f>
+        <v>0.65797740487315393</v>
+      </c>
+      <c r="I70" s="4">
+        <f>[1]ASC!F71</f>
+        <v>3.786797043670957</v>
+      </c>
+      <c r="J70" s="4"/>
+      <c r="K70" s="38"/>
+    </row>
+    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A71" s="23">
+        <v>45727</v>
+      </c>
+      <c r="B71" s="4">
+        <f>'[1]NaOCl Pré'!F72</f>
+        <v>2.6021867774424812</v>
+      </c>
+      <c r="C71" s="4">
+        <f>[1]Acide!F72</f>
+        <v>0</v>
+      </c>
+      <c r="D71" s="4">
+        <f>[1]FeCl3!F72</f>
+        <v>0</v>
+      </c>
+      <c r="E71" s="4">
+        <f>'[1]NaOCl 2 CEB 1'!I72</f>
+        <v>7.555747148959524</v>
+      </c>
+      <c r="F71" s="4">
+        <f>'[1]Soude CEB 1'!F72</f>
+        <v>0</v>
+      </c>
+      <c r="G71" s="4">
+        <f>'[1]Acide CEB2'!F72</f>
+        <v>9.4054943762953772E-2</v>
+      </c>
+      <c r="H71" s="4">
+        <f>[1]SBS!G72</f>
+        <v>1.8183955794176516</v>
+      </c>
+      <c r="I71" s="4">
+        <f>[1]ASC!F72</f>
+        <v>3.2772269467413881</v>
+      </c>
+      <c r="J71" s="4"/>
+      <c r="K71" s="38"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -6417,1254 +7134,1529 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07CB649B-6F18-453D-B029-557EF373D866}">
-  <dimension ref="A1:E62"/>
+  <dimension ref="A1:F71"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A63" sqref="A63:XFD366"/>
+    <sheetView topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="A72" sqref="A72:XFD367"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="11.44140625" style="2"/>
-    <col min="2" max="2" width="13.5546875" style="2" customWidth="1"/>
-    <col min="3" max="3" width="15.109375" style="2" customWidth="1"/>
-    <col min="4" max="16384" width="11.44140625" style="2"/>
+    <col min="2" max="3" width="13.5546875" style="2" customWidth="1"/>
+    <col min="4" max="4" width="15.109375" style="2" customWidth="1"/>
+    <col min="5" max="16384" width="11.44140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="36.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" ht="36.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="12" t="s">
         <v>4</v>
       </c>
       <c r="B1" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="19" t="s">
+      <c r="C1" s="17"/>
+      <c r="D1" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="14" t="s">
+      <c r="F1" s="14" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="23">
         <v>45658</v>
       </c>
       <c r="B2" s="24">
         <v>11077.9</v>
       </c>
-      <c r="C2" s="20">
+      <c r="C2" s="47"/>
+      <c r="D2" s="20">
         <v>163700</v>
       </c>
-      <c r="D2" s="20">
+      <c r="E2" s="20">
         <f>[2]Sheet1!U6</f>
         <v>53174</v>
       </c>
-      <c r="E2" s="25">
-        <f t="shared" ref="E2:E31" si="0">C2/D2</f>
+      <c r="F2" s="25">
+        <f t="shared" ref="F2:F31" si="0">D2/E2</f>
         <v>3.0785722345507205</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="13">
         <v>45659</v>
       </c>
       <c r="B3" s="18">
         <v>11236.4</v>
       </c>
-      <c r="C3" s="5">
+      <c r="C3" s="48"/>
+      <c r="D3" s="5">
         <f>(B3-B2)*1000</f>
         <v>158500</v>
       </c>
-      <c r="D3" s="11">
+      <c r="E3" s="11">
         <f>[2]Sheet1!U7</f>
         <v>53766</v>
       </c>
-      <c r="E3" s="6">
+      <c r="F3" s="6">
         <f t="shared" si="0"/>
         <v>2.947959677119369</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="21">
         <v>45660</v>
       </c>
       <c r="B4" s="4">
         <v>11380.2</v>
       </c>
-      <c r="C4" s="5">
+      <c r="C4" s="9"/>
+      <c r="D4" s="5">
         <f>(B4-B3)*1000</f>
         <v>143800.00000000111</v>
       </c>
-      <c r="D4" s="9">
+      <c r="E4" s="9">
         <f>[2]Sheet1!U8</f>
         <v>48641</v>
       </c>
-      <c r="E4" s="6">
+      <c r="F4" s="6">
         <f t="shared" si="0"/>
         <v>2.9563536933862609</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="21">
         <v>45661</v>
       </c>
       <c r="B5" s="4">
         <v>11525</v>
       </c>
-      <c r="C5" s="5">
-        <f t="shared" ref="C5:C31" si="1">(B5-B4)*1000</f>
+      <c r="C5" s="9"/>
+      <c r="D5" s="5">
+        <f t="shared" ref="D5:D31" si="1">(B5-B4)*1000</f>
         <v>144799.99999999927</v>
       </c>
-      <c r="D5" s="16">
+      <c r="E5" s="16">
         <f>[2]Sheet1!U9</f>
         <v>47464</v>
       </c>
-      <c r="E5" s="6">
+      <c r="F5" s="6">
         <f t="shared" si="0"/>
         <v>3.0507331872576957</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="21">
         <v>45662</v>
       </c>
       <c r="B6" s="4">
         <v>11694</v>
       </c>
-      <c r="C6" s="5">
+      <c r="C6" s="9"/>
+      <c r="D6" s="5">
         <f t="shared" si="1"/>
         <v>169000</v>
       </c>
-      <c r="D6" s="9">
+      <c r="E6" s="9">
         <f>[2]Sheet1!U10</f>
         <v>57975</v>
       </c>
-      <c r="E6" s="6">
+      <c r="F6" s="6">
         <f t="shared" si="0"/>
         <v>2.9150495903406641</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="21">
         <v>45663</v>
       </c>
       <c r="B7" s="4">
         <v>11862.8</v>
       </c>
-      <c r="C7" s="5">
+      <c r="C7" s="9"/>
+      <c r="D7" s="5">
         <f t="shared" si="1"/>
         <v>168799.99999999927</v>
       </c>
-      <c r="D7" s="16">
+      <c r="E7" s="16">
         <f>[2]Sheet1!U11</f>
         <v>58341</v>
       </c>
-      <c r="E7" s="6">
+      <c r="F7" s="6">
         <f t="shared" si="0"/>
         <v>2.8933340189574959</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="21">
         <v>45664</v>
       </c>
       <c r="B8" s="4">
         <v>12009.8</v>
       </c>
-      <c r="C8" s="5">
+      <c r="C8" s="9"/>
+      <c r="D8" s="5">
         <f>(B8-B7)*1000</f>
         <v>147000</v>
       </c>
-      <c r="D8" s="9">
+      <c r="E8" s="9">
         <f>[2]Sheet1!U12</f>
         <v>52934</v>
       </c>
-      <c r="E8" s="6">
+      <c r="F8" s="6">
         <f t="shared" si="0"/>
         <v>2.7770431102882833</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="21">
         <v>45665</v>
       </c>
       <c r="B9" s="4">
         <v>12183</v>
       </c>
-      <c r="C9" s="5">
+      <c r="C9" s="9"/>
+      <c r="D9" s="5">
         <f t="shared" si="1"/>
         <v>173200.00000000073</v>
       </c>
-      <c r="D9" s="16">
+      <c r="E9" s="16">
         <f>[2]Sheet1!U13</f>
         <v>50448</v>
       </c>
-      <c r="E9" s="6">
+      <c r="F9" s="6">
         <f t="shared" si="0"/>
         <v>3.4332381858547558</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="21">
         <v>45666</v>
       </c>
       <c r="B10" s="4">
         <v>12354.3</v>
       </c>
-      <c r="C10" s="5">
+      <c r="C10" s="9"/>
+      <c r="D10" s="5">
         <f t="shared" si="1"/>
         <v>171299.99999999927</v>
       </c>
-      <c r="D10" s="9">
+      <c r="E10" s="9">
         <f>[2]Sheet1!U14</f>
         <v>65465</v>
       </c>
-      <c r="E10" s="6">
+      <c r="F10" s="6">
         <f t="shared" si="0"/>
         <v>2.6166653937218252</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="21">
         <v>45667</v>
       </c>
       <c r="B11" s="4">
         <v>12526.7</v>
       </c>
-      <c r="C11" s="5">
+      <c r="C11" s="9"/>
+      <c r="D11" s="5">
         <f t="shared" si="1"/>
         <v>172400.00000000146</v>
       </c>
-      <c r="D11" s="16">
+      <c r="E11" s="16">
         <f>[2]Sheet1!U15</f>
         <v>58423</v>
       </c>
-      <c r="E11" s="6">
+      <c r="F11" s="6">
         <f t="shared" si="0"/>
         <v>2.9508926279034191</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="21">
         <v>45668</v>
       </c>
       <c r="B12" s="4">
         <v>12693.5</v>
       </c>
-      <c r="C12" s="5">
+      <c r="C12" s="9"/>
+      <c r="D12" s="5">
         <f t="shared" si="1"/>
         <v>166799.99999999927</v>
       </c>
-      <c r="D12" s="9">
+      <c r="E12" s="9">
         <f>[2]Sheet1!U16</f>
         <v>56419</v>
       </c>
-      <c r="E12" s="6">
+      <c r="F12" s="6">
         <f t="shared" si="0"/>
         <v>2.9564508410287185</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="21">
         <v>45669</v>
       </c>
       <c r="B13" s="4">
         <v>12864.4</v>
       </c>
-      <c r="C13" s="5">
+      <c r="C13" s="9"/>
+      <c r="D13" s="5">
         <f>(B13-B12)*1000</f>
         <v>170899.99999999965</v>
       </c>
-      <c r="D13" s="16">
+      <c r="E13" s="16">
         <f>[2]Sheet1!U17</f>
         <v>58678</v>
       </c>
-      <c r="E13" s="6">
+      <c r="F13" s="6">
         <f t="shared" si="0"/>
         <v>2.9125055387027445</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="21">
         <v>45670</v>
       </c>
       <c r="B14" s="4">
         <v>13037.4</v>
       </c>
-      <c r="C14" s="5">
+      <c r="C14" s="9"/>
+      <c r="D14" s="5">
         <f t="shared" si="1"/>
         <v>173000</v>
       </c>
-      <c r="D14" s="9">
+      <c r="E14" s="9">
         <f>[2]Sheet1!U18</f>
         <v>58205</v>
       </c>
-      <c r="E14" s="6">
+      <c r="F14" s="6">
         <f t="shared" si="0"/>
         <v>2.9722532428485526</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="21">
         <v>45671</v>
       </c>
       <c r="B15" s="4">
         <v>13208.3</v>
       </c>
-      <c r="C15" s="5">
+      <c r="C15" s="9"/>
+      <c r="D15" s="5">
         <f t="shared" si="1"/>
         <v>170899.99999999965</v>
       </c>
-      <c r="D15" s="16">
+      <c r="E15" s="16">
         <f>[2]Sheet1!U19</f>
         <v>57968</v>
       </c>
-      <c r="E15" s="6">
+      <c r="F15" s="6">
         <f t="shared" si="0"/>
         <v>2.9481783052718682</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="21">
         <v>45672</v>
       </c>
       <c r="B16" s="4">
         <v>13371.1</v>
       </c>
-      <c r="C16" s="5">
+      <c r="C16" s="9"/>
+      <c r="D16" s="5">
         <f t="shared" si="1"/>
         <v>162800.00000000111</v>
       </c>
-      <c r="D16" s="9">
+      <c r="E16" s="9">
         <f>[2]Sheet1!U20</f>
         <v>54239</v>
       </c>
-      <c r="E16" s="6">
+      <c r="F16" s="6">
         <f t="shared" si="0"/>
         <v>3.0015302642010564</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="21">
         <v>45673</v>
       </c>
       <c r="B17" s="4">
         <v>13524.3</v>
       </c>
-      <c r="C17" s="5">
+      <c r="C17" s="9"/>
+      <c r="D17" s="5">
         <f t="shared" si="1"/>
         <v>153199.99999999889</v>
       </c>
-      <c r="D17" s="16">
+      <c r="E17" s="16">
         <f>[2]Sheet1!U21</f>
         <v>66973</v>
       </c>
-      <c r="E17" s="6">
+      <c r="F17" s="6">
         <f t="shared" si="0"/>
         <v>2.2874889880996654</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="21">
         <v>45674</v>
       </c>
       <c r="B18" s="4">
         <v>13741.5</v>
       </c>
-      <c r="C18" s="5">
+      <c r="C18" s="9"/>
+      <c r="D18" s="5">
         <f t="shared" si="1"/>
         <v>217200.00000000073</v>
       </c>
-      <c r="D18" s="9">
+      <c r="E18" s="9">
         <f>[2]Sheet1!U22</f>
         <v>68507</v>
       </c>
-      <c r="E18" s="6">
+      <c r="F18" s="6">
         <f t="shared" si="0"/>
         <v>3.1704789291605344</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="21">
         <v>45675</v>
       </c>
       <c r="B19" s="4">
         <v>13949.7</v>
       </c>
-      <c r="C19" s="5">
+      <c r="C19" s="9"/>
+      <c r="D19" s="5">
         <f t="shared" si="1"/>
         <v>208200.00000000073</v>
       </c>
-      <c r="D19" s="16">
+      <c r="E19" s="16">
         <f>[2]Sheet1!U23</f>
         <v>62883</v>
       </c>
-      <c r="E19" s="6">
+      <c r="F19" s="6">
         <f t="shared" si="0"/>
         <v>3.3109107389914718</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="21">
         <v>45676</v>
       </c>
       <c r="B20" s="4">
         <v>14095.6</v>
       </c>
-      <c r="C20" s="5">
+      <c r="C20" s="9"/>
+      <c r="D20" s="5">
         <f t="shared" si="1"/>
         <v>145899.99999999965</v>
       </c>
-      <c r="D20" s="9">
+      <c r="E20" s="9">
         <f>[2]Sheet1!U24</f>
         <v>49626</v>
       </c>
-      <c r="E20" s="6">
+      <c r="F20" s="6">
         <f t="shared" si="0"/>
         <v>2.9399911336799187</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="21">
         <v>45677</v>
       </c>
       <c r="B21" s="4">
         <v>14266.4</v>
       </c>
-      <c r="C21" s="5">
+      <c r="C21" s="9"/>
+      <c r="D21" s="5">
         <f t="shared" si="1"/>
         <v>170799.99999999927</v>
       </c>
-      <c r="D21" s="16">
+      <c r="E21" s="16">
         <f>[2]Sheet1!U25</f>
         <v>58465</v>
       </c>
-      <c r="E21" s="6">
+      <c r="F21" s="6">
         <f t="shared" si="0"/>
         <v>2.9214059693833794</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" s="21">
         <v>45678</v>
       </c>
       <c r="B22" s="4">
         <v>14436.9</v>
       </c>
-      <c r="C22" s="5">
+      <c r="C22" s="9"/>
+      <c r="D22" s="5">
         <f t="shared" si="1"/>
         <v>170500</v>
       </c>
-      <c r="D22" s="9">
+      <c r="E22" s="9">
         <f>[2]Sheet1!U26</f>
         <v>58549</v>
       </c>
-      <c r="E22" s="6">
+      <c r="F22" s="6">
         <f t="shared" si="0"/>
         <v>2.9120907274248919</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" s="21">
         <v>45679</v>
       </c>
       <c r="B23" s="4">
         <v>14620.7</v>
       </c>
-      <c r="C23" s="5">
+      <c r="C23" s="9"/>
+      <c r="D23" s="5">
         <f t="shared" si="1"/>
         <v>183800.00000000111</v>
       </c>
-      <c r="D23" s="16">
+      <c r="E23" s="16">
         <f>[2]Sheet1!U27</f>
         <v>59980</v>
       </c>
-      <c r="E23" s="6">
+      <c r="F23" s="6">
         <f t="shared" si="0"/>
         <v>3.0643547849283279</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" s="21">
         <v>45680</v>
       </c>
       <c r="B24" s="4">
         <v>14821.6</v>
       </c>
-      <c r="C24" s="5">
+      <c r="C24" s="9"/>
+      <c r="D24" s="5">
         <f t="shared" si="1"/>
         <v>200899.99999999965</v>
       </c>
-      <c r="D24" s="9">
+      <c r="E24" s="9">
         <f>[2]Sheet1!U28</f>
         <v>66594</v>
       </c>
-      <c r="E24" s="6">
+      <c r="F24" s="6">
         <f t="shared" si="0"/>
         <v>3.0167882992461732</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" s="21">
         <v>45681</v>
       </c>
       <c r="B25" s="4">
         <v>15037.9</v>
       </c>
-      <c r="C25" s="5">
+      <c r="C25" s="9"/>
+      <c r="D25" s="5">
         <f t="shared" si="1"/>
         <v>216299.99999999927</v>
       </c>
-      <c r="D25" s="16">
+      <c r="E25" s="16">
         <f>[2]Sheet1!U29</f>
         <v>70950</v>
       </c>
-      <c r="E25" s="6">
+      <c r="F25" s="6">
         <f t="shared" si="0"/>
         <v>3.048625792811829</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" s="21">
         <v>45682</v>
       </c>
       <c r="B26" s="4">
         <v>15273.7</v>
       </c>
-      <c r="C26" s="5">
+      <c r="C26" s="9"/>
+      <c r="D26" s="5">
         <f t="shared" si="1"/>
         <v>235800.00000000111</v>
       </c>
-      <c r="D26" s="9">
+      <c r="E26" s="9">
         <f>[2]Sheet1!U30</f>
         <v>78568</v>
       </c>
-      <c r="E26" s="6">
+      <c r="F26" s="6">
         <f t="shared" si="0"/>
         <v>3.0012218714998613</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" s="21">
         <v>45683</v>
       </c>
       <c r="B27" s="4">
         <v>15484.1</v>
       </c>
-      <c r="C27" s="5">
+      <c r="C27" s="9"/>
+      <c r="D27" s="5">
         <f t="shared" si="1"/>
         <v>210399.99999999965</v>
       </c>
-      <c r="D27" s="16">
+      <c r="E27" s="16">
         <f>[2]Sheet1!U31</f>
         <v>71467</v>
       </c>
-      <c r="E27" s="6">
+      <c r="F27" s="6">
         <f t="shared" si="0"/>
         <v>2.9440161193277969</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" s="21">
         <v>45684</v>
       </c>
       <c r="B28" s="4">
         <v>15695.8</v>
       </c>
-      <c r="C28" s="5">
+      <c r="C28" s="9"/>
+      <c r="D28" s="5">
         <f t="shared" si="1"/>
         <v>211699.99999999889</v>
       </c>
-      <c r="D28" s="9">
+      <c r="E28" s="9">
         <f>[2]Sheet1!U32</f>
         <v>71945</v>
       </c>
-      <c r="E28" s="6">
+      <c r="F28" s="6">
         <f t="shared" si="0"/>
         <v>2.9425255403433024</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" s="21">
         <v>45685</v>
       </c>
       <c r="B29" s="4">
         <v>15909.9</v>
       </c>
-      <c r="C29" s="5">
+      <c r="C29" s="9"/>
+      <c r="D29" s="5">
         <f t="shared" si="1"/>
         <v>214100.00000000035</v>
       </c>
-      <c r="D29" s="16">
+      <c r="E29" s="16">
         <f>[2]Sheet1!U33</f>
         <v>69243</v>
       </c>
-      <c r="E29" s="6">
+      <c r="F29" s="6">
         <f t="shared" si="0"/>
         <v>3.0920093005791252</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" s="21">
         <v>45686</v>
       </c>
       <c r="B30" s="4">
         <v>16136.6</v>
       </c>
-      <c r="C30" s="5">
+      <c r="C30" s="9"/>
+      <c r="D30" s="5">
         <f t="shared" si="1"/>
         <v>226700.00000000073</v>
       </c>
-      <c r="D30" s="9">
+      <c r="E30" s="9">
         <f>[2]Sheet1!U34</f>
         <v>76346</v>
       </c>
-      <c r="E30" s="6">
+      <c r="F30" s="6">
         <f t="shared" si="0"/>
         <v>2.9693762607078398</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" s="21">
         <v>45687</v>
       </c>
       <c r="B31" s="4">
         <v>16351</v>
       </c>
-      <c r="C31" s="5">
+      <c r="C31" s="9"/>
+      <c r="D31" s="5">
         <f t="shared" si="1"/>
         <v>214399.99999999965</v>
       </c>
-      <c r="D31" s="16">
+      <c r="E31" s="16">
         <f>[2]Sheet1!U35</f>
         <v>71246</v>
       </c>
-      <c r="E31" s="6">
+      <c r="F31" s="6">
         <f t="shared" si="0"/>
         <v>3.0092917497122595</v>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="22">
         <v>45688</v>
       </c>
       <c r="B32" s="7">
         <v>16570.2</v>
       </c>
-      <c r="C32" s="30">
+      <c r="C32" s="10"/>
+      <c r="D32" s="30">
         <f>(B32-B31)*1000</f>
         <v>219200.00000000073</v>
       </c>
-      <c r="D32" s="10">
+      <c r="E32" s="10">
         <f>[2]Sheet1!U36</f>
         <v>72868</v>
       </c>
-      <c r="E32" s="8">
-        <f>C32/D32</f>
+      <c r="F32" s="8">
+        <f>D32/E32</f>
         <v>3.0081791732996752</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A33" s="40">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A33" s="41">
         <v>45689</v>
       </c>
-      <c r="B33" s="42">
+      <c r="B33" s="43">
         <v>16796.900000000001</v>
       </c>
-      <c r="C33" s="43">
-        <f t="shared" ref="C33:C62" si="2">(B33-B32)*1000</f>
+      <c r="C33" s="45"/>
+      <c r="D33" s="44">
+        <f t="shared" ref="D33:D71" si="2">(B33-B32)*1000</f>
         <v>226700.00000000073</v>
       </c>
-      <c r="D33" s="44">
+      <c r="E33" s="45">
         <f>[2]Sheet1!U37</f>
         <v>71689</v>
       </c>
-      <c r="E33" s="45">
-        <f t="shared" ref="E33:E62" si="3">C33/D33</f>
+      <c r="F33" s="46">
+        <f t="shared" ref="F33:F71" si="3">D33/E33</f>
         <v>3.1622703622592132</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" s="13">
         <v>45690</v>
       </c>
       <c r="B34" s="4">
         <v>16983.099999999999</v>
       </c>
-      <c r="C34" s="31">
+      <c r="C34" s="32"/>
+      <c r="D34" s="31">
         <f t="shared" si="2"/>
         <v>186199.99999999709</v>
       </c>
-      <c r="D34" s="32">
+      <c r="E34" s="32">
         <f>[2]Sheet1!U38</f>
         <v>63773</v>
       </c>
-      <c r="E34" s="33">
+      <c r="F34" s="33">
         <f t="shared" si="3"/>
         <v>2.9197309206089894</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" s="13">
         <v>45691</v>
       </c>
       <c r="B35" s="4">
         <v>17201.400000000001</v>
       </c>
-      <c r="C35" s="31">
+      <c r="C35" s="32"/>
+      <c r="D35" s="31">
         <f t="shared" si="2"/>
         <v>218300.00000000291</v>
       </c>
-      <c r="D35" s="32">
+      <c r="E35" s="32">
         <f>[2]Sheet1!U39</f>
         <v>71403</v>
       </c>
-      <c r="E35" s="33">
+      <c r="F35" s="33">
         <f t="shared" si="3"/>
         <v>3.0572945114351344</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" s="13">
         <v>45692</v>
       </c>
       <c r="B36" s="4">
         <v>17411.400000000001</v>
       </c>
-      <c r="C36" s="31">
+      <c r="C36" s="32"/>
+      <c r="D36" s="31">
         <f t="shared" si="2"/>
         <v>210000</v>
       </c>
-      <c r="D36" s="32">
+      <c r="E36" s="32">
         <f>[2]Sheet1!U40</f>
         <v>68826</v>
       </c>
-      <c r="E36" s="33">
+      <c r="F36" s="33">
         <f t="shared" si="3"/>
         <v>3.0511725220120303</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" s="13">
         <v>45693</v>
       </c>
       <c r="B37" s="4">
         <v>17610.2</v>
       </c>
-      <c r="C37" s="31">
+      <c r="C37" s="32"/>
+      <c r="D37" s="31">
         <f t="shared" si="2"/>
         <v>198799.99999999927</v>
       </c>
-      <c r="D37" s="32">
+      <c r="E37" s="32">
         <f>[2]Sheet1!U41</f>
         <v>66010</v>
       </c>
-      <c r="E37" s="33">
+      <c r="F37" s="33">
         <f t="shared" si="3"/>
         <v>3.0116648992576773</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" s="13">
         <v>45694</v>
       </c>
       <c r="B38" s="4">
         <v>17775.7</v>
       </c>
-      <c r="C38" s="31">
+      <c r="C38" s="32"/>
+      <c r="D38" s="31">
         <f t="shared" si="2"/>
         <v>165500</v>
       </c>
-      <c r="D38" s="32">
+      <c r="E38" s="32">
         <f>[2]Sheet1!U42</f>
         <v>52915</v>
       </c>
-      <c r="E38" s="33">
+      <c r="F38" s="33">
         <f t="shared" si="3"/>
         <v>3.1276575640177642</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" s="13">
         <v>45695</v>
       </c>
       <c r="B39" s="4">
         <v>17962.900000000001</v>
       </c>
-      <c r="C39" s="31">
+      <c r="C39" s="32"/>
+      <c r="D39" s="31">
         <f t="shared" si="2"/>
         <v>187200.00000000073</v>
       </c>
-      <c r="D39" s="32">
+      <c r="E39" s="32">
         <f>[2]Sheet1!U43</f>
         <v>70336</v>
       </c>
-      <c r="E39" s="33">
+      <c r="F39" s="33">
         <f t="shared" si="3"/>
         <v>2.661510464058245</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" s="13">
         <v>45696</v>
       </c>
       <c r="B40" s="4">
         <v>18217.900000000001</v>
       </c>
-      <c r="C40" s="31">
+      <c r="C40" s="32"/>
+      <c r="D40" s="31">
         <f t="shared" si="2"/>
         <v>255000</v>
       </c>
-      <c r="D40" s="32">
+      <c r="E40" s="32">
         <f>[2]Sheet1!U44</f>
         <v>77269</v>
       </c>
-      <c r="E40" s="33">
+      <c r="F40" s="33">
         <f t="shared" si="3"/>
         <v>3.3001591841488827</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" s="13">
         <v>45697</v>
       </c>
       <c r="B41" s="4">
         <v>18459.5</v>
       </c>
-      <c r="C41" s="31">
+      <c r="C41" s="32"/>
+      <c r="D41" s="31">
         <f t="shared" si="2"/>
         <v>241599.99999999854</v>
       </c>
-      <c r="D41" s="32">
+      <c r="E41" s="32">
         <f>[2]Sheet1!U45</f>
         <v>81052</v>
       </c>
-      <c r="E41" s="33">
+      <c r="F41" s="33">
         <f t="shared" si="3"/>
         <v>2.9808024478112638</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" s="13">
         <v>45698</v>
       </c>
       <c r="B42" s="4">
         <v>18707.900000000001</v>
       </c>
-      <c r="C42" s="31">
+      <c r="C42" s="32"/>
+      <c r="D42" s="31">
         <f t="shared" si="2"/>
         <v>248400.00000000146</v>
       </c>
-      <c r="D42" s="32">
+      <c r="E42" s="32">
         <f>[2]Sheet1!U46</f>
         <v>84392</v>
       </c>
-      <c r="E42" s="33">
+      <c r="F42" s="33">
         <f t="shared" si="3"/>
         <v>2.9434069580055153</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" s="13">
         <v>45699</v>
       </c>
       <c r="B43" s="4">
         <v>18922.599999999999</v>
       </c>
-      <c r="C43" s="31">
+      <c r="C43" s="32"/>
+      <c r="D43" s="31">
         <f t="shared" si="2"/>
         <v>214699.99999999709</v>
       </c>
-      <c r="D43" s="32">
+      <c r="E43" s="32">
         <f>[2]Sheet1!U47</f>
         <v>75872</v>
       </c>
-      <c r="E43" s="33">
+      <c r="F43" s="33">
         <f t="shared" si="3"/>
         <v>2.8297659215520494</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" s="13">
         <v>45700</v>
       </c>
       <c r="B44" s="4">
         <v>19047.5</v>
       </c>
-      <c r="C44" s="31">
+      <c r="C44" s="32"/>
+      <c r="D44" s="31">
         <f>(B44-B43)*1000</f>
         <v>124900.00000000146</v>
       </c>
-      <c r="D44" s="32">
+      <c r="E44" s="32">
         <f>[2]Sheet1!U48</f>
         <v>40308</v>
       </c>
-      <c r="E44" s="33">
+      <c r="F44" s="33">
         <f t="shared" si="3"/>
         <v>3.0986404683934072</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" s="13">
         <v>45701</v>
       </c>
       <c r="B45" s="4">
         <v>19299.7</v>
       </c>
-      <c r="C45" s="31">
+      <c r="C45" s="32"/>
+      <c r="D45" s="31">
         <f t="shared" si="2"/>
         <v>252200.00000000073</v>
       </c>
-      <c r="D45" s="32">
+      <c r="E45" s="32">
         <f>[2]Sheet1!U49</f>
         <v>86259</v>
       </c>
-      <c r="E45" s="33">
+      <c r="F45" s="33">
         <f t="shared" si="3"/>
         <v>2.9237528837570657</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" s="13">
         <v>45702</v>
       </c>
       <c r="B46" s="4">
         <v>19539.599999999999</v>
       </c>
-      <c r="C46" s="31">
+      <c r="C46" s="32"/>
+      <c r="D46" s="31">
         <f t="shared" si="2"/>
         <v>239899.99999999782</v>
       </c>
-      <c r="D46" s="32">
+      <c r="E46" s="32">
         <f>[2]Sheet1!U50</f>
         <v>80933</v>
       </c>
-      <c r="E46" s="33">
+      <c r="F46" s="33">
         <f t="shared" si="3"/>
         <v>2.9641802478593133</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" s="13">
         <v>45703</v>
       </c>
       <c r="B47" s="4">
         <v>19772.099999999999</v>
       </c>
-      <c r="C47" s="31">
+      <c r="C47" s="32"/>
+      <c r="D47" s="31">
         <f t="shared" si="2"/>
         <v>232500</v>
       </c>
-      <c r="D47" s="32">
+      <c r="E47" s="32">
         <f>[2]Sheet1!U51</f>
         <v>79044</v>
       </c>
-      <c r="E47" s="33">
+      <c r="F47" s="33">
         <f t="shared" si="3"/>
         <v>2.9413997267344771</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" s="13">
         <v>45704</v>
       </c>
       <c r="B48" s="4">
         <v>19986.5</v>
       </c>
-      <c r="C48" s="31">
+      <c r="C48" s="32"/>
+      <c r="D48" s="31">
         <f t="shared" si="2"/>
         <v>214400.00000000146</v>
       </c>
-      <c r="D48" s="32">
+      <c r="E48" s="32">
         <f>[2]Sheet1!U52</f>
         <v>72540</v>
       </c>
-      <c r="E48" s="33">
+      <c r="F48" s="33">
         <f t="shared" si="3"/>
         <v>2.9556106975462013</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" s="13">
         <v>45705</v>
       </c>
       <c r="B49" s="4">
         <v>20235.3</v>
       </c>
-      <c r="C49" s="31">
+      <c r="C49" s="32"/>
+      <c r="D49" s="31">
         <f t="shared" si="2"/>
         <v>248799.99999999927</v>
       </c>
-      <c r="D49" s="32">
+      <c r="E49" s="32">
         <f>[2]Sheet1!U53</f>
         <v>84015</v>
       </c>
-      <c r="E49" s="33">
+      <c r="F49" s="33">
         <f t="shared" si="3"/>
         <v>2.9613759447717585</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" s="13">
         <v>45706</v>
       </c>
       <c r="B50" s="4">
         <v>20486.3</v>
       </c>
-      <c r="C50" s="31">
+      <c r="C50" s="32"/>
+      <c r="D50" s="31">
         <f t="shared" si="2"/>
         <v>251000</v>
       </c>
-      <c r="D50" s="32">
+      <c r="E50" s="32">
         <f>[2]Sheet1!U54</f>
         <v>82276</v>
       </c>
-      <c r="E50" s="33">
+      <c r="F50" s="33">
         <f t="shared" si="3"/>
         <v>3.0507073751762359</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" s="13">
         <v>45707</v>
       </c>
       <c r="B51" s="4">
         <v>20737.599999999999</v>
       </c>
-      <c r="C51" s="31">
+      <c r="C51" s="32"/>
+      <c r="D51" s="31">
         <f t="shared" si="2"/>
         <v>251299.99999999927</v>
       </c>
-      <c r="D51" s="32">
+      <c r="E51" s="32">
         <f>[2]Sheet1!U55</f>
         <v>84632</v>
       </c>
-      <c r="E51" s="33">
+      <c r="F51" s="33">
         <f t="shared" si="3"/>
         <v>2.9693260232536072</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52" s="13">
         <v>45708</v>
       </c>
       <c r="B52" s="4">
         <v>20990.2</v>
       </c>
-      <c r="C52" s="31">
+      <c r="C52" s="32"/>
+      <c r="D52" s="31">
         <f t="shared" si="2"/>
         <v>252600.00000000218</v>
       </c>
-      <c r="D52" s="32">
+      <c r="E52" s="32">
         <f>[2]Sheet1!U56</f>
         <v>87013</v>
       </c>
-      <c r="E52" s="33">
+      <c r="F52" s="33">
         <f t="shared" si="3"/>
         <v>2.9030144920874141</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53" s="13">
         <v>45709</v>
       </c>
       <c r="B53" s="4">
         <v>21255.7</v>
       </c>
-      <c r="C53" s="31">
+      <c r="C53" s="32"/>
+      <c r="D53" s="31">
         <f t="shared" si="2"/>
         <v>265500</v>
       </c>
-      <c r="D53" s="32">
+      <c r="E53" s="32">
         <f>[2]Sheet1!U57</f>
         <v>89956</v>
       </c>
-      <c r="E53" s="33">
+      <c r="F53" s="33">
         <f t="shared" si="3"/>
         <v>2.9514429276535195</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54" s="13">
         <v>45710</v>
       </c>
       <c r="B54" s="4">
         <v>21479.9</v>
       </c>
-      <c r="C54" s="31">
+      <c r="C54" s="32"/>
+      <c r="D54" s="31">
         <f t="shared" si="2"/>
         <v>224200.00000000073</v>
       </c>
-      <c r="D54" s="32">
+      <c r="E54" s="32">
         <f>[2]Sheet1!U58</f>
         <v>77612</v>
       </c>
-      <c r="E54" s="33">
+      <c r="F54" s="33">
         <f t="shared" si="3"/>
         <v>2.8887285471318962</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55" s="13">
         <v>45711</v>
       </c>
       <c r="B55" s="4">
         <v>21728.1</v>
       </c>
-      <c r="C55" s="31">
+      <c r="C55" s="32"/>
+      <c r="D55" s="31">
         <f t="shared" si="2"/>
         <v>248199.99999999709</v>
       </c>
-      <c r="D55" s="32">
+      <c r="E55" s="32">
         <f>[2]Sheet1!U59</f>
         <v>82831</v>
       </c>
-      <c r="E55" s="33">
+      <c r="F55" s="33">
         <f t="shared" si="3"/>
         <v>2.9964626770170235</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56" s="13">
         <v>45712</v>
       </c>
       <c r="B56" s="4">
         <v>21999.599999999999</v>
       </c>
-      <c r="C56" s="31">
+      <c r="C56" s="32"/>
+      <c r="D56" s="31">
         <f t="shared" si="2"/>
         <v>271500</v>
       </c>
-      <c r="D56" s="32">
+      <c r="E56" s="32">
         <f>[2]Sheet1!U60</f>
         <v>94316</v>
       </c>
-      <c r="E56" s="33">
+      <c r="F56" s="33">
         <f t="shared" si="3"/>
         <v>2.8786208066499852</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57" s="13">
         <v>45713</v>
       </c>
       <c r="B57" s="4">
         <v>22284.5</v>
       </c>
-      <c r="C57" s="31">
+      <c r="C57" s="32"/>
+      <c r="D57" s="31">
         <f t="shared" si="2"/>
         <v>284900.00000000146</v>
       </c>
-      <c r="D57" s="32">
+      <c r="E57" s="32">
         <f>[2]Sheet1!U61</f>
         <v>97557</v>
       </c>
-      <c r="E57" s="33">
+      <c r="F57" s="33">
         <f t="shared" si="3"/>
         <v>2.9203440040181787</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58" s="13">
         <v>45714</v>
       </c>
       <c r="B58" s="4">
         <v>22510</v>
       </c>
-      <c r="C58" s="31">
+      <c r="C58" s="32"/>
+      <c r="D58" s="31">
         <f t="shared" si="2"/>
         <v>225500</v>
       </c>
-      <c r="D58" s="32">
+      <c r="E58" s="32">
         <f>[2]Sheet1!U62</f>
         <v>94135</v>
       </c>
-      <c r="E58" s="33">
+      <c r="F58" s="33">
         <f t="shared" si="3"/>
         <v>2.3954958304562597</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A59" s="13">
         <v>45715</v>
       </c>
       <c r="B59" s="4">
         <v>22827.5</v>
       </c>
-      <c r="C59" s="31">
+      <c r="C59" s="32"/>
+      <c r="D59" s="31">
         <f t="shared" si="2"/>
         <v>317500</v>
       </c>
-      <c r="D59" s="32">
+      <c r="E59" s="32">
         <f>[2]Sheet1!U63</f>
         <v>94228</v>
       </c>
-      <c r="E59" s="33">
+      <c r="F59" s="33">
         <f t="shared" si="3"/>
         <v>3.3694867767542558</v>
       </c>
     </row>
-    <row r="60" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A60" s="41">
+    <row r="60" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A60" s="42">
         <v>45716</v>
       </c>
       <c r="B60" s="7">
         <v>23088.400000000001</v>
       </c>
-      <c r="C60" s="30">
+      <c r="C60" s="10">
+        <v>20275</v>
+      </c>
+      <c r="D60" s="30">
         <f t="shared" si="2"/>
         <v>260900.00000000146</v>
       </c>
-      <c r="D60" s="10">
+      <c r="E60" s="10">
         <f>[2]Sheet1!U64</f>
         <v>95898</v>
       </c>
-      <c r="E60" s="8">
+      <c r="F60" s="8">
         <f t="shared" si="3"/>
         <v>2.7205989697386959</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A61" s="39">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A61" s="40">
         <v>45717</v>
       </c>
       <c r="B61" s="34">
         <v>23352.1</v>
       </c>
-      <c r="C61" s="35">
+      <c r="C61" s="36">
+        <v>20513</v>
+      </c>
+      <c r="D61" s="35">
         <f t="shared" si="2"/>
         <v>263699.99999999709</v>
       </c>
-      <c r="D61" s="36">
+      <c r="E61" s="36">
         <f>[2]Sheet1!U65</f>
         <v>90569</v>
       </c>
-      <c r="E61" s="37">
+      <c r="F61" s="37">
         <f t="shared" si="3"/>
         <v>2.911592266669579</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A62" s="21">
         <v>45718</v>
       </c>
       <c r="B62" s="4">
         <v>23616.6</v>
       </c>
-      <c r="C62" s="31">
+      <c r="C62" s="32">
+        <v>20751</v>
+      </c>
+      <c r="D62" s="31">
         <f t="shared" si="2"/>
         <v>264500</v>
       </c>
-      <c r="D62" s="32">
+      <c r="E62" s="32">
         <f>[2]Sheet1!U66</f>
         <v>91249</v>
       </c>
-      <c r="E62" s="33">
+      <c r="F62" s="33">
         <f t="shared" si="3"/>
         <v>2.8986619031441441</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A63" s="13">
+        <v>45719</v>
+      </c>
+      <c r="B63" s="4">
+        <v>23907.200000000001</v>
+      </c>
+      <c r="C63" s="32">
+        <v>21014</v>
+      </c>
+      <c r="D63" s="31">
+        <f t="shared" si="2"/>
+        <v>290600.00000000221</v>
+      </c>
+      <c r="E63" s="32">
+        <f>[2]Sheet1!U67</f>
+        <v>102134</v>
+      </c>
+      <c r="F63" s="33">
+        <f t="shared" si="3"/>
+        <v>2.8452816887618444</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A64" s="39">
+        <v>45720</v>
+      </c>
+      <c r="B64" s="4">
+        <v>24146.5</v>
+      </c>
+      <c r="C64" s="32">
+        <v>21229</v>
+      </c>
+      <c r="D64" s="31">
+        <f t="shared" si="2"/>
+        <v>239299.99999999927</v>
+      </c>
+      <c r="E64" s="32">
+        <f>[2]Sheet1!U68</f>
+        <v>86868</v>
+      </c>
+      <c r="F64" s="33">
+        <f t="shared" si="3"/>
+        <v>2.7547543399180281</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A65" s="21">
+        <v>45721</v>
+      </c>
+      <c r="B65" s="4">
+        <v>24398.6</v>
+      </c>
+      <c r="C65" s="32">
+        <v>21455</v>
+      </c>
+      <c r="D65" s="31">
+        <f t="shared" si="2"/>
+        <v>252099.99999999854</v>
+      </c>
+      <c r="E65" s="32">
+        <f>[2]Sheet1!U69</f>
+        <v>86339</v>
+      </c>
+      <c r="F65" s="33">
+        <f t="shared" si="3"/>
+        <v>2.919885567356566</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A66" s="21">
+        <v>45722</v>
+      </c>
+      <c r="B66" s="4">
+        <v>24667.5</v>
+      </c>
+      <c r="C66" s="32">
+        <v>21699</v>
+      </c>
+      <c r="D66" s="31">
+        <f t="shared" si="2"/>
+        <v>268900.00000000146</v>
+      </c>
+      <c r="E66" s="32">
+        <f>[2]Sheet1!U70</f>
+        <v>92995</v>
+      </c>
+      <c r="F66" s="33">
+        <f t="shared" si="3"/>
+        <v>2.8915533093177208</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A67" s="21">
+        <v>45723</v>
+      </c>
+      <c r="B67" s="4">
+        <v>24984.3</v>
+      </c>
+      <c r="C67" s="32">
+        <v>21985</v>
+      </c>
+      <c r="D67" s="31">
+        <f t="shared" si="2"/>
+        <v>316799.9999999993</v>
+      </c>
+      <c r="E67" s="32">
+        <f>[2]Sheet1!U71</f>
+        <v>103104</v>
+      </c>
+      <c r="F67" s="33">
+        <f t="shared" si="3"/>
+        <v>3.0726256983240154</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A68" s="21">
+        <v>45724</v>
+      </c>
+      <c r="B68" s="4">
+        <v>25249.1</v>
+      </c>
+      <c r="C68" s="32">
+        <v>22224</v>
+      </c>
+      <c r="D68" s="31">
+        <f t="shared" si="2"/>
+        <v>264799.9999999993</v>
+      </c>
+      <c r="E68" s="32">
+        <f>[2]Sheet1!U72</f>
+        <v>101998</v>
+      </c>
+      <c r="F68" s="33">
+        <f t="shared" si="3"/>
+        <v>2.5961293358693238</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A69" s="21">
+        <v>45725</v>
+      </c>
+      <c r="B69" s="4">
+        <v>25523.4</v>
+      </c>
+      <c r="C69" s="32">
+        <v>22470</v>
+      </c>
+      <c r="D69" s="31">
+        <f t="shared" si="2"/>
+        <v>274300.00000000291</v>
+      </c>
+      <c r="E69" s="32">
+        <f>[2]Sheet1!U73</f>
+        <v>94813</v>
+      </c>
+      <c r="F69" s="33">
+        <f t="shared" si="3"/>
+        <v>2.8930631875376047</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A70" s="21">
+        <v>45726</v>
+      </c>
+      <c r="B70" s="4">
+        <v>25781</v>
+      </c>
+      <c r="C70" s="32">
+        <v>22763</v>
+      </c>
+      <c r="D70" s="31">
+        <f t="shared" si="2"/>
+        <v>257599.99999999854</v>
+      </c>
+      <c r="E70" s="32">
+        <f>[2]Sheet1!U74</f>
+        <v>87541</v>
+      </c>
+      <c r="F70" s="33">
+        <f t="shared" si="3"/>
+        <v>2.9426211717937716</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A71" s="21">
+        <v>45727</v>
+      </c>
+      <c r="B71" s="4">
+        <v>26072.7</v>
+      </c>
+      <c r="C71" s="32">
+        <v>23030</v>
+      </c>
+      <c r="D71" s="31">
+        <f t="shared" si="2"/>
+        <v>291700.0000000007</v>
+      </c>
+      <c r="E71" s="32">
+        <f>[2]Sheet1!U75</f>
+        <v>102068</v>
+      </c>
+      <c r="F71" s="33">
+        <f t="shared" si="3"/>
+        <v>2.8578986557981021</v>
       </c>
     </row>
   </sheetData>

--- a/Consommation spécifique.xlsx
+++ b/Consommation spécifique.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\Projects\wave2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{ECA1B9F7-7513-4501-97D0-306249163FAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8454AC40-1E95-4226-B042-55383D5EC5DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30612" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{4E830341-EBCA-4A95-9BBE-9CDD49815F8C}"/>
+    <workbookView xWindow="30612" yWindow="-108" windowWidth="30936" windowHeight="16896" activeTab="1" xr2:uid="{4E830341-EBCA-4A95-9BBE-9CDD49815F8C}"/>
   </bookViews>
   <sheets>
     <sheet name="Produits chimiques" sheetId="1" r:id="rId1"/>
@@ -121,7 +121,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="42">
+  <borders count="34">
     <border>
       <left/>
       <right/>
@@ -240,16 +240,14 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
+      <left/>
+      <right style="thin">
         <color indexed="64"/>
       </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="medium">
+      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -262,7 +260,65 @@
       <top style="thin">
         <color indexed="64"/>
       </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
       <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -272,10 +328,8 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
+      <top/>
+      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -284,56 +338,11 @@
       <left style="medium">
         <color indexed="64"/>
       </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -343,30 +352,6 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
       <top style="medium">
         <color indexed="64"/>
       </top>
@@ -450,34 +435,6 @@
         <color indexed="64"/>
       </right>
       <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
         <color indexed="64"/>
       </top>
       <bottom/>
@@ -495,19 +452,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color indexed="64"/>
       </left>
@@ -518,33 +462,11 @@
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
         <color indexed="64"/>
       </right>
       <top/>
@@ -600,34 +522,8 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
         <color indexed="64"/>
       </right>
       <top style="medium">
@@ -662,7 +558,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -691,55 +587,52 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -751,19 +644,28 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
@@ -775,37 +677,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -845,7 +717,7 @@
       <sheetName val="ASC"/>
       <sheetName val="NaOCl Trait"/>
       <sheetName val="Dépotage"/>
-      <sheetName val="Feuil1"/>
+      <sheetName val="Feuil4"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0"/>
@@ -1196,6 +1068,46 @@
             <v>2.6021867774424812</v>
           </cell>
         </row>
+        <row r="73">
+          <cell r="F73">
+            <v>2.531882775493187</v>
+          </cell>
+        </row>
+        <row r="74">
+          <cell r="F74">
+            <v>3.0467656118734476</v>
+          </cell>
+        </row>
+        <row r="75">
+          <cell r="F75">
+            <v>2.8606372173047823</v>
+          </cell>
+        </row>
+        <row r="76">
+          <cell r="F76">
+            <v>2.0061228541276854</v>
+          </cell>
+        </row>
+        <row r="77">
+          <cell r="F77">
+            <v>5.8303943400850278</v>
+          </cell>
+        </row>
+        <row r="78">
+          <cell r="F78">
+            <v>0.40313806333390223</v>
+          </cell>
+        </row>
+        <row r="79">
+          <cell r="F79">
+            <v>2.4805941693466504</v>
+          </cell>
+        </row>
+        <row r="80">
+          <cell r="F80">
+            <v>1.6574365512570344</v>
+          </cell>
+        </row>
       </sheetData>
       <sheetData sheetId="3">
         <row r="3">
@@ -1548,6 +1460,46 @@
             <v>0</v>
           </cell>
         </row>
+        <row r="73">
+          <cell r="F73">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="74">
+          <cell r="F74">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="75">
+          <cell r="F75">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="76">
+          <cell r="F76">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="77">
+          <cell r="F77">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="78">
+          <cell r="F78">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="79">
+          <cell r="F79">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="80">
+          <cell r="F80">
+            <v>0</v>
+          </cell>
+        </row>
       </sheetData>
       <sheetData sheetId="4">
         <row r="3">
@@ -1897,6 +1849,46 @@
         </row>
         <row r="72">
           <cell r="F72">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="73">
+          <cell r="F73">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="74">
+          <cell r="F74">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="75">
+          <cell r="F75">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="76">
+          <cell r="F76">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="77">
+          <cell r="F77">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="78">
+          <cell r="F78">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="79">
+          <cell r="F79">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="80">
+          <cell r="F80">
             <v>0</v>
           </cell>
         </row>
@@ -2253,6 +2245,46 @@
             <v>7.555747148959524</v>
           </cell>
         </row>
+        <row r="73">
+          <cell r="I73">
+            <v>7.7955338087553985</v>
+          </cell>
+        </row>
+        <row r="74">
+          <cell r="I74">
+            <v>6.4519742369084288</v>
+          </cell>
+        </row>
+        <row r="75">
+          <cell r="I75">
+            <v>6.9318629381646231</v>
+          </cell>
+        </row>
+        <row r="76">
+          <cell r="I76">
+            <v>4.2212168388937066</v>
+          </cell>
+        </row>
+        <row r="77">
+          <cell r="I77">
+            <v>8.3193930934546501</v>
+          </cell>
+        </row>
+        <row r="78">
+          <cell r="I78">
+            <v>6.6334535875851799</v>
+          </cell>
+        </row>
+        <row r="79">
+          <cell r="I79">
+            <v>6.0904453127455183</v>
+          </cell>
+        </row>
+        <row r="80">
+          <cell r="I80">
+            <v>6.5022510857006175</v>
+          </cell>
+        </row>
       </sheetData>
       <sheetData sheetId="7">
         <row r="3">
@@ -2605,6 +2637,46 @@
             <v>0</v>
           </cell>
         </row>
+        <row r="73">
+          <cell r="F73">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="74">
+          <cell r="F74">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="75">
+          <cell r="F75">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="76">
+          <cell r="F76">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="77">
+          <cell r="F77">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="78">
+          <cell r="F78">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="79">
+          <cell r="F79">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="80">
+          <cell r="F80">
+            <v>0</v>
+          </cell>
+        </row>
       </sheetData>
       <sheetData sheetId="8">
         <row r="3">
@@ -2955,6 +3027,46 @@
         <row r="72">
           <cell r="F72">
             <v>9.4054943762953772E-2</v>
+          </cell>
+        </row>
+        <row r="73">
+          <cell r="F73">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="74">
+          <cell r="F74">
+            <v>0.3584430131615996</v>
+          </cell>
+        </row>
+        <row r="75">
+          <cell r="F75">
+            <v>3.3166808316591946E-2</v>
+          </cell>
+        </row>
+        <row r="76">
+          <cell r="F76">
+            <v>6.6870761804230808E-2</v>
+          </cell>
+        </row>
+        <row r="77">
+          <cell r="F77">
+            <v>0.2045752400029987</v>
+          </cell>
+        </row>
+        <row r="78">
+          <cell r="F78">
+            <v>0.21989348909119724</v>
+          </cell>
+        </row>
+        <row r="79">
+          <cell r="F79">
+            <v>0.10056462848703365</v>
+          </cell>
+        </row>
+        <row r="80">
+          <cell r="F80">
+            <v>0.1912426789912092</v>
           </cell>
         </row>
       </sheetData>
@@ -3309,6 +3421,46 @@
             <v>1.8183955794176516</v>
           </cell>
         </row>
+        <row r="73">
+          <cell r="G73">
+            <v>4.6306803393889</v>
+          </cell>
+        </row>
+        <row r="74">
+          <cell r="G74">
+            <v>1.2187062447493551</v>
+          </cell>
+        </row>
+        <row r="75">
+          <cell r="G75">
+            <v>4.6433531643208097</v>
+          </cell>
+        </row>
+        <row r="76">
+          <cell r="G76">
+            <v>6.2524162286980047</v>
+          </cell>
+        </row>
+        <row r="77">
+          <cell r="G77">
+            <v>8.5921600801253017</v>
+          </cell>
+        </row>
+        <row r="78">
+          <cell r="G78">
+            <v>8.172708011223726</v>
+          </cell>
+        </row>
+        <row r="79">
+          <cell r="G79">
+            <v>8.5479934213972264</v>
+          </cell>
+        </row>
+        <row r="80">
+          <cell r="G80">
+            <v>15.140045420136255</v>
+          </cell>
+        </row>
       </sheetData>
       <sheetData sheetId="10">
         <row r="3">
@@ -3659,6 +3811,46 @@
         <row r="72">
           <cell r="F72">
             <v>3.2772269467413881</v>
+          </cell>
+        </row>
+        <row r="73">
+          <cell r="F73">
+            <v>3.6073083129457064</v>
+          </cell>
+        </row>
+        <row r="74">
+          <cell r="F74">
+            <v>3.8980677681321745</v>
+          </cell>
+        </row>
+        <row r="75">
+          <cell r="F75">
+            <v>3.4825148732406075</v>
+          </cell>
+        </row>
+        <row r="76">
+          <cell r="F76">
+            <v>3.3853323163404978</v>
+          </cell>
+        </row>
+        <row r="77">
+          <cell r="F77">
+            <v>3.8198033094306987</v>
+          </cell>
+        </row>
+        <row r="78">
+          <cell r="F78">
+            <v>3.9683903109431555</v>
+          </cell>
+        </row>
+        <row r="79">
+          <cell r="F79">
+            <v>3.5511884434480954</v>
+          </cell>
+        </row>
+        <row r="80">
+          <cell r="F80">
+            <v>3.3616877166421006</v>
           </cell>
         </row>
       </sheetData>
@@ -4034,10 +4226,50 @@
             <v>102068</v>
           </cell>
         </row>
+        <row r="76">
+          <cell r="U76">
+            <v>96055</v>
+          </cell>
+        </row>
+        <row r="77">
+          <cell r="U77">
+            <v>89275</v>
+          </cell>
+        </row>
+        <row r="78">
+          <cell r="U78">
+            <v>96482</v>
+          </cell>
+        </row>
+        <row r="79">
+          <cell r="U79">
+            <v>95707</v>
+          </cell>
+        </row>
+        <row r="80">
+          <cell r="U80">
+            <v>93853</v>
+          </cell>
+        </row>
+        <row r="81">
+          <cell r="U81">
+            <v>87315</v>
+          </cell>
+        </row>
+        <row r="82">
+          <cell r="U82">
+            <v>95461</v>
+          </cell>
+        </row>
+        <row r="83">
+          <cell r="U83">
+            <v>100396</v>
+          </cell>
+        </row>
       </sheetData>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
+      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="3" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -4340,11 +4572,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BC5C344-277E-4945-8E25-AE6A0B860AD5}">
-  <dimension ref="A1:K71"/>
+  <dimension ref="A1:K79"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:XFD1"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A61" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A80" sqref="A80:XFD367"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4362,37 +4594,37 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="28" t="s">
+      <c r="B1" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="15" t="s">
+      <c r="C1" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="15" t="s">
+      <c r="D1" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="29" t="s">
+      <c r="E1" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="27" t="s">
+      <c r="F1" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="G1" s="15" t="s">
+      <c r="G1" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="H1" s="15" t="s">
+      <c r="H1" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="I1" s="29" t="s">
+      <c r="I1" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="J1" s="27" t="s">
+      <c r="J1" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="K1" s="29" t="s">
+      <c r="K1" s="28" t="s">
         <v>14</v>
       </c>
     </row>
@@ -4400,7 +4632,7 @@
       <c r="A2" s="3">
         <v>45658</v>
       </c>
-      <c r="B2" s="26">
+      <c r="B2" s="25">
         <f>'[1]NaOCl Pré'!$F$3</f>
         <v>-6.0179787114013165E-2</v>
       </c>
@@ -4433,10 +4665,10 @@
         <v>3.7800428780983282</v>
       </c>
       <c r="J2" s="4"/>
-      <c r="K2" s="38"/>
+      <c r="K2" s="32"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A3" s="23">
+      <c r="A3" s="22">
         <v>45659</v>
       </c>
       <c r="B3" s="4">
@@ -4472,10 +4704,10 @@
         <v>3.1525499386229088</v>
       </c>
       <c r="J3" s="4"/>
-      <c r="K3" s="38"/>
+      <c r="K3" s="32"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A4" s="23">
+      <c r="A4" s="22">
         <v>45660</v>
       </c>
       <c r="B4" s="4">
@@ -4511,10 +4743,10 @@
         <v>3.1763327234226373</v>
       </c>
       <c r="J4" s="4"/>
-      <c r="K4" s="38"/>
+      <c r="K4" s="32"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A5" s="23">
+      <c r="A5" s="22">
         <v>45661</v>
       </c>
       <c r="B5" s="4">
@@ -4550,10 +4782,10 @@
         <v>3.9503623799089835</v>
       </c>
       <c r="J5" s="4"/>
-      <c r="K5" s="38"/>
+      <c r="K5" s="32"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A6" s="23">
+      <c r="A6" s="22">
         <v>45662</v>
       </c>
       <c r="B6" s="4">
@@ -4589,10 +4821,10 @@
         <v>3.7257438551099495</v>
       </c>
       <c r="J6" s="4"/>
-      <c r="K6" s="38"/>
+      <c r="K6" s="32"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A7" s="23">
+      <c r="A7" s="22">
         <v>45663</v>
       </c>
       <c r="B7" s="4">
@@ -4628,10 +4860,10 @@
         <v>1.5169434874273937</v>
       </c>
       <c r="J7" s="4"/>
-      <c r="K7" s="38"/>
+      <c r="K7" s="32"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A8" s="23">
+      <c r="A8" s="22">
         <v>45664</v>
       </c>
       <c r="B8" s="4">
@@ -4667,10 +4899,10 @@
         <v>6.3191899346355722</v>
       </c>
       <c r="J8" s="4"/>
-      <c r="K8" s="38"/>
+      <c r="K8" s="32"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A9" s="23">
+      <c r="A9" s="22">
         <v>45665</v>
       </c>
       <c r="B9" s="4">
@@ -4706,10 +4938,10 @@
         <v>4.9952426260704046</v>
       </c>
       <c r="J9" s="4"/>
-      <c r="K9" s="38"/>
+      <c r="K9" s="32"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A10" s="23">
+      <c r="A10" s="22">
         <v>45666</v>
       </c>
       <c r="B10" s="4">
@@ -4745,10 +4977,10 @@
         <v>4.3763843275032466</v>
       </c>
       <c r="J10" s="4"/>
-      <c r="K10" s="38"/>
+      <c r="K10" s="32"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A11" s="23">
+      <c r="A11" s="22">
         <v>45667</v>
       </c>
       <c r="B11" s="4">
@@ -4784,10 +5016,10 @@
         <v>2.5845985314003048</v>
       </c>
       <c r="J11" s="4"/>
-      <c r="K11" s="38"/>
+      <c r="K11" s="32"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A12" s="23">
+      <c r="A12" s="22">
         <v>45668</v>
       </c>
       <c r="B12" s="4">
@@ -4823,10 +5055,10 @@
         <v>2.4991580850422732</v>
       </c>
       <c r="J12" s="4"/>
-      <c r="K12" s="38"/>
+      <c r="K12" s="32"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A13" s="23">
+      <c r="A13" s="22">
         <v>45669</v>
       </c>
       <c r="B13" s="4">
@@ -4862,10 +5094,10 @@
         <v>2.863083268005032</v>
       </c>
       <c r="J13" s="4"/>
-      <c r="K13" s="38"/>
+      <c r="K13" s="32"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A14" s="23">
+      <c r="A14" s="22">
         <v>45670</v>
       </c>
       <c r="B14" s="4">
@@ -4901,10 +5133,10 @@
         <v>3.0409758611803195</v>
       </c>
       <c r="J14" s="4"/>
-      <c r="K14" s="38"/>
+      <c r="K14" s="32"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A15" s="23">
+      <c r="A15" s="22">
         <v>45671</v>
       </c>
       <c r="B15" s="4">
@@ -4940,10 +5172,10 @@
         <v>2.9757797405465141</v>
       </c>
       <c r="J15" s="4"/>
-      <c r="K15" s="38"/>
+      <c r="K15" s="32"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A16" s="23">
+      <c r="A16" s="22">
         <v>45672</v>
       </c>
       <c r="B16" s="4">
@@ -4979,10 +5211,10 @@
         <v>3.2356791238776443</v>
       </c>
       <c r="J16" s="4"/>
-      <c r="K16" s="38"/>
+      <c r="K16" s="32"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A17" s="23">
+      <c r="A17" s="22">
         <v>45673</v>
       </c>
       <c r="B17" s="4">
@@ -5018,10 +5250,10 @@
         <v>4.0986666268496226</v>
       </c>
       <c r="J17" s="4"/>
-      <c r="K17" s="38"/>
+      <c r="K17" s="32"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A18" s="23">
+      <c r="A18" s="22">
         <v>45674</v>
       </c>
       <c r="B18" s="4">
@@ -5057,10 +5289,10 @@
         <v>4.4885924066153846</v>
       </c>
       <c r="J18" s="4"/>
-      <c r="K18" s="38"/>
+      <c r="K18" s="32"/>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A19" s="23">
+      <c r="A19" s="22">
         <v>45675</v>
       </c>
       <c r="B19" s="4">
@@ -5096,10 +5328,10 @@
         <v>3.4588044463527545</v>
       </c>
       <c r="J19" s="4"/>
-      <c r="K19" s="38"/>
+      <c r="K19" s="32"/>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A20" s="23">
+      <c r="A20" s="22">
         <v>45676</v>
       </c>
       <c r="B20" s="4">
@@ -5135,10 +5367,10 @@
         <v>3.173739571998544</v>
       </c>
       <c r="J20" s="4"/>
-      <c r="K20" s="38"/>
+      <c r="K20" s="32"/>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A21" s="23">
+      <c r="A21" s="22">
         <v>45677</v>
       </c>
       <c r="B21" s="4">
@@ -5174,10 +5406,10 @@
         <v>2.8478576926366217</v>
       </c>
       <c r="J21" s="4"/>
-      <c r="K21" s="38"/>
+      <c r="K21" s="32"/>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A22" s="23">
+      <c r="A22" s="22">
         <v>45678</v>
       </c>
       <c r="B22" s="4">
@@ -5213,10 +5445,10 @@
         <v>2.9462501494474767</v>
       </c>
       <c r="J22" s="4"/>
-      <c r="K22" s="38"/>
+      <c r="K22" s="32"/>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A23" s="23">
+      <c r="A23" s="22">
         <v>45679</v>
       </c>
       <c r="B23" s="4">
@@ -5252,10 +5484,10 @@
         <v>4.4514838279426527</v>
       </c>
       <c r="J23" s="4"/>
-      <c r="K23" s="38"/>
+      <c r="K23" s="32"/>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A24" s="23">
+      <c r="A24" s="22">
         <v>45680</v>
       </c>
       <c r="B24" s="4">
@@ -5291,10 +5523,10 @@
         <v>4.6625822146139289</v>
       </c>
       <c r="J24" s="4"/>
-      <c r="K24" s="38"/>
+      <c r="K24" s="32"/>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A25" s="23">
+      <c r="A25" s="22">
         <v>45681</v>
       </c>
       <c r="B25" s="4">
@@ -5330,10 +5562,10 @@
         <v>4.2494714587738072</v>
       </c>
       <c r="J25" s="4"/>
-      <c r="K25" s="38"/>
+      <c r="K25" s="32"/>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A26" s="23">
+      <c r="A26" s="22">
         <v>45682</v>
       </c>
       <c r="B26" s="4">
@@ -5369,10 +5601,10 @@
         <v>4.1238163119845206</v>
       </c>
       <c r="J26" s="4"/>
-      <c r="K26" s="38"/>
+      <c r="K26" s="32"/>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A27" s="23">
+      <c r="A27" s="22">
         <v>45683</v>
       </c>
       <c r="B27" s="4">
@@ -5408,10 +5640,10 @@
         <v>4.2607077392362775</v>
       </c>
       <c r="J27" s="4"/>
-      <c r="K27" s="38"/>
+      <c r="K27" s="32"/>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A28" s="23">
+      <c r="A28" s="22">
         <v>45684</v>
       </c>
       <c r="B28" s="4">
@@ -5447,10 +5679,10 @@
         <v>4.3991938286190901</v>
       </c>
       <c r="J28" s="4"/>
-      <c r="K28" s="38"/>
+      <c r="K28" s="32"/>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A29" s="23">
+      <c r="A29" s="22">
         <v>45685</v>
       </c>
       <c r="B29" s="4">
@@ -5486,10 +5718,10 @@
         <v>4.505870629522108</v>
       </c>
       <c r="J29" s="4"/>
-      <c r="K29" s="38"/>
+      <c r="K29" s="32"/>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A30" s="23">
+      <c r="A30" s="22">
         <v>45686</v>
       </c>
       <c r="B30" s="4">
@@ -5525,10 +5757,10 @@
         <v>4.0277159248683638</v>
       </c>
       <c r="J30" s="4"/>
-      <c r="K30" s="38"/>
+      <c r="K30" s="32"/>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A31" s="23">
+      <c r="A31" s="22">
         <v>45687</v>
       </c>
       <c r="B31" s="4">
@@ -5564,10 +5796,10 @@
         <v>4.3160317772225829</v>
       </c>
       <c r="J31" s="4"/>
-      <c r="K31" s="38"/>
+      <c r="K31" s="32"/>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A32" s="23">
+      <c r="A32" s="22">
         <v>45688</v>
       </c>
       <c r="B32" s="4">
@@ -5603,10 +5835,10 @@
         <v>4.5081517264093982</v>
       </c>
       <c r="J32" s="4"/>
-      <c r="K32" s="38"/>
+      <c r="K32" s="32"/>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A33" s="23">
+      <c r="A33" s="22">
         <v>45689</v>
       </c>
       <c r="B33" s="4">
@@ -5642,10 +5874,10 @@
         <v>4.1847424291034923</v>
       </c>
       <c r="J33" s="4"/>
-      <c r="K33" s="38"/>
+      <c r="K33" s="32"/>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A34" s="23">
+      <c r="A34" s="22">
         <v>45690</v>
       </c>
       <c r="B34" s="4">
@@ -5681,10 +5913,10 @@
         <v>5.0099571919150687</v>
       </c>
       <c r="J34" s="4"/>
-      <c r="K34" s="38"/>
+      <c r="K34" s="32"/>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A35" s="23">
+      <c r="A35" s="22">
         <v>45691</v>
       </c>
       <c r="B35" s="4">
@@ -5720,10 +5952,10 @@
         <v>4.4942089267957934</v>
       </c>
       <c r="J35" s="4"/>
-      <c r="K35" s="38"/>
+      <c r="K35" s="32"/>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A36" s="23">
+      <c r="A36" s="22">
         <v>45692</v>
       </c>
       <c r="B36" s="4">
@@ -5759,10 +5991,10 @@
         <v>4.7729055880045212</v>
       </c>
       <c r="J36" s="4"/>
-      <c r="K36" s="38"/>
+      <c r="K36" s="32"/>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A37" s="23">
+      <c r="A37" s="22">
         <v>45693</v>
       </c>
       <c r="B37" s="4">
@@ -5798,10 +6030,10 @@
         <v>5.0674140281775806</v>
       </c>
       <c r="J37" s="4"/>
-      <c r="K37" s="38"/>
+      <c r="K37" s="32"/>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A38" s="23">
+      <c r="A38" s="22">
         <v>45694</v>
       </c>
       <c r="B38" s="4">
@@ -5837,10 +6069,10 @@
         <v>6.0096380988377351</v>
       </c>
       <c r="J38" s="4"/>
-      <c r="K38" s="38"/>
+      <c r="K38" s="32"/>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A39" s="23">
+      <c r="A39" s="22">
         <v>45695</v>
       </c>
       <c r="B39" s="4">
@@ -5876,10 +6108,10 @@
         <v>4.5638080072793414</v>
       </c>
       <c r="J39" s="4"/>
-      <c r="K39" s="38"/>
+      <c r="K39" s="32"/>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A40" s="23">
+      <c r="A40" s="22">
         <v>45696</v>
       </c>
       <c r="B40" s="4">
@@ -5915,10 +6147,10 @@
         <v>3.9796037220618894</v>
       </c>
       <c r="J40" s="4"/>
-      <c r="K40" s="38"/>
+      <c r="K40" s="32"/>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A41" s="23">
+      <c r="A41" s="22">
         <v>45697</v>
       </c>
       <c r="B41" s="4">
@@ -5954,10 +6186,10 @@
         <v>3.9789271085229321</v>
       </c>
       <c r="J41" s="4"/>
-      <c r="K41" s="38"/>
+      <c r="K41" s="32"/>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A42" s="23">
+      <c r="A42" s="22">
         <v>45698</v>
       </c>
       <c r="B42" s="4">
@@ -5993,10 +6225,10 @@
         <v>1.9907100199070968</v>
       </c>
       <c r="J42" s="4"/>
-      <c r="K42" s="38"/>
+      <c r="K42" s="32"/>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A43" s="23">
+      <c r="A43" s="22">
         <v>45699</v>
       </c>
       <c r="B43" s="4">
@@ -6032,10 +6264,10 @@
         <v>6.1682834247153098</v>
       </c>
       <c r="J43" s="4"/>
-      <c r="K43" s="38"/>
+      <c r="K43" s="32"/>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A44" s="23">
+      <c r="A44" s="22">
         <v>45700</v>
       </c>
       <c r="B44" s="4">
@@ -6071,10 +6303,10 @@
         <v>3.2747841619529621</v>
       </c>
       <c r="J44" s="4"/>
-      <c r="K44" s="38"/>
+      <c r="K44" s="32"/>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A45" s="23">
+      <c r="A45" s="22">
         <v>45701</v>
       </c>
       <c r="B45" s="4">
@@ -6110,10 +6342,10 @@
         <v>3.7909087747365486</v>
       </c>
       <c r="J45" s="4"/>
-      <c r="K45" s="38"/>
+      <c r="K45" s="32"/>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A46" s="23">
+      <c r="A46" s="22">
         <v>45702</v>
       </c>
       <c r="B46" s="4">
@@ -6149,10 +6381,10 @@
         <v>3.8179728911568849</v>
       </c>
       <c r="J46" s="4"/>
-      <c r="K46" s="38"/>
+      <c r="K46" s="32"/>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A47" s="23">
+      <c r="A47" s="22">
         <v>45703</v>
       </c>
       <c r="B47" s="4">
@@ -6188,10 +6420,10 @@
         <v>3.9471686655533547</v>
       </c>
       <c r="J47" s="4"/>
-      <c r="K47" s="38"/>
+      <c r="K47" s="32"/>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A48" s="23">
+      <c r="A48" s="22">
         <v>45704</v>
       </c>
       <c r="B48" s="4">
@@ -6227,10 +6459,10 @@
         <v>4.4251447477254011</v>
       </c>
       <c r="J48" s="4"/>
-      <c r="K48" s="38"/>
+      <c r="K48" s="32"/>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A49" s="23">
+      <c r="A49" s="22">
         <v>45705</v>
       </c>
       <c r="B49" s="4">
@@ -6266,10 +6498,10 @@
         <v>3.5707909301910372</v>
       </c>
       <c r="J49" s="4"/>
-      <c r="K49" s="38"/>
+      <c r="K49" s="32"/>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A50" s="23">
+      <c r="A50" s="22">
         <v>45706</v>
       </c>
       <c r="B50" s="4">
@@ -6305,10 +6537,10 @@
         <v>3.7009577519568282</v>
       </c>
       <c r="J50" s="4"/>
-      <c r="K50" s="38"/>
+      <c r="K50" s="32"/>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A51" s="23">
+      <c r="A51" s="22">
         <v>45707</v>
       </c>
       <c r="B51" s="4">
@@ -6344,10 +6576,10 @@
         <v>3.6333774458833537</v>
       </c>
       <c r="J51" s="4"/>
-      <c r="K51" s="38"/>
+      <c r="K51" s="32"/>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A52" s="23">
+      <c r="A52" s="22">
         <v>45708</v>
       </c>
       <c r="B52" s="4">
@@ -6383,10 +6615,10 @@
         <v>3.7580591405881778</v>
       </c>
       <c r="J52" s="4"/>
-      <c r="K52" s="38"/>
+      <c r="K52" s="32"/>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A53" s="23">
+      <c r="A53" s="22">
         <v>45709</v>
       </c>
       <c r="B53" s="4">
@@ -6422,10 +6654,10 @@
         <v>3.8018586864689459</v>
       </c>
       <c r="J53" s="4"/>
-      <c r="K53" s="38"/>
+      <c r="K53" s="32"/>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A54" s="23">
+      <c r="A54" s="22">
         <v>45710</v>
       </c>
       <c r="B54" s="4">
@@ -6461,10 +6693,10 @@
         <v>3.6721125599134168</v>
       </c>
       <c r="J54" s="4"/>
-      <c r="K54" s="38"/>
+      <c r="K54" s="32"/>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A55" s="23">
+      <c r="A55" s="22">
         <v>45711</v>
       </c>
       <c r="B55" s="4">
@@ -6500,10 +6732,10 @@
         <v>4.1288889425456716</v>
       </c>
       <c r="J55" s="4"/>
-      <c r="K55" s="38"/>
+      <c r="K55" s="32"/>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A56" s="23">
+      <c r="A56" s="22">
         <v>45712</v>
       </c>
       <c r="B56" s="4">
@@ -6539,10 +6771,10 @@
         <v>3.467068153865728</v>
       </c>
       <c r="J56" s="4"/>
-      <c r="K56" s="38"/>
+      <c r="K56" s="32"/>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A57" s="23">
+      <c r="A57" s="22">
         <v>45713</v>
       </c>
       <c r="B57" s="4">
@@ -6578,10 +6810,10 @@
         <v>3.3826378424920818</v>
       </c>
       <c r="J57" s="4"/>
-      <c r="K57" s="38"/>
+      <c r="K57" s="32"/>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A58" s="23">
+      <c r="A58" s="22">
         <v>45714</v>
       </c>
       <c r="B58" s="4">
@@ -6617,10 +6849,10 @@
         <v>3.7127529611727734</v>
       </c>
       <c r="J58" s="4"/>
-      <c r="K58" s="38"/>
+      <c r="K58" s="32"/>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A59" s="23">
+      <c r="A59" s="22">
         <v>45715</v>
       </c>
       <c r="B59" s="4">
@@ -6656,10 +6888,10 @@
         <v>3.7250074287897532</v>
       </c>
       <c r="J59" s="4"/>
-      <c r="K59" s="38"/>
+      <c r="K59" s="32"/>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A60" s="23">
+      <c r="A60" s="22">
         <v>45716</v>
       </c>
       <c r="B60" s="4">
@@ -6695,10 +6927,10 @@
         <v>3.5975724206969883</v>
       </c>
       <c r="J60" s="4"/>
-      <c r="K60" s="38"/>
+      <c r="K60" s="32"/>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A61" s="23">
+      <c r="A61" s="22">
         <v>45717</v>
       </c>
       <c r="B61" s="4">
@@ -6734,10 +6966,10 @@
         <v>3.7098786560522949</v>
       </c>
       <c r="J61" s="4"/>
-      <c r="K61" s="38"/>
+      <c r="K61" s="32"/>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A62" s="23">
+      <c r="A62" s="22">
         <v>45718</v>
       </c>
       <c r="B62" s="4">
@@ -6773,10 +7005,10 @@
         <v>3.5671623798616863</v>
       </c>
       <c r="J62" s="4"/>
-      <c r="K62" s="38"/>
+      <c r="K62" s="32"/>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A63" s="23">
+      <c r="A63" s="22">
         <v>45719</v>
       </c>
       <c r="B63" s="4">
@@ -6812,10 +7044,10 @@
         <v>3.495407993420419</v>
       </c>
       <c r="J63" s="4"/>
-      <c r="K63" s="38"/>
+      <c r="K63" s="32"/>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A64" s="23">
+      <c r="A64" s="22">
         <v>45720</v>
       </c>
       <c r="B64" s="4">
@@ -6851,10 +7083,10 @@
         <v>3.7125293548832712</v>
       </c>
       <c r="J64" s="4"/>
-      <c r="K64" s="38"/>
+      <c r="K64" s="32"/>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A65" s="23">
+      <c r="A65" s="22">
         <v>45721</v>
       </c>
       <c r="B65" s="4">
@@ -6890,10 +7122,10 @@
         <v>4.065370226664669</v>
       </c>
       <c r="J65" s="4"/>
-      <c r="K65" s="38"/>
+      <c r="K65" s="32"/>
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A66" s="23">
+      <c r="A66" s="22">
         <v>45722</v>
       </c>
       <c r="B66" s="4">
@@ -6929,10 +7161,10 @@
         <v>3.9195655680412789</v>
       </c>
       <c r="J66" s="4"/>
-      <c r="K66" s="38"/>
+      <c r="K66" s="32"/>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A67" s="23">
+      <c r="A67" s="22">
         <v>45723</v>
       </c>
       <c r="B67" s="4">
@@ -6968,10 +7200,10 @@
         <v>3.3606843575418974</v>
       </c>
       <c r="J67" s="4"/>
-      <c r="K67" s="38"/>
+      <c r="K67" s="32"/>
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A68" s="23">
+      <c r="A68" s="22">
         <v>45724</v>
       </c>
       <c r="B68" s="4">
@@ -7007,10 +7239,10 @@
         <v>3.3383007509951308</v>
       </c>
       <c r="J68" s="4"/>
-      <c r="K68" s="38"/>
+      <c r="K68" s="32"/>
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A69" s="23">
+      <c r="A69" s="22">
         <v>45725</v>
       </c>
       <c r="B69" s="4">
@@ -7046,10 +7278,10 @@
         <v>3.5596384462046293</v>
       </c>
       <c r="J69" s="4"/>
-      <c r="K69" s="38"/>
+      <c r="K69" s="32"/>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A70" s="23">
+      <c r="A70" s="22">
         <v>45726</v>
       </c>
       <c r="B70" s="4">
@@ -7085,10 +7317,10 @@
         <v>3.786797043670957</v>
       </c>
       <c r="J70" s="4"/>
-      <c r="K70" s="38"/>
+      <c r="K70" s="32"/>
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A71" s="23">
+      <c r="A71" s="22">
         <v>45727</v>
       </c>
       <c r="B71" s="4">
@@ -7124,7 +7356,319 @@
         <v>3.2772269467413881</v>
       </c>
       <c r="J71" s="4"/>
-      <c r="K71" s="38"/>
+      <c r="K71" s="32"/>
+    </row>
+    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A72" s="22">
+        <v>45728</v>
+      </c>
+      <c r="B72" s="4">
+        <f>'[1]NaOCl Pré'!F73</f>
+        <v>2.531882775493187</v>
+      </c>
+      <c r="C72" s="4">
+        <f>[1]Acide!F73</f>
+        <v>0</v>
+      </c>
+      <c r="D72" s="4">
+        <f>[1]FeCl3!F73</f>
+        <v>0</v>
+      </c>
+      <c r="E72" s="4">
+        <f>'[1]NaOCl 2 CEB 1'!I73</f>
+        <v>7.7955338087553985</v>
+      </c>
+      <c r="F72" s="4">
+        <f>'[1]Soude CEB 1'!F73</f>
+        <v>0</v>
+      </c>
+      <c r="G72" s="4">
+        <f>'[1]Acide CEB2'!F73</f>
+        <v>0</v>
+      </c>
+      <c r="H72" s="4">
+        <f>[1]SBS!G73</f>
+        <v>4.6306803393889</v>
+      </c>
+      <c r="I72" s="4">
+        <f>[1]ASC!F73</f>
+        <v>3.6073083129457064</v>
+      </c>
+      <c r="J72" s="4"/>
+      <c r="K72" s="32"/>
+    </row>
+    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A73" s="22">
+        <v>45729</v>
+      </c>
+      <c r="B73" s="4">
+        <f>'[1]NaOCl Pré'!F74</f>
+        <v>3.0467656118734476</v>
+      </c>
+      <c r="C73" s="4">
+        <f>[1]Acide!F74</f>
+        <v>0</v>
+      </c>
+      <c r="D73" s="4">
+        <f>[1]FeCl3!F74</f>
+        <v>0</v>
+      </c>
+      <c r="E73" s="4">
+        <f>'[1]NaOCl 2 CEB 1'!I74</f>
+        <v>6.4519742369084288</v>
+      </c>
+      <c r="F73" s="4">
+        <f>'[1]Soude CEB 1'!F74</f>
+        <v>0</v>
+      </c>
+      <c r="G73" s="4">
+        <f>'[1]Acide CEB2'!F74</f>
+        <v>0.3584430131615996</v>
+      </c>
+      <c r="H73" s="4">
+        <f>[1]SBS!G74</f>
+        <v>1.2187062447493551</v>
+      </c>
+      <c r="I73" s="4">
+        <f>[1]ASC!F74</f>
+        <v>3.8980677681321745</v>
+      </c>
+      <c r="J73" s="4"/>
+      <c r="K73" s="32"/>
+    </row>
+    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A74" s="22">
+        <v>45730</v>
+      </c>
+      <c r="B74" s="4">
+        <f>'[1]NaOCl Pré'!F75</f>
+        <v>2.8606372173047823</v>
+      </c>
+      <c r="C74" s="4">
+        <f>[1]Acide!F75</f>
+        <v>0</v>
+      </c>
+      <c r="D74" s="4">
+        <f>[1]FeCl3!F75</f>
+        <v>0</v>
+      </c>
+      <c r="E74" s="4">
+        <f>'[1]NaOCl 2 CEB 1'!I75</f>
+        <v>6.9318629381646231</v>
+      </c>
+      <c r="F74" s="4">
+        <f>'[1]Soude CEB 1'!F75</f>
+        <v>0</v>
+      </c>
+      <c r="G74" s="4">
+        <f>'[1]Acide CEB2'!F75</f>
+        <v>3.3166808316591946E-2</v>
+      </c>
+      <c r="H74" s="4">
+        <f>[1]SBS!G75</f>
+        <v>4.6433531643208097</v>
+      </c>
+      <c r="I74" s="4">
+        <f>[1]ASC!F75</f>
+        <v>3.4825148732406075</v>
+      </c>
+      <c r="J74" s="4"/>
+      <c r="K74" s="32"/>
+    </row>
+    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A75" s="22">
+        <v>45731</v>
+      </c>
+      <c r="B75" s="4">
+        <f>'[1]NaOCl Pré'!F76</f>
+        <v>2.0061228541276854</v>
+      </c>
+      <c r="C75" s="4">
+        <f>[1]Acide!F76</f>
+        <v>0</v>
+      </c>
+      <c r="D75" s="4">
+        <f>[1]FeCl3!F76</f>
+        <v>0</v>
+      </c>
+      <c r="E75" s="4">
+        <f>'[1]NaOCl 2 CEB 1'!I76</f>
+        <v>4.2212168388937066</v>
+      </c>
+      <c r="F75" s="4">
+        <f>'[1]Soude CEB 1'!F76</f>
+        <v>0</v>
+      </c>
+      <c r="G75" s="4">
+        <f>'[1]Acide CEB2'!F76</f>
+        <v>6.6870761804230808E-2</v>
+      </c>
+      <c r="H75" s="4">
+        <f>[1]SBS!G76</f>
+        <v>6.2524162286980047</v>
+      </c>
+      <c r="I75" s="4">
+        <f>[1]ASC!F76</f>
+        <v>3.3853323163404978</v>
+      </c>
+      <c r="J75" s="4"/>
+      <c r="K75" s="32"/>
+    </row>
+    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A76" s="22">
+        <v>45732</v>
+      </c>
+      <c r="B76" s="4">
+        <f>'[1]NaOCl Pré'!F77</f>
+        <v>5.8303943400850278</v>
+      </c>
+      <c r="C76" s="4">
+        <f>[1]Acide!F77</f>
+        <v>0</v>
+      </c>
+      <c r="D76" s="4">
+        <f>[1]FeCl3!F77</f>
+        <v>0</v>
+      </c>
+      <c r="E76" s="4">
+        <f>'[1]NaOCl 2 CEB 1'!I77</f>
+        <v>8.3193930934546501</v>
+      </c>
+      <c r="F76" s="4">
+        <f>'[1]Soude CEB 1'!F77</f>
+        <v>0</v>
+      </c>
+      <c r="G76" s="4">
+        <f>'[1]Acide CEB2'!F77</f>
+        <v>0.2045752400029987</v>
+      </c>
+      <c r="H76" s="4">
+        <f>[1]SBS!G77</f>
+        <v>8.5921600801253017</v>
+      </c>
+      <c r="I76" s="4">
+        <f>[1]ASC!F77</f>
+        <v>3.8198033094306987</v>
+      </c>
+      <c r="J76" s="4"/>
+      <c r="K76" s="32"/>
+    </row>
+    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A77" s="22">
+        <v>45733</v>
+      </c>
+      <c r="B77" s="4">
+        <f>'[1]NaOCl Pré'!F78</f>
+        <v>0.40313806333390223</v>
+      </c>
+      <c r="C77" s="4">
+        <f>[1]Acide!F78</f>
+        <v>0</v>
+      </c>
+      <c r="D77" s="4">
+        <f>[1]FeCl3!F78</f>
+        <v>0</v>
+      </c>
+      <c r="E77" s="4">
+        <f>'[1]NaOCl 2 CEB 1'!I78</f>
+        <v>6.6334535875851799</v>
+      </c>
+      <c r="F77" s="4">
+        <f>'[1]Soude CEB 1'!F78</f>
+        <v>0</v>
+      </c>
+      <c r="G77" s="4">
+        <f>'[1]Acide CEB2'!F78</f>
+        <v>0.21989348909119724</v>
+      </c>
+      <c r="H77" s="4">
+        <f>[1]SBS!G78</f>
+        <v>8.172708011223726</v>
+      </c>
+      <c r="I77" s="4">
+        <f>[1]ASC!F78</f>
+        <v>3.9683903109431555</v>
+      </c>
+      <c r="J77" s="4"/>
+      <c r="K77" s="32"/>
+    </row>
+    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A78" s="22">
+        <v>45734</v>
+      </c>
+      <c r="B78" s="4">
+        <f>'[1]NaOCl Pré'!F79</f>
+        <v>2.4805941693466504</v>
+      </c>
+      <c r="C78" s="4">
+        <f>[1]Acide!F79</f>
+        <v>0</v>
+      </c>
+      <c r="D78" s="4">
+        <f>[1]FeCl3!F79</f>
+        <v>0</v>
+      </c>
+      <c r="E78" s="4">
+        <f>'[1]NaOCl 2 CEB 1'!I79</f>
+        <v>6.0904453127455183</v>
+      </c>
+      <c r="F78" s="4">
+        <f>'[1]Soude CEB 1'!F79</f>
+        <v>0</v>
+      </c>
+      <c r="G78" s="4">
+        <f>'[1]Acide CEB2'!F79</f>
+        <v>0.10056462848703365</v>
+      </c>
+      <c r="H78" s="4">
+        <f>[1]SBS!G79</f>
+        <v>8.5479934213972264</v>
+      </c>
+      <c r="I78" s="4">
+        <f>[1]ASC!F79</f>
+        <v>3.5511884434480954</v>
+      </c>
+      <c r="J78" s="4"/>
+      <c r="K78" s="32"/>
+    </row>
+    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A79" s="22">
+        <v>45735</v>
+      </c>
+      <c r="B79" s="4">
+        <f>'[1]NaOCl Pré'!F80</f>
+        <v>1.6574365512570344</v>
+      </c>
+      <c r="C79" s="4">
+        <f>[1]Acide!F80</f>
+        <v>0</v>
+      </c>
+      <c r="D79" s="4">
+        <f>[1]FeCl3!F80</f>
+        <v>0</v>
+      </c>
+      <c r="E79" s="4">
+        <f>'[1]NaOCl 2 CEB 1'!I80</f>
+        <v>6.5022510857006175</v>
+      </c>
+      <c r="F79" s="4">
+        <f>'[1]Soude CEB 1'!F80</f>
+        <v>0</v>
+      </c>
+      <c r="G79" s="4">
+        <f>'[1]Acide CEB2'!F80</f>
+        <v>0.1912426789912092</v>
+      </c>
+      <c r="H79" s="4">
+        <f>[1]SBS!G80</f>
+        <v>15.140045420136255</v>
+      </c>
+      <c r="I79" s="4">
+        <f>[1]ASC!F80</f>
+        <v>3.3616877166421006</v>
+      </c>
+      <c r="J79" s="4"/>
+      <c r="K79" s="32"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -7134,10 +7678,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07CB649B-6F18-453D-B029-557EF373D866}">
-  <dimension ref="A1:F71"/>
+  <dimension ref="A1:F79"/>
   <sheetViews>
-    <sheetView topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="A72" sqref="A72:XFD367"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A80" sqref="A80:XFD367"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7149,1514 +7693,1698 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="36.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="B1" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="17"/>
-      <c r="D1" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" s="19" t="s">
+      <c r="C1" s="16"/>
+      <c r="D1" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="14" t="s">
+      <c r="F1" s="13" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="23">
+      <c r="A2" s="22">
         <v>45658</v>
       </c>
-      <c r="B2" s="24">
+      <c r="B2" s="23">
         <v>11077.9</v>
       </c>
-      <c r="C2" s="47"/>
-      <c r="D2" s="20">
+      <c r="C2" s="39"/>
+      <c r="D2" s="19">
         <v>163700</v>
       </c>
-      <c r="E2" s="20">
+      <c r="E2" s="19">
         <f>[2]Sheet1!U6</f>
         <v>53174</v>
       </c>
-      <c r="F2" s="25">
-        <f t="shared" ref="F2:F31" si="0">D2/E2</f>
+      <c r="F2" s="24">
+        <f t="shared" ref="F2" si="0">D2/E2</f>
         <v>3.0785722345507205</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="13">
+      <c r="A3" s="12">
         <v>45659</v>
       </c>
-      <c r="B3" s="18">
+      <c r="B3" s="17">
         <v>11236.4</v>
       </c>
-      <c r="C3" s="48"/>
+      <c r="C3" s="40"/>
       <c r="D3" s="5">
-        <f>(B3-B2)*1000</f>
-        <v>158500</v>
-      </c>
-      <c r="E3" s="11">
+        <f>(B3-B2)</f>
+        <v>158.5</v>
+      </c>
+      <c r="E3" s="10">
         <f>[2]Sheet1!U7</f>
         <v>53766</v>
       </c>
       <c r="F3" s="6">
-        <f t="shared" si="0"/>
-        <v>2.947959677119369</v>
+        <f>D3/E3*1000</f>
+        <v>2.9479596771193695</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="21">
+      <c r="A4" s="20">
         <v>45660</v>
       </c>
       <c r="B4" s="4">
         <v>11380.2</v>
       </c>
-      <c r="C4" s="9"/>
+      <c r="C4" s="8"/>
       <c r="D4" s="5">
-        <f>(B4-B3)*1000</f>
-        <v>143800.00000000111</v>
-      </c>
-      <c r="E4" s="9">
+        <f>(B4-B3)</f>
+        <v>143.80000000000109</v>
+      </c>
+      <c r="E4" s="8">
         <f>[2]Sheet1!U8</f>
         <v>48641</v>
       </c>
       <c r="F4" s="6">
-        <f t="shared" si="0"/>
-        <v>2.9563536933862609</v>
+        <f>D4/E4*1000</f>
+        <v>2.9563536933862604</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="21">
+      <c r="A5" s="20">
         <v>45661</v>
       </c>
       <c r="B5" s="4">
         <v>11525</v>
       </c>
-      <c r="C5" s="9"/>
+      <c r="C5" s="8"/>
       <c r="D5" s="5">
-        <f t="shared" ref="D5:D31" si="1">(B5-B4)*1000</f>
-        <v>144799.99999999927</v>
-      </c>
-      <c r="E5" s="16">
+        <f t="shared" ref="D5:D68" si="1">(B5-B4)</f>
+        <v>144.79999999999927</v>
+      </c>
+      <c r="E5" s="15">
         <f>[2]Sheet1!U9</f>
         <v>47464</v>
       </c>
       <c r="F5" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="F5:F68" si="2">D5/E5*1000</f>
         <v>3.0507331872576957</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" s="21">
+      <c r="A6" s="20">
         <v>45662</v>
       </c>
       <c r="B6" s="4">
         <v>11694</v>
       </c>
-      <c r="C6" s="9"/>
+      <c r="C6" s="8"/>
       <c r="D6" s="5">
         <f t="shared" si="1"/>
-        <v>169000</v>
-      </c>
-      <c r="E6" s="9">
+        <v>169</v>
+      </c>
+      <c r="E6" s="8">
         <f>[2]Sheet1!U10</f>
         <v>57975</v>
       </c>
       <c r="F6" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>2.9150495903406641</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" s="21">
+      <c r="A7" s="20">
         <v>45663</v>
       </c>
       <c r="B7" s="4">
         <v>11862.8</v>
       </c>
-      <c r="C7" s="9"/>
+      <c r="C7" s="8"/>
       <c r="D7" s="5">
         <f t="shared" si="1"/>
-        <v>168799.99999999927</v>
-      </c>
-      <c r="E7" s="16">
+        <v>168.79999999999927</v>
+      </c>
+      <c r="E7" s="15">
         <f>[2]Sheet1!U11</f>
         <v>58341</v>
       </c>
       <c r="F7" s="6">
-        <f t="shared" si="0"/>
-        <v>2.8933340189574959</v>
+        <f t="shared" si="2"/>
+        <v>2.8933340189574963</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" s="21">
+      <c r="A8" s="20">
         <v>45664</v>
       </c>
       <c r="B8" s="4">
         <v>12009.8</v>
       </c>
-      <c r="C8" s="9"/>
+      <c r="C8" s="8"/>
       <c r="D8" s="5">
-        <f>(B8-B7)*1000</f>
-        <v>147000</v>
-      </c>
-      <c r="E8" s="9">
+        <f t="shared" si="1"/>
+        <v>147</v>
+      </c>
+      <c r="E8" s="8">
         <f>[2]Sheet1!U12</f>
         <v>52934</v>
       </c>
       <c r="F8" s="6">
-        <f t="shared" si="0"/>
-        <v>2.7770431102882833</v>
+        <f t="shared" si="2"/>
+        <v>2.7770431102882838</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" s="21">
+      <c r="A9" s="20">
         <v>45665</v>
       </c>
       <c r="B9" s="4">
         <v>12183</v>
       </c>
-      <c r="C9" s="9"/>
+      <c r="C9" s="8"/>
       <c r="D9" s="5">
         <f t="shared" si="1"/>
-        <v>173200.00000000073</v>
-      </c>
-      <c r="E9" s="16">
+        <v>173.20000000000073</v>
+      </c>
+      <c r="E9" s="15">
         <f>[2]Sheet1!U13</f>
         <v>50448</v>
       </c>
       <c r="F9" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>3.4332381858547558</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" s="21">
+      <c r="A10" s="20">
         <v>45666</v>
       </c>
       <c r="B10" s="4">
         <v>12354.3</v>
       </c>
-      <c r="C10" s="9"/>
+      <c r="C10" s="8"/>
       <c r="D10" s="5">
         <f t="shared" si="1"/>
-        <v>171299.99999999927</v>
-      </c>
-      <c r="E10" s="9">
+        <v>171.29999999999927</v>
+      </c>
+      <c r="E10" s="8">
         <f>[2]Sheet1!U14</f>
         <v>65465</v>
       </c>
       <c r="F10" s="6">
-        <f t="shared" si="0"/>
-        <v>2.6166653937218252</v>
+        <f t="shared" si="2"/>
+        <v>2.6166653937218247</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" s="21">
+      <c r="A11" s="20">
         <v>45667</v>
       </c>
       <c r="B11" s="4">
         <v>12526.7</v>
       </c>
-      <c r="C11" s="9"/>
+      <c r="C11" s="8"/>
       <c r="D11" s="5">
         <f t="shared" si="1"/>
-        <v>172400.00000000146</v>
-      </c>
-      <c r="E11" s="16">
+        <v>172.40000000000146</v>
+      </c>
+      <c r="E11" s="15">
         <f>[2]Sheet1!U15</f>
         <v>58423</v>
       </c>
       <c r="F11" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>2.9508926279034191</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" s="21">
+      <c r="A12" s="20">
         <v>45668</v>
       </c>
       <c r="B12" s="4">
         <v>12693.5</v>
       </c>
-      <c r="C12" s="9"/>
+      <c r="C12" s="8"/>
       <c r="D12" s="5">
         <f t="shared" si="1"/>
-        <v>166799.99999999927</v>
-      </c>
-      <c r="E12" s="9">
+        <v>166.79999999999927</v>
+      </c>
+      <c r="E12" s="8">
         <f>[2]Sheet1!U16</f>
         <v>56419</v>
       </c>
       <c r="F12" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>2.9564508410287185</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13" s="21">
+      <c r="A13" s="20">
         <v>45669</v>
       </c>
       <c r="B13" s="4">
         <v>12864.4</v>
       </c>
-      <c r="C13" s="9"/>
+      <c r="C13" s="8"/>
       <c r="D13" s="5">
-        <f>(B13-B12)*1000</f>
-        <v>170899.99999999965</v>
-      </c>
-      <c r="E13" s="16">
+        <f t="shared" si="1"/>
+        <v>170.89999999999964</v>
+      </c>
+      <c r="E13" s="15">
         <f>[2]Sheet1!U17</f>
         <v>58678</v>
       </c>
       <c r="F13" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>2.9125055387027445</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A14" s="21">
+      <c r="A14" s="20">
         <v>45670</v>
       </c>
       <c r="B14" s="4">
         <v>13037.4</v>
       </c>
-      <c r="C14" s="9"/>
+      <c r="C14" s="8"/>
       <c r="D14" s="5">
         <f t="shared" si="1"/>
-        <v>173000</v>
-      </c>
-      <c r="E14" s="9">
+        <v>173</v>
+      </c>
+      <c r="E14" s="8">
         <f>[2]Sheet1!U18</f>
         <v>58205</v>
       </c>
       <c r="F14" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>2.9722532428485526</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A15" s="21">
+      <c r="A15" s="20">
         <v>45671</v>
       </c>
       <c r="B15" s="4">
         <v>13208.3</v>
       </c>
-      <c r="C15" s="9"/>
+      <c r="C15" s="8"/>
       <c r="D15" s="5">
         <f t="shared" si="1"/>
-        <v>170899.99999999965</v>
-      </c>
-      <c r="E15" s="16">
+        <v>170.89999999999964</v>
+      </c>
+      <c r="E15" s="15">
         <f>[2]Sheet1!U19</f>
         <v>57968</v>
       </c>
       <c r="F15" s="6">
-        <f t="shared" si="0"/>
-        <v>2.9481783052718682</v>
+        <f t="shared" si="2"/>
+        <v>2.9481783052718677</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A16" s="21">
+      <c r="A16" s="20">
         <v>45672</v>
       </c>
       <c r="B16" s="4">
         <v>13371.1</v>
       </c>
-      <c r="C16" s="9"/>
+      <c r="C16" s="8"/>
       <c r="D16" s="5">
         <f t="shared" si="1"/>
-        <v>162800.00000000111</v>
-      </c>
-      <c r="E16" s="9">
+        <v>162.80000000000109</v>
+      </c>
+      <c r="E16" s="8">
         <f>[2]Sheet1!U20</f>
         <v>54239</v>
       </c>
       <c r="F16" s="6">
-        <f t="shared" si="0"/>
-        <v>3.0015302642010564</v>
+        <f t="shared" si="2"/>
+        <v>3.001530264201056</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A17" s="21">
+      <c r="A17" s="20">
         <v>45673</v>
       </c>
       <c r="B17" s="4">
         <v>13524.3</v>
       </c>
-      <c r="C17" s="9"/>
+      <c r="C17" s="8"/>
       <c r="D17" s="5">
         <f t="shared" si="1"/>
-        <v>153199.99999999889</v>
-      </c>
-      <c r="E17" s="16">
+        <v>153.19999999999891</v>
+      </c>
+      <c r="E17" s="15">
         <f>[2]Sheet1!U21</f>
         <v>66973</v>
       </c>
       <c r="F17" s="6">
-        <f t="shared" si="0"/>
-        <v>2.2874889880996654</v>
+        <f t="shared" si="2"/>
+        <v>2.2874889880996658</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A18" s="21">
+      <c r="A18" s="20">
         <v>45674</v>
       </c>
       <c r="B18" s="4">
         <v>13741.5</v>
       </c>
-      <c r="C18" s="9"/>
+      <c r="C18" s="8"/>
       <c r="D18" s="5">
         <f t="shared" si="1"/>
-        <v>217200.00000000073</v>
-      </c>
-      <c r="E18" s="9">
+        <v>217.20000000000073</v>
+      </c>
+      <c r="E18" s="8">
         <f>[2]Sheet1!U22</f>
         <v>68507</v>
       </c>
       <c r="F18" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>3.1704789291605344</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A19" s="21">
+      <c r="A19" s="20">
         <v>45675</v>
       </c>
       <c r="B19" s="4">
         <v>13949.7</v>
       </c>
-      <c r="C19" s="9"/>
+      <c r="C19" s="8"/>
       <c r="D19" s="5">
         <f t="shared" si="1"/>
-        <v>208200.00000000073</v>
-      </c>
-      <c r="E19" s="16">
+        <v>208.20000000000073</v>
+      </c>
+      <c r="E19" s="15">
         <f>[2]Sheet1!U23</f>
         <v>62883</v>
       </c>
       <c r="F19" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>3.3109107389914718</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A20" s="21">
+      <c r="A20" s="20">
         <v>45676</v>
       </c>
       <c r="B20" s="4">
         <v>14095.6</v>
       </c>
-      <c r="C20" s="9"/>
+      <c r="C20" s="8"/>
       <c r="D20" s="5">
         <f t="shared" si="1"/>
-        <v>145899.99999999965</v>
-      </c>
-      <c r="E20" s="9">
+        <v>145.89999999999964</v>
+      </c>
+      <c r="E20" s="8">
         <f>[2]Sheet1!U24</f>
         <v>49626</v>
       </c>
       <c r="F20" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>2.9399911336799187</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A21" s="21">
+      <c r="A21" s="20">
         <v>45677</v>
       </c>
       <c r="B21" s="4">
         <v>14266.4</v>
       </c>
-      <c r="C21" s="9"/>
+      <c r="C21" s="8"/>
       <c r="D21" s="5">
         <f t="shared" si="1"/>
-        <v>170799.99999999927</v>
-      </c>
-      <c r="E21" s="16">
+        <v>170.79999999999927</v>
+      </c>
+      <c r="E21" s="15">
         <f>[2]Sheet1!U25</f>
         <v>58465</v>
       </c>
       <c r="F21" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>2.9214059693833794</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A22" s="21">
+      <c r="A22" s="20">
         <v>45678</v>
       </c>
       <c r="B22" s="4">
         <v>14436.9</v>
       </c>
-      <c r="C22" s="9"/>
+      <c r="C22" s="8"/>
       <c r="D22" s="5">
         <f t="shared" si="1"/>
-        <v>170500</v>
-      </c>
-      <c r="E22" s="9">
+        <v>170.5</v>
+      </c>
+      <c r="E22" s="8">
         <f>[2]Sheet1!U26</f>
         <v>58549</v>
       </c>
       <c r="F22" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>2.9120907274248919</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A23" s="21">
+      <c r="A23" s="20">
         <v>45679</v>
       </c>
       <c r="B23" s="4">
         <v>14620.7</v>
       </c>
-      <c r="C23" s="9"/>
+      <c r="C23" s="8"/>
       <c r="D23" s="5">
         <f t="shared" si="1"/>
-        <v>183800.00000000111</v>
-      </c>
-      <c r="E23" s="16">
+        <v>183.80000000000109</v>
+      </c>
+      <c r="E23" s="15">
         <f>[2]Sheet1!U27</f>
         <v>59980</v>
       </c>
       <c r="F23" s="6">
-        <f t="shared" si="0"/>
-        <v>3.0643547849283279</v>
+        <f t="shared" si="2"/>
+        <v>3.0643547849283275</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A24" s="21">
+      <c r="A24" s="20">
         <v>45680</v>
       </c>
       <c r="B24" s="4">
         <v>14821.6</v>
       </c>
-      <c r="C24" s="9"/>
+      <c r="C24" s="8"/>
       <c r="D24" s="5">
         <f t="shared" si="1"/>
-        <v>200899.99999999965</v>
-      </c>
-      <c r="E24" s="9">
+        <v>200.89999999999964</v>
+      </c>
+      <c r="E24" s="8">
         <f>[2]Sheet1!U28</f>
         <v>66594</v>
       </c>
       <c r="F24" s="6">
-        <f t="shared" si="0"/>
-        <v>3.0167882992461732</v>
+        <f t="shared" si="2"/>
+        <v>3.0167882992461728</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A25" s="21">
+      <c r="A25" s="20">
         <v>45681</v>
       </c>
       <c r="B25" s="4">
         <v>15037.9</v>
       </c>
-      <c r="C25" s="9"/>
+      <c r="C25" s="8"/>
       <c r="D25" s="5">
         <f t="shared" si="1"/>
-        <v>216299.99999999927</v>
-      </c>
-      <c r="E25" s="16">
+        <v>216.29999999999927</v>
+      </c>
+      <c r="E25" s="15">
         <f>[2]Sheet1!U29</f>
         <v>70950</v>
       </c>
       <c r="F25" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>3.048625792811829</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A26" s="21">
+      <c r="A26" s="20">
         <v>45682</v>
       </c>
       <c r="B26" s="4">
         <v>15273.7</v>
       </c>
-      <c r="C26" s="9"/>
+      <c r="C26" s="8"/>
       <c r="D26" s="5">
         <f t="shared" si="1"/>
-        <v>235800.00000000111</v>
-      </c>
-      <c r="E26" s="9">
+        <v>235.80000000000109</v>
+      </c>
+      <c r="E26" s="8">
         <f>[2]Sheet1!U30</f>
         <v>78568</v>
       </c>
       <c r="F26" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>3.0012218714998613</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A27" s="21">
+      <c r="A27" s="20">
         <v>45683</v>
       </c>
       <c r="B27" s="4">
         <v>15484.1</v>
       </c>
-      <c r="C27" s="9"/>
+      <c r="C27" s="8"/>
       <c r="D27" s="5">
         <f t="shared" si="1"/>
-        <v>210399.99999999965</v>
-      </c>
-      <c r="E27" s="16">
+        <v>210.39999999999964</v>
+      </c>
+      <c r="E27" s="15">
         <f>[2]Sheet1!U31</f>
         <v>71467</v>
       </c>
       <c r="F27" s="6">
-        <f t="shared" si="0"/>
-        <v>2.9440161193277969</v>
+        <f t="shared" si="2"/>
+        <v>2.9440161193277965</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A28" s="21">
+      <c r="A28" s="20">
         <v>45684</v>
       </c>
       <c r="B28" s="4">
         <v>15695.8</v>
       </c>
-      <c r="C28" s="9"/>
+      <c r="C28" s="8"/>
       <c r="D28" s="5">
         <f t="shared" si="1"/>
-        <v>211699.99999999889</v>
-      </c>
-      <c r="E28" s="9">
+        <v>211.69999999999891</v>
+      </c>
+      <c r="E28" s="8">
         <f>[2]Sheet1!U32</f>
         <v>71945</v>
       </c>
       <c r="F28" s="6">
-        <f t="shared" si="0"/>
-        <v>2.9425255403433024</v>
+        <f t="shared" si="2"/>
+        <v>2.9425255403433028</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A29" s="21">
+      <c r="A29" s="20">
         <v>45685</v>
       </c>
       <c r="B29" s="4">
         <v>15909.9</v>
       </c>
-      <c r="C29" s="9"/>
+      <c r="C29" s="8"/>
       <c r="D29" s="5">
         <f t="shared" si="1"/>
-        <v>214100.00000000035</v>
-      </c>
-      <c r="E29" s="16">
+        <v>214.10000000000036</v>
+      </c>
+      <c r="E29" s="15">
         <f>[2]Sheet1!U33</f>
         <v>69243</v>
       </c>
       <c r="F29" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>3.0920093005791252</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A30" s="21">
+      <c r="A30" s="20">
         <v>45686</v>
       </c>
       <c r="B30" s="4">
         <v>16136.6</v>
       </c>
-      <c r="C30" s="9"/>
+      <c r="C30" s="8"/>
       <c r="D30" s="5">
         <f t="shared" si="1"/>
-        <v>226700.00000000073</v>
-      </c>
-      <c r="E30" s="9">
+        <v>226.70000000000073</v>
+      </c>
+      <c r="E30" s="8">
         <f>[2]Sheet1!U34</f>
         <v>76346</v>
       </c>
       <c r="F30" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>2.9693762607078398</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A31" s="21">
+      <c r="A31" s="20">
         <v>45687</v>
       </c>
       <c r="B31" s="4">
         <v>16351</v>
       </c>
-      <c r="C31" s="9"/>
+      <c r="C31" s="8"/>
       <c r="D31" s="5">
         <f t="shared" si="1"/>
-        <v>214399.99999999965</v>
-      </c>
-      <c r="E31" s="16">
+        <v>214.39999999999964</v>
+      </c>
+      <c r="E31" s="15">
         <f>[2]Sheet1!U35</f>
         <v>71246</v>
       </c>
       <c r="F31" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>3.0092917497122595</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="22">
+      <c r="A32" s="21">
         <v>45688</v>
       </c>
       <c r="B32" s="7">
         <v>16570.2</v>
       </c>
-      <c r="C32" s="10"/>
-      <c r="D32" s="30">
-        <f>(B32-B31)*1000</f>
-        <v>219200.00000000073</v>
-      </c>
-      <c r="E32" s="10">
+      <c r="C32" s="9"/>
+      <c r="D32" s="5">
+        <f t="shared" si="1"/>
+        <v>219.20000000000073</v>
+      </c>
+      <c r="E32" s="9">
         <f>[2]Sheet1!U36</f>
         <v>72868</v>
       </c>
-      <c r="F32" s="8">
-        <f>D32/E32</f>
+      <c r="F32" s="6">
+        <f t="shared" si="2"/>
         <v>3.0081791732996752</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A33" s="41">
+      <c r="A33" s="35">
         <v>45689</v>
       </c>
-      <c r="B33" s="43">
+      <c r="B33" s="37">
         <v>16796.900000000001</v>
       </c>
-      <c r="C33" s="45"/>
-      <c r="D33" s="44">
-        <f t="shared" ref="D33:D71" si="2">(B33-B32)*1000</f>
-        <v>226700.00000000073</v>
-      </c>
-      <c r="E33" s="45">
+      <c r="C33" s="38"/>
+      <c r="D33" s="5">
+        <f t="shared" si="1"/>
+        <v>226.70000000000073</v>
+      </c>
+      <c r="E33" s="38">
         <f>[2]Sheet1!U37</f>
         <v>71689</v>
       </c>
-      <c r="F33" s="46">
-        <f t="shared" ref="F33:F71" si="3">D33/E33</f>
+      <c r="F33" s="6">
+        <f t="shared" si="2"/>
         <v>3.1622703622592132</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A34" s="13">
+      <c r="A34" s="12">
         <v>45690</v>
       </c>
       <c r="B34" s="4">
         <v>16983.099999999999</v>
       </c>
-      <c r="C34" s="32"/>
-      <c r="D34" s="31">
-        <f t="shared" si="2"/>
-        <v>186199.99999999709</v>
-      </c>
-      <c r="E34" s="32">
+      <c r="C34" s="29"/>
+      <c r="D34" s="5">
+        <f t="shared" si="1"/>
+        <v>186.19999999999709</v>
+      </c>
+      <c r="E34" s="29">
         <f>[2]Sheet1!U38</f>
         <v>63773</v>
       </c>
-      <c r="F34" s="33">
-        <f t="shared" si="3"/>
+      <c r="F34" s="6">
+        <f t="shared" si="2"/>
         <v>2.9197309206089894</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A35" s="13">
+      <c r="A35" s="12">
         <v>45691</v>
       </c>
       <c r="B35" s="4">
         <v>17201.400000000001</v>
       </c>
-      <c r="C35" s="32"/>
-      <c r="D35" s="31">
-        <f t="shared" si="2"/>
-        <v>218300.00000000291</v>
-      </c>
-      <c r="E35" s="32">
+      <c r="C35" s="29"/>
+      <c r="D35" s="5">
+        <f t="shared" si="1"/>
+        <v>218.30000000000291</v>
+      </c>
+      <c r="E35" s="29">
         <f>[2]Sheet1!U39</f>
         <v>71403</v>
       </c>
-      <c r="F35" s="33">
-        <f t="shared" si="3"/>
+      <c r="F35" s="6">
+        <f t="shared" si="2"/>
         <v>3.0572945114351344</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A36" s="13">
+      <c r="A36" s="12">
         <v>45692</v>
       </c>
       <c r="B36" s="4">
         <v>17411.400000000001</v>
       </c>
-      <c r="C36" s="32"/>
-      <c r="D36" s="31">
-        <f t="shared" si="2"/>
-        <v>210000</v>
-      </c>
-      <c r="E36" s="32">
+      <c r="C36" s="29"/>
+      <c r="D36" s="5">
+        <f t="shared" si="1"/>
+        <v>210</v>
+      </c>
+      <c r="E36" s="29">
         <f>[2]Sheet1!U40</f>
         <v>68826</v>
       </c>
-      <c r="F36" s="33">
-        <f t="shared" si="3"/>
+      <c r="F36" s="6">
+        <f t="shared" si="2"/>
         <v>3.0511725220120303</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A37" s="13">
+      <c r="A37" s="12">
         <v>45693</v>
       </c>
       <c r="B37" s="4">
         <v>17610.2</v>
       </c>
-      <c r="C37" s="32"/>
-      <c r="D37" s="31">
-        <f t="shared" si="2"/>
-        <v>198799.99999999927</v>
-      </c>
-      <c r="E37" s="32">
+      <c r="C37" s="29"/>
+      <c r="D37" s="5">
+        <f t="shared" si="1"/>
+        <v>198.79999999999927</v>
+      </c>
+      <c r="E37" s="29">
         <f>[2]Sheet1!U41</f>
         <v>66010</v>
       </c>
-      <c r="F37" s="33">
-        <f t="shared" si="3"/>
+      <c r="F37" s="6">
+        <f t="shared" si="2"/>
         <v>3.0116648992576773</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A38" s="13">
+      <c r="A38" s="12">
         <v>45694</v>
       </c>
       <c r="B38" s="4">
         <v>17775.7</v>
       </c>
-      <c r="C38" s="32"/>
-      <c r="D38" s="31">
-        <f t="shared" si="2"/>
-        <v>165500</v>
-      </c>
-      <c r="E38" s="32">
+      <c r="C38" s="29"/>
+      <c r="D38" s="5">
+        <f t="shared" si="1"/>
+        <v>165.5</v>
+      </c>
+      <c r="E38" s="29">
         <f>[2]Sheet1!U42</f>
         <v>52915</v>
       </c>
-      <c r="F38" s="33">
-        <f t="shared" si="3"/>
+      <c r="F38" s="6">
+        <f t="shared" si="2"/>
         <v>3.1276575640177642</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A39" s="13">
+      <c r="A39" s="12">
         <v>45695</v>
       </c>
       <c r="B39" s="4">
         <v>17962.900000000001</v>
       </c>
-      <c r="C39" s="32"/>
-      <c r="D39" s="31">
-        <f t="shared" si="2"/>
-        <v>187200.00000000073</v>
-      </c>
-      <c r="E39" s="32">
+      <c r="C39" s="29"/>
+      <c r="D39" s="5">
+        <f t="shared" si="1"/>
+        <v>187.20000000000073</v>
+      </c>
+      <c r="E39" s="29">
         <f>[2]Sheet1!U43</f>
         <v>70336</v>
       </c>
-      <c r="F39" s="33">
-        <f t="shared" si="3"/>
+      <c r="F39" s="6">
+        <f t="shared" si="2"/>
         <v>2.661510464058245</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A40" s="13">
+      <c r="A40" s="12">
         <v>45696</v>
       </c>
       <c r="B40" s="4">
         <v>18217.900000000001</v>
       </c>
-      <c r="C40" s="32"/>
-      <c r="D40" s="31">
-        <f t="shared" si="2"/>
-        <v>255000</v>
-      </c>
-      <c r="E40" s="32">
+      <c r="C40" s="29"/>
+      <c r="D40" s="5">
+        <f t="shared" si="1"/>
+        <v>255</v>
+      </c>
+      <c r="E40" s="29">
         <f>[2]Sheet1!U44</f>
         <v>77269</v>
       </c>
-      <c r="F40" s="33">
-        <f t="shared" si="3"/>
-        <v>3.3001591841488827</v>
+      <c r="F40" s="6">
+        <f t="shared" si="2"/>
+        <v>3.3001591841488822</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A41" s="13">
+      <c r="A41" s="12">
         <v>45697</v>
       </c>
       <c r="B41" s="4">
         <v>18459.5</v>
       </c>
-      <c r="C41" s="32"/>
-      <c r="D41" s="31">
-        <f t="shared" si="2"/>
-        <v>241599.99999999854</v>
-      </c>
-      <c r="E41" s="32">
+      <c r="C41" s="29"/>
+      <c r="D41" s="5">
+        <f t="shared" si="1"/>
+        <v>241.59999999999854</v>
+      </c>
+      <c r="E41" s="29">
         <f>[2]Sheet1!U45</f>
         <v>81052</v>
       </c>
-      <c r="F41" s="33">
-        <f t="shared" si="3"/>
+      <c r="F41" s="6">
+        <f t="shared" si="2"/>
         <v>2.9808024478112638</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A42" s="13">
+      <c r="A42" s="12">
         <v>45698</v>
       </c>
       <c r="B42" s="4">
         <v>18707.900000000001</v>
       </c>
-      <c r="C42" s="32"/>
-      <c r="D42" s="31">
-        <f t="shared" si="2"/>
-        <v>248400.00000000146</v>
-      </c>
-      <c r="E42" s="32">
+      <c r="C42" s="29"/>
+      <c r="D42" s="5">
+        <f t="shared" si="1"/>
+        <v>248.40000000000146</v>
+      </c>
+      <c r="E42" s="29">
         <f>[2]Sheet1!U46</f>
         <v>84392</v>
       </c>
-      <c r="F42" s="33">
-        <f t="shared" si="3"/>
-        <v>2.9434069580055153</v>
+      <c r="F42" s="6">
+        <f t="shared" si="2"/>
+        <v>2.9434069580055158</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A43" s="13">
+      <c r="A43" s="12">
         <v>45699</v>
       </c>
       <c r="B43" s="4">
         <v>18922.599999999999</v>
       </c>
-      <c r="C43" s="32"/>
-      <c r="D43" s="31">
-        <f t="shared" si="2"/>
-        <v>214699.99999999709</v>
-      </c>
-      <c r="E43" s="32">
+      <c r="C43" s="29"/>
+      <c r="D43" s="5">
+        <f t="shared" si="1"/>
+        <v>214.69999999999709</v>
+      </c>
+      <c r="E43" s="29">
         <f>[2]Sheet1!U47</f>
         <v>75872</v>
       </c>
-      <c r="F43" s="33">
-        <f t="shared" si="3"/>
+      <c r="F43" s="6">
+        <f t="shared" si="2"/>
         <v>2.8297659215520494</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A44" s="13">
+      <c r="A44" s="12">
         <v>45700</v>
       </c>
       <c r="B44" s="4">
         <v>19047.5</v>
       </c>
-      <c r="C44" s="32"/>
-      <c r="D44" s="31">
-        <f>(B44-B43)*1000</f>
-        <v>124900.00000000146</v>
-      </c>
-      <c r="E44" s="32">
+      <c r="C44" s="29"/>
+      <c r="D44" s="5">
+        <f t="shared" si="1"/>
+        <v>124.90000000000146</v>
+      </c>
+      <c r="E44" s="29">
         <f>[2]Sheet1!U48</f>
         <v>40308</v>
       </c>
-      <c r="F44" s="33">
-        <f t="shared" si="3"/>
+      <c r="F44" s="6">
+        <f t="shared" si="2"/>
         <v>3.0986404683934072</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A45" s="13">
+      <c r="A45" s="12">
         <v>45701</v>
       </c>
       <c r="B45" s="4">
         <v>19299.7</v>
       </c>
-      <c r="C45" s="32"/>
-      <c r="D45" s="31">
-        <f t="shared" si="2"/>
-        <v>252200.00000000073</v>
-      </c>
-      <c r="E45" s="32">
+      <c r="C45" s="29"/>
+      <c r="D45" s="5">
+        <f t="shared" si="1"/>
+        <v>252.20000000000073</v>
+      </c>
+      <c r="E45" s="29">
         <f>[2]Sheet1!U49</f>
         <v>86259</v>
       </c>
-      <c r="F45" s="33">
-        <f t="shared" si="3"/>
+      <c r="F45" s="6">
+        <f t="shared" si="2"/>
         <v>2.9237528837570657</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A46" s="13">
+      <c r="A46" s="12">
         <v>45702</v>
       </c>
       <c r="B46" s="4">
         <v>19539.599999999999</v>
       </c>
-      <c r="C46" s="32"/>
-      <c r="D46" s="31">
-        <f t="shared" si="2"/>
-        <v>239899.99999999782</v>
-      </c>
-      <c r="E46" s="32">
+      <c r="C46" s="29"/>
+      <c r="D46" s="5">
+        <f t="shared" si="1"/>
+        <v>239.89999999999782</v>
+      </c>
+      <c r="E46" s="29">
         <f>[2]Sheet1!U50</f>
         <v>80933</v>
       </c>
-      <c r="F46" s="33">
-        <f t="shared" si="3"/>
-        <v>2.9641802478593133</v>
+      <c r="F46" s="6">
+        <f t="shared" si="2"/>
+        <v>2.9641802478593138</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A47" s="13">
+      <c r="A47" s="12">
         <v>45703</v>
       </c>
       <c r="B47" s="4">
         <v>19772.099999999999</v>
       </c>
-      <c r="C47" s="32"/>
-      <c r="D47" s="31">
-        <f t="shared" si="2"/>
-        <v>232500</v>
-      </c>
-      <c r="E47" s="32">
+      <c r="C47" s="29"/>
+      <c r="D47" s="5">
+        <f t="shared" si="1"/>
+        <v>232.5</v>
+      </c>
+      <c r="E47" s="29">
         <f>[2]Sheet1!U51</f>
         <v>79044</v>
       </c>
-      <c r="F47" s="33">
-        <f t="shared" si="3"/>
+      <c r="F47" s="6">
+        <f t="shared" si="2"/>
         <v>2.9413997267344771</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A48" s="13">
+      <c r="A48" s="12">
         <v>45704</v>
       </c>
       <c r="B48" s="4">
         <v>19986.5</v>
       </c>
-      <c r="C48" s="32"/>
-      <c r="D48" s="31">
-        <f t="shared" si="2"/>
-        <v>214400.00000000146</v>
-      </c>
-      <c r="E48" s="32">
+      <c r="C48" s="29"/>
+      <c r="D48" s="5">
+        <f t="shared" si="1"/>
+        <v>214.40000000000146</v>
+      </c>
+      <c r="E48" s="29">
         <f>[2]Sheet1!U52</f>
         <v>72540</v>
       </c>
-      <c r="F48" s="33">
-        <f t="shared" si="3"/>
+      <c r="F48" s="6">
+        <f t="shared" si="2"/>
         <v>2.9556106975462013</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A49" s="13">
+      <c r="A49" s="12">
         <v>45705</v>
       </c>
       <c r="B49" s="4">
         <v>20235.3</v>
       </c>
-      <c r="C49" s="32"/>
-      <c r="D49" s="31">
-        <f t="shared" si="2"/>
-        <v>248799.99999999927</v>
-      </c>
-      <c r="E49" s="32">
+      <c r="C49" s="29"/>
+      <c r="D49" s="5">
+        <f t="shared" si="1"/>
+        <v>248.79999999999927</v>
+      </c>
+      <c r="E49" s="29">
         <f>[2]Sheet1!U53</f>
         <v>84015</v>
       </c>
-      <c r="F49" s="33">
-        <f t="shared" si="3"/>
+      <c r="F49" s="6">
+        <f t="shared" si="2"/>
         <v>2.9613759447717585</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A50" s="13">
+      <c r="A50" s="12">
         <v>45706</v>
       </c>
       <c r="B50" s="4">
         <v>20486.3</v>
       </c>
-      <c r="C50" s="32"/>
-      <c r="D50" s="31">
-        <f t="shared" si="2"/>
-        <v>251000</v>
-      </c>
-      <c r="E50" s="32">
+      <c r="C50" s="29"/>
+      <c r="D50" s="5">
+        <f t="shared" si="1"/>
+        <v>251</v>
+      </c>
+      <c r="E50" s="29">
         <f>[2]Sheet1!U54</f>
         <v>82276</v>
       </c>
-      <c r="F50" s="33">
-        <f t="shared" si="3"/>
-        <v>3.0507073751762359</v>
+      <c r="F50" s="6">
+        <f t="shared" si="2"/>
+        <v>3.0507073751762364</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A51" s="13">
+      <c r="A51" s="12">
         <v>45707</v>
       </c>
       <c r="B51" s="4">
         <v>20737.599999999999</v>
       </c>
-      <c r="C51" s="32"/>
-      <c r="D51" s="31">
-        <f t="shared" si="2"/>
-        <v>251299.99999999927</v>
-      </c>
-      <c r="E51" s="32">
+      <c r="C51" s="29"/>
+      <c r="D51" s="5">
+        <f t="shared" si="1"/>
+        <v>251.29999999999927</v>
+      </c>
+      <c r="E51" s="29">
         <f>[2]Sheet1!U55</f>
         <v>84632</v>
       </c>
-      <c r="F51" s="33">
-        <f t="shared" si="3"/>
-        <v>2.9693260232536072</v>
+      <c r="F51" s="6">
+        <f t="shared" si="2"/>
+        <v>2.9693260232536067</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A52" s="13">
+      <c r="A52" s="12">
         <v>45708</v>
       </c>
       <c r="B52" s="4">
         <v>20990.2</v>
       </c>
-      <c r="C52" s="32"/>
-      <c r="D52" s="31">
-        <f t="shared" si="2"/>
-        <v>252600.00000000218</v>
-      </c>
-      <c r="E52" s="32">
+      <c r="C52" s="29"/>
+      <c r="D52" s="5">
+        <f t="shared" si="1"/>
+        <v>252.60000000000218</v>
+      </c>
+      <c r="E52" s="29">
         <f>[2]Sheet1!U56</f>
         <v>87013</v>
       </c>
-      <c r="F52" s="33">
-        <f t="shared" si="3"/>
-        <v>2.9030144920874141</v>
+      <c r="F52" s="6">
+        <f t="shared" si="2"/>
+        <v>2.9030144920874146</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A53" s="13">
+      <c r="A53" s="12">
         <v>45709</v>
       </c>
       <c r="B53" s="4">
         <v>21255.7</v>
       </c>
-      <c r="C53" s="32"/>
-      <c r="D53" s="31">
-        <f t="shared" si="2"/>
-        <v>265500</v>
-      </c>
-      <c r="E53" s="32">
+      <c r="C53" s="29"/>
+      <c r="D53" s="5">
+        <f t="shared" si="1"/>
+        <v>265.5</v>
+      </c>
+      <c r="E53" s="29">
         <f>[2]Sheet1!U57</f>
         <v>89956</v>
       </c>
-      <c r="F53" s="33">
-        <f t="shared" si="3"/>
+      <c r="F53" s="6">
+        <f t="shared" si="2"/>
         <v>2.9514429276535195</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A54" s="13">
+      <c r="A54" s="12">
         <v>45710</v>
       </c>
       <c r="B54" s="4">
         <v>21479.9</v>
       </c>
-      <c r="C54" s="32"/>
-      <c r="D54" s="31">
-        <f t="shared" si="2"/>
-        <v>224200.00000000073</v>
-      </c>
-      <c r="E54" s="32">
+      <c r="C54" s="29"/>
+      <c r="D54" s="5">
+        <f t="shared" si="1"/>
+        <v>224.20000000000073</v>
+      </c>
+      <c r="E54" s="29">
         <f>[2]Sheet1!U58</f>
         <v>77612</v>
       </c>
-      <c r="F54" s="33">
-        <f t="shared" si="3"/>
+      <c r="F54" s="6">
+        <f t="shared" si="2"/>
         <v>2.8887285471318962</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A55" s="13">
+      <c r="A55" s="12">
         <v>45711</v>
       </c>
       <c r="B55" s="4">
         <v>21728.1</v>
       </c>
-      <c r="C55" s="32"/>
-      <c r="D55" s="31">
-        <f t="shared" si="2"/>
-        <v>248199.99999999709</v>
-      </c>
-      <c r="E55" s="32">
+      <c r="C55" s="29"/>
+      <c r="D55" s="5">
+        <f t="shared" si="1"/>
+        <v>248.19999999999709</v>
+      </c>
+      <c r="E55" s="29">
         <f>[2]Sheet1!U59</f>
         <v>82831</v>
       </c>
-      <c r="F55" s="33">
-        <f t="shared" si="3"/>
+      <c r="F55" s="6">
+        <f t="shared" si="2"/>
         <v>2.9964626770170235</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A56" s="13">
+      <c r="A56" s="12">
         <v>45712</v>
       </c>
       <c r="B56" s="4">
         <v>21999.599999999999</v>
       </c>
-      <c r="C56" s="32"/>
-      <c r="D56" s="31">
-        <f t="shared" si="2"/>
-        <v>271500</v>
-      </c>
-      <c r="E56" s="32">
+      <c r="C56" s="29"/>
+      <c r="D56" s="5">
+        <f t="shared" si="1"/>
+        <v>271.5</v>
+      </c>
+      <c r="E56" s="29">
         <f>[2]Sheet1!U60</f>
         <v>94316</v>
       </c>
-      <c r="F56" s="33">
-        <f t="shared" si="3"/>
+      <c r="F56" s="6">
+        <f t="shared" si="2"/>
         <v>2.8786208066499852</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A57" s="13">
+      <c r="A57" s="12">
         <v>45713</v>
       </c>
       <c r="B57" s="4">
         <v>22284.5</v>
       </c>
-      <c r="C57" s="32"/>
-      <c r="D57" s="31">
-        <f t="shared" si="2"/>
-        <v>284900.00000000146</v>
-      </c>
-      <c r="E57" s="32">
+      <c r="C57" s="29"/>
+      <c r="D57" s="5">
+        <f t="shared" si="1"/>
+        <v>284.90000000000146</v>
+      </c>
+      <c r="E57" s="29">
         <f>[2]Sheet1!U61</f>
         <v>97557</v>
       </c>
-      <c r="F57" s="33">
-        <f t="shared" si="3"/>
+      <c r="F57" s="6">
+        <f t="shared" si="2"/>
         <v>2.9203440040181787</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A58" s="13">
+      <c r="A58" s="12">
         <v>45714</v>
       </c>
       <c r="B58" s="4">
         <v>22510</v>
       </c>
-      <c r="C58" s="32"/>
-      <c r="D58" s="31">
-        <f t="shared" si="2"/>
-        <v>225500</v>
-      </c>
-      <c r="E58" s="32">
+      <c r="C58" s="29"/>
+      <c r="D58" s="5">
+        <f t="shared" si="1"/>
+        <v>225.5</v>
+      </c>
+      <c r="E58" s="29">
         <f>[2]Sheet1!U62</f>
         <v>94135</v>
       </c>
-      <c r="F58" s="33">
-        <f t="shared" si="3"/>
+      <c r="F58" s="6">
+        <f t="shared" si="2"/>
         <v>2.3954958304562597</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A59" s="13">
+      <c r="A59" s="12">
         <v>45715</v>
       </c>
       <c r="B59" s="4">
         <v>22827.5</v>
       </c>
-      <c r="C59" s="32"/>
-      <c r="D59" s="31">
-        <f t="shared" si="2"/>
-        <v>317500</v>
-      </c>
-      <c r="E59" s="32">
+      <c r="C59" s="29"/>
+      <c r="D59" s="5">
+        <f t="shared" si="1"/>
+        <v>317.5</v>
+      </c>
+      <c r="E59" s="29">
         <f>[2]Sheet1!U63</f>
         <v>94228</v>
       </c>
-      <c r="F59" s="33">
-        <f t="shared" si="3"/>
+      <c r="F59" s="6">
+        <f t="shared" si="2"/>
         <v>3.3694867767542558</v>
       </c>
     </row>
     <row r="60" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A60" s="42">
+      <c r="A60" s="36">
         <v>45716</v>
       </c>
       <c r="B60" s="7">
         <v>23088.400000000001</v>
       </c>
-      <c r="C60" s="10">
+      <c r="C60" s="9">
         <v>20275</v>
       </c>
-      <c r="D60" s="30">
-        <f t="shared" si="2"/>
-        <v>260900.00000000146</v>
-      </c>
-      <c r="E60" s="10">
+      <c r="D60" s="5">
+        <f t="shared" si="1"/>
+        <v>260.90000000000146</v>
+      </c>
+      <c r="E60" s="9">
         <f>[2]Sheet1!U64</f>
         <v>95898</v>
       </c>
-      <c r="F60" s="8">
-        <f t="shared" si="3"/>
+      <c r="F60" s="6">
+        <f t="shared" si="2"/>
         <v>2.7205989697386959</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A61" s="40">
+      <c r="A61" s="34">
         <v>45717</v>
       </c>
-      <c r="B61" s="34">
+      <c r="B61" s="30">
         <v>23352.1</v>
       </c>
-      <c r="C61" s="36">
+      <c r="C61" s="31">
         <v>20513</v>
       </c>
-      <c r="D61" s="35">
-        <f t="shared" si="2"/>
-        <v>263699.99999999709</v>
-      </c>
-      <c r="E61" s="36">
+      <c r="D61" s="5">
+        <f t="shared" si="1"/>
+        <v>263.69999999999709</v>
+      </c>
+      <c r="E61" s="31">
         <f>[2]Sheet1!U65</f>
         <v>90569</v>
       </c>
-      <c r="F61" s="37">
-        <f t="shared" si="3"/>
+      <c r="F61" s="6">
+        <f t="shared" si="2"/>
         <v>2.911592266669579</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A62" s="21">
+      <c r="A62" s="20">
         <v>45718</v>
       </c>
       <c r="B62" s="4">
         <v>23616.6</v>
       </c>
-      <c r="C62" s="32">
+      <c r="C62" s="29">
         <v>20751</v>
       </c>
-      <c r="D62" s="31">
-        <f t="shared" si="2"/>
-        <v>264500</v>
-      </c>
-      <c r="E62" s="32">
+      <c r="D62" s="5">
+        <f t="shared" si="1"/>
+        <v>264.5</v>
+      </c>
+      <c r="E62" s="29">
         <f>[2]Sheet1!U66</f>
         <v>91249</v>
       </c>
-      <c r="F62" s="33">
-        <f t="shared" si="3"/>
+      <c r="F62" s="6">
+        <f t="shared" si="2"/>
         <v>2.8986619031441441</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A63" s="13">
+      <c r="A63" s="12">
         <v>45719</v>
       </c>
       <c r="B63" s="4">
         <v>23907.200000000001</v>
       </c>
-      <c r="C63" s="32">
+      <c r="C63" s="29">
         <v>21014</v>
       </c>
-      <c r="D63" s="31">
-        <f t="shared" si="2"/>
-        <v>290600.00000000221</v>
-      </c>
-      <c r="E63" s="32">
+      <c r="D63" s="5">
+        <f t="shared" si="1"/>
+        <v>290.60000000000218</v>
+      </c>
+      <c r="E63" s="29">
         <f>[2]Sheet1!U67</f>
         <v>102134</v>
       </c>
-      <c r="F63" s="33">
-        <f t="shared" si="3"/>
+      <c r="F63" s="6">
+        <f t="shared" si="2"/>
         <v>2.8452816887618444</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A64" s="39">
+      <c r="A64" s="33">
         <v>45720</v>
       </c>
       <c r="B64" s="4">
         <v>24146.5</v>
       </c>
-      <c r="C64" s="32">
+      <c r="C64" s="29">
         <v>21229</v>
       </c>
-      <c r="D64" s="31">
-        <f t="shared" si="2"/>
-        <v>239299.99999999927</v>
-      </c>
-      <c r="E64" s="32">
+      <c r="D64" s="5">
+        <f t="shared" si="1"/>
+        <v>239.29999999999927</v>
+      </c>
+      <c r="E64" s="29">
         <f>[2]Sheet1!U68</f>
         <v>86868</v>
       </c>
-      <c r="F64" s="33">
-        <f t="shared" si="3"/>
+      <c r="F64" s="6">
+        <f t="shared" si="2"/>
         <v>2.7547543399180281</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A65" s="21">
+      <c r="A65" s="20">
         <v>45721</v>
       </c>
       <c r="B65" s="4">
         <v>24398.6</v>
       </c>
-      <c r="C65" s="32">
+      <c r="C65" s="29">
         <v>21455</v>
       </c>
-      <c r="D65" s="31">
-        <f t="shared" si="2"/>
-        <v>252099.99999999854</v>
-      </c>
-      <c r="E65" s="32">
+      <c r="D65" s="5">
+        <f t="shared" si="1"/>
+        <v>252.09999999999854</v>
+      </c>
+      <c r="E65" s="29">
         <f>[2]Sheet1!U69</f>
         <v>86339</v>
       </c>
-      <c r="F65" s="33">
-        <f t="shared" si="3"/>
+      <c r="F65" s="6">
+        <f t="shared" si="2"/>
         <v>2.919885567356566</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A66" s="21">
+      <c r="A66" s="20">
         <v>45722</v>
       </c>
       <c r="B66" s="4">
         <v>24667.5</v>
       </c>
-      <c r="C66" s="32">
+      <c r="C66" s="29">
         <v>21699</v>
       </c>
-      <c r="D66" s="31">
-        <f t="shared" si="2"/>
-        <v>268900.00000000146</v>
-      </c>
-      <c r="E66" s="32">
+      <c r="D66" s="5">
+        <f t="shared" si="1"/>
+        <v>268.90000000000146</v>
+      </c>
+      <c r="E66" s="29">
         <f>[2]Sheet1!U70</f>
         <v>92995</v>
       </c>
-      <c r="F66" s="33">
-        <f t="shared" si="3"/>
+      <c r="F66" s="6">
+        <f t="shared" si="2"/>
         <v>2.8915533093177208</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A67" s="21">
+      <c r="A67" s="20">
         <v>45723</v>
       </c>
       <c r="B67" s="4">
         <v>24984.3</v>
       </c>
-      <c r="C67" s="32">
+      <c r="C67" s="29">
         <v>21985</v>
       </c>
-      <c r="D67" s="31">
-        <f t="shared" si="2"/>
-        <v>316799.9999999993</v>
-      </c>
-      <c r="E67" s="32">
+      <c r="D67" s="5">
+        <f t="shared" si="1"/>
+        <v>316.79999999999927</v>
+      </c>
+      <c r="E67" s="29">
         <f>[2]Sheet1!U71</f>
         <v>103104</v>
       </c>
-      <c r="F67" s="33">
-        <f t="shared" si="3"/>
-        <v>3.0726256983240154</v>
+      <c r="F67" s="6">
+        <f t="shared" si="2"/>
+        <v>3.072625698324015</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A68" s="21">
+      <c r="A68" s="20">
         <v>45724</v>
       </c>
       <c r="B68" s="4">
         <v>25249.1</v>
       </c>
-      <c r="C68" s="32">
+      <c r="C68" s="29">
         <v>22224</v>
       </c>
-      <c r="D68" s="31">
-        <f t="shared" si="2"/>
-        <v>264799.9999999993</v>
-      </c>
-      <c r="E68" s="32">
+      <c r="D68" s="5">
+        <f t="shared" si="1"/>
+        <v>264.79999999999927</v>
+      </c>
+      <c r="E68" s="29">
         <f>[2]Sheet1!U72</f>
         <v>101998</v>
       </c>
-      <c r="F68" s="33">
-        <f t="shared" si="3"/>
+      <c r="F68" s="6">
+        <f t="shared" si="2"/>
         <v>2.5961293358693238</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A69" s="21">
+      <c r="A69" s="20">
         <v>45725</v>
       </c>
       <c r="B69" s="4">
         <v>25523.4</v>
       </c>
-      <c r="C69" s="32">
+      <c r="C69" s="29">
         <v>22470</v>
       </c>
-      <c r="D69" s="31">
-        <f t="shared" si="2"/>
-        <v>274300.00000000291</v>
-      </c>
-      <c r="E69" s="32">
+      <c r="D69" s="5">
+        <f t="shared" ref="D69:D79" si="3">(B69-B68)</f>
+        <v>274.30000000000291</v>
+      </c>
+      <c r="E69" s="29">
         <f>[2]Sheet1!U73</f>
         <v>94813</v>
       </c>
-      <c r="F69" s="33">
-        <f t="shared" si="3"/>
+      <c r="F69" s="6">
+        <f t="shared" ref="F69:F79" si="4">D69/E69*1000</f>
         <v>2.8930631875376047</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A70" s="21">
+      <c r="A70" s="20">
         <v>45726</v>
       </c>
       <c r="B70" s="4">
         <v>25781</v>
       </c>
-      <c r="C70" s="32">
+      <c r="C70" s="29">
         <v>22763</v>
       </c>
-      <c r="D70" s="31">
-        <f t="shared" si="2"/>
-        <v>257599.99999999854</v>
-      </c>
-      <c r="E70" s="32">
+      <c r="D70" s="5">
+        <f t="shared" si="3"/>
+        <v>257.59999999999854</v>
+      </c>
+      <c r="E70" s="29">
         <f>[2]Sheet1!U74</f>
         <v>87541</v>
       </c>
-      <c r="F70" s="33">
-        <f t="shared" si="3"/>
-        <v>2.9426211717937716</v>
+      <c r="F70" s="6">
+        <f t="shared" si="4"/>
+        <v>2.9426211717937711</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A71" s="21">
+      <c r="A71" s="20">
         <v>45727</v>
       </c>
       <c r="B71" s="4">
         <v>26072.7</v>
       </c>
-      <c r="C71" s="32">
+      <c r="C71" s="29">
         <v>23030</v>
       </c>
-      <c r="D71" s="31">
-        <f t="shared" si="2"/>
-        <v>291700.0000000007</v>
-      </c>
-      <c r="E71" s="32">
+      <c r="D71" s="5">
+        <f t="shared" si="3"/>
+        <v>291.70000000000073</v>
+      </c>
+      <c r="E71" s="29">
         <f>[2]Sheet1!U75</f>
         <v>102068</v>
       </c>
-      <c r="F71" s="33">
+      <c r="F71" s="6">
+        <f t="shared" si="4"/>
+        <v>2.8578986557981025</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A72" s="20">
+        <v>45728</v>
+      </c>
+      <c r="B72" s="4">
+        <v>26342.6</v>
+      </c>
+      <c r="C72" s="29">
+        <v>23277</v>
+      </c>
+      <c r="D72" s="5">
         <f t="shared" si="3"/>
-        <v>2.8578986557981021</v>
+        <v>269.89999999999782</v>
+      </c>
+      <c r="E72" s="29">
+        <f>[2]Sheet1!U76</f>
+        <v>96055</v>
+      </c>
+      <c r="F72" s="6">
+        <f t="shared" si="4"/>
+        <v>2.8098485242829403</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A73" s="20">
+        <v>45729</v>
+      </c>
+      <c r="B73" s="4">
+        <v>26597.200000000001</v>
+      </c>
+      <c r="C73" s="29">
+        <v>23508</v>
+      </c>
+      <c r="D73" s="5">
+        <f t="shared" si="3"/>
+        <v>254.60000000000218</v>
+      </c>
+      <c r="E73" s="29">
+        <f>[2]Sheet1!U77</f>
+        <v>89275</v>
+      </c>
+      <c r="F73" s="6">
+        <f t="shared" si="4"/>
+        <v>2.8518622234668407</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A74" s="20">
+        <v>45730</v>
+      </c>
+      <c r="B74" s="4">
+        <v>26875.599999999999</v>
+      </c>
+      <c r="C74" s="29">
+        <v>23760</v>
+      </c>
+      <c r="D74" s="5">
+        <f t="shared" si="3"/>
+        <v>278.39999999999782</v>
+      </c>
+      <c r="E74" s="29">
+        <f>[2]Sheet1!U78</f>
+        <v>96482</v>
+      </c>
+      <c r="F74" s="6">
+        <f t="shared" si="4"/>
+        <v>2.8855123235421924</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A75" s="20">
+        <v>45731</v>
+      </c>
+      <c r="B75" s="4">
+        <v>27099.8</v>
+      </c>
+      <c r="C75" s="29">
+        <v>24005</v>
+      </c>
+      <c r="D75" s="5">
+        <f t="shared" si="3"/>
+        <v>224.20000000000073</v>
+      </c>
+      <c r="E75" s="29">
+        <f>[2]Sheet1!U79</f>
+        <v>95707</v>
+      </c>
+      <c r="F75" s="6">
+        <f t="shared" si="4"/>
+        <v>2.3425663744553766</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A76" s="20">
+        <v>45732</v>
+      </c>
+      <c r="B76" s="4">
+        <v>27411.7</v>
+      </c>
+      <c r="C76" s="29">
+        <v>24251</v>
+      </c>
+      <c r="D76" s="5">
+        <f t="shared" si="3"/>
+        <v>311.90000000000146</v>
+      </c>
+      <c r="E76" s="29">
+        <f>[2]Sheet1!U80</f>
+        <v>93853</v>
+      </c>
+      <c r="F76" s="6">
+        <f t="shared" si="4"/>
+        <v>3.3232821540068134</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A77" s="20">
+        <v>45733</v>
+      </c>
+      <c r="B77" s="4">
+        <v>27658.3</v>
+      </c>
+      <c r="C77" s="29">
+        <v>24474</v>
+      </c>
+      <c r="D77" s="5">
+        <f t="shared" si="3"/>
+        <v>246.59999999999854</v>
+      </c>
+      <c r="E77" s="29">
+        <f>[2]Sheet1!U81</f>
+        <v>87315</v>
+      </c>
+      <c r="F77" s="6">
+        <f t="shared" si="4"/>
+        <v>2.8242570005153587</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A78" s="20">
+        <v>45734</v>
+      </c>
+      <c r="B78" s="4">
+        <v>27942</v>
+      </c>
+      <c r="C78" s="29">
+        <v>24731</v>
+      </c>
+      <c r="D78" s="5">
+        <f t="shared" si="3"/>
+        <v>283.70000000000073</v>
+      </c>
+      <c r="E78" s="29">
+        <f>[2]Sheet1!U82</f>
+        <v>95461</v>
+      </c>
+      <c r="F78" s="6">
+        <f t="shared" si="4"/>
+        <v>2.9718942814343108</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A79" s="20">
+        <v>45735</v>
+      </c>
+      <c r="B79" s="4">
+        <v>28220.799999999999</v>
+      </c>
+      <c r="C79" s="29">
+        <v>24983</v>
+      </c>
+      <c r="D79" s="5">
+        <f t="shared" si="3"/>
+        <v>278.79999999999927</v>
+      </c>
+      <c r="E79" s="29">
+        <f>[2]Sheet1!U83</f>
+        <v>100396</v>
+      </c>
+      <c r="F79" s="6">
+        <f t="shared" si="4"/>
+        <v>2.7770030678513016</v>
       </c>
     </row>
   </sheetData>

--- a/Consommation spécifique.xlsx
+++ b/Consommation spécifique.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\Projects\wave2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8454AC40-1E95-4226-B042-55383D5EC5DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{EE9D6418-7FA1-4FB2-9473-AA50E96EB2D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30612" yWindow="-108" windowWidth="30936" windowHeight="16896" activeTab="1" xr2:uid="{4E830341-EBCA-4A95-9BBE-9CDD49815F8C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" activeTab="1" xr2:uid="{4E830341-EBCA-4A95-9BBE-9CDD49815F8C}"/>
   </bookViews>
   <sheets>
     <sheet name="Produits chimiques" sheetId="1" r:id="rId1"/>
@@ -717,7 +717,7 @@
       <sheetName val="ASC"/>
       <sheetName val="NaOCl Trait"/>
       <sheetName val="Dépotage"/>
-      <sheetName val="Feuil4"/>
+      <sheetName val="Approvisionnement"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0"/>
@@ -1108,6 +1108,11 @@
             <v>1.6574365512570344</v>
           </cell>
         </row>
+        <row r="81">
+          <cell r="F81">
+            <v>0</v>
+          </cell>
+        </row>
       </sheetData>
       <sheetData sheetId="3">
         <row r="3">
@@ -1500,6 +1505,11 @@
             <v>0</v>
           </cell>
         </row>
+        <row r="81">
+          <cell r="F81">
+            <v>0</v>
+          </cell>
+        </row>
       </sheetData>
       <sheetData sheetId="4">
         <row r="3">
@@ -1889,6 +1899,11 @@
         </row>
         <row r="80">
           <cell r="F80">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="81">
+          <cell r="F81">
             <v>0</v>
           </cell>
         </row>
@@ -2285,6 +2300,11 @@
             <v>6.5022510857006175</v>
           </cell>
         </row>
+        <row r="81">
+          <cell r="I81">
+            <v>7.6162288814897838</v>
+          </cell>
+        </row>
       </sheetData>
       <sheetData sheetId="7">
         <row r="3">
@@ -2677,6 +2697,11 @@
             <v>0</v>
           </cell>
         </row>
+        <row r="81">
+          <cell r="F81">
+            <v>0</v>
+          </cell>
+        </row>
       </sheetData>
       <sheetData sheetId="8">
         <row r="3">
@@ -3067,6 +3092,11 @@
         <row r="80">
           <cell r="F80">
             <v>0.1912426789912092</v>
+          </cell>
+        </row>
+        <row r="81">
+          <cell r="F81">
+            <v>1.1838697743248034</v>
           </cell>
         </row>
       </sheetData>
@@ -3461,6 +3491,11 @@
             <v>15.140045420136255</v>
           </cell>
         </row>
+        <row r="81">
+          <cell r="G81">
+            <v>22.49352571217166</v>
+          </cell>
+        </row>
       </sheetData>
       <sheetData sheetId="10">
         <row r="3">
@@ -3851,6 +3886,11 @@
         <row r="80">
           <cell r="F80">
             <v>3.3616877166421006</v>
+          </cell>
+        </row>
+        <row r="81">
+          <cell r="F81">
+            <v>4.0880503144654101</v>
           </cell>
         </row>
       </sheetData>
@@ -3876,6 +3916,11 @@
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
+        <row r="1">
+          <cell r="B1" t="str">
+            <v xml:space="preserve"> SUIVI DE PRODUCTION  JOURNALIER W2E</v>
+          </cell>
+        </row>
         <row r="6">
           <cell r="U6">
             <v>53174</v>
@@ -4264,6 +4309,11 @@
         <row r="83">
           <cell r="U83">
             <v>100396</v>
+          </cell>
+        </row>
+        <row r="84">
+          <cell r="U84">
+            <v>81090</v>
           </cell>
         </row>
       </sheetData>
@@ -4572,11 +4622,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BC5C344-277E-4945-8E25-AE6A0B860AD5}">
-  <dimension ref="A1:K79"/>
+  <dimension ref="A1:K80"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A61" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A80" sqref="A80:XFD367"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A81" sqref="A81:XFD366"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7670,6 +7720,45 @@
       <c r="J79" s="4"/>
       <c r="K79" s="32"/>
     </row>
+    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A80" s="22">
+        <v>45736</v>
+      </c>
+      <c r="B80" s="4">
+        <f>'[1]NaOCl Pré'!F81</f>
+        <v>0</v>
+      </c>
+      <c r="C80" s="4">
+        <f>[1]Acide!F81</f>
+        <v>0</v>
+      </c>
+      <c r="D80" s="4">
+        <f>[1]FeCl3!F81</f>
+        <v>0</v>
+      </c>
+      <c r="E80" s="4">
+        <f>'[1]NaOCl 2 CEB 1'!I81</f>
+        <v>7.6162288814897838</v>
+      </c>
+      <c r="F80" s="4">
+        <f>'[1]Soude CEB 1'!F81</f>
+        <v>0</v>
+      </c>
+      <c r="G80" s="4">
+        <f>'[1]Acide CEB2'!F81</f>
+        <v>1.1838697743248034</v>
+      </c>
+      <c r="H80" s="4">
+        <f>[1]SBS!G81</f>
+        <v>22.49352571217166</v>
+      </c>
+      <c r="I80" s="4">
+        <f>[1]ASC!F81</f>
+        <v>4.0880503144654101</v>
+      </c>
+      <c r="J80" s="4"/>
+      <c r="K80" s="32"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7678,10 +7767,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07CB649B-6F18-453D-B029-557EF373D866}">
-  <dimension ref="A1:F79"/>
+  <dimension ref="A1:F80"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A80" sqref="A80:XFD367"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A81" sqref="A81:XFD367"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9145,7 +9234,7 @@
         <v>22470</v>
       </c>
       <c r="D69" s="5">
-        <f t="shared" ref="D69:D79" si="3">(B69-B68)</f>
+        <f t="shared" ref="D69:D80" si="3">(B69-B68)</f>
         <v>274.30000000000291</v>
       </c>
       <c r="E69" s="29">
@@ -9153,7 +9242,7 @@
         <v>94813</v>
       </c>
       <c r="F69" s="6">
-        <f t="shared" ref="F69:F79" si="4">D69/E69*1000</f>
+        <f t="shared" ref="F69:F80" si="4">D69/E69*1000</f>
         <v>2.8930631875376047</v>
       </c>
     </row>
@@ -9385,6 +9474,29 @@
       <c r="F79" s="6">
         <f t="shared" si="4"/>
         <v>2.7770030678513016</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A80" s="20">
+        <v>45736</v>
+      </c>
+      <c r="B80" s="4">
+        <v>28471.5</v>
+      </c>
+      <c r="C80" s="29">
+        <v>25207</v>
+      </c>
+      <c r="D80" s="5">
+        <f t="shared" si="3"/>
+        <v>250.70000000000073</v>
+      </c>
+      <c r="E80" s="29">
+        <f>[2]Sheet1!U84</f>
+        <v>81090</v>
+      </c>
+      <c r="F80" s="6">
+        <f t="shared" si="4"/>
+        <v>3.0916265877420241</v>
       </c>
     </row>
   </sheetData>

--- a/Consommation spécifique.xlsx
+++ b/Consommation spécifique.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\Projects\wave2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EE9D6418-7FA1-4FB2-9473-AA50E96EB2D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B0B57759-9668-41BE-97C4-EA4A0DD65905}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" activeTab="1" xr2:uid="{4E830341-EBCA-4A95-9BBE-9CDD49815F8C}"/>
+    <workbookView xWindow="30612" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{4E830341-EBCA-4A95-9BBE-9CDD49815F8C}"/>
   </bookViews>
   <sheets>
     <sheet name="Produits chimiques" sheetId="1" r:id="rId1"/>
@@ -1113,6 +1113,21 @@
             <v>0</v>
           </cell>
         </row>
+        <row r="82">
+          <cell r="F82">
+            <v>2.0088515019303452</v>
+          </cell>
+        </row>
+        <row r="83">
+          <cell r="F83">
+            <v>2.5758169081495272</v>
+          </cell>
+        </row>
+        <row r="84">
+          <cell r="F84">
+            <v>1.6198028842813414</v>
+          </cell>
+        </row>
       </sheetData>
       <sheetData sheetId="3">
         <row r="3">
@@ -1510,6 +1525,21 @@
             <v>0</v>
           </cell>
         </row>
+        <row r="82">
+          <cell r="F82">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="83">
+          <cell r="F83">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="84">
+          <cell r="F84">
+            <v>0</v>
+          </cell>
+        </row>
       </sheetData>
       <sheetData sheetId="4">
         <row r="3">
@@ -1904,6 +1934,21 @@
         </row>
         <row r="81">
           <cell r="F81">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="82">
+          <cell r="F82">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="83">
+          <cell r="F83">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="84">
+          <cell r="F84">
             <v>0</v>
           </cell>
         </row>
@@ -2305,6 +2350,21 @@
             <v>7.6162288814897838</v>
           </cell>
         </row>
+        <row r="82">
+          <cell r="I82">
+            <v>5.8926310723290989</v>
+          </cell>
+        </row>
+        <row r="83">
+          <cell r="I83">
+            <v>6.3003089239872585</v>
+          </cell>
+        </row>
+        <row r="84">
+          <cell r="I84">
+            <v>7.9402102170655038</v>
+          </cell>
+        </row>
       </sheetData>
       <sheetData sheetId="7">
         <row r="3">
@@ -2702,6 +2762,21 @@
             <v>0</v>
           </cell>
         </row>
+        <row r="82">
+          <cell r="F82">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="83">
+          <cell r="F83">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="84">
+          <cell r="F84">
+            <v>0</v>
+          </cell>
+        </row>
       </sheetData>
       <sheetData sheetId="8">
         <row r="3">
@@ -3097,6 +3172,21 @@
         <row r="81">
           <cell r="F81">
             <v>1.1838697743248034</v>
+          </cell>
+        </row>
+        <row r="82">
+          <cell r="F82">
+            <v>0.70309802567564872</v>
+          </cell>
+        </row>
+        <row r="83">
+          <cell r="F83">
+            <v>1.1486751076882808</v>
+          </cell>
+        </row>
+        <row r="84">
+          <cell r="F84">
+            <v>0.63521681736524038</v>
           </cell>
         </row>
       </sheetData>
@@ -3496,6 +3586,21 @@
             <v>22.49352571217166</v>
           </cell>
         </row>
+        <row r="82">
+          <cell r="G82">
+            <v>9.9772957929208914</v>
+          </cell>
+        </row>
+        <row r="83">
+          <cell r="G83">
+            <v>8.3888091197841721</v>
+          </cell>
+        </row>
+        <row r="84">
+          <cell r="G84">
+            <v>18.643613589669794</v>
+          </cell>
+        </row>
       </sheetData>
       <sheetData sheetId="10">
         <row r="3">
@@ -3891,6 +3996,21 @@
         <row r="81">
           <cell r="F81">
             <v>4.0880503144654101</v>
+          </cell>
+        </row>
+        <row r="82">
+          <cell r="F82">
+            <v>3.3219289159525829</v>
+          </cell>
+        </row>
+        <row r="83">
+          <cell r="F83">
+            <v>3.8669886437801964</v>
+          </cell>
+        </row>
+        <row r="84">
+          <cell r="F84">
+            <v>3.3646640794814906</v>
           </cell>
         </row>
       </sheetData>
@@ -3916,11 +4036,6 @@
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
-        <row r="1">
-          <cell r="B1" t="str">
-            <v xml:space="preserve"> SUIVI DE PRODUCTION  JOURNALIER W2E</v>
-          </cell>
-        </row>
         <row r="6">
           <cell r="U6">
             <v>53174</v>
@@ -4316,10 +4431,25 @@
             <v>81090</v>
           </cell>
         </row>
+        <row r="85">
+          <cell r="U85">
+            <v>95577</v>
+          </cell>
+        </row>
+        <row r="86">
+          <cell r="U86">
+            <v>91932</v>
+          </cell>
+        </row>
+        <row r="87">
+          <cell r="U87">
+            <v>100753</v>
+          </cell>
+        </row>
       </sheetData>
-      <sheetData sheetId="1" refreshError="1"/>
-      <sheetData sheetId="2" refreshError="1"/>
-      <sheetData sheetId="3" refreshError="1"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -4622,11 +4752,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BC5C344-277E-4945-8E25-AE6A0B860AD5}">
-  <dimension ref="A1:K80"/>
+  <dimension ref="A1:K83"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A81" sqref="A81:XFD366"/>
+      <selection pane="bottomLeft" activeCell="A84" sqref="A84:XFD367"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7759,6 +7889,123 @@
       <c r="J80" s="4"/>
       <c r="K80" s="32"/>
     </row>
+    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A81" s="22">
+        <v>45737</v>
+      </c>
+      <c r="B81" s="4">
+        <f>'[1]NaOCl Pré'!F82</f>
+        <v>2.0088515019303452</v>
+      </c>
+      <c r="C81" s="4">
+        <f>[1]Acide!F82</f>
+        <v>0</v>
+      </c>
+      <c r="D81" s="4">
+        <f>[1]FeCl3!F82</f>
+        <v>0</v>
+      </c>
+      <c r="E81" s="4">
+        <f>'[1]NaOCl 2 CEB 1'!I82</f>
+        <v>5.8926310723290989</v>
+      </c>
+      <c r="F81" s="4">
+        <f>'[1]Soude CEB 1'!F82</f>
+        <v>0</v>
+      </c>
+      <c r="G81" s="4">
+        <f>'[1]Acide CEB2'!F82</f>
+        <v>0.70309802567564872</v>
+      </c>
+      <c r="H81" s="4">
+        <f>[1]SBS!G82</f>
+        <v>9.9772957929208914</v>
+      </c>
+      <c r="I81" s="4">
+        <f>[1]ASC!F82</f>
+        <v>3.3219289159525829</v>
+      </c>
+      <c r="J81" s="4"/>
+      <c r="K81" s="32"/>
+    </row>
+    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A82" s="22">
+        <v>45738</v>
+      </c>
+      <c r="B82" s="4">
+        <f>'[1]NaOCl Pré'!F83</f>
+        <v>2.5758169081495272</v>
+      </c>
+      <c r="C82" s="4">
+        <f>[1]Acide!F83</f>
+        <v>0</v>
+      </c>
+      <c r="D82" s="4">
+        <f>[1]FeCl3!F83</f>
+        <v>0</v>
+      </c>
+      <c r="E82" s="4">
+        <f>'[1]NaOCl 2 CEB 1'!I83</f>
+        <v>6.3003089239872585</v>
+      </c>
+      <c r="F82" s="4">
+        <f>'[1]Soude CEB 1'!F83</f>
+        <v>0</v>
+      </c>
+      <c r="G82" s="4">
+        <f>'[1]Acide CEB2'!F83</f>
+        <v>1.1486751076882808</v>
+      </c>
+      <c r="H82" s="4">
+        <f>[1]SBS!G83</f>
+        <v>8.3888091197841721</v>
+      </c>
+      <c r="I82" s="4">
+        <f>[1]ASC!F83</f>
+        <v>3.8669886437801964</v>
+      </c>
+      <c r="J82" s="4"/>
+      <c r="K82" s="32"/>
+    </row>
+    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A83" s="22">
+        <v>45739</v>
+      </c>
+      <c r="B83" s="4">
+        <f>'[1]NaOCl Pré'!F84</f>
+        <v>1.6198028842813414</v>
+      </c>
+      <c r="C83" s="4">
+        <f>[1]Acide!F84</f>
+        <v>0</v>
+      </c>
+      <c r="D83" s="4">
+        <f>[1]FeCl3!F84</f>
+        <v>0</v>
+      </c>
+      <c r="E83" s="4">
+        <f>'[1]NaOCl 2 CEB 1'!I84</f>
+        <v>7.9402102170655038</v>
+      </c>
+      <c r="F83" s="4">
+        <f>'[1]Soude CEB 1'!F84</f>
+        <v>0</v>
+      </c>
+      <c r="G83" s="4">
+        <f>'[1]Acide CEB2'!F84</f>
+        <v>0.63521681736524038</v>
+      </c>
+      <c r="H83" s="4">
+        <f>[1]SBS!G84</f>
+        <v>18.643613589669794</v>
+      </c>
+      <c r="I83" s="4">
+        <f>[1]ASC!F84</f>
+        <v>3.3646640794814906</v>
+      </c>
+      <c r="J83" s="4"/>
+      <c r="K83" s="32"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7767,10 +8014,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07CB649B-6F18-453D-B029-557EF373D866}">
-  <dimension ref="A1:F80"/>
+  <dimension ref="A1:F83"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A81" sqref="A81:XFD367"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A84" sqref="A84:XFD367"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9234,7 +9481,7 @@
         <v>22470</v>
       </c>
       <c r="D69" s="5">
-        <f t="shared" ref="D69:D80" si="3">(B69-B68)</f>
+        <f t="shared" ref="D69:D83" si="3">(B69-B68)</f>
         <v>274.30000000000291</v>
       </c>
       <c r="E69" s="29">
@@ -9242,7 +9489,7 @@
         <v>94813</v>
       </c>
       <c r="F69" s="6">
-        <f t="shared" ref="F69:F80" si="4">D69/E69*1000</f>
+        <f t="shared" ref="F69:F83" si="4">D69/E69*1000</f>
         <v>2.8930631875376047</v>
       </c>
     </row>
@@ -9497,6 +9744,75 @@
       <c r="F80" s="6">
         <f t="shared" si="4"/>
         <v>3.0916265877420241</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A81" s="20">
+        <v>45737</v>
+      </c>
+      <c r="B81" s="4">
+        <v>28743.200000000001</v>
+      </c>
+      <c r="C81" s="29">
+        <v>25453</v>
+      </c>
+      <c r="D81" s="5">
+        <f t="shared" si="3"/>
+        <v>271.70000000000073</v>
+      </c>
+      <c r="E81" s="29">
+        <f>[2]Sheet1!U85</f>
+        <v>95577</v>
+      </c>
+      <c r="F81" s="6">
+        <f t="shared" si="4"/>
+        <v>2.8427341305962806</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A82" s="20">
+        <v>45738</v>
+      </c>
+      <c r="B82" s="4">
+        <v>29006</v>
+      </c>
+      <c r="C82" s="29">
+        <v>25687</v>
+      </c>
+      <c r="D82" s="5">
+        <f t="shared" si="3"/>
+        <v>262.79999999999927</v>
+      </c>
+      <c r="E82" s="29">
+        <f>[2]Sheet1!U86</f>
+        <v>91932</v>
+      </c>
+      <c r="F82" s="6">
+        <f t="shared" si="4"/>
+        <v>2.8586346429969898</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A83" s="20">
+        <v>45739</v>
+      </c>
+      <c r="B83" s="4">
+        <v>29295.8</v>
+      </c>
+      <c r="C83" s="29">
+        <v>25948</v>
+      </c>
+      <c r="D83" s="5">
+        <f t="shared" si="3"/>
+        <v>289.79999999999927</v>
+      </c>
+      <c r="E83" s="29">
+        <f>[2]Sheet1!U87</f>
+        <v>100753</v>
+      </c>
+      <c r="F83" s="6">
+        <f t="shared" si="4"/>
+        <v>2.8763411511319692</v>
       </c>
     </row>
   </sheetData>

--- a/Consommation spécifique.xlsx
+++ b/Consommation spécifique.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\Projects\wave2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B0B57759-9668-41BE-97C4-EA4A0DD65905}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{74DF3C72-9765-43DC-A0A5-FA5135A4796D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30612" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{4E830341-EBCA-4A95-9BBE-9CDD49815F8C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{4E830341-EBCA-4A95-9BBE-9CDD49815F8C}"/>
   </bookViews>
   <sheets>
     <sheet name="Produits chimiques" sheetId="1" r:id="rId1"/>
@@ -1128,6 +1128,11 @@
             <v>1.6198028842813414</v>
           </cell>
         </row>
+        <row r="85">
+          <cell r="F85">
+            <v>1.1648697551418317</v>
+          </cell>
+        </row>
       </sheetData>
       <sheetData sheetId="3">
         <row r="3">
@@ -1540,6 +1545,11 @@
             <v>0</v>
           </cell>
         </row>
+        <row r="85">
+          <cell r="F85">
+            <v>0</v>
+          </cell>
+        </row>
       </sheetData>
       <sheetData sheetId="4">
         <row r="3">
@@ -1949,6 +1959,11 @@
         </row>
         <row r="84">
           <cell r="F84">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="85">
+          <cell r="F85">
             <v>0</v>
           </cell>
         </row>
@@ -2365,6 +2380,11 @@
             <v>7.9402102170655038</v>
           </cell>
         </row>
+        <row r="85">
+          <cell r="I85">
+            <v>2.2612177599811738</v>
+          </cell>
+        </row>
       </sheetData>
       <sheetData sheetId="7">
         <row r="3">
@@ -2777,6 +2797,11 @@
             <v>0</v>
           </cell>
         </row>
+        <row r="85">
+          <cell r="F85">
+            <v>0</v>
+          </cell>
+        </row>
       </sheetData>
       <sheetData sheetId="8">
         <row r="3">
@@ -3187,6 +3212,11 @@
         <row r="84">
           <cell r="F84">
             <v>0.63521681736524038</v>
+          </cell>
+        </row>
+        <row r="85">
+          <cell r="F85">
+            <v>1.1648697551418317</v>
           </cell>
         </row>
       </sheetData>
@@ -3601,6 +3631,11 @@
             <v>18.643613589669794</v>
           </cell>
         </row>
+        <row r="85">
+          <cell r="G85">
+            <v>2.3918373464952194</v>
+          </cell>
+        </row>
       </sheetData>
       <sheetData sheetId="10">
         <row r="3">
@@ -4011,6 +4046,11 @@
         <row r="84">
           <cell r="F84">
             <v>3.3646640794814906</v>
+          </cell>
+        </row>
+        <row r="85">
+          <cell r="F85">
+            <v>3.5331527499705579</v>
           </cell>
         </row>
       </sheetData>
@@ -4444,6 +4484,11 @@
         <row r="87">
           <cell r="U87">
             <v>100753</v>
+          </cell>
+        </row>
+        <row r="88">
+          <cell r="U88">
+            <v>93401</v>
           </cell>
         </row>
       </sheetData>
@@ -4752,11 +4797,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BC5C344-277E-4945-8E25-AE6A0B860AD5}">
-  <dimension ref="A1:K83"/>
+  <dimension ref="A1:K84"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A84" sqref="A84:XFD367"/>
+      <pane ySplit="1" topLeftCell="A54" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A85" sqref="A85:XFD367"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8006,6 +8051,45 @@
       <c r="J83" s="4"/>
       <c r="K83" s="32"/>
     </row>
+    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A84" s="22">
+        <v>45740</v>
+      </c>
+      <c r="B84" s="4">
+        <f>'[1]NaOCl Pré'!F85</f>
+        <v>1.1648697551418317</v>
+      </c>
+      <c r="C84" s="4">
+        <f>[1]Acide!F85</f>
+        <v>0</v>
+      </c>
+      <c r="D84" s="4">
+        <f>[1]FeCl3!F85</f>
+        <v>0</v>
+      </c>
+      <c r="E84" s="4">
+        <f>'[1]NaOCl 2 CEB 1'!I85</f>
+        <v>2.2612177599811738</v>
+      </c>
+      <c r="F84" s="4">
+        <f>'[1]Soude CEB 1'!F85</f>
+        <v>0</v>
+      </c>
+      <c r="G84" s="4">
+        <f>'[1]Acide CEB2'!F85</f>
+        <v>1.1648697551418317</v>
+      </c>
+      <c r="H84" s="4">
+        <f>[1]SBS!G85</f>
+        <v>2.3918373464952194</v>
+      </c>
+      <c r="I84" s="4">
+        <f>[1]ASC!F85</f>
+        <v>3.5331527499705579</v>
+      </c>
+      <c r="J84" s="4"/>
+      <c r="K84" s="32"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8014,10 +8098,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07CB649B-6F18-453D-B029-557EF373D866}">
-  <dimension ref="A1:F83"/>
+  <dimension ref="A1:F84"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A84" sqref="A84:XFD367"/>
+    <sheetView topLeftCell="A65" workbookViewId="0">
+      <selection activeCell="A85" sqref="A85:XFD367"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9481,7 +9565,7 @@
         <v>22470</v>
       </c>
       <c r="D69" s="5">
-        <f t="shared" ref="D69:D83" si="3">(B69-B68)</f>
+        <f t="shared" ref="D69:D84" si="3">(B69-B68)</f>
         <v>274.30000000000291</v>
       </c>
       <c r="E69" s="29">
@@ -9489,7 +9573,7 @@
         <v>94813</v>
       </c>
       <c r="F69" s="6">
-        <f t="shared" ref="F69:F83" si="4">D69/E69*1000</f>
+        <f t="shared" ref="F69:F84" si="4">D69/E69*1000</f>
         <v>2.8930631875376047</v>
       </c>
     </row>
@@ -9813,6 +9897,29 @@
       <c r="F83" s="6">
         <f t="shared" si="4"/>
         <v>2.8763411511319692</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A84" s="20">
+        <v>45740</v>
+      </c>
+      <c r="B84" s="4">
+        <v>29559.9</v>
+      </c>
+      <c r="C84" s="29">
+        <v>26187</v>
+      </c>
+      <c r="D84" s="5">
+        <f t="shared" si="3"/>
+        <v>264.10000000000218</v>
+      </c>
+      <c r="E84" s="29">
+        <f>[2]Sheet1!U88</f>
+        <v>93401</v>
+      </c>
+      <c r="F84" s="6">
+        <f t="shared" si="4"/>
+        <v>2.8275928523249449</v>
       </c>
     </row>
   </sheetData>

--- a/Consommation spécifique.xlsx
+++ b/Consommation spécifique.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\Projects\wave2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBFC0EE9-B7C0-4A7A-B2E2-7F6469C9D7AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75017B45-FA09-418C-A7F5-D0D150982783}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" activeTab="2" xr2:uid="{4E830341-EBCA-4A95-9BBE-9CDD49815F8C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{4E830341-EBCA-4A95-9BBE-9CDD49815F8C}"/>
   </bookViews>
   <sheets>
     <sheet name="CS Produits chimiques" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="17">
   <si>
     <t>Prod</t>
   </si>
@@ -91,36 +91,6 @@
   </si>
   <si>
     <t>Index d'énergie RO MWh</t>
-  </si>
-  <si>
-    <t>NaOCl (L/j)</t>
-  </si>
-  <si>
-    <t>Acide (L/j)</t>
-  </si>
-  <si>
-    <t>Coagulant (L/j)</t>
-  </si>
-  <si>
-    <t>NaOCl CEB 1  (1+2) (L/j)</t>
-  </si>
-  <si>
-    <t>Soude CEB1 (L/j)</t>
-  </si>
-  <si>
-    <t>Acide CEB 2 (L/j)</t>
-  </si>
-  <si>
-    <t>SMBS (L/j)</t>
-  </si>
-  <si>
-    <t>Antiscalant (L/j)</t>
-  </si>
-  <si>
-    <t>Soude CIP RO (L/j)</t>
-  </si>
-  <si>
-    <t>Acide CIP RO (L/j)</t>
   </si>
 </sst>
 </file>
@@ -1702,6 +1672,17 @@
             <v>0.52542280116028972</v>
           </cell>
         </row>
+        <row r="87">
+          <cell r="B87">
+            <v>45742</v>
+          </cell>
+          <cell r="D87">
+            <v>224.00000000000199</v>
+          </cell>
+          <cell r="F87">
+            <v>2.8406208785634828</v>
+          </cell>
+        </row>
       </sheetData>
       <sheetData sheetId="3">
         <row r="3">
@@ -2376,6 +2357,14 @@
             <v>0</v>
           </cell>
         </row>
+        <row r="87">
+          <cell r="D87">
+            <v>0</v>
+          </cell>
+          <cell r="F87">
+            <v>0</v>
+          </cell>
+        </row>
       </sheetData>
       <sheetData sheetId="4">
         <row r="3">
@@ -3047,6 +3036,14 @@
             <v>0</v>
           </cell>
           <cell r="F86">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="87">
+          <cell r="D87">
+            <v>0</v>
+          </cell>
+          <cell r="F87">
             <v>0</v>
           </cell>
         </row>
@@ -3725,6 +3722,14 @@
             <v>10.018061408789873</v>
           </cell>
         </row>
+        <row r="87">
+          <cell r="H87">
+            <v>672.00000000000068</v>
+          </cell>
+          <cell r="I87">
+            <v>8.5218626356903808</v>
+          </cell>
+        </row>
       </sheetData>
       <sheetData sheetId="7">
         <row r="3">
@@ -4399,6 +4404,14 @@
             <v>0</v>
           </cell>
         </row>
+        <row r="87">
+          <cell r="D87">
+            <v>0</v>
+          </cell>
+          <cell r="F87">
+            <v>0</v>
+          </cell>
+        </row>
       </sheetData>
       <sheetData sheetId="8">
         <row r="3">
@@ -5047,6 +5060,14 @@
           </cell>
           <cell r="F86">
             <v>0.94576104208852918</v>
+          </cell>
+        </row>
+        <row r="87">
+          <cell r="D87">
+            <v>105.6000000000008</v>
+          </cell>
+          <cell r="F87">
+            <v>1.3391498427513544</v>
           </cell>
         </row>
       </sheetData>
@@ -5723,6 +5744,14 @@
             <v>8.0564829511247211</v>
           </cell>
         </row>
+        <row r="87">
+          <cell r="E87">
+            <v>1027.2000000000005</v>
+          </cell>
+          <cell r="G87">
+            <v>13.026275743126719</v>
+          </cell>
+        </row>
       </sheetData>
       <sheetData sheetId="10">
         <row r="3">
@@ -6395,6 +6424,14 @@
           </cell>
           <cell r="F86">
             <v>3.7272179957309448</v>
+          </cell>
+        </row>
+        <row r="87">
+          <cell r="D87">
+            <v>330.00000000000006</v>
+          </cell>
+          <cell r="F87">
+            <v>4.1848432585979518</v>
           </cell>
         </row>
       </sheetData>
@@ -6419,7 +6456,7 @@
       <sheetName val="Historique des pannes"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0">
+      <sheetData sheetId="0" refreshError="1">
         <row r="6">
           <cell r="U6">
             <v>53174</v>
@@ -6840,10 +6877,15 @@
             <v>91355</v>
           </cell>
         </row>
+        <row r="90">
+          <cell r="U90">
+            <v>78856</v>
+          </cell>
+        </row>
       </sheetData>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
+      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="3" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -7146,11 +7188,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BC5C344-277E-4945-8E25-AE6A0B860AD5}">
-  <dimension ref="A1:K85"/>
+  <dimension ref="A1:K86"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A67" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A86" sqref="A86:XFD368"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A87" sqref="A87:XFD100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10478,6 +10520,45 @@
       <c r="J85" s="4"/>
       <c r="K85" s="30"/>
     </row>
+    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A86" s="21">
+        <v>45742</v>
+      </c>
+      <c r="B86" s="4">
+        <f>'[1]NaOCl Pré'!F87</f>
+        <v>2.8406208785634828</v>
+      </c>
+      <c r="C86" s="4">
+        <f>[1]Acide!F87</f>
+        <v>0</v>
+      </c>
+      <c r="D86" s="4">
+        <f>[1]FeCl3!F87</f>
+        <v>0</v>
+      </c>
+      <c r="E86" s="4">
+        <f>'[1]NaOCl 2 CEB 1'!I87</f>
+        <v>8.5218626356903808</v>
+      </c>
+      <c r="F86" s="4">
+        <f>'[1]Soude CEB 1'!F87</f>
+        <v>0</v>
+      </c>
+      <c r="G86" s="4">
+        <f>'[1]Acide CEB2'!F87</f>
+        <v>1.3391498427513544</v>
+      </c>
+      <c r="H86" s="4">
+        <f>[1]SBS!G87</f>
+        <v>13.026275743126719</v>
+      </c>
+      <c r="I86" s="4">
+        <f>[1]ASC!F87</f>
+        <v>4.1848432585979518</v>
+      </c>
+      <c r="J86" s="4"/>
+      <c r="K86" s="30"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10486,2018 +10567,2046 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07CB649B-6F18-453D-B029-557EF373D866}">
-  <dimension ref="A1:G85"/>
+  <dimension ref="B1:H86"/>
   <sheetViews>
-    <sheetView topLeftCell="A66" workbookViewId="0">
-      <selection activeCell="A86" sqref="A86:XFD368"/>
+    <sheetView topLeftCell="B7" workbookViewId="0">
+      <selection activeCell="G107" sqref="G107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.44140625" style="2"/>
-    <col min="2" max="4" width="13.5546875" style="2" customWidth="1"/>
-    <col min="5" max="5" width="15.109375" style="2" customWidth="1"/>
-    <col min="6" max="16384" width="11.44140625" style="2"/>
+    <col min="1" max="1" width="5.6640625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="11.44140625" style="2"/>
+    <col min="3" max="5" width="13.5546875" style="2" customWidth="1"/>
+    <col min="6" max="6" width="15.109375" style="2" customWidth="1"/>
+    <col min="7" max="16384" width="11.44140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="59.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="11" t="s">
+    <row r="1" spans="2:8" ht="59.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B1" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="C1" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="D1" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="D1" s="16" t="s">
+      <c r="E1" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="F1" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="F1" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="G1" s="13" t="s">
+      <c r="G1" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="H1" s="13" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="3">
+    <row r="2" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B2" s="3">
         <v>45658</v>
       </c>
-      <c r="B2" s="18">
+      <c r="C2" s="18">
         <v>11077.9</v>
       </c>
-      <c r="C2" s="38"/>
       <c r="D2" s="38"/>
-      <c r="E2" s="18">
+      <c r="E2" s="38"/>
+      <c r="F2" s="18">
         <v>163700</v>
       </c>
-      <c r="F2" s="18">
+      <c r="G2" s="18">
         <f>[2]Sheet1!U6</f>
         <v>53174</v>
       </c>
-      <c r="G2" s="22">
-        <f t="shared" ref="G2" si="0">E2/F2</f>
+      <c r="H2" s="22">
+        <f t="shared" ref="H2" si="0">F2/G2</f>
         <v>3.0785722345507205</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="19">
+    <row r="3" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B3" s="19">
         <v>45659</v>
       </c>
-      <c r="B3" s="5">
+      <c r="C3" s="5">
         <v>11236.4</v>
       </c>
-      <c r="C3" s="8"/>
       <c r="D3" s="8"/>
-      <c r="E3" s="5">
-        <f>(B3-B2)</f>
+      <c r="E3" s="8"/>
+      <c r="F3" s="5">
+        <f>(C3-C2)</f>
         <v>158.5</v>
       </c>
-      <c r="F3" s="10">
+      <c r="G3" s="10">
         <f>[2]Sheet1!U7</f>
         <v>53766</v>
       </c>
-      <c r="G3" s="6">
-        <f>E3/F3*1000</f>
+      <c r="H3" s="6">
+        <f>F3/G3*1000</f>
         <v>2.9479596771193695</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="19">
+    <row r="4" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B4" s="19">
         <v>45660</v>
       </c>
-      <c r="B4" s="4">
+      <c r="C4" s="4">
         <v>11380.2</v>
       </c>
-      <c r="C4" s="8"/>
       <c r="D4" s="8"/>
-      <c r="E4" s="5">
-        <f>(B4-B3)</f>
+      <c r="E4" s="8"/>
+      <c r="F4" s="5">
+        <f>(C4-C3)</f>
         <v>143.80000000000109</v>
       </c>
-      <c r="F4" s="8">
+      <c r="G4" s="8">
         <f>[2]Sheet1!U8</f>
         <v>48641</v>
       </c>
-      <c r="G4" s="6">
-        <f>E4/F4*1000</f>
+      <c r="H4" s="6">
+        <f>F4/G4*1000</f>
         <v>2.9563536933862604</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="19">
+    <row r="5" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B5" s="19">
         <v>45661</v>
       </c>
-      <c r="B5" s="4">
+      <c r="C5" s="4">
         <v>11525</v>
       </c>
-      <c r="C5" s="8"/>
       <c r="D5" s="8"/>
-      <c r="E5" s="5">
-        <f t="shared" ref="E5:E68" si="1">(B5-B4)</f>
+      <c r="E5" s="8"/>
+      <c r="F5" s="5">
+        <f t="shared" ref="F5:F68" si="1">(C5-C4)</f>
         <v>144.79999999999927</v>
       </c>
-      <c r="F5" s="15">
+      <c r="G5" s="15">
         <f>[2]Sheet1!U9</f>
         <v>47464</v>
       </c>
-      <c r="G5" s="6">
-        <f t="shared" ref="G5:G68" si="2">E5/F5*1000</f>
+      <c r="H5" s="6">
+        <f t="shared" ref="H5:H68" si="2">F5/G5*1000</f>
         <v>3.0507331872576957</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="19">
+    <row r="6" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B6" s="19">
         <v>45662</v>
       </c>
-      <c r="B6" s="4">
+      <c r="C6" s="4">
         <v>11694</v>
       </c>
-      <c r="C6" s="8"/>
       <c r="D6" s="8"/>
-      <c r="E6" s="5">
+      <c r="E6" s="8"/>
+      <c r="F6" s="5">
         <f t="shared" si="1"/>
         <v>169</v>
       </c>
-      <c r="F6" s="8">
+      <c r="G6" s="8">
         <f>[2]Sheet1!U10</f>
         <v>57975</v>
       </c>
-      <c r="G6" s="6">
+      <c r="H6" s="6">
         <f t="shared" si="2"/>
         <v>2.9150495903406641</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="19">
+    <row r="7" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B7" s="19">
         <v>45663</v>
       </c>
-      <c r="B7" s="4">
+      <c r="C7" s="4">
         <v>11862.8</v>
       </c>
-      <c r="C7" s="8"/>
       <c r="D7" s="8"/>
-      <c r="E7" s="5">
+      <c r="E7" s="8"/>
+      <c r="F7" s="5">
         <f t="shared" si="1"/>
         <v>168.79999999999927</v>
       </c>
-      <c r="F7" s="15">
+      <c r="G7" s="15">
         <f>[2]Sheet1!U11</f>
         <v>58341</v>
       </c>
-      <c r="G7" s="6">
+      <c r="H7" s="6">
         <f t="shared" si="2"/>
         <v>2.8933340189574963</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="19">
+    <row r="8" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B8" s="19">
         <v>45664</v>
       </c>
-      <c r="B8" s="4">
+      <c r="C8" s="4">
         <v>12009.8</v>
       </c>
-      <c r="C8" s="8"/>
       <c r="D8" s="8"/>
-      <c r="E8" s="5">
+      <c r="E8" s="8"/>
+      <c r="F8" s="5">
         <f t="shared" si="1"/>
         <v>147</v>
       </c>
-      <c r="F8" s="8">
+      <c r="G8" s="8">
         <f>[2]Sheet1!U12</f>
         <v>52934</v>
       </c>
-      <c r="G8" s="6">
+      <c r="H8" s="6">
         <f t="shared" si="2"/>
         <v>2.7770431102882838</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" s="19">
+    <row r="9" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B9" s="19">
         <v>45665</v>
       </c>
-      <c r="B9" s="4">
+      <c r="C9" s="4">
         <v>12183</v>
       </c>
-      <c r="C9" s="8"/>
       <c r="D9" s="8"/>
-      <c r="E9" s="5">
+      <c r="E9" s="8"/>
+      <c r="F9" s="5">
         <f t="shared" si="1"/>
         <v>173.20000000000073</v>
       </c>
-      <c r="F9" s="15">
+      <c r="G9" s="15">
         <f>[2]Sheet1!U13</f>
         <v>50448</v>
       </c>
-      <c r="G9" s="6">
+      <c r="H9" s="6">
         <f t="shared" si="2"/>
         <v>3.4332381858547558</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" s="19">
+    <row r="10" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B10" s="19">
         <v>45666</v>
       </c>
-      <c r="B10" s="4">
+      <c r="C10" s="4">
         <v>12354.3</v>
       </c>
-      <c r="C10" s="8"/>
       <c r="D10" s="8"/>
-      <c r="E10" s="5">
+      <c r="E10" s="8"/>
+      <c r="F10" s="5">
         <f t="shared" si="1"/>
         <v>171.29999999999927</v>
       </c>
-      <c r="F10" s="8">
+      <c r="G10" s="8">
         <f>[2]Sheet1!U14</f>
         <v>65465</v>
       </c>
-      <c r="G10" s="6">
+      <c r="H10" s="6">
         <f t="shared" si="2"/>
         <v>2.6166653937218247</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" s="19">
+    <row r="11" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B11" s="19">
         <v>45667</v>
       </c>
-      <c r="B11" s="4">
+      <c r="C11" s="4">
         <v>12526.7</v>
       </c>
-      <c r="C11" s="8"/>
       <c r="D11" s="8"/>
-      <c r="E11" s="5">
+      <c r="E11" s="8"/>
+      <c r="F11" s="5">
         <f t="shared" si="1"/>
         <v>172.40000000000146</v>
       </c>
-      <c r="F11" s="15">
+      <c r="G11" s="15">
         <f>[2]Sheet1!U15</f>
         <v>58423</v>
       </c>
-      <c r="G11" s="6">
+      <c r="H11" s="6">
         <f t="shared" si="2"/>
         <v>2.9508926279034191</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" s="19">
+    <row r="12" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B12" s="19">
         <v>45668</v>
       </c>
-      <c r="B12" s="4">
+      <c r="C12" s="4">
         <v>12693.5</v>
       </c>
-      <c r="C12" s="8"/>
       <c r="D12" s="8"/>
-      <c r="E12" s="5">
+      <c r="E12" s="8"/>
+      <c r="F12" s="5">
         <f t="shared" si="1"/>
         <v>166.79999999999927</v>
       </c>
-      <c r="F12" s="8">
+      <c r="G12" s="8">
         <f>[2]Sheet1!U16</f>
         <v>56419</v>
       </c>
-      <c r="G12" s="6">
+      <c r="H12" s="6">
         <f t="shared" si="2"/>
         <v>2.9564508410287185</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13" s="19">
+    <row r="13" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B13" s="19">
         <v>45669</v>
       </c>
-      <c r="B13" s="4">
+      <c r="C13" s="4">
         <v>12864.4</v>
       </c>
-      <c r="C13" s="8"/>
       <c r="D13" s="8"/>
-      <c r="E13" s="5">
+      <c r="E13" s="8"/>
+      <c r="F13" s="5">
         <f t="shared" si="1"/>
         <v>170.89999999999964</v>
       </c>
-      <c r="F13" s="15">
+      <c r="G13" s="15">
         <f>[2]Sheet1!U17</f>
         <v>58678</v>
       </c>
-      <c r="G13" s="6">
+      <c r="H13" s="6">
         <f t="shared" si="2"/>
         <v>2.9125055387027445</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A14" s="19">
+    <row r="14" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B14" s="19">
         <v>45670</v>
       </c>
-      <c r="B14" s="4">
+      <c r="C14" s="4">
         <v>13037.4</v>
       </c>
-      <c r="C14" s="8"/>
       <c r="D14" s="8"/>
-      <c r="E14" s="5">
+      <c r="E14" s="8"/>
+      <c r="F14" s="5">
         <f t="shared" si="1"/>
         <v>173</v>
       </c>
-      <c r="F14" s="8">
+      <c r="G14" s="8">
         <f>[2]Sheet1!U18</f>
         <v>58205</v>
       </c>
-      <c r="G14" s="6">
+      <c r="H14" s="6">
         <f t="shared" si="2"/>
         <v>2.9722532428485526</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A15" s="19">
+    <row r="15" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B15" s="19">
         <v>45671</v>
       </c>
-      <c r="B15" s="4">
+      <c r="C15" s="4">
         <v>13208.3</v>
       </c>
-      <c r="C15" s="8"/>
       <c r="D15" s="8"/>
-      <c r="E15" s="5">
+      <c r="E15" s="8"/>
+      <c r="F15" s="5">
         <f t="shared" si="1"/>
         <v>170.89999999999964</v>
       </c>
-      <c r="F15" s="15">
+      <c r="G15" s="15">
         <f>[2]Sheet1!U19</f>
         <v>57968</v>
       </c>
-      <c r="G15" s="6">
+      <c r="H15" s="6">
         <f t="shared" si="2"/>
         <v>2.9481783052718677</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A16" s="19">
+    <row r="16" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B16" s="19">
         <v>45672</v>
       </c>
-      <c r="B16" s="4">
+      <c r="C16" s="4">
         <v>13371.1</v>
       </c>
-      <c r="C16" s="8"/>
       <c r="D16" s="8"/>
-      <c r="E16" s="5">
+      <c r="E16" s="8"/>
+      <c r="F16" s="5">
         <f t="shared" si="1"/>
         <v>162.80000000000109</v>
       </c>
-      <c r="F16" s="8">
+      <c r="G16" s="8">
         <f>[2]Sheet1!U20</f>
         <v>54239</v>
       </c>
-      <c r="G16" s="6">
+      <c r="H16" s="6">
         <f t="shared" si="2"/>
         <v>3.001530264201056</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A17" s="19">
+    <row r="17" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B17" s="19">
         <v>45673</v>
       </c>
-      <c r="B17" s="4">
+      <c r="C17" s="4">
         <v>13524.3</v>
       </c>
-      <c r="C17" s="8"/>
       <c r="D17" s="8"/>
-      <c r="E17" s="5">
+      <c r="E17" s="8"/>
+      <c r="F17" s="5">
         <f t="shared" si="1"/>
         <v>153.19999999999891</v>
       </c>
-      <c r="F17" s="15">
+      <c r="G17" s="15">
         <f>[2]Sheet1!U21</f>
         <v>66973</v>
       </c>
-      <c r="G17" s="6">
+      <c r="H17" s="6">
         <f t="shared" si="2"/>
         <v>2.2874889880996658</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A18" s="19">
+    <row r="18" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B18" s="19">
         <v>45674</v>
       </c>
-      <c r="B18" s="4">
+      <c r="C18" s="4">
         <v>13741.5</v>
       </c>
-      <c r="C18" s="8"/>
       <c r="D18" s="8"/>
-      <c r="E18" s="5">
+      <c r="E18" s="8"/>
+      <c r="F18" s="5">
         <f t="shared" si="1"/>
         <v>217.20000000000073</v>
       </c>
-      <c r="F18" s="8">
+      <c r="G18" s="8">
         <f>[2]Sheet1!U22</f>
         <v>68507</v>
       </c>
-      <c r="G18" s="6">
+      <c r="H18" s="6">
         <f t="shared" si="2"/>
         <v>3.1704789291605344</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A19" s="19">
+    <row r="19" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B19" s="19">
         <v>45675</v>
       </c>
-      <c r="B19" s="4">
+      <c r="C19" s="4">
         <v>13949.7</v>
       </c>
-      <c r="C19" s="8"/>
       <c r="D19" s="8"/>
-      <c r="E19" s="5">
+      <c r="E19" s="8"/>
+      <c r="F19" s="5">
         <f t="shared" si="1"/>
         <v>208.20000000000073</v>
       </c>
-      <c r="F19" s="15">
+      <c r="G19" s="15">
         <f>[2]Sheet1!U23</f>
         <v>62883</v>
       </c>
-      <c r="G19" s="6">
+      <c r="H19" s="6">
         <f t="shared" si="2"/>
         <v>3.3109107389914718</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A20" s="19">
+    <row r="20" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B20" s="19">
         <v>45676</v>
       </c>
-      <c r="B20" s="4">
+      <c r="C20" s="4">
         <v>14095.6</v>
       </c>
-      <c r="C20" s="8"/>
       <c r="D20" s="8"/>
-      <c r="E20" s="5">
+      <c r="E20" s="8"/>
+      <c r="F20" s="5">
         <f t="shared" si="1"/>
         <v>145.89999999999964</v>
       </c>
-      <c r="F20" s="8">
+      <c r="G20" s="8">
         <f>[2]Sheet1!U24</f>
         <v>49626</v>
       </c>
-      <c r="G20" s="6">
+      <c r="H20" s="6">
         <f t="shared" si="2"/>
         <v>2.9399911336799187</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A21" s="19">
+    <row r="21" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B21" s="19">
         <v>45677</v>
       </c>
-      <c r="B21" s="4">
+      <c r="C21" s="4">
         <v>14266.4</v>
       </c>
-      <c r="C21" s="8"/>
       <c r="D21" s="8"/>
-      <c r="E21" s="5">
+      <c r="E21" s="8"/>
+      <c r="F21" s="5">
         <f t="shared" si="1"/>
         <v>170.79999999999927</v>
       </c>
-      <c r="F21" s="15">
+      <c r="G21" s="15">
         <f>[2]Sheet1!U25</f>
         <v>58465</v>
       </c>
-      <c r="G21" s="6">
+      <c r="H21" s="6">
         <f t="shared" si="2"/>
         <v>2.9214059693833794</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A22" s="19">
+    <row r="22" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B22" s="19">
         <v>45678</v>
       </c>
-      <c r="B22" s="4">
+      <c r="C22" s="4">
         <v>14436.9</v>
       </c>
-      <c r="C22" s="8"/>
       <c r="D22" s="8"/>
-      <c r="E22" s="5">
+      <c r="E22" s="8"/>
+      <c r="F22" s="5">
         <f t="shared" si="1"/>
         <v>170.5</v>
       </c>
-      <c r="F22" s="8">
+      <c r="G22" s="8">
         <f>[2]Sheet1!U26</f>
         <v>58549</v>
       </c>
-      <c r="G22" s="6">
+      <c r="H22" s="6">
         <f t="shared" si="2"/>
         <v>2.9120907274248919</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A23" s="19">
+    <row r="23" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B23" s="19">
         <v>45679</v>
       </c>
-      <c r="B23" s="4">
+      <c r="C23" s="4">
         <v>14620.7</v>
       </c>
-      <c r="C23" s="8"/>
       <c r="D23" s="8"/>
-      <c r="E23" s="5">
+      <c r="E23" s="8"/>
+      <c r="F23" s="5">
         <f t="shared" si="1"/>
         <v>183.80000000000109</v>
       </c>
-      <c r="F23" s="15">
+      <c r="G23" s="15">
         <f>[2]Sheet1!U27</f>
         <v>59980</v>
       </c>
-      <c r="G23" s="6">
+      <c r="H23" s="6">
         <f t="shared" si="2"/>
         <v>3.0643547849283275</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A24" s="19">
+    <row r="24" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B24" s="19">
         <v>45680</v>
       </c>
-      <c r="B24" s="4">
+      <c r="C24" s="4">
         <v>14821.6</v>
       </c>
-      <c r="C24" s="8"/>
       <c r="D24" s="8"/>
-      <c r="E24" s="5">
+      <c r="E24" s="8"/>
+      <c r="F24" s="5">
         <f t="shared" si="1"/>
         <v>200.89999999999964</v>
       </c>
-      <c r="F24" s="8">
+      <c r="G24" s="8">
         <f>[2]Sheet1!U28</f>
         <v>66594</v>
       </c>
-      <c r="G24" s="6">
+      <c r="H24" s="6">
         <f t="shared" si="2"/>
         <v>3.0167882992461728</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A25" s="19">
+    <row r="25" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B25" s="19">
         <v>45681</v>
       </c>
-      <c r="B25" s="4">
+      <c r="C25" s="4">
         <v>15037.9</v>
       </c>
-      <c r="C25" s="8"/>
       <c r="D25" s="8"/>
-      <c r="E25" s="5">
+      <c r="E25" s="8"/>
+      <c r="F25" s="5">
         <f t="shared" si="1"/>
         <v>216.29999999999927</v>
       </c>
-      <c r="F25" s="15">
+      <c r="G25" s="15">
         <f>[2]Sheet1!U29</f>
         <v>70950</v>
       </c>
-      <c r="G25" s="6">
+      <c r="H25" s="6">
         <f t="shared" si="2"/>
         <v>3.048625792811829</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A26" s="19">
+    <row r="26" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B26" s="19">
         <v>45682</v>
       </c>
-      <c r="B26" s="4">
+      <c r="C26" s="4">
         <v>15273.7</v>
       </c>
-      <c r="C26" s="8"/>
       <c r="D26" s="8"/>
-      <c r="E26" s="5">
+      <c r="E26" s="8"/>
+      <c r="F26" s="5">
         <f t="shared" si="1"/>
         <v>235.80000000000109</v>
       </c>
-      <c r="F26" s="8">
+      <c r="G26" s="8">
         <f>[2]Sheet1!U30</f>
         <v>78568</v>
       </c>
-      <c r="G26" s="6">
+      <c r="H26" s="6">
         <f t="shared" si="2"/>
         <v>3.0012218714998613</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A27" s="19">
+    <row r="27" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B27" s="19">
         <v>45683</v>
       </c>
-      <c r="B27" s="4">
+      <c r="C27" s="4">
         <v>15484.1</v>
       </c>
-      <c r="C27" s="8"/>
       <c r="D27" s="8"/>
-      <c r="E27" s="5">
+      <c r="E27" s="8"/>
+      <c r="F27" s="5">
         <f t="shared" si="1"/>
         <v>210.39999999999964</v>
       </c>
-      <c r="F27" s="15">
+      <c r="G27" s="15">
         <f>[2]Sheet1!U31</f>
         <v>71467</v>
       </c>
-      <c r="G27" s="6">
+      <c r="H27" s="6">
         <f t="shared" si="2"/>
         <v>2.9440161193277965</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A28" s="19">
+    <row r="28" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B28" s="19">
         <v>45684</v>
       </c>
-      <c r="B28" s="4">
+      <c r="C28" s="4">
         <v>15695.8</v>
       </c>
-      <c r="C28" s="8"/>
       <c r="D28" s="8"/>
-      <c r="E28" s="5">
+      <c r="E28" s="8"/>
+      <c r="F28" s="5">
         <f t="shared" si="1"/>
         <v>211.69999999999891</v>
       </c>
-      <c r="F28" s="8">
+      <c r="G28" s="8">
         <f>[2]Sheet1!U32</f>
         <v>71945</v>
       </c>
-      <c r="G28" s="6">
+      <c r="H28" s="6">
         <f t="shared" si="2"/>
         <v>2.9425255403433028</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A29" s="19">
+    <row r="29" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B29" s="19">
         <v>45685</v>
       </c>
-      <c r="B29" s="4">
+      <c r="C29" s="4">
         <v>15909.9</v>
       </c>
-      <c r="C29" s="8"/>
       <c r="D29" s="8"/>
-      <c r="E29" s="5">
+      <c r="E29" s="8"/>
+      <c r="F29" s="5">
         <f t="shared" si="1"/>
         <v>214.10000000000036</v>
       </c>
-      <c r="F29" s="15">
+      <c r="G29" s="15">
         <f>[2]Sheet1!U33</f>
         <v>69243</v>
       </c>
-      <c r="G29" s="6">
+      <c r="H29" s="6">
         <f t="shared" si="2"/>
         <v>3.0920093005791252</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A30" s="19">
+    <row r="30" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B30" s="19">
         <v>45686</v>
       </c>
-      <c r="B30" s="4">
+      <c r="C30" s="4">
         <v>16136.6</v>
       </c>
-      <c r="C30" s="8"/>
       <c r="D30" s="8"/>
-      <c r="E30" s="5">
+      <c r="E30" s="8"/>
+      <c r="F30" s="5">
         <f t="shared" si="1"/>
         <v>226.70000000000073</v>
       </c>
-      <c r="F30" s="8">
+      <c r="G30" s="8">
         <f>[2]Sheet1!U34</f>
         <v>76346</v>
       </c>
-      <c r="G30" s="6">
+      <c r="H30" s="6">
         <f t="shared" si="2"/>
         <v>2.9693762607078398</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A31" s="19">
+    <row r="31" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B31" s="19">
         <v>45687</v>
       </c>
-      <c r="B31" s="4">
+      <c r="C31" s="4">
         <v>16351</v>
       </c>
-      <c r="C31" s="8"/>
       <c r="D31" s="8"/>
-      <c r="E31" s="5">
+      <c r="E31" s="8"/>
+      <c r="F31" s="5">
         <f t="shared" si="1"/>
         <v>214.39999999999964</v>
       </c>
-      <c r="F31" s="15">
+      <c r="G31" s="15">
         <f>[2]Sheet1!U35</f>
         <v>71246</v>
       </c>
-      <c r="G31" s="6">
+      <c r="H31" s="6">
         <f t="shared" si="2"/>
         <v>3.0092917497122595</v>
       </c>
     </row>
-    <row r="32" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="20">
+    <row r="32" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B32" s="20">
         <v>45688</v>
       </c>
-      <c r="B32" s="7">
+      <c r="C32" s="7">
         <v>16570.2</v>
       </c>
-      <c r="C32" s="9"/>
-      <c r="D32" s="27"/>
-      <c r="E32" s="5">
+      <c r="D32" s="9"/>
+      <c r="E32" s="27"/>
+      <c r="F32" s="5">
         <f t="shared" si="1"/>
         <v>219.20000000000073</v>
       </c>
-      <c r="F32" s="9">
+      <c r="G32" s="9">
         <f>[2]Sheet1!U36</f>
         <v>72868</v>
       </c>
-      <c r="G32" s="6">
+      <c r="H32" s="6">
         <f t="shared" si="2"/>
         <v>3.0081791732996752</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A33" s="33">
+    <row r="33" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B33" s="33">
         <v>45689</v>
       </c>
-      <c r="B33" s="35">
+      <c r="C33" s="35">
         <v>16796.900000000001</v>
       </c>
-      <c r="C33" s="36"/>
-      <c r="D33" s="29"/>
-      <c r="E33" s="5">
+      <c r="D33" s="36"/>
+      <c r="E33" s="29"/>
+      <c r="F33" s="5">
         <f t="shared" si="1"/>
         <v>226.70000000000073</v>
       </c>
-      <c r="F33" s="36">
+      <c r="G33" s="36">
         <f>[2]Sheet1!U37</f>
         <v>71689</v>
       </c>
-      <c r="G33" s="6">
+      <c r="H33" s="6">
         <f t="shared" si="2"/>
         <v>3.1622703622592132</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A34" s="12">
+    <row r="34" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B34" s="12">
         <v>45690</v>
       </c>
-      <c r="B34" s="4">
+      <c r="C34" s="4">
         <v>16983.099999999999</v>
       </c>
-      <c r="C34" s="27"/>
       <c r="D34" s="27"/>
-      <c r="E34" s="5">
+      <c r="E34" s="27"/>
+      <c r="F34" s="5">
         <f t="shared" si="1"/>
         <v>186.19999999999709</v>
       </c>
-      <c r="F34" s="27">
+      <c r="G34" s="27">
         <f>[2]Sheet1!U38</f>
         <v>63773</v>
       </c>
-      <c r="G34" s="6">
+      <c r="H34" s="6">
         <f t="shared" si="2"/>
         <v>2.9197309206089894</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A35" s="12">
+    <row r="35" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B35" s="12">
         <v>45691</v>
       </c>
-      <c r="B35" s="4">
+      <c r="C35" s="4">
         <v>17201.400000000001</v>
       </c>
-      <c r="C35" s="27"/>
       <c r="D35" s="27"/>
-      <c r="E35" s="5">
+      <c r="E35" s="27"/>
+      <c r="F35" s="5">
         <f t="shared" si="1"/>
         <v>218.30000000000291</v>
       </c>
-      <c r="F35" s="27">
+      <c r="G35" s="27">
         <f>[2]Sheet1!U39</f>
         <v>71403</v>
       </c>
-      <c r="G35" s="6">
+      <c r="H35" s="6">
         <f t="shared" si="2"/>
         <v>3.0572945114351344</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A36" s="12">
+    <row r="36" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B36" s="12">
         <v>45692</v>
       </c>
-      <c r="B36" s="4">
+      <c r="C36" s="4">
         <v>17411.400000000001</v>
       </c>
-      <c r="C36" s="27"/>
       <c r="D36" s="27"/>
-      <c r="E36" s="5">
+      <c r="E36" s="27"/>
+      <c r="F36" s="5">
         <f t="shared" si="1"/>
         <v>210</v>
       </c>
-      <c r="F36" s="27">
+      <c r="G36" s="27">
         <f>[2]Sheet1!U40</f>
         <v>68826</v>
       </c>
-      <c r="G36" s="6">
+      <c r="H36" s="6">
         <f t="shared" si="2"/>
         <v>3.0511725220120303</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A37" s="12">
+    <row r="37" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B37" s="12">
         <v>45693</v>
       </c>
-      <c r="B37" s="4">
+      <c r="C37" s="4">
         <v>17610.2</v>
       </c>
-      <c r="C37" s="27"/>
       <c r="D37" s="27"/>
-      <c r="E37" s="5">
+      <c r="E37" s="27"/>
+      <c r="F37" s="5">
         <f t="shared" si="1"/>
         <v>198.79999999999927</v>
       </c>
-      <c r="F37" s="27">
+      <c r="G37" s="27">
         <f>[2]Sheet1!U41</f>
         <v>66010</v>
       </c>
-      <c r="G37" s="6">
+      <c r="H37" s="6">
         <f t="shared" si="2"/>
         <v>3.0116648992576773</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A38" s="12">
+    <row r="38" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B38" s="12">
         <v>45694</v>
       </c>
-      <c r="B38" s="4">
+      <c r="C38" s="4">
         <v>17775.7</v>
       </c>
-      <c r="C38" s="27"/>
       <c r="D38" s="27"/>
-      <c r="E38" s="5">
+      <c r="E38" s="27"/>
+      <c r="F38" s="5">
         <f t="shared" si="1"/>
         <v>165.5</v>
       </c>
-      <c r="F38" s="27">
+      <c r="G38" s="27">
         <f>[2]Sheet1!U42</f>
         <v>52915</v>
       </c>
-      <c r="G38" s="6">
+      <c r="H38" s="6">
         <f t="shared" si="2"/>
         <v>3.1276575640177642</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A39" s="12">
+    <row r="39" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B39" s="12">
         <v>45695</v>
       </c>
-      <c r="B39" s="4">
+      <c r="C39" s="4">
         <v>17962.900000000001</v>
       </c>
-      <c r="C39" s="27"/>
       <c r="D39" s="27"/>
-      <c r="E39" s="5">
+      <c r="E39" s="27"/>
+      <c r="F39" s="5">
         <f t="shared" si="1"/>
         <v>187.20000000000073</v>
       </c>
-      <c r="F39" s="27">
+      <c r="G39" s="27">
         <f>[2]Sheet1!U43</f>
         <v>70336</v>
       </c>
-      <c r="G39" s="6">
+      <c r="H39" s="6">
         <f t="shared" si="2"/>
         <v>2.661510464058245</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A40" s="12">
+    <row r="40" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B40" s="12">
         <v>45696</v>
       </c>
-      <c r="B40" s="4">
+      <c r="C40" s="4">
         <v>18217.900000000001</v>
       </c>
-      <c r="C40" s="27"/>
       <c r="D40" s="27"/>
-      <c r="E40" s="5">
+      <c r="E40" s="27"/>
+      <c r="F40" s="5">
         <f t="shared" si="1"/>
         <v>255</v>
       </c>
-      <c r="F40" s="27">
+      <c r="G40" s="27">
         <f>[2]Sheet1!U44</f>
         <v>77269</v>
       </c>
-      <c r="G40" s="6">
+      <c r="H40" s="6">
         <f t="shared" si="2"/>
         <v>3.3001591841488822</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A41" s="12">
+    <row r="41" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B41" s="12">
         <v>45697</v>
       </c>
-      <c r="B41" s="4">
+      <c r="C41" s="4">
         <v>18459.5</v>
       </c>
-      <c r="C41" s="27"/>
       <c r="D41" s="27"/>
-      <c r="E41" s="5">
+      <c r="E41" s="27"/>
+      <c r="F41" s="5">
         <f t="shared" si="1"/>
         <v>241.59999999999854</v>
       </c>
-      <c r="F41" s="27">
+      <c r="G41" s="27">
         <f>[2]Sheet1!U45</f>
         <v>81052</v>
       </c>
-      <c r="G41" s="6">
+      <c r="H41" s="6">
         <f t="shared" si="2"/>
         <v>2.9808024478112638</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A42" s="12">
+    <row r="42" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B42" s="12">
         <v>45698</v>
       </c>
-      <c r="B42" s="4">
+      <c r="C42" s="4">
         <v>18707.900000000001</v>
       </c>
-      <c r="C42" s="27"/>
       <c r="D42" s="27"/>
-      <c r="E42" s="5">
+      <c r="E42" s="27"/>
+      <c r="F42" s="5">
         <f t="shared" si="1"/>
         <v>248.40000000000146</v>
       </c>
-      <c r="F42" s="27">
+      <c r="G42" s="27">
         <f>[2]Sheet1!U46</f>
         <v>84392</v>
       </c>
-      <c r="G42" s="6">
+      <c r="H42" s="6">
         <f t="shared" si="2"/>
         <v>2.9434069580055158</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A43" s="12">
+    <row r="43" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B43" s="12">
         <v>45699</v>
       </c>
-      <c r="B43" s="4">
+      <c r="C43" s="4">
         <v>18922.599999999999</v>
       </c>
-      <c r="C43" s="27"/>
       <c r="D43" s="27"/>
-      <c r="E43" s="5">
+      <c r="E43" s="27"/>
+      <c r="F43" s="5">
         <f t="shared" si="1"/>
         <v>214.69999999999709</v>
       </c>
-      <c r="F43" s="27">
+      <c r="G43" s="27">
         <f>[2]Sheet1!U47</f>
         <v>75872</v>
       </c>
-      <c r="G43" s="6">
+      <c r="H43" s="6">
         <f t="shared" si="2"/>
         <v>2.8297659215520494</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A44" s="12">
+    <row r="44" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B44" s="12">
         <v>45700</v>
       </c>
-      <c r="B44" s="4">
+      <c r="C44" s="4">
         <v>19047.5</v>
       </c>
-      <c r="C44" s="27"/>
       <c r="D44" s="27"/>
-      <c r="E44" s="5">
+      <c r="E44" s="27"/>
+      <c r="F44" s="5">
         <f t="shared" si="1"/>
         <v>124.90000000000146</v>
       </c>
-      <c r="F44" s="27">
+      <c r="G44" s="27">
         <f>[2]Sheet1!U48</f>
         <v>40308</v>
       </c>
-      <c r="G44" s="6">
+      <c r="H44" s="6">
         <f t="shared" si="2"/>
         <v>3.0986404683934072</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A45" s="12">
+    <row r="45" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B45" s="12">
         <v>45701</v>
       </c>
-      <c r="B45" s="4">
+      <c r="C45" s="4">
         <v>19299.7</v>
       </c>
-      <c r="C45" s="27"/>
       <c r="D45" s="27"/>
-      <c r="E45" s="5">
+      <c r="E45" s="27"/>
+      <c r="F45" s="5">
         <f t="shared" si="1"/>
         <v>252.20000000000073</v>
       </c>
-      <c r="F45" s="27">
+      <c r="G45" s="27">
         <f>[2]Sheet1!U49</f>
         <v>86259</v>
       </c>
-      <c r="G45" s="6">
+      <c r="H45" s="6">
         <f t="shared" si="2"/>
         <v>2.9237528837570657</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A46" s="12">
+    <row r="46" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B46" s="12">
         <v>45702</v>
       </c>
-      <c r="B46" s="4">
+      <c r="C46" s="4">
         <v>19539.599999999999</v>
       </c>
-      <c r="C46" s="27"/>
       <c r="D46" s="27"/>
-      <c r="E46" s="5">
+      <c r="E46" s="27"/>
+      <c r="F46" s="5">
         <f t="shared" si="1"/>
         <v>239.89999999999782</v>
       </c>
-      <c r="F46" s="27">
+      <c r="G46" s="27">
         <f>[2]Sheet1!U50</f>
         <v>80933</v>
       </c>
-      <c r="G46" s="6">
+      <c r="H46" s="6">
         <f t="shared" si="2"/>
         <v>2.9641802478593138</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A47" s="12">
+    <row r="47" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B47" s="12">
         <v>45703</v>
       </c>
-      <c r="B47" s="4">
+      <c r="C47" s="4">
         <v>19772.099999999999</v>
       </c>
-      <c r="C47" s="27"/>
       <c r="D47" s="27"/>
-      <c r="E47" s="5">
+      <c r="E47" s="27"/>
+      <c r="F47" s="5">
         <f t="shared" si="1"/>
         <v>232.5</v>
       </c>
-      <c r="F47" s="27">
+      <c r="G47" s="27">
         <f>[2]Sheet1!U51</f>
         <v>79044</v>
       </c>
-      <c r="G47" s="6">
+      <c r="H47" s="6">
         <f t="shared" si="2"/>
         <v>2.9413997267344771</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A48" s="12">
+    <row r="48" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B48" s="12">
         <v>45704</v>
       </c>
-      <c r="B48" s="4">
+      <c r="C48" s="4">
         <v>19986.5</v>
       </c>
-      <c r="C48" s="27"/>
       <c r="D48" s="27"/>
-      <c r="E48" s="5">
+      <c r="E48" s="27"/>
+      <c r="F48" s="5">
         <f t="shared" si="1"/>
         <v>214.40000000000146</v>
       </c>
-      <c r="F48" s="27">
+      <c r="G48" s="27">
         <f>[2]Sheet1!U52</f>
         <v>72540</v>
       </c>
-      <c r="G48" s="6">
+      <c r="H48" s="6">
         <f t="shared" si="2"/>
         <v>2.9556106975462013</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A49" s="12">
+    <row r="49" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B49" s="12">
         <v>45705</v>
       </c>
-      <c r="B49" s="4">
+      <c r="C49" s="4">
         <v>20235.3</v>
       </c>
-      <c r="C49" s="27"/>
       <c r="D49" s="27"/>
-      <c r="E49" s="5">
+      <c r="E49" s="27"/>
+      <c r="F49" s="5">
         <f t="shared" si="1"/>
         <v>248.79999999999927</v>
       </c>
-      <c r="F49" s="27">
+      <c r="G49" s="27">
         <f>[2]Sheet1!U53</f>
         <v>84015</v>
       </c>
-      <c r="G49" s="6">
+      <c r="H49" s="6">
         <f t="shared" si="2"/>
         <v>2.9613759447717585</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A50" s="12">
+    <row r="50" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B50" s="12">
         <v>45706</v>
       </c>
-      <c r="B50" s="4">
+      <c r="C50" s="4">
         <v>20486.3</v>
       </c>
-      <c r="C50" s="27"/>
       <c r="D50" s="27"/>
-      <c r="E50" s="5">
+      <c r="E50" s="27"/>
+      <c r="F50" s="5">
         <f t="shared" si="1"/>
         <v>251</v>
       </c>
-      <c r="F50" s="27">
+      <c r="G50" s="27">
         <f>[2]Sheet1!U54</f>
         <v>82276</v>
       </c>
-      <c r="G50" s="6">
+      <c r="H50" s="6">
         <f t="shared" si="2"/>
         <v>3.0507073751762364</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A51" s="12">
+    <row r="51" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B51" s="12">
         <v>45707</v>
       </c>
-      <c r="B51" s="4">
+      <c r="C51" s="4">
         <v>20737.599999999999</v>
       </c>
-      <c r="C51" s="27"/>
       <c r="D51" s="27"/>
-      <c r="E51" s="5">
+      <c r="E51" s="27"/>
+      <c r="F51" s="5">
         <f t="shared" si="1"/>
         <v>251.29999999999927</v>
       </c>
-      <c r="F51" s="27">
+      <c r="G51" s="27">
         <f>[2]Sheet1!U55</f>
         <v>84632</v>
       </c>
-      <c r="G51" s="6">
+      <c r="H51" s="6">
         <f t="shared" si="2"/>
         <v>2.9693260232536067</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A52" s="12">
+    <row r="52" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B52" s="12">
         <v>45708</v>
       </c>
-      <c r="B52" s="4">
+      <c r="C52" s="4">
         <v>20990.2</v>
       </c>
-      <c r="C52" s="27"/>
       <c r="D52" s="27"/>
-      <c r="E52" s="5">
+      <c r="E52" s="27"/>
+      <c r="F52" s="5">
         <f t="shared" si="1"/>
         <v>252.60000000000218</v>
       </c>
-      <c r="F52" s="27">
+      <c r="G52" s="27">
         <f>[2]Sheet1!U56</f>
         <v>87013</v>
       </c>
-      <c r="G52" s="6">
+      <c r="H52" s="6">
         <f t="shared" si="2"/>
         <v>2.9030144920874146</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A53" s="12">
+    <row r="53" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B53" s="12">
         <v>45709</v>
       </c>
-      <c r="B53" s="4">
+      <c r="C53" s="4">
         <v>21255.7</v>
       </c>
-      <c r="C53" s="27"/>
       <c r="D53" s="27"/>
-      <c r="E53" s="5">
+      <c r="E53" s="27"/>
+      <c r="F53" s="5">
         <f t="shared" si="1"/>
         <v>265.5</v>
       </c>
-      <c r="F53" s="27">
+      <c r="G53" s="27">
         <f>[2]Sheet1!U57</f>
         <v>89956</v>
       </c>
-      <c r="G53" s="6">
+      <c r="H53" s="6">
         <f t="shared" si="2"/>
         <v>2.9514429276535195</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A54" s="12">
+    <row r="54" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B54" s="12">
         <v>45710</v>
       </c>
-      <c r="B54" s="4">
+      <c r="C54" s="4">
         <v>21479.9</v>
       </c>
-      <c r="C54" s="27"/>
       <c r="D54" s="27"/>
-      <c r="E54" s="5">
+      <c r="E54" s="27"/>
+      <c r="F54" s="5">
         <f t="shared" si="1"/>
         <v>224.20000000000073</v>
       </c>
-      <c r="F54" s="27">
+      <c r="G54" s="27">
         <f>[2]Sheet1!U58</f>
         <v>77612</v>
       </c>
-      <c r="G54" s="6">
+      <c r="H54" s="6">
         <f t="shared" si="2"/>
         <v>2.8887285471318962</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A55" s="12">
+    <row r="55" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B55" s="12">
         <v>45711</v>
       </c>
-      <c r="B55" s="4">
+      <c r="C55" s="4">
         <v>21728.1</v>
       </c>
-      <c r="C55" s="27"/>
       <c r="D55" s="27"/>
-      <c r="E55" s="5">
+      <c r="E55" s="27"/>
+      <c r="F55" s="5">
         <f t="shared" si="1"/>
         <v>248.19999999999709</v>
       </c>
-      <c r="F55" s="27">
+      <c r="G55" s="27">
         <f>[2]Sheet1!U59</f>
         <v>82831</v>
       </c>
-      <c r="G55" s="6">
+      <c r="H55" s="6">
         <f t="shared" si="2"/>
         <v>2.9964626770170235</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A56" s="12">
+    <row r="56" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B56" s="12">
         <v>45712</v>
       </c>
-      <c r="B56" s="4">
+      <c r="C56" s="4">
         <v>21999.599999999999</v>
       </c>
-      <c r="C56" s="27"/>
       <c r="D56" s="27"/>
-      <c r="E56" s="5">
+      <c r="E56" s="27"/>
+      <c r="F56" s="5">
         <f t="shared" si="1"/>
         <v>271.5</v>
       </c>
-      <c r="F56" s="27">
+      <c r="G56" s="27">
         <f>[2]Sheet1!U60</f>
         <v>94316</v>
       </c>
-      <c r="G56" s="6">
+      <c r="H56" s="6">
         <f t="shared" si="2"/>
         <v>2.8786208066499852</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A57" s="12">
+    <row r="57" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B57" s="12">
         <v>45713</v>
       </c>
-      <c r="B57" s="4">
+      <c r="C57" s="4">
         <v>22284.5</v>
       </c>
-      <c r="C57" s="27"/>
       <c r="D57" s="27"/>
-      <c r="E57" s="5">
+      <c r="E57" s="27"/>
+      <c r="F57" s="5">
         <f t="shared" si="1"/>
         <v>284.90000000000146</v>
       </c>
-      <c r="F57" s="27">
+      <c r="G57" s="27">
         <f>[2]Sheet1!U61</f>
         <v>97557</v>
       </c>
-      <c r="G57" s="6">
+      <c r="H57" s="6">
         <f t="shared" si="2"/>
         <v>2.9203440040181787</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A58" s="12">
+    <row r="58" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B58" s="12">
         <v>45714</v>
       </c>
-      <c r="B58" s="4">
+      <c r="C58" s="4">
         <v>22510</v>
       </c>
-      <c r="C58" s="27"/>
       <c r="D58" s="27"/>
-      <c r="E58" s="5">
+      <c r="E58" s="27"/>
+      <c r="F58" s="5">
         <f t="shared" si="1"/>
         <v>225.5</v>
       </c>
-      <c r="F58" s="27">
+      <c r="G58" s="27">
         <f>[2]Sheet1!U62</f>
         <v>94135</v>
       </c>
-      <c r="G58" s="6">
+      <c r="H58" s="6">
         <f t="shared" si="2"/>
         <v>2.3954958304562597</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A59" s="12">
+    <row r="59" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B59" s="12">
         <v>45715</v>
       </c>
-      <c r="B59" s="4">
+      <c r="C59" s="4">
         <v>22827.5</v>
       </c>
-      <c r="C59" s="27"/>
       <c r="D59" s="27"/>
-      <c r="E59" s="5">
+      <c r="E59" s="27"/>
+      <c r="F59" s="5">
         <f t="shared" si="1"/>
         <v>317.5</v>
       </c>
-      <c r="F59" s="27">
+      <c r="G59" s="27">
         <f>[2]Sheet1!U63</f>
         <v>94228</v>
       </c>
-      <c r="G59" s="6">
+      <c r="H59" s="6">
         <f t="shared" si="2"/>
         <v>3.3694867767542558</v>
       </c>
     </row>
-    <row r="60" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A60" s="34">
+    <row r="60" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B60" s="34">
         <v>45716</v>
       </c>
-      <c r="B60" s="7">
+      <c r="C60" s="7">
         <v>23088.400000000001</v>
       </c>
-      <c r="C60" s="9">
+      <c r="D60" s="9">
         <v>20275</v>
       </c>
-      <c r="D60" s="9">
-        <f>B60-C60</f>
+      <c r="E60" s="9">
+        <f>C60-D60</f>
         <v>2813.4000000000015</v>
       </c>
-      <c r="E60" s="39">
+      <c r="F60" s="39">
         <f t="shared" si="1"/>
         <v>260.90000000000146</v>
       </c>
-      <c r="F60" s="9">
+      <c r="G60" s="9">
         <f>[2]Sheet1!U64</f>
         <v>95898</v>
       </c>
-      <c r="G60" s="40">
+      <c r="H60" s="40">
         <f t="shared" si="2"/>
         <v>2.7205989697386959</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A61" s="32">
+    <row r="61" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B61" s="32">
         <v>45717</v>
       </c>
-      <c r="B61" s="28">
+      <c r="C61" s="28">
         <v>23352.1</v>
       </c>
-      <c r="C61" s="29">
+      <c r="D61" s="29">
         <v>20513</v>
       </c>
-      <c r="D61" s="29">
-        <f t="shared" ref="D61:D85" si="3">B61-C61</f>
+      <c r="E61" s="29">
+        <f t="shared" ref="E61:E85" si="3">C61-D61</f>
         <v>2839.0999999999985</v>
       </c>
-      <c r="E61" s="10">
+      <c r="F61" s="10">
         <f t="shared" si="1"/>
         <v>263.69999999999709</v>
       </c>
-      <c r="F61" s="29">
+      <c r="G61" s="29">
         <f>[2]Sheet1!U65</f>
         <v>90569</v>
       </c>
-      <c r="G61" s="37">
+      <c r="H61" s="37">
         <f t="shared" si="2"/>
         <v>2.911592266669579</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A62" s="19">
+    <row r="62" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B62" s="19">
         <v>45718</v>
       </c>
-      <c r="B62" s="4">
+      <c r="C62" s="4">
         <v>23616.6</v>
       </c>
-      <c r="C62" s="27">
+      <c r="D62" s="27">
         <v>20751</v>
       </c>
-      <c r="D62" s="27">
+      <c r="E62" s="27">
         <f t="shared" si="3"/>
         <v>2865.5999999999985</v>
       </c>
-      <c r="E62" s="5">
+      <c r="F62" s="5">
         <f t="shared" si="1"/>
         <v>264.5</v>
       </c>
-      <c r="F62" s="27">
+      <c r="G62" s="27">
         <f>[2]Sheet1!U66</f>
         <v>91249</v>
       </c>
-      <c r="G62" s="6">
+      <c r="H62" s="6">
         <f t="shared" si="2"/>
         <v>2.8986619031441441</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A63" s="12">
+    <row r="63" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B63" s="12">
         <v>45719</v>
       </c>
-      <c r="B63" s="4">
+      <c r="C63" s="4">
         <v>23907.200000000001</v>
       </c>
-      <c r="C63" s="27">
+      <c r="D63" s="27">
         <v>21014</v>
       </c>
-      <c r="D63" s="27">
+      <c r="E63" s="27">
         <f t="shared" si="3"/>
         <v>2893.2000000000007</v>
       </c>
-      <c r="E63" s="5">
+      <c r="F63" s="5">
         <f t="shared" si="1"/>
         <v>290.60000000000218</v>
       </c>
-      <c r="F63" s="27">
+      <c r="G63" s="27">
         <f>[2]Sheet1!U67</f>
         <v>102134</v>
       </c>
-      <c r="G63" s="6">
+      <c r="H63" s="6">
         <f t="shared" si="2"/>
         <v>2.8452816887618444</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A64" s="31">
+    <row r="64" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B64" s="31">
         <v>45720</v>
       </c>
-      <c r="B64" s="4">
+      <c r="C64" s="4">
         <v>24146.5</v>
       </c>
-      <c r="C64" s="27">
+      <c r="D64" s="27">
         <v>21229</v>
       </c>
-      <c r="D64" s="27">
+      <c r="E64" s="27">
         <f t="shared" si="3"/>
         <v>2917.5</v>
       </c>
-      <c r="E64" s="5">
+      <c r="F64" s="5">
         <f t="shared" si="1"/>
         <v>239.29999999999927</v>
       </c>
-      <c r="F64" s="27">
+      <c r="G64" s="27">
         <f>[2]Sheet1!U68</f>
         <v>86868</v>
       </c>
-      <c r="G64" s="6">
+      <c r="H64" s="6">
         <f t="shared" si="2"/>
         <v>2.7547543399180281</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A65" s="19">
+    <row r="65" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B65" s="19">
         <v>45721</v>
       </c>
-      <c r="B65" s="4">
+      <c r="C65" s="4">
         <v>24398.6</v>
       </c>
-      <c r="C65" s="27">
+      <c r="D65" s="27">
         <v>21455</v>
       </c>
-      <c r="D65" s="27">
+      <c r="E65" s="27">
         <f t="shared" si="3"/>
         <v>2943.5999999999985</v>
       </c>
-      <c r="E65" s="5">
+      <c r="F65" s="5">
         <f t="shared" si="1"/>
         <v>252.09999999999854</v>
       </c>
-      <c r="F65" s="27">
+      <c r="G65" s="27">
         <f>[2]Sheet1!U69</f>
         <v>86339</v>
       </c>
-      <c r="G65" s="6">
+      <c r="H65" s="6">
         <f t="shared" si="2"/>
         <v>2.919885567356566</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A66" s="19">
+    <row r="66" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B66" s="19">
         <v>45722</v>
       </c>
-      <c r="B66" s="4">
+      <c r="C66" s="4">
         <v>24667.5</v>
       </c>
-      <c r="C66" s="27">
+      <c r="D66" s="27">
         <v>21699</v>
       </c>
-      <c r="D66" s="27">
+      <c r="E66" s="27">
         <f t="shared" si="3"/>
         <v>2968.5</v>
       </c>
-      <c r="E66" s="5">
+      <c r="F66" s="5">
         <f t="shared" si="1"/>
         <v>268.90000000000146</v>
       </c>
-      <c r="F66" s="27">
+      <c r="G66" s="27">
         <f>[2]Sheet1!U70</f>
         <v>92995</v>
       </c>
-      <c r="G66" s="6">
+      <c r="H66" s="6">
         <f t="shared" si="2"/>
         <v>2.8915533093177208</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A67" s="19">
+    <row r="67" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B67" s="19">
         <v>45723</v>
       </c>
-      <c r="B67" s="4">
+      <c r="C67" s="4">
         <v>24984.3</v>
       </c>
-      <c r="C67" s="27">
+      <c r="D67" s="27">
         <v>21985</v>
       </c>
-      <c r="D67" s="27">
+      <c r="E67" s="27">
         <f t="shared" si="3"/>
         <v>2999.2999999999993</v>
       </c>
-      <c r="E67" s="5">
+      <c r="F67" s="5">
         <f t="shared" si="1"/>
         <v>316.79999999999927</v>
       </c>
-      <c r="F67" s="27">
+      <c r="G67" s="27">
         <f>[2]Sheet1!U71</f>
         <v>103104</v>
       </c>
-      <c r="G67" s="6">
+      <c r="H67" s="6">
         <f t="shared" si="2"/>
         <v>3.072625698324015</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A68" s="19">
+    <row r="68" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B68" s="19">
         <v>45724</v>
       </c>
-      <c r="B68" s="4">
+      <c r="C68" s="4">
         <v>25249.1</v>
       </c>
-      <c r="C68" s="27">
+      <c r="D68" s="27">
         <v>22224</v>
       </c>
-      <c r="D68" s="27">
+      <c r="E68" s="27">
         <f t="shared" si="3"/>
         <v>3025.0999999999985</v>
       </c>
-      <c r="E68" s="5">
+      <c r="F68" s="5">
         <f t="shared" si="1"/>
         <v>264.79999999999927</v>
       </c>
-      <c r="F68" s="27">
+      <c r="G68" s="27">
         <f>[2]Sheet1!U72</f>
         <v>101998</v>
       </c>
-      <c r="G68" s="6">
+      <c r="H68" s="6">
         <f t="shared" si="2"/>
         <v>2.5961293358693238</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A69" s="19">
+    <row r="69" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B69" s="19">
         <v>45725</v>
       </c>
-      <c r="B69" s="4">
+      <c r="C69" s="4">
         <v>25523.4</v>
       </c>
-      <c r="C69" s="27">
+      <c r="D69" s="27">
         <v>22470</v>
       </c>
-      <c r="D69" s="27">
+      <c r="E69" s="27">
         <f t="shared" si="3"/>
         <v>3053.4000000000015</v>
       </c>
-      <c r="E69" s="5">
-        <f t="shared" ref="E69:E85" si="4">(B69-B68)</f>
+      <c r="F69" s="5">
+        <f t="shared" ref="F69:F86" si="4">(C69-C68)</f>
         <v>274.30000000000291</v>
       </c>
-      <c r="F69" s="27">
+      <c r="G69" s="27">
         <f>[2]Sheet1!U73</f>
         <v>94813</v>
       </c>
-      <c r="G69" s="6">
-        <f t="shared" ref="G69:G85" si="5">E69/F69*1000</f>
+      <c r="H69" s="6">
+        <f t="shared" ref="H69:H86" si="5">F69/G69*1000</f>
         <v>2.8930631875376047</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A70" s="19">
+    <row r="70" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B70" s="19">
         <v>45726</v>
       </c>
-      <c r="B70" s="4">
+      <c r="C70" s="4">
         <v>25781</v>
       </c>
-      <c r="C70" s="27">
+      <c r="D70" s="27">
         <v>22763</v>
       </c>
-      <c r="D70" s="27">
+      <c r="E70" s="27">
         <f t="shared" si="3"/>
         <v>3018</v>
       </c>
-      <c r="E70" s="5">
+      <c r="F70" s="5">
         <f t="shared" si="4"/>
         <v>257.59999999999854</v>
       </c>
-      <c r="F70" s="27">
+      <c r="G70" s="27">
         <f>[2]Sheet1!U74</f>
         <v>87541</v>
       </c>
-      <c r="G70" s="6">
+      <c r="H70" s="6">
         <f t="shared" si="5"/>
         <v>2.9426211717937711</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A71" s="19">
+    <row r="71" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B71" s="19">
         <v>45727</v>
       </c>
-      <c r="B71" s="4">
+      <c r="C71" s="4">
         <v>26072.7</v>
       </c>
-      <c r="C71" s="27">
+      <c r="D71" s="27">
         <v>23030</v>
       </c>
-      <c r="D71" s="27">
+      <c r="E71" s="27">
         <f t="shared" si="3"/>
         <v>3042.7000000000007</v>
       </c>
-      <c r="E71" s="5">
+      <c r="F71" s="5">
         <f t="shared" si="4"/>
         <v>291.70000000000073</v>
       </c>
-      <c r="F71" s="27">
+      <c r="G71" s="27">
         <f>[2]Sheet1!U75</f>
         <v>102068</v>
       </c>
-      <c r="G71" s="6">
+      <c r="H71" s="6">
         <f t="shared" si="5"/>
         <v>2.8578986557981025</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A72" s="19">
+    <row r="72" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B72" s="19">
         <v>45728</v>
       </c>
-      <c r="B72" s="4">
+      <c r="C72" s="4">
         <v>26342.6</v>
       </c>
-      <c r="C72" s="27">
+      <c r="D72" s="27">
         <v>23277</v>
       </c>
-      <c r="D72" s="27">
+      <c r="E72" s="27">
         <f t="shared" si="3"/>
         <v>3065.5999999999985</v>
       </c>
-      <c r="E72" s="5">
+      <c r="F72" s="5">
         <f t="shared" si="4"/>
         <v>269.89999999999782</v>
       </c>
-      <c r="F72" s="27">
+      <c r="G72" s="27">
         <f>[2]Sheet1!U76</f>
         <v>96055</v>
       </c>
-      <c r="G72" s="6">
+      <c r="H72" s="6">
         <f t="shared" si="5"/>
         <v>2.8098485242829403</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A73" s="19">
+    <row r="73" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B73" s="19">
         <v>45729</v>
       </c>
-      <c r="B73" s="4">
+      <c r="C73" s="4">
         <v>26597.200000000001</v>
       </c>
-      <c r="C73" s="27">
+      <c r="D73" s="27">
         <v>23508</v>
       </c>
-      <c r="D73" s="27">
+      <c r="E73" s="27">
         <f t="shared" si="3"/>
         <v>3089.2000000000007</v>
       </c>
-      <c r="E73" s="5">
+      <c r="F73" s="5">
         <f t="shared" si="4"/>
         <v>254.60000000000218</v>
       </c>
-      <c r="F73" s="27">
+      <c r="G73" s="27">
         <f>[2]Sheet1!U77</f>
         <v>89275</v>
       </c>
-      <c r="G73" s="6">
+      <c r="H73" s="6">
         <f t="shared" si="5"/>
         <v>2.8518622234668407</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A74" s="19">
+    <row r="74" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B74" s="19">
         <v>45730</v>
       </c>
-      <c r="B74" s="4">
+      <c r="C74" s="4">
         <v>26875.599999999999</v>
       </c>
-      <c r="C74" s="27">
+      <c r="D74" s="27">
         <v>23760</v>
       </c>
-      <c r="D74" s="27">
+      <c r="E74" s="27">
         <f t="shared" si="3"/>
         <v>3115.5999999999985</v>
       </c>
-      <c r="E74" s="5">
+      <c r="F74" s="5">
         <f t="shared" si="4"/>
         <v>278.39999999999782</v>
       </c>
-      <c r="F74" s="27">
+      <c r="G74" s="27">
         <f>[2]Sheet1!U78</f>
         <v>96482</v>
       </c>
-      <c r="G74" s="6">
+      <c r="H74" s="6">
         <f t="shared" si="5"/>
         <v>2.8855123235421924</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A75" s="19">
+    <row r="75" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B75" s="19">
         <v>45731</v>
       </c>
-      <c r="B75" s="4">
+      <c r="C75" s="4">
         <v>27099.8</v>
       </c>
-      <c r="C75" s="27">
+      <c r="D75" s="27">
         <v>24005</v>
       </c>
-      <c r="D75" s="27">
+      <c r="E75" s="27">
         <f t="shared" si="3"/>
         <v>3094.7999999999993</v>
       </c>
-      <c r="E75" s="5">
+      <c r="F75" s="5">
         <f t="shared" si="4"/>
         <v>224.20000000000073</v>
       </c>
-      <c r="F75" s="27">
+      <c r="G75" s="27">
         <f>[2]Sheet1!U79</f>
         <v>95707</v>
       </c>
-      <c r="G75" s="6">
+      <c r="H75" s="6">
         <f t="shared" si="5"/>
         <v>2.3425663744553766</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A76" s="19">
+    <row r="76" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B76" s="19">
         <v>45732</v>
       </c>
-      <c r="B76" s="4">
+      <c r="C76" s="4">
         <v>27411.7</v>
       </c>
-      <c r="C76" s="27">
+      <c r="D76" s="27">
         <v>24251</v>
       </c>
-      <c r="D76" s="27">
+      <c r="E76" s="27">
         <f t="shared" si="3"/>
         <v>3160.7000000000007</v>
       </c>
-      <c r="E76" s="5">
+      <c r="F76" s="5">
         <f t="shared" si="4"/>
         <v>311.90000000000146</v>
       </c>
-      <c r="F76" s="27">
+      <c r="G76" s="27">
         <f>[2]Sheet1!U80</f>
         <v>93853</v>
       </c>
-      <c r="G76" s="6">
+      <c r="H76" s="6">
         <f t="shared" si="5"/>
         <v>3.3232821540068134</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A77" s="19">
+    <row r="77" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B77" s="19">
         <v>45733</v>
       </c>
-      <c r="B77" s="4">
+      <c r="C77" s="4">
         <v>27658.3</v>
       </c>
-      <c r="C77" s="27">
+      <c r="D77" s="27">
         <v>24474</v>
       </c>
-      <c r="D77" s="27">
+      <c r="E77" s="27">
         <f t="shared" si="3"/>
         <v>3184.2999999999993</v>
       </c>
-      <c r="E77" s="5">
+      <c r="F77" s="5">
         <f t="shared" si="4"/>
         <v>246.59999999999854</v>
       </c>
-      <c r="F77" s="27">
+      <c r="G77" s="27">
         <f>[2]Sheet1!U81</f>
         <v>87315</v>
       </c>
-      <c r="G77" s="6">
+      <c r="H77" s="6">
         <f t="shared" si="5"/>
         <v>2.8242570005153587</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A78" s="19">
+    <row r="78" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B78" s="19">
         <v>45734</v>
       </c>
-      <c r="B78" s="4">
+      <c r="C78" s="4">
         <v>27942</v>
       </c>
-      <c r="C78" s="27">
+      <c r="D78" s="27">
         <v>24731</v>
       </c>
-      <c r="D78" s="27">
+      <c r="E78" s="27">
         <f t="shared" si="3"/>
         <v>3211</v>
       </c>
-      <c r="E78" s="5">
+      <c r="F78" s="5">
         <f t="shared" si="4"/>
         <v>283.70000000000073</v>
       </c>
-      <c r="F78" s="27">
+      <c r="G78" s="27">
         <f>[2]Sheet1!U82</f>
         <v>95461</v>
       </c>
-      <c r="G78" s="6">
+      <c r="H78" s="6">
         <f t="shared" si="5"/>
         <v>2.9718942814343108</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A79" s="19">
+    <row r="79" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B79" s="19">
         <v>45735</v>
       </c>
-      <c r="B79" s="4">
+      <c r="C79" s="4">
         <v>28220.799999999999</v>
       </c>
-      <c r="C79" s="27">
+      <c r="D79" s="27">
         <v>24983</v>
       </c>
-      <c r="D79" s="27">
+      <c r="E79" s="27">
         <f t="shared" si="3"/>
         <v>3237.7999999999993</v>
       </c>
-      <c r="E79" s="5">
+      <c r="F79" s="5">
         <f t="shared" si="4"/>
         <v>278.79999999999927</v>
       </c>
-      <c r="F79" s="27">
+      <c r="G79" s="27">
         <f>[2]Sheet1!U83</f>
         <v>100396</v>
       </c>
-      <c r="G79" s="6">
+      <c r="H79" s="6">
         <f t="shared" si="5"/>
         <v>2.7770030678513016</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A80" s="19">
+    <row r="80" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B80" s="19">
         <v>45736</v>
       </c>
-      <c r="B80" s="4">
+      <c r="C80" s="4">
         <v>28471.5</v>
       </c>
-      <c r="C80" s="27">
+      <c r="D80" s="27">
         <v>25207</v>
       </c>
-      <c r="D80" s="27">
+      <c r="E80" s="27">
         <f t="shared" si="3"/>
         <v>3264.5</v>
       </c>
-      <c r="E80" s="5">
+      <c r="F80" s="5">
         <f t="shared" si="4"/>
         <v>250.70000000000073</v>
       </c>
-      <c r="F80" s="27">
+      <c r="G80" s="27">
         <f>[2]Sheet1!U84</f>
         <v>81090</v>
       </c>
-      <c r="G80" s="6">
+      <c r="H80" s="6">
         <f t="shared" si="5"/>
         <v>3.0916265877420241</v>
       </c>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A81" s="19">
+    <row r="81" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B81" s="19">
         <v>45737</v>
       </c>
-      <c r="B81" s="4">
+      <c r="C81" s="4">
         <v>28743.200000000001</v>
       </c>
-      <c r="C81" s="27">
+      <c r="D81" s="27">
         <v>25453</v>
       </c>
-      <c r="D81" s="27">
+      <c r="E81" s="27">
         <f t="shared" si="3"/>
         <v>3290.2000000000007</v>
       </c>
-      <c r="E81" s="5">
+      <c r="F81" s="5">
         <f t="shared" si="4"/>
         <v>271.70000000000073</v>
       </c>
-      <c r="F81" s="27">
+      <c r="G81" s="27">
         <f>[2]Sheet1!U85</f>
         <v>95577</v>
       </c>
-      <c r="G81" s="6">
+      <c r="H81" s="6">
         <f t="shared" si="5"/>
         <v>2.8427341305962806</v>
       </c>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A82" s="19">
+    <row r="82" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B82" s="19">
         <v>45738</v>
       </c>
-      <c r="B82" s="4">
+      <c r="C82" s="4">
         <v>29006</v>
       </c>
-      <c r="C82" s="27">
+      <c r="D82" s="27">
         <v>25687</v>
       </c>
-      <c r="D82" s="27">
+      <c r="E82" s="27">
         <f t="shared" si="3"/>
         <v>3319</v>
       </c>
-      <c r="E82" s="5">
+      <c r="F82" s="5">
         <f t="shared" si="4"/>
         <v>262.79999999999927</v>
       </c>
-      <c r="F82" s="27">
+      <c r="G82" s="27">
         <f>[2]Sheet1!U86</f>
         <v>91932</v>
       </c>
-      <c r="G82" s="6">
+      <c r="H82" s="6">
         <f t="shared" si="5"/>
         <v>2.8586346429969898</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A83" s="19">
+    <row r="83" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B83" s="19">
         <v>45739</v>
       </c>
-      <c r="B83" s="4">
+      <c r="C83" s="4">
         <v>29295.8</v>
       </c>
-      <c r="C83" s="27">
+      <c r="D83" s="27">
         <v>25948</v>
       </c>
-      <c r="D83" s="27">
+      <c r="E83" s="27">
         <f t="shared" si="3"/>
         <v>3347.7999999999993</v>
       </c>
-      <c r="E83" s="5">
+      <c r="F83" s="5">
         <f t="shared" si="4"/>
         <v>289.79999999999927</v>
       </c>
-      <c r="F83" s="27">
+      <c r="G83" s="27">
         <f>[2]Sheet1!U87</f>
         <v>100753</v>
       </c>
-      <c r="G83" s="6">
+      <c r="H83" s="6">
         <f t="shared" si="5"/>
         <v>2.8763411511319692</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A84" s="19">
+    <row r="84" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B84" s="19">
         <v>45740</v>
       </c>
-      <c r="B84" s="4">
+      <c r="C84" s="4">
         <v>29559.9</v>
       </c>
-      <c r="C84" s="27">
+      <c r="D84" s="27">
         <v>26187</v>
       </c>
-      <c r="D84" s="27">
+      <c r="E84" s="27">
         <f t="shared" si="3"/>
         <v>3372.9000000000015</v>
       </c>
-      <c r="E84" s="5">
+      <c r="F84" s="5">
         <f t="shared" si="4"/>
         <v>264.10000000000218</v>
       </c>
-      <c r="F84" s="27">
+      <c r="G84" s="27">
         <f>[2]Sheet1!U88</f>
         <v>93401</v>
       </c>
-      <c r="G84" s="6">
+      <c r="H84" s="6">
         <f t="shared" si="5"/>
         <v>2.8275928523249449</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A85" s="19">
+    <row r="85" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B85" s="19">
         <v>45741</v>
       </c>
-      <c r="B85" s="4">
+      <c r="C85" s="4">
         <v>29816.7</v>
       </c>
-      <c r="C85" s="27">
+      <c r="D85" s="27">
         <v>26421</v>
       </c>
-      <c r="D85" s="27">
+      <c r="E85" s="27">
         <f t="shared" si="3"/>
         <v>3395.7000000000007</v>
       </c>
-      <c r="E85" s="5">
+      <c r="F85" s="5">
         <f t="shared" si="4"/>
         <v>256.79999999999927</v>
       </c>
-      <c r="F85" s="27">
+      <c r="G85" s="27">
         <f>[2]Sheet1!U89</f>
         <v>91355</v>
       </c>
-      <c r="G85" s="6">
+      <c r="H85" s="6">
         <f t="shared" si="5"/>
         <v>2.8110119862076433</v>
+      </c>
+    </row>
+    <row r="86" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B86" s="19">
+        <v>45742</v>
+      </c>
+      <c r="C86" s="4">
+        <v>30041.1</v>
+      </c>
+      <c r="D86" s="27">
+        <v>26624</v>
+      </c>
+      <c r="E86" s="27">
+        <f>C86-D86</f>
+        <v>3417.0999999999985</v>
+      </c>
+      <c r="F86" s="5">
+        <f t="shared" si="4"/>
+        <v>224.39999999999782</v>
+      </c>
+      <c r="G86" s="27">
+        <f>[2]Sheet1!U90</f>
+        <v>78856</v>
+      </c>
+      <c r="H86" s="6">
+        <f t="shared" si="5"/>
+        <v>2.8456934158465788</v>
       </c>
     </row>
   </sheetData>
@@ -12509,45 +12618,45 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38810916-2DF0-490C-B584-F0F3D6EAB44D}">
   <dimension ref="A1:K86"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
-      <selection activeCell="D93" sqref="D93"/>
+    <sheetView topLeftCell="A62" workbookViewId="0">
+      <selection activeCell="A87" sqref="A87:XFD98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:11" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="14" t="s">
         <v>2</v>
       </c>
       <c r="B1" s="25" t="s">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="C1" s="14" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="D1" s="14" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="E1" s="26" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="F1" s="24" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="G1" s="14" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="H1" s="14" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="I1" s="26" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="J1" s="24" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="K1" s="26" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -15745,15 +15854,42 @@
       </c>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A86" s="3"/>
-      <c r="B86" s="23"/>
-      <c r="C86" s="4"/>
-      <c r="D86" s="4"/>
-      <c r="E86" s="4"/>
-      <c r="F86" s="4"/>
-      <c r="G86" s="4"/>
-      <c r="H86" s="4"/>
-      <c r="I86" s="4"/>
+      <c r="A86" s="3">
+        <f>'[1]NaOCl Pré'!B87</f>
+        <v>45742</v>
+      </c>
+      <c r="B86" s="23">
+        <f>'[1]NaOCl Pré'!D87</f>
+        <v>224.00000000000199</v>
+      </c>
+      <c r="C86" s="4">
+        <f>[1]Acide!D87</f>
+        <v>0</v>
+      </c>
+      <c r="D86" s="4">
+        <f>[1]FeCl3!D87</f>
+        <v>0</v>
+      </c>
+      <c r="E86" s="4">
+        <f>'[1]NaOCl 2 CEB 1'!H87</f>
+        <v>672.00000000000068</v>
+      </c>
+      <c r="F86" s="4">
+        <f>'[1]Soude CEB 1'!D87</f>
+        <v>0</v>
+      </c>
+      <c r="G86" s="4">
+        <f>'[1]Acide CEB2'!D87</f>
+        <v>105.6000000000008</v>
+      </c>
+      <c r="H86" s="4">
+        <f>[1]SBS!E87</f>
+        <v>1027.2000000000005</v>
+      </c>
+      <c r="I86" s="4">
+        <f>[1]ASC!D87</f>
+        <v>330.00000000000006</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Consommation spécifique.xlsx
+++ b/Consommation spécifique.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\Projects\wave2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75017B45-FA09-418C-A7F5-D0D150982783}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1FDA7B91-6B4B-48D7-91D1-42ABB6A1FE46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{4E830341-EBCA-4A95-9BBE-9CDD49815F8C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" activeTab="2" xr2:uid="{4E830341-EBCA-4A95-9BBE-9CDD49815F8C}"/>
   </bookViews>
   <sheets>
     <sheet name="CS Produits chimiques" sheetId="1" r:id="rId1"/>
@@ -97,6 +97,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.000"/>
+  </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -586,7 +589,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -708,6 +711,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1683,6 +1698,17 @@
             <v>2.8406208785634828</v>
           </cell>
         </row>
+        <row r="88">
+          <cell r="B88">
+            <v>45743</v>
+          </cell>
+          <cell r="D88">
+            <v>192.00000000000017</v>
+          </cell>
+          <cell r="F88">
+            <v>2.2266549148768404</v>
+          </cell>
+        </row>
       </sheetData>
       <sheetData sheetId="3">
         <row r="3">
@@ -2365,6 +2391,14 @@
             <v>0</v>
           </cell>
         </row>
+        <row r="88">
+          <cell r="D88">
+            <v>0</v>
+          </cell>
+          <cell r="F88">
+            <v>0</v>
+          </cell>
+        </row>
       </sheetData>
       <sheetData sheetId="4">
         <row r="3">
@@ -3044,6 +3078,14 @@
             <v>0</v>
           </cell>
           <cell r="F87">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="88">
+          <cell r="D88">
+            <v>0</v>
+          </cell>
+          <cell r="F88">
             <v>0</v>
           </cell>
         </row>
@@ -3730,6 +3772,14 @@
             <v>8.5218626356903808</v>
           </cell>
         </row>
+        <row r="88">
+          <cell r="H88">
+            <v>374.39999999999782</v>
+          </cell>
+          <cell r="I88">
+            <v>4.3419770840098089</v>
+          </cell>
+        </row>
       </sheetData>
       <sheetData sheetId="7">
         <row r="3">
@@ -4412,6 +4462,14 @@
             <v>0</v>
           </cell>
         </row>
+        <row r="88">
+          <cell r="D88">
+            <v>0</v>
+          </cell>
+          <cell r="F88">
+            <v>0</v>
+          </cell>
+        </row>
       </sheetData>
       <sheetData sheetId="8">
         <row r="3">
@@ -5068,6 +5126,14 @@
           </cell>
           <cell r="F87">
             <v>1.3391498427513544</v>
+          </cell>
+        </row>
+        <row r="88">
+          <cell r="D88">
+            <v>256.00000000000023</v>
+          </cell>
+          <cell r="F88">
+            <v>2.9688732198357868</v>
           </cell>
         </row>
       </sheetData>
@@ -5752,6 +5818,14 @@
             <v>13.026275743126719</v>
           </cell>
         </row>
+        <row r="88">
+          <cell r="E88">
+            <v>255.80000000000004</v>
+          </cell>
+          <cell r="G88">
+            <v>2.9665537876327877</v>
+          </cell>
+        </row>
       </sheetData>
       <sheetData sheetId="10">
         <row r="3">
@@ -6432,6 +6506,14 @@
           </cell>
           <cell r="F87">
             <v>4.1848432585979518</v>
+          </cell>
+        </row>
+        <row r="88">
+          <cell r="D88">
+            <v>326.99999999999994</v>
+          </cell>
+          <cell r="F88">
+            <v>3.7922716518996142</v>
           </cell>
         </row>
       </sheetData>
@@ -6456,7 +6538,7 @@
       <sheetName val="Historique des pannes"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1">
+      <sheetData sheetId="0">
         <row r="6">
           <cell r="U6">
             <v>53174</v>
@@ -6882,10 +6964,15 @@
             <v>78856</v>
           </cell>
         </row>
+        <row r="91">
+          <cell r="U91">
+            <v>86228</v>
+          </cell>
+        </row>
       </sheetData>
-      <sheetData sheetId="1" refreshError="1"/>
-      <sheetData sheetId="2" refreshError="1"/>
-      <sheetData sheetId="3" refreshError="1"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -7188,23 +7275,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BC5C344-277E-4945-8E25-AE6A0B860AD5}">
-  <dimension ref="A1:K86"/>
+  <dimension ref="A1:K87"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A87" sqref="A87:XFD100"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A77" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A86" sqref="A86:I87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="11.44140625" style="1"/>
-    <col min="2" max="2" width="15.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="15.33203125" style="43" customWidth="1"/>
     <col min="3" max="4" width="16.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="19.33203125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="19.33203125" style="43" customWidth="1"/>
     <col min="6" max="6" width="16.5546875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="17.88671875" style="1" customWidth="1"/>
-    <col min="8" max="8" width="15.88671875" style="1" customWidth="1"/>
-    <col min="9" max="10" width="16.88671875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="17.88671875" style="43" customWidth="1"/>
+    <col min="8" max="8" width="15.88671875" style="43" customWidth="1"/>
+    <col min="9" max="9" width="16.88671875" style="43" customWidth="1"/>
+    <col min="10" max="10" width="16.88671875" style="1" customWidth="1"/>
     <col min="11" max="11" width="16.109375" style="1" customWidth="1"/>
     <col min="12" max="16384" width="11.44140625" style="1"/>
   </cols>
@@ -7248,7 +7336,7 @@
       <c r="A2" s="3">
         <v>45658</v>
       </c>
-      <c r="B2" s="23">
+      <c r="B2" s="41">
         <f>'[1]NaOCl Pré'!$F$3</f>
         <v>-6.0179787114013165E-2</v>
       </c>
@@ -7260,7 +7348,7 @@
         <f>[1]FeCl3!F3</f>
         <v>0</v>
       </c>
-      <c r="E2" s="4">
+      <c r="E2" s="42">
         <f>'[1]NaOCl 2 CEB 1'!I3</f>
         <v>14.581562417722965</v>
       </c>
@@ -7268,15 +7356,15 @@
         <f>'[1]Soude CEB 1'!F3</f>
         <v>0</v>
       </c>
-      <c r="G2" s="4">
+      <c r="G2" s="42">
         <f>'[1]Acide CEB2'!F3</f>
         <v>0</v>
       </c>
-      <c r="H2" s="4">
+      <c r="H2" s="42">
         <f>[1]SBS!G3</f>
         <v>0.18053936134202278</v>
       </c>
-      <c r="I2" s="4">
+      <c r="I2" s="42">
         <f>[1]ASC!F3</f>
         <v>3.7800428780983282</v>
       </c>
@@ -7287,7 +7375,7 @@
       <c r="A3" s="21">
         <v>45659</v>
       </c>
-      <c r="B3" s="4">
+      <c r="B3" s="42">
         <f>'[1]NaOCl Pré'!$F$3</f>
         <v>-6.0179787114013165E-2</v>
       </c>
@@ -7299,7 +7387,7 @@
         <f>[1]FeCl3!F4</f>
         <v>0</v>
       </c>
-      <c r="E3" s="4">
+      <c r="E3" s="42">
         <f>'[1]NaOCl 2 CEB 1'!I4</f>
         <v>-156.75631439943459</v>
       </c>
@@ -7307,15 +7395,15 @@
         <f>'[1]Soude CEB 1'!F4</f>
         <v>0</v>
       </c>
-      <c r="G3" s="4">
+      <c r="G3" s="42">
         <f>'[1]Acide CEB2'!F4</f>
         <v>0.11903433396572316</v>
       </c>
-      <c r="H3" s="4">
+      <c r="H3" s="42">
         <f>[1]SBS!G4</f>
         <v>10.117918387084751</v>
       </c>
-      <c r="I3" s="4">
+      <c r="I3" s="42">
         <f>[1]ASC!F4</f>
         <v>3.1525499386229088</v>
       </c>
@@ -7326,7 +7414,7 @@
       <c r="A4" s="21">
         <v>45660</v>
       </c>
-      <c r="B4" s="4">
+      <c r="B4" s="42">
         <f>'[1]NaOCl Pré'!F5</f>
         <v>-6.5788121132389049E-2</v>
       </c>
@@ -7338,7 +7426,7 @@
         <f>[1]FeCl3!F5</f>
         <v>0</v>
       </c>
-      <c r="E4" s="4">
+      <c r="E4" s="42">
         <f>'[1]NaOCl 2 CEB 1'!I5</f>
         <v>12.828683620813729</v>
       </c>
@@ -7346,15 +7434,15 @@
         <f>'[1]Soude CEB 1'!F5</f>
         <v>0</v>
       </c>
-      <c r="G4" s="4">
+      <c r="G4" s="42">
         <f>'[1]Acide CEB2'!F5</f>
         <v>0.26315248452951973</v>
       </c>
-      <c r="H4" s="4">
+      <c r="H4" s="42">
         <f>[1]SBS!G5</f>
         <v>1.1183980592504494</v>
       </c>
-      <c r="I4" s="4">
+      <c r="I4" s="42">
         <f>[1]ASC!F5</f>
         <v>3.1763327234226373</v>
       </c>
@@ -7365,7 +7453,7 @@
       <c r="A5" s="21">
         <v>45661</v>
       </c>
-      <c r="B5" s="4">
+      <c r="B5" s="42">
         <f>'[1]NaOCl Pré'!F6</f>
         <v>4.71936625653127</v>
       </c>
@@ -7377,7 +7465,7 @@
         <f>[1]FeCl3!F6</f>
         <v>0</v>
       </c>
-      <c r="E5" s="4">
+      <c r="E5" s="42">
         <f>'[1]NaOCl 2 CEB 1'!I6</f>
         <v>19.484240687679033</v>
       </c>
@@ -7385,15 +7473,15 @@
         <f>'[1]Soude CEB 1'!F6</f>
         <v>0</v>
       </c>
-      <c r="G5" s="4">
+      <c r="G5" s="42">
         <f>'[1]Acide CEB2'!F6</f>
         <v>0.13483903590087845</v>
       </c>
-      <c r="H5" s="4">
+      <c r="H5" s="42">
         <f>[1]SBS!G6</f>
         <v>3.0338783077700651</v>
       </c>
-      <c r="I5" s="4">
+      <c r="I5" s="42">
         <f>[1]ASC!F6</f>
         <v>3.9503623799089835</v>
       </c>
@@ -7404,7 +7492,7 @@
       <c r="A6" s="21">
         <v>45662</v>
       </c>
-      <c r="B6" s="4">
+      <c r="B6" s="42">
         <f>'[1]NaOCl Pré'!F7</f>
         <v>4.305304010349289</v>
       </c>
@@ -7416,7 +7504,7 @@
         <f>[1]FeCl3!F7</f>
         <v>0</v>
       </c>
-      <c r="E6" s="4">
+      <c r="E6" s="42">
         <f>'[1]NaOCl 2 CEB 1'!I7</f>
         <v>12.915912031047885</v>
       </c>
@@ -7424,15 +7512,15 @@
         <f>'[1]Soude CEB 1'!F7</f>
         <v>0</v>
       </c>
-      <c r="G6" s="4">
+      <c r="G6" s="42">
         <f>'[1]Acide CEB2'!F7</f>
         <v>-0.11039241052176448</v>
       </c>
-      <c r="H6" s="4">
+      <c r="H6" s="42">
         <f>[1]SBS!G7</f>
         <v>2.2630444156964469</v>
       </c>
-      <c r="I6" s="4">
+      <c r="I6" s="42">
         <f>[1]ASC!F7</f>
         <v>3.7257438551099495</v>
       </c>
@@ -7443,7 +7531,7 @@
       <c r="A7" s="21">
         <v>45663</v>
       </c>
-      <c r="B7" s="4">
+      <c r="B7" s="42">
         <f>'[1]NaOCl Pré'!F8</f>
         <v>-0.54849934008673196</v>
       </c>
@@ -7455,7 +7543,7 @@
         <f>[1]FeCl3!F8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="4">
+      <c r="E7" s="42">
         <f>'[1]NaOCl 2 CEB 1'!I8</f>
         <v>12.012135547899405</v>
       </c>
@@ -7463,15 +7551,15 @@
         <f>'[1]Soude CEB 1'!F8</f>
         <v>0</v>
       </c>
-      <c r="G7" s="4">
+      <c r="G7" s="42">
         <f>'[1]Acide CEB2'!F8</f>
         <v>-5.4849934008667105E-2</v>
       </c>
-      <c r="H7" s="4">
+      <c r="H7" s="42">
         <f>[1]SBS!G8</f>
         <v>1.1518486141821309</v>
       </c>
-      <c r="I7" s="4">
+      <c r="I7" s="42">
         <f>[1]ASC!F8</f>
         <v>1.5169434874273937</v>
       </c>
@@ -7482,7 +7570,7 @@
       <c r="A8" s="21">
         <v>45664</v>
       </c>
-      <c r="B8" s="4">
+      <c r="B8" s="42">
         <f>'[1]NaOCl Pré'!F9</f>
         <v>4.957116409113226</v>
       </c>
@@ -7494,7 +7582,7 @@
         <f>[1]FeCl3!F9</f>
         <v>0</v>
       </c>
-      <c r="E8" s="4">
+      <c r="E8" s="42">
         <f>'[1]NaOCl 2 CEB 1'!I9</f>
         <v>14.085464918577847</v>
       </c>
@@ -7502,15 +7590,15 @@
         <f>'[1]Soude CEB 1'!F9</f>
         <v>0</v>
       </c>
-      <c r="G8" s="4">
+      <c r="G8" s="42">
         <f>'[1]Acide CEB2'!F9</f>
         <v>0.7858843087618349</v>
       </c>
-      <c r="H8" s="4">
+      <c r="H8" s="42">
         <f>[1]SBS!G9</f>
         <v>2.84127403936977</v>
       </c>
-      <c r="I8" s="4">
+      <c r="I8" s="42">
         <f>[1]ASC!F9</f>
         <v>6.3191899346355722</v>
       </c>
@@ -7521,7 +7609,7 @@
       <c r="A9" s="21">
         <v>45665</v>
       </c>
-      <c r="B9" s="4">
+      <c r="B9" s="42">
         <f>'[1]NaOCl Pré'!F10</f>
         <v>3.9327624484617898</v>
       </c>
@@ -7533,7 +7621,7 @@
         <f>[1]FeCl3!F10</f>
         <v>0</v>
       </c>
-      <c r="E9" s="4">
+      <c r="E9" s="42">
         <f>'[1]NaOCl 2 CEB 1'!I10</f>
         <v>16.555661274976252</v>
       </c>
@@ -7541,15 +7629,15 @@
         <f>'[1]Soude CEB 1'!F10</f>
         <v>0</v>
       </c>
-      <c r="G9" s="4">
+      <c r="G9" s="42">
         <f>'[1]Acide CEB2'!F10</f>
         <v>0.19029495718364889</v>
       </c>
-      <c r="H9" s="4">
+      <c r="H9" s="42">
         <f>[1]SBS!G10</f>
         <v>3.1715826197272468</v>
       </c>
-      <c r="I9" s="4">
+      <c r="I9" s="42">
         <f>[1]ASC!F10</f>
         <v>4.9952426260704046</v>
       </c>
@@ -7560,7 +7648,7 @@
       <c r="A10" s="21">
         <v>45666</v>
       </c>
-      <c r="B10" s="4">
+      <c r="B10" s="42">
         <f>'[1]NaOCl Pré'!F11</f>
         <v>4.0571297639960289</v>
       </c>
@@ -7572,7 +7660,7 @@
         <f>[1]FeCl3!F11</f>
         <v>0</v>
       </c>
-      <c r="E10" s="4">
+      <c r="E10" s="42">
         <f>'[1]NaOCl 2 CEB 1'!I11</f>
         <v>11.047124417627716</v>
       </c>
@@ -7580,15 +7668,15 @@
         <f>'[1]Soude CEB 1'!F11</f>
         <v>0</v>
       </c>
-      <c r="G10" s="4">
+      <c r="G10" s="42">
         <f>'[1]Acide CEB2'!F11</f>
         <v>0.24440540746961334</v>
       </c>
-      <c r="H10" s="4">
+      <c r="H10" s="42">
         <f>[1]SBS!G11</f>
         <v>2.1507675857328414</v>
       </c>
-      <c r="I10" s="4">
+      <c r="I10" s="42">
         <f>[1]ASC!F11</f>
         <v>4.3763843275032466</v>
       </c>
@@ -7599,7 +7687,7 @@
       <c r="A11" s="21">
         <v>45667</v>
       </c>
-      <c r="B11" s="4">
+      <c r="B11" s="42">
         <f>'[1]NaOCl Pré'!F12</f>
         <v>5.4772949009816947E-2</v>
       </c>
@@ -7611,7 +7699,7 @@
         <f>[1]FeCl3!F12</f>
         <v>0</v>
       </c>
-      <c r="E11" s="4">
+      <c r="E11" s="42">
         <f>'[1]NaOCl 2 CEB 1'!I12</f>
         <v>14.460058538589273</v>
       </c>
@@ -7619,15 +7707,15 @@
         <f>'[1]Soude CEB 1'!F12</f>
         <v>0</v>
       </c>
-      <c r="G11" s="4">
+      <c r="G11" s="42">
         <f>'[1]Acide CEB2'!F12</f>
         <v>0.32863769405887133</v>
       </c>
-      <c r="H11" s="4">
+      <c r="H11" s="42">
         <f>[1]SBS!G12</f>
         <v>0.76682128613728529</v>
       </c>
-      <c r="I11" s="4">
+      <c r="I11" s="42">
         <f>[1]ASC!F12</f>
         <v>2.5845985314003048</v>
       </c>
@@ -7638,7 +7726,7 @@
       <c r="A12" s="21">
         <v>45668</v>
       </c>
-      <c r="B12" s="4">
+      <c r="B12" s="42">
         <f>'[1]NaOCl Pré'!F13</f>
         <v>0</v>
       </c>
@@ -7650,7 +7738,7 @@
         <f>[1]FeCl3!F13</f>
         <v>0</v>
       </c>
-      <c r="E12" s="4">
+      <c r="E12" s="42">
         <f>'[1]NaOCl 2 CEB 1'!I13</f>
         <v>12.988532232049504</v>
       </c>
@@ -7658,15 +7746,15 @@
         <f>'[1]Soude CEB 1'!F13</f>
         <v>0</v>
       </c>
-      <c r="G12" s="4">
+      <c r="G12" s="42">
         <f>'[1]Acide CEB2'!F13</f>
         <v>0.34031088817596311</v>
       </c>
-      <c r="H12" s="4">
+      <c r="H12" s="42">
         <f>[1]SBS!G13</f>
         <v>0.68062177635195775</v>
       </c>
-      <c r="I12" s="4">
+      <c r="I12" s="42">
         <f>[1]ASC!F13</f>
         <v>2.4991580850422732</v>
       </c>
@@ -7677,7 +7765,7 @@
       <c r="A13" s="21">
         <v>45669</v>
       </c>
-      <c r="B13" s="4">
+      <c r="B13" s="42">
         <f>'[1]NaOCl Pré'!F14</f>
         <v>4.4718633900269182</v>
       </c>
@@ -7689,7 +7777,7 @@
         <f>[1]FeCl3!F14</f>
         <v>0</v>
       </c>
-      <c r="E13" s="4">
+      <c r="E13" s="42">
         <f>'[1]NaOCl 2 CEB 1'!I14</f>
         <v>13.361055250690187</v>
       </c>
@@ -7697,15 +7785,15 @@
         <f>'[1]Soude CEB 1'!F14</f>
         <v>0</v>
       </c>
-      <c r="G13" s="4">
+      <c r="G13" s="42">
         <f>'[1]Acide CEB2'!F14</f>
         <v>0.21813967756229535</v>
       </c>
-      <c r="H13" s="4">
+      <c r="H13" s="42">
         <f>[1]SBS!G14</f>
         <v>1.6360475817171698</v>
       </c>
-      <c r="I13" s="4">
+      <c r="I13" s="42">
         <f>[1]ASC!F14</f>
         <v>2.863083268005032</v>
       </c>
@@ -7716,7 +7804,7 @@
       <c r="A14" s="21">
         <v>45670</v>
       </c>
-      <c r="B14" s="4">
+      <c r="B14" s="42">
         <f>'[1]NaOCl Pré'!F15</f>
         <v>4.2882913839017425</v>
       </c>
@@ -7728,7 +7816,7 @@
         <f>[1]FeCl3!F15</f>
         <v>0</v>
       </c>
-      <c r="E14" s="4">
+      <c r="E14" s="42">
         <f>'[1]NaOCl 2 CEB 1'!I15</f>
         <v>9.3737651404518516</v>
       </c>
@@ -7736,15 +7824,15 @@
         <f>'[1]Soude CEB 1'!F15</f>
         <v>0</v>
       </c>
-      <c r="G14" s="4">
+      <c r="G14" s="42">
         <f>'[1]Acide CEB2'!F15</f>
         <v>0.43982475732323606</v>
       </c>
-      <c r="H14" s="4">
+      <c r="H14" s="42">
         <f>[1]SBS!G15</f>
         <v>1.7592990292930055</v>
       </c>
-      <c r="I14" s="4">
+      <c r="I14" s="42">
         <f>[1]ASC!F15</f>
         <v>3.0409758611803195</v>
       </c>
@@ -7755,7 +7843,7 @@
       <c r="A15" s="21">
         <v>45671</v>
       </c>
-      <c r="B15" s="4">
+      <c r="B15" s="42">
         <f>'[1]NaOCl Pré'!F16</f>
         <v>4.3058239028429339</v>
       </c>
@@ -7767,7 +7855,7 @@
         <f>[1]FeCl3!F16</f>
         <v>0</v>
       </c>
-      <c r="E15" s="4">
+      <c r="E15" s="42">
         <f>'[1]NaOCl 2 CEB 1'!I16</f>
         <v>8.9980678995308274</v>
       </c>
@@ -7775,15 +7863,15 @@
         <f>'[1]Soude CEB 1'!F16</f>
         <v>0</v>
       </c>
-      <c r="G15" s="4">
+      <c r="G15" s="42">
         <f>'[1]Acide CEB2'!F16</f>
         <v>0.55202870549271676</v>
       </c>
-      <c r="H15" s="4">
+      <c r="H15" s="42">
         <f>[1]SBS!G16</f>
         <v>1.2696660226331902</v>
       </c>
-      <c r="I15" s="4">
+      <c r="I15" s="42">
         <f>[1]ASC!F16</f>
         <v>2.9757797405465141</v>
       </c>
@@ -7794,7 +7882,7 @@
       <c r="A16" s="21">
         <v>45672</v>
       </c>
-      <c r="B16" s="4">
+      <c r="B16" s="42">
         <f>'[1]NaOCl Pré'!F17</f>
         <v>4.6018547539593291</v>
       </c>
@@ -7806,7 +7894,7 @@
         <f>[1]FeCl3!F17</f>
         <v>0</v>
       </c>
-      <c r="E16" s="4">
+      <c r="E16" s="42">
         <f>'[1]NaOCl 2 CEB 1'!I17</f>
         <v>17.817437637124545</v>
       </c>
@@ -7814,15 +7902,15 @@
         <f>'[1]Soude CEB 1'!F17</f>
         <v>0</v>
       </c>
-      <c r="G16" s="4">
+      <c r="G16" s="42">
         <f>'[1]Acide CEB2'!F17</f>
         <v>0.64897951658400188</v>
       </c>
-      <c r="H16" s="4">
+      <c r="H16" s="42">
         <f>[1]SBS!G17</f>
         <v>2.6549162042073067</v>
       </c>
-      <c r="I16" s="4">
+      <c r="I16" s="42">
         <f>[1]ASC!F17</f>
         <v>3.2356791238776443</v>
       </c>
@@ -7833,7 +7921,7 @@
       <c r="A17" s="21">
         <v>45673</v>
       </c>
-      <c r="B17" s="4">
+      <c r="B17" s="42">
         <f>'[1]NaOCl Pré'!F18</f>
         <v>3.392411867468978</v>
       </c>
@@ -7845,7 +7933,7 @@
         <f>[1]FeCl3!F18</f>
         <v>0</v>
       </c>
-      <c r="E17" s="4">
+      <c r="E17" s="42">
         <f>'[1]NaOCl 2 CEB 1'!I18</f>
         <v>15.624206769892346</v>
       </c>
@@ -7853,15 +7941,15 @@
         <f>'[1]Soude CEB 1'!F18</f>
         <v>0</v>
       </c>
-      <c r="G17" s="4">
+      <c r="G17" s="42">
         <f>'[1]Acide CEB2'!F18</f>
         <v>0.43002403953832707</v>
       </c>
-      <c r="H17" s="4">
+      <c r="H17" s="42">
         <f>[1]SBS!G18</f>
         <v>34.019679572364979</v>
       </c>
-      <c r="I17" s="4">
+      <c r="I17" s="42">
         <f>[1]ASC!F18</f>
         <v>4.0986666268496226</v>
       </c>
@@ -7872,7 +7960,7 @@
       <c r="A18" s="21">
         <v>45674</v>
       </c>
-      <c r="B18" s="4">
+      <c r="B18" s="42">
         <f>'[1]NaOCl Pré'!F19</f>
         <v>3.2697388588027501</v>
       </c>
@@ -7884,7 +7972,7 @@
         <f>[1]FeCl3!F19</f>
         <v>0</v>
       </c>
-      <c r="E18" s="4">
+      <c r="E18" s="42">
         <f>'[1]NaOCl 2 CEB 1'!I19</f>
         <v>10.287999766447225</v>
       </c>
@@ -7892,15 +7980,15 @@
         <f>'[1]Soude CEB 1'!F19</f>
         <v>0</v>
       </c>
-      <c r="G18" s="4">
+      <c r="G18" s="42">
         <f>'[1]Acide CEB2'!F19</f>
         <v>0.28026333075449056</v>
       </c>
-      <c r="H18" s="4">
+      <c r="H18" s="42">
         <f>[1]SBS!G19</f>
         <v>9.5289532456537298</v>
       </c>
-      <c r="I18" s="4">
+      <c r="I18" s="42">
         <f>[1]ASC!F19</f>
         <v>4.4885924066153846</v>
       </c>
@@ -7911,7 +7999,7 @@
       <c r="A19" s="21">
         <v>45675</v>
       </c>
-      <c r="B19" s="4">
+      <c r="B19" s="42">
         <f>'[1]NaOCl Pré'!F20</f>
         <v>3.104177599669224</v>
       </c>
@@ -7923,7 +8011,7 @@
         <f>[1]FeCl3!F20</f>
         <v>0</v>
       </c>
-      <c r="E19" s="4">
+      <c r="E19" s="42">
         <f>'[1]NaOCl 2 CEB 1'!I20</f>
         <v>3.9183881176151609</v>
       </c>
@@ -7931,15 +8019,15 @@
         <f>'[1]Soude CEB 1'!F20</f>
         <v>0</v>
       </c>
-      <c r="G19" s="4">
+      <c r="G19" s="42">
         <f>'[1]Acide CEB2'!F20</f>
         <v>0.76332236057440073</v>
       </c>
-      <c r="H19" s="4">
+      <c r="H19" s="42">
         <f>[1]SBS!G20</f>
         <v>3.3586183865273571</v>
       </c>
-      <c r="I19" s="4">
+      <c r="I19" s="42">
         <f>[1]ASC!F20</f>
         <v>3.4588044463527545</v>
       </c>
@@ -7950,7 +8038,7 @@
       <c r="A20" s="21">
         <v>45676</v>
       </c>
-      <c r="B20" s="4">
+      <c r="B20" s="42">
         <f>'[1]NaOCl Pré'!F21</f>
         <v>4.320315963406304</v>
       </c>
@@ -7962,7 +8050,7 @@
         <f>[1]FeCl3!F21</f>
         <v>0</v>
       </c>
-      <c r="E20" s="4">
+      <c r="E20" s="42">
         <f>'[1]NaOCl 2 CEB 1'!I21</f>
         <v>13.089912545843038</v>
       </c>
@@ -7970,15 +8058,15 @@
         <f>'[1]Soude CEB 1'!F21</f>
         <v>0</v>
       </c>
-      <c r="G20" s="4">
+      <c r="G20" s="42">
         <f>'[1]Acide CEB2'!F21</f>
         <v>0.83827026155645723</v>
       </c>
-      <c r="H20" s="4">
+      <c r="H20" s="42">
         <f>[1]SBS!G21</f>
         <v>5.0941038971506636</v>
       </c>
-      <c r="I20" s="4">
+      <c r="I20" s="42">
         <f>[1]ASC!F21</f>
         <v>3.173739571998544</v>
       </c>
@@ -7989,7 +8077,7 @@
       <c r="A21" s="21">
         <v>45677</v>
       </c>
-      <c r="B21" s="4">
+      <c r="B21" s="42">
         <f>'[1]NaOCl Pré'!F22</f>
         <v>3.5029504831950531</v>
       </c>
@@ -8001,7 +8089,7 @@
         <f>[1]FeCl3!F22</f>
         <v>0</v>
       </c>
-      <c r="E21" s="4">
+      <c r="E21" s="42">
         <f>'[1]NaOCl 2 CEB 1'!I22</f>
         <v>12.150859488582853</v>
       </c>
@@ -8009,15 +8097,15 @@
         <f>'[1]Soude CEB 1'!F22</f>
         <v>0</v>
       </c>
-      <c r="G21" s="4">
+      <c r="G21" s="42">
         <f>'[1]Acide CEB2'!F22</f>
         <v>1.4230736337979941</v>
       </c>
-      <c r="H21" s="4">
+      <c r="H21" s="42">
         <f>[1]SBS!G22</f>
         <v>3.8860856922945324</v>
       </c>
-      <c r="I21" s="4">
+      <c r="I21" s="42">
         <f>[1]ASC!F22</f>
         <v>2.8478576926366217</v>
       </c>
@@ -8028,7 +8116,7 @@
       <c r="A22" s="21">
         <v>45678</v>
       </c>
-      <c r="B22" s="4">
+      <c r="B22" s="42">
         <f>'[1]NaOCl Pré'!F23</f>
         <v>3.6072349655844098</v>
       </c>
@@ -8040,7 +8128,7 @@
         <f>[1]FeCl3!F23</f>
         <v>0</v>
       </c>
-      <c r="E22" s="4">
+      <c r="E22" s="42">
         <f>'[1]NaOCl 2 CEB 1'!I23</f>
         <v>13.335838357615039</v>
       </c>
@@ -8048,15 +8136,15 @@
         <f>'[1]Soude CEB 1'!F23</f>
         <v>0</v>
       </c>
-      <c r="G22" s="4">
+      <c r="G22" s="42">
         <f>'[1]Acide CEB2'!F23</f>
         <v>5.5201625988488559</v>
       </c>
-      <c r="H22" s="4">
+      <c r="H22" s="42">
         <f>[1]SBS!G23</f>
         <v>3.5525798903482886</v>
       </c>
-      <c r="I22" s="4">
+      <c r="I22" s="42">
         <f>[1]ASC!F23</f>
         <v>2.9462501494474767</v>
       </c>
@@ -8067,7 +8155,7 @@
       <c r="A23" s="21">
         <v>45679</v>
       </c>
-      <c r="B23" s="4">
+      <c r="B23" s="42">
         <f>'[1]NaOCl Pré'!F24</f>
         <v>3.3611203734578048</v>
       </c>
@@ -8079,7 +8167,7 @@
         <f>[1]FeCl3!F24</f>
         <v>0</v>
       </c>
-      <c r="E23" s="4">
+      <c r="E23" s="42">
         <f>'[1]NaOCl 2 CEB 1'!I24</f>
         <v>9.8699566522173257</v>
       </c>
@@ -8087,15 +8175,15 @@
         <f>'[1]Soude CEB 1'!F24</f>
         <v>0</v>
       </c>
-      <c r="G23" s="4">
+      <c r="G23" s="42">
         <f>'[1]Acide CEB2'!F24</f>
         <v>2.0273424474824782</v>
       </c>
-      <c r="H23" s="4">
+      <c r="H23" s="42">
         <f>[1]SBS!G24</f>
         <v>2.3474491497165504</v>
       </c>
-      <c r="I23" s="4">
+      <c r="I23" s="42">
         <f>[1]ASC!F24</f>
         <v>4.4514838279426527</v>
       </c>
@@ -8106,7 +8194,7 @@
       <c r="A24" s="21">
         <v>45680</v>
       </c>
-      <c r="B24" s="4">
+      <c r="B24" s="42">
         <f>'[1]NaOCl Pré'!F25</f>
         <v>2.9311950025527795</v>
       </c>
@@ -8118,7 +8206,7 @@
         <f>[1]FeCl3!F25</f>
         <v>0</v>
       </c>
-      <c r="E24" s="4">
+      <c r="E24" s="42">
         <f>'[1]NaOCl 2 CEB 1'!I25</f>
         <v>11.916989518575321</v>
       </c>
@@ -8126,15 +8214,15 @@
         <f>'[1]Soude CEB 1'!F25</f>
         <v>0</v>
       </c>
-      <c r="G24" s="4">
+      <c r="G24" s="42">
         <f>'[1]Acide CEB2'!F25</f>
         <v>0.38441901672824474</v>
       </c>
-      <c r="H24" s="4">
+      <c r="H24" s="42">
         <f>[1]SBS!G25</f>
         <v>0.6246809021833799</v>
       </c>
-      <c r="I24" s="4">
+      <c r="I24" s="42">
         <f>[1]ASC!F25</f>
         <v>4.6625822146139289</v>
       </c>
@@ -8145,7 +8233,7 @@
       <c r="A25" s="21">
         <v>45681</v>
       </c>
-      <c r="B25" s="4">
+      <c r="B25" s="42">
         <f>'[1]NaOCl Pré'!F26</f>
         <v>2.9316420014094207</v>
       </c>
@@ -8157,7 +8245,7 @@
         <f>[1]FeCl3!F26</f>
         <v>0</v>
       </c>
-      <c r="E25" s="4">
+      <c r="E25" s="42">
         <f>'[1]NaOCl 2 CEB 1'!I26</f>
         <v>9.200845665961932</v>
       </c>
@@ -8165,15 +8253,15 @@
         <f>'[1]Soude CEB 1'!F26</f>
         <v>0</v>
       </c>
-      <c r="G25" s="4">
+      <c r="G25" s="42">
         <f>'[1]Acide CEB2'!F26</f>
         <v>2.25510923185342</v>
       </c>
-      <c r="H25" s="4">
+      <c r="H25" s="42">
         <f>[1]SBS!G26</f>
         <v>3.1571529245947878</v>
       </c>
-      <c r="I25" s="4">
+      <c r="I25" s="42">
         <f>[1]ASC!F26</f>
         <v>4.2494714587738072</v>
       </c>
@@ -8184,7 +8272,7 @@
       <c r="A26" s="21">
         <v>45682</v>
       </c>
-      <c r="B26" s="4">
+      <c r="B26" s="42">
         <f>'[1]NaOCl Pré'!F27</f>
         <v>2.525201099684343</v>
       </c>
@@ -8196,7 +8284,7 @@
         <f>[1]FeCl3!F27</f>
         <v>0</v>
       </c>
-      <c r="E26" s="4">
+      <c r="E26" s="42">
         <f>'[1]NaOCl 2 CEB 1'!I27</f>
         <v>7.9421647490072367</v>
       </c>
@@ -8204,15 +8292,15 @@
         <f>'[1]Soude CEB 1'!F27</f>
         <v>0</v>
       </c>
-      <c r="G26" s="4">
+      <c r="G26" s="42">
         <f>'[1]Acide CEB2'!F27</f>
         <v>0.36656144995416207</v>
       </c>
-      <c r="H26" s="4">
+      <c r="H26" s="42">
         <f>[1]SBS!G27</f>
         <v>2.1993686997250856</v>
       </c>
-      <c r="I26" s="4">
+      <c r="I26" s="42">
         <f>[1]ASC!F27</f>
         <v>4.1238163119845206</v>
       </c>
@@ -8223,7 +8311,7 @@
       <c r="A27" s="21">
         <v>45683</v>
       </c>
-      <c r="B27" s="4">
+      <c r="B27" s="42">
         <f>'[1]NaOCl Pré'!F28</f>
         <v>2.7313305441672351</v>
       </c>
@@ -8235,7 +8323,7 @@
         <f>[1]FeCl3!F28</f>
         <v>0</v>
       </c>
-      <c r="E27" s="4">
+      <c r="E27" s="42">
         <f>'[1]NaOCl 2 CEB 1'!I28</f>
         <v>18.492451061328982</v>
       </c>
@@ -8243,15 +8331,15 @@
         <f>'[1]Soude CEB 1'!F28</f>
         <v>0</v>
       </c>
-      <c r="G27" s="4">
+      <c r="G27" s="42">
         <f>'[1]Acide CEB2'!F28</f>
         <v>-1.7462605118446342</v>
       </c>
-      <c r="H27" s="4">
+      <c r="H27" s="42">
         <f>[1]SBS!G28</f>
         <v>2.2387955280059351</v>
       </c>
-      <c r="I27" s="4">
+      <c r="I27" s="42">
         <f>[1]ASC!F28</f>
         <v>4.2607077392362775</v>
       </c>
@@ -8262,7 +8350,7 @@
       <c r="A28" s="21">
         <v>45684</v>
       </c>
-      <c r="B28" s="4">
+      <c r="B28" s="42">
         <f>'[1]NaOCl Pré'!F29</f>
         <v>3.9141010494127593</v>
       </c>
@@ -8274,7 +8362,7 @@
         <f>[1]FeCl3!F29</f>
         <v>0</v>
       </c>
-      <c r="E28" s="4">
+      <c r="E28" s="42">
         <f>'[1]NaOCl 2 CEB 1'!I29</f>
         <v>8.6288136771144508</v>
       </c>
@@ -8282,15 +8370,15 @@
         <f>'[1]Soude CEB 1'!F29</f>
         <v>0</v>
       </c>
-      <c r="G28" s="4">
+      <c r="G28" s="42">
         <f>'[1]Acide CEB2'!F29</f>
         <v>-5.8266731531030649</v>
       </c>
-      <c r="H28" s="4">
+      <c r="H28" s="42">
         <f>[1]SBS!G29</f>
         <v>2.6687052609632382</v>
       </c>
-      <c r="I28" s="4">
+      <c r="I28" s="42">
         <f>[1]ASC!F29</f>
         <v>4.3991938286190901</v>
       </c>
@@ -8301,7 +8389,7 @@
       <c r="A29" s="21">
         <v>45685</v>
       </c>
-      <c r="B29" s="4">
+      <c r="B29" s="42">
         <f>'[1]NaOCl Pré'!F30</f>
         <v>4.9449041780396765</v>
       </c>
@@ -8313,7 +8401,7 @@
         <f>[1]FeCl3!F30</f>
         <v>0</v>
       </c>
-      <c r="E29" s="4">
+      <c r="E29" s="42">
         <f>'[1]NaOCl 2 CEB 1'!I30</f>
         <v>11.645942550149476</v>
       </c>
@@ -8321,15 +8409,15 @@
         <f>'[1]Soude CEB 1'!F30</f>
         <v>0</v>
       </c>
-      <c r="G29" s="4">
+      <c r="G29" s="42">
         <f>'[1]Acide CEB2'!F30</f>
         <v>-1.7561341940701449</v>
       </c>
-      <c r="H29" s="4">
+      <c r="H29" s="42">
         <f>[1]SBS!G30</f>
         <v>1.5250639053767028</v>
       </c>
-      <c r="I29" s="4">
+      <c r="I29" s="42">
         <f>[1]ASC!F30</f>
         <v>4.505870629522108</v>
       </c>
@@ -8340,7 +8428,7 @@
       <c r="A30" s="21">
         <v>45686</v>
       </c>
-      <c r="B30" s="4">
+      <c r="B30" s="42">
         <f>'[1]NaOCl Pré'!F31</f>
         <v>3.143583160872871</v>
       </c>
@@ -8352,7 +8440,7 @@
         <f>[1]FeCl3!F31</f>
         <v>0</v>
       </c>
-      <c r="E30" s="4">
+      <c r="E30" s="42">
         <f>'[1]NaOCl 2 CEB 1'!I31</f>
         <v>11.233070494852402</v>
       </c>
@@ -8360,15 +8448,15 @@
         <f>'[1]Soude CEB 1'!F31</f>
         <v>0</v>
       </c>
-      <c r="G30" s="4">
+      <c r="G30" s="42">
         <f>'[1]Acide CEB2'!F31</f>
         <v>-4.4429308673669858</v>
       </c>
-      <c r="H30" s="4">
+      <c r="H30" s="42">
         <f>[1]SBS!G31</f>
         <v>1.7184921279438545</v>
       </c>
-      <c r="I30" s="4">
+      <c r="I30" s="42">
         <f>[1]ASC!F31</f>
         <v>4.0277159248683638</v>
       </c>
@@ -8379,7 +8467,7 @@
       <c r="A31" s="21">
         <v>45687</v>
       </c>
-      <c r="B31" s="4">
+      <c r="B31" s="42">
         <f>'[1]NaOCl Pré'!F32</f>
         <v>2.1559105072565345</v>
       </c>
@@ -8391,7 +8479,7 @@
         <f>[1]FeCl3!F32</f>
         <v>0</v>
       </c>
-      <c r="E31" s="4">
+      <c r="E31" s="42">
         <f>'[1]NaOCl 2 CEB 1'!I32</f>
         <v>9.297364062543835</v>
       </c>
@@ -8399,15 +8487,15 @@
         <f>'[1]Soude CEB 1'!F32</f>
         <v>0</v>
       </c>
-      <c r="G31" s="4">
+      <c r="G31" s="42">
         <f>'[1]Acide CEB2'!F32</f>
         <v>0.31440361564157016</v>
       </c>
-      <c r="H31" s="4">
+      <c r="H31" s="42">
         <f>[1]SBS!G32</f>
         <v>0.94321084692473556</v>
       </c>
-      <c r="I31" s="4">
+      <c r="I31" s="42">
         <f>[1]ASC!F32</f>
         <v>4.3160317772225829</v>
       </c>
@@ -8418,7 +8506,7 @@
       <c r="A32" s="21">
         <v>45688</v>
       </c>
-      <c r="B32" s="4">
+      <c r="B32" s="42">
         <f>'[1]NaOCl Pré'!F33</f>
         <v>2.327496294669801</v>
       </c>
@@ -8430,7 +8518,7 @@
         <f>[1]FeCl3!F33</f>
         <v>0</v>
       </c>
-      <c r="E32" s="4">
+      <c r="E32" s="42">
         <f>'[1]NaOCl 2 CEB 1'!I33</f>
         <v>8.8708349344019304</v>
       </c>
@@ -8438,15 +8526,15 @@
         <f>'[1]Soude CEB 1'!F33</f>
         <v>0</v>
       </c>
-      <c r="G32" s="4">
+      <c r="G32" s="42">
         <f>'[1]Acide CEB2'!F33</f>
         <v>0.30740517099414127</v>
       </c>
-      <c r="H32" s="4">
+      <c r="H32" s="42">
         <f>[1]SBS!G33</f>
         <v>1.8444310259647501</v>
       </c>
-      <c r="I32" s="4">
+      <c r="I32" s="42">
         <f>[1]ASC!F33</f>
         <v>4.5081517264093982</v>
       </c>
@@ -8457,7 +8545,7 @@
       <c r="A33" s="21">
         <v>45689</v>
       </c>
-      <c r="B33" s="4">
+      <c r="B33" s="42">
         <f>'[1]NaOCl Pré'!F34</f>
         <v>3.1692449329743981</v>
       </c>
@@ -8469,7 +8557,7 @@
         <f>[1]FeCl3!F34</f>
         <v>0</v>
       </c>
-      <c r="E33" s="4">
+      <c r="E33" s="42">
         <f>'[1]NaOCl 2 CEB 1'!I34</f>
         <v>9.7309210618086635</v>
       </c>
@@ -8477,15 +8565,15 @@
         <f>'[1]Soude CEB 1'!F34</f>
         <v>0</v>
       </c>
-      <c r="G33" s="4">
+      <c r="G33" s="42">
         <f>'[1]Acide CEB2'!F34</f>
         <v>0</v>
       </c>
-      <c r="H33" s="4">
+      <c r="H33" s="42">
         <f>[1]SBS!G34</f>
         <v>2.1872253762780902</v>
       </c>
-      <c r="I33" s="4">
+      <c r="I33" s="42">
         <f>[1]ASC!F34</f>
         <v>4.1847424291034923</v>
       </c>
@@ -8496,7 +8584,7 @@
       <c r="A34" s="21">
         <v>45690</v>
       </c>
-      <c r="B34" s="4">
+      <c r="B34" s="42">
         <f>'[1]NaOCl Pré'!F35</f>
         <v>2.9103225502955654</v>
       </c>
@@ -8508,7 +8596,7 @@
         <f>[1]FeCl3!F35</f>
         <v>0</v>
       </c>
-      <c r="E34" s="4">
+      <c r="E34" s="42">
         <f>'[1]NaOCl 2 CEB 1'!I35</f>
         <v>10.537374751070184</v>
       </c>
@@ -8516,15 +8604,15 @@
         <f>'[1]Soude CEB 1'!F35</f>
         <v>0</v>
       </c>
-      <c r="G34" s="4">
+      <c r="G34" s="42">
         <f>'[1]Acide CEB2'!F35</f>
         <v>0</v>
       </c>
-      <c r="H34" s="4">
+      <c r="H34" s="42">
         <f>[1]SBS!G35</f>
         <v>2.1576529252191219</v>
       </c>
-      <c r="I34" s="4">
+      <c r="I34" s="42">
         <f>[1]ASC!F35</f>
         <v>5.0099571919150687</v>
       </c>
@@ -8535,7 +8623,7 @@
       <c r="A35" s="21">
         <v>45691</v>
       </c>
-      <c r="B35" s="4">
+      <c r="B35" s="42">
         <f>'[1]NaOCl Pré'!F36</f>
         <v>1.9270898981835365</v>
       </c>
@@ -8547,7 +8635,7 @@
         <f>[1]FeCl3!F36</f>
         <v>0</v>
       </c>
-      <c r="E35" s="4">
+      <c r="E35" s="42">
         <f>'[1]NaOCl 2 CEB 1'!I36</f>
         <v>12.907020713415424</v>
       </c>
@@ -8555,15 +8643,15 @@
         <f>'[1]Soude CEB 1'!F36</f>
         <v>0</v>
       </c>
-      <c r="G35" s="4">
+      <c r="G35" s="42">
         <f>'[1]Acide CEB2'!F36</f>
         <v>0</v>
       </c>
-      <c r="H35" s="4">
+      <c r="H35" s="42">
         <f>[1]SBS!G36</f>
         <v>3.31358626388247</v>
       </c>
-      <c r="I35" s="4">
+      <c r="I35" s="42">
         <f>[1]ASC!F36</f>
         <v>4.4942089267957934</v>
       </c>
@@ -8574,7 +8662,7 @@
       <c r="A36" s="21">
         <v>45692</v>
       </c>
-      <c r="B36" s="4">
+      <c r="B36" s="42">
         <f>'[1]NaOCl Pré'!F37</f>
         <v>1.0228692645221704</v>
       </c>
@@ -8586,7 +8674,7 @@
         <f>[1]FeCl3!F37</f>
         <v>0</v>
       </c>
-      <c r="E36" s="4">
+      <c r="E36" s="42">
         <f>'[1]NaOCl 2 CEB 1'!I37</f>
         <v>11.948972771917591</v>
       </c>
@@ -8594,15 +8682,15 @@
         <f>'[1]Soude CEB 1'!F37</f>
         <v>0</v>
       </c>
-      <c r="G36" s="4">
+      <c r="G36" s="42">
         <f>'[1]Acide CEB2'!F37</f>
         <v>0</v>
       </c>
-      <c r="H36" s="4">
+      <c r="H36" s="42">
         <f>[1]SBS!G37</f>
         <v>2.3770086885769914</v>
       </c>
-      <c r="I36" s="4">
+      <c r="I36" s="42">
         <f>[1]ASC!F37</f>
         <v>4.7729055880045212</v>
       </c>
@@ -8613,7 +8701,7 @@
       <c r="A37" s="21">
         <v>45693</v>
       </c>
-      <c r="B37" s="4">
+      <c r="B37" s="42">
         <f>'[1]NaOCl Pré'!F38</f>
         <v>1.0665050749886282</v>
       </c>
@@ -8625,7 +8713,7 @@
         <f>[1]FeCl3!F38</f>
         <v>0</v>
       </c>
-      <c r="E37" s="4">
+      <c r="E37" s="42">
         <f>'[1]NaOCl 2 CEB 1'!I38</f>
         <v>9.7439781851234706</v>
       </c>
@@ -8633,15 +8721,15 @@
         <f>'[1]Soude CEB 1'!F38</f>
         <v>0</v>
       </c>
-      <c r="G37" s="4">
+      <c r="G37" s="42">
         <f>'[1]Acide CEB2'!F38</f>
         <v>0</v>
       </c>
-      <c r="H37" s="4">
+      <c r="H37" s="42">
         <f>[1]SBS!G38</f>
         <v>1.5028026056658041</v>
       </c>
-      <c r="I37" s="4">
+      <c r="I37" s="42">
         <f>[1]ASC!F38</f>
         <v>5.0674140281775806</v>
       </c>
@@ -8652,7 +8740,7 @@
       <c r="A38" s="21">
         <v>45694</v>
       </c>
-      <c r="B38" s="4">
+      <c r="B38" s="42">
         <f>'[1]NaOCl Pré'!F39</f>
         <v>5.7450628366247471</v>
       </c>
@@ -8664,7 +8752,7 @@
         <f>[1]FeCl3!F39</f>
         <v>0</v>
       </c>
-      <c r="E38" s="4">
+      <c r="E38" s="42">
         <f>'[1]NaOCl 2 CEB 1'!I39</f>
         <v>11.418312387791744</v>
       </c>
@@ -8672,15 +8760,15 @@
         <f>'[1]Soude CEB 1'!F39</f>
         <v>0</v>
       </c>
-      <c r="G38" s="4">
+      <c r="G38" s="42">
         <f>'[1]Acide CEB2'!F39</f>
         <v>0</v>
       </c>
-      <c r="H38" s="4">
+      <c r="H38" s="42">
         <f>[1]SBS!G39</f>
         <v>2.4189738259472757</v>
       </c>
-      <c r="I38" s="4">
+      <c r="I38" s="42">
         <f>[1]ASC!F39</f>
         <v>6.0096380988377351</v>
       </c>
@@ -8691,7 +8779,7 @@
       <c r="A39" s="21">
         <v>45695</v>
       </c>
-      <c r="B39" s="4">
+      <c r="B39" s="42">
         <f>'[1]NaOCl Pré'!F40</f>
         <v>13.148316651501357</v>
       </c>
@@ -8703,7 +8791,7 @@
         <f>[1]FeCl3!F40</f>
         <v>0</v>
       </c>
-      <c r="E39" s="4">
+      <c r="E39" s="42">
         <f>'[1]NaOCl 2 CEB 1'!I40</f>
         <v>7.6433121019108459</v>
       </c>
@@ -8711,15 +8799,15 @@
         <f>'[1]Soude CEB 1'!F40</f>
         <v>0</v>
       </c>
-      <c r="G39" s="4">
+      <c r="G39" s="42">
         <f>'[1]Acide CEB2'!F40</f>
         <v>0</v>
       </c>
-      <c r="H39" s="4">
+      <c r="H39" s="42">
         <f>[1]SBS!G40</f>
         <v>2.2292993630573319</v>
       </c>
-      <c r="I39" s="4">
+      <c r="I39" s="42">
         <f>[1]ASC!F40</f>
         <v>4.5638080072793414</v>
       </c>
@@ -8730,7 +8818,7 @@
       <c r="A40" s="21">
         <v>45696</v>
       </c>
-      <c r="B40" s="4">
+      <c r="B40" s="42">
         <f>'[1]NaOCl Pré'!F41</f>
         <v>0.4969651477306925</v>
       </c>
@@ -8742,7 +8830,7 @@
         <f>[1]FeCl3!F41</f>
         <v>0</v>
       </c>
-      <c r="E40" s="4">
+      <c r="E40" s="42">
         <f>'[1]NaOCl 2 CEB 1'!I41</f>
         <v>9.1938552330171195</v>
       </c>
@@ -8750,15 +8838,15 @@
         <f>'[1]Soude CEB 1'!F41</f>
         <v>0</v>
       </c>
-      <c r="G40" s="4">
+      <c r="G40" s="42">
         <f>'[1]Acide CEB2'!F41</f>
         <v>0</v>
       </c>
-      <c r="H40" s="4">
+      <c r="H40" s="42">
         <f>[1]SBS!G41</f>
         <v>2.0292743532335149</v>
       </c>
-      <c r="I40" s="4">
+      <c r="I40" s="42">
         <f>[1]ASC!F41</f>
         <v>3.9796037220618894</v>
       </c>
@@ -8769,7 +8857,7 @@
       <c r="A41" s="21">
         <v>45697</v>
       </c>
-      <c r="B41" s="4">
+      <c r="B41" s="42">
         <f>'[1]NaOCl Pré'!F42</f>
         <v>1.5397522578097631</v>
       </c>
@@ -8781,7 +8869,7 @@
         <f>[1]FeCl3!F42</f>
         <v>0</v>
       </c>
-      <c r="E41" s="4">
+      <c r="E41" s="42">
         <f>'[1]NaOCl 2 CEB 1'!I42</f>
         <v>7.6987612890490125</v>
       </c>
@@ -8789,15 +8877,15 @@
         <f>'[1]Soude CEB 1'!F42</f>
         <v>0</v>
       </c>
-      <c r="G41" s="4">
+      <c r="G41" s="42">
         <f>'[1]Acide CEB2'!F42</f>
         <v>0</v>
       </c>
-      <c r="H41" s="4">
+      <c r="H41" s="42">
         <f>[1]SBS!G42</f>
         <v>0.71065488821991751</v>
       </c>
-      <c r="I41" s="4">
+      <c r="I41" s="42">
         <f>[1]ASC!F42</f>
         <v>3.9789271085229321</v>
       </c>
@@ -8808,7 +8896,7 @@
       <c r="A42" s="21">
         <v>45698</v>
       </c>
-      <c r="B42" s="4">
+      <c r="B42" s="42">
         <f>'[1]NaOCl Pré'!F43</f>
         <v>2.2750971656081163</v>
       </c>
@@ -8820,7 +8908,7 @@
         <f>[1]FeCl3!F43</f>
         <v>0</v>
       </c>
-      <c r="E42" s="4">
+      <c r="E42" s="42">
         <f>'[1]NaOCl 2 CEB 1'!I43</f>
         <v>10.692956678358119</v>
       </c>
@@ -8828,15 +8916,15 @@
         <f>'[1]Soude CEB 1'!F43</f>
         <v>0</v>
       </c>
-      <c r="G42" s="4">
+      <c r="G42" s="42">
         <f>'[1]Acide CEB2'!F43</f>
         <v>0</v>
       </c>
-      <c r="H42" s="4">
+      <c r="H42" s="42">
         <f>[1]SBS!G43</f>
         <v>3.5643188927860319</v>
       </c>
-      <c r="I42" s="4">
+      <c r="I42" s="42">
         <f>[1]ASC!F43</f>
         <v>1.9907100199070968</v>
       </c>
@@ -8847,7 +8935,7 @@
       <c r="A43" s="21">
         <v>45699</v>
       </c>
-      <c r="B43" s="4">
+      <c r="B43" s="42">
         <f>'[1]NaOCl Pré'!F44</f>
         <v>2.9101644875580233</v>
       </c>
@@ -8859,7 +8947,7 @@
         <f>[1]FeCl3!F44</f>
         <v>0</v>
       </c>
-      <c r="E43" s="4">
+      <c r="E43" s="42">
         <f>'[1]NaOCl 2 CEB 1'!I44</f>
         <v>8.2243778996204444</v>
       </c>
@@ -8867,15 +8955,15 @@
         <f>'[1]Soude CEB 1'!F44</f>
         <v>0</v>
       </c>
-      <c r="G43" s="4">
+      <c r="G43" s="42">
         <f>'[1]Acide CEB2'!F44</f>
         <v>0</v>
       </c>
-      <c r="H43" s="4">
+      <c r="H43" s="42">
         <f>[1]SBS!G44</f>
         <v>0.46393926613242931</v>
       </c>
-      <c r="I43" s="4">
+      <c r="I43" s="42">
         <f>[1]ASC!F44</f>
         <v>6.1682834247153098</v>
       </c>
@@ -8886,7 +8974,7 @@
       <c r="A44" s="21">
         <v>45700</v>
       </c>
-      <c r="B44" s="4">
+      <c r="B44" s="42">
         <f>'[1]NaOCl Pré'!F45</f>
         <v>3.8106579339088782</v>
       </c>
@@ -8898,7 +8986,7 @@
         <f>[1]FeCl3!F45</f>
         <v>0</v>
       </c>
-      <c r="E44" s="4">
+      <c r="E44" s="42">
         <f>'[1]NaOCl 2 CEB 1'!I45</f>
         <v>10.876252853031605</v>
       </c>
@@ -8906,15 +8994,15 @@
         <f>'[1]Soude CEB 1'!F45</f>
         <v>0</v>
       </c>
-      <c r="G44" s="4">
+      <c r="G44" s="42">
         <f>'[1]Acide CEB2'!F45</f>
         <v>0</v>
       </c>
-      <c r="H44" s="4">
+      <c r="H44" s="42">
         <f>[1]SBS!G45</f>
         <v>6.3510965565147979</v>
       </c>
-      <c r="I44" s="4">
+      <c r="I44" s="42">
         <f>[1]ASC!F45</f>
         <v>3.2747841619529621</v>
       </c>
@@ -8925,7 +9013,7 @@
       <c r="A45" s="21">
         <v>45701</v>
       </c>
-      <c r="B45" s="4">
+      <c r="B45" s="42">
         <f>'[1]NaOCl Pré'!F46</f>
         <v>2.0032692240809507</v>
       </c>
@@ -8937,7 +9025,7 @@
         <f>[1]FeCl3!F46</f>
         <v>0</v>
       </c>
-      <c r="E45" s="4">
+      <c r="E45" s="42">
         <f>'[1]NaOCl 2 CEB 1'!I46</f>
         <v>11.94542018803835</v>
       </c>
@@ -8945,15 +9033,15 @@
         <f>'[1]Soude CEB 1'!F46</f>
         <v>0</v>
       </c>
-      <c r="G45" s="4">
+      <c r="G45" s="42">
         <f>'[1]Acide CEB2'!F46</f>
         <v>0.18548789111860808</v>
       </c>
-      <c r="H45" s="4">
+      <c r="H45" s="42">
         <f>[1]SBS!G46</f>
         <v>2.2629522716470141</v>
       </c>
-      <c r="I45" s="4">
+      <c r="I45" s="42">
         <f>[1]ASC!F46</f>
         <v>3.7909087747365486</v>
       </c>
@@ -8964,7 +9052,7 @@
       <c r="A46" s="21">
         <v>45702</v>
       </c>
-      <c r="B46" s="4">
+      <c r="B46" s="42">
         <f>'[1]NaOCl Pré'!F47</f>
         <v>2.4514104259078868</v>
       </c>
@@ -8976,7 +9064,7 @@
         <f>[1]FeCl3!F47</f>
         <v>0</v>
       </c>
-      <c r="E46" s="4">
+      <c r="E46" s="42">
         <f>'[1]NaOCl 2 CEB 1'!I47</f>
         <v>8.1450088344680189</v>
       </c>
@@ -8984,15 +9072,15 @@
         <f>'[1]Soude CEB 1'!F47</f>
         <v>0</v>
       </c>
-      <c r="G46" s="4">
+      <c r="G46" s="42">
         <f>'[1]Acide CEB2'!F47</f>
         <v>0.51400541188391324</v>
       </c>
-      <c r="H46" s="4">
+      <c r="H46" s="42">
         <f>[1]SBS!G47</f>
         <v>2.016482769698412</v>
       </c>
-      <c r="I46" s="4">
+      <c r="I46" s="42">
         <f>[1]ASC!F47</f>
         <v>3.8179728911568849</v>
       </c>
@@ -9003,7 +9091,7 @@
       <c r="A47" s="21">
         <v>45703</v>
       </c>
-      <c r="B47" s="4">
+      <c r="B47" s="42">
         <f>'[1]NaOCl Pré'!F48</f>
         <v>2.6314457770355548</v>
       </c>
@@ -9015,7 +9103,7 @@
         <f>[1]FeCl3!F48</f>
         <v>0</v>
       </c>
-      <c r="E47" s="4">
+      <c r="E47" s="42">
         <f>'[1]NaOCl 2 CEB 1'!I48</f>
         <v>10.201912858661021</v>
       </c>
@@ -9023,15 +9111,15 @@
         <f>'[1]Soude CEB 1'!F48</f>
         <v>0</v>
       </c>
-      <c r="G47" s="4">
+      <c r="G47" s="42">
         <f>'[1]Acide CEB2'!F48</f>
         <v>-8.0967562370338947E-2</v>
       </c>
-      <c r="H47" s="4">
+      <c r="H47" s="42">
         <f>[1]SBS!G48</f>
         <v>1.4574161226658537</v>
       </c>
-      <c r="I47" s="4">
+      <c r="I47" s="42">
         <f>[1]ASC!F48</f>
         <v>3.9471686655533547</v>
       </c>
@@ -9042,7 +9130,7 @@
       <c r="A48" s="21">
         <v>45704</v>
       </c>
-      <c r="B48" s="4">
+      <c r="B48" s="42">
         <f>'[1]NaOCl Pré'!F49</f>
         <v>2.7791563275434124</v>
       </c>
@@ -9054,7 +9142,7 @@
         <f>[1]FeCl3!F49</f>
         <v>0</v>
       </c>
-      <c r="E48" s="4">
+      <c r="E48" s="42">
         <f>'[1]NaOCl 2 CEB 1'!I49</f>
         <v>7.8081058726219492</v>
       </c>
@@ -9062,15 +9150,15 @@
         <f>'[1]Soude CEB 1'!F49</f>
         <v>0</v>
       </c>
-      <c r="G48" s="4">
+      <c r="G48" s="42">
         <f>'[1]Acide CEB2'!F49</f>
         <v>0</v>
       </c>
-      <c r="H48" s="4">
+      <c r="H48" s="42">
         <f>[1]SBS!G49</f>
         <v>1.632202922525495</v>
       </c>
-      <c r="I48" s="4">
+      <c r="I48" s="42">
         <f>[1]ASC!F49</f>
         <v>4.4251447477254011</v>
       </c>
@@ -9081,7 +9169,7 @@
       <c r="A49" s="21">
         <v>45705</v>
       </c>
-      <c r="B49" s="4">
+      <c r="B49" s="42">
         <f>'[1]NaOCl Pré'!F50</f>
         <v>2.3995715050883875</v>
       </c>
@@ -9093,7 +9181,7 @@
         <f>[1]FeCl3!F50</f>
         <v>0</v>
       </c>
-      <c r="E49" s="4">
+      <c r="E49" s="42">
         <f>'[1]NaOCl 2 CEB 1'!I50</f>
         <v>7.3510682616199858</v>
       </c>
@@ -9101,15 +9189,15 @@
         <f>'[1]Soude CEB 1'!F50</f>
         <v>0</v>
       </c>
-      <c r="G49" s="4">
+      <c r="G49" s="42">
         <f>'[1]Acide CEB2'!F50</f>
         <v>0.49514967565316609</v>
       </c>
-      <c r="H49" s="4">
+      <c r="H49" s="42">
         <f>[1]SBS!G50</f>
         <v>1.5997143367255986</v>
       </c>
-      <c r="I49" s="4">
+      <c r="I49" s="42">
         <f>[1]ASC!F50</f>
         <v>3.5707909301910372</v>
       </c>
@@ -9120,7 +9208,7 @@
       <c r="A50" s="21">
         <v>45706</v>
       </c>
-      <c r="B50" s="4">
+      <c r="B50" s="42">
         <f>'[1]NaOCl Pré'!F51</f>
         <v>2.605863192182404</v>
       </c>
@@ -9132,7 +9220,7 @@
         <f>[1]FeCl3!F51</f>
         <v>0</v>
       </c>
-      <c r="E50" s="4">
+      <c r="E50" s="42">
         <f>'[1]NaOCl 2 CEB 1'!I51</f>
         <v>9.3344353152802615</v>
       </c>
@@ -9140,15 +9228,15 @@
         <f>'[1]Soude CEB 1'!F51</f>
         <v>0</v>
       </c>
-      <c r="G50" s="4">
+      <c r="G50" s="42">
         <f>'[1]Acide CEB2'!F51</f>
         <v>0.11668044144101219</v>
       </c>
-      <c r="H50" s="4">
+      <c r="H50" s="42">
         <f>[1]SBS!G51</f>
         <v>1.6335261801740624</v>
       </c>
-      <c r="I50" s="4">
+      <c r="I50" s="42">
         <f>[1]ASC!F51</f>
         <v>3.7009577519568282</v>
       </c>
@@ -9159,7 +9247,7 @@
       <c r="A51" s="21">
         <v>45707</v>
       </c>
-      <c r="B51" s="4">
+      <c r="B51" s="42">
         <f>'[1]NaOCl Pré'!F52</f>
         <v>2.4198884582663829</v>
       </c>
@@ -9171,7 +9259,7 @@
         <f>[1]FeCl3!F52</f>
         <v>0</v>
       </c>
-      <c r="E51" s="4">
+      <c r="E51" s="42">
         <f>'[1]NaOCl 2 CEB 1'!I52</f>
         <v>7.5621514320824348</v>
       </c>
@@ -9179,15 +9267,15 @@
         <f>'[1]Soude CEB 1'!F52</f>
         <v>0</v>
       </c>
-      <c r="G51" s="4">
+      <c r="G51" s="42">
         <f>'[1]Acide CEB2'!F52</f>
         <v>0.11343227148120294</v>
       </c>
-      <c r="H51" s="4">
+      <c r="H51" s="42">
         <f>[1]SBS!G52</f>
         <v>0.83183665752905933</v>
       </c>
-      <c r="I51" s="4">
+      <c r="I51" s="42">
         <f>[1]ASC!F52</f>
         <v>3.6333774458833537</v>
       </c>
@@ -9198,7 +9286,7 @@
       <c r="A52" s="21">
         <v>45708</v>
       </c>
-      <c r="B52" s="4">
+      <c r="B52" s="42">
         <f>'[1]NaOCl Pré'!F53</f>
         <v>2.6478802018089196</v>
       </c>
@@ -9210,7 +9298,7 @@
         <f>[1]FeCl3!F53</f>
         <v>0</v>
       </c>
-      <c r="E52" s="4">
+      <c r="E52" s="42">
         <f>'[1]NaOCl 2 CEB 1'!I53</f>
         <v>9.7088940732993834</v>
       </c>
@@ -9218,15 +9306,15 @@
         <f>'[1]Soude CEB 1'!F53</f>
         <v>0</v>
       </c>
-      <c r="G52" s="4">
+      <c r="G52" s="42">
         <f>'[1]Acide CEB2'!F53</f>
         <v>0.33098502522614043</v>
       </c>
-      <c r="H52" s="4">
+      <c r="H52" s="42">
         <f>[1]SBS!G53</f>
         <v>1.2871639869904508</v>
       </c>
-      <c r="I52" s="4">
+      <c r="I52" s="42">
         <f>[1]ASC!F53</f>
         <v>3.7580591405881778</v>
       </c>
@@ -9237,7 +9325,7 @@
       <c r="A53" s="21">
         <v>45709</v>
       </c>
-      <c r="B53" s="4">
+      <c r="B53" s="42">
         <f>'[1]NaOCl Pré'!F54</f>
         <v>3.557294677397842</v>
       </c>
@@ -9249,7 +9337,7 @@
         <f>[1]FeCl3!F54</f>
         <v>0</v>
       </c>
-      <c r="E53" s="4">
+      <c r="E53" s="42">
         <f>'[1]NaOCl 2 CEB 1'!I54</f>
         <v>7.8971941838232027</v>
       </c>
@@ -9257,15 +9345,15 @@
         <f>'[1]Soude CEB 1'!F54</f>
         <v>0</v>
       </c>
-      <c r="G53" s="4">
+      <c r="G53" s="42">
         <f>'[1]Acide CEB2'!F54</f>
         <v>0.14229178709589788</v>
       </c>
-      <c r="H53" s="4">
+      <c r="H53" s="42">
         <f>[1]SBS!G54</f>
         <v>0.64031304193159966</v>
       </c>
-      <c r="I53" s="4">
+      <c r="I53" s="42">
         <f>[1]ASC!F54</f>
         <v>3.8018586864689459</v>
       </c>
@@ -9276,7 +9364,7 @@
       <c r="A54" s="21">
         <v>45710</v>
       </c>
-      <c r="B54" s="4">
+      <c r="B54" s="42">
         <f>'[1]NaOCl Pré'!F55</f>
         <v>2.6387672009483136</v>
       </c>
@@ -9288,7 +9376,7 @@
         <f>[1]FeCl3!F55</f>
         <v>0</v>
       </c>
-      <c r="E54" s="4">
+      <c r="E54" s="42">
         <f>'[1]NaOCl 2 CEB 1'!I55</f>
         <v>7.9987630778745666</v>
       </c>
@@ -9296,15 +9384,15 @@
         <f>'[1]Soude CEB 1'!F55</f>
         <v>0</v>
       </c>
-      <c r="G54" s="4">
+      <c r="G54" s="42">
         <f>'[1]Acide CEB2'!F55</f>
         <v>0.12369221254446115</v>
       </c>
-      <c r="H54" s="4">
+      <c r="H54" s="42">
         <f>[1]SBS!G55</f>
         <v>3.9169200639076465</v>
       </c>
-      <c r="I54" s="4">
+      <c r="I54" s="42">
         <f>[1]ASC!F55</f>
         <v>3.6721125599134168</v>
       </c>
@@ -9315,7 +9403,7 @@
       <c r="A55" s="21">
         <v>45711</v>
       </c>
-      <c r="B55" s="4">
+      <c r="B55" s="42">
         <f>'[1]NaOCl Pré'!F56</f>
         <v>1.8930110707343712</v>
       </c>
@@ -9327,7 +9415,7 @@
         <f>[1]FeCl3!F56</f>
         <v>0</v>
       </c>
-      <c r="E55" s="4">
+      <c r="E55" s="42">
         <f>'[1]NaOCl 2 CEB 1'!I56</f>
         <v>5.2154386642681922</v>
       </c>
@@ -9335,15 +9423,15 @@
         <f>'[1]Soude CEB 1'!F56</f>
         <v>0</v>
       </c>
-      <c r="G55" s="4">
+      <c r="G55" s="42">
         <f>'[1]Acide CEB2'!F56</f>
         <v>0.42496166894036869</v>
       </c>
-      <c r="H55" s="4">
+      <c r="H55" s="42">
         <f>[1]SBS!G56</f>
         <v>25.265902862454865</v>
       </c>
-      <c r="I55" s="4">
+      <c r="I55" s="42">
         <f>[1]ASC!F56</f>
         <v>4.1288889425456716</v>
       </c>
@@ -9354,7 +9442,7 @@
       <c r="A56" s="21">
         <v>45712</v>
       </c>
-      <c r="B56" s="4">
+      <c r="B56" s="42">
         <f>'[1]NaOCl Pré'!F57</f>
         <v>2.2053522201959388</v>
       </c>
@@ -9366,7 +9454,7 @@
         <f>[1]FeCl3!F57</f>
         <v>0</v>
       </c>
-      <c r="E56" s="4">
+      <c r="E56" s="42">
         <f>'[1]NaOCl 2 CEB 1'!I57</f>
         <v>6.6160566605878355</v>
       </c>
@@ -9374,15 +9462,15 @@
         <f>'[1]Soude CEB 1'!F57</f>
         <v>0</v>
       </c>
-      <c r="G56" s="4">
+      <c r="G56" s="42">
         <f>'[1]Acide CEB2'!F57</f>
         <v>3.3928495695318375E-2</v>
       </c>
-      <c r="H56" s="4">
+      <c r="H56" s="42">
         <f>[1]SBS!G57</f>
         <v>4.783917893040436</v>
       </c>
-      <c r="I56" s="4">
+      <c r="I56" s="42">
         <f>[1]ASC!F57</f>
         <v>3.467068153865728</v>
       </c>
@@ -9393,7 +9481,7 @@
       <c r="A57" s="21">
         <v>45713</v>
       </c>
-      <c r="B57" s="4">
+      <c r="B57" s="42">
         <f>'[1]NaOCl Pré'!F58</f>
         <v>1.9352788626136568</v>
       </c>
@@ -9405,7 +9493,7 @@
         <f>[1]FeCl3!F58</f>
         <v>0</v>
       </c>
-      <c r="E57" s="4">
+      <c r="E57" s="42">
         <f>'[1]NaOCl 2 CEB 1'!I58</f>
         <v>8.0363274803448039</v>
       </c>
@@ -9413,15 +9501,15 @@
         <f>'[1]Soude CEB 1'!F58</f>
         <v>0</v>
       </c>
-      <c r="G57" s="4">
+      <c r="G57" s="42">
         <f>'[1]Acide CEB2'!F58</f>
         <v>0.26241069323577509</v>
       </c>
-      <c r="H57" s="4">
+      <c r="H57" s="42">
         <f>[1]SBS!G58</f>
         <v>1.6441669998052419</v>
       </c>
-      <c r="I57" s="4">
+      <c r="I57" s="42">
         <f>[1]ASC!F58</f>
         <v>3.3826378424920818</v>
       </c>
@@ -9432,7 +9520,7 @@
       <c r="A58" s="21">
         <v>45714</v>
       </c>
-      <c r="B58" s="4">
+      <c r="B58" s="42">
         <f>'[1]NaOCl Pré'!F59</f>
         <v>2.1416051415520356</v>
       </c>
@@ -9444,7 +9532,7 @@
         <f>[1]FeCl3!F59</f>
         <v>0</v>
       </c>
-      <c r="E58" s="4">
+      <c r="E58" s="42">
         <f>'[1]NaOCl 2 CEB 1'!I59</f>
         <v>6.8667339459287371</v>
       </c>
@@ -9452,15 +9540,15 @@
         <f>'[1]Soude CEB 1'!F59</f>
         <v>0</v>
       </c>
-      <c r="G58" s="4">
+      <c r="G58" s="42">
         <f>'[1]Acide CEB2'!F59</f>
         <v>0.78185584532850683</v>
       </c>
-      <c r="H58" s="4">
+      <c r="H58" s="42">
         <f>[1]SBS!G59</f>
         <v>1.52971795825143</v>
       </c>
-      <c r="I58" s="4">
+      <c r="I58" s="42">
         <f>[1]ASC!F59</f>
         <v>3.7127529611727734</v>
       </c>
@@ -9471,7 +9559,7 @@
       <c r="A59" s="21">
         <v>45715</v>
       </c>
-      <c r="B59" s="4">
+      <c r="B59" s="42">
         <f>'[1]NaOCl Pré'!F60</f>
         <v>2.2074118096531645</v>
       </c>
@@ -9483,7 +9571,7 @@
         <f>[1]FeCl3!F60</f>
         <v>0</v>
       </c>
-      <c r="E59" s="4">
+      <c r="E59" s="42">
         <f>'[1]NaOCl 2 CEB 1'!I60</f>
         <v>5.9769919769070778</v>
       </c>
@@ -9491,15 +9579,15 @@
         <f>'[1]Soude CEB 1'!F60</f>
         <v>0</v>
       </c>
-      <c r="G59" s="4">
+      <c r="G59" s="42">
         <f>'[1]Acide CEB2'!F60</f>
         <v>3.3960181686949434E-2</v>
       </c>
-      <c r="H59" s="4">
+      <c r="H59" s="42">
         <f>[1]SBS!G60</f>
         <v>1.9357303561574186</v>
       </c>
-      <c r="I59" s="4">
+      <c r="I59" s="42">
         <f>[1]ASC!F60</f>
         <v>3.7250074287897532</v>
       </c>
@@ -9510,7 +9598,7 @@
       <c r="A60" s="21">
         <v>45716</v>
       </c>
-      <c r="B60" s="4">
+      <c r="B60" s="42">
         <f>'[1]NaOCl Pré'!F61</f>
         <v>2.1022336232246852</v>
       </c>
@@ -9522,7 +9610,7 @@
         <f>[1]FeCl3!F61</f>
         <v>0</v>
       </c>
-      <c r="E60" s="4">
+      <c r="E60" s="42">
         <f>'[1]NaOCl 2 CEB 1'!I61</f>
         <v>6.7738638970572742</v>
       </c>
@@ -9530,15 +9618,15 @@
         <f>'[1]Soude CEB 1'!F61</f>
         <v>0</v>
       </c>
-      <c r="G60" s="4">
+      <c r="G60" s="42">
         <f>'[1]Acide CEB2'!F61</f>
         <v>0.50053181505349476</v>
       </c>
-      <c r="H60" s="4">
+      <c r="H60" s="42">
         <f>[1]SBS!G61</f>
         <v>1.7685457465223371</v>
       </c>
-      <c r="I60" s="4">
+      <c r="I60" s="42">
         <f>[1]ASC!F61</f>
         <v>3.5975724206969883</v>
       </c>
@@ -9549,7 +9637,7 @@
       <c r="A61" s="21">
         <v>45717</v>
       </c>
-      <c r="B61" s="4">
+      <c r="B61" s="42">
         <f>'[1]NaOCl Pré'!F62</f>
         <v>2.2259271936313847</v>
       </c>
@@ -9561,7 +9649,7 @@
         <f>[1]FeCl3!F62</f>
         <v>0</v>
       </c>
-      <c r="E61" s="4">
+      <c r="E61" s="42">
         <f>'[1]NaOCl 2 CEB 1'!I62</f>
         <v>6.9957711799843256</v>
       </c>
@@ -9569,15 +9657,15 @@
         <f>'[1]Soude CEB 1'!F62</f>
         <v>0</v>
       </c>
-      <c r="G61" s="4">
+      <c r="G61" s="42">
         <f>'[1]Acide CEB2'!F62</f>
         <v>-7.0664355353369207E-2</v>
       </c>
-      <c r="H61" s="4">
+      <c r="H61" s="42">
         <f>[1]SBS!G62</f>
         <v>2.5439167927215856</v>
       </c>
-      <c r="I61" s="4">
+      <c r="I61" s="42">
         <f>[1]ASC!F62</f>
         <v>3.7098786560522949</v>
       </c>
@@ -9588,7 +9676,7 @@
       <c r="A62" s="21">
         <v>45718</v>
       </c>
-      <c r="B62" s="4">
+      <c r="B62" s="42">
         <f>'[1]NaOCl Pré'!F63</f>
         <v>2.2444081578976069</v>
       </c>
@@ -9600,7 +9688,7 @@
         <f>[1]FeCl3!F63</f>
         <v>0</v>
       </c>
-      <c r="E62" s="4">
+      <c r="E62" s="42">
         <f>'[1]NaOCl 2 CEB 1'!I63</f>
         <v>6.7332244736928706</v>
       </c>
@@ -9608,15 +9696,15 @@
         <f>'[1]Soude CEB 1'!F63</f>
         <v>0</v>
       </c>
-      <c r="G62" s="4">
+      <c r="G62" s="42">
         <f>'[1]Acide CEB2'!F63</f>
         <v>0.31561989720435707</v>
       </c>
-      <c r="H62" s="4">
+      <c r="H62" s="42">
         <f>[1]SBS!G63</f>
         <v>1.8937193832261037</v>
       </c>
-      <c r="I62" s="4">
+      <c r="I62" s="42">
         <f>[1]ASC!F63</f>
         <v>3.5671623798616863</v>
       </c>
@@ -9627,7 +9715,7 @@
       <c r="A63" s="21">
         <v>45719</v>
       </c>
-      <c r="B63" s="4">
+      <c r="B63" s="42">
         <f>'[1]NaOCl Pré'!F64</f>
         <v>2.2871913368711692</v>
       </c>
@@ -9639,7 +9727,7 @@
         <f>[1]FeCl3!F64</f>
         <v>0</v>
       </c>
-      <c r="E63" s="4">
+      <c r="E63" s="42">
         <f>'[1]NaOCl 2 CEB 1'!I64</f>
         <v>6.6735856815555978</v>
       </c>
@@ -9647,15 +9735,15 @@
         <f>'[1]Soude CEB 1'!F64</f>
         <v>0</v>
       </c>
-      <c r="G63" s="4">
+      <c r="G63" s="42">
         <f>'[1]Acide CEB2'!F64</f>
         <v>0.187988329057901</v>
       </c>
-      <c r="H63" s="4">
+      <c r="H63" s="42">
         <f>[1]SBS!G64</f>
         <v>1.7232263496974751</v>
       </c>
-      <c r="I63" s="4">
+      <c r="I63" s="42">
         <f>[1]ASC!F64</f>
         <v>3.495407993420419</v>
       </c>
@@ -9666,7 +9754,7 @@
       <c r="A64" s="21">
         <v>45720</v>
       </c>
-      <c r="B64" s="4">
+      <c r="B64" s="42">
         <f>'[1]NaOCl Pré'!F65</f>
         <v>2.4312750379886907</v>
       </c>
@@ -9678,7 +9766,7 @@
         <f>[1]FeCl3!F65</f>
         <v>0</v>
       </c>
-      <c r="E64" s="4">
+      <c r="E64" s="42">
         <f>'[1]NaOCl 2 CEB 1'!I65</f>
         <v>5.9676750932449316</v>
       </c>
@@ -9686,15 +9774,15 @@
         <f>'[1]Soude CEB 1'!F65</f>
         <v>0</v>
       </c>
-      <c r="G64" s="4">
+      <c r="G64" s="42">
         <f>'[1]Acide CEB2'!F65</f>
         <v>0.11051250172676612</v>
       </c>
-      <c r="H64" s="4">
+      <c r="H64" s="42">
         <f>[1]SBS!G65</f>
         <v>2.0629000322327902</v>
       </c>
-      <c r="I64" s="4">
+      <c r="I64" s="42">
         <f>[1]ASC!F65</f>
         <v>3.7125293548832712</v>
       </c>
@@ -9705,7 +9793,7 @@
       <c r="A65" s="21">
         <v>45721</v>
       </c>
-      <c r="B65" s="4">
+      <c r="B65" s="42">
         <f>'[1]NaOCl Pré'!F66</f>
         <v>2.2608554650853008</v>
       </c>
@@ -9717,7 +9805,7 @@
         <f>[1]FeCl3!F66</f>
         <v>0</v>
       </c>
-      <c r="E65" s="4">
+      <c r="E65" s="42">
         <f>'[1]NaOCl 2 CEB 1'!I66</f>
         <v>6.4489975561449526</v>
       </c>
@@ -9725,15 +9813,15 @@
         <f>'[1]Soude CEB 1'!F66</f>
         <v>0</v>
       </c>
-      <c r="G65" s="4">
+      <c r="G65" s="42">
         <f>'[1]Acide CEB2'!F66</f>
         <v>0.25944243041961695</v>
       </c>
-      <c r="H65" s="4">
+      <c r="H65" s="42">
         <f>[1]SBS!G66</f>
         <v>7.0420088256755617</v>
       </c>
-      <c r="I65" s="4">
+      <c r="I65" s="42">
         <f>[1]ASC!F66</f>
         <v>4.065370226664669</v>
       </c>
@@ -9744,7 +9832,7 @@
       <c r="A66" s="21">
         <v>45722</v>
       </c>
-      <c r="B66" s="4">
+      <c r="B66" s="42">
         <f>'[1]NaOCl Pré'!F67</f>
         <v>2.1678584870154216</v>
       </c>
@@ -9756,7 +9844,7 @@
         <f>[1]FeCl3!F67</f>
         <v>0</v>
       </c>
-      <c r="E66" s="4">
+      <c r="E66" s="42">
         <f>'[1]NaOCl 2 CEB 1'!I67</f>
         <v>8.7402548524114216</v>
       </c>
@@ -9764,15 +9852,15 @@
         <f>'[1]Soude CEB 1'!F67</f>
         <v>0</v>
       </c>
-      <c r="G66" s="4">
+      <c r="G66" s="42">
         <f>'[1]Acide CEB2'!F67</f>
         <v>0.309694069573618</v>
       </c>
-      <c r="H66" s="4">
+      <c r="H66" s="42">
         <f>[1]SBS!G67</f>
         <v>3.131351147911158</v>
       </c>
-      <c r="I66" s="4">
+      <c r="I66" s="42">
         <f>[1]ASC!F67</f>
         <v>3.9195655680412789</v>
       </c>
@@ -9783,7 +9871,7 @@
       <c r="A67" s="21">
         <v>45723</v>
       </c>
-      <c r="B67" s="4">
+      <c r="B67" s="42">
         <f>'[1]NaOCl Pré'!F68</f>
         <v>2.1104903786468117</v>
       </c>
@@ -9795,7 +9883,7 @@
         <f>[1]FeCl3!F68</f>
         <v>0</v>
       </c>
-      <c r="E67" s="4">
+      <c r="E67" s="42">
         <f>'[1]NaOCl 2 CEB 1'!I68</f>
         <v>6.6728739913097437</v>
       </c>
@@ -9803,15 +9891,15 @@
         <f>'[1]Soude CEB 1'!F68</f>
         <v>0</v>
       </c>
-      <c r="G67" s="4">
+      <c r="G67" s="42">
         <f>'[1]Acide CEB2'!F68</f>
         <v>3.1036623215425201E-2</v>
       </c>
-      <c r="H67" s="4">
+      <c r="H67" s="42">
         <f>[1]SBS!G68</f>
         <v>1.4587212911235201</v>
       </c>
-      <c r="I67" s="4">
+      <c r="I67" s="42">
         <f>[1]ASC!F68</f>
         <v>3.3606843575418974</v>
       </c>
@@ -9822,7 +9910,7 @@
       <c r="A68" s="21">
         <v>45724</v>
       </c>
-      <c r="B68" s="4">
+      <c r="B68" s="42">
         <f>'[1]NaOCl Pré'!F69</f>
         <v>2.1647483283986015</v>
       </c>
@@ -9834,7 +9922,7 @@
         <f>[1]FeCl3!F69</f>
         <v>0</v>
       </c>
-      <c r="E68" s="4">
+      <c r="E68" s="42">
         <f>'[1]NaOCl 2 CEB 1'!I69</f>
         <v>6.9020961195317616</v>
       </c>
@@ -9842,15 +9930,15 @@
         <f>'[1]Soude CEB 1'!F69</f>
         <v>0</v>
       </c>
-      <c r="G68" s="4">
+      <c r="G68" s="42">
         <f>'[1]Acide CEB2'!F69</f>
         <v>0.4392242985156436</v>
       </c>
-      <c r="H68" s="4">
+      <c r="H68" s="42">
         <f>[1]SBS!G69</f>
         <v>0.97256808957039853</v>
       </c>
-      <c r="I68" s="4">
+      <c r="I68" s="42">
         <f>[1]ASC!F69</f>
         <v>3.3383007509951308</v>
       </c>
@@ -9861,7 +9949,7 @@
       <c r="A69" s="21">
         <v>45725</v>
       </c>
-      <c r="B69" s="4">
+      <c r="B69" s="42">
         <f>'[1]NaOCl Pré'!F70</f>
         <v>2.0587894065159822</v>
       </c>
@@ -9873,7 +9961,7 @@
         <f>[1]FeCl3!F70</f>
         <v>0</v>
       </c>
-      <c r="E69" s="4">
+      <c r="E69" s="42">
         <f>'[1]NaOCl 2 CEB 1'!I70</f>
         <v>5.7376098214379754</v>
       </c>
@@ -9881,15 +9969,15 @@
         <f>'[1]Soude CEB 1'!F70</f>
         <v>0</v>
       </c>
-      <c r="G69" s="4">
+      <c r="G69" s="42">
         <f>'[1]Acide CEB2'!F70</f>
         <v>0.13500258403383891</v>
       </c>
-      <c r="H69" s="4">
+      <c r="H69" s="42">
         <f>[1]SBS!G70</f>
         <v>0.16875323004227519</v>
       </c>
-      <c r="I69" s="4">
+      <c r="I69" s="42">
         <f>[1]ASC!F70</f>
         <v>3.5596384462046293</v>
       </c>
@@ -9900,7 +9988,7 @@
       <c r="A70" s="21">
         <v>45726</v>
       </c>
-      <c r="B70" s="4">
+      <c r="B70" s="42">
         <f>'[1]NaOCl Pré'!F71</f>
         <v>2.7415725203047945</v>
       </c>
@@ -9912,7 +10000,7 @@
         <f>[1]FeCl3!F71</f>
         <v>0</v>
       </c>
-      <c r="E70" s="4">
+      <c r="E70" s="42">
         <f>'[1]NaOCl 2 CEB 1'!I71</f>
         <v>8.078500359831402</v>
       </c>
@@ -9920,15 +10008,15 @@
         <f>'[1]Soude CEB 1'!F71</f>
         <v>0</v>
       </c>
-      <c r="G70" s="4">
+      <c r="G70" s="42">
         <f>'[1]Acide CEB2'!F71</f>
         <v>0.10966290081219908</v>
       </c>
-      <c r="H70" s="4">
+      <c r="H70" s="42">
         <f>[1]SBS!G71</f>
         <v>0.65797740487315393</v>
       </c>
-      <c r="I70" s="4">
+      <c r="I70" s="42">
         <f>[1]ASC!F71</f>
         <v>3.786797043670957</v>
       </c>
@@ -9939,7 +10027,7 @@
       <c r="A71" s="21">
         <v>45727</v>
       </c>
-      <c r="B71" s="4">
+      <c r="B71" s="42">
         <f>'[1]NaOCl Pré'!F72</f>
         <v>2.6021867774424812</v>
       </c>
@@ -9951,7 +10039,7 @@
         <f>[1]FeCl3!F72</f>
         <v>0</v>
       </c>
-      <c r="E71" s="4">
+      <c r="E71" s="42">
         <f>'[1]NaOCl 2 CEB 1'!I72</f>
         <v>7.555747148959524</v>
       </c>
@@ -9959,15 +10047,15 @@
         <f>'[1]Soude CEB 1'!F72</f>
         <v>0</v>
       </c>
-      <c r="G71" s="4">
+      <c r="G71" s="42">
         <f>'[1]Acide CEB2'!F72</f>
         <v>9.4054943762953772E-2</v>
       </c>
-      <c r="H71" s="4">
+      <c r="H71" s="42">
         <f>[1]SBS!G72</f>
         <v>1.8183955794176516</v>
       </c>
-      <c r="I71" s="4">
+      <c r="I71" s="42">
         <f>[1]ASC!F72</f>
         <v>3.2772269467413881</v>
       </c>
@@ -9978,7 +10066,7 @@
       <c r="A72" s="21">
         <v>45728</v>
       </c>
-      <c r="B72" s="4">
+      <c r="B72" s="42">
         <f>'[1]NaOCl Pré'!F73</f>
         <v>2.531882775493187</v>
       </c>
@@ -9990,7 +10078,7 @@
         <f>[1]FeCl3!F73</f>
         <v>0</v>
       </c>
-      <c r="E72" s="4">
+      <c r="E72" s="42">
         <f>'[1]NaOCl 2 CEB 1'!I73</f>
         <v>7.7955338087553985</v>
       </c>
@@ -9998,15 +10086,15 @@
         <f>'[1]Soude CEB 1'!F73</f>
         <v>0</v>
       </c>
-      <c r="G72" s="4">
+      <c r="G72" s="42">
         <f>'[1]Acide CEB2'!F73</f>
         <v>0</v>
       </c>
-      <c r="H72" s="4">
+      <c r="H72" s="42">
         <f>[1]SBS!G73</f>
         <v>4.6306803393889</v>
       </c>
-      <c r="I72" s="4">
+      <c r="I72" s="42">
         <f>[1]ASC!F73</f>
         <v>3.6073083129457064</v>
       </c>
@@ -10017,7 +10105,7 @@
       <c r="A73" s="21">
         <v>45729</v>
       </c>
-      <c r="B73" s="4">
+      <c r="B73" s="42">
         <f>'[1]NaOCl Pré'!F74</f>
         <v>3.0467656118734476</v>
       </c>
@@ -10029,7 +10117,7 @@
         <f>[1]FeCl3!F74</f>
         <v>0</v>
       </c>
-      <c r="E73" s="4">
+      <c r="E73" s="42">
         <f>'[1]NaOCl 2 CEB 1'!I74</f>
         <v>6.4519742369084288</v>
       </c>
@@ -10037,15 +10125,15 @@
         <f>'[1]Soude CEB 1'!F74</f>
         <v>0</v>
       </c>
-      <c r="G73" s="4">
+      <c r="G73" s="42">
         <f>'[1]Acide CEB2'!F74</f>
         <v>0.3584430131615996</v>
       </c>
-      <c r="H73" s="4">
+      <c r="H73" s="42">
         <f>[1]SBS!G74</f>
         <v>1.2187062447493551</v>
       </c>
-      <c r="I73" s="4">
+      <c r="I73" s="42">
         <f>[1]ASC!F74</f>
         <v>3.8980677681321745</v>
       </c>
@@ -10056,7 +10144,7 @@
       <c r="A74" s="21">
         <v>45730</v>
       </c>
-      <c r="B74" s="4">
+      <c r="B74" s="42">
         <f>'[1]NaOCl Pré'!F75</f>
         <v>2.8606372173047823</v>
       </c>
@@ -10068,7 +10156,7 @@
         <f>[1]FeCl3!F75</f>
         <v>0</v>
       </c>
-      <c r="E74" s="4">
+      <c r="E74" s="42">
         <f>'[1]NaOCl 2 CEB 1'!I75</f>
         <v>6.9318629381646231</v>
       </c>
@@ -10076,15 +10164,15 @@
         <f>'[1]Soude CEB 1'!F75</f>
         <v>0</v>
       </c>
-      <c r="G74" s="4">
+      <c r="G74" s="42">
         <f>'[1]Acide CEB2'!F75</f>
         <v>3.3166808316591946E-2</v>
       </c>
-      <c r="H74" s="4">
+      <c r="H74" s="42">
         <f>[1]SBS!G75</f>
         <v>4.6433531643208097</v>
       </c>
-      <c r="I74" s="4">
+      <c r="I74" s="42">
         <f>[1]ASC!F75</f>
         <v>3.4825148732406075</v>
       </c>
@@ -10095,7 +10183,7 @@
       <c r="A75" s="21">
         <v>45731</v>
       </c>
-      <c r="B75" s="4">
+      <c r="B75" s="42">
         <f>'[1]NaOCl Pré'!F76</f>
         <v>2.0061228541276854</v>
       </c>
@@ -10107,7 +10195,7 @@
         <f>[1]FeCl3!F76</f>
         <v>0</v>
       </c>
-      <c r="E75" s="4">
+      <c r="E75" s="42">
         <f>'[1]NaOCl 2 CEB 1'!I76</f>
         <v>4.2212168388937066</v>
       </c>
@@ -10115,15 +10203,15 @@
         <f>'[1]Soude CEB 1'!F76</f>
         <v>0</v>
       </c>
-      <c r="G75" s="4">
+      <c r="G75" s="42">
         <f>'[1]Acide CEB2'!F76</f>
         <v>6.6870761804230808E-2</v>
       </c>
-      <c r="H75" s="4">
+      <c r="H75" s="42">
         <f>[1]SBS!G76</f>
         <v>6.2524162286980047</v>
       </c>
-      <c r="I75" s="4">
+      <c r="I75" s="42">
         <f>[1]ASC!F76</f>
         <v>3.3853323163404978</v>
       </c>
@@ -10134,7 +10222,7 @@
       <c r="A76" s="21">
         <v>45732</v>
       </c>
-      <c r="B76" s="4">
+      <c r="B76" s="42">
         <f>'[1]NaOCl Pré'!F77</f>
         <v>5.8303943400850278</v>
       </c>
@@ -10146,7 +10234,7 @@
         <f>[1]FeCl3!F77</f>
         <v>0</v>
       </c>
-      <c r="E76" s="4">
+      <c r="E76" s="42">
         <f>'[1]NaOCl 2 CEB 1'!I77</f>
         <v>8.3193930934546501</v>
       </c>
@@ -10154,15 +10242,15 @@
         <f>'[1]Soude CEB 1'!F77</f>
         <v>0</v>
       </c>
-      <c r="G76" s="4">
+      <c r="G76" s="42">
         <f>'[1]Acide CEB2'!F77</f>
         <v>0.2045752400029987</v>
       </c>
-      <c r="H76" s="4">
+      <c r="H76" s="42">
         <f>[1]SBS!G77</f>
         <v>8.5921600801253017</v>
       </c>
-      <c r="I76" s="4">
+      <c r="I76" s="42">
         <f>[1]ASC!F77</f>
         <v>3.8198033094306987</v>
       </c>
@@ -10173,7 +10261,7 @@
       <c r="A77" s="21">
         <v>45733</v>
       </c>
-      <c r="B77" s="4">
+      <c r="B77" s="42">
         <f>'[1]NaOCl Pré'!F78</f>
         <v>0.40313806333390223</v>
       </c>
@@ -10185,7 +10273,7 @@
         <f>[1]FeCl3!F78</f>
         <v>0</v>
       </c>
-      <c r="E77" s="4">
+      <c r="E77" s="42">
         <f>'[1]NaOCl 2 CEB 1'!I78</f>
         <v>6.6334535875851799</v>
       </c>
@@ -10193,15 +10281,15 @@
         <f>'[1]Soude CEB 1'!F78</f>
         <v>0</v>
       </c>
-      <c r="G77" s="4">
+      <c r="G77" s="42">
         <f>'[1]Acide CEB2'!F78</f>
         <v>0.21989348909119724</v>
       </c>
-      <c r="H77" s="4">
+      <c r="H77" s="42">
         <f>[1]SBS!G78</f>
         <v>8.172708011223726</v>
       </c>
-      <c r="I77" s="4">
+      <c r="I77" s="42">
         <f>[1]ASC!F78</f>
         <v>3.9683903109431555</v>
       </c>
@@ -10212,7 +10300,7 @@
       <c r="A78" s="21">
         <v>45734</v>
       </c>
-      <c r="B78" s="4">
+      <c r="B78" s="42">
         <f>'[1]NaOCl Pré'!F79</f>
         <v>2.4805941693466504</v>
       </c>
@@ -10224,7 +10312,7 @@
         <f>[1]FeCl3!F79</f>
         <v>0</v>
       </c>
-      <c r="E78" s="4">
+      <c r="E78" s="42">
         <f>'[1]NaOCl 2 CEB 1'!I79</f>
         <v>6.0904453127455183</v>
       </c>
@@ -10232,15 +10320,15 @@
         <f>'[1]Soude CEB 1'!F79</f>
         <v>0</v>
       </c>
-      <c r="G78" s="4">
+      <c r="G78" s="42">
         <f>'[1]Acide CEB2'!F79</f>
         <v>0.10056462848703365</v>
       </c>
-      <c r="H78" s="4">
+      <c r="H78" s="42">
         <f>[1]SBS!G79</f>
         <v>8.5479934213972264</v>
       </c>
-      <c r="I78" s="4">
+      <c r="I78" s="42">
         <f>[1]ASC!F79</f>
         <v>3.5511884434480954</v>
       </c>
@@ -10251,7 +10339,7 @@
       <c r="A79" s="21">
         <v>45735</v>
       </c>
-      <c r="B79" s="4">
+      <c r="B79" s="42">
         <f>'[1]NaOCl Pré'!F80</f>
         <v>1.6574365512570344</v>
       </c>
@@ -10263,7 +10351,7 @@
         <f>[1]FeCl3!F80</f>
         <v>0</v>
       </c>
-      <c r="E79" s="4">
+      <c r="E79" s="42">
         <f>'[1]NaOCl 2 CEB 1'!I80</f>
         <v>6.5022510857006175</v>
       </c>
@@ -10271,15 +10359,15 @@
         <f>'[1]Soude CEB 1'!F80</f>
         <v>0</v>
       </c>
-      <c r="G79" s="4">
+      <c r="G79" s="42">
         <f>'[1]Acide CEB2'!F80</f>
         <v>0.1912426789912092</v>
       </c>
-      <c r="H79" s="4">
+      <c r="H79" s="42">
         <f>[1]SBS!G80</f>
         <v>15.140045420136255</v>
       </c>
-      <c r="I79" s="4">
+      <c r="I79" s="42">
         <f>[1]ASC!F80</f>
         <v>3.3616877166421006</v>
       </c>
@@ -10290,7 +10378,7 @@
       <c r="A80" s="21">
         <v>45736</v>
       </c>
-      <c r="B80" s="4">
+      <c r="B80" s="42">
         <f>'[1]NaOCl Pré'!F81</f>
         <v>0</v>
       </c>
@@ -10302,7 +10390,7 @@
         <f>[1]FeCl3!F81</f>
         <v>0</v>
       </c>
-      <c r="E80" s="4">
+      <c r="E80" s="42">
         <f>'[1]NaOCl 2 CEB 1'!I81</f>
         <v>7.6162288814897838</v>
       </c>
@@ -10310,15 +10398,15 @@
         <f>'[1]Soude CEB 1'!F81</f>
         <v>0</v>
       </c>
-      <c r="G80" s="4">
+      <c r="G80" s="42">
         <f>'[1]Acide CEB2'!F81</f>
         <v>1.1838697743248034</v>
       </c>
-      <c r="H80" s="4">
+      <c r="H80" s="42">
         <f>[1]SBS!G81</f>
         <v>22.49352571217166</v>
       </c>
-      <c r="I80" s="4">
+      <c r="I80" s="42">
         <f>[1]ASC!F81</f>
         <v>4.0880503144654101</v>
       </c>
@@ -10329,7 +10417,7 @@
       <c r="A81" s="21">
         <v>45737</v>
       </c>
-      <c r="B81" s="4">
+      <c r="B81" s="42">
         <f>'[1]NaOCl Pré'!F82</f>
         <v>2.0088515019303452</v>
       </c>
@@ -10341,7 +10429,7 @@
         <f>[1]FeCl3!F82</f>
         <v>0</v>
       </c>
-      <c r="E81" s="4">
+      <c r="E81" s="42">
         <f>'[1]NaOCl 2 CEB 1'!I82</f>
         <v>5.8926310723290989</v>
       </c>
@@ -10349,15 +10437,15 @@
         <f>'[1]Soude CEB 1'!F82</f>
         <v>0</v>
       </c>
-      <c r="G81" s="4">
+      <c r="G81" s="42">
         <f>'[1]Acide CEB2'!F82</f>
         <v>0.70309802567564872</v>
       </c>
-      <c r="H81" s="4">
+      <c r="H81" s="42">
         <f>[1]SBS!G82</f>
         <v>9.9772957929208914</v>
       </c>
-      <c r="I81" s="4">
+      <c r="I81" s="42">
         <f>[1]ASC!F82</f>
         <v>3.3219289159525829</v>
       </c>
@@ -10368,7 +10456,7 @@
       <c r="A82" s="21">
         <v>45738</v>
       </c>
-      <c r="B82" s="4">
+      <c r="B82" s="42">
         <f>'[1]NaOCl Pré'!F83</f>
         <v>2.5758169081495272</v>
       </c>
@@ -10380,7 +10468,7 @@
         <f>[1]FeCl3!F83</f>
         <v>0</v>
       </c>
-      <c r="E82" s="4">
+      <c r="E82" s="42">
         <f>'[1]NaOCl 2 CEB 1'!I83</f>
         <v>6.3003089239872585</v>
       </c>
@@ -10388,15 +10476,15 @@
         <f>'[1]Soude CEB 1'!F83</f>
         <v>0</v>
       </c>
-      <c r="G82" s="4">
+      <c r="G82" s="42">
         <f>'[1]Acide CEB2'!F83</f>
         <v>1.1486751076882808</v>
       </c>
-      <c r="H82" s="4">
+      <c r="H82" s="42">
         <f>[1]SBS!G83</f>
         <v>8.3888091197841721</v>
       </c>
-      <c r="I82" s="4">
+      <c r="I82" s="42">
         <f>[1]ASC!F83</f>
         <v>3.8669886437801964</v>
       </c>
@@ -10407,7 +10495,7 @@
       <c r="A83" s="21">
         <v>45739</v>
       </c>
-      <c r="B83" s="4">
+      <c r="B83" s="42">
         <f>'[1]NaOCl Pré'!F84</f>
         <v>1.6198028842813414</v>
       </c>
@@ -10419,7 +10507,7 @@
         <f>[1]FeCl3!F84</f>
         <v>0</v>
       </c>
-      <c r="E83" s="4">
+      <c r="E83" s="42">
         <f>'[1]NaOCl 2 CEB 1'!I84</f>
         <v>7.9402102170655038</v>
       </c>
@@ -10427,15 +10515,15 @@
         <f>'[1]Soude CEB 1'!F84</f>
         <v>0</v>
       </c>
-      <c r="G83" s="4">
+      <c r="G83" s="42">
         <f>'[1]Acide CEB2'!F84</f>
         <v>0.63521681736524038</v>
       </c>
-      <c r="H83" s="4">
+      <c r="H83" s="42">
         <f>[1]SBS!G84</f>
         <v>18.643613589669794</v>
       </c>
-      <c r="I83" s="4">
+      <c r="I83" s="42">
         <f>[1]ASC!F84</f>
         <v>3.3646640794814906</v>
       </c>
@@ -10446,7 +10534,7 @@
       <c r="A84" s="21">
         <v>45740</v>
       </c>
-      <c r="B84" s="4">
+      <c r="B84" s="42">
         <f>'[1]NaOCl Pré'!F85</f>
         <v>1.1648697551418317</v>
       </c>
@@ -10458,7 +10546,7 @@
         <f>[1]FeCl3!F85</f>
         <v>0</v>
       </c>
-      <c r="E84" s="4">
+      <c r="E84" s="42">
         <f>'[1]NaOCl 2 CEB 1'!I85</f>
         <v>2.2612177599811738</v>
       </c>
@@ -10466,15 +10554,15 @@
         <f>'[1]Soude CEB 1'!F85</f>
         <v>0</v>
       </c>
-      <c r="G84" s="4">
+      <c r="G84" s="42">
         <f>'[1]Acide CEB2'!F85</f>
         <v>1.1648697551418317</v>
       </c>
-      <c r="H84" s="4">
+      <c r="H84" s="42">
         <f>[1]SBS!G85</f>
         <v>2.3918373464952194</v>
       </c>
-      <c r="I84" s="4">
+      <c r="I84" s="42">
         <f>[1]ASC!F85</f>
         <v>3.5331527499705579</v>
       </c>
@@ -10485,7 +10573,7 @@
       <c r="A85" s="21">
         <v>45741</v>
       </c>
-      <c r="B85" s="4">
+      <c r="B85" s="42">
         <f>'[1]NaOCl Pré'!F86</f>
         <v>0.52542280116028972</v>
       </c>
@@ -10497,7 +10585,7 @@
         <f>[1]FeCl3!F86</f>
         <v>0</v>
       </c>
-      <c r="E85" s="4">
+      <c r="E85" s="42">
         <f>'[1]NaOCl 2 CEB 1'!I86</f>
         <v>10.018061408789873</v>
       </c>
@@ -10505,15 +10593,15 @@
         <f>'[1]Soude CEB 1'!F86</f>
         <v>0</v>
       </c>
-      <c r="G85" s="4">
+      <c r="G85" s="42">
         <f>'[1]Acide CEB2'!F86</f>
         <v>0.94576104208852918</v>
       </c>
-      <c r="H85" s="4">
+      <c r="H85" s="42">
         <f>[1]SBS!G86</f>
         <v>8.0564829511247211</v>
       </c>
-      <c r="I85" s="4">
+      <c r="I85" s="42">
         <f>[1]ASC!F86</f>
         <v>3.7272179957309448</v>
       </c>
@@ -10524,7 +10612,7 @@
       <c r="A86" s="21">
         <v>45742</v>
       </c>
-      <c r="B86" s="4">
+      <c r="B86" s="42">
         <f>'[1]NaOCl Pré'!F87</f>
         <v>2.8406208785634828</v>
       </c>
@@ -10536,7 +10624,7 @@
         <f>[1]FeCl3!F87</f>
         <v>0</v>
       </c>
-      <c r="E86" s="4">
+      <c r="E86" s="42">
         <f>'[1]NaOCl 2 CEB 1'!I87</f>
         <v>8.5218626356903808</v>
       </c>
@@ -10544,20 +10632,57 @@
         <f>'[1]Soude CEB 1'!F87</f>
         <v>0</v>
       </c>
-      <c r="G86" s="4">
+      <c r="G86" s="42">
         <f>'[1]Acide CEB2'!F87</f>
         <v>1.3391498427513544</v>
       </c>
-      <c r="H86" s="4">
+      <c r="H86" s="42">
         <f>[1]SBS!G87</f>
         <v>13.026275743126719</v>
       </c>
-      <c r="I86" s="4">
+      <c r="I86" s="42">
         <f>[1]ASC!F87</f>
         <v>4.1848432585979518</v>
       </c>
       <c r="J86" s="4"/>
       <c r="K86" s="30"/>
+    </row>
+    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A87" s="21">
+        <v>45743</v>
+      </c>
+      <c r="B87" s="42">
+        <f>'[1]NaOCl Pré'!F88</f>
+        <v>2.2266549148768404</v>
+      </c>
+      <c r="C87" s="4">
+        <f>[1]Acide!F88</f>
+        <v>0</v>
+      </c>
+      <c r="D87" s="4">
+        <f>[1]FeCl3!F88</f>
+        <v>0</v>
+      </c>
+      <c r="E87" s="42">
+        <f>'[1]NaOCl 2 CEB 1'!I88</f>
+        <v>4.3419770840098089</v>
+      </c>
+      <c r="F87" s="4">
+        <f>'[1]Soude CEB 1'!F88</f>
+        <v>0</v>
+      </c>
+      <c r="G87" s="42">
+        <f>'[1]Acide CEB2'!F88</f>
+        <v>2.9688732198357868</v>
+      </c>
+      <c r="H87" s="42">
+        <f>[1]SBS!G88</f>
+        <v>2.9665537876327877</v>
+      </c>
+      <c r="I87" s="42">
+        <f>[1]ASC!F88</f>
+        <v>3.7922716518996142</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -10567,2046 +10692,2072 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07CB649B-6F18-453D-B029-557EF373D866}">
-  <dimension ref="B1:H86"/>
+  <dimension ref="A1:G87"/>
   <sheetViews>
-    <sheetView topLeftCell="B7" workbookViewId="0">
-      <selection activeCell="G107" sqref="G107"/>
+    <sheetView topLeftCell="A68" workbookViewId="0">
+      <selection activeCell="A88" sqref="A88:XFD370"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5.6640625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="11.44140625" style="2"/>
-    <col min="3" max="5" width="13.5546875" style="2" customWidth="1"/>
-    <col min="6" max="6" width="15.109375" style="2" customWidth="1"/>
-    <col min="7" max="16384" width="11.44140625" style="2"/>
+    <col min="1" max="1" width="11.44140625" style="2"/>
+    <col min="2" max="4" width="13.5546875" style="2" customWidth="1"/>
+    <col min="5" max="5" width="15.109375" style="2" customWidth="1"/>
+    <col min="6" max="16384" width="11.44140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" ht="59.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" ht="59.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="11" t="s">
+        <v>2</v>
+      </c>
       <c r="B1" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" s="11" t="s">
         <v>14</v>
       </c>
+      <c r="C1" s="16" t="s">
+        <v>15</v>
+      </c>
       <c r="D1" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="E1" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="F1" s="11" t="s">
+      <c r="E1" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="G1" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="H1" s="13" t="s">
+      <c r="F1" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="G1" s="13" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B2" s="3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" s="33">
         <v>45658</v>
       </c>
-      <c r="C2" s="18">
+      <c r="B2" s="38">
         <v>11077.9</v>
       </c>
+      <c r="C2" s="38"/>
       <c r="D2" s="38"/>
-      <c r="E2" s="38"/>
+      <c r="E2" s="18">
+        <v>163700</v>
+      </c>
       <c r="F2" s="18">
-        <v>163700</v>
-      </c>
-      <c r="G2" s="18">
         <f>[2]Sheet1!U6</f>
         <v>53174</v>
       </c>
-      <c r="H2" s="22">
-        <f t="shared" ref="H2" si="0">F2/G2</f>
+      <c r="G2" s="22">
+        <f t="shared" ref="G2" si="0">E2/F2</f>
         <v>3.0785722345507205</v>
       </c>
     </row>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B3" s="19">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" s="12">
         <v>45659</v>
       </c>
-      <c r="C3" s="5">
+      <c r="B3" s="8">
         <v>11236.4</v>
       </c>
+      <c r="C3" s="8"/>
       <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="5">
-        <f>(C3-C2)</f>
+      <c r="E3" s="5">
+        <f>(B3-B2)</f>
         <v>158.5</v>
       </c>
-      <c r="G3" s="10">
+      <c r="F3" s="10">
         <f>[2]Sheet1!U7</f>
         <v>53766</v>
       </c>
-      <c r="H3" s="6">
-        <f>F3/G3*1000</f>
+      <c r="G3" s="6">
+        <f>E3/F3*1000</f>
         <v>2.9479596771193695</v>
       </c>
     </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B4" s="19">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" s="32">
         <v>45660</v>
       </c>
-      <c r="C4" s="4">
+      <c r="B4" s="4">
         <v>11380.2</v>
       </c>
+      <c r="C4" s="8"/>
       <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="5">
-        <f>(C4-C3)</f>
+      <c r="E4" s="5">
+        <f>(B4-B3)</f>
         <v>143.80000000000109</v>
       </c>
-      <c r="G4" s="8">
+      <c r="F4" s="8">
         <f>[2]Sheet1!U8</f>
         <v>48641</v>
       </c>
-      <c r="H4" s="6">
-        <f>F4/G4*1000</f>
+      <c r="G4" s="6">
+        <f>E4/F4*1000</f>
         <v>2.9563536933862604</v>
       </c>
     </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B5" s="19">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" s="19">
         <v>45661</v>
       </c>
-      <c r="C5" s="4">
+      <c r="B5" s="4">
         <v>11525</v>
       </c>
+      <c r="C5" s="8"/>
       <c r="D5" s="8"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="5">
-        <f t="shared" ref="F5:F68" si="1">(C5-C4)</f>
+      <c r="E5" s="5">
+        <f t="shared" ref="E5:E68" si="1">(B5-B4)</f>
         <v>144.79999999999927</v>
       </c>
-      <c r="G5" s="15">
+      <c r="F5" s="15">
         <f>[2]Sheet1!U9</f>
         <v>47464</v>
       </c>
-      <c r="H5" s="6">
-        <f t="shared" ref="H5:H68" si="2">F5/G5*1000</f>
+      <c r="G5" s="6">
+        <f t="shared" ref="G5:G68" si="2">E5/F5*1000</f>
         <v>3.0507331872576957</v>
       </c>
     </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B6" s="19">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" s="19">
         <v>45662</v>
       </c>
-      <c r="C6" s="4">
+      <c r="B6" s="4">
         <v>11694</v>
       </c>
+      <c r="C6" s="8"/>
       <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="5">
+      <c r="E6" s="5">
         <f t="shared" si="1"/>
         <v>169</v>
       </c>
-      <c r="G6" s="8">
+      <c r="F6" s="8">
         <f>[2]Sheet1!U10</f>
         <v>57975</v>
       </c>
-      <c r="H6" s="6">
+      <c r="G6" s="6">
         <f t="shared" si="2"/>
         <v>2.9150495903406641</v>
       </c>
     </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B7" s="19">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" s="19">
         <v>45663</v>
       </c>
-      <c r="C7" s="4">
+      <c r="B7" s="4">
         <v>11862.8</v>
       </c>
+      <c r="C7" s="8"/>
       <c r="D7" s="8"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="5">
+      <c r="E7" s="5">
         <f t="shared" si="1"/>
         <v>168.79999999999927</v>
       </c>
-      <c r="G7" s="15">
+      <c r="F7" s="15">
         <f>[2]Sheet1!U11</f>
         <v>58341</v>
       </c>
-      <c r="H7" s="6">
+      <c r="G7" s="6">
         <f t="shared" si="2"/>
         <v>2.8933340189574963</v>
       </c>
     </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B8" s="19">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" s="19">
         <v>45664</v>
       </c>
-      <c r="C8" s="4">
+      <c r="B8" s="4">
         <v>12009.8</v>
       </c>
+      <c r="C8" s="8"/>
       <c r="D8" s="8"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="5">
+      <c r="E8" s="5">
         <f t="shared" si="1"/>
         <v>147</v>
       </c>
-      <c r="G8" s="8">
+      <c r="F8" s="8">
         <f>[2]Sheet1!U12</f>
         <v>52934</v>
       </c>
-      <c r="H8" s="6">
+      <c r="G8" s="6">
         <f t="shared" si="2"/>
         <v>2.7770431102882838</v>
       </c>
     </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B9" s="19">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" s="19">
         <v>45665</v>
       </c>
-      <c r="C9" s="4">
+      <c r="B9" s="4">
         <v>12183</v>
       </c>
+      <c r="C9" s="8"/>
       <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="5">
+      <c r="E9" s="5">
         <f t="shared" si="1"/>
         <v>173.20000000000073</v>
       </c>
-      <c r="G9" s="15">
+      <c r="F9" s="15">
         <f>[2]Sheet1!U13</f>
         <v>50448</v>
       </c>
-      <c r="H9" s="6">
+      <c r="G9" s="6">
         <f t="shared" si="2"/>
         <v>3.4332381858547558</v>
       </c>
     </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B10" s="19">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10" s="19">
         <v>45666</v>
       </c>
-      <c r="C10" s="4">
+      <c r="B10" s="4">
         <v>12354.3</v>
       </c>
+      <c r="C10" s="8"/>
       <c r="D10" s="8"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="5">
+      <c r="E10" s="5">
         <f t="shared" si="1"/>
         <v>171.29999999999927</v>
       </c>
-      <c r="G10" s="8">
+      <c r="F10" s="8">
         <f>[2]Sheet1!U14</f>
         <v>65465</v>
       </c>
-      <c r="H10" s="6">
+      <c r="G10" s="6">
         <f t="shared" si="2"/>
         <v>2.6166653937218247</v>
       </c>
     </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B11" s="19">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11" s="19">
         <v>45667</v>
       </c>
-      <c r="C11" s="4">
+      <c r="B11" s="4">
         <v>12526.7</v>
       </c>
+      <c r="C11" s="8"/>
       <c r="D11" s="8"/>
-      <c r="E11" s="8"/>
-      <c r="F11" s="5">
+      <c r="E11" s="5">
         <f t="shared" si="1"/>
         <v>172.40000000000146</v>
       </c>
-      <c r="G11" s="15">
+      <c r="F11" s="15">
         <f>[2]Sheet1!U15</f>
         <v>58423</v>
       </c>
-      <c r="H11" s="6">
+      <c r="G11" s="6">
         <f t="shared" si="2"/>
         <v>2.9508926279034191</v>
       </c>
     </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B12" s="19">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12" s="19">
         <v>45668</v>
       </c>
-      <c r="C12" s="4">
+      <c r="B12" s="4">
         <v>12693.5</v>
       </c>
+      <c r="C12" s="8"/>
       <c r="D12" s="8"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="5">
+      <c r="E12" s="5">
         <f t="shared" si="1"/>
         <v>166.79999999999927</v>
       </c>
-      <c r="G12" s="8">
+      <c r="F12" s="8">
         <f>[2]Sheet1!U16</f>
         <v>56419</v>
       </c>
-      <c r="H12" s="6">
+      <c r="G12" s="6">
         <f t="shared" si="2"/>
         <v>2.9564508410287185</v>
       </c>
     </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B13" s="19">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13" s="19">
         <v>45669</v>
       </c>
-      <c r="C13" s="4">
+      <c r="B13" s="4">
         <v>12864.4</v>
       </c>
+      <c r="C13" s="8"/>
       <c r="D13" s="8"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="5">
+      <c r="E13" s="5">
         <f t="shared" si="1"/>
         <v>170.89999999999964</v>
       </c>
-      <c r="G13" s="15">
+      <c r="F13" s="15">
         <f>[2]Sheet1!U17</f>
         <v>58678</v>
       </c>
-      <c r="H13" s="6">
+      <c r="G13" s="6">
         <f t="shared" si="2"/>
         <v>2.9125055387027445</v>
       </c>
     </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B14" s="19">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14" s="19">
         <v>45670</v>
       </c>
-      <c r="C14" s="4">
+      <c r="B14" s="4">
         <v>13037.4</v>
       </c>
+      <c r="C14" s="8"/>
       <c r="D14" s="8"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="5">
+      <c r="E14" s="5">
         <f t="shared" si="1"/>
         <v>173</v>
       </c>
-      <c r="G14" s="8">
+      <c r="F14" s="8">
         <f>[2]Sheet1!U18</f>
         <v>58205</v>
       </c>
-      <c r="H14" s="6">
+      <c r="G14" s="6">
         <f t="shared" si="2"/>
         <v>2.9722532428485526</v>
       </c>
     </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B15" s="19">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15" s="19">
         <v>45671</v>
       </c>
-      <c r="C15" s="4">
+      <c r="B15" s="4">
         <v>13208.3</v>
       </c>
+      <c r="C15" s="8"/>
       <c r="D15" s="8"/>
-      <c r="E15" s="8"/>
-      <c r="F15" s="5">
+      <c r="E15" s="5">
         <f t="shared" si="1"/>
         <v>170.89999999999964</v>
       </c>
-      <c r="G15" s="15">
+      <c r="F15" s="15">
         <f>[2]Sheet1!U19</f>
         <v>57968</v>
       </c>
-      <c r="H15" s="6">
+      <c r="G15" s="6">
         <f t="shared" si="2"/>
         <v>2.9481783052718677</v>
       </c>
     </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B16" s="19">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A16" s="19">
         <v>45672</v>
       </c>
-      <c r="C16" s="4">
+      <c r="B16" s="4">
         <v>13371.1</v>
       </c>
+      <c r="C16" s="8"/>
       <c r="D16" s="8"/>
-      <c r="E16" s="8"/>
-      <c r="F16" s="5">
+      <c r="E16" s="5">
         <f t="shared" si="1"/>
         <v>162.80000000000109</v>
       </c>
-      <c r="G16" s="8">
+      <c r="F16" s="8">
         <f>[2]Sheet1!U20</f>
         <v>54239</v>
       </c>
-      <c r="H16" s="6">
+      <c r="G16" s="6">
         <f t="shared" si="2"/>
         <v>3.001530264201056</v>
       </c>
     </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B17" s="19">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A17" s="19">
         <v>45673</v>
       </c>
-      <c r="C17" s="4">
+      <c r="B17" s="4">
         <v>13524.3</v>
       </c>
+      <c r="C17" s="8"/>
       <c r="D17" s="8"/>
-      <c r="E17" s="8"/>
-      <c r="F17" s="5">
+      <c r="E17" s="5">
         <f t="shared" si="1"/>
         <v>153.19999999999891</v>
       </c>
-      <c r="G17" s="15">
+      <c r="F17" s="15">
         <f>[2]Sheet1!U21</f>
         <v>66973</v>
       </c>
-      <c r="H17" s="6">
+      <c r="G17" s="6">
         <f t="shared" si="2"/>
         <v>2.2874889880996658</v>
       </c>
     </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B18" s="19">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A18" s="19">
         <v>45674</v>
       </c>
-      <c r="C18" s="4">
+      <c r="B18" s="4">
         <v>13741.5</v>
       </c>
+      <c r="C18" s="8"/>
       <c r="D18" s="8"/>
-      <c r="E18" s="8"/>
-      <c r="F18" s="5">
+      <c r="E18" s="5">
         <f t="shared" si="1"/>
         <v>217.20000000000073</v>
       </c>
-      <c r="G18" s="8">
+      <c r="F18" s="8">
         <f>[2]Sheet1!U22</f>
         <v>68507</v>
       </c>
-      <c r="H18" s="6">
+      <c r="G18" s="6">
         <f t="shared" si="2"/>
         <v>3.1704789291605344</v>
       </c>
     </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B19" s="19">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A19" s="19">
         <v>45675</v>
       </c>
-      <c r="C19" s="4">
+      <c r="B19" s="4">
         <v>13949.7</v>
       </c>
+      <c r="C19" s="8"/>
       <c r="D19" s="8"/>
-      <c r="E19" s="8"/>
-      <c r="F19" s="5">
+      <c r="E19" s="5">
         <f t="shared" si="1"/>
         <v>208.20000000000073</v>
       </c>
-      <c r="G19" s="15">
+      <c r="F19" s="4">
         <f>[2]Sheet1!U23</f>
         <v>62883</v>
       </c>
-      <c r="H19" s="6">
+      <c r="G19" s="6">
         <f t="shared" si="2"/>
         <v>3.3109107389914718</v>
       </c>
     </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B20" s="19">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A20" s="19">
         <v>45676</v>
       </c>
-      <c r="C20" s="4">
+      <c r="B20" s="4">
         <v>14095.6</v>
       </c>
+      <c r="C20" s="8"/>
       <c r="D20" s="8"/>
-      <c r="E20" s="8"/>
-      <c r="F20" s="5">
+      <c r="E20" s="5">
         <f t="shared" si="1"/>
         <v>145.89999999999964</v>
       </c>
-      <c r="G20" s="8">
+      <c r="F20" s="8">
         <f>[2]Sheet1!U24</f>
         <v>49626</v>
       </c>
-      <c r="H20" s="6">
+      <c r="G20" s="6">
         <f t="shared" si="2"/>
         <v>2.9399911336799187</v>
       </c>
     </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B21" s="19">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A21" s="19">
         <v>45677</v>
       </c>
-      <c r="C21" s="4">
+      <c r="B21" s="4">
         <v>14266.4</v>
       </c>
+      <c r="C21" s="8"/>
       <c r="D21" s="8"/>
-      <c r="E21" s="8"/>
-      <c r="F21" s="5">
+      <c r="E21" s="5">
         <f t="shared" si="1"/>
         <v>170.79999999999927</v>
       </c>
-      <c r="G21" s="15">
+      <c r="F21" s="15">
         <f>[2]Sheet1!U25</f>
         <v>58465</v>
       </c>
-      <c r="H21" s="6">
+      <c r="G21" s="6">
         <f t="shared" si="2"/>
         <v>2.9214059693833794</v>
       </c>
     </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B22" s="19">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A22" s="19">
         <v>45678</v>
       </c>
-      <c r="C22" s="4">
+      <c r="B22" s="4">
         <v>14436.9</v>
       </c>
+      <c r="C22" s="8"/>
       <c r="D22" s="8"/>
-      <c r="E22" s="8"/>
-      <c r="F22" s="5">
+      <c r="E22" s="5">
         <f t="shared" si="1"/>
         <v>170.5</v>
       </c>
-      <c r="G22" s="8">
+      <c r="F22" s="8">
         <f>[2]Sheet1!U26</f>
         <v>58549</v>
       </c>
-      <c r="H22" s="6">
+      <c r="G22" s="6">
         <f t="shared" si="2"/>
         <v>2.9120907274248919</v>
       </c>
     </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B23" s="19">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A23" s="19">
         <v>45679</v>
       </c>
-      <c r="C23" s="4">
+      <c r="B23" s="4">
         <v>14620.7</v>
       </c>
+      <c r="C23" s="8"/>
       <c r="D23" s="8"/>
-      <c r="E23" s="8"/>
-      <c r="F23" s="5">
+      <c r="E23" s="5">
         <f t="shared" si="1"/>
         <v>183.80000000000109</v>
       </c>
-      <c r="G23" s="15">
+      <c r="F23" s="15">
         <f>[2]Sheet1!U27</f>
         <v>59980</v>
       </c>
-      <c r="H23" s="6">
+      <c r="G23" s="6">
         <f t="shared" si="2"/>
         <v>3.0643547849283275</v>
       </c>
     </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B24" s="19">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A24" s="19">
         <v>45680</v>
       </c>
-      <c r="C24" s="4">
+      <c r="B24" s="4">
         <v>14821.6</v>
       </c>
+      <c r="C24" s="8"/>
       <c r="D24" s="8"/>
-      <c r="E24" s="8"/>
-      <c r="F24" s="5">
+      <c r="E24" s="5">
         <f t="shared" si="1"/>
         <v>200.89999999999964</v>
       </c>
-      <c r="G24" s="8">
+      <c r="F24" s="8">
         <f>[2]Sheet1!U28</f>
         <v>66594</v>
       </c>
-      <c r="H24" s="6">
+      <c r="G24" s="6">
         <f t="shared" si="2"/>
         <v>3.0167882992461728</v>
       </c>
     </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B25" s="19">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A25" s="19">
         <v>45681</v>
       </c>
-      <c r="C25" s="4">
+      <c r="B25" s="4">
         <v>15037.9</v>
       </c>
+      <c r="C25" s="8"/>
       <c r="D25" s="8"/>
-      <c r="E25" s="8"/>
-      <c r="F25" s="5">
+      <c r="E25" s="5">
         <f t="shared" si="1"/>
         <v>216.29999999999927</v>
       </c>
-      <c r="G25" s="15">
+      <c r="F25" s="15">
         <f>[2]Sheet1!U29</f>
         <v>70950</v>
       </c>
-      <c r="H25" s="6">
+      <c r="G25" s="6">
         <f t="shared" si="2"/>
         <v>3.048625792811829</v>
       </c>
     </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B26" s="19">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A26" s="19">
         <v>45682</v>
       </c>
-      <c r="C26" s="4">
+      <c r="B26" s="4">
         <v>15273.7</v>
       </c>
+      <c r="C26" s="8"/>
       <c r="D26" s="8"/>
-      <c r="E26" s="8"/>
-      <c r="F26" s="5">
+      <c r="E26" s="5">
         <f t="shared" si="1"/>
         <v>235.80000000000109</v>
       </c>
-      <c r="G26" s="8">
+      <c r="F26" s="8">
         <f>[2]Sheet1!U30</f>
         <v>78568</v>
       </c>
-      <c r="H26" s="6">
+      <c r="G26" s="6">
         <f t="shared" si="2"/>
         <v>3.0012218714998613</v>
       </c>
     </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B27" s="19">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A27" s="19">
         <v>45683</v>
       </c>
-      <c r="C27" s="4">
+      <c r="B27" s="4">
         <v>15484.1</v>
       </c>
+      <c r="C27" s="8"/>
       <c r="D27" s="8"/>
-      <c r="E27" s="8"/>
-      <c r="F27" s="5">
+      <c r="E27" s="5">
         <f t="shared" si="1"/>
         <v>210.39999999999964</v>
       </c>
-      <c r="G27" s="15">
+      <c r="F27" s="15">
         <f>[2]Sheet1!U31</f>
         <v>71467</v>
       </c>
-      <c r="H27" s="6">
+      <c r="G27" s="6">
         <f t="shared" si="2"/>
         <v>2.9440161193277965</v>
       </c>
     </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B28" s="19">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A28" s="19">
         <v>45684</v>
       </c>
-      <c r="C28" s="4">
+      <c r="B28" s="4">
         <v>15695.8</v>
       </c>
+      <c r="C28" s="8"/>
       <c r="D28" s="8"/>
-      <c r="E28" s="8"/>
-      <c r="F28" s="5">
+      <c r="E28" s="5">
         <f t="shared" si="1"/>
         <v>211.69999999999891</v>
       </c>
-      <c r="G28" s="8">
+      <c r="F28" s="8">
         <f>[2]Sheet1!U32</f>
         <v>71945</v>
       </c>
-      <c r="H28" s="6">
+      <c r="G28" s="6">
         <f t="shared" si="2"/>
         <v>2.9425255403433028</v>
       </c>
     </row>
-    <row r="29" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B29" s="19">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A29" s="19">
         <v>45685</v>
       </c>
-      <c r="C29" s="4">
+      <c r="B29" s="4">
         <v>15909.9</v>
       </c>
+      <c r="C29" s="8"/>
       <c r="D29" s="8"/>
-      <c r="E29" s="8"/>
-      <c r="F29" s="5">
+      <c r="E29" s="5">
         <f t="shared" si="1"/>
         <v>214.10000000000036</v>
       </c>
-      <c r="G29" s="15">
+      <c r="F29" s="15">
         <f>[2]Sheet1!U33</f>
         <v>69243</v>
       </c>
-      <c r="H29" s="6">
+      <c r="G29" s="6">
         <f t="shared" si="2"/>
         <v>3.0920093005791252</v>
       </c>
     </row>
-    <row r="30" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B30" s="19">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A30" s="19">
         <v>45686</v>
       </c>
-      <c r="C30" s="4">
+      <c r="B30" s="4">
         <v>16136.6</v>
       </c>
+      <c r="C30" s="8"/>
       <c r="D30" s="8"/>
-      <c r="E30" s="8"/>
-      <c r="F30" s="5">
+      <c r="E30" s="5">
         <f t="shared" si="1"/>
         <v>226.70000000000073</v>
       </c>
-      <c r="G30" s="8">
+      <c r="F30" s="8">
         <f>[2]Sheet1!U34</f>
         <v>76346</v>
       </c>
-      <c r="H30" s="6">
+      <c r="G30" s="6">
         <f t="shared" si="2"/>
         <v>2.9693762607078398</v>
       </c>
     </row>
-    <row r="31" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B31" s="19">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A31" s="19">
         <v>45687</v>
       </c>
-      <c r="C31" s="4">
+      <c r="B31" s="4">
         <v>16351</v>
       </c>
+      <c r="C31" s="8"/>
       <c r="D31" s="8"/>
-      <c r="E31" s="8"/>
-      <c r="F31" s="5">
+      <c r="E31" s="5">
         <f t="shared" si="1"/>
         <v>214.39999999999964</v>
       </c>
-      <c r="G31" s="15">
+      <c r="F31" s="15">
         <f>[2]Sheet1!U35</f>
         <v>71246</v>
       </c>
-      <c r="H31" s="6">
+      <c r="G31" s="6">
         <f t="shared" si="2"/>
         <v>3.0092917497122595</v>
       </c>
     </row>
-    <row r="32" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B32" s="20">
+    <row r="32" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="20">
         <v>45688</v>
       </c>
-      <c r="C32" s="7">
+      <c r="B32" s="7">
         <v>16570.2</v>
       </c>
-      <c r="D32" s="9"/>
-      <c r="E32" s="27"/>
-      <c r="F32" s="5">
+      <c r="C32" s="9"/>
+      <c r="D32" s="27"/>
+      <c r="E32" s="5">
         <f t="shared" si="1"/>
         <v>219.20000000000073</v>
       </c>
-      <c r="G32" s="9">
+      <c r="F32" s="9">
         <f>[2]Sheet1!U36</f>
         <v>72868</v>
       </c>
-      <c r="H32" s="6">
+      <c r="G32" s="6">
         <f t="shared" si="2"/>
         <v>3.0081791732996752</v>
       </c>
     </row>
-    <row r="33" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B33" s="33">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A33" s="33">
         <v>45689</v>
       </c>
-      <c r="C33" s="35">
+      <c r="B33" s="35">
         <v>16796.900000000001</v>
       </c>
-      <c r="D33" s="36"/>
-      <c r="E33" s="29"/>
-      <c r="F33" s="5">
+      <c r="C33" s="36"/>
+      <c r="D33" s="29"/>
+      <c r="E33" s="5">
         <f t="shared" si="1"/>
         <v>226.70000000000073</v>
       </c>
-      <c r="G33" s="36">
+      <c r="F33" s="36">
         <f>[2]Sheet1!U37</f>
         <v>71689</v>
       </c>
-      <c r="H33" s="6">
+      <c r="G33" s="6">
         <f t="shared" si="2"/>
         <v>3.1622703622592132</v>
       </c>
     </row>
-    <row r="34" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B34" s="12">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A34" s="12">
         <v>45690</v>
       </c>
-      <c r="C34" s="4">
+      <c r="B34" s="4">
         <v>16983.099999999999</v>
       </c>
+      <c r="C34" s="27"/>
       <c r="D34" s="27"/>
-      <c r="E34" s="27"/>
-      <c r="F34" s="5">
+      <c r="E34" s="5">
         <f t="shared" si="1"/>
         <v>186.19999999999709</v>
       </c>
-      <c r="G34" s="27">
+      <c r="F34" s="27">
         <f>[2]Sheet1!U38</f>
         <v>63773</v>
       </c>
-      <c r="H34" s="6">
+      <c r="G34" s="6">
         <f t="shared" si="2"/>
         <v>2.9197309206089894</v>
       </c>
     </row>
-    <row r="35" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B35" s="12">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A35" s="12">
         <v>45691</v>
       </c>
-      <c r="C35" s="4">
+      <c r="B35" s="4">
         <v>17201.400000000001</v>
       </c>
+      <c r="C35" s="27"/>
       <c r="D35" s="27"/>
-      <c r="E35" s="27"/>
-      <c r="F35" s="5">
+      <c r="E35" s="5">
         <f t="shared" si="1"/>
         <v>218.30000000000291</v>
       </c>
-      <c r="G35" s="27">
+      <c r="F35" s="27">
         <f>[2]Sheet1!U39</f>
         <v>71403</v>
       </c>
-      <c r="H35" s="6">
+      <c r="G35" s="6">
         <f t="shared" si="2"/>
         <v>3.0572945114351344</v>
       </c>
     </row>
-    <row r="36" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B36" s="12">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A36" s="12">
         <v>45692</v>
       </c>
-      <c r="C36" s="4">
+      <c r="B36" s="4">
         <v>17411.400000000001</v>
       </c>
+      <c r="C36" s="27"/>
       <c r="D36" s="27"/>
-      <c r="E36" s="27"/>
-      <c r="F36" s="5">
+      <c r="E36" s="5">
         <f t="shared" si="1"/>
         <v>210</v>
       </c>
-      <c r="G36" s="27">
+      <c r="F36" s="27">
         <f>[2]Sheet1!U40</f>
         <v>68826</v>
       </c>
-      <c r="H36" s="6">
+      <c r="G36" s="6">
         <f t="shared" si="2"/>
         <v>3.0511725220120303</v>
       </c>
     </row>
-    <row r="37" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B37" s="12">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A37" s="12">
         <v>45693</v>
       </c>
-      <c r="C37" s="4">
+      <c r="B37" s="4">
         <v>17610.2</v>
       </c>
+      <c r="C37" s="27"/>
       <c r="D37" s="27"/>
-      <c r="E37" s="27"/>
-      <c r="F37" s="5">
+      <c r="E37" s="5">
         <f t="shared" si="1"/>
         <v>198.79999999999927</v>
       </c>
-      <c r="G37" s="27">
+      <c r="F37" s="27">
         <f>[2]Sheet1!U41</f>
         <v>66010</v>
       </c>
-      <c r="H37" s="6">
+      <c r="G37" s="6">
         <f t="shared" si="2"/>
         <v>3.0116648992576773</v>
       </c>
     </row>
-    <row r="38" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B38" s="12">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A38" s="12">
         <v>45694</v>
       </c>
-      <c r="C38" s="4">
+      <c r="B38" s="4">
         <v>17775.7</v>
       </c>
+      <c r="C38" s="27"/>
       <c r="D38" s="27"/>
-      <c r="E38" s="27"/>
-      <c r="F38" s="5">
+      <c r="E38" s="5">
         <f t="shared" si="1"/>
         <v>165.5</v>
       </c>
-      <c r="G38" s="27">
+      <c r="F38" s="27">
         <f>[2]Sheet1!U42</f>
         <v>52915</v>
       </c>
-      <c r="H38" s="6">
+      <c r="G38" s="6">
         <f t="shared" si="2"/>
         <v>3.1276575640177642</v>
       </c>
     </row>
-    <row r="39" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B39" s="12">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A39" s="12">
         <v>45695</v>
       </c>
-      <c r="C39" s="4">
+      <c r="B39" s="4">
         <v>17962.900000000001</v>
       </c>
+      <c r="C39" s="27"/>
       <c r="D39" s="27"/>
-      <c r="E39" s="27"/>
-      <c r="F39" s="5">
+      <c r="E39" s="5">
         <f t="shared" si="1"/>
         <v>187.20000000000073</v>
       </c>
-      <c r="G39" s="27">
+      <c r="F39" s="27">
         <f>[2]Sheet1!U43</f>
         <v>70336</v>
       </c>
-      <c r="H39" s="6">
+      <c r="G39" s="6">
         <f t="shared" si="2"/>
         <v>2.661510464058245</v>
       </c>
     </row>
-    <row r="40" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B40" s="12">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A40" s="12">
         <v>45696</v>
       </c>
-      <c r="C40" s="4">
+      <c r="B40" s="4">
         <v>18217.900000000001</v>
       </c>
+      <c r="C40" s="27"/>
       <c r="D40" s="27"/>
-      <c r="E40" s="27"/>
-      <c r="F40" s="5">
+      <c r="E40" s="5">
         <f t="shared" si="1"/>
         <v>255</v>
       </c>
-      <c r="G40" s="27">
+      <c r="F40" s="27">
         <f>[2]Sheet1!U44</f>
         <v>77269</v>
       </c>
-      <c r="H40" s="6">
+      <c r="G40" s="6">
         <f t="shared" si="2"/>
         <v>3.3001591841488822</v>
       </c>
     </row>
-    <row r="41" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B41" s="12">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A41" s="12">
         <v>45697</v>
       </c>
-      <c r="C41" s="4">
+      <c r="B41" s="4">
         <v>18459.5</v>
       </c>
+      <c r="C41" s="27"/>
       <c r="D41" s="27"/>
-      <c r="E41" s="27"/>
-      <c r="F41" s="5">
+      <c r="E41" s="5">
         <f t="shared" si="1"/>
         <v>241.59999999999854</v>
       </c>
-      <c r="G41" s="27">
+      <c r="F41" s="27">
         <f>[2]Sheet1!U45</f>
         <v>81052</v>
       </c>
-      <c r="H41" s="6">
+      <c r="G41" s="6">
         <f t="shared" si="2"/>
         <v>2.9808024478112638</v>
       </c>
     </row>
-    <row r="42" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B42" s="12">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A42" s="12">
         <v>45698</v>
       </c>
-      <c r="C42" s="4">
+      <c r="B42" s="4">
         <v>18707.900000000001</v>
       </c>
+      <c r="C42" s="27"/>
       <c r="D42" s="27"/>
-      <c r="E42" s="27"/>
-      <c r="F42" s="5">
+      <c r="E42" s="5">
         <f t="shared" si="1"/>
         <v>248.40000000000146</v>
       </c>
-      <c r="G42" s="27">
+      <c r="F42" s="27">
         <f>[2]Sheet1!U46</f>
         <v>84392</v>
       </c>
-      <c r="H42" s="6">
+      <c r="G42" s="6">
         <f t="shared" si="2"/>
         <v>2.9434069580055158</v>
       </c>
     </row>
-    <row r="43" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B43" s="12">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A43" s="12">
         <v>45699</v>
       </c>
-      <c r="C43" s="4">
+      <c r="B43" s="4">
         <v>18922.599999999999</v>
       </c>
+      <c r="C43" s="27"/>
       <c r="D43" s="27"/>
-      <c r="E43" s="27"/>
-      <c r="F43" s="5">
+      <c r="E43" s="5">
         <f t="shared" si="1"/>
         <v>214.69999999999709</v>
       </c>
-      <c r="G43" s="27">
+      <c r="F43" s="27">
         <f>[2]Sheet1!U47</f>
         <v>75872</v>
       </c>
-      <c r="H43" s="6">
+      <c r="G43" s="6">
         <f t="shared" si="2"/>
         <v>2.8297659215520494</v>
       </c>
     </row>
-    <row r="44" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B44" s="12">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A44" s="12">
         <v>45700</v>
       </c>
-      <c r="C44" s="4">
+      <c r="B44" s="4">
         <v>19047.5</v>
       </c>
+      <c r="C44" s="27"/>
       <c r="D44" s="27"/>
-      <c r="E44" s="27"/>
-      <c r="F44" s="5">
+      <c r="E44" s="5">
         <f t="shared" si="1"/>
         <v>124.90000000000146</v>
       </c>
-      <c r="G44" s="27">
+      <c r="F44" s="27">
         <f>[2]Sheet1!U48</f>
         <v>40308</v>
       </c>
-      <c r="H44" s="6">
+      <c r="G44" s="6">
         <f t="shared" si="2"/>
         <v>3.0986404683934072</v>
       </c>
     </row>
-    <row r="45" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B45" s="12">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A45" s="12">
         <v>45701</v>
       </c>
-      <c r="C45" s="4">
+      <c r="B45" s="4">
         <v>19299.7</v>
       </c>
+      <c r="C45" s="27"/>
       <c r="D45" s="27"/>
-      <c r="E45" s="27"/>
-      <c r="F45" s="5">
+      <c r="E45" s="5">
         <f t="shared" si="1"/>
         <v>252.20000000000073</v>
       </c>
-      <c r="G45" s="27">
+      <c r="F45" s="27">
         <f>[2]Sheet1!U49</f>
         <v>86259</v>
       </c>
-      <c r="H45" s="6">
+      <c r="G45" s="6">
         <f t="shared" si="2"/>
         <v>2.9237528837570657</v>
       </c>
     </row>
-    <row r="46" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B46" s="12">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A46" s="12">
         <v>45702</v>
       </c>
-      <c r="C46" s="4">
+      <c r="B46" s="4">
         <v>19539.599999999999</v>
       </c>
+      <c r="C46" s="27"/>
       <c r="D46" s="27"/>
-      <c r="E46" s="27"/>
-      <c r="F46" s="5">
+      <c r="E46" s="5">
         <f t="shared" si="1"/>
         <v>239.89999999999782</v>
       </c>
-      <c r="G46" s="27">
+      <c r="F46" s="27">
         <f>[2]Sheet1!U50</f>
         <v>80933</v>
       </c>
-      <c r="H46" s="6">
+      <c r="G46" s="6">
         <f t="shared" si="2"/>
         <v>2.9641802478593138</v>
       </c>
     </row>
-    <row r="47" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B47" s="12">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A47" s="12">
         <v>45703</v>
       </c>
-      <c r="C47" s="4">
+      <c r="B47" s="4">
         <v>19772.099999999999</v>
       </c>
+      <c r="C47" s="27"/>
       <c r="D47" s="27"/>
-      <c r="E47" s="27"/>
-      <c r="F47" s="5">
+      <c r="E47" s="5">
         <f t="shared" si="1"/>
         <v>232.5</v>
       </c>
-      <c r="G47" s="27">
+      <c r="F47" s="27">
         <f>[2]Sheet1!U51</f>
         <v>79044</v>
       </c>
-      <c r="H47" s="6">
+      <c r="G47" s="6">
         <f t="shared" si="2"/>
         <v>2.9413997267344771</v>
       </c>
     </row>
-    <row r="48" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B48" s="12">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A48" s="12">
         <v>45704</v>
       </c>
-      <c r="C48" s="4">
+      <c r="B48" s="4">
         <v>19986.5</v>
       </c>
+      <c r="C48" s="27"/>
       <c r="D48" s="27"/>
-      <c r="E48" s="27"/>
-      <c r="F48" s="5">
+      <c r="E48" s="5">
         <f t="shared" si="1"/>
         <v>214.40000000000146</v>
       </c>
-      <c r="G48" s="27">
+      <c r="F48" s="27">
         <f>[2]Sheet1!U52</f>
         <v>72540</v>
       </c>
-      <c r="H48" s="6">
+      <c r="G48" s="6">
         <f t="shared" si="2"/>
         <v>2.9556106975462013</v>
       </c>
     </row>
-    <row r="49" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B49" s="12">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A49" s="12">
         <v>45705</v>
       </c>
-      <c r="C49" s="4">
+      <c r="B49" s="4">
         <v>20235.3</v>
       </c>
+      <c r="C49" s="27"/>
       <c r="D49" s="27"/>
-      <c r="E49" s="27"/>
-      <c r="F49" s="5">
+      <c r="E49" s="5">
         <f t="shared" si="1"/>
         <v>248.79999999999927</v>
       </c>
-      <c r="G49" s="27">
+      <c r="F49" s="27">
         <f>[2]Sheet1!U53</f>
         <v>84015</v>
       </c>
-      <c r="H49" s="6">
+      <c r="G49" s="6">
         <f t="shared" si="2"/>
         <v>2.9613759447717585</v>
       </c>
     </row>
-    <row r="50" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B50" s="12">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A50" s="12">
         <v>45706</v>
       </c>
-      <c r="C50" s="4">
+      <c r="B50" s="4">
         <v>20486.3</v>
       </c>
+      <c r="C50" s="27"/>
       <c r="D50" s="27"/>
-      <c r="E50" s="27"/>
-      <c r="F50" s="5">
+      <c r="E50" s="5">
         <f t="shared" si="1"/>
         <v>251</v>
       </c>
-      <c r="G50" s="27">
+      <c r="F50" s="27">
         <f>[2]Sheet1!U54</f>
         <v>82276</v>
       </c>
-      <c r="H50" s="6">
+      <c r="G50" s="6">
         <f t="shared" si="2"/>
         <v>3.0507073751762364</v>
       </c>
     </row>
-    <row r="51" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B51" s="12">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A51" s="12">
         <v>45707</v>
       </c>
-      <c r="C51" s="4">
+      <c r="B51" s="4">
         <v>20737.599999999999</v>
       </c>
+      <c r="C51" s="27"/>
       <c r="D51" s="27"/>
-      <c r="E51" s="27"/>
-      <c r="F51" s="5">
+      <c r="E51" s="5">
         <f t="shared" si="1"/>
         <v>251.29999999999927</v>
       </c>
-      <c r="G51" s="27">
+      <c r="F51" s="27">
         <f>[2]Sheet1!U55</f>
         <v>84632</v>
       </c>
-      <c r="H51" s="6">
+      <c r="G51" s="6">
         <f t="shared" si="2"/>
         <v>2.9693260232536067</v>
       </c>
     </row>
-    <row r="52" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B52" s="12">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A52" s="12">
         <v>45708</v>
       </c>
-      <c r="C52" s="4">
+      <c r="B52" s="4">
         <v>20990.2</v>
       </c>
+      <c r="C52" s="27"/>
       <c r="D52" s="27"/>
-      <c r="E52" s="27"/>
-      <c r="F52" s="5">
+      <c r="E52" s="5">
         <f t="shared" si="1"/>
         <v>252.60000000000218</v>
       </c>
-      <c r="G52" s="27">
+      <c r="F52" s="27">
         <f>[2]Sheet1!U56</f>
         <v>87013</v>
       </c>
-      <c r="H52" s="6">
+      <c r="G52" s="6">
         <f t="shared" si="2"/>
         <v>2.9030144920874146</v>
       </c>
     </row>
-    <row r="53" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B53" s="12">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A53" s="12">
         <v>45709</v>
       </c>
-      <c r="C53" s="4">
+      <c r="B53" s="4">
         <v>21255.7</v>
       </c>
+      <c r="C53" s="27"/>
       <c r="D53" s="27"/>
-      <c r="E53" s="27"/>
-      <c r="F53" s="5">
+      <c r="E53" s="5">
         <f t="shared" si="1"/>
         <v>265.5</v>
       </c>
-      <c r="G53" s="27">
+      <c r="F53" s="27">
         <f>[2]Sheet1!U57</f>
         <v>89956</v>
       </c>
-      <c r="H53" s="6">
+      <c r="G53" s="6">
         <f t="shared" si="2"/>
         <v>2.9514429276535195</v>
       </c>
     </row>
-    <row r="54" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B54" s="12">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A54" s="12">
         <v>45710</v>
       </c>
-      <c r="C54" s="4">
+      <c r="B54" s="4">
         <v>21479.9</v>
       </c>
+      <c r="C54" s="27"/>
       <c r="D54" s="27"/>
-      <c r="E54" s="27"/>
-      <c r="F54" s="5">
+      <c r="E54" s="5">
         <f t="shared" si="1"/>
         <v>224.20000000000073</v>
       </c>
-      <c r="G54" s="27">
+      <c r="F54" s="27">
         <f>[2]Sheet1!U58</f>
         <v>77612</v>
       </c>
-      <c r="H54" s="6">
+      <c r="G54" s="6">
         <f t="shared" si="2"/>
         <v>2.8887285471318962</v>
       </c>
     </row>
-    <row r="55" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B55" s="12">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A55" s="12">
         <v>45711</v>
       </c>
-      <c r="C55" s="4">
+      <c r="B55" s="4">
         <v>21728.1</v>
       </c>
+      <c r="C55" s="27"/>
       <c r="D55" s="27"/>
-      <c r="E55" s="27"/>
-      <c r="F55" s="5">
+      <c r="E55" s="5">
         <f t="shared" si="1"/>
         <v>248.19999999999709</v>
       </c>
-      <c r="G55" s="27">
+      <c r="F55" s="27">
         <f>[2]Sheet1!U59</f>
         <v>82831</v>
       </c>
-      <c r="H55" s="6">
+      <c r="G55" s="6">
         <f t="shared" si="2"/>
         <v>2.9964626770170235</v>
       </c>
     </row>
-    <row r="56" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B56" s="12">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A56" s="12">
         <v>45712</v>
       </c>
-      <c r="C56" s="4">
+      <c r="B56" s="4">
         <v>21999.599999999999</v>
       </c>
+      <c r="C56" s="27"/>
       <c r="D56" s="27"/>
-      <c r="E56" s="27"/>
-      <c r="F56" s="5">
+      <c r="E56" s="5">
         <f t="shared" si="1"/>
         <v>271.5</v>
       </c>
-      <c r="G56" s="27">
+      <c r="F56" s="27">
         <f>[2]Sheet1!U60</f>
         <v>94316</v>
       </c>
-      <c r="H56" s="6">
+      <c r="G56" s="6">
         <f t="shared" si="2"/>
         <v>2.8786208066499852</v>
       </c>
     </row>
-    <row r="57" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B57" s="12">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A57" s="12">
         <v>45713</v>
       </c>
-      <c r="C57" s="4">
+      <c r="B57" s="4">
         <v>22284.5</v>
       </c>
+      <c r="C57" s="27"/>
       <c r="D57" s="27"/>
-      <c r="E57" s="27"/>
-      <c r="F57" s="5">
+      <c r="E57" s="5">
         <f t="shared" si="1"/>
         <v>284.90000000000146</v>
       </c>
-      <c r="G57" s="27">
+      <c r="F57" s="27">
         <f>[2]Sheet1!U61</f>
         <v>97557</v>
       </c>
-      <c r="H57" s="6">
+      <c r="G57" s="6">
         <f t="shared" si="2"/>
         <v>2.9203440040181787</v>
       </c>
     </row>
-    <row r="58" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B58" s="12">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A58" s="12">
         <v>45714</v>
       </c>
-      <c r="C58" s="4">
+      <c r="B58" s="4">
         <v>22510</v>
       </c>
+      <c r="C58" s="27"/>
       <c r="D58" s="27"/>
-      <c r="E58" s="27"/>
-      <c r="F58" s="5">
+      <c r="E58" s="5">
         <f t="shared" si="1"/>
         <v>225.5</v>
       </c>
-      <c r="G58" s="27">
+      <c r="F58" s="27">
         <f>[2]Sheet1!U62</f>
         <v>94135</v>
       </c>
-      <c r="H58" s="6">
+      <c r="G58" s="6">
         <f t="shared" si="2"/>
         <v>2.3954958304562597</v>
       </c>
     </row>
-    <row r="59" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B59" s="12">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A59" s="12">
         <v>45715</v>
       </c>
-      <c r="C59" s="4">
+      <c r="B59" s="4">
         <v>22827.5</v>
       </c>
+      <c r="C59" s="27"/>
       <c r="D59" s="27"/>
-      <c r="E59" s="27"/>
-      <c r="F59" s="5">
+      <c r="E59" s="5">
         <f t="shared" si="1"/>
         <v>317.5</v>
       </c>
-      <c r="G59" s="27">
+      <c r="F59" s="27">
         <f>[2]Sheet1!U63</f>
         <v>94228</v>
       </c>
-      <c r="H59" s="6">
+      <c r="G59" s="6">
         <f t="shared" si="2"/>
         <v>3.3694867767542558</v>
       </c>
     </row>
-    <row r="60" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B60" s="34">
+    <row r="60" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A60" s="34">
         <v>45716</v>
       </c>
-      <c r="C60" s="7">
+      <c r="B60" s="7">
         <v>23088.400000000001</v>
       </c>
+      <c r="C60" s="9">
+        <v>20275</v>
+      </c>
       <c r="D60" s="9">
-        <v>20275</v>
-      </c>
-      <c r="E60" s="9">
-        <f>C60-D60</f>
+        <f>B60-C60</f>
         <v>2813.4000000000015</v>
       </c>
-      <c r="F60" s="39">
+      <c r="E60" s="39">
         <f t="shared" si="1"/>
         <v>260.90000000000146</v>
       </c>
-      <c r="G60" s="9">
+      <c r="F60" s="9">
         <f>[2]Sheet1!U64</f>
         <v>95898</v>
       </c>
-      <c r="H60" s="40">
+      <c r="G60" s="40">
         <f t="shared" si="2"/>
         <v>2.7205989697386959</v>
       </c>
     </row>
-    <row r="61" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B61" s="32">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A61" s="32">
         <v>45717</v>
       </c>
-      <c r="C61" s="28">
+      <c r="B61" s="28">
         <v>23352.1</v>
       </c>
+      <c r="C61" s="29">
+        <v>20513</v>
+      </c>
       <c r="D61" s="29">
-        <v>20513</v>
-      </c>
-      <c r="E61" s="29">
-        <f t="shared" ref="E61:E85" si="3">C61-D61</f>
+        <f t="shared" ref="D61:D85" si="3">B61-C61</f>
         <v>2839.0999999999985</v>
       </c>
-      <c r="F61" s="10">
+      <c r="E61" s="10">
         <f t="shared" si="1"/>
         <v>263.69999999999709</v>
       </c>
-      <c r="G61" s="29">
+      <c r="F61" s="29">
         <f>[2]Sheet1!U65</f>
         <v>90569</v>
       </c>
-      <c r="H61" s="37">
+      <c r="G61" s="37">
         <f t="shared" si="2"/>
         <v>2.911592266669579</v>
       </c>
     </row>
-    <row r="62" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B62" s="19">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A62" s="19">
         <v>45718</v>
       </c>
-      <c r="C62" s="4">
+      <c r="B62" s="4">
         <v>23616.6</v>
       </c>
+      <c r="C62" s="27">
+        <v>20751</v>
+      </c>
       <c r="D62" s="27">
-        <v>20751</v>
-      </c>
-      <c r="E62" s="27">
         <f t="shared" si="3"/>
         <v>2865.5999999999985</v>
       </c>
-      <c r="F62" s="5">
+      <c r="E62" s="5">
         <f t="shared" si="1"/>
         <v>264.5</v>
       </c>
-      <c r="G62" s="27">
+      <c r="F62" s="27">
         <f>[2]Sheet1!U66</f>
         <v>91249</v>
       </c>
-      <c r="H62" s="6">
+      <c r="G62" s="6">
         <f t="shared" si="2"/>
         <v>2.8986619031441441</v>
       </c>
     </row>
-    <row r="63" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B63" s="12">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A63" s="12">
         <v>45719</v>
       </c>
-      <c r="C63" s="4">
+      <c r="B63" s="4">
         <v>23907.200000000001</v>
       </c>
+      <c r="C63" s="27">
+        <v>21014</v>
+      </c>
       <c r="D63" s="27">
-        <v>21014</v>
-      </c>
-      <c r="E63" s="27">
         <f t="shared" si="3"/>
         <v>2893.2000000000007</v>
       </c>
-      <c r="F63" s="5">
+      <c r="E63" s="5">
         <f t="shared" si="1"/>
         <v>290.60000000000218</v>
       </c>
-      <c r="G63" s="27">
+      <c r="F63" s="27">
         <f>[2]Sheet1!U67</f>
         <v>102134</v>
       </c>
-      <c r="H63" s="6">
+      <c r="G63" s="6">
         <f t="shared" si="2"/>
         <v>2.8452816887618444</v>
       </c>
     </row>
-    <row r="64" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B64" s="31">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A64" s="31">
         <v>45720</v>
       </c>
-      <c r="C64" s="4">
+      <c r="B64" s="4">
         <v>24146.5</v>
       </c>
+      <c r="C64" s="27">
+        <v>21229</v>
+      </c>
       <c r="D64" s="27">
-        <v>21229</v>
-      </c>
-      <c r="E64" s="27">
         <f t="shared" si="3"/>
         <v>2917.5</v>
       </c>
-      <c r="F64" s="5">
+      <c r="E64" s="5">
         <f t="shared" si="1"/>
         <v>239.29999999999927</v>
       </c>
-      <c r="G64" s="27">
+      <c r="F64" s="27">
         <f>[2]Sheet1!U68</f>
         <v>86868</v>
       </c>
-      <c r="H64" s="6">
+      <c r="G64" s="6">
         <f t="shared" si="2"/>
         <v>2.7547543399180281</v>
       </c>
     </row>
-    <row r="65" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B65" s="19">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A65" s="19">
         <v>45721</v>
       </c>
-      <c r="C65" s="4">
+      <c r="B65" s="4">
         <v>24398.6</v>
       </c>
+      <c r="C65" s="27">
+        <v>21455</v>
+      </c>
       <c r="D65" s="27">
-        <v>21455</v>
-      </c>
-      <c r="E65" s="27">
         <f t="shared" si="3"/>
         <v>2943.5999999999985</v>
       </c>
-      <c r="F65" s="5">
+      <c r="E65" s="5">
         <f t="shared" si="1"/>
         <v>252.09999999999854</v>
       </c>
-      <c r="G65" s="27">
+      <c r="F65" s="27">
         <f>[2]Sheet1!U69</f>
         <v>86339</v>
       </c>
-      <c r="H65" s="6">
+      <c r="G65" s="6">
         <f t="shared" si="2"/>
         <v>2.919885567356566</v>
       </c>
     </row>
-    <row r="66" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B66" s="19">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A66" s="19">
         <v>45722</v>
       </c>
-      <c r="C66" s="4">
+      <c r="B66" s="4">
         <v>24667.5</v>
       </c>
+      <c r="C66" s="27">
+        <v>21699</v>
+      </c>
       <c r="D66" s="27">
-        <v>21699</v>
-      </c>
-      <c r="E66" s="27">
         <f t="shared" si="3"/>
         <v>2968.5</v>
       </c>
-      <c r="F66" s="5">
+      <c r="E66" s="5">
         <f t="shared" si="1"/>
         <v>268.90000000000146</v>
       </c>
-      <c r="G66" s="27">
+      <c r="F66" s="27">
         <f>[2]Sheet1!U70</f>
         <v>92995</v>
       </c>
-      <c r="H66" s="6">
+      <c r="G66" s="6">
         <f t="shared" si="2"/>
         <v>2.8915533093177208</v>
       </c>
     </row>
-    <row r="67" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B67" s="19">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A67" s="19">
         <v>45723</v>
       </c>
-      <c r="C67" s="4">
+      <c r="B67" s="4">
         <v>24984.3</v>
       </c>
+      <c r="C67" s="27">
+        <v>21985</v>
+      </c>
       <c r="D67" s="27">
-        <v>21985</v>
-      </c>
-      <c r="E67" s="27">
         <f t="shared" si="3"/>
         <v>2999.2999999999993</v>
       </c>
-      <c r="F67" s="5">
+      <c r="E67" s="5">
         <f t="shared" si="1"/>
         <v>316.79999999999927</v>
       </c>
-      <c r="G67" s="27">
+      <c r="F67" s="27">
         <f>[2]Sheet1!U71</f>
         <v>103104</v>
       </c>
-      <c r="H67" s="6">
+      <c r="G67" s="6">
         <f t="shared" si="2"/>
         <v>3.072625698324015</v>
       </c>
     </row>
-    <row r="68" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B68" s="19">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A68" s="19">
         <v>45724</v>
       </c>
-      <c r="C68" s="4">
+      <c r="B68" s="4">
         <v>25249.1</v>
       </c>
+      <c r="C68" s="27">
+        <v>22224</v>
+      </c>
       <c r="D68" s="27">
-        <v>22224</v>
-      </c>
-      <c r="E68" s="27">
         <f t="shared" si="3"/>
         <v>3025.0999999999985</v>
       </c>
-      <c r="F68" s="5">
+      <c r="E68" s="5">
         <f t="shared" si="1"/>
         <v>264.79999999999927</v>
       </c>
-      <c r="G68" s="27">
+      <c r="F68" s="27">
         <f>[2]Sheet1!U72</f>
         <v>101998</v>
       </c>
-      <c r="H68" s="6">
+      <c r="G68" s="6">
         <f t="shared" si="2"/>
         <v>2.5961293358693238</v>
       </c>
     </row>
-    <row r="69" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B69" s="19">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A69" s="19">
         <v>45725</v>
       </c>
-      <c r="C69" s="4">
+      <c r="B69" s="4">
         <v>25523.4</v>
       </c>
+      <c r="C69" s="27">
+        <v>22470</v>
+      </c>
       <c r="D69" s="27">
-        <v>22470</v>
-      </c>
-      <c r="E69" s="27">
         <f t="shared" si="3"/>
         <v>3053.4000000000015</v>
       </c>
-      <c r="F69" s="5">
-        <f t="shared" ref="F69:F86" si="4">(C69-C68)</f>
+      <c r="E69" s="5">
+        <f t="shared" ref="E69:E86" si="4">(B69-B68)</f>
         <v>274.30000000000291</v>
       </c>
-      <c r="G69" s="27">
+      <c r="F69" s="27">
         <f>[2]Sheet1!U73</f>
         <v>94813</v>
       </c>
-      <c r="H69" s="6">
-        <f t="shared" ref="H69:H86" si="5">F69/G69*1000</f>
+      <c r="G69" s="6">
+        <f t="shared" ref="G69:G86" si="5">E69/F69*1000</f>
         <v>2.8930631875376047</v>
       </c>
     </row>
-    <row r="70" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B70" s="19">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A70" s="19">
         <v>45726</v>
       </c>
-      <c r="C70" s="4">
+      <c r="B70" s="4">
         <v>25781</v>
       </c>
+      <c r="C70" s="27">
+        <v>22763</v>
+      </c>
       <c r="D70" s="27">
-        <v>22763</v>
-      </c>
-      <c r="E70" s="27">
         <f t="shared" si="3"/>
         <v>3018</v>
       </c>
-      <c r="F70" s="5">
+      <c r="E70" s="5">
         <f t="shared" si="4"/>
         <v>257.59999999999854</v>
       </c>
-      <c r="G70" s="27">
+      <c r="F70" s="27">
         <f>[2]Sheet1!U74</f>
         <v>87541</v>
       </c>
-      <c r="H70" s="6">
+      <c r="G70" s="6">
         <f t="shared" si="5"/>
         <v>2.9426211717937711</v>
       </c>
     </row>
-    <row r="71" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B71" s="19">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A71" s="19">
         <v>45727</v>
       </c>
-      <c r="C71" s="4">
+      <c r="B71" s="4">
         <v>26072.7</v>
       </c>
+      <c r="C71" s="27">
+        <v>23030</v>
+      </c>
       <c r="D71" s="27">
-        <v>23030</v>
-      </c>
-      <c r="E71" s="27">
         <f t="shared" si="3"/>
         <v>3042.7000000000007</v>
       </c>
-      <c r="F71" s="5">
+      <c r="E71" s="5">
         <f t="shared" si="4"/>
         <v>291.70000000000073</v>
       </c>
-      <c r="G71" s="27">
+      <c r="F71" s="27">
         <f>[2]Sheet1!U75</f>
         <v>102068</v>
       </c>
-      <c r="H71" s="6">
+      <c r="G71" s="6">
         <f t="shared" si="5"/>
         <v>2.8578986557981025</v>
       </c>
     </row>
-    <row r="72" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B72" s="19">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A72" s="19">
         <v>45728</v>
       </c>
-      <c r="C72" s="4">
+      <c r="B72" s="4">
         <v>26342.6</v>
       </c>
+      <c r="C72" s="27">
+        <v>23277</v>
+      </c>
       <c r="D72" s="27">
-        <v>23277</v>
-      </c>
-      <c r="E72" s="27">
         <f t="shared" si="3"/>
         <v>3065.5999999999985</v>
       </c>
-      <c r="F72" s="5">
+      <c r="E72" s="5">
         <f t="shared" si="4"/>
         <v>269.89999999999782</v>
       </c>
-      <c r="G72" s="27">
+      <c r="F72" s="27">
         <f>[2]Sheet1!U76</f>
         <v>96055</v>
       </c>
-      <c r="H72" s="6">
+      <c r="G72" s="6">
         <f t="shared" si="5"/>
         <v>2.8098485242829403</v>
       </c>
     </row>
-    <row r="73" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B73" s="19">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A73" s="19">
         <v>45729</v>
       </c>
-      <c r="C73" s="4">
+      <c r="B73" s="4">
         <v>26597.200000000001</v>
       </c>
+      <c r="C73" s="27">
+        <v>23508</v>
+      </c>
       <c r="D73" s="27">
-        <v>23508</v>
-      </c>
-      <c r="E73" s="27">
         <f t="shared" si="3"/>
         <v>3089.2000000000007</v>
       </c>
-      <c r="F73" s="5">
+      <c r="E73" s="5">
         <f t="shared" si="4"/>
         <v>254.60000000000218</v>
       </c>
-      <c r="G73" s="27">
+      <c r="F73" s="27">
         <f>[2]Sheet1!U77</f>
         <v>89275</v>
       </c>
-      <c r="H73" s="6">
+      <c r="G73" s="6">
         <f t="shared" si="5"/>
         <v>2.8518622234668407</v>
       </c>
     </row>
-    <row r="74" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B74" s="19">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A74" s="19">
         <v>45730</v>
       </c>
-      <c r="C74" s="4">
+      <c r="B74" s="4">
         <v>26875.599999999999</v>
       </c>
+      <c r="C74" s="27">
+        <v>23760</v>
+      </c>
       <c r="D74" s="27">
-        <v>23760</v>
-      </c>
-      <c r="E74" s="27">
         <f t="shared" si="3"/>
         <v>3115.5999999999985</v>
       </c>
-      <c r="F74" s="5">
+      <c r="E74" s="5">
         <f t="shared" si="4"/>
         <v>278.39999999999782</v>
       </c>
-      <c r="G74" s="27">
+      <c r="F74" s="27">
         <f>[2]Sheet1!U78</f>
         <v>96482</v>
       </c>
-      <c r="H74" s="6">
+      <c r="G74" s="6">
         <f t="shared" si="5"/>
         <v>2.8855123235421924</v>
       </c>
     </row>
-    <row r="75" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B75" s="19">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A75" s="19">
         <v>45731</v>
       </c>
-      <c r="C75" s="4">
+      <c r="B75" s="4">
         <v>27099.8</v>
       </c>
+      <c r="C75" s="27">
+        <v>24005</v>
+      </c>
       <c r="D75" s="27">
-        <v>24005</v>
-      </c>
-      <c r="E75" s="27">
         <f t="shared" si="3"/>
         <v>3094.7999999999993</v>
       </c>
-      <c r="F75" s="5">
+      <c r="E75" s="5">
         <f t="shared" si="4"/>
         <v>224.20000000000073</v>
       </c>
-      <c r="G75" s="27">
+      <c r="F75" s="27">
         <f>[2]Sheet1!U79</f>
         <v>95707</v>
       </c>
-      <c r="H75" s="6">
+      <c r="G75" s="6">
         <f t="shared" si="5"/>
         <v>2.3425663744553766</v>
       </c>
     </row>
-    <row r="76" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B76" s="19">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A76" s="19">
         <v>45732</v>
       </c>
-      <c r="C76" s="4">
+      <c r="B76" s="4">
         <v>27411.7</v>
       </c>
+      <c r="C76" s="27">
+        <v>24251</v>
+      </c>
       <c r="D76" s="27">
-        <v>24251</v>
-      </c>
-      <c r="E76" s="27">
         <f t="shared" si="3"/>
         <v>3160.7000000000007</v>
       </c>
-      <c r="F76" s="5">
+      <c r="E76" s="5">
         <f t="shared" si="4"/>
         <v>311.90000000000146</v>
       </c>
-      <c r="G76" s="27">
+      <c r="F76" s="27">
         <f>[2]Sheet1!U80</f>
         <v>93853</v>
       </c>
-      <c r="H76" s="6">
+      <c r="G76" s="6">
         <f t="shared" si="5"/>
         <v>3.3232821540068134</v>
       </c>
     </row>
-    <row r="77" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B77" s="19">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A77" s="19">
         <v>45733</v>
       </c>
-      <c r="C77" s="4">
+      <c r="B77" s="4">
         <v>27658.3</v>
       </c>
+      <c r="C77" s="27">
+        <v>24474</v>
+      </c>
       <c r="D77" s="27">
-        <v>24474</v>
-      </c>
-      <c r="E77" s="27">
         <f t="shared" si="3"/>
         <v>3184.2999999999993</v>
       </c>
-      <c r="F77" s="5">
+      <c r="E77" s="5">
         <f t="shared" si="4"/>
         <v>246.59999999999854</v>
       </c>
-      <c r="G77" s="27">
+      <c r="F77" s="27">
         <f>[2]Sheet1!U81</f>
         <v>87315</v>
       </c>
-      <c r="H77" s="6">
+      <c r="G77" s="6">
         <f t="shared" si="5"/>
         <v>2.8242570005153587</v>
       </c>
     </row>
-    <row r="78" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B78" s="19">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A78" s="19">
         <v>45734</v>
       </c>
-      <c r="C78" s="4">
+      <c r="B78" s="4">
         <v>27942</v>
       </c>
+      <c r="C78" s="27">
+        <v>24731</v>
+      </c>
       <c r="D78" s="27">
-        <v>24731</v>
-      </c>
-      <c r="E78" s="27">
         <f t="shared" si="3"/>
         <v>3211</v>
       </c>
-      <c r="F78" s="5">
+      <c r="E78" s="5">
         <f t="shared" si="4"/>
         <v>283.70000000000073</v>
       </c>
-      <c r="G78" s="27">
+      <c r="F78" s="27">
         <f>[2]Sheet1!U82</f>
         <v>95461</v>
       </c>
-      <c r="H78" s="6">
+      <c r="G78" s="6">
         <f t="shared" si="5"/>
         <v>2.9718942814343108</v>
       </c>
     </row>
-    <row r="79" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B79" s="19">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A79" s="19">
         <v>45735</v>
       </c>
-      <c r="C79" s="4">
+      <c r="B79" s="4">
         <v>28220.799999999999</v>
       </c>
+      <c r="C79" s="27">
+        <v>24983</v>
+      </c>
       <c r="D79" s="27">
-        <v>24983</v>
-      </c>
-      <c r="E79" s="27">
         <f t="shared" si="3"/>
         <v>3237.7999999999993</v>
       </c>
-      <c r="F79" s="5">
+      <c r="E79" s="5">
         <f t="shared" si="4"/>
         <v>278.79999999999927</v>
       </c>
-      <c r="G79" s="27">
+      <c r="F79" s="27">
         <f>[2]Sheet1!U83</f>
         <v>100396</v>
       </c>
-      <c r="H79" s="6">
+      <c r="G79" s="6">
         <f t="shared" si="5"/>
         <v>2.7770030678513016</v>
       </c>
     </row>
-    <row r="80" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B80" s="19">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A80" s="19">
         <v>45736</v>
       </c>
-      <c r="C80" s="4">
+      <c r="B80" s="4">
         <v>28471.5</v>
       </c>
+      <c r="C80" s="27">
+        <v>25207</v>
+      </c>
       <c r="D80" s="27">
-        <v>25207</v>
-      </c>
-      <c r="E80" s="27">
         <f t="shared" si="3"/>
         <v>3264.5</v>
       </c>
-      <c r="F80" s="5">
+      <c r="E80" s="5">
         <f t="shared" si="4"/>
         <v>250.70000000000073</v>
       </c>
-      <c r="G80" s="27">
+      <c r="F80" s="27">
         <f>[2]Sheet1!U84</f>
         <v>81090</v>
       </c>
-      <c r="H80" s="6">
+      <c r="G80" s="6">
         <f t="shared" si="5"/>
         <v>3.0916265877420241</v>
       </c>
     </row>
-    <row r="81" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B81" s="19">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A81" s="19">
         <v>45737</v>
       </c>
-      <c r="C81" s="4">
+      <c r="B81" s="4">
         <v>28743.200000000001</v>
       </c>
+      <c r="C81" s="27">
+        <v>25453</v>
+      </c>
       <c r="D81" s="27">
-        <v>25453</v>
-      </c>
-      <c r="E81" s="27">
         <f t="shared" si="3"/>
         <v>3290.2000000000007</v>
       </c>
-      <c r="F81" s="5">
+      <c r="E81" s="5">
         <f t="shared" si="4"/>
         <v>271.70000000000073</v>
       </c>
-      <c r="G81" s="27">
+      <c r="F81" s="27">
         <f>[2]Sheet1!U85</f>
         <v>95577</v>
       </c>
-      <c r="H81" s="6">
+      <c r="G81" s="6">
         <f t="shared" si="5"/>
         <v>2.8427341305962806</v>
       </c>
     </row>
-    <row r="82" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B82" s="19">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A82" s="19">
         <v>45738</v>
       </c>
-      <c r="C82" s="4">
+      <c r="B82" s="4">
         <v>29006</v>
       </c>
+      <c r="C82" s="27">
+        <v>25687</v>
+      </c>
       <c r="D82" s="27">
-        <v>25687</v>
-      </c>
-      <c r="E82" s="27">
         <f t="shared" si="3"/>
         <v>3319</v>
       </c>
-      <c r="F82" s="5">
+      <c r="E82" s="5">
         <f t="shared" si="4"/>
         <v>262.79999999999927</v>
       </c>
-      <c r="G82" s="27">
+      <c r="F82" s="27">
         <f>[2]Sheet1!U86</f>
         <v>91932</v>
       </c>
-      <c r="H82" s="6">
+      <c r="G82" s="6">
         <f t="shared" si="5"/>
         <v>2.8586346429969898</v>
       </c>
     </row>
-    <row r="83" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B83" s="19">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A83" s="19">
         <v>45739</v>
       </c>
-      <c r="C83" s="4">
+      <c r="B83" s="4">
         <v>29295.8</v>
       </c>
+      <c r="C83" s="27">
+        <v>25948</v>
+      </c>
       <c r="D83" s="27">
-        <v>25948</v>
-      </c>
-      <c r="E83" s="27">
         <f t="shared" si="3"/>
         <v>3347.7999999999993</v>
       </c>
-      <c r="F83" s="5">
+      <c r="E83" s="5">
         <f t="shared" si="4"/>
         <v>289.79999999999927</v>
       </c>
-      <c r="G83" s="27">
+      <c r="F83" s="27">
         <f>[2]Sheet1!U87</f>
         <v>100753</v>
       </c>
-      <c r="H83" s="6">
+      <c r="G83" s="6">
         <f t="shared" si="5"/>
         <v>2.8763411511319692</v>
       </c>
     </row>
-    <row r="84" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B84" s="19">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A84" s="19">
         <v>45740</v>
       </c>
-      <c r="C84" s="4">
+      <c r="B84" s="4">
         <v>29559.9</v>
       </c>
+      <c r="C84" s="27">
+        <v>26187</v>
+      </c>
       <c r="D84" s="27">
-        <v>26187</v>
-      </c>
-      <c r="E84" s="27">
         <f t="shared" si="3"/>
         <v>3372.9000000000015</v>
       </c>
-      <c r="F84" s="5">
+      <c r="E84" s="5">
         <f t="shared" si="4"/>
         <v>264.10000000000218</v>
       </c>
-      <c r="G84" s="27">
+      <c r="F84" s="27">
         <f>[2]Sheet1!U88</f>
         <v>93401</v>
       </c>
-      <c r="H84" s="6">
+      <c r="G84" s="6">
         <f t="shared" si="5"/>
         <v>2.8275928523249449</v>
       </c>
     </row>
-    <row r="85" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B85" s="19">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A85" s="19">
         <v>45741</v>
       </c>
-      <c r="C85" s="4">
+      <c r="B85" s="44">
         <v>29816.7</v>
       </c>
-      <c r="D85" s="27">
+      <c r="C85" s="5">
         <v>26421</v>
       </c>
-      <c r="E85" s="27">
+      <c r="D85" s="8">
         <f t="shared" si="3"/>
         <v>3395.7000000000007</v>
       </c>
-      <c r="F85" s="5">
+      <c r="E85" s="5">
         <f t="shared" si="4"/>
         <v>256.79999999999927</v>
       </c>
-      <c r="G85" s="27">
+      <c r="F85" s="27">
         <f>[2]Sheet1!U89</f>
         <v>91355</v>
       </c>
-      <c r="H85" s="6">
+      <c r="G85" s="6">
         <f t="shared" si="5"/>
         <v>2.8110119862076433</v>
       </c>
     </row>
-    <row r="86" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B86" s="19">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A86" s="21">
         <v>45742</v>
       </c>
-      <c r="C86" s="4">
+      <c r="B86" s="4">
         <v>30041.1</v>
       </c>
-      <c r="D86" s="27">
+      <c r="C86" s="5">
         <v>26624</v>
       </c>
-      <c r="E86" s="27">
-        <f>C86-D86</f>
+      <c r="D86" s="5">
+        <f>B86-C86</f>
         <v>3417.0999999999985</v>
       </c>
-      <c r="F86" s="5">
+      <c r="E86" s="5">
         <f t="shared" si="4"/>
         <v>224.39999999999782</v>
       </c>
-      <c r="G86" s="27">
+      <c r="F86" s="27">
         <f>[2]Sheet1!U90</f>
         <v>78856</v>
       </c>
-      <c r="H86" s="6">
+      <c r="G86" s="6">
         <f t="shared" si="5"/>
         <v>2.8456934158465788</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A87" s="12">
+        <v>45743</v>
+      </c>
+      <c r="B87" s="8">
+        <v>30293.1</v>
+      </c>
+      <c r="C87" s="5">
+        <v>26624</v>
+      </c>
+      <c r="D87" s="5">
+        <f t="shared" ref="D87" si="6">B87-C87</f>
+        <v>3669.0999999999985</v>
+      </c>
+      <c r="E87" s="5">
+        <f>(B87-B86)</f>
+        <v>252</v>
+      </c>
+      <c r="F87" s="27">
+        <f>[2]Sheet1!U91</f>
+        <v>86228</v>
+      </c>
+      <c r="G87" s="6">
+        <f t="shared" ref="G87" si="7">E87/F87*1000</f>
+        <v>2.92248457577585</v>
       </c>
     </row>
   </sheetData>
@@ -12616,10 +12767,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38810916-2DF0-490C-B584-F0F3D6EAB44D}">
-  <dimension ref="A1:K86"/>
+  <dimension ref="A1:K87"/>
   <sheetViews>
-    <sheetView topLeftCell="A62" workbookViewId="0">
-      <selection activeCell="A87" sqref="A87:XFD98"/>
+    <sheetView tabSelected="1" topLeftCell="A77" workbookViewId="0">
+      <selection activeCell="A86" sqref="A86:I87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -15853,7 +16004,7 @@
         <v>340.50000000000045</v>
       </c>
     </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A86" s="3">
         <f>'[1]NaOCl Pré'!B87</f>
         <v>45742</v>
@@ -15889,6 +16040,44 @@
       <c r="I86" s="4">
         <f>[1]ASC!D87</f>
         <v>330.00000000000006</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A87" s="3">
+        <f>'[1]NaOCl Pré'!B88</f>
+        <v>45743</v>
+      </c>
+      <c r="B87" s="23">
+        <f>'[1]NaOCl Pré'!D88</f>
+        <v>192.00000000000017</v>
+      </c>
+      <c r="C87" s="4">
+        <f>[1]Acide!D88</f>
+        <v>0</v>
+      </c>
+      <c r="D87" s="4">
+        <f>[1]FeCl3!D88</f>
+        <v>0</v>
+      </c>
+      <c r="E87" s="4">
+        <f>'[1]NaOCl 2 CEB 1'!H88</f>
+        <v>374.39999999999782</v>
+      </c>
+      <c r="F87" s="4">
+        <f>'[1]Soude CEB 1'!D88</f>
+        <v>0</v>
+      </c>
+      <c r="G87" s="4">
+        <f>'[1]Acide CEB2'!D88</f>
+        <v>256.00000000000023</v>
+      </c>
+      <c r="H87" s="4">
+        <f>[1]SBS!E88</f>
+        <v>255.80000000000004</v>
+      </c>
+      <c r="I87" s="4">
+        <f>[1]ASC!D88</f>
+        <v>326.99999999999994</v>
       </c>
     </row>
   </sheetData>

--- a/Consommation spécifique.xlsx
+++ b/Consommation spécifique.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\Projects\wave2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1FDA7B91-6B4B-48D7-91D1-42ABB6A1FE46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F393722-A6F0-4C86-BB8C-566A9B4679B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" activeTab="2" xr2:uid="{4E830341-EBCA-4A95-9BBE-9CDD49815F8C}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="27">
   <si>
     <t>Prod</t>
   </si>
@@ -91,6 +91,36 @@
   </si>
   <si>
     <t>Index d'énergie RO MWh</t>
+  </si>
+  <si>
+    <t>NaOCl (L/j)</t>
+  </si>
+  <si>
+    <t>Acide (L/j)</t>
+  </si>
+  <si>
+    <t>Coagulant (L/j)</t>
+  </si>
+  <si>
+    <t>NaOCl CEB 1  (1+2) (L/j)</t>
+  </si>
+  <si>
+    <t>Soude CEB1 (L/j)</t>
+  </si>
+  <si>
+    <t>Acide CEB 2 (L/j)</t>
+  </si>
+  <si>
+    <t>SMBS (L/j)</t>
+  </si>
+  <si>
+    <t>Antiscalant (L/j)</t>
+  </si>
+  <si>
+    <t>Soude CIP RO (L/j)</t>
+  </si>
+  <si>
+    <t>Acide CIP RO (L/j)</t>
   </si>
 </sst>
 </file>
@@ -4721,73 +4751,61 @@
           </cell>
         </row>
         <row r="34">
-          <cell r="D34"/>
           <cell r="F34">
             <v>0</v>
           </cell>
         </row>
         <row r="35">
-          <cell r="D35"/>
           <cell r="F35">
             <v>0</v>
           </cell>
         </row>
         <row r="36">
-          <cell r="D36"/>
           <cell r="F36">
             <v>0</v>
           </cell>
         </row>
         <row r="37">
-          <cell r="D37"/>
           <cell r="F37">
             <v>0</v>
           </cell>
         </row>
         <row r="38">
-          <cell r="D38"/>
           <cell r="F38">
             <v>0</v>
           </cell>
         </row>
         <row r="39">
-          <cell r="D39"/>
           <cell r="F39">
             <v>0</v>
           </cell>
         </row>
         <row r="40">
-          <cell r="D40"/>
           <cell r="F40">
             <v>0</v>
           </cell>
         </row>
         <row r="41">
-          <cell r="D41"/>
           <cell r="F41">
             <v>0</v>
           </cell>
         </row>
         <row r="42">
-          <cell r="D42"/>
           <cell r="F42">
             <v>0</v>
           </cell>
         </row>
         <row r="43">
-          <cell r="D43"/>
           <cell r="F43">
             <v>0</v>
           </cell>
         </row>
         <row r="44">
-          <cell r="D44"/>
           <cell r="F44">
             <v>0</v>
           </cell>
         </row>
         <row r="45">
-          <cell r="D45"/>
           <cell r="F45">
             <v>0</v>
           </cell>
@@ -7278,7 +7296,7 @@
   <dimension ref="A1:K87"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A77" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A50" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A86" sqref="A86:I87"/>
     </sheetView>
   </sheetViews>
@@ -12769,45 +12787,45 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38810916-2DF0-490C-B584-F0F3D6EAB44D}">
   <dimension ref="A1:K87"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A77" workbookViewId="0">
-      <selection activeCell="A86" sqref="A86:I87"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K1" sqref="K1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:11" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="14" t="s">
         <v>2</v>
       </c>
       <c r="B1" s="25" t="s">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="C1" s="14" t="s">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="D1" s="14" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="E1" s="26" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="F1" s="24" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="G1" s="14" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="H1" s="14" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="I1" s="26" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="J1" s="24" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="K1" s="26" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">

--- a/Consommation spécifique.xlsx
+++ b/Consommation spécifique.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\Projects\wave2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F393722-A6F0-4C86-BB8C-566A9B4679B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A563DE6C-3B34-4D9A-9F2B-43225475F3D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" activeTab="2" xr2:uid="{4E830341-EBCA-4A95-9BBE-9CDD49815F8C}"/>
   </bookViews>
@@ -1739,6 +1739,56 @@
             <v>2.2266549148768404</v>
           </cell>
         </row>
+        <row r="89">
+          <cell r="F89">
+            <v>2.6728183915360635</v>
+          </cell>
+        </row>
+        <row r="90">
+          <cell r="F90">
+            <v>2.2421175554690493</v>
+          </cell>
+        </row>
+        <row r="91">
+          <cell r="F91">
+            <v>2.4503223610822245</v>
+          </cell>
+        </row>
+        <row r="92">
+          <cell r="F92">
+            <v>2.1718557321887912</v>
+          </cell>
+        </row>
+        <row r="93">
+          <cell r="F93">
+            <v>2.0263309610895259</v>
+          </cell>
+        </row>
+        <row r="94">
+          <cell r="F94">
+            <v>2.2980685640851179</v>
+          </cell>
+        </row>
+        <row r="95">
+          <cell r="F95">
+            <v>2.2616759018432679</v>
+          </cell>
+        </row>
+        <row r="96">
+          <cell r="F96">
+            <v>3.7531686277477103</v>
+          </cell>
+        </row>
+        <row r="97">
+          <cell r="F97">
+            <v>2.2845845461035967</v>
+          </cell>
+        </row>
+        <row r="98">
+          <cell r="F98">
+            <v>0.91693697204486457</v>
+          </cell>
+        </row>
       </sheetData>
       <sheetData sheetId="3">
         <row r="3">
@@ -2429,6 +2479,56 @@
             <v>0</v>
           </cell>
         </row>
+        <row r="89">
+          <cell r="F89">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="90">
+          <cell r="F90">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="91">
+          <cell r="F91">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="92">
+          <cell r="F92">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="93">
+          <cell r="F93">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="94">
+          <cell r="F94">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="95">
+          <cell r="F95">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="96">
+          <cell r="F96">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="97">
+          <cell r="F97">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="98">
+          <cell r="F98">
+            <v>0</v>
+          </cell>
+        </row>
       </sheetData>
       <sheetData sheetId="4">
         <row r="3">
@@ -3116,6 +3216,56 @@
             <v>0</v>
           </cell>
           <cell r="F88">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="89">
+          <cell r="F89">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="90">
+          <cell r="F90">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="91">
+          <cell r="F91">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="92">
+          <cell r="F92">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="93">
+          <cell r="F93">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="94">
+          <cell r="F94">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="95">
+          <cell r="F95">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="96">
+          <cell r="F96">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="97">
+          <cell r="F97">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="98">
+          <cell r="F98">
             <v>0</v>
           </cell>
         </row>
@@ -3810,6 +3960,56 @@
             <v>4.3419770840098089</v>
           </cell>
         </row>
+        <row r="89">
+          <cell r="I89">
+            <v>6.2047569803515916</v>
+          </cell>
+        </row>
+        <row r="90">
+          <cell r="I90">
+            <v>5.23160762942784</v>
+          </cell>
+        </row>
+        <row r="91">
+          <cell r="I91">
+            <v>5.8081715225652752</v>
+          </cell>
+        </row>
+        <row r="92">
+          <cell r="I92">
+            <v>5.3531655370849975</v>
+          </cell>
+        </row>
+        <row r="93">
+          <cell r="I93">
+            <v>4.3550993790580863</v>
+          </cell>
+        </row>
+        <row r="94">
+          <cell r="I94">
+            <v>5.3218429905128932</v>
+          </cell>
+        </row>
+        <row r="95">
+          <cell r="I95">
+            <v>5.1566210562026473</v>
+          </cell>
+        </row>
+        <row r="96">
+          <cell r="I96">
+            <v>5.054670651886056</v>
+          </cell>
+        </row>
+        <row r="97">
+          <cell r="I97">
+            <v>4.9557910923169866</v>
+          </cell>
+        </row>
+        <row r="98">
+          <cell r="I98">
+            <v>5.4282668745056863</v>
+          </cell>
+        </row>
       </sheetData>
       <sheetData sheetId="7">
         <row r="3">
@@ -4500,6 +4700,56 @@
             <v>0</v>
           </cell>
         </row>
+        <row r="89">
+          <cell r="F89">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="90">
+          <cell r="F90">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="91">
+          <cell r="F91">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="92">
+          <cell r="F92">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="93">
+          <cell r="F93">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="94">
+          <cell r="F94">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="95">
+          <cell r="F95">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="96">
+          <cell r="F96">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="97">
+          <cell r="F97">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="98">
+          <cell r="F98">
+            <v>0</v>
+          </cell>
+        </row>
       </sheetData>
       <sheetData sheetId="8">
         <row r="3">
@@ -4751,61 +5001,73 @@
           </cell>
         </row>
         <row r="34">
+          <cell r="D34"/>
           <cell r="F34">
             <v>0</v>
           </cell>
         </row>
         <row r="35">
+          <cell r="D35"/>
           <cell r="F35">
             <v>0</v>
           </cell>
         </row>
         <row r="36">
+          <cell r="D36"/>
           <cell r="F36">
             <v>0</v>
           </cell>
         </row>
         <row r="37">
+          <cell r="D37"/>
           <cell r="F37">
             <v>0</v>
           </cell>
         </row>
         <row r="38">
+          <cell r="D38"/>
           <cell r="F38">
             <v>0</v>
           </cell>
         </row>
         <row r="39">
+          <cell r="D39"/>
           <cell r="F39">
             <v>0</v>
           </cell>
         </row>
         <row r="40">
+          <cell r="D40"/>
           <cell r="F40">
             <v>0</v>
           </cell>
         </row>
         <row r="41">
+          <cell r="D41"/>
           <cell r="F41">
             <v>0</v>
           </cell>
         </row>
         <row r="42">
+          <cell r="D42"/>
           <cell r="F42">
             <v>0</v>
           </cell>
         </row>
         <row r="43">
+          <cell r="D43"/>
           <cell r="F43">
             <v>0</v>
           </cell>
         </row>
         <row r="44">
+          <cell r="D44"/>
           <cell r="F44">
             <v>0</v>
           </cell>
         </row>
         <row r="45">
+          <cell r="D45"/>
           <cell r="F45">
             <v>0</v>
           </cell>
@@ -5152,6 +5414,56 @@
           </cell>
           <cell r="F88">
             <v>2.9688732198357868</v>
+          </cell>
+        </row>
+        <row r="89">
+          <cell r="F89">
+            <v>0.50910826505448747</v>
+          </cell>
+        </row>
+        <row r="90">
+          <cell r="F90">
+            <v>2.6158038147139022</v>
+          </cell>
+        </row>
+        <row r="91">
+          <cell r="F91">
+            <v>0.66551965362726506</v>
+          </cell>
+        </row>
+        <row r="92">
+          <cell r="F92">
+            <v>1.8047815239315059</v>
+          </cell>
+        </row>
+        <row r="93">
+          <cell r="F93">
+            <v>1.6634060128347077</v>
+          </cell>
+        </row>
+        <row r="94">
+          <cell r="F94">
+            <v>0.7559436066069477</v>
+          </cell>
+        </row>
+        <row r="95">
+          <cell r="F95">
+            <v>0.69358060989859205</v>
+          </cell>
+        </row>
+        <row r="96">
+          <cell r="F96">
+            <v>1.3317695130717762</v>
+          </cell>
+        </row>
+        <row r="97">
+          <cell r="F97">
+            <v>0.84353890933053599</v>
+          </cell>
+        </row>
+        <row r="98">
+          <cell r="F98">
+            <v>1.1003243664538822</v>
           </cell>
         </row>
       </sheetData>
@@ -5844,6 +6156,56 @@
             <v>2.9665537876327877</v>
           </cell>
         </row>
+        <row r="89">
+          <cell r="G89">
+            <v>-36.083048285737014</v>
+          </cell>
+        </row>
+        <row r="90">
+          <cell r="G90">
+            <v>5.3873102374464716</v>
+          </cell>
+        </row>
+        <row r="91">
+          <cell r="G91">
+            <v>7.6534760167136318</v>
+          </cell>
+        </row>
+        <row r="92">
+          <cell r="G92">
+            <v>10.553383487396138</v>
+          </cell>
+        </row>
+        <row r="93">
+          <cell r="G93">
+            <v>10.040923568383947</v>
+          </cell>
+        </row>
+        <row r="94">
+          <cell r="G94">
+            <v>9.0108477907548234</v>
+          </cell>
+        </row>
+        <row r="95">
+          <cell r="G95">
+            <v>7.448452636737156</v>
+          </cell>
+        </row>
+        <row r="96">
+          <cell r="G96">
+            <v>11.04763346070901</v>
+          </cell>
+        </row>
+        <row r="97">
+          <cell r="G97">
+            <v>6.6780163655335336</v>
+          </cell>
+        </row>
+        <row r="98">
+          <cell r="G98">
+            <v>1.9439063807351438</v>
+          </cell>
+        </row>
       </sheetData>
       <sheetData sheetId="10">
         <row r="3">
@@ -6532,6 +6894,56 @@
           </cell>
           <cell r="F88">
             <v>3.7922716518996142</v>
+          </cell>
+        </row>
+        <row r="89">
+          <cell r="F89">
+            <v>3.2813618646090217</v>
+          </cell>
+        </row>
+        <row r="90">
+          <cell r="F90">
+            <v>3.2697547683923909</v>
+          </cell>
+        </row>
+        <row r="91">
+          <cell r="F91">
+            <v>3.2047040139153982</v>
+          </cell>
+        </row>
+        <row r="92">
+          <cell r="F92">
+            <v>3.2549158310311577</v>
+          </cell>
+        </row>
+        <row r="93">
+          <cell r="F93">
+            <v>3.2748305877682848</v>
+          </cell>
+        </row>
+        <row r="94">
+          <cell r="F94">
+            <v>3.2316589182446869</v>
+          </cell>
+        </row>
+        <row r="95">
+          <cell r="F95">
+            <v>3.1522107881940538</v>
+          </cell>
+        </row>
+        <row r="96">
+          <cell r="F96">
+            <v>3.3199651923877345</v>
+          </cell>
+        </row>
+        <row r="97">
+          <cell r="F97">
+            <v>3.6081058817068481</v>
+          </cell>
+        </row>
+        <row r="98">
+          <cell r="F98">
+            <v>3.9886758283952539</v>
           </cell>
         </row>
       </sheetData>
@@ -6556,7 +6968,7 @@
       <sheetName val="Historique des pannes"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0">
+      <sheetData sheetId="0" refreshError="1">
         <row r="6">
           <cell r="U6">
             <v>53174</v>
@@ -6988,9 +7400,9 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
+      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="3" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -7293,11 +7705,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BC5C344-277E-4945-8E25-AE6A0B860AD5}">
-  <dimension ref="A1:K87"/>
+  <dimension ref="A1:K97"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A50" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A86" sqref="A86:I87"/>
+      <pane ySplit="1" topLeftCell="A65" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A87" sqref="A87:I97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10702,6 +11114,376 @@
         <v>3.7922716518996142</v>
       </c>
     </row>
+    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A88" s="21">
+        <v>45744</v>
+      </c>
+      <c r="B88" s="42">
+        <f>'[1]NaOCl Pré'!F89</f>
+        <v>2.6728183915360635</v>
+      </c>
+      <c r="C88" s="4">
+        <f>[1]Acide!F89</f>
+        <v>0</v>
+      </c>
+      <c r="D88" s="4">
+        <f>[1]FeCl3!F89</f>
+        <v>0</v>
+      </c>
+      <c r="E88" s="42">
+        <f>'[1]NaOCl 2 CEB 1'!I89</f>
+        <v>6.2047569803515916</v>
+      </c>
+      <c r="F88" s="4">
+        <f>'[1]Soude CEB 1'!F89</f>
+        <v>0</v>
+      </c>
+      <c r="G88" s="42">
+        <f>'[1]Acide CEB2'!F89</f>
+        <v>0.50910826505448747</v>
+      </c>
+      <c r="H88" s="42">
+        <f>[1]SBS!G89</f>
+        <v>-36.083048285737014</v>
+      </c>
+      <c r="I88" s="42">
+        <f>[1]ASC!F89</f>
+        <v>3.2813618646090217</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A89" s="21">
+        <v>45745</v>
+      </c>
+      <c r="B89" s="42">
+        <f>'[1]NaOCl Pré'!F90</f>
+        <v>2.2421175554690493</v>
+      </c>
+      <c r="C89" s="4">
+        <f>[1]Acide!F90</f>
+        <v>0</v>
+      </c>
+      <c r="D89" s="4">
+        <f>[1]FeCl3!F90</f>
+        <v>0</v>
+      </c>
+      <c r="E89" s="42">
+        <f>'[1]NaOCl 2 CEB 1'!I90</f>
+        <v>5.23160762942784</v>
+      </c>
+      <c r="F89" s="4">
+        <f>'[1]Soude CEB 1'!F90</f>
+        <v>0</v>
+      </c>
+      <c r="G89" s="42">
+        <f>'[1]Acide CEB2'!F90</f>
+        <v>2.6158038147139022</v>
+      </c>
+      <c r="H89" s="42">
+        <f>[1]SBS!G90</f>
+        <v>5.3873102374464716</v>
+      </c>
+      <c r="I89" s="42">
+        <f>[1]ASC!F90</f>
+        <v>3.2697547683923909</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A90" s="21">
+        <v>45746</v>
+      </c>
+      <c r="B90" s="42">
+        <f>'[1]NaOCl Pré'!F91</f>
+        <v>2.4503223610822245</v>
+      </c>
+      <c r="C90" s="4">
+        <f>[1]Acide!F91</f>
+        <v>0</v>
+      </c>
+      <c r="D90" s="4">
+        <f>[1]FeCl3!F91</f>
+        <v>0</v>
+      </c>
+      <c r="E90" s="42">
+        <f>'[1]NaOCl 2 CEB 1'!I91</f>
+        <v>5.8081715225652752</v>
+      </c>
+      <c r="F90" s="4">
+        <f>'[1]Soude CEB 1'!F91</f>
+        <v>0</v>
+      </c>
+      <c r="G90" s="42">
+        <f>'[1]Acide CEB2'!F91</f>
+        <v>0.66551965362726506</v>
+      </c>
+      <c r="H90" s="42">
+        <f>[1]SBS!G91</f>
+        <v>7.6534760167136318</v>
+      </c>
+      <c r="I90" s="42">
+        <f>[1]ASC!F91</f>
+        <v>3.2047040139153982</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A91" s="21">
+        <v>45747</v>
+      </c>
+      <c r="B91" s="42">
+        <f>'[1]NaOCl Pré'!F92</f>
+        <v>2.1718557321887912</v>
+      </c>
+      <c r="C91" s="4">
+        <f>[1]Acide!F92</f>
+        <v>0</v>
+      </c>
+      <c r="D91" s="4">
+        <f>[1]FeCl3!F92</f>
+        <v>0</v>
+      </c>
+      <c r="E91" s="42">
+        <f>'[1]NaOCl 2 CEB 1'!I92</f>
+        <v>5.3531655370849975</v>
+      </c>
+      <c r="F91" s="4">
+        <f>'[1]Soude CEB 1'!F92</f>
+        <v>0</v>
+      </c>
+      <c r="G91" s="42">
+        <f>'[1]Acide CEB2'!F92</f>
+        <v>1.8047815239315059</v>
+      </c>
+      <c r="H91" s="42">
+        <f>[1]SBS!G92</f>
+        <v>10.553383487396138</v>
+      </c>
+      <c r="I91" s="42">
+        <f>[1]ASC!F92</f>
+        <v>3.2549158310311577</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A92" s="21">
+        <v>45748</v>
+      </c>
+      <c r="B92" s="42">
+        <f>'[1]NaOCl Pré'!F93</f>
+        <v>2.0263309610895259</v>
+      </c>
+      <c r="C92" s="4">
+        <f>[1]Acide!F93</f>
+        <v>0</v>
+      </c>
+      <c r="D92" s="4">
+        <f>[1]FeCl3!F93</f>
+        <v>0</v>
+      </c>
+      <c r="E92" s="42">
+        <f>'[1]NaOCl 2 CEB 1'!I93</f>
+        <v>4.3550993790580863</v>
+      </c>
+      <c r="F92" s="4">
+        <f>'[1]Soude CEB 1'!F93</f>
+        <v>0</v>
+      </c>
+      <c r="G92" s="42">
+        <f>'[1]Acide CEB2'!F93</f>
+        <v>1.6634060128347077</v>
+      </c>
+      <c r="H92" s="42">
+        <f>[1]SBS!G93</f>
+        <v>10.040923568383947</v>
+      </c>
+      <c r="I92" s="42">
+        <f>[1]ASC!F93</f>
+        <v>3.2748305877682848</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A93" s="21">
+        <v>45749</v>
+      </c>
+      <c r="B93" s="42">
+        <f>'[1]NaOCl Pré'!F94</f>
+        <v>2.2980685640851179</v>
+      </c>
+      <c r="C93" s="4">
+        <f>[1]Acide!F94</f>
+        <v>0</v>
+      </c>
+      <c r="D93" s="4">
+        <f>[1]FeCl3!F94</f>
+        <v>0</v>
+      </c>
+      <c r="E93" s="42">
+        <f>'[1]NaOCl 2 CEB 1'!I94</f>
+        <v>5.3218429905128932</v>
+      </c>
+      <c r="F93" s="4">
+        <f>'[1]Soude CEB 1'!F94</f>
+        <v>0</v>
+      </c>
+      <c r="G93" s="42">
+        <f>'[1]Acide CEB2'!F94</f>
+        <v>0.7559436066069477</v>
+      </c>
+      <c r="H93" s="42">
+        <f>[1]SBS!G94</f>
+        <v>9.0108477907548234</v>
+      </c>
+      <c r="I93" s="42">
+        <f>[1]ASC!F94</f>
+        <v>3.2316589182446869</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A94" s="21">
+        <v>45750</v>
+      </c>
+      <c r="B94" s="42">
+        <f>'[1]NaOCl Pré'!F95</f>
+        <v>2.2616759018432679</v>
+      </c>
+      <c r="C94" s="4">
+        <f>[1]Acide!F95</f>
+        <v>0</v>
+      </c>
+      <c r="D94" s="4">
+        <f>[1]FeCl3!F95</f>
+        <v>0</v>
+      </c>
+      <c r="E94" s="42">
+        <f>'[1]NaOCl 2 CEB 1'!I95</f>
+        <v>5.1566210562026473</v>
+      </c>
+      <c r="F94" s="4">
+        <f>'[1]Soude CEB 1'!F95</f>
+        <v>0</v>
+      </c>
+      <c r="G94" s="42">
+        <f>'[1]Acide CEB2'!F95</f>
+        <v>0.69358060989859205</v>
+      </c>
+      <c r="H94" s="42">
+        <f>[1]SBS!G95</f>
+        <v>7.448452636737156</v>
+      </c>
+      <c r="I94" s="42">
+        <f>[1]ASC!F95</f>
+        <v>3.1522107881940538</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A95" s="21">
+        <v>45751</v>
+      </c>
+      <c r="B95" s="42">
+        <f>'[1]NaOCl Pré'!F96</f>
+        <v>3.7531686277477103</v>
+      </c>
+      <c r="C95" s="4">
+        <f>[1]Acide!F96</f>
+        <v>0</v>
+      </c>
+      <c r="D95" s="4">
+        <f>[1]FeCl3!F96</f>
+        <v>0</v>
+      </c>
+      <c r="E95" s="42">
+        <f>'[1]NaOCl 2 CEB 1'!I96</f>
+        <v>5.054670651886056</v>
+      </c>
+      <c r="F95" s="4">
+        <f>'[1]Soude CEB 1'!F96</f>
+        <v>0</v>
+      </c>
+      <c r="G95" s="42">
+        <f>'[1]Acide CEB2'!F96</f>
+        <v>1.3317695130717762</v>
+      </c>
+      <c r="H95" s="42">
+        <f>[1]SBS!G96</f>
+        <v>11.04763346070901</v>
+      </c>
+      <c r="I95" s="42">
+        <f>[1]ASC!F96</f>
+        <v>3.3199651923877345</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A96" s="21">
+        <v>45752</v>
+      </c>
+      <c r="B96" s="42">
+        <f>'[1]NaOCl Pré'!F97</f>
+        <v>2.2845845461035967</v>
+      </c>
+      <c r="C96" s="4">
+        <f>[1]Acide!F97</f>
+        <v>0</v>
+      </c>
+      <c r="D96" s="4">
+        <f>[1]FeCl3!F97</f>
+        <v>0</v>
+      </c>
+      <c r="E96" s="42">
+        <f>'[1]NaOCl 2 CEB 1'!I97</f>
+        <v>4.9557910923169866</v>
+      </c>
+      <c r="F96" s="4">
+        <f>'[1]Soude CEB 1'!F97</f>
+        <v>0</v>
+      </c>
+      <c r="G96" s="42">
+        <f>'[1]Acide CEB2'!F97</f>
+        <v>0.84353890933053599</v>
+      </c>
+      <c r="H96" s="42">
+        <f>[1]SBS!G97</f>
+        <v>6.6780163655335336</v>
+      </c>
+      <c r="I96" s="42">
+        <f>[1]ASC!F97</f>
+        <v>3.6081058817068481</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A97" s="21">
+        <v>45753</v>
+      </c>
+      <c r="B97" s="42">
+        <f>'[1]NaOCl Pré'!F98</f>
+        <v>0.91693697204486457</v>
+      </c>
+      <c r="C97" s="4">
+        <f>[1]Acide!F98</f>
+        <v>0</v>
+      </c>
+      <c r="D97" s="4">
+        <f>[1]FeCl3!F98</f>
+        <v>0</v>
+      </c>
+      <c r="E97" s="42">
+        <f>'[1]NaOCl 2 CEB 1'!I98</f>
+        <v>5.4282668745056863</v>
+      </c>
+      <c r="F97" s="4">
+        <f>'[1]Soude CEB 1'!F98</f>
+        <v>0</v>
+      </c>
+      <c r="G97" s="42">
+        <f>'[1]Acide CEB2'!F98</f>
+        <v>1.1003243664538822</v>
+      </c>
+      <c r="H97" s="42">
+        <f>[1]SBS!G98</f>
+        <v>1.9439063807351438</v>
+      </c>
+      <c r="I97" s="42">
+        <f>[1]ASC!F98</f>
+        <v>3.9886758283952539</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10712,8 +11494,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07CB649B-6F18-453D-B029-557EF373D866}">
   <dimension ref="A1:G87"/>
   <sheetViews>
-    <sheetView topLeftCell="A68" workbookViewId="0">
-      <selection activeCell="A88" sqref="A88:XFD370"/>
+    <sheetView topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="G95" sqref="G95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -12787,7 +13569,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38810916-2DF0-490C-B584-F0F3D6EAB44D}">
   <dimension ref="A1:K87"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
       <selection activeCell="K1" sqref="K1"/>
     </sheetView>
   </sheetViews>

--- a/Consommation spécifique.xlsx
+++ b/Consommation spécifique.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\Projects\wave2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A563DE6C-3B34-4D9A-9F2B-43225475F3D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83FE9A4A-7751-44EE-A5E0-9CE57F7B15F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" activeTab="2" xr2:uid="{4E830341-EBCA-4A95-9BBE-9CDD49815F8C}"/>
   </bookViews>
@@ -1740,51 +1740,111 @@
           </cell>
         </row>
         <row r="89">
+          <cell r="B89">
+            <v>45744</v>
+          </cell>
+          <cell r="D89">
+            <v>268.79999999999882</v>
+          </cell>
           <cell r="F89">
             <v>2.6728183915360635</v>
           </cell>
         </row>
         <row r="90">
+          <cell r="B90">
+            <v>45745</v>
+          </cell>
+          <cell r="D90">
+            <v>230.39999999999949</v>
+          </cell>
           <cell r="F90">
             <v>2.2421175554690493</v>
           </cell>
         </row>
         <row r="91">
+          <cell r="B91">
+            <v>45746</v>
+          </cell>
+          <cell r="D91">
+            <v>259.19999999999987</v>
+          </cell>
           <cell r="F91">
             <v>2.4503223610822245</v>
           </cell>
         </row>
         <row r="92">
+          <cell r="B92">
+            <v>45747</v>
+          </cell>
+          <cell r="D92">
+            <v>227.20000000000164</v>
+          </cell>
           <cell r="F92">
             <v>2.1718557321887912</v>
           </cell>
         </row>
         <row r="93">
+          <cell r="B93">
+            <v>45748</v>
+          </cell>
+          <cell r="D93">
+            <v>214.39999999999947</v>
+          </cell>
           <cell r="F93">
             <v>2.0263309610895259</v>
           </cell>
         </row>
         <row r="94">
+          <cell r="B94">
+            <v>45749</v>
+          </cell>
+          <cell r="D94">
+            <v>243.19999999999987</v>
+          </cell>
           <cell r="F94">
             <v>2.2980685640851179</v>
           </cell>
         </row>
         <row r="95">
+          <cell r="B95">
+            <v>45750</v>
+          </cell>
+          <cell r="D95">
+            <v>240.00000000000023</v>
+          </cell>
           <cell r="F95">
             <v>2.2616759018432679</v>
           </cell>
         </row>
         <row r="96">
+          <cell r="B96">
+            <v>45751</v>
+          </cell>
+          <cell r="D96">
+            <v>396.79999999999893</v>
+          </cell>
           <cell r="F96">
             <v>3.7531686277477103</v>
           </cell>
         </row>
         <row r="97">
+          <cell r="B97">
+            <v>45752</v>
+          </cell>
+          <cell r="D97">
+            <v>208.00000000000196</v>
+          </cell>
           <cell r="F97">
             <v>2.2845845461035967</v>
           </cell>
         </row>
         <row r="98">
+          <cell r="B98">
+            <v>45753</v>
+          </cell>
+          <cell r="D98">
+            <v>79.999999999998295</v>
+          </cell>
           <cell r="F98">
             <v>0.91693697204486457</v>
           </cell>
@@ -2480,51 +2540,81 @@
           </cell>
         </row>
         <row r="89">
+          <cell r="D89">
+            <v>0</v>
+          </cell>
           <cell r="F89">
             <v>0</v>
           </cell>
         </row>
         <row r="90">
+          <cell r="D90">
+            <v>0</v>
+          </cell>
           <cell r="F90">
             <v>0</v>
           </cell>
         </row>
         <row r="91">
+          <cell r="D91">
+            <v>0</v>
+          </cell>
           <cell r="F91">
             <v>0</v>
           </cell>
         </row>
         <row r="92">
+          <cell r="D92">
+            <v>0</v>
+          </cell>
           <cell r="F92">
             <v>0</v>
           </cell>
         </row>
         <row r="93">
+          <cell r="D93">
+            <v>0</v>
+          </cell>
           <cell r="F93">
             <v>0</v>
           </cell>
         </row>
         <row r="94">
+          <cell r="D94">
+            <v>0</v>
+          </cell>
           <cell r="F94">
             <v>0</v>
           </cell>
         </row>
         <row r="95">
+          <cell r="D95">
+            <v>0</v>
+          </cell>
           <cell r="F95">
             <v>0</v>
           </cell>
         </row>
         <row r="96">
+          <cell r="D96">
+            <v>0</v>
+          </cell>
           <cell r="F96">
             <v>0</v>
           </cell>
         </row>
         <row r="97">
+          <cell r="D97">
+            <v>0</v>
+          </cell>
           <cell r="F97">
             <v>0</v>
           </cell>
         </row>
         <row r="98">
+          <cell r="D98">
+            <v>0</v>
+          </cell>
           <cell r="F98">
             <v>0</v>
           </cell>
@@ -3220,51 +3310,81 @@
           </cell>
         </row>
         <row r="89">
+          <cell r="D89">
+            <v>0</v>
+          </cell>
           <cell r="F89">
             <v>0</v>
           </cell>
         </row>
         <row r="90">
+          <cell r="D90">
+            <v>0</v>
+          </cell>
           <cell r="F90">
             <v>0</v>
           </cell>
         </row>
         <row r="91">
+          <cell r="D91">
+            <v>0</v>
+          </cell>
           <cell r="F91">
             <v>0</v>
           </cell>
         </row>
         <row r="92">
+          <cell r="D92">
+            <v>0</v>
+          </cell>
           <cell r="F92">
             <v>0</v>
           </cell>
         </row>
         <row r="93">
+          <cell r="D93">
+            <v>0</v>
+          </cell>
           <cell r="F93">
             <v>0</v>
           </cell>
         </row>
         <row r="94">
+          <cell r="D94">
+            <v>0</v>
+          </cell>
           <cell r="F94">
             <v>0</v>
           </cell>
         </row>
         <row r="95">
+          <cell r="D95">
+            <v>0</v>
+          </cell>
           <cell r="F95">
             <v>0</v>
           </cell>
         </row>
         <row r="96">
+          <cell r="D96">
+            <v>0</v>
+          </cell>
           <cell r="F96">
             <v>0</v>
           </cell>
         </row>
         <row r="97">
+          <cell r="D97">
+            <v>0</v>
+          </cell>
           <cell r="F97">
             <v>0</v>
           </cell>
         </row>
         <row r="98">
+          <cell r="D98">
+            <v>0</v>
+          </cell>
           <cell r="F98">
             <v>0</v>
           </cell>
@@ -3961,51 +4081,81 @@
           </cell>
         </row>
         <row r="89">
+          <cell r="H89">
+            <v>623.99999999999886</v>
+          </cell>
           <cell r="I89">
             <v>6.2047569803515916</v>
           </cell>
         </row>
         <row r="90">
+          <cell r="H90">
+            <v>537.6000000000048</v>
+          </cell>
           <cell r="I90">
             <v>5.23160762942784</v>
           </cell>
         </row>
         <row r="91">
+          <cell r="H91">
+            <v>614.39999999999986</v>
+          </cell>
           <cell r="I91">
             <v>5.8081715225652752</v>
           </cell>
         </row>
         <row r="92">
+          <cell r="H92">
+            <v>559.99999999999864</v>
+          </cell>
           <cell r="I92">
             <v>5.3531655370849975</v>
           </cell>
         </row>
         <row r="93">
+          <cell r="H93">
+            <v>460.79999999999899</v>
+          </cell>
           <cell r="I93">
             <v>4.3550993790580863</v>
           </cell>
         </row>
         <row r="94">
+          <cell r="H94">
+            <v>563.19999999999845</v>
+          </cell>
           <cell r="I94">
             <v>5.3218429905128932</v>
           </cell>
         </row>
         <row r="95">
+          <cell r="H95">
+            <v>547.20000000000016</v>
+          </cell>
           <cell r="I95">
             <v>5.1566210562026473</v>
           </cell>
         </row>
         <row r="96">
+          <cell r="H96">
+            <v>534.40000000000146</v>
+          </cell>
           <cell r="I96">
             <v>5.054670651886056</v>
           </cell>
         </row>
         <row r="97">
+          <cell r="H97">
+            <v>451.20000000000005</v>
+          </cell>
           <cell r="I97">
             <v>4.9557910923169866</v>
           </cell>
         </row>
         <row r="98">
+          <cell r="H98">
+            <v>473.59999999999758</v>
+          </cell>
           <cell r="I98">
             <v>5.4282668745056863</v>
           </cell>
@@ -4701,51 +4851,81 @@
           </cell>
         </row>
         <row r="89">
+          <cell r="D89">
+            <v>0</v>
+          </cell>
           <cell r="F89">
             <v>0</v>
           </cell>
         </row>
         <row r="90">
+          <cell r="D90">
+            <v>0</v>
+          </cell>
           <cell r="F90">
             <v>0</v>
           </cell>
         </row>
         <row r="91">
+          <cell r="D91">
+            <v>0</v>
+          </cell>
           <cell r="F91">
             <v>0</v>
           </cell>
         </row>
         <row r="92">
+          <cell r="D92">
+            <v>0</v>
+          </cell>
           <cell r="F92">
             <v>0</v>
           </cell>
         </row>
         <row r="93">
+          <cell r="D93">
+            <v>0</v>
+          </cell>
           <cell r="F93">
             <v>0</v>
           </cell>
         </row>
         <row r="94">
+          <cell r="D94">
+            <v>0</v>
+          </cell>
           <cell r="F94">
             <v>0</v>
           </cell>
         </row>
         <row r="95">
+          <cell r="D95">
+            <v>0</v>
+          </cell>
           <cell r="F95">
             <v>0</v>
           </cell>
         </row>
         <row r="96">
+          <cell r="D96">
+            <v>0</v>
+          </cell>
           <cell r="F96">
             <v>0</v>
           </cell>
         </row>
         <row r="97">
+          <cell r="D97">
+            <v>0</v>
+          </cell>
           <cell r="F97">
             <v>0</v>
           </cell>
         </row>
         <row r="98">
+          <cell r="D98">
+            <v>0</v>
+          </cell>
           <cell r="F98">
             <v>0</v>
           </cell>
@@ -5417,51 +5597,81 @@
           </cell>
         </row>
         <row r="89">
+          <cell r="D89">
+            <v>51.19999999999969</v>
+          </cell>
           <cell r="F89">
             <v>0.50910826505448747</v>
           </cell>
         </row>
         <row r="90">
+          <cell r="D90">
+            <v>268.80000000000058</v>
+          </cell>
           <cell r="F90">
             <v>2.6158038147139022</v>
           </cell>
         </row>
         <row r="91">
+          <cell r="D91">
+            <v>70.399999999999352</v>
+          </cell>
           <cell r="F91">
             <v>0.66551965362726506</v>
           </cell>
         </row>
         <row r="92">
+          <cell r="D92">
+            <v>188.79999999999876</v>
+          </cell>
           <cell r="F92">
             <v>1.8047815239315059</v>
           </cell>
         </row>
         <row r="93">
+          <cell r="D93">
+            <v>176.00000000000193</v>
+          </cell>
           <cell r="F93">
             <v>1.6634060128347077</v>
           </cell>
         </row>
         <row r="94">
+          <cell r="D94">
+            <v>80.000000000000071</v>
+          </cell>
           <cell r="F94">
             <v>0.7559436066069477</v>
           </cell>
         </row>
         <row r="95">
+          <cell r="D95">
+            <v>73.599999999999</v>
+          </cell>
           <cell r="F95">
             <v>0.69358060989859205</v>
           </cell>
         </row>
         <row r="96">
+          <cell r="D96">
+            <v>140.80000000000047</v>
+          </cell>
           <cell r="F96">
             <v>1.3317695130717762</v>
           </cell>
         </row>
         <row r="97">
+          <cell r="D97">
+            <v>76.799999999998647</v>
+          </cell>
           <cell r="F97">
             <v>0.84353890933053599</v>
           </cell>
         </row>
         <row r="98">
+          <cell r="D98">
+            <v>96.000000000001862</v>
+          </cell>
           <cell r="F98">
             <v>1.1003243664538822</v>
           </cell>
@@ -6157,51 +6367,81 @@
           </cell>
         </row>
         <row r="89">
+          <cell r="E89">
+            <v>-3628.8</v>
+          </cell>
           <cell r="G89">
             <v>-36.083048285737014</v>
           </cell>
         </row>
         <row r="90">
+          <cell r="E90">
+            <v>553.59999999999945</v>
+          </cell>
           <cell r="G90">
             <v>5.3873102374464716</v>
           </cell>
         </row>
         <row r="91">
+          <cell r="E91">
+            <v>809.60000000000139</v>
+          </cell>
           <cell r="G91">
             <v>7.6534760167136318</v>
           </cell>
         </row>
         <row r="92">
+          <cell r="E92">
+            <v>1103.9999999999975</v>
+          </cell>
           <cell r="G92">
             <v>10.553383487396138</v>
           </cell>
         </row>
         <row r="93">
+          <cell r="E93">
+            <v>1062.4000000000003</v>
+          </cell>
           <cell r="G93">
             <v>10.040923568383947</v>
           </cell>
         </row>
         <row r="94">
+          <cell r="E94">
+            <v>953.6000000000015</v>
+          </cell>
           <cell r="G94">
             <v>9.0108477907548234</v>
           </cell>
         </row>
         <row r="95">
+          <cell r="E95">
+            <v>790.4</v>
+          </cell>
           <cell r="G95">
             <v>7.448452636737156</v>
           </cell>
         </row>
         <row r="96">
+          <cell r="E96">
+            <v>1167.9999999999993</v>
+          </cell>
           <cell r="G96">
             <v>11.04763346070901</v>
           </cell>
         </row>
         <row r="97">
+          <cell r="E97">
+            <v>608.00000000000057</v>
+          </cell>
           <cell r="G97">
             <v>6.6780163655335336</v>
           </cell>
         </row>
         <row r="98">
+          <cell r="E98">
+            <v>169.59999999999908</v>
+          </cell>
           <cell r="G98">
             <v>1.9439063807351438</v>
           </cell>
@@ -6897,51 +7137,81 @@
           </cell>
         </row>
         <row r="89">
+          <cell r="D89">
+            <v>330.00000000000006</v>
+          </cell>
           <cell r="F89">
             <v>3.2813618646090217</v>
           </cell>
         </row>
         <row r="90">
+          <cell r="D90">
+            <v>336.00000000000205</v>
+          </cell>
           <cell r="F90">
             <v>3.2697547683923909</v>
           </cell>
         </row>
         <row r="91">
+          <cell r="D91">
+            <v>338.99999999999864</v>
+          </cell>
           <cell r="F91">
             <v>3.2047040139153982</v>
           </cell>
         </row>
         <row r="92">
+          <cell r="D92">
+            <v>340.50000000000045</v>
+          </cell>
           <cell r="F92">
             <v>3.2549158310311577</v>
           </cell>
         </row>
         <row r="93">
+          <cell r="D93">
+            <v>346.49999999999892</v>
+          </cell>
           <cell r="F93">
             <v>3.2748305877682848</v>
           </cell>
         </row>
         <row r="94">
+          <cell r="D94">
+            <v>341.99999999999875</v>
+          </cell>
           <cell r="F94">
             <v>3.2316589182446869</v>
           </cell>
         </row>
         <row r="95">
+          <cell r="D95">
+            <v>334.50000000000023</v>
+          </cell>
           <cell r="F95">
             <v>3.1522107881940538</v>
           </cell>
         </row>
         <row r="96">
+          <cell r="D96">
+            <v>351.00000000000085</v>
+          </cell>
           <cell r="F96">
             <v>3.3199651923877345</v>
           </cell>
         </row>
         <row r="97">
+          <cell r="D97">
+            <v>328.5</v>
+          </cell>
           <cell r="F97">
             <v>3.6081058817068481</v>
           </cell>
         </row>
         <row r="98">
+          <cell r="D98">
+            <v>348.00000000000074</v>
+          </cell>
           <cell r="F98">
             <v>3.9886758283952539</v>
           </cell>
@@ -7709,7 +7979,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A65" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A87" sqref="A87:I97"/>
+      <selection pane="bottomLeft" activeCell="B93" sqref="B93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -11495,7 +11765,7 @@
   <dimension ref="A1:G87"/>
   <sheetViews>
     <sheetView topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="G95" sqref="G95"/>
+      <selection activeCell="G89" sqref="G89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -13567,10 +13837,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38810916-2DF0-490C-B584-F0F3D6EAB44D}">
-  <dimension ref="A1:K87"/>
+  <dimension ref="A1:K97"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
-      <selection activeCell="K1" sqref="K1"/>
+      <selection activeCell="A87" sqref="A87:I97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -16842,7 +17112,7 @@
         <v>330.00000000000006</v>
       </c>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A87" s="3">
         <f>'[1]NaOCl Pré'!B88</f>
         <v>45743</v>
@@ -16878,6 +17148,386 @@
       <c r="I87" s="4">
         <f>[1]ASC!D88</f>
         <v>326.99999999999994</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A88" s="3">
+        <f>'[1]NaOCl Pré'!B89</f>
+        <v>45744</v>
+      </c>
+      <c r="B88" s="23">
+        <f>'[1]NaOCl Pré'!D89</f>
+        <v>268.79999999999882</v>
+      </c>
+      <c r="C88" s="4">
+        <f>[1]Acide!D89</f>
+        <v>0</v>
+      </c>
+      <c r="D88" s="4">
+        <f>[1]FeCl3!D89</f>
+        <v>0</v>
+      </c>
+      <c r="E88" s="4">
+        <f>'[1]NaOCl 2 CEB 1'!H89</f>
+        <v>623.99999999999886</v>
+      </c>
+      <c r="F88" s="4">
+        <f>'[1]Soude CEB 1'!D89</f>
+        <v>0</v>
+      </c>
+      <c r="G88" s="4">
+        <f>'[1]Acide CEB2'!D89</f>
+        <v>51.19999999999969</v>
+      </c>
+      <c r="H88" s="4">
+        <f>[1]SBS!E89</f>
+        <v>-3628.8</v>
+      </c>
+      <c r="I88" s="4">
+        <f>[1]ASC!D89</f>
+        <v>330.00000000000006</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A89" s="3">
+        <f>'[1]NaOCl Pré'!B90</f>
+        <v>45745</v>
+      </c>
+      <c r="B89" s="23">
+        <f>'[1]NaOCl Pré'!D90</f>
+        <v>230.39999999999949</v>
+      </c>
+      <c r="C89" s="4">
+        <f>[1]Acide!D90</f>
+        <v>0</v>
+      </c>
+      <c r="D89" s="4">
+        <f>[1]FeCl3!D90</f>
+        <v>0</v>
+      </c>
+      <c r="E89" s="4">
+        <f>'[1]NaOCl 2 CEB 1'!H90</f>
+        <v>537.6000000000048</v>
+      </c>
+      <c r="F89" s="4">
+        <f>'[1]Soude CEB 1'!D90</f>
+        <v>0</v>
+      </c>
+      <c r="G89" s="4">
+        <f>'[1]Acide CEB2'!D90</f>
+        <v>268.80000000000058</v>
+      </c>
+      <c r="H89" s="4">
+        <f>[1]SBS!E90</f>
+        <v>553.59999999999945</v>
+      </c>
+      <c r="I89" s="4">
+        <f>[1]ASC!D90</f>
+        <v>336.00000000000205</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A90" s="3">
+        <f>'[1]NaOCl Pré'!B91</f>
+        <v>45746</v>
+      </c>
+      <c r="B90" s="23">
+        <f>'[1]NaOCl Pré'!D91</f>
+        <v>259.19999999999987</v>
+      </c>
+      <c r="C90" s="4">
+        <f>[1]Acide!D91</f>
+        <v>0</v>
+      </c>
+      <c r="D90" s="4">
+        <f>[1]FeCl3!D91</f>
+        <v>0</v>
+      </c>
+      <c r="E90" s="4">
+        <f>'[1]NaOCl 2 CEB 1'!H91</f>
+        <v>614.39999999999986</v>
+      </c>
+      <c r="F90" s="4">
+        <f>'[1]Soude CEB 1'!D91</f>
+        <v>0</v>
+      </c>
+      <c r="G90" s="4">
+        <f>'[1]Acide CEB2'!D91</f>
+        <v>70.399999999999352</v>
+      </c>
+      <c r="H90" s="4">
+        <f>[1]SBS!E91</f>
+        <v>809.60000000000139</v>
+      </c>
+      <c r="I90" s="4">
+        <f>[1]ASC!D91</f>
+        <v>338.99999999999864</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A91" s="3">
+        <f>'[1]NaOCl Pré'!B92</f>
+        <v>45747</v>
+      </c>
+      <c r="B91" s="23">
+        <f>'[1]NaOCl Pré'!D92</f>
+        <v>227.20000000000164</v>
+      </c>
+      <c r="C91" s="4">
+        <f>[1]Acide!D92</f>
+        <v>0</v>
+      </c>
+      <c r="D91" s="4">
+        <f>[1]FeCl3!D92</f>
+        <v>0</v>
+      </c>
+      <c r="E91" s="4">
+        <f>'[1]NaOCl 2 CEB 1'!H92</f>
+        <v>559.99999999999864</v>
+      </c>
+      <c r="F91" s="4">
+        <f>'[1]Soude CEB 1'!D92</f>
+        <v>0</v>
+      </c>
+      <c r="G91" s="4">
+        <f>'[1]Acide CEB2'!D92</f>
+        <v>188.79999999999876</v>
+      </c>
+      <c r="H91" s="4">
+        <f>[1]SBS!E92</f>
+        <v>1103.9999999999975</v>
+      </c>
+      <c r="I91" s="4">
+        <f>[1]ASC!D92</f>
+        <v>340.50000000000045</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A92" s="3">
+        <f>'[1]NaOCl Pré'!B93</f>
+        <v>45748</v>
+      </c>
+      <c r="B92" s="23">
+        <f>'[1]NaOCl Pré'!D93</f>
+        <v>214.39999999999947</v>
+      </c>
+      <c r="C92" s="4">
+        <f>[1]Acide!D93</f>
+        <v>0</v>
+      </c>
+      <c r="D92" s="4">
+        <f>[1]FeCl3!D93</f>
+        <v>0</v>
+      </c>
+      <c r="E92" s="4">
+        <f>'[1]NaOCl 2 CEB 1'!H93</f>
+        <v>460.79999999999899</v>
+      </c>
+      <c r="F92" s="4">
+        <f>'[1]Soude CEB 1'!D93</f>
+        <v>0</v>
+      </c>
+      <c r="G92" s="4">
+        <f>'[1]Acide CEB2'!D93</f>
+        <v>176.00000000000193</v>
+      </c>
+      <c r="H92" s="4">
+        <f>[1]SBS!E93</f>
+        <v>1062.4000000000003</v>
+      </c>
+      <c r="I92" s="4">
+        <f>[1]ASC!D93</f>
+        <v>346.49999999999892</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A93" s="3">
+        <f>'[1]NaOCl Pré'!B94</f>
+        <v>45749</v>
+      </c>
+      <c r="B93" s="23">
+        <f>'[1]NaOCl Pré'!D94</f>
+        <v>243.19999999999987</v>
+      </c>
+      <c r="C93" s="4">
+        <f>[1]Acide!D94</f>
+        <v>0</v>
+      </c>
+      <c r="D93" s="4">
+        <f>[1]FeCl3!D94</f>
+        <v>0</v>
+      </c>
+      <c r="E93" s="4">
+        <f>'[1]NaOCl 2 CEB 1'!H94</f>
+        <v>563.19999999999845</v>
+      </c>
+      <c r="F93" s="4">
+        <f>'[1]Soude CEB 1'!D94</f>
+        <v>0</v>
+      </c>
+      <c r="G93" s="4">
+        <f>'[1]Acide CEB2'!D94</f>
+        <v>80.000000000000071</v>
+      </c>
+      <c r="H93" s="4">
+        <f>[1]SBS!E94</f>
+        <v>953.6000000000015</v>
+      </c>
+      <c r="I93" s="4">
+        <f>[1]ASC!D94</f>
+        <v>341.99999999999875</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A94" s="3">
+        <f>'[1]NaOCl Pré'!B95</f>
+        <v>45750</v>
+      </c>
+      <c r="B94" s="23">
+        <f>'[1]NaOCl Pré'!D95</f>
+        <v>240.00000000000023</v>
+      </c>
+      <c r="C94" s="4">
+        <f>[1]Acide!D95</f>
+        <v>0</v>
+      </c>
+      <c r="D94" s="4">
+        <f>[1]FeCl3!D95</f>
+        <v>0</v>
+      </c>
+      <c r="E94" s="4">
+        <f>'[1]NaOCl 2 CEB 1'!H95</f>
+        <v>547.20000000000016</v>
+      </c>
+      <c r="F94" s="4">
+        <f>'[1]Soude CEB 1'!D95</f>
+        <v>0</v>
+      </c>
+      <c r="G94" s="4">
+        <f>'[1]Acide CEB2'!D95</f>
+        <v>73.599999999999</v>
+      </c>
+      <c r="H94" s="4">
+        <f>[1]SBS!E95</f>
+        <v>790.4</v>
+      </c>
+      <c r="I94" s="4">
+        <f>[1]ASC!D95</f>
+        <v>334.50000000000023</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A95" s="3">
+        <f>'[1]NaOCl Pré'!B96</f>
+        <v>45751</v>
+      </c>
+      <c r="B95" s="23">
+        <f>'[1]NaOCl Pré'!D96</f>
+        <v>396.79999999999893</v>
+      </c>
+      <c r="C95" s="4">
+        <f>[1]Acide!D96</f>
+        <v>0</v>
+      </c>
+      <c r="D95" s="4">
+        <f>[1]FeCl3!D96</f>
+        <v>0</v>
+      </c>
+      <c r="E95" s="4">
+        <f>'[1]NaOCl 2 CEB 1'!H96</f>
+        <v>534.40000000000146</v>
+      </c>
+      <c r="F95" s="4">
+        <f>'[1]Soude CEB 1'!D96</f>
+        <v>0</v>
+      </c>
+      <c r="G95" s="4">
+        <f>'[1]Acide CEB2'!D96</f>
+        <v>140.80000000000047</v>
+      </c>
+      <c r="H95" s="4">
+        <f>[1]SBS!E96</f>
+        <v>1167.9999999999993</v>
+      </c>
+      <c r="I95" s="4">
+        <f>[1]ASC!D96</f>
+        <v>351.00000000000085</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A96" s="3">
+        <f>'[1]NaOCl Pré'!B97</f>
+        <v>45752</v>
+      </c>
+      <c r="B96" s="23">
+        <f>'[1]NaOCl Pré'!D97</f>
+        <v>208.00000000000196</v>
+      </c>
+      <c r="C96" s="4">
+        <f>[1]Acide!D97</f>
+        <v>0</v>
+      </c>
+      <c r="D96" s="4">
+        <f>[1]FeCl3!D97</f>
+        <v>0</v>
+      </c>
+      <c r="E96" s="4">
+        <f>'[1]NaOCl 2 CEB 1'!H97</f>
+        <v>451.20000000000005</v>
+      </c>
+      <c r="F96" s="4">
+        <f>'[1]Soude CEB 1'!D97</f>
+        <v>0</v>
+      </c>
+      <c r="G96" s="4">
+        <f>'[1]Acide CEB2'!D97</f>
+        <v>76.799999999998647</v>
+      </c>
+      <c r="H96" s="4">
+        <f>[1]SBS!E97</f>
+        <v>608.00000000000057</v>
+      </c>
+      <c r="I96" s="4">
+        <f>[1]ASC!D97</f>
+        <v>328.5</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A97" s="3">
+        <f>'[1]NaOCl Pré'!B98</f>
+        <v>45753</v>
+      </c>
+      <c r="B97" s="23">
+        <f>'[1]NaOCl Pré'!D98</f>
+        <v>79.999999999998295</v>
+      </c>
+      <c r="C97" s="4">
+        <f>[1]Acide!D98</f>
+        <v>0</v>
+      </c>
+      <c r="D97" s="4">
+        <f>[1]FeCl3!D98</f>
+        <v>0</v>
+      </c>
+      <c r="E97" s="4">
+        <f>'[1]NaOCl 2 CEB 1'!H98</f>
+        <v>473.59999999999758</v>
+      </c>
+      <c r="F97" s="4">
+        <f>'[1]Soude CEB 1'!D98</f>
+        <v>0</v>
+      </c>
+      <c r="G97" s="4">
+        <f>'[1]Acide CEB2'!D98</f>
+        <v>96.000000000001862</v>
+      </c>
+      <c r="H97" s="4">
+        <f>[1]SBS!E98</f>
+        <v>169.59999999999908</v>
+      </c>
+      <c r="I97" s="4">
+        <f>[1]ASC!D98</f>
+        <v>348.00000000000074</v>
       </c>
     </row>
   </sheetData>

--- a/Consommation spécifique.xlsx
+++ b/Consommation spécifique.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\Projects\wave2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83FE9A4A-7751-44EE-A5E0-9CE57F7B15F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA2B3454-7AEE-4C48-B58E-CB25F9861337}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" activeTab="2" xr2:uid="{4E830341-EBCA-4A95-9BBE-9CDD49815F8C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" activeTab="1" xr2:uid="{4E830341-EBCA-4A95-9BBE-9CDD49815F8C}"/>
   </bookViews>
   <sheets>
     <sheet name="CS Produits chimiques" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="17">
   <si>
     <t>Prod</t>
   </si>
@@ -91,36 +91,6 @@
   </si>
   <si>
     <t>Index d'énergie RO MWh</t>
-  </si>
-  <si>
-    <t>NaOCl (L/j)</t>
-  </si>
-  <si>
-    <t>Acide (L/j)</t>
-  </si>
-  <si>
-    <t>Coagulant (L/j)</t>
-  </si>
-  <si>
-    <t>NaOCl CEB 1  (1+2) (L/j)</t>
-  </si>
-  <si>
-    <t>Soude CEB1 (L/j)</t>
-  </si>
-  <si>
-    <t>Acide CEB 2 (L/j)</t>
-  </si>
-  <si>
-    <t>SMBS (L/j)</t>
-  </si>
-  <si>
-    <t>Antiscalant (L/j)</t>
-  </si>
-  <si>
-    <t>Soude CIP RO (L/j)</t>
-  </si>
-  <si>
-    <t>Acide CIP RO (L/j)</t>
   </si>
 </sst>
 </file>
@@ -7238,7 +7208,7 @@
       <sheetName val="Historique des pannes"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1">
+      <sheetData sheetId="0">
         <row r="6">
           <cell r="U6">
             <v>53174</v>
@@ -7669,10 +7639,60 @@
             <v>86228</v>
           </cell>
         </row>
+        <row r="92">
+          <cell r="U92">
+            <v>100568</v>
+          </cell>
+        </row>
+        <row r="93">
+          <cell r="U93">
+            <v>102760</v>
+          </cell>
+        </row>
+        <row r="94">
+          <cell r="U94">
+            <v>105782</v>
+          </cell>
+        </row>
+        <row r="95">
+          <cell r="U95">
+            <v>104611</v>
+          </cell>
+        </row>
+        <row r="96">
+          <cell r="U96">
+            <v>105807</v>
+          </cell>
+        </row>
+        <row r="97">
+          <cell r="U97">
+            <v>105828</v>
+          </cell>
+        </row>
+        <row r="98">
+          <cell r="U98">
+            <v>106116</v>
+          </cell>
+        </row>
+        <row r="99">
+          <cell r="U99">
+            <v>105724</v>
+          </cell>
+        </row>
+        <row r="100">
+          <cell r="U100">
+            <v>91045</v>
+          </cell>
+        </row>
+        <row r="101">
+          <cell r="U101">
+            <v>87247</v>
+          </cell>
+        </row>
       </sheetData>
-      <sheetData sheetId="1" refreshError="1"/>
-      <sheetData sheetId="2" refreshError="1"/>
-      <sheetData sheetId="3" refreshError="1"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -7978,8 +7998,8 @@
   <dimension ref="A1:K97"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A65" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B93" sqref="B93"/>
+      <pane ySplit="1" topLeftCell="A68" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A98" sqref="A98:XFD98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -11383,6 +11403,8 @@
         <f>[1]ASC!F88</f>
         <v>3.7922716518996142</v>
       </c>
+      <c r="J87" s="4"/>
+      <c r="K87" s="30"/>
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A88" s="21">
@@ -11420,6 +11442,8 @@
         <f>[1]ASC!F89</f>
         <v>3.2813618646090217</v>
       </c>
+      <c r="J88" s="4"/>
+      <c r="K88" s="30"/>
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A89" s="21">
@@ -11457,6 +11481,8 @@
         <f>[1]ASC!F90</f>
         <v>3.2697547683923909</v>
       </c>
+      <c r="J89" s="4"/>
+      <c r="K89" s="30"/>
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A90" s="21">
@@ -11494,6 +11520,8 @@
         <f>[1]ASC!F91</f>
         <v>3.2047040139153982</v>
       </c>
+      <c r="J90" s="4"/>
+      <c r="K90" s="30"/>
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A91" s="21">
@@ -11531,6 +11559,8 @@
         <f>[1]ASC!F92</f>
         <v>3.2549158310311577</v>
       </c>
+      <c r="J91" s="4"/>
+      <c r="K91" s="30"/>
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A92" s="21">
@@ -11568,6 +11598,8 @@
         <f>[1]ASC!F93</f>
         <v>3.2748305877682848</v>
       </c>
+      <c r="J92" s="4"/>
+      <c r="K92" s="30"/>
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A93" s="21">
@@ -11605,6 +11637,8 @@
         <f>[1]ASC!F94</f>
         <v>3.2316589182446869</v>
       </c>
+      <c r="J93" s="4"/>
+      <c r="K93" s="30"/>
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A94" s="21">
@@ -11642,6 +11676,8 @@
         <f>[1]ASC!F95</f>
         <v>3.1522107881940538</v>
       </c>
+      <c r="J94" s="4"/>
+      <c r="K94" s="30"/>
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A95" s="21">
@@ -11679,6 +11715,8 @@
         <f>[1]ASC!F96</f>
         <v>3.3199651923877345</v>
       </c>
+      <c r="J95" s="4"/>
+      <c r="K95" s="30"/>
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A96" s="21">
@@ -11716,8 +11754,10 @@
         <f>[1]ASC!F97</f>
         <v>3.6081058817068481</v>
       </c>
-    </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J96" s="4"/>
+      <c r="K96" s="30"/>
+    </row>
+    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A97" s="21">
         <v>45753</v>
       </c>
@@ -11753,6 +11793,8 @@
         <f>[1]ASC!F98</f>
         <v>3.9886758283952539</v>
       </c>
+      <c r="J97" s="4"/>
+      <c r="K97" s="30"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -11762,2072 +11804,2306 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07CB649B-6F18-453D-B029-557EF373D866}">
-  <dimension ref="A1:G87"/>
+  <dimension ref="B1:H97"/>
   <sheetViews>
-    <sheetView topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="G89" sqref="G89"/>
+    <sheetView tabSelected="1" topLeftCell="B70" workbookViewId="0">
+      <selection activeCell="G100" sqref="G100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.44140625" style="2"/>
-    <col min="2" max="4" width="13.5546875" style="2" customWidth="1"/>
-    <col min="5" max="5" width="15.109375" style="2" customWidth="1"/>
-    <col min="6" max="16384" width="11.44140625" style="2"/>
+    <col min="1" max="1" width="5.6640625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="11.44140625" style="2"/>
+    <col min="3" max="5" width="13.5546875" style="2" customWidth="1"/>
+    <col min="6" max="6" width="15.109375" style="2" customWidth="1"/>
+    <col min="7" max="16384" width="11.44140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="59.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="11" t="s">
+    <row r="1" spans="2:8" ht="59.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B1" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="C1" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="D1" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="D1" s="16" t="s">
+      <c r="E1" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="F1" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="F1" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="G1" s="13" t="s">
+      <c r="G1" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="H1" s="13" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="33">
+    <row r="2" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B2" s="33">
         <v>45658</v>
       </c>
-      <c r="B2" s="38">
+      <c r="C2" s="38">
         <v>11077.9</v>
       </c>
-      <c r="C2" s="38"/>
       <c r="D2" s="38"/>
-      <c r="E2" s="18">
+      <c r="E2" s="38"/>
+      <c r="F2" s="18">
         <v>163700</v>
       </c>
-      <c r="F2" s="18">
+      <c r="G2" s="18">
         <f>[2]Sheet1!U6</f>
         <v>53174</v>
       </c>
-      <c r="G2" s="22">
-        <f t="shared" ref="G2" si="0">E2/F2</f>
+      <c r="H2" s="22">
+        <f t="shared" ref="H2" si="0">F2/G2</f>
         <v>3.0785722345507205</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="12">
+    <row r="3" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B3" s="12">
         <v>45659</v>
       </c>
-      <c r="B3" s="8">
+      <c r="C3" s="8">
         <v>11236.4</v>
       </c>
-      <c r="C3" s="8"/>
       <c r="D3" s="8"/>
-      <c r="E3" s="5">
-        <f>(B3-B2)</f>
+      <c r="E3" s="8"/>
+      <c r="F3" s="5">
+        <f>(C3-C2)</f>
         <v>158.5</v>
       </c>
-      <c r="F3" s="10">
+      <c r="G3" s="10">
         <f>[2]Sheet1!U7</f>
         <v>53766</v>
       </c>
-      <c r="G3" s="6">
-        <f>E3/F3*1000</f>
+      <c r="H3" s="6">
+        <f>F3/G3*1000</f>
         <v>2.9479596771193695</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="32">
+    <row r="4" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B4" s="32">
         <v>45660</v>
       </c>
-      <c r="B4" s="4">
+      <c r="C4" s="4">
         <v>11380.2</v>
       </c>
-      <c r="C4" s="8"/>
       <c r="D4" s="8"/>
-      <c r="E4" s="5">
-        <f>(B4-B3)</f>
+      <c r="E4" s="8"/>
+      <c r="F4" s="5">
+        <f>(C4-C3)</f>
         <v>143.80000000000109</v>
       </c>
-      <c r="F4" s="8">
+      <c r="G4" s="8">
         <f>[2]Sheet1!U8</f>
         <v>48641</v>
       </c>
-      <c r="G4" s="6">
-        <f>E4/F4*1000</f>
+      <c r="H4" s="6">
+        <f>F4/G4*1000</f>
         <v>2.9563536933862604</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="19">
+    <row r="5" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B5" s="19">
         <v>45661</v>
       </c>
-      <c r="B5" s="4">
+      <c r="C5" s="4">
         <v>11525</v>
       </c>
-      <c r="C5" s="8"/>
       <c r="D5" s="8"/>
-      <c r="E5" s="5">
-        <f t="shared" ref="E5:E68" si="1">(B5-B4)</f>
+      <c r="E5" s="8"/>
+      <c r="F5" s="5">
+        <f t="shared" ref="F5:F68" si="1">(C5-C4)</f>
         <v>144.79999999999927</v>
       </c>
-      <c r="F5" s="15">
+      <c r="G5" s="15">
         <f>[2]Sheet1!U9</f>
         <v>47464</v>
       </c>
-      <c r="G5" s="6">
-        <f t="shared" ref="G5:G68" si="2">E5/F5*1000</f>
+      <c r="H5" s="6">
+        <f t="shared" ref="H5:H68" si="2">F5/G5*1000</f>
         <v>3.0507331872576957</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="19">
+    <row r="6" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B6" s="19">
         <v>45662</v>
       </c>
-      <c r="B6" s="4">
+      <c r="C6" s="4">
         <v>11694</v>
       </c>
-      <c r="C6" s="8"/>
       <c r="D6" s="8"/>
-      <c r="E6" s="5">
+      <c r="E6" s="8"/>
+      <c r="F6" s="5">
         <f t="shared" si="1"/>
         <v>169</v>
       </c>
-      <c r="F6" s="8">
+      <c r="G6" s="8">
         <f>[2]Sheet1!U10</f>
         <v>57975</v>
       </c>
-      <c r="G6" s="6">
+      <c r="H6" s="6">
         <f t="shared" si="2"/>
         <v>2.9150495903406641</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="19">
+    <row r="7" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B7" s="19">
         <v>45663</v>
       </c>
-      <c r="B7" s="4">
+      <c r="C7" s="4">
         <v>11862.8</v>
       </c>
-      <c r="C7" s="8"/>
       <c r="D7" s="8"/>
-      <c r="E7" s="5">
+      <c r="E7" s="8"/>
+      <c r="F7" s="5">
         <f t="shared" si="1"/>
         <v>168.79999999999927</v>
       </c>
-      <c r="F7" s="15">
+      <c r="G7" s="15">
         <f>[2]Sheet1!U11</f>
         <v>58341</v>
       </c>
-      <c r="G7" s="6">
+      <c r="H7" s="6">
         <f t="shared" si="2"/>
         <v>2.8933340189574963</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="19">
+    <row r="8" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B8" s="19">
         <v>45664</v>
       </c>
-      <c r="B8" s="4">
+      <c r="C8" s="4">
         <v>12009.8</v>
       </c>
-      <c r="C8" s="8"/>
       <c r="D8" s="8"/>
-      <c r="E8" s="5">
+      <c r="E8" s="8"/>
+      <c r="F8" s="5">
         <f t="shared" si="1"/>
         <v>147</v>
       </c>
-      <c r="F8" s="8">
+      <c r="G8" s="8">
         <f>[2]Sheet1!U12</f>
         <v>52934</v>
       </c>
-      <c r="G8" s="6">
+      <c r="H8" s="6">
         <f t="shared" si="2"/>
         <v>2.7770431102882838</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" s="19">
+    <row r="9" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B9" s="19">
         <v>45665</v>
       </c>
-      <c r="B9" s="4">
+      <c r="C9" s="4">
         <v>12183</v>
       </c>
-      <c r="C9" s="8"/>
       <c r="D9" s="8"/>
-      <c r="E9" s="5">
+      <c r="E9" s="8"/>
+      <c r="F9" s="5">
         <f t="shared" si="1"/>
         <v>173.20000000000073</v>
       </c>
-      <c r="F9" s="15">
+      <c r="G9" s="15">
         <f>[2]Sheet1!U13</f>
         <v>50448</v>
       </c>
-      <c r="G9" s="6">
+      <c r="H9" s="6">
         <f t="shared" si="2"/>
         <v>3.4332381858547558</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" s="19">
+    <row r="10" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B10" s="19">
         <v>45666</v>
       </c>
-      <c r="B10" s="4">
+      <c r="C10" s="4">
         <v>12354.3</v>
       </c>
-      <c r="C10" s="8"/>
       <c r="D10" s="8"/>
-      <c r="E10" s="5">
+      <c r="E10" s="8"/>
+      <c r="F10" s="5">
         <f t="shared" si="1"/>
         <v>171.29999999999927</v>
       </c>
-      <c r="F10" s="8">
+      <c r="G10" s="8">
         <f>[2]Sheet1!U14</f>
         <v>65465</v>
       </c>
-      <c r="G10" s="6">
+      <c r="H10" s="6">
         <f t="shared" si="2"/>
         <v>2.6166653937218247</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" s="19">
+    <row r="11" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B11" s="19">
         <v>45667</v>
       </c>
-      <c r="B11" s="4">
+      <c r="C11" s="4">
         <v>12526.7</v>
       </c>
-      <c r="C11" s="8"/>
       <c r="D11" s="8"/>
-      <c r="E11" s="5">
+      <c r="E11" s="8"/>
+      <c r="F11" s="5">
         <f t="shared" si="1"/>
         <v>172.40000000000146</v>
       </c>
-      <c r="F11" s="15">
+      <c r="G11" s="15">
         <f>[2]Sheet1!U15</f>
         <v>58423</v>
       </c>
-      <c r="G11" s="6">
+      <c r="H11" s="6">
         <f t="shared" si="2"/>
         <v>2.9508926279034191</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" s="19">
+    <row r="12" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B12" s="19">
         <v>45668</v>
       </c>
-      <c r="B12" s="4">
+      <c r="C12" s="4">
         <v>12693.5</v>
       </c>
-      <c r="C12" s="8"/>
       <c r="D12" s="8"/>
-      <c r="E12" s="5">
+      <c r="E12" s="8"/>
+      <c r="F12" s="5">
         <f t="shared" si="1"/>
         <v>166.79999999999927</v>
       </c>
-      <c r="F12" s="8">
+      <c r="G12" s="8">
         <f>[2]Sheet1!U16</f>
         <v>56419</v>
       </c>
-      <c r="G12" s="6">
+      <c r="H12" s="6">
         <f t="shared" si="2"/>
         <v>2.9564508410287185</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13" s="19">
+    <row r="13" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B13" s="19">
         <v>45669</v>
       </c>
-      <c r="B13" s="4">
+      <c r="C13" s="4">
         <v>12864.4</v>
       </c>
-      <c r="C13" s="8"/>
       <c r="D13" s="8"/>
-      <c r="E13" s="5">
+      <c r="E13" s="8"/>
+      <c r="F13" s="5">
         <f t="shared" si="1"/>
         <v>170.89999999999964</v>
       </c>
-      <c r="F13" s="15">
+      <c r="G13" s="15">
         <f>[2]Sheet1!U17</f>
         <v>58678</v>
       </c>
-      <c r="G13" s="6">
+      <c r="H13" s="6">
         <f t="shared" si="2"/>
         <v>2.9125055387027445</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A14" s="19">
+    <row r="14" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B14" s="19">
         <v>45670</v>
       </c>
-      <c r="B14" s="4">
+      <c r="C14" s="4">
         <v>13037.4</v>
       </c>
-      <c r="C14" s="8"/>
       <c r="D14" s="8"/>
-      <c r="E14" s="5">
+      <c r="E14" s="8"/>
+      <c r="F14" s="5">
         <f t="shared" si="1"/>
         <v>173</v>
       </c>
-      <c r="F14" s="8">
+      <c r="G14" s="8">
         <f>[2]Sheet1!U18</f>
         <v>58205</v>
       </c>
-      <c r="G14" s="6">
+      <c r="H14" s="6">
         <f t="shared" si="2"/>
         <v>2.9722532428485526</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A15" s="19">
+    <row r="15" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B15" s="19">
         <v>45671</v>
       </c>
-      <c r="B15" s="4">
+      <c r="C15" s="4">
         <v>13208.3</v>
       </c>
-      <c r="C15" s="8"/>
       <c r="D15" s="8"/>
-      <c r="E15" s="5">
+      <c r="E15" s="8"/>
+      <c r="F15" s="5">
         <f t="shared" si="1"/>
         <v>170.89999999999964</v>
       </c>
-      <c r="F15" s="15">
+      <c r="G15" s="15">
         <f>[2]Sheet1!U19</f>
         <v>57968</v>
       </c>
-      <c r="G15" s="6">
+      <c r="H15" s="6">
         <f t="shared" si="2"/>
         <v>2.9481783052718677</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A16" s="19">
+    <row r="16" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B16" s="19">
         <v>45672</v>
       </c>
-      <c r="B16" s="4">
+      <c r="C16" s="4">
         <v>13371.1</v>
       </c>
-      <c r="C16" s="8"/>
       <c r="D16" s="8"/>
-      <c r="E16" s="5">
+      <c r="E16" s="8"/>
+      <c r="F16" s="5">
         <f t="shared" si="1"/>
         <v>162.80000000000109</v>
       </c>
-      <c r="F16" s="8">
+      <c r="G16" s="8">
         <f>[2]Sheet1!U20</f>
         <v>54239</v>
       </c>
-      <c r="G16" s="6">
+      <c r="H16" s="6">
         <f t="shared" si="2"/>
         <v>3.001530264201056</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A17" s="19">
+    <row r="17" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B17" s="19">
         <v>45673</v>
       </c>
-      <c r="B17" s="4">
+      <c r="C17" s="4">
         <v>13524.3</v>
       </c>
-      <c r="C17" s="8"/>
       <c r="D17" s="8"/>
-      <c r="E17" s="5">
+      <c r="E17" s="8"/>
+      <c r="F17" s="5">
         <f t="shared" si="1"/>
         <v>153.19999999999891</v>
       </c>
-      <c r="F17" s="15">
+      <c r="G17" s="15">
         <f>[2]Sheet1!U21</f>
         <v>66973</v>
       </c>
-      <c r="G17" s="6">
+      <c r="H17" s="6">
         <f t="shared" si="2"/>
         <v>2.2874889880996658</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A18" s="19">
+    <row r="18" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B18" s="19">
         <v>45674</v>
       </c>
-      <c r="B18" s="4">
+      <c r="C18" s="4">
         <v>13741.5</v>
       </c>
-      <c r="C18" s="8"/>
       <c r="D18" s="8"/>
-      <c r="E18" s="5">
+      <c r="E18" s="8"/>
+      <c r="F18" s="5">
         <f t="shared" si="1"/>
         <v>217.20000000000073</v>
       </c>
-      <c r="F18" s="8">
+      <c r="G18" s="8">
         <f>[2]Sheet1!U22</f>
         <v>68507</v>
       </c>
-      <c r="G18" s="6">
+      <c r="H18" s="6">
         <f t="shared" si="2"/>
         <v>3.1704789291605344</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A19" s="19">
+    <row r="19" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B19" s="19">
         <v>45675</v>
       </c>
-      <c r="B19" s="4">
+      <c r="C19" s="4">
         <v>13949.7</v>
       </c>
-      <c r="C19" s="8"/>
       <c r="D19" s="8"/>
-      <c r="E19" s="5">
+      <c r="E19" s="8"/>
+      <c r="F19" s="5">
         <f t="shared" si="1"/>
         <v>208.20000000000073</v>
       </c>
-      <c r="F19" s="4">
+      <c r="G19" s="4">
         <f>[2]Sheet1!U23</f>
         <v>62883</v>
       </c>
-      <c r="G19" s="6">
+      <c r="H19" s="6">
         <f t="shared" si="2"/>
         <v>3.3109107389914718</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A20" s="19">
+    <row r="20" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B20" s="19">
         <v>45676</v>
       </c>
-      <c r="B20" s="4">
+      <c r="C20" s="4">
         <v>14095.6</v>
       </c>
-      <c r="C20" s="8"/>
       <c r="D20" s="8"/>
-      <c r="E20" s="5">
+      <c r="E20" s="8"/>
+      <c r="F20" s="5">
         <f t="shared" si="1"/>
         <v>145.89999999999964</v>
       </c>
-      <c r="F20" s="8">
+      <c r="G20" s="8">
         <f>[2]Sheet1!U24</f>
         <v>49626</v>
       </c>
-      <c r="G20" s="6">
+      <c r="H20" s="6">
         <f t="shared" si="2"/>
         <v>2.9399911336799187</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A21" s="19">
+    <row r="21" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B21" s="19">
         <v>45677</v>
       </c>
-      <c r="B21" s="4">
+      <c r="C21" s="4">
         <v>14266.4</v>
       </c>
-      <c r="C21" s="8"/>
       <c r="D21" s="8"/>
-      <c r="E21" s="5">
+      <c r="E21" s="8"/>
+      <c r="F21" s="5">
         <f t="shared" si="1"/>
         <v>170.79999999999927</v>
       </c>
-      <c r="F21" s="15">
+      <c r="G21" s="15">
         <f>[2]Sheet1!U25</f>
         <v>58465</v>
       </c>
-      <c r="G21" s="6">
+      <c r="H21" s="6">
         <f t="shared" si="2"/>
         <v>2.9214059693833794</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A22" s="19">
+    <row r="22" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B22" s="19">
         <v>45678</v>
       </c>
-      <c r="B22" s="4">
+      <c r="C22" s="4">
         <v>14436.9</v>
       </c>
-      <c r="C22" s="8"/>
       <c r="D22" s="8"/>
-      <c r="E22" s="5">
+      <c r="E22" s="8"/>
+      <c r="F22" s="5">
         <f t="shared" si="1"/>
         <v>170.5</v>
       </c>
-      <c r="F22" s="8">
+      <c r="G22" s="8">
         <f>[2]Sheet1!U26</f>
         <v>58549</v>
       </c>
-      <c r="G22" s="6">
+      <c r="H22" s="6">
         <f t="shared" si="2"/>
         <v>2.9120907274248919</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A23" s="19">
+    <row r="23" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B23" s="19">
         <v>45679</v>
       </c>
-      <c r="B23" s="4">
+      <c r="C23" s="4">
         <v>14620.7</v>
       </c>
-      <c r="C23" s="8"/>
       <c r="D23" s="8"/>
-      <c r="E23" s="5">
+      <c r="E23" s="8"/>
+      <c r="F23" s="5">
         <f t="shared" si="1"/>
         <v>183.80000000000109</v>
       </c>
-      <c r="F23" s="15">
+      <c r="G23" s="15">
         <f>[2]Sheet1!U27</f>
         <v>59980</v>
       </c>
-      <c r="G23" s="6">
+      <c r="H23" s="6">
         <f t="shared" si="2"/>
         <v>3.0643547849283275</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A24" s="19">
+    <row r="24" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B24" s="19">
         <v>45680</v>
       </c>
-      <c r="B24" s="4">
+      <c r="C24" s="4">
         <v>14821.6</v>
       </c>
-      <c r="C24" s="8"/>
       <c r="D24" s="8"/>
-      <c r="E24" s="5">
+      <c r="E24" s="8"/>
+      <c r="F24" s="5">
         <f t="shared" si="1"/>
         <v>200.89999999999964</v>
       </c>
-      <c r="F24" s="8">
+      <c r="G24" s="8">
         <f>[2]Sheet1!U28</f>
         <v>66594</v>
       </c>
-      <c r="G24" s="6">
+      <c r="H24" s="6">
         <f t="shared" si="2"/>
         <v>3.0167882992461728</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A25" s="19">
+    <row r="25" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B25" s="19">
         <v>45681</v>
       </c>
-      <c r="B25" s="4">
+      <c r="C25" s="4">
         <v>15037.9</v>
       </c>
-      <c r="C25" s="8"/>
       <c r="D25" s="8"/>
-      <c r="E25" s="5">
+      <c r="E25" s="8"/>
+      <c r="F25" s="5">
         <f t="shared" si="1"/>
         <v>216.29999999999927</v>
       </c>
-      <c r="F25" s="15">
+      <c r="G25" s="15">
         <f>[2]Sheet1!U29</f>
         <v>70950</v>
       </c>
-      <c r="G25" s="6">
+      <c r="H25" s="6">
         <f t="shared" si="2"/>
         <v>3.048625792811829</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A26" s="19">
+    <row r="26" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B26" s="19">
         <v>45682</v>
       </c>
-      <c r="B26" s="4">
+      <c r="C26" s="4">
         <v>15273.7</v>
       </c>
-      <c r="C26" s="8"/>
       <c r="D26" s="8"/>
-      <c r="E26" s="5">
+      <c r="E26" s="8"/>
+      <c r="F26" s="5">
         <f t="shared" si="1"/>
         <v>235.80000000000109</v>
       </c>
-      <c r="F26" s="8">
+      <c r="G26" s="8">
         <f>[2]Sheet1!U30</f>
         <v>78568</v>
       </c>
-      <c r="G26" s="6">
+      <c r="H26" s="6">
         <f t="shared" si="2"/>
         <v>3.0012218714998613</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A27" s="19">
+    <row r="27" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B27" s="19">
         <v>45683</v>
       </c>
-      <c r="B27" s="4">
+      <c r="C27" s="4">
         <v>15484.1</v>
       </c>
-      <c r="C27" s="8"/>
       <c r="D27" s="8"/>
-      <c r="E27" s="5">
+      <c r="E27" s="8"/>
+      <c r="F27" s="5">
         <f t="shared" si="1"/>
         <v>210.39999999999964</v>
       </c>
-      <c r="F27" s="15">
+      <c r="G27" s="15">
         <f>[2]Sheet1!U31</f>
         <v>71467</v>
       </c>
-      <c r="G27" s="6">
+      <c r="H27" s="6">
         <f t="shared" si="2"/>
         <v>2.9440161193277965</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A28" s="19">
+    <row r="28" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B28" s="19">
         <v>45684</v>
       </c>
-      <c r="B28" s="4">
+      <c r="C28" s="4">
         <v>15695.8</v>
       </c>
-      <c r="C28" s="8"/>
       <c r="D28" s="8"/>
-      <c r="E28" s="5">
+      <c r="E28" s="8"/>
+      <c r="F28" s="5">
         <f t="shared" si="1"/>
         <v>211.69999999999891</v>
       </c>
-      <c r="F28" s="8">
+      <c r="G28" s="8">
         <f>[2]Sheet1!U32</f>
         <v>71945</v>
       </c>
-      <c r="G28" s="6">
+      <c r="H28" s="6">
         <f t="shared" si="2"/>
         <v>2.9425255403433028</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A29" s="19">
+    <row r="29" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B29" s="19">
         <v>45685</v>
       </c>
-      <c r="B29" s="4">
+      <c r="C29" s="4">
         <v>15909.9</v>
       </c>
-      <c r="C29" s="8"/>
       <c r="D29" s="8"/>
-      <c r="E29" s="5">
+      <c r="E29" s="8"/>
+      <c r="F29" s="5">
         <f t="shared" si="1"/>
         <v>214.10000000000036</v>
       </c>
-      <c r="F29" s="15">
+      <c r="G29" s="15">
         <f>[2]Sheet1!U33</f>
         <v>69243</v>
       </c>
-      <c r="G29" s="6">
+      <c r="H29" s="6">
         <f t="shared" si="2"/>
         <v>3.0920093005791252</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A30" s="19">
+    <row r="30" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B30" s="19">
         <v>45686</v>
       </c>
-      <c r="B30" s="4">
+      <c r="C30" s="4">
         <v>16136.6</v>
       </c>
-      <c r="C30" s="8"/>
       <c r="D30" s="8"/>
-      <c r="E30" s="5">
+      <c r="E30" s="8"/>
+      <c r="F30" s="5">
         <f t="shared" si="1"/>
         <v>226.70000000000073</v>
       </c>
-      <c r="F30" s="8">
+      <c r="G30" s="8">
         <f>[2]Sheet1!U34</f>
         <v>76346</v>
       </c>
-      <c r="G30" s="6">
+      <c r="H30" s="6">
         <f t="shared" si="2"/>
         <v>2.9693762607078398</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A31" s="19">
+    <row r="31" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B31" s="19">
         <v>45687</v>
       </c>
-      <c r="B31" s="4">
+      <c r="C31" s="4">
         <v>16351</v>
       </c>
-      <c r="C31" s="8"/>
       <c r="D31" s="8"/>
-      <c r="E31" s="5">
+      <c r="E31" s="8"/>
+      <c r="F31" s="5">
         <f t="shared" si="1"/>
         <v>214.39999999999964</v>
       </c>
-      <c r="F31" s="15">
+      <c r="G31" s="15">
         <f>[2]Sheet1!U35</f>
         <v>71246</v>
       </c>
-      <c r="G31" s="6">
+      <c r="H31" s="6">
         <f t="shared" si="2"/>
         <v>3.0092917497122595</v>
       </c>
     </row>
-    <row r="32" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="20">
+    <row r="32" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B32" s="20">
         <v>45688</v>
       </c>
-      <c r="B32" s="7">
+      <c r="C32" s="7">
         <v>16570.2</v>
       </c>
-      <c r="C32" s="9"/>
-      <c r="D32" s="27"/>
-      <c r="E32" s="5">
+      <c r="D32" s="9"/>
+      <c r="E32" s="27"/>
+      <c r="F32" s="5">
         <f t="shared" si="1"/>
         <v>219.20000000000073</v>
       </c>
-      <c r="F32" s="9">
+      <c r="G32" s="9">
         <f>[2]Sheet1!U36</f>
         <v>72868</v>
       </c>
-      <c r="G32" s="6">
+      <c r="H32" s="6">
         <f t="shared" si="2"/>
         <v>3.0081791732996752</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A33" s="33">
+    <row r="33" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B33" s="33">
         <v>45689</v>
       </c>
-      <c r="B33" s="35">
+      <c r="C33" s="35">
         <v>16796.900000000001</v>
       </c>
-      <c r="C33" s="36"/>
-      <c r="D33" s="29"/>
-      <c r="E33" s="5">
+      <c r="D33" s="36"/>
+      <c r="E33" s="29"/>
+      <c r="F33" s="5">
         <f t="shared" si="1"/>
         <v>226.70000000000073</v>
       </c>
-      <c r="F33" s="36">
+      <c r="G33" s="36">
         <f>[2]Sheet1!U37</f>
         <v>71689</v>
       </c>
-      <c r="G33" s="6">
+      <c r="H33" s="6">
         <f t="shared" si="2"/>
         <v>3.1622703622592132</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A34" s="12">
+    <row r="34" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B34" s="12">
         <v>45690</v>
       </c>
-      <c r="B34" s="4">
+      <c r="C34" s="4">
         <v>16983.099999999999</v>
       </c>
-      <c r="C34" s="27"/>
       <c r="D34" s="27"/>
-      <c r="E34" s="5">
+      <c r="E34" s="27"/>
+      <c r="F34" s="5">
         <f t="shared" si="1"/>
         <v>186.19999999999709</v>
       </c>
-      <c r="F34" s="27">
+      <c r="G34" s="27">
         <f>[2]Sheet1!U38</f>
         <v>63773</v>
       </c>
-      <c r="G34" s="6">
+      <c r="H34" s="6">
         <f t="shared" si="2"/>
         <v>2.9197309206089894</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A35" s="12">
+    <row r="35" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B35" s="12">
         <v>45691</v>
       </c>
-      <c r="B35" s="4">
+      <c r="C35" s="4">
         <v>17201.400000000001</v>
       </c>
-      <c r="C35" s="27"/>
       <c r="D35" s="27"/>
-      <c r="E35" s="5">
+      <c r="E35" s="27"/>
+      <c r="F35" s="5">
         <f t="shared" si="1"/>
         <v>218.30000000000291</v>
       </c>
-      <c r="F35" s="27">
+      <c r="G35" s="27">
         <f>[2]Sheet1!U39</f>
         <v>71403</v>
       </c>
-      <c r="G35" s="6">
+      <c r="H35" s="6">
         <f t="shared" si="2"/>
         <v>3.0572945114351344</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A36" s="12">
+    <row r="36" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B36" s="12">
         <v>45692</v>
       </c>
-      <c r="B36" s="4">
+      <c r="C36" s="4">
         <v>17411.400000000001</v>
       </c>
-      <c r="C36" s="27"/>
       <c r="D36" s="27"/>
-      <c r="E36" s="5">
+      <c r="E36" s="27"/>
+      <c r="F36" s="5">
         <f t="shared" si="1"/>
         <v>210</v>
       </c>
-      <c r="F36" s="27">
+      <c r="G36" s="27">
         <f>[2]Sheet1!U40</f>
         <v>68826</v>
       </c>
-      <c r="G36" s="6">
+      <c r="H36" s="6">
         <f t="shared" si="2"/>
         <v>3.0511725220120303</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A37" s="12">
+    <row r="37" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B37" s="12">
         <v>45693</v>
       </c>
-      <c r="B37" s="4">
+      <c r="C37" s="4">
         <v>17610.2</v>
       </c>
-      <c r="C37" s="27"/>
       <c r="D37" s="27"/>
-      <c r="E37" s="5">
+      <c r="E37" s="27"/>
+      <c r="F37" s="5">
         <f t="shared" si="1"/>
         <v>198.79999999999927</v>
       </c>
-      <c r="F37" s="27">
+      <c r="G37" s="27">
         <f>[2]Sheet1!U41</f>
         <v>66010</v>
       </c>
-      <c r="G37" s="6">
+      <c r="H37" s="6">
         <f t="shared" si="2"/>
         <v>3.0116648992576773</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A38" s="12">
+    <row r="38" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B38" s="12">
         <v>45694</v>
       </c>
-      <c r="B38" s="4">
+      <c r="C38" s="4">
         <v>17775.7</v>
       </c>
-      <c r="C38" s="27"/>
       <c r="D38" s="27"/>
-      <c r="E38" s="5">
+      <c r="E38" s="27"/>
+      <c r="F38" s="5">
         <f t="shared" si="1"/>
         <v>165.5</v>
       </c>
-      <c r="F38" s="27">
+      <c r="G38" s="27">
         <f>[2]Sheet1!U42</f>
         <v>52915</v>
       </c>
-      <c r="G38" s="6">
+      <c r="H38" s="6">
         <f t="shared" si="2"/>
         <v>3.1276575640177642</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A39" s="12">
+    <row r="39" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B39" s="12">
         <v>45695</v>
       </c>
-      <c r="B39" s="4">
+      <c r="C39" s="4">
         <v>17962.900000000001</v>
       </c>
-      <c r="C39" s="27"/>
       <c r="D39" s="27"/>
-      <c r="E39" s="5">
+      <c r="E39" s="27"/>
+      <c r="F39" s="5">
         <f t="shared" si="1"/>
         <v>187.20000000000073</v>
       </c>
-      <c r="F39" s="27">
+      <c r="G39" s="27">
         <f>[2]Sheet1!U43</f>
         <v>70336</v>
       </c>
-      <c r="G39" s="6">
+      <c r="H39" s="6">
         <f t="shared" si="2"/>
         <v>2.661510464058245</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A40" s="12">
+    <row r="40" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B40" s="12">
         <v>45696</v>
       </c>
-      <c r="B40" s="4">
+      <c r="C40" s="4">
         <v>18217.900000000001</v>
       </c>
-      <c r="C40" s="27"/>
       <c r="D40" s="27"/>
-      <c r="E40" s="5">
+      <c r="E40" s="27"/>
+      <c r="F40" s="5">
         <f t="shared" si="1"/>
         <v>255</v>
       </c>
-      <c r="F40" s="27">
+      <c r="G40" s="27">
         <f>[2]Sheet1!U44</f>
         <v>77269</v>
       </c>
-      <c r="G40" s="6">
+      <c r="H40" s="6">
         <f t="shared" si="2"/>
         <v>3.3001591841488822</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A41" s="12">
+    <row r="41" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B41" s="12">
         <v>45697</v>
       </c>
-      <c r="B41" s="4">
+      <c r="C41" s="4">
         <v>18459.5</v>
       </c>
-      <c r="C41" s="27"/>
       <c r="D41" s="27"/>
-      <c r="E41" s="5">
+      <c r="E41" s="27"/>
+      <c r="F41" s="5">
         <f t="shared" si="1"/>
         <v>241.59999999999854</v>
       </c>
-      <c r="F41" s="27">
+      <c r="G41" s="27">
         <f>[2]Sheet1!U45</f>
         <v>81052</v>
       </c>
-      <c r="G41" s="6">
+      <c r="H41" s="6">
         <f t="shared" si="2"/>
         <v>2.9808024478112638</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A42" s="12">
+    <row r="42" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B42" s="12">
         <v>45698</v>
       </c>
-      <c r="B42" s="4">
+      <c r="C42" s="4">
         <v>18707.900000000001</v>
       </c>
-      <c r="C42" s="27"/>
       <c r="D42" s="27"/>
-      <c r="E42" s="5">
+      <c r="E42" s="27"/>
+      <c r="F42" s="5">
         <f t="shared" si="1"/>
         <v>248.40000000000146</v>
       </c>
-      <c r="F42" s="27">
+      <c r="G42" s="27">
         <f>[2]Sheet1!U46</f>
         <v>84392</v>
       </c>
-      <c r="G42" s="6">
+      <c r="H42" s="6">
         <f t="shared" si="2"/>
         <v>2.9434069580055158</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A43" s="12">
+    <row r="43" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B43" s="12">
         <v>45699</v>
       </c>
-      <c r="B43" s="4">
+      <c r="C43" s="4">
         <v>18922.599999999999</v>
       </c>
-      <c r="C43" s="27"/>
       <c r="D43" s="27"/>
-      <c r="E43" s="5">
+      <c r="E43" s="27"/>
+      <c r="F43" s="5">
         <f t="shared" si="1"/>
         <v>214.69999999999709</v>
       </c>
-      <c r="F43" s="27">
+      <c r="G43" s="27">
         <f>[2]Sheet1!U47</f>
         <v>75872</v>
       </c>
-      <c r="G43" s="6">
+      <c r="H43" s="6">
         <f t="shared" si="2"/>
         <v>2.8297659215520494</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A44" s="12">
+    <row r="44" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B44" s="12">
         <v>45700</v>
       </c>
-      <c r="B44" s="4">
+      <c r="C44" s="4">
         <v>19047.5</v>
       </c>
-      <c r="C44" s="27"/>
       <c r="D44" s="27"/>
-      <c r="E44" s="5">
+      <c r="E44" s="27"/>
+      <c r="F44" s="5">
         <f t="shared" si="1"/>
         <v>124.90000000000146</v>
       </c>
-      <c r="F44" s="27">
+      <c r="G44" s="27">
         <f>[2]Sheet1!U48</f>
         <v>40308</v>
       </c>
-      <c r="G44" s="6">
+      <c r="H44" s="6">
         <f t="shared" si="2"/>
         <v>3.0986404683934072</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A45" s="12">
+    <row r="45" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B45" s="12">
         <v>45701</v>
       </c>
-      <c r="B45" s="4">
+      <c r="C45" s="4">
         <v>19299.7</v>
       </c>
-      <c r="C45" s="27"/>
       <c r="D45" s="27"/>
-      <c r="E45" s="5">
+      <c r="E45" s="27"/>
+      <c r="F45" s="5">
         <f t="shared" si="1"/>
         <v>252.20000000000073</v>
       </c>
-      <c r="F45" s="27">
+      <c r="G45" s="27">
         <f>[2]Sheet1!U49</f>
         <v>86259</v>
       </c>
-      <c r="G45" s="6">
+      <c r="H45" s="6">
         <f t="shared" si="2"/>
         <v>2.9237528837570657</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A46" s="12">
+    <row r="46" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B46" s="12">
         <v>45702</v>
       </c>
-      <c r="B46" s="4">
+      <c r="C46" s="4">
         <v>19539.599999999999</v>
       </c>
-      <c r="C46" s="27"/>
       <c r="D46" s="27"/>
-      <c r="E46" s="5">
+      <c r="E46" s="27"/>
+      <c r="F46" s="5">
         <f t="shared" si="1"/>
         <v>239.89999999999782</v>
       </c>
-      <c r="F46" s="27">
+      <c r="G46" s="27">
         <f>[2]Sheet1!U50</f>
         <v>80933</v>
       </c>
-      <c r="G46" s="6">
+      <c r="H46" s="6">
         <f t="shared" si="2"/>
         <v>2.9641802478593138</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A47" s="12">
+    <row r="47" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B47" s="12">
         <v>45703</v>
       </c>
-      <c r="B47" s="4">
+      <c r="C47" s="4">
         <v>19772.099999999999</v>
       </c>
-      <c r="C47" s="27"/>
       <c r="D47" s="27"/>
-      <c r="E47" s="5">
+      <c r="E47" s="27"/>
+      <c r="F47" s="5">
         <f t="shared" si="1"/>
         <v>232.5</v>
       </c>
-      <c r="F47" s="27">
+      <c r="G47" s="27">
         <f>[2]Sheet1!U51</f>
         <v>79044</v>
       </c>
-      <c r="G47" s="6">
+      <c r="H47" s="6">
         <f t="shared" si="2"/>
         <v>2.9413997267344771</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A48" s="12">
+    <row r="48" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B48" s="12">
         <v>45704</v>
       </c>
-      <c r="B48" s="4">
+      <c r="C48" s="4">
         <v>19986.5</v>
       </c>
-      <c r="C48" s="27"/>
       <c r="D48" s="27"/>
-      <c r="E48" s="5">
+      <c r="E48" s="27"/>
+      <c r="F48" s="5">
         <f t="shared" si="1"/>
         <v>214.40000000000146</v>
       </c>
-      <c r="F48" s="27">
+      <c r="G48" s="27">
         <f>[2]Sheet1!U52</f>
         <v>72540</v>
       </c>
-      <c r="G48" s="6">
+      <c r="H48" s="6">
         <f t="shared" si="2"/>
         <v>2.9556106975462013</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A49" s="12">
+    <row r="49" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B49" s="12">
         <v>45705</v>
       </c>
-      <c r="B49" s="4">
+      <c r="C49" s="4">
         <v>20235.3</v>
       </c>
-      <c r="C49" s="27"/>
       <c r="D49" s="27"/>
-      <c r="E49" s="5">
+      <c r="E49" s="27"/>
+      <c r="F49" s="5">
         <f t="shared" si="1"/>
         <v>248.79999999999927</v>
       </c>
-      <c r="F49" s="27">
+      <c r="G49" s="27">
         <f>[2]Sheet1!U53</f>
         <v>84015</v>
       </c>
-      <c r="G49" s="6">
+      <c r="H49" s="6">
         <f t="shared" si="2"/>
         <v>2.9613759447717585</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A50" s="12">
+    <row r="50" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B50" s="12">
         <v>45706</v>
       </c>
-      <c r="B50" s="4">
+      <c r="C50" s="4">
         <v>20486.3</v>
       </c>
-      <c r="C50" s="27"/>
       <c r="D50" s="27"/>
-      <c r="E50" s="5">
+      <c r="E50" s="27"/>
+      <c r="F50" s="5">
         <f t="shared" si="1"/>
         <v>251</v>
       </c>
-      <c r="F50" s="27">
+      <c r="G50" s="27">
         <f>[2]Sheet1!U54</f>
         <v>82276</v>
       </c>
-      <c r="G50" s="6">
+      <c r="H50" s="6">
         <f t="shared" si="2"/>
         <v>3.0507073751762364</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A51" s="12">
+    <row r="51" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B51" s="12">
         <v>45707</v>
       </c>
-      <c r="B51" s="4">
+      <c r="C51" s="4">
         <v>20737.599999999999</v>
       </c>
-      <c r="C51" s="27"/>
       <c r="D51" s="27"/>
-      <c r="E51" s="5">
+      <c r="E51" s="27"/>
+      <c r="F51" s="5">
         <f t="shared" si="1"/>
         <v>251.29999999999927</v>
       </c>
-      <c r="F51" s="27">
+      <c r="G51" s="27">
         <f>[2]Sheet1!U55</f>
         <v>84632</v>
       </c>
-      <c r="G51" s="6">
+      <c r="H51" s="6">
         <f t="shared" si="2"/>
         <v>2.9693260232536067</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A52" s="12">
+    <row r="52" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B52" s="12">
         <v>45708</v>
       </c>
-      <c r="B52" s="4">
+      <c r="C52" s="4">
         <v>20990.2</v>
       </c>
-      <c r="C52" s="27"/>
       <c r="D52" s="27"/>
-      <c r="E52" s="5">
+      <c r="E52" s="27"/>
+      <c r="F52" s="5">
         <f t="shared" si="1"/>
         <v>252.60000000000218</v>
       </c>
-      <c r="F52" s="27">
+      <c r="G52" s="27">
         <f>[2]Sheet1!U56</f>
         <v>87013</v>
       </c>
-      <c r="G52" s="6">
+      <c r="H52" s="6">
         <f t="shared" si="2"/>
         <v>2.9030144920874146</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A53" s="12">
+    <row r="53" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B53" s="12">
         <v>45709</v>
       </c>
-      <c r="B53" s="4">
+      <c r="C53" s="4">
         <v>21255.7</v>
       </c>
-      <c r="C53" s="27"/>
       <c r="D53" s="27"/>
-      <c r="E53" s="5">
+      <c r="E53" s="27"/>
+      <c r="F53" s="5">
         <f t="shared" si="1"/>
         <v>265.5</v>
       </c>
-      <c r="F53" s="27">
+      <c r="G53" s="27">
         <f>[2]Sheet1!U57</f>
         <v>89956</v>
       </c>
-      <c r="G53" s="6">
+      <c r="H53" s="6">
         <f t="shared" si="2"/>
         <v>2.9514429276535195</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A54" s="12">
+    <row r="54" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B54" s="12">
         <v>45710</v>
       </c>
-      <c r="B54" s="4">
+      <c r="C54" s="4">
         <v>21479.9</v>
       </c>
-      <c r="C54" s="27"/>
       <c r="D54" s="27"/>
-      <c r="E54" s="5">
+      <c r="E54" s="27"/>
+      <c r="F54" s="5">
         <f t="shared" si="1"/>
         <v>224.20000000000073</v>
       </c>
-      <c r="F54" s="27">
+      <c r="G54" s="27">
         <f>[2]Sheet1!U58</f>
         <v>77612</v>
       </c>
-      <c r="G54" s="6">
+      <c r="H54" s="6">
         <f t="shared" si="2"/>
         <v>2.8887285471318962</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A55" s="12">
+    <row r="55" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B55" s="12">
         <v>45711</v>
       </c>
-      <c r="B55" s="4">
+      <c r="C55" s="4">
         <v>21728.1</v>
       </c>
-      <c r="C55" s="27"/>
       <c r="D55" s="27"/>
-      <c r="E55" s="5">
+      <c r="E55" s="27"/>
+      <c r="F55" s="5">
         <f t="shared" si="1"/>
         <v>248.19999999999709</v>
       </c>
-      <c r="F55" s="27">
+      <c r="G55" s="27">
         <f>[2]Sheet1!U59</f>
         <v>82831</v>
       </c>
-      <c r="G55" s="6">
+      <c r="H55" s="6">
         <f t="shared" si="2"/>
         <v>2.9964626770170235</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A56" s="12">
+    <row r="56" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B56" s="12">
         <v>45712</v>
       </c>
-      <c r="B56" s="4">
+      <c r="C56" s="4">
         <v>21999.599999999999</v>
       </c>
-      <c r="C56" s="27"/>
       <c r="D56" s="27"/>
-      <c r="E56" s="5">
+      <c r="E56" s="27"/>
+      <c r="F56" s="5">
         <f t="shared" si="1"/>
         <v>271.5</v>
       </c>
-      <c r="F56" s="27">
+      <c r="G56" s="27">
         <f>[2]Sheet1!U60</f>
         <v>94316</v>
       </c>
-      <c r="G56" s="6">
+      <c r="H56" s="6">
         <f t="shared" si="2"/>
         <v>2.8786208066499852</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A57" s="12">
+    <row r="57" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B57" s="12">
         <v>45713</v>
       </c>
-      <c r="B57" s="4">
+      <c r="C57" s="4">
         <v>22284.5</v>
       </c>
-      <c r="C57" s="27"/>
       <c r="D57" s="27"/>
-      <c r="E57" s="5">
+      <c r="E57" s="27"/>
+      <c r="F57" s="5">
         <f t="shared" si="1"/>
         <v>284.90000000000146</v>
       </c>
-      <c r="F57" s="27">
+      <c r="G57" s="27">
         <f>[2]Sheet1!U61</f>
         <v>97557</v>
       </c>
-      <c r="G57" s="6">
+      <c r="H57" s="6">
         <f t="shared" si="2"/>
         <v>2.9203440040181787</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A58" s="12">
+    <row r="58" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B58" s="12">
         <v>45714</v>
       </c>
-      <c r="B58" s="4">
+      <c r="C58" s="4">
         <v>22510</v>
       </c>
-      <c r="C58" s="27"/>
       <c r="D58" s="27"/>
-      <c r="E58" s="5">
+      <c r="E58" s="27"/>
+      <c r="F58" s="5">
         <f t="shared" si="1"/>
         <v>225.5</v>
       </c>
-      <c r="F58" s="27">
+      <c r="G58" s="27">
         <f>[2]Sheet1!U62</f>
         <v>94135</v>
       </c>
-      <c r="G58" s="6">
+      <c r="H58" s="6">
         <f t="shared" si="2"/>
         <v>2.3954958304562597</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A59" s="12">
+    <row r="59" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B59" s="12">
         <v>45715</v>
       </c>
-      <c r="B59" s="4">
+      <c r="C59" s="4">
         <v>22827.5</v>
       </c>
-      <c r="C59" s="27"/>
       <c r="D59" s="27"/>
-      <c r="E59" s="5">
+      <c r="E59" s="27"/>
+      <c r="F59" s="5">
         <f t="shared" si="1"/>
         <v>317.5</v>
       </c>
-      <c r="F59" s="27">
+      <c r="G59" s="27">
         <f>[2]Sheet1!U63</f>
         <v>94228</v>
       </c>
-      <c r="G59" s="6">
+      <c r="H59" s="6">
         <f t="shared" si="2"/>
         <v>3.3694867767542558</v>
       </c>
     </row>
-    <row r="60" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A60" s="34">
+    <row r="60" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B60" s="34">
         <v>45716</v>
       </c>
-      <c r="B60" s="7">
+      <c r="C60" s="7">
         <v>23088.400000000001</v>
       </c>
-      <c r="C60" s="9">
+      <c r="D60" s="9">
         <v>20275</v>
       </c>
-      <c r="D60" s="9">
-        <f>B60-C60</f>
+      <c r="E60" s="9">
+        <f>C60-D60</f>
         <v>2813.4000000000015</v>
       </c>
-      <c r="E60" s="39">
+      <c r="F60" s="39">
         <f t="shared" si="1"/>
         <v>260.90000000000146</v>
       </c>
-      <c r="F60" s="9">
+      <c r="G60" s="9">
         <f>[2]Sheet1!U64</f>
         <v>95898</v>
       </c>
-      <c r="G60" s="40">
+      <c r="H60" s="40">
         <f t="shared" si="2"/>
         <v>2.7205989697386959</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A61" s="32">
+    <row r="61" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B61" s="32">
         <v>45717</v>
       </c>
-      <c r="B61" s="28">
+      <c r="C61" s="28">
         <v>23352.1</v>
       </c>
-      <c r="C61" s="29">
+      <c r="D61" s="29">
         <v>20513</v>
       </c>
-      <c r="D61" s="29">
-        <f t="shared" ref="D61:D85" si="3">B61-C61</f>
+      <c r="E61" s="29">
+        <f t="shared" ref="E61:E85" si="3">C61-D61</f>
         <v>2839.0999999999985</v>
       </c>
-      <c r="E61" s="10">
+      <c r="F61" s="10">
         <f t="shared" si="1"/>
         <v>263.69999999999709</v>
       </c>
-      <c r="F61" s="29">
+      <c r="G61" s="29">
         <f>[2]Sheet1!U65</f>
         <v>90569</v>
       </c>
-      <c r="G61" s="37">
+      <c r="H61" s="37">
         <f t="shared" si="2"/>
         <v>2.911592266669579</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A62" s="19">
+    <row r="62" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B62" s="19">
         <v>45718</v>
       </c>
-      <c r="B62" s="4">
+      <c r="C62" s="4">
         <v>23616.6</v>
       </c>
-      <c r="C62" s="27">
+      <c r="D62" s="27">
         <v>20751</v>
       </c>
-      <c r="D62" s="27">
+      <c r="E62" s="27">
         <f t="shared" si="3"/>
         <v>2865.5999999999985</v>
       </c>
-      <c r="E62" s="5">
+      <c r="F62" s="5">
         <f t="shared" si="1"/>
         <v>264.5</v>
       </c>
-      <c r="F62" s="27">
+      <c r="G62" s="27">
         <f>[2]Sheet1!U66</f>
         <v>91249</v>
       </c>
-      <c r="G62" s="6">
+      <c r="H62" s="6">
         <f t="shared" si="2"/>
         <v>2.8986619031441441</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A63" s="12">
+    <row r="63" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B63" s="12">
         <v>45719</v>
       </c>
-      <c r="B63" s="4">
+      <c r="C63" s="4">
         <v>23907.200000000001</v>
       </c>
-      <c r="C63" s="27">
+      <c r="D63" s="27">
         <v>21014</v>
       </c>
-      <c r="D63" s="27">
+      <c r="E63" s="27">
         <f t="shared" si="3"/>
         <v>2893.2000000000007</v>
       </c>
-      <c r="E63" s="5">
+      <c r="F63" s="5">
         <f t="shared" si="1"/>
         <v>290.60000000000218</v>
       </c>
-      <c r="F63" s="27">
+      <c r="G63" s="27">
         <f>[2]Sheet1!U67</f>
         <v>102134</v>
       </c>
-      <c r="G63" s="6">
+      <c r="H63" s="6">
         <f t="shared" si="2"/>
         <v>2.8452816887618444</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A64" s="31">
+    <row r="64" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B64" s="31">
         <v>45720</v>
       </c>
-      <c r="B64" s="4">
+      <c r="C64" s="4">
         <v>24146.5</v>
       </c>
-      <c r="C64" s="27">
+      <c r="D64" s="27">
         <v>21229</v>
       </c>
-      <c r="D64" s="27">
+      <c r="E64" s="27">
         <f t="shared" si="3"/>
         <v>2917.5</v>
       </c>
-      <c r="E64" s="5">
+      <c r="F64" s="5">
         <f t="shared" si="1"/>
         <v>239.29999999999927</v>
       </c>
-      <c r="F64" s="27">
+      <c r="G64" s="27">
         <f>[2]Sheet1!U68</f>
         <v>86868</v>
       </c>
-      <c r="G64" s="6">
+      <c r="H64" s="6">
         <f t="shared" si="2"/>
         <v>2.7547543399180281</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A65" s="19">
+    <row r="65" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B65" s="19">
         <v>45721</v>
       </c>
-      <c r="B65" s="4">
+      <c r="C65" s="4">
         <v>24398.6</v>
       </c>
-      <c r="C65" s="27">
+      <c r="D65" s="27">
         <v>21455</v>
       </c>
-      <c r="D65" s="27">
+      <c r="E65" s="27">
         <f t="shared" si="3"/>
         <v>2943.5999999999985</v>
       </c>
-      <c r="E65" s="5">
+      <c r="F65" s="5">
         <f t="shared" si="1"/>
         <v>252.09999999999854</v>
       </c>
-      <c r="F65" s="27">
+      <c r="G65" s="27">
         <f>[2]Sheet1!U69</f>
         <v>86339</v>
       </c>
-      <c r="G65" s="6">
+      <c r="H65" s="6">
         <f t="shared" si="2"/>
         <v>2.919885567356566</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A66" s="19">
+    <row r="66" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B66" s="19">
         <v>45722</v>
       </c>
-      <c r="B66" s="4">
+      <c r="C66" s="4">
         <v>24667.5</v>
       </c>
-      <c r="C66" s="27">
+      <c r="D66" s="27">
         <v>21699</v>
       </c>
-      <c r="D66" s="27">
+      <c r="E66" s="27">
         <f t="shared" si="3"/>
         <v>2968.5</v>
       </c>
-      <c r="E66" s="5">
+      <c r="F66" s="5">
         <f t="shared" si="1"/>
         <v>268.90000000000146</v>
       </c>
-      <c r="F66" s="27">
+      <c r="G66" s="27">
         <f>[2]Sheet1!U70</f>
         <v>92995</v>
       </c>
-      <c r="G66" s="6">
+      <c r="H66" s="6">
         <f t="shared" si="2"/>
         <v>2.8915533093177208</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A67" s="19">
+    <row r="67" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B67" s="19">
         <v>45723</v>
       </c>
-      <c r="B67" s="4">
+      <c r="C67" s="4">
         <v>24984.3</v>
       </c>
-      <c r="C67" s="27">
+      <c r="D67" s="27">
         <v>21985</v>
       </c>
-      <c r="D67" s="27">
+      <c r="E67" s="27">
         <f t="shared" si="3"/>
         <v>2999.2999999999993</v>
       </c>
-      <c r="E67" s="5">
+      <c r="F67" s="5">
         <f t="shared" si="1"/>
         <v>316.79999999999927</v>
       </c>
-      <c r="F67" s="27">
+      <c r="G67" s="27">
         <f>[2]Sheet1!U71</f>
         <v>103104</v>
       </c>
-      <c r="G67" s="6">
+      <c r="H67" s="6">
         <f t="shared" si="2"/>
         <v>3.072625698324015</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A68" s="19">
+    <row r="68" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B68" s="19">
         <v>45724</v>
       </c>
-      <c r="B68" s="4">
+      <c r="C68" s="4">
         <v>25249.1</v>
       </c>
-      <c r="C68" s="27">
+      <c r="D68" s="27">
         <v>22224</v>
       </c>
-      <c r="D68" s="27">
+      <c r="E68" s="27">
         <f t="shared" si="3"/>
         <v>3025.0999999999985</v>
       </c>
-      <c r="E68" s="5">
+      <c r="F68" s="5">
         <f t="shared" si="1"/>
         <v>264.79999999999927</v>
       </c>
-      <c r="F68" s="27">
+      <c r="G68" s="27">
         <f>[2]Sheet1!U72</f>
         <v>101998</v>
       </c>
-      <c r="G68" s="6">
+      <c r="H68" s="6">
         <f t="shared" si="2"/>
         <v>2.5961293358693238</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A69" s="19">
+    <row r="69" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B69" s="19">
         <v>45725</v>
       </c>
-      <c r="B69" s="4">
+      <c r="C69" s="4">
         <v>25523.4</v>
       </c>
-      <c r="C69" s="27">
+      <c r="D69" s="27">
         <v>22470</v>
       </c>
-      <c r="D69" s="27">
+      <c r="E69" s="27">
         <f t="shared" si="3"/>
         <v>3053.4000000000015</v>
       </c>
-      <c r="E69" s="5">
-        <f t="shared" ref="E69:E86" si="4">(B69-B68)</f>
+      <c r="F69" s="5">
+        <f t="shared" ref="F69:F86" si="4">(C69-C68)</f>
         <v>274.30000000000291</v>
       </c>
-      <c r="F69" s="27">
+      <c r="G69" s="27">
         <f>[2]Sheet1!U73</f>
         <v>94813</v>
       </c>
-      <c r="G69" s="6">
-        <f t="shared" ref="G69:G86" si="5">E69/F69*1000</f>
+      <c r="H69" s="6">
+        <f t="shared" ref="H69:H86" si="5">F69/G69*1000</f>
         <v>2.8930631875376047</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A70" s="19">
+    <row r="70" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B70" s="19">
         <v>45726</v>
       </c>
-      <c r="B70" s="4">
+      <c r="C70" s="4">
         <v>25781</v>
       </c>
-      <c r="C70" s="27">
+      <c r="D70" s="27">
         <v>22763</v>
       </c>
-      <c r="D70" s="27">
+      <c r="E70" s="27">
         <f t="shared" si="3"/>
         <v>3018</v>
       </c>
-      <c r="E70" s="5">
+      <c r="F70" s="5">
         <f t="shared" si="4"/>
         <v>257.59999999999854</v>
       </c>
-      <c r="F70" s="27">
+      <c r="G70" s="27">
         <f>[2]Sheet1!U74</f>
         <v>87541</v>
       </c>
-      <c r="G70" s="6">
+      <c r="H70" s="6">
         <f t="shared" si="5"/>
         <v>2.9426211717937711</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A71" s="19">
+    <row r="71" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B71" s="19">
         <v>45727</v>
       </c>
-      <c r="B71" s="4">
+      <c r="C71" s="4">
         <v>26072.7</v>
       </c>
-      <c r="C71" s="27">
+      <c r="D71" s="27">
         <v>23030</v>
       </c>
-      <c r="D71" s="27">
+      <c r="E71" s="27">
         <f t="shared" si="3"/>
         <v>3042.7000000000007</v>
       </c>
-      <c r="E71" s="5">
+      <c r="F71" s="5">
         <f t="shared" si="4"/>
         <v>291.70000000000073</v>
       </c>
-      <c r="F71" s="27">
+      <c r="G71" s="27">
         <f>[2]Sheet1!U75</f>
         <v>102068</v>
       </c>
-      <c r="G71" s="6">
+      <c r="H71" s="6">
         <f t="shared" si="5"/>
         <v>2.8578986557981025</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A72" s="19">
+    <row r="72" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B72" s="19">
         <v>45728</v>
       </c>
-      <c r="B72" s="4">
+      <c r="C72" s="4">
         <v>26342.6</v>
       </c>
-      <c r="C72" s="27">
+      <c r="D72" s="27">
         <v>23277</v>
       </c>
-      <c r="D72" s="27">
+      <c r="E72" s="27">
         <f t="shared" si="3"/>
         <v>3065.5999999999985</v>
       </c>
-      <c r="E72" s="5">
+      <c r="F72" s="5">
         <f t="shared" si="4"/>
         <v>269.89999999999782</v>
       </c>
-      <c r="F72" s="27">
+      <c r="G72" s="27">
         <f>[2]Sheet1!U76</f>
         <v>96055</v>
       </c>
-      <c r="G72" s="6">
+      <c r="H72" s="6">
         <f t="shared" si="5"/>
         <v>2.8098485242829403</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A73" s="19">
+    <row r="73" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B73" s="19">
         <v>45729</v>
       </c>
-      <c r="B73" s="4">
+      <c r="C73" s="4">
         <v>26597.200000000001</v>
       </c>
-      <c r="C73" s="27">
+      <c r="D73" s="27">
         <v>23508</v>
       </c>
-      <c r="D73" s="27">
+      <c r="E73" s="27">
         <f t="shared" si="3"/>
         <v>3089.2000000000007</v>
       </c>
-      <c r="E73" s="5">
+      <c r="F73" s="5">
         <f t="shared" si="4"/>
         <v>254.60000000000218</v>
       </c>
-      <c r="F73" s="27">
+      <c r="G73" s="27">
         <f>[2]Sheet1!U77</f>
         <v>89275</v>
       </c>
-      <c r="G73" s="6">
+      <c r="H73" s="6">
         <f t="shared" si="5"/>
         <v>2.8518622234668407</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A74" s="19">
+    <row r="74" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B74" s="19">
         <v>45730</v>
       </c>
-      <c r="B74" s="4">
+      <c r="C74" s="4">
         <v>26875.599999999999</v>
       </c>
-      <c r="C74" s="27">
+      <c r="D74" s="27">
         <v>23760</v>
       </c>
-      <c r="D74" s="27">
+      <c r="E74" s="27">
         <f t="shared" si="3"/>
         <v>3115.5999999999985</v>
       </c>
-      <c r="E74" s="5">
+      <c r="F74" s="5">
         <f t="shared" si="4"/>
         <v>278.39999999999782</v>
       </c>
-      <c r="F74" s="27">
+      <c r="G74" s="27">
         <f>[2]Sheet1!U78</f>
         <v>96482</v>
       </c>
-      <c r="G74" s="6">
+      <c r="H74" s="6">
         <f t="shared" si="5"/>
         <v>2.8855123235421924</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A75" s="19">
+    <row r="75" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B75" s="19">
         <v>45731</v>
       </c>
-      <c r="B75" s="4">
+      <c r="C75" s="4">
         <v>27099.8</v>
       </c>
-      <c r="C75" s="27">
+      <c r="D75" s="27">
         <v>24005</v>
       </c>
-      <c r="D75" s="27">
+      <c r="E75" s="27">
         <f t="shared" si="3"/>
         <v>3094.7999999999993</v>
       </c>
-      <c r="E75" s="5">
+      <c r="F75" s="5">
         <f t="shared" si="4"/>
         <v>224.20000000000073</v>
       </c>
-      <c r="F75" s="27">
+      <c r="G75" s="27">
         <f>[2]Sheet1!U79</f>
         <v>95707</v>
       </c>
-      <c r="G75" s="6">
+      <c r="H75" s="6">
         <f t="shared" si="5"/>
         <v>2.3425663744553766</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A76" s="19">
+    <row r="76" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B76" s="19">
         <v>45732</v>
       </c>
-      <c r="B76" s="4">
+      <c r="C76" s="4">
         <v>27411.7</v>
       </c>
-      <c r="C76" s="27">
+      <c r="D76" s="27">
         <v>24251</v>
       </c>
-      <c r="D76" s="27">
+      <c r="E76" s="27">
         <f t="shared" si="3"/>
         <v>3160.7000000000007</v>
       </c>
-      <c r="E76" s="5">
+      <c r="F76" s="5">
         <f t="shared" si="4"/>
         <v>311.90000000000146</v>
       </c>
-      <c r="F76" s="27">
+      <c r="G76" s="27">
         <f>[2]Sheet1!U80</f>
         <v>93853</v>
       </c>
-      <c r="G76" s="6">
+      <c r="H76" s="6">
         <f t="shared" si="5"/>
         <v>3.3232821540068134</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A77" s="19">
+    <row r="77" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B77" s="19">
         <v>45733</v>
       </c>
-      <c r="B77" s="4">
+      <c r="C77" s="4">
         <v>27658.3</v>
       </c>
-      <c r="C77" s="27">
+      <c r="D77" s="27">
         <v>24474</v>
       </c>
-      <c r="D77" s="27">
+      <c r="E77" s="27">
         <f t="shared" si="3"/>
         <v>3184.2999999999993</v>
       </c>
-      <c r="E77" s="5">
+      <c r="F77" s="5">
         <f t="shared" si="4"/>
         <v>246.59999999999854</v>
       </c>
-      <c r="F77" s="27">
+      <c r="G77" s="27">
         <f>[2]Sheet1!U81</f>
         <v>87315</v>
       </c>
-      <c r="G77" s="6">
+      <c r="H77" s="6">
         <f t="shared" si="5"/>
         <v>2.8242570005153587</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A78" s="19">
+    <row r="78" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B78" s="19">
         <v>45734</v>
       </c>
-      <c r="B78" s="4">
+      <c r="C78" s="4">
         <v>27942</v>
       </c>
-      <c r="C78" s="27">
+      <c r="D78" s="27">
         <v>24731</v>
       </c>
-      <c r="D78" s="27">
+      <c r="E78" s="27">
         <f t="shared" si="3"/>
         <v>3211</v>
       </c>
-      <c r="E78" s="5">
+      <c r="F78" s="5">
         <f t="shared" si="4"/>
         <v>283.70000000000073</v>
       </c>
-      <c r="F78" s="27">
+      <c r="G78" s="27">
         <f>[2]Sheet1!U82</f>
         <v>95461</v>
       </c>
-      <c r="G78" s="6">
+      <c r="H78" s="6">
         <f t="shared" si="5"/>
         <v>2.9718942814343108</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A79" s="19">
+    <row r="79" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B79" s="19">
         <v>45735</v>
       </c>
-      <c r="B79" s="4">
+      <c r="C79" s="4">
         <v>28220.799999999999</v>
       </c>
-      <c r="C79" s="27">
+      <c r="D79" s="27">
         <v>24983</v>
       </c>
-      <c r="D79" s="27">
+      <c r="E79" s="27">
         <f t="shared" si="3"/>
         <v>3237.7999999999993</v>
       </c>
-      <c r="E79" s="5">
+      <c r="F79" s="5">
         <f t="shared" si="4"/>
         <v>278.79999999999927</v>
       </c>
-      <c r="F79" s="27">
+      <c r="G79" s="27">
         <f>[2]Sheet1!U83</f>
         <v>100396</v>
       </c>
-      <c r="G79" s="6">
+      <c r="H79" s="6">
         <f t="shared" si="5"/>
         <v>2.7770030678513016</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A80" s="19">
+    <row r="80" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B80" s="19">
         <v>45736</v>
       </c>
-      <c r="B80" s="4">
+      <c r="C80" s="4">
         <v>28471.5</v>
       </c>
-      <c r="C80" s="27">
+      <c r="D80" s="27">
         <v>25207</v>
       </c>
-      <c r="D80" s="27">
+      <c r="E80" s="27">
         <f t="shared" si="3"/>
         <v>3264.5</v>
       </c>
-      <c r="E80" s="5">
+      <c r="F80" s="5">
         <f t="shared" si="4"/>
         <v>250.70000000000073</v>
       </c>
-      <c r="F80" s="27">
+      <c r="G80" s="27">
         <f>[2]Sheet1!U84</f>
         <v>81090</v>
       </c>
-      <c r="G80" s="6">
+      <c r="H80" s="6">
         <f t="shared" si="5"/>
         <v>3.0916265877420241</v>
       </c>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A81" s="19">
+    <row r="81" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B81" s="19">
         <v>45737</v>
       </c>
-      <c r="B81" s="4">
+      <c r="C81" s="4">
         <v>28743.200000000001</v>
       </c>
-      <c r="C81" s="27">
+      <c r="D81" s="27">
         <v>25453</v>
       </c>
-      <c r="D81" s="27">
+      <c r="E81" s="27">
         <f t="shared" si="3"/>
         <v>3290.2000000000007</v>
       </c>
-      <c r="E81" s="5">
+      <c r="F81" s="5">
         <f t="shared" si="4"/>
         <v>271.70000000000073</v>
       </c>
-      <c r="F81" s="27">
+      <c r="G81" s="27">
         <f>[2]Sheet1!U85</f>
         <v>95577</v>
       </c>
-      <c r="G81" s="6">
+      <c r="H81" s="6">
         <f t="shared" si="5"/>
         <v>2.8427341305962806</v>
       </c>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A82" s="19">
+    <row r="82" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B82" s="19">
         <v>45738</v>
       </c>
-      <c r="B82" s="4">
+      <c r="C82" s="4">
         <v>29006</v>
       </c>
-      <c r="C82" s="27">
+      <c r="D82" s="27">
         <v>25687</v>
       </c>
-      <c r="D82" s="27">
+      <c r="E82" s="27">
         <f t="shared" si="3"/>
         <v>3319</v>
       </c>
-      <c r="E82" s="5">
+      <c r="F82" s="5">
         <f t="shared" si="4"/>
         <v>262.79999999999927</v>
       </c>
-      <c r="F82" s="27">
+      <c r="G82" s="27">
         <f>[2]Sheet1!U86</f>
         <v>91932</v>
       </c>
-      <c r="G82" s="6">
+      <c r="H82" s="6">
         <f t="shared" si="5"/>
         <v>2.8586346429969898</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A83" s="19">
+    <row r="83" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B83" s="19">
         <v>45739</v>
       </c>
-      <c r="B83" s="4">
+      <c r="C83" s="4">
         <v>29295.8</v>
       </c>
-      <c r="C83" s="27">
+      <c r="D83" s="27">
         <v>25948</v>
       </c>
-      <c r="D83" s="27">
+      <c r="E83" s="27">
         <f t="shared" si="3"/>
         <v>3347.7999999999993</v>
       </c>
-      <c r="E83" s="5">
+      <c r="F83" s="5">
         <f t="shared" si="4"/>
         <v>289.79999999999927</v>
       </c>
-      <c r="F83" s="27">
+      <c r="G83" s="27">
         <f>[2]Sheet1!U87</f>
         <v>100753</v>
       </c>
-      <c r="G83" s="6">
+      <c r="H83" s="6">
         <f t="shared" si="5"/>
         <v>2.8763411511319692</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A84" s="19">
+    <row r="84" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B84" s="19">
         <v>45740</v>
       </c>
-      <c r="B84" s="4">
+      <c r="C84" s="4">
         <v>29559.9</v>
       </c>
-      <c r="C84" s="27">
+      <c r="D84" s="27">
         <v>26187</v>
       </c>
-      <c r="D84" s="27">
+      <c r="E84" s="27">
         <f t="shared" si="3"/>
         <v>3372.9000000000015</v>
       </c>
-      <c r="E84" s="5">
+      <c r="F84" s="5">
         <f t="shared" si="4"/>
         <v>264.10000000000218</v>
       </c>
-      <c r="F84" s="27">
+      <c r="G84" s="27">
         <f>[2]Sheet1!U88</f>
         <v>93401</v>
       </c>
-      <c r="G84" s="6">
+      <c r="H84" s="6">
         <f t="shared" si="5"/>
         <v>2.8275928523249449</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A85" s="19">
+    <row r="85" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B85" s="19">
         <v>45741</v>
       </c>
-      <c r="B85" s="44">
+      <c r="C85" s="44">
         <v>29816.7</v>
       </c>
-      <c r="C85" s="5">
+      <c r="D85" s="5">
         <v>26421</v>
       </c>
-      <c r="D85" s="8">
+      <c r="E85" s="8">
         <f t="shared" si="3"/>
         <v>3395.7000000000007</v>
       </c>
-      <c r="E85" s="5">
+      <c r="F85" s="5">
         <f t="shared" si="4"/>
         <v>256.79999999999927</v>
       </c>
-      <c r="F85" s="27">
+      <c r="G85" s="27">
         <f>[2]Sheet1!U89</f>
         <v>91355</v>
       </c>
-      <c r="G85" s="6">
+      <c r="H85" s="6">
         <f t="shared" si="5"/>
         <v>2.8110119862076433</v>
       </c>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A86" s="21">
+    <row r="86" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B86" s="21">
         <v>45742</v>
       </c>
-      <c r="B86" s="4">
+      <c r="C86" s="4">
         <v>30041.1</v>
       </c>
-      <c r="C86" s="5">
+      <c r="D86" s="5">
         <v>26624</v>
       </c>
-      <c r="D86" s="5">
-        <f>B86-C86</f>
+      <c r="E86" s="5">
+        <f>C86-D86</f>
         <v>3417.0999999999985</v>
       </c>
-      <c r="E86" s="5">
+      <c r="F86" s="5">
         <f t="shared" si="4"/>
         <v>224.39999999999782</v>
       </c>
-      <c r="F86" s="27">
+      <c r="G86" s="27">
         <f>[2]Sheet1!U90</f>
         <v>78856</v>
       </c>
-      <c r="G86" s="6">
+      <c r="H86" s="6">
         <f t="shared" si="5"/>
         <v>2.8456934158465788</v>
       </c>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A87" s="12">
+    <row r="87" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B87" s="12">
         <v>45743</v>
       </c>
-      <c r="B87" s="8">
+      <c r="C87" s="8">
         <v>30293.1</v>
       </c>
-      <c r="C87" s="5">
+      <c r="D87" s="5">
         <v>26624</v>
       </c>
-      <c r="D87" s="5">
-        <f t="shared" ref="D87" si="6">B87-C87</f>
+      <c r="E87" s="5">
+        <f t="shared" ref="E87:E90" si="6">C87-D87</f>
         <v>3669.0999999999985</v>
       </c>
-      <c r="E87" s="5">
-        <f>(B87-B86)</f>
+      <c r="F87" s="5">
+        <f>(C87-C86)</f>
         <v>252</v>
       </c>
-      <c r="F87" s="27">
+      <c r="G87" s="27">
         <f>[2]Sheet1!U91</f>
         <v>86228</v>
       </c>
-      <c r="G87" s="6">
-        <f t="shared" ref="G87" si="7">E87/F87*1000</f>
+      <c r="H87" s="6">
+        <f t="shared" ref="H87:H90" si="7">F87/G87*1000</f>
         <v>2.92248457577585</v>
+      </c>
+    </row>
+    <row r="88" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B88" s="12">
+        <v>45744</v>
+      </c>
+      <c r="C88" s="8"/>
+      <c r="D88" s="5"/>
+      <c r="E88" s="5">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="F88" s="5">
+        <v>0</v>
+      </c>
+      <c r="G88" s="27">
+        <f>[2]Sheet1!U92</f>
+        <v>100568</v>
+      </c>
+      <c r="H88" s="6">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B89" s="12">
+        <v>45745</v>
+      </c>
+      <c r="C89" s="8"/>
+      <c r="D89" s="5"/>
+      <c r="E89" s="5">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="F89" s="5">
+        <f t="shared" ref="F88:F90" si="8">(C89-C88)</f>
+        <v>0</v>
+      </c>
+      <c r="G89" s="27">
+        <f>[2]Sheet1!U93</f>
+        <v>102760</v>
+      </c>
+      <c r="H89" s="6">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B90" s="12">
+        <v>45746</v>
+      </c>
+      <c r="C90" s="8"/>
+      <c r="D90" s="5"/>
+      <c r="E90" s="5">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="F90" s="5">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="G90" s="27">
+        <f>[2]Sheet1!U94</f>
+        <v>105782</v>
+      </c>
+      <c r="H90" s="6">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B91" s="12">
+        <v>45747</v>
+      </c>
+      <c r="C91" s="8"/>
+      <c r="D91" s="5"/>
+      <c r="E91" s="5">
+        <f t="shared" ref="E91:E93" si="9">C91-D91</f>
+        <v>0</v>
+      </c>
+      <c r="F91" s="5">
+        <f t="shared" ref="F91:F93" si="10">(C91-C90)</f>
+        <v>0</v>
+      </c>
+      <c r="G91" s="27">
+        <f>[2]Sheet1!U95</f>
+        <v>104611</v>
+      </c>
+      <c r="H91" s="6">
+        <f t="shared" ref="H91:H97" si="11">F91/G91*1000</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B92" s="12">
+        <v>45748</v>
+      </c>
+      <c r="C92" s="8"/>
+      <c r="D92" s="5"/>
+      <c r="E92" s="5">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="F92" s="5">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="G92" s="27">
+        <f>[2]Sheet1!U96</f>
+        <v>105807</v>
+      </c>
+      <c r="H92" s="6">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B93" s="12">
+        <v>45749</v>
+      </c>
+      <c r="C93" s="8"/>
+      <c r="D93" s="5"/>
+      <c r="E93" s="5">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="F93" s="5">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="G93" s="27">
+        <f>[2]Sheet1!U97</f>
+        <v>105828</v>
+      </c>
+      <c r="H93" s="6">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B94" s="12">
+        <v>45750</v>
+      </c>
+      <c r="C94" s="8">
+        <v>32055.3</v>
+      </c>
+      <c r="D94" s="5">
+        <v>28418</v>
+      </c>
+      <c r="E94" s="5">
+        <v>0</v>
+      </c>
+      <c r="F94" s="5">
+        <v>0</v>
+      </c>
+      <c r="G94" s="27">
+        <f>[2]Sheet1!U98</f>
+        <v>106116</v>
+      </c>
+      <c r="H94" s="6">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B95" s="12">
+        <v>45751</v>
+      </c>
+      <c r="C95" s="8"/>
+      <c r="D95" s="5"/>
+      <c r="E95" s="5">
+        <f t="shared" ref="E94:E97" si="12">C95-D95</f>
+        <v>0</v>
+      </c>
+      <c r="F95" s="5">
+        <v>0</v>
+      </c>
+      <c r="G95" s="27">
+        <f>[2]Sheet1!U99</f>
+        <v>105724</v>
+      </c>
+      <c r="H95" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B96" s="12">
+        <v>45752</v>
+      </c>
+      <c r="C96" s="8">
+        <v>32654.400000000001</v>
+      </c>
+      <c r="D96" s="5">
+        <v>28959</v>
+      </c>
+      <c r="E96" s="5">
+        <v>0</v>
+      </c>
+      <c r="F96" s="5">
+        <v>0</v>
+      </c>
+      <c r="G96" s="27">
+        <f>[2]Sheet1!U100</f>
+        <v>91045</v>
+      </c>
+      <c r="H96" s="6">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B97" s="12">
+        <v>45753</v>
+      </c>
+      <c r="C97" s="8">
+        <v>32907.599999999999</v>
+      </c>
+      <c r="D97" s="5">
+        <v>28188</v>
+      </c>
+      <c r="E97" s="5">
+        <v>0</v>
+      </c>
+      <c r="F97" s="5">
+        <v>0</v>
+      </c>
+      <c r="G97" s="27">
+        <f>[2]Sheet1!U101</f>
+        <v>87247</v>
+      </c>
+      <c r="H97" s="6">
+        <f t="shared" si="11"/>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -13839,45 +14115,45 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38810916-2DF0-490C-B584-F0F3D6EAB44D}">
   <dimension ref="A1:K97"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
-      <selection activeCell="A87" sqref="A87:I97"/>
+    <sheetView topLeftCell="A71" workbookViewId="0">
+      <selection activeCell="A98" sqref="A98:XFD98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:11" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="14" t="s">
         <v>2</v>
       </c>
       <c r="B1" s="25" t="s">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="C1" s="14" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="D1" s="14" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="E1" s="26" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="F1" s="24" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="G1" s="14" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="H1" s="14" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="I1" s="26" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="J1" s="24" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="K1" s="26" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">

--- a/Consommation spécifique.xlsx
+++ b/Consommation spécifique.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\Projects\wave2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA2B3454-7AEE-4C48-B58E-CB25F9861337}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A2A80F0-A560-4002-9AB3-E017E64001AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" activeTab="1" xr2:uid="{4E830341-EBCA-4A95-9BBE-9CDD49815F8C}"/>
   </bookViews>
@@ -131,7 +131,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="35">
+  <borders count="34">
     <border>
       <left/>
       <right/>
@@ -449,19 +449,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right style="thin">
         <color indexed="64"/>
@@ -530,19 +517,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right style="thin">
         <color indexed="64"/>
@@ -585,11 +559,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -675,10 +662,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -687,10 +674,10 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
@@ -705,12 +692,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -721,6 +702,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1819,6 +1803,28 @@
             <v>0.91693697204486457</v>
           </cell>
         </row>
+        <row r="99">
+          <cell r="B99">
+            <v>45754</v>
+          </cell>
+          <cell r="D99">
+            <v>220.80000000000055</v>
+          </cell>
+          <cell r="F99">
+            <v>2.5607125460997904</v>
+          </cell>
+        </row>
+        <row r="100">
+          <cell r="B100">
+            <v>45755</v>
+          </cell>
+          <cell r="D100">
+            <v>201.59999999999911</v>
+          </cell>
+          <cell r="F100">
+            <v>2.1485207605081329</v>
+          </cell>
+        </row>
       </sheetData>
       <sheetData sheetId="3">
         <row r="3">
@@ -2589,6 +2595,22 @@
             <v>0</v>
           </cell>
         </row>
+        <row r="99">
+          <cell r="D99">
+            <v>0</v>
+          </cell>
+          <cell r="F99">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="100">
+          <cell r="D100">
+            <v>0</v>
+          </cell>
+          <cell r="F100">
+            <v>0</v>
+          </cell>
+        </row>
       </sheetData>
       <sheetData sheetId="4">
         <row r="3">
@@ -3356,6 +3378,22 @@
             <v>0</v>
           </cell>
           <cell r="F98">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="99">
+          <cell r="D99">
+            <v>0</v>
+          </cell>
+          <cell r="F99">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="100">
+          <cell r="D100">
+            <v>0</v>
+          </cell>
+          <cell r="F100">
             <v>0</v>
           </cell>
         </row>
@@ -4130,6 +4168,22 @@
             <v>5.4282668745056863</v>
           </cell>
         </row>
+        <row r="99">
+          <cell r="H99">
+            <v>563.20000000000186</v>
+          </cell>
+          <cell r="I99">
+            <v>6.531672581355993</v>
+          </cell>
+        </row>
+        <row r="100">
+          <cell r="H100">
+            <v>400.00000000000034</v>
+          </cell>
+          <cell r="I100">
+            <v>4.2629380168812387</v>
+          </cell>
+        </row>
       </sheetData>
       <sheetData sheetId="7">
         <row r="3">
@@ -4900,6 +4954,22 @@
             <v>0</v>
           </cell>
         </row>
+        <row r="99">
+          <cell r="D99">
+            <v>0</v>
+          </cell>
+          <cell r="F99">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="100">
+          <cell r="D100">
+            <v>0</v>
+          </cell>
+          <cell r="F100">
+            <v>0</v>
+          </cell>
+        </row>
       </sheetData>
       <sheetData sheetId="8">
         <row r="3">
@@ -5644,6 +5714,22 @@
           </cell>
           <cell r="F98">
             <v>1.1003243664538822</v>
+          </cell>
+        </row>
+        <row r="99">
+          <cell r="D99">
+            <v>38.399999999999324</v>
+          </cell>
+          <cell r="F99">
+            <v>0.44534131236517199</v>
+          </cell>
+        </row>
+        <row r="100">
+          <cell r="D100">
+            <v>134.40000000000117</v>
+          </cell>
+          <cell r="F100">
+            <v>1.4323471736721074</v>
           </cell>
         </row>
       </sheetData>
@@ -6416,6 +6502,22 @@
             <v>1.9439063807351438</v>
           </cell>
         </row>
+        <row r="99">
+          <cell r="E99">
+            <v>716.80000000000098</v>
+          </cell>
+          <cell r="G99">
+            <v>8.3130378308167021</v>
+          </cell>
+        </row>
+        <row r="100">
+          <cell r="E100">
+            <v>377.60000000000105</v>
+          </cell>
+          <cell r="G100">
+            <v>4.0242134879358966</v>
+          </cell>
+        </row>
       </sheetData>
       <sheetData sheetId="10">
         <row r="3">
@@ -7184,6 +7286,22 @@
           </cell>
           <cell r="F98">
             <v>3.9886758283952539</v>
+          </cell>
+        </row>
+        <row r="99">
+          <cell r="D99">
+            <v>346.49999999999892</v>
+          </cell>
+          <cell r="F99">
+            <v>4.0185094982951659</v>
+          </cell>
+        </row>
+        <row r="100">
+          <cell r="D100">
+            <v>350.99999999999909</v>
+          </cell>
+          <cell r="F100">
+            <v>3.7407281098132734</v>
           </cell>
         </row>
       </sheetData>
@@ -7687,6 +7805,16 @@
         <row r="101">
           <cell r="U101">
             <v>87247</v>
+          </cell>
+        </row>
+        <row r="102">
+          <cell r="U102">
+            <v>86226</v>
+          </cell>
+        </row>
+        <row r="103">
+          <cell r="U103">
+            <v>93832</v>
           </cell>
         </row>
       </sheetData>
@@ -7995,23 +8123,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BC5C344-277E-4945-8E25-AE6A0B860AD5}">
-  <dimension ref="A1:K97"/>
+  <dimension ref="A1:K99"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A68" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A98" sqref="A98:XFD98"/>
+      <selection pane="bottomLeft" activeCell="A100" sqref="A100:XFD100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="11.44140625" style="1"/>
-    <col min="2" max="2" width="15.33203125" style="43" customWidth="1"/>
+    <col min="2" max="2" width="15.33203125" style="41" customWidth="1"/>
     <col min="3" max="4" width="16.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="19.33203125" style="43" customWidth="1"/>
+    <col min="5" max="5" width="19.33203125" style="41" customWidth="1"/>
     <col min="6" max="6" width="16.5546875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="17.88671875" style="43" customWidth="1"/>
-    <col min="8" max="8" width="15.88671875" style="43" customWidth="1"/>
-    <col min="9" max="9" width="16.88671875" style="43" customWidth="1"/>
+    <col min="7" max="7" width="17.88671875" style="41" customWidth="1"/>
+    <col min="8" max="8" width="15.88671875" style="41" customWidth="1"/>
+    <col min="9" max="9" width="16.88671875" style="41" customWidth="1"/>
     <col min="10" max="10" width="16.88671875" style="1" customWidth="1"/>
     <col min="11" max="11" width="16.109375" style="1" customWidth="1"/>
     <col min="12" max="16384" width="11.44140625" style="1"/>
@@ -8056,7 +8184,7 @@
       <c r="A2" s="3">
         <v>45658</v>
       </c>
-      <c r="B2" s="41">
+      <c r="B2" s="39">
         <f>'[1]NaOCl Pré'!$F$3</f>
         <v>-6.0179787114013165E-2</v>
       </c>
@@ -8068,7 +8196,7 @@
         <f>[1]FeCl3!F3</f>
         <v>0</v>
       </c>
-      <c r="E2" s="42">
+      <c r="E2" s="40">
         <f>'[1]NaOCl 2 CEB 1'!I3</f>
         <v>14.581562417722965</v>
       </c>
@@ -8076,26 +8204,26 @@
         <f>'[1]Soude CEB 1'!F3</f>
         <v>0</v>
       </c>
-      <c r="G2" s="42">
+      <c r="G2" s="40">
         <f>'[1]Acide CEB2'!F3</f>
         <v>0</v>
       </c>
-      <c r="H2" s="42">
+      <c r="H2" s="40">
         <f>[1]SBS!G3</f>
         <v>0.18053936134202278</v>
       </c>
-      <c r="I2" s="42">
+      <c r="I2" s="40">
         <f>[1]ASC!F3</f>
         <v>3.7800428780983282</v>
       </c>
       <c r="J2" s="4"/>
-      <c r="K2" s="30"/>
+      <c r="K2" s="29"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="21">
         <v>45659</v>
       </c>
-      <c r="B3" s="42">
+      <c r="B3" s="40">
         <f>'[1]NaOCl Pré'!$F$3</f>
         <v>-6.0179787114013165E-2</v>
       </c>
@@ -8107,7 +8235,7 @@
         <f>[1]FeCl3!F4</f>
         <v>0</v>
       </c>
-      <c r="E3" s="42">
+      <c r="E3" s="40">
         <f>'[1]NaOCl 2 CEB 1'!I4</f>
         <v>-156.75631439943459</v>
       </c>
@@ -8115,26 +8243,26 @@
         <f>'[1]Soude CEB 1'!F4</f>
         <v>0</v>
       </c>
-      <c r="G3" s="42">
+      <c r="G3" s="40">
         <f>'[1]Acide CEB2'!F4</f>
         <v>0.11903433396572316</v>
       </c>
-      <c r="H3" s="42">
+      <c r="H3" s="40">
         <f>[1]SBS!G4</f>
         <v>10.117918387084751</v>
       </c>
-      <c r="I3" s="42">
+      <c r="I3" s="40">
         <f>[1]ASC!F4</f>
         <v>3.1525499386229088</v>
       </c>
       <c r="J3" s="4"/>
-      <c r="K3" s="30"/>
+      <c r="K3" s="29"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" s="21">
         <v>45660</v>
       </c>
-      <c r="B4" s="42">
+      <c r="B4" s="40">
         <f>'[1]NaOCl Pré'!F5</f>
         <v>-6.5788121132389049E-2</v>
       </c>
@@ -8146,7 +8274,7 @@
         <f>[1]FeCl3!F5</f>
         <v>0</v>
       </c>
-      <c r="E4" s="42">
+      <c r="E4" s="40">
         <f>'[1]NaOCl 2 CEB 1'!I5</f>
         <v>12.828683620813729</v>
       </c>
@@ -8154,26 +8282,26 @@
         <f>'[1]Soude CEB 1'!F5</f>
         <v>0</v>
       </c>
-      <c r="G4" s="42">
+      <c r="G4" s="40">
         <f>'[1]Acide CEB2'!F5</f>
         <v>0.26315248452951973</v>
       </c>
-      <c r="H4" s="42">
+      <c r="H4" s="40">
         <f>[1]SBS!G5</f>
         <v>1.1183980592504494</v>
       </c>
-      <c r="I4" s="42">
+      <c r="I4" s="40">
         <f>[1]ASC!F5</f>
         <v>3.1763327234226373</v>
       </c>
       <c r="J4" s="4"/>
-      <c r="K4" s="30"/>
+      <c r="K4" s="29"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="21">
         <v>45661</v>
       </c>
-      <c r="B5" s="42">
+      <c r="B5" s="40">
         <f>'[1]NaOCl Pré'!F6</f>
         <v>4.71936625653127</v>
       </c>
@@ -8185,7 +8313,7 @@
         <f>[1]FeCl3!F6</f>
         <v>0</v>
       </c>
-      <c r="E5" s="42">
+      <c r="E5" s="40">
         <f>'[1]NaOCl 2 CEB 1'!I6</f>
         <v>19.484240687679033</v>
       </c>
@@ -8193,26 +8321,26 @@
         <f>'[1]Soude CEB 1'!F6</f>
         <v>0</v>
       </c>
-      <c r="G5" s="42">
+      <c r="G5" s="40">
         <f>'[1]Acide CEB2'!F6</f>
         <v>0.13483903590087845</v>
       </c>
-      <c r="H5" s="42">
+      <c r="H5" s="40">
         <f>[1]SBS!G6</f>
         <v>3.0338783077700651</v>
       </c>
-      <c r="I5" s="42">
+      <c r="I5" s="40">
         <f>[1]ASC!F6</f>
         <v>3.9503623799089835</v>
       </c>
       <c r="J5" s="4"/>
-      <c r="K5" s="30"/>
+      <c r="K5" s="29"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="21">
         <v>45662</v>
       </c>
-      <c r="B6" s="42">
+      <c r="B6" s="40">
         <f>'[1]NaOCl Pré'!F7</f>
         <v>4.305304010349289</v>
       </c>
@@ -8224,7 +8352,7 @@
         <f>[1]FeCl3!F7</f>
         <v>0</v>
       </c>
-      <c r="E6" s="42">
+      <c r="E6" s="40">
         <f>'[1]NaOCl 2 CEB 1'!I7</f>
         <v>12.915912031047885</v>
       </c>
@@ -8232,26 +8360,26 @@
         <f>'[1]Soude CEB 1'!F7</f>
         <v>0</v>
       </c>
-      <c r="G6" s="42">
+      <c r="G6" s="40">
         <f>'[1]Acide CEB2'!F7</f>
         <v>-0.11039241052176448</v>
       </c>
-      <c r="H6" s="42">
+      <c r="H6" s="40">
         <f>[1]SBS!G7</f>
         <v>2.2630444156964469</v>
       </c>
-      <c r="I6" s="42">
+      <c r="I6" s="40">
         <f>[1]ASC!F7</f>
         <v>3.7257438551099495</v>
       </c>
       <c r="J6" s="4"/>
-      <c r="K6" s="30"/>
+      <c r="K6" s="29"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="21">
         <v>45663</v>
       </c>
-      <c r="B7" s="42">
+      <c r="B7" s="40">
         <f>'[1]NaOCl Pré'!F8</f>
         <v>-0.54849934008673196</v>
       </c>
@@ -8263,7 +8391,7 @@
         <f>[1]FeCl3!F8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="42">
+      <c r="E7" s="40">
         <f>'[1]NaOCl 2 CEB 1'!I8</f>
         <v>12.012135547899405</v>
       </c>
@@ -8271,26 +8399,26 @@
         <f>'[1]Soude CEB 1'!F8</f>
         <v>0</v>
       </c>
-      <c r="G7" s="42">
+      <c r="G7" s="40">
         <f>'[1]Acide CEB2'!F8</f>
         <v>-5.4849934008667105E-2</v>
       </c>
-      <c r="H7" s="42">
+      <c r="H7" s="40">
         <f>[1]SBS!G8</f>
         <v>1.1518486141821309</v>
       </c>
-      <c r="I7" s="42">
+      <c r="I7" s="40">
         <f>[1]ASC!F8</f>
         <v>1.5169434874273937</v>
       </c>
       <c r="J7" s="4"/>
-      <c r="K7" s="30"/>
+      <c r="K7" s="29"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" s="21">
         <v>45664</v>
       </c>
-      <c r="B8" s="42">
+      <c r="B8" s="40">
         <f>'[1]NaOCl Pré'!F9</f>
         <v>4.957116409113226</v>
       </c>
@@ -8302,7 +8430,7 @@
         <f>[1]FeCl3!F9</f>
         <v>0</v>
       </c>
-      <c r="E8" s="42">
+      <c r="E8" s="40">
         <f>'[1]NaOCl 2 CEB 1'!I9</f>
         <v>14.085464918577847</v>
       </c>
@@ -8310,26 +8438,26 @@
         <f>'[1]Soude CEB 1'!F9</f>
         <v>0</v>
       </c>
-      <c r="G8" s="42">
+      <c r="G8" s="40">
         <f>'[1]Acide CEB2'!F9</f>
         <v>0.7858843087618349</v>
       </c>
-      <c r="H8" s="42">
+      <c r="H8" s="40">
         <f>[1]SBS!G9</f>
         <v>2.84127403936977</v>
       </c>
-      <c r="I8" s="42">
+      <c r="I8" s="40">
         <f>[1]ASC!F9</f>
         <v>6.3191899346355722</v>
       </c>
       <c r="J8" s="4"/>
-      <c r="K8" s="30"/>
+      <c r="K8" s="29"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="21">
         <v>45665</v>
       </c>
-      <c r="B9" s="42">
+      <c r="B9" s="40">
         <f>'[1]NaOCl Pré'!F10</f>
         <v>3.9327624484617898</v>
       </c>
@@ -8341,7 +8469,7 @@
         <f>[1]FeCl3!F10</f>
         <v>0</v>
       </c>
-      <c r="E9" s="42">
+      <c r="E9" s="40">
         <f>'[1]NaOCl 2 CEB 1'!I10</f>
         <v>16.555661274976252</v>
       </c>
@@ -8349,26 +8477,26 @@
         <f>'[1]Soude CEB 1'!F10</f>
         <v>0</v>
       </c>
-      <c r="G9" s="42">
+      <c r="G9" s="40">
         <f>'[1]Acide CEB2'!F10</f>
         <v>0.19029495718364889</v>
       </c>
-      <c r="H9" s="42">
+      <c r="H9" s="40">
         <f>[1]SBS!G10</f>
         <v>3.1715826197272468</v>
       </c>
-      <c r="I9" s="42">
+      <c r="I9" s="40">
         <f>[1]ASC!F10</f>
         <v>4.9952426260704046</v>
       </c>
       <c r="J9" s="4"/>
-      <c r="K9" s="30"/>
+      <c r="K9" s="29"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="21">
         <v>45666</v>
       </c>
-      <c r="B10" s="42">
+      <c r="B10" s="40">
         <f>'[1]NaOCl Pré'!F11</f>
         <v>4.0571297639960289</v>
       </c>
@@ -8380,7 +8508,7 @@
         <f>[1]FeCl3!F11</f>
         <v>0</v>
       </c>
-      <c r="E10" s="42">
+      <c r="E10" s="40">
         <f>'[1]NaOCl 2 CEB 1'!I11</f>
         <v>11.047124417627716</v>
       </c>
@@ -8388,26 +8516,26 @@
         <f>'[1]Soude CEB 1'!F11</f>
         <v>0</v>
       </c>
-      <c r="G10" s="42">
+      <c r="G10" s="40">
         <f>'[1]Acide CEB2'!F11</f>
         <v>0.24440540746961334</v>
       </c>
-      <c r="H10" s="42">
+      <c r="H10" s="40">
         <f>[1]SBS!G11</f>
         <v>2.1507675857328414</v>
       </c>
-      <c r="I10" s="42">
+      <c r="I10" s="40">
         <f>[1]ASC!F11</f>
         <v>4.3763843275032466</v>
       </c>
       <c r="J10" s="4"/>
-      <c r="K10" s="30"/>
+      <c r="K10" s="29"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="21">
         <v>45667</v>
       </c>
-      <c r="B11" s="42">
+      <c r="B11" s="40">
         <f>'[1]NaOCl Pré'!F12</f>
         <v>5.4772949009816947E-2</v>
       </c>
@@ -8419,7 +8547,7 @@
         <f>[1]FeCl3!F12</f>
         <v>0</v>
       </c>
-      <c r="E11" s="42">
+      <c r="E11" s="40">
         <f>'[1]NaOCl 2 CEB 1'!I12</f>
         <v>14.460058538589273</v>
       </c>
@@ -8427,26 +8555,26 @@
         <f>'[1]Soude CEB 1'!F12</f>
         <v>0</v>
       </c>
-      <c r="G11" s="42">
+      <c r="G11" s="40">
         <f>'[1]Acide CEB2'!F12</f>
         <v>0.32863769405887133</v>
       </c>
-      <c r="H11" s="42">
+      <c r="H11" s="40">
         <f>[1]SBS!G12</f>
         <v>0.76682128613728529</v>
       </c>
-      <c r="I11" s="42">
+      <c r="I11" s="40">
         <f>[1]ASC!F12</f>
         <v>2.5845985314003048</v>
       </c>
       <c r="J11" s="4"/>
-      <c r="K11" s="30"/>
+      <c r="K11" s="29"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="21">
         <v>45668</v>
       </c>
-      <c r="B12" s="42">
+      <c r="B12" s="40">
         <f>'[1]NaOCl Pré'!F13</f>
         <v>0</v>
       </c>
@@ -8458,7 +8586,7 @@
         <f>[1]FeCl3!F13</f>
         <v>0</v>
       </c>
-      <c r="E12" s="42">
+      <c r="E12" s="40">
         <f>'[1]NaOCl 2 CEB 1'!I13</f>
         <v>12.988532232049504</v>
       </c>
@@ -8466,26 +8594,26 @@
         <f>'[1]Soude CEB 1'!F13</f>
         <v>0</v>
       </c>
-      <c r="G12" s="42">
+      <c r="G12" s="40">
         <f>'[1]Acide CEB2'!F13</f>
         <v>0.34031088817596311</v>
       </c>
-      <c r="H12" s="42">
+      <c r="H12" s="40">
         <f>[1]SBS!G13</f>
         <v>0.68062177635195775</v>
       </c>
-      <c r="I12" s="42">
+      <c r="I12" s="40">
         <f>[1]ASC!F13</f>
         <v>2.4991580850422732</v>
       </c>
       <c r="J12" s="4"/>
-      <c r="K12" s="30"/>
+      <c r="K12" s="29"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="21">
         <v>45669</v>
       </c>
-      <c r="B13" s="42">
+      <c r="B13" s="40">
         <f>'[1]NaOCl Pré'!F14</f>
         <v>4.4718633900269182</v>
       </c>
@@ -8497,7 +8625,7 @@
         <f>[1]FeCl3!F14</f>
         <v>0</v>
       </c>
-      <c r="E13" s="42">
+      <c r="E13" s="40">
         <f>'[1]NaOCl 2 CEB 1'!I14</f>
         <v>13.361055250690187</v>
       </c>
@@ -8505,26 +8633,26 @@
         <f>'[1]Soude CEB 1'!F14</f>
         <v>0</v>
       </c>
-      <c r="G13" s="42">
+      <c r="G13" s="40">
         <f>'[1]Acide CEB2'!F14</f>
         <v>0.21813967756229535</v>
       </c>
-      <c r="H13" s="42">
+      <c r="H13" s="40">
         <f>[1]SBS!G14</f>
         <v>1.6360475817171698</v>
       </c>
-      <c r="I13" s="42">
+      <c r="I13" s="40">
         <f>[1]ASC!F14</f>
         <v>2.863083268005032</v>
       </c>
       <c r="J13" s="4"/>
-      <c r="K13" s="30"/>
+      <c r="K13" s="29"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="21">
         <v>45670</v>
       </c>
-      <c r="B14" s="42">
+      <c r="B14" s="40">
         <f>'[1]NaOCl Pré'!F15</f>
         <v>4.2882913839017425</v>
       </c>
@@ -8536,7 +8664,7 @@
         <f>[1]FeCl3!F15</f>
         <v>0</v>
       </c>
-      <c r="E14" s="42">
+      <c r="E14" s="40">
         <f>'[1]NaOCl 2 CEB 1'!I15</f>
         <v>9.3737651404518516</v>
       </c>
@@ -8544,26 +8672,26 @@
         <f>'[1]Soude CEB 1'!F15</f>
         <v>0</v>
       </c>
-      <c r="G14" s="42">
+      <c r="G14" s="40">
         <f>'[1]Acide CEB2'!F15</f>
         <v>0.43982475732323606</v>
       </c>
-      <c r="H14" s="42">
+      <c r="H14" s="40">
         <f>[1]SBS!G15</f>
         <v>1.7592990292930055</v>
       </c>
-      <c r="I14" s="42">
+      <c r="I14" s="40">
         <f>[1]ASC!F15</f>
         <v>3.0409758611803195</v>
       </c>
       <c r="J14" s="4"/>
-      <c r="K14" s="30"/>
+      <c r="K14" s="29"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="21">
         <v>45671</v>
       </c>
-      <c r="B15" s="42">
+      <c r="B15" s="40">
         <f>'[1]NaOCl Pré'!F16</f>
         <v>4.3058239028429339</v>
       </c>
@@ -8575,7 +8703,7 @@
         <f>[1]FeCl3!F16</f>
         <v>0</v>
       </c>
-      <c r="E15" s="42">
+      <c r="E15" s="40">
         <f>'[1]NaOCl 2 CEB 1'!I16</f>
         <v>8.9980678995308274</v>
       </c>
@@ -8583,26 +8711,26 @@
         <f>'[1]Soude CEB 1'!F16</f>
         <v>0</v>
       </c>
-      <c r="G15" s="42">
+      <c r="G15" s="40">
         <f>'[1]Acide CEB2'!F16</f>
         <v>0.55202870549271676</v>
       </c>
-      <c r="H15" s="42">
+      <c r="H15" s="40">
         <f>[1]SBS!G16</f>
         <v>1.2696660226331902</v>
       </c>
-      <c r="I15" s="42">
+      <c r="I15" s="40">
         <f>[1]ASC!F16</f>
         <v>2.9757797405465141</v>
       </c>
       <c r="J15" s="4"/>
-      <c r="K15" s="30"/>
+      <c r="K15" s="29"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="21">
         <v>45672</v>
       </c>
-      <c r="B16" s="42">
+      <c r="B16" s="40">
         <f>'[1]NaOCl Pré'!F17</f>
         <v>4.6018547539593291</v>
       </c>
@@ -8614,7 +8742,7 @@
         <f>[1]FeCl3!F17</f>
         <v>0</v>
       </c>
-      <c r="E16" s="42">
+      <c r="E16" s="40">
         <f>'[1]NaOCl 2 CEB 1'!I17</f>
         <v>17.817437637124545</v>
       </c>
@@ -8622,26 +8750,26 @@
         <f>'[1]Soude CEB 1'!F17</f>
         <v>0</v>
       </c>
-      <c r="G16" s="42">
+      <c r="G16" s="40">
         <f>'[1]Acide CEB2'!F17</f>
         <v>0.64897951658400188</v>
       </c>
-      <c r="H16" s="42">
+      <c r="H16" s="40">
         <f>[1]SBS!G17</f>
         <v>2.6549162042073067</v>
       </c>
-      <c r="I16" s="42">
+      <c r="I16" s="40">
         <f>[1]ASC!F17</f>
         <v>3.2356791238776443</v>
       </c>
       <c r="J16" s="4"/>
-      <c r="K16" s="30"/>
+      <c r="K16" s="29"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="21">
         <v>45673</v>
       </c>
-      <c r="B17" s="42">
+      <c r="B17" s="40">
         <f>'[1]NaOCl Pré'!F18</f>
         <v>3.392411867468978</v>
       </c>
@@ -8653,7 +8781,7 @@
         <f>[1]FeCl3!F18</f>
         <v>0</v>
       </c>
-      <c r="E17" s="42">
+      <c r="E17" s="40">
         <f>'[1]NaOCl 2 CEB 1'!I18</f>
         <v>15.624206769892346</v>
       </c>
@@ -8661,26 +8789,26 @@
         <f>'[1]Soude CEB 1'!F18</f>
         <v>0</v>
       </c>
-      <c r="G17" s="42">
+      <c r="G17" s="40">
         <f>'[1]Acide CEB2'!F18</f>
         <v>0.43002403953832707</v>
       </c>
-      <c r="H17" s="42">
+      <c r="H17" s="40">
         <f>[1]SBS!G18</f>
         <v>34.019679572364979</v>
       </c>
-      <c r="I17" s="42">
+      <c r="I17" s="40">
         <f>[1]ASC!F18</f>
         <v>4.0986666268496226</v>
       </c>
       <c r="J17" s="4"/>
-      <c r="K17" s="30"/>
+      <c r="K17" s="29"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="21">
         <v>45674</v>
       </c>
-      <c r="B18" s="42">
+      <c r="B18" s="40">
         <f>'[1]NaOCl Pré'!F19</f>
         <v>3.2697388588027501</v>
       </c>
@@ -8692,7 +8820,7 @@
         <f>[1]FeCl3!F19</f>
         <v>0</v>
       </c>
-      <c r="E18" s="42">
+      <c r="E18" s="40">
         <f>'[1]NaOCl 2 CEB 1'!I19</f>
         <v>10.287999766447225</v>
       </c>
@@ -8700,26 +8828,26 @@
         <f>'[1]Soude CEB 1'!F19</f>
         <v>0</v>
       </c>
-      <c r="G18" s="42">
+      <c r="G18" s="40">
         <f>'[1]Acide CEB2'!F19</f>
         <v>0.28026333075449056</v>
       </c>
-      <c r="H18" s="42">
+      <c r="H18" s="40">
         <f>[1]SBS!G19</f>
         <v>9.5289532456537298</v>
       </c>
-      <c r="I18" s="42">
+      <c r="I18" s="40">
         <f>[1]ASC!F19</f>
         <v>4.4885924066153846</v>
       </c>
       <c r="J18" s="4"/>
-      <c r="K18" s="30"/>
+      <c r="K18" s="29"/>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="21">
         <v>45675</v>
       </c>
-      <c r="B19" s="42">
+      <c r="B19" s="40">
         <f>'[1]NaOCl Pré'!F20</f>
         <v>3.104177599669224</v>
       </c>
@@ -8731,7 +8859,7 @@
         <f>[1]FeCl3!F20</f>
         <v>0</v>
       </c>
-      <c r="E19" s="42">
+      <c r="E19" s="40">
         <f>'[1]NaOCl 2 CEB 1'!I20</f>
         <v>3.9183881176151609</v>
       </c>
@@ -8739,26 +8867,26 @@
         <f>'[1]Soude CEB 1'!F20</f>
         <v>0</v>
       </c>
-      <c r="G19" s="42">
+      <c r="G19" s="40">
         <f>'[1]Acide CEB2'!F20</f>
         <v>0.76332236057440073</v>
       </c>
-      <c r="H19" s="42">
+      <c r="H19" s="40">
         <f>[1]SBS!G20</f>
         <v>3.3586183865273571</v>
       </c>
-      <c r="I19" s="42">
+      <c r="I19" s="40">
         <f>[1]ASC!F20</f>
         <v>3.4588044463527545</v>
       </c>
       <c r="J19" s="4"/>
-      <c r="K19" s="30"/>
+      <c r="K19" s="29"/>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="21">
         <v>45676</v>
       </c>
-      <c r="B20" s="42">
+      <c r="B20" s="40">
         <f>'[1]NaOCl Pré'!F21</f>
         <v>4.320315963406304</v>
       </c>
@@ -8770,7 +8898,7 @@
         <f>[1]FeCl3!F21</f>
         <v>0</v>
       </c>
-      <c r="E20" s="42">
+      <c r="E20" s="40">
         <f>'[1]NaOCl 2 CEB 1'!I21</f>
         <v>13.089912545843038</v>
       </c>
@@ -8778,26 +8906,26 @@
         <f>'[1]Soude CEB 1'!F21</f>
         <v>0</v>
       </c>
-      <c r="G20" s="42">
+      <c r="G20" s="40">
         <f>'[1]Acide CEB2'!F21</f>
         <v>0.83827026155645723</v>
       </c>
-      <c r="H20" s="42">
+      <c r="H20" s="40">
         <f>[1]SBS!G21</f>
         <v>5.0941038971506636</v>
       </c>
-      <c r="I20" s="42">
+      <c r="I20" s="40">
         <f>[1]ASC!F21</f>
         <v>3.173739571998544</v>
       </c>
       <c r="J20" s="4"/>
-      <c r="K20" s="30"/>
+      <c r="K20" s="29"/>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="21">
         <v>45677</v>
       </c>
-      <c r="B21" s="42">
+      <c r="B21" s="40">
         <f>'[1]NaOCl Pré'!F22</f>
         <v>3.5029504831950531</v>
       </c>
@@ -8809,7 +8937,7 @@
         <f>[1]FeCl3!F22</f>
         <v>0</v>
       </c>
-      <c r="E21" s="42">
+      <c r="E21" s="40">
         <f>'[1]NaOCl 2 CEB 1'!I22</f>
         <v>12.150859488582853</v>
       </c>
@@ -8817,26 +8945,26 @@
         <f>'[1]Soude CEB 1'!F22</f>
         <v>0</v>
       </c>
-      <c r="G21" s="42">
+      <c r="G21" s="40">
         <f>'[1]Acide CEB2'!F22</f>
         <v>1.4230736337979941</v>
       </c>
-      <c r="H21" s="42">
+      <c r="H21" s="40">
         <f>[1]SBS!G22</f>
         <v>3.8860856922945324</v>
       </c>
-      <c r="I21" s="42">
+      <c r="I21" s="40">
         <f>[1]ASC!F22</f>
         <v>2.8478576926366217</v>
       </c>
       <c r="J21" s="4"/>
-      <c r="K21" s="30"/>
+      <c r="K21" s="29"/>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="21">
         <v>45678</v>
       </c>
-      <c r="B22" s="42">
+      <c r="B22" s="40">
         <f>'[1]NaOCl Pré'!F23</f>
         <v>3.6072349655844098</v>
       </c>
@@ -8848,7 +8976,7 @@
         <f>[1]FeCl3!F23</f>
         <v>0</v>
       </c>
-      <c r="E22" s="42">
+      <c r="E22" s="40">
         <f>'[1]NaOCl 2 CEB 1'!I23</f>
         <v>13.335838357615039</v>
       </c>
@@ -8856,26 +8984,26 @@
         <f>'[1]Soude CEB 1'!F23</f>
         <v>0</v>
       </c>
-      <c r="G22" s="42">
+      <c r="G22" s="40">
         <f>'[1]Acide CEB2'!F23</f>
         <v>5.5201625988488559</v>
       </c>
-      <c r="H22" s="42">
+      <c r="H22" s="40">
         <f>[1]SBS!G23</f>
         <v>3.5525798903482886</v>
       </c>
-      <c r="I22" s="42">
+      <c r="I22" s="40">
         <f>[1]ASC!F23</f>
         <v>2.9462501494474767</v>
       </c>
       <c r="J22" s="4"/>
-      <c r="K22" s="30"/>
+      <c r="K22" s="29"/>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="21">
         <v>45679</v>
       </c>
-      <c r="B23" s="42">
+      <c r="B23" s="40">
         <f>'[1]NaOCl Pré'!F24</f>
         <v>3.3611203734578048</v>
       </c>
@@ -8887,7 +9015,7 @@
         <f>[1]FeCl3!F24</f>
         <v>0</v>
       </c>
-      <c r="E23" s="42">
+      <c r="E23" s="40">
         <f>'[1]NaOCl 2 CEB 1'!I24</f>
         <v>9.8699566522173257</v>
       </c>
@@ -8895,26 +9023,26 @@
         <f>'[1]Soude CEB 1'!F24</f>
         <v>0</v>
       </c>
-      <c r="G23" s="42">
+      <c r="G23" s="40">
         <f>'[1]Acide CEB2'!F24</f>
         <v>2.0273424474824782</v>
       </c>
-      <c r="H23" s="42">
+      <c r="H23" s="40">
         <f>[1]SBS!G24</f>
         <v>2.3474491497165504</v>
       </c>
-      <c r="I23" s="42">
+      <c r="I23" s="40">
         <f>[1]ASC!F24</f>
         <v>4.4514838279426527</v>
       </c>
       <c r="J23" s="4"/>
-      <c r="K23" s="30"/>
+      <c r="K23" s="29"/>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="21">
         <v>45680</v>
       </c>
-      <c r="B24" s="42">
+      <c r="B24" s="40">
         <f>'[1]NaOCl Pré'!F25</f>
         <v>2.9311950025527795</v>
       </c>
@@ -8926,7 +9054,7 @@
         <f>[1]FeCl3!F25</f>
         <v>0</v>
       </c>
-      <c r="E24" s="42">
+      <c r="E24" s="40">
         <f>'[1]NaOCl 2 CEB 1'!I25</f>
         <v>11.916989518575321</v>
       </c>
@@ -8934,26 +9062,26 @@
         <f>'[1]Soude CEB 1'!F25</f>
         <v>0</v>
       </c>
-      <c r="G24" s="42">
+      <c r="G24" s="40">
         <f>'[1]Acide CEB2'!F25</f>
         <v>0.38441901672824474</v>
       </c>
-      <c r="H24" s="42">
+      <c r="H24" s="40">
         <f>[1]SBS!G25</f>
         <v>0.6246809021833799</v>
       </c>
-      <c r="I24" s="42">
+      <c r="I24" s="40">
         <f>[1]ASC!F25</f>
         <v>4.6625822146139289</v>
       </c>
       <c r="J24" s="4"/>
-      <c r="K24" s="30"/>
+      <c r="K24" s="29"/>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="21">
         <v>45681</v>
       </c>
-      <c r="B25" s="42">
+      <c r="B25" s="40">
         <f>'[1]NaOCl Pré'!F26</f>
         <v>2.9316420014094207</v>
       </c>
@@ -8965,7 +9093,7 @@
         <f>[1]FeCl3!F26</f>
         <v>0</v>
       </c>
-      <c r="E25" s="42">
+      <c r="E25" s="40">
         <f>'[1]NaOCl 2 CEB 1'!I26</f>
         <v>9.200845665961932</v>
       </c>
@@ -8973,26 +9101,26 @@
         <f>'[1]Soude CEB 1'!F26</f>
         <v>0</v>
       </c>
-      <c r="G25" s="42">
+      <c r="G25" s="40">
         <f>'[1]Acide CEB2'!F26</f>
         <v>2.25510923185342</v>
       </c>
-      <c r="H25" s="42">
+      <c r="H25" s="40">
         <f>[1]SBS!G26</f>
         <v>3.1571529245947878</v>
       </c>
-      <c r="I25" s="42">
+      <c r="I25" s="40">
         <f>[1]ASC!F26</f>
         <v>4.2494714587738072</v>
       </c>
       <c r="J25" s="4"/>
-      <c r="K25" s="30"/>
+      <c r="K25" s="29"/>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="21">
         <v>45682</v>
       </c>
-      <c r="B26" s="42">
+      <c r="B26" s="40">
         <f>'[1]NaOCl Pré'!F27</f>
         <v>2.525201099684343</v>
       </c>
@@ -9004,7 +9132,7 @@
         <f>[1]FeCl3!F27</f>
         <v>0</v>
       </c>
-      <c r="E26" s="42">
+      <c r="E26" s="40">
         <f>'[1]NaOCl 2 CEB 1'!I27</f>
         <v>7.9421647490072367</v>
       </c>
@@ -9012,26 +9140,26 @@
         <f>'[1]Soude CEB 1'!F27</f>
         <v>0</v>
       </c>
-      <c r="G26" s="42">
+      <c r="G26" s="40">
         <f>'[1]Acide CEB2'!F27</f>
         <v>0.36656144995416207</v>
       </c>
-      <c r="H26" s="42">
+      <c r="H26" s="40">
         <f>[1]SBS!G27</f>
         <v>2.1993686997250856</v>
       </c>
-      <c r="I26" s="42">
+      <c r="I26" s="40">
         <f>[1]ASC!F27</f>
         <v>4.1238163119845206</v>
       </c>
       <c r="J26" s="4"/>
-      <c r="K26" s="30"/>
+      <c r="K26" s="29"/>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="21">
         <v>45683</v>
       </c>
-      <c r="B27" s="42">
+      <c r="B27" s="40">
         <f>'[1]NaOCl Pré'!F28</f>
         <v>2.7313305441672351</v>
       </c>
@@ -9043,7 +9171,7 @@
         <f>[1]FeCl3!F28</f>
         <v>0</v>
       </c>
-      <c r="E27" s="42">
+      <c r="E27" s="40">
         <f>'[1]NaOCl 2 CEB 1'!I28</f>
         <v>18.492451061328982</v>
       </c>
@@ -9051,26 +9179,26 @@
         <f>'[1]Soude CEB 1'!F28</f>
         <v>0</v>
       </c>
-      <c r="G27" s="42">
+      <c r="G27" s="40">
         <f>'[1]Acide CEB2'!F28</f>
         <v>-1.7462605118446342</v>
       </c>
-      <c r="H27" s="42">
+      <c r="H27" s="40">
         <f>[1]SBS!G28</f>
         <v>2.2387955280059351</v>
       </c>
-      <c r="I27" s="42">
+      <c r="I27" s="40">
         <f>[1]ASC!F28</f>
         <v>4.2607077392362775</v>
       </c>
       <c r="J27" s="4"/>
-      <c r="K27" s="30"/>
+      <c r="K27" s="29"/>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" s="21">
         <v>45684</v>
       </c>
-      <c r="B28" s="42">
+      <c r="B28" s="40">
         <f>'[1]NaOCl Pré'!F29</f>
         <v>3.9141010494127593</v>
       </c>
@@ -9082,7 +9210,7 @@
         <f>[1]FeCl3!F29</f>
         <v>0</v>
       </c>
-      <c r="E28" s="42">
+      <c r="E28" s="40">
         <f>'[1]NaOCl 2 CEB 1'!I29</f>
         <v>8.6288136771144508</v>
       </c>
@@ -9090,26 +9218,26 @@
         <f>'[1]Soude CEB 1'!F29</f>
         <v>0</v>
       </c>
-      <c r="G28" s="42">
+      <c r="G28" s="40">
         <f>'[1]Acide CEB2'!F29</f>
         <v>-5.8266731531030649</v>
       </c>
-      <c r="H28" s="42">
+      <c r="H28" s="40">
         <f>[1]SBS!G29</f>
         <v>2.6687052609632382</v>
       </c>
-      <c r="I28" s="42">
+      <c r="I28" s="40">
         <f>[1]ASC!F29</f>
         <v>4.3991938286190901</v>
       </c>
       <c r="J28" s="4"/>
-      <c r="K28" s="30"/>
+      <c r="K28" s="29"/>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="21">
         <v>45685</v>
       </c>
-      <c r="B29" s="42">
+      <c r="B29" s="40">
         <f>'[1]NaOCl Pré'!F30</f>
         <v>4.9449041780396765</v>
       </c>
@@ -9121,7 +9249,7 @@
         <f>[1]FeCl3!F30</f>
         <v>0</v>
       </c>
-      <c r="E29" s="42">
+      <c r="E29" s="40">
         <f>'[1]NaOCl 2 CEB 1'!I30</f>
         <v>11.645942550149476</v>
       </c>
@@ -9129,26 +9257,26 @@
         <f>'[1]Soude CEB 1'!F30</f>
         <v>0</v>
       </c>
-      <c r="G29" s="42">
+      <c r="G29" s="40">
         <f>'[1]Acide CEB2'!F30</f>
         <v>-1.7561341940701449</v>
       </c>
-      <c r="H29" s="42">
+      <c r="H29" s="40">
         <f>[1]SBS!G30</f>
         <v>1.5250639053767028</v>
       </c>
-      <c r="I29" s="42">
+      <c r="I29" s="40">
         <f>[1]ASC!F30</f>
         <v>4.505870629522108</v>
       </c>
       <c r="J29" s="4"/>
-      <c r="K29" s="30"/>
+      <c r="K29" s="29"/>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" s="21">
         <v>45686</v>
       </c>
-      <c r="B30" s="42">
+      <c r="B30" s="40">
         <f>'[1]NaOCl Pré'!F31</f>
         <v>3.143583160872871</v>
       </c>
@@ -9160,7 +9288,7 @@
         <f>[1]FeCl3!F31</f>
         <v>0</v>
       </c>
-      <c r="E30" s="42">
+      <c r="E30" s="40">
         <f>'[1]NaOCl 2 CEB 1'!I31</f>
         <v>11.233070494852402</v>
       </c>
@@ -9168,26 +9296,26 @@
         <f>'[1]Soude CEB 1'!F31</f>
         <v>0</v>
       </c>
-      <c r="G30" s="42">
+      <c r="G30" s="40">
         <f>'[1]Acide CEB2'!F31</f>
         <v>-4.4429308673669858</v>
       </c>
-      <c r="H30" s="42">
+      <c r="H30" s="40">
         <f>[1]SBS!G31</f>
         <v>1.7184921279438545</v>
       </c>
-      <c r="I30" s="42">
+      <c r="I30" s="40">
         <f>[1]ASC!F31</f>
         <v>4.0277159248683638</v>
       </c>
       <c r="J30" s="4"/>
-      <c r="K30" s="30"/>
+      <c r="K30" s="29"/>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" s="21">
         <v>45687</v>
       </c>
-      <c r="B31" s="42">
+      <c r="B31" s="40">
         <f>'[1]NaOCl Pré'!F32</f>
         <v>2.1559105072565345</v>
       </c>
@@ -9199,7 +9327,7 @@
         <f>[1]FeCl3!F32</f>
         <v>0</v>
       </c>
-      <c r="E31" s="42">
+      <c r="E31" s="40">
         <f>'[1]NaOCl 2 CEB 1'!I32</f>
         <v>9.297364062543835</v>
       </c>
@@ -9207,26 +9335,26 @@
         <f>'[1]Soude CEB 1'!F32</f>
         <v>0</v>
       </c>
-      <c r="G31" s="42">
+      <c r="G31" s="40">
         <f>'[1]Acide CEB2'!F32</f>
         <v>0.31440361564157016</v>
       </c>
-      <c r="H31" s="42">
+      <c r="H31" s="40">
         <f>[1]SBS!G32</f>
         <v>0.94321084692473556</v>
       </c>
-      <c r="I31" s="42">
+      <c r="I31" s="40">
         <f>[1]ASC!F32</f>
         <v>4.3160317772225829</v>
       </c>
       <c r="J31" s="4"/>
-      <c r="K31" s="30"/>
+      <c r="K31" s="29"/>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" s="21">
         <v>45688</v>
       </c>
-      <c r="B32" s="42">
+      <c r="B32" s="40">
         <f>'[1]NaOCl Pré'!F33</f>
         <v>2.327496294669801</v>
       </c>
@@ -9238,7 +9366,7 @@
         <f>[1]FeCl3!F33</f>
         <v>0</v>
       </c>
-      <c r="E32" s="42">
+      <c r="E32" s="40">
         <f>'[1]NaOCl 2 CEB 1'!I33</f>
         <v>8.8708349344019304</v>
       </c>
@@ -9246,26 +9374,26 @@
         <f>'[1]Soude CEB 1'!F33</f>
         <v>0</v>
       </c>
-      <c r="G32" s="42">
+      <c r="G32" s="40">
         <f>'[1]Acide CEB2'!F33</f>
         <v>0.30740517099414127</v>
       </c>
-      <c r="H32" s="42">
+      <c r="H32" s="40">
         <f>[1]SBS!G33</f>
         <v>1.8444310259647501</v>
       </c>
-      <c r="I32" s="42">
+      <c r="I32" s="40">
         <f>[1]ASC!F33</f>
         <v>4.5081517264093982</v>
       </c>
       <c r="J32" s="4"/>
-      <c r="K32" s="30"/>
+      <c r="K32" s="29"/>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" s="21">
         <v>45689</v>
       </c>
-      <c r="B33" s="42">
+      <c r="B33" s="40">
         <f>'[1]NaOCl Pré'!F34</f>
         <v>3.1692449329743981</v>
       </c>
@@ -9277,7 +9405,7 @@
         <f>[1]FeCl3!F34</f>
         <v>0</v>
       </c>
-      <c r="E33" s="42">
+      <c r="E33" s="40">
         <f>'[1]NaOCl 2 CEB 1'!I34</f>
         <v>9.7309210618086635</v>
       </c>
@@ -9285,26 +9413,26 @@
         <f>'[1]Soude CEB 1'!F34</f>
         <v>0</v>
       </c>
-      <c r="G33" s="42">
+      <c r="G33" s="40">
         <f>'[1]Acide CEB2'!F34</f>
         <v>0</v>
       </c>
-      <c r="H33" s="42">
+      <c r="H33" s="40">
         <f>[1]SBS!G34</f>
         <v>2.1872253762780902</v>
       </c>
-      <c r="I33" s="42">
+      <c r="I33" s="40">
         <f>[1]ASC!F34</f>
         <v>4.1847424291034923</v>
       </c>
       <c r="J33" s="4"/>
-      <c r="K33" s="30"/>
+      <c r="K33" s="29"/>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" s="21">
         <v>45690</v>
       </c>
-      <c r="B34" s="42">
+      <c r="B34" s="40">
         <f>'[1]NaOCl Pré'!F35</f>
         <v>2.9103225502955654</v>
       </c>
@@ -9316,7 +9444,7 @@
         <f>[1]FeCl3!F35</f>
         <v>0</v>
       </c>
-      <c r="E34" s="42">
+      <c r="E34" s="40">
         <f>'[1]NaOCl 2 CEB 1'!I35</f>
         <v>10.537374751070184</v>
       </c>
@@ -9324,26 +9452,26 @@
         <f>'[1]Soude CEB 1'!F35</f>
         <v>0</v>
       </c>
-      <c r="G34" s="42">
+      <c r="G34" s="40">
         <f>'[1]Acide CEB2'!F35</f>
         <v>0</v>
       </c>
-      <c r="H34" s="42">
+      <c r="H34" s="40">
         <f>[1]SBS!G35</f>
         <v>2.1576529252191219</v>
       </c>
-      <c r="I34" s="42">
+      <c r="I34" s="40">
         <f>[1]ASC!F35</f>
         <v>5.0099571919150687</v>
       </c>
       <c r="J34" s="4"/>
-      <c r="K34" s="30"/>
+      <c r="K34" s="29"/>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" s="21">
         <v>45691</v>
       </c>
-      <c r="B35" s="42">
+      <c r="B35" s="40">
         <f>'[1]NaOCl Pré'!F36</f>
         <v>1.9270898981835365</v>
       </c>
@@ -9355,7 +9483,7 @@
         <f>[1]FeCl3!F36</f>
         <v>0</v>
       </c>
-      <c r="E35" s="42">
+      <c r="E35" s="40">
         <f>'[1]NaOCl 2 CEB 1'!I36</f>
         <v>12.907020713415424</v>
       </c>
@@ -9363,26 +9491,26 @@
         <f>'[1]Soude CEB 1'!F36</f>
         <v>0</v>
       </c>
-      <c r="G35" s="42">
+      <c r="G35" s="40">
         <f>'[1]Acide CEB2'!F36</f>
         <v>0</v>
       </c>
-      <c r="H35" s="42">
+      <c r="H35" s="40">
         <f>[1]SBS!G36</f>
         <v>3.31358626388247</v>
       </c>
-      <c r="I35" s="42">
+      <c r="I35" s="40">
         <f>[1]ASC!F36</f>
         <v>4.4942089267957934</v>
       </c>
       <c r="J35" s="4"/>
-      <c r="K35" s="30"/>
+      <c r="K35" s="29"/>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" s="21">
         <v>45692</v>
       </c>
-      <c r="B36" s="42">
+      <c r="B36" s="40">
         <f>'[1]NaOCl Pré'!F37</f>
         <v>1.0228692645221704</v>
       </c>
@@ -9394,7 +9522,7 @@
         <f>[1]FeCl3!F37</f>
         <v>0</v>
       </c>
-      <c r="E36" s="42">
+      <c r="E36" s="40">
         <f>'[1]NaOCl 2 CEB 1'!I37</f>
         <v>11.948972771917591</v>
       </c>
@@ -9402,26 +9530,26 @@
         <f>'[1]Soude CEB 1'!F37</f>
         <v>0</v>
       </c>
-      <c r="G36" s="42">
+      <c r="G36" s="40">
         <f>'[1]Acide CEB2'!F37</f>
         <v>0</v>
       </c>
-      <c r="H36" s="42">
+      <c r="H36" s="40">
         <f>[1]SBS!G37</f>
         <v>2.3770086885769914</v>
       </c>
-      <c r="I36" s="42">
+      <c r="I36" s="40">
         <f>[1]ASC!F37</f>
         <v>4.7729055880045212</v>
       </c>
       <c r="J36" s="4"/>
-      <c r="K36" s="30"/>
+      <c r="K36" s="29"/>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" s="21">
         <v>45693</v>
       </c>
-      <c r="B37" s="42">
+      <c r="B37" s="40">
         <f>'[1]NaOCl Pré'!F38</f>
         <v>1.0665050749886282</v>
       </c>
@@ -9433,7 +9561,7 @@
         <f>[1]FeCl3!F38</f>
         <v>0</v>
       </c>
-      <c r="E37" s="42">
+      <c r="E37" s="40">
         <f>'[1]NaOCl 2 CEB 1'!I38</f>
         <v>9.7439781851234706</v>
       </c>
@@ -9441,26 +9569,26 @@
         <f>'[1]Soude CEB 1'!F38</f>
         <v>0</v>
       </c>
-      <c r="G37" s="42">
+      <c r="G37" s="40">
         <f>'[1]Acide CEB2'!F38</f>
         <v>0</v>
       </c>
-      <c r="H37" s="42">
+      <c r="H37" s="40">
         <f>[1]SBS!G38</f>
         <v>1.5028026056658041</v>
       </c>
-      <c r="I37" s="42">
+      <c r="I37" s="40">
         <f>[1]ASC!F38</f>
         <v>5.0674140281775806</v>
       </c>
       <c r="J37" s="4"/>
-      <c r="K37" s="30"/>
+      <c r="K37" s="29"/>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" s="21">
         <v>45694</v>
       </c>
-      <c r="B38" s="42">
+      <c r="B38" s="40">
         <f>'[1]NaOCl Pré'!F39</f>
         <v>5.7450628366247471</v>
       </c>
@@ -9472,7 +9600,7 @@
         <f>[1]FeCl3!F39</f>
         <v>0</v>
       </c>
-      <c r="E38" s="42">
+      <c r="E38" s="40">
         <f>'[1]NaOCl 2 CEB 1'!I39</f>
         <v>11.418312387791744</v>
       </c>
@@ -9480,26 +9608,26 @@
         <f>'[1]Soude CEB 1'!F39</f>
         <v>0</v>
       </c>
-      <c r="G38" s="42">
+      <c r="G38" s="40">
         <f>'[1]Acide CEB2'!F39</f>
         <v>0</v>
       </c>
-      <c r="H38" s="42">
+      <c r="H38" s="40">
         <f>[1]SBS!G39</f>
         <v>2.4189738259472757</v>
       </c>
-      <c r="I38" s="42">
+      <c r="I38" s="40">
         <f>[1]ASC!F39</f>
         <v>6.0096380988377351</v>
       </c>
       <c r="J38" s="4"/>
-      <c r="K38" s="30"/>
+      <c r="K38" s="29"/>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39" s="21">
         <v>45695</v>
       </c>
-      <c r="B39" s="42">
+      <c r="B39" s="40">
         <f>'[1]NaOCl Pré'!F40</f>
         <v>13.148316651501357</v>
       </c>
@@ -9511,7 +9639,7 @@
         <f>[1]FeCl3!F40</f>
         <v>0</v>
       </c>
-      <c r="E39" s="42">
+      <c r="E39" s="40">
         <f>'[1]NaOCl 2 CEB 1'!I40</f>
         <v>7.6433121019108459</v>
       </c>
@@ -9519,26 +9647,26 @@
         <f>'[1]Soude CEB 1'!F40</f>
         <v>0</v>
       </c>
-      <c r="G39" s="42">
+      <c r="G39" s="40">
         <f>'[1]Acide CEB2'!F40</f>
         <v>0</v>
       </c>
-      <c r="H39" s="42">
+      <c r="H39" s="40">
         <f>[1]SBS!G40</f>
         <v>2.2292993630573319</v>
       </c>
-      <c r="I39" s="42">
+      <c r="I39" s="40">
         <f>[1]ASC!F40</f>
         <v>4.5638080072793414</v>
       </c>
       <c r="J39" s="4"/>
-      <c r="K39" s="30"/>
+      <c r="K39" s="29"/>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40" s="21">
         <v>45696</v>
       </c>
-      <c r="B40" s="42">
+      <c r="B40" s="40">
         <f>'[1]NaOCl Pré'!F41</f>
         <v>0.4969651477306925</v>
       </c>
@@ -9550,7 +9678,7 @@
         <f>[1]FeCl3!F41</f>
         <v>0</v>
       </c>
-      <c r="E40" s="42">
+      <c r="E40" s="40">
         <f>'[1]NaOCl 2 CEB 1'!I41</f>
         <v>9.1938552330171195</v>
       </c>
@@ -9558,26 +9686,26 @@
         <f>'[1]Soude CEB 1'!F41</f>
         <v>0</v>
       </c>
-      <c r="G40" s="42">
+      <c r="G40" s="40">
         <f>'[1]Acide CEB2'!F41</f>
         <v>0</v>
       </c>
-      <c r="H40" s="42">
+      <c r="H40" s="40">
         <f>[1]SBS!G41</f>
         <v>2.0292743532335149</v>
       </c>
-      <c r="I40" s="42">
+      <c r="I40" s="40">
         <f>[1]ASC!F41</f>
         <v>3.9796037220618894</v>
       </c>
       <c r="J40" s="4"/>
-      <c r="K40" s="30"/>
+      <c r="K40" s="29"/>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41" s="21">
         <v>45697</v>
       </c>
-      <c r="B41" s="42">
+      <c r="B41" s="40">
         <f>'[1]NaOCl Pré'!F42</f>
         <v>1.5397522578097631</v>
       </c>
@@ -9589,7 +9717,7 @@
         <f>[1]FeCl3!F42</f>
         <v>0</v>
       </c>
-      <c r="E41" s="42">
+      <c r="E41" s="40">
         <f>'[1]NaOCl 2 CEB 1'!I42</f>
         <v>7.6987612890490125</v>
       </c>
@@ -9597,26 +9725,26 @@
         <f>'[1]Soude CEB 1'!F42</f>
         <v>0</v>
       </c>
-      <c r="G41" s="42">
+      <c r="G41" s="40">
         <f>'[1]Acide CEB2'!F42</f>
         <v>0</v>
       </c>
-      <c r="H41" s="42">
+      <c r="H41" s="40">
         <f>[1]SBS!G42</f>
         <v>0.71065488821991751</v>
       </c>
-      <c r="I41" s="42">
+      <c r="I41" s="40">
         <f>[1]ASC!F42</f>
         <v>3.9789271085229321</v>
       </c>
       <c r="J41" s="4"/>
-      <c r="K41" s="30"/>
+      <c r="K41" s="29"/>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42" s="21">
         <v>45698</v>
       </c>
-      <c r="B42" s="42">
+      <c r="B42" s="40">
         <f>'[1]NaOCl Pré'!F43</f>
         <v>2.2750971656081163</v>
       </c>
@@ -9628,7 +9756,7 @@
         <f>[1]FeCl3!F43</f>
         <v>0</v>
       </c>
-      <c r="E42" s="42">
+      <c r="E42" s="40">
         <f>'[1]NaOCl 2 CEB 1'!I43</f>
         <v>10.692956678358119</v>
       </c>
@@ -9636,26 +9764,26 @@
         <f>'[1]Soude CEB 1'!F43</f>
         <v>0</v>
       </c>
-      <c r="G42" s="42">
+      <c r="G42" s="40">
         <f>'[1]Acide CEB2'!F43</f>
         <v>0</v>
       </c>
-      <c r="H42" s="42">
+      <c r="H42" s="40">
         <f>[1]SBS!G43</f>
         <v>3.5643188927860319</v>
       </c>
-      <c r="I42" s="42">
+      <c r="I42" s="40">
         <f>[1]ASC!F43</f>
         <v>1.9907100199070968</v>
       </c>
       <c r="J42" s="4"/>
-      <c r="K42" s="30"/>
+      <c r="K42" s="29"/>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43" s="21">
         <v>45699</v>
       </c>
-      <c r="B43" s="42">
+      <c r="B43" s="40">
         <f>'[1]NaOCl Pré'!F44</f>
         <v>2.9101644875580233</v>
       </c>
@@ -9667,7 +9795,7 @@
         <f>[1]FeCl3!F44</f>
         <v>0</v>
       </c>
-      <c r="E43" s="42">
+      <c r="E43" s="40">
         <f>'[1]NaOCl 2 CEB 1'!I44</f>
         <v>8.2243778996204444</v>
       </c>
@@ -9675,26 +9803,26 @@
         <f>'[1]Soude CEB 1'!F44</f>
         <v>0</v>
       </c>
-      <c r="G43" s="42">
+      <c r="G43" s="40">
         <f>'[1]Acide CEB2'!F44</f>
         <v>0</v>
       </c>
-      <c r="H43" s="42">
+      <c r="H43" s="40">
         <f>[1]SBS!G44</f>
         <v>0.46393926613242931</v>
       </c>
-      <c r="I43" s="42">
+      <c r="I43" s="40">
         <f>[1]ASC!F44</f>
         <v>6.1682834247153098</v>
       </c>
       <c r="J43" s="4"/>
-      <c r="K43" s="30"/>
+      <c r="K43" s="29"/>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44" s="21">
         <v>45700</v>
       </c>
-      <c r="B44" s="42">
+      <c r="B44" s="40">
         <f>'[1]NaOCl Pré'!F45</f>
         <v>3.8106579339088782</v>
       </c>
@@ -9706,7 +9834,7 @@
         <f>[1]FeCl3!F45</f>
         <v>0</v>
       </c>
-      <c r="E44" s="42">
+      <c r="E44" s="40">
         <f>'[1]NaOCl 2 CEB 1'!I45</f>
         <v>10.876252853031605</v>
       </c>
@@ -9714,26 +9842,26 @@
         <f>'[1]Soude CEB 1'!F45</f>
         <v>0</v>
       </c>
-      <c r="G44" s="42">
+      <c r="G44" s="40">
         <f>'[1]Acide CEB2'!F45</f>
         <v>0</v>
       </c>
-      <c r="H44" s="42">
+      <c r="H44" s="40">
         <f>[1]SBS!G45</f>
         <v>6.3510965565147979</v>
       </c>
-      <c r="I44" s="42">
+      <c r="I44" s="40">
         <f>[1]ASC!F45</f>
         <v>3.2747841619529621</v>
       </c>
       <c r="J44" s="4"/>
-      <c r="K44" s="30"/>
+      <c r="K44" s="29"/>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A45" s="21">
         <v>45701</v>
       </c>
-      <c r="B45" s="42">
+      <c r="B45" s="40">
         <f>'[1]NaOCl Pré'!F46</f>
         <v>2.0032692240809507</v>
       </c>
@@ -9745,7 +9873,7 @@
         <f>[1]FeCl3!F46</f>
         <v>0</v>
       </c>
-      <c r="E45" s="42">
+      <c r="E45" s="40">
         <f>'[1]NaOCl 2 CEB 1'!I46</f>
         <v>11.94542018803835</v>
       </c>
@@ -9753,26 +9881,26 @@
         <f>'[1]Soude CEB 1'!F46</f>
         <v>0</v>
       </c>
-      <c r="G45" s="42">
+      <c r="G45" s="40">
         <f>'[1]Acide CEB2'!F46</f>
         <v>0.18548789111860808</v>
       </c>
-      <c r="H45" s="42">
+      <c r="H45" s="40">
         <f>[1]SBS!G46</f>
         <v>2.2629522716470141</v>
       </c>
-      <c r="I45" s="42">
+      <c r="I45" s="40">
         <f>[1]ASC!F46</f>
         <v>3.7909087747365486</v>
       </c>
       <c r="J45" s="4"/>
-      <c r="K45" s="30"/>
+      <c r="K45" s="29"/>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A46" s="21">
         <v>45702</v>
       </c>
-      <c r="B46" s="42">
+      <c r="B46" s="40">
         <f>'[1]NaOCl Pré'!F47</f>
         <v>2.4514104259078868</v>
       </c>
@@ -9784,7 +9912,7 @@
         <f>[1]FeCl3!F47</f>
         <v>0</v>
       </c>
-      <c r="E46" s="42">
+      <c r="E46" s="40">
         <f>'[1]NaOCl 2 CEB 1'!I47</f>
         <v>8.1450088344680189</v>
       </c>
@@ -9792,26 +9920,26 @@
         <f>'[1]Soude CEB 1'!F47</f>
         <v>0</v>
       </c>
-      <c r="G46" s="42">
+      <c r="G46" s="40">
         <f>'[1]Acide CEB2'!F47</f>
         <v>0.51400541188391324</v>
       </c>
-      <c r="H46" s="42">
+      <c r="H46" s="40">
         <f>[1]SBS!G47</f>
         <v>2.016482769698412</v>
       </c>
-      <c r="I46" s="42">
+      <c r="I46" s="40">
         <f>[1]ASC!F47</f>
         <v>3.8179728911568849</v>
       </c>
       <c r="J46" s="4"/>
-      <c r="K46" s="30"/>
+      <c r="K46" s="29"/>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A47" s="21">
         <v>45703</v>
       </c>
-      <c r="B47" s="42">
+      <c r="B47" s="40">
         <f>'[1]NaOCl Pré'!F48</f>
         <v>2.6314457770355548</v>
       </c>
@@ -9823,7 +9951,7 @@
         <f>[1]FeCl3!F48</f>
         <v>0</v>
       </c>
-      <c r="E47" s="42">
+      <c r="E47" s="40">
         <f>'[1]NaOCl 2 CEB 1'!I48</f>
         <v>10.201912858661021</v>
       </c>
@@ -9831,26 +9959,26 @@
         <f>'[1]Soude CEB 1'!F48</f>
         <v>0</v>
       </c>
-      <c r="G47" s="42">
+      <c r="G47" s="40">
         <f>'[1]Acide CEB2'!F48</f>
         <v>-8.0967562370338947E-2</v>
       </c>
-      <c r="H47" s="42">
+      <c r="H47" s="40">
         <f>[1]SBS!G48</f>
         <v>1.4574161226658537</v>
       </c>
-      <c r="I47" s="42">
+      <c r="I47" s="40">
         <f>[1]ASC!F48</f>
         <v>3.9471686655533547</v>
       </c>
       <c r="J47" s="4"/>
-      <c r="K47" s="30"/>
+      <c r="K47" s="29"/>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A48" s="21">
         <v>45704</v>
       </c>
-      <c r="B48" s="42">
+      <c r="B48" s="40">
         <f>'[1]NaOCl Pré'!F49</f>
         <v>2.7791563275434124</v>
       </c>
@@ -9862,7 +9990,7 @@
         <f>[1]FeCl3!F49</f>
         <v>0</v>
       </c>
-      <c r="E48" s="42">
+      <c r="E48" s="40">
         <f>'[1]NaOCl 2 CEB 1'!I49</f>
         <v>7.8081058726219492</v>
       </c>
@@ -9870,26 +9998,26 @@
         <f>'[1]Soude CEB 1'!F49</f>
         <v>0</v>
       </c>
-      <c r="G48" s="42">
+      <c r="G48" s="40">
         <f>'[1]Acide CEB2'!F49</f>
         <v>0</v>
       </c>
-      <c r="H48" s="42">
+      <c r="H48" s="40">
         <f>[1]SBS!G49</f>
         <v>1.632202922525495</v>
       </c>
-      <c r="I48" s="42">
+      <c r="I48" s="40">
         <f>[1]ASC!F49</f>
         <v>4.4251447477254011</v>
       </c>
       <c r="J48" s="4"/>
-      <c r="K48" s="30"/>
+      <c r="K48" s="29"/>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A49" s="21">
         <v>45705</v>
       </c>
-      <c r="B49" s="42">
+      <c r="B49" s="40">
         <f>'[1]NaOCl Pré'!F50</f>
         <v>2.3995715050883875</v>
       </c>
@@ -9901,7 +10029,7 @@
         <f>[1]FeCl3!F50</f>
         <v>0</v>
       </c>
-      <c r="E49" s="42">
+      <c r="E49" s="40">
         <f>'[1]NaOCl 2 CEB 1'!I50</f>
         <v>7.3510682616199858</v>
       </c>
@@ -9909,26 +10037,26 @@
         <f>'[1]Soude CEB 1'!F50</f>
         <v>0</v>
       </c>
-      <c r="G49" s="42">
+      <c r="G49" s="40">
         <f>'[1]Acide CEB2'!F50</f>
         <v>0.49514967565316609</v>
       </c>
-      <c r="H49" s="42">
+      <c r="H49" s="40">
         <f>[1]SBS!G50</f>
         <v>1.5997143367255986</v>
       </c>
-      <c r="I49" s="42">
+      <c r="I49" s="40">
         <f>[1]ASC!F50</f>
         <v>3.5707909301910372</v>
       </c>
       <c r="J49" s="4"/>
-      <c r="K49" s="30"/>
+      <c r="K49" s="29"/>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A50" s="21">
         <v>45706</v>
       </c>
-      <c r="B50" s="42">
+      <c r="B50" s="40">
         <f>'[1]NaOCl Pré'!F51</f>
         <v>2.605863192182404</v>
       </c>
@@ -9940,7 +10068,7 @@
         <f>[1]FeCl3!F51</f>
         <v>0</v>
       </c>
-      <c r="E50" s="42">
+      <c r="E50" s="40">
         <f>'[1]NaOCl 2 CEB 1'!I51</f>
         <v>9.3344353152802615</v>
       </c>
@@ -9948,26 +10076,26 @@
         <f>'[1]Soude CEB 1'!F51</f>
         <v>0</v>
       </c>
-      <c r="G50" s="42">
+      <c r="G50" s="40">
         <f>'[1]Acide CEB2'!F51</f>
         <v>0.11668044144101219</v>
       </c>
-      <c r="H50" s="42">
+      <c r="H50" s="40">
         <f>[1]SBS!G51</f>
         <v>1.6335261801740624</v>
       </c>
-      <c r="I50" s="42">
+      <c r="I50" s="40">
         <f>[1]ASC!F51</f>
         <v>3.7009577519568282</v>
       </c>
       <c r="J50" s="4"/>
-      <c r="K50" s="30"/>
+      <c r="K50" s="29"/>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A51" s="21">
         <v>45707</v>
       </c>
-      <c r="B51" s="42">
+      <c r="B51" s="40">
         <f>'[1]NaOCl Pré'!F52</f>
         <v>2.4198884582663829</v>
       </c>
@@ -9979,7 +10107,7 @@
         <f>[1]FeCl3!F52</f>
         <v>0</v>
       </c>
-      <c r="E51" s="42">
+      <c r="E51" s="40">
         <f>'[1]NaOCl 2 CEB 1'!I52</f>
         <v>7.5621514320824348</v>
       </c>
@@ -9987,26 +10115,26 @@
         <f>'[1]Soude CEB 1'!F52</f>
         <v>0</v>
       </c>
-      <c r="G51" s="42">
+      <c r="G51" s="40">
         <f>'[1]Acide CEB2'!F52</f>
         <v>0.11343227148120294</v>
       </c>
-      <c r="H51" s="42">
+      <c r="H51" s="40">
         <f>[1]SBS!G52</f>
         <v>0.83183665752905933</v>
       </c>
-      <c r="I51" s="42">
+      <c r="I51" s="40">
         <f>[1]ASC!F52</f>
         <v>3.6333774458833537</v>
       </c>
       <c r="J51" s="4"/>
-      <c r="K51" s="30"/>
+      <c r="K51" s="29"/>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A52" s="21">
         <v>45708</v>
       </c>
-      <c r="B52" s="42">
+      <c r="B52" s="40">
         <f>'[1]NaOCl Pré'!F53</f>
         <v>2.6478802018089196</v>
       </c>
@@ -10018,7 +10146,7 @@
         <f>[1]FeCl3!F53</f>
         <v>0</v>
       </c>
-      <c r="E52" s="42">
+      <c r="E52" s="40">
         <f>'[1]NaOCl 2 CEB 1'!I53</f>
         <v>9.7088940732993834</v>
       </c>
@@ -10026,26 +10154,26 @@
         <f>'[1]Soude CEB 1'!F53</f>
         <v>0</v>
       </c>
-      <c r="G52" s="42">
+      <c r="G52" s="40">
         <f>'[1]Acide CEB2'!F53</f>
         <v>0.33098502522614043</v>
       </c>
-      <c r="H52" s="42">
+      <c r="H52" s="40">
         <f>[1]SBS!G53</f>
         <v>1.2871639869904508</v>
       </c>
-      <c r="I52" s="42">
+      <c r="I52" s="40">
         <f>[1]ASC!F53</f>
         <v>3.7580591405881778</v>
       </c>
       <c r="J52" s="4"/>
-      <c r="K52" s="30"/>
+      <c r="K52" s="29"/>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A53" s="21">
         <v>45709</v>
       </c>
-      <c r="B53" s="42">
+      <c r="B53" s="40">
         <f>'[1]NaOCl Pré'!F54</f>
         <v>3.557294677397842</v>
       </c>
@@ -10057,7 +10185,7 @@
         <f>[1]FeCl3!F54</f>
         <v>0</v>
       </c>
-      <c r="E53" s="42">
+      <c r="E53" s="40">
         <f>'[1]NaOCl 2 CEB 1'!I54</f>
         <v>7.8971941838232027</v>
       </c>
@@ -10065,26 +10193,26 @@
         <f>'[1]Soude CEB 1'!F54</f>
         <v>0</v>
       </c>
-      <c r="G53" s="42">
+      <c r="G53" s="40">
         <f>'[1]Acide CEB2'!F54</f>
         <v>0.14229178709589788</v>
       </c>
-      <c r="H53" s="42">
+      <c r="H53" s="40">
         <f>[1]SBS!G54</f>
         <v>0.64031304193159966</v>
       </c>
-      <c r="I53" s="42">
+      <c r="I53" s="40">
         <f>[1]ASC!F54</f>
         <v>3.8018586864689459</v>
       </c>
       <c r="J53" s="4"/>
-      <c r="K53" s="30"/>
+      <c r="K53" s="29"/>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A54" s="21">
         <v>45710</v>
       </c>
-      <c r="B54" s="42">
+      <c r="B54" s="40">
         <f>'[1]NaOCl Pré'!F55</f>
         <v>2.6387672009483136</v>
       </c>
@@ -10096,7 +10224,7 @@
         <f>[1]FeCl3!F55</f>
         <v>0</v>
       </c>
-      <c r="E54" s="42">
+      <c r="E54" s="40">
         <f>'[1]NaOCl 2 CEB 1'!I55</f>
         <v>7.9987630778745666</v>
       </c>
@@ -10104,26 +10232,26 @@
         <f>'[1]Soude CEB 1'!F55</f>
         <v>0</v>
       </c>
-      <c r="G54" s="42">
+      <c r="G54" s="40">
         <f>'[1]Acide CEB2'!F55</f>
         <v>0.12369221254446115</v>
       </c>
-      <c r="H54" s="42">
+      <c r="H54" s="40">
         <f>[1]SBS!G55</f>
         <v>3.9169200639076465</v>
       </c>
-      <c r="I54" s="42">
+      <c r="I54" s="40">
         <f>[1]ASC!F55</f>
         <v>3.6721125599134168</v>
       </c>
       <c r="J54" s="4"/>
-      <c r="K54" s="30"/>
+      <c r="K54" s="29"/>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A55" s="21">
         <v>45711</v>
       </c>
-      <c r="B55" s="42">
+      <c r="B55" s="40">
         <f>'[1]NaOCl Pré'!F56</f>
         <v>1.8930110707343712</v>
       </c>
@@ -10135,7 +10263,7 @@
         <f>[1]FeCl3!F56</f>
         <v>0</v>
       </c>
-      <c r="E55" s="42">
+      <c r="E55" s="40">
         <f>'[1]NaOCl 2 CEB 1'!I56</f>
         <v>5.2154386642681922</v>
       </c>
@@ -10143,26 +10271,26 @@
         <f>'[1]Soude CEB 1'!F56</f>
         <v>0</v>
       </c>
-      <c r="G55" s="42">
+      <c r="G55" s="40">
         <f>'[1]Acide CEB2'!F56</f>
         <v>0.42496166894036869</v>
       </c>
-      <c r="H55" s="42">
+      <c r="H55" s="40">
         <f>[1]SBS!G56</f>
         <v>25.265902862454865</v>
       </c>
-      <c r="I55" s="42">
+      <c r="I55" s="40">
         <f>[1]ASC!F56</f>
         <v>4.1288889425456716</v>
       </c>
       <c r="J55" s="4"/>
-      <c r="K55" s="30"/>
+      <c r="K55" s="29"/>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A56" s="21">
         <v>45712</v>
       </c>
-      <c r="B56" s="42">
+      <c r="B56" s="40">
         <f>'[1]NaOCl Pré'!F57</f>
         <v>2.2053522201959388</v>
       </c>
@@ -10174,7 +10302,7 @@
         <f>[1]FeCl3!F57</f>
         <v>0</v>
       </c>
-      <c r="E56" s="42">
+      <c r="E56" s="40">
         <f>'[1]NaOCl 2 CEB 1'!I57</f>
         <v>6.6160566605878355</v>
       </c>
@@ -10182,26 +10310,26 @@
         <f>'[1]Soude CEB 1'!F57</f>
         <v>0</v>
       </c>
-      <c r="G56" s="42">
+      <c r="G56" s="40">
         <f>'[1]Acide CEB2'!F57</f>
         <v>3.3928495695318375E-2</v>
       </c>
-      <c r="H56" s="42">
+      <c r="H56" s="40">
         <f>[1]SBS!G57</f>
         <v>4.783917893040436</v>
       </c>
-      <c r="I56" s="42">
+      <c r="I56" s="40">
         <f>[1]ASC!F57</f>
         <v>3.467068153865728</v>
       </c>
       <c r="J56" s="4"/>
-      <c r="K56" s="30"/>
+      <c r="K56" s="29"/>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A57" s="21">
         <v>45713</v>
       </c>
-      <c r="B57" s="42">
+      <c r="B57" s="40">
         <f>'[1]NaOCl Pré'!F58</f>
         <v>1.9352788626136568</v>
       </c>
@@ -10213,7 +10341,7 @@
         <f>[1]FeCl3!F58</f>
         <v>0</v>
       </c>
-      <c r="E57" s="42">
+      <c r="E57" s="40">
         <f>'[1]NaOCl 2 CEB 1'!I58</f>
         <v>8.0363274803448039</v>
       </c>
@@ -10221,26 +10349,26 @@
         <f>'[1]Soude CEB 1'!F58</f>
         <v>0</v>
       </c>
-      <c r="G57" s="42">
+      <c r="G57" s="40">
         <f>'[1]Acide CEB2'!F58</f>
         <v>0.26241069323577509</v>
       </c>
-      <c r="H57" s="42">
+      <c r="H57" s="40">
         <f>[1]SBS!G58</f>
         <v>1.6441669998052419</v>
       </c>
-      <c r="I57" s="42">
+      <c r="I57" s="40">
         <f>[1]ASC!F58</f>
         <v>3.3826378424920818</v>
       </c>
       <c r="J57" s="4"/>
-      <c r="K57" s="30"/>
+      <c r="K57" s="29"/>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A58" s="21">
         <v>45714</v>
       </c>
-      <c r="B58" s="42">
+      <c r="B58" s="40">
         <f>'[1]NaOCl Pré'!F59</f>
         <v>2.1416051415520356</v>
       </c>
@@ -10252,7 +10380,7 @@
         <f>[1]FeCl3!F59</f>
         <v>0</v>
       </c>
-      <c r="E58" s="42">
+      <c r="E58" s="40">
         <f>'[1]NaOCl 2 CEB 1'!I59</f>
         <v>6.8667339459287371</v>
       </c>
@@ -10260,26 +10388,26 @@
         <f>'[1]Soude CEB 1'!F59</f>
         <v>0</v>
       </c>
-      <c r="G58" s="42">
+      <c r="G58" s="40">
         <f>'[1]Acide CEB2'!F59</f>
         <v>0.78185584532850683</v>
       </c>
-      <c r="H58" s="42">
+      <c r="H58" s="40">
         <f>[1]SBS!G59</f>
         <v>1.52971795825143</v>
       </c>
-      <c r="I58" s="42">
+      <c r="I58" s="40">
         <f>[1]ASC!F59</f>
         <v>3.7127529611727734</v>
       </c>
       <c r="J58" s="4"/>
-      <c r="K58" s="30"/>
+      <c r="K58" s="29"/>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A59" s="21">
         <v>45715</v>
       </c>
-      <c r="B59" s="42">
+      <c r="B59" s="40">
         <f>'[1]NaOCl Pré'!F60</f>
         <v>2.2074118096531645</v>
       </c>
@@ -10291,7 +10419,7 @@
         <f>[1]FeCl3!F60</f>
         <v>0</v>
       </c>
-      <c r="E59" s="42">
+      <c r="E59" s="40">
         <f>'[1]NaOCl 2 CEB 1'!I60</f>
         <v>5.9769919769070778</v>
       </c>
@@ -10299,26 +10427,26 @@
         <f>'[1]Soude CEB 1'!F60</f>
         <v>0</v>
       </c>
-      <c r="G59" s="42">
+      <c r="G59" s="40">
         <f>'[1]Acide CEB2'!F60</f>
         <v>3.3960181686949434E-2</v>
       </c>
-      <c r="H59" s="42">
+      <c r="H59" s="40">
         <f>[1]SBS!G60</f>
         <v>1.9357303561574186</v>
       </c>
-      <c r="I59" s="42">
+      <c r="I59" s="40">
         <f>[1]ASC!F60</f>
         <v>3.7250074287897532</v>
       </c>
       <c r="J59" s="4"/>
-      <c r="K59" s="30"/>
+      <c r="K59" s="29"/>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A60" s="21">
         <v>45716</v>
       </c>
-      <c r="B60" s="42">
+      <c r="B60" s="40">
         <f>'[1]NaOCl Pré'!F61</f>
         <v>2.1022336232246852</v>
       </c>
@@ -10330,7 +10458,7 @@
         <f>[1]FeCl3!F61</f>
         <v>0</v>
       </c>
-      <c r="E60" s="42">
+      <c r="E60" s="40">
         <f>'[1]NaOCl 2 CEB 1'!I61</f>
         <v>6.7738638970572742</v>
       </c>
@@ -10338,26 +10466,26 @@
         <f>'[1]Soude CEB 1'!F61</f>
         <v>0</v>
       </c>
-      <c r="G60" s="42">
+      <c r="G60" s="40">
         <f>'[1]Acide CEB2'!F61</f>
         <v>0.50053181505349476</v>
       </c>
-      <c r="H60" s="42">
+      <c r="H60" s="40">
         <f>[1]SBS!G61</f>
         <v>1.7685457465223371</v>
       </c>
-      <c r="I60" s="42">
+      <c r="I60" s="40">
         <f>[1]ASC!F61</f>
         <v>3.5975724206969883</v>
       </c>
       <c r="J60" s="4"/>
-      <c r="K60" s="30"/>
+      <c r="K60" s="29"/>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A61" s="21">
         <v>45717</v>
       </c>
-      <c r="B61" s="42">
+      <c r="B61" s="40">
         <f>'[1]NaOCl Pré'!F62</f>
         <v>2.2259271936313847</v>
       </c>
@@ -10369,7 +10497,7 @@
         <f>[1]FeCl3!F62</f>
         <v>0</v>
       </c>
-      <c r="E61" s="42">
+      <c r="E61" s="40">
         <f>'[1]NaOCl 2 CEB 1'!I62</f>
         <v>6.9957711799843256</v>
       </c>
@@ -10377,26 +10505,26 @@
         <f>'[1]Soude CEB 1'!F62</f>
         <v>0</v>
       </c>
-      <c r="G61" s="42">
+      <c r="G61" s="40">
         <f>'[1]Acide CEB2'!F62</f>
         <v>-7.0664355353369207E-2</v>
       </c>
-      <c r="H61" s="42">
+      <c r="H61" s="40">
         <f>[1]SBS!G62</f>
         <v>2.5439167927215856</v>
       </c>
-      <c r="I61" s="42">
+      <c r="I61" s="40">
         <f>[1]ASC!F62</f>
         <v>3.7098786560522949</v>
       </c>
       <c r="J61" s="4"/>
-      <c r="K61" s="30"/>
+      <c r="K61" s="29"/>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A62" s="21">
         <v>45718</v>
       </c>
-      <c r="B62" s="42">
+      <c r="B62" s="40">
         <f>'[1]NaOCl Pré'!F63</f>
         <v>2.2444081578976069</v>
       </c>
@@ -10408,7 +10536,7 @@
         <f>[1]FeCl3!F63</f>
         <v>0</v>
       </c>
-      <c r="E62" s="42">
+      <c r="E62" s="40">
         <f>'[1]NaOCl 2 CEB 1'!I63</f>
         <v>6.7332244736928706</v>
       </c>
@@ -10416,26 +10544,26 @@
         <f>'[1]Soude CEB 1'!F63</f>
         <v>0</v>
       </c>
-      <c r="G62" s="42">
+      <c r="G62" s="40">
         <f>'[1]Acide CEB2'!F63</f>
         <v>0.31561989720435707</v>
       </c>
-      <c r="H62" s="42">
+      <c r="H62" s="40">
         <f>[1]SBS!G63</f>
         <v>1.8937193832261037</v>
       </c>
-      <c r="I62" s="42">
+      <c r="I62" s="40">
         <f>[1]ASC!F63</f>
         <v>3.5671623798616863</v>
       </c>
       <c r="J62" s="4"/>
-      <c r="K62" s="30"/>
+      <c r="K62" s="29"/>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A63" s="21">
         <v>45719</v>
       </c>
-      <c r="B63" s="42">
+      <c r="B63" s="40">
         <f>'[1]NaOCl Pré'!F64</f>
         <v>2.2871913368711692</v>
       </c>
@@ -10447,7 +10575,7 @@
         <f>[1]FeCl3!F64</f>
         <v>0</v>
       </c>
-      <c r="E63" s="42">
+      <c r="E63" s="40">
         <f>'[1]NaOCl 2 CEB 1'!I64</f>
         <v>6.6735856815555978</v>
       </c>
@@ -10455,26 +10583,26 @@
         <f>'[1]Soude CEB 1'!F64</f>
         <v>0</v>
       </c>
-      <c r="G63" s="42">
+      <c r="G63" s="40">
         <f>'[1]Acide CEB2'!F64</f>
         <v>0.187988329057901</v>
       </c>
-      <c r="H63" s="42">
+      <c r="H63" s="40">
         <f>[1]SBS!G64</f>
         <v>1.7232263496974751</v>
       </c>
-      <c r="I63" s="42">
+      <c r="I63" s="40">
         <f>[1]ASC!F64</f>
         <v>3.495407993420419</v>
       </c>
       <c r="J63" s="4"/>
-      <c r="K63" s="30"/>
+      <c r="K63" s="29"/>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A64" s="21">
         <v>45720</v>
       </c>
-      <c r="B64" s="42">
+      <c r="B64" s="40">
         <f>'[1]NaOCl Pré'!F65</f>
         <v>2.4312750379886907</v>
       </c>
@@ -10486,7 +10614,7 @@
         <f>[1]FeCl3!F65</f>
         <v>0</v>
       </c>
-      <c r="E64" s="42">
+      <c r="E64" s="40">
         <f>'[1]NaOCl 2 CEB 1'!I65</f>
         <v>5.9676750932449316</v>
       </c>
@@ -10494,26 +10622,26 @@
         <f>'[1]Soude CEB 1'!F65</f>
         <v>0</v>
       </c>
-      <c r="G64" s="42">
+      <c r="G64" s="40">
         <f>'[1]Acide CEB2'!F65</f>
         <v>0.11051250172676612</v>
       </c>
-      <c r="H64" s="42">
+      <c r="H64" s="40">
         <f>[1]SBS!G65</f>
         <v>2.0629000322327902</v>
       </c>
-      <c r="I64" s="42">
+      <c r="I64" s="40">
         <f>[1]ASC!F65</f>
         <v>3.7125293548832712</v>
       </c>
       <c r="J64" s="4"/>
-      <c r="K64" s="30"/>
+      <c r="K64" s="29"/>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A65" s="21">
         <v>45721</v>
       </c>
-      <c r="B65" s="42">
+      <c r="B65" s="40">
         <f>'[1]NaOCl Pré'!F66</f>
         <v>2.2608554650853008</v>
       </c>
@@ -10525,7 +10653,7 @@
         <f>[1]FeCl3!F66</f>
         <v>0</v>
       </c>
-      <c r="E65" s="42">
+      <c r="E65" s="40">
         <f>'[1]NaOCl 2 CEB 1'!I66</f>
         <v>6.4489975561449526</v>
       </c>
@@ -10533,26 +10661,26 @@
         <f>'[1]Soude CEB 1'!F66</f>
         <v>0</v>
       </c>
-      <c r="G65" s="42">
+      <c r="G65" s="40">
         <f>'[1]Acide CEB2'!F66</f>
         <v>0.25944243041961695</v>
       </c>
-      <c r="H65" s="42">
+      <c r="H65" s="40">
         <f>[1]SBS!G66</f>
         <v>7.0420088256755617</v>
       </c>
-      <c r="I65" s="42">
+      <c r="I65" s="40">
         <f>[1]ASC!F66</f>
         <v>4.065370226664669</v>
       </c>
       <c r="J65" s="4"/>
-      <c r="K65" s="30"/>
+      <c r="K65" s="29"/>
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A66" s="21">
         <v>45722</v>
       </c>
-      <c r="B66" s="42">
+      <c r="B66" s="40">
         <f>'[1]NaOCl Pré'!F67</f>
         <v>2.1678584870154216</v>
       </c>
@@ -10564,7 +10692,7 @@
         <f>[1]FeCl3!F67</f>
         <v>0</v>
       </c>
-      <c r="E66" s="42">
+      <c r="E66" s="40">
         <f>'[1]NaOCl 2 CEB 1'!I67</f>
         <v>8.7402548524114216</v>
       </c>
@@ -10572,26 +10700,26 @@
         <f>'[1]Soude CEB 1'!F67</f>
         <v>0</v>
       </c>
-      <c r="G66" s="42">
+      <c r="G66" s="40">
         <f>'[1]Acide CEB2'!F67</f>
         <v>0.309694069573618</v>
       </c>
-      <c r="H66" s="42">
+      <c r="H66" s="40">
         <f>[1]SBS!G67</f>
         <v>3.131351147911158</v>
       </c>
-      <c r="I66" s="42">
+      <c r="I66" s="40">
         <f>[1]ASC!F67</f>
         <v>3.9195655680412789</v>
       </c>
       <c r="J66" s="4"/>
-      <c r="K66" s="30"/>
+      <c r="K66" s="29"/>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A67" s="21">
         <v>45723</v>
       </c>
-      <c r="B67" s="42">
+      <c r="B67" s="40">
         <f>'[1]NaOCl Pré'!F68</f>
         <v>2.1104903786468117</v>
       </c>
@@ -10603,7 +10731,7 @@
         <f>[1]FeCl3!F68</f>
         <v>0</v>
       </c>
-      <c r="E67" s="42">
+      <c r="E67" s="40">
         <f>'[1]NaOCl 2 CEB 1'!I68</f>
         <v>6.6728739913097437</v>
       </c>
@@ -10611,26 +10739,26 @@
         <f>'[1]Soude CEB 1'!F68</f>
         <v>0</v>
       </c>
-      <c r="G67" s="42">
+      <c r="G67" s="40">
         <f>'[1]Acide CEB2'!F68</f>
         <v>3.1036623215425201E-2</v>
       </c>
-      <c r="H67" s="42">
+      <c r="H67" s="40">
         <f>[1]SBS!G68</f>
         <v>1.4587212911235201</v>
       </c>
-      <c r="I67" s="42">
+      <c r="I67" s="40">
         <f>[1]ASC!F68</f>
         <v>3.3606843575418974</v>
       </c>
       <c r="J67" s="4"/>
-      <c r="K67" s="30"/>
+      <c r="K67" s="29"/>
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A68" s="21">
         <v>45724</v>
       </c>
-      <c r="B68" s="42">
+      <c r="B68" s="40">
         <f>'[1]NaOCl Pré'!F69</f>
         <v>2.1647483283986015</v>
       </c>
@@ -10642,7 +10770,7 @@
         <f>[1]FeCl3!F69</f>
         <v>0</v>
       </c>
-      <c r="E68" s="42">
+      <c r="E68" s="40">
         <f>'[1]NaOCl 2 CEB 1'!I69</f>
         <v>6.9020961195317616</v>
       </c>
@@ -10650,26 +10778,26 @@
         <f>'[1]Soude CEB 1'!F69</f>
         <v>0</v>
       </c>
-      <c r="G68" s="42">
+      <c r="G68" s="40">
         <f>'[1]Acide CEB2'!F69</f>
         <v>0.4392242985156436</v>
       </c>
-      <c r="H68" s="42">
+      <c r="H68" s="40">
         <f>[1]SBS!G69</f>
         <v>0.97256808957039853</v>
       </c>
-      <c r="I68" s="42">
+      <c r="I68" s="40">
         <f>[1]ASC!F69</f>
         <v>3.3383007509951308</v>
       </c>
       <c r="J68" s="4"/>
-      <c r="K68" s="30"/>
+      <c r="K68" s="29"/>
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A69" s="21">
         <v>45725</v>
       </c>
-      <c r="B69" s="42">
+      <c r="B69" s="40">
         <f>'[1]NaOCl Pré'!F70</f>
         <v>2.0587894065159822</v>
       </c>
@@ -10681,7 +10809,7 @@
         <f>[1]FeCl3!F70</f>
         <v>0</v>
       </c>
-      <c r="E69" s="42">
+      <c r="E69" s="40">
         <f>'[1]NaOCl 2 CEB 1'!I70</f>
         <v>5.7376098214379754</v>
       </c>
@@ -10689,26 +10817,26 @@
         <f>'[1]Soude CEB 1'!F70</f>
         <v>0</v>
       </c>
-      <c r="G69" s="42">
+      <c r="G69" s="40">
         <f>'[1]Acide CEB2'!F70</f>
         <v>0.13500258403383891</v>
       </c>
-      <c r="H69" s="42">
+      <c r="H69" s="40">
         <f>[1]SBS!G70</f>
         <v>0.16875323004227519</v>
       </c>
-      <c r="I69" s="42">
+      <c r="I69" s="40">
         <f>[1]ASC!F70</f>
         <v>3.5596384462046293</v>
       </c>
       <c r="J69" s="4"/>
-      <c r="K69" s="30"/>
+      <c r="K69" s="29"/>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A70" s="21">
         <v>45726</v>
       </c>
-      <c r="B70" s="42">
+      <c r="B70" s="40">
         <f>'[1]NaOCl Pré'!F71</f>
         <v>2.7415725203047945</v>
       </c>
@@ -10720,7 +10848,7 @@
         <f>[1]FeCl3!F71</f>
         <v>0</v>
       </c>
-      <c r="E70" s="42">
+      <c r="E70" s="40">
         <f>'[1]NaOCl 2 CEB 1'!I71</f>
         <v>8.078500359831402</v>
       </c>
@@ -10728,26 +10856,26 @@
         <f>'[1]Soude CEB 1'!F71</f>
         <v>0</v>
       </c>
-      <c r="G70" s="42">
+      <c r="G70" s="40">
         <f>'[1]Acide CEB2'!F71</f>
         <v>0.10966290081219908</v>
       </c>
-      <c r="H70" s="42">
+      <c r="H70" s="40">
         <f>[1]SBS!G71</f>
         <v>0.65797740487315393</v>
       </c>
-      <c r="I70" s="42">
+      <c r="I70" s="40">
         <f>[1]ASC!F71</f>
         <v>3.786797043670957</v>
       </c>
       <c r="J70" s="4"/>
-      <c r="K70" s="30"/>
+      <c r="K70" s="29"/>
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A71" s="21">
         <v>45727</v>
       </c>
-      <c r="B71" s="42">
+      <c r="B71" s="40">
         <f>'[1]NaOCl Pré'!F72</f>
         <v>2.6021867774424812</v>
       </c>
@@ -10759,7 +10887,7 @@
         <f>[1]FeCl3!F72</f>
         <v>0</v>
       </c>
-      <c r="E71" s="42">
+      <c r="E71" s="40">
         <f>'[1]NaOCl 2 CEB 1'!I72</f>
         <v>7.555747148959524</v>
       </c>
@@ -10767,26 +10895,26 @@
         <f>'[1]Soude CEB 1'!F72</f>
         <v>0</v>
       </c>
-      <c r="G71" s="42">
+      <c r="G71" s="40">
         <f>'[1]Acide CEB2'!F72</f>
         <v>9.4054943762953772E-2</v>
       </c>
-      <c r="H71" s="42">
+      <c r="H71" s="40">
         <f>[1]SBS!G72</f>
         <v>1.8183955794176516</v>
       </c>
-      <c r="I71" s="42">
+      <c r="I71" s="40">
         <f>[1]ASC!F72</f>
         <v>3.2772269467413881</v>
       </c>
       <c r="J71" s="4"/>
-      <c r="K71" s="30"/>
+      <c r="K71" s="29"/>
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A72" s="21">
         <v>45728</v>
       </c>
-      <c r="B72" s="42">
+      <c r="B72" s="40">
         <f>'[1]NaOCl Pré'!F73</f>
         <v>2.531882775493187</v>
       </c>
@@ -10798,7 +10926,7 @@
         <f>[1]FeCl3!F73</f>
         <v>0</v>
       </c>
-      <c r="E72" s="42">
+      <c r="E72" s="40">
         <f>'[1]NaOCl 2 CEB 1'!I73</f>
         <v>7.7955338087553985</v>
       </c>
@@ -10806,26 +10934,26 @@
         <f>'[1]Soude CEB 1'!F73</f>
         <v>0</v>
       </c>
-      <c r="G72" s="42">
+      <c r="G72" s="40">
         <f>'[1]Acide CEB2'!F73</f>
         <v>0</v>
       </c>
-      <c r="H72" s="42">
+      <c r="H72" s="40">
         <f>[1]SBS!G73</f>
         <v>4.6306803393889</v>
       </c>
-      <c r="I72" s="42">
+      <c r="I72" s="40">
         <f>[1]ASC!F73</f>
         <v>3.6073083129457064</v>
       </c>
       <c r="J72" s="4"/>
-      <c r="K72" s="30"/>
+      <c r="K72" s="29"/>
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A73" s="21">
         <v>45729</v>
       </c>
-      <c r="B73" s="42">
+      <c r="B73" s="40">
         <f>'[1]NaOCl Pré'!F74</f>
         <v>3.0467656118734476</v>
       </c>
@@ -10837,7 +10965,7 @@
         <f>[1]FeCl3!F74</f>
         <v>0</v>
       </c>
-      <c r="E73" s="42">
+      <c r="E73" s="40">
         <f>'[1]NaOCl 2 CEB 1'!I74</f>
         <v>6.4519742369084288</v>
       </c>
@@ -10845,26 +10973,26 @@
         <f>'[1]Soude CEB 1'!F74</f>
         <v>0</v>
       </c>
-      <c r="G73" s="42">
+      <c r="G73" s="40">
         <f>'[1]Acide CEB2'!F74</f>
         <v>0.3584430131615996</v>
       </c>
-      <c r="H73" s="42">
+      <c r="H73" s="40">
         <f>[1]SBS!G74</f>
         <v>1.2187062447493551</v>
       </c>
-      <c r="I73" s="42">
+      <c r="I73" s="40">
         <f>[1]ASC!F74</f>
         <v>3.8980677681321745</v>
       </c>
       <c r="J73" s="4"/>
-      <c r="K73" s="30"/>
+      <c r="K73" s="29"/>
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A74" s="21">
         <v>45730</v>
       </c>
-      <c r="B74" s="42">
+      <c r="B74" s="40">
         <f>'[1]NaOCl Pré'!F75</f>
         <v>2.8606372173047823</v>
       </c>
@@ -10876,7 +11004,7 @@
         <f>[1]FeCl3!F75</f>
         <v>0</v>
       </c>
-      <c r="E74" s="42">
+      <c r="E74" s="40">
         <f>'[1]NaOCl 2 CEB 1'!I75</f>
         <v>6.9318629381646231</v>
       </c>
@@ -10884,26 +11012,26 @@
         <f>'[1]Soude CEB 1'!F75</f>
         <v>0</v>
       </c>
-      <c r="G74" s="42">
+      <c r="G74" s="40">
         <f>'[1]Acide CEB2'!F75</f>
         <v>3.3166808316591946E-2</v>
       </c>
-      <c r="H74" s="42">
+      <c r="H74" s="40">
         <f>[1]SBS!G75</f>
         <v>4.6433531643208097</v>
       </c>
-      <c r="I74" s="42">
+      <c r="I74" s="40">
         <f>[1]ASC!F75</f>
         <v>3.4825148732406075</v>
       </c>
       <c r="J74" s="4"/>
-      <c r="K74" s="30"/>
+      <c r="K74" s="29"/>
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A75" s="21">
         <v>45731</v>
       </c>
-      <c r="B75" s="42">
+      <c r="B75" s="40">
         <f>'[1]NaOCl Pré'!F76</f>
         <v>2.0061228541276854</v>
       </c>
@@ -10915,7 +11043,7 @@
         <f>[1]FeCl3!F76</f>
         <v>0</v>
       </c>
-      <c r="E75" s="42">
+      <c r="E75" s="40">
         <f>'[1]NaOCl 2 CEB 1'!I76</f>
         <v>4.2212168388937066</v>
       </c>
@@ -10923,26 +11051,26 @@
         <f>'[1]Soude CEB 1'!F76</f>
         <v>0</v>
       </c>
-      <c r="G75" s="42">
+      <c r="G75" s="40">
         <f>'[1]Acide CEB2'!F76</f>
         <v>6.6870761804230808E-2</v>
       </c>
-      <c r="H75" s="42">
+      <c r="H75" s="40">
         <f>[1]SBS!G76</f>
         <v>6.2524162286980047</v>
       </c>
-      <c r="I75" s="42">
+      <c r="I75" s="40">
         <f>[1]ASC!F76</f>
         <v>3.3853323163404978</v>
       </c>
       <c r="J75" s="4"/>
-      <c r="K75" s="30"/>
+      <c r="K75" s="29"/>
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A76" s="21">
         <v>45732</v>
       </c>
-      <c r="B76" s="42">
+      <c r="B76" s="40">
         <f>'[1]NaOCl Pré'!F77</f>
         <v>5.8303943400850278</v>
       </c>
@@ -10954,7 +11082,7 @@
         <f>[1]FeCl3!F77</f>
         <v>0</v>
       </c>
-      <c r="E76" s="42">
+      <c r="E76" s="40">
         <f>'[1]NaOCl 2 CEB 1'!I77</f>
         <v>8.3193930934546501</v>
       </c>
@@ -10962,26 +11090,26 @@
         <f>'[1]Soude CEB 1'!F77</f>
         <v>0</v>
       </c>
-      <c r="G76" s="42">
+      <c r="G76" s="40">
         <f>'[1]Acide CEB2'!F77</f>
         <v>0.2045752400029987</v>
       </c>
-      <c r="H76" s="42">
+      <c r="H76" s="40">
         <f>[1]SBS!G77</f>
         <v>8.5921600801253017</v>
       </c>
-      <c r="I76" s="42">
+      <c r="I76" s="40">
         <f>[1]ASC!F77</f>
         <v>3.8198033094306987</v>
       </c>
       <c r="J76" s="4"/>
-      <c r="K76" s="30"/>
+      <c r="K76" s="29"/>
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A77" s="21">
         <v>45733</v>
       </c>
-      <c r="B77" s="42">
+      <c r="B77" s="40">
         <f>'[1]NaOCl Pré'!F78</f>
         <v>0.40313806333390223</v>
       </c>
@@ -10993,7 +11121,7 @@
         <f>[1]FeCl3!F78</f>
         <v>0</v>
       </c>
-      <c r="E77" s="42">
+      <c r="E77" s="40">
         <f>'[1]NaOCl 2 CEB 1'!I78</f>
         <v>6.6334535875851799</v>
       </c>
@@ -11001,26 +11129,26 @@
         <f>'[1]Soude CEB 1'!F78</f>
         <v>0</v>
       </c>
-      <c r="G77" s="42">
+      <c r="G77" s="40">
         <f>'[1]Acide CEB2'!F78</f>
         <v>0.21989348909119724</v>
       </c>
-      <c r="H77" s="42">
+      <c r="H77" s="40">
         <f>[1]SBS!G78</f>
         <v>8.172708011223726</v>
       </c>
-      <c r="I77" s="42">
+      <c r="I77" s="40">
         <f>[1]ASC!F78</f>
         <v>3.9683903109431555</v>
       </c>
       <c r="J77" s="4"/>
-      <c r="K77" s="30"/>
+      <c r="K77" s="29"/>
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A78" s="21">
         <v>45734</v>
       </c>
-      <c r="B78" s="42">
+      <c r="B78" s="40">
         <f>'[1]NaOCl Pré'!F79</f>
         <v>2.4805941693466504</v>
       </c>
@@ -11032,7 +11160,7 @@
         <f>[1]FeCl3!F79</f>
         <v>0</v>
       </c>
-      <c r="E78" s="42">
+      <c r="E78" s="40">
         <f>'[1]NaOCl 2 CEB 1'!I79</f>
         <v>6.0904453127455183</v>
       </c>
@@ -11040,26 +11168,26 @@
         <f>'[1]Soude CEB 1'!F79</f>
         <v>0</v>
       </c>
-      <c r="G78" s="42">
+      <c r="G78" s="40">
         <f>'[1]Acide CEB2'!F79</f>
         <v>0.10056462848703365</v>
       </c>
-      <c r="H78" s="42">
+      <c r="H78" s="40">
         <f>[1]SBS!G79</f>
         <v>8.5479934213972264</v>
       </c>
-      <c r="I78" s="42">
+      <c r="I78" s="40">
         <f>[1]ASC!F79</f>
         <v>3.5511884434480954</v>
       </c>
       <c r="J78" s="4"/>
-      <c r="K78" s="30"/>
+      <c r="K78" s="29"/>
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A79" s="21">
         <v>45735</v>
       </c>
-      <c r="B79" s="42">
+      <c r="B79" s="40">
         <f>'[1]NaOCl Pré'!F80</f>
         <v>1.6574365512570344</v>
       </c>
@@ -11071,7 +11199,7 @@
         <f>[1]FeCl3!F80</f>
         <v>0</v>
       </c>
-      <c r="E79" s="42">
+      <c r="E79" s="40">
         <f>'[1]NaOCl 2 CEB 1'!I80</f>
         <v>6.5022510857006175</v>
       </c>
@@ -11079,26 +11207,26 @@
         <f>'[1]Soude CEB 1'!F80</f>
         <v>0</v>
       </c>
-      <c r="G79" s="42">
+      <c r="G79" s="40">
         <f>'[1]Acide CEB2'!F80</f>
         <v>0.1912426789912092</v>
       </c>
-      <c r="H79" s="42">
+      <c r="H79" s="40">
         <f>[1]SBS!G80</f>
         <v>15.140045420136255</v>
       </c>
-      <c r="I79" s="42">
+      <c r="I79" s="40">
         <f>[1]ASC!F80</f>
         <v>3.3616877166421006</v>
       </c>
       <c r="J79" s="4"/>
-      <c r="K79" s="30"/>
+      <c r="K79" s="29"/>
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A80" s="21">
         <v>45736</v>
       </c>
-      <c r="B80" s="42">
+      <c r="B80" s="40">
         <f>'[1]NaOCl Pré'!F81</f>
         <v>0</v>
       </c>
@@ -11110,7 +11238,7 @@
         <f>[1]FeCl3!F81</f>
         <v>0</v>
       </c>
-      <c r="E80" s="42">
+      <c r="E80" s="40">
         <f>'[1]NaOCl 2 CEB 1'!I81</f>
         <v>7.6162288814897838</v>
       </c>
@@ -11118,26 +11246,26 @@
         <f>'[1]Soude CEB 1'!F81</f>
         <v>0</v>
       </c>
-      <c r="G80" s="42">
+      <c r="G80" s="40">
         <f>'[1]Acide CEB2'!F81</f>
         <v>1.1838697743248034</v>
       </c>
-      <c r="H80" s="42">
+      <c r="H80" s="40">
         <f>[1]SBS!G81</f>
         <v>22.49352571217166</v>
       </c>
-      <c r="I80" s="42">
+      <c r="I80" s="40">
         <f>[1]ASC!F81</f>
         <v>4.0880503144654101</v>
       </c>
       <c r="J80" s="4"/>
-      <c r="K80" s="30"/>
+      <c r="K80" s="29"/>
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A81" s="21">
         <v>45737</v>
       </c>
-      <c r="B81" s="42">
+      <c r="B81" s="40">
         <f>'[1]NaOCl Pré'!F82</f>
         <v>2.0088515019303452</v>
       </c>
@@ -11149,7 +11277,7 @@
         <f>[1]FeCl3!F82</f>
         <v>0</v>
       </c>
-      <c r="E81" s="42">
+      <c r="E81" s="40">
         <f>'[1]NaOCl 2 CEB 1'!I82</f>
         <v>5.8926310723290989</v>
       </c>
@@ -11157,26 +11285,26 @@
         <f>'[1]Soude CEB 1'!F82</f>
         <v>0</v>
       </c>
-      <c r="G81" s="42">
+      <c r="G81" s="40">
         <f>'[1]Acide CEB2'!F82</f>
         <v>0.70309802567564872</v>
       </c>
-      <c r="H81" s="42">
+      <c r="H81" s="40">
         <f>[1]SBS!G82</f>
         <v>9.9772957929208914</v>
       </c>
-      <c r="I81" s="42">
+      <c r="I81" s="40">
         <f>[1]ASC!F82</f>
         <v>3.3219289159525829</v>
       </c>
       <c r="J81" s="4"/>
-      <c r="K81" s="30"/>
+      <c r="K81" s="29"/>
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A82" s="21">
         <v>45738</v>
       </c>
-      <c r="B82" s="42">
+      <c r="B82" s="40">
         <f>'[1]NaOCl Pré'!F83</f>
         <v>2.5758169081495272</v>
       </c>
@@ -11188,7 +11316,7 @@
         <f>[1]FeCl3!F83</f>
         <v>0</v>
       </c>
-      <c r="E82" s="42">
+      <c r="E82" s="40">
         <f>'[1]NaOCl 2 CEB 1'!I83</f>
         <v>6.3003089239872585</v>
       </c>
@@ -11196,26 +11324,26 @@
         <f>'[1]Soude CEB 1'!F83</f>
         <v>0</v>
       </c>
-      <c r="G82" s="42">
+      <c r="G82" s="40">
         <f>'[1]Acide CEB2'!F83</f>
         <v>1.1486751076882808</v>
       </c>
-      <c r="H82" s="42">
+      <c r="H82" s="40">
         <f>[1]SBS!G83</f>
         <v>8.3888091197841721</v>
       </c>
-      <c r="I82" s="42">
+      <c r="I82" s="40">
         <f>[1]ASC!F83</f>
         <v>3.8669886437801964</v>
       </c>
       <c r="J82" s="4"/>
-      <c r="K82" s="30"/>
+      <c r="K82" s="29"/>
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A83" s="21">
         <v>45739</v>
       </c>
-      <c r="B83" s="42">
+      <c r="B83" s="40">
         <f>'[1]NaOCl Pré'!F84</f>
         <v>1.6198028842813414</v>
       </c>
@@ -11227,7 +11355,7 @@
         <f>[1]FeCl3!F84</f>
         <v>0</v>
       </c>
-      <c r="E83" s="42">
+      <c r="E83" s="40">
         <f>'[1]NaOCl 2 CEB 1'!I84</f>
         <v>7.9402102170655038</v>
       </c>
@@ -11235,26 +11363,26 @@
         <f>'[1]Soude CEB 1'!F84</f>
         <v>0</v>
       </c>
-      <c r="G83" s="42">
+      <c r="G83" s="40">
         <f>'[1]Acide CEB2'!F84</f>
         <v>0.63521681736524038</v>
       </c>
-      <c r="H83" s="42">
+      <c r="H83" s="40">
         <f>[1]SBS!G84</f>
         <v>18.643613589669794</v>
       </c>
-      <c r="I83" s="42">
+      <c r="I83" s="40">
         <f>[1]ASC!F84</f>
         <v>3.3646640794814906</v>
       </c>
       <c r="J83" s="4"/>
-      <c r="K83" s="30"/>
+      <c r="K83" s="29"/>
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A84" s="21">
         <v>45740</v>
       </c>
-      <c r="B84" s="42">
+      <c r="B84" s="40">
         <f>'[1]NaOCl Pré'!F85</f>
         <v>1.1648697551418317</v>
       </c>
@@ -11266,7 +11394,7 @@
         <f>[1]FeCl3!F85</f>
         <v>0</v>
       </c>
-      <c r="E84" s="42">
+      <c r="E84" s="40">
         <f>'[1]NaOCl 2 CEB 1'!I85</f>
         <v>2.2612177599811738</v>
       </c>
@@ -11274,26 +11402,26 @@
         <f>'[1]Soude CEB 1'!F85</f>
         <v>0</v>
       </c>
-      <c r="G84" s="42">
+      <c r="G84" s="40">
         <f>'[1]Acide CEB2'!F85</f>
         <v>1.1648697551418317</v>
       </c>
-      <c r="H84" s="42">
+      <c r="H84" s="40">
         <f>[1]SBS!G85</f>
         <v>2.3918373464952194</v>
       </c>
-      <c r="I84" s="42">
+      <c r="I84" s="40">
         <f>[1]ASC!F85</f>
         <v>3.5331527499705579</v>
       </c>
       <c r="J84" s="4"/>
-      <c r="K84" s="30"/>
+      <c r="K84" s="29"/>
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A85" s="21">
         <v>45741</v>
       </c>
-      <c r="B85" s="42">
+      <c r="B85" s="40">
         <f>'[1]NaOCl Pré'!F86</f>
         <v>0.52542280116028972</v>
       </c>
@@ -11305,7 +11433,7 @@
         <f>[1]FeCl3!F86</f>
         <v>0</v>
       </c>
-      <c r="E85" s="42">
+      <c r="E85" s="40">
         <f>'[1]NaOCl 2 CEB 1'!I86</f>
         <v>10.018061408789873</v>
       </c>
@@ -11313,26 +11441,26 @@
         <f>'[1]Soude CEB 1'!F86</f>
         <v>0</v>
       </c>
-      <c r="G85" s="42">
+      <c r="G85" s="40">
         <f>'[1]Acide CEB2'!F86</f>
         <v>0.94576104208852918</v>
       </c>
-      <c r="H85" s="42">
+      <c r="H85" s="40">
         <f>[1]SBS!G86</f>
         <v>8.0564829511247211</v>
       </c>
-      <c r="I85" s="42">
+      <c r="I85" s="40">
         <f>[1]ASC!F86</f>
         <v>3.7272179957309448</v>
       </c>
       <c r="J85" s="4"/>
-      <c r="K85" s="30"/>
+      <c r="K85" s="29"/>
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A86" s="21">
         <v>45742</v>
       </c>
-      <c r="B86" s="42">
+      <c r="B86" s="40">
         <f>'[1]NaOCl Pré'!F87</f>
         <v>2.8406208785634828</v>
       </c>
@@ -11344,7 +11472,7 @@
         <f>[1]FeCl3!F87</f>
         <v>0</v>
       </c>
-      <c r="E86" s="42">
+      <c r="E86" s="40">
         <f>'[1]NaOCl 2 CEB 1'!I87</f>
         <v>8.5218626356903808</v>
       </c>
@@ -11352,26 +11480,26 @@
         <f>'[1]Soude CEB 1'!F87</f>
         <v>0</v>
       </c>
-      <c r="G86" s="42">
+      <c r="G86" s="40">
         <f>'[1]Acide CEB2'!F87</f>
         <v>1.3391498427513544</v>
       </c>
-      <c r="H86" s="42">
+      <c r="H86" s="40">
         <f>[1]SBS!G87</f>
         <v>13.026275743126719</v>
       </c>
-      <c r="I86" s="42">
+      <c r="I86" s="40">
         <f>[1]ASC!F87</f>
         <v>4.1848432585979518</v>
       </c>
       <c r="J86" s="4"/>
-      <c r="K86" s="30"/>
+      <c r="K86" s="29"/>
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A87" s="21">
         <v>45743</v>
       </c>
-      <c r="B87" s="42">
+      <c r="B87" s="40">
         <f>'[1]NaOCl Pré'!F88</f>
         <v>2.2266549148768404</v>
       </c>
@@ -11383,7 +11511,7 @@
         <f>[1]FeCl3!F88</f>
         <v>0</v>
       </c>
-      <c r="E87" s="42">
+      <c r="E87" s="40">
         <f>'[1]NaOCl 2 CEB 1'!I88</f>
         <v>4.3419770840098089</v>
       </c>
@@ -11391,26 +11519,26 @@
         <f>'[1]Soude CEB 1'!F88</f>
         <v>0</v>
       </c>
-      <c r="G87" s="42">
+      <c r="G87" s="40">
         <f>'[1]Acide CEB2'!F88</f>
         <v>2.9688732198357868</v>
       </c>
-      <c r="H87" s="42">
+      <c r="H87" s="40">
         <f>[1]SBS!G88</f>
         <v>2.9665537876327877</v>
       </c>
-      <c r="I87" s="42">
+      <c r="I87" s="40">
         <f>[1]ASC!F88</f>
         <v>3.7922716518996142</v>
       </c>
       <c r="J87" s="4"/>
-      <c r="K87" s="30"/>
+      <c r="K87" s="29"/>
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A88" s="21">
         <v>45744</v>
       </c>
-      <c r="B88" s="42">
+      <c r="B88" s="40">
         <f>'[1]NaOCl Pré'!F89</f>
         <v>2.6728183915360635</v>
       </c>
@@ -11422,7 +11550,7 @@
         <f>[1]FeCl3!F89</f>
         <v>0</v>
       </c>
-      <c r="E88" s="42">
+      <c r="E88" s="40">
         <f>'[1]NaOCl 2 CEB 1'!I89</f>
         <v>6.2047569803515916</v>
       </c>
@@ -11430,26 +11558,26 @@
         <f>'[1]Soude CEB 1'!F89</f>
         <v>0</v>
       </c>
-      <c r="G88" s="42">
+      <c r="G88" s="40">
         <f>'[1]Acide CEB2'!F89</f>
         <v>0.50910826505448747</v>
       </c>
-      <c r="H88" s="42">
+      <c r="H88" s="40">
         <f>[1]SBS!G89</f>
         <v>-36.083048285737014</v>
       </c>
-      <c r="I88" s="42">
+      <c r="I88" s="40">
         <f>[1]ASC!F89</f>
         <v>3.2813618646090217</v>
       </c>
       <c r="J88" s="4"/>
-      <c r="K88" s="30"/>
+      <c r="K88" s="29"/>
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A89" s="21">
         <v>45745</v>
       </c>
-      <c r="B89" s="42">
+      <c r="B89" s="40">
         <f>'[1]NaOCl Pré'!F90</f>
         <v>2.2421175554690493</v>
       </c>
@@ -11461,7 +11589,7 @@
         <f>[1]FeCl3!F90</f>
         <v>0</v>
       </c>
-      <c r="E89" s="42">
+      <c r="E89" s="40">
         <f>'[1]NaOCl 2 CEB 1'!I90</f>
         <v>5.23160762942784</v>
       </c>
@@ -11469,26 +11597,26 @@
         <f>'[1]Soude CEB 1'!F90</f>
         <v>0</v>
       </c>
-      <c r="G89" s="42">
+      <c r="G89" s="40">
         <f>'[1]Acide CEB2'!F90</f>
         <v>2.6158038147139022</v>
       </c>
-      <c r="H89" s="42">
+      <c r="H89" s="40">
         <f>[1]SBS!G90</f>
         <v>5.3873102374464716</v>
       </c>
-      <c r="I89" s="42">
+      <c r="I89" s="40">
         <f>[1]ASC!F90</f>
         <v>3.2697547683923909</v>
       </c>
       <c r="J89" s="4"/>
-      <c r="K89" s="30"/>
+      <c r="K89" s="29"/>
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A90" s="21">
         <v>45746</v>
       </c>
-      <c r="B90" s="42">
+      <c r="B90" s="40">
         <f>'[1]NaOCl Pré'!F91</f>
         <v>2.4503223610822245</v>
       </c>
@@ -11500,7 +11628,7 @@
         <f>[1]FeCl3!F91</f>
         <v>0</v>
       </c>
-      <c r="E90" s="42">
+      <c r="E90" s="40">
         <f>'[1]NaOCl 2 CEB 1'!I91</f>
         <v>5.8081715225652752</v>
       </c>
@@ -11508,26 +11636,26 @@
         <f>'[1]Soude CEB 1'!F91</f>
         <v>0</v>
       </c>
-      <c r="G90" s="42">
+      <c r="G90" s="40">
         <f>'[1]Acide CEB2'!F91</f>
         <v>0.66551965362726506</v>
       </c>
-      <c r="H90" s="42">
+      <c r="H90" s="40">
         <f>[1]SBS!G91</f>
         <v>7.6534760167136318</v>
       </c>
-      <c r="I90" s="42">
+      <c r="I90" s="40">
         <f>[1]ASC!F91</f>
         <v>3.2047040139153982</v>
       </c>
       <c r="J90" s="4"/>
-      <c r="K90" s="30"/>
+      <c r="K90" s="29"/>
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A91" s="21">
         <v>45747</v>
       </c>
-      <c r="B91" s="42">
+      <c r="B91" s="40">
         <f>'[1]NaOCl Pré'!F92</f>
         <v>2.1718557321887912</v>
       </c>
@@ -11539,7 +11667,7 @@
         <f>[1]FeCl3!F92</f>
         <v>0</v>
       </c>
-      <c r="E91" s="42">
+      <c r="E91" s="40">
         <f>'[1]NaOCl 2 CEB 1'!I92</f>
         <v>5.3531655370849975</v>
       </c>
@@ -11547,26 +11675,26 @@
         <f>'[1]Soude CEB 1'!F92</f>
         <v>0</v>
       </c>
-      <c r="G91" s="42">
+      <c r="G91" s="40">
         <f>'[1]Acide CEB2'!F92</f>
         <v>1.8047815239315059</v>
       </c>
-      <c r="H91" s="42">
+      <c r="H91" s="40">
         <f>[1]SBS!G92</f>
         <v>10.553383487396138</v>
       </c>
-      <c r="I91" s="42">
+      <c r="I91" s="40">
         <f>[1]ASC!F92</f>
         <v>3.2549158310311577</v>
       </c>
       <c r="J91" s="4"/>
-      <c r="K91" s="30"/>
+      <c r="K91" s="29"/>
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A92" s="21">
         <v>45748</v>
       </c>
-      <c r="B92" s="42">
+      <c r="B92" s="40">
         <f>'[1]NaOCl Pré'!F93</f>
         <v>2.0263309610895259</v>
       </c>
@@ -11578,7 +11706,7 @@
         <f>[1]FeCl3!F93</f>
         <v>0</v>
       </c>
-      <c r="E92" s="42">
+      <c r="E92" s="40">
         <f>'[1]NaOCl 2 CEB 1'!I93</f>
         <v>4.3550993790580863</v>
       </c>
@@ -11586,26 +11714,26 @@
         <f>'[1]Soude CEB 1'!F93</f>
         <v>0</v>
       </c>
-      <c r="G92" s="42">
+      <c r="G92" s="40">
         <f>'[1]Acide CEB2'!F93</f>
         <v>1.6634060128347077</v>
       </c>
-      <c r="H92" s="42">
+      <c r="H92" s="40">
         <f>[1]SBS!G93</f>
         <v>10.040923568383947</v>
       </c>
-      <c r="I92" s="42">
+      <c r="I92" s="40">
         <f>[1]ASC!F93</f>
         <v>3.2748305877682848</v>
       </c>
       <c r="J92" s="4"/>
-      <c r="K92" s="30"/>
+      <c r="K92" s="29"/>
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A93" s="21">
         <v>45749</v>
       </c>
-      <c r="B93" s="42">
+      <c r="B93" s="40">
         <f>'[1]NaOCl Pré'!F94</f>
         <v>2.2980685640851179</v>
       </c>
@@ -11617,7 +11745,7 @@
         <f>[1]FeCl3!F94</f>
         <v>0</v>
       </c>
-      <c r="E93" s="42">
+      <c r="E93" s="40">
         <f>'[1]NaOCl 2 CEB 1'!I94</f>
         <v>5.3218429905128932</v>
       </c>
@@ -11625,26 +11753,26 @@
         <f>'[1]Soude CEB 1'!F94</f>
         <v>0</v>
       </c>
-      <c r="G93" s="42">
+      <c r="G93" s="40">
         <f>'[1]Acide CEB2'!F94</f>
         <v>0.7559436066069477</v>
       </c>
-      <c r="H93" s="42">
+      <c r="H93" s="40">
         <f>[1]SBS!G94</f>
         <v>9.0108477907548234</v>
       </c>
-      <c r="I93" s="42">
+      <c r="I93" s="40">
         <f>[1]ASC!F94</f>
         <v>3.2316589182446869</v>
       </c>
       <c r="J93" s="4"/>
-      <c r="K93" s="30"/>
+      <c r="K93" s="29"/>
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A94" s="21">
         <v>45750</v>
       </c>
-      <c r="B94" s="42">
+      <c r="B94" s="40">
         <f>'[1]NaOCl Pré'!F95</f>
         <v>2.2616759018432679</v>
       </c>
@@ -11656,7 +11784,7 @@
         <f>[1]FeCl3!F95</f>
         <v>0</v>
       </c>
-      <c r="E94" s="42">
+      <c r="E94" s="40">
         <f>'[1]NaOCl 2 CEB 1'!I95</f>
         <v>5.1566210562026473</v>
       </c>
@@ -11664,26 +11792,26 @@
         <f>'[1]Soude CEB 1'!F95</f>
         <v>0</v>
       </c>
-      <c r="G94" s="42">
+      <c r="G94" s="40">
         <f>'[1]Acide CEB2'!F95</f>
         <v>0.69358060989859205</v>
       </c>
-      <c r="H94" s="42">
+      <c r="H94" s="40">
         <f>[1]SBS!G95</f>
         <v>7.448452636737156</v>
       </c>
-      <c r="I94" s="42">
+      <c r="I94" s="40">
         <f>[1]ASC!F95</f>
         <v>3.1522107881940538</v>
       </c>
       <c r="J94" s="4"/>
-      <c r="K94" s="30"/>
+      <c r="K94" s="29"/>
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A95" s="21">
         <v>45751</v>
       </c>
-      <c r="B95" s="42">
+      <c r="B95" s="40">
         <f>'[1]NaOCl Pré'!F96</f>
         <v>3.7531686277477103</v>
       </c>
@@ -11695,7 +11823,7 @@
         <f>[1]FeCl3!F96</f>
         <v>0</v>
       </c>
-      <c r="E95" s="42">
+      <c r="E95" s="40">
         <f>'[1]NaOCl 2 CEB 1'!I96</f>
         <v>5.054670651886056</v>
       </c>
@@ -11703,26 +11831,26 @@
         <f>'[1]Soude CEB 1'!F96</f>
         <v>0</v>
       </c>
-      <c r="G95" s="42">
+      <c r="G95" s="40">
         <f>'[1]Acide CEB2'!F96</f>
         <v>1.3317695130717762</v>
       </c>
-      <c r="H95" s="42">
+      <c r="H95" s="40">
         <f>[1]SBS!G96</f>
         <v>11.04763346070901</v>
       </c>
-      <c r="I95" s="42">
+      <c r="I95" s="40">
         <f>[1]ASC!F96</f>
         <v>3.3199651923877345</v>
       </c>
       <c r="J95" s="4"/>
-      <c r="K95" s="30"/>
+      <c r="K95" s="29"/>
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A96" s="21">
         <v>45752</v>
       </c>
-      <c r="B96" s="42">
+      <c r="B96" s="40">
         <f>'[1]NaOCl Pré'!F97</f>
         <v>2.2845845461035967</v>
       </c>
@@ -11734,7 +11862,7 @@
         <f>[1]FeCl3!F97</f>
         <v>0</v>
       </c>
-      <c r="E96" s="42">
+      <c r="E96" s="40">
         <f>'[1]NaOCl 2 CEB 1'!I97</f>
         <v>4.9557910923169866</v>
       </c>
@@ -11742,26 +11870,26 @@
         <f>'[1]Soude CEB 1'!F97</f>
         <v>0</v>
       </c>
-      <c r="G96" s="42">
+      <c r="G96" s="40">
         <f>'[1]Acide CEB2'!F97</f>
         <v>0.84353890933053599</v>
       </c>
-      <c r="H96" s="42">
+      <c r="H96" s="40">
         <f>[1]SBS!G97</f>
         <v>6.6780163655335336</v>
       </c>
-      <c r="I96" s="42">
+      <c r="I96" s="40">
         <f>[1]ASC!F97</f>
         <v>3.6081058817068481</v>
       </c>
       <c r="J96" s="4"/>
-      <c r="K96" s="30"/>
+      <c r="K96" s="29"/>
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A97" s="21">
         <v>45753</v>
       </c>
-      <c r="B97" s="42">
+      <c r="B97" s="40">
         <f>'[1]NaOCl Pré'!F98</f>
         <v>0.91693697204486457</v>
       </c>
@@ -11773,7 +11901,7 @@
         <f>[1]FeCl3!F98</f>
         <v>0</v>
       </c>
-      <c r="E97" s="42">
+      <c r="E97" s="40">
         <f>'[1]NaOCl 2 CEB 1'!I98</f>
         <v>5.4282668745056863</v>
       </c>
@@ -11781,20 +11909,98 @@
         <f>'[1]Soude CEB 1'!F98</f>
         <v>0</v>
       </c>
-      <c r="G97" s="42">
+      <c r="G97" s="40">
         <f>'[1]Acide CEB2'!F98</f>
         <v>1.1003243664538822</v>
       </c>
-      <c r="H97" s="42">
+      <c r="H97" s="40">
         <f>[1]SBS!G98</f>
         <v>1.9439063807351438</v>
       </c>
-      <c r="I97" s="42">
+      <c r="I97" s="40">
         <f>[1]ASC!F98</f>
         <v>3.9886758283952539</v>
       </c>
       <c r="J97" s="4"/>
-      <c r="K97" s="30"/>
+      <c r="K97" s="29"/>
+    </row>
+    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A98" s="21">
+        <v>45754</v>
+      </c>
+      <c r="B98" s="40">
+        <f>'[1]NaOCl Pré'!F99</f>
+        <v>2.5607125460997904</v>
+      </c>
+      <c r="C98" s="4">
+        <f>[1]Acide!F99</f>
+        <v>0</v>
+      </c>
+      <c r="D98" s="4">
+        <f>[1]FeCl3!F99</f>
+        <v>0</v>
+      </c>
+      <c r="E98" s="40">
+        <f>'[1]NaOCl 2 CEB 1'!I99</f>
+        <v>6.531672581355993</v>
+      </c>
+      <c r="F98" s="4">
+        <f>'[1]Soude CEB 1'!F99</f>
+        <v>0</v>
+      </c>
+      <c r="G98" s="40">
+        <f>'[1]Acide CEB2'!F99</f>
+        <v>0.44534131236517199</v>
+      </c>
+      <c r="H98" s="40">
+        <f>[1]SBS!G99</f>
+        <v>8.3130378308167021</v>
+      </c>
+      <c r="I98" s="40">
+        <f>[1]ASC!F99</f>
+        <v>4.0185094982951659</v>
+      </c>
+      <c r="J98" s="4"/>
+      <c r="K98" s="29"/>
+    </row>
+    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A99" s="21">
+        <v>45755</v>
+      </c>
+      <c r="B99" s="40">
+        <f>'[1]NaOCl Pré'!F100</f>
+        <v>2.1485207605081329</v>
+      </c>
+      <c r="C99" s="4">
+        <f>[1]Acide!F100</f>
+        <v>0</v>
+      </c>
+      <c r="D99" s="4">
+        <f>[1]FeCl3!F100</f>
+        <v>0</v>
+      </c>
+      <c r="E99" s="40">
+        <f>'[1]NaOCl 2 CEB 1'!I100</f>
+        <v>4.2629380168812387</v>
+      </c>
+      <c r="F99" s="4">
+        <f>'[1]Soude CEB 1'!F100</f>
+        <v>0</v>
+      </c>
+      <c r="G99" s="40">
+        <f>'[1]Acide CEB2'!F100</f>
+        <v>1.4323471736721074</v>
+      </c>
+      <c r="H99" s="40">
+        <f>[1]SBS!G100</f>
+        <v>4.0242134879358966</v>
+      </c>
+      <c r="I99" s="40">
+        <f>[1]ASC!F100</f>
+        <v>3.7407281098132734</v>
+      </c>
+      <c r="J99" s="4"/>
+      <c r="K99" s="29"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -11804,10 +12010,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07CB649B-6F18-453D-B029-557EF373D866}">
-  <dimension ref="B1:H97"/>
+  <dimension ref="B1:H99"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B70" workbookViewId="0">
-      <selection activeCell="G100" sqref="G100"/>
+    <sheetView tabSelected="1" topLeftCell="B64" workbookViewId="0">
+      <selection activeCell="L95" sqref="L95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -11843,14 +12049,14 @@
       </c>
     </row>
     <row r="2" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B2" s="33">
+      <c r="B2" s="32">
         <v>45658</v>
       </c>
-      <c r="C2" s="38">
+      <c r="C2" s="36">
         <v>11077.9</v>
       </c>
-      <c r="D2" s="38"/>
-      <c r="E2" s="38"/>
+      <c r="D2" s="36"/>
+      <c r="E2" s="36"/>
       <c r="F2" s="18">
         <v>163700</v>
       </c>
@@ -11886,7 +12092,7 @@
       </c>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B4" s="32">
+      <c r="B4" s="31">
         <v>45660</v>
       </c>
       <c r="C4" s="4">
@@ -12524,19 +12730,19 @@
       </c>
     </row>
     <row r="33" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B33" s="33">
+      <c r="B33" s="32">
         <v>45689</v>
       </c>
-      <c r="C33" s="35">
+      <c r="C33" s="34">
         <v>16796.900000000001</v>
       </c>
-      <c r="D33" s="36"/>
-      <c r="E33" s="29"/>
+      <c r="D33" s="35"/>
+      <c r="E33" s="28"/>
       <c r="F33" s="5">
         <f t="shared" si="1"/>
         <v>226.70000000000073</v>
       </c>
-      <c r="G33" s="36">
+      <c r="G33" s="35">
         <f>[2]Sheet1!U37</f>
         <v>71689</v>
       </c>
@@ -13118,7 +13324,7 @@
       </c>
     </row>
     <row r="60" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B60" s="34">
+      <c r="B60" s="33">
         <v>45716</v>
       </c>
       <c r="C60" s="7">
@@ -13131,7 +13337,7 @@
         <f>C60-D60</f>
         <v>2813.4000000000015</v>
       </c>
-      <c r="F60" s="39">
+      <c r="F60" s="37">
         <f t="shared" si="1"/>
         <v>260.90000000000146</v>
       </c>
@@ -13139,34 +13345,34 @@
         <f>[2]Sheet1!U64</f>
         <v>95898</v>
       </c>
-      <c r="H60" s="40">
+      <c r="H60" s="38">
         <f t="shared" si="2"/>
         <v>2.7205989697386959</v>
       </c>
     </row>
     <row r="61" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B61" s="32">
+      <c r="B61" s="31">
         <v>45717</v>
       </c>
-      <c r="C61" s="28">
+      <c r="C61" s="34">
         <v>23352.1</v>
       </c>
-      <c r="D61" s="29">
+      <c r="D61" s="35">
         <v>20513</v>
       </c>
-      <c r="E61" s="29">
-        <f t="shared" ref="E61:E85" si="3">C61-D61</f>
+      <c r="E61" s="35">
+        <f t="shared" ref="E61:E99" si="3">C61-D61</f>
         <v>2839.0999999999985</v>
       </c>
-      <c r="F61" s="10">
+      <c r="F61" s="18">
         <f t="shared" si="1"/>
         <v>263.69999999999709</v>
       </c>
-      <c r="G61" s="29">
+      <c r="G61" s="35">
         <f>[2]Sheet1!U65</f>
         <v>90569</v>
       </c>
-      <c r="H61" s="37">
+      <c r="H61" s="22">
         <f t="shared" si="2"/>
         <v>2.911592266669579</v>
       </c>
@@ -13226,7 +13432,7 @@
       </c>
     </row>
     <row r="64" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B64" s="31">
+      <c r="B64" s="30">
         <v>45720</v>
       </c>
       <c r="C64" s="4">
@@ -13375,7 +13581,7 @@
         <v>3053.4000000000015</v>
       </c>
       <c r="F69" s="5">
-        <f t="shared" ref="F69:F86" si="4">(C69-C68)</f>
+        <f t="shared" ref="F69:F99" si="4">(C69-C68)</f>
         <v>274.30000000000291</v>
       </c>
       <c r="G69" s="27">
@@ -13383,7 +13589,7 @@
         <v>94813</v>
       </c>
       <c r="H69" s="6">
-        <f t="shared" ref="H69:H86" si="5">F69/G69*1000</f>
+        <f t="shared" ref="H69:H99" si="5">F69/G69*1000</f>
         <v>2.8930631875376047</v>
       </c>
     </row>
@@ -13796,7 +14002,7 @@
       <c r="B85" s="19">
         <v>45741</v>
       </c>
-      <c r="C85" s="44">
+      <c r="C85" s="42">
         <v>29816.7</v>
       </c>
       <c r="D85" s="5">
@@ -13829,8 +14035,8 @@
       <c r="D86" s="5">
         <v>26624</v>
       </c>
-      <c r="E86" s="5">
-        <f>C86-D86</f>
+      <c r="E86" s="8">
+        <f t="shared" si="3"/>
         <v>3417.0999999999985</v>
       </c>
       <c r="F86" s="5">
@@ -13850,18 +14056,18 @@
       <c r="B87" s="12">
         <v>45743</v>
       </c>
-      <c r="C87" s="8">
+      <c r="C87" s="4">
         <v>30293.1</v>
       </c>
       <c r="D87" s="5">
         <v>26624</v>
       </c>
-      <c r="E87" s="5">
-        <f t="shared" ref="E87:E90" si="6">C87-D87</f>
+      <c r="E87" s="8">
+        <f t="shared" si="3"/>
         <v>3669.0999999999985</v>
       </c>
       <c r="F87" s="5">
-        <f>(C87-C86)</f>
+        <f t="shared" si="4"/>
         <v>252</v>
       </c>
       <c r="G87" s="27">
@@ -13869,7 +14075,7 @@
         <v>86228</v>
       </c>
       <c r="H87" s="6">
-        <f t="shared" ref="H87:H90" si="7">F87/G87*1000</f>
+        <f t="shared" si="5"/>
         <v>2.92248457577585</v>
       </c>
     </row>
@@ -13877,36 +14083,37 @@
       <c r="B88" s="12">
         <v>45744</v>
       </c>
-      <c r="C88" s="8"/>
+      <c r="C88" s="4"/>
       <c r="D88" s="5"/>
-      <c r="E88" s="5">
-        <f t="shared" si="6"/>
+      <c r="E88" s="8">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F88" s="5">
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>-30293.1</v>
       </c>
       <c r="G88" s="27">
         <f>[2]Sheet1!U92</f>
         <v>100568</v>
       </c>
       <c r="H88" s="6">
-        <f t="shared" si="7"/>
-        <v>0</v>
+        <f t="shared" si="5"/>
+        <v>-301.22007000238642</v>
       </c>
     </row>
     <row r="89" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B89" s="12">
         <v>45745</v>
       </c>
-      <c r="C89" s="8"/>
+      <c r="C89" s="4"/>
       <c r="D89" s="5"/>
-      <c r="E89" s="5">
-        <f t="shared" si="6"/>
+      <c r="E89" s="8">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F89" s="5">
-        <f t="shared" ref="F88:F90" si="8">(C89-C88)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G89" s="27">
@@ -13914,7 +14121,7 @@
         <v>102760</v>
       </c>
       <c r="H89" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -13922,14 +14129,14 @@
       <c r="B90" s="12">
         <v>45746</v>
       </c>
-      <c r="C90" s="8"/>
+      <c r="C90" s="4"/>
       <c r="D90" s="5"/>
-      <c r="E90" s="5">
-        <f t="shared" si="6"/>
+      <c r="E90" s="8">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F90" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G90" s="27">
@@ -13937,30 +14144,30 @@
         <v>105782</v>
       </c>
       <c r="H90" s="6">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="91" spans="2:8" x14ac:dyDescent="0.3">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B91" s="12">
         <v>45747</v>
       </c>
-      <c r="C91" s="8"/>
-      <c r="D91" s="5"/>
-      <c r="E91" s="5">
-        <f t="shared" ref="E91:E93" si="9">C91-D91</f>
-        <v>0</v>
-      </c>
-      <c r="F91" s="5">
-        <f t="shared" ref="F91:F93" si="10">(C91-C90)</f>
-        <v>0</v>
-      </c>
-      <c r="G91" s="27">
+      <c r="C91" s="7"/>
+      <c r="D91" s="37"/>
+      <c r="E91" s="9">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F91" s="37">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G91" s="9">
         <f>[2]Sheet1!U95</f>
         <v>104611</v>
       </c>
-      <c r="H91" s="6">
-        <f t="shared" ref="H91:H97" si="11">F91/G91*1000</f>
+      <c r="H91" s="38">
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -13968,22 +14175,22 @@
       <c r="B92" s="12">
         <v>45748</v>
       </c>
-      <c r="C92" s="8"/>
-      <c r="D92" s="5"/>
-      <c r="E92" s="5">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="F92" s="5">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="G92" s="27">
+      <c r="C92" s="15"/>
+      <c r="D92" s="10"/>
+      <c r="E92" s="15">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F92" s="10">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G92" s="28">
         <f>[2]Sheet1!U96</f>
         <v>105807</v>
       </c>
-      <c r="H92" s="6">
-        <f t="shared" si="11"/>
+      <c r="H92" s="43">
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -13991,14 +14198,17 @@
       <c r="B93" s="12">
         <v>45749</v>
       </c>
-      <c r="C93" s="8"/>
-      <c r="D93" s="5"/>
-      <c r="E93" s="5">
-        <f t="shared" si="9"/>
-        <v>0</v>
+      <c r="C93" s="8">
+        <v>32055.3</v>
+      </c>
+      <c r="D93" s="5">
+        <v>28418</v>
+      </c>
+      <c r="E93" s="8">
+        <f t="shared" si="3"/>
+        <v>3637.2999999999993</v>
       </c>
       <c r="F93" s="5">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="G93" s="27">
@@ -14006,7 +14216,6 @@
         <v>105828</v>
       </c>
       <c r="H93" s="6">
-        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -14015,45 +14224,51 @@
         <v>45750</v>
       </c>
       <c r="C94" s="8">
-        <v>32055.3</v>
-      </c>
-      <c r="D94" s="5">
-        <v>28418</v>
-      </c>
-      <c r="E94" s="5">
-        <v>0</v>
+        <v>32374.400000000001</v>
+      </c>
+      <c r="D94" s="5"/>
+      <c r="E94" s="8">
+        <f t="shared" si="3"/>
+        <v>32374.400000000001</v>
       </c>
       <c r="F94" s="5">
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>319.10000000000218</v>
       </c>
       <c r="G94" s="27">
         <f>[2]Sheet1!U98</f>
         <v>106116</v>
       </c>
       <c r="H94" s="6">
-        <f t="shared" si="11"/>
-        <v>0</v>
+        <f t="shared" si="5"/>
+        <v>3.0070865844924626</v>
       </c>
     </row>
     <row r="95" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B95" s="12">
         <v>45751</v>
       </c>
-      <c r="C95" s="8"/>
-      <c r="D95" s="5"/>
-      <c r="E95" s="5">
-        <f t="shared" ref="E94:E97" si="12">C95-D95</f>
-        <v>0</v>
+      <c r="C95" s="8">
+        <v>32654.400000000001</v>
+      </c>
+      <c r="D95" s="5">
+        <v>28959</v>
+      </c>
+      <c r="E95" s="8">
+        <f t="shared" si="3"/>
+        <v>3695.4000000000015</v>
       </c>
       <c r="F95" s="5">
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>280</v>
       </c>
       <c r="G95" s="27">
         <f>[2]Sheet1!U99</f>
         <v>105724</v>
       </c>
       <c r="H95" s="6">
-        <v>0</v>
+        <f t="shared" si="5"/>
+        <v>2.6484052816768191</v>
       </c>
     </row>
     <row r="96" spans="2:8" x14ac:dyDescent="0.3">
@@ -14061,24 +14276,26 @@
         <v>45752</v>
       </c>
       <c r="C96" s="8">
-        <v>32654.400000000001</v>
+        <v>32907.599999999999</v>
       </c>
       <c r="D96" s="5">
-        <v>28959</v>
-      </c>
-      <c r="E96" s="5">
-        <v>0</v>
+        <v>28188</v>
+      </c>
+      <c r="E96" s="8">
+        <f t="shared" si="3"/>
+        <v>4719.5999999999985</v>
       </c>
       <c r="F96" s="5">
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>253.19999999999709</v>
       </c>
       <c r="G96" s="27">
         <f>[2]Sheet1!U100</f>
         <v>91045</v>
       </c>
       <c r="H96" s="6">
-        <f t="shared" si="11"/>
-        <v>0</v>
+        <f t="shared" si="5"/>
+        <v>2.7810423416991279</v>
       </c>
     </row>
     <row r="97" spans="2:8" x14ac:dyDescent="0.3">
@@ -14086,24 +14303,80 @@
         <v>45753</v>
       </c>
       <c r="C97" s="8">
-        <v>32907.599999999999</v>
+        <v>33157.800000000003</v>
       </c>
       <c r="D97" s="5">
-        <v>28188</v>
-      </c>
-      <c r="E97" s="5">
-        <v>0</v>
+        <v>29413</v>
+      </c>
+      <c r="E97" s="8">
+        <f t="shared" si="3"/>
+        <v>3744.8000000000029</v>
       </c>
       <c r="F97" s="5">
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>250.20000000000437</v>
       </c>
       <c r="G97" s="27">
         <f>[2]Sheet1!U101</f>
         <v>87247</v>
       </c>
       <c r="H97" s="6">
-        <f t="shared" si="11"/>
-        <v>0</v>
+        <f t="shared" si="5"/>
+        <v>2.8677203800704252</v>
+      </c>
+    </row>
+    <row r="98" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B98" s="12">
+        <v>45754</v>
+      </c>
+      <c r="C98" s="8">
+        <v>33393.800000000003</v>
+      </c>
+      <c r="D98" s="5">
+        <v>29625</v>
+      </c>
+      <c r="E98" s="8">
+        <f t="shared" si="3"/>
+        <v>3768.8000000000029</v>
+      </c>
+      <c r="F98" s="5">
+        <f t="shared" si="4"/>
+        <v>236</v>
+      </c>
+      <c r="G98" s="27">
+        <f>[2]Sheet1!U102</f>
+        <v>86226</v>
+      </c>
+      <c r="H98" s="6">
+        <f t="shared" si="5"/>
+        <v>2.7369934822443347</v>
+      </c>
+    </row>
+    <row r="99" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B99" s="12">
+        <v>45755</v>
+      </c>
+      <c r="C99" s="8">
+        <v>33661.800000000003</v>
+      </c>
+      <c r="D99" s="5">
+        <v>29866</v>
+      </c>
+      <c r="E99" s="8">
+        <f t="shared" si="3"/>
+        <v>3795.8000000000029</v>
+      </c>
+      <c r="F99" s="5">
+        <f t="shared" si="4"/>
+        <v>268</v>
+      </c>
+      <c r="G99" s="27">
+        <f>[2]Sheet1!U103</f>
+        <v>93832</v>
+      </c>
+      <c r="H99" s="6">
+        <f t="shared" si="5"/>
+        <v>2.8561684713104269</v>
       </c>
     </row>
   </sheetData>
@@ -14113,10 +14386,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38810916-2DF0-490C-B584-F0F3D6EAB44D}">
-  <dimension ref="A1:K97"/>
+  <dimension ref="A1:K99"/>
   <sheetViews>
-    <sheetView topLeftCell="A71" workbookViewId="0">
-      <selection activeCell="A98" sqref="A98:XFD98"/>
+    <sheetView topLeftCell="A68" workbookViewId="0">
+      <selection activeCell="F104" sqref="F104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -14194,7 +14467,7 @@
         <v>201.00000000000051</v>
       </c>
       <c r="J2" s="4"/>
-      <c r="K2" s="30"/>
+      <c r="K2" s="29"/>
     </row>
     <row r="3" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="3">
@@ -17768,7 +18041,7 @@
         <v>328.5</v>
       </c>
     </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A97" s="3">
         <f>'[1]NaOCl Pré'!B98</f>
         <v>45753</v>
@@ -17804,6 +18077,82 @@
       <c r="I97" s="4">
         <f>[1]ASC!D98</f>
         <v>348.00000000000074</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A98" s="3">
+        <f>'[1]NaOCl Pré'!B99</f>
+        <v>45754</v>
+      </c>
+      <c r="B98" s="23">
+        <f>'[1]NaOCl Pré'!D99</f>
+        <v>220.80000000000055</v>
+      </c>
+      <c r="C98" s="4">
+        <f>[1]Acide!D99</f>
+        <v>0</v>
+      </c>
+      <c r="D98" s="4">
+        <f>[1]FeCl3!D99</f>
+        <v>0</v>
+      </c>
+      <c r="E98" s="4">
+        <f>'[1]NaOCl 2 CEB 1'!H99</f>
+        <v>563.20000000000186</v>
+      </c>
+      <c r="F98" s="4">
+        <f>'[1]Soude CEB 1'!D99</f>
+        <v>0</v>
+      </c>
+      <c r="G98" s="4">
+        <f>'[1]Acide CEB2'!D99</f>
+        <v>38.399999999999324</v>
+      </c>
+      <c r="H98" s="4">
+        <f>[1]SBS!E99</f>
+        <v>716.80000000000098</v>
+      </c>
+      <c r="I98" s="4">
+        <f>[1]ASC!D99</f>
+        <v>346.49999999999892</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A99" s="3">
+        <f>'[1]NaOCl Pré'!B100</f>
+        <v>45755</v>
+      </c>
+      <c r="B99" s="23">
+        <f>'[1]NaOCl Pré'!D100</f>
+        <v>201.59999999999911</v>
+      </c>
+      <c r="C99" s="4">
+        <f>[1]Acide!D100</f>
+        <v>0</v>
+      </c>
+      <c r="D99" s="4">
+        <f>[1]FeCl3!D100</f>
+        <v>0</v>
+      </c>
+      <c r="E99" s="4">
+        <f>'[1]NaOCl 2 CEB 1'!H100</f>
+        <v>400.00000000000034</v>
+      </c>
+      <c r="F99" s="4">
+        <f>'[1]Soude CEB 1'!D100</f>
+        <v>0</v>
+      </c>
+      <c r="G99" s="4">
+        <f>'[1]Acide CEB2'!D100</f>
+        <v>134.40000000000117</v>
+      </c>
+      <c r="H99" s="4">
+        <f>[1]SBS!E100</f>
+        <v>377.60000000000105</v>
+      </c>
+      <c r="I99" s="4">
+        <f>[1]ASC!D100</f>
+        <v>350.99999999999909</v>
       </c>
     </row>
   </sheetData>

--- a/Consommation spécifique.xlsx
+++ b/Consommation spécifique.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\Projects\wave2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A2A80F0-A560-4002-9AB3-E017E64001AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B256F49-4CC7-4D62-9BB1-EE0DA791AE2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" activeTab="1" xr2:uid="{4E830341-EBCA-4A95-9BBE-9CDD49815F8C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{4E830341-EBCA-4A95-9BBE-9CDD49815F8C}"/>
   </bookViews>
   <sheets>
     <sheet name="CS Produits chimiques" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="27">
   <si>
     <t>Prod</t>
   </si>
@@ -49,36 +49,6 @@
   </si>
   <si>
     <t>date</t>
-  </si>
-  <si>
-    <t>NaOCl (ml/m3)</t>
-  </si>
-  <si>
-    <t>Acide (ml/m3)</t>
-  </si>
-  <si>
-    <t>Coagulant (ml/m3)</t>
-  </si>
-  <si>
-    <t>NaOCl CEB 1  (1+2) (ml/m3)</t>
-  </si>
-  <si>
-    <t>Soude CEB1 (ml/m3)</t>
-  </si>
-  <si>
-    <t>Acide CEB 2 (ml/m3)</t>
-  </si>
-  <si>
-    <t>SMBS (ml/m3)</t>
-  </si>
-  <si>
-    <t>Antiscalant (ml/m3)</t>
-  </si>
-  <si>
-    <t>Soude CIP RO (ml/m3)</t>
-  </si>
-  <si>
-    <t>Acide CIP RO (ml/m3)</t>
   </si>
   <si>
     <t>Consommation MWh</t>
@@ -91,6 +61,66 @@
   </si>
   <si>
     <t>Index d'énergie RO MWh</t>
+  </si>
+  <si>
+    <t>NaOCl (g/m3)</t>
+  </si>
+  <si>
+    <t>Acide (g/m3)</t>
+  </si>
+  <si>
+    <t>Coagulant (g/m3)</t>
+  </si>
+  <si>
+    <t>NaOCl CEB 1  (1+2) (g/m3)</t>
+  </si>
+  <si>
+    <t>Soude CEB1 (g/m3)</t>
+  </si>
+  <si>
+    <t>Acide CEB 2 (g/m3)</t>
+  </si>
+  <si>
+    <t>SMBS (g/m3)</t>
+  </si>
+  <si>
+    <t>Antiscalant (g/m3)</t>
+  </si>
+  <si>
+    <t>Soude CIP RO (g/m3)</t>
+  </si>
+  <si>
+    <t>Acide CIP RO (g/m3)</t>
+  </si>
+  <si>
+    <t>NaOCl (l/m3)</t>
+  </si>
+  <si>
+    <t>Acide (l/m3)</t>
+  </si>
+  <si>
+    <t>Coagulant (l/m3)</t>
+  </si>
+  <si>
+    <t>NaOCl CEB 1  (1+2) (l/m3)</t>
+  </si>
+  <si>
+    <t>Soude CEB1 (l/m3)</t>
+  </si>
+  <si>
+    <t>Acide CEB 2 (l/m3)</t>
+  </si>
+  <si>
+    <t>SMBS (l/m3)</t>
+  </si>
+  <si>
+    <t>Antiscalant (l/m3)</t>
+  </si>
+  <si>
+    <t>Soude CIP RO (l/m3)</t>
+  </si>
+  <si>
+    <t>Acide CIP RO (l/m3)</t>
   </si>
 </sst>
 </file>
@@ -1825,6 +1855,17 @@
             <v>2.1485207605081329</v>
           </cell>
         </row>
+        <row r="101">
+          <cell r="B101">
+            <v>45756</v>
+          </cell>
+          <cell r="D101">
+            <v>192.00000000000017</v>
+          </cell>
+          <cell r="F101">
+            <v>2.0241207725394301</v>
+          </cell>
+        </row>
       </sheetData>
       <sheetData sheetId="3">
         <row r="3">
@@ -2611,6 +2652,14 @@
             <v>0</v>
           </cell>
         </row>
+        <row r="101">
+          <cell r="D101">
+            <v>0</v>
+          </cell>
+          <cell r="F101">
+            <v>0</v>
+          </cell>
+        </row>
       </sheetData>
       <sheetData sheetId="4">
         <row r="3">
@@ -3394,6 +3443,14 @@
             <v>0</v>
           </cell>
           <cell r="F100">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="101">
+          <cell r="D101">
+            <v>0</v>
+          </cell>
+          <cell r="F101">
             <v>0</v>
           </cell>
         </row>
@@ -3412,9 +3469,6 @@
           <cell r="H4">
             <v>-8428.16</v>
           </cell>
-          <cell r="I4">
-            <v>-156.75631439943459</v>
-          </cell>
         </row>
         <row r="5">
           <cell r="H5">
@@ -4182,6 +4236,14 @@
           </cell>
           <cell r="I100">
             <v>4.2629380168812387</v>
+          </cell>
+        </row>
+        <row r="101">
+          <cell r="H101">
+            <v>451.20000000000186</v>
+          </cell>
+          <cell r="I101">
+            <v>4.7566838154676763</v>
           </cell>
         </row>
       </sheetData>
@@ -4970,6 +5032,14 @@
             <v>0</v>
           </cell>
         </row>
+        <row r="101">
+          <cell r="D101">
+            <v>0</v>
+          </cell>
+          <cell r="F101">
+            <v>0</v>
+          </cell>
+        </row>
       </sheetData>
       <sheetData sheetId="8">
         <row r="3">
@@ -5730,6 +5800,14 @@
           </cell>
           <cell r="F100">
             <v>1.4323471736721074</v>
+          </cell>
+        </row>
+        <row r="101">
+          <cell r="D101">
+            <v>80.000000000000071</v>
+          </cell>
+          <cell r="F101">
+            <v>0.84338365522476255</v>
           </cell>
         </row>
       </sheetData>
@@ -6518,6 +6596,14 @@
             <v>4.0242134879358966</v>
           </cell>
         </row>
+        <row r="101">
+          <cell r="E101">
+            <v>655.99999999999795</v>
+          </cell>
+          <cell r="G101">
+            <v>6.9157459728430251</v>
+          </cell>
+        </row>
       </sheetData>
       <sheetData sheetId="10">
         <row r="3">
@@ -7302,6 +7388,14 @@
           </cell>
           <cell r="F100">
             <v>3.7407281098132734</v>
+          </cell>
+        </row>
+        <row r="101">
+          <cell r="D101">
+            <v>336.00000000000205</v>
+          </cell>
+          <cell r="F101">
+            <v>3.5422113519440206</v>
           </cell>
         </row>
       </sheetData>
@@ -7757,11 +7851,6 @@
             <v>86228</v>
           </cell>
         </row>
-        <row r="92">
-          <cell r="U92">
-            <v>100568</v>
-          </cell>
-        </row>
         <row r="93">
           <cell r="U93">
             <v>102760</v>
@@ -7782,11 +7871,6 @@
             <v>105807</v>
           </cell>
         </row>
-        <row r="97">
-          <cell r="U97">
-            <v>105828</v>
-          </cell>
-        </row>
         <row r="98">
           <cell r="U98">
             <v>106116</v>
@@ -7815,6 +7899,11 @@
         <row r="103">
           <cell r="U103">
             <v>93832</v>
+          </cell>
+        </row>
+        <row r="104">
+          <cell r="U104">
+            <v>94856</v>
           </cell>
         </row>
       </sheetData>
@@ -8123,11 +8212,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BC5C344-277E-4945-8E25-AE6A0B860AD5}">
-  <dimension ref="A1:K99"/>
+  <dimension ref="A1:K100"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A68" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A100" sqref="A100:XFD100"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="Q13" sqref="Q13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8150,34 +8239,34 @@
         <v>2</v>
       </c>
       <c r="B1" s="25" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C1" s="14" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D1" s="14" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="E1" s="26" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="F1" s="24" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="G1" s="14" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="H1" s="14" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="I1" s="26" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="J1" s="24" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="K1" s="26" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
@@ -8236,8 +8325,7 @@
         <v>0</v>
       </c>
       <c r="E3" s="40">
-        <f>'[1]NaOCl 2 CEB 1'!I4</f>
-        <v>-156.75631439943459</v>
+        <v>0</v>
       </c>
       <c r="F3" s="4">
         <f>'[1]Soude CEB 1'!F4</f>
@@ -12001,6 +12089,45 @@
       </c>
       <c r="J99" s="4"/>
       <c r="K99" s="29"/>
+    </row>
+    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A100" s="21">
+        <v>45756</v>
+      </c>
+      <c r="B100" s="40">
+        <f>'[1]NaOCl Pré'!F101</f>
+        <v>2.0241207725394301</v>
+      </c>
+      <c r="C100" s="4">
+        <f>[1]Acide!F101</f>
+        <v>0</v>
+      </c>
+      <c r="D100" s="4">
+        <f>[1]FeCl3!F101</f>
+        <v>0</v>
+      </c>
+      <c r="E100" s="40">
+        <f>'[1]NaOCl 2 CEB 1'!I101</f>
+        <v>4.7566838154676763</v>
+      </c>
+      <c r="F100" s="4">
+        <f>'[1]Soude CEB 1'!F101</f>
+        <v>0</v>
+      </c>
+      <c r="G100" s="40">
+        <f>'[1]Acide CEB2'!F101</f>
+        <v>0.84338365522476255</v>
+      </c>
+      <c r="H100" s="40">
+        <f>[1]SBS!G101</f>
+        <v>6.9157459728430251</v>
+      </c>
+      <c r="I100" s="40">
+        <f>[1]ASC!F101</f>
+        <v>3.5422113519440206</v>
+      </c>
+      <c r="J100" s="4"/>
+      <c r="K100" s="29"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -12010,10 +12137,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07CB649B-6F18-453D-B029-557EF373D866}">
-  <dimension ref="B1:H99"/>
+  <dimension ref="B1:H100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B64" workbookViewId="0">
-      <selection activeCell="L95" sqref="L95"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="Q84" sqref="Q84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -12030,16 +12157,16 @@
         <v>2</v>
       </c>
       <c r="C1" s="11" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="D1" s="16" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="E1" s="16" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="F1" s="11" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="G1" s="17" t="s">
         <v>0</v>
@@ -12058,7 +12185,7 @@
       <c r="D2" s="36"/>
       <c r="E2" s="36"/>
       <c r="F2" s="18">
-        <v>163700</v>
+        <v>163.69999999999999</v>
       </c>
       <c r="G2" s="18">
         <f>[2]Sheet1!U6</f>
@@ -12066,7 +12193,7 @@
       </c>
       <c r="H2" s="22">
         <f t="shared" ref="H2" si="0">F2/G2</f>
-        <v>3.0785722345507205</v>
+        <v>3.0785722345507199E-3</v>
       </c>
     </row>
     <row r="3" spans="2:8" x14ac:dyDescent="0.3">
@@ -13333,9 +13460,9 @@
       <c r="D60" s="9">
         <v>20275</v>
       </c>
-      <c r="E60" s="9">
-        <f>C60-D60</f>
-        <v>2813.4000000000015</v>
+      <c r="E60" s="8">
+        <f t="shared" ref="E60:E99" si="3">C60-D60-(C59-D59)</f>
+        <v>-20014.099999999999</v>
       </c>
       <c r="F60" s="37">
         <f t="shared" si="1"/>
@@ -13360,9 +13487,9 @@
       <c r="D61" s="35">
         <v>20513</v>
       </c>
-      <c r="E61" s="35">
-        <f t="shared" ref="E61:E99" si="3">C61-D61</f>
-        <v>2839.0999999999985</v>
+      <c r="E61" s="8">
+        <f t="shared" si="3"/>
+        <v>25.69999999999709</v>
       </c>
       <c r="F61" s="18">
         <f t="shared" si="1"/>
@@ -13387,9 +13514,9 @@
       <c r="D62" s="27">
         <v>20751</v>
       </c>
-      <c r="E62" s="27">
+      <c r="E62" s="8">
         <f t="shared" si="3"/>
-        <v>2865.5999999999985</v>
+        <v>26.5</v>
       </c>
       <c r="F62" s="5">
         <f t="shared" si="1"/>
@@ -13414,9 +13541,9 @@
       <c r="D63" s="27">
         <v>21014</v>
       </c>
-      <c r="E63" s="27">
+      <c r="E63" s="8">
         <f t="shared" si="3"/>
-        <v>2893.2000000000007</v>
+        <v>27.600000000002183</v>
       </c>
       <c r="F63" s="5">
         <f t="shared" si="1"/>
@@ -13441,9 +13568,9 @@
       <c r="D64" s="27">
         <v>21229</v>
       </c>
-      <c r="E64" s="27">
+      <c r="E64" s="8">
         <f t="shared" si="3"/>
-        <v>2917.5</v>
+        <v>24.299999999999272</v>
       </c>
       <c r="F64" s="5">
         <f t="shared" si="1"/>
@@ -13468,9 +13595,9 @@
       <c r="D65" s="27">
         <v>21455</v>
       </c>
-      <c r="E65" s="27">
+      <c r="E65" s="8">
         <f t="shared" si="3"/>
-        <v>2943.5999999999985</v>
+        <v>26.099999999998545</v>
       </c>
       <c r="F65" s="5">
         <f t="shared" si="1"/>
@@ -13495,9 +13622,9 @@
       <c r="D66" s="27">
         <v>21699</v>
       </c>
-      <c r="E66" s="27">
+      <c r="E66" s="8">
         <f t="shared" si="3"/>
-        <v>2968.5</v>
+        <v>24.900000000001455</v>
       </c>
       <c r="F66" s="5">
         <f t="shared" si="1"/>
@@ -13522,9 +13649,9 @@
       <c r="D67" s="27">
         <v>21985</v>
       </c>
-      <c r="E67" s="27">
+      <c r="E67" s="8">
         <f t="shared" si="3"/>
-        <v>2999.2999999999993</v>
+        <v>30.799999999999272</v>
       </c>
       <c r="F67" s="5">
         <f t="shared" si="1"/>
@@ -13549,9 +13676,9 @@
       <c r="D68" s="27">
         <v>22224</v>
       </c>
-      <c r="E68" s="27">
+      <c r="E68" s="8">
         <f t="shared" si="3"/>
-        <v>3025.0999999999985</v>
+        <v>25.799999999999272</v>
       </c>
       <c r="F68" s="5">
         <f t="shared" si="1"/>
@@ -13576,12 +13703,12 @@
       <c r="D69" s="27">
         <v>22470</v>
       </c>
-      <c r="E69" s="27">
+      <c r="E69" s="8">
         <f t="shared" si="3"/>
-        <v>3053.4000000000015</v>
+        <v>28.30000000000291</v>
       </c>
       <c r="F69" s="5">
-        <f t="shared" ref="F69:F99" si="4">(C69-C68)</f>
+        <f t="shared" ref="F69:F100" si="4">(C69-C68)</f>
         <v>274.30000000000291</v>
       </c>
       <c r="G69" s="27">
@@ -13589,7 +13716,7 @@
         <v>94813</v>
       </c>
       <c r="H69" s="6">
-        <f t="shared" ref="H69:H99" si="5">F69/G69*1000</f>
+        <f t="shared" ref="H69:H100" si="5">F69/G69*1000</f>
         <v>2.8930631875376047</v>
       </c>
     </row>
@@ -13603,9 +13730,9 @@
       <c r="D70" s="27">
         <v>22763</v>
       </c>
-      <c r="E70" s="27">
+      <c r="E70" s="8">
         <f t="shared" si="3"/>
-        <v>3018</v>
+        <v>-35.400000000001455</v>
       </c>
       <c r="F70" s="5">
         <f t="shared" si="4"/>
@@ -13630,9 +13757,9 @@
       <c r="D71" s="27">
         <v>23030</v>
       </c>
-      <c r="E71" s="27">
+      <c r="E71" s="8">
         <f t="shared" si="3"/>
-        <v>3042.7000000000007</v>
+        <v>24.700000000000728</v>
       </c>
       <c r="F71" s="5">
         <f t="shared" si="4"/>
@@ -13657,9 +13784,9 @@
       <c r="D72" s="27">
         <v>23277</v>
       </c>
-      <c r="E72" s="27">
+      <c r="E72" s="8">
         <f t="shared" si="3"/>
-        <v>3065.5999999999985</v>
+        <v>22.899999999997817</v>
       </c>
       <c r="F72" s="5">
         <f t="shared" si="4"/>
@@ -13684,9 +13811,9 @@
       <c r="D73" s="27">
         <v>23508</v>
       </c>
-      <c r="E73" s="27">
+      <c r="E73" s="8">
         <f t="shared" si="3"/>
-        <v>3089.2000000000007</v>
+        <v>23.600000000002183</v>
       </c>
       <c r="F73" s="5">
         <f t="shared" si="4"/>
@@ -13711,9 +13838,9 @@
       <c r="D74" s="27">
         <v>23760</v>
       </c>
-      <c r="E74" s="27">
+      <c r="E74" s="8">
         <f t="shared" si="3"/>
-        <v>3115.5999999999985</v>
+        <v>26.399999999997817</v>
       </c>
       <c r="F74" s="5">
         <f t="shared" si="4"/>
@@ -13738,9 +13865,9 @@
       <c r="D75" s="27">
         <v>24005</v>
       </c>
-      <c r="E75" s="27">
+      <c r="E75" s="8">
         <f t="shared" si="3"/>
-        <v>3094.7999999999993</v>
+        <v>-20.799999999999272</v>
       </c>
       <c r="F75" s="5">
         <f t="shared" si="4"/>
@@ -13765,9 +13892,9 @@
       <c r="D76" s="27">
         <v>24251</v>
       </c>
-      <c r="E76" s="27">
+      <c r="E76" s="8">
         <f t="shared" si="3"/>
-        <v>3160.7000000000007</v>
+        <v>65.900000000001455</v>
       </c>
       <c r="F76" s="5">
         <f t="shared" si="4"/>
@@ -13792,9 +13919,9 @@
       <c r="D77" s="27">
         <v>24474</v>
       </c>
-      <c r="E77" s="27">
+      <c r="E77" s="8">
         <f t="shared" si="3"/>
-        <v>3184.2999999999993</v>
+        <v>23.599999999998545</v>
       </c>
       <c r="F77" s="5">
         <f t="shared" si="4"/>
@@ -13819,9 +13946,9 @@
       <c r="D78" s="27">
         <v>24731</v>
       </c>
-      <c r="E78" s="27">
+      <c r="E78" s="8">
         <f t="shared" si="3"/>
-        <v>3211</v>
+        <v>26.700000000000728</v>
       </c>
       <c r="F78" s="5">
         <f t="shared" si="4"/>
@@ -13846,9 +13973,9 @@
       <c r="D79" s="27">
         <v>24983</v>
       </c>
-      <c r="E79" s="27">
+      <c r="E79" s="8">
         <f t="shared" si="3"/>
-        <v>3237.7999999999993</v>
+        <v>26.799999999999272</v>
       </c>
       <c r="F79" s="5">
         <f t="shared" si="4"/>
@@ -13873,9 +14000,9 @@
       <c r="D80" s="27">
         <v>25207</v>
       </c>
-      <c r="E80" s="27">
+      <c r="E80" s="8">
         <f t="shared" si="3"/>
-        <v>3264.5</v>
+        <v>26.700000000000728</v>
       </c>
       <c r="F80" s="5">
         <f t="shared" si="4"/>
@@ -13900,9 +14027,9 @@
       <c r="D81" s="27">
         <v>25453</v>
       </c>
-      <c r="E81" s="27">
+      <c r="E81" s="8">
         <f t="shared" si="3"/>
-        <v>3290.2000000000007</v>
+        <v>25.700000000000728</v>
       </c>
       <c r="F81" s="5">
         <f t="shared" si="4"/>
@@ -13927,9 +14054,9 @@
       <c r="D82" s="27">
         <v>25687</v>
       </c>
-      <c r="E82" s="27">
+      <c r="E82" s="8">
         <f t="shared" si="3"/>
-        <v>3319</v>
+        <v>28.799999999999272</v>
       </c>
       <c r="F82" s="5">
         <f t="shared" si="4"/>
@@ -13954,9 +14081,9 @@
       <c r="D83" s="27">
         <v>25948</v>
       </c>
-      <c r="E83" s="27">
+      <c r="E83" s="8">
         <f t="shared" si="3"/>
-        <v>3347.7999999999993</v>
+        <v>28.799999999999272</v>
       </c>
       <c r="F83" s="5">
         <f t="shared" si="4"/>
@@ -13981,9 +14108,9 @@
       <c r="D84" s="27">
         <v>26187</v>
       </c>
-      <c r="E84" s="27">
+      <c r="E84" s="8">
         <f t="shared" si="3"/>
-        <v>3372.9000000000015</v>
+        <v>25.100000000002183</v>
       </c>
       <c r="F84" s="5">
         <f t="shared" si="4"/>
@@ -14010,7 +14137,7 @@
       </c>
       <c r="E85" s="8">
         <f t="shared" si="3"/>
-        <v>3395.7000000000007</v>
+        <v>22.799999999999272</v>
       </c>
       <c r="F85" s="5">
         <f t="shared" si="4"/>
@@ -14037,7 +14164,7 @@
       </c>
       <c r="E86" s="8">
         <f t="shared" si="3"/>
-        <v>3417.0999999999985</v>
+        <v>21.399999999997817</v>
       </c>
       <c r="F86" s="5">
         <f t="shared" si="4"/>
@@ -14064,7 +14191,7 @@
       </c>
       <c r="E87" s="8">
         <f t="shared" si="3"/>
-        <v>3669.0999999999985</v>
+        <v>252</v>
       </c>
       <c r="F87" s="5">
         <f t="shared" si="4"/>
@@ -14086,20 +14213,16 @@
       <c r="C88" s="4"/>
       <c r="D88" s="5"/>
       <c r="E88" s="8">
-        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F88" s="5">
-        <f t="shared" si="4"/>
-        <v>-30293.1</v>
+        <v>0</v>
       </c>
       <c r="G88" s="27">
-        <f>[2]Sheet1!U92</f>
-        <v>100568</v>
+        <v>0</v>
       </c>
       <c r="H88" s="6">
-        <f t="shared" si="5"/>
-        <v>-301.22007000238642</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89" spans="2:8" x14ac:dyDescent="0.3">
@@ -14154,7 +14277,7 @@
       </c>
       <c r="C91" s="7"/>
       <c r="D91" s="37"/>
-      <c r="E91" s="9">
+      <c r="E91" s="8">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -14177,7 +14300,7 @@
       </c>
       <c r="C92" s="15"/>
       <c r="D92" s="10"/>
-      <c r="E92" s="15">
+      <c r="E92" s="8">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -14212,8 +14335,7 @@
         <v>0</v>
       </c>
       <c r="G93" s="27">
-        <f>[2]Sheet1!U97</f>
-        <v>105828</v>
+        <v>0</v>
       </c>
       <c r="H93" s="6">
         <v>0</v>
@@ -14229,7 +14351,7 @@
       <c r="D94" s="5"/>
       <c r="E94" s="8">
         <f t="shared" si="3"/>
-        <v>32374.400000000001</v>
+        <v>28737.100000000002</v>
       </c>
       <c r="F94" s="5">
         <f t="shared" si="4"/>
@@ -14256,7 +14378,7 @@
       </c>
       <c r="E95" s="8">
         <f t="shared" si="3"/>
-        <v>3695.4000000000015</v>
+        <v>-28679</v>
       </c>
       <c r="F95" s="5">
         <f t="shared" si="4"/>
@@ -14283,7 +14405,7 @@
       </c>
       <c r="E96" s="8">
         <f t="shared" si="3"/>
-        <v>4719.5999999999985</v>
+        <v>1024.1999999999971</v>
       </c>
       <c r="F96" s="5">
         <f t="shared" si="4"/>
@@ -14310,7 +14432,7 @@
       </c>
       <c r="E97" s="8">
         <f t="shared" si="3"/>
-        <v>3744.8000000000029</v>
+        <v>-974.79999999999563</v>
       </c>
       <c r="F97" s="5">
         <f t="shared" si="4"/>
@@ -14337,7 +14459,7 @@
       </c>
       <c r="E98" s="8">
         <f t="shared" si="3"/>
-        <v>3768.8000000000029</v>
+        <v>24</v>
       </c>
       <c r="F98" s="5">
         <f t="shared" si="4"/>
@@ -14364,7 +14486,7 @@
       </c>
       <c r="E99" s="8">
         <f t="shared" si="3"/>
-        <v>3795.8000000000029</v>
+        <v>27</v>
       </c>
       <c r="F99" s="5">
         <f t="shared" si="4"/>
@@ -14377,6 +14499,33 @@
       <c r="H99" s="6">
         <f t="shared" si="5"/>
         <v>2.8561684713104269</v>
+      </c>
+    </row>
+    <row r="100" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B100" s="12">
+        <v>45756</v>
+      </c>
+      <c r="C100" s="8">
+        <v>33935</v>
+      </c>
+      <c r="D100" s="5">
+        <v>30112</v>
+      </c>
+      <c r="E100" s="8">
+        <f>C100-D100-(C99-D99)</f>
+        <v>27.19999999999709</v>
+      </c>
+      <c r="F100" s="5">
+        <f t="shared" si="4"/>
+        <v>273.19999999999709</v>
+      </c>
+      <c r="G100" s="27">
+        <f>[2]Sheet1!U104</f>
+        <v>94856</v>
+      </c>
+      <c r="H100" s="6">
+        <f t="shared" si="5"/>
+        <v>2.8801551825925307</v>
       </c>
     </row>
   </sheetData>
@@ -14386,47 +14535,47 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38810916-2DF0-490C-B584-F0F3D6EAB44D}">
-  <dimension ref="A1:K99"/>
+  <dimension ref="A1:K100"/>
   <sheetViews>
-    <sheetView topLeftCell="A68" workbookViewId="0">
-      <selection activeCell="F104" sqref="F104"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K95" sqref="K95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:11" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="14" t="s">
         <v>2</v>
       </c>
       <c r="B1" s="25" t="s">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="C1" s="14" t="s">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="D1" s="14" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="E1" s="26" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="F1" s="24" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="G1" s="14" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="H1" s="14" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="I1" s="26" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="J1" s="24" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="K1" s="26" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -18117,7 +18266,7 @@
         <v>346.49999999999892</v>
       </c>
     </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A99" s="3">
         <f>'[1]NaOCl Pré'!B100</f>
         <v>45755</v>
@@ -18153,6 +18302,44 @@
       <c r="I99" s="4">
         <f>[1]ASC!D100</f>
         <v>350.99999999999909</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A100" s="3">
+        <f>'[1]NaOCl Pré'!B101</f>
+        <v>45756</v>
+      </c>
+      <c r="B100" s="23">
+        <f>'[1]NaOCl Pré'!D101</f>
+        <v>192.00000000000017</v>
+      </c>
+      <c r="C100" s="4">
+        <f>[1]Acide!D101</f>
+        <v>0</v>
+      </c>
+      <c r="D100" s="4">
+        <f>[1]FeCl3!D101</f>
+        <v>0</v>
+      </c>
+      <c r="E100" s="4">
+        <f>'[1]NaOCl 2 CEB 1'!H101</f>
+        <v>451.20000000000186</v>
+      </c>
+      <c r="F100" s="4">
+        <f>'[1]Soude CEB 1'!D101</f>
+        <v>0</v>
+      </c>
+      <c r="G100" s="4">
+        <f>'[1]Acide CEB2'!D101</f>
+        <v>80.000000000000071</v>
+      </c>
+      <c r="H100" s="4">
+        <f>[1]SBS!E101</f>
+        <v>655.99999999999795</v>
+      </c>
+      <c r="I100" s="4">
+        <f>[1]ASC!D101</f>
+        <v>336.00000000000205</v>
       </c>
     </row>
   </sheetData>

--- a/Consommation spécifique.xlsx
+++ b/Consommation spécifique.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\Projects\wave2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B256F49-4CC7-4D62-9BB1-EE0DA791AE2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66CBB3D7-FEFB-4CFA-823E-60FA10CAB10E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{4E830341-EBCA-4A95-9BBE-9CDD49815F8C}"/>
+    <workbookView xWindow="30612" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{4E830341-EBCA-4A95-9BBE-9CDD49815F8C}"/>
   </bookViews>
   <sheets>
     <sheet name="CS Produits chimiques" sheetId="1" r:id="rId1"/>
@@ -127,8 +127,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.000"/>
+    <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -161,7 +162,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="34">
+  <borders count="35">
     <border>
       <left/>
       <right/>
@@ -602,11 +603,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -737,6 +751,27 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1866,6 +1901,17 @@
             <v>2.0241207725394301</v>
           </cell>
         </row>
+        <row r="102">
+          <cell r="B102">
+            <v>45757</v>
+          </cell>
+          <cell r="D102">
+            <v>240.00000000000023</v>
+          </cell>
+          <cell r="F102">
+            <v>2.3979138149809689</v>
+          </cell>
+        </row>
       </sheetData>
       <sheetData sheetId="3">
         <row r="3">
@@ -2660,6 +2706,14 @@
             <v>0</v>
           </cell>
         </row>
+        <row r="102">
+          <cell r="D102">
+            <v>0</v>
+          </cell>
+          <cell r="F102">
+            <v>0</v>
+          </cell>
+        </row>
       </sheetData>
       <sheetData sheetId="4">
         <row r="3">
@@ -3451,6 +3505,14 @@
             <v>0</v>
           </cell>
           <cell r="F101">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="102">
+          <cell r="D102">
+            <v>0</v>
+          </cell>
+          <cell r="F102">
             <v>0</v>
           </cell>
         </row>
@@ -3469,6 +3531,9 @@
           <cell r="H4">
             <v>-8428.16</v>
           </cell>
+          <cell r="I4">
+            <v>-156.75631439943459</v>
+          </cell>
         </row>
         <row r="5">
           <cell r="H5">
@@ -4244,6 +4309,14 @@
           </cell>
           <cell r="I101">
             <v>4.7566838154676763</v>
+          </cell>
+        </row>
+        <row r="102">
+          <cell r="H102">
+            <v>1047.8000000000002</v>
+          </cell>
+          <cell r="I102">
+            <v>10.468892063904406</v>
           </cell>
         </row>
       </sheetData>
@@ -5040,6 +5113,14 @@
             <v>0</v>
           </cell>
         </row>
+        <row r="102">
+          <cell r="D102">
+            <v>0</v>
+          </cell>
+          <cell r="F102">
+            <v>0</v>
+          </cell>
+        </row>
       </sheetData>
       <sheetData sheetId="8">
         <row r="3">
@@ -5808,6 +5889,14 @@
           </cell>
           <cell r="F101">
             <v>0.84338365522476255</v>
+          </cell>
+        </row>
+        <row r="102">
+          <cell r="D102">
+            <v>127.99999999999834</v>
+          </cell>
+          <cell r="F102">
+            <v>1.2788873679898323</v>
           </cell>
         </row>
       </sheetData>
@@ -6604,6 +6693,14 @@
             <v>6.9157459728430251</v>
           </cell>
         </row>
+        <row r="102">
+          <cell r="E102">
+            <v>726.40000000000168</v>
+          </cell>
+          <cell r="G102">
+            <v>7.2576858133424089</v>
+          </cell>
+        </row>
       </sheetData>
       <sheetData sheetId="10">
         <row r="3">
@@ -7396,6 +7493,14 @@
           </cell>
           <cell r="F101">
             <v>3.5422113519440206</v>
+          </cell>
+        </row>
+        <row r="102">
+          <cell r="D102">
+            <v>331.49999999999926</v>
+          </cell>
+          <cell r="F102">
+            <v>3.3121184569424527</v>
           </cell>
         </row>
       </sheetData>
@@ -7851,6 +7956,11 @@
             <v>86228</v>
           </cell>
         </row>
+        <row r="92">
+          <cell r="U92">
+            <v>100568</v>
+          </cell>
+        </row>
         <row r="93">
           <cell r="U93">
             <v>102760</v>
@@ -7871,6 +7981,11 @@
             <v>105807</v>
           </cell>
         </row>
+        <row r="97">
+          <cell r="U97">
+            <v>105828</v>
+          </cell>
+        </row>
         <row r="98">
           <cell r="U98">
             <v>106116</v>
@@ -7904,6 +8019,11 @@
         <row r="104">
           <cell r="U104">
             <v>94856</v>
+          </cell>
+        </row>
+        <row r="105">
+          <cell r="U105">
+            <v>100087</v>
           </cell>
         </row>
       </sheetData>
@@ -8212,11 +8332,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BC5C344-277E-4945-8E25-AE6A0B860AD5}">
-  <dimension ref="A1:K100"/>
+  <dimension ref="A1:K101"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Q13" sqref="Q13"/>
+      <pane ySplit="1" topLeftCell="A59" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="O61" sqref="O61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8325,7 +8445,8 @@
         <v>0</v>
       </c>
       <c r="E3" s="40">
-        <v>0</v>
+        <f>'[1]NaOCl 2 CEB 1'!I4</f>
+        <v>-156.75631439943459</v>
       </c>
       <c r="F3" s="4">
         <f>'[1]Soude CEB 1'!F4</f>
@@ -11619,8 +11740,6 @@
         <f>[1]ASC!F88</f>
         <v>3.7922716518996142</v>
       </c>
-      <c r="J87" s="4"/>
-      <c r="K87" s="29"/>
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A88" s="21">
@@ -11658,8 +11777,6 @@
         <f>[1]ASC!F89</f>
         <v>3.2813618646090217</v>
       </c>
-      <c r="J88" s="4"/>
-      <c r="K88" s="29"/>
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A89" s="21">
@@ -11697,8 +11814,6 @@
         <f>[1]ASC!F90</f>
         <v>3.2697547683923909</v>
       </c>
-      <c r="J89" s="4"/>
-      <c r="K89" s="29"/>
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A90" s="21">
@@ -11736,8 +11851,6 @@
         <f>[1]ASC!F91</f>
         <v>3.2047040139153982</v>
       </c>
-      <c r="J90" s="4"/>
-      <c r="K90" s="29"/>
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A91" s="21">
@@ -11775,8 +11888,6 @@
         <f>[1]ASC!F92</f>
         <v>3.2549158310311577</v>
       </c>
-      <c r="J91" s="4"/>
-      <c r="K91" s="29"/>
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A92" s="21">
@@ -11814,8 +11925,6 @@
         <f>[1]ASC!F93</f>
         <v>3.2748305877682848</v>
       </c>
-      <c r="J92" s="4"/>
-      <c r="K92" s="29"/>
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A93" s="21">
@@ -11853,8 +11962,6 @@
         <f>[1]ASC!F94</f>
         <v>3.2316589182446869</v>
       </c>
-      <c r="J93" s="4"/>
-      <c r="K93" s="29"/>
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A94" s="21">
@@ -11892,8 +11999,6 @@
         <f>[1]ASC!F95</f>
         <v>3.1522107881940538</v>
       </c>
-      <c r="J94" s="4"/>
-      <c r="K94" s="29"/>
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A95" s="21">
@@ -11931,8 +12036,6 @@
         <f>[1]ASC!F96</f>
         <v>3.3199651923877345</v>
       </c>
-      <c r="J95" s="4"/>
-      <c r="K95" s="29"/>
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A96" s="21">
@@ -11970,10 +12073,8 @@
         <f>[1]ASC!F97</f>
         <v>3.6081058817068481</v>
       </c>
-      <c r="J96" s="4"/>
-      <c r="K96" s="29"/>
-    </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="97" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A97" s="21">
         <v>45753</v>
       </c>
@@ -12009,10 +12110,8 @@
         <f>[1]ASC!F98</f>
         <v>3.9886758283952539</v>
       </c>
-      <c r="J97" s="4"/>
-      <c r="K97" s="29"/>
-    </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="98" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A98" s="21">
         <v>45754</v>
       </c>
@@ -12048,10 +12147,8 @@
         <f>[1]ASC!F99</f>
         <v>4.0185094982951659</v>
       </c>
-      <c r="J98" s="4"/>
-      <c r="K98" s="29"/>
-    </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="99" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A99" s="21">
         <v>45755</v>
       </c>
@@ -12087,10 +12184,8 @@
         <f>[1]ASC!F100</f>
         <v>3.7407281098132734</v>
       </c>
-      <c r="J99" s="4"/>
-      <c r="K99" s="29"/>
-    </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="100" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A100" s="21">
         <v>45756</v>
       </c>
@@ -12126,8 +12221,43 @@
         <f>[1]ASC!F101</f>
         <v>3.5422113519440206</v>
       </c>
-      <c r="J100" s="4"/>
-      <c r="K100" s="29"/>
+    </row>
+    <row r="101" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A101" s="21">
+        <v>45757</v>
+      </c>
+      <c r="B101" s="40">
+        <f>'[1]NaOCl Pré'!F102</f>
+        <v>2.3979138149809689</v>
+      </c>
+      <c r="C101" s="4">
+        <f>[1]Acide!F102</f>
+        <v>0</v>
+      </c>
+      <c r="D101" s="4">
+        <f>[1]FeCl3!F102</f>
+        <v>0</v>
+      </c>
+      <c r="E101" s="40">
+        <f>'[1]NaOCl 2 CEB 1'!I102</f>
+        <v>10.468892063904406</v>
+      </c>
+      <c r="F101" s="4">
+        <f>'[1]Soude CEB 1'!F102</f>
+        <v>0</v>
+      </c>
+      <c r="G101" s="40">
+        <f>'[1]Acide CEB2'!F102</f>
+        <v>1.2788873679898323</v>
+      </c>
+      <c r="H101" s="40">
+        <f>[1]SBS!G102</f>
+        <v>7.2576858133424089</v>
+      </c>
+      <c r="I101" s="40">
+        <f>[1]ASC!F102</f>
+        <v>3.3121184569424527</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -12137,10 +12267,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07CB649B-6F18-453D-B029-557EF373D866}">
-  <dimension ref="B1:H100"/>
+  <dimension ref="B1:H101"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="Q84" sqref="Q84"/>
+    <sheetView topLeftCell="B82" workbookViewId="0">
+      <selection activeCell="F106" sqref="F106"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -12179,7 +12309,7 @@
       <c r="B2" s="32">
         <v>45658</v>
       </c>
-      <c r="C2" s="36">
+      <c r="C2" s="34">
         <v>11077.9</v>
       </c>
       <c r="D2" s="36"/>
@@ -12200,7 +12330,7 @@
       <c r="B3" s="12">
         <v>45659</v>
       </c>
-      <c r="C3" s="8">
+      <c r="C3" s="4">
         <v>11236.4</v>
       </c>
       <c r="D3" s="8"/>
@@ -12842,8 +12972,8 @@
         <v>16570.2</v>
       </c>
       <c r="D32" s="9"/>
-      <c r="E32" s="27"/>
-      <c r="F32" s="5">
+      <c r="E32" s="9"/>
+      <c r="F32" s="37">
         <f t="shared" si="1"/>
         <v>219.20000000000073</v>
       </c>
@@ -12851,7 +12981,7 @@
         <f>[2]Sheet1!U36</f>
         <v>72868</v>
       </c>
-      <c r="H32" s="6">
+      <c r="H32" s="38">
         <f t="shared" si="2"/>
         <v>3.0081791732996752</v>
       </c>
@@ -12860,20 +12990,20 @@
       <c r="B33" s="32">
         <v>45689</v>
       </c>
-      <c r="C33" s="34">
+      <c r="C33" s="44">
         <v>16796.900000000001</v>
       </c>
-      <c r="D33" s="35"/>
+      <c r="D33" s="28"/>
       <c r="E33" s="28"/>
-      <c r="F33" s="5">
+      <c r="F33" s="10">
         <f t="shared" si="1"/>
         <v>226.70000000000073</v>
       </c>
-      <c r="G33" s="35">
+      <c r="G33" s="28">
         <f>[2]Sheet1!U37</f>
         <v>71689</v>
       </c>
-      <c r="H33" s="6">
+      <c r="H33" s="43">
         <f t="shared" si="2"/>
         <v>3.1622703622592132</v>
       </c>
@@ -13460,7 +13590,7 @@
       <c r="D60" s="9">
         <v>20275</v>
       </c>
-      <c r="E60" s="8">
+      <c r="E60" s="9">
         <f t="shared" ref="E60:E99" si="3">C60-D60-(C59-D59)</f>
         <v>-20014.099999999999</v>
       </c>
@@ -13487,7 +13617,7 @@
       <c r="D61" s="35">
         <v>20513</v>
       </c>
-      <c r="E61" s="8">
+      <c r="E61" s="36">
         <f t="shared" si="3"/>
         <v>25.69999999999709</v>
       </c>
@@ -13708,7 +13838,7 @@
         <v>28.30000000000291</v>
       </c>
       <c r="F69" s="5">
-        <f t="shared" ref="F69:F100" si="4">(C69-C68)</f>
+        <f t="shared" ref="F69:F101" si="4">(C69-C68)</f>
         <v>274.30000000000291</v>
       </c>
       <c r="G69" s="27">
@@ -13716,7 +13846,7 @@
         <v>94813</v>
       </c>
       <c r="H69" s="6">
-        <f t="shared" ref="H69:H100" si="5">F69/G69*1000</f>
+        <f t="shared" ref="H69:H101" si="5">F69/G69*1000</f>
         <v>2.8930631875376047</v>
       </c>
     </row>
@@ -14210,34 +14340,44 @@
       <c r="B88" s="12">
         <v>45744</v>
       </c>
-      <c r="C88" s="4"/>
+      <c r="C88" s="46">
+        <f>C87+F88</f>
+        <v>30576.70176</v>
+      </c>
       <c r="D88" s="5"/>
       <c r="E88" s="8">
-        <v>0</v>
-      </c>
-      <c r="F88" s="5">
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>26907.601760000001</v>
+      </c>
+      <c r="F88" s="45">
+        <f>G88*2.82/1000</f>
+        <v>283.60176000000001</v>
       </c>
       <c r="G88" s="27">
-        <v>0</v>
+        <f>[2]Sheet1!U92</f>
+        <v>100568</v>
       </c>
       <c r="H88" s="6">
-        <v>0</v>
+        <f t="shared" si="5"/>
+        <v>2.82</v>
       </c>
     </row>
     <row r="89" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B89" s="12">
         <v>45745</v>
       </c>
-      <c r="C89" s="4"/>
+      <c r="C89" s="46">
+        <f t="shared" ref="C89:C92" si="6">C88+F89</f>
+        <v>30866.484960000002</v>
+      </c>
       <c r="D89" s="5"/>
       <c r="E89" s="8">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="F89" s="5">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <v>289.78320000000167</v>
+      </c>
+      <c r="F89" s="45">
+        <f t="shared" ref="F89:F92" si="7">G89*2.82/1000</f>
+        <v>289.78320000000002</v>
       </c>
       <c r="G89" s="27">
         <f>[2]Sheet1!U93</f>
@@ -14245,22 +14385,25 @@
       </c>
       <c r="H89" s="6">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>2.82</v>
       </c>
     </row>
     <row r="90" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B90" s="12">
         <v>45746</v>
       </c>
-      <c r="C90" s="4"/>
+      <c r="C90" s="46">
+        <f t="shared" si="6"/>
+        <v>31164.790200000003</v>
+      </c>
       <c r="D90" s="5"/>
       <c r="E90" s="8">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="F90" s="5">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <v>298.3052400000015</v>
+      </c>
+      <c r="F90" s="45">
+        <f t="shared" si="7"/>
+        <v>298.30523999999997</v>
       </c>
       <c r="G90" s="27">
         <f>[2]Sheet1!U94</f>
@@ -14268,22 +14411,25 @@
       </c>
       <c r="H90" s="6">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>2.8199999999999994</v>
       </c>
     </row>
     <row r="91" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B91" s="12">
         <v>45747</v>
       </c>
-      <c r="C91" s="7"/>
+      <c r="C91" s="49">
+        <f t="shared" si="6"/>
+        <v>31459.793220000003</v>
+      </c>
       <c r="D91" s="37"/>
-      <c r="E91" s="8">
+      <c r="E91" s="9">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="F91" s="37">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <v>295.00302000000011</v>
+      </c>
+      <c r="F91" s="50">
+        <f t="shared" si="7"/>
+        <v>295.00301999999994</v>
       </c>
       <c r="G91" s="9">
         <f>[2]Sheet1!U95</f>
@@ -14291,22 +14437,25 @@
       </c>
       <c r="H91" s="38">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>2.8199999999999994</v>
       </c>
     </row>
     <row r="92" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B92" s="12">
         <v>45748</v>
       </c>
-      <c r="C92" s="15"/>
+      <c r="C92" s="47">
+        <f t="shared" si="6"/>
+        <v>31758.168960000003</v>
+      </c>
       <c r="D92" s="10"/>
-      <c r="E92" s="8">
+      <c r="E92" s="15">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="F92" s="10">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <v>298.3757399999995</v>
+      </c>
+      <c r="F92" s="48">
+        <f t="shared" si="7"/>
+        <v>298.37574000000001</v>
       </c>
       <c r="G92" s="28">
         <f>[2]Sheet1!U96</f>
@@ -14314,14 +14463,14 @@
       </c>
       <c r="H92" s="43">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>2.82</v>
       </c>
     </row>
     <row r="93" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B93" s="12">
         <v>45749</v>
       </c>
-      <c r="C93" s="8">
+      <c r="C93" s="4">
         <v>32055.3</v>
       </c>
       <c r="D93" s="5">
@@ -14329,23 +14478,26 @@
       </c>
       <c r="E93" s="8">
         <f t="shared" si="3"/>
-        <v>3637.2999999999993</v>
-      </c>
-      <c r="F93" s="5">
-        <v>0</v>
+        <v>-28120.868960000003</v>
+      </c>
+      <c r="F93" s="45">
+        <f>G93*2.82/1000</f>
+        <v>298.43495999999999</v>
       </c>
       <c r="G93" s="27">
-        <v>0</v>
+        <f>[2]Sheet1!U97</f>
+        <v>105828</v>
       </c>
       <c r="H93" s="6">
-        <v>0</v>
+        <f t="shared" si="5"/>
+        <v>2.82</v>
       </c>
     </row>
     <row r="94" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B94" s="12">
         <v>45750</v>
       </c>
-      <c r="C94" s="8">
+      <c r="C94" s="4">
         <v>32374.400000000001</v>
       </c>
       <c r="D94" s="5"/>
@@ -14370,7 +14522,7 @@
       <c r="B95" s="12">
         <v>45751</v>
       </c>
-      <c r="C95" s="8">
+      <c r="C95" s="4">
         <v>32654.400000000001</v>
       </c>
       <c r="D95" s="5">
@@ -14397,7 +14549,7 @@
       <c r="B96" s="12">
         <v>45752</v>
       </c>
-      <c r="C96" s="8">
+      <c r="C96" s="4">
         <v>32907.599999999999</v>
       </c>
       <c r="D96" s="5">
@@ -14424,7 +14576,7 @@
       <c r="B97" s="12">
         <v>45753</v>
       </c>
-      <c r="C97" s="8">
+      <c r="C97" s="4">
         <v>33157.800000000003</v>
       </c>
       <c r="D97" s="5">
@@ -14451,7 +14603,7 @@
       <c r="B98" s="12">
         <v>45754</v>
       </c>
-      <c r="C98" s="8">
+      <c r="C98" s="4">
         <v>33393.800000000003</v>
       </c>
       <c r="D98" s="5">
@@ -14478,7 +14630,7 @@
       <c r="B99" s="12">
         <v>45755</v>
       </c>
-      <c r="C99" s="8">
+      <c r="C99" s="4">
         <v>33661.800000000003</v>
       </c>
       <c r="D99" s="5">
@@ -14505,7 +14657,7 @@
       <c r="B100" s="12">
         <v>45756</v>
       </c>
-      <c r="C100" s="8">
+      <c r="C100" s="4">
         <v>33935</v>
       </c>
       <c r="D100" s="5">
@@ -14526,6 +14678,33 @@
       <c r="H100" s="6">
         <f t="shared" si="5"/>
         <v>2.8801551825925307</v>
+      </c>
+    </row>
+    <row r="101" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B101" s="12">
+        <v>45757</v>
+      </c>
+      <c r="C101" s="4">
+        <v>34216.1</v>
+      </c>
+      <c r="D101" s="5">
+        <v>30366</v>
+      </c>
+      <c r="E101" s="8">
+        <f t="shared" ref="E101" si="8">C101-D101</f>
+        <v>3850.0999999999985</v>
+      </c>
+      <c r="F101" s="5">
+        <f t="shared" si="4"/>
+        <v>281.09999999999854</v>
+      </c>
+      <c r="G101" s="27">
+        <f>[2]Sheet1!U105</f>
+        <v>100087</v>
+      </c>
+      <c r="H101" s="6">
+        <f t="shared" si="5"/>
+        <v>2.8085565557964425</v>
       </c>
     </row>
   </sheetData>
@@ -14535,10 +14714,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38810916-2DF0-490C-B584-F0F3D6EAB44D}">
-  <dimension ref="A1:K100"/>
+  <dimension ref="A1:K101"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K95" sqref="K95"/>
+    <sheetView topLeftCell="A79" workbookViewId="0">
+      <selection activeCell="A102" sqref="A102:XFD108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -18304,7 +18483,7 @@
         <v>350.99999999999909</v>
       </c>
     </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A100" s="3">
         <f>'[1]NaOCl Pré'!B101</f>
         <v>45756</v>
@@ -18340,6 +18519,44 @@
       <c r="I100" s="4">
         <f>[1]ASC!D101</f>
         <v>336.00000000000205</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A101" s="3">
+        <f>'[1]NaOCl Pré'!B102</f>
+        <v>45757</v>
+      </c>
+      <c r="B101" s="23">
+        <f>'[1]NaOCl Pré'!D102</f>
+        <v>240.00000000000023</v>
+      </c>
+      <c r="C101" s="4">
+        <f>[1]Acide!D102</f>
+        <v>0</v>
+      </c>
+      <c r="D101" s="4">
+        <f>[1]FeCl3!D102</f>
+        <v>0</v>
+      </c>
+      <c r="E101" s="4">
+        <f>'[1]NaOCl 2 CEB 1'!H102</f>
+        <v>1047.8000000000002</v>
+      </c>
+      <c r="F101" s="4">
+        <f>'[1]Soude CEB 1'!D102</f>
+        <v>0</v>
+      </c>
+      <c r="G101" s="4">
+        <f>'[1]Acide CEB2'!D102</f>
+        <v>127.99999999999834</v>
+      </c>
+      <c r="H101" s="4">
+        <f>[1]SBS!E102</f>
+        <v>726.40000000000168</v>
+      </c>
+      <c r="I101" s="4">
+        <f>[1]ASC!D102</f>
+        <v>331.49999999999926</v>
       </c>
     </row>
   </sheetData>

--- a/Consommation spécifique.xlsx
+++ b/Consommation spécifique.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\Projects\wave2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66CBB3D7-FEFB-4CFA-823E-60FA10CAB10E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B54F9591-48C9-43C9-97C2-85899CE67D67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30612" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{4E830341-EBCA-4A95-9BBE-9CDD49815F8C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{4E830341-EBCA-4A95-9BBE-9CDD49815F8C}"/>
   </bookViews>
   <sheets>
     <sheet name="CS Produits chimiques" sheetId="1" r:id="rId1"/>
@@ -1912,6 +1912,39 @@
             <v>2.3979138149809689</v>
           </cell>
         </row>
+        <row r="103">
+          <cell r="B103">
+            <v>45758</v>
+          </cell>
+          <cell r="D103">
+            <v>204.80000000000052</v>
+          </cell>
+          <cell r="F103">
+            <v>1.9779031136521723</v>
+          </cell>
+        </row>
+        <row r="104">
+          <cell r="B104">
+            <v>45759</v>
+          </cell>
+          <cell r="D104">
+            <v>80.000000000000071</v>
+          </cell>
+          <cell r="F104">
+            <v>0.99905090164343957</v>
+          </cell>
+        </row>
+        <row r="105">
+          <cell r="B105">
+            <v>45760</v>
+          </cell>
+          <cell r="D105">
+            <v>304.00000000000028</v>
+          </cell>
+          <cell r="F105">
+            <v>3.4310350665327394</v>
+          </cell>
+        </row>
       </sheetData>
       <sheetData sheetId="3">
         <row r="3">
@@ -2714,6 +2747,30 @@
             <v>0</v>
           </cell>
         </row>
+        <row r="103">
+          <cell r="D103">
+            <v>0</v>
+          </cell>
+          <cell r="F103">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="104">
+          <cell r="D104">
+            <v>0</v>
+          </cell>
+          <cell r="F104">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="105">
+          <cell r="D105">
+            <v>0</v>
+          </cell>
+          <cell r="F105">
+            <v>0</v>
+          </cell>
+        </row>
       </sheetData>
       <sheetData sheetId="4">
         <row r="3">
@@ -3513,6 +3570,30 @@
             <v>0</v>
           </cell>
           <cell r="F102">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="103">
+          <cell r="D103">
+            <v>0</v>
+          </cell>
+          <cell r="F103">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="104">
+          <cell r="D104">
+            <v>0</v>
+          </cell>
+          <cell r="F104">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="105">
+          <cell r="D105">
+            <v>0</v>
+          </cell>
+          <cell r="F105">
             <v>0</v>
           </cell>
         </row>
@@ -4319,6 +4400,30 @@
             <v>10.468892063904406</v>
           </cell>
         </row>
+        <row r="103">
+          <cell r="H103">
+            <v>528.00000000000045</v>
+          </cell>
+          <cell r="I103">
+            <v>5.0992814648844975</v>
+          </cell>
+        </row>
+        <row r="104">
+          <cell r="H104">
+            <v>492.79999999999546</v>
+          </cell>
+          <cell r="I104">
+            <v>6.1541535541235257</v>
+          </cell>
+        </row>
+        <row r="105">
+          <cell r="H105">
+            <v>470.40000000000146</v>
+          </cell>
+          <cell r="I105">
+            <v>5.3090753134769866</v>
+          </cell>
+        </row>
       </sheetData>
       <sheetData sheetId="7">
         <row r="3">
@@ -5121,6 +5226,30 @@
             <v>0</v>
           </cell>
         </row>
+        <row r="103">
+          <cell r="D103">
+            <v>0</v>
+          </cell>
+          <cell r="F103">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="104">
+          <cell r="D104">
+            <v>0</v>
+          </cell>
+          <cell r="F104">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="105">
+          <cell r="D105">
+            <v>0</v>
+          </cell>
+          <cell r="F105">
+            <v>0</v>
+          </cell>
+        </row>
       </sheetData>
       <sheetData sheetId="8">
         <row r="3">
@@ -5897,6 +6026,30 @@
           </cell>
           <cell r="F102">
             <v>1.2788873679898323</v>
+          </cell>
+        </row>
+        <row r="103">
+          <cell r="D103">
+            <v>92.800000000000438</v>
+          </cell>
+          <cell r="F103">
+            <v>0.89623734837364244</v>
+          </cell>
+        </row>
+        <row r="104">
+          <cell r="D104">
+            <v>51.200000000001467</v>
+          </cell>
+          <cell r="F104">
+            <v>0.63939257705181907</v>
+          </cell>
+        </row>
+        <row r="105">
+          <cell r="D105">
+            <v>182.39999999999947</v>
+          </cell>
+          <cell r="F105">
+            <v>2.0586210399196352</v>
           </cell>
         </row>
       </sheetData>
@@ -6701,6 +6854,30 @@
             <v>7.2576858133424089</v>
           </cell>
         </row>
+        <row r="103">
+          <cell r="E103">
+            <v>710.4</v>
+          </cell>
+          <cell r="G103">
+            <v>6.8608514254809547</v>
+          </cell>
+        </row>
+        <row r="104">
+          <cell r="E104">
+            <v>95.999999999998309</v>
+          </cell>
+          <cell r="G104">
+            <v>1.1988610819721053</v>
+          </cell>
+        </row>
+        <row r="105">
+          <cell r="E105">
+            <v>1184.0000000000011</v>
+          </cell>
+          <cell r="G105">
+            <v>13.362978680180142</v>
+          </cell>
+        </row>
       </sheetData>
       <sheetData sheetId="10">
         <row r="3">
@@ -7501,6 +7678,30 @@
           </cell>
           <cell r="F102">
             <v>3.3121184569424527</v>
+          </cell>
+        </row>
+        <row r="103">
+          <cell r="D103">
+            <v>349.49999999999994</v>
+          </cell>
+          <cell r="F103">
+            <v>3.3753766514718375</v>
+          </cell>
+        </row>
+        <row r="104">
+          <cell r="D104">
+            <v>291.00000000000034</v>
+          </cell>
+          <cell r="F104">
+            <v>3.6340476547280129</v>
+          </cell>
+        </row>
+        <row r="105">
+          <cell r="D105">
+            <v>343.49999999999972</v>
+          </cell>
+          <cell r="F105">
+            <v>3.876843899190769</v>
           </cell>
         </row>
       </sheetData>
@@ -8024,6 +8225,21 @@
         <row r="105">
           <cell r="U105">
             <v>100087</v>
+          </cell>
+        </row>
+        <row r="106">
+          <cell r="U106">
+            <v>103544</v>
+          </cell>
+        </row>
+        <row r="107">
+          <cell r="U107">
+            <v>80076</v>
+          </cell>
+        </row>
+        <row r="108">
+          <cell r="U108">
+            <v>88603</v>
           </cell>
         </row>
       </sheetData>
@@ -8332,11 +8548,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BC5C344-277E-4945-8E25-AE6A0B860AD5}">
-  <dimension ref="A1:K101"/>
+  <dimension ref="A1:K104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A59" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O61" sqref="O61"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -11740,6 +11956,8 @@
         <f>[1]ASC!F88</f>
         <v>3.7922716518996142</v>
       </c>
+      <c r="J87" s="4"/>
+      <c r="K87" s="29"/>
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A88" s="21">
@@ -11777,6 +11995,8 @@
         <f>[1]ASC!F89</f>
         <v>3.2813618646090217</v>
       </c>
+      <c r="J88" s="4"/>
+      <c r="K88" s="29"/>
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A89" s="21">
@@ -11814,6 +12034,8 @@
         <f>[1]ASC!F90</f>
         <v>3.2697547683923909</v>
       </c>
+      <c r="J89" s="4"/>
+      <c r="K89" s="29"/>
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A90" s="21">
@@ -11851,6 +12073,8 @@
         <f>[1]ASC!F91</f>
         <v>3.2047040139153982</v>
       </c>
+      <c r="J90" s="4"/>
+      <c r="K90" s="29"/>
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A91" s="21">
@@ -11888,6 +12112,8 @@
         <f>[1]ASC!F92</f>
         <v>3.2549158310311577</v>
       </c>
+      <c r="J91" s="4"/>
+      <c r="K91" s="29"/>
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A92" s="21">
@@ -11925,6 +12151,8 @@
         <f>[1]ASC!F93</f>
         <v>3.2748305877682848</v>
       </c>
+      <c r="J92" s="4"/>
+      <c r="K92" s="29"/>
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A93" s="21">
@@ -11962,6 +12190,8 @@
         <f>[1]ASC!F94</f>
         <v>3.2316589182446869</v>
       </c>
+      <c r="J93" s="4"/>
+      <c r="K93" s="29"/>
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A94" s="21">
@@ -11999,6 +12229,8 @@
         <f>[1]ASC!F95</f>
         <v>3.1522107881940538</v>
       </c>
+      <c r="J94" s="4"/>
+      <c r="K94" s="29"/>
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A95" s="21">
@@ -12036,6 +12268,8 @@
         <f>[1]ASC!F96</f>
         <v>3.3199651923877345</v>
       </c>
+      <c r="J95" s="4"/>
+      <c r="K95" s="29"/>
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A96" s="21">
@@ -12073,8 +12307,10 @@
         <f>[1]ASC!F97</f>
         <v>3.6081058817068481</v>
       </c>
-    </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J96" s="4"/>
+      <c r="K96" s="29"/>
+    </row>
+    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A97" s="21">
         <v>45753</v>
       </c>
@@ -12110,8 +12346,10 @@
         <f>[1]ASC!F98</f>
         <v>3.9886758283952539</v>
       </c>
-    </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J97" s="4"/>
+      <c r="K97" s="29"/>
+    </row>
+    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A98" s="21">
         <v>45754</v>
       </c>
@@ -12147,8 +12385,10 @@
         <f>[1]ASC!F99</f>
         <v>4.0185094982951659</v>
       </c>
-    </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J98" s="4"/>
+      <c r="K98" s="29"/>
+    </row>
+    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A99" s="21">
         <v>45755</v>
       </c>
@@ -12184,8 +12424,10 @@
         <f>[1]ASC!F100</f>
         <v>3.7407281098132734</v>
       </c>
-    </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J99" s="4"/>
+      <c r="K99" s="29"/>
+    </row>
+    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A100" s="21">
         <v>45756</v>
       </c>
@@ -12221,8 +12463,10 @@
         <f>[1]ASC!F101</f>
         <v>3.5422113519440206</v>
       </c>
-    </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J100" s="4"/>
+      <c r="K100" s="29"/>
+    </row>
+    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A101" s="21">
         <v>45757</v>
       </c>
@@ -12258,6 +12502,125 @@
         <f>[1]ASC!F102</f>
         <v>3.3121184569424527</v>
       </c>
+      <c r="J101" s="4"/>
+      <c r="K101" s="29"/>
+    </row>
+    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A102" s="21">
+        <v>45758</v>
+      </c>
+      <c r="B102" s="40">
+        <f>'[1]NaOCl Pré'!F103</f>
+        <v>1.9779031136521723</v>
+      </c>
+      <c r="C102" s="4">
+        <f>[1]Acide!F103</f>
+        <v>0</v>
+      </c>
+      <c r="D102" s="4">
+        <f>[1]FeCl3!F103</f>
+        <v>0</v>
+      </c>
+      <c r="E102" s="40">
+        <f>'[1]NaOCl 2 CEB 1'!I103</f>
+        <v>5.0992814648844975</v>
+      </c>
+      <c r="F102" s="4">
+        <f>'[1]Soude CEB 1'!F103</f>
+        <v>0</v>
+      </c>
+      <c r="G102" s="40">
+        <f>'[1]Acide CEB2'!F103</f>
+        <v>0.89623734837364244</v>
+      </c>
+      <c r="H102" s="40">
+        <f>[1]SBS!G103</f>
+        <v>6.8608514254809547</v>
+      </c>
+      <c r="I102" s="40">
+        <f>[1]ASC!F103</f>
+        <v>3.3753766514718375</v>
+      </c>
+      <c r="J102" s="4"/>
+      <c r="K102" s="29"/>
+    </row>
+    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A103" s="21">
+        <v>45759</v>
+      </c>
+      <c r="B103" s="40">
+        <f>'[1]NaOCl Pré'!F104</f>
+        <v>0.99905090164343957</v>
+      </c>
+      <c r="C103" s="4">
+        <f>[1]Acide!F104</f>
+        <v>0</v>
+      </c>
+      <c r="D103" s="4">
+        <f>[1]FeCl3!F104</f>
+        <v>0</v>
+      </c>
+      <c r="E103" s="40">
+        <f>'[1]NaOCl 2 CEB 1'!I104</f>
+        <v>6.1541535541235257</v>
+      </c>
+      <c r="F103" s="4">
+        <f>'[1]Soude CEB 1'!F104</f>
+        <v>0</v>
+      </c>
+      <c r="G103" s="40">
+        <f>'[1]Acide CEB2'!F104</f>
+        <v>0.63939257705181907</v>
+      </c>
+      <c r="H103" s="40">
+        <f>[1]SBS!G104</f>
+        <v>1.1988610819721053</v>
+      </c>
+      <c r="I103" s="40">
+        <f>[1]ASC!F104</f>
+        <v>3.6340476547280129</v>
+      </c>
+      <c r="J103" s="4"/>
+      <c r="K103" s="29"/>
+    </row>
+    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A104" s="21">
+        <v>45760</v>
+      </c>
+      <c r="B104" s="40">
+        <f>'[1]NaOCl Pré'!F105</f>
+        <v>3.4310350665327394</v>
+      </c>
+      <c r="C104" s="4">
+        <f>[1]Acide!F105</f>
+        <v>0</v>
+      </c>
+      <c r="D104" s="4">
+        <f>[1]FeCl3!F105</f>
+        <v>0</v>
+      </c>
+      <c r="E104" s="40">
+        <f>'[1]NaOCl 2 CEB 1'!I105</f>
+        <v>5.3090753134769866</v>
+      </c>
+      <c r="F104" s="4">
+        <f>'[1]Soude CEB 1'!F105</f>
+        <v>0</v>
+      </c>
+      <c r="G104" s="40">
+        <f>'[1]Acide CEB2'!F105</f>
+        <v>2.0586210399196352</v>
+      </c>
+      <c r="H104" s="40">
+        <f>[1]SBS!G105</f>
+        <v>13.362978680180142</v>
+      </c>
+      <c r="I104" s="40">
+        <f>[1]ASC!F105</f>
+        <v>3.876843899190769</v>
+      </c>
+      <c r="J104" s="4"/>
+      <c r="K104" s="29"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -12267,10 +12630,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07CB649B-6F18-453D-B029-557EF373D866}">
-  <dimension ref="B1:H101"/>
+  <dimension ref="B1:H104"/>
   <sheetViews>
-    <sheetView topLeftCell="B82" workbookViewId="0">
-      <selection activeCell="F106" sqref="F106"/>
+    <sheetView topLeftCell="B85" workbookViewId="0">
+      <selection activeCell="B105" sqref="A105:XFD367"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -13838,7 +14201,7 @@
         <v>28.30000000000291</v>
       </c>
       <c r="F69" s="5">
-        <f t="shared" ref="F69:F101" si="4">(C69-C68)</f>
+        <f t="shared" ref="F69:F104" si="4">(C69-C68)</f>
         <v>274.30000000000291</v>
       </c>
       <c r="G69" s="27">
@@ -13846,7 +14209,7 @@
         <v>94813</v>
       </c>
       <c r="H69" s="6">
-        <f t="shared" ref="H69:H101" si="5">F69/G69*1000</f>
+        <f t="shared" ref="H69:H104" si="5">F69/G69*1000</f>
         <v>2.8930631875376047</v>
       </c>
     </row>
@@ -14691,7 +15054,7 @@
         <v>30366</v>
       </c>
       <c r="E101" s="8">
-        <f t="shared" ref="E101" si="8">C101-D101</f>
+        <f t="shared" ref="E101:E104" si="8">C101-D101</f>
         <v>3850.0999999999985</v>
       </c>
       <c r="F101" s="5">
@@ -14705,6 +15068,87 @@
       <c r="H101" s="6">
         <f t="shared" si="5"/>
         <v>2.8085565557964425</v>
+      </c>
+    </row>
+    <row r="102" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B102" s="12">
+        <v>45758</v>
+      </c>
+      <c r="C102" s="4">
+        <v>34513.599999999999</v>
+      </c>
+      <c r="D102" s="5">
+        <v>30646</v>
+      </c>
+      <c r="E102" s="8">
+        <f t="shared" si="8"/>
+        <v>3867.5999999999985</v>
+      </c>
+      <c r="F102" s="5">
+        <f t="shared" si="4"/>
+        <v>297.5</v>
+      </c>
+      <c r="G102" s="27">
+        <f>[2]Sheet1!U106</f>
+        <v>103544</v>
+      </c>
+      <c r="H102" s="6">
+        <f t="shared" si="5"/>
+        <v>2.8731746890210923</v>
+      </c>
+    </row>
+    <row r="103" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B103" s="12">
+        <v>45759</v>
+      </c>
+      <c r="C103" s="4">
+        <v>34737.300000000003</v>
+      </c>
+      <c r="D103" s="5">
+        <v>30837</v>
+      </c>
+      <c r="E103" s="8">
+        <f t="shared" si="8"/>
+        <v>3900.3000000000029</v>
+      </c>
+      <c r="F103" s="5">
+        <f t="shared" si="4"/>
+        <v>223.70000000000437</v>
+      </c>
+      <c r="G103" s="27">
+        <f>[2]Sheet1!U107</f>
+        <v>80076</v>
+      </c>
+      <c r="H103" s="6">
+        <f t="shared" si="5"/>
+        <v>2.7935960837205203</v>
+      </c>
+    </row>
+    <row r="104" spans="2:8" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B104" s="12">
+        <v>45760</v>
+      </c>
+      <c r="C104" s="4">
+        <v>34980.5</v>
+      </c>
+      <c r="D104" s="5">
+        <v>31071</v>
+      </c>
+      <c r="E104" s="8">
+        <f t="shared" si="8"/>
+        <v>3909.5</v>
+      </c>
+      <c r="F104" s="5">
+        <f t="shared" si="4"/>
+        <v>243.19999999999709</v>
+      </c>
+      <c r="G104" s="27">
+        <f>[2]Sheet1!U108</f>
+        <v>88603</v>
+      </c>
+      <c r="H104" s="6">
+        <f t="shared" si="5"/>
+        <v>2.744828053226156</v>
       </c>
     </row>
   </sheetData>
@@ -14714,10 +15158,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38810916-2DF0-490C-B584-F0F3D6EAB44D}">
-  <dimension ref="A1:K101"/>
+  <dimension ref="A1:K104"/>
   <sheetViews>
-    <sheetView topLeftCell="A79" workbookViewId="0">
-      <selection activeCell="A102" sqref="A102:XFD108"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A86" sqref="A86:I104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -18521,7 +18965,7 @@
         <v>336.00000000000205</v>
       </c>
     </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A101" s="3">
         <f>'[1]NaOCl Pré'!B102</f>
         <v>45757</v>
@@ -18557,6 +19001,120 @@
       <c r="I101" s="4">
         <f>[1]ASC!D102</f>
         <v>331.49999999999926</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A102" s="3">
+        <f>'[1]NaOCl Pré'!B103</f>
+        <v>45758</v>
+      </c>
+      <c r="B102" s="23">
+        <f>'[1]NaOCl Pré'!D103</f>
+        <v>204.80000000000052</v>
+      </c>
+      <c r="C102" s="4">
+        <f>[1]Acide!D103</f>
+        <v>0</v>
+      </c>
+      <c r="D102" s="4">
+        <f>[1]FeCl3!D103</f>
+        <v>0</v>
+      </c>
+      <c r="E102" s="4">
+        <f>'[1]NaOCl 2 CEB 1'!H103</f>
+        <v>528.00000000000045</v>
+      </c>
+      <c r="F102" s="4">
+        <f>'[1]Soude CEB 1'!D103</f>
+        <v>0</v>
+      </c>
+      <c r="G102" s="4">
+        <f>'[1]Acide CEB2'!D103</f>
+        <v>92.800000000000438</v>
+      </c>
+      <c r="H102" s="4">
+        <f>[1]SBS!E103</f>
+        <v>710.4</v>
+      </c>
+      <c r="I102" s="4">
+        <f>[1]ASC!D103</f>
+        <v>349.49999999999994</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A103" s="3">
+        <f>'[1]NaOCl Pré'!B104</f>
+        <v>45759</v>
+      </c>
+      <c r="B103" s="23">
+        <f>'[1]NaOCl Pré'!D104</f>
+        <v>80.000000000000071</v>
+      </c>
+      <c r="C103" s="4">
+        <f>[1]Acide!D104</f>
+        <v>0</v>
+      </c>
+      <c r="D103" s="4">
+        <f>[1]FeCl3!D104</f>
+        <v>0</v>
+      </c>
+      <c r="E103" s="4">
+        <f>'[1]NaOCl 2 CEB 1'!H104</f>
+        <v>492.79999999999546</v>
+      </c>
+      <c r="F103" s="4">
+        <f>'[1]Soude CEB 1'!D104</f>
+        <v>0</v>
+      </c>
+      <c r="G103" s="4">
+        <f>'[1]Acide CEB2'!D104</f>
+        <v>51.200000000001467</v>
+      </c>
+      <c r="H103" s="4">
+        <f>[1]SBS!E104</f>
+        <v>95.999999999998309</v>
+      </c>
+      <c r="I103" s="4">
+        <f>[1]ASC!D104</f>
+        <v>291.00000000000034</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A104" s="3">
+        <f>'[1]NaOCl Pré'!B105</f>
+        <v>45760</v>
+      </c>
+      <c r="B104" s="23">
+        <f>'[1]NaOCl Pré'!D105</f>
+        <v>304.00000000000028</v>
+      </c>
+      <c r="C104" s="4">
+        <f>[1]Acide!D105</f>
+        <v>0</v>
+      </c>
+      <c r="D104" s="4">
+        <f>[1]FeCl3!D105</f>
+        <v>0</v>
+      </c>
+      <c r="E104" s="4">
+        <f>'[1]NaOCl 2 CEB 1'!H105</f>
+        <v>470.40000000000146</v>
+      </c>
+      <c r="F104" s="4">
+        <f>'[1]Soude CEB 1'!D105</f>
+        <v>0</v>
+      </c>
+      <c r="G104" s="4">
+        <f>'[1]Acide CEB2'!D105</f>
+        <v>182.39999999999947</v>
+      </c>
+      <c r="H104" s="4">
+        <f>[1]SBS!E105</f>
+        <v>1184.0000000000011</v>
+      </c>
+      <c r="I104" s="4">
+        <f>[1]ASC!D105</f>
+        <v>343.49999999999972</v>
       </c>
     </row>
   </sheetData>

--- a/Consommation spécifique.xlsx
+++ b/Consommation spécifique.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\Projects\wave2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B54F9591-48C9-43C9-97C2-85899CE67D67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{DD693D0E-2CD9-42E8-A507-69EB57892C17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{4E830341-EBCA-4A95-9BBE-9CDD49815F8C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" activeTab="1" xr2:uid="{4E830341-EBCA-4A95-9BBE-9CDD49815F8C}"/>
   </bookViews>
   <sheets>
     <sheet name="CS Produits chimiques" sheetId="1" r:id="rId1"/>
@@ -1945,6 +1945,17 @@
             <v>3.4310350665327394</v>
           </cell>
         </row>
+        <row r="106">
+          <cell r="B106">
+            <v>45761</v>
+          </cell>
+          <cell r="D106">
+            <v>211.19999999999894</v>
+          </cell>
+          <cell r="F106">
+            <v>2.0343880942060295</v>
+          </cell>
+        </row>
       </sheetData>
       <sheetData sheetId="3">
         <row r="3">
@@ -2771,6 +2782,14 @@
             <v>0</v>
           </cell>
         </row>
+        <row r="106">
+          <cell r="D106">
+            <v>0</v>
+          </cell>
+          <cell r="F106">
+            <v>0</v>
+          </cell>
+        </row>
       </sheetData>
       <sheetData sheetId="4">
         <row r="3">
@@ -3594,6 +3613,14 @@
             <v>0</v>
           </cell>
           <cell r="F105">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="106">
+          <cell r="D106">
+            <v>0</v>
+          </cell>
+          <cell r="F106">
             <v>0</v>
           </cell>
         </row>
@@ -4424,6 +4451,14 @@
             <v>5.3090753134769866</v>
           </cell>
         </row>
+        <row r="106">
+          <cell r="H106">
+            <v>358.40000000000134</v>
+          </cell>
+          <cell r="I106">
+            <v>3.4522949477435954</v>
+          </cell>
+        </row>
       </sheetData>
       <sheetData sheetId="7">
         <row r="3">
@@ -5250,6 +5285,14 @@
             <v>0</v>
           </cell>
         </row>
+        <row r="106">
+          <cell r="D106">
+            <v>0</v>
+          </cell>
+          <cell r="F106">
+            <v>0</v>
+          </cell>
+        </row>
       </sheetData>
       <sheetData sheetId="8">
         <row r="3">
@@ -6050,6 +6093,14 @@
           </cell>
           <cell r="F105">
             <v>2.0586210399196352</v>
+          </cell>
+        </row>
+        <row r="106">
+          <cell r="D106">
+            <v>76.799999999998647</v>
+          </cell>
+          <cell r="F106">
+            <v>0.73977748880218319</v>
           </cell>
         </row>
       </sheetData>
@@ -6878,6 +6929,14 @@
             <v>13.362978680180142</v>
           </cell>
         </row>
+        <row r="106">
+          <cell r="E106">
+            <v>416</v>
+          </cell>
+          <cell r="G106">
+            <v>4.0071280643452294</v>
+          </cell>
+        </row>
       </sheetData>
       <sheetData sheetId="10">
         <row r="3">
@@ -7702,6 +7761,14 @@
           </cell>
           <cell r="F105">
             <v>3.876843899190769</v>
+          </cell>
+        </row>
+        <row r="106">
+          <cell r="D106">
+            <v>333.00000000000108</v>
+          </cell>
+          <cell r="F106">
+            <v>3.2076289553532833</v>
           </cell>
         </row>
       </sheetData>
@@ -8240,6 +8307,11 @@
         <row r="108">
           <cell r="U108">
             <v>88603</v>
+          </cell>
+        </row>
+        <row r="109">
+          <cell r="U109">
+            <v>103815</v>
           </cell>
         </row>
       </sheetData>
@@ -8548,11 +8620,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BC5C344-277E-4945-8E25-AE6A0B860AD5}">
-  <dimension ref="A1:K104"/>
+  <dimension ref="A1:K105"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F17" sqref="F17"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A83" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A106" sqref="A106:XFD106"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -11956,8 +12028,6 @@
         <f>[1]ASC!F88</f>
         <v>3.7922716518996142</v>
       </c>
-      <c r="J87" s="4"/>
-      <c r="K87" s="29"/>
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A88" s="21">
@@ -11995,8 +12065,6 @@
         <f>[1]ASC!F89</f>
         <v>3.2813618646090217</v>
       </c>
-      <c r="J88" s="4"/>
-      <c r="K88" s="29"/>
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A89" s="21">
@@ -12034,8 +12102,6 @@
         <f>[1]ASC!F90</f>
         <v>3.2697547683923909</v>
       </c>
-      <c r="J89" s="4"/>
-      <c r="K89" s="29"/>
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A90" s="21">
@@ -12073,8 +12139,6 @@
         <f>[1]ASC!F91</f>
         <v>3.2047040139153982</v>
       </c>
-      <c r="J90" s="4"/>
-      <c r="K90" s="29"/>
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A91" s="21">
@@ -12112,8 +12176,6 @@
         <f>[1]ASC!F92</f>
         <v>3.2549158310311577</v>
       </c>
-      <c r="J91" s="4"/>
-      <c r="K91" s="29"/>
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A92" s="21">
@@ -12151,8 +12213,6 @@
         <f>[1]ASC!F93</f>
         <v>3.2748305877682848</v>
       </c>
-      <c r="J92" s="4"/>
-      <c r="K92" s="29"/>
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A93" s="21">
@@ -12190,8 +12250,6 @@
         <f>[1]ASC!F94</f>
         <v>3.2316589182446869</v>
       </c>
-      <c r="J93" s="4"/>
-      <c r="K93" s="29"/>
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A94" s="21">
@@ -12229,8 +12287,6 @@
         <f>[1]ASC!F95</f>
         <v>3.1522107881940538</v>
       </c>
-      <c r="J94" s="4"/>
-      <c r="K94" s="29"/>
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A95" s="21">
@@ -12268,8 +12324,6 @@
         <f>[1]ASC!F96</f>
         <v>3.3199651923877345</v>
       </c>
-      <c r="J95" s="4"/>
-      <c r="K95" s="29"/>
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A96" s="21">
@@ -12307,10 +12361,8 @@
         <f>[1]ASC!F97</f>
         <v>3.6081058817068481</v>
       </c>
-      <c r="J96" s="4"/>
-      <c r="K96" s="29"/>
-    </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="97" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A97" s="21">
         <v>45753</v>
       </c>
@@ -12346,10 +12398,8 @@
         <f>[1]ASC!F98</f>
         <v>3.9886758283952539</v>
       </c>
-      <c r="J97" s="4"/>
-      <c r="K97" s="29"/>
-    </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="98" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A98" s="21">
         <v>45754</v>
       </c>
@@ -12385,10 +12435,8 @@
         <f>[1]ASC!F99</f>
         <v>4.0185094982951659</v>
       </c>
-      <c r="J98" s="4"/>
-      <c r="K98" s="29"/>
-    </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="99" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A99" s="21">
         <v>45755</v>
       </c>
@@ -12424,10 +12472,8 @@
         <f>[1]ASC!F100</f>
         <v>3.7407281098132734</v>
       </c>
-      <c r="J99" s="4"/>
-      <c r="K99" s="29"/>
-    </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="100" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A100" s="21">
         <v>45756</v>
       </c>
@@ -12463,10 +12509,8 @@
         <f>[1]ASC!F101</f>
         <v>3.5422113519440206</v>
       </c>
-      <c r="J100" s="4"/>
-      <c r="K100" s="29"/>
-    </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="101" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A101" s="21">
         <v>45757</v>
       </c>
@@ -12502,10 +12546,8 @@
         <f>[1]ASC!F102</f>
         <v>3.3121184569424527</v>
       </c>
-      <c r="J101" s="4"/>
-      <c r="K101" s="29"/>
-    </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="102" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A102" s="21">
         <v>45758</v>
       </c>
@@ -12541,10 +12583,8 @@
         <f>[1]ASC!F103</f>
         <v>3.3753766514718375</v>
       </c>
-      <c r="J102" s="4"/>
-      <c r="K102" s="29"/>
-    </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="103" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A103" s="21">
         <v>45759</v>
       </c>
@@ -12580,10 +12620,8 @@
         <f>[1]ASC!F104</f>
         <v>3.6340476547280129</v>
       </c>
-      <c r="J103" s="4"/>
-      <c r="K103" s="29"/>
-    </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="104" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A104" s="21">
         <v>45760</v>
       </c>
@@ -12619,8 +12657,43 @@
         <f>[1]ASC!F105</f>
         <v>3.876843899190769</v>
       </c>
-      <c r="J104" s="4"/>
-      <c r="K104" s="29"/>
+    </row>
+    <row r="105" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A105" s="21">
+        <v>45761</v>
+      </c>
+      <c r="B105" s="40">
+        <f>'[1]NaOCl Pré'!F106</f>
+        <v>2.0343880942060295</v>
+      </c>
+      <c r="C105" s="4">
+        <f>[1]Acide!F106</f>
+        <v>0</v>
+      </c>
+      <c r="D105" s="4">
+        <f>[1]FeCl3!F106</f>
+        <v>0</v>
+      </c>
+      <c r="E105" s="40">
+        <f>'[1]NaOCl 2 CEB 1'!I106</f>
+        <v>3.4522949477435954</v>
+      </c>
+      <c r="F105" s="4">
+        <f>'[1]Soude CEB 1'!F106</f>
+        <v>0</v>
+      </c>
+      <c r="G105" s="40">
+        <f>'[1]Acide CEB2'!F106</f>
+        <v>0.73977748880218319</v>
+      </c>
+      <c r="H105" s="40">
+        <f>[1]SBS!G106</f>
+        <v>4.0071280643452294</v>
+      </c>
+      <c r="I105" s="40">
+        <f>[1]ASC!F106</f>
+        <v>3.2076289553532833</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -12630,10 +12703,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07CB649B-6F18-453D-B029-557EF373D866}">
-  <dimension ref="B1:H104"/>
+  <dimension ref="B1:H105"/>
   <sheetViews>
-    <sheetView topLeftCell="B85" workbookViewId="0">
-      <selection activeCell="B105" sqref="A105:XFD367"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="E111" sqref="E111"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -14201,7 +14274,7 @@
         <v>28.30000000000291</v>
       </c>
       <c r="F69" s="5">
-        <f t="shared" ref="F69:F104" si="4">(C69-C68)</f>
+        <f t="shared" ref="F69:F105" si="4">(C69-C68)</f>
         <v>274.30000000000291</v>
       </c>
       <c r="G69" s="27">
@@ -14209,7 +14282,7 @@
         <v>94813</v>
       </c>
       <c r="H69" s="6">
-        <f t="shared" ref="H69:H104" si="5">F69/G69*1000</f>
+        <f t="shared" ref="H69:H105" si="5">F69/G69*1000</f>
         <v>2.8930631875376047</v>
       </c>
     </row>
@@ -15054,7 +15127,7 @@
         <v>30366</v>
       </c>
       <c r="E101" s="8">
-        <f t="shared" ref="E101:E104" si="8">C101-D101</f>
+        <f t="shared" ref="E101:E105" si="8">C101-D101</f>
         <v>3850.0999999999985</v>
       </c>
       <c r="F101" s="5">
@@ -15124,7 +15197,7 @@
         <v>2.7935960837205203</v>
       </c>
     </row>
-    <row r="104" spans="2:8" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B104" s="12">
         <v>45760</v>
       </c>
@@ -15149,6 +15222,33 @@
       <c r="H104" s="6">
         <f t="shared" si="5"/>
         <v>2.744828053226156</v>
+      </c>
+    </row>
+    <row r="105" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B105" s="12">
+        <v>45761</v>
+      </c>
+      <c r="C105" s="4">
+        <v>35280.5</v>
+      </c>
+      <c r="D105" s="5">
+        <v>31328</v>
+      </c>
+      <c r="E105" s="8">
+        <f t="shared" si="8"/>
+        <v>3952.5</v>
+      </c>
+      <c r="F105" s="5">
+        <f t="shared" si="4"/>
+        <v>300</v>
+      </c>
+      <c r="G105" s="27">
+        <f>[2]Sheet1!U109</f>
+        <v>103815</v>
+      </c>
+      <c r="H105" s="6">
+        <f t="shared" si="5"/>
+        <v>2.889755815633579</v>
       </c>
     </row>
   </sheetData>
@@ -15158,10 +15258,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38810916-2DF0-490C-B584-F0F3D6EAB44D}">
-  <dimension ref="A1:K104"/>
+  <dimension ref="A1:K105"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A86" sqref="A86:I104"/>
+      <selection activeCell="A106" sqref="A106:XFD106"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -19079,7 +19179,7 @@
         <v>291.00000000000034</v>
       </c>
     </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A104" s="3">
         <f>'[1]NaOCl Pré'!B105</f>
         <v>45760</v>
@@ -19115,6 +19215,44 @@
       <c r="I104" s="4">
         <f>[1]ASC!D105</f>
         <v>343.49999999999972</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A105" s="3">
+        <f>'[1]NaOCl Pré'!B106</f>
+        <v>45761</v>
+      </c>
+      <c r="B105" s="23">
+        <f>'[1]NaOCl Pré'!D106</f>
+        <v>211.19999999999894</v>
+      </c>
+      <c r="C105" s="4">
+        <f>[1]Acide!D106</f>
+        <v>0</v>
+      </c>
+      <c r="D105" s="4">
+        <f>[1]FeCl3!D106</f>
+        <v>0</v>
+      </c>
+      <c r="E105" s="4">
+        <f>'[1]NaOCl 2 CEB 1'!H106</f>
+        <v>358.40000000000134</v>
+      </c>
+      <c r="F105" s="4">
+        <f>'[1]Soude CEB 1'!D106</f>
+        <v>0</v>
+      </c>
+      <c r="G105" s="4">
+        <f>'[1]Acide CEB2'!D106</f>
+        <v>76.799999999998647</v>
+      </c>
+      <c r="H105" s="4">
+        <f>[1]SBS!E106</f>
+        <v>416</v>
+      </c>
+      <c r="I105" s="4">
+        <f>[1]ASC!D106</f>
+        <v>333.00000000000108</v>
       </c>
     </row>
   </sheetData>

--- a/Consommation spécifique.xlsx
+++ b/Consommation spécifique.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\Projects\wave2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DD693D0E-2CD9-42E8-A507-69EB57892C17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02412392-C80E-4271-8938-FC9DA266CDBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" activeTab="1" xr2:uid="{4E830341-EBCA-4A95-9BBE-9CDD49815F8C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" activeTab="2" xr2:uid="{4E830341-EBCA-4A95-9BBE-9CDD49815F8C}"/>
   </bookViews>
   <sheets>
     <sheet name="CS Produits chimiques" sheetId="1" r:id="rId1"/>
@@ -93,34 +93,34 @@
     <t>Acide CIP RO (g/m3)</t>
   </si>
   <si>
-    <t>NaOCl (l/m3)</t>
-  </si>
-  <si>
-    <t>Acide (l/m3)</t>
-  </si>
-  <si>
-    <t>Coagulant (l/m3)</t>
-  </si>
-  <si>
-    <t>NaOCl CEB 1  (1+2) (l/m3)</t>
-  </si>
-  <si>
-    <t>Soude CEB1 (l/m3)</t>
-  </si>
-  <si>
-    <t>Acide CEB 2 (l/m3)</t>
-  </si>
-  <si>
-    <t>SMBS (l/m3)</t>
-  </si>
-  <si>
-    <t>Antiscalant (l/m3)</t>
-  </si>
-  <si>
     <t>Soude CIP RO (l/m3)</t>
   </si>
   <si>
     <t>Acide CIP RO (l/m3)</t>
+  </si>
+  <si>
+    <t>Antiscalant (l/j)</t>
+  </si>
+  <si>
+    <t>SMBS (l/j)</t>
+  </si>
+  <si>
+    <t>Acide CEB 2 (l/j)</t>
+  </si>
+  <si>
+    <t>Soude CEB1 (l/j)</t>
+  </si>
+  <si>
+    <t>NaOCl CEB 1  (1+2) (l/j)</t>
+  </si>
+  <si>
+    <t>Coagulant (l/j)</t>
+  </si>
+  <si>
+    <t>Acide (l/j)</t>
+  </si>
+  <si>
+    <t>NaOCl (l/j)</t>
   </si>
 </sst>
 </file>
@@ -812,8 +812,8 @@
       <sheetName val="Approvisionnement"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
+      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="1" refreshError="1"/>
       <sheetData sheetId="2">
         <row r="3">
           <cell r="B3">
@@ -1956,6 +1956,72 @@
             <v>2.0343880942060295</v>
           </cell>
         </row>
+        <row r="107">
+          <cell r="B107">
+            <v>45762</v>
+          </cell>
+          <cell r="D107">
+            <v>204.80000000000052</v>
+          </cell>
+          <cell r="F107">
+            <v>2.104008711911078</v>
+          </cell>
+        </row>
+        <row r="108">
+          <cell r="B108">
+            <v>45763</v>
+          </cell>
+          <cell r="D108">
+            <v>220.80000000000055</v>
+          </cell>
+          <cell r="F108">
+            <v>2.2988505747126493</v>
+          </cell>
+        </row>
+        <row r="109">
+          <cell r="B109">
+            <v>45764</v>
+          </cell>
+          <cell r="D109">
+            <v>243.19999999999897</v>
+          </cell>
+          <cell r="F109">
+            <v>2.5109181576963873</v>
+          </cell>
+        </row>
+        <row r="110">
+          <cell r="B110">
+            <v>45765</v>
+          </cell>
+          <cell r="D110">
+            <v>268.80000000000058</v>
+          </cell>
+          <cell r="F110">
+            <v>2.6998523518245152</v>
+          </cell>
+        </row>
+        <row r="111">
+          <cell r="B111">
+            <v>45766</v>
+          </cell>
+          <cell r="D111">
+            <v>112.0000000000001</v>
+          </cell>
+          <cell r="F111">
+            <v>1.2029558343357976</v>
+          </cell>
+        </row>
+        <row r="112">
+          <cell r="B112">
+            <v>45767</v>
+          </cell>
+          <cell r="D112">
+            <v>163.19999999999979</v>
+          </cell>
+          <cell r="F112">
+            <v>1.6728338748859644</v>
+          </cell>
+        </row>
       </sheetData>
       <sheetData sheetId="3">
         <row r="3">
@@ -2790,6 +2856,54 @@
             <v>0</v>
           </cell>
         </row>
+        <row r="107">
+          <cell r="D107">
+            <v>0</v>
+          </cell>
+          <cell r="F107">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="108">
+          <cell r="D108">
+            <v>0</v>
+          </cell>
+          <cell r="F108">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="109">
+          <cell r="D109">
+            <v>0</v>
+          </cell>
+          <cell r="F109">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="110">
+          <cell r="D110">
+            <v>0</v>
+          </cell>
+          <cell r="F110">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="111">
+          <cell r="D111">
+            <v>0</v>
+          </cell>
+          <cell r="F111">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="112">
+          <cell r="D112">
+            <v>0</v>
+          </cell>
+          <cell r="F112">
+            <v>0</v>
+          </cell>
+        </row>
       </sheetData>
       <sheetData sheetId="4">
         <row r="3">
@@ -3624,8 +3738,56 @@
             <v>0</v>
           </cell>
         </row>
+        <row r="107">
+          <cell r="D107">
+            <v>0</v>
+          </cell>
+          <cell r="F107">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="108">
+          <cell r="D108">
+            <v>0</v>
+          </cell>
+          <cell r="F108">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="109">
+          <cell r="D109">
+            <v>0</v>
+          </cell>
+          <cell r="F109">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="110">
+          <cell r="D110">
+            <v>0</v>
+          </cell>
+          <cell r="F110">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="111">
+          <cell r="D111">
+            <v>0</v>
+          </cell>
+          <cell r="F111">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="112">
+          <cell r="D112">
+            <v>0</v>
+          </cell>
+          <cell r="F112">
+            <v>0</v>
+          </cell>
+        </row>
       </sheetData>
-      <sheetData sheetId="5"/>
+      <sheetData sheetId="5" refreshError="1"/>
       <sheetData sheetId="6">
         <row r="3">
           <cell r="H3">
@@ -4459,6 +4621,54 @@
             <v>3.4522949477435954</v>
           </cell>
         </row>
+        <row r="107">
+          <cell r="H107">
+            <v>662.39999999999986</v>
+          </cell>
+          <cell r="I107">
+            <v>6.8051531775873748</v>
+          </cell>
+        </row>
+        <row r="108">
+          <cell r="H108">
+            <v>588.79999999999905</v>
+          </cell>
+          <cell r="I108">
+            <v>6.130268199233706</v>
+          </cell>
+        </row>
+        <row r="109">
+          <cell r="H109">
+            <v>643.20000000000198</v>
+          </cell>
+          <cell r="I109">
+            <v>6.6407177591707569</v>
+          </cell>
+        </row>
+        <row r="110">
+          <cell r="H110">
+            <v>463.99999999999682</v>
+          </cell>
+          <cell r="I110">
+            <v>4.6604594168398954</v>
+          </cell>
+        </row>
+        <row r="111">
+          <cell r="H111">
+            <v>393.60000000000105</v>
+          </cell>
+          <cell r="I111">
+            <v>4.2275305035229538</v>
+          </cell>
+        </row>
+        <row r="112">
+          <cell r="H112">
+            <v>476.80000000000075</v>
+          </cell>
+          <cell r="I112">
+            <v>4.8872989678041057</v>
+          </cell>
+        </row>
       </sheetData>
       <sheetData sheetId="7">
         <row r="3">
@@ -5293,6 +5503,54 @@
             <v>0</v>
           </cell>
         </row>
+        <row r="107">
+          <cell r="D107">
+            <v>0</v>
+          </cell>
+          <cell r="F107">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="108">
+          <cell r="D108">
+            <v>0</v>
+          </cell>
+          <cell r="F108">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="109">
+          <cell r="D109">
+            <v>0</v>
+          </cell>
+          <cell r="F109">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="110">
+          <cell r="D110">
+            <v>0</v>
+          </cell>
+          <cell r="F110">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="111">
+          <cell r="D111">
+            <v>0</v>
+          </cell>
+          <cell r="F111">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="112">
+          <cell r="D112">
+            <v>0</v>
+          </cell>
+          <cell r="F112">
+            <v>0</v>
+          </cell>
+        </row>
       </sheetData>
       <sheetData sheetId="8">
         <row r="3">
@@ -5544,73 +5802,61 @@
           </cell>
         </row>
         <row r="34">
-          <cell r="D34"/>
           <cell r="F34">
             <v>0</v>
           </cell>
         </row>
         <row r="35">
-          <cell r="D35"/>
           <cell r="F35">
             <v>0</v>
           </cell>
         </row>
         <row r="36">
-          <cell r="D36"/>
           <cell r="F36">
             <v>0</v>
           </cell>
         </row>
         <row r="37">
-          <cell r="D37"/>
           <cell r="F37">
             <v>0</v>
           </cell>
         </row>
         <row r="38">
-          <cell r="D38"/>
           <cell r="F38">
             <v>0</v>
           </cell>
         </row>
         <row r="39">
-          <cell r="D39"/>
           <cell r="F39">
             <v>0</v>
           </cell>
         </row>
         <row r="40">
-          <cell r="D40"/>
           <cell r="F40">
             <v>0</v>
           </cell>
         </row>
         <row r="41">
-          <cell r="D41"/>
           <cell r="F41">
             <v>0</v>
           </cell>
         </row>
         <row r="42">
-          <cell r="D42"/>
           <cell r="F42">
             <v>0</v>
           </cell>
         </row>
         <row r="43">
-          <cell r="D43"/>
           <cell r="F43">
             <v>0</v>
           </cell>
         </row>
         <row r="44">
-          <cell r="D44"/>
           <cell r="F44">
             <v>0</v>
           </cell>
         </row>
         <row r="45">
-          <cell r="D45"/>
           <cell r="F45">
             <v>0</v>
           </cell>
@@ -6101,6 +6347,54 @@
           </cell>
           <cell r="F106">
             <v>0.73977748880218319</v>
+          </cell>
+        </row>
+        <row r="107">
+          <cell r="D107">
+            <v>137.59999999999906</v>
+          </cell>
+          <cell r="F107">
+            <v>1.4136308533152424</v>
+          </cell>
+        </row>
+        <row r="108">
+          <cell r="D108">
+            <v>150.40000000000299</v>
+          </cell>
+          <cell r="F108">
+            <v>1.5658837248042956</v>
+          </cell>
+        </row>
+        <row r="109">
+          <cell r="D109">
+            <v>102.39999999999938</v>
+          </cell>
+          <cell r="F109">
+            <v>1.0572286979774241</v>
+          </cell>
+        </row>
+        <row r="110">
+          <cell r="D110">
+            <v>143.99999999999835</v>
+          </cell>
+          <cell r="F110">
+            <v>1.4463494741916851</v>
+          </cell>
+        </row>
+        <row r="111">
+          <cell r="D111">
+            <v>265.59999999999917</v>
+          </cell>
+          <cell r="F111">
+            <v>2.8527238357105942</v>
+          </cell>
+        </row>
+        <row r="112">
+          <cell r="D112">
+            <v>-19.199999999997885</v>
+          </cell>
+          <cell r="F112">
+            <v>-0.19680398528068027</v>
           </cell>
         </row>
       </sheetData>
@@ -6937,6 +7231,51 @@
             <v>4.0071280643452294</v>
           </cell>
         </row>
+        <row r="107">
+          <cell r="E107">
+            <v>585.6</v>
+          </cell>
+          <cell r="G107">
+            <v>6.0161499106207241</v>
+          </cell>
+        </row>
+        <row r="108">
+          <cell r="E108">
+            <v>845</v>
+          </cell>
+          <cell r="G108">
+            <v>8.7976844910877912</v>
+          </cell>
+        </row>
+        <row r="109">
+          <cell r="E109">
+            <v>803</v>
+          </cell>
+          <cell r="G109">
+            <v>8.2905726999597338</v>
+          </cell>
+        </row>
+        <row r="110">
+          <cell r="G110">
+            <v>-13.88495495224034</v>
+          </cell>
+        </row>
+        <row r="111">
+          <cell r="E111">
+            <v>512.00000000000045</v>
+          </cell>
+          <cell r="G111">
+            <v>5.4992266712493603</v>
+          </cell>
+        </row>
+        <row r="112">
+          <cell r="E112">
+            <v>352.00000000000034</v>
+          </cell>
+          <cell r="G112">
+            <v>3.608073063479539</v>
+          </cell>
+        </row>
       </sheetData>
       <sheetData sheetId="10">
         <row r="3">
@@ -7771,10 +8110,55 @@
             <v>3.2076289553532833</v>
           </cell>
         </row>
+        <row r="107">
+          <cell r="D107">
+            <v>353.9999999999992</v>
+          </cell>
+          <cell r="F107">
+            <v>3.6368119336744047</v>
+          </cell>
+        </row>
+        <row r="108">
+          <cell r="D108">
+            <v>358.50000000000028</v>
+          </cell>
+          <cell r="F108">
+            <v>3.732508745627189</v>
+          </cell>
+        </row>
+        <row r="109">
+          <cell r="D109">
+            <v>343.5</v>
+          </cell>
+          <cell r="F109">
+            <v>3.546465407766088</v>
+          </cell>
+        </row>
+        <row r="110">
+          <cell r="F110">
+            <v>-13.31846807484858</v>
+          </cell>
+        </row>
+        <row r="111">
+          <cell r="D111">
+            <v>335.99999999999943</v>
+          </cell>
+          <cell r="F111">
+            <v>3.6088675030073833</v>
+          </cell>
+        </row>
+        <row r="112">
+          <cell r="D112">
+            <v>349.49999999999903</v>
+          </cell>
+          <cell r="F112">
+            <v>3.5824475445627675</v>
+          </cell>
+        </row>
       </sheetData>
-      <sheetData sheetId="11"/>
-      <sheetData sheetId="12"/>
-      <sheetData sheetId="13"/>
+      <sheetData sheetId="11" refreshError="1"/>
+      <sheetData sheetId="12" refreshError="1"/>
+      <sheetData sheetId="13" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -8314,10 +8698,40 @@
             <v>103815</v>
           </cell>
         </row>
+        <row r="110">
+          <cell r="U110">
+            <v>97338</v>
+          </cell>
+        </row>
+        <row r="111">
+          <cell r="U111">
+            <v>96048</v>
+          </cell>
+        </row>
+        <row r="112">
+          <cell r="U112">
+            <v>96857</v>
+          </cell>
+        </row>
+        <row r="113">
+          <cell r="U113">
+            <v>99561</v>
+          </cell>
+        </row>
+        <row r="114">
+          <cell r="U114">
+            <v>93104</v>
+          </cell>
+        </row>
+        <row r="115">
+          <cell r="U115">
+            <v>97559</v>
+          </cell>
+        </row>
       </sheetData>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
+      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="3" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -8620,11 +9034,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BC5C344-277E-4945-8E25-AE6A0B860AD5}">
-  <dimension ref="A1:K105"/>
+  <dimension ref="A1:K111"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A83" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A106" sqref="A106:XFD106"/>
+      <pane ySplit="1" topLeftCell="A64" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A86" sqref="A86:K111"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -12028,6 +12442,8 @@
         <f>[1]ASC!F88</f>
         <v>3.7922716518996142</v>
       </c>
+      <c r="J87" s="4"/>
+      <c r="K87" s="29"/>
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A88" s="21">
@@ -12065,6 +12481,8 @@
         <f>[1]ASC!F89</f>
         <v>3.2813618646090217</v>
       </c>
+      <c r="J88" s="4"/>
+      <c r="K88" s="29"/>
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A89" s="21">
@@ -12102,6 +12520,8 @@
         <f>[1]ASC!F90</f>
         <v>3.2697547683923909</v>
       </c>
+      <c r="J89" s="4"/>
+      <c r="K89" s="29"/>
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A90" s="21">
@@ -12139,6 +12559,8 @@
         <f>[1]ASC!F91</f>
         <v>3.2047040139153982</v>
       </c>
+      <c r="J90" s="4"/>
+      <c r="K90" s="29"/>
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A91" s="21">
@@ -12176,6 +12598,8 @@
         <f>[1]ASC!F92</f>
         <v>3.2549158310311577</v>
       </c>
+      <c r="J91" s="4"/>
+      <c r="K91" s="29"/>
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A92" s="21">
@@ -12213,6 +12637,8 @@
         <f>[1]ASC!F93</f>
         <v>3.2748305877682848</v>
       </c>
+      <c r="J92" s="4"/>
+      <c r="K92" s="29"/>
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A93" s="21">
@@ -12250,6 +12676,8 @@
         <f>[1]ASC!F94</f>
         <v>3.2316589182446869</v>
       </c>
+      <c r="J93" s="4"/>
+      <c r="K93" s="29"/>
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A94" s="21">
@@ -12287,6 +12715,8 @@
         <f>[1]ASC!F95</f>
         <v>3.1522107881940538</v>
       </c>
+      <c r="J94" s="4"/>
+      <c r="K94" s="29"/>
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A95" s="21">
@@ -12324,6 +12754,8 @@
         <f>[1]ASC!F96</f>
         <v>3.3199651923877345</v>
       </c>
+      <c r="J95" s="4"/>
+      <c r="K95" s="29"/>
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A96" s="21">
@@ -12361,8 +12793,10 @@
         <f>[1]ASC!F97</f>
         <v>3.6081058817068481</v>
       </c>
-    </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J96" s="4"/>
+      <c r="K96" s="29"/>
+    </row>
+    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A97" s="21">
         <v>45753</v>
       </c>
@@ -12398,8 +12832,10 @@
         <f>[1]ASC!F98</f>
         <v>3.9886758283952539</v>
       </c>
-    </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J97" s="4"/>
+      <c r="K97" s="29"/>
+    </row>
+    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A98" s="21">
         <v>45754</v>
       </c>
@@ -12435,8 +12871,10 @@
         <f>[1]ASC!F99</f>
         <v>4.0185094982951659</v>
       </c>
-    </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J98" s="4"/>
+      <c r="K98" s="29"/>
+    </row>
+    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A99" s="21">
         <v>45755</v>
       </c>
@@ -12472,8 +12910,10 @@
         <f>[1]ASC!F100</f>
         <v>3.7407281098132734</v>
       </c>
-    </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J99" s="4"/>
+      <c r="K99" s="29"/>
+    </row>
+    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A100" s="21">
         <v>45756</v>
       </c>
@@ -12509,8 +12949,10 @@
         <f>[1]ASC!F101</f>
         <v>3.5422113519440206</v>
       </c>
-    </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J100" s="4"/>
+      <c r="K100" s="29"/>
+    </row>
+    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A101" s="21">
         <v>45757</v>
       </c>
@@ -12546,8 +12988,10 @@
         <f>[1]ASC!F102</f>
         <v>3.3121184569424527</v>
       </c>
-    </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J101" s="4"/>
+      <c r="K101" s="29"/>
+    </row>
+    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A102" s="21">
         <v>45758</v>
       </c>
@@ -12583,8 +13027,10 @@
         <f>[1]ASC!F103</f>
         <v>3.3753766514718375</v>
       </c>
-    </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J102" s="4"/>
+      <c r="K102" s="29"/>
+    </row>
+    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A103" s="21">
         <v>45759</v>
       </c>
@@ -12620,8 +13066,10 @@
         <f>[1]ASC!F104</f>
         <v>3.6340476547280129</v>
       </c>
-    </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J103" s="4"/>
+      <c r="K103" s="29"/>
+    </row>
+    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A104" s="21">
         <v>45760</v>
       </c>
@@ -12657,8 +13105,10 @@
         <f>[1]ASC!F105</f>
         <v>3.876843899190769</v>
       </c>
-    </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J104" s="4"/>
+      <c r="K104" s="29"/>
+    </row>
+    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A105" s="21">
         <v>45761</v>
       </c>
@@ -12694,6 +13144,242 @@
         <f>[1]ASC!F106</f>
         <v>3.2076289553532833</v>
       </c>
+      <c r="J105" s="4"/>
+      <c r="K105" s="29"/>
+    </row>
+    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A106" s="21">
+        <v>45762</v>
+      </c>
+      <c r="B106" s="40">
+        <f>'[1]NaOCl Pré'!F107</f>
+        <v>2.104008711911078</v>
+      </c>
+      <c r="C106" s="4">
+        <f>[1]Acide!F107</f>
+        <v>0</v>
+      </c>
+      <c r="D106" s="4">
+        <f>[1]FeCl3!F107</f>
+        <v>0</v>
+      </c>
+      <c r="E106" s="40">
+        <f>'[1]NaOCl 2 CEB 1'!I107</f>
+        <v>6.8051531775873748</v>
+      </c>
+      <c r="F106" s="4">
+        <f>'[1]Soude CEB 1'!F107</f>
+        <v>0</v>
+      </c>
+      <c r="G106" s="40">
+        <f>'[1]Acide CEB2'!F107</f>
+        <v>1.4136308533152424</v>
+      </c>
+      <c r="H106" s="40">
+        <f>[1]SBS!G107</f>
+        <v>6.0161499106207241</v>
+      </c>
+      <c r="I106" s="40">
+        <f>[1]ASC!F107</f>
+        <v>3.6368119336744047</v>
+      </c>
+      <c r="J106" s="4"/>
+      <c r="K106" s="29"/>
+    </row>
+    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A107" s="21">
+        <v>45763</v>
+      </c>
+      <c r="B107" s="40">
+        <f>'[1]NaOCl Pré'!F108</f>
+        <v>2.2988505747126493</v>
+      </c>
+      <c r="C107" s="4">
+        <f>[1]Acide!F108</f>
+        <v>0</v>
+      </c>
+      <c r="D107" s="4">
+        <f>[1]FeCl3!F108</f>
+        <v>0</v>
+      </c>
+      <c r="E107" s="40">
+        <f>'[1]NaOCl 2 CEB 1'!I108</f>
+        <v>6.130268199233706</v>
+      </c>
+      <c r="F107" s="4">
+        <f>'[1]Soude CEB 1'!F108</f>
+        <v>0</v>
+      </c>
+      <c r="G107" s="40">
+        <f>'[1]Acide CEB2'!F108</f>
+        <v>1.5658837248042956</v>
+      </c>
+      <c r="H107" s="40">
+        <f>[1]SBS!G108</f>
+        <v>8.7976844910877912</v>
+      </c>
+      <c r="I107" s="40">
+        <f>[1]ASC!F108</f>
+        <v>3.732508745627189</v>
+      </c>
+      <c r="J107" s="4"/>
+      <c r="K107" s="29"/>
+    </row>
+    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A108" s="21">
+        <v>45764</v>
+      </c>
+      <c r="B108" s="40">
+        <f>'[1]NaOCl Pré'!F109</f>
+        <v>2.5109181576963873</v>
+      </c>
+      <c r="C108" s="4">
+        <f>[1]Acide!F109</f>
+        <v>0</v>
+      </c>
+      <c r="D108" s="4">
+        <f>[1]FeCl3!F109</f>
+        <v>0</v>
+      </c>
+      <c r="E108" s="40">
+        <f>'[1]NaOCl 2 CEB 1'!I109</f>
+        <v>6.6407177591707569</v>
+      </c>
+      <c r="F108" s="4">
+        <f>'[1]Soude CEB 1'!F109</f>
+        <v>0</v>
+      </c>
+      <c r="G108" s="40">
+        <f>'[1]Acide CEB2'!F109</f>
+        <v>1.0572286979774241</v>
+      </c>
+      <c r="H108" s="40">
+        <f>[1]SBS!G109</f>
+        <v>8.2905726999597338</v>
+      </c>
+      <c r="I108" s="40">
+        <f>[1]ASC!F109</f>
+        <v>3.546465407766088</v>
+      </c>
+      <c r="J108" s="4"/>
+      <c r="K108" s="29"/>
+    </row>
+    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A109" s="21">
+        <v>45765</v>
+      </c>
+      <c r="B109" s="40">
+        <f>'[1]NaOCl Pré'!F110</f>
+        <v>2.6998523518245152</v>
+      </c>
+      <c r="C109" s="4">
+        <f>[1]Acide!F110</f>
+        <v>0</v>
+      </c>
+      <c r="D109" s="4">
+        <f>[1]FeCl3!F110</f>
+        <v>0</v>
+      </c>
+      <c r="E109" s="40">
+        <f>'[1]NaOCl 2 CEB 1'!I110</f>
+        <v>4.6604594168398954</v>
+      </c>
+      <c r="F109" s="4">
+        <f>'[1]Soude CEB 1'!F110</f>
+        <v>0</v>
+      </c>
+      <c r="G109" s="40">
+        <f>'[1]Acide CEB2'!F110</f>
+        <v>1.4463494741916851</v>
+      </c>
+      <c r="H109" s="40">
+        <f>[1]SBS!G110</f>
+        <v>-13.88495495224034</v>
+      </c>
+      <c r="I109" s="40">
+        <f>[1]ASC!F110</f>
+        <v>-13.31846807484858</v>
+      </c>
+      <c r="J109" s="4"/>
+      <c r="K109" s="29"/>
+    </row>
+    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A110" s="21">
+        <v>45766</v>
+      </c>
+      <c r="B110" s="40">
+        <f>'[1]NaOCl Pré'!F111</f>
+        <v>1.2029558343357976</v>
+      </c>
+      <c r="C110" s="4">
+        <f>[1]Acide!F111</f>
+        <v>0</v>
+      </c>
+      <c r="D110" s="4">
+        <f>[1]FeCl3!F111</f>
+        <v>0</v>
+      </c>
+      <c r="E110" s="40">
+        <f>'[1]NaOCl 2 CEB 1'!I111</f>
+        <v>4.2275305035229538</v>
+      </c>
+      <c r="F110" s="4">
+        <f>'[1]Soude CEB 1'!F111</f>
+        <v>0</v>
+      </c>
+      <c r="G110" s="40">
+        <f>'[1]Acide CEB2'!F111</f>
+        <v>2.8527238357105942</v>
+      </c>
+      <c r="H110" s="40">
+        <f>[1]SBS!G111</f>
+        <v>5.4992266712493603</v>
+      </c>
+      <c r="I110" s="40">
+        <f>[1]ASC!F111</f>
+        <v>3.6088675030073833</v>
+      </c>
+      <c r="J110" s="4"/>
+      <c r="K110" s="29"/>
+    </row>
+    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A111" s="21">
+        <v>45767</v>
+      </c>
+      <c r="B111" s="40">
+        <f>'[1]NaOCl Pré'!F112</f>
+        <v>1.6728338748859644</v>
+      </c>
+      <c r="C111" s="4">
+        <f>[1]Acide!F112</f>
+        <v>0</v>
+      </c>
+      <c r="D111" s="4">
+        <f>[1]FeCl3!F112</f>
+        <v>0</v>
+      </c>
+      <c r="E111" s="40">
+        <f>'[1]NaOCl 2 CEB 1'!I112</f>
+        <v>4.8872989678041057</v>
+      </c>
+      <c r="F111" s="4">
+        <f>'[1]Soude CEB 1'!F112</f>
+        <v>0</v>
+      </c>
+      <c r="G111" s="40">
+        <f>'[1]Acide CEB2'!F112</f>
+        <v>-0.19680398528068027</v>
+      </c>
+      <c r="H111" s="40">
+        <f>[1]SBS!G112</f>
+        <v>3.608073063479539</v>
+      </c>
+      <c r="I111" s="40">
+        <f>[1]ASC!F112</f>
+        <v>3.5824475445627675</v>
+      </c>
+      <c r="J111" s="4"/>
+      <c r="K111" s="29"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -12703,2552 +13389,2713 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07CB649B-6F18-453D-B029-557EF373D866}">
-  <dimension ref="B1:H105"/>
+  <dimension ref="A1:G111"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E111" sqref="E111"/>
+    <sheetView topLeftCell="A77" workbookViewId="0">
+      <selection activeCell="A77" sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5.6640625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="11.44140625" style="2"/>
-    <col min="3" max="5" width="13.5546875" style="2" customWidth="1"/>
-    <col min="6" max="6" width="15.109375" style="2" customWidth="1"/>
-    <col min="7" max="16384" width="11.44140625" style="2"/>
+    <col min="1" max="1" width="11.44140625" style="2"/>
+    <col min="2" max="4" width="13.5546875" style="2" customWidth="1"/>
+    <col min="5" max="5" width="15.109375" style="2" customWidth="1"/>
+    <col min="6" max="16384" width="11.44140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" ht="59.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" ht="59.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="11" t="s">
+        <v>2</v>
+      </c>
       <c r="B1" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" s="11" t="s">
         <v>4</v>
       </c>
+      <c r="C1" s="16" t="s">
+        <v>5</v>
+      </c>
       <c r="D1" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="E1" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="11" t="s">
+      <c r="E1" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="H1" s="13" t="s">
+      <c r="F1" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="G1" s="13" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B2" s="32">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" s="32">
         <v>45658</v>
       </c>
-      <c r="C2" s="34">
+      <c r="B2" s="34">
         <v>11077.9</v>
       </c>
+      <c r="C2" s="36"/>
       <c r="D2" s="36"/>
-      <c r="E2" s="36"/>
+      <c r="E2" s="18">
+        <v>163.69999999999999</v>
+      </c>
       <c r="F2" s="18">
-        <v>163.69999999999999</v>
-      </c>
-      <c r="G2" s="18">
         <f>[2]Sheet1!U6</f>
         <v>53174</v>
       </c>
-      <c r="H2" s="22">
-        <f t="shared" ref="H2" si="0">F2/G2</f>
+      <c r="G2" s="22">
+        <f t="shared" ref="G2" si="0">E2/F2</f>
         <v>3.0785722345507199E-3</v>
       </c>
     </row>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B3" s="12">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" s="12">
         <v>45659</v>
       </c>
-      <c r="C3" s="4">
+      <c r="B3" s="4">
         <v>11236.4</v>
       </c>
+      <c r="C3" s="8"/>
       <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="5">
-        <f>(C3-C2)</f>
+      <c r="E3" s="5">
+        <f>(B3-B2)</f>
         <v>158.5</v>
       </c>
-      <c r="G3" s="10">
+      <c r="F3" s="10">
         <f>[2]Sheet1!U7</f>
         <v>53766</v>
       </c>
-      <c r="H3" s="6">
-        <f>F3/G3*1000</f>
+      <c r="G3" s="6">
+        <f>E3/F3*1000</f>
         <v>2.9479596771193695</v>
       </c>
     </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B4" s="31">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" s="31">
         <v>45660</v>
       </c>
-      <c r="C4" s="4">
+      <c r="B4" s="4">
         <v>11380.2</v>
       </c>
+      <c r="C4" s="8"/>
       <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="5">
-        <f>(C4-C3)</f>
+      <c r="E4" s="5">
+        <f>(B4-B3)</f>
         <v>143.80000000000109</v>
       </c>
-      <c r="G4" s="8">
+      <c r="F4" s="8">
         <f>[2]Sheet1!U8</f>
         <v>48641</v>
       </c>
-      <c r="H4" s="6">
-        <f>F4/G4*1000</f>
+      <c r="G4" s="6">
+        <f>E4/F4*1000</f>
         <v>2.9563536933862604</v>
       </c>
     </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B5" s="19">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" s="19">
         <v>45661</v>
       </c>
-      <c r="C5" s="4">
+      <c r="B5" s="4">
         <v>11525</v>
       </c>
+      <c r="C5" s="8"/>
       <c r="D5" s="8"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="5">
-        <f t="shared" ref="F5:F68" si="1">(C5-C4)</f>
+      <c r="E5" s="5">
+        <f t="shared" ref="E5:E68" si="1">(B5-B4)</f>
         <v>144.79999999999927</v>
       </c>
-      <c r="G5" s="15">
+      <c r="F5" s="15">
         <f>[2]Sheet1!U9</f>
         <v>47464</v>
       </c>
-      <c r="H5" s="6">
-        <f t="shared" ref="H5:H68" si="2">F5/G5*1000</f>
+      <c r="G5" s="6">
+        <f t="shared" ref="G5:G68" si="2">E5/F5*1000</f>
         <v>3.0507331872576957</v>
       </c>
     </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B6" s="19">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" s="19">
         <v>45662</v>
       </c>
-      <c r="C6" s="4">
+      <c r="B6" s="4">
         <v>11694</v>
       </c>
+      <c r="C6" s="8"/>
       <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="5">
+      <c r="E6" s="5">
         <f t="shared" si="1"/>
         <v>169</v>
       </c>
-      <c r="G6" s="8">
+      <c r="F6" s="8">
         <f>[2]Sheet1!U10</f>
         <v>57975</v>
       </c>
-      <c r="H6" s="6">
+      <c r="G6" s="6">
         <f t="shared" si="2"/>
         <v>2.9150495903406641</v>
       </c>
     </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B7" s="19">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" s="19">
         <v>45663</v>
       </c>
-      <c r="C7" s="4">
+      <c r="B7" s="4">
         <v>11862.8</v>
       </c>
+      <c r="C7" s="8"/>
       <c r="D7" s="8"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="5">
+      <c r="E7" s="5">
         <f t="shared" si="1"/>
         <v>168.79999999999927</v>
       </c>
-      <c r="G7" s="15">
+      <c r="F7" s="15">
         <f>[2]Sheet1!U11</f>
         <v>58341</v>
       </c>
-      <c r="H7" s="6">
+      <c r="G7" s="6">
         <f t="shared" si="2"/>
         <v>2.8933340189574963</v>
       </c>
     </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B8" s="19">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" s="19">
         <v>45664</v>
       </c>
-      <c r="C8" s="4">
+      <c r="B8" s="4">
         <v>12009.8</v>
       </c>
+      <c r="C8" s="8"/>
       <c r="D8" s="8"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="5">
+      <c r="E8" s="5">
         <f t="shared" si="1"/>
         <v>147</v>
       </c>
-      <c r="G8" s="8">
+      <c r="F8" s="8">
         <f>[2]Sheet1!U12</f>
         <v>52934</v>
       </c>
-      <c r="H8" s="6">
+      <c r="G8" s="6">
         <f t="shared" si="2"/>
         <v>2.7770431102882838</v>
       </c>
     </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B9" s="19">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" s="19">
         <v>45665</v>
       </c>
-      <c r="C9" s="4">
+      <c r="B9" s="4">
         <v>12183</v>
       </c>
+      <c r="C9" s="8"/>
       <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="5">
+      <c r="E9" s="5">
         <f t="shared" si="1"/>
         <v>173.20000000000073</v>
       </c>
-      <c r="G9" s="15">
+      <c r="F9" s="15">
         <f>[2]Sheet1!U13</f>
         <v>50448</v>
       </c>
-      <c r="H9" s="6">
+      <c r="G9" s="6">
         <f t="shared" si="2"/>
         <v>3.4332381858547558</v>
       </c>
     </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B10" s="19">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10" s="19">
         <v>45666</v>
       </c>
-      <c r="C10" s="4">
+      <c r="B10" s="4">
         <v>12354.3</v>
       </c>
+      <c r="C10" s="8"/>
       <c r="D10" s="8"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="5">
+      <c r="E10" s="5">
         <f t="shared" si="1"/>
         <v>171.29999999999927</v>
       </c>
-      <c r="G10" s="8">
+      <c r="F10" s="8">
         <f>[2]Sheet1!U14</f>
         <v>65465</v>
       </c>
-      <c r="H10" s="6">
+      <c r="G10" s="6">
         <f t="shared" si="2"/>
         <v>2.6166653937218247</v>
       </c>
     </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B11" s="19">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11" s="19">
         <v>45667</v>
       </c>
-      <c r="C11" s="4">
+      <c r="B11" s="4">
         <v>12526.7</v>
       </c>
+      <c r="C11" s="8"/>
       <c r="D11" s="8"/>
-      <c r="E11" s="8"/>
-      <c r="F11" s="5">
+      <c r="E11" s="5">
         <f t="shared" si="1"/>
         <v>172.40000000000146</v>
       </c>
-      <c r="G11" s="15">
+      <c r="F11" s="15">
         <f>[2]Sheet1!U15</f>
         <v>58423</v>
       </c>
-      <c r="H11" s="6">
+      <c r="G11" s="6">
         <f t="shared" si="2"/>
         <v>2.9508926279034191</v>
       </c>
     </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B12" s="19">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12" s="19">
         <v>45668</v>
       </c>
-      <c r="C12" s="4">
+      <c r="B12" s="4">
         <v>12693.5</v>
       </c>
+      <c r="C12" s="8"/>
       <c r="D12" s="8"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="5">
+      <c r="E12" s="5">
         <f t="shared" si="1"/>
         <v>166.79999999999927</v>
       </c>
-      <c r="G12" s="8">
+      <c r="F12" s="8">
         <f>[2]Sheet1!U16</f>
         <v>56419</v>
       </c>
-      <c r="H12" s="6">
+      <c r="G12" s="6">
         <f t="shared" si="2"/>
         <v>2.9564508410287185</v>
       </c>
     </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B13" s="19">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13" s="19">
         <v>45669</v>
       </c>
-      <c r="C13" s="4">
+      <c r="B13" s="4">
         <v>12864.4</v>
       </c>
+      <c r="C13" s="8"/>
       <c r="D13" s="8"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="5">
+      <c r="E13" s="5">
         <f t="shared" si="1"/>
         <v>170.89999999999964</v>
       </c>
-      <c r="G13" s="15">
+      <c r="F13" s="15">
         <f>[2]Sheet1!U17</f>
         <v>58678</v>
       </c>
-      <c r="H13" s="6">
+      <c r="G13" s="6">
         <f t="shared" si="2"/>
         <v>2.9125055387027445</v>
       </c>
     </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B14" s="19">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14" s="19">
         <v>45670</v>
       </c>
-      <c r="C14" s="4">
+      <c r="B14" s="4">
         <v>13037.4</v>
       </c>
+      <c r="C14" s="8"/>
       <c r="D14" s="8"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="5">
+      <c r="E14" s="5">
         <f t="shared" si="1"/>
         <v>173</v>
       </c>
-      <c r="G14" s="8">
+      <c r="F14" s="8">
         <f>[2]Sheet1!U18</f>
         <v>58205</v>
       </c>
-      <c r="H14" s="6">
+      <c r="G14" s="6">
         <f t="shared" si="2"/>
         <v>2.9722532428485526</v>
       </c>
     </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B15" s="19">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15" s="19">
         <v>45671</v>
       </c>
-      <c r="C15" s="4">
+      <c r="B15" s="4">
         <v>13208.3</v>
       </c>
+      <c r="C15" s="8"/>
       <c r="D15" s="8"/>
-      <c r="E15" s="8"/>
-      <c r="F15" s="5">
+      <c r="E15" s="5">
         <f t="shared" si="1"/>
         <v>170.89999999999964</v>
       </c>
-      <c r="G15" s="15">
+      <c r="F15" s="15">
         <f>[2]Sheet1!U19</f>
         <v>57968</v>
       </c>
-      <c r="H15" s="6">
+      <c r="G15" s="6">
         <f t="shared" si="2"/>
         <v>2.9481783052718677</v>
       </c>
     </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B16" s="19">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A16" s="19">
         <v>45672</v>
       </c>
-      <c r="C16" s="4">
+      <c r="B16" s="4">
         <v>13371.1</v>
       </c>
+      <c r="C16" s="8"/>
       <c r="D16" s="8"/>
-      <c r="E16" s="8"/>
-      <c r="F16" s="5">
+      <c r="E16" s="5">
         <f t="shared" si="1"/>
         <v>162.80000000000109</v>
       </c>
-      <c r="G16" s="8">
+      <c r="F16" s="8">
         <f>[2]Sheet1!U20</f>
         <v>54239</v>
       </c>
-      <c r="H16" s="6">
+      <c r="G16" s="6">
         <f t="shared" si="2"/>
         <v>3.001530264201056</v>
       </c>
     </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B17" s="19">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A17" s="19">
         <v>45673</v>
       </c>
-      <c r="C17" s="4">
+      <c r="B17" s="4">
         <v>13524.3</v>
       </c>
+      <c r="C17" s="8"/>
       <c r="D17" s="8"/>
-      <c r="E17" s="8"/>
-      <c r="F17" s="5">
+      <c r="E17" s="5">
         <f t="shared" si="1"/>
         <v>153.19999999999891</v>
       </c>
-      <c r="G17" s="15">
+      <c r="F17" s="15">
         <f>[2]Sheet1!U21</f>
         <v>66973</v>
       </c>
-      <c r="H17" s="6">
+      <c r="G17" s="6">
         <f t="shared" si="2"/>
         <v>2.2874889880996658</v>
       </c>
     </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B18" s="19">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A18" s="19">
         <v>45674</v>
       </c>
-      <c r="C18" s="4">
+      <c r="B18" s="4">
         <v>13741.5</v>
       </c>
+      <c r="C18" s="8"/>
       <c r="D18" s="8"/>
-      <c r="E18" s="8"/>
-      <c r="F18" s="5">
+      <c r="E18" s="5">
         <f t="shared" si="1"/>
         <v>217.20000000000073</v>
       </c>
-      <c r="G18" s="8">
+      <c r="F18" s="8">
         <f>[2]Sheet1!U22</f>
         <v>68507</v>
       </c>
-      <c r="H18" s="6">
+      <c r="G18" s="6">
         <f t="shared" si="2"/>
         <v>3.1704789291605344</v>
       </c>
     </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B19" s="19">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A19" s="19">
         <v>45675</v>
       </c>
-      <c r="C19" s="4">
+      <c r="B19" s="4">
         <v>13949.7</v>
       </c>
+      <c r="C19" s="8"/>
       <c r="D19" s="8"/>
-      <c r="E19" s="8"/>
-      <c r="F19" s="5">
+      <c r="E19" s="5">
         <f t="shared" si="1"/>
         <v>208.20000000000073</v>
       </c>
-      <c r="G19" s="4">
+      <c r="F19" s="4">
         <f>[2]Sheet1!U23</f>
         <v>62883</v>
       </c>
-      <c r="H19" s="6">
+      <c r="G19" s="6">
         <f t="shared" si="2"/>
         <v>3.3109107389914718</v>
       </c>
     </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B20" s="19">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A20" s="19">
         <v>45676</v>
       </c>
-      <c r="C20" s="4">
+      <c r="B20" s="4">
         <v>14095.6</v>
       </c>
+      <c r="C20" s="8"/>
       <c r="D20" s="8"/>
-      <c r="E20" s="8"/>
-      <c r="F20" s="5">
+      <c r="E20" s="5">
         <f t="shared" si="1"/>
         <v>145.89999999999964</v>
       </c>
-      <c r="G20" s="8">
+      <c r="F20" s="8">
         <f>[2]Sheet1!U24</f>
         <v>49626</v>
       </c>
-      <c r="H20" s="6">
+      <c r="G20" s="6">
         <f t="shared" si="2"/>
         <v>2.9399911336799187</v>
       </c>
     </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B21" s="19">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A21" s="19">
         <v>45677</v>
       </c>
-      <c r="C21" s="4">
+      <c r="B21" s="4">
         <v>14266.4</v>
       </c>
+      <c r="C21" s="8"/>
       <c r="D21" s="8"/>
-      <c r="E21" s="8"/>
-      <c r="F21" s="5">
+      <c r="E21" s="5">
         <f t="shared" si="1"/>
         <v>170.79999999999927</v>
       </c>
-      <c r="G21" s="15">
+      <c r="F21" s="15">
         <f>[2]Sheet1!U25</f>
         <v>58465</v>
       </c>
-      <c r="H21" s="6">
+      <c r="G21" s="6">
         <f t="shared" si="2"/>
         <v>2.9214059693833794</v>
       </c>
     </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B22" s="19">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A22" s="19">
         <v>45678</v>
       </c>
-      <c r="C22" s="4">
+      <c r="B22" s="4">
         <v>14436.9</v>
       </c>
+      <c r="C22" s="8"/>
       <c r="D22" s="8"/>
-      <c r="E22" s="8"/>
-      <c r="F22" s="5">
+      <c r="E22" s="5">
         <f t="shared" si="1"/>
         <v>170.5</v>
       </c>
-      <c r="G22" s="8">
+      <c r="F22" s="8">
         <f>[2]Sheet1!U26</f>
         <v>58549</v>
       </c>
-      <c r="H22" s="6">
+      <c r="G22" s="6">
         <f t="shared" si="2"/>
         <v>2.9120907274248919</v>
       </c>
     </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B23" s="19">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A23" s="19">
         <v>45679</v>
       </c>
-      <c r="C23" s="4">
+      <c r="B23" s="4">
         <v>14620.7</v>
       </c>
+      <c r="C23" s="8"/>
       <c r="D23" s="8"/>
-      <c r="E23" s="8"/>
-      <c r="F23" s="5">
+      <c r="E23" s="5">
         <f t="shared" si="1"/>
         <v>183.80000000000109</v>
       </c>
-      <c r="G23" s="15">
+      <c r="F23" s="15">
         <f>[2]Sheet1!U27</f>
         <v>59980</v>
       </c>
-      <c r="H23" s="6">
+      <c r="G23" s="6">
         <f t="shared" si="2"/>
         <v>3.0643547849283275</v>
       </c>
     </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B24" s="19">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A24" s="19">
         <v>45680</v>
       </c>
-      <c r="C24" s="4">
+      <c r="B24" s="4">
         <v>14821.6</v>
       </c>
+      <c r="C24" s="8"/>
       <c r="D24" s="8"/>
-      <c r="E24" s="8"/>
-      <c r="F24" s="5">
+      <c r="E24" s="5">
         <f t="shared" si="1"/>
         <v>200.89999999999964</v>
       </c>
-      <c r="G24" s="8">
+      <c r="F24" s="8">
         <f>[2]Sheet1!U28</f>
         <v>66594</v>
       </c>
-      <c r="H24" s="6">
+      <c r="G24" s="6">
         <f t="shared" si="2"/>
         <v>3.0167882992461728</v>
       </c>
     </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B25" s="19">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A25" s="19">
         <v>45681</v>
       </c>
-      <c r="C25" s="4">
+      <c r="B25" s="4">
         <v>15037.9</v>
       </c>
+      <c r="C25" s="8"/>
       <c r="D25" s="8"/>
-      <c r="E25" s="8"/>
-      <c r="F25" s="5">
+      <c r="E25" s="5">
         <f t="shared" si="1"/>
         <v>216.29999999999927</v>
       </c>
-      <c r="G25" s="15">
+      <c r="F25" s="15">
         <f>[2]Sheet1!U29</f>
         <v>70950</v>
       </c>
-      <c r="H25" s="6">
+      <c r="G25" s="6">
         <f t="shared" si="2"/>
         <v>3.048625792811829</v>
       </c>
     </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B26" s="19">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A26" s="19">
         <v>45682</v>
       </c>
-      <c r="C26" s="4">
+      <c r="B26" s="4">
         <v>15273.7</v>
       </c>
+      <c r="C26" s="8"/>
       <c r="D26" s="8"/>
-      <c r="E26" s="8"/>
-      <c r="F26" s="5">
+      <c r="E26" s="5">
         <f t="shared" si="1"/>
         <v>235.80000000000109</v>
       </c>
-      <c r="G26" s="8">
+      <c r="F26" s="8">
         <f>[2]Sheet1!U30</f>
         <v>78568</v>
       </c>
-      <c r="H26" s="6">
+      <c r="G26" s="6">
         <f t="shared" si="2"/>
         <v>3.0012218714998613</v>
       </c>
     </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B27" s="19">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A27" s="19">
         <v>45683</v>
       </c>
-      <c r="C27" s="4">
+      <c r="B27" s="4">
         <v>15484.1</v>
       </c>
+      <c r="C27" s="8"/>
       <c r="D27" s="8"/>
-      <c r="E27" s="8"/>
-      <c r="F27" s="5">
+      <c r="E27" s="5">
         <f t="shared" si="1"/>
         <v>210.39999999999964</v>
       </c>
-      <c r="G27" s="15">
+      <c r="F27" s="15">
         <f>[2]Sheet1!U31</f>
         <v>71467</v>
       </c>
-      <c r="H27" s="6">
+      <c r="G27" s="6">
         <f t="shared" si="2"/>
         <v>2.9440161193277965</v>
       </c>
     </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B28" s="19">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A28" s="19">
         <v>45684</v>
       </c>
-      <c r="C28" s="4">
+      <c r="B28" s="4">
         <v>15695.8</v>
       </c>
+      <c r="C28" s="8"/>
       <c r="D28" s="8"/>
-      <c r="E28" s="8"/>
-      <c r="F28" s="5">
+      <c r="E28" s="5">
         <f t="shared" si="1"/>
         <v>211.69999999999891</v>
       </c>
-      <c r="G28" s="8">
+      <c r="F28" s="8">
         <f>[2]Sheet1!U32</f>
         <v>71945</v>
       </c>
-      <c r="H28" s="6">
+      <c r="G28" s="6">
         <f t="shared" si="2"/>
         <v>2.9425255403433028</v>
       </c>
     </row>
-    <row r="29" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B29" s="19">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A29" s="19">
         <v>45685</v>
       </c>
-      <c r="C29" s="4">
+      <c r="B29" s="4">
         <v>15909.9</v>
       </c>
+      <c r="C29" s="8"/>
       <c r="D29" s="8"/>
-      <c r="E29" s="8"/>
-      <c r="F29" s="5">
+      <c r="E29" s="5">
         <f t="shared" si="1"/>
         <v>214.10000000000036</v>
       </c>
-      <c r="G29" s="15">
+      <c r="F29" s="15">
         <f>[2]Sheet1!U33</f>
         <v>69243</v>
       </c>
-      <c r="H29" s="6">
+      <c r="G29" s="6">
         <f t="shared" si="2"/>
         <v>3.0920093005791252</v>
       </c>
     </row>
-    <row r="30" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B30" s="19">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A30" s="19">
         <v>45686</v>
       </c>
-      <c r="C30" s="4">
+      <c r="B30" s="4">
         <v>16136.6</v>
       </c>
+      <c r="C30" s="8"/>
       <c r="D30" s="8"/>
-      <c r="E30" s="8"/>
-      <c r="F30" s="5">
+      <c r="E30" s="5">
         <f t="shared" si="1"/>
         <v>226.70000000000073</v>
       </c>
-      <c r="G30" s="8">
+      <c r="F30" s="8">
         <f>[2]Sheet1!U34</f>
         <v>76346</v>
       </c>
-      <c r="H30" s="6">
+      <c r="G30" s="6">
         <f t="shared" si="2"/>
         <v>2.9693762607078398</v>
       </c>
     </row>
-    <row r="31" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B31" s="19">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A31" s="19">
         <v>45687</v>
       </c>
-      <c r="C31" s="4">
+      <c r="B31" s="4">
         <v>16351</v>
       </c>
+      <c r="C31" s="8"/>
       <c r="D31" s="8"/>
-      <c r="E31" s="8"/>
-      <c r="F31" s="5">
+      <c r="E31" s="5">
         <f t="shared" si="1"/>
         <v>214.39999999999964</v>
       </c>
-      <c r="G31" s="15">
+      <c r="F31" s="15">
         <f>[2]Sheet1!U35</f>
         <v>71246</v>
       </c>
-      <c r="H31" s="6">
+      <c r="G31" s="6">
         <f t="shared" si="2"/>
         <v>3.0092917497122595</v>
       </c>
     </row>
-    <row r="32" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B32" s="20">
+    <row r="32" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="20">
         <v>45688</v>
       </c>
-      <c r="C32" s="7">
+      <c r="B32" s="7">
         <v>16570.2</v>
       </c>
+      <c r="C32" s="9"/>
       <c r="D32" s="9"/>
-      <c r="E32" s="9"/>
-      <c r="F32" s="37">
+      <c r="E32" s="37">
         <f t="shared" si="1"/>
         <v>219.20000000000073</v>
       </c>
-      <c r="G32" s="9">
+      <c r="F32" s="9">
         <f>[2]Sheet1!U36</f>
         <v>72868</v>
       </c>
-      <c r="H32" s="38">
+      <c r="G32" s="38">
         <f t="shared" si="2"/>
         <v>3.0081791732996752</v>
       </c>
     </row>
-    <row r="33" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B33" s="32">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A33" s="32">
         <v>45689</v>
       </c>
-      <c r="C33" s="44">
+      <c r="B33" s="44">
         <v>16796.900000000001</v>
       </c>
+      <c r="C33" s="28"/>
       <c r="D33" s="28"/>
-      <c r="E33" s="28"/>
-      <c r="F33" s="10">
+      <c r="E33" s="10">
         <f t="shared" si="1"/>
         <v>226.70000000000073</v>
       </c>
-      <c r="G33" s="28">
+      <c r="F33" s="28">
         <f>[2]Sheet1!U37</f>
         <v>71689</v>
       </c>
-      <c r="H33" s="43">
+      <c r="G33" s="43">
         <f t="shared" si="2"/>
         <v>3.1622703622592132</v>
       </c>
     </row>
-    <row r="34" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B34" s="12">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A34" s="12">
         <v>45690</v>
       </c>
-      <c r="C34" s="4">
+      <c r="B34" s="4">
         <v>16983.099999999999</v>
       </c>
+      <c r="C34" s="27"/>
       <c r="D34" s="27"/>
-      <c r="E34" s="27"/>
-      <c r="F34" s="5">
+      <c r="E34" s="5">
         <f t="shared" si="1"/>
         <v>186.19999999999709</v>
       </c>
-      <c r="G34" s="27">
+      <c r="F34" s="27">
         <f>[2]Sheet1!U38</f>
         <v>63773</v>
       </c>
-      <c r="H34" s="6">
+      <c r="G34" s="6">
         <f t="shared" si="2"/>
         <v>2.9197309206089894</v>
       </c>
     </row>
-    <row r="35" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B35" s="12">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A35" s="12">
         <v>45691</v>
       </c>
-      <c r="C35" s="4">
+      <c r="B35" s="4">
         <v>17201.400000000001</v>
       </c>
+      <c r="C35" s="27"/>
       <c r="D35" s="27"/>
-      <c r="E35" s="27"/>
-      <c r="F35" s="5">
+      <c r="E35" s="5">
         <f t="shared" si="1"/>
         <v>218.30000000000291</v>
       </c>
-      <c r="G35" s="27">
+      <c r="F35" s="27">
         <f>[2]Sheet1!U39</f>
         <v>71403</v>
       </c>
-      <c r="H35" s="6">
+      <c r="G35" s="6">
         <f t="shared" si="2"/>
         <v>3.0572945114351344</v>
       </c>
     </row>
-    <row r="36" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B36" s="12">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A36" s="12">
         <v>45692</v>
       </c>
-      <c r="C36" s="4">
+      <c r="B36" s="4">
         <v>17411.400000000001</v>
       </c>
+      <c r="C36" s="27"/>
       <c r="D36" s="27"/>
-      <c r="E36" s="27"/>
-      <c r="F36" s="5">
+      <c r="E36" s="5">
         <f t="shared" si="1"/>
         <v>210</v>
       </c>
-      <c r="G36" s="27">
+      <c r="F36" s="27">
         <f>[2]Sheet1!U40</f>
         <v>68826</v>
       </c>
-      <c r="H36" s="6">
+      <c r="G36" s="6">
         <f t="shared" si="2"/>
         <v>3.0511725220120303</v>
       </c>
     </row>
-    <row r="37" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B37" s="12">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A37" s="12">
         <v>45693</v>
       </c>
-      <c r="C37" s="4">
+      <c r="B37" s="4">
         <v>17610.2</v>
       </c>
+      <c r="C37" s="27"/>
       <c r="D37" s="27"/>
-      <c r="E37" s="27"/>
-      <c r="F37" s="5">
+      <c r="E37" s="5">
         <f t="shared" si="1"/>
         <v>198.79999999999927</v>
       </c>
-      <c r="G37" s="27">
+      <c r="F37" s="27">
         <f>[2]Sheet1!U41</f>
         <v>66010</v>
       </c>
-      <c r="H37" s="6">
+      <c r="G37" s="6">
         <f t="shared" si="2"/>
         <v>3.0116648992576773</v>
       </c>
     </row>
-    <row r="38" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B38" s="12">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A38" s="12">
         <v>45694</v>
       </c>
-      <c r="C38" s="4">
+      <c r="B38" s="4">
         <v>17775.7</v>
       </c>
+      <c r="C38" s="27"/>
       <c r="D38" s="27"/>
-      <c r="E38" s="27"/>
-      <c r="F38" s="5">
+      <c r="E38" s="5">
         <f t="shared" si="1"/>
         <v>165.5</v>
       </c>
-      <c r="G38" s="27">
+      <c r="F38" s="27">
         <f>[2]Sheet1!U42</f>
         <v>52915</v>
       </c>
-      <c r="H38" s="6">
+      <c r="G38" s="6">
         <f t="shared" si="2"/>
         <v>3.1276575640177642</v>
       </c>
     </row>
-    <row r="39" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B39" s="12">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A39" s="12">
         <v>45695</v>
       </c>
-      <c r="C39" s="4">
+      <c r="B39" s="4">
         <v>17962.900000000001</v>
       </c>
+      <c r="C39" s="27"/>
       <c r="D39" s="27"/>
-      <c r="E39" s="27"/>
-      <c r="F39" s="5">
+      <c r="E39" s="5">
         <f t="shared" si="1"/>
         <v>187.20000000000073</v>
       </c>
-      <c r="G39" s="27">
+      <c r="F39" s="27">
         <f>[2]Sheet1!U43</f>
         <v>70336</v>
       </c>
-      <c r="H39" s="6">
+      <c r="G39" s="6">
         <f t="shared" si="2"/>
         <v>2.661510464058245</v>
       </c>
     </row>
-    <row r="40" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B40" s="12">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A40" s="12">
         <v>45696</v>
       </c>
-      <c r="C40" s="4">
+      <c r="B40" s="4">
         <v>18217.900000000001</v>
       </c>
+      <c r="C40" s="27"/>
       <c r="D40" s="27"/>
-      <c r="E40" s="27"/>
-      <c r="F40" s="5">
+      <c r="E40" s="5">
         <f t="shared" si="1"/>
         <v>255</v>
       </c>
-      <c r="G40" s="27">
+      <c r="F40" s="27">
         <f>[2]Sheet1!U44</f>
         <v>77269</v>
       </c>
-      <c r="H40" s="6">
+      <c r="G40" s="6">
         <f t="shared" si="2"/>
         <v>3.3001591841488822</v>
       </c>
     </row>
-    <row r="41" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B41" s="12">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A41" s="12">
         <v>45697</v>
       </c>
-      <c r="C41" s="4">
+      <c r="B41" s="4">
         <v>18459.5</v>
       </c>
+      <c r="C41" s="27"/>
       <c r="D41" s="27"/>
-      <c r="E41" s="27"/>
-      <c r="F41" s="5">
+      <c r="E41" s="5">
         <f t="shared" si="1"/>
         <v>241.59999999999854</v>
       </c>
-      <c r="G41" s="27">
+      <c r="F41" s="27">
         <f>[2]Sheet1!U45</f>
         <v>81052</v>
       </c>
-      <c r="H41" s="6">
+      <c r="G41" s="6">
         <f t="shared" si="2"/>
         <v>2.9808024478112638</v>
       </c>
     </row>
-    <row r="42" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B42" s="12">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A42" s="12">
         <v>45698</v>
       </c>
-      <c r="C42" s="4">
+      <c r="B42" s="4">
         <v>18707.900000000001</v>
       </c>
+      <c r="C42" s="27"/>
       <c r="D42" s="27"/>
-      <c r="E42" s="27"/>
-      <c r="F42" s="5">
+      <c r="E42" s="5">
         <f t="shared" si="1"/>
         <v>248.40000000000146</v>
       </c>
-      <c r="G42" s="27">
+      <c r="F42" s="27">
         <f>[2]Sheet1!U46</f>
         <v>84392</v>
       </c>
-      <c r="H42" s="6">
+      <c r="G42" s="6">
         <f t="shared" si="2"/>
         <v>2.9434069580055158</v>
       </c>
     </row>
-    <row r="43" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B43" s="12">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A43" s="12">
         <v>45699</v>
       </c>
-      <c r="C43" s="4">
+      <c r="B43" s="4">
         <v>18922.599999999999</v>
       </c>
+      <c r="C43" s="27"/>
       <c r="D43" s="27"/>
-      <c r="E43" s="27"/>
-      <c r="F43" s="5">
+      <c r="E43" s="5">
         <f t="shared" si="1"/>
         <v>214.69999999999709</v>
       </c>
-      <c r="G43" s="27">
+      <c r="F43" s="27">
         <f>[2]Sheet1!U47</f>
         <v>75872</v>
       </c>
-      <c r="H43" s="6">
+      <c r="G43" s="6">
         <f t="shared" si="2"/>
         <v>2.8297659215520494</v>
       </c>
     </row>
-    <row r="44" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B44" s="12">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A44" s="12">
         <v>45700</v>
       </c>
-      <c r="C44" s="4">
+      <c r="B44" s="4">
         <v>19047.5</v>
       </c>
+      <c r="C44" s="27"/>
       <c r="D44" s="27"/>
-      <c r="E44" s="27"/>
-      <c r="F44" s="5">
+      <c r="E44" s="5">
         <f t="shared" si="1"/>
         <v>124.90000000000146</v>
       </c>
-      <c r="G44" s="27">
+      <c r="F44" s="27">
         <f>[2]Sheet1!U48</f>
         <v>40308</v>
       </c>
-      <c r="H44" s="6">
+      <c r="G44" s="6">
         <f t="shared" si="2"/>
         <v>3.0986404683934072</v>
       </c>
     </row>
-    <row r="45" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B45" s="12">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A45" s="12">
         <v>45701</v>
       </c>
-      <c r="C45" s="4">
+      <c r="B45" s="4">
         <v>19299.7</v>
       </c>
+      <c r="C45" s="27"/>
       <c r="D45" s="27"/>
-      <c r="E45" s="27"/>
-      <c r="F45" s="5">
+      <c r="E45" s="5">
         <f t="shared" si="1"/>
         <v>252.20000000000073</v>
       </c>
-      <c r="G45" s="27">
+      <c r="F45" s="27">
         <f>[2]Sheet1!U49</f>
         <v>86259</v>
       </c>
-      <c r="H45" s="6">
+      <c r="G45" s="6">
         <f t="shared" si="2"/>
         <v>2.9237528837570657</v>
       </c>
     </row>
-    <row r="46" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B46" s="12">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A46" s="12">
         <v>45702</v>
       </c>
-      <c r="C46" s="4">
+      <c r="B46" s="4">
         <v>19539.599999999999</v>
       </c>
+      <c r="C46" s="27"/>
       <c r="D46" s="27"/>
-      <c r="E46" s="27"/>
-      <c r="F46" s="5">
+      <c r="E46" s="5">
         <f t="shared" si="1"/>
         <v>239.89999999999782</v>
       </c>
-      <c r="G46" s="27">
+      <c r="F46" s="27">
         <f>[2]Sheet1!U50</f>
         <v>80933</v>
       </c>
-      <c r="H46" s="6">
+      <c r="G46" s="6">
         <f t="shared" si="2"/>
         <v>2.9641802478593138</v>
       </c>
     </row>
-    <row r="47" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B47" s="12">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A47" s="12">
         <v>45703</v>
       </c>
-      <c r="C47" s="4">
+      <c r="B47" s="4">
         <v>19772.099999999999</v>
       </c>
+      <c r="C47" s="27"/>
       <c r="D47" s="27"/>
-      <c r="E47" s="27"/>
-      <c r="F47" s="5">
+      <c r="E47" s="5">
         <f t="shared" si="1"/>
         <v>232.5</v>
       </c>
-      <c r="G47" s="27">
+      <c r="F47" s="27">
         <f>[2]Sheet1!U51</f>
         <v>79044</v>
       </c>
-      <c r="H47" s="6">
+      <c r="G47" s="6">
         <f t="shared" si="2"/>
         <v>2.9413997267344771</v>
       </c>
     </row>
-    <row r="48" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B48" s="12">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A48" s="12">
         <v>45704</v>
       </c>
-      <c r="C48" s="4">
+      <c r="B48" s="4">
         <v>19986.5</v>
       </c>
+      <c r="C48" s="27"/>
       <c r="D48" s="27"/>
-      <c r="E48" s="27"/>
-      <c r="F48" s="5">
+      <c r="E48" s="5">
         <f t="shared" si="1"/>
         <v>214.40000000000146</v>
       </c>
-      <c r="G48" s="27">
+      <c r="F48" s="27">
         <f>[2]Sheet1!U52</f>
         <v>72540</v>
       </c>
-      <c r="H48" s="6">
+      <c r="G48" s="6">
         <f t="shared" si="2"/>
         <v>2.9556106975462013</v>
       </c>
     </row>
-    <row r="49" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B49" s="12">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A49" s="12">
         <v>45705</v>
       </c>
-      <c r="C49" s="4">
+      <c r="B49" s="4">
         <v>20235.3</v>
       </c>
+      <c r="C49" s="27"/>
       <c r="D49" s="27"/>
-      <c r="E49" s="27"/>
-      <c r="F49" s="5">
+      <c r="E49" s="5">
         <f t="shared" si="1"/>
         <v>248.79999999999927</v>
       </c>
-      <c r="G49" s="27">
+      <c r="F49" s="27">
         <f>[2]Sheet1!U53</f>
         <v>84015</v>
       </c>
-      <c r="H49" s="6">
+      <c r="G49" s="6">
         <f t="shared" si="2"/>
         <v>2.9613759447717585</v>
       </c>
     </row>
-    <row r="50" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B50" s="12">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A50" s="12">
         <v>45706</v>
       </c>
-      <c r="C50" s="4">
+      <c r="B50" s="4">
         <v>20486.3</v>
       </c>
+      <c r="C50" s="27"/>
       <c r="D50" s="27"/>
-      <c r="E50" s="27"/>
-      <c r="F50" s="5">
+      <c r="E50" s="5">
         <f t="shared" si="1"/>
         <v>251</v>
       </c>
-      <c r="G50" s="27">
+      <c r="F50" s="27">
         <f>[2]Sheet1!U54</f>
         <v>82276</v>
       </c>
-      <c r="H50" s="6">
+      <c r="G50" s="6">
         <f t="shared" si="2"/>
         <v>3.0507073751762364</v>
       </c>
     </row>
-    <row r="51" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B51" s="12">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A51" s="12">
         <v>45707</v>
       </c>
-      <c r="C51" s="4">
+      <c r="B51" s="4">
         <v>20737.599999999999</v>
       </c>
+      <c r="C51" s="27"/>
       <c r="D51" s="27"/>
-      <c r="E51" s="27"/>
-      <c r="F51" s="5">
+      <c r="E51" s="5">
         <f t="shared" si="1"/>
         <v>251.29999999999927</v>
       </c>
-      <c r="G51" s="27">
+      <c r="F51" s="27">
         <f>[2]Sheet1!U55</f>
         <v>84632</v>
       </c>
-      <c r="H51" s="6">
+      <c r="G51" s="6">
         <f t="shared" si="2"/>
         <v>2.9693260232536067</v>
       </c>
     </row>
-    <row r="52" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B52" s="12">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A52" s="12">
         <v>45708</v>
       </c>
-      <c r="C52" s="4">
+      <c r="B52" s="4">
         <v>20990.2</v>
       </c>
+      <c r="C52" s="27"/>
       <c r="D52" s="27"/>
-      <c r="E52" s="27"/>
-      <c r="F52" s="5">
+      <c r="E52" s="5">
         <f t="shared" si="1"/>
         <v>252.60000000000218</v>
       </c>
-      <c r="G52" s="27">
+      <c r="F52" s="27">
         <f>[2]Sheet1!U56</f>
         <v>87013</v>
       </c>
-      <c r="H52" s="6">
+      <c r="G52" s="6">
         <f t="shared" si="2"/>
         <v>2.9030144920874146</v>
       </c>
     </row>
-    <row r="53" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B53" s="12">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A53" s="12">
         <v>45709</v>
       </c>
-      <c r="C53" s="4">
+      <c r="B53" s="4">
         <v>21255.7</v>
       </c>
+      <c r="C53" s="27"/>
       <c r="D53" s="27"/>
-      <c r="E53" s="27"/>
-      <c r="F53" s="5">
+      <c r="E53" s="5">
         <f t="shared" si="1"/>
         <v>265.5</v>
       </c>
-      <c r="G53" s="27">
+      <c r="F53" s="27">
         <f>[2]Sheet1!U57</f>
         <v>89956</v>
       </c>
-      <c r="H53" s="6">
+      <c r="G53" s="6">
         <f t="shared" si="2"/>
         <v>2.9514429276535195</v>
       </c>
     </row>
-    <row r="54" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B54" s="12">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A54" s="12">
         <v>45710</v>
       </c>
-      <c r="C54" s="4">
+      <c r="B54" s="4">
         <v>21479.9</v>
       </c>
+      <c r="C54" s="27"/>
       <c r="D54" s="27"/>
-      <c r="E54" s="27"/>
-      <c r="F54" s="5">
+      <c r="E54" s="5">
         <f t="shared" si="1"/>
         <v>224.20000000000073</v>
       </c>
-      <c r="G54" s="27">
+      <c r="F54" s="27">
         <f>[2]Sheet1!U58</f>
         <v>77612</v>
       </c>
-      <c r="H54" s="6">
+      <c r="G54" s="6">
         <f t="shared" si="2"/>
         <v>2.8887285471318962</v>
       </c>
     </row>
-    <row r="55" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B55" s="12">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A55" s="12">
         <v>45711</v>
       </c>
-      <c r="C55" s="4">
+      <c r="B55" s="4">
         <v>21728.1</v>
       </c>
+      <c r="C55" s="27"/>
       <c r="D55" s="27"/>
-      <c r="E55" s="27"/>
-      <c r="F55" s="5">
+      <c r="E55" s="5">
         <f t="shared" si="1"/>
         <v>248.19999999999709</v>
       </c>
-      <c r="G55" s="27">
+      <c r="F55" s="27">
         <f>[2]Sheet1!U59</f>
         <v>82831</v>
       </c>
-      <c r="H55" s="6">
+      <c r="G55" s="6">
         <f t="shared" si="2"/>
         <v>2.9964626770170235</v>
       </c>
     </row>
-    <row r="56" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B56" s="12">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A56" s="12">
         <v>45712</v>
       </c>
-      <c r="C56" s="4">
+      <c r="B56" s="4">
         <v>21999.599999999999</v>
       </c>
+      <c r="C56" s="27"/>
       <c r="D56" s="27"/>
-      <c r="E56" s="27"/>
-      <c r="F56" s="5">
+      <c r="E56" s="5">
         <f t="shared" si="1"/>
         <v>271.5</v>
       </c>
-      <c r="G56" s="27">
+      <c r="F56" s="27">
         <f>[2]Sheet1!U60</f>
         <v>94316</v>
       </c>
-      <c r="H56" s="6">
+      <c r="G56" s="6">
         <f t="shared" si="2"/>
         <v>2.8786208066499852</v>
       </c>
     </row>
-    <row r="57" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B57" s="12">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A57" s="12">
         <v>45713</v>
       </c>
-      <c r="C57" s="4">
+      <c r="B57" s="4">
         <v>22284.5</v>
       </c>
+      <c r="C57" s="27"/>
       <c r="D57" s="27"/>
-      <c r="E57" s="27"/>
-      <c r="F57" s="5">
+      <c r="E57" s="5">
         <f t="shared" si="1"/>
         <v>284.90000000000146</v>
       </c>
-      <c r="G57" s="27">
+      <c r="F57" s="27">
         <f>[2]Sheet1!U61</f>
         <v>97557</v>
       </c>
-      <c r="H57" s="6">
+      <c r="G57" s="6">
         <f t="shared" si="2"/>
         <v>2.9203440040181787</v>
       </c>
     </row>
-    <row r="58" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B58" s="12">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A58" s="12">
         <v>45714</v>
       </c>
-      <c r="C58" s="4">
+      <c r="B58" s="4">
         <v>22510</v>
       </c>
+      <c r="C58" s="27"/>
       <c r="D58" s="27"/>
-      <c r="E58" s="27"/>
-      <c r="F58" s="5">
+      <c r="E58" s="5">
         <f t="shared" si="1"/>
         <v>225.5</v>
       </c>
-      <c r="G58" s="27">
+      <c r="F58" s="27">
         <f>[2]Sheet1!U62</f>
         <v>94135</v>
       </c>
-      <c r="H58" s="6">
+      <c r="G58" s="6">
         <f t="shared" si="2"/>
         <v>2.3954958304562597</v>
       </c>
     </row>
-    <row r="59" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B59" s="12">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A59" s="12">
         <v>45715</v>
       </c>
-      <c r="C59" s="4">
+      <c r="B59" s="4">
         <v>22827.5</v>
       </c>
+      <c r="C59" s="27"/>
       <c r="D59" s="27"/>
-      <c r="E59" s="27"/>
-      <c r="F59" s="5">
+      <c r="E59" s="5">
         <f t="shared" si="1"/>
         <v>317.5</v>
       </c>
-      <c r="G59" s="27">
+      <c r="F59" s="27">
         <f>[2]Sheet1!U63</f>
         <v>94228</v>
       </c>
-      <c r="H59" s="6">
+      <c r="G59" s="6">
         <f t="shared" si="2"/>
         <v>3.3694867767542558</v>
       </c>
     </row>
-    <row r="60" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B60" s="33">
+    <row r="60" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A60" s="33">
         <v>45716</v>
       </c>
-      <c r="C60" s="7">
+      <c r="B60" s="7">
         <v>23088.400000000001</v>
       </c>
+      <c r="C60" s="9">
+        <v>20275</v>
+      </c>
       <c r="D60" s="9">
-        <v>20275</v>
-      </c>
-      <c r="E60" s="9">
-        <f t="shared" ref="E60:E99" si="3">C60-D60-(C59-D59)</f>
+        <f t="shared" ref="D60:D98" si="3">B60-C60-(B59-C59)</f>
         <v>-20014.099999999999</v>
       </c>
-      <c r="F60" s="37">
+      <c r="E60" s="37">
         <f t="shared" si="1"/>
         <v>260.90000000000146</v>
       </c>
-      <c r="G60" s="9">
+      <c r="F60" s="9">
         <f>[2]Sheet1!U64</f>
         <v>95898</v>
       </c>
-      <c r="H60" s="38">
+      <c r="G60" s="38">
         <f t="shared" si="2"/>
         <v>2.7205989697386959</v>
       </c>
     </row>
-    <row r="61" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B61" s="31">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A61" s="31">
         <v>45717</v>
       </c>
-      <c r="C61" s="34">
+      <c r="B61" s="34">
         <v>23352.1</v>
       </c>
-      <c r="D61" s="35">
+      <c r="C61" s="35">
         <v>20513</v>
       </c>
-      <c r="E61" s="36">
+      <c r="D61" s="36">
         <f t="shared" si="3"/>
         <v>25.69999999999709</v>
       </c>
-      <c r="F61" s="18">
+      <c r="E61" s="18">
         <f t="shared" si="1"/>
         <v>263.69999999999709</v>
       </c>
-      <c r="G61" s="35">
+      <c r="F61" s="35">
         <f>[2]Sheet1!U65</f>
         <v>90569</v>
       </c>
-      <c r="H61" s="22">
+      <c r="G61" s="22">
         <f t="shared" si="2"/>
         <v>2.911592266669579</v>
       </c>
     </row>
-    <row r="62" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B62" s="19">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A62" s="19">
         <v>45718</v>
       </c>
-      <c r="C62" s="4">
+      <c r="B62" s="4">
         <v>23616.6</v>
       </c>
-      <c r="D62" s="27">
+      <c r="C62" s="27">
         <v>20751</v>
       </c>
-      <c r="E62" s="8">
+      <c r="D62" s="8">
         <f t="shared" si="3"/>
         <v>26.5</v>
       </c>
-      <c r="F62" s="5">
+      <c r="E62" s="5">
         <f t="shared" si="1"/>
         <v>264.5</v>
       </c>
-      <c r="G62" s="27">
+      <c r="F62" s="27">
         <f>[2]Sheet1!U66</f>
         <v>91249</v>
       </c>
-      <c r="H62" s="6">
+      <c r="G62" s="6">
         <f t="shared" si="2"/>
         <v>2.8986619031441441</v>
       </c>
     </row>
-    <row r="63" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B63" s="12">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A63" s="12">
         <v>45719</v>
       </c>
-      <c r="C63" s="4">
+      <c r="B63" s="4">
         <v>23907.200000000001</v>
       </c>
-      <c r="D63" s="27">
+      <c r="C63" s="27">
         <v>21014</v>
       </c>
-      <c r="E63" s="8">
+      <c r="D63" s="8">
         <f t="shared" si="3"/>
         <v>27.600000000002183</v>
       </c>
-      <c r="F63" s="5">
+      <c r="E63" s="5">
         <f t="shared" si="1"/>
         <v>290.60000000000218</v>
       </c>
-      <c r="G63" s="27">
+      <c r="F63" s="27">
         <f>[2]Sheet1!U67</f>
         <v>102134</v>
       </c>
-      <c r="H63" s="6">
+      <c r="G63" s="6">
         <f t="shared" si="2"/>
         <v>2.8452816887618444</v>
       </c>
     </row>
-    <row r="64" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B64" s="30">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A64" s="30">
         <v>45720</v>
       </c>
-      <c r="C64" s="4">
+      <c r="B64" s="4">
         <v>24146.5</v>
       </c>
-      <c r="D64" s="27">
+      <c r="C64" s="27">
         <v>21229</v>
       </c>
-      <c r="E64" s="8">
+      <c r="D64" s="8">
         <f t="shared" si="3"/>
         <v>24.299999999999272</v>
       </c>
-      <c r="F64" s="5">
+      <c r="E64" s="5">
         <f t="shared" si="1"/>
         <v>239.29999999999927</v>
       </c>
-      <c r="G64" s="27">
+      <c r="F64" s="27">
         <f>[2]Sheet1!U68</f>
         <v>86868</v>
       </c>
-      <c r="H64" s="6">
+      <c r="G64" s="6">
         <f t="shared" si="2"/>
         <v>2.7547543399180281</v>
       </c>
     </row>
-    <row r="65" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B65" s="19">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A65" s="19">
         <v>45721</v>
       </c>
-      <c r="C65" s="4">
+      <c r="B65" s="4">
         <v>24398.6</v>
       </c>
-      <c r="D65" s="27">
+      <c r="C65" s="27">
         <v>21455</v>
       </c>
-      <c r="E65" s="8">
+      <c r="D65" s="8">
         <f t="shared" si="3"/>
         <v>26.099999999998545</v>
       </c>
-      <c r="F65" s="5">
+      <c r="E65" s="5">
         <f t="shared" si="1"/>
         <v>252.09999999999854</v>
       </c>
-      <c r="G65" s="27">
+      <c r="F65" s="27">
         <f>[2]Sheet1!U69</f>
         <v>86339</v>
       </c>
-      <c r="H65" s="6">
+      <c r="G65" s="6">
         <f t="shared" si="2"/>
         <v>2.919885567356566</v>
       </c>
     </row>
-    <row r="66" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B66" s="19">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A66" s="19">
         <v>45722</v>
       </c>
-      <c r="C66" s="4">
+      <c r="B66" s="4">
         <v>24667.5</v>
       </c>
-      <c r="D66" s="27">
+      <c r="C66" s="27">
         <v>21699</v>
       </c>
-      <c r="E66" s="8">
+      <c r="D66" s="8">
         <f t="shared" si="3"/>
         <v>24.900000000001455</v>
       </c>
-      <c r="F66" s="5">
+      <c r="E66" s="5">
         <f t="shared" si="1"/>
         <v>268.90000000000146</v>
       </c>
-      <c r="G66" s="27">
+      <c r="F66" s="27">
         <f>[2]Sheet1!U70</f>
         <v>92995</v>
       </c>
-      <c r="H66" s="6">
+      <c r="G66" s="6">
         <f t="shared" si="2"/>
         <v>2.8915533093177208</v>
       </c>
     </row>
-    <row r="67" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B67" s="19">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A67" s="19">
         <v>45723</v>
       </c>
-      <c r="C67" s="4">
+      <c r="B67" s="4">
         <v>24984.3</v>
       </c>
-      <c r="D67" s="27">
+      <c r="C67" s="27">
         <v>21985</v>
       </c>
-      <c r="E67" s="8">
+      <c r="D67" s="8">
         <f t="shared" si="3"/>
         <v>30.799999999999272</v>
       </c>
-      <c r="F67" s="5">
+      <c r="E67" s="5">
         <f t="shared" si="1"/>
         <v>316.79999999999927</v>
       </c>
-      <c r="G67" s="27">
+      <c r="F67" s="27">
         <f>[2]Sheet1!U71</f>
         <v>103104</v>
       </c>
-      <c r="H67" s="6">
+      <c r="G67" s="6">
         <f t="shared" si="2"/>
         <v>3.072625698324015</v>
       </c>
     </row>
-    <row r="68" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B68" s="19">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A68" s="19">
         <v>45724</v>
       </c>
-      <c r="C68" s="4">
+      <c r="B68" s="4">
         <v>25249.1</v>
       </c>
-      <c r="D68" s="27">
+      <c r="C68" s="27">
         <v>22224</v>
       </c>
-      <c r="E68" s="8">
+      <c r="D68" s="8">
         <f t="shared" si="3"/>
         <v>25.799999999999272</v>
       </c>
-      <c r="F68" s="5">
+      <c r="E68" s="5">
         <f t="shared" si="1"/>
         <v>264.79999999999927</v>
       </c>
-      <c r="G68" s="27">
+      <c r="F68" s="27">
         <f>[2]Sheet1!U72</f>
         <v>101998</v>
       </c>
-      <c r="H68" s="6">
+      <c r="G68" s="6">
         <f t="shared" si="2"/>
         <v>2.5961293358693238</v>
       </c>
     </row>
-    <row r="69" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B69" s="19">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A69" s="19">
         <v>45725</v>
       </c>
-      <c r="C69" s="4">
+      <c r="B69" s="4">
         <v>25523.4</v>
       </c>
-      <c r="D69" s="27">
+      <c r="C69" s="27">
         <v>22470</v>
       </c>
-      <c r="E69" s="8">
+      <c r="D69" s="8">
         <f t="shared" si="3"/>
         <v>28.30000000000291</v>
       </c>
-      <c r="F69" s="5">
-        <f t="shared" ref="F69:F105" si="4">(C69-C68)</f>
+      <c r="E69" s="5">
+        <f t="shared" ref="E69:E106" si="4">(B69-B68)</f>
         <v>274.30000000000291</v>
       </c>
-      <c r="G69" s="27">
+      <c r="F69" s="27">
         <f>[2]Sheet1!U73</f>
         <v>94813</v>
       </c>
-      <c r="H69" s="6">
-        <f t="shared" ref="H69:H105" si="5">F69/G69*1000</f>
+      <c r="G69" s="6">
+        <f t="shared" ref="G69:G111" si="5">E69/F69*1000</f>
         <v>2.8930631875376047</v>
       </c>
     </row>
-    <row r="70" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B70" s="19">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A70" s="19">
         <v>45726</v>
       </c>
-      <c r="C70" s="4">
+      <c r="B70" s="4">
         <v>25781</v>
       </c>
-      <c r="D70" s="27">
+      <c r="C70" s="27">
         <v>22763</v>
       </c>
-      <c r="E70" s="8">
+      <c r="D70" s="8">
         <f t="shared" si="3"/>
         <v>-35.400000000001455</v>
       </c>
-      <c r="F70" s="5">
+      <c r="E70" s="5">
         <f t="shared" si="4"/>
         <v>257.59999999999854</v>
       </c>
-      <c r="G70" s="27">
+      <c r="F70" s="27">
         <f>[2]Sheet1!U74</f>
         <v>87541</v>
       </c>
-      <c r="H70" s="6">
+      <c r="G70" s="6">
         <f t="shared" si="5"/>
         <v>2.9426211717937711</v>
       </c>
     </row>
-    <row r="71" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B71" s="19">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A71" s="19">
         <v>45727</v>
       </c>
-      <c r="C71" s="4">
+      <c r="B71" s="4">
         <v>26072.7</v>
       </c>
-      <c r="D71" s="27">
+      <c r="C71" s="27">
         <v>23030</v>
       </c>
-      <c r="E71" s="8">
+      <c r="D71" s="8">
         <f t="shared" si="3"/>
         <v>24.700000000000728</v>
       </c>
-      <c r="F71" s="5">
+      <c r="E71" s="5">
         <f t="shared" si="4"/>
         <v>291.70000000000073</v>
       </c>
-      <c r="G71" s="27">
+      <c r="F71" s="27">
         <f>[2]Sheet1!U75</f>
         <v>102068</v>
       </c>
-      <c r="H71" s="6">
+      <c r="G71" s="6">
         <f t="shared" si="5"/>
         <v>2.8578986557981025</v>
       </c>
     </row>
-    <row r="72" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B72" s="19">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A72" s="19">
         <v>45728</v>
       </c>
-      <c r="C72" s="4">
+      <c r="B72" s="4">
         <v>26342.6</v>
       </c>
-      <c r="D72" s="27">
+      <c r="C72" s="27">
         <v>23277</v>
       </c>
-      <c r="E72" s="8">
+      <c r="D72" s="8">
         <f t="shared" si="3"/>
         <v>22.899999999997817</v>
       </c>
-      <c r="F72" s="5">
+      <c r="E72" s="5">
         <f t="shared" si="4"/>
         <v>269.89999999999782</v>
       </c>
-      <c r="G72" s="27">
+      <c r="F72" s="27">
         <f>[2]Sheet1!U76</f>
         <v>96055</v>
       </c>
-      <c r="H72" s="6">
+      <c r="G72" s="6">
         <f t="shared" si="5"/>
         <v>2.8098485242829403</v>
       </c>
     </row>
-    <row r="73" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B73" s="19">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A73" s="19">
         <v>45729</v>
       </c>
-      <c r="C73" s="4">
+      <c r="B73" s="4">
         <v>26597.200000000001</v>
       </c>
-      <c r="D73" s="27">
+      <c r="C73" s="27">
         <v>23508</v>
       </c>
-      <c r="E73" s="8">
+      <c r="D73" s="8">
         <f t="shared" si="3"/>
         <v>23.600000000002183</v>
       </c>
-      <c r="F73" s="5">
+      <c r="E73" s="5">
         <f t="shared" si="4"/>
         <v>254.60000000000218</v>
       </c>
-      <c r="G73" s="27">
+      <c r="F73" s="27">
         <f>[2]Sheet1!U77</f>
         <v>89275</v>
       </c>
-      <c r="H73" s="6">
+      <c r="G73" s="6">
         <f t="shared" si="5"/>
         <v>2.8518622234668407</v>
       </c>
     </row>
-    <row r="74" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B74" s="19">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A74" s="19">
         <v>45730</v>
       </c>
-      <c r="C74" s="4">
+      <c r="B74" s="4">
         <v>26875.599999999999</v>
       </c>
-      <c r="D74" s="27">
+      <c r="C74" s="27">
         <v>23760</v>
       </c>
-      <c r="E74" s="8">
+      <c r="D74" s="8">
         <f t="shared" si="3"/>
         <v>26.399999999997817</v>
       </c>
-      <c r="F74" s="5">
+      <c r="E74" s="5">
         <f t="shared" si="4"/>
         <v>278.39999999999782</v>
       </c>
-      <c r="G74" s="27">
+      <c r="F74" s="27">
         <f>[2]Sheet1!U78</f>
         <v>96482</v>
       </c>
-      <c r="H74" s="6">
+      <c r="G74" s="6">
         <f t="shared" si="5"/>
         <v>2.8855123235421924</v>
       </c>
     </row>
-    <row r="75" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B75" s="19">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A75" s="19">
         <v>45731</v>
       </c>
-      <c r="C75" s="4">
+      <c r="B75" s="4">
         <v>27099.8</v>
       </c>
-      <c r="D75" s="27">
+      <c r="C75" s="27">
         <v>24005</v>
       </c>
-      <c r="E75" s="8">
+      <c r="D75" s="8">
         <f t="shared" si="3"/>
         <v>-20.799999999999272</v>
       </c>
-      <c r="F75" s="5">
+      <c r="E75" s="5">
         <f t="shared" si="4"/>
         <v>224.20000000000073</v>
       </c>
-      <c r="G75" s="27">
+      <c r="F75" s="27">
         <f>[2]Sheet1!U79</f>
         <v>95707</v>
       </c>
-      <c r="H75" s="6">
+      <c r="G75" s="6">
         <f t="shared" si="5"/>
         <v>2.3425663744553766</v>
       </c>
     </row>
-    <row r="76" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B76" s="19">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A76" s="19">
         <v>45732</v>
       </c>
-      <c r="C76" s="4">
+      <c r="B76" s="4">
         <v>27411.7</v>
       </c>
-      <c r="D76" s="27">
+      <c r="C76" s="27">
         <v>24251</v>
       </c>
-      <c r="E76" s="8">
+      <c r="D76" s="8">
         <f t="shared" si="3"/>
         <v>65.900000000001455</v>
       </c>
-      <c r="F76" s="5">
+      <c r="E76" s="5">
         <f t="shared" si="4"/>
         <v>311.90000000000146</v>
       </c>
-      <c r="G76" s="27">
+      <c r="F76" s="27">
         <f>[2]Sheet1!U80</f>
         <v>93853</v>
       </c>
-      <c r="H76" s="6">
+      <c r="G76" s="6">
         <f t="shared" si="5"/>
         <v>3.3232821540068134</v>
       </c>
     </row>
-    <row r="77" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B77" s="19">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A77" s="19">
         <v>45733</v>
       </c>
-      <c r="C77" s="4">
+      <c r="B77" s="4">
         <v>27658.3</v>
       </c>
-      <c r="D77" s="27">
+      <c r="C77" s="27">
         <v>24474</v>
       </c>
-      <c r="E77" s="8">
+      <c r="D77" s="8">
         <f t="shared" si="3"/>
         <v>23.599999999998545</v>
       </c>
-      <c r="F77" s="5">
+      <c r="E77" s="5">
         <f t="shared" si="4"/>
         <v>246.59999999999854</v>
       </c>
-      <c r="G77" s="27">
+      <c r="F77" s="27">
         <f>[2]Sheet1!U81</f>
         <v>87315</v>
       </c>
-      <c r="H77" s="6">
+      <c r="G77" s="6">
         <f t="shared" si="5"/>
         <v>2.8242570005153587</v>
       </c>
     </row>
-    <row r="78" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B78" s="19">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A78" s="19">
         <v>45734</v>
       </c>
-      <c r="C78" s="4">
+      <c r="B78" s="4">
         <v>27942</v>
       </c>
-      <c r="D78" s="27">
+      <c r="C78" s="27">
         <v>24731</v>
       </c>
-      <c r="E78" s="8">
+      <c r="D78" s="8">
         <f t="shared" si="3"/>
         <v>26.700000000000728</v>
       </c>
-      <c r="F78" s="5">
+      <c r="E78" s="5">
         <f t="shared" si="4"/>
         <v>283.70000000000073</v>
       </c>
-      <c r="G78" s="27">
+      <c r="F78" s="27">
         <f>[2]Sheet1!U82</f>
         <v>95461</v>
       </c>
-      <c r="H78" s="6">
+      <c r="G78" s="6">
         <f t="shared" si="5"/>
         <v>2.9718942814343108</v>
       </c>
     </row>
-    <row r="79" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B79" s="19">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A79" s="19">
         <v>45735</v>
       </c>
-      <c r="C79" s="4">
+      <c r="B79" s="4">
         <v>28220.799999999999</v>
       </c>
-      <c r="D79" s="27">
+      <c r="C79" s="27">
         <v>24983</v>
       </c>
-      <c r="E79" s="8">
+      <c r="D79" s="8">
         <f t="shared" si="3"/>
         <v>26.799999999999272</v>
       </c>
-      <c r="F79" s="5">
+      <c r="E79" s="5">
         <f t="shared" si="4"/>
         <v>278.79999999999927</v>
       </c>
-      <c r="G79" s="27">
+      <c r="F79" s="27">
         <f>[2]Sheet1!U83</f>
         <v>100396</v>
       </c>
-      <c r="H79" s="6">
+      <c r="G79" s="6">
         <f t="shared" si="5"/>
         <v>2.7770030678513016</v>
       </c>
     </row>
-    <row r="80" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B80" s="19">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A80" s="19">
         <v>45736</v>
       </c>
-      <c r="C80" s="4">
+      <c r="B80" s="4">
         <v>28471.5</v>
       </c>
-      <c r="D80" s="27">
+      <c r="C80" s="27">
         <v>25207</v>
       </c>
-      <c r="E80" s="8">
+      <c r="D80" s="8">
         <f t="shared" si="3"/>
         <v>26.700000000000728</v>
       </c>
-      <c r="F80" s="5">
+      <c r="E80" s="5">
         <f t="shared" si="4"/>
         <v>250.70000000000073</v>
       </c>
-      <c r="G80" s="27">
+      <c r="F80" s="27">
         <f>[2]Sheet1!U84</f>
         <v>81090</v>
       </c>
-      <c r="H80" s="6">
+      <c r="G80" s="6">
         <f t="shared" si="5"/>
         <v>3.0916265877420241</v>
       </c>
     </row>
-    <row r="81" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B81" s="19">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A81" s="19">
         <v>45737</v>
       </c>
-      <c r="C81" s="4">
+      <c r="B81" s="4">
         <v>28743.200000000001</v>
       </c>
-      <c r="D81" s="27">
+      <c r="C81" s="27">
         <v>25453</v>
       </c>
-      <c r="E81" s="8">
+      <c r="D81" s="8">
         <f t="shared" si="3"/>
         <v>25.700000000000728</v>
       </c>
-      <c r="F81" s="5">
+      <c r="E81" s="5">
         <f t="shared" si="4"/>
         <v>271.70000000000073</v>
       </c>
-      <c r="G81" s="27">
+      <c r="F81" s="27">
         <f>[2]Sheet1!U85</f>
         <v>95577</v>
       </c>
-      <c r="H81" s="6">
+      <c r="G81" s="6">
         <f t="shared" si="5"/>
         <v>2.8427341305962806</v>
       </c>
     </row>
-    <row r="82" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B82" s="19">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A82" s="19">
         <v>45738</v>
       </c>
-      <c r="C82" s="4">
+      <c r="B82" s="4">
         <v>29006</v>
       </c>
-      <c r="D82" s="27">
+      <c r="C82" s="27">
         <v>25687</v>
       </c>
-      <c r="E82" s="8">
+      <c r="D82" s="8">
         <f t="shared" si="3"/>
         <v>28.799999999999272</v>
       </c>
-      <c r="F82" s="5">
+      <c r="E82" s="5">
         <f t="shared" si="4"/>
         <v>262.79999999999927</v>
       </c>
-      <c r="G82" s="27">
+      <c r="F82" s="27">
         <f>[2]Sheet1!U86</f>
         <v>91932</v>
       </c>
-      <c r="H82" s="6">
+      <c r="G82" s="6">
         <f t="shared" si="5"/>
         <v>2.8586346429969898</v>
       </c>
     </row>
-    <row r="83" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B83" s="19">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A83" s="19">
         <v>45739</v>
       </c>
-      <c r="C83" s="4">
+      <c r="B83" s="4">
         <v>29295.8</v>
       </c>
-      <c r="D83" s="27">
+      <c r="C83" s="27">
         <v>25948</v>
       </c>
-      <c r="E83" s="8">
+      <c r="D83" s="8">
         <f t="shared" si="3"/>
         <v>28.799999999999272</v>
       </c>
-      <c r="F83" s="5">
+      <c r="E83" s="5">
         <f t="shared" si="4"/>
         <v>289.79999999999927</v>
       </c>
-      <c r="G83" s="27">
+      <c r="F83" s="27">
         <f>[2]Sheet1!U87</f>
         <v>100753</v>
       </c>
-      <c r="H83" s="6">
+      <c r="G83" s="6">
         <f t="shared" si="5"/>
         <v>2.8763411511319692</v>
       </c>
     </row>
-    <row r="84" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B84" s="19">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A84" s="19">
         <v>45740</v>
       </c>
-      <c r="C84" s="4">
+      <c r="B84" s="4">
         <v>29559.9</v>
       </c>
-      <c r="D84" s="27">
+      <c r="C84" s="27">
         <v>26187</v>
       </c>
-      <c r="E84" s="8">
+      <c r="D84" s="8">
         <f t="shared" si="3"/>
         <v>25.100000000002183</v>
       </c>
-      <c r="F84" s="5">
+      <c r="E84" s="5">
         <f t="shared" si="4"/>
         <v>264.10000000000218</v>
       </c>
-      <c r="G84" s="27">
+      <c r="F84" s="27">
         <f>[2]Sheet1!U88</f>
         <v>93401</v>
       </c>
-      <c r="H84" s="6">
+      <c r="G84" s="6">
         <f t="shared" si="5"/>
         <v>2.8275928523249449</v>
       </c>
     </row>
-    <row r="85" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B85" s="19">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A85" s="19">
         <v>45741</v>
       </c>
-      <c r="C85" s="42">
+      <c r="B85" s="42">
         <v>29816.7</v>
       </c>
-      <c r="D85" s="5">
+      <c r="C85" s="5">
         <v>26421</v>
       </c>
-      <c r="E85" s="8">
+      <c r="D85" s="8">
         <f t="shared" si="3"/>
         <v>22.799999999999272</v>
       </c>
-      <c r="F85" s="5">
+      <c r="E85" s="5">
         <f t="shared" si="4"/>
         <v>256.79999999999927</v>
       </c>
-      <c r="G85" s="27">
+      <c r="F85" s="27">
         <f>[2]Sheet1!U89</f>
         <v>91355</v>
       </c>
-      <c r="H85" s="6">
+      <c r="G85" s="6">
         <f t="shared" si="5"/>
         <v>2.8110119862076433</v>
       </c>
     </row>
-    <row r="86" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B86" s="21">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A86" s="21">
         <v>45742</v>
       </c>
-      <c r="C86" s="4">
+      <c r="B86" s="4">
         <v>30041.1</v>
       </c>
-      <c r="D86" s="5">
+      <c r="C86" s="5">
         <v>26624</v>
       </c>
-      <c r="E86" s="8">
+      <c r="D86" s="8">
         <f t="shared" si="3"/>
         <v>21.399999999997817</v>
       </c>
-      <c r="F86" s="5">
+      <c r="E86" s="5">
         <f t="shared" si="4"/>
         <v>224.39999999999782</v>
       </c>
-      <c r="G86" s="27">
+      <c r="F86" s="27">
         <f>[2]Sheet1!U90</f>
         <v>78856</v>
       </c>
-      <c r="H86" s="6">
+      <c r="G86" s="6">
         <f t="shared" si="5"/>
         <v>2.8456934158465788</v>
       </c>
     </row>
-    <row r="87" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B87" s="12">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A87" s="12">
         <v>45743</v>
       </c>
-      <c r="C87" s="4">
+      <c r="B87" s="4">
         <v>30293.1</v>
       </c>
-      <c r="D87" s="5">
+      <c r="C87" s="5">
         <v>26624</v>
       </c>
-      <c r="E87" s="8">
+      <c r="D87" s="8">
         <f t="shared" si="3"/>
         <v>252</v>
       </c>
-      <c r="F87" s="5">
+      <c r="E87" s="5">
         <f t="shared" si="4"/>
         <v>252</v>
       </c>
-      <c r="G87" s="27">
+      <c r="F87" s="27">
         <f>[2]Sheet1!U91</f>
         <v>86228</v>
       </c>
-      <c r="H87" s="6">
+      <c r="G87" s="6">
         <f t="shared" si="5"/>
         <v>2.92248457577585</v>
       </c>
     </row>
-    <row r="88" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B88" s="12">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A88" s="12">
         <v>45744</v>
       </c>
-      <c r="C88" s="46">
-        <f>C87+F88</f>
+      <c r="B88" s="46">
+        <f>B87+E88</f>
         <v>30576.70176</v>
       </c>
-      <c r="D88" s="5"/>
-      <c r="E88" s="8">
+      <c r="C88" s="5"/>
+      <c r="D88" s="8">
         <f t="shared" si="3"/>
         <v>26907.601760000001</v>
       </c>
-      <c r="F88" s="45">
-        <f>G88*2.82/1000</f>
+      <c r="E88" s="45">
+        <f>F88*2.82/1000</f>
         <v>283.60176000000001</v>
       </c>
-      <c r="G88" s="27">
+      <c r="F88" s="27">
         <f>[2]Sheet1!U92</f>
         <v>100568</v>
       </c>
-      <c r="H88" s="6">
+      <c r="G88" s="6">
         <f t="shared" si="5"/>
         <v>2.82</v>
       </c>
     </row>
-    <row r="89" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B89" s="12">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A89" s="12">
         <v>45745</v>
       </c>
-      <c r="C89" s="46">
-        <f t="shared" ref="C89:C92" si="6">C88+F89</f>
+      <c r="B89" s="46">
+        <f t="shared" ref="B89:B92" si="6">B88+E89</f>
         <v>30866.484960000002</v>
       </c>
-      <c r="D89" s="5"/>
-      <c r="E89" s="8">
+      <c r="C89" s="5"/>
+      <c r="D89" s="8">
         <f t="shared" si="3"/>
         <v>289.78320000000167</v>
       </c>
-      <c r="F89" s="45">
-        <f t="shared" ref="F89:F92" si="7">G89*2.82/1000</f>
+      <c r="E89" s="45">
+        <f t="shared" ref="E89:E92" si="7">F89*2.82/1000</f>
         <v>289.78320000000002</v>
       </c>
-      <c r="G89" s="27">
+      <c r="F89" s="27">
         <f>[2]Sheet1!U93</f>
         <v>102760</v>
       </c>
-      <c r="H89" s="6">
+      <c r="G89" s="6">
         <f t="shared" si="5"/>
         <v>2.82</v>
       </c>
     </row>
-    <row r="90" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B90" s="12">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A90" s="12">
         <v>45746</v>
       </c>
-      <c r="C90" s="46">
+      <c r="B90" s="46">
         <f t="shared" si="6"/>
         <v>31164.790200000003</v>
       </c>
-      <c r="D90" s="5"/>
-      <c r="E90" s="8">
+      <c r="C90" s="5"/>
+      <c r="D90" s="8">
         <f t="shared" si="3"/>
         <v>298.3052400000015</v>
       </c>
-      <c r="F90" s="45">
+      <c r="E90" s="45">
         <f t="shared" si="7"/>
         <v>298.30523999999997</v>
       </c>
-      <c r="G90" s="27">
+      <c r="F90" s="27">
         <f>[2]Sheet1!U94</f>
         <v>105782</v>
       </c>
-      <c r="H90" s="6">
+      <c r="G90" s="6">
         <f t="shared" si="5"/>
         <v>2.8199999999999994</v>
       </c>
     </row>
-    <row r="91" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B91" s="12">
+    <row r="91" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A91" s="12">
         <v>45747</v>
       </c>
-      <c r="C91" s="49">
+      <c r="B91" s="49">
         <f t="shared" si="6"/>
         <v>31459.793220000003</v>
       </c>
-      <c r="D91" s="37"/>
-      <c r="E91" s="9">
+      <c r="C91" s="37"/>
+      <c r="D91" s="9">
         <f t="shared" si="3"/>
         <v>295.00302000000011</v>
       </c>
-      <c r="F91" s="50">
+      <c r="E91" s="50">
         <f t="shared" si="7"/>
         <v>295.00301999999994</v>
       </c>
-      <c r="G91" s="9">
+      <c r="F91" s="9">
         <f>[2]Sheet1!U95</f>
         <v>104611</v>
       </c>
-      <c r="H91" s="38">
+      <c r="G91" s="38">
         <f t="shared" si="5"/>
         <v>2.8199999999999994</v>
       </c>
     </row>
-    <row r="92" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B92" s="12">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A92" s="12">
         <v>45748</v>
       </c>
-      <c r="C92" s="47">
+      <c r="B92" s="47">
         <f t="shared" si="6"/>
         <v>31758.168960000003</v>
       </c>
-      <c r="D92" s="10"/>
-      <c r="E92" s="15">
+      <c r="C92" s="10"/>
+      <c r="D92" s="15">
         <f t="shared" si="3"/>
         <v>298.3757399999995</v>
       </c>
-      <c r="F92" s="48">
+      <c r="E92" s="48">
         <f t="shared" si="7"/>
         <v>298.37574000000001</v>
       </c>
-      <c r="G92" s="28">
+      <c r="F92" s="28">
         <f>[2]Sheet1!U96</f>
         <v>105807</v>
       </c>
-      <c r="H92" s="43">
+      <c r="G92" s="43">
         <f t="shared" si="5"/>
         <v>2.82</v>
       </c>
     </row>
-    <row r="93" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B93" s="12">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A93" s="12">
         <v>45749</v>
       </c>
-      <c r="C93" s="4">
+      <c r="B93" s="4">
         <v>32055.3</v>
       </c>
-      <c r="D93" s="5">
+      <c r="C93" s="5">
         <v>28418</v>
       </c>
-      <c r="E93" s="8">
+      <c r="D93" s="8">
         <f t="shared" si="3"/>
         <v>-28120.868960000003</v>
       </c>
-      <c r="F93" s="45">
-        <f>G93*2.82/1000</f>
+      <c r="E93" s="45">
+        <f>F93*2.82/1000</f>
         <v>298.43495999999999</v>
       </c>
-      <c r="G93" s="27">
+      <c r="F93" s="27">
         <f>[2]Sheet1!U97</f>
         <v>105828</v>
       </c>
-      <c r="H93" s="6">
+      <c r="G93" s="6">
         <f t="shared" si="5"/>
         <v>2.82</v>
       </c>
     </row>
-    <row r="94" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B94" s="12">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A94" s="12">
         <v>45750</v>
       </c>
-      <c r="C94" s="4">
+      <c r="B94" s="4">
         <v>32374.400000000001</v>
       </c>
-      <c r="D94" s="5"/>
-      <c r="E94" s="8">
+      <c r="C94" s="5"/>
+      <c r="D94" s="8">
         <f t="shared" si="3"/>
         <v>28737.100000000002</v>
       </c>
-      <c r="F94" s="5">
+      <c r="E94" s="5">
         <f t="shared" si="4"/>
         <v>319.10000000000218</v>
       </c>
-      <c r="G94" s="27">
+      <c r="F94" s="27">
         <f>[2]Sheet1!U98</f>
         <v>106116</v>
       </c>
-      <c r="H94" s="6">
+      <c r="G94" s="6">
         <f t="shared" si="5"/>
         <v>3.0070865844924626</v>
       </c>
     </row>
-    <row r="95" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B95" s="12">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A95" s="12">
         <v>45751</v>
       </c>
-      <c r="C95" s="4">
+      <c r="B95" s="4">
         <v>32654.400000000001</v>
       </c>
-      <c r="D95" s="5">
+      <c r="C95" s="5">
         <v>28959</v>
       </c>
-      <c r="E95" s="8">
+      <c r="D95" s="8">
         <f t="shared" si="3"/>
         <v>-28679</v>
       </c>
-      <c r="F95" s="5">
+      <c r="E95" s="5">
         <f t="shared" si="4"/>
         <v>280</v>
       </c>
-      <c r="G95" s="27">
+      <c r="F95" s="27">
         <f>[2]Sheet1!U99</f>
         <v>105724</v>
       </c>
-      <c r="H95" s="6">
+      <c r="G95" s="6">
         <f t="shared" si="5"/>
         <v>2.6484052816768191</v>
       </c>
     </row>
-    <row r="96" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B96" s="12">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A96" s="12">
         <v>45752</v>
       </c>
-      <c r="C96" s="4">
+      <c r="B96" s="4">
         <v>32907.599999999999</v>
       </c>
-      <c r="D96" s="5">
+      <c r="C96" s="5">
         <v>28188</v>
       </c>
-      <c r="E96" s="8">
+      <c r="D96" s="8">
         <f t="shared" si="3"/>
         <v>1024.1999999999971</v>
       </c>
-      <c r="F96" s="5">
+      <c r="E96" s="5">
         <f t="shared" si="4"/>
         <v>253.19999999999709</v>
       </c>
-      <c r="G96" s="27">
+      <c r="F96" s="27">
         <f>[2]Sheet1!U100</f>
         <v>91045</v>
       </c>
-      <c r="H96" s="6">
+      <c r="G96" s="6">
         <f t="shared" si="5"/>
         <v>2.7810423416991279</v>
       </c>
     </row>
-    <row r="97" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B97" s="12">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A97" s="12">
         <v>45753</v>
       </c>
-      <c r="C97" s="4">
+      <c r="B97" s="4">
         <v>33157.800000000003</v>
       </c>
-      <c r="D97" s="5">
+      <c r="C97" s="5">
         <v>29413</v>
       </c>
-      <c r="E97" s="8">
+      <c r="D97" s="8">
         <f t="shared" si="3"/>
         <v>-974.79999999999563</v>
       </c>
-      <c r="F97" s="5">
+      <c r="E97" s="5">
         <f t="shared" si="4"/>
         <v>250.20000000000437</v>
       </c>
-      <c r="G97" s="27">
+      <c r="F97" s="27">
         <f>[2]Sheet1!U101</f>
         <v>87247</v>
       </c>
-      <c r="H97" s="6">
+      <c r="G97" s="6">
         <f t="shared" si="5"/>
         <v>2.8677203800704252</v>
       </c>
     </row>
-    <row r="98" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B98" s="12">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A98" s="12">
         <v>45754</v>
       </c>
-      <c r="C98" s="4">
+      <c r="B98" s="4">
         <v>33393.800000000003</v>
       </c>
-      <c r="D98" s="5">
+      <c r="C98" s="5">
         <v>29625</v>
       </c>
-      <c r="E98" s="8">
+      <c r="D98" s="8">
         <f t="shared" si="3"/>
         <v>24</v>
       </c>
-      <c r="F98" s="5">
+      <c r="E98" s="5">
         <f t="shared" si="4"/>
         <v>236</v>
       </c>
-      <c r="G98" s="27">
+      <c r="F98" s="27">
         <f>[2]Sheet1!U102</f>
         <v>86226</v>
       </c>
-      <c r="H98" s="6">
+      <c r="G98" s="6">
         <f t="shared" si="5"/>
         <v>2.7369934822443347</v>
       </c>
     </row>
-    <row r="99" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B99" s="12">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A99" s="12">
         <v>45755</v>
       </c>
-      <c r="C99" s="4">
+      <c r="B99" s="4">
         <v>33661.800000000003</v>
       </c>
-      <c r="D99" s="5">
+      <c r="C99" s="5">
         <v>29866</v>
       </c>
-      <c r="E99" s="8">
-        <f t="shared" si="3"/>
+      <c r="D99" s="8">
+        <f>B99-C99-(B98-C98)</f>
         <v>27</v>
       </c>
-      <c r="F99" s="5">
+      <c r="E99" s="5">
         <f t="shared" si="4"/>
         <v>268</v>
       </c>
-      <c r="G99" s="27">
+      <c r="F99" s="27">
         <f>[2]Sheet1!U103</f>
         <v>93832</v>
       </c>
-      <c r="H99" s="6">
+      <c r="G99" s="6">
         <f t="shared" si="5"/>
         <v>2.8561684713104269</v>
       </c>
     </row>
-    <row r="100" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B100" s="12">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A100" s="12">
         <v>45756</v>
       </c>
-      <c r="C100" s="4">
+      <c r="B100" s="4">
         <v>33935</v>
       </c>
-      <c r="D100" s="5">
+      <c r="C100" s="5">
         <v>30112</v>
       </c>
-      <c r="E100" s="8">
-        <f>C100-D100-(C99-D99)</f>
+      <c r="D100" s="8">
+        <f t="shared" ref="D100:D106" si="8">B100-C100-(B99-C99)</f>
         <v>27.19999999999709</v>
       </c>
-      <c r="F100" s="5">
+      <c r="E100" s="5">
         <f t="shared" si="4"/>
         <v>273.19999999999709</v>
       </c>
-      <c r="G100" s="27">
+      <c r="F100" s="27">
         <f>[2]Sheet1!U104</f>
         <v>94856</v>
       </c>
-      <c r="H100" s="6">
+      <c r="G100" s="6">
         <f t="shared" si="5"/>
         <v>2.8801551825925307</v>
       </c>
     </row>
-    <row r="101" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B101" s="12">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A101" s="12">
         <v>45757</v>
       </c>
-      <c r="C101" s="4">
+      <c r="B101" s="4">
         <v>34216.1</v>
       </c>
-      <c r="D101" s="5">
+      <c r="C101" s="5">
         <v>30366</v>
       </c>
-      <c r="E101" s="8">
-        <f t="shared" ref="E101:E105" si="8">C101-D101</f>
-        <v>3850.0999999999985</v>
-      </c>
-      <c r="F101" s="5">
+      <c r="D101" s="8">
+        <f t="shared" si="8"/>
+        <v>27.099999999998545</v>
+      </c>
+      <c r="E101" s="5">
         <f t="shared" si="4"/>
         <v>281.09999999999854</v>
       </c>
-      <c r="G101" s="27">
+      <c r="F101" s="27">
         <f>[2]Sheet1!U105</f>
         <v>100087</v>
       </c>
-      <c r="H101" s="6">
+      <c r="G101" s="6">
         <f t="shared" si="5"/>
         <v>2.8085565557964425</v>
       </c>
     </row>
-    <row r="102" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B102" s="12">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A102" s="12">
         <v>45758</v>
       </c>
-      <c r="C102" s="4">
+      <c r="B102" s="4">
         <v>34513.599999999999</v>
       </c>
-      <c r="D102" s="5">
+      <c r="C102" s="5">
         <v>30646</v>
       </c>
-      <c r="E102" s="8">
+      <c r="D102" s="8">
         <f t="shared" si="8"/>
-        <v>3867.5999999999985</v>
-      </c>
-      <c r="F102" s="5">
+        <v>17.5</v>
+      </c>
+      <c r="E102" s="5">
         <f t="shared" si="4"/>
         <v>297.5</v>
       </c>
-      <c r="G102" s="27">
+      <c r="F102" s="27">
         <f>[2]Sheet1!U106</f>
         <v>103544</v>
       </c>
-      <c r="H102" s="6">
+      <c r="G102" s="6">
         <f t="shared" si="5"/>
         <v>2.8731746890210923</v>
       </c>
     </row>
-    <row r="103" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B103" s="12">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A103" s="12">
         <v>45759</v>
       </c>
-      <c r="C103" s="4">
+      <c r="B103" s="4">
         <v>34737.300000000003</v>
       </c>
-      <c r="D103" s="5">
+      <c r="C103" s="5">
         <v>30837</v>
       </c>
-      <c r="E103" s="8">
+      <c r="D103" s="8">
         <f t="shared" si="8"/>
-        <v>3900.3000000000029</v>
-      </c>
-      <c r="F103" s="5">
+        <v>32.700000000004366</v>
+      </c>
+      <c r="E103" s="5">
         <f t="shared" si="4"/>
         <v>223.70000000000437</v>
       </c>
-      <c r="G103" s="27">
+      <c r="F103" s="27">
         <f>[2]Sheet1!U107</f>
         <v>80076</v>
       </c>
-      <c r="H103" s="6">
+      <c r="G103" s="6">
         <f t="shared" si="5"/>
         <v>2.7935960837205203</v>
       </c>
     </row>
-    <row r="104" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B104" s="12">
+    <row r="104" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A104" s="12">
         <v>45760</v>
       </c>
-      <c r="C104" s="4">
+      <c r="B104" s="4">
         <v>34980.5</v>
       </c>
-      <c r="D104" s="5">
+      <c r="C104" s="5">
         <v>31071</v>
       </c>
-      <c r="E104" s="8">
+      <c r="D104" s="8">
         <f t="shared" si="8"/>
-        <v>3909.5</v>
-      </c>
-      <c r="F104" s="5">
+        <v>9.1999999999970896</v>
+      </c>
+      <c r="E104" s="5">
         <f t="shared" si="4"/>
         <v>243.19999999999709</v>
       </c>
-      <c r="G104" s="27">
+      <c r="F104" s="27">
         <f>[2]Sheet1!U108</f>
         <v>88603</v>
       </c>
-      <c r="H104" s="6">
+      <c r="G104" s="6">
         <f t="shared" si="5"/>
         <v>2.744828053226156</v>
       </c>
     </row>
-    <row r="105" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B105" s="12">
+    <row r="105" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A105" s="12">
         <v>45761</v>
       </c>
-      <c r="C105" s="4">
+      <c r="B105" s="4">
         <v>35280.5</v>
       </c>
-      <c r="D105" s="5">
+      <c r="C105" s="5">
         <v>31328</v>
       </c>
-      <c r="E105" s="8">
+      <c r="D105" s="8">
         <f t="shared" si="8"/>
-        <v>3952.5</v>
-      </c>
-      <c r="F105" s="5">
+        <v>43</v>
+      </c>
+      <c r="E105" s="5">
         <f t="shared" si="4"/>
         <v>300</v>
       </c>
-      <c r="G105" s="27">
+      <c r="F105" s="27">
         <f>[2]Sheet1!U109</f>
         <v>103815</v>
       </c>
-      <c r="H105" s="6">
+      <c r="G105" s="6">
         <f t="shared" si="5"/>
         <v>2.889755815633579</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A106" s="12">
+        <v>45762</v>
+      </c>
+      <c r="B106" s="4">
+        <v>35550.800000000003</v>
+      </c>
+      <c r="C106" s="5">
+        <v>31572</v>
+      </c>
+      <c r="D106" s="8">
+        <f t="shared" si="8"/>
+        <v>26.30000000000291</v>
+      </c>
+      <c r="E106" s="5">
+        <f t="shared" si="4"/>
+        <v>270.30000000000291</v>
+      </c>
+      <c r="F106" s="27">
+        <f>[2]Sheet1!U110</f>
+        <v>97338</v>
+      </c>
+      <c r="G106" s="6">
+        <f t="shared" si="5"/>
+        <v>2.7769216544412556</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A107" s="12">
+        <v>45763</v>
+      </c>
+      <c r="B107" s="4">
+        <v>35817.5</v>
+      </c>
+      <c r="C107" s="5">
+        <v>31813</v>
+      </c>
+      <c r="D107" s="8">
+        <f t="shared" ref="D107:D111" si="9">B107-C107-(B106-C106)</f>
+        <v>25.69999999999709</v>
+      </c>
+      <c r="E107" s="5">
+        <f t="shared" ref="E107:E111" si="10">(B107-B106)</f>
+        <v>266.69999999999709</v>
+      </c>
+      <c r="F107" s="27">
+        <f>[2]Sheet1!U111</f>
+        <v>96048</v>
+      </c>
+      <c r="G107" s="6">
+        <f t="shared" si="5"/>
+        <v>2.7767366316841273</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A108" s="12">
+        <v>45764</v>
+      </c>
+      <c r="B108" s="4">
+        <v>36097.599999999999</v>
+      </c>
+      <c r="C108" s="5">
+        <v>32065</v>
+      </c>
+      <c r="D108" s="8">
+        <f t="shared" si="9"/>
+        <v>28.099999999998545</v>
+      </c>
+      <c r="E108" s="5">
+        <f t="shared" si="10"/>
+        <v>280.09999999999854</v>
+      </c>
+      <c r="F108" s="27">
+        <f>[2]Sheet1!U112</f>
+        <v>96857</v>
+      </c>
+      <c r="G108" s="6">
+        <f t="shared" si="5"/>
+        <v>2.8918921709323904</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A109" s="12">
+        <v>45765</v>
+      </c>
+      <c r="B109" s="4">
+        <v>36372.5</v>
+      </c>
+      <c r="C109" s="5">
+        <v>32314</v>
+      </c>
+      <c r="D109" s="8">
+        <f t="shared" si="9"/>
+        <v>25.900000000001455</v>
+      </c>
+      <c r="E109" s="5">
+        <f t="shared" si="10"/>
+        <v>274.90000000000146</v>
+      </c>
+      <c r="F109" s="27">
+        <f>[2]Sheet1!U113</f>
+        <v>99561</v>
+      </c>
+      <c r="G109" s="6">
+        <f t="shared" si="5"/>
+        <v>2.7611213226062561</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A110" s="12">
+        <v>45766</v>
+      </c>
+      <c r="B110" s="4">
+        <v>36641.199999999997</v>
+      </c>
+      <c r="C110" s="5">
+        <v>32557</v>
+      </c>
+      <c r="D110" s="8">
+        <f t="shared" si="9"/>
+        <v>25.69999999999709</v>
+      </c>
+      <c r="E110" s="5">
+        <f t="shared" si="10"/>
+        <v>268.69999999999709</v>
+      </c>
+      <c r="F110" s="27">
+        <f>[2]Sheet1!U114</f>
+        <v>93104</v>
+      </c>
+      <c r="G110" s="6">
+        <f t="shared" si="5"/>
+        <v>2.8860199346966522</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A111" s="12">
+        <v>45767</v>
+      </c>
+      <c r="B111" s="4">
+        <v>36922.300000000003</v>
+      </c>
+      <c r="C111" s="5">
+        <v>32810</v>
+      </c>
+      <c r="D111" s="8">
+        <f t="shared" si="9"/>
+        <v>28.100000000005821</v>
+      </c>
+      <c r="E111" s="5">
+        <f t="shared" si="10"/>
+        <v>281.10000000000582</v>
+      </c>
+      <c r="F111" s="27">
+        <f>[2]Sheet1!U115</f>
+        <v>97559</v>
+      </c>
+      <c r="G111" s="6">
+        <f t="shared" si="5"/>
+        <v>2.8813333470003362</v>
       </c>
     </row>
   </sheetData>
@@ -15258,10 +16105,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38810916-2DF0-490C-B584-F0F3D6EAB44D}">
-  <dimension ref="A1:K105"/>
+  <dimension ref="A1:K111"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A106" sqref="A106:XFD106"/>
+    <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
+      <selection activeCell="L112" sqref="L112"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -15271,34 +16118,34 @@
         <v>2</v>
       </c>
       <c r="B1" s="25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="G1" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="H1" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="I1" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C1" s="14" t="s">
+      <c r="K1" s="26" t="s">
         <v>18</v>
-      </c>
-      <c r="D1" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="E1" s="26" t="s">
-        <v>20</v>
-      </c>
-      <c r="F1" s="24" t="s">
-        <v>21</v>
-      </c>
-      <c r="G1" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="H1" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="I1" s="26" t="s">
-        <v>24</v>
-      </c>
-      <c r="J1" s="24" t="s">
-        <v>25</v>
-      </c>
-      <c r="K1" s="26" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -19217,7 +20064,7 @@
         <v>343.49999999999972</v>
       </c>
     </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A105" s="3">
         <f>'[1]NaOCl Pré'!B106</f>
         <v>45761</v>
@@ -19253,6 +20100,232 @@
       <c r="I105" s="4">
         <f>[1]ASC!D106</f>
         <v>333.00000000000108</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A106" s="3">
+        <f>'[1]NaOCl Pré'!B107</f>
+        <v>45762</v>
+      </c>
+      <c r="B106" s="23">
+        <f>'[1]NaOCl Pré'!D107</f>
+        <v>204.80000000000052</v>
+      </c>
+      <c r="C106" s="4">
+        <f>[1]Acide!D107</f>
+        <v>0</v>
+      </c>
+      <c r="D106" s="4">
+        <f>[1]FeCl3!D107</f>
+        <v>0</v>
+      </c>
+      <c r="E106" s="4">
+        <f>'[1]NaOCl 2 CEB 1'!H107</f>
+        <v>662.39999999999986</v>
+      </c>
+      <c r="F106" s="4">
+        <f>'[1]Soude CEB 1'!D107</f>
+        <v>0</v>
+      </c>
+      <c r="G106" s="4">
+        <f>'[1]Acide CEB2'!D107</f>
+        <v>137.59999999999906</v>
+      </c>
+      <c r="H106" s="4">
+        <f>[1]SBS!E107</f>
+        <v>585.6</v>
+      </c>
+      <c r="I106" s="4">
+        <f>[1]ASC!D107</f>
+        <v>353.9999999999992</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A107" s="3">
+        <f>'[1]NaOCl Pré'!B108</f>
+        <v>45763</v>
+      </c>
+      <c r="B107" s="23">
+        <f>'[1]NaOCl Pré'!D108</f>
+        <v>220.80000000000055</v>
+      </c>
+      <c r="C107" s="4">
+        <f>[1]Acide!D108</f>
+        <v>0</v>
+      </c>
+      <c r="D107" s="4">
+        <f>[1]FeCl3!D108</f>
+        <v>0</v>
+      </c>
+      <c r="E107" s="4">
+        <f>'[1]NaOCl 2 CEB 1'!H108</f>
+        <v>588.79999999999905</v>
+      </c>
+      <c r="F107" s="4">
+        <f>'[1]Soude CEB 1'!D108</f>
+        <v>0</v>
+      </c>
+      <c r="G107" s="4">
+        <f>'[1]Acide CEB2'!D108</f>
+        <v>150.40000000000299</v>
+      </c>
+      <c r="H107" s="4">
+        <f>[1]SBS!E108</f>
+        <v>845</v>
+      </c>
+      <c r="I107" s="4">
+        <f>[1]ASC!D108</f>
+        <v>358.50000000000028</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A108" s="3">
+        <f>'[1]NaOCl Pré'!B109</f>
+        <v>45764</v>
+      </c>
+      <c r="B108" s="23">
+        <f>'[1]NaOCl Pré'!D109</f>
+        <v>243.19999999999897</v>
+      </c>
+      <c r="C108" s="4">
+        <f>[1]Acide!D109</f>
+        <v>0</v>
+      </c>
+      <c r="D108" s="4">
+        <f>[1]FeCl3!D109</f>
+        <v>0</v>
+      </c>
+      <c r="E108" s="4">
+        <f>'[1]NaOCl 2 CEB 1'!H109</f>
+        <v>643.20000000000198</v>
+      </c>
+      <c r="F108" s="4">
+        <f>'[1]Soude CEB 1'!D109</f>
+        <v>0</v>
+      </c>
+      <c r="G108" s="4">
+        <f>'[1]Acide CEB2'!D109</f>
+        <v>102.39999999999938</v>
+      </c>
+      <c r="H108" s="4">
+        <f>[1]SBS!E109</f>
+        <v>803</v>
+      </c>
+      <c r="I108" s="4">
+        <f>[1]ASC!D109</f>
+        <v>343.5</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A109" s="3">
+        <f>'[1]NaOCl Pré'!B110</f>
+        <v>45765</v>
+      </c>
+      <c r="B109" s="23">
+        <f>'[1]NaOCl Pré'!D110</f>
+        <v>268.80000000000058</v>
+      </c>
+      <c r="C109" s="4">
+        <f>[1]Acide!D110</f>
+        <v>0</v>
+      </c>
+      <c r="D109" s="4">
+        <f>[1]FeCl3!D110</f>
+        <v>0</v>
+      </c>
+      <c r="E109" s="4">
+        <f>'[1]NaOCl 2 CEB 1'!H110</f>
+        <v>463.99999999999682</v>
+      </c>
+      <c r="F109" s="4">
+        <f>'[1]Soude CEB 1'!D110</f>
+        <v>0</v>
+      </c>
+      <c r="G109" s="4">
+        <f>'[1]Acide CEB2'!D110</f>
+        <v>143.99999999999835</v>
+      </c>
+      <c r="H109" s="4">
+        <v>467.4</v>
+      </c>
+      <c r="I109" s="4">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A110" s="3">
+        <f>'[1]NaOCl Pré'!B111</f>
+        <v>45766</v>
+      </c>
+      <c r="B110" s="23">
+        <f>'[1]NaOCl Pré'!D111</f>
+        <v>112.0000000000001</v>
+      </c>
+      <c r="C110" s="4">
+        <f>[1]Acide!D111</f>
+        <v>0</v>
+      </c>
+      <c r="D110" s="4">
+        <f>[1]FeCl3!D111</f>
+        <v>0</v>
+      </c>
+      <c r="E110" s="4">
+        <f>'[1]NaOCl 2 CEB 1'!H111</f>
+        <v>393.60000000000105</v>
+      </c>
+      <c r="F110" s="4">
+        <f>'[1]Soude CEB 1'!D111</f>
+        <v>0</v>
+      </c>
+      <c r="G110" s="4">
+        <f>'[1]Acide CEB2'!D111</f>
+        <v>265.59999999999917</v>
+      </c>
+      <c r="H110" s="4">
+        <f>[1]SBS!E111</f>
+        <v>512.00000000000045</v>
+      </c>
+      <c r="I110" s="4">
+        <f>[1]ASC!D111</f>
+        <v>335.99999999999943</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A111" s="3">
+        <f>'[1]NaOCl Pré'!B112</f>
+        <v>45767</v>
+      </c>
+      <c r="B111" s="23">
+        <f>'[1]NaOCl Pré'!D112</f>
+        <v>163.19999999999979</v>
+      </c>
+      <c r="C111" s="4">
+        <f>[1]Acide!D112</f>
+        <v>0</v>
+      </c>
+      <c r="D111" s="4">
+        <f>[1]FeCl3!D112</f>
+        <v>0</v>
+      </c>
+      <c r="E111" s="4">
+        <f>'[1]NaOCl 2 CEB 1'!H112</f>
+        <v>476.80000000000075</v>
+      </c>
+      <c r="F111" s="4">
+        <f>'[1]Soude CEB 1'!D112</f>
+        <v>0</v>
+      </c>
+      <c r="G111" s="4">
+        <f>'[1]Acide CEB2'!D112</f>
+        <v>-19.199999999997885</v>
+      </c>
+      <c r="H111" s="4">
+        <f>[1]SBS!E112</f>
+        <v>352.00000000000034</v>
+      </c>
+      <c r="I111" s="4">
+        <f>[1]ASC!D112</f>
+        <v>349.49999999999903</v>
       </c>
     </row>
   </sheetData>

--- a/Consommation spécifique.xlsx
+++ b/Consommation spécifique.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\Projects\wave2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02412392-C80E-4271-8938-FC9DA266CDBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D00C269-56C1-482F-A656-2BD7C95A431D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" activeTab="2" xr2:uid="{4E830341-EBCA-4A95-9BBE-9CDD49815F8C}"/>
   </bookViews>
@@ -93,22 +93,13 @@
     <t>Acide CIP RO (g/m3)</t>
   </si>
   <si>
+    <t>SMBS (l/m3)</t>
+  </si>
+  <si>
     <t>Soude CIP RO (l/m3)</t>
   </si>
   <si>
     <t>Acide CIP RO (l/m3)</t>
-  </si>
-  <si>
-    <t>Antiscalant (l/j)</t>
-  </si>
-  <si>
-    <t>SMBS (l/j)</t>
-  </si>
-  <si>
-    <t>Acide CEB 2 (l/j)</t>
-  </si>
-  <si>
-    <t>Soude CEB1 (l/j)</t>
   </si>
   <si>
     <t>NaOCl CEB 1  (1+2) (l/j)</t>
@@ -121,6 +112,15 @@
   </si>
   <si>
     <t>NaOCl (l/j)</t>
+  </si>
+  <si>
+    <t>Soude CEB1 (l/j)</t>
+  </si>
+  <si>
+    <t>Acide CEB 2 (l/j)</t>
+  </si>
+  <si>
+    <t>Antiscalant (l/j)</t>
   </si>
 </sst>
 </file>
@@ -812,8 +812,8 @@
       <sheetName val="Approvisionnement"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
       <sheetData sheetId="2">
         <row r="3">
           <cell r="B3">
@@ -2022,6 +2022,28 @@
             <v>1.6728338748859644</v>
           </cell>
         </row>
+        <row r="113">
+          <cell r="B113">
+            <v>45768</v>
+          </cell>
+          <cell r="D113">
+            <v>233.60000000000002</v>
+          </cell>
+          <cell r="F113">
+            <v>2.2354922676466087</v>
+          </cell>
+        </row>
+        <row r="114">
+          <cell r="B114">
+            <v>45769</v>
+          </cell>
+          <cell r="D114">
+            <v>19.20000000000055</v>
+          </cell>
+          <cell r="F114">
+            <v>0.21377751550444313</v>
+          </cell>
+        </row>
       </sheetData>
       <sheetData sheetId="3">
         <row r="3">
@@ -2904,6 +2926,22 @@
             <v>0</v>
           </cell>
         </row>
+        <row r="113">
+          <cell r="D113">
+            <v>0</v>
+          </cell>
+          <cell r="F113">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="114">
+          <cell r="D114">
+            <v>0</v>
+          </cell>
+          <cell r="F114">
+            <v>0</v>
+          </cell>
+        </row>
       </sheetData>
       <sheetData sheetId="4">
         <row r="3">
@@ -3786,8 +3824,24 @@
             <v>0</v>
           </cell>
         </row>
+        <row r="113">
+          <cell r="D113">
+            <v>0</v>
+          </cell>
+          <cell r="F113">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="114">
+          <cell r="D114">
+            <v>0</v>
+          </cell>
+          <cell r="F114">
+            <v>0</v>
+          </cell>
+        </row>
       </sheetData>
-      <sheetData sheetId="5" refreshError="1"/>
+      <sheetData sheetId="5"/>
       <sheetData sheetId="6">
         <row r="3">
           <cell r="H3">
@@ -4669,6 +4723,22 @@
             <v>4.8872989678041057</v>
           </cell>
         </row>
+        <row r="113">
+          <cell r="H113">
+            <v>560.00000000000045</v>
+          </cell>
+          <cell r="I113">
+            <v>5.3590568060021475</v>
+          </cell>
+        </row>
+        <row r="114">
+          <cell r="H114">
+            <v>364.79999999999893</v>
+          </cell>
+          <cell r="I114">
+            <v>4.0617727945842903</v>
+          </cell>
+        </row>
       </sheetData>
       <sheetData sheetId="7">
         <row r="3">
@@ -5551,6 +5621,22 @@
             <v>0</v>
           </cell>
         </row>
+        <row r="113">
+          <cell r="D113">
+            <v>0</v>
+          </cell>
+          <cell r="F113">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="114">
+          <cell r="D114">
+            <v>0</v>
+          </cell>
+          <cell r="F114">
+            <v>0</v>
+          </cell>
+        </row>
       </sheetData>
       <sheetData sheetId="8">
         <row r="3">
@@ -5802,61 +5888,73 @@
           </cell>
         </row>
         <row r="34">
+          <cell r="D34"/>
           <cell r="F34">
             <v>0</v>
           </cell>
         </row>
         <row r="35">
+          <cell r="D35"/>
           <cell r="F35">
             <v>0</v>
           </cell>
         </row>
         <row r="36">
+          <cell r="D36"/>
           <cell r="F36">
             <v>0</v>
           </cell>
         </row>
         <row r="37">
+          <cell r="D37"/>
           <cell r="F37">
             <v>0</v>
           </cell>
         </row>
         <row r="38">
+          <cell r="D38"/>
           <cell r="F38">
             <v>0</v>
           </cell>
         </row>
         <row r="39">
+          <cell r="D39"/>
           <cell r="F39">
             <v>0</v>
           </cell>
         </row>
         <row r="40">
+          <cell r="D40"/>
           <cell r="F40">
             <v>0</v>
           </cell>
         </row>
         <row r="41">
+          <cell r="D41"/>
           <cell r="F41">
             <v>0</v>
           </cell>
         </row>
         <row r="42">
+          <cell r="D42"/>
           <cell r="F42">
             <v>0</v>
           </cell>
         </row>
         <row r="43">
+          <cell r="D43"/>
           <cell r="F43">
             <v>0</v>
           </cell>
         </row>
         <row r="44">
+          <cell r="D44"/>
           <cell r="F44">
             <v>0</v>
           </cell>
         </row>
         <row r="45">
+          <cell r="D45"/>
           <cell r="F45">
             <v>0</v>
           </cell>
@@ -6383,18 +6481,34 @@
         </row>
         <row r="111">
           <cell r="D111">
-            <v>265.59999999999917</v>
+            <v>105.6000000000008</v>
           </cell>
           <cell r="F111">
-            <v>2.8527238357105942</v>
+            <v>1.1342155009451882</v>
           </cell>
         </row>
         <row r="112">
           <cell r="D112">
-            <v>-19.199999999997885</v>
+            <v>140.80000000000047</v>
           </cell>
           <cell r="F112">
-            <v>-0.19680398528068027</v>
+            <v>1.4432292253918191</v>
+          </cell>
+        </row>
+        <row r="113">
+          <cell r="D113">
+            <v>96.000000000000085</v>
+          </cell>
+          <cell r="F113">
+            <v>0.91869545245751105</v>
+          </cell>
+        </row>
+        <row r="114">
+          <cell r="D114">
+            <v>95.999999999998309</v>
+          </cell>
+          <cell r="F114">
+            <v>1.068887577522166</v>
           </cell>
         </row>
       </sheetData>
@@ -7256,8 +7370,11 @@
           </cell>
         </row>
         <row r="110">
+          <cell r="E110">
+            <v>467.4</v>
+          </cell>
           <cell r="G110">
-            <v>-13.88495495224034</v>
+            <v>4.6946093349805649</v>
           </cell>
         </row>
         <row r="111">
@@ -7274,6 +7391,22 @@
           </cell>
           <cell r="G112">
             <v>3.608073063479539</v>
+          </cell>
+        </row>
+        <row r="113">
+          <cell r="E113">
+            <v>653.20000000000005</v>
+          </cell>
+          <cell r="G113">
+            <v>6.250956974429644</v>
+          </cell>
+        </row>
+        <row r="114">
+          <cell r="E114">
+            <v>240.00000000000023</v>
+          </cell>
+          <cell r="G114">
+            <v>2.6722189438054649</v>
           </cell>
         </row>
       </sheetData>
@@ -8135,8 +8268,11 @@
           </cell>
         </row>
         <row r="110">
+          <cell r="D110">
+            <v>348</v>
+          </cell>
           <cell r="F110">
-            <v>-13.31846807484858</v>
+            <v>3.4953445626299451</v>
           </cell>
         </row>
         <row r="111">
@@ -8155,10 +8291,26 @@
             <v>3.5824475445627675</v>
           </cell>
         </row>
+        <row r="113">
+          <cell r="D113">
+            <v>332</v>
+          </cell>
+          <cell r="F113">
+            <v>3.1771551064155568</v>
+          </cell>
+        </row>
+        <row r="114">
+          <cell r="D114">
+            <v>348.00000000000074</v>
+          </cell>
+          <cell r="F114">
+            <v>3.8747174685179284</v>
+          </cell>
+        </row>
       </sheetData>
-      <sheetData sheetId="11" refreshError="1"/>
-      <sheetData sheetId="12" refreshError="1"/>
-      <sheetData sheetId="13" refreshError="1"/>
+      <sheetData sheetId="11"/>
+      <sheetData sheetId="12"/>
+      <sheetData sheetId="13"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -8728,10 +8880,20 @@
             <v>97559</v>
           </cell>
         </row>
+        <row r="116">
+          <cell r="U116">
+            <v>104496</v>
+          </cell>
+        </row>
+        <row r="117">
+          <cell r="U117">
+            <v>89813</v>
+          </cell>
+        </row>
       </sheetData>
-      <sheetData sheetId="1" refreshError="1"/>
-      <sheetData sheetId="2" refreshError="1"/>
-      <sheetData sheetId="3" refreshError="1"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -9034,11 +9196,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BC5C344-277E-4945-8E25-AE6A0B860AD5}">
-  <dimension ref="A1:K111"/>
+  <dimension ref="A1:K113"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A64" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A86" sqref="A86:K111"/>
+      <pane ySplit="1" topLeftCell="A77" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A86" sqref="A86:K113"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -13294,11 +13456,11 @@
       </c>
       <c r="H109" s="40">
         <f>[1]SBS!G110</f>
-        <v>-13.88495495224034</v>
+        <v>4.6946093349805649</v>
       </c>
       <c r="I109" s="40">
         <f>[1]ASC!F110</f>
-        <v>-13.31846807484858</v>
+        <v>3.4953445626299451</v>
       </c>
       <c r="J109" s="4"/>
       <c r="K109" s="29"/>
@@ -13329,7 +13491,7 @@
       </c>
       <c r="G110" s="40">
         <f>'[1]Acide CEB2'!F111</f>
-        <v>2.8527238357105942</v>
+        <v>1.1342155009451882</v>
       </c>
       <c r="H110" s="40">
         <f>[1]SBS!G111</f>
@@ -13368,7 +13530,7 @@
       </c>
       <c r="G111" s="40">
         <f>'[1]Acide CEB2'!F112</f>
-        <v>-0.19680398528068027</v>
+        <v>1.4432292253918191</v>
       </c>
       <c r="H111" s="40">
         <f>[1]SBS!G112</f>
@@ -13380,6 +13542,84 @@
       </c>
       <c r="J111" s="4"/>
       <c r="K111" s="29"/>
+    </row>
+    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A112" s="21">
+        <v>45768</v>
+      </c>
+      <c r="B112" s="40">
+        <f>'[1]NaOCl Pré'!F113</f>
+        <v>2.2354922676466087</v>
+      </c>
+      <c r="C112" s="4">
+        <f>[1]Acide!F113</f>
+        <v>0</v>
+      </c>
+      <c r="D112" s="4">
+        <f>[1]FeCl3!F113</f>
+        <v>0</v>
+      </c>
+      <c r="E112" s="40">
+        <f>'[1]NaOCl 2 CEB 1'!I113</f>
+        <v>5.3590568060021475</v>
+      </c>
+      <c r="F112" s="4">
+        <f>'[1]Soude CEB 1'!F113</f>
+        <v>0</v>
+      </c>
+      <c r="G112" s="40">
+        <f>'[1]Acide CEB2'!F113</f>
+        <v>0.91869545245751105</v>
+      </c>
+      <c r="H112" s="40">
+        <f>[1]SBS!G113</f>
+        <v>6.250956974429644</v>
+      </c>
+      <c r="I112" s="40">
+        <f>[1]ASC!F113</f>
+        <v>3.1771551064155568</v>
+      </c>
+      <c r="J112" s="4"/>
+      <c r="K112" s="29"/>
+    </row>
+    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A113" s="21">
+        <v>45769</v>
+      </c>
+      <c r="B113" s="40">
+        <f>'[1]NaOCl Pré'!F114</f>
+        <v>0.21377751550444313</v>
+      </c>
+      <c r="C113" s="4">
+        <f>[1]Acide!F114</f>
+        <v>0</v>
+      </c>
+      <c r="D113" s="4">
+        <f>[1]FeCl3!F114</f>
+        <v>0</v>
+      </c>
+      <c r="E113" s="40">
+        <f>'[1]NaOCl 2 CEB 1'!I114</f>
+        <v>4.0617727945842903</v>
+      </c>
+      <c r="F113" s="4">
+        <f>'[1]Soude CEB 1'!F114</f>
+        <v>0</v>
+      </c>
+      <c r="G113" s="40">
+        <f>'[1]Acide CEB2'!F114</f>
+        <v>1.068887577522166</v>
+      </c>
+      <c r="H113" s="40">
+        <f>[1]SBS!G114</f>
+        <v>2.6722189438054649</v>
+      </c>
+      <c r="I113" s="40">
+        <f>[1]ASC!F114</f>
+        <v>3.8747174685179284</v>
+      </c>
+      <c r="J113" s="4"/>
+      <c r="K113" s="29"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -13389,10 +13629,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07CB649B-6F18-453D-B029-557EF373D866}">
-  <dimension ref="A1:G111"/>
+  <dimension ref="A1:G113"/>
   <sheetViews>
-    <sheetView topLeftCell="A77" workbookViewId="0">
-      <selection activeCell="A77" sqref="A1:A1048576"/>
+    <sheetView topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="A67" sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -14967,7 +15207,7 @@
         <v>94813</v>
       </c>
       <c r="G69" s="6">
-        <f t="shared" ref="G69:G111" si="5">E69/F69*1000</f>
+        <f t="shared" ref="G69:G113" si="5">E69/F69*1000</f>
         <v>2.8930631875376047</v>
       </c>
     </row>
@@ -15974,11 +16214,11 @@
         <v>31813</v>
       </c>
       <c r="D107" s="8">
-        <f t="shared" ref="D107:D111" si="9">B107-C107-(B106-C106)</f>
+        <f t="shared" ref="D107:D113" si="9">B107-C107-(B106-C106)</f>
         <v>25.69999999999709</v>
       </c>
       <c r="E107" s="5">
-        <f t="shared" ref="E107:E111" si="10">(B107-B106)</f>
+        <f t="shared" ref="E107:E113" si="10">(B107-B106)</f>
         <v>266.69999999999709</v>
       </c>
       <c r="F107" s="27">
@@ -16096,6 +16336,60 @@
       <c r="G111" s="6">
         <f t="shared" si="5"/>
         <v>2.8813333470003362</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A112" s="12">
+        <v>45768</v>
+      </c>
+      <c r="B112" s="4">
+        <v>37219.599999999999</v>
+      </c>
+      <c r="C112" s="5">
+        <v>33078</v>
+      </c>
+      <c r="D112" s="8">
+        <f t="shared" si="9"/>
+        <v>29.299999999995634</v>
+      </c>
+      <c r="E112" s="5">
+        <f t="shared" si="10"/>
+        <v>297.29999999999563</v>
+      </c>
+      <c r="F112" s="27">
+        <f>[2]Sheet1!U116</f>
+        <v>104496</v>
+      </c>
+      <c r="G112" s="6">
+        <f t="shared" si="5"/>
+        <v>2.8450849793293105</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A113" s="12">
+        <v>45769</v>
+      </c>
+      <c r="B113" s="4">
+        <v>37465.4</v>
+      </c>
+      <c r="C113" s="5">
+        <v>33297</v>
+      </c>
+      <c r="D113" s="8">
+        <f t="shared" si="9"/>
+        <v>26.80000000000291</v>
+      </c>
+      <c r="E113" s="5">
+        <f t="shared" si="10"/>
+        <v>245.80000000000291</v>
+      </c>
+      <c r="F113" s="27">
+        <f>[2]Sheet1!U117</f>
+        <v>89813</v>
+      </c>
+      <c r="G113" s="6">
+        <f t="shared" si="5"/>
+        <v>2.7367975682807937</v>
       </c>
     </row>
   </sheetData>
@@ -16105,10 +16399,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38810916-2DF0-490C-B584-F0F3D6EAB44D}">
-  <dimension ref="A1:K111"/>
+  <dimension ref="A1:K113"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
-      <selection activeCell="L112" sqref="L112"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -16118,34 +16412,34 @@
         <v>2</v>
       </c>
       <c r="B1" s="25" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="F1" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="H1" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="I1" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="C1" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="D1" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="E1" s="26" t="s">
-        <v>23</v>
-      </c>
-      <c r="F1" s="24" t="s">
-        <v>22</v>
-      </c>
-      <c r="G1" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="H1" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="I1" s="26" t="s">
+      <c r="J1" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="K1" s="26" t="s">
         <v>19</v>
-      </c>
-      <c r="J1" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="K1" s="26" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -20246,9 +20540,11 @@
         <v>143.99999999999835</v>
       </c>
       <c r="H109" s="4">
+        <f>[1]SBS!E110</f>
         <v>467.4</v>
       </c>
       <c r="I109" s="4">
+        <f>[1]ASC!D110</f>
         <v>348</v>
       </c>
     </row>
@@ -20279,7 +20575,7 @@
       </c>
       <c r="G110" s="4">
         <f>'[1]Acide CEB2'!D111</f>
-        <v>265.59999999999917</v>
+        <v>105.6000000000008</v>
       </c>
       <c r="H110" s="4">
         <f>[1]SBS!E111</f>
@@ -20290,7 +20586,7 @@
         <v>335.99999999999943</v>
       </c>
     </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A111" s="3">
         <f>'[1]NaOCl Pré'!B112</f>
         <v>45767</v>
@@ -20317,7 +20613,7 @@
       </c>
       <c r="G111" s="4">
         <f>'[1]Acide CEB2'!D112</f>
-        <v>-19.199999999997885</v>
+        <v>140.80000000000047</v>
       </c>
       <c r="H111" s="4">
         <f>[1]SBS!E112</f>
@@ -20326,6 +20622,82 @@
       <c r="I111" s="4">
         <f>[1]ASC!D112</f>
         <v>349.49999999999903</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A112" s="3">
+        <f>'[1]NaOCl Pré'!B113</f>
+        <v>45768</v>
+      </c>
+      <c r="B112" s="23">
+        <f>'[1]NaOCl Pré'!D113</f>
+        <v>233.60000000000002</v>
+      </c>
+      <c r="C112" s="4">
+        <f>[1]Acide!D113</f>
+        <v>0</v>
+      </c>
+      <c r="D112" s="4">
+        <f>[1]FeCl3!D113</f>
+        <v>0</v>
+      </c>
+      <c r="E112" s="4">
+        <f>'[1]NaOCl 2 CEB 1'!H113</f>
+        <v>560.00000000000045</v>
+      </c>
+      <c r="F112" s="4">
+        <f>'[1]Soude CEB 1'!D113</f>
+        <v>0</v>
+      </c>
+      <c r="G112" s="4">
+        <f>'[1]Acide CEB2'!D113</f>
+        <v>96.000000000000085</v>
+      </c>
+      <c r="H112" s="4">
+        <f>[1]SBS!E113</f>
+        <v>653.20000000000005</v>
+      </c>
+      <c r="I112" s="4">
+        <f>[1]ASC!D113</f>
+        <v>332</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A113" s="3">
+        <f>'[1]NaOCl Pré'!B114</f>
+        <v>45769</v>
+      </c>
+      <c r="B113" s="23">
+        <f>'[1]NaOCl Pré'!D114</f>
+        <v>19.20000000000055</v>
+      </c>
+      <c r="C113" s="4">
+        <f>[1]Acide!D114</f>
+        <v>0</v>
+      </c>
+      <c r="D113" s="4">
+        <f>[1]FeCl3!D114</f>
+        <v>0</v>
+      </c>
+      <c r="E113" s="4">
+        <f>'[1]NaOCl 2 CEB 1'!H114</f>
+        <v>364.79999999999893</v>
+      </c>
+      <c r="F113" s="4">
+        <f>'[1]Soude CEB 1'!D114</f>
+        <v>0</v>
+      </c>
+      <c r="G113" s="4">
+        <f>'[1]Acide CEB2'!D114</f>
+        <v>95.999999999998309</v>
+      </c>
+      <c r="H113" s="4">
+        <f>[1]SBS!E114</f>
+        <v>240.00000000000023</v>
+      </c>
+      <c r="I113" s="4">
+        <f>[1]ASC!D114</f>
+        <v>348.00000000000074</v>
       </c>
     </row>
   </sheetData>

--- a/Consommation spécifique.xlsx
+++ b/Consommation spécifique.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\Projects\wave2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D00C269-56C1-482F-A656-2BD7C95A431D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4E6F6515-774A-4912-8749-A7775342CF2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" activeTab="2" xr2:uid="{4E830341-EBCA-4A95-9BBE-9CDD49815F8C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" activeTab="1" xr2:uid="{4E830341-EBCA-4A95-9BBE-9CDD49815F8C}"/>
   </bookViews>
   <sheets>
     <sheet name="CS Produits chimiques" sheetId="1" r:id="rId1"/>
@@ -93,13 +93,16 @@
     <t>Acide CIP RO (g/m3)</t>
   </si>
   <si>
-    <t>SMBS (l/m3)</t>
+    <t>SMBS (l/j)</t>
   </si>
   <si>
-    <t>Soude CIP RO (l/m3)</t>
+    <t>Antiscalant (l/j)</t>
   </si>
   <si>
-    <t>Acide CIP RO (l/m3)</t>
+    <t>Acide CEB 2 (l/j)</t>
+  </si>
+  <si>
+    <t>Soude CEB1 (l/j)</t>
   </si>
   <si>
     <t>NaOCl CEB 1  (1+2) (l/j)</t>
@@ -114,13 +117,10 @@
     <t>NaOCl (l/j)</t>
   </si>
   <si>
-    <t>Soude CEB1 (l/j)</t>
+    <t>Soude CIP RO (l/j)</t>
   </si>
   <si>
-    <t>Acide CEB 2 (l/j)</t>
-  </si>
-  <si>
-    <t>Antiscalant (l/j)</t>
+    <t>Acide CIP RO (l/j)</t>
   </si>
 </sst>
 </file>
@@ -2044,6 +2044,17 @@
             <v>0.21377751550444313</v>
           </cell>
         </row>
+        <row r="115">
+          <cell r="B115">
+            <v>45770</v>
+          </cell>
+          <cell r="D115">
+            <v>220.79999999999876</v>
+          </cell>
+          <cell r="F115">
+            <v>2.557686961356672</v>
+          </cell>
+        </row>
       </sheetData>
       <sheetData sheetId="3">
         <row r="3">
@@ -2942,6 +2953,14 @@
             <v>0</v>
           </cell>
         </row>
+        <row r="115">
+          <cell r="D115">
+            <v>0</v>
+          </cell>
+          <cell r="F115">
+            <v>0</v>
+          </cell>
+        </row>
       </sheetData>
       <sheetData sheetId="4">
         <row r="3">
@@ -3837,6 +3856,14 @@
             <v>0</v>
           </cell>
           <cell r="F114">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="115">
+          <cell r="D115">
+            <v>0</v>
+          </cell>
+          <cell r="F115">
             <v>0</v>
           </cell>
         </row>
@@ -4739,6 +4766,14 @@
             <v>4.0617727945842903</v>
           </cell>
         </row>
+        <row r="115">
+          <cell r="H115">
+            <v>396.80000000000069</v>
+          </cell>
+          <cell r="I115">
+            <v>4.5964229450468066</v>
+          </cell>
+        </row>
       </sheetData>
       <sheetData sheetId="7">
         <row r="3">
@@ -5637,6 +5672,14 @@
             <v>0</v>
           </cell>
         </row>
+        <row r="115">
+          <cell r="D115">
+            <v>0</v>
+          </cell>
+          <cell r="F115">
+            <v>0</v>
+          </cell>
+        </row>
       </sheetData>
       <sheetData sheetId="8">
         <row r="3">
@@ -6509,6 +6552,14 @@
           </cell>
           <cell r="F114">
             <v>1.068887577522166</v>
+          </cell>
+        </row>
+        <row r="115">
+          <cell r="D115">
+            <v>76.800000000000423</v>
+          </cell>
+          <cell r="F115">
+            <v>0.88963024742841745</v>
           </cell>
         </row>
       </sheetData>
@@ -7409,6 +7460,14 @@
             <v>2.6722189438054649</v>
           </cell>
         </row>
+        <row r="115">
+          <cell r="E115">
+            <v>937.5999999999998</v>
+          </cell>
+          <cell r="G115">
+            <v>10.860902604021868</v>
+          </cell>
+        </row>
       </sheetData>
       <sheetData sheetId="10">
         <row r="3">
@@ -8305,6 +8364,14 @@
           </cell>
           <cell r="F114">
             <v>3.8747174685179284</v>
+          </cell>
+        </row>
+        <row r="115">
+          <cell r="D115">
+            <v>355.50000000000102</v>
+          </cell>
+          <cell r="F115">
+            <v>4.1180150125104369</v>
           </cell>
         </row>
       </sheetData>
@@ -8888,6 +8955,11 @@
         <row r="117">
           <cell r="U117">
             <v>89813</v>
+          </cell>
+        </row>
+        <row r="118">
+          <cell r="U118">
+            <v>86328</v>
           </cell>
         </row>
       </sheetData>
@@ -9196,11 +9268,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BC5C344-277E-4945-8E25-AE6A0B860AD5}">
-  <dimension ref="A1:K113"/>
+  <dimension ref="A1:K114"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A77" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A86" sqref="A86:K113"/>
+      <pane ySplit="1" topLeftCell="A72" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A115" sqref="A115:XFD115"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -12604,8 +12676,6 @@
         <f>[1]ASC!F88</f>
         <v>3.7922716518996142</v>
       </c>
-      <c r="J87" s="4"/>
-      <c r="K87" s="29"/>
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A88" s="21">
@@ -12643,8 +12713,6 @@
         <f>[1]ASC!F89</f>
         <v>3.2813618646090217</v>
       </c>
-      <c r="J88" s="4"/>
-      <c r="K88" s="29"/>
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A89" s="21">
@@ -12682,8 +12750,6 @@
         <f>[1]ASC!F90</f>
         <v>3.2697547683923909</v>
       </c>
-      <c r="J89" s="4"/>
-      <c r="K89" s="29"/>
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A90" s="21">
@@ -12721,8 +12787,6 @@
         <f>[1]ASC!F91</f>
         <v>3.2047040139153982</v>
       </c>
-      <c r="J90" s="4"/>
-      <c r="K90" s="29"/>
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A91" s="21">
@@ -12760,8 +12824,6 @@
         <f>[1]ASC!F92</f>
         <v>3.2549158310311577</v>
       </c>
-      <c r="J91" s="4"/>
-      <c r="K91" s="29"/>
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A92" s="21">
@@ -12799,8 +12861,6 @@
         <f>[1]ASC!F93</f>
         <v>3.2748305877682848</v>
       </c>
-      <c r="J92" s="4"/>
-      <c r="K92" s="29"/>
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A93" s="21">
@@ -12838,8 +12898,6 @@
         <f>[1]ASC!F94</f>
         <v>3.2316589182446869</v>
       </c>
-      <c r="J93" s="4"/>
-      <c r="K93" s="29"/>
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A94" s="21">
@@ -12877,8 +12935,6 @@
         <f>[1]ASC!F95</f>
         <v>3.1522107881940538</v>
       </c>
-      <c r="J94" s="4"/>
-      <c r="K94" s="29"/>
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A95" s="21">
@@ -12916,8 +12972,6 @@
         <f>[1]ASC!F96</f>
         <v>3.3199651923877345</v>
       </c>
-      <c r="J95" s="4"/>
-      <c r="K95" s="29"/>
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A96" s="21">
@@ -12955,10 +13009,8 @@
         <f>[1]ASC!F97</f>
         <v>3.6081058817068481</v>
       </c>
-      <c r="J96" s="4"/>
-      <c r="K96" s="29"/>
-    </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="97" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A97" s="21">
         <v>45753</v>
       </c>
@@ -12994,10 +13046,8 @@
         <f>[1]ASC!F98</f>
         <v>3.9886758283952539</v>
       </c>
-      <c r="J97" s="4"/>
-      <c r="K97" s="29"/>
-    </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="98" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A98" s="21">
         <v>45754</v>
       </c>
@@ -13033,10 +13083,8 @@
         <f>[1]ASC!F99</f>
         <v>4.0185094982951659</v>
       </c>
-      <c r="J98" s="4"/>
-      <c r="K98" s="29"/>
-    </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="99" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A99" s="21">
         <v>45755</v>
       </c>
@@ -13072,10 +13120,8 @@
         <f>[1]ASC!F100</f>
         <v>3.7407281098132734</v>
       </c>
-      <c r="J99" s="4"/>
-      <c r="K99" s="29"/>
-    </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="100" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A100" s="21">
         <v>45756</v>
       </c>
@@ -13111,10 +13157,8 @@
         <f>[1]ASC!F101</f>
         <v>3.5422113519440206</v>
       </c>
-      <c r="J100" s="4"/>
-      <c r="K100" s="29"/>
-    </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="101" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A101" s="21">
         <v>45757</v>
       </c>
@@ -13150,10 +13194,8 @@
         <f>[1]ASC!F102</f>
         <v>3.3121184569424527</v>
       </c>
-      <c r="J101" s="4"/>
-      <c r="K101" s="29"/>
-    </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="102" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A102" s="21">
         <v>45758</v>
       </c>
@@ -13189,10 +13231,8 @@
         <f>[1]ASC!F103</f>
         <v>3.3753766514718375</v>
       </c>
-      <c r="J102" s="4"/>
-      <c r="K102" s="29"/>
-    </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="103" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A103" s="21">
         <v>45759</v>
       </c>
@@ -13228,10 +13268,8 @@
         <f>[1]ASC!F104</f>
         <v>3.6340476547280129</v>
       </c>
-      <c r="J103" s="4"/>
-      <c r="K103" s="29"/>
-    </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="104" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A104" s="21">
         <v>45760</v>
       </c>
@@ -13267,10 +13305,8 @@
         <f>[1]ASC!F105</f>
         <v>3.876843899190769</v>
       </c>
-      <c r="J104" s="4"/>
-      <c r="K104" s="29"/>
-    </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="105" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A105" s="21">
         <v>45761</v>
       </c>
@@ -13306,10 +13342,8 @@
         <f>[1]ASC!F106</f>
         <v>3.2076289553532833</v>
       </c>
-      <c r="J105" s="4"/>
-      <c r="K105" s="29"/>
-    </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="106" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A106" s="21">
         <v>45762</v>
       </c>
@@ -13345,10 +13379,8 @@
         <f>[1]ASC!F107</f>
         <v>3.6368119336744047</v>
       </c>
-      <c r="J106" s="4"/>
-      <c r="K106" s="29"/>
-    </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="107" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A107" s="21">
         <v>45763</v>
       </c>
@@ -13384,10 +13416,8 @@
         <f>[1]ASC!F108</f>
         <v>3.732508745627189</v>
       </c>
-      <c r="J107" s="4"/>
-      <c r="K107" s="29"/>
-    </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="108" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A108" s="21">
         <v>45764</v>
       </c>
@@ -13423,10 +13453,8 @@
         <f>[1]ASC!F109</f>
         <v>3.546465407766088</v>
       </c>
-      <c r="J108" s="4"/>
-      <c r="K108" s="29"/>
-    </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="109" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A109" s="21">
         <v>45765</v>
       </c>
@@ -13462,10 +13490,8 @@
         <f>[1]ASC!F110</f>
         <v>3.4953445626299451</v>
       </c>
-      <c r="J109" s="4"/>
-      <c r="K109" s="29"/>
-    </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="110" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A110" s="21">
         <v>45766</v>
       </c>
@@ -13501,10 +13527,8 @@
         <f>[1]ASC!F111</f>
         <v>3.6088675030073833</v>
       </c>
-      <c r="J110" s="4"/>
-      <c r="K110" s="29"/>
-    </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="111" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A111" s="21">
         <v>45767</v>
       </c>
@@ -13540,10 +13564,8 @@
         <f>[1]ASC!F112</f>
         <v>3.5824475445627675</v>
       </c>
-      <c r="J111" s="4"/>
-      <c r="K111" s="29"/>
-    </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="112" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A112" s="21">
         <v>45768</v>
       </c>
@@ -13579,10 +13601,8 @@
         <f>[1]ASC!F113</f>
         <v>3.1771551064155568</v>
       </c>
-      <c r="J112" s="4"/>
-      <c r="K112" s="29"/>
-    </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="113" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A113" s="21">
         <v>45769</v>
       </c>
@@ -13618,8 +13638,43 @@
         <f>[1]ASC!F114</f>
         <v>3.8747174685179284</v>
       </c>
-      <c r="J113" s="4"/>
-      <c r="K113" s="29"/>
+    </row>
+    <row r="114" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A114" s="21">
+        <v>45770</v>
+      </c>
+      <c r="B114" s="40">
+        <f>'[1]NaOCl Pré'!F115</f>
+        <v>2.557686961356672</v>
+      </c>
+      <c r="C114" s="4">
+        <f>[1]Acide!F115</f>
+        <v>0</v>
+      </c>
+      <c r="D114" s="4">
+        <f>[1]FeCl3!F115</f>
+        <v>0</v>
+      </c>
+      <c r="E114" s="40">
+        <f>'[1]NaOCl 2 CEB 1'!I115</f>
+        <v>4.5964229450468066</v>
+      </c>
+      <c r="F114" s="4">
+        <f>'[1]Soude CEB 1'!F115</f>
+        <v>0</v>
+      </c>
+      <c r="G114" s="40">
+        <f>'[1]Acide CEB2'!F115</f>
+        <v>0.88963024742841745</v>
+      </c>
+      <c r="H114" s="40">
+        <f>[1]SBS!G115</f>
+        <v>10.860902604021868</v>
+      </c>
+      <c r="I114" s="40">
+        <f>[1]ASC!F115</f>
+        <v>4.1180150125104369</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -13629,10 +13684,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07CB649B-6F18-453D-B029-557EF373D866}">
-  <dimension ref="A1:G113"/>
+  <dimension ref="A1:G114"/>
   <sheetViews>
-    <sheetView topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="A67" sqref="A1:A1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A56" workbookViewId="0">
+      <selection activeCell="E66" sqref="E66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -15207,7 +15262,7 @@
         <v>94813</v>
       </c>
       <c r="G69" s="6">
-        <f t="shared" ref="G69:G113" si="5">E69/F69*1000</f>
+        <f t="shared" ref="G69:G114" si="5">E69/F69*1000</f>
         <v>2.8930631875376047</v>
       </c>
     </row>
@@ -16214,11 +16269,11 @@
         <v>31813</v>
       </c>
       <c r="D107" s="8">
-        <f t="shared" ref="D107:D113" si="9">B107-C107-(B106-C106)</f>
+        <f t="shared" ref="D107:D114" si="9">B107-C107-(B106-C106)</f>
         <v>25.69999999999709</v>
       </c>
       <c r="E107" s="5">
-        <f t="shared" ref="E107:E113" si="10">(B107-B106)</f>
+        <f t="shared" ref="E107:E114" si="10">(B107-B106)</f>
         <v>266.69999999999709</v>
       </c>
       <c r="F107" s="27">
@@ -16390,6 +16445,33 @@
       <c r="G113" s="6">
         <f t="shared" si="5"/>
         <v>2.7367975682807937</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A114" s="12">
+        <v>45770</v>
+      </c>
+      <c r="B114" s="4">
+        <v>37717.599999999999</v>
+      </c>
+      <c r="C114" s="5">
+        <v>33527</v>
+      </c>
+      <c r="D114" s="8">
+        <f t="shared" si="9"/>
+        <v>22.19999999999709</v>
+      </c>
+      <c r="E114" s="5">
+        <f t="shared" si="10"/>
+        <v>252.19999999999709</v>
+      </c>
+      <c r="F114" s="27">
+        <f>[2]Sheet1!U118</f>
+        <v>86328</v>
+      </c>
+      <c r="G114" s="6">
+        <f t="shared" si="5"/>
+        <v>2.9214159948104563</v>
       </c>
     </row>
   </sheetData>
@@ -16399,10 +16481,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38810916-2DF0-490C-B584-F0F3D6EAB44D}">
-  <dimension ref="A1:K113"/>
+  <dimension ref="A1:K114"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -16412,34 +16494,34 @@
         <v>2</v>
       </c>
       <c r="B1" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="C1" s="14" t="s">
+      <c r="D1" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="D1" s="14" t="s">
+      <c r="E1" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="E1" s="26" t="s">
+      <c r="F1" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="F1" s="24" t="s">
-        <v>24</v>
-      </c>
       <c r="G1" s="14" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="H1" s="14" t="s">
         <v>17</v>
       </c>
       <c r="I1" s="26" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="K1" s="26" t="s">
         <v>26</v>
-      </c>
-      <c r="J1" s="24" t="s">
-        <v>18</v>
-      </c>
-      <c r="K1" s="26" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -20662,7 +20744,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A113" s="3">
         <f>'[1]NaOCl Pré'!B114</f>
         <v>45769</v>
@@ -20698,6 +20780,44 @@
       <c r="I113" s="4">
         <f>[1]ASC!D114</f>
         <v>348.00000000000074</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A114" s="3">
+        <f>'[1]NaOCl Pré'!B115</f>
+        <v>45770</v>
+      </c>
+      <c r="B114" s="23">
+        <f>'[1]NaOCl Pré'!D115</f>
+        <v>220.79999999999876</v>
+      </c>
+      <c r="C114" s="4">
+        <f>[1]Acide!D115</f>
+        <v>0</v>
+      </c>
+      <c r="D114" s="4">
+        <f>[1]FeCl3!D115</f>
+        <v>0</v>
+      </c>
+      <c r="E114" s="4">
+        <f>'[1]NaOCl 2 CEB 1'!H115</f>
+        <v>396.80000000000069</v>
+      </c>
+      <c r="F114" s="4">
+        <f>'[1]Soude CEB 1'!D115</f>
+        <v>0</v>
+      </c>
+      <c r="G114" s="4">
+        <f>'[1]Acide CEB2'!D115</f>
+        <v>76.800000000000423</v>
+      </c>
+      <c r="H114" s="4">
+        <f>[1]SBS!E115</f>
+        <v>937.5999999999998</v>
+      </c>
+      <c r="I114" s="4">
+        <f>[1]ASC!D115</f>
+        <v>355.50000000000102</v>
       </c>
     </row>
   </sheetData>

--- a/Consommation spécifique.xlsx
+++ b/Consommation spécifique.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\Projects\wave2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4E6F6515-774A-4912-8749-A7775342CF2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C4D0814C-EECA-4463-BB3D-1037642B4EF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" activeTab="1" xr2:uid="{4E830341-EBCA-4A95-9BBE-9CDD49815F8C}"/>
   </bookViews>
@@ -93,34 +93,34 @@
     <t>Acide CIP RO (g/m3)</t>
   </si>
   <si>
-    <t>SMBS (l/j)</t>
+    <t>NaOCl (j/m3)</t>
   </si>
   <si>
-    <t>Antiscalant (l/j)</t>
+    <t>Acide (j/m3)</t>
   </si>
   <si>
-    <t>Acide CEB 2 (l/j)</t>
+    <t>Coagulant (j/m3)</t>
   </si>
   <si>
-    <t>Soude CEB1 (l/j)</t>
+    <t>NaOCl CEB 1  (1+2) (j/m3)</t>
   </si>
   <si>
-    <t>NaOCl CEB 1  (1+2) (l/j)</t>
+    <t>Soude CEB1 (j/m3)</t>
   </si>
   <si>
-    <t>Coagulant (l/j)</t>
+    <t>Acide CEB 2 (j/m3)</t>
   </si>
   <si>
-    <t>Acide (l/j)</t>
+    <t>SMBS (j/m3)</t>
   </si>
   <si>
-    <t>NaOCl (l/j)</t>
+    <t>Antiscalant (j/m3)</t>
   </si>
   <si>
-    <t>Soude CIP RO (l/j)</t>
+    <t>Soude CIP RO (j/m3)</t>
   </si>
   <si>
-    <t>Acide CIP RO (l/j)</t>
+    <t>Acide CIP RO (j/m3)</t>
   </si>
 </sst>
 </file>
@@ -760,16 +760,16 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2055,6 +2055,138 @@
             <v>2.557686961356672</v>
           </cell>
         </row>
+        <row r="116">
+          <cell r="B116">
+            <v>45771</v>
+          </cell>
+          <cell r="D116">
+            <v>201.6</v>
+          </cell>
+          <cell r="F116">
+            <v>1.9138210919032836</v>
+          </cell>
+        </row>
+        <row r="117">
+          <cell r="B117">
+            <v>45772</v>
+          </cell>
+          <cell r="D117">
+            <v>201.60000000000088</v>
+          </cell>
+          <cell r="F117">
+            <v>1.9384615384615469</v>
+          </cell>
+        </row>
+        <row r="118">
+          <cell r="B118">
+            <v>45773</v>
+          </cell>
+          <cell r="D118">
+            <v>233.60000000000002</v>
+          </cell>
+          <cell r="F118">
+            <v>2.2456572104246177</v>
+          </cell>
+        </row>
+        <row r="119">
+          <cell r="B119">
+            <v>45774</v>
+          </cell>
+          <cell r="D119">
+            <v>214.39999999999947</v>
+          </cell>
+          <cell r="F119">
+            <v>5.2886038480512942</v>
+          </cell>
+        </row>
+        <row r="120">
+          <cell r="B120">
+            <v>45775</v>
+          </cell>
+          <cell r="D120">
+            <v>220.80000000000055</v>
+          </cell>
+          <cell r="F120">
+            <v>5.5484357331323171</v>
+          </cell>
+        </row>
+        <row r="121">
+          <cell r="B121">
+            <v>45776</v>
+          </cell>
+          <cell r="D121">
+            <v>67.2</v>
+          </cell>
+          <cell r="F121">
+            <v>1.0141865378810746</v>
+          </cell>
+        </row>
+        <row r="122">
+          <cell r="B122">
+            <v>45777</v>
+          </cell>
+          <cell r="D122">
+            <v>220.799999999997</v>
+          </cell>
+          <cell r="F122">
+            <v>3.8384646141542862</v>
+          </cell>
+        </row>
+        <row r="123">
+          <cell r="B123">
+            <v>45778</v>
+          </cell>
+          <cell r="D123">
+            <v>217.60000000000446</v>
+          </cell>
+          <cell r="F123">
+            <v>2.9637297231038047</v>
+          </cell>
+        </row>
+        <row r="124">
+          <cell r="B124">
+            <v>45779</v>
+          </cell>
+          <cell r="D124">
+            <v>188.80000000000052</v>
+          </cell>
+          <cell r="F124">
+            <v>2.3885128724144544</v>
+          </cell>
+        </row>
+        <row r="125">
+          <cell r="B125">
+            <v>45780</v>
+          </cell>
+          <cell r="D125">
+            <v>201.59999999999911</v>
+          </cell>
+          <cell r="F125">
+            <v>2.6481019309076466</v>
+          </cell>
+        </row>
+        <row r="126">
+          <cell r="B126">
+            <v>45781</v>
+          </cell>
+          <cell r="D126">
+            <v>214.3999999999977</v>
+          </cell>
+          <cell r="F126">
+            <v>2.800417972831736</v>
+          </cell>
+        </row>
+        <row r="127">
+          <cell r="B127">
+            <v>45782</v>
+          </cell>
+          <cell r="D127">
+            <v>211.2</v>
+          </cell>
+          <cell r="F127">
+            <v>2.1307291088669404</v>
+          </cell>
+        </row>
       </sheetData>
       <sheetData sheetId="3">
         <row r="3">
@@ -2961,6 +3093,102 @@
             <v>0</v>
           </cell>
         </row>
+        <row r="116">
+          <cell r="D116">
+            <v>0</v>
+          </cell>
+          <cell r="F116">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="117">
+          <cell r="D117">
+            <v>0</v>
+          </cell>
+          <cell r="F117">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="118">
+          <cell r="D118">
+            <v>0</v>
+          </cell>
+          <cell r="F118">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="119">
+          <cell r="D119">
+            <v>0</v>
+          </cell>
+          <cell r="F119">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="120">
+          <cell r="D120">
+            <v>0</v>
+          </cell>
+          <cell r="F120">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="121">
+          <cell r="D121">
+            <v>0</v>
+          </cell>
+          <cell r="F121">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="122">
+          <cell r="D122">
+            <v>0</v>
+          </cell>
+          <cell r="F122">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="123">
+          <cell r="D123">
+            <v>0</v>
+          </cell>
+          <cell r="F123">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="124">
+          <cell r="D124">
+            <v>0</v>
+          </cell>
+          <cell r="F124">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="125">
+          <cell r="D125">
+            <v>0</v>
+          </cell>
+          <cell r="F125">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="126">
+          <cell r="D126">
+            <v>0</v>
+          </cell>
+          <cell r="F126">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="127">
+          <cell r="D127">
+            <v>0</v>
+          </cell>
+          <cell r="F127">
+            <v>0</v>
+          </cell>
+        </row>
       </sheetData>
       <sheetData sheetId="4">
         <row r="3">
@@ -3864,6 +4092,102 @@
             <v>0</v>
           </cell>
           <cell r="F115">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="116">
+          <cell r="D116">
+            <v>0</v>
+          </cell>
+          <cell r="F116">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="117">
+          <cell r="D117">
+            <v>0</v>
+          </cell>
+          <cell r="F117">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="118">
+          <cell r="D118">
+            <v>0</v>
+          </cell>
+          <cell r="F118">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="119">
+          <cell r="D119">
+            <v>0</v>
+          </cell>
+          <cell r="F119">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="120">
+          <cell r="D120">
+            <v>0</v>
+          </cell>
+          <cell r="F120">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="121">
+          <cell r="D121">
+            <v>0</v>
+          </cell>
+          <cell r="F121">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="122">
+          <cell r="D122">
+            <v>0</v>
+          </cell>
+          <cell r="F122">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="123">
+          <cell r="D123">
+            <v>0</v>
+          </cell>
+          <cell r="F123">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="124">
+          <cell r="D124">
+            <v>0</v>
+          </cell>
+          <cell r="F124">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="125">
+          <cell r="D125">
+            <v>0</v>
+          </cell>
+          <cell r="F125">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="126">
+          <cell r="D126">
+            <v>0</v>
+          </cell>
+          <cell r="F126">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="127">
+          <cell r="D127">
+            <v>0</v>
+          </cell>
+          <cell r="F127">
             <v>0</v>
           </cell>
         </row>
@@ -4774,6 +5098,102 @@
             <v>4.5964229450468066</v>
           </cell>
         </row>
+        <row r="116">
+          <cell r="H116">
+            <v>422.39999999999964</v>
+          </cell>
+          <cell r="I116">
+            <v>4.0099108592259238</v>
+          </cell>
+        </row>
+        <row r="117">
+          <cell r="H117">
+            <v>460.79999999999899</v>
+          </cell>
+          <cell r="I117">
+            <v>4.4307692307692204</v>
+          </cell>
+        </row>
+        <row r="118">
+          <cell r="H118">
+            <v>608.00000000000227</v>
+          </cell>
+          <cell r="I118">
+            <v>5.8448612326120406</v>
+          </cell>
+        </row>
+        <row r="119">
+          <cell r="H119">
+            <v>243.19999999999808</v>
+          </cell>
+          <cell r="I119">
+            <v>5.9990133201775544</v>
+          </cell>
+        </row>
+        <row r="120">
+          <cell r="H120">
+            <v>211.20000000000161</v>
+          </cell>
+          <cell r="I120">
+            <v>5.3071993969092004</v>
+          </cell>
+        </row>
+        <row r="121">
+          <cell r="H121">
+            <v>297.60000000000093</v>
+          </cell>
+          <cell r="I121">
+            <v>4.4913975249019158</v>
+          </cell>
+        </row>
+        <row r="122">
+          <cell r="H122">
+            <v>281.59999999999741</v>
+          </cell>
+          <cell r="I122">
+            <v>4.8954331310953432</v>
+          </cell>
+        </row>
+        <row r="123">
+          <cell r="H123">
+            <v>374.4000000000014</v>
+          </cell>
+          <cell r="I123">
+            <v>5.0993584941638144</v>
+          </cell>
+        </row>
+        <row r="124">
+          <cell r="H124">
+            <v>275.19999999999993</v>
+          </cell>
+          <cell r="I124">
+            <v>3.4815611360617362</v>
+          </cell>
+        </row>
+        <row r="125">
+          <cell r="H125">
+            <v>323.19999999999817</v>
+          </cell>
+          <cell r="I125">
+            <v>4.2453697622487612</v>
+          </cell>
+        </row>
+        <row r="126">
+          <cell r="H126">
+            <v>284.80000000000234</v>
+          </cell>
+          <cell r="I126">
+            <v>3.7199582027168541</v>
+          </cell>
+        </row>
+        <row r="127">
+          <cell r="H127">
+            <v>380.79999999999893</v>
+          </cell>
+          <cell r="I127">
+            <v>3.8417691508358365</v>
+          </cell>
+        </row>
       </sheetData>
       <sheetData sheetId="7">
         <row r="3">
@@ -5680,6 +6100,102 @@
             <v>0</v>
           </cell>
         </row>
+        <row r="116">
+          <cell r="D116">
+            <v>0</v>
+          </cell>
+          <cell r="F116">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="117">
+          <cell r="D117">
+            <v>0</v>
+          </cell>
+          <cell r="F117">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="118">
+          <cell r="D118">
+            <v>0</v>
+          </cell>
+          <cell r="F118">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="119">
+          <cell r="D119">
+            <v>0</v>
+          </cell>
+          <cell r="F119">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="120">
+          <cell r="D120">
+            <v>0</v>
+          </cell>
+          <cell r="F120">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="121">
+          <cell r="D121">
+            <v>0</v>
+          </cell>
+          <cell r="F121">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="122">
+          <cell r="D122">
+            <v>0</v>
+          </cell>
+          <cell r="F122">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="123">
+          <cell r="D123">
+            <v>0</v>
+          </cell>
+          <cell r="F123">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="124">
+          <cell r="D124">
+            <v>0</v>
+          </cell>
+          <cell r="F124">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="125">
+          <cell r="D125">
+            <v>0</v>
+          </cell>
+          <cell r="F125">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="126">
+          <cell r="D126">
+            <v>0</v>
+          </cell>
+          <cell r="F126">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="127">
+          <cell r="D127">
+            <v>0</v>
+          </cell>
+          <cell r="F127">
+            <v>0</v>
+          </cell>
+        </row>
       </sheetData>
       <sheetData sheetId="8">
         <row r="3">
@@ -6560,6 +7076,102 @@
           </cell>
           <cell r="F115">
             <v>0.88963024742841745</v>
+          </cell>
+        </row>
+        <row r="116">
+          <cell r="D116">
+            <v>144.0000000000019</v>
+          </cell>
+          <cell r="F116">
+            <v>1.3670150656452207</v>
+          </cell>
+        </row>
+        <row r="117">
+          <cell r="D117">
+            <v>89.599999999999014</v>
+          </cell>
+          <cell r="F117">
+            <v>0.86153846153845204</v>
+          </cell>
+        </row>
+        <row r="118">
+          <cell r="D118">
+            <v>134.39999999999941</v>
+          </cell>
+          <cell r="F118">
+            <v>1.292021956682651</v>
+          </cell>
+        </row>
+        <row r="119">
+          <cell r="D119">
+            <v>32.000000000000028</v>
+          </cell>
+          <cell r="F119">
+            <v>0.78934385791810635</v>
+          </cell>
+        </row>
+        <row r="120">
+          <cell r="D120">
+            <v>44.800000000000395</v>
+          </cell>
+          <cell r="F120">
+            <v>1.1257695690413467</v>
+          </cell>
+        </row>
+        <row r="121">
+          <cell r="D121">
+            <v>76.800000000000423</v>
+          </cell>
+          <cell r="F121">
+            <v>1.1590703290069488</v>
+          </cell>
+        </row>
+        <row r="122">
+          <cell r="D122">
+            <v>102.39999999999938</v>
+          </cell>
+          <cell r="F122">
+            <v>1.7801575022164939</v>
+          </cell>
+        </row>
+        <row r="123">
+          <cell r="D123">
+            <v>134.39999999999941</v>
+          </cell>
+          <cell r="F123">
+            <v>1.8305389466228927</v>
+          </cell>
+        </row>
+        <row r="124">
+          <cell r="D124">
+            <v>323.20000000000169</v>
+          </cell>
+          <cell r="F124">
+            <v>4.0888101714213638</v>
+          </cell>
+        </row>
+        <row r="125">
+          <cell r="D125">
+            <v>233.59999999999914</v>
+          </cell>
+          <cell r="F125">
+            <v>3.068435570734259</v>
+          </cell>
+        </row>
+        <row r="126">
+          <cell r="D126">
+            <v>99.199999999999733</v>
+          </cell>
+          <cell r="F126">
+            <v>1.2957157784743956</v>
+          </cell>
+        </row>
+        <row r="127">
+          <cell r="D127">
+            <v>28.800000000000381</v>
+          </cell>
+          <cell r="F127">
+            <v>0.29055396939095024</v>
           </cell>
         </row>
       </sheetData>
@@ -7468,6 +8080,102 @@
             <v>10.860902604021868</v>
           </cell>
         </row>
+        <row r="116">
+          <cell r="E116">
+            <v>1001.6000000000016</v>
+          </cell>
+          <cell r="G116">
+            <v>9.5083492343766469</v>
+          </cell>
+        </row>
+        <row r="117">
+          <cell r="E117">
+            <v>963.2000000000005</v>
+          </cell>
+          <cell r="G117">
+            <v>9.2615384615384677</v>
+          </cell>
+        </row>
+        <row r="118">
+          <cell r="E118">
+            <v>1145.5999999999981</v>
+          </cell>
+          <cell r="G118">
+            <v>11.012949059342628</v>
+          </cell>
+        </row>
+        <row r="119">
+          <cell r="E119">
+            <v>1763.2000000000012</v>
+          </cell>
+          <cell r="G119">
+            <v>43.492846571287643</v>
+          </cell>
+        </row>
+        <row r="120">
+          <cell r="E120">
+            <v>614.39999999999895</v>
+          </cell>
+          <cell r="G120">
+            <v>15.439125518281164</v>
+          </cell>
+        </row>
+        <row r="121">
+          <cell r="E121">
+            <v>1030.4000000000001</v>
+          </cell>
+          <cell r="G121">
+            <v>15.55086024750981</v>
+          </cell>
+        </row>
+        <row r="122">
+          <cell r="E122">
+            <v>1183.9999999999993</v>
+          </cell>
+          <cell r="G122">
+            <v>20.583071119378324</v>
+          </cell>
+        </row>
+        <row r="123">
+          <cell r="E123">
+            <v>982.4000000000002</v>
+          </cell>
+          <cell r="G123">
+            <v>13.38036801460073</v>
+          </cell>
+        </row>
+        <row r="124">
+          <cell r="E124">
+            <v>742.4</v>
+          </cell>
+          <cell r="G124">
+            <v>9.392118413561894</v>
+          </cell>
+        </row>
+        <row r="125">
+          <cell r="E125">
+            <v>678.39999999999816</v>
+          </cell>
+          <cell r="G125">
+            <v>8.9110731643241579</v>
+          </cell>
+        </row>
+        <row r="126">
+          <cell r="E126">
+            <v>793.60000000000048</v>
+          </cell>
+          <cell r="G126">
+            <v>10.3657262277952</v>
+          </cell>
+        </row>
+        <row r="127">
+          <cell r="E127">
+            <v>643.20000000000027</v>
+          </cell>
+          <cell r="G127">
+            <v>6.4890386497311399</v>
+          </cell>
+        </row>
       </sheetData>
       <sheetData sheetId="10">
         <row r="3">
@@ -8372,6 +9080,102 @@
           </cell>
           <cell r="F115">
             <v>4.1180150125104369</v>
+          </cell>
+        </row>
+        <row r="116">
+          <cell r="D116">
+            <v>343.49999999999881</v>
+          </cell>
+          <cell r="F116">
+            <v>3.2609005211744826</v>
+          </cell>
+        </row>
+        <row r="117">
+          <cell r="D117">
+            <v>349.49999999999994</v>
+          </cell>
+          <cell r="F117">
+            <v>3.3605769230769229</v>
+          </cell>
+        </row>
+        <row r="118">
+          <cell r="D118">
+            <v>355.50000000000102</v>
+          </cell>
+          <cell r="F118">
+            <v>3.417513434528912</v>
+          </cell>
+        </row>
+        <row r="119">
+          <cell r="D119">
+            <v>286.49999999999841</v>
+          </cell>
+          <cell r="F119">
+            <v>7.0670942279229996</v>
+          </cell>
+        </row>
+        <row r="120">
+          <cell r="D120">
+            <v>208.49999999999991</v>
+          </cell>
+          <cell r="F120">
+            <v>5.2393516773463986</v>
+          </cell>
+        </row>
+        <row r="121">
+          <cell r="D121">
+            <v>333.00000000000108</v>
+          </cell>
+          <cell r="F121">
+            <v>5.0256565046785555</v>
+          </cell>
+        </row>
+        <row r="122">
+          <cell r="D122">
+            <v>340.4999999999996</v>
+          </cell>
+          <cell r="F122">
+            <v>5.9193713818820228</v>
+          </cell>
+        </row>
+        <row r="123">
+          <cell r="D123">
+            <v>355.49999999999926</v>
+          </cell>
+          <cell r="F123">
+            <v>4.8419389547949399</v>
+          </cell>
+        </row>
+        <row r="124">
+          <cell r="D124">
+            <v>361.50000000000125</v>
+          </cell>
+          <cell r="F124">
+            <v>4.5733442975520431</v>
+          </cell>
+        </row>
+        <row r="125">
+          <cell r="D125">
+            <v>352.50000000000006</v>
+          </cell>
+          <cell r="F125">
+            <v>4.6302377512150272</v>
+          </cell>
+        </row>
+        <row r="126">
+          <cell r="D126">
+            <v>344.99999999999977</v>
+          </cell>
+          <cell r="F126">
+            <v>4.5062695924764853</v>
+          </cell>
+        </row>
+        <row r="127">
+          <cell r="D127">
+            <v>339.0000000000004</v>
+          </cell>
+          <cell r="F127">
+            <v>3.4200623480392691</v>
           </cell>
         </row>
       </sheetData>
@@ -8960,6 +9764,66 @@
         <row r="118">
           <cell r="U118">
             <v>86328</v>
+          </cell>
+        </row>
+        <row r="119">
+          <cell r="U119">
+            <v>105339</v>
+          </cell>
+        </row>
+        <row r="120">
+          <cell r="U120">
+            <v>104000</v>
+          </cell>
+        </row>
+        <row r="121">
+          <cell r="U121">
+            <v>104023</v>
+          </cell>
+        </row>
+        <row r="122">
+          <cell r="U122">
+            <v>40540</v>
+          </cell>
+        </row>
+        <row r="123">
+          <cell r="U123">
+            <v>39795</v>
+          </cell>
+        </row>
+        <row r="124">
+          <cell r="U124">
+            <v>66260</v>
+          </cell>
+        </row>
+        <row r="125">
+          <cell r="U125">
+            <v>57523</v>
+          </cell>
+        </row>
+        <row r="126">
+          <cell r="U126">
+            <v>73421</v>
+          </cell>
+        </row>
+        <row r="127">
+          <cell r="U127">
+            <v>79045</v>
+          </cell>
+        </row>
+        <row r="128">
+          <cell r="U128">
+            <v>76130</v>
+          </cell>
+        </row>
+        <row r="129">
+          <cell r="U129">
+            <v>76560</v>
+          </cell>
+        </row>
+        <row r="130">
+          <cell r="U130">
+            <v>99121</v>
           </cell>
         </row>
       </sheetData>
@@ -9268,11 +10132,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BC5C344-277E-4945-8E25-AE6A0B860AD5}">
-  <dimension ref="A1:K114"/>
+  <dimension ref="A1:K126"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A72" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A115" sqref="A115:XFD115"/>
+      <pane ySplit="1" topLeftCell="A89" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A86" sqref="A86:K126"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -12676,6 +13540,8 @@
         <f>[1]ASC!F88</f>
         <v>3.7922716518996142</v>
       </c>
+      <c r="J87" s="4"/>
+      <c r="K87" s="29"/>
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A88" s="21">
@@ -12713,6 +13579,8 @@
         <f>[1]ASC!F89</f>
         <v>3.2813618646090217</v>
       </c>
+      <c r="J88" s="4"/>
+      <c r="K88" s="29"/>
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A89" s="21">
@@ -12750,6 +13618,8 @@
         <f>[1]ASC!F90</f>
         <v>3.2697547683923909</v>
       </c>
+      <c r="J89" s="4"/>
+      <c r="K89" s="29"/>
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A90" s="21">
@@ -12787,6 +13657,8 @@
         <f>[1]ASC!F91</f>
         <v>3.2047040139153982</v>
       </c>
+      <c r="J90" s="4"/>
+      <c r="K90" s="29"/>
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A91" s="21">
@@ -12824,6 +13696,8 @@
         <f>[1]ASC!F92</f>
         <v>3.2549158310311577</v>
       </c>
+      <c r="J91" s="4"/>
+      <c r="K91" s="29"/>
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A92" s="21">
@@ -12861,6 +13735,8 @@
         <f>[1]ASC!F93</f>
         <v>3.2748305877682848</v>
       </c>
+      <c r="J92" s="4"/>
+      <c r="K92" s="29"/>
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A93" s="21">
@@ -12898,6 +13774,8 @@
         <f>[1]ASC!F94</f>
         <v>3.2316589182446869</v>
       </c>
+      <c r="J93" s="4"/>
+      <c r="K93" s="29"/>
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A94" s="21">
@@ -12935,6 +13813,8 @@
         <f>[1]ASC!F95</f>
         <v>3.1522107881940538</v>
       </c>
+      <c r="J94" s="4"/>
+      <c r="K94" s="29"/>
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A95" s="21">
@@ -12972,6 +13852,8 @@
         <f>[1]ASC!F96</f>
         <v>3.3199651923877345</v>
       </c>
+      <c r="J95" s="4"/>
+      <c r="K95" s="29"/>
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A96" s="21">
@@ -13009,8 +13891,10 @@
         <f>[1]ASC!F97</f>
         <v>3.6081058817068481</v>
       </c>
-    </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J96" s="4"/>
+      <c r="K96" s="29"/>
+    </row>
+    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A97" s="21">
         <v>45753</v>
       </c>
@@ -13046,8 +13930,10 @@
         <f>[1]ASC!F98</f>
         <v>3.9886758283952539</v>
       </c>
-    </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J97" s="4"/>
+      <c r="K97" s="29"/>
+    </row>
+    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A98" s="21">
         <v>45754</v>
       </c>
@@ -13083,8 +13969,10 @@
         <f>[1]ASC!F99</f>
         <v>4.0185094982951659</v>
       </c>
-    </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J98" s="4"/>
+      <c r="K98" s="29"/>
+    </row>
+    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A99" s="21">
         <v>45755</v>
       </c>
@@ -13120,8 +14008,10 @@
         <f>[1]ASC!F100</f>
         <v>3.7407281098132734</v>
       </c>
-    </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J99" s="4"/>
+      <c r="K99" s="29"/>
+    </row>
+    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A100" s="21">
         <v>45756</v>
       </c>
@@ -13157,8 +14047,10 @@
         <f>[1]ASC!F101</f>
         <v>3.5422113519440206</v>
       </c>
-    </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J100" s="4"/>
+      <c r="K100" s="29"/>
+    </row>
+    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A101" s="21">
         <v>45757</v>
       </c>
@@ -13194,8 +14086,10 @@
         <f>[1]ASC!F102</f>
         <v>3.3121184569424527</v>
       </c>
-    </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J101" s="4"/>
+      <c r="K101" s="29"/>
+    </row>
+    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A102" s="21">
         <v>45758</v>
       </c>
@@ -13231,8 +14125,10 @@
         <f>[1]ASC!F103</f>
         <v>3.3753766514718375</v>
       </c>
-    </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J102" s="4"/>
+      <c r="K102" s="29"/>
+    </row>
+    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A103" s="21">
         <v>45759</v>
       </c>
@@ -13268,8 +14164,10 @@
         <f>[1]ASC!F104</f>
         <v>3.6340476547280129</v>
       </c>
-    </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J103" s="4"/>
+      <c r="K103" s="29"/>
+    </row>
+    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A104" s="21">
         <v>45760</v>
       </c>
@@ -13305,8 +14203,10 @@
         <f>[1]ASC!F105</f>
         <v>3.876843899190769</v>
       </c>
-    </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J104" s="4"/>
+      <c r="K104" s="29"/>
+    </row>
+    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A105" s="21">
         <v>45761</v>
       </c>
@@ -13342,8 +14242,10 @@
         <f>[1]ASC!F106</f>
         <v>3.2076289553532833</v>
       </c>
-    </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J105" s="4"/>
+      <c r="K105" s="29"/>
+    </row>
+    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A106" s="21">
         <v>45762</v>
       </c>
@@ -13379,8 +14281,10 @@
         <f>[1]ASC!F107</f>
         <v>3.6368119336744047</v>
       </c>
-    </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J106" s="4"/>
+      <c r="K106" s="29"/>
+    </row>
+    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A107" s="21">
         <v>45763</v>
       </c>
@@ -13416,8 +14320,10 @@
         <f>[1]ASC!F108</f>
         <v>3.732508745627189</v>
       </c>
-    </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J107" s="4"/>
+      <c r="K107" s="29"/>
+    </row>
+    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A108" s="21">
         <v>45764</v>
       </c>
@@ -13453,8 +14359,10 @@
         <f>[1]ASC!F109</f>
         <v>3.546465407766088</v>
       </c>
-    </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J108" s="4"/>
+      <c r="K108" s="29"/>
+    </row>
+    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A109" s="21">
         <v>45765</v>
       </c>
@@ -13490,8 +14398,10 @@
         <f>[1]ASC!F110</f>
         <v>3.4953445626299451</v>
       </c>
-    </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J109" s="4"/>
+      <c r="K109" s="29"/>
+    </row>
+    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A110" s="21">
         <v>45766</v>
       </c>
@@ -13527,8 +14437,10 @@
         <f>[1]ASC!F111</f>
         <v>3.6088675030073833</v>
       </c>
-    </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J110" s="4"/>
+      <c r="K110" s="29"/>
+    </row>
+    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A111" s="21">
         <v>45767</v>
       </c>
@@ -13564,8 +14476,10 @@
         <f>[1]ASC!F112</f>
         <v>3.5824475445627675</v>
       </c>
-    </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J111" s="4"/>
+      <c r="K111" s="29"/>
+    </row>
+    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A112" s="21">
         <v>45768</v>
       </c>
@@ -13601,8 +14515,10 @@
         <f>[1]ASC!F113</f>
         <v>3.1771551064155568</v>
       </c>
-    </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J112" s="4"/>
+      <c r="K112" s="29"/>
+    </row>
+    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A113" s="21">
         <v>45769</v>
       </c>
@@ -13638,8 +14554,10 @@
         <f>[1]ASC!F114</f>
         <v>3.8747174685179284</v>
       </c>
-    </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J113" s="4"/>
+      <c r="K113" s="29"/>
+    </row>
+    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A114" s="21">
         <v>45770</v>
       </c>
@@ -13675,6 +14593,476 @@
         <f>[1]ASC!F115</f>
         <v>4.1180150125104369</v>
       </c>
+      <c r="J114" s="4"/>
+      <c r="K114" s="29"/>
+    </row>
+    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A115" s="21">
+        <v>45771</v>
+      </c>
+      <c r="B115" s="40">
+        <f>'[1]NaOCl Pré'!F116</f>
+        <v>1.9138210919032836</v>
+      </c>
+      <c r="C115" s="4">
+        <f>[1]Acide!F116</f>
+        <v>0</v>
+      </c>
+      <c r="D115" s="4">
+        <f>[1]FeCl3!F116</f>
+        <v>0</v>
+      </c>
+      <c r="E115" s="40">
+        <f>'[1]NaOCl 2 CEB 1'!I116</f>
+        <v>4.0099108592259238</v>
+      </c>
+      <c r="F115" s="4">
+        <f>'[1]Soude CEB 1'!F116</f>
+        <v>0</v>
+      </c>
+      <c r="G115" s="40">
+        <f>'[1]Acide CEB2'!F116</f>
+        <v>1.3670150656452207</v>
+      </c>
+      <c r="H115" s="40">
+        <f>[1]SBS!G116</f>
+        <v>9.5083492343766469</v>
+      </c>
+      <c r="I115" s="40">
+        <f>[1]ASC!F116</f>
+        <v>3.2609005211744826</v>
+      </c>
+      <c r="J115" s="4"/>
+      <c r="K115" s="29"/>
+    </row>
+    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A116" s="21">
+        <v>45772</v>
+      </c>
+      <c r="B116" s="40">
+        <f>'[1]NaOCl Pré'!F117</f>
+        <v>1.9384615384615469</v>
+      </c>
+      <c r="C116" s="4">
+        <f>[1]Acide!F117</f>
+        <v>0</v>
+      </c>
+      <c r="D116" s="4">
+        <f>[1]FeCl3!F117</f>
+        <v>0</v>
+      </c>
+      <c r="E116" s="40">
+        <f>'[1]NaOCl 2 CEB 1'!I117</f>
+        <v>4.4307692307692204</v>
+      </c>
+      <c r="F116" s="4">
+        <f>'[1]Soude CEB 1'!F117</f>
+        <v>0</v>
+      </c>
+      <c r="G116" s="40">
+        <f>'[1]Acide CEB2'!F117</f>
+        <v>0.86153846153845204</v>
+      </c>
+      <c r="H116" s="40">
+        <f>[1]SBS!G117</f>
+        <v>9.2615384615384677</v>
+      </c>
+      <c r="I116" s="40">
+        <f>[1]ASC!F117</f>
+        <v>3.3605769230769229</v>
+      </c>
+      <c r="J116" s="4"/>
+      <c r="K116" s="29"/>
+    </row>
+    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A117" s="21">
+        <v>45773</v>
+      </c>
+      <c r="B117" s="40">
+        <f>'[1]NaOCl Pré'!F118</f>
+        <v>2.2456572104246177</v>
+      </c>
+      <c r="C117" s="4">
+        <f>[1]Acide!F118</f>
+        <v>0</v>
+      </c>
+      <c r="D117" s="4">
+        <f>[1]FeCl3!F118</f>
+        <v>0</v>
+      </c>
+      <c r="E117" s="40">
+        <f>'[1]NaOCl 2 CEB 1'!I118</f>
+        <v>5.8448612326120406</v>
+      </c>
+      <c r="F117" s="4">
+        <f>'[1]Soude CEB 1'!F118</f>
+        <v>0</v>
+      </c>
+      <c r="G117" s="40">
+        <f>'[1]Acide CEB2'!F118</f>
+        <v>1.292021956682651</v>
+      </c>
+      <c r="H117" s="40">
+        <f>[1]SBS!G118</f>
+        <v>11.012949059342628</v>
+      </c>
+      <c r="I117" s="40">
+        <f>[1]ASC!F118</f>
+        <v>3.417513434528912</v>
+      </c>
+      <c r="J117" s="4"/>
+      <c r="K117" s="29"/>
+    </row>
+    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A118" s="21">
+        <v>45774</v>
+      </c>
+      <c r="B118" s="40">
+        <f>'[1]NaOCl Pré'!F119</f>
+        <v>5.2886038480512942</v>
+      </c>
+      <c r="C118" s="4">
+        <f>[1]Acide!F119</f>
+        <v>0</v>
+      </c>
+      <c r="D118" s="4">
+        <f>[1]FeCl3!F119</f>
+        <v>0</v>
+      </c>
+      <c r="E118" s="40">
+        <f>'[1]NaOCl 2 CEB 1'!I119</f>
+        <v>5.9990133201775544</v>
+      </c>
+      <c r="F118" s="4">
+        <f>'[1]Soude CEB 1'!F119</f>
+        <v>0</v>
+      </c>
+      <c r="G118" s="40">
+        <f>'[1]Acide CEB2'!F119</f>
+        <v>0.78934385791810635</v>
+      </c>
+      <c r="H118" s="40">
+        <f>[1]SBS!G119</f>
+        <v>43.492846571287643</v>
+      </c>
+      <c r="I118" s="40">
+        <f>[1]ASC!F119</f>
+        <v>7.0670942279229996</v>
+      </c>
+      <c r="J118" s="4"/>
+      <c r="K118" s="29"/>
+    </row>
+    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A119" s="21">
+        <v>45775</v>
+      </c>
+      <c r="B119" s="40">
+        <f>'[1]NaOCl Pré'!F120</f>
+        <v>5.5484357331323171</v>
+      </c>
+      <c r="C119" s="4">
+        <f>[1]Acide!F120</f>
+        <v>0</v>
+      </c>
+      <c r="D119" s="4">
+        <f>[1]FeCl3!F120</f>
+        <v>0</v>
+      </c>
+      <c r="E119" s="40">
+        <f>'[1]NaOCl 2 CEB 1'!I120</f>
+        <v>5.3071993969092004</v>
+      </c>
+      <c r="F119" s="4">
+        <f>'[1]Soude CEB 1'!F120</f>
+        <v>0</v>
+      </c>
+      <c r="G119" s="40">
+        <f>'[1]Acide CEB2'!F120</f>
+        <v>1.1257695690413467</v>
+      </c>
+      <c r="H119" s="40">
+        <f>[1]SBS!G120</f>
+        <v>15.439125518281164</v>
+      </c>
+      <c r="I119" s="40">
+        <f>[1]ASC!F120</f>
+        <v>5.2393516773463986</v>
+      </c>
+      <c r="J119" s="4"/>
+      <c r="K119" s="29"/>
+    </row>
+    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A120" s="21">
+        <v>45776</v>
+      </c>
+      <c r="B120" s="40">
+        <f>'[1]NaOCl Pré'!F121</f>
+        <v>1.0141865378810746</v>
+      </c>
+      <c r="C120" s="4">
+        <f>[1]Acide!F121</f>
+        <v>0</v>
+      </c>
+      <c r="D120" s="4">
+        <f>[1]FeCl3!F121</f>
+        <v>0</v>
+      </c>
+      <c r="E120" s="40">
+        <f>'[1]NaOCl 2 CEB 1'!I121</f>
+        <v>4.4913975249019158</v>
+      </c>
+      <c r="F120" s="4">
+        <f>'[1]Soude CEB 1'!F121</f>
+        <v>0</v>
+      </c>
+      <c r="G120" s="40">
+        <f>'[1]Acide CEB2'!F121</f>
+        <v>1.1590703290069488</v>
+      </c>
+      <c r="H120" s="40">
+        <f>[1]SBS!G121</f>
+        <v>15.55086024750981</v>
+      </c>
+      <c r="I120" s="40">
+        <f>[1]ASC!F121</f>
+        <v>5.0256565046785555</v>
+      </c>
+      <c r="J120" s="4"/>
+      <c r="K120" s="29"/>
+    </row>
+    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A121" s="21">
+        <v>45777</v>
+      </c>
+      <c r="B121" s="40">
+        <f>'[1]NaOCl Pré'!F122</f>
+        <v>3.8384646141542862</v>
+      </c>
+      <c r="C121" s="4">
+        <f>[1]Acide!F122</f>
+        <v>0</v>
+      </c>
+      <c r="D121" s="4">
+        <f>[1]FeCl3!F122</f>
+        <v>0</v>
+      </c>
+      <c r="E121" s="40">
+        <f>'[1]NaOCl 2 CEB 1'!I122</f>
+        <v>4.8954331310953432</v>
+      </c>
+      <c r="F121" s="4">
+        <f>'[1]Soude CEB 1'!F122</f>
+        <v>0</v>
+      </c>
+      <c r="G121" s="40">
+        <f>'[1]Acide CEB2'!F122</f>
+        <v>1.7801575022164939</v>
+      </c>
+      <c r="H121" s="40">
+        <f>[1]SBS!G122</f>
+        <v>20.583071119378324</v>
+      </c>
+      <c r="I121" s="40">
+        <f>[1]ASC!F122</f>
+        <v>5.9193713818820228</v>
+      </c>
+      <c r="J121" s="4"/>
+      <c r="K121" s="29"/>
+    </row>
+    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A122" s="21">
+        <v>45778</v>
+      </c>
+      <c r="B122" s="40">
+        <f>'[1]NaOCl Pré'!F123</f>
+        <v>2.9637297231038047</v>
+      </c>
+      <c r="C122" s="4">
+        <f>[1]Acide!F123</f>
+        <v>0</v>
+      </c>
+      <c r="D122" s="4">
+        <f>[1]FeCl3!F123</f>
+        <v>0</v>
+      </c>
+      <c r="E122" s="40">
+        <f>'[1]NaOCl 2 CEB 1'!I123</f>
+        <v>5.0993584941638144</v>
+      </c>
+      <c r="F122" s="4">
+        <f>'[1]Soude CEB 1'!F123</f>
+        <v>0</v>
+      </c>
+      <c r="G122" s="40">
+        <f>'[1]Acide CEB2'!F123</f>
+        <v>1.8305389466228927</v>
+      </c>
+      <c r="H122" s="40">
+        <f>[1]SBS!G123</f>
+        <v>13.38036801460073</v>
+      </c>
+      <c r="I122" s="40">
+        <f>[1]ASC!F123</f>
+        <v>4.8419389547949399</v>
+      </c>
+      <c r="J122" s="4"/>
+      <c r="K122" s="29"/>
+    </row>
+    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A123" s="21">
+        <v>45779</v>
+      </c>
+      <c r="B123" s="40">
+        <f>'[1]NaOCl Pré'!F124</f>
+        <v>2.3885128724144544</v>
+      </c>
+      <c r="C123" s="4">
+        <f>[1]Acide!F124</f>
+        <v>0</v>
+      </c>
+      <c r="D123" s="4">
+        <f>[1]FeCl3!F124</f>
+        <v>0</v>
+      </c>
+      <c r="E123" s="40">
+        <f>'[1]NaOCl 2 CEB 1'!I124</f>
+        <v>3.4815611360617362</v>
+      </c>
+      <c r="F123" s="4">
+        <f>'[1]Soude CEB 1'!F124</f>
+        <v>0</v>
+      </c>
+      <c r="G123" s="40">
+        <f>'[1]Acide CEB2'!F124</f>
+        <v>4.0888101714213638</v>
+      </c>
+      <c r="H123" s="40">
+        <f>[1]SBS!G124</f>
+        <v>9.392118413561894</v>
+      </c>
+      <c r="I123" s="40">
+        <f>[1]ASC!F124</f>
+        <v>4.5733442975520431</v>
+      </c>
+      <c r="J123" s="4"/>
+      <c r="K123" s="29"/>
+    </row>
+    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A124" s="21">
+        <v>45780</v>
+      </c>
+      <c r="B124" s="40">
+        <f>'[1]NaOCl Pré'!F125</f>
+        <v>2.6481019309076466</v>
+      </c>
+      <c r="C124" s="4">
+        <f>[1]Acide!F125</f>
+        <v>0</v>
+      </c>
+      <c r="D124" s="4">
+        <f>[1]FeCl3!F125</f>
+        <v>0</v>
+      </c>
+      <c r="E124" s="40">
+        <f>'[1]NaOCl 2 CEB 1'!I125</f>
+        <v>4.2453697622487612</v>
+      </c>
+      <c r="F124" s="4">
+        <f>'[1]Soude CEB 1'!F125</f>
+        <v>0</v>
+      </c>
+      <c r="G124" s="40">
+        <f>'[1]Acide CEB2'!F125</f>
+        <v>3.068435570734259</v>
+      </c>
+      <c r="H124" s="40">
+        <f>[1]SBS!G125</f>
+        <v>8.9110731643241579</v>
+      </c>
+      <c r="I124" s="40">
+        <f>[1]ASC!F125</f>
+        <v>4.6302377512150272</v>
+      </c>
+      <c r="J124" s="4"/>
+      <c r="K124" s="29"/>
+    </row>
+    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A125" s="21">
+        <v>45781</v>
+      </c>
+      <c r="B125" s="40">
+        <f>'[1]NaOCl Pré'!F126</f>
+        <v>2.800417972831736</v>
+      </c>
+      <c r="C125" s="4">
+        <f>[1]Acide!F126</f>
+        <v>0</v>
+      </c>
+      <c r="D125" s="4">
+        <f>[1]FeCl3!F126</f>
+        <v>0</v>
+      </c>
+      <c r="E125" s="40">
+        <f>'[1]NaOCl 2 CEB 1'!I126</f>
+        <v>3.7199582027168541</v>
+      </c>
+      <c r="F125" s="4">
+        <f>'[1]Soude CEB 1'!F126</f>
+        <v>0</v>
+      </c>
+      <c r="G125" s="40">
+        <f>'[1]Acide CEB2'!F126</f>
+        <v>1.2957157784743956</v>
+      </c>
+      <c r="H125" s="40">
+        <f>[1]SBS!G126</f>
+        <v>10.3657262277952</v>
+      </c>
+      <c r="I125" s="40">
+        <f>[1]ASC!F126</f>
+        <v>4.5062695924764853</v>
+      </c>
+      <c r="J125" s="4"/>
+      <c r="K125" s="29"/>
+    </row>
+    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A126" s="21">
+        <v>45782</v>
+      </c>
+      <c r="B126" s="40">
+        <f>'[1]NaOCl Pré'!F127</f>
+        <v>2.1307291088669404</v>
+      </c>
+      <c r="C126" s="4">
+        <f>[1]Acide!F127</f>
+        <v>0</v>
+      </c>
+      <c r="D126" s="4">
+        <f>[1]FeCl3!F127</f>
+        <v>0</v>
+      </c>
+      <c r="E126" s="40">
+        <f>'[1]NaOCl 2 CEB 1'!I127</f>
+        <v>3.8417691508358365</v>
+      </c>
+      <c r="F126" s="4">
+        <f>'[1]Soude CEB 1'!F127</f>
+        <v>0</v>
+      </c>
+      <c r="G126" s="40">
+        <f>'[1]Acide CEB2'!F127</f>
+        <v>0.29055396939095024</v>
+      </c>
+      <c r="H126" s="40">
+        <f>[1]SBS!G127</f>
+        <v>6.4890386497311399</v>
+      </c>
+      <c r="I126" s="40">
+        <f>[1]ASC!F127</f>
+        <v>3.4200623480392691</v>
+      </c>
+      <c r="J126" s="4"/>
+      <c r="K126" s="29"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -13684,10 +15072,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07CB649B-6F18-453D-B029-557EF373D866}">
-  <dimension ref="A1:G114"/>
+  <dimension ref="A1:G126"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A56" workbookViewId="0">
-      <selection activeCell="E66" sqref="E66"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A50" sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -15262,7 +16650,7 @@
         <v>94813</v>
       </c>
       <c r="G69" s="6">
-        <f t="shared" ref="G69:G114" si="5">E69/F69*1000</f>
+        <f t="shared" ref="G69:G126" si="5">E69/F69*1000</f>
         <v>2.8930631875376047</v>
       </c>
     </row>
@@ -15834,7 +17222,7 @@
       <c r="A91" s="12">
         <v>45747</v>
       </c>
-      <c r="B91" s="49">
+      <c r="B91" s="47">
         <f t="shared" si="6"/>
         <v>31459.793220000003</v>
       </c>
@@ -15843,7 +17231,7 @@
         <f t="shared" si="3"/>
         <v>295.00302000000011</v>
       </c>
-      <c r="E91" s="50">
+      <c r="E91" s="48">
         <f t="shared" si="7"/>
         <v>295.00301999999994</v>
       </c>
@@ -15860,24 +17248,24 @@
       <c r="A92" s="12">
         <v>45748</v>
       </c>
-      <c r="B92" s="47">
+      <c r="B92" s="49">
         <f t="shared" si="6"/>
         <v>31758.168960000003</v>
       </c>
-      <c r="C92" s="10"/>
-      <c r="D92" s="15">
+      <c r="C92" s="18"/>
+      <c r="D92" s="36">
         <f t="shared" si="3"/>
         <v>298.3757399999995</v>
       </c>
-      <c r="E92" s="48">
+      <c r="E92" s="50">
         <f t="shared" si="7"/>
         <v>298.37574000000001</v>
       </c>
-      <c r="F92" s="28">
+      <c r="F92" s="35">
         <f>[2]Sheet1!U96</f>
         <v>105807</v>
       </c>
-      <c r="G92" s="43">
+      <c r="G92" s="22">
         <f t="shared" si="5"/>
         <v>2.82</v>
       </c>
@@ -16269,11 +17657,11 @@
         <v>31813</v>
       </c>
       <c r="D107" s="8">
-        <f t="shared" ref="D107:D114" si="9">B107-C107-(B106-C106)</f>
+        <f t="shared" ref="D107:D126" si="9">B107-C107-(B106-C106)</f>
         <v>25.69999999999709</v>
       </c>
       <c r="E107" s="5">
-        <f t="shared" ref="E107:E114" si="10">(B107-B106)</f>
+        <f t="shared" ref="E107:E126" si="10">(B107-B106)</f>
         <v>266.69999999999709</v>
       </c>
       <c r="F107" s="27">
@@ -16472,6 +17860,326 @@
       <c r="G114" s="6">
         <f t="shared" si="5"/>
         <v>2.9214159948104563</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A115" s="12">
+        <v>45771</v>
+      </c>
+      <c r="B115" s="4">
+        <v>38007.599999999999</v>
+      </c>
+      <c r="C115" s="5">
+        <v>33789</v>
+      </c>
+      <c r="D115" s="8">
+        <f t="shared" si="9"/>
+        <v>28</v>
+      </c>
+      <c r="E115" s="5">
+        <f t="shared" si="10"/>
+        <v>290</v>
+      </c>
+      <c r="F115" s="27">
+        <f>[2]Sheet1!U119</f>
+        <v>105339</v>
+      </c>
+      <c r="G115" s="6">
+        <f t="shared" si="5"/>
+        <v>2.7530164516465887</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A116" s="12">
+        <v>45772</v>
+      </c>
+      <c r="B116" s="4">
+        <v>38310.6</v>
+      </c>
+      <c r="C116" s="5">
+        <v>34126</v>
+      </c>
+      <c r="D116" s="8">
+        <f t="shared" si="9"/>
+        <v>-34</v>
+      </c>
+      <c r="E116" s="5">
+        <f t="shared" si="10"/>
+        <v>303</v>
+      </c>
+      <c r="F116" s="27">
+        <f>[2]Sheet1!U120</f>
+        <v>104000</v>
+      </c>
+      <c r="G116" s="6">
+        <f t="shared" si="5"/>
+        <v>2.9134615384615383</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A117" s="12">
+        <v>45773</v>
+      </c>
+      <c r="B117" s="4">
+        <v>38595.4</v>
+      </c>
+      <c r="C117" s="5">
+        <v>34385</v>
+      </c>
+      <c r="D117" s="8">
+        <f t="shared" si="9"/>
+        <v>25.80000000000291</v>
+      </c>
+      <c r="E117" s="5">
+        <f t="shared" si="10"/>
+        <v>284.80000000000291</v>
+      </c>
+      <c r="F117" s="27">
+        <f>[2]Sheet1!U121</f>
+        <v>104023</v>
+      </c>
+      <c r="G117" s="6">
+        <f t="shared" si="5"/>
+        <v>2.7378560510656578</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A118" s="12">
+        <v>45774</v>
+      </c>
+      <c r="B118" s="4">
+        <v>38724.300000000003</v>
+      </c>
+      <c r="C118" s="5">
+        <v>34499</v>
+      </c>
+      <c r="D118" s="8">
+        <f t="shared" si="9"/>
+        <v>14.900000000001455</v>
+      </c>
+      <c r="E118" s="5">
+        <f t="shared" si="10"/>
+        <v>128.90000000000146</v>
+      </c>
+      <c r="F118" s="27">
+        <f>[2]Sheet1!U122</f>
+        <v>40540</v>
+      </c>
+      <c r="G118" s="6">
+        <f t="shared" si="5"/>
+        <v>3.1795757276764047</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A119" s="12">
+        <v>45775</v>
+      </c>
+      <c r="B119" s="4">
+        <v>38844.300000000003</v>
+      </c>
+      <c r="C119" s="5">
+        <v>34606</v>
+      </c>
+      <c r="D119" s="8">
+        <f t="shared" si="9"/>
+        <v>13</v>
+      </c>
+      <c r="E119" s="5">
+        <f t="shared" si="10"/>
+        <v>120</v>
+      </c>
+      <c r="F119" s="27">
+        <f>[2]Sheet1!U123</f>
+        <v>39795</v>
+      </c>
+      <c r="G119" s="6">
+        <f t="shared" si="5"/>
+        <v>3.0154542027892952</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A120" s="12">
+        <v>45776</v>
+      </c>
+      <c r="B120" s="4">
+        <v>39027.199999999997</v>
+      </c>
+      <c r="C120" s="5">
+        <v>34771</v>
+      </c>
+      <c r="D120" s="8">
+        <f>B120-C120-(B119-C119)</f>
+        <v>17.899999999994179</v>
+      </c>
+      <c r="E120" s="5">
+        <f t="shared" si="10"/>
+        <v>182.89999999999418</v>
+      </c>
+      <c r="F120" s="27">
+        <f>[2]Sheet1!U124</f>
+        <v>66260</v>
+      </c>
+      <c r="G120" s="6">
+        <f t="shared" si="5"/>
+        <v>2.7603380621792062</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A121" s="12">
+        <v>45777</v>
+      </c>
+      <c r="B121" s="7">
+        <v>39196.400000000001</v>
+      </c>
+      <c r="C121" s="37"/>
+      <c r="D121" s="9">
+        <f t="shared" si="9"/>
+        <v>34940.200000000004</v>
+      </c>
+      <c r="E121" s="37">
+        <f t="shared" si="10"/>
+        <v>169.20000000000437</v>
+      </c>
+      <c r="F121" s="9">
+        <f>[2]Sheet1!U125</f>
+        <v>57523</v>
+      </c>
+      <c r="G121" s="38">
+        <f t="shared" si="5"/>
+        <v>2.9414321228031288</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A122" s="12">
+        <v>45778</v>
+      </c>
+      <c r="B122" s="15">
+        <v>39415.599999999999</v>
+      </c>
+      <c r="C122" s="10">
+        <v>35121</v>
+      </c>
+      <c r="D122" s="15">
+        <f t="shared" si="9"/>
+        <v>-34901.800000000003</v>
+      </c>
+      <c r="E122" s="10">
+        <f t="shared" si="10"/>
+        <v>219.19999999999709</v>
+      </c>
+      <c r="F122" s="28">
+        <f>[2]Sheet1!U126</f>
+        <v>73421</v>
+      </c>
+      <c r="G122" s="43">
+        <f t="shared" si="5"/>
+        <v>2.9855218534206438</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A123" s="12">
+        <v>45779</v>
+      </c>
+      <c r="B123" s="15">
+        <v>39633.4</v>
+      </c>
+      <c r="C123" s="5"/>
+      <c r="D123" s="8">
+        <f>B123-C123-(B122-C122)</f>
+        <v>35338.800000000003</v>
+      </c>
+      <c r="E123" s="5">
+        <f t="shared" si="10"/>
+        <v>217.80000000000291</v>
+      </c>
+      <c r="F123" s="27">
+        <f>[2]Sheet1!U127</f>
+        <v>79045</v>
+      </c>
+      <c r="G123" s="6">
+        <f t="shared" si="5"/>
+        <v>2.7553924979442459</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A124" s="12">
+        <v>45780</v>
+      </c>
+      <c r="B124" s="15">
+        <v>39851.199999999997</v>
+      </c>
+      <c r="C124" s="5">
+        <v>35515</v>
+      </c>
+      <c r="D124" s="8">
+        <f t="shared" si="9"/>
+        <v>-35297.200000000004</v>
+      </c>
+      <c r="E124" s="5">
+        <f t="shared" si="10"/>
+        <v>217.79999999999563</v>
+      </c>
+      <c r="F124" s="27">
+        <f>[2]Sheet1!U128</f>
+        <v>76130</v>
+      </c>
+      <c r="G124" s="6">
+        <f t="shared" si="5"/>
+        <v>2.8608958360698233</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A125" s="12">
+        <v>45781</v>
+      </c>
+      <c r="B125" s="8">
+        <v>40069.300000000003</v>
+      </c>
+      <c r="C125" s="5">
+        <v>35711</v>
+      </c>
+      <c r="D125" s="8">
+        <f t="shared" si="9"/>
+        <v>22.100000000005821</v>
+      </c>
+      <c r="E125" s="5">
+        <f t="shared" si="10"/>
+        <v>218.10000000000582</v>
+      </c>
+      <c r="F125" s="27">
+        <f>[2]Sheet1!U129</f>
+        <v>76560</v>
+      </c>
+      <c r="G125" s="6">
+        <f t="shared" si="5"/>
+        <v>2.8487460815047783</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A126" s="12">
+        <v>45782</v>
+      </c>
+      <c r="B126" s="8">
+        <v>40359.300000000003</v>
+      </c>
+      <c r="C126" s="5">
+        <v>35973</v>
+      </c>
+      <c r="D126" s="8">
+        <f t="shared" si="9"/>
+        <v>28</v>
+      </c>
+      <c r="E126" s="5">
+        <f t="shared" si="10"/>
+        <v>290</v>
+      </c>
+      <c r="F126" s="27">
+        <f>[2]Sheet1!U130</f>
+        <v>99121</v>
+      </c>
+      <c r="G126" s="6">
+        <f t="shared" si="5"/>
+        <v>2.9257170528949468</v>
       </c>
     </row>
   </sheetData>
@@ -16481,10 +18189,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38810916-2DF0-490C-B584-F0F3D6EAB44D}">
-  <dimension ref="A1:K114"/>
+  <dimension ref="A1:K126"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K5" sqref="K5"/>
+    <sheetView topLeftCell="A101" workbookViewId="0">
+      <selection activeCell="A127" sqref="A127:XFD128"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -16494,28 +18202,28 @@
         <v>2</v>
       </c>
       <c r="B1" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="F1" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="G1" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="H1" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="I1" s="26" t="s">
         <v>24</v>
-      </c>
-      <c r="C1" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="D1" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="E1" s="26" t="s">
-        <v>21</v>
-      </c>
-      <c r="F1" s="24" t="s">
-        <v>20</v>
-      </c>
-      <c r="G1" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="H1" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="I1" s="26" t="s">
-        <v>18</v>
       </c>
       <c r="J1" s="24" t="s">
         <v>25</v>
@@ -20782,7 +22490,7 @@
         <v>348.00000000000074</v>
       </c>
     </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A114" s="3">
         <f>'[1]NaOCl Pré'!B115</f>
         <v>45770</v>
@@ -20818,6 +22526,462 @@
       <c r="I114" s="4">
         <f>[1]ASC!D115</f>
         <v>355.50000000000102</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A115" s="3">
+        <f>'[1]NaOCl Pré'!B116</f>
+        <v>45771</v>
+      </c>
+      <c r="B115" s="23">
+        <f>'[1]NaOCl Pré'!D116</f>
+        <v>201.6</v>
+      </c>
+      <c r="C115" s="4">
+        <f>[1]Acide!D116</f>
+        <v>0</v>
+      </c>
+      <c r="D115" s="4">
+        <f>[1]FeCl3!D116</f>
+        <v>0</v>
+      </c>
+      <c r="E115" s="4">
+        <f>'[1]NaOCl 2 CEB 1'!H116</f>
+        <v>422.39999999999964</v>
+      </c>
+      <c r="F115" s="4">
+        <f>'[1]Soude CEB 1'!D116</f>
+        <v>0</v>
+      </c>
+      <c r="G115" s="4">
+        <f>'[1]Acide CEB2'!D116</f>
+        <v>144.0000000000019</v>
+      </c>
+      <c r="H115" s="4">
+        <f>[1]SBS!E116</f>
+        <v>1001.6000000000016</v>
+      </c>
+      <c r="I115" s="4">
+        <f>[1]ASC!D116</f>
+        <v>343.49999999999881</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A116" s="3">
+        <f>'[1]NaOCl Pré'!B117</f>
+        <v>45772</v>
+      </c>
+      <c r="B116" s="23">
+        <f>'[1]NaOCl Pré'!D117</f>
+        <v>201.60000000000088</v>
+      </c>
+      <c r="C116" s="4">
+        <f>[1]Acide!D117</f>
+        <v>0</v>
+      </c>
+      <c r="D116" s="4">
+        <f>[1]FeCl3!D117</f>
+        <v>0</v>
+      </c>
+      <c r="E116" s="4">
+        <f>'[1]NaOCl 2 CEB 1'!H117</f>
+        <v>460.79999999999899</v>
+      </c>
+      <c r="F116" s="4">
+        <f>'[1]Soude CEB 1'!D117</f>
+        <v>0</v>
+      </c>
+      <c r="G116" s="4">
+        <f>'[1]Acide CEB2'!D117</f>
+        <v>89.599999999999014</v>
+      </c>
+      <c r="H116" s="4">
+        <f>[1]SBS!E117</f>
+        <v>963.2000000000005</v>
+      </c>
+      <c r="I116" s="4">
+        <f>[1]ASC!D117</f>
+        <v>349.49999999999994</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A117" s="3">
+        <f>'[1]NaOCl Pré'!B118</f>
+        <v>45773</v>
+      </c>
+      <c r="B117" s="23">
+        <f>'[1]NaOCl Pré'!D118</f>
+        <v>233.60000000000002</v>
+      </c>
+      <c r="C117" s="4">
+        <f>[1]Acide!D118</f>
+        <v>0</v>
+      </c>
+      <c r="D117" s="4">
+        <f>[1]FeCl3!D118</f>
+        <v>0</v>
+      </c>
+      <c r="E117" s="4">
+        <f>'[1]NaOCl 2 CEB 1'!H118</f>
+        <v>608.00000000000227</v>
+      </c>
+      <c r="F117" s="4">
+        <f>'[1]Soude CEB 1'!D118</f>
+        <v>0</v>
+      </c>
+      <c r="G117" s="4">
+        <f>'[1]Acide CEB2'!D118</f>
+        <v>134.39999999999941</v>
+      </c>
+      <c r="H117" s="4">
+        <f>[1]SBS!E118</f>
+        <v>1145.5999999999981</v>
+      </c>
+      <c r="I117" s="4">
+        <f>[1]ASC!D118</f>
+        <v>355.50000000000102</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A118" s="3">
+        <f>'[1]NaOCl Pré'!B119</f>
+        <v>45774</v>
+      </c>
+      <c r="B118" s="23">
+        <f>'[1]NaOCl Pré'!D119</f>
+        <v>214.39999999999947</v>
+      </c>
+      <c r="C118" s="4">
+        <f>[1]Acide!D119</f>
+        <v>0</v>
+      </c>
+      <c r="D118" s="4">
+        <f>[1]FeCl3!D119</f>
+        <v>0</v>
+      </c>
+      <c r="E118" s="4">
+        <f>'[1]NaOCl 2 CEB 1'!H119</f>
+        <v>243.19999999999808</v>
+      </c>
+      <c r="F118" s="4">
+        <f>'[1]Soude CEB 1'!D119</f>
+        <v>0</v>
+      </c>
+      <c r="G118" s="4">
+        <f>'[1]Acide CEB2'!D119</f>
+        <v>32.000000000000028</v>
+      </c>
+      <c r="H118" s="4">
+        <f>[1]SBS!E119</f>
+        <v>1763.2000000000012</v>
+      </c>
+      <c r="I118" s="4">
+        <f>[1]ASC!D119</f>
+        <v>286.49999999999841</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A119" s="3">
+        <f>'[1]NaOCl Pré'!B120</f>
+        <v>45775</v>
+      </c>
+      <c r="B119" s="23">
+        <f>'[1]NaOCl Pré'!D120</f>
+        <v>220.80000000000055</v>
+      </c>
+      <c r="C119" s="4">
+        <f>[1]Acide!D120</f>
+        <v>0</v>
+      </c>
+      <c r="D119" s="4">
+        <f>[1]FeCl3!D120</f>
+        <v>0</v>
+      </c>
+      <c r="E119" s="4">
+        <f>'[1]NaOCl 2 CEB 1'!H120</f>
+        <v>211.20000000000161</v>
+      </c>
+      <c r="F119" s="4">
+        <f>'[1]Soude CEB 1'!D120</f>
+        <v>0</v>
+      </c>
+      <c r="G119" s="4">
+        <f>'[1]Acide CEB2'!D120</f>
+        <v>44.800000000000395</v>
+      </c>
+      <c r="H119" s="4">
+        <f>[1]SBS!E120</f>
+        <v>614.39999999999895</v>
+      </c>
+      <c r="I119" s="4">
+        <f>[1]ASC!D120</f>
+        <v>208.49999999999991</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A120" s="3">
+        <f>'[1]NaOCl Pré'!B121</f>
+        <v>45776</v>
+      </c>
+      <c r="B120" s="23">
+        <f>'[1]NaOCl Pré'!D121</f>
+        <v>67.2</v>
+      </c>
+      <c r="C120" s="4">
+        <f>[1]Acide!D121</f>
+        <v>0</v>
+      </c>
+      <c r="D120" s="4">
+        <f>[1]FeCl3!D121</f>
+        <v>0</v>
+      </c>
+      <c r="E120" s="4">
+        <f>'[1]NaOCl 2 CEB 1'!H121</f>
+        <v>297.60000000000093</v>
+      </c>
+      <c r="F120" s="4">
+        <f>'[1]Soude CEB 1'!D121</f>
+        <v>0</v>
+      </c>
+      <c r="G120" s="4">
+        <f>'[1]Acide CEB2'!D121</f>
+        <v>76.800000000000423</v>
+      </c>
+      <c r="H120" s="4">
+        <f>[1]SBS!E121</f>
+        <v>1030.4000000000001</v>
+      </c>
+      <c r="I120" s="4">
+        <f>[1]ASC!D121</f>
+        <v>333.00000000000108</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A121" s="3">
+        <f>'[1]NaOCl Pré'!B122</f>
+        <v>45777</v>
+      </c>
+      <c r="B121" s="23">
+        <f>'[1]NaOCl Pré'!D122</f>
+        <v>220.799999999997</v>
+      </c>
+      <c r="C121" s="4">
+        <f>[1]Acide!D122</f>
+        <v>0</v>
+      </c>
+      <c r="D121" s="4">
+        <f>[1]FeCl3!D122</f>
+        <v>0</v>
+      </c>
+      <c r="E121" s="4">
+        <f>'[1]NaOCl 2 CEB 1'!H122</f>
+        <v>281.59999999999741</v>
+      </c>
+      <c r="F121" s="4">
+        <f>'[1]Soude CEB 1'!D122</f>
+        <v>0</v>
+      </c>
+      <c r="G121" s="4">
+        <f>'[1]Acide CEB2'!D122</f>
+        <v>102.39999999999938</v>
+      </c>
+      <c r="H121" s="4">
+        <f>[1]SBS!E122</f>
+        <v>1183.9999999999993</v>
+      </c>
+      <c r="I121" s="4">
+        <f>[1]ASC!D122</f>
+        <v>340.4999999999996</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A122" s="3">
+        <f>'[1]NaOCl Pré'!B123</f>
+        <v>45778</v>
+      </c>
+      <c r="B122" s="23">
+        <f>'[1]NaOCl Pré'!D123</f>
+        <v>217.60000000000446</v>
+      </c>
+      <c r="C122" s="4">
+        <f>[1]Acide!D123</f>
+        <v>0</v>
+      </c>
+      <c r="D122" s="4">
+        <f>[1]FeCl3!D123</f>
+        <v>0</v>
+      </c>
+      <c r="E122" s="4">
+        <f>'[1]NaOCl 2 CEB 1'!H123</f>
+        <v>374.4000000000014</v>
+      </c>
+      <c r="F122" s="4">
+        <f>'[1]Soude CEB 1'!D123</f>
+        <v>0</v>
+      </c>
+      <c r="G122" s="4">
+        <f>'[1]Acide CEB2'!D123</f>
+        <v>134.39999999999941</v>
+      </c>
+      <c r="H122" s="4">
+        <f>[1]SBS!E123</f>
+        <v>982.4000000000002</v>
+      </c>
+      <c r="I122" s="4">
+        <f>[1]ASC!D123</f>
+        <v>355.49999999999926</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A123" s="3">
+        <f>'[1]NaOCl Pré'!B124</f>
+        <v>45779</v>
+      </c>
+      <c r="B123" s="23">
+        <f>'[1]NaOCl Pré'!D124</f>
+        <v>188.80000000000052</v>
+      </c>
+      <c r="C123" s="4">
+        <f>[1]Acide!D124</f>
+        <v>0</v>
+      </c>
+      <c r="D123" s="4">
+        <f>[1]FeCl3!D124</f>
+        <v>0</v>
+      </c>
+      <c r="E123" s="4">
+        <f>'[1]NaOCl 2 CEB 1'!H124</f>
+        <v>275.19999999999993</v>
+      </c>
+      <c r="F123" s="4">
+        <f>'[1]Soude CEB 1'!D124</f>
+        <v>0</v>
+      </c>
+      <c r="G123" s="4">
+        <f>'[1]Acide CEB2'!D124</f>
+        <v>323.20000000000169</v>
+      </c>
+      <c r="H123" s="4">
+        <f>[1]SBS!E124</f>
+        <v>742.4</v>
+      </c>
+      <c r="I123" s="4">
+        <f>[1]ASC!D124</f>
+        <v>361.50000000000125</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A124" s="3">
+        <f>'[1]NaOCl Pré'!B125</f>
+        <v>45780</v>
+      </c>
+      <c r="B124" s="23">
+        <f>'[1]NaOCl Pré'!D125</f>
+        <v>201.59999999999911</v>
+      </c>
+      <c r="C124" s="4">
+        <f>[1]Acide!D125</f>
+        <v>0</v>
+      </c>
+      <c r="D124" s="4">
+        <f>[1]FeCl3!D125</f>
+        <v>0</v>
+      </c>
+      <c r="E124" s="4">
+        <f>'[1]NaOCl 2 CEB 1'!H125</f>
+        <v>323.19999999999817</v>
+      </c>
+      <c r="F124" s="4">
+        <f>'[1]Soude CEB 1'!D125</f>
+        <v>0</v>
+      </c>
+      <c r="G124" s="4">
+        <f>'[1]Acide CEB2'!D125</f>
+        <v>233.59999999999914</v>
+      </c>
+      <c r="H124" s="4">
+        <f>[1]SBS!E125</f>
+        <v>678.39999999999816</v>
+      </c>
+      <c r="I124" s="4">
+        <f>[1]ASC!D125</f>
+        <v>352.50000000000006</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A125" s="3">
+        <f>'[1]NaOCl Pré'!B126</f>
+        <v>45781</v>
+      </c>
+      <c r="B125" s="23">
+        <f>'[1]NaOCl Pré'!D126</f>
+        <v>214.3999999999977</v>
+      </c>
+      <c r="C125" s="4">
+        <f>[1]Acide!D126</f>
+        <v>0</v>
+      </c>
+      <c r="D125" s="4">
+        <f>[1]FeCl3!D126</f>
+        <v>0</v>
+      </c>
+      <c r="E125" s="4">
+        <f>'[1]NaOCl 2 CEB 1'!H126</f>
+        <v>284.80000000000234</v>
+      </c>
+      <c r="F125" s="4">
+        <f>'[1]Soude CEB 1'!D126</f>
+        <v>0</v>
+      </c>
+      <c r="G125" s="4">
+        <f>'[1]Acide CEB2'!D126</f>
+        <v>99.199999999999733</v>
+      </c>
+      <c r="H125" s="4">
+        <f>[1]SBS!E126</f>
+        <v>793.60000000000048</v>
+      </c>
+      <c r="I125" s="4">
+        <f>[1]ASC!D126</f>
+        <v>344.99999999999977</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A126" s="3">
+        <f>'[1]NaOCl Pré'!B127</f>
+        <v>45782</v>
+      </c>
+      <c r="B126" s="23">
+        <f>'[1]NaOCl Pré'!D127</f>
+        <v>211.2</v>
+      </c>
+      <c r="C126" s="4">
+        <f>[1]Acide!D127</f>
+        <v>0</v>
+      </c>
+      <c r="D126" s="4">
+        <f>[1]FeCl3!D127</f>
+        <v>0</v>
+      </c>
+      <c r="E126" s="4">
+        <f>'[1]NaOCl 2 CEB 1'!H127</f>
+        <v>380.79999999999893</v>
+      </c>
+      <c r="F126" s="4">
+        <f>'[1]Soude CEB 1'!D127</f>
+        <v>0</v>
+      </c>
+      <c r="G126" s="4">
+        <f>'[1]Acide CEB2'!D127</f>
+        <v>28.800000000000381</v>
+      </c>
+      <c r="H126" s="4">
+        <f>[1]SBS!E127</f>
+        <v>643.20000000000027</v>
+      </c>
+      <c r="I126" s="4">
+        <f>[1]ASC!D127</f>
+        <v>339.0000000000004</v>
       </c>
     </row>
   </sheetData>

--- a/Consommation spécifique.xlsx
+++ b/Consommation spécifique.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\Projects\wave2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C4D0814C-EECA-4463-BB3D-1037642B4EF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{55221F9E-104C-4276-B959-7E958E4D8F13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" activeTab="1" xr2:uid="{4E830341-EBCA-4A95-9BBE-9CDD49815F8C}"/>
+    <workbookView xWindow="30612" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{4E830341-EBCA-4A95-9BBE-9CDD49815F8C}"/>
   </bookViews>
   <sheets>
     <sheet name="CS Produits chimiques" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="28">
   <si>
     <t>Prod</t>
   </si>
@@ -51,13 +51,7 @@
     <t>date</t>
   </si>
   <si>
-    <t>Consommation MWh</t>
-  </si>
-  <si>
     <t>Index d'énergie totale MWh</t>
-  </si>
-  <si>
-    <t>Index d'énergie UF MWh</t>
   </si>
   <si>
     <t>Index d'énergie RO MWh</t>
@@ -93,34 +87,43 @@
     <t>Acide CIP RO (g/m3)</t>
   </si>
   <si>
-    <t>NaOCl (j/m3)</t>
+    <t>Consommation Totale  MWh</t>
   </si>
   <si>
-    <t>Acide (j/m3)</t>
+    <t>Cons UF  MWh</t>
   </si>
   <si>
-    <t>Coagulant (j/m3)</t>
+    <t>Cons RO  MWh</t>
   </si>
   <si>
-    <t>NaOCl CEB 1  (1+2) (j/m3)</t>
+    <t>NaOCl (L/J)</t>
   </si>
   <si>
-    <t>Soude CEB1 (j/m3)</t>
+    <t>Acide (L/J)</t>
   </si>
   <si>
-    <t>Acide CEB 2 (j/m3)</t>
+    <t>Coagulant (L/J)</t>
   </si>
   <si>
-    <t>SMBS (j/m3)</t>
+    <t>NaOCl CEB 1  (1+2) (L/J)</t>
   </si>
   <si>
-    <t>Antiscalant (j/m3)</t>
+    <t>Soude CEB1 (L/J)</t>
   </si>
   <si>
-    <t>Soude CIP RO (j/m3)</t>
+    <t>Acide CEB 2 (L/J)</t>
   </si>
   <si>
-    <t>Acide CIP RO (j/m3)</t>
+    <t>SMBS (L/J)</t>
+  </si>
+  <si>
+    <t>Antiscalant (L/J)</t>
+  </si>
+  <si>
+    <t>Soude CIP RO (L/J)</t>
+  </si>
+  <si>
+    <t>Acide CIP RO (L/J)</t>
   </si>
 </sst>
 </file>
@@ -154,15 +157,21 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="35">
+  <borders count="40">
     <border>
       <left/>
       <right/>
@@ -594,6 +603,19 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
       <right style="medium">
         <color indexed="64"/>
       </right>
@@ -616,11 +638,61 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -754,22 +826,61 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2187,6 +2298,94 @@
             <v>2.1307291088669404</v>
           </cell>
         </row>
+        <row r="128">
+          <cell r="B128">
+            <v>45783</v>
+          </cell>
+          <cell r="D128">
+            <v>366.4</v>
+          </cell>
+          <cell r="F128">
+            <v>3.4708473452375315</v>
+          </cell>
+        </row>
+        <row r="129">
+          <cell r="B129">
+            <v>45784</v>
+          </cell>
+          <cell r="D129">
+            <v>374.40000000000003</v>
+          </cell>
+          <cell r="F129">
+            <v>3.5970600951145704</v>
+          </cell>
+        </row>
+        <row r="130">
+          <cell r="B130">
+            <v>45785</v>
+          </cell>
+          <cell r="D130">
+            <v>220.79999999999998</v>
+          </cell>
+          <cell r="F130">
+            <v>2.453387853063401</v>
+          </cell>
+        </row>
+        <row r="131">
+          <cell r="B131">
+            <v>45786</v>
+          </cell>
+          <cell r="D131">
+            <v>198.40000000000302</v>
+          </cell>
+          <cell r="F131">
+            <v>2.6119353861952241</v>
+          </cell>
+        </row>
+        <row r="132">
+          <cell r="B132">
+            <v>45787</v>
+          </cell>
+          <cell r="D132">
+            <v>156.79999999999694</v>
+          </cell>
+          <cell r="F132">
+            <v>2.0722649538762052</v>
+          </cell>
+        </row>
+        <row r="133">
+          <cell r="B133">
+            <v>45788</v>
+          </cell>
+          <cell r="D133">
+            <v>156.80000000000405</v>
+          </cell>
+          <cell r="F133">
+            <v>2.0704043098212699</v>
+          </cell>
+        </row>
+        <row r="134">
+          <cell r="B134">
+            <v>45789</v>
+          </cell>
+          <cell r="D134">
+            <v>127.99999999999656</v>
+          </cell>
+          <cell r="F134">
+            <v>1.7049389951515339</v>
+          </cell>
+        </row>
+        <row r="135">
+          <cell r="B135">
+            <v>45790</v>
+          </cell>
+          <cell r="D135">
+            <v>294.39999999999952</v>
+          </cell>
+          <cell r="F135">
+            <v>3.9795076981305439</v>
+          </cell>
+        </row>
       </sheetData>
       <sheetData sheetId="3">
         <row r="3">
@@ -3189,6 +3388,70 @@
             <v>0</v>
           </cell>
         </row>
+        <row r="128">
+          <cell r="D128">
+            <v>0</v>
+          </cell>
+          <cell r="F128">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="129">
+          <cell r="D129">
+            <v>0</v>
+          </cell>
+          <cell r="F129">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="130">
+          <cell r="D130">
+            <v>0</v>
+          </cell>
+          <cell r="F130">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="131">
+          <cell r="D131">
+            <v>0</v>
+          </cell>
+          <cell r="F131">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="132">
+          <cell r="D132">
+            <v>0</v>
+          </cell>
+          <cell r="F132">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="133">
+          <cell r="D133">
+            <v>0</v>
+          </cell>
+          <cell r="F133">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="134">
+          <cell r="D134">
+            <v>0</v>
+          </cell>
+          <cell r="F134">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="135">
+          <cell r="D135">
+            <v>0</v>
+          </cell>
+          <cell r="F135">
+            <v>0</v>
+          </cell>
+        </row>
       </sheetData>
       <sheetData sheetId="4">
         <row r="3">
@@ -4188,6 +4451,70 @@
             <v>0</v>
           </cell>
           <cell r="F127">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="128">
+          <cell r="D128">
+            <v>0</v>
+          </cell>
+          <cell r="F128">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="129">
+          <cell r="D129">
+            <v>0</v>
+          </cell>
+          <cell r="F129">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="130">
+          <cell r="D130">
+            <v>0</v>
+          </cell>
+          <cell r="F130">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="131">
+          <cell r="D131">
+            <v>0</v>
+          </cell>
+          <cell r="F131">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="132">
+          <cell r="D132">
+            <v>0</v>
+          </cell>
+          <cell r="F132">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="133">
+          <cell r="D133">
+            <v>0</v>
+          </cell>
+          <cell r="F133">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="134">
+          <cell r="D134">
+            <v>0</v>
+          </cell>
+          <cell r="F134">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="135">
+          <cell r="D135">
+            <v>0</v>
+          </cell>
+          <cell r="F135">
             <v>0</v>
           </cell>
         </row>
@@ -5194,6 +5521,70 @@
             <v>3.8417691508358365</v>
           </cell>
         </row>
+        <row r="128">
+          <cell r="H128">
+            <v>486.39999999999975</v>
+          </cell>
+          <cell r="I128">
+            <v>4.6075877421493843</v>
+          </cell>
+        </row>
+        <row r="129">
+          <cell r="H129">
+            <v>483.2000000000001</v>
+          </cell>
+          <cell r="I129">
+            <v>4.6423596099341893</v>
+          </cell>
+        </row>
+        <row r="130">
+          <cell r="H130">
+            <v>332.80000000000064</v>
+          </cell>
+          <cell r="I130">
+            <v>3.6978599524433946</v>
+          </cell>
+        </row>
+        <row r="131">
+          <cell r="H131">
+            <v>358.39999999999964</v>
+          </cell>
+          <cell r="I131">
+            <v>4.7183348911912955</v>
+          </cell>
+        </row>
+        <row r="132">
+          <cell r="H132">
+            <v>316.80000000000064</v>
+          </cell>
+          <cell r="I132">
+            <v>4.1868210292601775</v>
+          </cell>
+        </row>
+        <row r="133">
+          <cell r="H133">
+            <v>326.39999999999782</v>
+          </cell>
+          <cell r="I133">
+            <v>4.3098212163625034</v>
+          </cell>
+        </row>
+        <row r="134">
+          <cell r="H134">
+            <v>300.8000000000024</v>
+          </cell>
+          <cell r="I134">
+            <v>4.0066066386062449</v>
+          </cell>
+        </row>
+        <row r="135">
+          <cell r="H135">
+            <v>409.59999999999934</v>
+          </cell>
+          <cell r="I135">
+            <v>5.5367063626164086</v>
+          </cell>
+        </row>
       </sheetData>
       <sheetData sheetId="7">
         <row r="3">
@@ -6196,6 +6587,70 @@
             <v>0</v>
           </cell>
         </row>
+        <row r="128">
+          <cell r="D128">
+            <v>0</v>
+          </cell>
+          <cell r="F128">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="129">
+          <cell r="D129">
+            <v>0</v>
+          </cell>
+          <cell r="F129">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="130">
+          <cell r="D130">
+            <v>0</v>
+          </cell>
+          <cell r="F130">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="131">
+          <cell r="D131">
+            <v>0</v>
+          </cell>
+          <cell r="F131">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="132">
+          <cell r="D132">
+            <v>0</v>
+          </cell>
+          <cell r="F132">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="133">
+          <cell r="D133">
+            <v>0</v>
+          </cell>
+          <cell r="F133">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="134">
+          <cell r="D134">
+            <v>0</v>
+          </cell>
+          <cell r="F134">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="135">
+          <cell r="D135">
+            <v>0</v>
+          </cell>
+          <cell r="F135">
+            <v>0</v>
+          </cell>
+        </row>
       </sheetData>
       <sheetData sheetId="8">
         <row r="3">
@@ -7172,6 +7627,70 @@
           </cell>
           <cell r="F127">
             <v>0.29055396939095024</v>
+          </cell>
+        </row>
+        <row r="128">
+          <cell r="D128">
+            <v>256.00000000000023</v>
+          </cell>
+          <cell r="F128">
+            <v>2.4250461800786267</v>
+          </cell>
+        </row>
+        <row r="129">
+          <cell r="D129">
+            <v>83.199999999999719</v>
+          </cell>
+          <cell r="F129">
+            <v>0.79934668780323503</v>
+          </cell>
+        </row>
+        <row r="130">
+          <cell r="D130">
+            <v>121.60000000000082</v>
+          </cell>
+          <cell r="F130">
+            <v>1.3511411364697086</v>
+          </cell>
+        </row>
+        <row r="131">
+          <cell r="D131">
+            <v>6.3999999999992951</v>
+          </cell>
+          <cell r="F131">
+            <v>8.4255980199835379E-2</v>
+          </cell>
+        </row>
+        <row r="132">
+          <cell r="D132">
+            <v>-60.800000000000409</v>
+          </cell>
+          <cell r="F132">
+            <v>-0.80353130864589661</v>
+          </cell>
+        </row>
+        <row r="133">
+          <cell r="D133">
+            <v>-19.199999999999662</v>
+          </cell>
+          <cell r="F133">
+            <v>-0.25351889508014447</v>
+          </cell>
+        </row>
+        <row r="134">
+          <cell r="D134">
+            <v>35.199999999999676</v>
+          </cell>
+          <cell r="F134">
+            <v>0.46885822366668012</v>
+          </cell>
+        </row>
+        <row r="135">
+          <cell r="D135">
+            <v>76.800000000000423</v>
+          </cell>
+          <cell r="F135">
+            <v>1.038132442990584</v>
           </cell>
         </row>
       </sheetData>
@@ -8176,6 +8695,70 @@
             <v>6.4890386497311399</v>
           </cell>
         </row>
+        <row r="128">
+          <cell r="E128">
+            <v>806.4</v>
+          </cell>
+          <cell r="G128">
+            <v>7.638895467247667</v>
+          </cell>
+        </row>
+        <row r="129">
+          <cell r="E129">
+            <v>883</v>
+          </cell>
+          <cell r="G129">
+            <v>8.483451025604074</v>
+          </cell>
+        </row>
+        <row r="130">
+          <cell r="E130">
+            <v>534.39999999999884</v>
+          </cell>
+          <cell r="G130">
+            <v>5.9379097313273501</v>
+          </cell>
+        </row>
+        <row r="131">
+          <cell r="E131">
+            <v>694.6</v>
+          </cell>
+          <cell r="G131">
+            <v>9.1444068510643906</v>
+          </cell>
+        </row>
+        <row r="132">
+          <cell r="E132">
+            <v>332.80000000000064</v>
+          </cell>
+          <cell r="G132">
+            <v>4.3982766367985713</v>
+          </cell>
+        </row>
+        <row r="133">
+          <cell r="E133">
+            <v>355.20000000000175</v>
+          </cell>
+          <cell r="G133">
+            <v>4.6900995589827783</v>
+          </cell>
+        </row>
+        <row r="134">
+          <cell r="E134">
+            <v>653.20000000000005</v>
+          </cell>
+          <cell r="G134">
+            <v>8.7005168096329069</v>
+          </cell>
+        </row>
+        <row r="135">
+          <cell r="E135">
+            <v>822.4</v>
+          </cell>
+          <cell r="G135">
+            <v>11.116668243690777</v>
+          </cell>
+        </row>
       </sheetData>
       <sheetData sheetId="10">
         <row r="3">
@@ -9176,6 +9759,70 @@
           </cell>
           <cell r="F127">
             <v>3.4200623480392691</v>
+          </cell>
+        </row>
+        <row r="128">
+          <cell r="D128">
+            <v>341.99999999999966</v>
+          </cell>
+          <cell r="F128">
+            <v>3.2397101311987844</v>
+          </cell>
+        </row>
+        <row r="129">
+          <cell r="D129">
+            <v>346.49999999999983</v>
+          </cell>
+          <cell r="F129">
+            <v>3.329009943795934</v>
+          </cell>
+        </row>
+        <row r="130">
+          <cell r="D130">
+            <v>331.50000000000011</v>
+          </cell>
+          <cell r="F130">
+            <v>3.6834151870041567</v>
+          </cell>
+        </row>
+        <row r="131">
+          <cell r="D131">
+            <v>357.5</v>
+          </cell>
+          <cell r="F131">
+            <v>4.7064863939756973</v>
+          </cell>
+        </row>
+        <row r="132">
+          <cell r="D132">
+            <v>343.49999999999881</v>
+          </cell>
+          <cell r="F132">
+            <v>4.5396875743398466</v>
+          </cell>
+        </row>
+        <row r="133">
+          <cell r="D133">
+            <v>360.00000000000119</v>
+          </cell>
+          <cell r="F133">
+            <v>4.7534792827528083</v>
+          </cell>
+        </row>
+        <row r="134">
+          <cell r="D134">
+            <v>361.49999999999949</v>
+          </cell>
+          <cell r="F134">
+            <v>4.815120677713244</v>
+          </cell>
+        </row>
+        <row r="135">
+          <cell r="D135">
+            <v>331.50000000000011</v>
+          </cell>
+          <cell r="F135">
+            <v>4.4810013652523022</v>
           </cell>
         </row>
       </sheetData>
@@ -9202,6 +9849,9 @@
     <sheetDataSet>
       <sheetData sheetId="0">
         <row r="6">
+          <cell r="L6">
+            <v>141032</v>
+          </cell>
           <cell r="U6">
             <v>53174</v>
           </cell>
@@ -9824,6 +10474,46 @@
         <row r="130">
           <cell r="U130">
             <v>99121</v>
+          </cell>
+        </row>
+        <row r="131">
+          <cell r="U131">
+            <v>105565</v>
+          </cell>
+        </row>
+        <row r="132">
+          <cell r="U132">
+            <v>104085</v>
+          </cell>
+        </row>
+        <row r="133">
+          <cell r="U133">
+            <v>89998</v>
+          </cell>
+        </row>
+        <row r="134">
+          <cell r="U134">
+            <v>75959</v>
+          </cell>
+        </row>
+        <row r="135">
+          <cell r="U135">
+            <v>75666</v>
+          </cell>
+        </row>
+        <row r="136">
+          <cell r="U136">
+            <v>75734</v>
+          </cell>
+        </row>
+        <row r="137">
+          <cell r="U137">
+            <v>75076</v>
+          </cell>
+        </row>
+        <row r="138">
+          <cell r="U138">
+            <v>73979</v>
           </cell>
         </row>
       </sheetData>
@@ -10132,11 +10822,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BC5C344-277E-4945-8E25-AE6A0B860AD5}">
-  <dimension ref="A1:K126"/>
+  <dimension ref="A1:K134"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A89" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A86" sqref="A86:K126"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A60" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A86" sqref="A86:K134"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10159,34 +10849,34 @@
         <v>2</v>
       </c>
       <c r="B1" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="14" t="s">
+      <c r="E1" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="14" t="s">
+      <c r="F1" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="E1" s="26" t="s">
+      <c r="G1" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="F1" s="24" t="s">
+      <c r="H1" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="G1" s="14" t="s">
+      <c r="I1" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="H1" s="14" t="s">
+      <c r="J1" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="I1" s="26" t="s">
+      <c r="K1" s="26" t="s">
         <v>14</v>
-      </c>
-      <c r="J1" s="24" t="s">
-        <v>15</v>
-      </c>
-      <c r="K1" s="26" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
@@ -15063,6 +15753,318 @@
       </c>
       <c r="J126" s="4"/>
       <c r="K126" s="29"/>
+    </row>
+    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A127" s="21">
+        <v>45783</v>
+      </c>
+      <c r="B127" s="40">
+        <f>'[1]NaOCl Pré'!F128</f>
+        <v>3.4708473452375315</v>
+      </c>
+      <c r="C127" s="4">
+        <f>[1]Acide!F128</f>
+        <v>0</v>
+      </c>
+      <c r="D127" s="4">
+        <f>[1]FeCl3!F128</f>
+        <v>0</v>
+      </c>
+      <c r="E127" s="40">
+        <f>'[1]NaOCl 2 CEB 1'!I128</f>
+        <v>4.6075877421493843</v>
+      </c>
+      <c r="F127" s="4">
+        <f>'[1]Soude CEB 1'!F128</f>
+        <v>0</v>
+      </c>
+      <c r="G127" s="40">
+        <f>'[1]Acide CEB2'!F128</f>
+        <v>2.4250461800786267</v>
+      </c>
+      <c r="H127" s="40">
+        <f>[1]SBS!G128</f>
+        <v>7.638895467247667</v>
+      </c>
+      <c r="I127" s="40">
+        <f>[1]ASC!F128</f>
+        <v>3.2397101311987844</v>
+      </c>
+      <c r="J127" s="4"/>
+      <c r="K127" s="29"/>
+    </row>
+    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A128" s="21">
+        <v>45784</v>
+      </c>
+      <c r="B128" s="40">
+        <f>'[1]NaOCl Pré'!F129</f>
+        <v>3.5970600951145704</v>
+      </c>
+      <c r="C128" s="4">
+        <f>[1]Acide!F129</f>
+        <v>0</v>
+      </c>
+      <c r="D128" s="4">
+        <f>[1]FeCl3!F129</f>
+        <v>0</v>
+      </c>
+      <c r="E128" s="40">
+        <f>'[1]NaOCl 2 CEB 1'!I129</f>
+        <v>4.6423596099341893</v>
+      </c>
+      <c r="F128" s="4">
+        <f>'[1]Soude CEB 1'!F129</f>
+        <v>0</v>
+      </c>
+      <c r="G128" s="40">
+        <f>'[1]Acide CEB2'!F129</f>
+        <v>0.79934668780323503</v>
+      </c>
+      <c r="H128" s="40">
+        <f>[1]SBS!G129</f>
+        <v>8.483451025604074</v>
+      </c>
+      <c r="I128" s="40">
+        <f>[1]ASC!F129</f>
+        <v>3.329009943795934</v>
+      </c>
+      <c r="J128" s="4"/>
+      <c r="K128" s="29"/>
+    </row>
+    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A129" s="21">
+        <v>45785</v>
+      </c>
+      <c r="B129" s="40">
+        <f>'[1]NaOCl Pré'!F130</f>
+        <v>2.453387853063401</v>
+      </c>
+      <c r="C129" s="4">
+        <f>[1]Acide!F130</f>
+        <v>0</v>
+      </c>
+      <c r="D129" s="4">
+        <f>[1]FeCl3!F130</f>
+        <v>0</v>
+      </c>
+      <c r="E129" s="40">
+        <f>'[1]NaOCl 2 CEB 1'!I130</f>
+        <v>3.6978599524433946</v>
+      </c>
+      <c r="F129" s="4">
+        <f>'[1]Soude CEB 1'!F130</f>
+        <v>0</v>
+      </c>
+      <c r="G129" s="40">
+        <f>'[1]Acide CEB2'!F130</f>
+        <v>1.3511411364697086</v>
+      </c>
+      <c r="H129" s="40">
+        <f>[1]SBS!G130</f>
+        <v>5.9379097313273501</v>
+      </c>
+      <c r="I129" s="40">
+        <f>[1]ASC!F130</f>
+        <v>3.6834151870041567</v>
+      </c>
+      <c r="J129" s="4"/>
+      <c r="K129" s="29"/>
+    </row>
+    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A130" s="21">
+        <v>45786</v>
+      </c>
+      <c r="B130" s="40">
+        <f>'[1]NaOCl Pré'!F131</f>
+        <v>2.6119353861952241</v>
+      </c>
+      <c r="C130" s="4">
+        <f>[1]Acide!F131</f>
+        <v>0</v>
+      </c>
+      <c r="D130" s="4">
+        <f>[1]FeCl3!F131</f>
+        <v>0</v>
+      </c>
+      <c r="E130" s="40">
+        <f>'[1]NaOCl 2 CEB 1'!I131</f>
+        <v>4.7183348911912955</v>
+      </c>
+      <c r="F130" s="4">
+        <f>'[1]Soude CEB 1'!F131</f>
+        <v>0</v>
+      </c>
+      <c r="G130" s="40">
+        <f>'[1]Acide CEB2'!F131</f>
+        <v>8.4255980199835379E-2</v>
+      </c>
+      <c r="H130" s="40">
+        <f>[1]SBS!G131</f>
+        <v>9.1444068510643906</v>
+      </c>
+      <c r="I130" s="40">
+        <f>[1]ASC!F131</f>
+        <v>4.7064863939756973</v>
+      </c>
+      <c r="J130" s="4"/>
+      <c r="K130" s="29"/>
+    </row>
+    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A131" s="21">
+        <v>45787</v>
+      </c>
+      <c r="B131" s="40">
+        <f>'[1]NaOCl Pré'!F132</f>
+        <v>2.0722649538762052</v>
+      </c>
+      <c r="C131" s="4">
+        <f>[1]Acide!F132</f>
+        <v>0</v>
+      </c>
+      <c r="D131" s="4">
+        <f>[1]FeCl3!F132</f>
+        <v>0</v>
+      </c>
+      <c r="E131" s="40">
+        <f>'[1]NaOCl 2 CEB 1'!I132</f>
+        <v>4.1868210292601775</v>
+      </c>
+      <c r="F131" s="4">
+        <f>'[1]Soude CEB 1'!F132</f>
+        <v>0</v>
+      </c>
+      <c r="G131" s="40">
+        <f>'[1]Acide CEB2'!F132</f>
+        <v>-0.80353130864589661</v>
+      </c>
+      <c r="H131" s="40">
+        <f>[1]SBS!G132</f>
+        <v>4.3982766367985713</v>
+      </c>
+      <c r="I131" s="40">
+        <f>[1]ASC!F132</f>
+        <v>4.5396875743398466</v>
+      </c>
+      <c r="J131" s="4"/>
+      <c r="K131" s="29"/>
+    </row>
+    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A132" s="21">
+        <v>45788</v>
+      </c>
+      <c r="B132" s="40">
+        <f>'[1]NaOCl Pré'!F133</f>
+        <v>2.0704043098212699</v>
+      </c>
+      <c r="C132" s="4">
+        <f>[1]Acide!F133</f>
+        <v>0</v>
+      </c>
+      <c r="D132" s="4">
+        <f>[1]FeCl3!F133</f>
+        <v>0</v>
+      </c>
+      <c r="E132" s="40">
+        <f>'[1]NaOCl 2 CEB 1'!I133</f>
+        <v>4.3098212163625034</v>
+      </c>
+      <c r="F132" s="4">
+        <f>'[1]Soude CEB 1'!F133</f>
+        <v>0</v>
+      </c>
+      <c r="G132" s="40">
+        <f>'[1]Acide CEB2'!F133</f>
+        <v>-0.25351889508014447</v>
+      </c>
+      <c r="H132" s="40">
+        <f>[1]SBS!G133</f>
+        <v>4.6900995589827783</v>
+      </c>
+      <c r="I132" s="40">
+        <f>[1]ASC!F133</f>
+        <v>4.7534792827528083</v>
+      </c>
+      <c r="J132" s="4"/>
+      <c r="K132" s="29"/>
+    </row>
+    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A133" s="21">
+        <v>45789</v>
+      </c>
+      <c r="B133" s="40">
+        <f>'[1]NaOCl Pré'!F134</f>
+        <v>1.7049389951515339</v>
+      </c>
+      <c r="C133" s="4">
+        <f>[1]Acide!F134</f>
+        <v>0</v>
+      </c>
+      <c r="D133" s="4">
+        <f>[1]FeCl3!F134</f>
+        <v>0</v>
+      </c>
+      <c r="E133" s="40">
+        <f>'[1]NaOCl 2 CEB 1'!I134</f>
+        <v>4.0066066386062449</v>
+      </c>
+      <c r="F133" s="4">
+        <f>'[1]Soude CEB 1'!F134</f>
+        <v>0</v>
+      </c>
+      <c r="G133" s="40">
+        <f>'[1]Acide CEB2'!F134</f>
+        <v>0.46885822366668012</v>
+      </c>
+      <c r="H133" s="40">
+        <f>[1]SBS!G134</f>
+        <v>8.7005168096329069</v>
+      </c>
+      <c r="I133" s="40">
+        <f>[1]ASC!F134</f>
+        <v>4.815120677713244</v>
+      </c>
+      <c r="J133" s="4"/>
+      <c r="K133" s="29"/>
+    </row>
+    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A134" s="21">
+        <v>45790</v>
+      </c>
+      <c r="B134" s="40">
+        <f>'[1]NaOCl Pré'!F135</f>
+        <v>3.9795076981305439</v>
+      </c>
+      <c r="C134" s="4">
+        <f>[1]Acide!F135</f>
+        <v>0</v>
+      </c>
+      <c r="D134" s="4">
+        <f>[1]FeCl3!F135</f>
+        <v>0</v>
+      </c>
+      <c r="E134" s="40">
+        <f>'[1]NaOCl 2 CEB 1'!I135</f>
+        <v>5.5367063626164086</v>
+      </c>
+      <c r="F134" s="4">
+        <f>'[1]Soude CEB 1'!F135</f>
+        <v>0</v>
+      </c>
+      <c r="G134" s="40">
+        <f>'[1]Acide CEB2'!F135</f>
+        <v>1.038132442990584</v>
+      </c>
+      <c r="H134" s="40">
+        <f>[1]SBS!G135</f>
+        <v>11.116668243690777</v>
+      </c>
+      <c r="I134" s="40">
+        <f>[1]ASC!F135</f>
+        <v>4.4810013652523022</v>
+      </c>
+      <c r="J134" s="4"/>
+      <c r="K134" s="29"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -15072,44 +16074,50 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07CB649B-6F18-453D-B029-557EF373D866}">
-  <dimension ref="A1:G126"/>
+  <dimension ref="A1:I134"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A50" sqref="A1:A1048576"/>
+    <sheetView topLeftCell="A79" workbookViewId="0">
+      <selection activeCell="A91" sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="11.44140625" style="2"/>
-    <col min="2" max="4" width="13.5546875" style="2" customWidth="1"/>
-    <col min="5" max="5" width="15.109375" style="2" customWidth="1"/>
-    <col min="6" max="16384" width="11.44140625" style="2"/>
+    <col min="2" max="3" width="13.5546875" style="2" customWidth="1"/>
+    <col min="4" max="4" width="7.6640625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="8.33203125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="14.88671875" style="2" customWidth="1"/>
+    <col min="7" max="7" width="9.88671875" style="2" customWidth="1"/>
+    <col min="8" max="16384" width="11.44140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="59.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" ht="59.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="11" t="s">
         <v>2</v>
       </c>
       <c r="B1" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="D1" s="16" t="s">
-        <v>6</v>
+      <c r="D1" s="11" t="s">
+        <v>16</v>
       </c>
       <c r="E1" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="G1" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="F1" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="H1" s="13" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="32">
         <v>45658</v>
       </c>
@@ -15117,20 +16125,21 @@
         <v>11077.9</v>
       </c>
       <c r="C2" s="36"/>
-      <c r="D2" s="36"/>
-      <c r="E2" s="18">
+      <c r="D2" s="53"/>
+      <c r="E2" s="53"/>
+      <c r="F2" s="18">
         <v>163.69999999999999</v>
       </c>
-      <c r="F2" s="18">
+      <c r="G2" s="18">
         <f>[2]Sheet1!U6</f>
         <v>53174</v>
       </c>
-      <c r="G2" s="22">
-        <f t="shared" ref="G2" si="0">E2/F2</f>
+      <c r="H2" s="22">
+        <f>F2/G2</f>
         <v>3.0785722345507199E-3</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="12">
         <v>45659</v>
       </c>
@@ -15138,21 +16147,22 @@
         <v>11236.4</v>
       </c>
       <c r="C3" s="8"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="5">
+      <c r="D3" s="54"/>
+      <c r="E3" s="54"/>
+      <c r="F3" s="5">
         <f>(B3-B2)</f>
         <v>158.5</v>
       </c>
-      <c r="F3" s="10">
+      <c r="G3" s="10">
         <f>[2]Sheet1!U7</f>
         <v>53766</v>
       </c>
-      <c r="G3" s="6">
-        <f>E3/F3*1000</f>
+      <c r="H3" s="6">
+        <f>F3/G3*1000</f>
         <v>2.9479596771193695</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="31">
         <v>45660</v>
       </c>
@@ -15160,21 +16170,22 @@
         <v>11380.2</v>
       </c>
       <c r="C4" s="8"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="5">
+      <c r="D4" s="54"/>
+      <c r="E4" s="54"/>
+      <c r="F4" s="5">
         <f>(B4-B3)</f>
         <v>143.80000000000109</v>
       </c>
-      <c r="F4" s="8">
+      <c r="G4" s="8">
         <f>[2]Sheet1!U8</f>
         <v>48641</v>
       </c>
-      <c r="G4" s="6">
-        <f>E4/F4*1000</f>
+      <c r="H4" s="6">
+        <f>F4/G4*1000</f>
         <v>2.9563536933862604</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="19">
         <v>45661</v>
       </c>
@@ -15182,21 +16193,22 @@
         <v>11525</v>
       </c>
       <c r="C5" s="8"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="5">
-        <f t="shared" ref="E5:E68" si="1">(B5-B4)</f>
+      <c r="D5" s="54"/>
+      <c r="E5" s="54"/>
+      <c r="F5" s="5">
+        <f t="shared" ref="F5:F68" si="0">(B5-B4)</f>
         <v>144.79999999999927</v>
       </c>
-      <c r="F5" s="15">
+      <c r="G5" s="15">
         <f>[2]Sheet1!U9</f>
         <v>47464</v>
       </c>
-      <c r="G5" s="6">
-        <f t="shared" ref="G5:G68" si="2">E5/F5*1000</f>
+      <c r="H5" s="6">
+        <f t="shared" ref="H5:H68" si="1">F5/G5*1000</f>
         <v>3.0507331872576957</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="19">
         <v>45662</v>
       </c>
@@ -15204,21 +16216,22 @@
         <v>11694</v>
       </c>
       <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="5">
-        <f t="shared" si="1"/>
+      <c r="D6" s="54"/>
+      <c r="E6" s="54"/>
+      <c r="F6" s="5">
+        <f t="shared" si="0"/>
         <v>169</v>
       </c>
-      <c r="F6" s="8">
+      <c r="G6" s="8">
         <f>[2]Sheet1!U10</f>
         <v>57975</v>
       </c>
-      <c r="G6" s="6">
-        <f t="shared" si="2"/>
+      <c r="H6" s="6">
+        <f t="shared" si="1"/>
         <v>2.9150495903406641</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="19">
         <v>45663</v>
       </c>
@@ -15226,21 +16239,22 @@
         <v>11862.8</v>
       </c>
       <c r="C7" s="8"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="5">
-        <f t="shared" si="1"/>
+      <c r="D7" s="54"/>
+      <c r="E7" s="54"/>
+      <c r="F7" s="5">
+        <f t="shared" si="0"/>
         <v>168.79999999999927</v>
       </c>
-      <c r="F7" s="15">
+      <c r="G7" s="15">
         <f>[2]Sheet1!U11</f>
         <v>58341</v>
       </c>
-      <c r="G7" s="6">
-        <f t="shared" si="2"/>
+      <c r="H7" s="6">
+        <f t="shared" si="1"/>
         <v>2.8933340189574963</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="19">
         <v>45664</v>
       </c>
@@ -15248,21 +16262,22 @@
         <v>12009.8</v>
       </c>
       <c r="C8" s="8"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="5">
-        <f t="shared" si="1"/>
+      <c r="D8" s="54"/>
+      <c r="E8" s="54"/>
+      <c r="F8" s="5">
+        <f t="shared" si="0"/>
         <v>147</v>
       </c>
-      <c r="F8" s="8">
+      <c r="G8" s="8">
         <f>[2]Sheet1!U12</f>
         <v>52934</v>
       </c>
-      <c r="G8" s="6">
-        <f t="shared" si="2"/>
+      <c r="H8" s="6">
+        <f t="shared" si="1"/>
         <v>2.7770431102882838</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="19">
         <v>45665</v>
       </c>
@@ -15270,21 +16285,22 @@
         <v>12183</v>
       </c>
       <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="5">
-        <f t="shared" si="1"/>
+      <c r="D9" s="54"/>
+      <c r="E9" s="54"/>
+      <c r="F9" s="5">
+        <f t="shared" si="0"/>
         <v>173.20000000000073</v>
       </c>
-      <c r="F9" s="15">
+      <c r="G9" s="15">
         <f>[2]Sheet1!U13</f>
         <v>50448</v>
       </c>
-      <c r="G9" s="6">
-        <f t="shared" si="2"/>
+      <c r="H9" s="6">
+        <f t="shared" si="1"/>
         <v>3.4332381858547558</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="19">
         <v>45666</v>
       </c>
@@ -15292,21 +16308,22 @@
         <v>12354.3</v>
       </c>
       <c r="C10" s="8"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="5">
-        <f t="shared" si="1"/>
+      <c r="D10" s="54"/>
+      <c r="E10" s="54"/>
+      <c r="F10" s="5">
+        <f t="shared" si="0"/>
         <v>171.29999999999927</v>
       </c>
-      <c r="F10" s="8">
+      <c r="G10" s="8">
         <f>[2]Sheet1!U14</f>
         <v>65465</v>
       </c>
-      <c r="G10" s="6">
-        <f t="shared" si="2"/>
+      <c r="H10" s="6">
+        <f t="shared" si="1"/>
         <v>2.6166653937218247</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="19">
         <v>45667</v>
       </c>
@@ -15314,21 +16331,22 @@
         <v>12526.7</v>
       </c>
       <c r="C11" s="8"/>
-      <c r="D11" s="8"/>
-      <c r="E11" s="5">
-        <f t="shared" si="1"/>
+      <c r="D11" s="54"/>
+      <c r="E11" s="54"/>
+      <c r="F11" s="5">
+        <f t="shared" si="0"/>
         <v>172.40000000000146</v>
       </c>
-      <c r="F11" s="15">
+      <c r="G11" s="15">
         <f>[2]Sheet1!U15</f>
         <v>58423</v>
       </c>
-      <c r="G11" s="6">
-        <f t="shared" si="2"/>
+      <c r="H11" s="6">
+        <f t="shared" si="1"/>
         <v>2.9508926279034191</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="19">
         <v>45668</v>
       </c>
@@ -15336,21 +16354,22 @@
         <v>12693.5</v>
       </c>
       <c r="C12" s="8"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="5">
-        <f t="shared" si="1"/>
+      <c r="D12" s="54"/>
+      <c r="E12" s="54"/>
+      <c r="F12" s="5">
+        <f t="shared" si="0"/>
         <v>166.79999999999927</v>
       </c>
-      <c r="F12" s="8">
+      <c r="G12" s="8">
         <f>[2]Sheet1!U16</f>
         <v>56419</v>
       </c>
-      <c r="G12" s="6">
-        <f t="shared" si="2"/>
+      <c r="H12" s="6">
+        <f t="shared" si="1"/>
         <v>2.9564508410287185</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="19">
         <v>45669</v>
       </c>
@@ -15358,21 +16377,22 @@
         <v>12864.4</v>
       </c>
       <c r="C13" s="8"/>
-      <c r="D13" s="8"/>
-      <c r="E13" s="5">
-        <f t="shared" si="1"/>
+      <c r="D13" s="54"/>
+      <c r="E13" s="54"/>
+      <c r="F13" s="5">
+        <f t="shared" si="0"/>
         <v>170.89999999999964</v>
       </c>
-      <c r="F13" s="15">
+      <c r="G13" s="15">
         <f>[2]Sheet1!U17</f>
         <v>58678</v>
       </c>
-      <c r="G13" s="6">
-        <f t="shared" si="2"/>
+      <c r="H13" s="6">
+        <f t="shared" si="1"/>
         <v>2.9125055387027445</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="19">
         <v>45670</v>
       </c>
@@ -15380,21 +16400,22 @@
         <v>13037.4</v>
       </c>
       <c r="C14" s="8"/>
-      <c r="D14" s="8"/>
-      <c r="E14" s="5">
-        <f t="shared" si="1"/>
+      <c r="D14" s="54"/>
+      <c r="E14" s="54"/>
+      <c r="F14" s="5">
+        <f t="shared" si="0"/>
         <v>173</v>
       </c>
-      <c r="F14" s="8">
+      <c r="G14" s="8">
         <f>[2]Sheet1!U18</f>
         <v>58205</v>
       </c>
-      <c r="G14" s="6">
-        <f t="shared" si="2"/>
+      <c r="H14" s="6">
+        <f t="shared" si="1"/>
         <v>2.9722532428485526</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="19">
         <v>45671</v>
       </c>
@@ -15402,21 +16423,22 @@
         <v>13208.3</v>
       </c>
       <c r="C15" s="8"/>
-      <c r="D15" s="8"/>
-      <c r="E15" s="5">
-        <f t="shared" si="1"/>
+      <c r="D15" s="54"/>
+      <c r="E15" s="54"/>
+      <c r="F15" s="5">
+        <f t="shared" si="0"/>
         <v>170.89999999999964</v>
       </c>
-      <c r="F15" s="15">
+      <c r="G15" s="15">
         <f>[2]Sheet1!U19</f>
         <v>57968</v>
       </c>
-      <c r="G15" s="6">
-        <f t="shared" si="2"/>
+      <c r="H15" s="6">
+        <f t="shared" si="1"/>
         <v>2.9481783052718677</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="19">
         <v>45672</v>
       </c>
@@ -15424,21 +16446,22 @@
         <v>13371.1</v>
       </c>
       <c r="C16" s="8"/>
-      <c r="D16" s="8"/>
-      <c r="E16" s="5">
-        <f t="shared" si="1"/>
+      <c r="D16" s="54"/>
+      <c r="E16" s="54"/>
+      <c r="F16" s="5">
+        <f t="shared" si="0"/>
         <v>162.80000000000109</v>
       </c>
-      <c r="F16" s="8">
+      <c r="G16" s="8">
         <f>[2]Sheet1!U20</f>
         <v>54239</v>
       </c>
-      <c r="G16" s="6">
-        <f t="shared" si="2"/>
+      <c r="H16" s="6">
+        <f t="shared" si="1"/>
         <v>3.001530264201056</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="19">
         <v>45673</v>
       </c>
@@ -15446,21 +16469,22 @@
         <v>13524.3</v>
       </c>
       <c r="C17" s="8"/>
-      <c r="D17" s="8"/>
-      <c r="E17" s="5">
-        <f t="shared" si="1"/>
+      <c r="D17" s="54"/>
+      <c r="E17" s="54"/>
+      <c r="F17" s="5">
+        <f t="shared" si="0"/>
         <v>153.19999999999891</v>
       </c>
-      <c r="F17" s="15">
+      <c r="G17" s="15">
         <f>[2]Sheet1!U21</f>
         <v>66973</v>
       </c>
-      <c r="G17" s="6">
-        <f t="shared" si="2"/>
+      <c r="H17" s="6">
+        <f t="shared" si="1"/>
         <v>2.2874889880996658</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" s="19">
         <v>45674</v>
       </c>
@@ -15468,21 +16492,22 @@
         <v>13741.5</v>
       </c>
       <c r="C18" s="8"/>
-      <c r="D18" s="8"/>
-      <c r="E18" s="5">
-        <f t="shared" si="1"/>
+      <c r="D18" s="54"/>
+      <c r="E18" s="54"/>
+      <c r="F18" s="5">
+        <f t="shared" si="0"/>
         <v>217.20000000000073</v>
       </c>
-      <c r="F18" s="8">
+      <c r="G18" s="8">
         <f>[2]Sheet1!U22</f>
         <v>68507</v>
       </c>
-      <c r="G18" s="6">
-        <f t="shared" si="2"/>
+      <c r="H18" s="6">
+        <f t="shared" si="1"/>
         <v>3.1704789291605344</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" s="19">
         <v>45675</v>
       </c>
@@ -15490,21 +16515,22 @@
         <v>13949.7</v>
       </c>
       <c r="C19" s="8"/>
-      <c r="D19" s="8"/>
-      <c r="E19" s="5">
-        <f t="shared" si="1"/>
+      <c r="D19" s="54"/>
+      <c r="E19" s="54"/>
+      <c r="F19" s="5">
+        <f t="shared" si="0"/>
         <v>208.20000000000073</v>
       </c>
-      <c r="F19" s="4">
+      <c r="G19" s="4">
         <f>[2]Sheet1!U23</f>
         <v>62883</v>
       </c>
-      <c r="G19" s="6">
-        <f t="shared" si="2"/>
+      <c r="H19" s="6">
+        <f t="shared" si="1"/>
         <v>3.3109107389914718</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" s="19">
         <v>45676</v>
       </c>
@@ -15512,21 +16538,22 @@
         <v>14095.6</v>
       </c>
       <c r="C20" s="8"/>
-      <c r="D20" s="8"/>
-      <c r="E20" s="5">
-        <f t="shared" si="1"/>
+      <c r="D20" s="54"/>
+      <c r="E20" s="54"/>
+      <c r="F20" s="5">
+        <f t="shared" si="0"/>
         <v>145.89999999999964</v>
       </c>
-      <c r="F20" s="8">
+      <c r="G20" s="8">
         <f>[2]Sheet1!U24</f>
         <v>49626</v>
       </c>
-      <c r="G20" s="6">
-        <f t="shared" si="2"/>
+      <c r="H20" s="6">
+        <f t="shared" si="1"/>
         <v>2.9399911336799187</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" s="19">
         <v>45677</v>
       </c>
@@ -15534,21 +16561,22 @@
         <v>14266.4</v>
       </c>
       <c r="C21" s="8"/>
-      <c r="D21" s="8"/>
-      <c r="E21" s="5">
-        <f t="shared" si="1"/>
+      <c r="D21" s="54"/>
+      <c r="E21" s="54"/>
+      <c r="F21" s="5">
+        <f t="shared" si="0"/>
         <v>170.79999999999927</v>
       </c>
-      <c r="F21" s="15">
+      <c r="G21" s="15">
         <f>[2]Sheet1!U25</f>
         <v>58465</v>
       </c>
-      <c r="G21" s="6">
-        <f t="shared" si="2"/>
+      <c r="H21" s="6">
+        <f t="shared" si="1"/>
         <v>2.9214059693833794</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" s="19">
         <v>45678</v>
       </c>
@@ -15556,21 +16584,22 @@
         <v>14436.9</v>
       </c>
       <c r="C22" s="8"/>
-      <c r="D22" s="8"/>
-      <c r="E22" s="5">
-        <f t="shared" si="1"/>
+      <c r="D22" s="54"/>
+      <c r="E22" s="54"/>
+      <c r="F22" s="5">
+        <f t="shared" si="0"/>
         <v>170.5</v>
       </c>
-      <c r="F22" s="8">
+      <c r="G22" s="8">
         <f>[2]Sheet1!U26</f>
         <v>58549</v>
       </c>
-      <c r="G22" s="6">
-        <f t="shared" si="2"/>
+      <c r="H22" s="6">
+        <f t="shared" si="1"/>
         <v>2.9120907274248919</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" s="19">
         <v>45679</v>
       </c>
@@ -15578,21 +16607,22 @@
         <v>14620.7</v>
       </c>
       <c r="C23" s="8"/>
-      <c r="D23" s="8"/>
-      <c r="E23" s="5">
-        <f t="shared" si="1"/>
+      <c r="D23" s="54"/>
+      <c r="E23" s="54"/>
+      <c r="F23" s="5">
+        <f t="shared" si="0"/>
         <v>183.80000000000109</v>
       </c>
-      <c r="F23" s="15">
+      <c r="G23" s="15">
         <f>[2]Sheet1!U27</f>
         <v>59980</v>
       </c>
-      <c r="G23" s="6">
-        <f t="shared" si="2"/>
+      <c r="H23" s="6">
+        <f t="shared" si="1"/>
         <v>3.0643547849283275</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" s="19">
         <v>45680</v>
       </c>
@@ -15600,21 +16630,22 @@
         <v>14821.6</v>
       </c>
       <c r="C24" s="8"/>
-      <c r="D24" s="8"/>
-      <c r="E24" s="5">
-        <f t="shared" si="1"/>
+      <c r="D24" s="54"/>
+      <c r="E24" s="54"/>
+      <c r="F24" s="5">
+        <f t="shared" si="0"/>
         <v>200.89999999999964</v>
       </c>
-      <c r="F24" s="8">
+      <c r="G24" s="8">
         <f>[2]Sheet1!U28</f>
         <v>66594</v>
       </c>
-      <c r="G24" s="6">
-        <f t="shared" si="2"/>
+      <c r="H24" s="6">
+        <f t="shared" si="1"/>
         <v>3.0167882992461728</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" s="19">
         <v>45681</v>
       </c>
@@ -15622,21 +16653,22 @@
         <v>15037.9</v>
       </c>
       <c r="C25" s="8"/>
-      <c r="D25" s="8"/>
-      <c r="E25" s="5">
-        <f t="shared" si="1"/>
+      <c r="D25" s="54"/>
+      <c r="E25" s="54"/>
+      <c r="F25" s="5">
+        <f t="shared" si="0"/>
         <v>216.29999999999927</v>
       </c>
-      <c r="F25" s="15">
+      <c r="G25" s="15">
         <f>[2]Sheet1!U29</f>
         <v>70950</v>
       </c>
-      <c r="G25" s="6">
-        <f t="shared" si="2"/>
+      <c r="H25" s="6">
+        <f t="shared" si="1"/>
         <v>3.048625792811829</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" s="19">
         <v>45682</v>
       </c>
@@ -15644,21 +16676,22 @@
         <v>15273.7</v>
       </c>
       <c r="C26" s="8"/>
-      <c r="D26" s="8"/>
-      <c r="E26" s="5">
-        <f t="shared" si="1"/>
+      <c r="D26" s="54"/>
+      <c r="E26" s="54"/>
+      <c r="F26" s="5">
+        <f t="shared" si="0"/>
         <v>235.80000000000109</v>
       </c>
-      <c r="F26" s="8">
+      <c r="G26" s="8">
         <f>[2]Sheet1!U30</f>
         <v>78568</v>
       </c>
-      <c r="G26" s="6">
-        <f t="shared" si="2"/>
+      <c r="H26" s="6">
+        <f t="shared" si="1"/>
         <v>3.0012218714998613</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" s="19">
         <v>45683</v>
       </c>
@@ -15666,21 +16699,22 @@
         <v>15484.1</v>
       </c>
       <c r="C27" s="8"/>
-      <c r="D27" s="8"/>
-      <c r="E27" s="5">
-        <f t="shared" si="1"/>
+      <c r="D27" s="54"/>
+      <c r="E27" s="54"/>
+      <c r="F27" s="5">
+        <f t="shared" si="0"/>
         <v>210.39999999999964</v>
       </c>
-      <c r="F27" s="15">
+      <c r="G27" s="15">
         <f>[2]Sheet1!U31</f>
         <v>71467</v>
       </c>
-      <c r="G27" s="6">
-        <f t="shared" si="2"/>
+      <c r="H27" s="6">
+        <f t="shared" si="1"/>
         <v>2.9440161193277965</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" s="19">
         <v>45684</v>
       </c>
@@ -15688,21 +16722,22 @@
         <v>15695.8</v>
       </c>
       <c r="C28" s="8"/>
-      <c r="D28" s="8"/>
-      <c r="E28" s="5">
-        <f t="shared" si="1"/>
+      <c r="D28" s="54"/>
+      <c r="E28" s="54"/>
+      <c r="F28" s="5">
+        <f t="shared" si="0"/>
         <v>211.69999999999891</v>
       </c>
-      <c r="F28" s="8">
+      <c r="G28" s="8">
         <f>[2]Sheet1!U32</f>
         <v>71945</v>
       </c>
-      <c r="G28" s="6">
-        <f t="shared" si="2"/>
+      <c r="H28" s="6">
+        <f t="shared" si="1"/>
         <v>2.9425255403433028</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" s="19">
         <v>45685</v>
       </c>
@@ -15710,21 +16745,22 @@
         <v>15909.9</v>
       </c>
       <c r="C29" s="8"/>
-      <c r="D29" s="8"/>
-      <c r="E29" s="5">
-        <f t="shared" si="1"/>
+      <c r="D29" s="54"/>
+      <c r="E29" s="54"/>
+      <c r="F29" s="5">
+        <f t="shared" si="0"/>
         <v>214.10000000000036</v>
       </c>
-      <c r="F29" s="15">
+      <c r="G29" s="15">
         <f>[2]Sheet1!U33</f>
         <v>69243</v>
       </c>
-      <c r="G29" s="6">
-        <f t="shared" si="2"/>
+      <c r="H29" s="6">
+        <f t="shared" si="1"/>
         <v>3.0920093005791252</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" s="19">
         <v>45686</v>
       </c>
@@ -15732,21 +16768,22 @@
         <v>16136.6</v>
       </c>
       <c r="C30" s="8"/>
-      <c r="D30" s="8"/>
-      <c r="E30" s="5">
-        <f t="shared" si="1"/>
+      <c r="D30" s="54"/>
+      <c r="E30" s="54"/>
+      <c r="F30" s="5">
+        <f t="shared" si="0"/>
         <v>226.70000000000073</v>
       </c>
-      <c r="F30" s="8">
+      <c r="G30" s="8">
         <f>[2]Sheet1!U34</f>
         <v>76346</v>
       </c>
-      <c r="G30" s="6">
-        <f t="shared" si="2"/>
+      <c r="H30" s="6">
+        <f t="shared" si="1"/>
         <v>2.9693762607078398</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" s="19">
         <v>45687</v>
       </c>
@@ -15754,21 +16791,22 @@
         <v>16351</v>
       </c>
       <c r="C31" s="8"/>
-      <c r="D31" s="8"/>
-      <c r="E31" s="5">
-        <f t="shared" si="1"/>
+      <c r="D31" s="54"/>
+      <c r="E31" s="54"/>
+      <c r="F31" s="5">
+        <f t="shared" si="0"/>
         <v>214.39999999999964</v>
       </c>
-      <c r="F31" s="15">
+      <c r="G31" s="15">
         <f>[2]Sheet1!U35</f>
         <v>71246</v>
       </c>
-      <c r="G31" s="6">
-        <f t="shared" si="2"/>
+      <c r="H31" s="6">
+        <f t="shared" si="1"/>
         <v>3.0092917497122595</v>
       </c>
     </row>
-    <row r="32" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="20">
         <v>45688</v>
       </c>
@@ -15776,43 +16814,45 @@
         <v>16570.2</v>
       </c>
       <c r="C32" s="9"/>
-      <c r="D32" s="9"/>
-      <c r="E32" s="37">
-        <f t="shared" si="1"/>
+      <c r="D32" s="55"/>
+      <c r="E32" s="55"/>
+      <c r="F32" s="37">
+        <f t="shared" si="0"/>
         <v>219.20000000000073</v>
       </c>
-      <c r="F32" s="9">
+      <c r="G32" s="9">
         <f>[2]Sheet1!U36</f>
         <v>72868</v>
       </c>
-      <c r="G32" s="38">
-        <f t="shared" si="2"/>
+      <c r="H32" s="38">
+        <f t="shared" si="1"/>
         <v>3.0081791732996752</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A33" s="32">
         <v>45689</v>
       </c>
-      <c r="B33" s="44">
+      <c r="B33" s="45">
         <v>16796.900000000001</v>
       </c>
       <c r="C33" s="28"/>
-      <c r="D33" s="28"/>
-      <c r="E33" s="10">
-        <f t="shared" si="1"/>
+      <c r="D33" s="56"/>
+      <c r="E33" s="56"/>
+      <c r="F33" s="10">
+        <f t="shared" si="0"/>
         <v>226.70000000000073</v>
       </c>
-      <c r="F33" s="28">
+      <c r="G33" s="28">
         <f>[2]Sheet1!U37</f>
         <v>71689</v>
       </c>
-      <c r="G33" s="43">
-        <f t="shared" si="2"/>
+      <c r="H33" s="44">
+        <f t="shared" si="1"/>
         <v>3.1622703622592132</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A34" s="12">
         <v>45690</v>
       </c>
@@ -15820,21 +16860,22 @@
         <v>16983.099999999999</v>
       </c>
       <c r="C34" s="27"/>
-      <c r="D34" s="27"/>
-      <c r="E34" s="5">
-        <f t="shared" si="1"/>
+      <c r="D34" s="57"/>
+      <c r="E34" s="57"/>
+      <c r="F34" s="5">
+        <f t="shared" si="0"/>
         <v>186.19999999999709</v>
       </c>
-      <c r="F34" s="27">
+      <c r="G34" s="27">
         <f>[2]Sheet1!U38</f>
         <v>63773</v>
       </c>
-      <c r="G34" s="6">
-        <f t="shared" si="2"/>
+      <c r="H34" s="6">
+        <f t="shared" si="1"/>
         <v>2.9197309206089894</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A35" s="12">
         <v>45691</v>
       </c>
@@ -15842,21 +16883,22 @@
         <v>17201.400000000001</v>
       </c>
       <c r="C35" s="27"/>
-      <c r="D35" s="27"/>
-      <c r="E35" s="5">
-        <f t="shared" si="1"/>
+      <c r="D35" s="57"/>
+      <c r="E35" s="57"/>
+      <c r="F35" s="5">
+        <f t="shared" si="0"/>
         <v>218.30000000000291</v>
       </c>
-      <c r="F35" s="27">
+      <c r="G35" s="27">
         <f>[2]Sheet1!U39</f>
         <v>71403</v>
       </c>
-      <c r="G35" s="6">
-        <f t="shared" si="2"/>
+      <c r="H35" s="6">
+        <f t="shared" si="1"/>
         <v>3.0572945114351344</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A36" s="12">
         <v>45692</v>
       </c>
@@ -15864,21 +16906,22 @@
         <v>17411.400000000001</v>
       </c>
       <c r="C36" s="27"/>
-      <c r="D36" s="27"/>
-      <c r="E36" s="5">
-        <f t="shared" si="1"/>
+      <c r="D36" s="57"/>
+      <c r="E36" s="57"/>
+      <c r="F36" s="5">
+        <f t="shared" si="0"/>
         <v>210</v>
       </c>
-      <c r="F36" s="27">
+      <c r="G36" s="27">
         <f>[2]Sheet1!U40</f>
         <v>68826</v>
       </c>
-      <c r="G36" s="6">
-        <f t="shared" si="2"/>
+      <c r="H36" s="6">
+        <f t="shared" si="1"/>
         <v>3.0511725220120303</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A37" s="12">
         <v>45693</v>
       </c>
@@ -15886,21 +16929,22 @@
         <v>17610.2</v>
       </c>
       <c r="C37" s="27"/>
-      <c r="D37" s="27"/>
-      <c r="E37" s="5">
-        <f t="shared" si="1"/>
+      <c r="D37" s="57"/>
+      <c r="E37" s="57"/>
+      <c r="F37" s="5">
+        <f t="shared" si="0"/>
         <v>198.79999999999927</v>
       </c>
-      <c r="F37" s="27">
+      <c r="G37" s="27">
         <f>[2]Sheet1!U41</f>
         <v>66010</v>
       </c>
-      <c r="G37" s="6">
-        <f t="shared" si="2"/>
+      <c r="H37" s="6">
+        <f t="shared" si="1"/>
         <v>3.0116648992576773</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A38" s="12">
         <v>45694</v>
       </c>
@@ -15908,21 +16952,22 @@
         <v>17775.7</v>
       </c>
       <c r="C38" s="27"/>
-      <c r="D38" s="27"/>
-      <c r="E38" s="5">
-        <f t="shared" si="1"/>
+      <c r="D38" s="57"/>
+      <c r="E38" s="57"/>
+      <c r="F38" s="5">
+        <f t="shared" si="0"/>
         <v>165.5</v>
       </c>
-      <c r="F38" s="27">
+      <c r="G38" s="27">
         <f>[2]Sheet1!U42</f>
         <v>52915</v>
       </c>
-      <c r="G38" s="6">
-        <f t="shared" si="2"/>
+      <c r="H38" s="6">
+        <f t="shared" si="1"/>
         <v>3.1276575640177642</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A39" s="12">
         <v>45695</v>
       </c>
@@ -15930,21 +16975,22 @@
         <v>17962.900000000001</v>
       </c>
       <c r="C39" s="27"/>
-      <c r="D39" s="27"/>
-      <c r="E39" s="5">
-        <f t="shared" si="1"/>
+      <c r="D39" s="57"/>
+      <c r="E39" s="57"/>
+      <c r="F39" s="5">
+        <f t="shared" si="0"/>
         <v>187.20000000000073</v>
       </c>
-      <c r="F39" s="27">
+      <c r="G39" s="27">
         <f>[2]Sheet1!U43</f>
         <v>70336</v>
       </c>
-      <c r="G39" s="6">
-        <f t="shared" si="2"/>
+      <c r="H39" s="6">
+        <f t="shared" si="1"/>
         <v>2.661510464058245</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A40" s="12">
         <v>45696</v>
       </c>
@@ -15952,21 +16998,22 @@
         <v>18217.900000000001</v>
       </c>
       <c r="C40" s="27"/>
-      <c r="D40" s="27"/>
-      <c r="E40" s="5">
-        <f t="shared" si="1"/>
+      <c r="D40" s="57"/>
+      <c r="E40" s="57"/>
+      <c r="F40" s="5">
+        <f t="shared" si="0"/>
         <v>255</v>
       </c>
-      <c r="F40" s="27">
+      <c r="G40" s="27">
         <f>[2]Sheet1!U44</f>
         <v>77269</v>
       </c>
-      <c r="G40" s="6">
-        <f t="shared" si="2"/>
+      <c r="H40" s="6">
+        <f t="shared" si="1"/>
         <v>3.3001591841488822</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A41" s="12">
         <v>45697</v>
       </c>
@@ -15974,21 +17021,22 @@
         <v>18459.5</v>
       </c>
       <c r="C41" s="27"/>
-      <c r="D41" s="27"/>
-      <c r="E41" s="5">
-        <f t="shared" si="1"/>
+      <c r="D41" s="57"/>
+      <c r="E41" s="57"/>
+      <c r="F41" s="5">
+        <f t="shared" si="0"/>
         <v>241.59999999999854</v>
       </c>
-      <c r="F41" s="27">
+      <c r="G41" s="27">
         <f>[2]Sheet1!U45</f>
         <v>81052</v>
       </c>
-      <c r="G41" s="6">
-        <f t="shared" si="2"/>
+      <c r="H41" s="6">
+        <f t="shared" si="1"/>
         <v>2.9808024478112638</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A42" s="12">
         <v>45698</v>
       </c>
@@ -15996,21 +17044,22 @@
         <v>18707.900000000001</v>
       </c>
       <c r="C42" s="27"/>
-      <c r="D42" s="27"/>
-      <c r="E42" s="5">
-        <f t="shared" si="1"/>
+      <c r="D42" s="57"/>
+      <c r="E42" s="57"/>
+      <c r="F42" s="5">
+        <f t="shared" si="0"/>
         <v>248.40000000000146</v>
       </c>
-      <c r="F42" s="27">
+      <c r="G42" s="27">
         <f>[2]Sheet1!U46</f>
         <v>84392</v>
       </c>
-      <c r="G42" s="6">
-        <f t="shared" si="2"/>
+      <c r="H42" s="6">
+        <f t="shared" si="1"/>
         <v>2.9434069580055158</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A43" s="12">
         <v>45699</v>
       </c>
@@ -16018,21 +17067,22 @@
         <v>18922.599999999999</v>
       </c>
       <c r="C43" s="27"/>
-      <c r="D43" s="27"/>
-      <c r="E43" s="5">
-        <f t="shared" si="1"/>
+      <c r="D43" s="57"/>
+      <c r="E43" s="57"/>
+      <c r="F43" s="5">
+        <f t="shared" si="0"/>
         <v>214.69999999999709</v>
       </c>
-      <c r="F43" s="27">
+      <c r="G43" s="27">
         <f>[2]Sheet1!U47</f>
         <v>75872</v>
       </c>
-      <c r="G43" s="6">
-        <f t="shared" si="2"/>
+      <c r="H43" s="6">
+        <f t="shared" si="1"/>
         <v>2.8297659215520494</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A44" s="12">
         <v>45700</v>
       </c>
@@ -16040,21 +17090,22 @@
         <v>19047.5</v>
       </c>
       <c r="C44" s="27"/>
-      <c r="D44" s="27"/>
-      <c r="E44" s="5">
-        <f t="shared" si="1"/>
+      <c r="D44" s="57"/>
+      <c r="E44" s="57"/>
+      <c r="F44" s="5">
+        <f t="shared" si="0"/>
         <v>124.90000000000146</v>
       </c>
-      <c r="F44" s="27">
+      <c r="G44" s="27">
         <f>[2]Sheet1!U48</f>
         <v>40308</v>
       </c>
-      <c r="G44" s="6">
-        <f t="shared" si="2"/>
+      <c r="H44" s="6">
+        <f t="shared" si="1"/>
         <v>3.0986404683934072</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A45" s="12">
         <v>45701</v>
       </c>
@@ -16062,21 +17113,22 @@
         <v>19299.7</v>
       </c>
       <c r="C45" s="27"/>
-      <c r="D45" s="27"/>
-      <c r="E45" s="5">
-        <f t="shared" si="1"/>
+      <c r="D45" s="57"/>
+      <c r="E45" s="57"/>
+      <c r="F45" s="5">
+        <f t="shared" si="0"/>
         <v>252.20000000000073</v>
       </c>
-      <c r="F45" s="27">
+      <c r="G45" s="27">
         <f>[2]Sheet1!U49</f>
         <v>86259</v>
       </c>
-      <c r="G45" s="6">
-        <f t="shared" si="2"/>
+      <c r="H45" s="6">
+        <f t="shared" si="1"/>
         <v>2.9237528837570657</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A46" s="12">
         <v>45702</v>
       </c>
@@ -16084,21 +17136,22 @@
         <v>19539.599999999999</v>
       </c>
       <c r="C46" s="27"/>
-      <c r="D46" s="27"/>
-      <c r="E46" s="5">
-        <f t="shared" si="1"/>
+      <c r="D46" s="57"/>
+      <c r="E46" s="57"/>
+      <c r="F46" s="5">
+        <f t="shared" si="0"/>
         <v>239.89999999999782</v>
       </c>
-      <c r="F46" s="27">
+      <c r="G46" s="27">
         <f>[2]Sheet1!U50</f>
         <v>80933</v>
       </c>
-      <c r="G46" s="6">
-        <f t="shared" si="2"/>
+      <c r="H46" s="6">
+        <f t="shared" si="1"/>
         <v>2.9641802478593138</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A47" s="12">
         <v>45703</v>
       </c>
@@ -16106,21 +17159,22 @@
         <v>19772.099999999999</v>
       </c>
       <c r="C47" s="27"/>
-      <c r="D47" s="27"/>
-      <c r="E47" s="5">
-        <f t="shared" si="1"/>
+      <c r="D47" s="57"/>
+      <c r="E47" s="57"/>
+      <c r="F47" s="5">
+        <f t="shared" si="0"/>
         <v>232.5</v>
       </c>
-      <c r="F47" s="27">
+      <c r="G47" s="27">
         <f>[2]Sheet1!U51</f>
         <v>79044</v>
       </c>
-      <c r="G47" s="6">
-        <f t="shared" si="2"/>
+      <c r="H47" s="6">
+        <f t="shared" si="1"/>
         <v>2.9413997267344771</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A48" s="12">
         <v>45704</v>
       </c>
@@ -16128,21 +17182,22 @@
         <v>19986.5</v>
       </c>
       <c r="C48" s="27"/>
-      <c r="D48" s="27"/>
-      <c r="E48" s="5">
-        <f t="shared" si="1"/>
+      <c r="D48" s="57"/>
+      <c r="E48" s="57"/>
+      <c r="F48" s="5">
+        <f t="shared" si="0"/>
         <v>214.40000000000146</v>
       </c>
-      <c r="F48" s="27">
+      <c r="G48" s="27">
         <f>[2]Sheet1!U52</f>
         <v>72540</v>
       </c>
-      <c r="G48" s="6">
-        <f t="shared" si="2"/>
+      <c r="H48" s="6">
+        <f t="shared" si="1"/>
         <v>2.9556106975462013</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A49" s="12">
         <v>45705</v>
       </c>
@@ -16150,21 +17205,22 @@
         <v>20235.3</v>
       </c>
       <c r="C49" s="27"/>
-      <c r="D49" s="27"/>
-      <c r="E49" s="5">
-        <f t="shared" si="1"/>
+      <c r="D49" s="57"/>
+      <c r="E49" s="57"/>
+      <c r="F49" s="5">
+        <f t="shared" si="0"/>
         <v>248.79999999999927</v>
       </c>
-      <c r="F49" s="27">
+      <c r="G49" s="27">
         <f>[2]Sheet1!U53</f>
         <v>84015</v>
       </c>
-      <c r="G49" s="6">
-        <f t="shared" si="2"/>
+      <c r="H49" s="6">
+        <f t="shared" si="1"/>
         <v>2.9613759447717585</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A50" s="12">
         <v>45706</v>
       </c>
@@ -16172,21 +17228,22 @@
         <v>20486.3</v>
       </c>
       <c r="C50" s="27"/>
-      <c r="D50" s="27"/>
-      <c r="E50" s="5">
-        <f t="shared" si="1"/>
+      <c r="D50" s="57"/>
+      <c r="E50" s="57"/>
+      <c r="F50" s="5">
+        <f t="shared" si="0"/>
         <v>251</v>
       </c>
-      <c r="F50" s="27">
+      <c r="G50" s="27">
         <f>[2]Sheet1!U54</f>
         <v>82276</v>
       </c>
-      <c r="G50" s="6">
-        <f t="shared" si="2"/>
+      <c r="H50" s="6">
+        <f t="shared" si="1"/>
         <v>3.0507073751762364</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A51" s="12">
         <v>45707</v>
       </c>
@@ -16194,21 +17251,22 @@
         <v>20737.599999999999</v>
       </c>
       <c r="C51" s="27"/>
-      <c r="D51" s="27"/>
-      <c r="E51" s="5">
-        <f t="shared" si="1"/>
+      <c r="D51" s="57"/>
+      <c r="E51" s="57"/>
+      <c r="F51" s="5">
+        <f t="shared" si="0"/>
         <v>251.29999999999927</v>
       </c>
-      <c r="F51" s="27">
+      <c r="G51" s="27">
         <f>[2]Sheet1!U55</f>
         <v>84632</v>
       </c>
-      <c r="G51" s="6">
-        <f t="shared" si="2"/>
+      <c r="H51" s="6">
+        <f t="shared" si="1"/>
         <v>2.9693260232536067</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A52" s="12">
         <v>45708</v>
       </c>
@@ -16216,21 +17274,22 @@
         <v>20990.2</v>
       </c>
       <c r="C52" s="27"/>
-      <c r="D52" s="27"/>
-      <c r="E52" s="5">
-        <f t="shared" si="1"/>
+      <c r="D52" s="57"/>
+      <c r="E52" s="57"/>
+      <c r="F52" s="5">
+        <f t="shared" si="0"/>
         <v>252.60000000000218</v>
       </c>
-      <c r="F52" s="27">
+      <c r="G52" s="27">
         <f>[2]Sheet1!U56</f>
         <v>87013</v>
       </c>
-      <c r="G52" s="6">
-        <f t="shared" si="2"/>
+      <c r="H52" s="6">
+        <f t="shared" si="1"/>
         <v>2.9030144920874146</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A53" s="12">
         <v>45709</v>
       </c>
@@ -16238,21 +17297,22 @@
         <v>21255.7</v>
       </c>
       <c r="C53" s="27"/>
-      <c r="D53" s="27"/>
-      <c r="E53" s="5">
-        <f t="shared" si="1"/>
+      <c r="D53" s="57"/>
+      <c r="E53" s="57"/>
+      <c r="F53" s="5">
+        <f t="shared" si="0"/>
         <v>265.5</v>
       </c>
-      <c r="F53" s="27">
+      <c r="G53" s="27">
         <f>[2]Sheet1!U57</f>
         <v>89956</v>
       </c>
-      <c r="G53" s="6">
-        <f t="shared" si="2"/>
+      <c r="H53" s="6">
+        <f t="shared" si="1"/>
         <v>2.9514429276535195</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A54" s="12">
         <v>45710</v>
       </c>
@@ -16260,21 +17320,22 @@
         <v>21479.9</v>
       </c>
       <c r="C54" s="27"/>
-      <c r="D54" s="27"/>
-      <c r="E54" s="5">
-        <f t="shared" si="1"/>
+      <c r="D54" s="57"/>
+      <c r="E54" s="57"/>
+      <c r="F54" s="5">
+        <f t="shared" si="0"/>
         <v>224.20000000000073</v>
       </c>
-      <c r="F54" s="27">
+      <c r="G54" s="27">
         <f>[2]Sheet1!U58</f>
         <v>77612</v>
       </c>
-      <c r="G54" s="6">
-        <f t="shared" si="2"/>
+      <c r="H54" s="6">
+        <f t="shared" si="1"/>
         <v>2.8887285471318962</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A55" s="12">
         <v>45711</v>
       </c>
@@ -16282,21 +17343,22 @@
         <v>21728.1</v>
       </c>
       <c r="C55" s="27"/>
-      <c r="D55" s="27"/>
-      <c r="E55" s="5">
-        <f t="shared" si="1"/>
+      <c r="D55" s="57"/>
+      <c r="E55" s="57"/>
+      <c r="F55" s="5">
+        <f t="shared" si="0"/>
         <v>248.19999999999709</v>
       </c>
-      <c r="F55" s="27">
+      <c r="G55" s="27">
         <f>[2]Sheet1!U59</f>
         <v>82831</v>
       </c>
-      <c r="G55" s="6">
-        <f t="shared" si="2"/>
+      <c r="H55" s="6">
+        <f t="shared" si="1"/>
         <v>2.9964626770170235</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A56" s="12">
         <v>45712</v>
       </c>
@@ -16304,21 +17366,22 @@
         <v>21999.599999999999</v>
       </c>
       <c r="C56" s="27"/>
-      <c r="D56" s="27"/>
-      <c r="E56" s="5">
-        <f t="shared" si="1"/>
+      <c r="D56" s="57"/>
+      <c r="E56" s="57"/>
+      <c r="F56" s="5">
+        <f t="shared" si="0"/>
         <v>271.5</v>
       </c>
-      <c r="F56" s="27">
+      <c r="G56" s="27">
         <f>[2]Sheet1!U60</f>
         <v>94316</v>
       </c>
-      <c r="G56" s="6">
-        <f t="shared" si="2"/>
+      <c r="H56" s="6">
+        <f t="shared" si="1"/>
         <v>2.8786208066499852</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A57" s="12">
         <v>45713</v>
       </c>
@@ -16326,21 +17389,22 @@
         <v>22284.5</v>
       </c>
       <c r="C57" s="27"/>
-      <c r="D57" s="27"/>
-      <c r="E57" s="5">
-        <f t="shared" si="1"/>
+      <c r="D57" s="57"/>
+      <c r="E57" s="57"/>
+      <c r="F57" s="5">
+        <f t="shared" si="0"/>
         <v>284.90000000000146</v>
       </c>
-      <c r="F57" s="27">
+      <c r="G57" s="27">
         <f>[2]Sheet1!U61</f>
         <v>97557</v>
       </c>
-      <c r="G57" s="6">
-        <f t="shared" si="2"/>
+      <c r="H57" s="6">
+        <f t="shared" si="1"/>
         <v>2.9203440040181787</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A58" s="12">
         <v>45714</v>
       </c>
@@ -16348,21 +17412,22 @@
         <v>22510</v>
       </c>
       <c r="C58" s="27"/>
-      <c r="D58" s="27"/>
-      <c r="E58" s="5">
-        <f t="shared" si="1"/>
+      <c r="D58" s="57"/>
+      <c r="E58" s="57"/>
+      <c r="F58" s="5">
+        <f t="shared" si="0"/>
         <v>225.5</v>
       </c>
-      <c r="F58" s="27">
+      <c r="G58" s="27">
         <f>[2]Sheet1!U62</f>
         <v>94135</v>
       </c>
-      <c r="G58" s="6">
-        <f t="shared" si="2"/>
+      <c r="H58" s="6">
+        <f t="shared" si="1"/>
         <v>2.3954958304562597</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A59" s="12">
         <v>45715</v>
       </c>
@@ -16370,21 +17435,22 @@
         <v>22827.5</v>
       </c>
       <c r="C59" s="27"/>
-      <c r="D59" s="27"/>
-      <c r="E59" s="5">
-        <f t="shared" si="1"/>
+      <c r="D59" s="57"/>
+      <c r="E59" s="57"/>
+      <c r="F59" s="5">
+        <f t="shared" si="0"/>
         <v>317.5</v>
       </c>
-      <c r="F59" s="27">
+      <c r="G59" s="27">
         <f>[2]Sheet1!U63</f>
         <v>94228</v>
       </c>
-      <c r="G59" s="6">
-        <f t="shared" si="2"/>
+      <c r="H59" s="6">
+        <f t="shared" si="1"/>
         <v>3.3694867767542558</v>
       </c>
     </row>
-    <row r="60" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A60" s="33">
         <v>45716</v>
       </c>
@@ -16394,24 +17460,25 @@
       <c r="C60" s="9">
         <v>20275</v>
       </c>
-      <c r="D60" s="9">
-        <f t="shared" ref="D60:D98" si="3">B60-C60-(B59-C59)</f>
-        <v>-20014.099999999999</v>
-      </c>
-      <c r="E60" s="37">
-        <f t="shared" si="1"/>
+      <c r="D60" s="55"/>
+      <c r="E60" s="55">
+        <f>C60-C59</f>
+        <v>20275</v>
+      </c>
+      <c r="F60" s="37">
+        <f t="shared" si="0"/>
         <v>260.90000000000146</v>
       </c>
-      <c r="F60" s="9">
+      <c r="G60" s="9">
         <f>[2]Sheet1!U64</f>
         <v>95898</v>
       </c>
-      <c r="G60" s="38">
-        <f t="shared" si="2"/>
+      <c r="H60" s="38">
+        <f t="shared" si="1"/>
         <v>2.7205989697386959</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A61" s="31">
         <v>45717</v>
       </c>
@@ -16421,24 +17488,25 @@
       <c r="C61" s="35">
         <v>20513</v>
       </c>
-      <c r="D61" s="36">
-        <f t="shared" si="3"/>
-        <v>25.69999999999709</v>
-      </c>
-      <c r="E61" s="18">
-        <f t="shared" si="1"/>
+      <c r="D61" s="58"/>
+      <c r="E61" s="53">
+        <f>C61-C60</f>
+        <v>238</v>
+      </c>
+      <c r="F61" s="18">
+        <f t="shared" si="0"/>
         <v>263.69999999999709</v>
       </c>
-      <c r="F61" s="35">
+      <c r="G61" s="35">
         <f>[2]Sheet1!U65</f>
         <v>90569</v>
       </c>
-      <c r="G61" s="22">
-        <f t="shared" si="2"/>
+      <c r="H61" s="22">
+        <f t="shared" si="1"/>
         <v>2.911592266669579</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A62" s="19">
         <v>45718</v>
       </c>
@@ -16448,24 +17516,25 @@
       <c r="C62" s="27">
         <v>20751</v>
       </c>
-      <c r="D62" s="8">
-        <f t="shared" si="3"/>
-        <v>26.5</v>
-      </c>
-      <c r="E62" s="5">
-        <f t="shared" si="1"/>
+      <c r="D62" s="57"/>
+      <c r="E62" s="54">
+        <f>C62-C61</f>
+        <v>238</v>
+      </c>
+      <c r="F62" s="5">
+        <f t="shared" si="0"/>
         <v>264.5</v>
       </c>
-      <c r="F62" s="27">
+      <c r="G62" s="27">
         <f>[2]Sheet1!U66</f>
         <v>91249</v>
       </c>
-      <c r="G62" s="6">
-        <f t="shared" si="2"/>
+      <c r="H62" s="6">
+        <f t="shared" si="1"/>
         <v>2.8986619031441441</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A63" s="12">
         <v>45719</v>
       </c>
@@ -16475,24 +17544,25 @@
       <c r="C63" s="27">
         <v>21014</v>
       </c>
-      <c r="D63" s="8">
-        <f t="shared" si="3"/>
-        <v>27.600000000002183</v>
-      </c>
-      <c r="E63" s="5">
-        <f t="shared" si="1"/>
+      <c r="D63" s="57"/>
+      <c r="E63" s="54">
+        <f t="shared" ref="E63:E126" si="2">C63-C62</f>
+        <v>263</v>
+      </c>
+      <c r="F63" s="5">
+        <f t="shared" si="0"/>
         <v>290.60000000000218</v>
       </c>
-      <c r="F63" s="27">
+      <c r="G63" s="27">
         <f>[2]Sheet1!U67</f>
         <v>102134</v>
       </c>
-      <c r="G63" s="6">
-        <f t="shared" si="2"/>
+      <c r="H63" s="6">
+        <f t="shared" si="1"/>
         <v>2.8452816887618444</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A64" s="30">
         <v>45720</v>
       </c>
@@ -16502,24 +17572,25 @@
       <c r="C64" s="27">
         <v>21229</v>
       </c>
-      <c r="D64" s="8">
-        <f t="shared" si="3"/>
-        <v>24.299999999999272</v>
-      </c>
-      <c r="E64" s="5">
-        <f t="shared" si="1"/>
+      <c r="D64" s="57"/>
+      <c r="E64" s="54">
+        <f t="shared" si="2"/>
+        <v>215</v>
+      </c>
+      <c r="F64" s="5">
+        <f t="shared" si="0"/>
         <v>239.29999999999927</v>
       </c>
-      <c r="F64" s="27">
+      <c r="G64" s="27">
         <f>[2]Sheet1!U68</f>
         <v>86868</v>
       </c>
-      <c r="G64" s="6">
-        <f t="shared" si="2"/>
+      <c r="H64" s="6">
+        <f t="shared" si="1"/>
         <v>2.7547543399180281</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A65" s="19">
         <v>45721</v>
       </c>
@@ -16529,24 +17600,25 @@
       <c r="C65" s="27">
         <v>21455</v>
       </c>
-      <c r="D65" s="8">
-        <f t="shared" si="3"/>
-        <v>26.099999999998545</v>
-      </c>
-      <c r="E65" s="5">
-        <f t="shared" si="1"/>
+      <c r="D65" s="57"/>
+      <c r="E65" s="54">
+        <f t="shared" si="2"/>
+        <v>226</v>
+      </c>
+      <c r="F65" s="5">
+        <f t="shared" si="0"/>
         <v>252.09999999999854</v>
       </c>
-      <c r="F65" s="27">
+      <c r="G65" s="27">
         <f>[2]Sheet1!U69</f>
         <v>86339</v>
       </c>
-      <c r="G65" s="6">
-        <f t="shared" si="2"/>
+      <c r="H65" s="6">
+        <f t="shared" si="1"/>
         <v>2.919885567356566</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A66" s="19">
         <v>45722</v>
       </c>
@@ -16556,24 +17628,25 @@
       <c r="C66" s="27">
         <v>21699</v>
       </c>
-      <c r="D66" s="8">
-        <f t="shared" si="3"/>
-        <v>24.900000000001455</v>
-      </c>
-      <c r="E66" s="5">
-        <f t="shared" si="1"/>
+      <c r="D66" s="57"/>
+      <c r="E66" s="54">
+        <f t="shared" si="2"/>
+        <v>244</v>
+      </c>
+      <c r="F66" s="5">
+        <f t="shared" si="0"/>
         <v>268.90000000000146</v>
       </c>
-      <c r="F66" s="27">
+      <c r="G66" s="27">
         <f>[2]Sheet1!U70</f>
         <v>92995</v>
       </c>
-      <c r="G66" s="6">
-        <f t="shared" si="2"/>
+      <c r="H66" s="6">
+        <f t="shared" si="1"/>
         <v>2.8915533093177208</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A67" s="19">
         <v>45723</v>
       </c>
@@ -16583,24 +17656,25 @@
       <c r="C67" s="27">
         <v>21985</v>
       </c>
-      <c r="D67" s="8">
-        <f t="shared" si="3"/>
-        <v>30.799999999999272</v>
-      </c>
-      <c r="E67" s="5">
-        <f t="shared" si="1"/>
+      <c r="D67" s="57"/>
+      <c r="E67" s="54">
+        <f t="shared" si="2"/>
+        <v>286</v>
+      </c>
+      <c r="F67" s="5">
+        <f t="shared" si="0"/>
         <v>316.79999999999927</v>
       </c>
-      <c r="F67" s="27">
+      <c r="G67" s="27">
         <f>[2]Sheet1!U71</f>
         <v>103104</v>
       </c>
-      <c r="G67" s="6">
-        <f t="shared" si="2"/>
+      <c r="H67" s="6">
+        <f t="shared" si="1"/>
         <v>3.072625698324015</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A68" s="19">
         <v>45724</v>
       </c>
@@ -16610,24 +17684,25 @@
       <c r="C68" s="27">
         <v>22224</v>
       </c>
-      <c r="D68" s="8">
-        <f t="shared" si="3"/>
-        <v>25.799999999999272</v>
-      </c>
-      <c r="E68" s="5">
-        <f t="shared" si="1"/>
+      <c r="D68" s="57"/>
+      <c r="E68" s="54">
+        <f t="shared" si="2"/>
+        <v>239</v>
+      </c>
+      <c r="F68" s="5">
+        <f t="shared" si="0"/>
         <v>264.79999999999927</v>
       </c>
-      <c r="F68" s="27">
+      <c r="G68" s="27">
         <f>[2]Sheet1!U72</f>
         <v>101998</v>
       </c>
-      <c r="G68" s="6">
-        <f t="shared" si="2"/>
+      <c r="H68" s="6">
+        <f t="shared" si="1"/>
         <v>2.5961293358693238</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A69" s="19">
         <v>45725</v>
       </c>
@@ -16637,24 +17712,25 @@
       <c r="C69" s="27">
         <v>22470</v>
       </c>
-      <c r="D69" s="8">
-        <f t="shared" si="3"/>
-        <v>28.30000000000291</v>
-      </c>
-      <c r="E69" s="5">
-        <f t="shared" ref="E69:E106" si="4">(B69-B68)</f>
+      <c r="D69" s="57"/>
+      <c r="E69" s="54">
+        <f t="shared" si="2"/>
+        <v>246</v>
+      </c>
+      <c r="F69" s="5">
+        <f t="shared" ref="F69:F106" si="3">(B69-B68)</f>
         <v>274.30000000000291</v>
       </c>
-      <c r="F69" s="27">
+      <c r="G69" s="27">
         <f>[2]Sheet1!U73</f>
         <v>94813</v>
       </c>
-      <c r="G69" s="6">
-        <f t="shared" ref="G69:G126" si="5">E69/F69*1000</f>
+      <c r="H69" s="6">
+        <f t="shared" ref="H69:H132" si="4">F69/G69*1000</f>
         <v>2.8930631875376047</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A70" s="19">
         <v>45726</v>
       </c>
@@ -16664,24 +17740,25 @@
       <c r="C70" s="27">
         <v>22763</v>
       </c>
-      <c r="D70" s="8">
+      <c r="D70" s="57"/>
+      <c r="E70" s="54">
+        <f t="shared" si="2"/>
+        <v>293</v>
+      </c>
+      <c r="F70" s="5">
         <f t="shared" si="3"/>
-        <v>-35.400000000001455</v>
-      </c>
-      <c r="E70" s="5">
-        <f t="shared" si="4"/>
         <v>257.59999999999854</v>
       </c>
-      <c r="F70" s="27">
+      <c r="G70" s="27">
         <f>[2]Sheet1!U74</f>
         <v>87541</v>
       </c>
-      <c r="G70" s="6">
-        <f t="shared" si="5"/>
+      <c r="H70" s="6">
+        <f t="shared" si="4"/>
         <v>2.9426211717937711</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A71" s="19">
         <v>45727</v>
       </c>
@@ -16691,24 +17768,25 @@
       <c r="C71" s="27">
         <v>23030</v>
       </c>
-      <c r="D71" s="8">
+      <c r="D71" s="57"/>
+      <c r="E71" s="54">
+        <f t="shared" si="2"/>
+        <v>267</v>
+      </c>
+      <c r="F71" s="5">
         <f t="shared" si="3"/>
-        <v>24.700000000000728</v>
-      </c>
-      <c r="E71" s="5">
-        <f t="shared" si="4"/>
         <v>291.70000000000073</v>
       </c>
-      <c r="F71" s="27">
+      <c r="G71" s="27">
         <f>[2]Sheet1!U75</f>
         <v>102068</v>
       </c>
-      <c r="G71" s="6">
-        <f t="shared" si="5"/>
+      <c r="H71" s="6">
+        <f t="shared" si="4"/>
         <v>2.8578986557981025</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A72" s="19">
         <v>45728</v>
       </c>
@@ -16718,24 +17796,25 @@
       <c r="C72" s="27">
         <v>23277</v>
       </c>
-      <c r="D72" s="8">
+      <c r="D72" s="57"/>
+      <c r="E72" s="54">
+        <f t="shared" si="2"/>
+        <v>247</v>
+      </c>
+      <c r="F72" s="5">
         <f t="shared" si="3"/>
-        <v>22.899999999997817</v>
-      </c>
-      <c r="E72" s="5">
-        <f t="shared" si="4"/>
         <v>269.89999999999782</v>
       </c>
-      <c r="F72" s="27">
+      <c r="G72" s="27">
         <f>[2]Sheet1!U76</f>
         <v>96055</v>
       </c>
-      <c r="G72" s="6">
-        <f t="shared" si="5"/>
+      <c r="H72" s="6">
+        <f t="shared" si="4"/>
         <v>2.8098485242829403</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A73" s="19">
         <v>45729</v>
       </c>
@@ -16745,24 +17824,25 @@
       <c r="C73" s="27">
         <v>23508</v>
       </c>
-      <c r="D73" s="8">
+      <c r="D73" s="57"/>
+      <c r="E73" s="54">
+        <f t="shared" si="2"/>
+        <v>231</v>
+      </c>
+      <c r="F73" s="5">
         <f t="shared" si="3"/>
-        <v>23.600000000002183</v>
-      </c>
-      <c r="E73" s="5">
-        <f t="shared" si="4"/>
         <v>254.60000000000218</v>
       </c>
-      <c r="F73" s="27">
+      <c r="G73" s="27">
         <f>[2]Sheet1!U77</f>
         <v>89275</v>
       </c>
-      <c r="G73" s="6">
-        <f t="shared" si="5"/>
+      <c r="H73" s="6">
+        <f t="shared" si="4"/>
         <v>2.8518622234668407</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A74" s="19">
         <v>45730</v>
       </c>
@@ -16772,24 +17852,25 @@
       <c r="C74" s="27">
         <v>23760</v>
       </c>
-      <c r="D74" s="8">
+      <c r="D74" s="57"/>
+      <c r="E74" s="54">
+        <f t="shared" si="2"/>
+        <v>252</v>
+      </c>
+      <c r="F74" s="5">
         <f t="shared" si="3"/>
-        <v>26.399999999997817</v>
-      </c>
-      <c r="E74" s="5">
-        <f t="shared" si="4"/>
         <v>278.39999999999782</v>
       </c>
-      <c r="F74" s="27">
+      <c r="G74" s="27">
         <f>[2]Sheet1!U78</f>
         <v>96482</v>
       </c>
-      <c r="G74" s="6">
-        <f t="shared" si="5"/>
+      <c r="H74" s="6">
+        <f t="shared" si="4"/>
         <v>2.8855123235421924</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A75" s="19">
         <v>45731</v>
       </c>
@@ -16799,24 +17880,25 @@
       <c r="C75" s="27">
         <v>24005</v>
       </c>
-      <c r="D75" s="8">
+      <c r="D75" s="57"/>
+      <c r="E75" s="54">
+        <f t="shared" si="2"/>
+        <v>245</v>
+      </c>
+      <c r="F75" s="5">
         <f t="shared" si="3"/>
-        <v>-20.799999999999272</v>
-      </c>
-      <c r="E75" s="5">
-        <f t="shared" si="4"/>
         <v>224.20000000000073</v>
       </c>
-      <c r="F75" s="27">
+      <c r="G75" s="27">
         <f>[2]Sheet1!U79</f>
         <v>95707</v>
       </c>
-      <c r="G75" s="6">
-        <f t="shared" si="5"/>
+      <c r="H75" s="6">
+        <f t="shared" si="4"/>
         <v>2.3425663744553766</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A76" s="19">
         <v>45732</v>
       </c>
@@ -16826,24 +17908,25 @@
       <c r="C76" s="27">
         <v>24251</v>
       </c>
-      <c r="D76" s="8">
+      <c r="D76" s="57"/>
+      <c r="E76" s="54">
+        <f t="shared" si="2"/>
+        <v>246</v>
+      </c>
+      <c r="F76" s="5">
         <f t="shared" si="3"/>
-        <v>65.900000000001455</v>
-      </c>
-      <c r="E76" s="5">
-        <f t="shared" si="4"/>
         <v>311.90000000000146</v>
       </c>
-      <c r="F76" s="27">
+      <c r="G76" s="27">
         <f>[2]Sheet1!U80</f>
         <v>93853</v>
       </c>
-      <c r="G76" s="6">
-        <f t="shared" si="5"/>
+      <c r="H76" s="6">
+        <f t="shared" si="4"/>
         <v>3.3232821540068134</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A77" s="19">
         <v>45733</v>
       </c>
@@ -16853,24 +17936,25 @@
       <c r="C77" s="27">
         <v>24474</v>
       </c>
-      <c r="D77" s="8">
+      <c r="D77" s="57"/>
+      <c r="E77" s="54">
+        <f t="shared" si="2"/>
+        <v>223</v>
+      </c>
+      <c r="F77" s="5">
         <f t="shared" si="3"/>
-        <v>23.599999999998545</v>
-      </c>
-      <c r="E77" s="5">
-        <f t="shared" si="4"/>
         <v>246.59999999999854</v>
       </c>
-      <c r="F77" s="27">
+      <c r="G77" s="27">
         <f>[2]Sheet1!U81</f>
         <v>87315</v>
       </c>
-      <c r="G77" s="6">
-        <f t="shared" si="5"/>
+      <c r="H77" s="6">
+        <f t="shared" si="4"/>
         <v>2.8242570005153587</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A78" s="19">
         <v>45734</v>
       </c>
@@ -16880,24 +17964,25 @@
       <c r="C78" s="27">
         <v>24731</v>
       </c>
-      <c r="D78" s="8">
+      <c r="D78" s="57"/>
+      <c r="E78" s="54">
+        <f t="shared" si="2"/>
+        <v>257</v>
+      </c>
+      <c r="F78" s="5">
         <f t="shared" si="3"/>
-        <v>26.700000000000728</v>
-      </c>
-      <c r="E78" s="5">
-        <f t="shared" si="4"/>
         <v>283.70000000000073</v>
       </c>
-      <c r="F78" s="27">
+      <c r="G78" s="27">
         <f>[2]Sheet1!U82</f>
         <v>95461</v>
       </c>
-      <c r="G78" s="6">
-        <f t="shared" si="5"/>
+      <c r="H78" s="6">
+        <f t="shared" si="4"/>
         <v>2.9718942814343108</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A79" s="19">
         <v>45735</v>
       </c>
@@ -16907,24 +17992,25 @@
       <c r="C79" s="27">
         <v>24983</v>
       </c>
-      <c r="D79" s="8">
+      <c r="D79" s="57"/>
+      <c r="E79" s="54">
+        <f t="shared" si="2"/>
+        <v>252</v>
+      </c>
+      <c r="F79" s="5">
         <f t="shared" si="3"/>
-        <v>26.799999999999272</v>
-      </c>
-      <c r="E79" s="5">
-        <f t="shared" si="4"/>
         <v>278.79999999999927</v>
       </c>
-      <c r="F79" s="27">
+      <c r="G79" s="27">
         <f>[2]Sheet1!U83</f>
         <v>100396</v>
       </c>
-      <c r="G79" s="6">
-        <f t="shared" si="5"/>
+      <c r="H79" s="6">
+        <f t="shared" si="4"/>
         <v>2.7770030678513016</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A80" s="19">
         <v>45736</v>
       </c>
@@ -16934,24 +18020,25 @@
       <c r="C80" s="27">
         <v>25207</v>
       </c>
-      <c r="D80" s="8">
+      <c r="D80" s="57"/>
+      <c r="E80" s="54">
+        <f t="shared" si="2"/>
+        <v>224</v>
+      </c>
+      <c r="F80" s="5">
         <f t="shared" si="3"/>
-        <v>26.700000000000728</v>
-      </c>
-      <c r="E80" s="5">
-        <f t="shared" si="4"/>
         <v>250.70000000000073</v>
       </c>
-      <c r="F80" s="27">
+      <c r="G80" s="27">
         <f>[2]Sheet1!U84</f>
         <v>81090</v>
       </c>
-      <c r="G80" s="6">
-        <f t="shared" si="5"/>
+      <c r="H80" s="6">
+        <f t="shared" si="4"/>
         <v>3.0916265877420241</v>
       </c>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A81" s="19">
         <v>45737</v>
       </c>
@@ -16961,24 +18048,25 @@
       <c r="C81" s="27">
         <v>25453</v>
       </c>
-      <c r="D81" s="8">
+      <c r="D81" s="57"/>
+      <c r="E81" s="54">
+        <f t="shared" si="2"/>
+        <v>246</v>
+      </c>
+      <c r="F81" s="5">
         <f t="shared" si="3"/>
-        <v>25.700000000000728</v>
-      </c>
-      <c r="E81" s="5">
-        <f t="shared" si="4"/>
         <v>271.70000000000073</v>
       </c>
-      <c r="F81" s="27">
+      <c r="G81" s="27">
         <f>[2]Sheet1!U85</f>
         <v>95577</v>
       </c>
-      <c r="G81" s="6">
-        <f t="shared" si="5"/>
+      <c r="H81" s="6">
+        <f t="shared" si="4"/>
         <v>2.8427341305962806</v>
       </c>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A82" s="19">
         <v>45738</v>
       </c>
@@ -16988,24 +18076,25 @@
       <c r="C82" s="27">
         <v>25687</v>
       </c>
-      <c r="D82" s="8">
+      <c r="D82" s="57"/>
+      <c r="E82" s="54">
+        <f t="shared" si="2"/>
+        <v>234</v>
+      </c>
+      <c r="F82" s="5">
         <f t="shared" si="3"/>
-        <v>28.799999999999272</v>
-      </c>
-      <c r="E82" s="5">
-        <f t="shared" si="4"/>
         <v>262.79999999999927</v>
       </c>
-      <c r="F82" s="27">
+      <c r="G82" s="27">
         <f>[2]Sheet1!U86</f>
         <v>91932</v>
       </c>
-      <c r="G82" s="6">
-        <f t="shared" si="5"/>
+      <c r="H82" s="6">
+        <f t="shared" si="4"/>
         <v>2.8586346429969898</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A83" s="19">
         <v>45739</v>
       </c>
@@ -17015,24 +18104,25 @@
       <c r="C83" s="27">
         <v>25948</v>
       </c>
-      <c r="D83" s="8">
+      <c r="D83" s="57"/>
+      <c r="E83" s="54">
+        <f t="shared" si="2"/>
+        <v>261</v>
+      </c>
+      <c r="F83" s="5">
         <f t="shared" si="3"/>
-        <v>28.799999999999272</v>
-      </c>
-      <c r="E83" s="5">
-        <f t="shared" si="4"/>
         <v>289.79999999999927</v>
       </c>
-      <c r="F83" s="27">
+      <c r="G83" s="27">
         <f>[2]Sheet1!U87</f>
         <v>100753</v>
       </c>
-      <c r="G83" s="6">
-        <f t="shared" si="5"/>
+      <c r="H83" s="6">
+        <f t="shared" si="4"/>
         <v>2.8763411511319692</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A84" s="19">
         <v>45740</v>
       </c>
@@ -17042,24 +18132,25 @@
       <c r="C84" s="27">
         <v>26187</v>
       </c>
-      <c r="D84" s="8">
+      <c r="D84" s="57"/>
+      <c r="E84" s="54">
+        <f t="shared" si="2"/>
+        <v>239</v>
+      </c>
+      <c r="F84" s="5">
         <f t="shared" si="3"/>
-        <v>25.100000000002183</v>
-      </c>
-      <c r="E84" s="5">
-        <f t="shared" si="4"/>
         <v>264.10000000000218</v>
       </c>
-      <c r="F84" s="27">
+      <c r="G84" s="27">
         <f>[2]Sheet1!U88</f>
         <v>93401</v>
       </c>
-      <c r="G84" s="6">
-        <f t="shared" si="5"/>
+      <c r="H84" s="6">
+        <f t="shared" si="4"/>
         <v>2.8275928523249449</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A85" s="19">
         <v>45741</v>
       </c>
@@ -17069,24 +18160,25 @@
       <c r="C85" s="5">
         <v>26421</v>
       </c>
-      <c r="D85" s="8">
+      <c r="D85" s="54"/>
+      <c r="E85" s="54">
+        <f t="shared" si="2"/>
+        <v>234</v>
+      </c>
+      <c r="F85" s="5">
         <f t="shared" si="3"/>
-        <v>22.799999999999272</v>
-      </c>
-      <c r="E85" s="5">
-        <f t="shared" si="4"/>
         <v>256.79999999999927</v>
       </c>
-      <c r="F85" s="27">
+      <c r="G85" s="27">
         <f>[2]Sheet1!U89</f>
         <v>91355</v>
       </c>
-      <c r="G85" s="6">
-        <f t="shared" si="5"/>
+      <c r="H85" s="6">
+        <f t="shared" si="4"/>
         <v>2.8110119862076433</v>
       </c>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A86" s="21">
         <v>45742</v>
       </c>
@@ -17096,24 +18188,25 @@
       <c r="C86" s="5">
         <v>26624</v>
       </c>
-      <c r="D86" s="8">
+      <c r="D86" s="54"/>
+      <c r="E86" s="54">
+        <f t="shared" si="2"/>
+        <v>203</v>
+      </c>
+      <c r="F86" s="5">
         <f t="shared" si="3"/>
-        <v>21.399999999997817</v>
-      </c>
-      <c r="E86" s="5">
-        <f t="shared" si="4"/>
         <v>224.39999999999782</v>
       </c>
-      <c r="F86" s="27">
+      <c r="G86" s="27">
         <f>[2]Sheet1!U90</f>
         <v>78856</v>
       </c>
-      <c r="G86" s="6">
-        <f t="shared" si="5"/>
+      <c r="H86" s="6">
+        <f t="shared" si="4"/>
         <v>2.8456934158465788</v>
       </c>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A87" s="12">
         <v>45743</v>
       </c>
@@ -17123,181 +18216,191 @@
       <c r="C87" s="5">
         <v>26624</v>
       </c>
-      <c r="D87" s="8">
+      <c r="D87" s="54"/>
+      <c r="E87" s="54">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F87" s="5">
         <f t="shared" si="3"/>
         <v>252</v>
       </c>
-      <c r="E87" s="5">
-        <f t="shared" si="4"/>
-        <v>252</v>
-      </c>
-      <c r="F87" s="27">
+      <c r="G87" s="27">
         <f>[2]Sheet1!U91</f>
         <v>86228</v>
       </c>
-      <c r="G87" s="6">
-        <f t="shared" si="5"/>
+      <c r="H87" s="6">
+        <f t="shared" si="4"/>
         <v>2.92248457577585</v>
       </c>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A88" s="12">
         <v>45744</v>
       </c>
-      <c r="B88" s="46">
-        <f>B87+E88</f>
+      <c r="B88" s="47">
+        <f>B87+F88</f>
         <v>30576.70176</v>
       </c>
       <c r="C88" s="5"/>
-      <c r="D88" s="8">
-        <f t="shared" si="3"/>
-        <v>26907.601760000001</v>
-      </c>
-      <c r="E88" s="45">
-        <f>F88*2.82/1000</f>
+      <c r="D88" s="54"/>
+      <c r="E88" s="54">
+        <f t="shared" si="2"/>
+        <v>-26624</v>
+      </c>
+      <c r="F88" s="46">
+        <f t="shared" ref="F88:F93" si="5">G88*2.82/1000</f>
         <v>283.60176000000001</v>
       </c>
-      <c r="F88" s="27">
+      <c r="G88" s="27">
         <f>[2]Sheet1!U92</f>
         <v>100568</v>
       </c>
-      <c r="G88" s="6">
-        <f t="shared" si="5"/>
+      <c r="H88" s="6">
+        <f t="shared" si="4"/>
         <v>2.82</v>
       </c>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A89" s="12">
         <v>45745</v>
       </c>
-      <c r="B89" s="46">
-        <f t="shared" ref="B89:B92" si="6">B88+E89</f>
+      <c r="B89" s="47">
+        <f>B88+F89</f>
         <v>30866.484960000002</v>
       </c>
       <c r="C89" s="5"/>
-      <c r="D89" s="8">
-        <f t="shared" si="3"/>
-        <v>289.78320000000167</v>
-      </c>
-      <c r="E89" s="45">
-        <f t="shared" ref="E89:E92" si="7">F89*2.82/1000</f>
+      <c r="D89" s="54"/>
+      <c r="E89" s="54">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F89" s="46">
+        <f t="shared" si="5"/>
         <v>289.78320000000002</v>
       </c>
-      <c r="F89" s="27">
+      <c r="G89" s="27">
         <f>[2]Sheet1!U93</f>
         <v>102760</v>
       </c>
-      <c r="G89" s="6">
-        <f t="shared" si="5"/>
+      <c r="H89" s="6">
+        <f t="shared" si="4"/>
         <v>2.82</v>
       </c>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A90" s="12">
         <v>45746</v>
       </c>
-      <c r="B90" s="46">
-        <f t="shared" si="6"/>
+      <c r="B90" s="47">
+        <f>B89+F90</f>
         <v>31164.790200000003</v>
       </c>
       <c r="C90" s="5"/>
-      <c r="D90" s="8">
-        <f t="shared" si="3"/>
-        <v>298.3052400000015</v>
-      </c>
-      <c r="E90" s="45">
-        <f t="shared" si="7"/>
+      <c r="D90" s="54"/>
+      <c r="E90" s="54">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F90" s="46">
+        <f t="shared" si="5"/>
         <v>298.30523999999997</v>
       </c>
-      <c r="F90" s="27">
+      <c r="G90" s="27">
         <f>[2]Sheet1!U94</f>
         <v>105782</v>
       </c>
-      <c r="G90" s="6">
-        <f t="shared" si="5"/>
+      <c r="H90" s="6">
+        <f t="shared" si="4"/>
         <v>2.8199999999999994</v>
       </c>
     </row>
-    <row r="91" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A91" s="12">
         <v>45747</v>
       </c>
-      <c r="B91" s="47">
-        <f t="shared" si="6"/>
+      <c r="B91" s="50">
+        <f>B90+F91</f>
         <v>31459.793220000003</v>
       </c>
-      <c r="C91" s="37"/>
-      <c r="D91" s="9">
-        <f t="shared" si="3"/>
-        <v>295.00302000000011</v>
-      </c>
-      <c r="E91" s="48">
-        <f t="shared" si="7"/>
+      <c r="C91" s="43"/>
+      <c r="D91" s="57"/>
+      <c r="E91" s="57">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F91" s="51">
+        <f t="shared" si="5"/>
         <v>295.00301999999994</v>
       </c>
-      <c r="F91" s="9">
+      <c r="G91" s="27">
         <f>[2]Sheet1!U95</f>
         <v>104611</v>
       </c>
-      <c r="G91" s="38">
-        <f t="shared" si="5"/>
+      <c r="H91" s="52">
+        <f t="shared" si="4"/>
         <v>2.8199999999999994</v>
       </c>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A92" s="12">
         <v>45748</v>
       </c>
-      <c r="B92" s="49">
-        <f t="shared" si="6"/>
+      <c r="B92" s="48">
+        <f>B91+F92</f>
         <v>31758.168960000003</v>
       </c>
       <c r="C92" s="18"/>
-      <c r="D92" s="36">
-        <f t="shared" si="3"/>
-        <v>298.3757399999995</v>
-      </c>
-      <c r="E92" s="50">
-        <f t="shared" si="7"/>
+      <c r="D92" s="53"/>
+      <c r="E92" s="53">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F92" s="49">
+        <f t="shared" si="5"/>
         <v>298.37574000000001</v>
       </c>
-      <c r="F92" s="35">
+      <c r="G92" s="35">
         <f>[2]Sheet1!U96</f>
         <v>105807</v>
       </c>
-      <c r="G92" s="22">
-        <f t="shared" si="5"/>
+      <c r="H92" s="22">
+        <f t="shared" si="4"/>
         <v>2.82</v>
       </c>
-    </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="I92" s="60">
+        <f>SUM(F92:F121)</f>
+        <v>7737.9107000000022</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A93" s="12">
         <v>45749</v>
       </c>
       <c r="B93" s="4">
         <v>32055.3</v>
       </c>
-      <c r="C93" s="5">
-        <v>28418</v>
-      </c>
-      <c r="D93" s="8">
-        <f t="shared" si="3"/>
-        <v>-28120.868960000003</v>
-      </c>
-      <c r="E93" s="45">
-        <f>F93*2.82/1000</f>
+      <c r="C93" s="5"/>
+      <c r="D93" s="54"/>
+      <c r="E93" s="54">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F93" s="46">
+        <f t="shared" si="5"/>
         <v>298.43495999999999</v>
       </c>
-      <c r="F93" s="27">
+      <c r="G93" s="27">
         <f>[2]Sheet1!U97</f>
         <v>105828</v>
       </c>
-      <c r="G93" s="6">
-        <f t="shared" si="5"/>
+      <c r="H93" s="6">
+        <f t="shared" si="4"/>
         <v>2.82</v>
       </c>
-    </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="I93" s="61"/>
+    </row>
+    <row r="94" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A94" s="12">
         <v>45750</v>
       </c>
@@ -17305,78 +18408,80 @@
         <v>32374.400000000001</v>
       </c>
       <c r="C94" s="5"/>
-      <c r="D94" s="8">
+      <c r="D94" s="54"/>
+      <c r="E94" s="54">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F94" s="5">
         <f t="shared" si="3"/>
-        <v>28737.100000000002</v>
-      </c>
-      <c r="E94" s="5">
-        <f t="shared" si="4"/>
         <v>319.10000000000218</v>
       </c>
-      <c r="F94" s="27">
+      <c r="G94" s="27">
         <f>[2]Sheet1!U98</f>
         <v>106116</v>
       </c>
-      <c r="G94" s="6">
-        <f t="shared" si="5"/>
+      <c r="H94" s="6">
+        <f t="shared" si="4"/>
         <v>3.0070865844924626</v>
       </c>
-    </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="I94" s="61"/>
+    </row>
+    <row r="95" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A95" s="12">
         <v>45751</v>
       </c>
       <c r="B95" s="4">
         <v>32654.400000000001</v>
       </c>
-      <c r="C95" s="5">
-        <v>28959</v>
-      </c>
-      <c r="D95" s="8">
+      <c r="C95" s="5"/>
+      <c r="D95" s="54"/>
+      <c r="E95" s="54">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F95" s="5">
         <f t="shared" si="3"/>
-        <v>-28679</v>
-      </c>
-      <c r="E95" s="5">
-        <f t="shared" si="4"/>
         <v>280</v>
       </c>
-      <c r="F95" s="27">
+      <c r="G95" s="27">
         <f>[2]Sheet1!U99</f>
         <v>105724</v>
       </c>
-      <c r="G95" s="6">
-        <f t="shared" si="5"/>
+      <c r="H95" s="6">
+        <f t="shared" si="4"/>
         <v>2.6484052816768191</v>
       </c>
-    </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="I95" s="61"/>
+    </row>
+    <row r="96" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A96" s="12">
         <v>45752</v>
       </c>
       <c r="B96" s="4">
         <v>32907.599999999999</v>
       </c>
-      <c r="C96" s="5">
-        <v>28188</v>
-      </c>
-      <c r="D96" s="8">
+      <c r="C96" s="5"/>
+      <c r="D96" s="54"/>
+      <c r="E96" s="54">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F96" s="5">
         <f t="shared" si="3"/>
-        <v>1024.1999999999971</v>
-      </c>
-      <c r="E96" s="5">
-        <f t="shared" si="4"/>
         <v>253.19999999999709</v>
       </c>
-      <c r="F96" s="27">
+      <c r="G96" s="27">
         <f>[2]Sheet1!U100</f>
         <v>91045</v>
       </c>
-      <c r="G96" s="6">
-        <f t="shared" si="5"/>
+      <c r="H96" s="6">
+        <f t="shared" si="4"/>
         <v>2.7810423416991279</v>
       </c>
-    </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="I96" s="61"/>
+    </row>
+    <row r="97" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A97" s="12">
         <v>45753</v>
       </c>
@@ -17386,24 +18491,26 @@
       <c r="C97" s="5">
         <v>29413</v>
       </c>
-      <c r="D97" s="8">
+      <c r="D97" s="54"/>
+      <c r="E97" s="54">
+        <f t="shared" si="2"/>
+        <v>29413</v>
+      </c>
+      <c r="F97" s="5">
         <f t="shared" si="3"/>
-        <v>-974.79999999999563</v>
-      </c>
-      <c r="E97" s="5">
-        <f t="shared" si="4"/>
         <v>250.20000000000437</v>
       </c>
-      <c r="F97" s="27">
+      <c r="G97" s="27">
         <f>[2]Sheet1!U101</f>
         <v>87247</v>
       </c>
-      <c r="G97" s="6">
-        <f t="shared" si="5"/>
+      <c r="H97" s="6">
+        <f t="shared" si="4"/>
         <v>2.8677203800704252</v>
       </c>
-    </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="I97" s="61"/>
+    </row>
+    <row r="98" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A98" s="12">
         <v>45754</v>
       </c>
@@ -17413,24 +18520,29 @@
       <c r="C98" s="5">
         <v>29625</v>
       </c>
-      <c r="D98" s="8">
+      <c r="D98" s="54">
+        <f>F98-E98</f>
+        <v>24</v>
+      </c>
+      <c r="E98" s="54">
+        <f t="shared" si="2"/>
+        <v>212</v>
+      </c>
+      <c r="F98" s="5">
         <f t="shared" si="3"/>
-        <v>24</v>
-      </c>
-      <c r="E98" s="5">
-        <f t="shared" si="4"/>
         <v>236</v>
       </c>
-      <c r="F98" s="27">
+      <c r="G98" s="27">
         <f>[2]Sheet1!U102</f>
         <v>86226</v>
       </c>
-      <c r="G98" s="6">
-        <f t="shared" si="5"/>
+      <c r="H98" s="6">
+        <f t="shared" si="4"/>
         <v>2.7369934822443347</v>
       </c>
-    </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="I98" s="61"/>
+    </row>
+    <row r="99" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A99" s="12">
         <v>45755</v>
       </c>
@@ -17440,24 +18552,29 @@
       <c r="C99" s="5">
         <v>29866</v>
       </c>
-      <c r="D99" s="8">
-        <f>B99-C99-(B98-C98)</f>
+      <c r="D99" s="54">
+        <f t="shared" ref="D99:D134" si="6">F99-E99</f>
         <v>27</v>
       </c>
-      <c r="E99" s="5">
-        <f t="shared" si="4"/>
+      <c r="E99" s="54">
+        <f t="shared" si="2"/>
+        <v>241</v>
+      </c>
+      <c r="F99" s="5">
+        <f t="shared" si="3"/>
         <v>268</v>
       </c>
-      <c r="F99" s="27">
+      <c r="G99" s="27">
         <f>[2]Sheet1!U103</f>
         <v>93832</v>
       </c>
-      <c r="G99" s="6">
-        <f t="shared" si="5"/>
+      <c r="H99" s="6">
+        <f t="shared" si="4"/>
         <v>2.8561684713104269</v>
       </c>
-    </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="I99" s="61"/>
+    </row>
+    <row r="100" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A100" s="12">
         <v>45756</v>
       </c>
@@ -17467,24 +18584,29 @@
       <c r="C100" s="5">
         <v>30112</v>
       </c>
-      <c r="D100" s="8">
-        <f t="shared" ref="D100:D106" si="8">B100-C100-(B99-C99)</f>
+      <c r="D100" s="54">
+        <f t="shared" si="6"/>
         <v>27.19999999999709</v>
       </c>
-      <c r="E100" s="5">
-        <f t="shared" si="4"/>
+      <c r="E100" s="54">
+        <f t="shared" si="2"/>
+        <v>246</v>
+      </c>
+      <c r="F100" s="5">
+        <f t="shared" si="3"/>
         <v>273.19999999999709</v>
       </c>
-      <c r="F100" s="27">
+      <c r="G100" s="27">
         <f>[2]Sheet1!U104</f>
         <v>94856</v>
       </c>
-      <c r="G100" s="6">
-        <f t="shared" si="5"/>
+      <c r="H100" s="6">
+        <f t="shared" si="4"/>
         <v>2.8801551825925307</v>
       </c>
-    </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="I100" s="61"/>
+    </row>
+    <row r="101" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A101" s="12">
         <v>45757</v>
       </c>
@@ -17494,24 +18616,29 @@
       <c r="C101" s="5">
         <v>30366</v>
       </c>
-      <c r="D101" s="8">
-        <f t="shared" si="8"/>
+      <c r="D101" s="54">
+        <f t="shared" si="6"/>
         <v>27.099999999998545</v>
       </c>
-      <c r="E101" s="5">
-        <f t="shared" si="4"/>
+      <c r="E101" s="54">
+        <f t="shared" si="2"/>
+        <v>254</v>
+      </c>
+      <c r="F101" s="5">
+        <f t="shared" si="3"/>
         <v>281.09999999999854</v>
       </c>
-      <c r="F101" s="27">
+      <c r="G101" s="27">
         <f>[2]Sheet1!U105</f>
         <v>100087</v>
       </c>
-      <c r="G101" s="6">
-        <f t="shared" si="5"/>
+      <c r="H101" s="6">
+        <f t="shared" si="4"/>
         <v>2.8085565557964425</v>
       </c>
-    </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="I101" s="61"/>
+    </row>
+    <row r="102" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A102" s="12">
         <v>45758</v>
       </c>
@@ -17521,24 +18648,29 @@
       <c r="C102" s="5">
         <v>30646</v>
       </c>
-      <c r="D102" s="8">
-        <f t="shared" si="8"/>
+      <c r="D102" s="54">
+        <f t="shared" si="6"/>
         <v>17.5</v>
       </c>
-      <c r="E102" s="5">
-        <f t="shared" si="4"/>
+      <c r="E102" s="54">
+        <f t="shared" si="2"/>
+        <v>280</v>
+      </c>
+      <c r="F102" s="5">
+        <f t="shared" si="3"/>
         <v>297.5</v>
       </c>
-      <c r="F102" s="27">
+      <c r="G102" s="27">
         <f>[2]Sheet1!U106</f>
         <v>103544</v>
       </c>
-      <c r="G102" s="6">
-        <f t="shared" si="5"/>
+      <c r="H102" s="6">
+        <f t="shared" si="4"/>
         <v>2.8731746890210923</v>
       </c>
-    </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="I102" s="61"/>
+    </row>
+    <row r="103" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A103" s="12">
         <v>45759</v>
       </c>
@@ -17548,24 +18680,29 @@
       <c r="C103" s="5">
         <v>30837</v>
       </c>
-      <c r="D103" s="8">
-        <f t="shared" si="8"/>
+      <c r="D103" s="54">
+        <f t="shared" si="6"/>
         <v>32.700000000004366</v>
       </c>
-      <c r="E103" s="5">
-        <f t="shared" si="4"/>
+      <c r="E103" s="54">
+        <f t="shared" si="2"/>
+        <v>191</v>
+      </c>
+      <c r="F103" s="5">
+        <f t="shared" si="3"/>
         <v>223.70000000000437</v>
       </c>
-      <c r="F103" s="27">
+      <c r="G103" s="27">
         <f>[2]Sheet1!U107</f>
         <v>80076</v>
       </c>
-      <c r="G103" s="6">
-        <f t="shared" si="5"/>
+      <c r="H103" s="6">
+        <f t="shared" si="4"/>
         <v>2.7935960837205203</v>
       </c>
-    </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="I103" s="61"/>
+    </row>
+    <row r="104" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A104" s="12">
         <v>45760</v>
       </c>
@@ -17575,24 +18712,29 @@
       <c r="C104" s="5">
         <v>31071</v>
       </c>
-      <c r="D104" s="8">
-        <f t="shared" si="8"/>
+      <c r="D104" s="54">
+        <f t="shared" si="6"/>
         <v>9.1999999999970896</v>
       </c>
-      <c r="E104" s="5">
-        <f t="shared" si="4"/>
+      <c r="E104" s="54">
+        <f t="shared" si="2"/>
+        <v>234</v>
+      </c>
+      <c r="F104" s="5">
+        <f t="shared" si="3"/>
         <v>243.19999999999709</v>
       </c>
-      <c r="F104" s="27">
+      <c r="G104" s="27">
         <f>[2]Sheet1!U108</f>
         <v>88603</v>
       </c>
-      <c r="G104" s="6">
-        <f t="shared" si="5"/>
+      <c r="H104" s="6">
+        <f t="shared" si="4"/>
         <v>2.744828053226156</v>
       </c>
-    </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="I104" s="61"/>
+    </row>
+    <row r="105" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A105" s="12">
         <v>45761</v>
       </c>
@@ -17602,24 +18744,29 @@
       <c r="C105" s="5">
         <v>31328</v>
       </c>
-      <c r="D105" s="8">
-        <f t="shared" si="8"/>
+      <c r="D105" s="54">
+        <f t="shared" si="6"/>
         <v>43</v>
       </c>
-      <c r="E105" s="5">
-        <f t="shared" si="4"/>
+      <c r="E105" s="54">
+        <f t="shared" si="2"/>
+        <v>257</v>
+      </c>
+      <c r="F105" s="5">
+        <f t="shared" si="3"/>
         <v>300</v>
       </c>
-      <c r="F105" s="27">
+      <c r="G105" s="27">
         <f>[2]Sheet1!U109</f>
         <v>103815</v>
       </c>
-      <c r="G105" s="6">
-        <f t="shared" si="5"/>
+      <c r="H105" s="6">
+        <f t="shared" si="4"/>
         <v>2.889755815633579</v>
       </c>
-    </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="I105" s="61"/>
+    </row>
+    <row r="106" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A106" s="12">
         <v>45762</v>
       </c>
@@ -17629,24 +18776,29 @@
       <c r="C106" s="5">
         <v>31572</v>
       </c>
-      <c r="D106" s="8">
-        <f t="shared" si="8"/>
+      <c r="D106" s="54">
+        <f t="shared" si="6"/>
         <v>26.30000000000291</v>
       </c>
-      <c r="E106" s="5">
-        <f t="shared" si="4"/>
+      <c r="E106" s="54">
+        <f t="shared" si="2"/>
+        <v>244</v>
+      </c>
+      <c r="F106" s="5">
+        <f t="shared" si="3"/>
         <v>270.30000000000291</v>
       </c>
-      <c r="F106" s="27">
+      <c r="G106" s="27">
         <f>[2]Sheet1!U110</f>
         <v>97338</v>
       </c>
-      <c r="G106" s="6">
-        <f t="shared" si="5"/>
+      <c r="H106" s="6">
+        <f t="shared" si="4"/>
         <v>2.7769216544412556</v>
       </c>
-    </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="I106" s="61"/>
+    </row>
+    <row r="107" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A107" s="12">
         <v>45763</v>
       </c>
@@ -17656,24 +18808,29 @@
       <c r="C107" s="5">
         <v>31813</v>
       </c>
-      <c r="D107" s="8">
-        <f t="shared" ref="D107:D126" si="9">B107-C107-(B106-C106)</f>
+      <c r="D107" s="54">
+        <f t="shared" si="6"/>
         <v>25.69999999999709</v>
       </c>
-      <c r="E107" s="5">
-        <f t="shared" ref="E107:E126" si="10">(B107-B106)</f>
+      <c r="E107" s="54">
+        <f t="shared" si="2"/>
+        <v>241</v>
+      </c>
+      <c r="F107" s="5">
+        <f t="shared" ref="F107:F134" si="7">(B107-B106)</f>
         <v>266.69999999999709</v>
       </c>
-      <c r="F107" s="27">
+      <c r="G107" s="27">
         <f>[2]Sheet1!U111</f>
         <v>96048</v>
       </c>
-      <c r="G107" s="6">
-        <f t="shared" si="5"/>
+      <c r="H107" s="6">
+        <f t="shared" si="4"/>
         <v>2.7767366316841273</v>
       </c>
-    </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="I107" s="61"/>
+    </row>
+    <row r="108" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A108" s="12">
         <v>45764</v>
       </c>
@@ -17683,24 +18840,29 @@
       <c r="C108" s="5">
         <v>32065</v>
       </c>
-      <c r="D108" s="8">
-        <f t="shared" si="9"/>
+      <c r="D108" s="54">
+        <f t="shared" si="6"/>
         <v>28.099999999998545</v>
       </c>
-      <c r="E108" s="5">
-        <f t="shared" si="10"/>
+      <c r="E108" s="54">
+        <f t="shared" si="2"/>
+        <v>252</v>
+      </c>
+      <c r="F108" s="5">
+        <f t="shared" si="7"/>
         <v>280.09999999999854</v>
       </c>
-      <c r="F108" s="27">
+      <c r="G108" s="27">
         <f>[2]Sheet1!U112</f>
         <v>96857</v>
       </c>
-      <c r="G108" s="6">
-        <f t="shared" si="5"/>
+      <c r="H108" s="6">
+        <f t="shared" si="4"/>
         <v>2.8918921709323904</v>
       </c>
-    </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="I108" s="61"/>
+    </row>
+    <row r="109" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A109" s="12">
         <v>45765</v>
       </c>
@@ -17710,24 +18872,29 @@
       <c r="C109" s="5">
         <v>32314</v>
       </c>
-      <c r="D109" s="8">
-        <f t="shared" si="9"/>
+      <c r="D109" s="54">
+        <f t="shared" si="6"/>
         <v>25.900000000001455</v>
       </c>
-      <c r="E109" s="5">
-        <f t="shared" si="10"/>
+      <c r="E109" s="54">
+        <f t="shared" si="2"/>
+        <v>249</v>
+      </c>
+      <c r="F109" s="5">
+        <f t="shared" si="7"/>
         <v>274.90000000000146</v>
       </c>
-      <c r="F109" s="27">
+      <c r="G109" s="27">
         <f>[2]Sheet1!U113</f>
         <v>99561</v>
       </c>
-      <c r="G109" s="6">
-        <f t="shared" si="5"/>
+      <c r="H109" s="6">
+        <f t="shared" si="4"/>
         <v>2.7611213226062561</v>
       </c>
-    </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="I109" s="61"/>
+    </row>
+    <row r="110" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A110" s="12">
         <v>45766</v>
       </c>
@@ -17737,24 +18904,29 @@
       <c r="C110" s="5">
         <v>32557</v>
       </c>
-      <c r="D110" s="8">
-        <f t="shared" si="9"/>
+      <c r="D110" s="54">
+        <f t="shared" si="6"/>
         <v>25.69999999999709</v>
       </c>
-      <c r="E110" s="5">
-        <f t="shared" si="10"/>
+      <c r="E110" s="54">
+        <f t="shared" si="2"/>
+        <v>243</v>
+      </c>
+      <c r="F110" s="5">
+        <f t="shared" si="7"/>
         <v>268.69999999999709</v>
       </c>
-      <c r="F110" s="27">
+      <c r="G110" s="27">
         <f>[2]Sheet1!U114</f>
         <v>93104</v>
       </c>
-      <c r="G110" s="6">
-        <f t="shared" si="5"/>
+      <c r="H110" s="6">
+        <f t="shared" si="4"/>
         <v>2.8860199346966522</v>
       </c>
-    </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="I110" s="61"/>
+    </row>
+    <row r="111" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A111" s="12">
         <v>45767</v>
       </c>
@@ -17764,24 +18936,29 @@
       <c r="C111" s="5">
         <v>32810</v>
       </c>
-      <c r="D111" s="8">
-        <f t="shared" si="9"/>
+      <c r="D111" s="54">
+        <f t="shared" si="6"/>
         <v>28.100000000005821</v>
       </c>
-      <c r="E111" s="5">
-        <f t="shared" si="10"/>
+      <c r="E111" s="54">
+        <f t="shared" si="2"/>
+        <v>253</v>
+      </c>
+      <c r="F111" s="5">
+        <f t="shared" si="7"/>
         <v>281.10000000000582</v>
       </c>
-      <c r="F111" s="27">
+      <c r="G111" s="27">
         <f>[2]Sheet1!U115</f>
         <v>97559</v>
       </c>
-      <c r="G111" s="6">
-        <f t="shared" si="5"/>
+      <c r="H111" s="6">
+        <f t="shared" si="4"/>
         <v>2.8813333470003362</v>
       </c>
-    </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="I111" s="61"/>
+    </row>
+    <row r="112" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A112" s="12">
         <v>45768</v>
       </c>
@@ -17791,24 +18968,29 @@
       <c r="C112" s="5">
         <v>33078</v>
       </c>
-      <c r="D112" s="8">
-        <f t="shared" si="9"/>
+      <c r="D112" s="54">
+        <f t="shared" si="6"/>
         <v>29.299999999995634</v>
       </c>
-      <c r="E112" s="5">
-        <f t="shared" si="10"/>
+      <c r="E112" s="54">
+        <f t="shared" si="2"/>
+        <v>268</v>
+      </c>
+      <c r="F112" s="5">
+        <f t="shared" si="7"/>
         <v>297.29999999999563</v>
       </c>
-      <c r="F112" s="27">
+      <c r="G112" s="27">
         <f>[2]Sheet1!U116</f>
         <v>104496</v>
       </c>
-      <c r="G112" s="6">
-        <f t="shared" si="5"/>
+      <c r="H112" s="6">
+        <f t="shared" si="4"/>
         <v>2.8450849793293105</v>
       </c>
-    </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="I112" s="61"/>
+    </row>
+    <row r="113" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A113" s="12">
         <v>45769</v>
       </c>
@@ -17818,24 +19000,29 @@
       <c r="C113" s="5">
         <v>33297</v>
       </c>
-      <c r="D113" s="8">
-        <f t="shared" si="9"/>
+      <c r="D113" s="54">
+        <f t="shared" si="6"/>
         <v>26.80000000000291</v>
       </c>
-      <c r="E113" s="5">
-        <f t="shared" si="10"/>
+      <c r="E113" s="54">
+        <f t="shared" si="2"/>
+        <v>219</v>
+      </c>
+      <c r="F113" s="5">
+        <f t="shared" si="7"/>
         <v>245.80000000000291</v>
       </c>
-      <c r="F113" s="27">
+      <c r="G113" s="27">
         <f>[2]Sheet1!U117</f>
         <v>89813</v>
       </c>
-      <c r="G113" s="6">
-        <f t="shared" si="5"/>
+      <c r="H113" s="6">
+        <f t="shared" si="4"/>
         <v>2.7367975682807937</v>
       </c>
-    </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="I113" s="61"/>
+    </row>
+    <row r="114" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A114" s="12">
         <v>45770</v>
       </c>
@@ -17845,24 +19032,29 @@
       <c r="C114" s="5">
         <v>33527</v>
       </c>
-      <c r="D114" s="8">
-        <f t="shared" si="9"/>
+      <c r="D114" s="54">
+        <f t="shared" si="6"/>
         <v>22.19999999999709</v>
       </c>
-      <c r="E114" s="5">
-        <f t="shared" si="10"/>
+      <c r="E114" s="54">
+        <f t="shared" si="2"/>
+        <v>230</v>
+      </c>
+      <c r="F114" s="5">
+        <f t="shared" si="7"/>
         <v>252.19999999999709</v>
       </c>
-      <c r="F114" s="27">
+      <c r="G114" s="27">
         <f>[2]Sheet1!U118</f>
         <v>86328</v>
       </c>
-      <c r="G114" s="6">
-        <f t="shared" si="5"/>
+      <c r="H114" s="6">
+        <f t="shared" si="4"/>
         <v>2.9214159948104563</v>
       </c>
-    </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="I114" s="61"/>
+    </row>
+    <row r="115" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A115" s="12">
         <v>45771</v>
       </c>
@@ -17872,24 +19064,29 @@
       <c r="C115" s="5">
         <v>33789</v>
       </c>
-      <c r="D115" s="8">
-        <f t="shared" si="9"/>
+      <c r="D115" s="54">
+        <f t="shared" si="6"/>
         <v>28</v>
       </c>
-      <c r="E115" s="5">
-        <f t="shared" si="10"/>
+      <c r="E115" s="54">
+        <f t="shared" si="2"/>
+        <v>262</v>
+      </c>
+      <c r="F115" s="5">
+        <f t="shared" si="7"/>
         <v>290</v>
       </c>
-      <c r="F115" s="27">
+      <c r="G115" s="27">
         <f>[2]Sheet1!U119</f>
         <v>105339</v>
       </c>
-      <c r="G115" s="6">
-        <f t="shared" si="5"/>
+      <c r="H115" s="6">
+        <f t="shared" si="4"/>
         <v>2.7530164516465887</v>
       </c>
-    </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="I115" s="61"/>
+    </row>
+    <row r="116" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A116" s="12">
         <v>45772</v>
       </c>
@@ -17899,24 +19096,29 @@
       <c r="C116" s="5">
         <v>34126</v>
       </c>
-      <c r="D116" s="8">
-        <f t="shared" si="9"/>
+      <c r="D116" s="54">
+        <f t="shared" si="6"/>
         <v>-34</v>
       </c>
-      <c r="E116" s="5">
-        <f t="shared" si="10"/>
+      <c r="E116" s="54">
+        <f t="shared" si="2"/>
+        <v>337</v>
+      </c>
+      <c r="F116" s="5">
+        <f t="shared" si="7"/>
         <v>303</v>
       </c>
-      <c r="F116" s="27">
+      <c r="G116" s="27">
         <f>[2]Sheet1!U120</f>
         <v>104000</v>
       </c>
-      <c r="G116" s="6">
-        <f t="shared" si="5"/>
+      <c r="H116" s="6">
+        <f t="shared" si="4"/>
         <v>2.9134615384615383</v>
       </c>
-    </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="I116" s="61"/>
+    </row>
+    <row r="117" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A117" s="12">
         <v>45773</v>
       </c>
@@ -17926,24 +19128,29 @@
       <c r="C117" s="5">
         <v>34385</v>
       </c>
-      <c r="D117" s="8">
-        <f t="shared" si="9"/>
+      <c r="D117" s="54">
+        <f t="shared" si="6"/>
         <v>25.80000000000291</v>
       </c>
-      <c r="E117" s="5">
-        <f t="shared" si="10"/>
+      <c r="E117" s="54">
+        <f t="shared" si="2"/>
+        <v>259</v>
+      </c>
+      <c r="F117" s="5">
+        <f t="shared" si="7"/>
         <v>284.80000000000291</v>
       </c>
-      <c r="F117" s="27">
+      <c r="G117" s="27">
         <f>[2]Sheet1!U121</f>
         <v>104023</v>
       </c>
-      <c r="G117" s="6">
-        <f t="shared" si="5"/>
+      <c r="H117" s="6">
+        <f t="shared" si="4"/>
         <v>2.7378560510656578</v>
       </c>
-    </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="I117" s="61"/>
+    </row>
+    <row r="118" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A118" s="12">
         <v>45774</v>
       </c>
@@ -17953,24 +19160,29 @@
       <c r="C118" s="5">
         <v>34499</v>
       </c>
-      <c r="D118" s="8">
-        <f t="shared" si="9"/>
+      <c r="D118" s="54">
+        <f t="shared" si="6"/>
         <v>14.900000000001455</v>
       </c>
-      <c r="E118" s="5">
-        <f t="shared" si="10"/>
+      <c r="E118" s="54">
+        <f t="shared" si="2"/>
+        <v>114</v>
+      </c>
+      <c r="F118" s="5">
+        <f t="shared" si="7"/>
         <v>128.90000000000146</v>
       </c>
-      <c r="F118" s="27">
+      <c r="G118" s="27">
         <f>[2]Sheet1!U122</f>
         <v>40540</v>
       </c>
-      <c r="G118" s="6">
-        <f t="shared" si="5"/>
+      <c r="H118" s="6">
+        <f t="shared" si="4"/>
         <v>3.1795757276764047</v>
       </c>
-    </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="I118" s="61"/>
+    </row>
+    <row r="119" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A119" s="12">
         <v>45775</v>
       </c>
@@ -17980,24 +19192,29 @@
       <c r="C119" s="5">
         <v>34606</v>
       </c>
-      <c r="D119" s="8">
-        <f t="shared" si="9"/>
+      <c r="D119" s="54">
+        <f t="shared" si="6"/>
         <v>13</v>
       </c>
-      <c r="E119" s="5">
-        <f t="shared" si="10"/>
+      <c r="E119" s="54">
+        <f t="shared" si="2"/>
+        <v>107</v>
+      </c>
+      <c r="F119" s="5">
+        <f t="shared" si="7"/>
         <v>120</v>
       </c>
-      <c r="F119" s="27">
+      <c r="G119" s="27">
         <f>[2]Sheet1!U123</f>
         <v>39795</v>
       </c>
-      <c r="G119" s="6">
-        <f t="shared" si="5"/>
+      <c r="H119" s="6">
+        <f t="shared" si="4"/>
         <v>3.0154542027892952</v>
       </c>
-    </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="I119" s="61"/>
+    </row>
+    <row r="120" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A120" s="12">
         <v>45776</v>
       </c>
@@ -18007,24 +19224,29 @@
       <c r="C120" s="5">
         <v>34771</v>
       </c>
-      <c r="D120" s="8">
-        <f>B120-C120-(B119-C119)</f>
+      <c r="D120" s="54">
+        <f t="shared" si="6"/>
         <v>17.899999999994179</v>
       </c>
-      <c r="E120" s="5">
-        <f t="shared" si="10"/>
+      <c r="E120" s="54">
+        <f t="shared" si="2"/>
+        <v>165</v>
+      </c>
+      <c r="F120" s="5">
+        <f t="shared" si="7"/>
         <v>182.89999999999418</v>
       </c>
-      <c r="F120" s="27">
+      <c r="G120" s="27">
         <f>[2]Sheet1!U124</f>
         <v>66260</v>
       </c>
-      <c r="G120" s="6">
-        <f t="shared" si="5"/>
+      <c r="H120" s="6">
+        <f t="shared" si="4"/>
         <v>2.7603380621792062</v>
       </c>
-    </row>
-    <row r="121" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I120" s="61"/>
+    </row>
+    <row r="121" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A121" s="12">
         <v>45777</v>
       </c>
@@ -18032,167 +19254,460 @@
         <v>39196.400000000001</v>
       </c>
       <c r="C121" s="37"/>
-      <c r="D121" s="9">
-        <f t="shared" si="9"/>
+      <c r="D121" s="54">
+        <f t="shared" si="6"/>
         <v>34940.200000000004</v>
       </c>
-      <c r="E121" s="37">
-        <f t="shared" si="10"/>
+      <c r="E121" s="55">
+        <f t="shared" si="2"/>
+        <v>-34771</v>
+      </c>
+      <c r="F121" s="37">
+        <f t="shared" si="7"/>
         <v>169.20000000000437</v>
       </c>
-      <c r="F121" s="9">
+      <c r="G121" s="9">
         <f>[2]Sheet1!U125</f>
         <v>57523</v>
       </c>
-      <c r="G121" s="38">
-        <f t="shared" si="5"/>
+      <c r="H121" s="38">
+        <f t="shared" si="4"/>
         <v>2.9414321228031288</v>
       </c>
-    </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="I121" s="62"/>
+    </row>
+    <row r="122" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A122" s="12">
         <v>45778</v>
       </c>
-      <c r="B122" s="15">
+      <c r="B122" s="45">
         <v>39415.599999999999</v>
       </c>
       <c r="C122" s="10">
         <v>35121</v>
       </c>
-      <c r="D122" s="15">
-        <f t="shared" si="9"/>
+      <c r="D122" s="54">
+        <f t="shared" si="6"/>
         <v>-34901.800000000003</v>
       </c>
-      <c r="E122" s="10">
-        <f t="shared" si="10"/>
+      <c r="E122" s="59">
+        <f t="shared" si="2"/>
+        <v>35121</v>
+      </c>
+      <c r="F122" s="10">
+        <f t="shared" si="7"/>
         <v>219.19999999999709</v>
       </c>
-      <c r="F122" s="28">
+      <c r="G122" s="28">
         <f>[2]Sheet1!U126</f>
         <v>73421</v>
       </c>
-      <c r="G122" s="43">
-        <f t="shared" si="5"/>
+      <c r="H122" s="44">
+        <f t="shared" si="4"/>
         <v>2.9855218534206438</v>
       </c>
-    </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="I122" s="60">
+        <f>+SUMIF(F122:F134,"&gt;0")</f>
+        <v>3103.0999999999985</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A123" s="12">
         <v>45779</v>
       </c>
-      <c r="B123" s="15">
+      <c r="B123" s="45">
         <v>39633.4</v>
       </c>
       <c r="C123" s="5"/>
-      <c r="D123" s="8">
-        <f>B123-C123-(B122-C122)</f>
+      <c r="D123" s="54">
+        <f t="shared" si="6"/>
         <v>35338.800000000003</v>
       </c>
-      <c r="E123" s="5">
-        <f t="shared" si="10"/>
+      <c r="E123" s="54">
+        <f t="shared" si="2"/>
+        <v>-35121</v>
+      </c>
+      <c r="F123" s="5">
+        <f t="shared" si="7"/>
         <v>217.80000000000291</v>
       </c>
-      <c r="F123" s="27">
+      <c r="G123" s="27">
         <f>[2]Sheet1!U127</f>
         <v>79045</v>
       </c>
-      <c r="G123" s="6">
-        <f t="shared" si="5"/>
+      <c r="H123" s="6">
+        <f t="shared" si="4"/>
         <v>2.7553924979442459</v>
       </c>
-    </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="I123" s="63"/>
+    </row>
+    <row r="124" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A124" s="12">
         <v>45780</v>
       </c>
-      <c r="B124" s="15">
+      <c r="B124" s="45">
         <v>39851.199999999997</v>
       </c>
       <c r="C124" s="5">
         <v>35515</v>
       </c>
-      <c r="D124" s="8">
-        <f t="shared" si="9"/>
+      <c r="D124" s="54">
+        <f t="shared" si="6"/>
         <v>-35297.200000000004</v>
       </c>
-      <c r="E124" s="5">
-        <f t="shared" si="10"/>
+      <c r="E124" s="54">
+        <f t="shared" si="2"/>
+        <v>35515</v>
+      </c>
+      <c r="F124" s="5">
+        <f t="shared" si="7"/>
         <v>217.79999999999563</v>
       </c>
-      <c r="F124" s="27">
+      <c r="G124" s="27">
         <f>[2]Sheet1!U128</f>
         <v>76130</v>
       </c>
-      <c r="G124" s="6">
-        <f t="shared" si="5"/>
+      <c r="H124" s="6">
+        <f t="shared" si="4"/>
         <v>2.8608958360698233</v>
       </c>
-    </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="I124" s="63"/>
+    </row>
+    <row r="125" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A125" s="12">
         <v>45781</v>
       </c>
-      <c r="B125" s="8">
+      <c r="B125" s="4">
         <v>40069.300000000003</v>
       </c>
       <c r="C125" s="5">
         <v>35711</v>
       </c>
-      <c r="D125" s="8">
-        <f t="shared" si="9"/>
+      <c r="D125" s="54">
+        <f t="shared" si="6"/>
         <v>22.100000000005821</v>
       </c>
-      <c r="E125" s="5">
-        <f t="shared" si="10"/>
+      <c r="E125" s="54">
+        <f t="shared" si="2"/>
+        <v>196</v>
+      </c>
+      <c r="F125" s="5">
+        <f t="shared" si="7"/>
         <v>218.10000000000582</v>
       </c>
-      <c r="F125" s="27">
+      <c r="G125" s="27">
         <f>[2]Sheet1!U129</f>
         <v>76560</v>
       </c>
-      <c r="G125" s="6">
-        <f t="shared" si="5"/>
+      <c r="H125" s="6">
+        <f t="shared" si="4"/>
         <v>2.8487460815047783</v>
       </c>
-    </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="I125" s="63"/>
+    </row>
+    <row r="126" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A126" s="12">
         <v>45782</v>
       </c>
-      <c r="B126" s="8">
+      <c r="B126" s="4">
         <v>40359.300000000003</v>
       </c>
       <c r="C126" s="5">
         <v>35973</v>
       </c>
-      <c r="D126" s="8">
-        <f t="shared" si="9"/>
+      <c r="D126" s="54">
+        <f t="shared" si="6"/>
         <v>28</v>
       </c>
-      <c r="E126" s="5">
-        <f t="shared" si="10"/>
+      <c r="E126" s="54">
+        <f t="shared" si="2"/>
+        <v>262</v>
+      </c>
+      <c r="F126" s="5">
+        <f t="shared" si="7"/>
         <v>290</v>
       </c>
-      <c r="F126" s="27">
+      <c r="G126" s="27">
         <f>[2]Sheet1!U130</f>
         <v>99121</v>
       </c>
-      <c r="G126" s="6">
-        <f t="shared" si="5"/>
+      <c r="H126" s="6">
+        <f t="shared" si="4"/>
         <v>2.9257170528949468</v>
       </c>
+      <c r="I126" s="63"/>
+    </row>
+    <row r="127" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A127" s="12">
+        <v>45783</v>
+      </c>
+      <c r="B127" s="4">
+        <v>40617</v>
+      </c>
+      <c r="C127" s="5">
+        <v>36244</v>
+      </c>
+      <c r="D127" s="54">
+        <f t="shared" si="6"/>
+        <v>-13.30000000000291</v>
+      </c>
+      <c r="E127" s="54">
+        <f t="shared" ref="E127:E134" si="8">C127-C126</f>
+        <v>271</v>
+      </c>
+      <c r="F127" s="5">
+        <f t="shared" si="7"/>
+        <v>257.69999999999709</v>
+      </c>
+      <c r="G127" s="27">
+        <f>[2]Sheet1!U131</f>
+        <v>105565</v>
+      </c>
+      <c r="H127" s="6">
+        <f t="shared" si="4"/>
+        <v>2.4411500023681816</v>
+      </c>
+      <c r="I127" s="63"/>
+    </row>
+    <row r="128" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A128" s="12">
+        <v>45784</v>
+      </c>
+      <c r="B128" s="4">
+        <v>40953.699999999997</v>
+      </c>
+      <c r="C128" s="5">
+        <v>36510</v>
+      </c>
+      <c r="D128" s="54">
+        <f t="shared" si="6"/>
+        <v>70.69999999999709</v>
+      </c>
+      <c r="E128" s="54">
+        <f t="shared" si="8"/>
+        <v>266</v>
+      </c>
+      <c r="F128" s="5">
+        <f t="shared" si="7"/>
+        <v>336.69999999999709</v>
+      </c>
+      <c r="G128" s="27">
+        <f>[2]Sheet1!U132</f>
+        <v>104085</v>
+      </c>
+      <c r="H128" s="6">
+        <f t="shared" si="4"/>
+        <v>3.2348561272036997</v>
+      </c>
+      <c r="I128" s="63"/>
+    </row>
+    <row r="129" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A129" s="12">
+        <v>45785</v>
+      </c>
+      <c r="B129" s="4">
+        <v>41205.699999999997</v>
+      </c>
+      <c r="C129" s="5">
+        <v>36739</v>
+      </c>
+      <c r="D129" s="54">
+        <f t="shared" si="6"/>
+        <v>23</v>
+      </c>
+      <c r="E129" s="54">
+        <f t="shared" si="8"/>
+        <v>229</v>
+      </c>
+      <c r="F129" s="5">
+        <f t="shared" si="7"/>
+        <v>252</v>
+      </c>
+      <c r="G129" s="27">
+        <f>[2]Sheet1!U133</f>
+        <v>89998</v>
+      </c>
+      <c r="H129" s="6">
+        <f t="shared" si="4"/>
+        <v>2.8000622236049693</v>
+      </c>
+      <c r="I129" s="63"/>
+    </row>
+    <row r="130" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A130" s="12">
+        <v>45786</v>
+      </c>
+      <c r="B130" s="4">
+        <v>41424.800000000003</v>
+      </c>
+      <c r="C130" s="5">
+        <v>36939</v>
+      </c>
+      <c r="D130" s="54">
+        <f t="shared" si="6"/>
+        <v>19.100000000005821</v>
+      </c>
+      <c r="E130" s="54">
+        <f t="shared" si="8"/>
+        <v>200</v>
+      </c>
+      <c r="F130" s="5">
+        <f t="shared" si="7"/>
+        <v>219.10000000000582</v>
+      </c>
+      <c r="G130" s="27">
+        <f>[2]Sheet1!U134</f>
+        <v>75959</v>
+      </c>
+      <c r="H130" s="6">
+        <f t="shared" si="4"/>
+        <v>2.8844508221541334</v>
+      </c>
+      <c r="I130" s="63"/>
+    </row>
+    <row r="131" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A131" s="12">
+        <v>45787</v>
+      </c>
+      <c r="B131" s="4">
+        <v>41644.9</v>
+      </c>
+      <c r="C131" s="5">
+        <v>37138</v>
+      </c>
+      <c r="D131" s="54">
+        <f t="shared" si="6"/>
+        <v>21.099999999998545</v>
+      </c>
+      <c r="E131" s="54">
+        <f t="shared" si="8"/>
+        <v>199</v>
+      </c>
+      <c r="F131" s="5">
+        <f t="shared" si="7"/>
+        <v>220.09999999999854</v>
+      </c>
+      <c r="G131" s="27">
+        <f>[2]Sheet1!U135</f>
+        <v>75666</v>
+      </c>
+      <c r="H131" s="6">
+        <f t="shared" si="4"/>
+        <v>2.9088362011999913</v>
+      </c>
+      <c r="I131" s="63"/>
+    </row>
+    <row r="132" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A132" s="12">
+        <v>45788</v>
+      </c>
+      <c r="B132" s="4">
+        <v>41868.6</v>
+      </c>
+      <c r="C132" s="5">
+        <v>37341</v>
+      </c>
+      <c r="D132" s="54">
+        <f t="shared" si="6"/>
+        <v>20.69999999999709</v>
+      </c>
+      <c r="E132" s="54">
+        <f t="shared" si="8"/>
+        <v>203</v>
+      </c>
+      <c r="F132" s="5">
+        <f t="shared" si="7"/>
+        <v>223.69999999999709</v>
+      </c>
+      <c r="G132" s="27">
+        <f>[2]Sheet1!U136</f>
+        <v>75734</v>
+      </c>
+      <c r="H132" s="6">
+        <f t="shared" si="4"/>
+        <v>2.9537592098660719</v>
+      </c>
+      <c r="I132" s="63"/>
+    </row>
+    <row r="133" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A133" s="12">
+        <v>45789</v>
+      </c>
+      <c r="B133" s="4">
+        <v>42082.9</v>
+      </c>
+      <c r="C133" s="5">
+        <v>37535</v>
+      </c>
+      <c r="D133" s="54">
+        <f t="shared" si="6"/>
+        <v>20.30000000000291</v>
+      </c>
+      <c r="E133" s="54">
+        <f t="shared" si="8"/>
+        <v>194</v>
+      </c>
+      <c r="F133" s="5">
+        <f t="shared" si="7"/>
+        <v>214.30000000000291</v>
+      </c>
+      <c r="G133" s="27">
+        <f>[2]Sheet1!U137</f>
+        <v>75076</v>
+      </c>
+      <c r="H133" s="6">
+        <f t="shared" ref="H133:H134" si="9">F133/G133*1000</f>
+        <v>2.8544408332889728</v>
+      </c>
+      <c r="I133" s="63"/>
+    </row>
+    <row r="134" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A134" s="12">
+        <v>45790</v>
+      </c>
+      <c r="B134" s="4">
+        <v>42299.5</v>
+      </c>
+      <c r="C134" s="5">
+        <v>37731</v>
+      </c>
+      <c r="D134" s="54">
+        <f t="shared" si="6"/>
+        <v>20.599999999998545</v>
+      </c>
+      <c r="E134" s="54">
+        <f t="shared" si="8"/>
+        <v>196</v>
+      </c>
+      <c r="F134" s="5">
+        <f t="shared" si="7"/>
+        <v>216.59999999999854</v>
+      </c>
+      <c r="G134" s="27">
+        <f>[2]Sheet1!U138</f>
+        <v>73979</v>
+      </c>
+      <c r="H134" s="6">
+        <f t="shared" si="9"/>
+        <v>2.9278579056218459</v>
+      </c>
+      <c r="I134" s="63"/>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="I92:I121"/>
+    <mergeCell ref="I122:I134"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38810916-2DF0-490C-B584-F0F3D6EAB44D}">
-  <dimension ref="A1:K126"/>
+  <dimension ref="A1:K134"/>
   <sheetViews>
-    <sheetView topLeftCell="A101" workbookViewId="0">
-      <selection activeCell="A127" sqref="A127:XFD128"/>
+    <sheetView topLeftCell="A83" workbookViewId="0">
+      <selection activeCell="A135" sqref="A135:XFD136"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -18202,34 +19717,34 @@
         <v>2</v>
       </c>
       <c r="B1" s="25" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C1" s="14" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D1" s="14" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E1" s="26" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F1" s="24" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G1" s="14" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H1" s="14" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I1" s="26" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J1" s="24" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K1" s="26" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -22946,7 +24461,7 @@
         <v>344.99999999999977</v>
       </c>
     </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A126" s="3">
         <f>'[1]NaOCl Pré'!B127</f>
         <v>45782</v>
@@ -22982,6 +24497,310 @@
       <c r="I126" s="4">
         <f>[1]ASC!D127</f>
         <v>339.0000000000004</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A127" s="3">
+        <f>'[1]NaOCl Pré'!B128</f>
+        <v>45783</v>
+      </c>
+      <c r="B127" s="23">
+        <f>'[1]NaOCl Pré'!D128</f>
+        <v>366.4</v>
+      </c>
+      <c r="C127" s="4">
+        <f>[1]Acide!D128</f>
+        <v>0</v>
+      </c>
+      <c r="D127" s="4">
+        <f>[1]FeCl3!D128</f>
+        <v>0</v>
+      </c>
+      <c r="E127" s="4">
+        <f>'[1]NaOCl 2 CEB 1'!H128</f>
+        <v>486.39999999999975</v>
+      </c>
+      <c r="F127" s="4">
+        <f>'[1]Soude CEB 1'!D128</f>
+        <v>0</v>
+      </c>
+      <c r="G127" s="4">
+        <f>'[1]Acide CEB2'!D128</f>
+        <v>256.00000000000023</v>
+      </c>
+      <c r="H127" s="4">
+        <f>[1]SBS!E128</f>
+        <v>806.4</v>
+      </c>
+      <c r="I127" s="4">
+        <f>[1]ASC!D128</f>
+        <v>341.99999999999966</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A128" s="3">
+        <f>'[1]NaOCl Pré'!B129</f>
+        <v>45784</v>
+      </c>
+      <c r="B128" s="23">
+        <f>'[1]NaOCl Pré'!D129</f>
+        <v>374.40000000000003</v>
+      </c>
+      <c r="C128" s="4">
+        <f>[1]Acide!D129</f>
+        <v>0</v>
+      </c>
+      <c r="D128" s="4">
+        <f>[1]FeCl3!D129</f>
+        <v>0</v>
+      </c>
+      <c r="E128" s="4">
+        <f>'[1]NaOCl 2 CEB 1'!H129</f>
+        <v>483.2000000000001</v>
+      </c>
+      <c r="F128" s="4">
+        <f>'[1]Soude CEB 1'!D129</f>
+        <v>0</v>
+      </c>
+      <c r="G128" s="4">
+        <f>'[1]Acide CEB2'!D129</f>
+        <v>83.199999999999719</v>
+      </c>
+      <c r="H128" s="4">
+        <f>[1]SBS!E129</f>
+        <v>883</v>
+      </c>
+      <c r="I128" s="4">
+        <f>[1]ASC!D129</f>
+        <v>346.49999999999983</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A129" s="3">
+        <f>'[1]NaOCl Pré'!B130</f>
+        <v>45785</v>
+      </c>
+      <c r="B129" s="23">
+        <f>'[1]NaOCl Pré'!D130</f>
+        <v>220.79999999999998</v>
+      </c>
+      <c r="C129" s="4">
+        <f>[1]Acide!D130</f>
+        <v>0</v>
+      </c>
+      <c r="D129" s="4">
+        <f>[1]FeCl3!D130</f>
+        <v>0</v>
+      </c>
+      <c r="E129" s="4">
+        <f>'[1]NaOCl 2 CEB 1'!H130</f>
+        <v>332.80000000000064</v>
+      </c>
+      <c r="F129" s="4">
+        <f>'[1]Soude CEB 1'!D130</f>
+        <v>0</v>
+      </c>
+      <c r="G129" s="4">
+        <f>'[1]Acide CEB2'!D130</f>
+        <v>121.60000000000082</v>
+      </c>
+      <c r="H129" s="4">
+        <f>[1]SBS!E130</f>
+        <v>534.39999999999884</v>
+      </c>
+      <c r="I129" s="4">
+        <f>[1]ASC!D130</f>
+        <v>331.50000000000011</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A130" s="3">
+        <f>'[1]NaOCl Pré'!B131</f>
+        <v>45786</v>
+      </c>
+      <c r="B130" s="23">
+        <f>'[1]NaOCl Pré'!D131</f>
+        <v>198.40000000000302</v>
+      </c>
+      <c r="C130" s="4">
+        <f>[1]Acide!D131</f>
+        <v>0</v>
+      </c>
+      <c r="D130" s="4">
+        <f>[1]FeCl3!D131</f>
+        <v>0</v>
+      </c>
+      <c r="E130" s="4">
+        <f>'[1]NaOCl 2 CEB 1'!H131</f>
+        <v>358.39999999999964</v>
+      </c>
+      <c r="F130" s="4">
+        <f>'[1]Soude CEB 1'!D131</f>
+        <v>0</v>
+      </c>
+      <c r="G130" s="4">
+        <f>'[1]Acide CEB2'!D131</f>
+        <v>6.3999999999992951</v>
+      </c>
+      <c r="H130" s="4">
+        <f>[1]SBS!E131</f>
+        <v>694.6</v>
+      </c>
+      <c r="I130" s="4">
+        <f>[1]ASC!D131</f>
+        <v>357.5</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A131" s="3">
+        <f>'[1]NaOCl Pré'!B132</f>
+        <v>45787</v>
+      </c>
+      <c r="B131" s="23">
+        <f>'[1]NaOCl Pré'!D132</f>
+        <v>156.79999999999694</v>
+      </c>
+      <c r="C131" s="4">
+        <f>[1]Acide!D132</f>
+        <v>0</v>
+      </c>
+      <c r="D131" s="4">
+        <f>[1]FeCl3!D132</f>
+        <v>0</v>
+      </c>
+      <c r="E131" s="4">
+        <f>'[1]NaOCl 2 CEB 1'!H132</f>
+        <v>316.80000000000064</v>
+      </c>
+      <c r="F131" s="4">
+        <f>'[1]Soude CEB 1'!D132</f>
+        <v>0</v>
+      </c>
+      <c r="G131" s="4">
+        <f>'[1]Acide CEB2'!D132</f>
+        <v>-60.800000000000409</v>
+      </c>
+      <c r="H131" s="4">
+        <f>[1]SBS!E132</f>
+        <v>332.80000000000064</v>
+      </c>
+      <c r="I131" s="4">
+        <f>[1]ASC!D132</f>
+        <v>343.49999999999881</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A132" s="3">
+        <f>'[1]NaOCl Pré'!B133</f>
+        <v>45788</v>
+      </c>
+      <c r="B132" s="23">
+        <f>'[1]NaOCl Pré'!D133</f>
+        <v>156.80000000000405</v>
+      </c>
+      <c r="C132" s="4">
+        <f>[1]Acide!D133</f>
+        <v>0</v>
+      </c>
+      <c r="D132" s="4">
+        <f>[1]FeCl3!D133</f>
+        <v>0</v>
+      </c>
+      <c r="E132" s="4">
+        <f>'[1]NaOCl 2 CEB 1'!H133</f>
+        <v>326.39999999999782</v>
+      </c>
+      <c r="F132" s="4">
+        <f>'[1]Soude CEB 1'!D133</f>
+        <v>0</v>
+      </c>
+      <c r="G132" s="4">
+        <f>'[1]Acide CEB2'!D133</f>
+        <v>-19.199999999999662</v>
+      </c>
+      <c r="H132" s="4">
+        <f>[1]SBS!E133</f>
+        <v>355.20000000000175</v>
+      </c>
+      <c r="I132" s="4">
+        <f>[1]ASC!D133</f>
+        <v>360.00000000000119</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A133" s="3">
+        <f>'[1]NaOCl Pré'!B134</f>
+        <v>45789</v>
+      </c>
+      <c r="B133" s="23">
+        <f>'[1]NaOCl Pré'!D134</f>
+        <v>127.99999999999656</v>
+      </c>
+      <c r="C133" s="4">
+        <f>[1]Acide!D134</f>
+        <v>0</v>
+      </c>
+      <c r="D133" s="4">
+        <f>[1]FeCl3!D134</f>
+        <v>0</v>
+      </c>
+      <c r="E133" s="4">
+        <f>'[1]NaOCl 2 CEB 1'!H134</f>
+        <v>300.8000000000024</v>
+      </c>
+      <c r="F133" s="4">
+        <f>'[1]Soude CEB 1'!D134</f>
+        <v>0</v>
+      </c>
+      <c r="G133" s="4">
+        <f>'[1]Acide CEB2'!D134</f>
+        <v>35.199999999999676</v>
+      </c>
+      <c r="H133" s="4">
+        <f>[1]SBS!E134</f>
+        <v>653.20000000000005</v>
+      </c>
+      <c r="I133" s="4">
+        <f>[1]ASC!D134</f>
+        <v>361.49999999999949</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A134" s="3">
+        <f>'[1]NaOCl Pré'!B135</f>
+        <v>45790</v>
+      </c>
+      <c r="B134" s="23">
+        <f>'[1]NaOCl Pré'!D135</f>
+        <v>294.39999999999952</v>
+      </c>
+      <c r="C134" s="4">
+        <f>[1]Acide!D135</f>
+        <v>0</v>
+      </c>
+      <c r="D134" s="4">
+        <f>[1]FeCl3!D135</f>
+        <v>0</v>
+      </c>
+      <c r="E134" s="4">
+        <f>'[1]NaOCl 2 CEB 1'!H135</f>
+        <v>409.59999999999934</v>
+      </c>
+      <c r="F134" s="4">
+        <f>'[1]Soude CEB 1'!D135</f>
+        <v>0</v>
+      </c>
+      <c r="G134" s="4">
+        <f>'[1]Acide CEB2'!D135</f>
+        <v>76.800000000000423</v>
+      </c>
+      <c r="H134" s="4">
+        <f>[1]SBS!E135</f>
+        <v>822.4</v>
+      </c>
+      <c r="I134" s="4">
+        <f>[1]ASC!D135</f>
+        <v>331.50000000000011</v>
       </c>
     </row>
   </sheetData>

--- a/Consommation spécifique.xlsx
+++ b/Consommation spécifique.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\Projects\wave2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{55221F9E-104C-4276-B959-7E958E4D8F13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{68AE1ABF-F048-49F2-9335-688D457CC41E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="30612" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{4E830341-EBCA-4A95-9BBE-9CDD49815F8C}"/>
   </bookViews>
@@ -171,7 +171,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="40">
+  <borders count="38">
     <border>
       <left/>
       <right/>
@@ -642,30 +642,6 @@
       <left style="medium">
         <color indexed="64"/>
       </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
       <right style="thin">
         <color indexed="64"/>
       </right>
@@ -692,7 +668,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -841,13 +817,13 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -869,18 +845,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2386,6 +2350,94 @@
             <v>3.9795076981305439</v>
           </cell>
         </row>
+        <row r="136">
+          <cell r="B136">
+            <v>45791</v>
+          </cell>
+          <cell r="D136">
+            <v>243.20000000000164</v>
+          </cell>
+          <cell r="F136">
+            <v>2.8646140073971313</v>
+          </cell>
+        </row>
+        <row r="137">
+          <cell r="B137">
+            <v>45792</v>
+          </cell>
+          <cell r="D137">
+            <v>240</v>
+          </cell>
+          <cell r="F137">
+            <v>3.0045067601402105</v>
+          </cell>
+        </row>
+        <row r="138">
+          <cell r="B138">
+            <v>45793</v>
+          </cell>
+          <cell r="D138">
+            <v>166.39999999999944</v>
+          </cell>
+          <cell r="F138">
+            <v>2.0919239666096678</v>
+          </cell>
+        </row>
+        <row r="139">
+          <cell r="B139">
+            <v>45794</v>
+          </cell>
+          <cell r="D139">
+            <v>134.39999999999941</v>
+          </cell>
+          <cell r="F139">
+            <v>2.1957913998170073</v>
+          </cell>
+        </row>
+        <row r="140">
+          <cell r="B140">
+            <v>45795</v>
+          </cell>
+          <cell r="D140">
+            <v>201.59999999999911</v>
+          </cell>
+          <cell r="F140">
+            <v>3.2204987300116477</v>
+          </cell>
+        </row>
+        <row r="141">
+          <cell r="B141">
+            <v>45796</v>
+          </cell>
+          <cell r="D141">
+            <v>207.99999999999841</v>
+          </cell>
+          <cell r="F141">
+            <v>2.7934461455814987</v>
+          </cell>
+        </row>
+        <row r="142">
+          <cell r="B142">
+            <v>45797</v>
+          </cell>
+          <cell r="D142">
+            <v>201.60000000000267</v>
+          </cell>
+          <cell r="F142">
+            <v>2.0464927418536458</v>
+          </cell>
+        </row>
+        <row r="143">
+          <cell r="B143">
+            <v>45798</v>
+          </cell>
+          <cell r="D143">
+            <v>198.39999999999947</v>
+          </cell>
+          <cell r="F143">
+            <v>2.0275518129419887</v>
+          </cell>
+        </row>
       </sheetData>
       <sheetData sheetId="3">
         <row r="3">
@@ -3452,6 +3504,70 @@
             <v>0</v>
           </cell>
         </row>
+        <row r="136">
+          <cell r="D136">
+            <v>0</v>
+          </cell>
+          <cell r="F136">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="137">
+          <cell r="D137">
+            <v>0</v>
+          </cell>
+          <cell r="F137">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="138">
+          <cell r="D138">
+            <v>0</v>
+          </cell>
+          <cell r="F138">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="139">
+          <cell r="D139">
+            <v>0</v>
+          </cell>
+          <cell r="F139">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="140">
+          <cell r="D140">
+            <v>0</v>
+          </cell>
+          <cell r="F140">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="141">
+          <cell r="D141">
+            <v>0</v>
+          </cell>
+          <cell r="F141">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="142">
+          <cell r="D142">
+            <v>0</v>
+          </cell>
+          <cell r="F142">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="143">
+          <cell r="D143">
+            <v>0</v>
+          </cell>
+          <cell r="F143">
+            <v>0</v>
+          </cell>
+        </row>
       </sheetData>
       <sheetData sheetId="4">
         <row r="3">
@@ -4515,6 +4631,70 @@
             <v>0</v>
           </cell>
           <cell r="F135">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="136">
+          <cell r="D136">
+            <v>0</v>
+          </cell>
+          <cell r="F136">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="137">
+          <cell r="D137">
+            <v>0</v>
+          </cell>
+          <cell r="F137">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="138">
+          <cell r="D138">
+            <v>0</v>
+          </cell>
+          <cell r="F138">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="139">
+          <cell r="D139">
+            <v>0</v>
+          </cell>
+          <cell r="F139">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="140">
+          <cell r="D140">
+            <v>0</v>
+          </cell>
+          <cell r="F140">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="141">
+          <cell r="D141">
+            <v>0</v>
+          </cell>
+          <cell r="F141">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="142">
+          <cell r="D142">
+            <v>0</v>
+          </cell>
+          <cell r="F142">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="143">
+          <cell r="D143">
+            <v>0</v>
+          </cell>
+          <cell r="F143">
             <v>0</v>
           </cell>
         </row>
@@ -5585,6 +5765,70 @@
             <v>5.5367063626164086</v>
           </cell>
         </row>
+        <row r="136">
+          <cell r="H136">
+            <v>403.2</v>
+          </cell>
+          <cell r="I136">
+            <v>4.7492284859478433</v>
+          </cell>
+        </row>
+        <row r="137">
+          <cell r="H137">
+            <v>325</v>
+          </cell>
+          <cell r="I137">
+            <v>4.0686029043565348</v>
+          </cell>
+        </row>
+        <row r="138">
+          <cell r="H138">
+            <v>611.2000000000038</v>
+          </cell>
+          <cell r="I138">
+            <v>7.6837976465855853</v>
+          </cell>
+        </row>
+        <row r="139">
+          <cell r="H139">
+            <v>444.80000000000075</v>
+          </cell>
+          <cell r="I139">
+            <v>7.267023918442046</v>
+          </cell>
+        </row>
+        <row r="140">
+          <cell r="H140">
+            <v>486.39999999999617</v>
+          </cell>
+          <cell r="I140">
+            <v>7.7700921739963285</v>
+          </cell>
+        </row>
+        <row r="141">
+          <cell r="H141">
+            <v>438.40000000000146</v>
+          </cell>
+          <cell r="I141">
+            <v>5.8877249529949163</v>
+          </cell>
+        </row>
+        <row r="142">
+          <cell r="H142">
+            <v>646.40000000000168</v>
+          </cell>
+          <cell r="I142">
+            <v>6.5617703786417794</v>
+          </cell>
+        </row>
+        <row r="143">
+          <cell r="H143">
+            <v>636.79999999999745</v>
+          </cell>
+          <cell r="I143">
+            <v>6.5077872705718587</v>
+          </cell>
+        </row>
       </sheetData>
       <sheetData sheetId="7">
         <row r="3">
@@ -6651,6 +6895,70 @@
             <v>0</v>
           </cell>
         </row>
+        <row r="136">
+          <cell r="D136">
+            <v>0</v>
+          </cell>
+          <cell r="F136">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="137">
+          <cell r="D137">
+            <v>0</v>
+          </cell>
+          <cell r="F137">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="138">
+          <cell r="D138">
+            <v>0</v>
+          </cell>
+          <cell r="F138">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="139">
+          <cell r="D139">
+            <v>0</v>
+          </cell>
+          <cell r="F139">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="140">
+          <cell r="D140">
+            <v>0</v>
+          </cell>
+          <cell r="F140">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="141">
+          <cell r="D141">
+            <v>0</v>
+          </cell>
+          <cell r="F141">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="142">
+          <cell r="D142">
+            <v>0</v>
+          </cell>
+          <cell r="F142">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="143">
+          <cell r="D143">
+            <v>0</v>
+          </cell>
+          <cell r="F143">
+            <v>0</v>
+          </cell>
+        </row>
       </sheetData>
       <sheetData sheetId="8">
         <row r="3">
@@ -6902,73 +7210,61 @@
           </cell>
         </row>
         <row r="34">
-          <cell r="D34"/>
           <cell r="F34">
             <v>0</v>
           </cell>
         </row>
         <row r="35">
-          <cell r="D35"/>
           <cell r="F35">
             <v>0</v>
           </cell>
         </row>
         <row r="36">
-          <cell r="D36"/>
           <cell r="F36">
             <v>0</v>
           </cell>
         </row>
         <row r="37">
-          <cell r="D37"/>
           <cell r="F37">
             <v>0</v>
           </cell>
         </row>
         <row r="38">
-          <cell r="D38"/>
           <cell r="F38">
             <v>0</v>
           </cell>
         </row>
         <row r="39">
-          <cell r="D39"/>
           <cell r="F39">
             <v>0</v>
           </cell>
         </row>
         <row r="40">
-          <cell r="D40"/>
           <cell r="F40">
             <v>0</v>
           </cell>
         </row>
         <row r="41">
-          <cell r="D41"/>
           <cell r="F41">
             <v>0</v>
           </cell>
         </row>
         <row r="42">
-          <cell r="D42"/>
           <cell r="F42">
             <v>0</v>
           </cell>
         </row>
         <row r="43">
-          <cell r="D43"/>
           <cell r="F43">
             <v>0</v>
           </cell>
         </row>
         <row r="44">
-          <cell r="D44"/>
           <cell r="F44">
             <v>0</v>
           </cell>
         </row>
         <row r="45">
-          <cell r="D45"/>
           <cell r="F45">
             <v>0</v>
           </cell>
@@ -7691,6 +7987,70 @@
           </cell>
           <cell r="F135">
             <v>1.038132442990584</v>
+          </cell>
+        </row>
+        <row r="136">
+          <cell r="D136">
+            <v>124.79999999999869</v>
+          </cell>
+          <cell r="F136">
+            <v>1.4699992932695551</v>
+          </cell>
+        </row>
+        <row r="137">
+          <cell r="D137">
+            <v>54.400000000001114</v>
+          </cell>
+          <cell r="F137">
+            <v>0.68102153229846152</v>
+          </cell>
+        </row>
+        <row r="138">
+          <cell r="D138">
+            <v>272.00000000000023</v>
+          </cell>
+          <cell r="F138">
+            <v>3.4194910992658181</v>
+          </cell>
+        </row>
+        <row r="139">
+          <cell r="D139">
+            <v>60.800000000000409</v>
+          </cell>
+          <cell r="F139">
+            <v>0.99333420467913369</v>
+          </cell>
+        </row>
+        <row r="140">
+          <cell r="D140">
+            <v>9.5999999999989427</v>
+          </cell>
+          <cell r="F140">
+            <v>0.15335708238149082</v>
+          </cell>
+        </row>
+        <row r="141">
+          <cell r="D141">
+            <v>12.800000000000367</v>
+          </cell>
+          <cell r="F141">
+            <v>0.17190437818963694</v>
+          </cell>
+        </row>
+        <row r="142">
+          <cell r="D142">
+            <v>48.000000000000043</v>
+          </cell>
+          <cell r="F142">
+            <v>0.48726017663181448</v>
+          </cell>
+        </row>
+        <row r="143">
+          <cell r="D143">
+            <v>112.0000000000001</v>
+          </cell>
+          <cell r="F143">
+            <v>1.1445857008543525</v>
           </cell>
         </row>
       </sheetData>
@@ -8759,6 +9119,70 @@
             <v>11.116668243690777</v>
           </cell>
         </row>
+        <row r="136">
+          <cell r="E136">
+            <v>588.79999999999905</v>
+          </cell>
+          <cell r="G136">
+            <v>6.9353812810666806</v>
+          </cell>
+        </row>
+        <row r="137">
+          <cell r="E137">
+            <v>198.39999999999947</v>
+          </cell>
+          <cell r="G137">
+            <v>2.4837255883825669</v>
+          </cell>
+        </row>
+        <row r="138">
+          <cell r="E138">
+            <v>447.79999999999995</v>
+          </cell>
+          <cell r="G138">
+            <v>5.6295886553354118</v>
+          </cell>
+        </row>
+        <row r="139">
+          <cell r="E139">
+            <v>105.59999999999903</v>
+          </cell>
+          <cell r="G139">
+            <v>1.7252646712847834</v>
+          </cell>
+        </row>
+        <row r="140">
+          <cell r="E140">
+            <v>460.79999999999899</v>
+          </cell>
+          <cell r="G140">
+            <v>7.3611399543123532</v>
+          </cell>
+        </row>
+        <row r="141">
+          <cell r="E141">
+            <v>640.00000000000057</v>
+          </cell>
+          <cell r="G141">
+            <v>8.5952189094816074</v>
+          </cell>
+        </row>
+        <row r="142">
+          <cell r="E142">
+            <v>643.20000000000027</v>
+          </cell>
+          <cell r="G142">
+            <v>6.5292863668663106</v>
+          </cell>
+        </row>
+        <row r="143">
+          <cell r="E143">
+            <v>771.20000000000027</v>
+          </cell>
+          <cell r="G143">
+            <v>7.8812901115971092</v>
+          </cell>
+        </row>
       </sheetData>
       <sheetData sheetId="10">
         <row r="3">
@@ -9823,6 +10247,70 @@
           </cell>
           <cell r="F135">
             <v>4.4810013652523022</v>
+          </cell>
+        </row>
+        <row r="136">
+          <cell r="D136">
+            <v>341.99999999999966</v>
+          </cell>
+          <cell r="F136">
+            <v>4.0283634479021844</v>
+          </cell>
+        </row>
+        <row r="137">
+          <cell r="D137">
+            <v>344.99999999999977</v>
+          </cell>
+          <cell r="F137">
+            <v>4.3189784677015499</v>
+          </cell>
+        </row>
+        <row r="138">
+          <cell r="D138">
+            <v>340.5</v>
+          </cell>
+          <cell r="F138">
+            <v>4.2806497033088613</v>
+          </cell>
+        </row>
+        <row r="139">
+          <cell r="D139">
+            <v>61.499999999998778</v>
+          </cell>
+          <cell r="F139">
+            <v>1.0047706182198204</v>
+          </cell>
+        </row>
+        <row r="140">
+          <cell r="D140">
+            <v>640.50000000000114</v>
+          </cell>
+          <cell r="F140">
+            <v>10.231792840141233</v>
+          </cell>
+        </row>
+        <row r="141">
+          <cell r="D141">
+            <v>212.9999999999992</v>
+          </cell>
+          <cell r="F141">
+            <v>2.8605962933118345</v>
+          </cell>
+        </row>
+        <row r="142">
+          <cell r="D142">
+            <v>222.00000000000043</v>
+          </cell>
+          <cell r="F142">
+            <v>2.2535783169221442</v>
+          </cell>
+        </row>
+        <row r="143">
+          <cell r="D143">
+            <v>226.49999999999972</v>
+          </cell>
+          <cell r="F143">
+            <v>2.3147201896741989</v>
           </cell>
         </row>
       </sheetData>
@@ -9848,10 +10336,12 @@
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
+        <row r="1">
+          <cell r="B1" t="str">
+            <v xml:space="preserve"> SUIVI DE PRODUCTION  JOURNALIER W2E</v>
+          </cell>
+        </row>
         <row r="6">
-          <cell r="L6">
-            <v>141032</v>
-          </cell>
           <cell r="U6">
             <v>53174</v>
           </cell>
@@ -10516,10 +11006,50 @@
             <v>73979</v>
           </cell>
         </row>
+        <row r="139">
+          <cell r="U139">
+            <v>84898</v>
+          </cell>
+        </row>
+        <row r="140">
+          <cell r="U140">
+            <v>79880</v>
+          </cell>
+        </row>
+        <row r="141">
+          <cell r="U141">
+            <v>79544</v>
+          </cell>
+        </row>
+        <row r="142">
+          <cell r="U142">
+            <v>61208</v>
+          </cell>
+        </row>
+        <row r="143">
+          <cell r="U143">
+            <v>62599</v>
+          </cell>
+        </row>
+        <row r="144">
+          <cell r="U144">
+            <v>74460</v>
+          </cell>
+        </row>
+        <row r="145">
+          <cell r="U145">
+            <v>98510</v>
+          </cell>
+        </row>
+        <row r="146">
+          <cell r="U146">
+            <v>97852</v>
+          </cell>
+        </row>
       </sheetData>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
+      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="3" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -10822,11 +11352,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BC5C344-277E-4945-8E25-AE6A0B860AD5}">
-  <dimension ref="A1:K134"/>
+  <dimension ref="A1:K142"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A60" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A86" sqref="A86:K134"/>
+      <pane ySplit="1" topLeftCell="A112" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E147" sqref="E147"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -16066,6 +16596,318 @@
       <c r="J134" s="4"/>
       <c r="K134" s="29"/>
     </row>
+    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A135" s="21">
+        <v>45791</v>
+      </c>
+      <c r="B135" s="40">
+        <f>'[1]NaOCl Pré'!F136</f>
+        <v>2.8646140073971313</v>
+      </c>
+      <c r="C135" s="4">
+        <f>[1]Acide!F136</f>
+        <v>0</v>
+      </c>
+      <c r="D135" s="4">
+        <f>[1]FeCl3!F136</f>
+        <v>0</v>
+      </c>
+      <c r="E135" s="40">
+        <f>'[1]NaOCl 2 CEB 1'!I136</f>
+        <v>4.7492284859478433</v>
+      </c>
+      <c r="F135" s="4">
+        <f>'[1]Soude CEB 1'!F136</f>
+        <v>0</v>
+      </c>
+      <c r="G135" s="40">
+        <f>'[1]Acide CEB2'!F136</f>
+        <v>1.4699992932695551</v>
+      </c>
+      <c r="H135" s="40">
+        <f>[1]SBS!G136</f>
+        <v>6.9353812810666806</v>
+      </c>
+      <c r="I135" s="40">
+        <f>[1]ASC!F136</f>
+        <v>4.0283634479021844</v>
+      </c>
+      <c r="J135" s="4"/>
+      <c r="K135" s="29"/>
+    </row>
+    <row r="136" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A136" s="21">
+        <v>45792</v>
+      </c>
+      <c r="B136" s="40">
+        <f>'[1]NaOCl Pré'!F137</f>
+        <v>3.0045067601402105</v>
+      </c>
+      <c r="C136" s="4">
+        <f>[1]Acide!F137</f>
+        <v>0</v>
+      </c>
+      <c r="D136" s="4">
+        <f>[1]FeCl3!F137</f>
+        <v>0</v>
+      </c>
+      <c r="E136" s="40">
+        <f>'[1]NaOCl 2 CEB 1'!I137</f>
+        <v>4.0686029043565348</v>
+      </c>
+      <c r="F136" s="4">
+        <f>'[1]Soude CEB 1'!F137</f>
+        <v>0</v>
+      </c>
+      <c r="G136" s="40">
+        <f>'[1]Acide CEB2'!F137</f>
+        <v>0.68102153229846152</v>
+      </c>
+      <c r="H136" s="40">
+        <f>[1]SBS!G137</f>
+        <v>2.4837255883825669</v>
+      </c>
+      <c r="I136" s="40">
+        <f>[1]ASC!F137</f>
+        <v>4.3189784677015499</v>
+      </c>
+      <c r="J136" s="4"/>
+      <c r="K136" s="29"/>
+    </row>
+    <row r="137" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A137" s="21">
+        <v>45793</v>
+      </c>
+      <c r="B137" s="40">
+        <f>'[1]NaOCl Pré'!F138</f>
+        <v>2.0919239666096678</v>
+      </c>
+      <c r="C137" s="4">
+        <f>[1]Acide!F138</f>
+        <v>0</v>
+      </c>
+      <c r="D137" s="4">
+        <f>[1]FeCl3!F138</f>
+        <v>0</v>
+      </c>
+      <c r="E137" s="40">
+        <f>'[1]NaOCl 2 CEB 1'!I138</f>
+        <v>7.6837976465855853</v>
+      </c>
+      <c r="F137" s="4">
+        <f>'[1]Soude CEB 1'!F138</f>
+        <v>0</v>
+      </c>
+      <c r="G137" s="40">
+        <f>'[1]Acide CEB2'!F138</f>
+        <v>3.4194910992658181</v>
+      </c>
+      <c r="H137" s="40">
+        <f>[1]SBS!G138</f>
+        <v>5.6295886553354118</v>
+      </c>
+      <c r="I137" s="40">
+        <f>[1]ASC!F138</f>
+        <v>4.2806497033088613</v>
+      </c>
+      <c r="J137" s="4"/>
+      <c r="K137" s="29"/>
+    </row>
+    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A138" s="21">
+        <v>45794</v>
+      </c>
+      <c r="B138" s="40">
+        <f>'[1]NaOCl Pré'!F139</f>
+        <v>2.1957913998170073</v>
+      </c>
+      <c r="C138" s="4">
+        <f>[1]Acide!F139</f>
+        <v>0</v>
+      </c>
+      <c r="D138" s="4">
+        <f>[1]FeCl3!F139</f>
+        <v>0</v>
+      </c>
+      <c r="E138" s="40">
+        <f>'[1]NaOCl 2 CEB 1'!I139</f>
+        <v>7.267023918442046</v>
+      </c>
+      <c r="F138" s="4">
+        <f>'[1]Soude CEB 1'!F139</f>
+        <v>0</v>
+      </c>
+      <c r="G138" s="40">
+        <f>'[1]Acide CEB2'!F139</f>
+        <v>0.99333420467913369</v>
+      </c>
+      <c r="H138" s="40">
+        <f>[1]SBS!G139</f>
+        <v>1.7252646712847834</v>
+      </c>
+      <c r="I138" s="40">
+        <f>[1]ASC!F139</f>
+        <v>1.0047706182198204</v>
+      </c>
+      <c r="J138" s="4"/>
+      <c r="K138" s="29"/>
+    </row>
+    <row r="139" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A139" s="21">
+        <v>45795</v>
+      </c>
+      <c r="B139" s="40">
+        <f>'[1]NaOCl Pré'!F140</f>
+        <v>3.2204987300116477</v>
+      </c>
+      <c r="C139" s="4">
+        <f>[1]Acide!F140</f>
+        <v>0</v>
+      </c>
+      <c r="D139" s="4">
+        <f>[1]FeCl3!F140</f>
+        <v>0</v>
+      </c>
+      <c r="E139" s="40">
+        <f>'[1]NaOCl 2 CEB 1'!I140</f>
+        <v>7.7700921739963285</v>
+      </c>
+      <c r="F139" s="4">
+        <f>'[1]Soude CEB 1'!F140</f>
+        <v>0</v>
+      </c>
+      <c r="G139" s="40">
+        <f>'[1]Acide CEB2'!F140</f>
+        <v>0.15335708238149082</v>
+      </c>
+      <c r="H139" s="40">
+        <f>[1]SBS!G140</f>
+        <v>7.3611399543123532</v>
+      </c>
+      <c r="I139" s="40">
+        <f>[1]ASC!F140</f>
+        <v>10.231792840141233</v>
+      </c>
+      <c r="J139" s="4"/>
+      <c r="K139" s="29"/>
+    </row>
+    <row r="140" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A140" s="21">
+        <v>45796</v>
+      </c>
+      <c r="B140" s="40">
+        <f>'[1]NaOCl Pré'!F141</f>
+        <v>2.7934461455814987</v>
+      </c>
+      <c r="C140" s="4">
+        <f>[1]Acide!F141</f>
+        <v>0</v>
+      </c>
+      <c r="D140" s="4">
+        <f>[1]FeCl3!F141</f>
+        <v>0</v>
+      </c>
+      <c r="E140" s="40">
+        <f>'[1]NaOCl 2 CEB 1'!I141</f>
+        <v>5.8877249529949163</v>
+      </c>
+      <c r="F140" s="4">
+        <f>'[1]Soude CEB 1'!F141</f>
+        <v>0</v>
+      </c>
+      <c r="G140" s="40">
+        <f>'[1]Acide CEB2'!F141</f>
+        <v>0.17190437818963694</v>
+      </c>
+      <c r="H140" s="40">
+        <f>[1]SBS!G141</f>
+        <v>8.5952189094816074</v>
+      </c>
+      <c r="I140" s="40">
+        <f>[1]ASC!F141</f>
+        <v>2.8605962933118345</v>
+      </c>
+      <c r="J140" s="4"/>
+      <c r="K140" s="29"/>
+    </row>
+    <row r="141" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A141" s="21">
+        <v>45797</v>
+      </c>
+      <c r="B141" s="40">
+        <f>'[1]NaOCl Pré'!F142</f>
+        <v>2.0464927418536458</v>
+      </c>
+      <c r="C141" s="4">
+        <f>[1]Acide!F142</f>
+        <v>0</v>
+      </c>
+      <c r="D141" s="4">
+        <f>[1]FeCl3!F142</f>
+        <v>0</v>
+      </c>
+      <c r="E141" s="40">
+        <f>'[1]NaOCl 2 CEB 1'!I142</f>
+        <v>6.5617703786417794</v>
+      </c>
+      <c r="F141" s="4">
+        <f>'[1]Soude CEB 1'!F142</f>
+        <v>0</v>
+      </c>
+      <c r="G141" s="40">
+        <f>'[1]Acide CEB2'!F142</f>
+        <v>0.48726017663181448</v>
+      </c>
+      <c r="H141" s="40">
+        <f>[1]SBS!G142</f>
+        <v>6.5292863668663106</v>
+      </c>
+      <c r="I141" s="40">
+        <f>[1]ASC!F142</f>
+        <v>2.2535783169221442</v>
+      </c>
+      <c r="J141" s="4"/>
+      <c r="K141" s="29"/>
+    </row>
+    <row r="142" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A142" s="21">
+        <v>45798</v>
+      </c>
+      <c r="B142" s="40">
+        <f>'[1]NaOCl Pré'!F143</f>
+        <v>2.0275518129419887</v>
+      </c>
+      <c r="C142" s="4">
+        <f>[1]Acide!F143</f>
+        <v>0</v>
+      </c>
+      <c r="D142" s="4">
+        <f>[1]FeCl3!F143</f>
+        <v>0</v>
+      </c>
+      <c r="E142" s="40">
+        <f>'[1]NaOCl 2 CEB 1'!I143</f>
+        <v>6.5077872705718587</v>
+      </c>
+      <c r="F142" s="4">
+        <f>'[1]Soude CEB 1'!F143</f>
+        <v>0</v>
+      </c>
+      <c r="G142" s="40">
+        <f>'[1]Acide CEB2'!F143</f>
+        <v>1.1445857008543525</v>
+      </c>
+      <c r="H142" s="40">
+        <f>[1]SBS!G143</f>
+        <v>7.8812901115971092</v>
+      </c>
+      <c r="I142" s="40">
+        <f>[1]ASC!F143</f>
+        <v>2.3147201896741989</v>
+      </c>
+      <c r="J142" s="4"/>
+      <c r="K142" s="29"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -16074,24 +16916,34 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07CB649B-6F18-453D-B029-557EF373D866}">
-  <dimension ref="A1:I134"/>
+  <dimension ref="A1:H142"/>
   <sheetViews>
-    <sheetView topLeftCell="A79" workbookViewId="0">
-      <selection activeCell="A91" sqref="A1:A1048576"/>
+    <sheetView topLeftCell="A122" workbookViewId="0">
+      <selection activeCell="A143" sqref="A143:XFD366"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.44140625" style="2"/>
-    <col min="2" max="3" width="13.5546875" style="2" customWidth="1"/>
+    <col min="1" max="1" width="10.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="13.33203125" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="7.6640625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="8.33203125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="7.88671875" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14.88671875" style="2" customWidth="1"/>
     <col min="7" max="7" width="9.88671875" style="2" customWidth="1"/>
-    <col min="8" max="16384" width="11.44140625" style="2"/>
+    <col min="8" max="11" width="11.44140625" style="2"/>
+    <col min="12" max="12" width="15.44140625" style="2" customWidth="1"/>
+    <col min="13" max="13" width="15.88671875" style="2" customWidth="1"/>
+    <col min="14" max="14" width="15.44140625" style="2" customWidth="1"/>
+    <col min="15" max="15" width="16" style="2" customWidth="1"/>
+    <col min="16" max="17" width="11.44140625" style="2"/>
+    <col min="18" max="18" width="16" style="2" customWidth="1"/>
+    <col min="19" max="19" width="16.6640625" style="2" customWidth="1"/>
+    <col min="20" max="20" width="15.6640625" style="2" customWidth="1"/>
+    <col min="21" max="21" width="16" style="2" customWidth="1"/>
+    <col min="22" max="16384" width="11.44140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="59.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="11" t="s">
         <v>2</v>
       </c>
@@ -16196,7 +17048,7 @@
       <c r="D5" s="54"/>
       <c r="E5" s="54"/>
       <c r="F5" s="5">
-        <f t="shared" ref="F5:F68" si="0">(B5-B4)</f>
+        <f>(B5-B4)</f>
         <v>144.79999999999927</v>
       </c>
       <c r="G5" s="15">
@@ -16204,7 +17056,7 @@
         <v>47464</v>
       </c>
       <c r="H5" s="6">
-        <f t="shared" ref="H5:H68" si="1">F5/G5*1000</f>
+        <f>F5/G5*1000</f>
         <v>3.0507331872576957</v>
       </c>
     </row>
@@ -16219,7 +17071,7 @@
       <c r="D6" s="54"/>
       <c r="E6" s="54"/>
       <c r="F6" s="5">
-        <f t="shared" si="0"/>
+        <f>(B6-B5)</f>
         <v>169</v>
       </c>
       <c r="G6" s="8">
@@ -16227,7 +17079,7 @@
         <v>57975</v>
       </c>
       <c r="H6" s="6">
-        <f t="shared" si="1"/>
+        <f>F6/G6*1000</f>
         <v>2.9150495903406641</v>
       </c>
     </row>
@@ -16242,7 +17094,7 @@
       <c r="D7" s="54"/>
       <c r="E7" s="54"/>
       <c r="F7" s="5">
-        <f t="shared" si="0"/>
+        <f>(B7-B6)</f>
         <v>168.79999999999927</v>
       </c>
       <c r="G7" s="15">
@@ -16250,7 +17102,7 @@
         <v>58341</v>
       </c>
       <c r="H7" s="6">
-        <f t="shared" si="1"/>
+        <f>F7/G7*1000</f>
         <v>2.8933340189574963</v>
       </c>
     </row>
@@ -16265,7 +17117,7 @@
       <c r="D8" s="54"/>
       <c r="E8" s="54"/>
       <c r="F8" s="5">
-        <f t="shared" si="0"/>
+        <f>(B8-B7)</f>
         <v>147</v>
       </c>
       <c r="G8" s="8">
@@ -16273,7 +17125,7 @@
         <v>52934</v>
       </c>
       <c r="H8" s="6">
-        <f t="shared" si="1"/>
+        <f>F8/G8*1000</f>
         <v>2.7770431102882838</v>
       </c>
     </row>
@@ -16288,7 +17140,7 @@
       <c r="D9" s="54"/>
       <c r="E9" s="54"/>
       <c r="F9" s="5">
-        <f t="shared" si="0"/>
+        <f>(B9-B8)</f>
         <v>173.20000000000073</v>
       </c>
       <c r="G9" s="15">
@@ -16296,7 +17148,7 @@
         <v>50448</v>
       </c>
       <c r="H9" s="6">
-        <f t="shared" si="1"/>
+        <f>F9/G9*1000</f>
         <v>3.4332381858547558</v>
       </c>
     </row>
@@ -16311,7 +17163,7 @@
       <c r="D10" s="54"/>
       <c r="E10" s="54"/>
       <c r="F10" s="5">
-        <f t="shared" si="0"/>
+        <f>(B10-B9)</f>
         <v>171.29999999999927</v>
       </c>
       <c r="G10" s="8">
@@ -16319,7 +17171,7 @@
         <v>65465</v>
       </c>
       <c r="H10" s="6">
-        <f t="shared" si="1"/>
+        <f>F10/G10*1000</f>
         <v>2.6166653937218247</v>
       </c>
     </row>
@@ -16334,7 +17186,7 @@
       <c r="D11" s="54"/>
       <c r="E11" s="54"/>
       <c r="F11" s="5">
-        <f t="shared" si="0"/>
+        <f>(B11-B10)</f>
         <v>172.40000000000146</v>
       </c>
       <c r="G11" s="15">
@@ -16342,7 +17194,7 @@
         <v>58423</v>
       </c>
       <c r="H11" s="6">
-        <f t="shared" si="1"/>
+        <f>F11/G11*1000</f>
         <v>2.9508926279034191</v>
       </c>
     </row>
@@ -16357,7 +17209,7 @@
       <c r="D12" s="54"/>
       <c r="E12" s="54"/>
       <c r="F12" s="5">
-        <f t="shared" si="0"/>
+        <f>(B12-B11)</f>
         <v>166.79999999999927</v>
       </c>
       <c r="G12" s="8">
@@ -16365,7 +17217,7 @@
         <v>56419</v>
       </c>
       <c r="H12" s="6">
-        <f t="shared" si="1"/>
+        <f>F12/G12*1000</f>
         <v>2.9564508410287185</v>
       </c>
     </row>
@@ -16380,7 +17232,7 @@
       <c r="D13" s="54"/>
       <c r="E13" s="54"/>
       <c r="F13" s="5">
-        <f t="shared" si="0"/>
+        <f>(B13-B12)</f>
         <v>170.89999999999964</v>
       </c>
       <c r="G13" s="15">
@@ -16388,7 +17240,7 @@
         <v>58678</v>
       </c>
       <c r="H13" s="6">
-        <f t="shared" si="1"/>
+        <f>F13/G13*1000</f>
         <v>2.9125055387027445</v>
       </c>
     </row>
@@ -16403,7 +17255,7 @@
       <c r="D14" s="54"/>
       <c r="E14" s="54"/>
       <c r="F14" s="5">
-        <f t="shared" si="0"/>
+        <f>(B14-B13)</f>
         <v>173</v>
       </c>
       <c r="G14" s="8">
@@ -16411,7 +17263,7 @@
         <v>58205</v>
       </c>
       <c r="H14" s="6">
-        <f t="shared" si="1"/>
+        <f>F14/G14*1000</f>
         <v>2.9722532428485526</v>
       </c>
     </row>
@@ -16426,7 +17278,7 @@
       <c r="D15" s="54"/>
       <c r="E15" s="54"/>
       <c r="F15" s="5">
-        <f t="shared" si="0"/>
+        <f>(B15-B14)</f>
         <v>170.89999999999964</v>
       </c>
       <c r="G15" s="15">
@@ -16434,7 +17286,7 @@
         <v>57968</v>
       </c>
       <c r="H15" s="6">
-        <f t="shared" si="1"/>
+        <f>F15/G15*1000</f>
         <v>2.9481783052718677</v>
       </c>
     </row>
@@ -16449,7 +17301,7 @@
       <c r="D16" s="54"/>
       <c r="E16" s="54"/>
       <c r="F16" s="5">
-        <f t="shared" si="0"/>
+        <f>(B16-B15)</f>
         <v>162.80000000000109</v>
       </c>
       <c r="G16" s="8">
@@ -16457,7 +17309,7 @@
         <v>54239</v>
       </c>
       <c r="H16" s="6">
-        <f t="shared" si="1"/>
+        <f>F16/G16*1000</f>
         <v>3.001530264201056</v>
       </c>
     </row>
@@ -16472,7 +17324,7 @@
       <c r="D17" s="54"/>
       <c r="E17" s="54"/>
       <c r="F17" s="5">
-        <f t="shared" si="0"/>
+        <f>(B17-B16)</f>
         <v>153.19999999999891</v>
       </c>
       <c r="G17" s="15">
@@ -16480,7 +17332,7 @@
         <v>66973</v>
       </c>
       <c r="H17" s="6">
-        <f t="shared" si="1"/>
+        <f>F17/G17*1000</f>
         <v>2.2874889880996658</v>
       </c>
     </row>
@@ -16495,7 +17347,7 @@
       <c r="D18" s="54"/>
       <c r="E18" s="54"/>
       <c r="F18" s="5">
-        <f t="shared" si="0"/>
+        <f>(B18-B17)</f>
         <v>217.20000000000073</v>
       </c>
       <c r="G18" s="8">
@@ -16503,7 +17355,7 @@
         <v>68507</v>
       </c>
       <c r="H18" s="6">
-        <f t="shared" si="1"/>
+        <f>F18/G18*1000</f>
         <v>3.1704789291605344</v>
       </c>
     </row>
@@ -16518,7 +17370,7 @@
       <c r="D19" s="54"/>
       <c r="E19" s="54"/>
       <c r="F19" s="5">
-        <f t="shared" si="0"/>
+        <f>(B19-B18)</f>
         <v>208.20000000000073</v>
       </c>
       <c r="G19" s="4">
@@ -16526,7 +17378,7 @@
         <v>62883</v>
       </c>
       <c r="H19" s="6">
-        <f t="shared" si="1"/>
+        <f>F19/G19*1000</f>
         <v>3.3109107389914718</v>
       </c>
     </row>
@@ -16541,7 +17393,7 @@
       <c r="D20" s="54"/>
       <c r="E20" s="54"/>
       <c r="F20" s="5">
-        <f t="shared" si="0"/>
+        <f>(B20-B19)</f>
         <v>145.89999999999964</v>
       </c>
       <c r="G20" s="8">
@@ -16549,7 +17401,7 @@
         <v>49626</v>
       </c>
       <c r="H20" s="6">
-        <f t="shared" si="1"/>
+        <f>F20/G20*1000</f>
         <v>2.9399911336799187</v>
       </c>
     </row>
@@ -16564,7 +17416,7 @@
       <c r="D21" s="54"/>
       <c r="E21" s="54"/>
       <c r="F21" s="5">
-        <f t="shared" si="0"/>
+        <f>(B21-B20)</f>
         <v>170.79999999999927</v>
       </c>
       <c r="G21" s="15">
@@ -16572,7 +17424,7 @@
         <v>58465</v>
       </c>
       <c r="H21" s="6">
-        <f t="shared" si="1"/>
+        <f>F21/G21*1000</f>
         <v>2.9214059693833794</v>
       </c>
     </row>
@@ -16587,7 +17439,7 @@
       <c r="D22" s="54"/>
       <c r="E22" s="54"/>
       <c r="F22" s="5">
-        <f t="shared" si="0"/>
+        <f>(B22-B21)</f>
         <v>170.5</v>
       </c>
       <c r="G22" s="8">
@@ -16595,7 +17447,7 @@
         <v>58549</v>
       </c>
       <c r="H22" s="6">
-        <f t="shared" si="1"/>
+        <f>F22/G22*1000</f>
         <v>2.9120907274248919</v>
       </c>
     </row>
@@ -16610,7 +17462,7 @@
       <c r="D23" s="54"/>
       <c r="E23" s="54"/>
       <c r="F23" s="5">
-        <f t="shared" si="0"/>
+        <f>(B23-B22)</f>
         <v>183.80000000000109</v>
       </c>
       <c r="G23" s="15">
@@ -16618,7 +17470,7 @@
         <v>59980</v>
       </c>
       <c r="H23" s="6">
-        <f t="shared" si="1"/>
+        <f>F23/G23*1000</f>
         <v>3.0643547849283275</v>
       </c>
     </row>
@@ -16633,7 +17485,7 @@
       <c r="D24" s="54"/>
       <c r="E24" s="54"/>
       <c r="F24" s="5">
-        <f t="shared" si="0"/>
+        <f>(B24-B23)</f>
         <v>200.89999999999964</v>
       </c>
       <c r="G24" s="8">
@@ -16641,7 +17493,7 @@
         <v>66594</v>
       </c>
       <c r="H24" s="6">
-        <f t="shared" si="1"/>
+        <f>F24/G24*1000</f>
         <v>3.0167882992461728</v>
       </c>
     </row>
@@ -16656,7 +17508,7 @@
       <c r="D25" s="54"/>
       <c r="E25" s="54"/>
       <c r="F25" s="5">
-        <f t="shared" si="0"/>
+        <f>(B25-B24)</f>
         <v>216.29999999999927</v>
       </c>
       <c r="G25" s="15">
@@ -16664,7 +17516,7 @@
         <v>70950</v>
       </c>
       <c r="H25" s="6">
-        <f t="shared" si="1"/>
+        <f>F25/G25*1000</f>
         <v>3.048625792811829</v>
       </c>
     </row>
@@ -16679,7 +17531,7 @@
       <c r="D26" s="54"/>
       <c r="E26" s="54"/>
       <c r="F26" s="5">
-        <f t="shared" si="0"/>
+        <f>(B26-B25)</f>
         <v>235.80000000000109</v>
       </c>
       <c r="G26" s="8">
@@ -16687,7 +17539,7 @@
         <v>78568</v>
       </c>
       <c r="H26" s="6">
-        <f t="shared" si="1"/>
+        <f>F26/G26*1000</f>
         <v>3.0012218714998613</v>
       </c>
     </row>
@@ -16702,7 +17554,7 @@
       <c r="D27" s="54"/>
       <c r="E27" s="54"/>
       <c r="F27" s="5">
-        <f t="shared" si="0"/>
+        <f>(B27-B26)</f>
         <v>210.39999999999964</v>
       </c>
       <c r="G27" s="15">
@@ -16710,7 +17562,7 @@
         <v>71467</v>
       </c>
       <c r="H27" s="6">
-        <f t="shared" si="1"/>
+        <f>F27/G27*1000</f>
         <v>2.9440161193277965</v>
       </c>
     </row>
@@ -16725,7 +17577,7 @@
       <c r="D28" s="54"/>
       <c r="E28" s="54"/>
       <c r="F28" s="5">
-        <f t="shared" si="0"/>
+        <f>(B28-B27)</f>
         <v>211.69999999999891</v>
       </c>
       <c r="G28" s="8">
@@ -16733,7 +17585,7 @@
         <v>71945</v>
       </c>
       <c r="H28" s="6">
-        <f t="shared" si="1"/>
+        <f>F28/G28*1000</f>
         <v>2.9425255403433028</v>
       </c>
     </row>
@@ -16748,7 +17600,7 @@
       <c r="D29" s="54"/>
       <c r="E29" s="54"/>
       <c r="F29" s="5">
-        <f t="shared" si="0"/>
+        <f>(B29-B28)</f>
         <v>214.10000000000036</v>
       </c>
       <c r="G29" s="15">
@@ -16756,7 +17608,7 @@
         <v>69243</v>
       </c>
       <c r="H29" s="6">
-        <f t="shared" si="1"/>
+        <f>F29/G29*1000</f>
         <v>3.0920093005791252</v>
       </c>
     </row>
@@ -16771,7 +17623,7 @@
       <c r="D30" s="54"/>
       <c r="E30" s="54"/>
       <c r="F30" s="5">
-        <f t="shared" si="0"/>
+        <f>(B30-B29)</f>
         <v>226.70000000000073</v>
       </c>
       <c r="G30" s="8">
@@ -16779,7 +17631,7 @@
         <v>76346</v>
       </c>
       <c r="H30" s="6">
-        <f t="shared" si="1"/>
+        <f>F30/G30*1000</f>
         <v>2.9693762607078398</v>
       </c>
     </row>
@@ -16794,7 +17646,7 @@
       <c r="D31" s="54"/>
       <c r="E31" s="54"/>
       <c r="F31" s="5">
-        <f t="shared" si="0"/>
+        <f>(B31-B30)</f>
         <v>214.39999999999964</v>
       </c>
       <c r="G31" s="15">
@@ -16802,7 +17654,7 @@
         <v>71246</v>
       </c>
       <c r="H31" s="6">
-        <f t="shared" si="1"/>
+        <f>F31/G31*1000</f>
         <v>3.0092917497122595</v>
       </c>
     </row>
@@ -16817,7 +17669,7 @@
       <c r="D32" s="55"/>
       <c r="E32" s="55"/>
       <c r="F32" s="37">
-        <f t="shared" si="0"/>
+        <f>(B32-B31)</f>
         <v>219.20000000000073</v>
       </c>
       <c r="G32" s="9">
@@ -16825,7 +17677,7 @@
         <v>72868</v>
       </c>
       <c r="H32" s="38">
-        <f t="shared" si="1"/>
+        <f>F32/G32*1000</f>
         <v>3.0081791732996752</v>
       </c>
     </row>
@@ -16840,7 +17692,7 @@
       <c r="D33" s="56"/>
       <c r="E33" s="56"/>
       <c r="F33" s="10">
-        <f t="shared" si="0"/>
+        <f>(B33-B32)</f>
         <v>226.70000000000073</v>
       </c>
       <c r="G33" s="28">
@@ -16848,7 +17700,7 @@
         <v>71689</v>
       </c>
       <c r="H33" s="44">
-        <f t="shared" si="1"/>
+        <f>F33/G33*1000</f>
         <v>3.1622703622592132</v>
       </c>
     </row>
@@ -16863,7 +17715,7 @@
       <c r="D34" s="57"/>
       <c r="E34" s="57"/>
       <c r="F34" s="5">
-        <f t="shared" si="0"/>
+        <f>(B34-B33)</f>
         <v>186.19999999999709</v>
       </c>
       <c r="G34" s="27">
@@ -16871,7 +17723,7 @@
         <v>63773</v>
       </c>
       <c r="H34" s="6">
-        <f t="shared" si="1"/>
+        <f>F34/G34*1000</f>
         <v>2.9197309206089894</v>
       </c>
     </row>
@@ -16886,7 +17738,7 @@
       <c r="D35" s="57"/>
       <c r="E35" s="57"/>
       <c r="F35" s="5">
-        <f t="shared" si="0"/>
+        <f>(B35-B34)</f>
         <v>218.30000000000291</v>
       </c>
       <c r="G35" s="27">
@@ -16894,7 +17746,7 @@
         <v>71403</v>
       </c>
       <c r="H35" s="6">
-        <f t="shared" si="1"/>
+        <f>F35/G35*1000</f>
         <v>3.0572945114351344</v>
       </c>
     </row>
@@ -16909,7 +17761,7 @@
       <c r="D36" s="57"/>
       <c r="E36" s="57"/>
       <c r="F36" s="5">
-        <f t="shared" si="0"/>
+        <f>(B36-B35)</f>
         <v>210</v>
       </c>
       <c r="G36" s="27">
@@ -16917,7 +17769,7 @@
         <v>68826</v>
       </c>
       <c r="H36" s="6">
-        <f t="shared" si="1"/>
+        <f>F36/G36*1000</f>
         <v>3.0511725220120303</v>
       </c>
     </row>
@@ -16932,7 +17784,7 @@
       <c r="D37" s="57"/>
       <c r="E37" s="57"/>
       <c r="F37" s="5">
-        <f t="shared" si="0"/>
+        <f>(B37-B36)</f>
         <v>198.79999999999927</v>
       </c>
       <c r="G37" s="27">
@@ -16940,7 +17792,7 @@
         <v>66010</v>
       </c>
       <c r="H37" s="6">
-        <f t="shared" si="1"/>
+        <f>F37/G37*1000</f>
         <v>3.0116648992576773</v>
       </c>
     </row>
@@ -16955,7 +17807,7 @@
       <c r="D38" s="57"/>
       <c r="E38" s="57"/>
       <c r="F38" s="5">
-        <f t="shared" si="0"/>
+        <f>(B38-B37)</f>
         <v>165.5</v>
       </c>
       <c r="G38" s="27">
@@ -16963,7 +17815,7 @@
         <v>52915</v>
       </c>
       <c r="H38" s="6">
-        <f t="shared" si="1"/>
+        <f>F38/G38*1000</f>
         <v>3.1276575640177642</v>
       </c>
     </row>
@@ -16978,7 +17830,7 @@
       <c r="D39" s="57"/>
       <c r="E39" s="57"/>
       <c r="F39" s="5">
-        <f t="shared" si="0"/>
+        <f>(B39-B38)</f>
         <v>187.20000000000073</v>
       </c>
       <c r="G39" s="27">
@@ -16986,7 +17838,7 @@
         <v>70336</v>
       </c>
       <c r="H39" s="6">
-        <f t="shared" si="1"/>
+        <f>F39/G39*1000</f>
         <v>2.661510464058245</v>
       </c>
     </row>
@@ -17001,7 +17853,7 @@
       <c r="D40" s="57"/>
       <c r="E40" s="57"/>
       <c r="F40" s="5">
-        <f t="shared" si="0"/>
+        <f>(B40-B39)</f>
         <v>255</v>
       </c>
       <c r="G40" s="27">
@@ -17009,7 +17861,7 @@
         <v>77269</v>
       </c>
       <c r="H40" s="6">
-        <f t="shared" si="1"/>
+        <f>F40/G40*1000</f>
         <v>3.3001591841488822</v>
       </c>
     </row>
@@ -17024,7 +17876,7 @@
       <c r="D41" s="57"/>
       <c r="E41" s="57"/>
       <c r="F41" s="5">
-        <f t="shared" si="0"/>
+        <f>(B41-B40)</f>
         <v>241.59999999999854</v>
       </c>
       <c r="G41" s="27">
@@ -17032,7 +17884,7 @@
         <v>81052</v>
       </c>
       <c r="H41" s="6">
-        <f t="shared" si="1"/>
+        <f>F41/G41*1000</f>
         <v>2.9808024478112638</v>
       </c>
     </row>
@@ -17047,7 +17899,7 @@
       <c r="D42" s="57"/>
       <c r="E42" s="57"/>
       <c r="F42" s="5">
-        <f t="shared" si="0"/>
+        <f>(B42-B41)</f>
         <v>248.40000000000146</v>
       </c>
       <c r="G42" s="27">
@@ -17055,7 +17907,7 @@
         <v>84392</v>
       </c>
       <c r="H42" s="6">
-        <f t="shared" si="1"/>
+        <f>F42/G42*1000</f>
         <v>2.9434069580055158</v>
       </c>
     </row>
@@ -17070,7 +17922,7 @@
       <c r="D43" s="57"/>
       <c r="E43" s="57"/>
       <c r="F43" s="5">
-        <f t="shared" si="0"/>
+        <f>(B43-B42)</f>
         <v>214.69999999999709</v>
       </c>
       <c r="G43" s="27">
@@ -17078,7 +17930,7 @@
         <v>75872</v>
       </c>
       <c r="H43" s="6">
-        <f t="shared" si="1"/>
+        <f>F43/G43*1000</f>
         <v>2.8297659215520494</v>
       </c>
     </row>
@@ -17093,7 +17945,7 @@
       <c r="D44" s="57"/>
       <c r="E44" s="57"/>
       <c r="F44" s="5">
-        <f t="shared" si="0"/>
+        <f>(B44-B43)</f>
         <v>124.90000000000146</v>
       </c>
       <c r="G44" s="27">
@@ -17101,7 +17953,7 @@
         <v>40308</v>
       </c>
       <c r="H44" s="6">
-        <f t="shared" si="1"/>
+        <f>F44/G44*1000</f>
         <v>3.0986404683934072</v>
       </c>
     </row>
@@ -17116,7 +17968,7 @@
       <c r="D45" s="57"/>
       <c r="E45" s="57"/>
       <c r="F45" s="5">
-        <f t="shared" si="0"/>
+        <f>(B45-B44)</f>
         <v>252.20000000000073</v>
       </c>
       <c r="G45" s="27">
@@ -17124,7 +17976,7 @@
         <v>86259</v>
       </c>
       <c r="H45" s="6">
-        <f t="shared" si="1"/>
+        <f>F45/G45*1000</f>
         <v>2.9237528837570657</v>
       </c>
     </row>
@@ -17139,7 +17991,7 @@
       <c r="D46" s="57"/>
       <c r="E46" s="57"/>
       <c r="F46" s="5">
-        <f t="shared" si="0"/>
+        <f>(B46-B45)</f>
         <v>239.89999999999782</v>
       </c>
       <c r="G46" s="27">
@@ -17147,7 +17999,7 @@
         <v>80933</v>
       </c>
       <c r="H46" s="6">
-        <f t="shared" si="1"/>
+        <f>F46/G46*1000</f>
         <v>2.9641802478593138</v>
       </c>
     </row>
@@ -17162,7 +18014,7 @@
       <c r="D47" s="57"/>
       <c r="E47" s="57"/>
       <c r="F47" s="5">
-        <f t="shared" si="0"/>
+        <f>(B47-B46)</f>
         <v>232.5</v>
       </c>
       <c r="G47" s="27">
@@ -17170,7 +18022,7 @@
         <v>79044</v>
       </c>
       <c r="H47" s="6">
-        <f t="shared" si="1"/>
+        <f>F47/G47*1000</f>
         <v>2.9413997267344771</v>
       </c>
     </row>
@@ -17185,7 +18037,7 @@
       <c r="D48" s="57"/>
       <c r="E48" s="57"/>
       <c r="F48" s="5">
-        <f t="shared" si="0"/>
+        <f>(B48-B47)</f>
         <v>214.40000000000146</v>
       </c>
       <c r="G48" s="27">
@@ -17193,7 +18045,7 @@
         <v>72540</v>
       </c>
       <c r="H48" s="6">
-        <f t="shared" si="1"/>
+        <f>F48/G48*1000</f>
         <v>2.9556106975462013</v>
       </c>
     </row>
@@ -17208,7 +18060,7 @@
       <c r="D49" s="57"/>
       <c r="E49" s="57"/>
       <c r="F49" s="5">
-        <f t="shared" si="0"/>
+        <f>(B49-B48)</f>
         <v>248.79999999999927</v>
       </c>
       <c r="G49" s="27">
@@ -17216,7 +18068,7 @@
         <v>84015</v>
       </c>
       <c r="H49" s="6">
-        <f t="shared" si="1"/>
+        <f>F49/G49*1000</f>
         <v>2.9613759447717585</v>
       </c>
     </row>
@@ -17231,7 +18083,7 @@
       <c r="D50" s="57"/>
       <c r="E50" s="57"/>
       <c r="F50" s="5">
-        <f t="shared" si="0"/>
+        <f>(B50-B49)</f>
         <v>251</v>
       </c>
       <c r="G50" s="27">
@@ -17239,7 +18091,7 @@
         <v>82276</v>
       </c>
       <c r="H50" s="6">
-        <f t="shared" si="1"/>
+        <f>F50/G50*1000</f>
         <v>3.0507073751762364</v>
       </c>
     </row>
@@ -17254,7 +18106,7 @@
       <c r="D51" s="57"/>
       <c r="E51" s="57"/>
       <c r="F51" s="5">
-        <f t="shared" si="0"/>
+        <f>(B51-B50)</f>
         <v>251.29999999999927</v>
       </c>
       <c r="G51" s="27">
@@ -17262,7 +18114,7 @@
         <v>84632</v>
       </c>
       <c r="H51" s="6">
-        <f t="shared" si="1"/>
+        <f>F51/G51*1000</f>
         <v>2.9693260232536067</v>
       </c>
     </row>
@@ -17277,7 +18129,7 @@
       <c r="D52" s="57"/>
       <c r="E52" s="57"/>
       <c r="F52" s="5">
-        <f t="shared" si="0"/>
+        <f>(B52-B51)</f>
         <v>252.60000000000218</v>
       </c>
       <c r="G52" s="27">
@@ -17285,7 +18137,7 @@
         <v>87013</v>
       </c>
       <c r="H52" s="6">
-        <f t="shared" si="1"/>
+        <f>F52/G52*1000</f>
         <v>2.9030144920874146</v>
       </c>
     </row>
@@ -17300,7 +18152,7 @@
       <c r="D53" s="57"/>
       <c r="E53" s="57"/>
       <c r="F53" s="5">
-        <f t="shared" si="0"/>
+        <f>(B53-B52)</f>
         <v>265.5</v>
       </c>
       <c r="G53" s="27">
@@ -17308,7 +18160,7 @@
         <v>89956</v>
       </c>
       <c r="H53" s="6">
-        <f t="shared" si="1"/>
+        <f>F53/G53*1000</f>
         <v>2.9514429276535195</v>
       </c>
     </row>
@@ -17323,7 +18175,7 @@
       <c r="D54" s="57"/>
       <c r="E54" s="57"/>
       <c r="F54" s="5">
-        <f t="shared" si="0"/>
+        <f>(B54-B53)</f>
         <v>224.20000000000073</v>
       </c>
       <c r="G54" s="27">
@@ -17331,7 +18183,7 @@
         <v>77612</v>
       </c>
       <c r="H54" s="6">
-        <f t="shared" si="1"/>
+        <f>F54/G54*1000</f>
         <v>2.8887285471318962</v>
       </c>
     </row>
@@ -17346,7 +18198,7 @@
       <c r="D55" s="57"/>
       <c r="E55" s="57"/>
       <c r="F55" s="5">
-        <f t="shared" si="0"/>
+        <f>(B55-B54)</f>
         <v>248.19999999999709</v>
       </c>
       <c r="G55" s="27">
@@ -17354,7 +18206,7 @@
         <v>82831</v>
       </c>
       <c r="H55" s="6">
-        <f t="shared" si="1"/>
+        <f>F55/G55*1000</f>
         <v>2.9964626770170235</v>
       </c>
     </row>
@@ -17369,7 +18221,7 @@
       <c r="D56" s="57"/>
       <c r="E56" s="57"/>
       <c r="F56" s="5">
-        <f t="shared" si="0"/>
+        <f>(B56-B55)</f>
         <v>271.5</v>
       </c>
       <c r="G56" s="27">
@@ -17377,7 +18229,7 @@
         <v>94316</v>
       </c>
       <c r="H56" s="6">
-        <f t="shared" si="1"/>
+        <f>F56/G56*1000</f>
         <v>2.8786208066499852</v>
       </c>
     </row>
@@ -17392,7 +18244,7 @@
       <c r="D57" s="57"/>
       <c r="E57" s="57"/>
       <c r="F57" s="5">
-        <f t="shared" si="0"/>
+        <f>(B57-B56)</f>
         <v>284.90000000000146</v>
       </c>
       <c r="G57" s="27">
@@ -17400,7 +18252,7 @@
         <v>97557</v>
       </c>
       <c r="H57" s="6">
-        <f t="shared" si="1"/>
+        <f>F57/G57*1000</f>
         <v>2.9203440040181787</v>
       </c>
     </row>
@@ -17415,7 +18267,7 @@
       <c r="D58" s="57"/>
       <c r="E58" s="57"/>
       <c r="F58" s="5">
-        <f t="shared" si="0"/>
+        <f>(B58-B57)</f>
         <v>225.5</v>
       </c>
       <c r="G58" s="27">
@@ -17423,7 +18275,7 @@
         <v>94135</v>
       </c>
       <c r="H58" s="6">
-        <f t="shared" si="1"/>
+        <f>F58/G58*1000</f>
         <v>2.3954958304562597</v>
       </c>
     </row>
@@ -17438,7 +18290,7 @@
       <c r="D59" s="57"/>
       <c r="E59" s="57"/>
       <c r="F59" s="5">
-        <f t="shared" si="0"/>
+        <f>(B59-B58)</f>
         <v>317.5</v>
       </c>
       <c r="G59" s="27">
@@ -17446,7 +18298,7 @@
         <v>94228</v>
       </c>
       <c r="H59" s="6">
-        <f t="shared" si="1"/>
+        <f>F59/G59*1000</f>
         <v>3.3694867767542558</v>
       </c>
     </row>
@@ -17466,7 +18318,7 @@
         <v>20275</v>
       </c>
       <c r="F60" s="37">
-        <f t="shared" si="0"/>
+        <f>(B60-B59)</f>
         <v>260.90000000000146</v>
       </c>
       <c r="G60" s="9">
@@ -17474,7 +18326,7 @@
         <v>95898</v>
       </c>
       <c r="H60" s="38">
-        <f t="shared" si="1"/>
+        <f>F60/G60*1000</f>
         <v>2.7205989697386959</v>
       </c>
     </row>
@@ -17494,7 +18346,7 @@
         <v>238</v>
       </c>
       <c r="F61" s="18">
-        <f t="shared" si="0"/>
+        <f>(B61-B60)</f>
         <v>263.69999999999709</v>
       </c>
       <c r="G61" s="35">
@@ -17502,7 +18354,7 @@
         <v>90569</v>
       </c>
       <c r="H61" s="22">
-        <f t="shared" si="1"/>
+        <f>F61/G61*1000</f>
         <v>2.911592266669579</v>
       </c>
     </row>
@@ -17522,7 +18374,7 @@
         <v>238</v>
       </c>
       <c r="F62" s="5">
-        <f t="shared" si="0"/>
+        <f>(B62-B61)</f>
         <v>264.5</v>
       </c>
       <c r="G62" s="27">
@@ -17530,7 +18382,7 @@
         <v>91249</v>
       </c>
       <c r="H62" s="6">
-        <f t="shared" si="1"/>
+        <f>F62/G62*1000</f>
         <v>2.8986619031441441</v>
       </c>
     </row>
@@ -17546,11 +18398,11 @@
       </c>
       <c r="D63" s="57"/>
       <c r="E63" s="54">
-        <f t="shared" ref="E63:E126" si="2">C63-C62</f>
+        <f t="shared" ref="E63:E126" si="0">C63-C62</f>
         <v>263</v>
       </c>
       <c r="F63" s="5">
-        <f t="shared" si="0"/>
+        <f>(B63-B62)</f>
         <v>290.60000000000218</v>
       </c>
       <c r="G63" s="27">
@@ -17558,7 +18410,7 @@
         <v>102134</v>
       </c>
       <c r="H63" s="6">
-        <f t="shared" si="1"/>
+        <f>F63/G63*1000</f>
         <v>2.8452816887618444</v>
       </c>
     </row>
@@ -17574,11 +18426,11 @@
       </c>
       <c r="D64" s="57"/>
       <c r="E64" s="54">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>215</v>
       </c>
       <c r="F64" s="5">
-        <f t="shared" si="0"/>
+        <f>(B64-B63)</f>
         <v>239.29999999999927</v>
       </c>
       <c r="G64" s="27">
@@ -17586,7 +18438,7 @@
         <v>86868</v>
       </c>
       <c r="H64" s="6">
-        <f t="shared" si="1"/>
+        <f>F64/G64*1000</f>
         <v>2.7547543399180281</v>
       </c>
     </row>
@@ -17602,11 +18454,11 @@
       </c>
       <c r="D65" s="57"/>
       <c r="E65" s="54">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>226</v>
       </c>
       <c r="F65" s="5">
-        <f t="shared" si="0"/>
+        <f>(B65-B64)</f>
         <v>252.09999999999854</v>
       </c>
       <c r="G65" s="27">
@@ -17614,7 +18466,7 @@
         <v>86339</v>
       </c>
       <c r="H65" s="6">
-        <f t="shared" si="1"/>
+        <f>F65/G65*1000</f>
         <v>2.919885567356566</v>
       </c>
     </row>
@@ -17630,11 +18482,11 @@
       </c>
       <c r="D66" s="57"/>
       <c r="E66" s="54">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>244</v>
       </c>
       <c r="F66" s="5">
-        <f t="shared" si="0"/>
+        <f>(B66-B65)</f>
         <v>268.90000000000146</v>
       </c>
       <c r="G66" s="27">
@@ -17642,7 +18494,7 @@
         <v>92995</v>
       </c>
       <c r="H66" s="6">
-        <f t="shared" si="1"/>
+        <f>F66/G66*1000</f>
         <v>2.8915533093177208</v>
       </c>
     </row>
@@ -17658,11 +18510,11 @@
       </c>
       <c r="D67" s="57"/>
       <c r="E67" s="54">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>286</v>
       </c>
       <c r="F67" s="5">
-        <f t="shared" si="0"/>
+        <f>(B67-B66)</f>
         <v>316.79999999999927</v>
       </c>
       <c r="G67" s="27">
@@ -17670,7 +18522,7 @@
         <v>103104</v>
       </c>
       <c r="H67" s="6">
-        <f t="shared" si="1"/>
+        <f>F67/G67*1000</f>
         <v>3.072625698324015</v>
       </c>
     </row>
@@ -17686,11 +18538,11 @@
       </c>
       <c r="D68" s="57"/>
       <c r="E68" s="54">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>239</v>
       </c>
       <c r="F68" s="5">
-        <f t="shared" si="0"/>
+        <f>(B68-B67)</f>
         <v>264.79999999999927</v>
       </c>
       <c r="G68" s="27">
@@ -17698,7 +18550,7 @@
         <v>101998</v>
       </c>
       <c r="H68" s="6">
-        <f t="shared" si="1"/>
+        <f>F68/G68*1000</f>
         <v>2.5961293358693238</v>
       </c>
     </row>
@@ -17714,11 +18566,11 @@
       </c>
       <c r="D69" s="57"/>
       <c r="E69" s="54">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>246</v>
       </c>
       <c r="F69" s="5">
-        <f t="shared" ref="F69:F106" si="3">(B69-B68)</f>
+        <f>(B69-B68)</f>
         <v>274.30000000000291</v>
       </c>
       <c r="G69" s="27">
@@ -17726,7 +18578,7 @@
         <v>94813</v>
       </c>
       <c r="H69" s="6">
-        <f t="shared" ref="H69:H132" si="4">F69/G69*1000</f>
+        <f>F69/G69*1000</f>
         <v>2.8930631875376047</v>
       </c>
     </row>
@@ -17742,11 +18594,11 @@
       </c>
       <c r="D70" s="57"/>
       <c r="E70" s="54">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>293</v>
       </c>
       <c r="F70" s="5">
-        <f t="shared" si="3"/>
+        <f>(B70-B69)</f>
         <v>257.59999999999854</v>
       </c>
       <c r="G70" s="27">
@@ -17754,7 +18606,7 @@
         <v>87541</v>
       </c>
       <c r="H70" s="6">
-        <f t="shared" si="4"/>
+        <f>F70/G70*1000</f>
         <v>2.9426211717937711</v>
       </c>
     </row>
@@ -17770,11 +18622,11 @@
       </c>
       <c r="D71" s="57"/>
       <c r="E71" s="54">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>267</v>
       </c>
       <c r="F71" s="5">
-        <f t="shared" si="3"/>
+        <f>(B71-B70)</f>
         <v>291.70000000000073</v>
       </c>
       <c r="G71" s="27">
@@ -17782,7 +18634,7 @@
         <v>102068</v>
       </c>
       <c r="H71" s="6">
-        <f t="shared" si="4"/>
+        <f>F71/G71*1000</f>
         <v>2.8578986557981025</v>
       </c>
     </row>
@@ -17798,11 +18650,11 @@
       </c>
       <c r="D72" s="57"/>
       <c r="E72" s="54">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>247</v>
       </c>
       <c r="F72" s="5">
-        <f t="shared" si="3"/>
+        <f>(B72-B71)</f>
         <v>269.89999999999782</v>
       </c>
       <c r="G72" s="27">
@@ -17810,7 +18662,7 @@
         <v>96055</v>
       </c>
       <c r="H72" s="6">
-        <f t="shared" si="4"/>
+        <f>F72/G72*1000</f>
         <v>2.8098485242829403</v>
       </c>
     </row>
@@ -17826,11 +18678,11 @@
       </c>
       <c r="D73" s="57"/>
       <c r="E73" s="54">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>231</v>
       </c>
       <c r="F73" s="5">
-        <f t="shared" si="3"/>
+        <f>(B73-B72)</f>
         <v>254.60000000000218</v>
       </c>
       <c r="G73" s="27">
@@ -17838,7 +18690,7 @@
         <v>89275</v>
       </c>
       <c r="H73" s="6">
-        <f t="shared" si="4"/>
+        <f>F73/G73*1000</f>
         <v>2.8518622234668407</v>
       </c>
     </row>
@@ -17854,11 +18706,11 @@
       </c>
       <c r="D74" s="57"/>
       <c r="E74" s="54">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>252</v>
       </c>
       <c r="F74" s="5">
-        <f t="shared" si="3"/>
+        <f>(B74-B73)</f>
         <v>278.39999999999782</v>
       </c>
       <c r="G74" s="27">
@@ -17866,7 +18718,7 @@
         <v>96482</v>
       </c>
       <c r="H74" s="6">
-        <f t="shared" si="4"/>
+        <f>F74/G74*1000</f>
         <v>2.8855123235421924</v>
       </c>
     </row>
@@ -17882,11 +18734,11 @@
       </c>
       <c r="D75" s="57"/>
       <c r="E75" s="54">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>245</v>
       </c>
       <c r="F75" s="5">
-        <f t="shared" si="3"/>
+        <f>(B75-B74)</f>
         <v>224.20000000000073</v>
       </c>
       <c r="G75" s="27">
@@ -17894,7 +18746,7 @@
         <v>95707</v>
       </c>
       <c r="H75" s="6">
-        <f t="shared" si="4"/>
+        <f>F75/G75*1000</f>
         <v>2.3425663744553766</v>
       </c>
     </row>
@@ -17910,11 +18762,11 @@
       </c>
       <c r="D76" s="57"/>
       <c r="E76" s="54">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>246</v>
       </c>
       <c r="F76" s="5">
-        <f t="shared" si="3"/>
+        <f>(B76-B75)</f>
         <v>311.90000000000146</v>
       </c>
       <c r="G76" s="27">
@@ -17922,7 +18774,7 @@
         <v>93853</v>
       </c>
       <c r="H76" s="6">
-        <f t="shared" si="4"/>
+        <f>F76/G76*1000</f>
         <v>3.3232821540068134</v>
       </c>
     </row>
@@ -17938,11 +18790,11 @@
       </c>
       <c r="D77" s="57"/>
       <c r="E77" s="54">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>223</v>
       </c>
       <c r="F77" s="5">
-        <f t="shared" si="3"/>
+        <f>(B77-B76)</f>
         <v>246.59999999999854</v>
       </c>
       <c r="G77" s="27">
@@ -17950,7 +18802,7 @@
         <v>87315</v>
       </c>
       <c r="H77" s="6">
-        <f t="shared" si="4"/>
+        <f>F77/G77*1000</f>
         <v>2.8242570005153587</v>
       </c>
     </row>
@@ -17966,11 +18818,11 @@
       </c>
       <c r="D78" s="57"/>
       <c r="E78" s="54">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>257</v>
       </c>
       <c r="F78" s="5">
-        <f t="shared" si="3"/>
+        <f>(B78-B77)</f>
         <v>283.70000000000073</v>
       </c>
       <c r="G78" s="27">
@@ -17978,7 +18830,7 @@
         <v>95461</v>
       </c>
       <c r="H78" s="6">
-        <f t="shared" si="4"/>
+        <f>F78/G78*1000</f>
         <v>2.9718942814343108</v>
       </c>
     </row>
@@ -17994,11 +18846,11 @@
       </c>
       <c r="D79" s="57"/>
       <c r="E79" s="54">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>252</v>
       </c>
       <c r="F79" s="5">
-        <f t="shared" si="3"/>
+        <f>(B79-B78)</f>
         <v>278.79999999999927</v>
       </c>
       <c r="G79" s="27">
@@ -18006,7 +18858,7 @@
         <v>100396</v>
       </c>
       <c r="H79" s="6">
-        <f t="shared" si="4"/>
+        <f>F79/G79*1000</f>
         <v>2.7770030678513016</v>
       </c>
     </row>
@@ -18022,11 +18874,11 @@
       </c>
       <c r="D80" s="57"/>
       <c r="E80" s="54">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>224</v>
       </c>
       <c r="F80" s="5">
-        <f t="shared" si="3"/>
+        <f>(B80-B79)</f>
         <v>250.70000000000073</v>
       </c>
       <c r="G80" s="27">
@@ -18034,11 +18886,11 @@
         <v>81090</v>
       </c>
       <c r="H80" s="6">
-        <f t="shared" si="4"/>
+        <f>F80/G80*1000</f>
         <v>3.0916265877420241</v>
       </c>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A81" s="19">
         <v>45737</v>
       </c>
@@ -18050,11 +18902,11 @@
       </c>
       <c r="D81" s="57"/>
       <c r="E81" s="54">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>246</v>
       </c>
       <c r="F81" s="5">
-        <f t="shared" si="3"/>
+        <f>(B81-B80)</f>
         <v>271.70000000000073</v>
       </c>
       <c r="G81" s="27">
@@ -18062,11 +18914,11 @@
         <v>95577</v>
       </c>
       <c r="H81" s="6">
-        <f t="shared" si="4"/>
+        <f>F81/G81*1000</f>
         <v>2.8427341305962806</v>
       </c>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A82" s="19">
         <v>45738</v>
       </c>
@@ -18078,11 +18930,11 @@
       </c>
       <c r="D82" s="57"/>
       <c r="E82" s="54">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>234</v>
       </c>
       <c r="F82" s="5">
-        <f t="shared" si="3"/>
+        <f>(B82-B81)</f>
         <v>262.79999999999927</v>
       </c>
       <c r="G82" s="27">
@@ -18090,11 +18942,11 @@
         <v>91932</v>
       </c>
       <c r="H82" s="6">
-        <f t="shared" si="4"/>
+        <f>F82/G82*1000</f>
         <v>2.8586346429969898</v>
       </c>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A83" s="19">
         <v>45739</v>
       </c>
@@ -18106,11 +18958,11 @@
       </c>
       <c r="D83" s="57"/>
       <c r="E83" s="54">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>261</v>
       </c>
       <c r="F83" s="5">
-        <f t="shared" si="3"/>
+        <f>(B83-B82)</f>
         <v>289.79999999999927</v>
       </c>
       <c r="G83" s="27">
@@ -18118,11 +18970,11 @@
         <v>100753</v>
       </c>
       <c r="H83" s="6">
-        <f t="shared" si="4"/>
+        <f>F83/G83*1000</f>
         <v>2.8763411511319692</v>
       </c>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A84" s="19">
         <v>45740</v>
       </c>
@@ -18134,11 +18986,11 @@
       </c>
       <c r="D84" s="57"/>
       <c r="E84" s="54">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>239</v>
       </c>
       <c r="F84" s="5">
-        <f t="shared" si="3"/>
+        <f>(B84-B83)</f>
         <v>264.10000000000218</v>
       </c>
       <c r="G84" s="27">
@@ -18146,11 +18998,11 @@
         <v>93401</v>
       </c>
       <c r="H84" s="6">
-        <f t="shared" si="4"/>
+        <f>F84/G84*1000</f>
         <v>2.8275928523249449</v>
       </c>
     </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A85" s="19">
         <v>45741</v>
       </c>
@@ -18162,11 +19014,11 @@
       </c>
       <c r="D85" s="54"/>
       <c r="E85" s="54">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>234</v>
       </c>
       <c r="F85" s="5">
-        <f t="shared" si="3"/>
+        <f>(B85-B84)</f>
         <v>256.79999999999927</v>
       </c>
       <c r="G85" s="27">
@@ -18174,11 +19026,11 @@
         <v>91355</v>
       </c>
       <c r="H85" s="6">
-        <f t="shared" si="4"/>
+        <f>F85/G85*1000</f>
         <v>2.8110119862076433</v>
       </c>
     </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A86" s="21">
         <v>45742</v>
       </c>
@@ -18190,11 +19042,11 @@
       </c>
       <c r="D86" s="54"/>
       <c r="E86" s="54">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>203</v>
       </c>
       <c r="F86" s="5">
-        <f t="shared" si="3"/>
+        <f>(B86-B85)</f>
         <v>224.39999999999782</v>
       </c>
       <c r="G86" s="27">
@@ -18202,11 +19054,11 @@
         <v>78856</v>
       </c>
       <c r="H86" s="6">
-        <f t="shared" si="4"/>
+        <f>F86/G86*1000</f>
         <v>2.8456934158465788</v>
       </c>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A87" s="12">
         <v>45743</v>
       </c>
@@ -18218,11 +19070,11 @@
       </c>
       <c r="D87" s="54"/>
       <c r="E87" s="54">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F87" s="5">
-        <f t="shared" si="3"/>
+        <f>(B87-B86)</f>
         <v>252</v>
       </c>
       <c r="G87" s="27">
@@ -18230,11 +19082,11 @@
         <v>86228</v>
       </c>
       <c r="H87" s="6">
-        <f t="shared" si="4"/>
+        <f>F87/G87*1000</f>
         <v>2.92248457577585</v>
       </c>
     </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A88" s="12">
         <v>45744</v>
       </c>
@@ -18245,11 +19097,11 @@
       <c r="C88" s="5"/>
       <c r="D88" s="54"/>
       <c r="E88" s="54">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>-26624</v>
       </c>
       <c r="F88" s="46">
-        <f t="shared" ref="F88:F93" si="5">G88*2.82/1000</f>
+        <f>G88*2.82/1000</f>
         <v>283.60176000000001</v>
       </c>
       <c r="G88" s="27">
@@ -18257,11 +19109,11 @@
         <v>100568</v>
       </c>
       <c r="H88" s="6">
-        <f t="shared" si="4"/>
+        <f>F88/G88*1000</f>
         <v>2.82</v>
       </c>
     </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A89" s="12">
         <v>45745</v>
       </c>
@@ -18272,11 +19124,11 @@
       <c r="C89" s="5"/>
       <c r="D89" s="54"/>
       <c r="E89" s="54">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F89" s="46">
-        <f t="shared" si="5"/>
+        <f>G89*2.82/1000</f>
         <v>289.78320000000002</v>
       </c>
       <c r="G89" s="27">
@@ -18284,11 +19136,11 @@
         <v>102760</v>
       </c>
       <c r="H89" s="6">
-        <f t="shared" si="4"/>
+        <f>F89/G89*1000</f>
         <v>2.82</v>
       </c>
     </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A90" s="12">
         <v>45746</v>
       </c>
@@ -18299,11 +19151,11 @@
       <c r="C90" s="5"/>
       <c r="D90" s="54"/>
       <c r="E90" s="54">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F90" s="46">
-        <f t="shared" si="5"/>
+        <f>G90*2.82/1000</f>
         <v>298.30523999999997</v>
       </c>
       <c r="G90" s="27">
@@ -18311,11 +19163,11 @@
         <v>105782</v>
       </c>
       <c r="H90" s="6">
-        <f t="shared" si="4"/>
+        <f>F90/G90*1000</f>
         <v>2.8199999999999994</v>
       </c>
     </row>
-    <row r="91" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A91" s="12">
         <v>45747</v>
       </c>
@@ -18326,11 +19178,11 @@
       <c r="C91" s="43"/>
       <c r="D91" s="57"/>
       <c r="E91" s="57">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F91" s="51">
-        <f t="shared" si="5"/>
+        <f>G91*2.82/1000</f>
         <v>295.00301999999994</v>
       </c>
       <c r="G91" s="27">
@@ -18338,11 +19190,11 @@
         <v>104611</v>
       </c>
       <c r="H91" s="52">
-        <f t="shared" si="4"/>
+        <f>F91/G91*1000</f>
         <v>2.8199999999999994</v>
       </c>
     </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A92" s="12">
         <v>45748</v>
       </c>
@@ -18353,11 +19205,11 @@
       <c r="C92" s="18"/>
       <c r="D92" s="53"/>
       <c r="E92" s="53">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F92" s="49">
-        <f t="shared" si="5"/>
+        <f>G92*2.82/1000</f>
         <v>298.37574000000001</v>
       </c>
       <c r="G92" s="35">
@@ -18365,15 +19217,11 @@
         <v>105807</v>
       </c>
       <c r="H92" s="22">
-        <f t="shared" si="4"/>
+        <f>F92/G92*1000</f>
         <v>2.82</v>
       </c>
-      <c r="I92" s="60">
-        <f>SUM(F92:F121)</f>
-        <v>7737.9107000000022</v>
-      </c>
-    </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A93" s="12">
         <v>45749</v>
       </c>
@@ -18383,11 +19231,11 @@
       <c r="C93" s="5"/>
       <c r="D93" s="54"/>
       <c r="E93" s="54">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F93" s="46">
-        <f t="shared" si="5"/>
+        <f>G93*2.82/1000</f>
         <v>298.43495999999999</v>
       </c>
       <c r="G93" s="27">
@@ -18395,12 +19243,11 @@
         <v>105828</v>
       </c>
       <c r="H93" s="6">
-        <f t="shared" si="4"/>
+        <f>F93/G93*1000</f>
         <v>2.82</v>
       </c>
-      <c r="I93" s="61"/>
-    </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A94" s="12">
         <v>45750</v>
       </c>
@@ -18410,11 +19257,11 @@
       <c r="C94" s="5"/>
       <c r="D94" s="54"/>
       <c r="E94" s="54">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F94" s="5">
-        <f t="shared" si="3"/>
+        <f>(B94-B93)</f>
         <v>319.10000000000218</v>
       </c>
       <c r="G94" s="27">
@@ -18422,12 +19269,11 @@
         <v>106116</v>
       </c>
       <c r="H94" s="6">
-        <f t="shared" si="4"/>
+        <f>F94/G94*1000</f>
         <v>3.0070865844924626</v>
       </c>
-      <c r="I94" s="61"/>
-    </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A95" s="12">
         <v>45751</v>
       </c>
@@ -18437,11 +19283,11 @@
       <c r="C95" s="5"/>
       <c r="D95" s="54"/>
       <c r="E95" s="54">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F95" s="5">
-        <f t="shared" si="3"/>
+        <f>(B95-B94)</f>
         <v>280</v>
       </c>
       <c r="G95" s="27">
@@ -18449,12 +19295,11 @@
         <v>105724</v>
       </c>
       <c r="H95" s="6">
-        <f t="shared" si="4"/>
+        <f>F95/G95*1000</f>
         <v>2.6484052816768191</v>
       </c>
-      <c r="I95" s="61"/>
-    </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A96" s="12">
         <v>45752</v>
       </c>
@@ -18464,11 +19309,11 @@
       <c r="C96" s="5"/>
       <c r="D96" s="54"/>
       <c r="E96" s="54">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F96" s="5">
-        <f t="shared" si="3"/>
+        <f>(B96-B95)</f>
         <v>253.19999999999709</v>
       </c>
       <c r="G96" s="27">
@@ -18476,12 +19321,11 @@
         <v>91045</v>
       </c>
       <c r="H96" s="6">
-        <f t="shared" si="4"/>
+        <f>F96/G96*1000</f>
         <v>2.7810423416991279</v>
       </c>
-      <c r="I96" s="61"/>
-    </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A97" s="12">
         <v>45753</v>
       </c>
@@ -18493,11 +19337,11 @@
       </c>
       <c r="D97" s="54"/>
       <c r="E97" s="54">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>29413</v>
       </c>
       <c r="F97" s="5">
-        <f t="shared" si="3"/>
+        <f>(B97-B96)</f>
         <v>250.20000000000437</v>
       </c>
       <c r="G97" s="27">
@@ -18505,12 +19349,11 @@
         <v>87247</v>
       </c>
       <c r="H97" s="6">
-        <f t="shared" si="4"/>
+        <f>F97/G97*1000</f>
         <v>2.8677203800704252</v>
       </c>
-      <c r="I97" s="61"/>
-    </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A98" s="12">
         <v>45754</v>
       </c>
@@ -18525,11 +19368,11 @@
         <v>24</v>
       </c>
       <c r="E98" s="54">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>212</v>
       </c>
       <c r="F98" s="5">
-        <f t="shared" si="3"/>
+        <f>(B98-B97)</f>
         <v>236</v>
       </c>
       <c r="G98" s="27">
@@ -18537,12 +19380,11 @@
         <v>86226</v>
       </c>
       <c r="H98" s="6">
-        <f t="shared" si="4"/>
+        <f>F98/G98*1000</f>
         <v>2.7369934822443347</v>
       </c>
-      <c r="I98" s="61"/>
-    </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A99" s="12">
         <v>45755</v>
       </c>
@@ -18553,15 +19395,15 @@
         <v>29866</v>
       </c>
       <c r="D99" s="54">
-        <f t="shared" ref="D99:D134" si="6">F99-E99</f>
+        <f t="shared" ref="D99:D142" si="1">F99-E99</f>
         <v>27</v>
       </c>
       <c r="E99" s="54">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>241</v>
       </c>
       <c r="F99" s="5">
-        <f t="shared" si="3"/>
+        <f>(B99-B98)</f>
         <v>268</v>
       </c>
       <c r="G99" s="27">
@@ -18569,12 +19411,11 @@
         <v>93832</v>
       </c>
       <c r="H99" s="6">
-        <f t="shared" si="4"/>
+        <f>F99/G99*1000</f>
         <v>2.8561684713104269</v>
       </c>
-      <c r="I99" s="61"/>
-    </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A100" s="12">
         <v>45756</v>
       </c>
@@ -18585,15 +19426,15 @@
         <v>30112</v>
       </c>
       <c r="D100" s="54">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>27.19999999999709</v>
       </c>
       <c r="E100" s="54">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>246</v>
       </c>
       <c r="F100" s="5">
-        <f t="shared" si="3"/>
+        <f>(B100-B99)</f>
         <v>273.19999999999709</v>
       </c>
       <c r="G100" s="27">
@@ -18601,12 +19442,11 @@
         <v>94856</v>
       </c>
       <c r="H100" s="6">
-        <f t="shared" si="4"/>
+        <f>F100/G100*1000</f>
         <v>2.8801551825925307</v>
       </c>
-      <c r="I100" s="61"/>
-    </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A101" s="12">
         <v>45757</v>
       </c>
@@ -18617,15 +19457,15 @@
         <v>30366</v>
       </c>
       <c r="D101" s="54">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>27.099999999998545</v>
       </c>
       <c r="E101" s="54">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>254</v>
       </c>
       <c r="F101" s="5">
-        <f t="shared" si="3"/>
+        <f>(B101-B100)</f>
         <v>281.09999999999854</v>
       </c>
       <c r="G101" s="27">
@@ -18633,12 +19473,11 @@
         <v>100087</v>
       </c>
       <c r="H101" s="6">
-        <f t="shared" si="4"/>
+        <f>F101/G101*1000</f>
         <v>2.8085565557964425</v>
       </c>
-      <c r="I101" s="61"/>
-    </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="102" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A102" s="12">
         <v>45758</v>
       </c>
@@ -18649,15 +19488,15 @@
         <v>30646</v>
       </c>
       <c r="D102" s="54">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>17.5</v>
       </c>
       <c r="E102" s="54">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>280</v>
       </c>
       <c r="F102" s="5">
-        <f t="shared" si="3"/>
+        <f>(B102-B101)</f>
         <v>297.5</v>
       </c>
       <c r="G102" s="27">
@@ -18665,12 +19504,11 @@
         <v>103544</v>
       </c>
       <c r="H102" s="6">
-        <f t="shared" si="4"/>
+        <f>F102/G102*1000</f>
         <v>2.8731746890210923</v>
       </c>
-      <c r="I102" s="61"/>
-    </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="103" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A103" s="12">
         <v>45759</v>
       </c>
@@ -18681,15 +19519,15 @@
         <v>30837</v>
       </c>
       <c r="D103" s="54">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>32.700000000004366</v>
       </c>
       <c r="E103" s="54">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>191</v>
       </c>
       <c r="F103" s="5">
-        <f t="shared" si="3"/>
+        <f>(B103-B102)</f>
         <v>223.70000000000437</v>
       </c>
       <c r="G103" s="27">
@@ -18697,12 +19535,11 @@
         <v>80076</v>
       </c>
       <c r="H103" s="6">
-        <f t="shared" si="4"/>
+        <f>F103/G103*1000</f>
         <v>2.7935960837205203</v>
       </c>
-      <c r="I103" s="61"/>
-    </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="104" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A104" s="12">
         <v>45760</v>
       </c>
@@ -18713,15 +19550,15 @@
         <v>31071</v>
       </c>
       <c r="D104" s="54">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>9.1999999999970896</v>
       </c>
       <c r="E104" s="54">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>234</v>
       </c>
       <c r="F104" s="5">
-        <f t="shared" si="3"/>
+        <f>(B104-B103)</f>
         <v>243.19999999999709</v>
       </c>
       <c r="G104" s="27">
@@ -18729,12 +19566,11 @@
         <v>88603</v>
       </c>
       <c r="H104" s="6">
-        <f t="shared" si="4"/>
+        <f>F104/G104*1000</f>
         <v>2.744828053226156</v>
       </c>
-      <c r="I104" s="61"/>
-    </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="105" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A105" s="12">
         <v>45761</v>
       </c>
@@ -18745,15 +19581,15 @@
         <v>31328</v>
       </c>
       <c r="D105" s="54">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>43</v>
       </c>
       <c r="E105" s="54">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>257</v>
       </c>
       <c r="F105" s="5">
-        <f t="shared" si="3"/>
+        <f>(B105-B104)</f>
         <v>300</v>
       </c>
       <c r="G105" s="27">
@@ -18761,12 +19597,11 @@
         <v>103815</v>
       </c>
       <c r="H105" s="6">
-        <f t="shared" si="4"/>
+        <f>F105/G105*1000</f>
         <v>2.889755815633579</v>
       </c>
-      <c r="I105" s="61"/>
-    </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="106" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A106" s="12">
         <v>45762</v>
       </c>
@@ -18777,15 +19612,15 @@
         <v>31572</v>
       </c>
       <c r="D106" s="54">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>26.30000000000291</v>
       </c>
       <c r="E106" s="54">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>244</v>
       </c>
       <c r="F106" s="5">
-        <f t="shared" si="3"/>
+        <f>(B106-B105)</f>
         <v>270.30000000000291</v>
       </c>
       <c r="G106" s="27">
@@ -18793,12 +19628,11 @@
         <v>97338</v>
       </c>
       <c r="H106" s="6">
-        <f t="shared" si="4"/>
+        <f>F106/G106*1000</f>
         <v>2.7769216544412556</v>
       </c>
-      <c r="I106" s="61"/>
-    </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="107" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A107" s="12">
         <v>45763</v>
       </c>
@@ -18809,15 +19643,15 @@
         <v>31813</v>
       </c>
       <c r="D107" s="54">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>25.69999999999709</v>
       </c>
       <c r="E107" s="54">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>241</v>
       </c>
       <c r="F107" s="5">
-        <f t="shared" ref="F107:F134" si="7">(B107-B106)</f>
+        <f>(B107-B106)</f>
         <v>266.69999999999709</v>
       </c>
       <c r="G107" s="27">
@@ -18825,12 +19659,11 @@
         <v>96048</v>
       </c>
       <c r="H107" s="6">
-        <f t="shared" si="4"/>
+        <f>F107/G107*1000</f>
         <v>2.7767366316841273</v>
       </c>
-      <c r="I107" s="61"/>
-    </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="108" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A108" s="12">
         <v>45764</v>
       </c>
@@ -18841,15 +19674,15 @@
         <v>32065</v>
       </c>
       <c r="D108" s="54">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>28.099999999998545</v>
       </c>
       <c r="E108" s="54">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>252</v>
       </c>
       <c r="F108" s="5">
-        <f t="shared" si="7"/>
+        <f>(B108-B107)</f>
         <v>280.09999999999854</v>
       </c>
       <c r="G108" s="27">
@@ -18857,12 +19690,11 @@
         <v>96857</v>
       </c>
       <c r="H108" s="6">
-        <f t="shared" si="4"/>
+        <f>F108/G108*1000</f>
         <v>2.8918921709323904</v>
       </c>
-      <c r="I108" s="61"/>
-    </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="109" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A109" s="12">
         <v>45765</v>
       </c>
@@ -18873,15 +19705,15 @@
         <v>32314</v>
       </c>
       <c r="D109" s="54">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>25.900000000001455</v>
       </c>
       <c r="E109" s="54">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>249</v>
       </c>
       <c r="F109" s="5">
-        <f t="shared" si="7"/>
+        <f>(B109-B108)</f>
         <v>274.90000000000146</v>
       </c>
       <c r="G109" s="27">
@@ -18889,12 +19721,11 @@
         <v>99561</v>
       </c>
       <c r="H109" s="6">
-        <f t="shared" si="4"/>
+        <f>F109/G109*1000</f>
         <v>2.7611213226062561</v>
       </c>
-      <c r="I109" s="61"/>
-    </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="110" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A110" s="12">
         <v>45766</v>
       </c>
@@ -18905,15 +19736,15 @@
         <v>32557</v>
       </c>
       <c r="D110" s="54">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>25.69999999999709</v>
       </c>
       <c r="E110" s="54">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>243</v>
       </c>
       <c r="F110" s="5">
-        <f t="shared" si="7"/>
+        <f>(B110-B109)</f>
         <v>268.69999999999709</v>
       </c>
       <c r="G110" s="27">
@@ -18921,12 +19752,11 @@
         <v>93104</v>
       </c>
       <c r="H110" s="6">
-        <f t="shared" si="4"/>
+        <f>F110/G110*1000</f>
         <v>2.8860199346966522</v>
       </c>
-      <c r="I110" s="61"/>
-    </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="111" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A111" s="12">
         <v>45767</v>
       </c>
@@ -18937,15 +19767,15 @@
         <v>32810</v>
       </c>
       <c r="D111" s="54">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>28.100000000005821</v>
       </c>
       <c r="E111" s="54">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>253</v>
       </c>
       <c r="F111" s="5">
-        <f t="shared" si="7"/>
+        <f>(B111-B110)</f>
         <v>281.10000000000582</v>
       </c>
       <c r="G111" s="27">
@@ -18953,12 +19783,11 @@
         <v>97559</v>
       </c>
       <c r="H111" s="6">
-        <f t="shared" si="4"/>
+        <f>F111/G111*1000</f>
         <v>2.8813333470003362</v>
       </c>
-      <c r="I111" s="61"/>
-    </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="112" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A112" s="12">
         <v>45768</v>
       </c>
@@ -18969,15 +19798,15 @@
         <v>33078</v>
       </c>
       <c r="D112" s="54">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>29.299999999995634</v>
       </c>
       <c r="E112" s="54">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>268</v>
       </c>
       <c r="F112" s="5">
-        <f t="shared" si="7"/>
+        <f>(B112-B111)</f>
         <v>297.29999999999563</v>
       </c>
       <c r="G112" s="27">
@@ -18985,12 +19814,11 @@
         <v>104496</v>
       </c>
       <c r="H112" s="6">
-        <f t="shared" si="4"/>
+        <f>F112/G112*1000</f>
         <v>2.8450849793293105</v>
       </c>
-      <c r="I112" s="61"/>
-    </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="113" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A113" s="12">
         <v>45769</v>
       </c>
@@ -19001,15 +19829,15 @@
         <v>33297</v>
       </c>
       <c r="D113" s="54">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>26.80000000000291</v>
       </c>
       <c r="E113" s="54">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>219</v>
       </c>
       <c r="F113" s="5">
-        <f t="shared" si="7"/>
+        <f>(B113-B112)</f>
         <v>245.80000000000291</v>
       </c>
       <c r="G113" s="27">
@@ -19017,12 +19845,11 @@
         <v>89813</v>
       </c>
       <c r="H113" s="6">
-        <f t="shared" si="4"/>
+        <f>F113/G113*1000</f>
         <v>2.7367975682807937</v>
       </c>
-      <c r="I113" s="61"/>
-    </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="114" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A114" s="12">
         <v>45770</v>
       </c>
@@ -19033,15 +19860,15 @@
         <v>33527</v>
       </c>
       <c r="D114" s="54">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>22.19999999999709</v>
       </c>
       <c r="E114" s="54">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>230</v>
       </c>
       <c r="F114" s="5">
-        <f t="shared" si="7"/>
+        <f>(B114-B113)</f>
         <v>252.19999999999709</v>
       </c>
       <c r="G114" s="27">
@@ -19049,12 +19876,11 @@
         <v>86328</v>
       </c>
       <c r="H114" s="6">
-        <f t="shared" si="4"/>
+        <f>F114/G114*1000</f>
         <v>2.9214159948104563</v>
       </c>
-      <c r="I114" s="61"/>
-    </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="115" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A115" s="12">
         <v>45771</v>
       </c>
@@ -19065,15 +19891,15 @@
         <v>33789</v>
       </c>
       <c r="D115" s="54">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>28</v>
       </c>
       <c r="E115" s="54">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>262</v>
       </c>
       <c r="F115" s="5">
-        <f t="shared" si="7"/>
+        <f>(B115-B114)</f>
         <v>290</v>
       </c>
       <c r="G115" s="27">
@@ -19081,12 +19907,11 @@
         <v>105339</v>
       </c>
       <c r="H115" s="6">
-        <f t="shared" si="4"/>
+        <f>F115/G115*1000</f>
         <v>2.7530164516465887</v>
       </c>
-      <c r="I115" s="61"/>
-    </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="116" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A116" s="12">
         <v>45772</v>
       </c>
@@ -19097,15 +19922,15 @@
         <v>34126</v>
       </c>
       <c r="D116" s="54">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>-34</v>
       </c>
       <c r="E116" s="54">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>337</v>
       </c>
       <c r="F116" s="5">
-        <f t="shared" si="7"/>
+        <f>(B116-B115)</f>
         <v>303</v>
       </c>
       <c r="G116" s="27">
@@ -19113,12 +19938,11 @@
         <v>104000</v>
       </c>
       <c r="H116" s="6">
-        <f t="shared" si="4"/>
+        <f>F116/G116*1000</f>
         <v>2.9134615384615383</v>
       </c>
-      <c r="I116" s="61"/>
-    </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="117" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A117" s="12">
         <v>45773</v>
       </c>
@@ -19129,15 +19953,15 @@
         <v>34385</v>
       </c>
       <c r="D117" s="54">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>25.80000000000291</v>
       </c>
       <c r="E117" s="54">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>259</v>
       </c>
       <c r="F117" s="5">
-        <f t="shared" si="7"/>
+        <f>(B117-B116)</f>
         <v>284.80000000000291</v>
       </c>
       <c r="G117" s="27">
@@ -19145,12 +19969,11 @@
         <v>104023</v>
       </c>
       <c r="H117" s="6">
-        <f t="shared" si="4"/>
+        <f>F117/G117*1000</f>
         <v>2.7378560510656578</v>
       </c>
-      <c r="I117" s="61"/>
-    </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="118" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A118" s="12">
         <v>45774</v>
       </c>
@@ -19161,15 +19984,15 @@
         <v>34499</v>
       </c>
       <c r="D118" s="54">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>14.900000000001455</v>
       </c>
       <c r="E118" s="54">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>114</v>
       </c>
       <c r="F118" s="5">
-        <f t="shared" si="7"/>
+        <f>(B118-B117)</f>
         <v>128.90000000000146</v>
       </c>
       <c r="G118" s="27">
@@ -19177,12 +20000,11 @@
         <v>40540</v>
       </c>
       <c r="H118" s="6">
-        <f t="shared" si="4"/>
+        <f>F118/G118*1000</f>
         <v>3.1795757276764047</v>
       </c>
-      <c r="I118" s="61"/>
-    </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="119" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A119" s="12">
         <v>45775</v>
       </c>
@@ -19193,15 +20015,15 @@
         <v>34606</v>
       </c>
       <c r="D119" s="54">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>13</v>
       </c>
       <c r="E119" s="54">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>107</v>
       </c>
       <c r="F119" s="5">
-        <f t="shared" si="7"/>
+        <f>(B119-B118)</f>
         <v>120</v>
       </c>
       <c r="G119" s="27">
@@ -19209,12 +20031,11 @@
         <v>39795</v>
       </c>
       <c r="H119" s="6">
-        <f t="shared" si="4"/>
+        <f>F119/G119*1000</f>
         <v>3.0154542027892952</v>
       </c>
-      <c r="I119" s="61"/>
-    </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="120" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A120" s="12">
         <v>45776</v>
       </c>
@@ -19225,15 +20046,15 @@
         <v>34771</v>
       </c>
       <c r="D120" s="54">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>17.899999999994179</v>
       </c>
       <c r="E120" s="54">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>165</v>
       </c>
       <c r="F120" s="5">
-        <f t="shared" si="7"/>
+        <f>(B120-B119)</f>
         <v>182.89999999999418</v>
       </c>
       <c r="G120" s="27">
@@ -19241,29 +20062,30 @@
         <v>66260</v>
       </c>
       <c r="H120" s="6">
-        <f t="shared" si="4"/>
+        <f>F120/G120*1000</f>
         <v>2.7603380621792062</v>
       </c>
-      <c r="I120" s="61"/>
-    </row>
-    <row r="121" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="121" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A121" s="12">
         <v>45777</v>
       </c>
       <c r="B121" s="7">
         <v>39196.400000000001</v>
       </c>
-      <c r="C121" s="37"/>
-      <c r="D121" s="54">
-        <f t="shared" si="6"/>
-        <v>34940.200000000004</v>
+      <c r="C121" s="37">
+        <v>34928</v>
+      </c>
+      <c r="D121" s="55">
+        <f t="shared" si="1"/>
+        <v>12.200000000004366</v>
       </c>
       <c r="E121" s="55">
-        <f t="shared" si="2"/>
-        <v>-34771</v>
+        <f t="shared" si="0"/>
+        <v>157</v>
       </c>
       <c r="F121" s="37">
-        <f t="shared" si="7"/>
+        <f>(B121-B120)</f>
         <v>169.20000000000437</v>
       </c>
       <c r="G121" s="9">
@@ -19271,12 +20093,11 @@
         <v>57523</v>
       </c>
       <c r="H121" s="38">
-        <f t="shared" si="4"/>
+        <f>F121/G121*1000</f>
         <v>2.9414321228031288</v>
       </c>
-      <c r="I121" s="62"/>
-    </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="122" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A122" s="12">
         <v>45778</v>
       </c>
@@ -19286,16 +20107,16 @@
       <c r="C122" s="10">
         <v>35121</v>
       </c>
-      <c r="D122" s="54">
-        <f t="shared" si="6"/>
-        <v>-34901.800000000003</v>
+      <c r="D122" s="59">
+        <f t="shared" si="1"/>
+        <v>26.19999999999709</v>
       </c>
       <c r="E122" s="59">
-        <f t="shared" si="2"/>
-        <v>35121</v>
+        <f t="shared" si="0"/>
+        <v>193</v>
       </c>
       <c r="F122" s="10">
-        <f t="shared" si="7"/>
+        <f>(B122-B121)</f>
         <v>219.19999999999709</v>
       </c>
       <c r="G122" s="28">
@@ -19303,32 +20124,30 @@
         <v>73421</v>
       </c>
       <c r="H122" s="44">
-        <f t="shared" si="4"/>
+        <f>F122/G122*1000</f>
         <v>2.9855218534206438</v>
       </c>
-      <c r="I122" s="60">
-        <f>+SUMIF(F122:F134,"&gt;0")</f>
-        <v>3103.0999999999985</v>
-      </c>
-    </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="123" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A123" s="12">
         <v>45779</v>
       </c>
       <c r="B123" s="45">
         <v>39633.4</v>
       </c>
-      <c r="C123" s="5"/>
+      <c r="C123" s="5">
+        <v>35316</v>
+      </c>
       <c r="D123" s="54">
-        <f t="shared" si="6"/>
-        <v>35338.800000000003</v>
+        <f t="shared" si="1"/>
+        <v>22.80000000000291</v>
       </c>
       <c r="E123" s="54">
-        <f t="shared" si="2"/>
-        <v>-35121</v>
+        <f t="shared" si="0"/>
+        <v>195</v>
       </c>
       <c r="F123" s="5">
-        <f t="shared" si="7"/>
+        <f>(B123-B122)</f>
         <v>217.80000000000291</v>
       </c>
       <c r="G123" s="27">
@@ -19336,12 +20155,11 @@
         <v>79045</v>
       </c>
       <c r="H123" s="6">
-        <f t="shared" si="4"/>
+        <f>F123/G123*1000</f>
         <v>2.7553924979442459</v>
       </c>
-      <c r="I123" s="63"/>
-    </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="124" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A124" s="12">
         <v>45780</v>
       </c>
@@ -19352,15 +20170,15 @@
         <v>35515</v>
       </c>
       <c r="D124" s="54">
-        <f t="shared" si="6"/>
-        <v>-35297.200000000004</v>
+        <f t="shared" si="1"/>
+        <v>18.799999999995634</v>
       </c>
       <c r="E124" s="54">
-        <f t="shared" si="2"/>
-        <v>35515</v>
+        <f t="shared" si="0"/>
+        <v>199</v>
       </c>
       <c r="F124" s="5">
-        <f t="shared" si="7"/>
+        <f>(B124-B123)</f>
         <v>217.79999999999563</v>
       </c>
       <c r="G124" s="27">
@@ -19368,12 +20186,11 @@
         <v>76130</v>
       </c>
       <c r="H124" s="6">
-        <f t="shared" si="4"/>
+        <f>F124/G124*1000</f>
         <v>2.8608958360698233</v>
       </c>
-      <c r="I124" s="63"/>
-    </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="125" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A125" s="12">
         <v>45781</v>
       </c>
@@ -19384,15 +20201,15 @@
         <v>35711</v>
       </c>
       <c r="D125" s="54">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>22.100000000005821</v>
       </c>
       <c r="E125" s="54">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>196</v>
       </c>
       <c r="F125" s="5">
-        <f t="shared" si="7"/>
+        <f>(B125-B124)</f>
         <v>218.10000000000582</v>
       </c>
       <c r="G125" s="27">
@@ -19400,12 +20217,11 @@
         <v>76560</v>
       </c>
       <c r="H125" s="6">
-        <f t="shared" si="4"/>
+        <f>F125/G125*1000</f>
         <v>2.8487460815047783</v>
       </c>
-      <c r="I125" s="63"/>
-    </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="126" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A126" s="12">
         <v>45782</v>
       </c>
@@ -19416,15 +20232,15 @@
         <v>35973</v>
       </c>
       <c r="D126" s="54">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>28</v>
       </c>
       <c r="E126" s="54">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>262</v>
       </c>
       <c r="F126" s="5">
-        <f t="shared" si="7"/>
+        <f>(B126-B125)</f>
         <v>290</v>
       </c>
       <c r="G126" s="27">
@@ -19432,12 +20248,11 @@
         <v>99121</v>
       </c>
       <c r="H126" s="6">
-        <f t="shared" si="4"/>
+        <f>F126/G126*1000</f>
         <v>2.9257170528949468</v>
       </c>
-      <c r="I126" s="63"/>
-    </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="127" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A127" s="12">
         <v>45783</v>
       </c>
@@ -19448,15 +20263,15 @@
         <v>36244</v>
       </c>
       <c r="D127" s="54">
-        <f t="shared" si="6"/>
+        <f>F127-E127</f>
         <v>-13.30000000000291</v>
       </c>
       <c r="E127" s="54">
-        <f t="shared" ref="E127:E134" si="8">C127-C126</f>
+        <f>C127-C126</f>
         <v>271</v>
       </c>
       <c r="F127" s="5">
-        <f t="shared" si="7"/>
+        <f>(B127-B126)</f>
         <v>257.69999999999709</v>
       </c>
       <c r="G127" s="27">
@@ -19464,12 +20279,11 @@
         <v>105565</v>
       </c>
       <c r="H127" s="6">
-        <f t="shared" si="4"/>
+        <f>F127/G127*1000</f>
         <v>2.4411500023681816</v>
       </c>
-      <c r="I127" s="63"/>
-    </row>
-    <row r="128" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="128" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A128" s="12">
         <v>45784</v>
       </c>
@@ -19480,15 +20294,15 @@
         <v>36510</v>
       </c>
       <c r="D128" s="54">
-        <f t="shared" si="6"/>
+        <f>F128-E128</f>
         <v>70.69999999999709</v>
       </c>
       <c r="E128" s="54">
-        <f t="shared" si="8"/>
+        <f t="shared" ref="E128:E142" si="2">C128-C127</f>
         <v>266</v>
       </c>
       <c r="F128" s="5">
-        <f t="shared" si="7"/>
+        <f>(B128-B127)</f>
         <v>336.69999999999709</v>
       </c>
       <c r="G128" s="27">
@@ -19496,12 +20310,11 @@
         <v>104085</v>
       </c>
       <c r="H128" s="6">
-        <f t="shared" si="4"/>
+        <f>F128/G128*1000</f>
         <v>3.2348561272036997</v>
       </c>
-      <c r="I128" s="63"/>
-    </row>
-    <row r="129" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="129" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A129" s="12">
         <v>45785</v>
       </c>
@@ -19512,15 +20325,15 @@
         <v>36739</v>
       </c>
       <c r="D129" s="54">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>23</v>
       </c>
       <c r="E129" s="54">
-        <f t="shared" si="8"/>
+        <f t="shared" si="2"/>
         <v>229</v>
       </c>
       <c r="F129" s="5">
-        <f t="shared" si="7"/>
+        <f>(B129-B128)</f>
         <v>252</v>
       </c>
       <c r="G129" s="27">
@@ -19528,12 +20341,11 @@
         <v>89998</v>
       </c>
       <c r="H129" s="6">
-        <f t="shared" si="4"/>
+        <f>F129/G129*1000</f>
         <v>2.8000622236049693</v>
       </c>
-      <c r="I129" s="63"/>
-    </row>
-    <row r="130" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="130" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A130" s="12">
         <v>45786</v>
       </c>
@@ -19544,15 +20356,15 @@
         <v>36939</v>
       </c>
       <c r="D130" s="54">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>19.100000000005821</v>
       </c>
       <c r="E130" s="54">
-        <f t="shared" si="8"/>
+        <f t="shared" si="2"/>
         <v>200</v>
       </c>
       <c r="F130" s="5">
-        <f t="shared" si="7"/>
+        <f>(B130-B129)</f>
         <v>219.10000000000582</v>
       </c>
       <c r="G130" s="27">
@@ -19560,12 +20372,11 @@
         <v>75959</v>
       </c>
       <c r="H130" s="6">
-        <f t="shared" si="4"/>
+        <f>F130/G130*1000</f>
         <v>2.8844508221541334</v>
       </c>
-      <c r="I130" s="63"/>
-    </row>
-    <row r="131" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="131" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A131" s="12">
         <v>45787</v>
       </c>
@@ -19576,15 +20387,15 @@
         <v>37138</v>
       </c>
       <c r="D131" s="54">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>21.099999999998545</v>
       </c>
       <c r="E131" s="54">
-        <f t="shared" si="8"/>
+        <f t="shared" si="2"/>
         <v>199</v>
       </c>
       <c r="F131" s="5">
-        <f t="shared" si="7"/>
+        <f>(B131-B130)</f>
         <v>220.09999999999854</v>
       </c>
       <c r="G131" s="27">
@@ -19592,12 +20403,11 @@
         <v>75666</v>
       </c>
       <c r="H131" s="6">
-        <f t="shared" si="4"/>
+        <f>F131/G131*1000</f>
         <v>2.9088362011999913</v>
       </c>
-      <c r="I131" s="63"/>
-    </row>
-    <row r="132" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="132" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A132" s="12">
         <v>45788</v>
       </c>
@@ -19608,15 +20418,15 @@
         <v>37341</v>
       </c>
       <c r="D132" s="54">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>20.69999999999709</v>
       </c>
       <c r="E132" s="54">
-        <f t="shared" si="8"/>
+        <f t="shared" si="2"/>
         <v>203</v>
       </c>
       <c r="F132" s="5">
-        <f t="shared" si="7"/>
+        <f>(B132-B131)</f>
         <v>223.69999999999709</v>
       </c>
       <c r="G132" s="27">
@@ -19624,12 +20434,11 @@
         <v>75734</v>
       </c>
       <c r="H132" s="6">
-        <f t="shared" si="4"/>
+        <f>F132/G132*1000</f>
         <v>2.9537592098660719</v>
       </c>
-      <c r="I132" s="63"/>
-    </row>
-    <row r="133" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="133" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A133" s="12">
         <v>45789</v>
       </c>
@@ -19640,15 +20449,15 @@
         <v>37535</v>
       </c>
       <c r="D133" s="54">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>20.30000000000291</v>
       </c>
       <c r="E133" s="54">
-        <f t="shared" si="8"/>
+        <f t="shared" si="2"/>
         <v>194</v>
       </c>
       <c r="F133" s="5">
-        <f t="shared" si="7"/>
+        <f>(B133-B132)</f>
         <v>214.30000000000291</v>
       </c>
       <c r="G133" s="27">
@@ -19656,12 +20465,11 @@
         <v>75076</v>
       </c>
       <c r="H133" s="6">
-        <f t="shared" ref="H133:H134" si="9">F133/G133*1000</f>
+        <f>F133/G133*1000</f>
         <v>2.8544408332889728</v>
       </c>
-      <c r="I133" s="63"/>
-    </row>
-    <row r="134" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="134" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A134" s="12">
         <v>45790</v>
       </c>
@@ -19672,15 +20480,15 @@
         <v>37731</v>
       </c>
       <c r="D134" s="54">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>20.599999999998545</v>
       </c>
       <c r="E134" s="54">
-        <f t="shared" si="8"/>
+        <f t="shared" si="2"/>
         <v>196</v>
       </c>
       <c r="F134" s="5">
-        <f t="shared" si="7"/>
+        <f>(B134-B133)</f>
         <v>216.59999999999854</v>
       </c>
       <c r="G134" s="27">
@@ -19688,26 +20496,269 @@
         <v>73979</v>
       </c>
       <c r="H134" s="6">
-        <f t="shared" si="9"/>
+        <f>F134/G134*1000</f>
         <v>2.9278579056218459</v>
       </c>
-      <c r="I134" s="63"/>
+    </row>
+    <row r="135" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A135" s="12">
+        <v>45791</v>
+      </c>
+      <c r="B135" s="4">
+        <v>42547.7</v>
+      </c>
+      <c r="C135" s="5">
+        <v>37956</v>
+      </c>
+      <c r="D135" s="54">
+        <f t="shared" si="1"/>
+        <v>23.19999999999709</v>
+      </c>
+      <c r="E135" s="54">
+        <f t="shared" si="2"/>
+        <v>225</v>
+      </c>
+      <c r="F135" s="5">
+        <f>(B135-B134)</f>
+        <v>248.19999999999709</v>
+      </c>
+      <c r="G135" s="27">
+        <f>[2]Sheet1!U139</f>
+        <v>84898</v>
+      </c>
+      <c r="H135" s="6">
+        <f>F135/G135*1000</f>
+        <v>2.9235082098517879</v>
+      </c>
+    </row>
+    <row r="136" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A136" s="12">
+        <v>45792</v>
+      </c>
+      <c r="B136" s="4">
+        <v>42775.5</v>
+      </c>
+      <c r="C136" s="5">
+        <v>38163</v>
+      </c>
+      <c r="D136" s="54">
+        <f t="shared" si="1"/>
+        <v>20.80000000000291</v>
+      </c>
+      <c r="E136" s="54">
+        <f t="shared" si="2"/>
+        <v>207</v>
+      </c>
+      <c r="F136" s="5">
+        <f>(B136-B135)</f>
+        <v>227.80000000000291</v>
+      </c>
+      <c r="G136" s="27">
+        <f>[2]Sheet1!U140</f>
+        <v>79880</v>
+      </c>
+      <c r="H136" s="6">
+        <f>F136/G136*1000</f>
+        <v>2.8517776664997863</v>
+      </c>
+    </row>
+    <row r="137" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A137" s="12">
+        <v>45793</v>
+      </c>
+      <c r="B137" s="4">
+        <v>43007.199999999997</v>
+      </c>
+      <c r="C137" s="5">
+        <v>38373</v>
+      </c>
+      <c r="D137" s="54">
+        <f t="shared" si="1"/>
+        <v>21.69999999999709</v>
+      </c>
+      <c r="E137" s="54">
+        <f t="shared" si="2"/>
+        <v>210</v>
+      </c>
+      <c r="F137" s="5">
+        <f>(B137-B136)</f>
+        <v>231.69999999999709</v>
+      </c>
+      <c r="G137" s="27">
+        <f>[2]Sheet1!U141</f>
+        <v>79544</v>
+      </c>
+      <c r="H137" s="6">
+        <f>F137/G137*1000</f>
+        <v>2.9128532636024977</v>
+      </c>
+    </row>
+    <row r="138" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A138" s="12">
+        <v>45794</v>
+      </c>
+      <c r="B138" s="4">
+        <v>43185.7</v>
+      </c>
+      <c r="C138" s="5">
+        <v>38510</v>
+      </c>
+      <c r="D138" s="54">
+        <f t="shared" si="1"/>
+        <v>41.5</v>
+      </c>
+      <c r="E138" s="54">
+        <f t="shared" si="2"/>
+        <v>137</v>
+      </c>
+      <c r="F138" s="5">
+        <f>(B138-B137)</f>
+        <v>178.5</v>
+      </c>
+      <c r="G138" s="27">
+        <f>[2]Sheet1!U142</f>
+        <v>61208</v>
+      </c>
+      <c r="H138" s="6">
+        <f>F138/G138*1000</f>
+        <v>2.9162854528819762</v>
+      </c>
+    </row>
+    <row r="139" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A139" s="12">
+        <v>45795</v>
+      </c>
+      <c r="B139" s="4">
+        <v>43373.3</v>
+      </c>
+      <c r="C139" s="5">
+        <v>38685</v>
+      </c>
+      <c r="D139" s="54">
+        <f t="shared" si="1"/>
+        <v>12.600000000005821</v>
+      </c>
+      <c r="E139" s="54">
+        <f t="shared" si="2"/>
+        <v>175</v>
+      </c>
+      <c r="F139" s="5">
+        <f>(B139-B138)</f>
+        <v>187.60000000000582</v>
+      </c>
+      <c r="G139" s="27">
+        <f>[2]Sheet1!U143</f>
+        <v>62599</v>
+      </c>
+      <c r="H139" s="6">
+        <f>F139/G139*1000</f>
+        <v>2.996852984872056</v>
+      </c>
+    </row>
+    <row r="140" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A140" s="12">
+        <v>45796</v>
+      </c>
+      <c r="B140" s="4">
+        <v>43589.3</v>
+      </c>
+      <c r="C140" s="5">
+        <v>38874</v>
+      </c>
+      <c r="D140" s="54">
+        <f t="shared" si="1"/>
+        <v>27</v>
+      </c>
+      <c r="E140" s="54">
+        <f t="shared" si="2"/>
+        <v>189</v>
+      </c>
+      <c r="F140" s="5">
+        <f>(B140-B139)</f>
+        <v>216</v>
+      </c>
+      <c r="G140" s="27">
+        <f>[2]Sheet1!U144</f>
+        <v>74460</v>
+      </c>
+      <c r="H140" s="6">
+        <f>F140/G140*1000</f>
+        <v>2.9008863819500403</v>
+      </c>
+    </row>
+    <row r="141" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A141" s="12">
+        <v>45797</v>
+      </c>
+      <c r="B141" s="4">
+        <v>43883.5</v>
+      </c>
+      <c r="C141" s="5">
+        <v>39140</v>
+      </c>
+      <c r="D141" s="54">
+        <f>F141-E141</f>
+        <v>28.19999999999709</v>
+      </c>
+      <c r="E141" s="54">
+        <f t="shared" si="2"/>
+        <v>266</v>
+      </c>
+      <c r="F141" s="5">
+        <f>(B141-B140)</f>
+        <v>294.19999999999709</v>
+      </c>
+      <c r="G141" s="27">
+        <f>[2]Sheet1!U145</f>
+        <v>98510</v>
+      </c>
+      <c r="H141" s="6">
+        <f>F141/G141*1000</f>
+        <v>2.9864988326057973</v>
+      </c>
+    </row>
+    <row r="142" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A142" s="12">
+        <v>45798</v>
+      </c>
+      <c r="B142" s="4">
+        <v>44161.599999999999</v>
+      </c>
+      <c r="C142" s="5">
+        <v>39391</v>
+      </c>
+      <c r="D142" s="54">
+        <f t="shared" si="1"/>
+        <v>27.099999999998545</v>
+      </c>
+      <c r="E142" s="54">
+        <f t="shared" si="2"/>
+        <v>251</v>
+      </c>
+      <c r="F142" s="5">
+        <f>(B142-B141)</f>
+        <v>278.09999999999854</v>
+      </c>
+      <c r="G142" s="27">
+        <f>[2]Sheet1!U146</f>
+        <v>97852</v>
+      </c>
+      <c r="H142" s="6">
+        <f>F142/G142*1000</f>
+        <v>2.8420471732820847</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="I92:I121"/>
-    <mergeCell ref="I122:I134"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38810916-2DF0-490C-B584-F0F3D6EAB44D}">
-  <dimension ref="A1:K134"/>
+  <dimension ref="A1:K142"/>
   <sheetViews>
-    <sheetView topLeftCell="A83" workbookViewId="0">
-      <selection activeCell="A135" sqref="A135:XFD136"/>
+    <sheetView topLeftCell="A107" workbookViewId="0">
+      <selection activeCell="A143" sqref="A143:XFD145"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -24765,7 +25816,7 @@
         <v>361.49999999999949</v>
       </c>
     </row>
-    <row r="134" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A134" s="3">
         <f>'[1]NaOCl Pré'!B135</f>
         <v>45790</v>
@@ -24801,6 +25852,310 @@
       <c r="I134" s="4">
         <f>[1]ASC!D135</f>
         <v>331.50000000000011</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A135" s="3">
+        <f>'[1]NaOCl Pré'!B136</f>
+        <v>45791</v>
+      </c>
+      <c r="B135" s="23">
+        <f>'[1]NaOCl Pré'!D136</f>
+        <v>243.20000000000164</v>
+      </c>
+      <c r="C135" s="4">
+        <f>[1]Acide!D136</f>
+        <v>0</v>
+      </c>
+      <c r="D135" s="4">
+        <f>[1]FeCl3!D136</f>
+        <v>0</v>
+      </c>
+      <c r="E135" s="4">
+        <f>'[1]NaOCl 2 CEB 1'!H136</f>
+        <v>403.2</v>
+      </c>
+      <c r="F135" s="4">
+        <f>'[1]Soude CEB 1'!D136</f>
+        <v>0</v>
+      </c>
+      <c r="G135" s="4">
+        <f>'[1]Acide CEB2'!D136</f>
+        <v>124.79999999999869</v>
+      </c>
+      <c r="H135" s="4">
+        <f>[1]SBS!E136</f>
+        <v>588.79999999999905</v>
+      </c>
+      <c r="I135" s="4">
+        <f>[1]ASC!D136</f>
+        <v>341.99999999999966</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A136" s="3">
+        <f>'[1]NaOCl Pré'!B137</f>
+        <v>45792</v>
+      </c>
+      <c r="B136" s="23">
+        <f>'[1]NaOCl Pré'!D137</f>
+        <v>240</v>
+      </c>
+      <c r="C136" s="4">
+        <f>[1]Acide!D137</f>
+        <v>0</v>
+      </c>
+      <c r="D136" s="4">
+        <f>[1]FeCl3!D137</f>
+        <v>0</v>
+      </c>
+      <c r="E136" s="4">
+        <f>'[1]NaOCl 2 CEB 1'!H137</f>
+        <v>325</v>
+      </c>
+      <c r="F136" s="4">
+        <f>'[1]Soude CEB 1'!D137</f>
+        <v>0</v>
+      </c>
+      <c r="G136" s="4">
+        <f>'[1]Acide CEB2'!D137</f>
+        <v>54.400000000001114</v>
+      </c>
+      <c r="H136" s="4">
+        <f>[1]SBS!E137</f>
+        <v>198.39999999999947</v>
+      </c>
+      <c r="I136" s="4">
+        <f>[1]ASC!D137</f>
+        <v>344.99999999999977</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A137" s="3">
+        <f>'[1]NaOCl Pré'!B138</f>
+        <v>45793</v>
+      </c>
+      <c r="B137" s="23">
+        <f>'[1]NaOCl Pré'!D138</f>
+        <v>166.39999999999944</v>
+      </c>
+      <c r="C137" s="4">
+        <f>[1]Acide!D138</f>
+        <v>0</v>
+      </c>
+      <c r="D137" s="4">
+        <f>[1]FeCl3!D138</f>
+        <v>0</v>
+      </c>
+      <c r="E137" s="4">
+        <f>'[1]NaOCl 2 CEB 1'!H138</f>
+        <v>611.2000000000038</v>
+      </c>
+      <c r="F137" s="4">
+        <f>'[1]Soude CEB 1'!D138</f>
+        <v>0</v>
+      </c>
+      <c r="G137" s="4">
+        <f>'[1]Acide CEB2'!D138</f>
+        <v>272.00000000000023</v>
+      </c>
+      <c r="H137" s="4">
+        <f>[1]SBS!E138</f>
+        <v>447.79999999999995</v>
+      </c>
+      <c r="I137" s="4">
+        <f>[1]ASC!D138</f>
+        <v>340.5</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A138" s="3">
+        <f>'[1]NaOCl Pré'!B139</f>
+        <v>45794</v>
+      </c>
+      <c r="B138" s="23">
+        <f>'[1]NaOCl Pré'!D139</f>
+        <v>134.39999999999941</v>
+      </c>
+      <c r="C138" s="4">
+        <f>[1]Acide!D139</f>
+        <v>0</v>
+      </c>
+      <c r="D138" s="4">
+        <f>[1]FeCl3!D139</f>
+        <v>0</v>
+      </c>
+      <c r="E138" s="4">
+        <f>'[1]NaOCl 2 CEB 1'!H139</f>
+        <v>444.80000000000075</v>
+      </c>
+      <c r="F138" s="4">
+        <f>'[1]Soude CEB 1'!D139</f>
+        <v>0</v>
+      </c>
+      <c r="G138" s="4">
+        <f>'[1]Acide CEB2'!D139</f>
+        <v>60.800000000000409</v>
+      </c>
+      <c r="H138" s="4">
+        <f>[1]SBS!E139</f>
+        <v>105.59999999999903</v>
+      </c>
+      <c r="I138" s="4">
+        <f>[1]ASC!D139</f>
+        <v>61.499999999998778</v>
+      </c>
+    </row>
+    <row r="139" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A139" s="3">
+        <f>'[1]NaOCl Pré'!B140</f>
+        <v>45795</v>
+      </c>
+      <c r="B139" s="23">
+        <f>'[1]NaOCl Pré'!D140</f>
+        <v>201.59999999999911</v>
+      </c>
+      <c r="C139" s="4">
+        <f>[1]Acide!D140</f>
+        <v>0</v>
+      </c>
+      <c r="D139" s="4">
+        <f>[1]FeCl3!D140</f>
+        <v>0</v>
+      </c>
+      <c r="E139" s="4">
+        <f>'[1]NaOCl 2 CEB 1'!H140</f>
+        <v>486.39999999999617</v>
+      </c>
+      <c r="F139" s="4">
+        <f>'[1]Soude CEB 1'!D140</f>
+        <v>0</v>
+      </c>
+      <c r="G139" s="4">
+        <f>'[1]Acide CEB2'!D140</f>
+        <v>9.5999999999989427</v>
+      </c>
+      <c r="H139" s="4">
+        <f>[1]SBS!E140</f>
+        <v>460.79999999999899</v>
+      </c>
+      <c r="I139" s="4">
+        <f>[1]ASC!D140</f>
+        <v>640.50000000000114</v>
+      </c>
+    </row>
+    <row r="140" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A140" s="3">
+        <f>'[1]NaOCl Pré'!B141</f>
+        <v>45796</v>
+      </c>
+      <c r="B140" s="23">
+        <f>'[1]NaOCl Pré'!D141</f>
+        <v>207.99999999999841</v>
+      </c>
+      <c r="C140" s="4">
+        <f>[1]Acide!D141</f>
+        <v>0</v>
+      </c>
+      <c r="D140" s="4">
+        <f>[1]FeCl3!D141</f>
+        <v>0</v>
+      </c>
+      <c r="E140" s="4">
+        <f>'[1]NaOCl 2 CEB 1'!H141</f>
+        <v>438.40000000000146</v>
+      </c>
+      <c r="F140" s="4">
+        <f>'[1]Soude CEB 1'!D141</f>
+        <v>0</v>
+      </c>
+      <c r="G140" s="4">
+        <f>'[1]Acide CEB2'!D141</f>
+        <v>12.800000000000367</v>
+      </c>
+      <c r="H140" s="4">
+        <f>[1]SBS!E141</f>
+        <v>640.00000000000057</v>
+      </c>
+      <c r="I140" s="4">
+        <f>[1]ASC!D141</f>
+        <v>212.9999999999992</v>
+      </c>
+    </row>
+    <row r="141" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A141" s="3">
+        <f>'[1]NaOCl Pré'!B142</f>
+        <v>45797</v>
+      </c>
+      <c r="B141" s="23">
+        <f>'[1]NaOCl Pré'!D142</f>
+        <v>201.60000000000267</v>
+      </c>
+      <c r="C141" s="4">
+        <f>[1]Acide!D142</f>
+        <v>0</v>
+      </c>
+      <c r="D141" s="4">
+        <f>[1]FeCl3!D142</f>
+        <v>0</v>
+      </c>
+      <c r="E141" s="4">
+        <f>'[1]NaOCl 2 CEB 1'!H142</f>
+        <v>646.40000000000168</v>
+      </c>
+      <c r="F141" s="4">
+        <f>'[1]Soude CEB 1'!D142</f>
+        <v>0</v>
+      </c>
+      <c r="G141" s="4">
+        <f>'[1]Acide CEB2'!D142</f>
+        <v>48.000000000000043</v>
+      </c>
+      <c r="H141" s="4">
+        <f>[1]SBS!E142</f>
+        <v>643.20000000000027</v>
+      </c>
+      <c r="I141" s="4">
+        <f>[1]ASC!D142</f>
+        <v>222.00000000000043</v>
+      </c>
+    </row>
+    <row r="142" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A142" s="3">
+        <f>'[1]NaOCl Pré'!B143</f>
+        <v>45798</v>
+      </c>
+      <c r="B142" s="23">
+        <f>'[1]NaOCl Pré'!D143</f>
+        <v>198.39999999999947</v>
+      </c>
+      <c r="C142" s="4">
+        <f>[1]Acide!D143</f>
+        <v>0</v>
+      </c>
+      <c r="D142" s="4">
+        <f>[1]FeCl3!D143</f>
+        <v>0</v>
+      </c>
+      <c r="E142" s="4">
+        <f>'[1]NaOCl 2 CEB 1'!H143</f>
+        <v>636.79999999999745</v>
+      </c>
+      <c r="F142" s="4">
+        <f>'[1]Soude CEB 1'!D143</f>
+        <v>0</v>
+      </c>
+      <c r="G142" s="4">
+        <f>'[1]Acide CEB2'!D143</f>
+        <v>112.0000000000001</v>
+      </c>
+      <c r="H142" s="4">
+        <f>[1]SBS!E143</f>
+        <v>771.20000000000027</v>
+      </c>
+      <c r="I142" s="4">
+        <f>[1]ASC!D143</f>
+        <v>226.49999999999972</v>
       </c>
     </row>
   </sheetData>

--- a/Consommation spécifique.xlsx
+++ b/Consommation spécifique.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\Projects\wave2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{68AE1ABF-F048-49F2-9335-688D457CC41E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C296D0DE-87EB-43AD-BC44-B4FDD2944E25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="30612" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{4E830341-EBCA-4A95-9BBE-9CDD49815F8C}"/>
   </bookViews>
@@ -171,7 +171,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="38">
+  <borders count="40">
     <border>
       <left/>
       <right/>
@@ -642,6 +642,30 @@
       <left style="medium">
         <color indexed="64"/>
       </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
       <right style="thin">
         <color indexed="64"/>
       </right>
@@ -668,7 +692,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -817,13 +841,13 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -845,6 +869,18 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2438,6 +2474,83 @@
             <v>2.0275518129419887</v>
           </cell>
         </row>
+        <row r="144">
+          <cell r="B144">
+            <v>45799</v>
+          </cell>
+          <cell r="D144">
+            <v>204.79999999999876</v>
+          </cell>
+          <cell r="F144">
+            <v>2.2613093069219334</v>
+          </cell>
+        </row>
+        <row r="145">
+          <cell r="B145">
+            <v>45800</v>
+          </cell>
+          <cell r="D145">
+            <v>201.60000000000267</v>
+          </cell>
+          <cell r="F145">
+            <v>2.01237772010384</v>
+          </cell>
+        </row>
+        <row r="146">
+          <cell r="B146">
+            <v>45801</v>
+          </cell>
+          <cell r="D146">
+            <v>207.99999999999841</v>
+          </cell>
+          <cell r="F146">
+            <v>1.965156267714735</v>
+          </cell>
+        </row>
+        <row r="147">
+          <cell r="B147">
+            <v>45802</v>
+          </cell>
+          <cell r="D147">
+            <v>198.39999999999947</v>
+          </cell>
+          <cell r="F147">
+            <v>1.896296296296291</v>
+          </cell>
+        </row>
+        <row r="148">
+          <cell r="B148">
+            <v>45803</v>
+          </cell>
+          <cell r="D148">
+            <v>208.00000000000196</v>
+          </cell>
+          <cell r="F148">
+            <v>2.0106331561140838</v>
+          </cell>
+        </row>
+        <row r="149">
+          <cell r="B149">
+            <v>45804</v>
+          </cell>
+          <cell r="D149">
+            <v>134.39999999999941</v>
+          </cell>
+          <cell r="F149">
+            <v>1.4046969554447624</v>
+          </cell>
+        </row>
+        <row r="150">
+          <cell r="B150">
+            <v>45805</v>
+          </cell>
+          <cell r="D150">
+            <v>147.19999999999999</v>
+          </cell>
+          <cell r="F150">
+            <v>1.405773987451175</v>
+          </cell>
+        </row>
       </sheetData>
       <sheetData sheetId="3">
         <row r="3">
@@ -3568,6 +3681,62 @@
             <v>0</v>
           </cell>
         </row>
+        <row r="144">
+          <cell r="D144">
+            <v>0</v>
+          </cell>
+          <cell r="F144">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="145">
+          <cell r="D145">
+            <v>0</v>
+          </cell>
+          <cell r="F145">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="146">
+          <cell r="D146">
+            <v>0</v>
+          </cell>
+          <cell r="F146">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="147">
+          <cell r="D147">
+            <v>0</v>
+          </cell>
+          <cell r="F147">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="148">
+          <cell r="D148">
+            <v>0</v>
+          </cell>
+          <cell r="F148">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="149">
+          <cell r="D149">
+            <v>0</v>
+          </cell>
+          <cell r="F149">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="150">
+          <cell r="D150">
+            <v>0</v>
+          </cell>
+          <cell r="F150">
+            <v>0</v>
+          </cell>
+        </row>
       </sheetData>
       <sheetData sheetId="4">
         <row r="3">
@@ -4695,6 +4864,62 @@
             <v>0</v>
           </cell>
           <cell r="F143">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="144">
+          <cell r="D144">
+            <v>0</v>
+          </cell>
+          <cell r="F144">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="145">
+          <cell r="D145">
+            <v>0</v>
+          </cell>
+          <cell r="F145">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="146">
+          <cell r="D146">
+            <v>0</v>
+          </cell>
+          <cell r="F146">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="147">
+          <cell r="D147">
+            <v>0</v>
+          </cell>
+          <cell r="F147">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="148">
+          <cell r="D148">
+            <v>0</v>
+          </cell>
+          <cell r="F148">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="149">
+          <cell r="D149">
+            <v>0</v>
+          </cell>
+          <cell r="F149">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="150">
+          <cell r="D150">
+            <v>0</v>
+          </cell>
+          <cell r="F150">
             <v>0</v>
           </cell>
         </row>
@@ -5829,6 +6054,62 @@
             <v>6.5077872705718587</v>
           </cell>
         </row>
+        <row r="144">
+          <cell r="H144">
+            <v>528.00000000000045</v>
+          </cell>
+          <cell r="I144">
+            <v>5.8299380569081505</v>
+          </cell>
+        </row>
+        <row r="145">
+          <cell r="H145">
+            <v>508.80000000000081</v>
+          </cell>
+          <cell r="I145">
+            <v>5.078858055500107</v>
+          </cell>
+        </row>
+        <row r="146">
+          <cell r="H146">
+            <v>1039.9999999999991</v>
+          </cell>
+          <cell r="I146">
+            <v>9.8257813385737407</v>
+          </cell>
+        </row>
+        <row r="147">
+          <cell r="H147">
+            <v>963.20000000000221</v>
+          </cell>
+          <cell r="I147">
+            <v>9.2062126642772011</v>
+          </cell>
+        </row>
+        <row r="148">
+          <cell r="H148">
+            <v>486.40000000000151</v>
+          </cell>
+          <cell r="I148">
+            <v>4.7017883035282892</v>
+          </cell>
+        </row>
+        <row r="149">
+          <cell r="H149">
+            <v>711.59999999999991</v>
+          </cell>
+          <cell r="I149">
+            <v>7.4373687015959611</v>
+          </cell>
+        </row>
+        <row r="150">
+          <cell r="H150">
+            <v>574.4</v>
+          </cell>
+          <cell r="I150">
+            <v>5.4855745814670858</v>
+          </cell>
+        </row>
       </sheetData>
       <sheetData sheetId="7">
         <row r="3">
@@ -6959,6 +7240,62 @@
             <v>0</v>
           </cell>
         </row>
+        <row r="144">
+          <cell r="D144">
+            <v>0</v>
+          </cell>
+          <cell r="F144">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="145">
+          <cell r="D145">
+            <v>0</v>
+          </cell>
+          <cell r="F145">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="146">
+          <cell r="D146">
+            <v>0</v>
+          </cell>
+          <cell r="F146">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="147">
+          <cell r="D147">
+            <v>0</v>
+          </cell>
+          <cell r="F147">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="148">
+          <cell r="D148">
+            <v>0</v>
+          </cell>
+          <cell r="F148">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="149">
+          <cell r="D149">
+            <v>0</v>
+          </cell>
+          <cell r="F149">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="150">
+          <cell r="D150">
+            <v>0</v>
+          </cell>
+          <cell r="F150">
+            <v>0</v>
+          </cell>
+        </row>
       </sheetData>
       <sheetData sheetId="8">
         <row r="3">
@@ -7210,61 +7547,73 @@
           </cell>
         </row>
         <row r="34">
+          <cell r="D34"/>
           <cell r="F34">
             <v>0</v>
           </cell>
         </row>
         <row r="35">
+          <cell r="D35"/>
           <cell r="F35">
             <v>0</v>
           </cell>
         </row>
         <row r="36">
+          <cell r="D36"/>
           <cell r="F36">
             <v>0</v>
           </cell>
         </row>
         <row r="37">
+          <cell r="D37"/>
           <cell r="F37">
             <v>0</v>
           </cell>
         </row>
         <row r="38">
+          <cell r="D38"/>
           <cell r="F38">
             <v>0</v>
           </cell>
         </row>
         <row r="39">
+          <cell r="D39"/>
           <cell r="F39">
             <v>0</v>
           </cell>
         </row>
         <row r="40">
+          <cell r="D40"/>
           <cell r="F40">
             <v>0</v>
           </cell>
         </row>
         <row r="41">
+          <cell r="D41"/>
           <cell r="F41">
             <v>0</v>
           </cell>
         </row>
         <row r="42">
+          <cell r="D42"/>
           <cell r="F42">
             <v>0</v>
           </cell>
         </row>
         <row r="43">
+          <cell r="D43"/>
           <cell r="F43">
             <v>0</v>
           </cell>
         </row>
         <row r="44">
+          <cell r="D44"/>
           <cell r="F44">
             <v>0</v>
           </cell>
         </row>
         <row r="45">
+          <cell r="D45"/>
           <cell r="F45">
             <v>0</v>
           </cell>
@@ -8051,6 +8400,62 @@
           </cell>
           <cell r="F143">
             <v>1.1445857008543525</v>
+          </cell>
+        </row>
+        <row r="144">
+          <cell r="D144">
+            <v>51.19999999999969</v>
+          </cell>
+          <cell r="F144">
+            <v>0.56532732673048336</v>
+          </cell>
+        </row>
+        <row r="145">
+          <cell r="D145">
+            <v>131.20000000000064</v>
+          </cell>
+          <cell r="F145">
+            <v>1.3096426432421704</v>
+          </cell>
+        </row>
+        <row r="146">
+          <cell r="D146">
+            <v>47.999999999999154</v>
+          </cell>
+          <cell r="F146">
+            <v>0.45349760024185737</v>
+          </cell>
+        </row>
+        <row r="147">
+          <cell r="D147">
+            <v>60.800000000000409</v>
+          </cell>
+          <cell r="F147">
+            <v>0.5811230585424173</v>
+          </cell>
+        </row>
+        <row r="148">
+          <cell r="D148">
+            <v>76.799999999999528</v>
+          </cell>
+          <cell r="F148">
+            <v>0.74238762687288096</v>
+          </cell>
+        </row>
+        <row r="149">
+          <cell r="D149">
+            <v>92.799999999999557</v>
+          </cell>
+          <cell r="F149">
+            <v>0.96990980256900217</v>
+          </cell>
+        </row>
+        <row r="150">
+          <cell r="D150">
+            <v>70.400000000001128</v>
+          </cell>
+          <cell r="F150">
+            <v>0.67232668965057274</v>
           </cell>
         </row>
       </sheetData>
@@ -9183,6 +9588,62 @@
             <v>7.8812901115971092</v>
           </cell>
         </row>
+        <row r="144">
+          <cell r="E144">
+            <v>636.79999999999916</v>
+          </cell>
+          <cell r="G144">
+            <v>7.0312586262104206</v>
+          </cell>
+        </row>
+        <row r="145">
+          <cell r="E145">
+            <v>636.79999999999916</v>
+          </cell>
+          <cell r="G145">
+            <v>6.3565581952485442</v>
+          </cell>
+        </row>
+        <row r="146">
+          <cell r="E146">
+            <v>563.20000000000186</v>
+          </cell>
+          <cell r="G146">
+            <v>5.3210385095045716</v>
+          </cell>
+        </row>
+        <row r="147">
+          <cell r="E147">
+            <v>623.99999999999875</v>
+          </cell>
+          <cell r="G147">
+            <v>5.9641577060931779</v>
+          </cell>
+        </row>
+        <row r="148">
+          <cell r="E148">
+            <v>649.59999999999945</v>
+          </cell>
+          <cell r="G148">
+            <v>6.2793620106331511</v>
+          </cell>
+        </row>
+        <row r="149">
+          <cell r="E149">
+            <v>236.80000000000058</v>
+          </cell>
+          <cell r="G149">
+            <v>2.4749422548312645</v>
+          </cell>
+        </row>
+        <row r="150">
+          <cell r="E150">
+            <v>691.20000000000027</v>
+          </cell>
+          <cell r="G150">
+            <v>6.6010256802055203</v>
+          </cell>
+        </row>
       </sheetData>
       <sheetData sheetId="10">
         <row r="3">
@@ -10311,6 +10772,62 @@
           </cell>
           <cell r="F143">
             <v>2.3147201896741989</v>
+          </cell>
+        </row>
+        <row r="144">
+          <cell r="D144">
+            <v>222.00000000000043</v>
+          </cell>
+          <cell r="F144">
+            <v>2.4512239557454749</v>
+          </cell>
+        </row>
+        <row r="145">
+          <cell r="D145">
+            <v>242.99999999999943</v>
+          </cell>
+          <cell r="F145">
+            <v>2.4256338590536974</v>
+          </cell>
+        </row>
+        <row r="146">
+          <cell r="D146">
+            <v>253.49999999999983</v>
+          </cell>
+          <cell r="F146">
+            <v>2.3950342012773502</v>
+          </cell>
+        </row>
+        <row r="147">
+          <cell r="D147">
+            <v>253.50000000000074</v>
+          </cell>
+          <cell r="F147">
+            <v>2.4229390681003653</v>
+          </cell>
+        </row>
+        <row r="148">
+          <cell r="D148">
+            <v>242.99999999999943</v>
+          </cell>
+          <cell r="F148">
+            <v>2.3489608506524835</v>
+          </cell>
+        </row>
+        <row r="149">
+          <cell r="D149">
+            <v>232.49999999999994</v>
+          </cell>
+          <cell r="F149">
+            <v>2.4300003135484269</v>
+          </cell>
+        </row>
+        <row r="150">
+          <cell r="D150">
+            <v>243.00000000000034</v>
+          </cell>
+          <cell r="F150">
+            <v>2.3206730906972557</v>
           </cell>
         </row>
       </sheetData>
@@ -10336,11 +10853,6 @@
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
-        <row r="1">
-          <cell r="B1" t="str">
-            <v xml:space="preserve"> SUIVI DE PRODUCTION  JOURNALIER W2E</v>
-          </cell>
-        </row>
         <row r="6">
           <cell r="U6">
             <v>53174</v>
@@ -11046,10 +11558,45 @@
             <v>97852</v>
           </cell>
         </row>
+        <row r="147">
+          <cell r="U147">
+            <v>90567</v>
+          </cell>
+        </row>
+        <row r="148">
+          <cell r="U148">
+            <v>100180</v>
+          </cell>
+        </row>
+        <row r="149">
+          <cell r="U149">
+            <v>105844</v>
+          </cell>
+        </row>
+        <row r="150">
+          <cell r="U150">
+            <v>104625</v>
+          </cell>
+        </row>
+        <row r="151">
+          <cell r="U151">
+            <v>103450</v>
+          </cell>
+        </row>
+        <row r="152">
+          <cell r="U152">
+            <v>95679</v>
+          </cell>
+        </row>
+        <row r="153">
+          <cell r="U153">
+            <v>104711</v>
+          </cell>
+        </row>
       </sheetData>
-      <sheetData sheetId="1" refreshError="1"/>
-      <sheetData sheetId="2" refreshError="1"/>
-      <sheetData sheetId="3" refreshError="1"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -11352,11 +11899,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BC5C344-277E-4945-8E25-AE6A0B860AD5}">
-  <dimension ref="A1:K142"/>
+  <dimension ref="A1:K149"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A112" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E147" sqref="E147"/>
+      <pane ySplit="1" topLeftCell="A128" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A86" sqref="A86:K149"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -16908,6 +17455,279 @@
       <c r="J142" s="4"/>
       <c r="K142" s="29"/>
     </row>
+    <row r="143" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A143" s="21">
+        <v>45799</v>
+      </c>
+      <c r="B143" s="40">
+        <f>'[1]NaOCl Pré'!F144</f>
+        <v>2.2613093069219334</v>
+      </c>
+      <c r="C143" s="4">
+        <f>[1]Acide!F144</f>
+        <v>0</v>
+      </c>
+      <c r="D143" s="4">
+        <f>[1]FeCl3!F144</f>
+        <v>0</v>
+      </c>
+      <c r="E143" s="40">
+        <f>'[1]NaOCl 2 CEB 1'!I144</f>
+        <v>5.8299380569081505</v>
+      </c>
+      <c r="F143" s="4">
+        <f>'[1]Soude CEB 1'!F144</f>
+        <v>0</v>
+      </c>
+      <c r="G143" s="40">
+        <f>'[1]Acide CEB2'!F144</f>
+        <v>0.56532732673048336</v>
+      </c>
+      <c r="H143" s="40">
+        <f>[1]SBS!G144</f>
+        <v>7.0312586262104206</v>
+      </c>
+      <c r="I143" s="40">
+        <f>[1]ASC!F144</f>
+        <v>2.4512239557454749</v>
+      </c>
+      <c r="J143" s="4"/>
+      <c r="K143" s="29"/>
+    </row>
+    <row r="144" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A144" s="21">
+        <v>45800</v>
+      </c>
+      <c r="B144" s="40">
+        <f>'[1]NaOCl Pré'!F145</f>
+        <v>2.01237772010384</v>
+      </c>
+      <c r="C144" s="4">
+        <f>[1]Acide!F145</f>
+        <v>0</v>
+      </c>
+      <c r="D144" s="4">
+        <f>[1]FeCl3!F145</f>
+        <v>0</v>
+      </c>
+      <c r="E144" s="40">
+        <f>'[1]NaOCl 2 CEB 1'!I145</f>
+        <v>5.078858055500107</v>
+      </c>
+      <c r="F144" s="4">
+        <f>'[1]Soude CEB 1'!F145</f>
+        <v>0</v>
+      </c>
+      <c r="G144" s="40">
+        <f>'[1]Acide CEB2'!F145</f>
+        <v>1.3096426432421704</v>
+      </c>
+      <c r="H144" s="40">
+        <f>[1]SBS!G145</f>
+        <v>6.3565581952485442</v>
+      </c>
+      <c r="I144" s="40">
+        <f>[1]ASC!F145</f>
+        <v>2.4256338590536974</v>
+      </c>
+      <c r="J144" s="4"/>
+      <c r="K144" s="29"/>
+    </row>
+    <row r="145" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A145" s="21">
+        <v>45801</v>
+      </c>
+      <c r="B145" s="40">
+        <f>'[1]NaOCl Pré'!F146</f>
+        <v>1.965156267714735</v>
+      </c>
+      <c r="C145" s="4">
+        <f>[1]Acide!F146</f>
+        <v>0</v>
+      </c>
+      <c r="D145" s="4">
+        <f>[1]FeCl3!F146</f>
+        <v>0</v>
+      </c>
+      <c r="E145" s="40">
+        <f>'[1]NaOCl 2 CEB 1'!I146</f>
+        <v>9.8257813385737407</v>
+      </c>
+      <c r="F145" s="4">
+        <f>'[1]Soude CEB 1'!F146</f>
+        <v>0</v>
+      </c>
+      <c r="G145" s="40">
+        <f>'[1]Acide CEB2'!F146</f>
+        <v>0.45349760024185737</v>
+      </c>
+      <c r="H145" s="40">
+        <f>[1]SBS!G146</f>
+        <v>5.3210385095045716</v>
+      </c>
+      <c r="I145" s="40">
+        <f>[1]ASC!F146</f>
+        <v>2.3950342012773502</v>
+      </c>
+      <c r="J145" s="4"/>
+      <c r="K145" s="29"/>
+    </row>
+    <row r="146" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A146" s="21">
+        <v>45802</v>
+      </c>
+      <c r="B146" s="40">
+        <f>'[1]NaOCl Pré'!F147</f>
+        <v>1.896296296296291</v>
+      </c>
+      <c r="C146" s="4">
+        <f>[1]Acide!F147</f>
+        <v>0</v>
+      </c>
+      <c r="D146" s="4">
+        <f>[1]FeCl3!F147</f>
+        <v>0</v>
+      </c>
+      <c r="E146" s="40">
+        <f>'[1]NaOCl 2 CEB 1'!I147</f>
+        <v>9.2062126642772011</v>
+      </c>
+      <c r="F146" s="4">
+        <f>'[1]Soude CEB 1'!F147</f>
+        <v>0</v>
+      </c>
+      <c r="G146" s="40">
+        <f>'[1]Acide CEB2'!F147</f>
+        <v>0.5811230585424173</v>
+      </c>
+      <c r="H146" s="40">
+        <f>[1]SBS!G147</f>
+        <v>5.9641577060931779</v>
+      </c>
+      <c r="I146" s="40">
+        <f>[1]ASC!F147</f>
+        <v>2.4229390681003653</v>
+      </c>
+      <c r="J146" s="4"/>
+      <c r="K146" s="29"/>
+    </row>
+    <row r="147" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A147" s="21">
+        <v>45803</v>
+      </c>
+      <c r="B147" s="40">
+        <f>'[1]NaOCl Pré'!F148</f>
+        <v>2.0106331561140838</v>
+      </c>
+      <c r="C147" s="4">
+        <f>[1]Acide!F148</f>
+        <v>0</v>
+      </c>
+      <c r="D147" s="4">
+        <f>[1]FeCl3!F148</f>
+        <v>0</v>
+      </c>
+      <c r="E147" s="40">
+        <f>'[1]NaOCl 2 CEB 1'!I148</f>
+        <v>4.7017883035282892</v>
+      </c>
+      <c r="F147" s="4">
+        <f>'[1]Soude CEB 1'!F148</f>
+        <v>0</v>
+      </c>
+      <c r="G147" s="40">
+        <f>'[1]Acide CEB2'!F148</f>
+        <v>0.74238762687288096</v>
+      </c>
+      <c r="H147" s="40">
+        <f>[1]SBS!G148</f>
+        <v>6.2793620106331511</v>
+      </c>
+      <c r="I147" s="40">
+        <f>[1]ASC!F148</f>
+        <v>2.3489608506524835</v>
+      </c>
+      <c r="J147" s="4"/>
+      <c r="K147" s="29"/>
+    </row>
+    <row r="148" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A148" s="21">
+        <v>45804</v>
+      </c>
+      <c r="B148" s="40">
+        <f>'[1]NaOCl Pré'!F149</f>
+        <v>1.4046969554447624</v>
+      </c>
+      <c r="C148" s="4">
+        <f>[1]Acide!F149</f>
+        <v>0</v>
+      </c>
+      <c r="D148" s="4">
+        <f>[1]FeCl3!F149</f>
+        <v>0</v>
+      </c>
+      <c r="E148" s="40">
+        <f>'[1]NaOCl 2 CEB 1'!I149</f>
+        <v>7.4373687015959611</v>
+      </c>
+      <c r="F148" s="4">
+        <f>'[1]Soude CEB 1'!F149</f>
+        <v>0</v>
+      </c>
+      <c r="G148" s="40">
+        <f>'[1]Acide CEB2'!F149</f>
+        <v>0.96990980256900217</v>
+      </c>
+      <c r="H148" s="40">
+        <f>[1]SBS!G149</f>
+        <v>2.4749422548312645</v>
+      </c>
+      <c r="I148" s="40">
+        <f>[1]ASC!F149</f>
+        <v>2.4300003135484269</v>
+      </c>
+      <c r="J148" s="4"/>
+      <c r="K148" s="29"/>
+    </row>
+    <row r="149" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A149" s="21">
+        <v>45805</v>
+      </c>
+      <c r="B149" s="40">
+        <f>'[1]NaOCl Pré'!F150</f>
+        <v>1.405773987451175</v>
+      </c>
+      <c r="C149" s="4">
+        <f>[1]Acide!F150</f>
+        <v>0</v>
+      </c>
+      <c r="D149" s="4">
+        <f>[1]FeCl3!F150</f>
+        <v>0</v>
+      </c>
+      <c r="E149" s="40">
+        <f>'[1]NaOCl 2 CEB 1'!I150</f>
+        <v>5.4855745814670858</v>
+      </c>
+      <c r="F149" s="4">
+        <f>'[1]Soude CEB 1'!F150</f>
+        <v>0</v>
+      </c>
+      <c r="G149" s="40">
+        <f>'[1]Acide CEB2'!F150</f>
+        <v>0.67232668965057274</v>
+      </c>
+      <c r="H149" s="40">
+        <f>[1]SBS!G150</f>
+        <v>6.6010256802055203</v>
+      </c>
+      <c r="I149" s="40">
+        <f>[1]ASC!F150</f>
+        <v>2.3206730906972557</v>
+      </c>
+      <c r="J149" s="4"/>
+      <c r="K149" s="29"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -16916,34 +17736,34 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07CB649B-6F18-453D-B029-557EF373D866}">
-  <dimension ref="A1:H142"/>
+  <dimension ref="A1:I149"/>
   <sheetViews>
-    <sheetView topLeftCell="A122" workbookViewId="0">
-      <selection activeCell="A143" sqref="A143:XFD366"/>
+    <sheetView topLeftCell="A130" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
+      <selection activeCell="A150" sqref="A150:XFD367"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="13.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.44140625" style="2"/>
+    <col min="2" max="3" width="13.5546875" style="2" customWidth="1"/>
     <col min="4" max="4" width="7.6640625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="7.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.33203125" style="2" customWidth="1"/>
     <col min="6" max="6" width="14.88671875" style="2" customWidth="1"/>
     <col min="7" max="7" width="9.88671875" style="2" customWidth="1"/>
-    <col min="8" max="11" width="11.44140625" style="2"/>
-    <col min="12" max="12" width="15.44140625" style="2" customWidth="1"/>
-    <col min="13" max="13" width="15.88671875" style="2" customWidth="1"/>
-    <col min="14" max="14" width="15.44140625" style="2" customWidth="1"/>
-    <col min="15" max="15" width="16" style="2" customWidth="1"/>
-    <col min="16" max="17" width="11.44140625" style="2"/>
-    <col min="18" max="18" width="16" style="2" customWidth="1"/>
-    <col min="19" max="19" width="16.6640625" style="2" customWidth="1"/>
-    <col min="20" max="20" width="15.6640625" style="2" customWidth="1"/>
-    <col min="21" max="21" width="16" style="2" customWidth="1"/>
-    <col min="22" max="16384" width="11.44140625" style="2"/>
+    <col min="8" max="12" width="11.44140625" style="2"/>
+    <col min="13" max="13" width="15.44140625" style="2" customWidth="1"/>
+    <col min="14" max="14" width="15.88671875" style="2" customWidth="1"/>
+    <col min="15" max="15" width="15.44140625" style="2" customWidth="1"/>
+    <col min="16" max="16" width="16" style="2" customWidth="1"/>
+    <col min="17" max="18" width="11.44140625" style="2"/>
+    <col min="19" max="19" width="16" style="2" customWidth="1"/>
+    <col min="20" max="20" width="16.6640625" style="2" customWidth="1"/>
+    <col min="21" max="21" width="15.6640625" style="2" customWidth="1"/>
+    <col min="22" max="22" width="16" style="2" customWidth="1"/>
+    <col min="23" max="16384" width="11.44140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" ht="59.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="11" t="s">
         <v>2</v>
       </c>
@@ -17048,7 +17868,7 @@
       <c r="D5" s="54"/>
       <c r="E5" s="54"/>
       <c r="F5" s="5">
-        <f>(B5-B4)</f>
+        <f t="shared" ref="F5:F68" si="0">(B5-B4)</f>
         <v>144.79999999999927</v>
       </c>
       <c r="G5" s="15">
@@ -17056,7 +17876,7 @@
         <v>47464</v>
       </c>
       <c r="H5" s="6">
-        <f>F5/G5*1000</f>
+        <f t="shared" ref="H5:H68" si="1">F5/G5*1000</f>
         <v>3.0507331872576957</v>
       </c>
     </row>
@@ -17071,7 +17891,7 @@
       <c r="D6" s="54"/>
       <c r="E6" s="54"/>
       <c r="F6" s="5">
-        <f>(B6-B5)</f>
+        <f t="shared" si="0"/>
         <v>169</v>
       </c>
       <c r="G6" s="8">
@@ -17079,7 +17899,7 @@
         <v>57975</v>
       </c>
       <c r="H6" s="6">
-        <f>F6/G6*1000</f>
+        <f t="shared" si="1"/>
         <v>2.9150495903406641</v>
       </c>
     </row>
@@ -17094,7 +17914,7 @@
       <c r="D7" s="54"/>
       <c r="E7" s="54"/>
       <c r="F7" s="5">
-        <f>(B7-B6)</f>
+        <f t="shared" si="0"/>
         <v>168.79999999999927</v>
       </c>
       <c r="G7" s="15">
@@ -17102,7 +17922,7 @@
         <v>58341</v>
       </c>
       <c r="H7" s="6">
-        <f>F7/G7*1000</f>
+        <f t="shared" si="1"/>
         <v>2.8933340189574963</v>
       </c>
     </row>
@@ -17117,7 +17937,7 @@
       <c r="D8" s="54"/>
       <c r="E8" s="54"/>
       <c r="F8" s="5">
-        <f>(B8-B7)</f>
+        <f t="shared" si="0"/>
         <v>147</v>
       </c>
       <c r="G8" s="8">
@@ -17125,7 +17945,7 @@
         <v>52934</v>
       </c>
       <c r="H8" s="6">
-        <f>F8/G8*1000</f>
+        <f t="shared" si="1"/>
         <v>2.7770431102882838</v>
       </c>
     </row>
@@ -17140,7 +17960,7 @@
       <c r="D9" s="54"/>
       <c r="E9" s="54"/>
       <c r="F9" s="5">
-        <f>(B9-B8)</f>
+        <f t="shared" si="0"/>
         <v>173.20000000000073</v>
       </c>
       <c r="G9" s="15">
@@ -17148,7 +17968,7 @@
         <v>50448</v>
       </c>
       <c r="H9" s="6">
-        <f>F9/G9*1000</f>
+        <f t="shared" si="1"/>
         <v>3.4332381858547558</v>
       </c>
     </row>
@@ -17163,7 +17983,7 @@
       <c r="D10" s="54"/>
       <c r="E10" s="54"/>
       <c r="F10" s="5">
-        <f>(B10-B9)</f>
+        <f t="shared" si="0"/>
         <v>171.29999999999927</v>
       </c>
       <c r="G10" s="8">
@@ -17171,7 +17991,7 @@
         <v>65465</v>
       </c>
       <c r="H10" s="6">
-        <f>F10/G10*1000</f>
+        <f t="shared" si="1"/>
         <v>2.6166653937218247</v>
       </c>
     </row>
@@ -17186,7 +18006,7 @@
       <c r="D11" s="54"/>
       <c r="E11" s="54"/>
       <c r="F11" s="5">
-        <f>(B11-B10)</f>
+        <f t="shared" si="0"/>
         <v>172.40000000000146</v>
       </c>
       <c r="G11" s="15">
@@ -17194,7 +18014,7 @@
         <v>58423</v>
       </c>
       <c r="H11" s="6">
-        <f>F11/G11*1000</f>
+        <f t="shared" si="1"/>
         <v>2.9508926279034191</v>
       </c>
     </row>
@@ -17209,7 +18029,7 @@
       <c r="D12" s="54"/>
       <c r="E12" s="54"/>
       <c r="F12" s="5">
-        <f>(B12-B11)</f>
+        <f t="shared" si="0"/>
         <v>166.79999999999927</v>
       </c>
       <c r="G12" s="8">
@@ -17217,7 +18037,7 @@
         <v>56419</v>
       </c>
       <c r="H12" s="6">
-        <f>F12/G12*1000</f>
+        <f t="shared" si="1"/>
         <v>2.9564508410287185</v>
       </c>
     </row>
@@ -17232,7 +18052,7 @@
       <c r="D13" s="54"/>
       <c r="E13" s="54"/>
       <c r="F13" s="5">
-        <f>(B13-B12)</f>
+        <f t="shared" si="0"/>
         <v>170.89999999999964</v>
       </c>
       <c r="G13" s="15">
@@ -17240,7 +18060,7 @@
         <v>58678</v>
       </c>
       <c r="H13" s="6">
-        <f>F13/G13*1000</f>
+        <f t="shared" si="1"/>
         <v>2.9125055387027445</v>
       </c>
     </row>
@@ -17255,7 +18075,7 @@
       <c r="D14" s="54"/>
       <c r="E14" s="54"/>
       <c r="F14" s="5">
-        <f>(B14-B13)</f>
+        <f t="shared" si="0"/>
         <v>173</v>
       </c>
       <c r="G14" s="8">
@@ -17263,7 +18083,7 @@
         <v>58205</v>
       </c>
       <c r="H14" s="6">
-        <f>F14/G14*1000</f>
+        <f t="shared" si="1"/>
         <v>2.9722532428485526</v>
       </c>
     </row>
@@ -17278,7 +18098,7 @@
       <c r="D15" s="54"/>
       <c r="E15" s="54"/>
       <c r="F15" s="5">
-        <f>(B15-B14)</f>
+        <f t="shared" si="0"/>
         <v>170.89999999999964</v>
       </c>
       <c r="G15" s="15">
@@ -17286,7 +18106,7 @@
         <v>57968</v>
       </c>
       <c r="H15" s="6">
-        <f>F15/G15*1000</f>
+        <f t="shared" si="1"/>
         <v>2.9481783052718677</v>
       </c>
     </row>
@@ -17301,7 +18121,7 @@
       <c r="D16" s="54"/>
       <c r="E16" s="54"/>
       <c r="F16" s="5">
-        <f>(B16-B15)</f>
+        <f t="shared" si="0"/>
         <v>162.80000000000109</v>
       </c>
       <c r="G16" s="8">
@@ -17309,7 +18129,7 @@
         <v>54239</v>
       </c>
       <c r="H16" s="6">
-        <f>F16/G16*1000</f>
+        <f t="shared" si="1"/>
         <v>3.001530264201056</v>
       </c>
     </row>
@@ -17324,7 +18144,7 @@
       <c r="D17" s="54"/>
       <c r="E17" s="54"/>
       <c r="F17" s="5">
-        <f>(B17-B16)</f>
+        <f t="shared" si="0"/>
         <v>153.19999999999891</v>
       </c>
       <c r="G17" s="15">
@@ -17332,7 +18152,7 @@
         <v>66973</v>
       </c>
       <c r="H17" s="6">
-        <f>F17/G17*1000</f>
+        <f t="shared" si="1"/>
         <v>2.2874889880996658</v>
       </c>
     </row>
@@ -17347,7 +18167,7 @@
       <c r="D18" s="54"/>
       <c r="E18" s="54"/>
       <c r="F18" s="5">
-        <f>(B18-B17)</f>
+        <f t="shared" si="0"/>
         <v>217.20000000000073</v>
       </c>
       <c r="G18" s="8">
@@ -17355,7 +18175,7 @@
         <v>68507</v>
       </c>
       <c r="H18" s="6">
-        <f>F18/G18*1000</f>
+        <f t="shared" si="1"/>
         <v>3.1704789291605344</v>
       </c>
     </row>
@@ -17370,7 +18190,7 @@
       <c r="D19" s="54"/>
       <c r="E19" s="54"/>
       <c r="F19" s="5">
-        <f>(B19-B18)</f>
+        <f t="shared" si="0"/>
         <v>208.20000000000073</v>
       </c>
       <c r="G19" s="4">
@@ -17378,7 +18198,7 @@
         <v>62883</v>
       </c>
       <c r="H19" s="6">
-        <f>F19/G19*1000</f>
+        <f t="shared" si="1"/>
         <v>3.3109107389914718</v>
       </c>
     </row>
@@ -17393,7 +18213,7 @@
       <c r="D20" s="54"/>
       <c r="E20" s="54"/>
       <c r="F20" s="5">
-        <f>(B20-B19)</f>
+        <f t="shared" si="0"/>
         <v>145.89999999999964</v>
       </c>
       <c r="G20" s="8">
@@ -17401,7 +18221,7 @@
         <v>49626</v>
       </c>
       <c r="H20" s="6">
-        <f>F20/G20*1000</f>
+        <f t="shared" si="1"/>
         <v>2.9399911336799187</v>
       </c>
     </row>
@@ -17416,7 +18236,7 @@
       <c r="D21" s="54"/>
       <c r="E21" s="54"/>
       <c r="F21" s="5">
-        <f>(B21-B20)</f>
+        <f t="shared" si="0"/>
         <v>170.79999999999927</v>
       </c>
       <c r="G21" s="15">
@@ -17424,7 +18244,7 @@
         <v>58465</v>
       </c>
       <c r="H21" s="6">
-        <f>F21/G21*1000</f>
+        <f t="shared" si="1"/>
         <v>2.9214059693833794</v>
       </c>
     </row>
@@ -17439,7 +18259,7 @@
       <c r="D22" s="54"/>
       <c r="E22" s="54"/>
       <c r="F22" s="5">
-        <f>(B22-B21)</f>
+        <f t="shared" si="0"/>
         <v>170.5</v>
       </c>
       <c r="G22" s="8">
@@ -17447,7 +18267,7 @@
         <v>58549</v>
       </c>
       <c r="H22" s="6">
-        <f>F22/G22*1000</f>
+        <f t="shared" si="1"/>
         <v>2.9120907274248919</v>
       </c>
     </row>
@@ -17462,7 +18282,7 @@
       <c r="D23" s="54"/>
       <c r="E23" s="54"/>
       <c r="F23" s="5">
-        <f>(B23-B22)</f>
+        <f t="shared" si="0"/>
         <v>183.80000000000109</v>
       </c>
       <c r="G23" s="15">
@@ -17470,7 +18290,7 @@
         <v>59980</v>
       </c>
       <c r="H23" s="6">
-        <f>F23/G23*1000</f>
+        <f t="shared" si="1"/>
         <v>3.0643547849283275</v>
       </c>
     </row>
@@ -17485,7 +18305,7 @@
       <c r="D24" s="54"/>
       <c r="E24" s="54"/>
       <c r="F24" s="5">
-        <f>(B24-B23)</f>
+        <f t="shared" si="0"/>
         <v>200.89999999999964</v>
       </c>
       <c r="G24" s="8">
@@ -17493,7 +18313,7 @@
         <v>66594</v>
       </c>
       <c r="H24" s="6">
-        <f>F24/G24*1000</f>
+        <f t="shared" si="1"/>
         <v>3.0167882992461728</v>
       </c>
     </row>
@@ -17508,7 +18328,7 @@
       <c r="D25" s="54"/>
       <c r="E25" s="54"/>
       <c r="F25" s="5">
-        <f>(B25-B24)</f>
+        <f t="shared" si="0"/>
         <v>216.29999999999927</v>
       </c>
       <c r="G25" s="15">
@@ -17516,7 +18336,7 @@
         <v>70950</v>
       </c>
       <c r="H25" s="6">
-        <f>F25/G25*1000</f>
+        <f t="shared" si="1"/>
         <v>3.048625792811829</v>
       </c>
     </row>
@@ -17531,7 +18351,7 @@
       <c r="D26" s="54"/>
       <c r="E26" s="54"/>
       <c r="F26" s="5">
-        <f>(B26-B25)</f>
+        <f t="shared" si="0"/>
         <v>235.80000000000109</v>
       </c>
       <c r="G26" s="8">
@@ -17539,7 +18359,7 @@
         <v>78568</v>
       </c>
       <c r="H26" s="6">
-        <f>F26/G26*1000</f>
+        <f t="shared" si="1"/>
         <v>3.0012218714998613</v>
       </c>
     </row>
@@ -17554,7 +18374,7 @@
       <c r="D27" s="54"/>
       <c r="E27" s="54"/>
       <c r="F27" s="5">
-        <f>(B27-B26)</f>
+        <f t="shared" si="0"/>
         <v>210.39999999999964</v>
       </c>
       <c r="G27" s="15">
@@ -17562,7 +18382,7 @@
         <v>71467</v>
       </c>
       <c r="H27" s="6">
-        <f>F27/G27*1000</f>
+        <f t="shared" si="1"/>
         <v>2.9440161193277965</v>
       </c>
     </row>
@@ -17577,7 +18397,7 @@
       <c r="D28" s="54"/>
       <c r="E28" s="54"/>
       <c r="F28" s="5">
-        <f>(B28-B27)</f>
+        <f t="shared" si="0"/>
         <v>211.69999999999891</v>
       </c>
       <c r="G28" s="8">
@@ -17585,7 +18405,7 @@
         <v>71945</v>
       </c>
       <c r="H28" s="6">
-        <f>F28/G28*1000</f>
+        <f t="shared" si="1"/>
         <v>2.9425255403433028</v>
       </c>
     </row>
@@ -17600,7 +18420,7 @@
       <c r="D29" s="54"/>
       <c r="E29" s="54"/>
       <c r="F29" s="5">
-        <f>(B29-B28)</f>
+        <f t="shared" si="0"/>
         <v>214.10000000000036</v>
       </c>
       <c r="G29" s="15">
@@ -17608,7 +18428,7 @@
         <v>69243</v>
       </c>
       <c r="H29" s="6">
-        <f>F29/G29*1000</f>
+        <f t="shared" si="1"/>
         <v>3.0920093005791252</v>
       </c>
     </row>
@@ -17623,7 +18443,7 @@
       <c r="D30" s="54"/>
       <c r="E30" s="54"/>
       <c r="F30" s="5">
-        <f>(B30-B29)</f>
+        <f t="shared" si="0"/>
         <v>226.70000000000073</v>
       </c>
       <c r="G30" s="8">
@@ -17631,7 +18451,7 @@
         <v>76346</v>
       </c>
       <c r="H30" s="6">
-        <f>F30/G30*1000</f>
+        <f t="shared" si="1"/>
         <v>2.9693762607078398</v>
       </c>
     </row>
@@ -17646,7 +18466,7 @@
       <c r="D31" s="54"/>
       <c r="E31" s="54"/>
       <c r="F31" s="5">
-        <f>(B31-B30)</f>
+        <f t="shared" si="0"/>
         <v>214.39999999999964</v>
       </c>
       <c r="G31" s="15">
@@ -17654,7 +18474,7 @@
         <v>71246</v>
       </c>
       <c r="H31" s="6">
-        <f>F31/G31*1000</f>
+        <f t="shared" si="1"/>
         <v>3.0092917497122595</v>
       </c>
     </row>
@@ -17669,7 +18489,7 @@
       <c r="D32" s="55"/>
       <c r="E32" s="55"/>
       <c r="F32" s="37">
-        <f>(B32-B31)</f>
+        <f t="shared" si="0"/>
         <v>219.20000000000073</v>
       </c>
       <c r="G32" s="9">
@@ -17677,7 +18497,7 @@
         <v>72868</v>
       </c>
       <c r="H32" s="38">
-        <f>F32/G32*1000</f>
+        <f t="shared" si="1"/>
         <v>3.0081791732996752</v>
       </c>
     </row>
@@ -17692,7 +18512,7 @@
       <c r="D33" s="56"/>
       <c r="E33" s="56"/>
       <c r="F33" s="10">
-        <f>(B33-B32)</f>
+        <f t="shared" si="0"/>
         <v>226.70000000000073</v>
       </c>
       <c r="G33" s="28">
@@ -17700,7 +18520,7 @@
         <v>71689</v>
       </c>
       <c r="H33" s="44">
-        <f>F33/G33*1000</f>
+        <f t="shared" si="1"/>
         <v>3.1622703622592132</v>
       </c>
     </row>
@@ -17715,7 +18535,7 @@
       <c r="D34" s="57"/>
       <c r="E34" s="57"/>
       <c r="F34" s="5">
-        <f>(B34-B33)</f>
+        <f t="shared" si="0"/>
         <v>186.19999999999709</v>
       </c>
       <c r="G34" s="27">
@@ -17723,7 +18543,7 @@
         <v>63773</v>
       </c>
       <c r="H34" s="6">
-        <f>F34/G34*1000</f>
+        <f t="shared" si="1"/>
         <v>2.9197309206089894</v>
       </c>
     </row>
@@ -17738,7 +18558,7 @@
       <c r="D35" s="57"/>
       <c r="E35" s="57"/>
       <c r="F35" s="5">
-        <f>(B35-B34)</f>
+        <f t="shared" si="0"/>
         <v>218.30000000000291</v>
       </c>
       <c r="G35" s="27">
@@ -17746,7 +18566,7 @@
         <v>71403</v>
       </c>
       <c r="H35" s="6">
-        <f>F35/G35*1000</f>
+        <f t="shared" si="1"/>
         <v>3.0572945114351344</v>
       </c>
     </row>
@@ -17761,7 +18581,7 @@
       <c r="D36" s="57"/>
       <c r="E36" s="57"/>
       <c r="F36" s="5">
-        <f>(B36-B35)</f>
+        <f t="shared" si="0"/>
         <v>210</v>
       </c>
       <c r="G36" s="27">
@@ -17769,7 +18589,7 @@
         <v>68826</v>
       </c>
       <c r="H36" s="6">
-        <f>F36/G36*1000</f>
+        <f t="shared" si="1"/>
         <v>3.0511725220120303</v>
       </c>
     </row>
@@ -17784,7 +18604,7 @@
       <c r="D37" s="57"/>
       <c r="E37" s="57"/>
       <c r="F37" s="5">
-        <f>(B37-B36)</f>
+        <f t="shared" si="0"/>
         <v>198.79999999999927</v>
       </c>
       <c r="G37" s="27">
@@ -17792,7 +18612,7 @@
         <v>66010</v>
       </c>
       <c r="H37" s="6">
-        <f>F37/G37*1000</f>
+        <f t="shared" si="1"/>
         <v>3.0116648992576773</v>
       </c>
     </row>
@@ -17807,7 +18627,7 @@
       <c r="D38" s="57"/>
       <c r="E38" s="57"/>
       <c r="F38" s="5">
-        <f>(B38-B37)</f>
+        <f t="shared" si="0"/>
         <v>165.5</v>
       </c>
       <c r="G38" s="27">
@@ -17815,7 +18635,7 @@
         <v>52915</v>
       </c>
       <c r="H38" s="6">
-        <f>F38/G38*1000</f>
+        <f t="shared" si="1"/>
         <v>3.1276575640177642</v>
       </c>
     </row>
@@ -17830,7 +18650,7 @@
       <c r="D39" s="57"/>
       <c r="E39" s="57"/>
       <c r="F39" s="5">
-        <f>(B39-B38)</f>
+        <f t="shared" si="0"/>
         <v>187.20000000000073</v>
       </c>
       <c r="G39" s="27">
@@ -17838,7 +18658,7 @@
         <v>70336</v>
       </c>
       <c r="H39" s="6">
-        <f>F39/G39*1000</f>
+        <f t="shared" si="1"/>
         <v>2.661510464058245</v>
       </c>
     </row>
@@ -17853,7 +18673,7 @@
       <c r="D40" s="57"/>
       <c r="E40" s="57"/>
       <c r="F40" s="5">
-        <f>(B40-B39)</f>
+        <f t="shared" si="0"/>
         <v>255</v>
       </c>
       <c r="G40" s="27">
@@ -17861,7 +18681,7 @@
         <v>77269</v>
       </c>
       <c r="H40" s="6">
-        <f>F40/G40*1000</f>
+        <f t="shared" si="1"/>
         <v>3.3001591841488822</v>
       </c>
     </row>
@@ -17876,7 +18696,7 @@
       <c r="D41" s="57"/>
       <c r="E41" s="57"/>
       <c r="F41" s="5">
-        <f>(B41-B40)</f>
+        <f t="shared" si="0"/>
         <v>241.59999999999854</v>
       </c>
       <c r="G41" s="27">
@@ -17884,7 +18704,7 @@
         <v>81052</v>
       </c>
       <c r="H41" s="6">
-        <f>F41/G41*1000</f>
+        <f t="shared" si="1"/>
         <v>2.9808024478112638</v>
       </c>
     </row>
@@ -17899,7 +18719,7 @@
       <c r="D42" s="57"/>
       <c r="E42" s="57"/>
       <c r="F42" s="5">
-        <f>(B42-B41)</f>
+        <f t="shared" si="0"/>
         <v>248.40000000000146</v>
       </c>
       <c r="G42" s="27">
@@ -17907,7 +18727,7 @@
         <v>84392</v>
       </c>
       <c r="H42" s="6">
-        <f>F42/G42*1000</f>
+        <f t="shared" si="1"/>
         <v>2.9434069580055158</v>
       </c>
     </row>
@@ -17922,7 +18742,7 @@
       <c r="D43" s="57"/>
       <c r="E43" s="57"/>
       <c r="F43" s="5">
-        <f>(B43-B42)</f>
+        <f t="shared" si="0"/>
         <v>214.69999999999709</v>
       </c>
       <c r="G43" s="27">
@@ -17930,7 +18750,7 @@
         <v>75872</v>
       </c>
       <c r="H43" s="6">
-        <f>F43/G43*1000</f>
+        <f t="shared" si="1"/>
         <v>2.8297659215520494</v>
       </c>
     </row>
@@ -17945,7 +18765,7 @@
       <c r="D44" s="57"/>
       <c r="E44" s="57"/>
       <c r="F44" s="5">
-        <f>(B44-B43)</f>
+        <f t="shared" si="0"/>
         <v>124.90000000000146</v>
       </c>
       <c r="G44" s="27">
@@ -17953,7 +18773,7 @@
         <v>40308</v>
       </c>
       <c r="H44" s="6">
-        <f>F44/G44*1000</f>
+        <f t="shared" si="1"/>
         <v>3.0986404683934072</v>
       </c>
     </row>
@@ -17968,7 +18788,7 @@
       <c r="D45" s="57"/>
       <c r="E45" s="57"/>
       <c r="F45" s="5">
-        <f>(B45-B44)</f>
+        <f t="shared" si="0"/>
         <v>252.20000000000073</v>
       </c>
       <c r="G45" s="27">
@@ -17976,7 +18796,7 @@
         <v>86259</v>
       </c>
       <c r="H45" s="6">
-        <f>F45/G45*1000</f>
+        <f t="shared" si="1"/>
         <v>2.9237528837570657</v>
       </c>
     </row>
@@ -17991,7 +18811,7 @@
       <c r="D46" s="57"/>
       <c r="E46" s="57"/>
       <c r="F46" s="5">
-        <f>(B46-B45)</f>
+        <f t="shared" si="0"/>
         <v>239.89999999999782</v>
       </c>
       <c r="G46" s="27">
@@ -17999,7 +18819,7 @@
         <v>80933</v>
       </c>
       <c r="H46" s="6">
-        <f>F46/G46*1000</f>
+        <f t="shared" si="1"/>
         <v>2.9641802478593138</v>
       </c>
     </row>
@@ -18014,7 +18834,7 @@
       <c r="D47" s="57"/>
       <c r="E47" s="57"/>
       <c r="F47" s="5">
-        <f>(B47-B46)</f>
+        <f t="shared" si="0"/>
         <v>232.5</v>
       </c>
       <c r="G47" s="27">
@@ -18022,7 +18842,7 @@
         <v>79044</v>
       </c>
       <c r="H47" s="6">
-        <f>F47/G47*1000</f>
+        <f t="shared" si="1"/>
         <v>2.9413997267344771</v>
       </c>
     </row>
@@ -18037,7 +18857,7 @@
       <c r="D48" s="57"/>
       <c r="E48" s="57"/>
       <c r="F48" s="5">
-        <f>(B48-B47)</f>
+        <f t="shared" si="0"/>
         <v>214.40000000000146</v>
       </c>
       <c r="G48" s="27">
@@ -18045,7 +18865,7 @@
         <v>72540</v>
       </c>
       <c r="H48" s="6">
-        <f>F48/G48*1000</f>
+        <f t="shared" si="1"/>
         <v>2.9556106975462013</v>
       </c>
     </row>
@@ -18060,7 +18880,7 @@
       <c r="D49" s="57"/>
       <c r="E49" s="57"/>
       <c r="F49" s="5">
-        <f>(B49-B48)</f>
+        <f t="shared" si="0"/>
         <v>248.79999999999927</v>
       </c>
       <c r="G49" s="27">
@@ -18068,7 +18888,7 @@
         <v>84015</v>
       </c>
       <c r="H49" s="6">
-        <f>F49/G49*1000</f>
+        <f t="shared" si="1"/>
         <v>2.9613759447717585</v>
       </c>
     </row>
@@ -18083,7 +18903,7 @@
       <c r="D50" s="57"/>
       <c r="E50" s="57"/>
       <c r="F50" s="5">
-        <f>(B50-B49)</f>
+        <f t="shared" si="0"/>
         <v>251</v>
       </c>
       <c r="G50" s="27">
@@ -18091,7 +18911,7 @@
         <v>82276</v>
       </c>
       <c r="H50" s="6">
-        <f>F50/G50*1000</f>
+        <f t="shared" si="1"/>
         <v>3.0507073751762364</v>
       </c>
     </row>
@@ -18106,7 +18926,7 @@
       <c r="D51" s="57"/>
       <c r="E51" s="57"/>
       <c r="F51" s="5">
-        <f>(B51-B50)</f>
+        <f t="shared" si="0"/>
         <v>251.29999999999927</v>
       </c>
       <c r="G51" s="27">
@@ -18114,7 +18934,7 @@
         <v>84632</v>
       </c>
       <c r="H51" s="6">
-        <f>F51/G51*1000</f>
+        <f t="shared" si="1"/>
         <v>2.9693260232536067</v>
       </c>
     </row>
@@ -18129,7 +18949,7 @@
       <c r="D52" s="57"/>
       <c r="E52" s="57"/>
       <c r="F52" s="5">
-        <f>(B52-B51)</f>
+        <f t="shared" si="0"/>
         <v>252.60000000000218</v>
       </c>
       <c r="G52" s="27">
@@ -18137,7 +18957,7 @@
         <v>87013</v>
       </c>
       <c r="H52" s="6">
-        <f>F52/G52*1000</f>
+        <f t="shared" si="1"/>
         <v>2.9030144920874146</v>
       </c>
     </row>
@@ -18152,7 +18972,7 @@
       <c r="D53" s="57"/>
       <c r="E53" s="57"/>
       <c r="F53" s="5">
-        <f>(B53-B52)</f>
+        <f t="shared" si="0"/>
         <v>265.5</v>
       </c>
       <c r="G53" s="27">
@@ -18160,7 +18980,7 @@
         <v>89956</v>
       </c>
       <c r="H53" s="6">
-        <f>F53/G53*1000</f>
+        <f t="shared" si="1"/>
         <v>2.9514429276535195</v>
       </c>
     </row>
@@ -18175,7 +18995,7 @@
       <c r="D54" s="57"/>
       <c r="E54" s="57"/>
       <c r="F54" s="5">
-        <f>(B54-B53)</f>
+        <f t="shared" si="0"/>
         <v>224.20000000000073</v>
       </c>
       <c r="G54" s="27">
@@ -18183,7 +19003,7 @@
         <v>77612</v>
       </c>
       <c r="H54" s="6">
-        <f>F54/G54*1000</f>
+        <f t="shared" si="1"/>
         <v>2.8887285471318962</v>
       </c>
     </row>
@@ -18198,7 +19018,7 @@
       <c r="D55" s="57"/>
       <c r="E55" s="57"/>
       <c r="F55" s="5">
-        <f>(B55-B54)</f>
+        <f t="shared" si="0"/>
         <v>248.19999999999709</v>
       </c>
       <c r="G55" s="27">
@@ -18206,7 +19026,7 @@
         <v>82831</v>
       </c>
       <c r="H55" s="6">
-        <f>F55/G55*1000</f>
+        <f t="shared" si="1"/>
         <v>2.9964626770170235</v>
       </c>
     </row>
@@ -18221,7 +19041,7 @@
       <c r="D56" s="57"/>
       <c r="E56" s="57"/>
       <c r="F56" s="5">
-        <f>(B56-B55)</f>
+        <f t="shared" si="0"/>
         <v>271.5</v>
       </c>
       <c r="G56" s="27">
@@ -18229,7 +19049,7 @@
         <v>94316</v>
       </c>
       <c r="H56" s="6">
-        <f>F56/G56*1000</f>
+        <f t="shared" si="1"/>
         <v>2.8786208066499852</v>
       </c>
     </row>
@@ -18244,7 +19064,7 @@
       <c r="D57" s="57"/>
       <c r="E57" s="57"/>
       <c r="F57" s="5">
-        <f>(B57-B56)</f>
+        <f t="shared" si="0"/>
         <v>284.90000000000146</v>
       </c>
       <c r="G57" s="27">
@@ -18252,7 +19072,7 @@
         <v>97557</v>
       </c>
       <c r="H57" s="6">
-        <f>F57/G57*1000</f>
+        <f t="shared" si="1"/>
         <v>2.9203440040181787</v>
       </c>
     </row>
@@ -18267,7 +19087,7 @@
       <c r="D58" s="57"/>
       <c r="E58" s="57"/>
       <c r="F58" s="5">
-        <f>(B58-B57)</f>
+        <f t="shared" si="0"/>
         <v>225.5</v>
       </c>
       <c r="G58" s="27">
@@ -18275,7 +19095,7 @@
         <v>94135</v>
       </c>
       <c r="H58" s="6">
-        <f>F58/G58*1000</f>
+        <f t="shared" si="1"/>
         <v>2.3954958304562597</v>
       </c>
     </row>
@@ -18290,7 +19110,7 @@
       <c r="D59" s="57"/>
       <c r="E59" s="57"/>
       <c r="F59" s="5">
-        <f>(B59-B58)</f>
+        <f t="shared" si="0"/>
         <v>317.5</v>
       </c>
       <c r="G59" s="27">
@@ -18298,7 +19118,7 @@
         <v>94228</v>
       </c>
       <c r="H59" s="6">
-        <f>F59/G59*1000</f>
+        <f t="shared" si="1"/>
         <v>3.3694867767542558</v>
       </c>
     </row>
@@ -18318,7 +19138,7 @@
         <v>20275</v>
       </c>
       <c r="F60" s="37">
-        <f>(B60-B59)</f>
+        <f t="shared" si="0"/>
         <v>260.90000000000146</v>
       </c>
       <c r="G60" s="9">
@@ -18326,7 +19146,7 @@
         <v>95898</v>
       </c>
       <c r="H60" s="38">
-        <f>F60/G60*1000</f>
+        <f t="shared" si="1"/>
         <v>2.7205989697386959</v>
       </c>
     </row>
@@ -18346,7 +19166,7 @@
         <v>238</v>
       </c>
       <c r="F61" s="18">
-        <f>(B61-B60)</f>
+        <f t="shared" si="0"/>
         <v>263.69999999999709</v>
       </c>
       <c r="G61" s="35">
@@ -18354,7 +19174,7 @@
         <v>90569</v>
       </c>
       <c r="H61" s="22">
-        <f>F61/G61*1000</f>
+        <f t="shared" si="1"/>
         <v>2.911592266669579</v>
       </c>
     </row>
@@ -18374,7 +19194,7 @@
         <v>238</v>
       </c>
       <c r="F62" s="5">
-        <f>(B62-B61)</f>
+        <f t="shared" si="0"/>
         <v>264.5</v>
       </c>
       <c r="G62" s="27">
@@ -18382,7 +19202,7 @@
         <v>91249</v>
       </c>
       <c r="H62" s="6">
-        <f>F62/G62*1000</f>
+        <f t="shared" si="1"/>
         <v>2.8986619031441441</v>
       </c>
     </row>
@@ -18398,11 +19218,11 @@
       </c>
       <c r="D63" s="57"/>
       <c r="E63" s="54">
-        <f t="shared" ref="E63:E126" si="0">C63-C62</f>
+        <f t="shared" ref="E63:E126" si="2">C63-C62</f>
         <v>263</v>
       </c>
       <c r="F63" s="5">
-        <f>(B63-B62)</f>
+        <f t="shared" si="0"/>
         <v>290.60000000000218</v>
       </c>
       <c r="G63" s="27">
@@ -18410,7 +19230,7 @@
         <v>102134</v>
       </c>
       <c r="H63" s="6">
-        <f>F63/G63*1000</f>
+        <f t="shared" si="1"/>
         <v>2.8452816887618444</v>
       </c>
     </row>
@@ -18426,11 +19246,11 @@
       </c>
       <c r="D64" s="57"/>
       <c r="E64" s="54">
+        <f t="shared" si="2"/>
+        <v>215</v>
+      </c>
+      <c r="F64" s="5">
         <f t="shared" si="0"/>
-        <v>215</v>
-      </c>
-      <c r="F64" s="5">
-        <f>(B64-B63)</f>
         <v>239.29999999999927</v>
       </c>
       <c r="G64" s="27">
@@ -18438,7 +19258,7 @@
         <v>86868</v>
       </c>
       <c r="H64" s="6">
-        <f>F64/G64*1000</f>
+        <f t="shared" si="1"/>
         <v>2.7547543399180281</v>
       </c>
     </row>
@@ -18454,11 +19274,11 @@
       </c>
       <c r="D65" s="57"/>
       <c r="E65" s="54">
+        <f t="shared" si="2"/>
+        <v>226</v>
+      </c>
+      <c r="F65" s="5">
         <f t="shared" si="0"/>
-        <v>226</v>
-      </c>
-      <c r="F65" s="5">
-        <f>(B65-B64)</f>
         <v>252.09999999999854</v>
       </c>
       <c r="G65" s="27">
@@ -18466,7 +19286,7 @@
         <v>86339</v>
       </c>
       <c r="H65" s="6">
-        <f>F65/G65*1000</f>
+        <f t="shared" si="1"/>
         <v>2.919885567356566</v>
       </c>
     </row>
@@ -18482,11 +19302,11 @@
       </c>
       <c r="D66" s="57"/>
       <c r="E66" s="54">
+        <f t="shared" si="2"/>
+        <v>244</v>
+      </c>
+      <c r="F66" s="5">
         <f t="shared" si="0"/>
-        <v>244</v>
-      </c>
-      <c r="F66" s="5">
-        <f>(B66-B65)</f>
         <v>268.90000000000146</v>
       </c>
       <c r="G66" s="27">
@@ -18494,7 +19314,7 @@
         <v>92995</v>
       </c>
       <c r="H66" s="6">
-        <f>F66/G66*1000</f>
+        <f t="shared" si="1"/>
         <v>2.8915533093177208</v>
       </c>
     </row>
@@ -18510,11 +19330,11 @@
       </c>
       <c r="D67" s="57"/>
       <c r="E67" s="54">
+        <f t="shared" si="2"/>
+        <v>286</v>
+      </c>
+      <c r="F67" s="5">
         <f t="shared" si="0"/>
-        <v>286</v>
-      </c>
-      <c r="F67" s="5">
-        <f>(B67-B66)</f>
         <v>316.79999999999927</v>
       </c>
       <c r="G67" s="27">
@@ -18522,7 +19342,7 @@
         <v>103104</v>
       </c>
       <c r="H67" s="6">
-        <f>F67/G67*1000</f>
+        <f t="shared" si="1"/>
         <v>3.072625698324015</v>
       </c>
     </row>
@@ -18538,11 +19358,11 @@
       </c>
       <c r="D68" s="57"/>
       <c r="E68" s="54">
+        <f t="shared" si="2"/>
+        <v>239</v>
+      </c>
+      <c r="F68" s="5">
         <f t="shared" si="0"/>
-        <v>239</v>
-      </c>
-      <c r="F68" s="5">
-        <f>(B68-B67)</f>
         <v>264.79999999999927</v>
       </c>
       <c r="G68" s="27">
@@ -18550,7 +19370,7 @@
         <v>101998</v>
       </c>
       <c r="H68" s="6">
-        <f>F68/G68*1000</f>
+        <f t="shared" si="1"/>
         <v>2.5961293358693238</v>
       </c>
     </row>
@@ -18566,11 +19386,11 @@
       </c>
       <c r="D69" s="57"/>
       <c r="E69" s="54">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>246</v>
       </c>
       <c r="F69" s="5">
-        <f>(B69-B68)</f>
+        <f t="shared" ref="F69:F106" si="3">(B69-B68)</f>
         <v>274.30000000000291</v>
       </c>
       <c r="G69" s="27">
@@ -18578,7 +19398,7 @@
         <v>94813</v>
       </c>
       <c r="H69" s="6">
-        <f>F69/G69*1000</f>
+        <f t="shared" ref="H69:H132" si="4">F69/G69*1000</f>
         <v>2.8930631875376047</v>
       </c>
     </row>
@@ -18594,11 +19414,11 @@
       </c>
       <c r="D70" s="57"/>
       <c r="E70" s="54">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>293</v>
       </c>
       <c r="F70" s="5">
-        <f>(B70-B69)</f>
+        <f t="shared" si="3"/>
         <v>257.59999999999854</v>
       </c>
       <c r="G70" s="27">
@@ -18606,7 +19426,7 @@
         <v>87541</v>
       </c>
       <c r="H70" s="6">
-        <f>F70/G70*1000</f>
+        <f t="shared" si="4"/>
         <v>2.9426211717937711</v>
       </c>
     </row>
@@ -18622,11 +19442,11 @@
       </c>
       <c r="D71" s="57"/>
       <c r="E71" s="54">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>267</v>
       </c>
       <c r="F71" s="5">
-        <f>(B71-B70)</f>
+        <f t="shared" si="3"/>
         <v>291.70000000000073</v>
       </c>
       <c r="G71" s="27">
@@ -18634,7 +19454,7 @@
         <v>102068</v>
       </c>
       <c r="H71" s="6">
-        <f>F71/G71*1000</f>
+        <f t="shared" si="4"/>
         <v>2.8578986557981025</v>
       </c>
     </row>
@@ -18650,11 +19470,11 @@
       </c>
       <c r="D72" s="57"/>
       <c r="E72" s="54">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>247</v>
       </c>
       <c r="F72" s="5">
-        <f>(B72-B71)</f>
+        <f t="shared" si="3"/>
         <v>269.89999999999782</v>
       </c>
       <c r="G72" s="27">
@@ -18662,7 +19482,7 @@
         <v>96055</v>
       </c>
       <c r="H72" s="6">
-        <f>F72/G72*1000</f>
+        <f t="shared" si="4"/>
         <v>2.8098485242829403</v>
       </c>
     </row>
@@ -18678,11 +19498,11 @@
       </c>
       <c r="D73" s="57"/>
       <c r="E73" s="54">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>231</v>
       </c>
       <c r="F73" s="5">
-        <f>(B73-B72)</f>
+        <f t="shared" si="3"/>
         <v>254.60000000000218</v>
       </c>
       <c r="G73" s="27">
@@ -18690,7 +19510,7 @@
         <v>89275</v>
       </c>
       <c r="H73" s="6">
-        <f>F73/G73*1000</f>
+        <f t="shared" si="4"/>
         <v>2.8518622234668407</v>
       </c>
     </row>
@@ -18706,11 +19526,11 @@
       </c>
       <c r="D74" s="57"/>
       <c r="E74" s="54">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>252</v>
       </c>
       <c r="F74" s="5">
-        <f>(B74-B73)</f>
+        <f t="shared" si="3"/>
         <v>278.39999999999782</v>
       </c>
       <c r="G74" s="27">
@@ -18718,7 +19538,7 @@
         <v>96482</v>
       </c>
       <c r="H74" s="6">
-        <f>F74/G74*1000</f>
+        <f t="shared" si="4"/>
         <v>2.8855123235421924</v>
       </c>
     </row>
@@ -18734,11 +19554,11 @@
       </c>
       <c r="D75" s="57"/>
       <c r="E75" s="54">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>245</v>
       </c>
       <c r="F75" s="5">
-        <f>(B75-B74)</f>
+        <f t="shared" si="3"/>
         <v>224.20000000000073</v>
       </c>
       <c r="G75" s="27">
@@ -18746,7 +19566,7 @@
         <v>95707</v>
       </c>
       <c r="H75" s="6">
-        <f>F75/G75*1000</f>
+        <f t="shared" si="4"/>
         <v>2.3425663744553766</v>
       </c>
     </row>
@@ -18762,11 +19582,11 @@
       </c>
       <c r="D76" s="57"/>
       <c r="E76" s="54">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>246</v>
       </c>
       <c r="F76" s="5">
-        <f>(B76-B75)</f>
+        <f t="shared" si="3"/>
         <v>311.90000000000146</v>
       </c>
       <c r="G76" s="27">
@@ -18774,7 +19594,7 @@
         <v>93853</v>
       </c>
       <c r="H76" s="6">
-        <f>F76/G76*1000</f>
+        <f t="shared" si="4"/>
         <v>3.3232821540068134</v>
       </c>
     </row>
@@ -18790,11 +19610,11 @@
       </c>
       <c r="D77" s="57"/>
       <c r="E77" s="54">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>223</v>
       </c>
       <c r="F77" s="5">
-        <f>(B77-B76)</f>
+        <f t="shared" si="3"/>
         <v>246.59999999999854</v>
       </c>
       <c r="G77" s="27">
@@ -18802,7 +19622,7 @@
         <v>87315</v>
       </c>
       <c r="H77" s="6">
-        <f>F77/G77*1000</f>
+        <f t="shared" si="4"/>
         <v>2.8242570005153587</v>
       </c>
     </row>
@@ -18818,11 +19638,11 @@
       </c>
       <c r="D78" s="57"/>
       <c r="E78" s="54">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>257</v>
       </c>
       <c r="F78" s="5">
-        <f>(B78-B77)</f>
+        <f t="shared" si="3"/>
         <v>283.70000000000073</v>
       </c>
       <c r="G78" s="27">
@@ -18830,7 +19650,7 @@
         <v>95461</v>
       </c>
       <c r="H78" s="6">
-        <f>F78/G78*1000</f>
+        <f t="shared" si="4"/>
         <v>2.9718942814343108</v>
       </c>
     </row>
@@ -18846,11 +19666,11 @@
       </c>
       <c r="D79" s="57"/>
       <c r="E79" s="54">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>252</v>
       </c>
       <c r="F79" s="5">
-        <f>(B79-B78)</f>
+        <f t="shared" si="3"/>
         <v>278.79999999999927</v>
       </c>
       <c r="G79" s="27">
@@ -18858,7 +19678,7 @@
         <v>100396</v>
       </c>
       <c r="H79" s="6">
-        <f>F79/G79*1000</f>
+        <f t="shared" si="4"/>
         <v>2.7770030678513016</v>
       </c>
     </row>
@@ -18874,11 +19694,11 @@
       </c>
       <c r="D80" s="57"/>
       <c r="E80" s="54">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>224</v>
       </c>
       <c r="F80" s="5">
-        <f>(B80-B79)</f>
+        <f t="shared" si="3"/>
         <v>250.70000000000073</v>
       </c>
       <c r="G80" s="27">
@@ -18886,11 +19706,11 @@
         <v>81090</v>
       </c>
       <c r="H80" s="6">
-        <f>F80/G80*1000</f>
+        <f t="shared" si="4"/>
         <v>3.0916265877420241</v>
       </c>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A81" s="19">
         <v>45737</v>
       </c>
@@ -18902,11 +19722,11 @@
       </c>
       <c r="D81" s="57"/>
       <c r="E81" s="54">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>246</v>
       </c>
       <c r="F81" s="5">
-        <f>(B81-B80)</f>
+        <f t="shared" si="3"/>
         <v>271.70000000000073</v>
       </c>
       <c r="G81" s="27">
@@ -18914,11 +19734,11 @@
         <v>95577</v>
       </c>
       <c r="H81" s="6">
-        <f>F81/G81*1000</f>
+        <f t="shared" si="4"/>
         <v>2.8427341305962806</v>
       </c>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A82" s="19">
         <v>45738</v>
       </c>
@@ -18930,11 +19750,11 @@
       </c>
       <c r="D82" s="57"/>
       <c r="E82" s="54">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>234</v>
       </c>
       <c r="F82" s="5">
-        <f>(B82-B81)</f>
+        <f t="shared" si="3"/>
         <v>262.79999999999927</v>
       </c>
       <c r="G82" s="27">
@@ -18942,11 +19762,11 @@
         <v>91932</v>
       </c>
       <c r="H82" s="6">
-        <f>F82/G82*1000</f>
+        <f t="shared" si="4"/>
         <v>2.8586346429969898</v>
       </c>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A83" s="19">
         <v>45739</v>
       </c>
@@ -18958,11 +19778,11 @@
       </c>
       <c r="D83" s="57"/>
       <c r="E83" s="54">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>261</v>
       </c>
       <c r="F83" s="5">
-        <f>(B83-B82)</f>
+        <f t="shared" si="3"/>
         <v>289.79999999999927</v>
       </c>
       <c r="G83" s="27">
@@ -18970,11 +19790,11 @@
         <v>100753</v>
       </c>
       <c r="H83" s="6">
-        <f>F83/G83*1000</f>
+        <f t="shared" si="4"/>
         <v>2.8763411511319692</v>
       </c>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A84" s="19">
         <v>45740</v>
       </c>
@@ -18986,11 +19806,11 @@
       </c>
       <c r="D84" s="57"/>
       <c r="E84" s="54">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>239</v>
       </c>
       <c r="F84" s="5">
-        <f>(B84-B83)</f>
+        <f t="shared" si="3"/>
         <v>264.10000000000218</v>
       </c>
       <c r="G84" s="27">
@@ -18998,11 +19818,11 @@
         <v>93401</v>
       </c>
       <c r="H84" s="6">
-        <f>F84/G84*1000</f>
+        <f t="shared" si="4"/>
         <v>2.8275928523249449</v>
       </c>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A85" s="19">
         <v>45741</v>
       </c>
@@ -19014,11 +19834,11 @@
       </c>
       <c r="D85" s="54"/>
       <c r="E85" s="54">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>234</v>
       </c>
       <c r="F85" s="5">
-        <f>(B85-B84)</f>
+        <f t="shared" si="3"/>
         <v>256.79999999999927</v>
       </c>
       <c r="G85" s="27">
@@ -19026,11 +19846,11 @@
         <v>91355</v>
       </c>
       <c r="H85" s="6">
-        <f>F85/G85*1000</f>
+        <f t="shared" si="4"/>
         <v>2.8110119862076433</v>
       </c>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A86" s="21">
         <v>45742</v>
       </c>
@@ -19042,11 +19862,11 @@
       </c>
       <c r="D86" s="54"/>
       <c r="E86" s="54">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>203</v>
       </c>
       <c r="F86" s="5">
-        <f>(B86-B85)</f>
+        <f t="shared" si="3"/>
         <v>224.39999999999782</v>
       </c>
       <c r="G86" s="27">
@@ -19054,11 +19874,11 @@
         <v>78856</v>
       </c>
       <c r="H86" s="6">
-        <f>F86/G86*1000</f>
+        <f t="shared" si="4"/>
         <v>2.8456934158465788</v>
       </c>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A87" s="12">
         <v>45743</v>
       </c>
@@ -19070,11 +19890,11 @@
       </c>
       <c r="D87" s="54"/>
       <c r="E87" s="54">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="F87" s="5">
-        <f>(B87-B86)</f>
+        <f t="shared" si="3"/>
         <v>252</v>
       </c>
       <c r="G87" s="27">
@@ -19082,11 +19902,11 @@
         <v>86228</v>
       </c>
       <c r="H87" s="6">
-        <f>F87/G87*1000</f>
+        <f t="shared" si="4"/>
         <v>2.92248457577585</v>
       </c>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A88" s="12">
         <v>45744</v>
       </c>
@@ -19097,11 +19917,11 @@
       <c r="C88" s="5"/>
       <c r="D88" s="54"/>
       <c r="E88" s="54">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>-26624</v>
       </c>
       <c r="F88" s="46">
-        <f>G88*2.82/1000</f>
+        <f t="shared" ref="F88:F93" si="5">G88*2.82/1000</f>
         <v>283.60176000000001</v>
       </c>
       <c r="G88" s="27">
@@ -19109,11 +19929,11 @@
         <v>100568</v>
       </c>
       <c r="H88" s="6">
-        <f>F88/G88*1000</f>
+        <f t="shared" si="4"/>
         <v>2.82</v>
       </c>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A89" s="12">
         <v>45745</v>
       </c>
@@ -19124,11 +19944,11 @@
       <c r="C89" s="5"/>
       <c r="D89" s="54"/>
       <c r="E89" s="54">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="F89" s="46">
-        <f>G89*2.82/1000</f>
+        <f t="shared" si="5"/>
         <v>289.78320000000002</v>
       </c>
       <c r="G89" s="27">
@@ -19136,11 +19956,11 @@
         <v>102760</v>
       </c>
       <c r="H89" s="6">
-        <f>F89/G89*1000</f>
+        <f t="shared" si="4"/>
         <v>2.82</v>
       </c>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A90" s="12">
         <v>45746</v>
       </c>
@@ -19151,11 +19971,11 @@
       <c r="C90" s="5"/>
       <c r="D90" s="54"/>
       <c r="E90" s="54">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="F90" s="46">
-        <f>G90*2.82/1000</f>
+        <f t="shared" si="5"/>
         <v>298.30523999999997</v>
       </c>
       <c r="G90" s="27">
@@ -19163,11 +19983,11 @@
         <v>105782</v>
       </c>
       <c r="H90" s="6">
-        <f>F90/G90*1000</f>
+        <f t="shared" si="4"/>
         <v>2.8199999999999994</v>
       </c>
     </row>
-    <row r="91" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A91" s="12">
         <v>45747</v>
       </c>
@@ -19178,11 +19998,11 @@
       <c r="C91" s="43"/>
       <c r="D91" s="57"/>
       <c r="E91" s="57">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="F91" s="51">
-        <f>G91*2.82/1000</f>
+        <f t="shared" si="5"/>
         <v>295.00301999999994</v>
       </c>
       <c r="G91" s="27">
@@ -19190,11 +20010,11 @@
         <v>104611</v>
       </c>
       <c r="H91" s="52">
-        <f>F91/G91*1000</f>
+        <f t="shared" si="4"/>
         <v>2.8199999999999994</v>
       </c>
     </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A92" s="12">
         <v>45748</v>
       </c>
@@ -19205,11 +20025,11 @@
       <c r="C92" s="18"/>
       <c r="D92" s="53"/>
       <c r="E92" s="53">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="F92" s="49">
-        <f>G92*2.82/1000</f>
+        <f t="shared" si="5"/>
         <v>298.37574000000001</v>
       </c>
       <c r="G92" s="35">
@@ -19217,11 +20037,15 @@
         <v>105807</v>
       </c>
       <c r="H92" s="22">
-        <f>F92/G92*1000</f>
+        <f t="shared" si="4"/>
         <v>2.82</v>
       </c>
-    </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I92" s="60">
+        <f>SUM(F92:F121)</f>
+        <v>7737.9107000000022</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A93" s="12">
         <v>45749</v>
       </c>
@@ -19231,11 +20055,11 @@
       <c r="C93" s="5"/>
       <c r="D93" s="54"/>
       <c r="E93" s="54">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="F93" s="46">
-        <f>G93*2.82/1000</f>
+        <f t="shared" si="5"/>
         <v>298.43495999999999</v>
       </c>
       <c r="G93" s="27">
@@ -19243,11 +20067,12 @@
         <v>105828</v>
       </c>
       <c r="H93" s="6">
-        <f>F93/G93*1000</f>
+        <f t="shared" si="4"/>
         <v>2.82</v>
       </c>
-    </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I93" s="61"/>
+    </row>
+    <row r="94" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A94" s="12">
         <v>45750</v>
       </c>
@@ -19257,11 +20082,11 @@
       <c r="C94" s="5"/>
       <c r="D94" s="54"/>
       <c r="E94" s="54">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="F94" s="5">
-        <f>(B94-B93)</f>
+        <f t="shared" si="3"/>
         <v>319.10000000000218</v>
       </c>
       <c r="G94" s="27">
@@ -19269,11 +20094,12 @@
         <v>106116</v>
       </c>
       <c r="H94" s="6">
-        <f>F94/G94*1000</f>
+        <f t="shared" si="4"/>
         <v>3.0070865844924626</v>
       </c>
-    </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I94" s="61"/>
+    </row>
+    <row r="95" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A95" s="12">
         <v>45751</v>
       </c>
@@ -19283,11 +20109,11 @@
       <c r="C95" s="5"/>
       <c r="D95" s="54"/>
       <c r="E95" s="54">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="F95" s="5">
-        <f>(B95-B94)</f>
+        <f t="shared" si="3"/>
         <v>280</v>
       </c>
       <c r="G95" s="27">
@@ -19295,11 +20121,12 @@
         <v>105724</v>
       </c>
       <c r="H95" s="6">
-        <f>F95/G95*1000</f>
+        <f t="shared" si="4"/>
         <v>2.6484052816768191</v>
       </c>
-    </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I95" s="61"/>
+    </row>
+    <row r="96" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A96" s="12">
         <v>45752</v>
       </c>
@@ -19309,11 +20136,11 @@
       <c r="C96" s="5"/>
       <c r="D96" s="54"/>
       <c r="E96" s="54">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="F96" s="5">
-        <f>(B96-B95)</f>
+        <f t="shared" si="3"/>
         <v>253.19999999999709</v>
       </c>
       <c r="G96" s="27">
@@ -19321,11 +20148,12 @@
         <v>91045</v>
       </c>
       <c r="H96" s="6">
-        <f>F96/G96*1000</f>
+        <f t="shared" si="4"/>
         <v>2.7810423416991279</v>
       </c>
-    </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I96" s="61"/>
+    </row>
+    <row r="97" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A97" s="12">
         <v>45753</v>
       </c>
@@ -19337,11 +20165,11 @@
       </c>
       <c r="D97" s="54"/>
       <c r="E97" s="54">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>29413</v>
       </c>
       <c r="F97" s="5">
-        <f>(B97-B96)</f>
+        <f t="shared" si="3"/>
         <v>250.20000000000437</v>
       </c>
       <c r="G97" s="27">
@@ -19349,11 +20177,12 @@
         <v>87247</v>
       </c>
       <c r="H97" s="6">
-        <f>F97/G97*1000</f>
+        <f t="shared" si="4"/>
         <v>2.8677203800704252</v>
       </c>
-    </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I97" s="61"/>
+    </row>
+    <row r="98" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A98" s="12">
         <v>45754</v>
       </c>
@@ -19368,11 +20197,11 @@
         <v>24</v>
       </c>
       <c r="E98" s="54">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>212</v>
       </c>
       <c r="F98" s="5">
-        <f>(B98-B97)</f>
+        <f t="shared" si="3"/>
         <v>236</v>
       </c>
       <c r="G98" s="27">
@@ -19380,11 +20209,12 @@
         <v>86226</v>
       </c>
       <c r="H98" s="6">
-        <f>F98/G98*1000</f>
+        <f t="shared" si="4"/>
         <v>2.7369934822443347</v>
       </c>
-    </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I98" s="61"/>
+    </row>
+    <row r="99" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A99" s="12">
         <v>45755</v>
       </c>
@@ -19395,15 +20225,15 @@
         <v>29866</v>
       </c>
       <c r="D99" s="54">
-        <f t="shared" ref="D99:D142" si="1">F99-E99</f>
+        <f t="shared" ref="D99:D148" si="6">F99-E99</f>
         <v>27</v>
       </c>
       <c r="E99" s="54">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>241</v>
       </c>
       <c r="F99" s="5">
-        <f>(B99-B98)</f>
+        <f t="shared" si="3"/>
         <v>268</v>
       </c>
       <c r="G99" s="27">
@@ -19411,11 +20241,12 @@
         <v>93832</v>
       </c>
       <c r="H99" s="6">
-        <f>F99/G99*1000</f>
+        <f t="shared" si="4"/>
         <v>2.8561684713104269</v>
       </c>
-    </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I99" s="61"/>
+    </row>
+    <row r="100" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A100" s="12">
         <v>45756</v>
       </c>
@@ -19426,15 +20257,15 @@
         <v>30112</v>
       </c>
       <c r="D100" s="54">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>27.19999999999709</v>
       </c>
       <c r="E100" s="54">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>246</v>
       </c>
       <c r="F100" s="5">
-        <f>(B100-B99)</f>
+        <f t="shared" si="3"/>
         <v>273.19999999999709</v>
       </c>
       <c r="G100" s="27">
@@ -19442,11 +20273,12 @@
         <v>94856</v>
       </c>
       <c r="H100" s="6">
-        <f>F100/G100*1000</f>
+        <f t="shared" si="4"/>
         <v>2.8801551825925307</v>
       </c>
-    </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I100" s="61"/>
+    </row>
+    <row r="101" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A101" s="12">
         <v>45757</v>
       </c>
@@ -19457,15 +20289,15 @@
         <v>30366</v>
       </c>
       <c r="D101" s="54">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>27.099999999998545</v>
       </c>
       <c r="E101" s="54">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>254</v>
       </c>
       <c r="F101" s="5">
-        <f>(B101-B100)</f>
+        <f t="shared" si="3"/>
         <v>281.09999999999854</v>
       </c>
       <c r="G101" s="27">
@@ -19473,11 +20305,12 @@
         <v>100087</v>
       </c>
       <c r="H101" s="6">
-        <f>F101/G101*1000</f>
+        <f t="shared" si="4"/>
         <v>2.8085565557964425</v>
       </c>
-    </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I101" s="61"/>
+    </row>
+    <row r="102" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A102" s="12">
         <v>45758</v>
       </c>
@@ -19488,15 +20321,15 @@
         <v>30646</v>
       </c>
       <c r="D102" s="54">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>17.5</v>
       </c>
       <c r="E102" s="54">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>280</v>
       </c>
       <c r="F102" s="5">
-        <f>(B102-B101)</f>
+        <f t="shared" si="3"/>
         <v>297.5</v>
       </c>
       <c r="G102" s="27">
@@ -19504,11 +20337,12 @@
         <v>103544</v>
       </c>
       <c r="H102" s="6">
-        <f>F102/G102*1000</f>
+        <f t="shared" si="4"/>
         <v>2.8731746890210923</v>
       </c>
-    </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I102" s="61"/>
+    </row>
+    <row r="103" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A103" s="12">
         <v>45759</v>
       </c>
@@ -19519,15 +20353,15 @@
         <v>30837</v>
       </c>
       <c r="D103" s="54">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>32.700000000004366</v>
       </c>
       <c r="E103" s="54">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>191</v>
       </c>
       <c r="F103" s="5">
-        <f>(B103-B102)</f>
+        <f t="shared" si="3"/>
         <v>223.70000000000437</v>
       </c>
       <c r="G103" s="27">
@@ -19535,11 +20369,12 @@
         <v>80076</v>
       </c>
       <c r="H103" s="6">
-        <f>F103/G103*1000</f>
+        <f t="shared" si="4"/>
         <v>2.7935960837205203</v>
       </c>
-    </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I103" s="61"/>
+    </row>
+    <row r="104" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A104" s="12">
         <v>45760</v>
       </c>
@@ -19550,15 +20385,15 @@
         <v>31071</v>
       </c>
       <c r="D104" s="54">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>9.1999999999970896</v>
       </c>
       <c r="E104" s="54">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>234</v>
       </c>
       <c r="F104" s="5">
-        <f>(B104-B103)</f>
+        <f t="shared" si="3"/>
         <v>243.19999999999709</v>
       </c>
       <c r="G104" s="27">
@@ -19566,11 +20401,12 @@
         <v>88603</v>
       </c>
       <c r="H104" s="6">
-        <f>F104/G104*1000</f>
+        <f t="shared" si="4"/>
         <v>2.744828053226156</v>
       </c>
-    </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I104" s="61"/>
+    </row>
+    <row r="105" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A105" s="12">
         <v>45761</v>
       </c>
@@ -19581,15 +20417,15 @@
         <v>31328</v>
       </c>
       <c r="D105" s="54">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>43</v>
       </c>
       <c r="E105" s="54">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>257</v>
       </c>
       <c r="F105" s="5">
-        <f>(B105-B104)</f>
+        <f t="shared" si="3"/>
         <v>300</v>
       </c>
       <c r="G105" s="27">
@@ -19597,11 +20433,12 @@
         <v>103815</v>
       </c>
       <c r="H105" s="6">
-        <f>F105/G105*1000</f>
+        <f t="shared" si="4"/>
         <v>2.889755815633579</v>
       </c>
-    </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I105" s="61"/>
+    </row>
+    <row r="106" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A106" s="12">
         <v>45762</v>
       </c>
@@ -19612,15 +20449,15 @@
         <v>31572</v>
       </c>
       <c r="D106" s="54">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>26.30000000000291</v>
       </c>
       <c r="E106" s="54">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>244</v>
       </c>
       <c r="F106" s="5">
-        <f>(B106-B105)</f>
+        <f t="shared" si="3"/>
         <v>270.30000000000291</v>
       </c>
       <c r="G106" s="27">
@@ -19628,11 +20465,12 @@
         <v>97338</v>
       </c>
       <c r="H106" s="6">
-        <f>F106/G106*1000</f>
+        <f t="shared" si="4"/>
         <v>2.7769216544412556</v>
       </c>
-    </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I106" s="61"/>
+    </row>
+    <row r="107" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A107" s="12">
         <v>45763</v>
       </c>
@@ -19643,15 +20481,15 @@
         <v>31813</v>
       </c>
       <c r="D107" s="54">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>25.69999999999709</v>
       </c>
       <c r="E107" s="54">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>241</v>
       </c>
       <c r="F107" s="5">
-        <f>(B107-B106)</f>
+        <f t="shared" ref="F107:F138" si="7">(B107-B106)</f>
         <v>266.69999999999709</v>
       </c>
       <c r="G107" s="27">
@@ -19659,11 +20497,12 @@
         <v>96048</v>
       </c>
       <c r="H107" s="6">
-        <f>F107/G107*1000</f>
+        <f t="shared" si="4"/>
         <v>2.7767366316841273</v>
       </c>
-    </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I107" s="61"/>
+    </row>
+    <row r="108" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A108" s="12">
         <v>45764</v>
       </c>
@@ -19674,15 +20513,15 @@
         <v>32065</v>
       </c>
       <c r="D108" s="54">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>28.099999999998545</v>
       </c>
       <c r="E108" s="54">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>252</v>
       </c>
       <c r="F108" s="5">
-        <f>(B108-B107)</f>
+        <f t="shared" si="7"/>
         <v>280.09999999999854</v>
       </c>
       <c r="G108" s="27">
@@ -19690,11 +20529,12 @@
         <v>96857</v>
       </c>
       <c r="H108" s="6">
-        <f>F108/G108*1000</f>
+        <f t="shared" si="4"/>
         <v>2.8918921709323904</v>
       </c>
-    </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I108" s="61"/>
+    </row>
+    <row r="109" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A109" s="12">
         <v>45765</v>
       </c>
@@ -19705,15 +20545,15 @@
         <v>32314</v>
       </c>
       <c r="D109" s="54">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>25.900000000001455</v>
       </c>
       <c r="E109" s="54">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>249</v>
       </c>
       <c r="F109" s="5">
-        <f>(B109-B108)</f>
+        <f t="shared" si="7"/>
         <v>274.90000000000146</v>
       </c>
       <c r="G109" s="27">
@@ -19721,11 +20561,12 @@
         <v>99561</v>
       </c>
       <c r="H109" s="6">
-        <f>F109/G109*1000</f>
+        <f t="shared" si="4"/>
         <v>2.7611213226062561</v>
       </c>
-    </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I109" s="61"/>
+    </row>
+    <row r="110" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A110" s="12">
         <v>45766</v>
       </c>
@@ -19736,15 +20577,15 @@
         <v>32557</v>
       </c>
       <c r="D110" s="54">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>25.69999999999709</v>
       </c>
       <c r="E110" s="54">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>243</v>
       </c>
       <c r="F110" s="5">
-        <f>(B110-B109)</f>
+        <f t="shared" si="7"/>
         <v>268.69999999999709</v>
       </c>
       <c r="G110" s="27">
@@ -19752,11 +20593,12 @@
         <v>93104</v>
       </c>
       <c r="H110" s="6">
-        <f>F110/G110*1000</f>
+        <f t="shared" si="4"/>
         <v>2.8860199346966522</v>
       </c>
-    </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I110" s="61"/>
+    </row>
+    <row r="111" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A111" s="12">
         <v>45767</v>
       </c>
@@ -19767,15 +20609,15 @@
         <v>32810</v>
       </c>
       <c r="D111" s="54">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>28.100000000005821</v>
       </c>
       <c r="E111" s="54">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>253</v>
       </c>
       <c r="F111" s="5">
-        <f>(B111-B110)</f>
+        <f t="shared" si="7"/>
         <v>281.10000000000582</v>
       </c>
       <c r="G111" s="27">
@@ -19783,11 +20625,12 @@
         <v>97559</v>
       </c>
       <c r="H111" s="6">
-        <f>F111/G111*1000</f>
+        <f t="shared" si="4"/>
         <v>2.8813333470003362</v>
       </c>
-    </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I111" s="61"/>
+    </row>
+    <row r="112" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A112" s="12">
         <v>45768</v>
       </c>
@@ -19798,15 +20641,15 @@
         <v>33078</v>
       </c>
       <c r="D112" s="54">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>29.299999999995634</v>
       </c>
       <c r="E112" s="54">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>268</v>
       </c>
       <c r="F112" s="5">
-        <f>(B112-B111)</f>
+        <f t="shared" si="7"/>
         <v>297.29999999999563</v>
       </c>
       <c r="G112" s="27">
@@ -19814,11 +20657,12 @@
         <v>104496</v>
       </c>
       <c r="H112" s="6">
-        <f>F112/G112*1000</f>
+        <f t="shared" si="4"/>
         <v>2.8450849793293105</v>
       </c>
-    </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I112" s="61"/>
+    </row>
+    <row r="113" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A113" s="12">
         <v>45769</v>
       </c>
@@ -19829,15 +20673,15 @@
         <v>33297</v>
       </c>
       <c r="D113" s="54">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>26.80000000000291</v>
       </c>
       <c r="E113" s="54">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>219</v>
       </c>
       <c r="F113" s="5">
-        <f>(B113-B112)</f>
+        <f t="shared" si="7"/>
         <v>245.80000000000291</v>
       </c>
       <c r="G113" s="27">
@@ -19845,11 +20689,12 @@
         <v>89813</v>
       </c>
       <c r="H113" s="6">
-        <f>F113/G113*1000</f>
+        <f t="shared" si="4"/>
         <v>2.7367975682807937</v>
       </c>
-    </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I113" s="61"/>
+    </row>
+    <row r="114" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A114" s="12">
         <v>45770</v>
       </c>
@@ -19860,15 +20705,15 @@
         <v>33527</v>
       </c>
       <c r="D114" s="54">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>22.19999999999709</v>
       </c>
       <c r="E114" s="54">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>230</v>
       </c>
       <c r="F114" s="5">
-        <f>(B114-B113)</f>
+        <f t="shared" si="7"/>
         <v>252.19999999999709</v>
       </c>
       <c r="G114" s="27">
@@ -19876,11 +20721,12 @@
         <v>86328</v>
       </c>
       <c r="H114" s="6">
-        <f>F114/G114*1000</f>
+        <f t="shared" si="4"/>
         <v>2.9214159948104563</v>
       </c>
-    </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I114" s="61"/>
+    </row>
+    <row r="115" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A115" s="12">
         <v>45771</v>
       </c>
@@ -19891,15 +20737,15 @@
         <v>33789</v>
       </c>
       <c r="D115" s="54">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>28</v>
       </c>
       <c r="E115" s="54">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>262</v>
       </c>
       <c r="F115" s="5">
-        <f>(B115-B114)</f>
+        <f t="shared" si="7"/>
         <v>290</v>
       </c>
       <c r="G115" s="27">
@@ -19907,11 +20753,12 @@
         <v>105339</v>
       </c>
       <c r="H115" s="6">
-        <f>F115/G115*1000</f>
+        <f t="shared" si="4"/>
         <v>2.7530164516465887</v>
       </c>
-    </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I115" s="61"/>
+    </row>
+    <row r="116" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A116" s="12">
         <v>45772</v>
       </c>
@@ -19922,15 +20769,15 @@
         <v>34126</v>
       </c>
       <c r="D116" s="54">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>-34</v>
       </c>
       <c r="E116" s="54">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>337</v>
       </c>
       <c r="F116" s="5">
-        <f>(B116-B115)</f>
+        <f t="shared" si="7"/>
         <v>303</v>
       </c>
       <c r="G116" s="27">
@@ -19938,11 +20785,12 @@
         <v>104000</v>
       </c>
       <c r="H116" s="6">
-        <f>F116/G116*1000</f>
+        <f t="shared" si="4"/>
         <v>2.9134615384615383</v>
       </c>
-    </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I116" s="61"/>
+    </row>
+    <row r="117" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A117" s="12">
         <v>45773</v>
       </c>
@@ -19953,15 +20801,15 @@
         <v>34385</v>
       </c>
       <c r="D117" s="54">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>25.80000000000291</v>
       </c>
       <c r="E117" s="54">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>259</v>
       </c>
       <c r="F117" s="5">
-        <f>(B117-B116)</f>
+        <f t="shared" si="7"/>
         <v>284.80000000000291</v>
       </c>
       <c r="G117" s="27">
@@ -19969,11 +20817,12 @@
         <v>104023</v>
       </c>
       <c r="H117" s="6">
-        <f>F117/G117*1000</f>
+        <f t="shared" si="4"/>
         <v>2.7378560510656578</v>
       </c>
-    </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I117" s="61"/>
+    </row>
+    <row r="118" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A118" s="12">
         <v>45774</v>
       </c>
@@ -19984,15 +20833,15 @@
         <v>34499</v>
       </c>
       <c r="D118" s="54">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>14.900000000001455</v>
       </c>
       <c r="E118" s="54">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>114</v>
       </c>
       <c r="F118" s="5">
-        <f>(B118-B117)</f>
+        <f t="shared" si="7"/>
         <v>128.90000000000146</v>
       </c>
       <c r="G118" s="27">
@@ -20000,11 +20849,12 @@
         <v>40540</v>
       </c>
       <c r="H118" s="6">
-        <f>F118/G118*1000</f>
+        <f t="shared" si="4"/>
         <v>3.1795757276764047</v>
       </c>
-    </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I118" s="61"/>
+    </row>
+    <row r="119" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A119" s="12">
         <v>45775</v>
       </c>
@@ -20015,15 +20865,15 @@
         <v>34606</v>
       </c>
       <c r="D119" s="54">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>13</v>
       </c>
       <c r="E119" s="54">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>107</v>
       </c>
       <c r="F119" s="5">
-        <f>(B119-B118)</f>
+        <f t="shared" si="7"/>
         <v>120</v>
       </c>
       <c r="G119" s="27">
@@ -20031,11 +20881,12 @@
         <v>39795</v>
       </c>
       <c r="H119" s="6">
-        <f>F119/G119*1000</f>
+        <f t="shared" si="4"/>
         <v>3.0154542027892952</v>
       </c>
-    </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I119" s="61"/>
+    </row>
+    <row r="120" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A120" s="12">
         <v>45776</v>
       </c>
@@ -20046,15 +20897,15 @@
         <v>34771</v>
       </c>
       <c r="D120" s="54">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>17.899999999994179</v>
       </c>
       <c r="E120" s="54">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>165</v>
       </c>
       <c r="F120" s="5">
-        <f>(B120-B119)</f>
+        <f t="shared" si="7"/>
         <v>182.89999999999418</v>
       </c>
       <c r="G120" s="27">
@@ -20062,11 +20913,12 @@
         <v>66260</v>
       </c>
       <c r="H120" s="6">
-        <f>F120/G120*1000</f>
+        <f t="shared" si="4"/>
         <v>2.7603380621792062</v>
       </c>
-    </row>
-    <row r="121" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I120" s="61"/>
+    </row>
+    <row r="121" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A121" s="12">
         <v>45777</v>
       </c>
@@ -20077,15 +20929,15 @@
         <v>34928</v>
       </c>
       <c r="D121" s="55">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>12.200000000004366</v>
       </c>
       <c r="E121" s="55">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>157</v>
       </c>
       <c r="F121" s="37">
-        <f>(B121-B120)</f>
+        <f t="shared" si="7"/>
         <v>169.20000000000437</v>
       </c>
       <c r="G121" s="9">
@@ -20093,11 +20945,12 @@
         <v>57523</v>
       </c>
       <c r="H121" s="38">
-        <f>F121/G121*1000</f>
+        <f t="shared" si="4"/>
         <v>2.9414321228031288</v>
       </c>
-    </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I121" s="62"/>
+    </row>
+    <row r="122" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A122" s="12">
         <v>45778</v>
       </c>
@@ -20108,15 +20961,15 @@
         <v>35121</v>
       </c>
       <c r="D122" s="59">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>26.19999999999709</v>
       </c>
       <c r="E122" s="59">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>193</v>
       </c>
       <c r="F122" s="10">
-        <f>(B122-B121)</f>
+        <f t="shared" si="7"/>
         <v>219.19999999999709</v>
       </c>
       <c r="G122" s="28">
@@ -20124,11 +20977,15 @@
         <v>73421</v>
       </c>
       <c r="H122" s="44">
-        <f>F122/G122*1000</f>
+        <f t="shared" si="4"/>
         <v>2.9855218534206438</v>
       </c>
-    </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I122" s="60">
+        <f>+SUMIF(F122:F149,"&gt;0")</f>
+        <v>6982.1999999999971</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A123" s="12">
         <v>45779</v>
       </c>
@@ -20139,15 +20996,15 @@
         <v>35316</v>
       </c>
       <c r="D123" s="54">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>22.80000000000291</v>
       </c>
       <c r="E123" s="54">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>195</v>
       </c>
       <c r="F123" s="5">
-        <f>(B123-B122)</f>
+        <f t="shared" si="7"/>
         <v>217.80000000000291</v>
       </c>
       <c r="G123" s="27">
@@ -20155,11 +21012,12 @@
         <v>79045</v>
       </c>
       <c r="H123" s="6">
-        <f>F123/G123*1000</f>
+        <f t="shared" si="4"/>
         <v>2.7553924979442459</v>
       </c>
-    </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I123" s="63"/>
+    </row>
+    <row r="124" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A124" s="12">
         <v>45780</v>
       </c>
@@ -20170,15 +21028,15 @@
         <v>35515</v>
       </c>
       <c r="D124" s="54">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>18.799999999995634</v>
       </c>
       <c r="E124" s="54">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>199</v>
       </c>
       <c r="F124" s="5">
-        <f>(B124-B123)</f>
+        <f t="shared" si="7"/>
         <v>217.79999999999563</v>
       </c>
       <c r="G124" s="27">
@@ -20186,11 +21044,12 @@
         <v>76130</v>
       </c>
       <c r="H124" s="6">
-        <f>F124/G124*1000</f>
+        <f t="shared" si="4"/>
         <v>2.8608958360698233</v>
       </c>
-    </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I124" s="63"/>
+    </row>
+    <row r="125" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A125" s="12">
         <v>45781</v>
       </c>
@@ -20201,15 +21060,15 @@
         <v>35711</v>
       </c>
       <c r="D125" s="54">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>22.100000000005821</v>
       </c>
       <c r="E125" s="54">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>196</v>
       </c>
       <c r="F125" s="5">
-        <f>(B125-B124)</f>
+        <f t="shared" si="7"/>
         <v>218.10000000000582</v>
       </c>
       <c r="G125" s="27">
@@ -20217,11 +21076,12 @@
         <v>76560</v>
       </c>
       <c r="H125" s="6">
-        <f>F125/G125*1000</f>
+        <f t="shared" si="4"/>
         <v>2.8487460815047783</v>
       </c>
-    </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I125" s="63"/>
+    </row>
+    <row r="126" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A126" s="12">
         <v>45782</v>
       </c>
@@ -20232,15 +21092,15 @@
         <v>35973</v>
       </c>
       <c r="D126" s="54">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>28</v>
       </c>
       <c r="E126" s="54">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>262</v>
       </c>
       <c r="F126" s="5">
-        <f>(B126-B125)</f>
+        <f t="shared" si="7"/>
         <v>290</v>
       </c>
       <c r="G126" s="27">
@@ -20248,11 +21108,12 @@
         <v>99121</v>
       </c>
       <c r="H126" s="6">
-        <f>F126/G126*1000</f>
+        <f t="shared" si="4"/>
         <v>2.9257170528949468</v>
       </c>
-    </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I126" s="63"/>
+    </row>
+    <row r="127" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A127" s="12">
         <v>45783</v>
       </c>
@@ -20279,11 +21140,12 @@
         <v>105565</v>
       </c>
       <c r="H127" s="6">
-        <f>F127/G127*1000</f>
+        <f t="shared" si="4"/>
         <v>2.4411500023681816</v>
       </c>
-    </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I127" s="63"/>
+    </row>
+    <row r="128" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A128" s="12">
         <v>45784</v>
       </c>
@@ -20298,7 +21160,7 @@
         <v>70.69999999999709</v>
       </c>
       <c r="E128" s="54">
-        <f t="shared" ref="E128:E142" si="2">C128-C127</f>
+        <f t="shared" ref="E128:E145" si="8">C128-C127</f>
         <v>266</v>
       </c>
       <c r="F128" s="5">
@@ -20310,11 +21172,12 @@
         <v>104085</v>
       </c>
       <c r="H128" s="6">
-        <f>F128/G128*1000</f>
+        <f t="shared" si="4"/>
         <v>3.2348561272036997</v>
       </c>
-    </row>
-    <row r="129" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I128" s="63"/>
+    </row>
+    <row r="129" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A129" s="12">
         <v>45785</v>
       </c>
@@ -20325,15 +21188,15 @@
         <v>36739</v>
       </c>
       <c r="D129" s="54">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>23</v>
       </c>
       <c r="E129" s="54">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>229</v>
       </c>
       <c r="F129" s="5">
-        <f>(B129-B128)</f>
+        <f t="shared" si="7"/>
         <v>252</v>
       </c>
       <c r="G129" s="27">
@@ -20341,11 +21204,12 @@
         <v>89998</v>
       </c>
       <c r="H129" s="6">
-        <f>F129/G129*1000</f>
+        <f t="shared" si="4"/>
         <v>2.8000622236049693</v>
       </c>
-    </row>
-    <row r="130" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I129" s="63"/>
+    </row>
+    <row r="130" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A130" s="12">
         <v>45786</v>
       </c>
@@ -20356,15 +21220,15 @@
         <v>36939</v>
       </c>
       <c r="D130" s="54">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>19.100000000005821</v>
       </c>
       <c r="E130" s="54">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>200</v>
       </c>
       <c r="F130" s="5">
-        <f>(B130-B129)</f>
+        <f t="shared" si="7"/>
         <v>219.10000000000582</v>
       </c>
       <c r="G130" s="27">
@@ -20372,11 +21236,12 @@
         <v>75959</v>
       </c>
       <c r="H130" s="6">
-        <f>F130/G130*1000</f>
+        <f t="shared" si="4"/>
         <v>2.8844508221541334</v>
       </c>
-    </row>
-    <row r="131" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I130" s="63"/>
+    </row>
+    <row r="131" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A131" s="12">
         <v>45787</v>
       </c>
@@ -20387,15 +21252,15 @@
         <v>37138</v>
       </c>
       <c r="D131" s="54">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>21.099999999998545</v>
       </c>
       <c r="E131" s="54">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>199</v>
       </c>
       <c r="F131" s="5">
-        <f>(B131-B130)</f>
+        <f t="shared" si="7"/>
         <v>220.09999999999854</v>
       </c>
       <c r="G131" s="27">
@@ -20403,11 +21268,12 @@
         <v>75666</v>
       </c>
       <c r="H131" s="6">
-        <f>F131/G131*1000</f>
+        <f t="shared" si="4"/>
         <v>2.9088362011999913</v>
       </c>
-    </row>
-    <row r="132" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I131" s="63"/>
+    </row>
+    <row r="132" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A132" s="12">
         <v>45788</v>
       </c>
@@ -20418,15 +21284,15 @@
         <v>37341</v>
       </c>
       <c r="D132" s="54">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>20.69999999999709</v>
       </c>
       <c r="E132" s="54">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>203</v>
       </c>
       <c r="F132" s="5">
-        <f>(B132-B131)</f>
+        <f t="shared" si="7"/>
         <v>223.69999999999709</v>
       </c>
       <c r="G132" s="27">
@@ -20434,11 +21300,12 @@
         <v>75734</v>
       </c>
       <c r="H132" s="6">
-        <f>F132/G132*1000</f>
+        <f t="shared" si="4"/>
         <v>2.9537592098660719</v>
       </c>
-    </row>
-    <row r="133" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I132" s="63"/>
+    </row>
+    <row r="133" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A133" s="12">
         <v>45789</v>
       </c>
@@ -20449,15 +21316,15 @@
         <v>37535</v>
       </c>
       <c r="D133" s="54">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>20.30000000000291</v>
       </c>
       <c r="E133" s="54">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>194</v>
       </c>
       <c r="F133" s="5">
-        <f>(B133-B132)</f>
+        <f t="shared" si="7"/>
         <v>214.30000000000291</v>
       </c>
       <c r="G133" s="27">
@@ -20465,11 +21332,12 @@
         <v>75076</v>
       </c>
       <c r="H133" s="6">
-        <f>F133/G133*1000</f>
+        <f t="shared" ref="H133:H149" si="9">F133/G133*1000</f>
         <v>2.8544408332889728</v>
       </c>
-    </row>
-    <row r="134" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I133" s="63"/>
+    </row>
+    <row r="134" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A134" s="12">
         <v>45790</v>
       </c>
@@ -20480,15 +21348,15 @@
         <v>37731</v>
       </c>
       <c r="D134" s="54">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>20.599999999998545</v>
       </c>
       <c r="E134" s="54">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>196</v>
       </c>
       <c r="F134" s="5">
-        <f>(B134-B133)</f>
+        <f t="shared" si="7"/>
         <v>216.59999999999854</v>
       </c>
       <c r="G134" s="27">
@@ -20496,11 +21364,12 @@
         <v>73979</v>
       </c>
       <c r="H134" s="6">
-        <f>F134/G134*1000</f>
+        <f t="shared" si="9"/>
         <v>2.9278579056218459</v>
       </c>
-    </row>
-    <row r="135" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I134" s="63"/>
+    </row>
+    <row r="135" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A135" s="12">
         <v>45791</v>
       </c>
@@ -20511,15 +21380,15 @@
         <v>37956</v>
       </c>
       <c r="D135" s="54">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>23.19999999999709</v>
       </c>
       <c r="E135" s="54">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>225</v>
       </c>
       <c r="F135" s="5">
-        <f>(B135-B134)</f>
+        <f t="shared" si="7"/>
         <v>248.19999999999709</v>
       </c>
       <c r="G135" s="27">
@@ -20527,11 +21396,12 @@
         <v>84898</v>
       </c>
       <c r="H135" s="6">
-        <f>F135/G135*1000</f>
+        <f t="shared" si="9"/>
         <v>2.9235082098517879</v>
       </c>
-    </row>
-    <row r="136" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I135" s="63"/>
+    </row>
+    <row r="136" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A136" s="12">
         <v>45792</v>
       </c>
@@ -20542,15 +21412,15 @@
         <v>38163</v>
       </c>
       <c r="D136" s="54">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>20.80000000000291</v>
       </c>
       <c r="E136" s="54">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>207</v>
       </c>
       <c r="F136" s="5">
-        <f>(B136-B135)</f>
+        <f t="shared" si="7"/>
         <v>227.80000000000291</v>
       </c>
       <c r="G136" s="27">
@@ -20558,11 +21428,12 @@
         <v>79880</v>
       </c>
       <c r="H136" s="6">
-        <f>F136/G136*1000</f>
+        <f t="shared" si="9"/>
         <v>2.8517776664997863</v>
       </c>
-    </row>
-    <row r="137" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I136" s="63"/>
+    </row>
+    <row r="137" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A137" s="12">
         <v>45793</v>
       </c>
@@ -20573,15 +21444,15 @@
         <v>38373</v>
       </c>
       <c r="D137" s="54">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>21.69999999999709</v>
       </c>
       <c r="E137" s="54">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>210</v>
       </c>
       <c r="F137" s="5">
-        <f>(B137-B136)</f>
+        <f t="shared" si="7"/>
         <v>231.69999999999709</v>
       </c>
       <c r="G137" s="27">
@@ -20589,11 +21460,12 @@
         <v>79544</v>
       </c>
       <c r="H137" s="6">
-        <f>F137/G137*1000</f>
+        <f t="shared" si="9"/>
         <v>2.9128532636024977</v>
       </c>
-    </row>
-    <row r="138" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I137" s="63"/>
+    </row>
+    <row r="138" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A138" s="12">
         <v>45794</v>
       </c>
@@ -20604,15 +21476,15 @@
         <v>38510</v>
       </c>
       <c r="D138" s="54">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>41.5</v>
       </c>
       <c r="E138" s="54">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>137</v>
       </c>
       <c r="F138" s="5">
-        <f>(B138-B137)</f>
+        <f t="shared" si="7"/>
         <v>178.5</v>
       </c>
       <c r="G138" s="27">
@@ -20620,11 +21492,12 @@
         <v>61208</v>
       </c>
       <c r="H138" s="6">
-        <f>F138/G138*1000</f>
+        <f t="shared" si="9"/>
         <v>2.9162854528819762</v>
       </c>
-    </row>
-    <row r="139" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I138" s="63"/>
+    </row>
+    <row r="139" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A139" s="12">
         <v>45795</v>
       </c>
@@ -20635,15 +21508,15 @@
         <v>38685</v>
       </c>
       <c r="D139" s="54">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>12.600000000005821</v>
       </c>
       <c r="E139" s="54">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>175</v>
       </c>
       <c r="F139" s="5">
-        <f>(B139-B138)</f>
+        <f t="shared" ref="F139:F143" si="10">(B139-B138)</f>
         <v>187.60000000000582</v>
       </c>
       <c r="G139" s="27">
@@ -20651,11 +21524,12 @@
         <v>62599</v>
       </c>
       <c r="H139" s="6">
-        <f>F139/G139*1000</f>
+        <f t="shared" si="9"/>
         <v>2.996852984872056</v>
       </c>
-    </row>
-    <row r="140" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I139" s="63"/>
+    </row>
+    <row r="140" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A140" s="12">
         <v>45796</v>
       </c>
@@ -20666,15 +21540,15 @@
         <v>38874</v>
       </c>
       <c r="D140" s="54">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>27</v>
       </c>
       <c r="E140" s="54">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>189</v>
       </c>
       <c r="F140" s="5">
-        <f>(B140-B139)</f>
+        <f t="shared" si="10"/>
         <v>216</v>
       </c>
       <c r="G140" s="27">
@@ -20682,11 +21556,12 @@
         <v>74460</v>
       </c>
       <c r="H140" s="6">
-        <f>F140/G140*1000</f>
+        <f t="shared" si="9"/>
         <v>2.9008863819500403</v>
       </c>
-    </row>
-    <row r="141" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I140" s="63"/>
+    </row>
+    <row r="141" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A141" s="12">
         <v>45797</v>
       </c>
@@ -20701,7 +21576,7 @@
         <v>28.19999999999709</v>
       </c>
       <c r="E141" s="54">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>266</v>
       </c>
       <c r="F141" s="5">
@@ -20713,11 +21588,12 @@
         <v>98510</v>
       </c>
       <c r="H141" s="6">
-        <f>F141/G141*1000</f>
+        <f t="shared" si="9"/>
         <v>2.9864988326057973</v>
       </c>
-    </row>
-    <row r="142" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I141" s="63"/>
+    </row>
+    <row r="142" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A142" s="12">
         <v>45798</v>
       </c>
@@ -20728,15 +21604,15 @@
         <v>39391</v>
       </c>
       <c r="D142" s="54">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>27.099999999998545</v>
       </c>
       <c r="E142" s="54">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>251</v>
       </c>
       <c r="F142" s="5">
-        <f>(B142-B141)</f>
+        <f t="shared" si="10"/>
         <v>278.09999999999854</v>
       </c>
       <c r="G142" s="27">
@@ -20744,21 +21620,250 @@
         <v>97852</v>
       </c>
       <c r="H142" s="6">
-        <f>F142/G142*1000</f>
+        <f t="shared" si="9"/>
         <v>2.8420471732820847</v>
       </c>
+      <c r="I142" s="63"/>
+    </row>
+    <row r="143" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A143" s="12">
+        <v>45799</v>
+      </c>
+      <c r="B143" s="4">
+        <v>44419.8</v>
+      </c>
+      <c r="C143" s="5">
+        <v>39623</v>
+      </c>
+      <c r="D143" s="54">
+        <f t="shared" si="6"/>
+        <v>26.200000000004366</v>
+      </c>
+      <c r="E143" s="54">
+        <f>C143-C142</f>
+        <v>232</v>
+      </c>
+      <c r="F143" s="5">
+        <f t="shared" si="10"/>
+        <v>258.20000000000437</v>
+      </c>
+      <c r="G143" s="27">
+        <f>[2]Sheet1!U147</f>
+        <v>90567</v>
+      </c>
+      <c r="H143" s="6">
+        <f t="shared" si="9"/>
+        <v>2.8509280422229328</v>
+      </c>
+      <c r="I143" s="63"/>
+    </row>
+    <row r="144" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A144" s="12">
+        <v>45800</v>
+      </c>
+      <c r="B144" s="4">
+        <v>44713.3</v>
+      </c>
+      <c r="C144" s="5">
+        <v>39883</v>
+      </c>
+      <c r="D144" s="54">
+        <f t="shared" si="6"/>
+        <v>33.5</v>
+      </c>
+      <c r="E144" s="54">
+        <f>C144-C143</f>
+        <v>260</v>
+      </c>
+      <c r="F144" s="5">
+        <f t="shared" ref="F144:F149" si="11">(B144-B143)</f>
+        <v>293.5</v>
+      </c>
+      <c r="G144" s="27">
+        <f>[2]Sheet1!U148</f>
+        <v>100180</v>
+      </c>
+      <c r="H144" s="6">
+        <f t="shared" si="9"/>
+        <v>2.9297264923138351</v>
+      </c>
+      <c r="I144" s="63"/>
+    </row>
+    <row r="145" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A145" s="12">
+        <v>45801</v>
+      </c>
+      <c r="B145" s="4">
+        <v>45011.4</v>
+      </c>
+      <c r="C145" s="5">
+        <v>40156</v>
+      </c>
+      <c r="D145" s="54">
+        <f>F145-E145</f>
+        <v>25.099999999998545</v>
+      </c>
+      <c r="E145" s="54">
+        <f t="shared" si="8"/>
+        <v>273</v>
+      </c>
+      <c r="F145" s="5">
+        <f t="shared" si="11"/>
+        <v>298.09999999999854</v>
+      </c>
+      <c r="G145" s="27">
+        <f>[2]Sheet1!U149</f>
+        <v>105844</v>
+      </c>
+      <c r="H145" s="6">
+        <f t="shared" si="9"/>
+        <v>2.8164090548354044</v>
+      </c>
+      <c r="I145" s="63"/>
+    </row>
+    <row r="146" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A146" s="12">
+        <v>45802</v>
+      </c>
+      <c r="B146" s="4">
+        <v>45261.9</v>
+      </c>
+      <c r="C146" s="5">
+        <v>40422</v>
+      </c>
+      <c r="D146" s="54">
+        <f>F146-E146</f>
+        <v>-15.5</v>
+      </c>
+      <c r="E146" s="54">
+        <f>C146-C145</f>
+        <v>266</v>
+      </c>
+      <c r="F146" s="5">
+        <f>(B146-B145)</f>
+        <v>250.5</v>
+      </c>
+      <c r="G146" s="27">
+        <f>[2]Sheet1!U150</f>
+        <v>104625</v>
+      </c>
+      <c r="H146" s="6">
+        <f t="shared" si="9"/>
+        <v>2.3942652329749103</v>
+      </c>
+      <c r="I146" s="63"/>
+    </row>
+    <row r="147" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A147" s="12">
+        <v>45803</v>
+      </c>
+      <c r="B147" s="4">
+        <v>45604.3</v>
+      </c>
+      <c r="C147" s="5">
+        <v>40691</v>
+      </c>
+      <c r="D147" s="54">
+        <f t="shared" si="6"/>
+        <v>73.400000000001455</v>
+      </c>
+      <c r="E147" s="54">
+        <f>C147-C146</f>
+        <v>269</v>
+      </c>
+      <c r="F147" s="5">
+        <f t="shared" si="11"/>
+        <v>342.40000000000146</v>
+      </c>
+      <c r="G147" s="27">
+        <f>[2]Sheet1!U151</f>
+        <v>103450</v>
+      </c>
+      <c r="H147" s="6">
+        <f t="shared" si="9"/>
+        <v>3.3098115031416282</v>
+      </c>
+      <c r="I147" s="63"/>
+    </row>
+    <row r="148" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A148" s="12">
+        <v>45804</v>
+      </c>
+      <c r="B148" s="4">
+        <v>45878</v>
+      </c>
+      <c r="C148" s="5">
+        <v>40938</v>
+      </c>
+      <c r="D148" s="54">
+        <f t="shared" si="6"/>
+        <v>26.69999999999709</v>
+      </c>
+      <c r="E148" s="54">
+        <f>C148-C147</f>
+        <v>247</v>
+      </c>
+      <c r="F148" s="5">
+        <f t="shared" si="11"/>
+        <v>273.69999999999709</v>
+      </c>
+      <c r="G148" s="27">
+        <f>[2]Sheet1!U152</f>
+        <v>95679</v>
+      </c>
+      <c r="H148" s="6">
+        <f t="shared" si="9"/>
+        <v>2.8606068207234308</v>
+      </c>
+      <c r="I148" s="63"/>
+    </row>
+    <row r="149" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A149" s="12">
+        <v>45805</v>
+      </c>
+      <c r="B149" s="4">
+        <v>46178.6</v>
+      </c>
+      <c r="C149" s="5">
+        <v>41209</v>
+      </c>
+      <c r="D149" s="54">
+        <f>F149-E149</f>
+        <v>29.599999999998545</v>
+      </c>
+      <c r="E149" s="54">
+        <f>C149-C148</f>
+        <v>271</v>
+      </c>
+      <c r="F149" s="5">
+        <f t="shared" si="11"/>
+        <v>300.59999999999854</v>
+      </c>
+      <c r="G149" s="27">
+        <f>[2]Sheet1!U153</f>
+        <v>104711</v>
+      </c>
+      <c r="H149" s="6">
+        <f t="shared" si="9"/>
+        <v>2.8707585640476987</v>
+      </c>
+      <c r="I149" s="63"/>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="I92:I121"/>
+    <mergeCell ref="I122:I149"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38810916-2DF0-490C-B584-F0F3D6EAB44D}">
-  <dimension ref="A1:K142"/>
+  <dimension ref="A1:K149"/>
   <sheetViews>
-    <sheetView topLeftCell="A107" workbookViewId="0">
-      <selection activeCell="A143" sqref="A143:XFD145"/>
+    <sheetView topLeftCell="A113" workbookViewId="0">
+      <selection activeCell="A86" sqref="A86:K149"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -26120,7 +27225,7 @@
         <v>222.00000000000043</v>
       </c>
     </row>
-    <row r="142" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A142" s="3">
         <f>'[1]NaOCl Pré'!B143</f>
         <v>45798</v>
@@ -26156,6 +27261,272 @@
       <c r="I142" s="4">
         <f>[1]ASC!D143</f>
         <v>226.49999999999972</v>
+      </c>
+    </row>
+    <row r="143" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A143" s="3">
+        <f>'[1]NaOCl Pré'!B144</f>
+        <v>45799</v>
+      </c>
+      <c r="B143" s="23">
+        <f>'[1]NaOCl Pré'!D144</f>
+        <v>204.79999999999876</v>
+      </c>
+      <c r="C143" s="4">
+        <f>[1]Acide!D144</f>
+        <v>0</v>
+      </c>
+      <c r="D143" s="4">
+        <f>[1]FeCl3!D144</f>
+        <v>0</v>
+      </c>
+      <c r="E143" s="4">
+        <f>'[1]NaOCl 2 CEB 1'!H144</f>
+        <v>528.00000000000045</v>
+      </c>
+      <c r="F143" s="4">
+        <f>'[1]Soude CEB 1'!D144</f>
+        <v>0</v>
+      </c>
+      <c r="G143" s="4">
+        <f>'[1]Acide CEB2'!D144</f>
+        <v>51.19999999999969</v>
+      </c>
+      <c r="H143" s="4">
+        <f>[1]SBS!E144</f>
+        <v>636.79999999999916</v>
+      </c>
+      <c r="I143" s="4">
+        <f>[1]ASC!D144</f>
+        <v>222.00000000000043</v>
+      </c>
+    </row>
+    <row r="144" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A144" s="3">
+        <f>'[1]NaOCl Pré'!B145</f>
+        <v>45800</v>
+      </c>
+      <c r="B144" s="23">
+        <f>'[1]NaOCl Pré'!D145</f>
+        <v>201.60000000000267</v>
+      </c>
+      <c r="C144" s="4">
+        <f>[1]Acide!D145</f>
+        <v>0</v>
+      </c>
+      <c r="D144" s="4">
+        <f>[1]FeCl3!D145</f>
+        <v>0</v>
+      </c>
+      <c r="E144" s="4">
+        <f>'[1]NaOCl 2 CEB 1'!H145</f>
+        <v>508.80000000000081</v>
+      </c>
+      <c r="F144" s="4">
+        <f>'[1]Soude CEB 1'!D145</f>
+        <v>0</v>
+      </c>
+      <c r="G144" s="4">
+        <f>'[1]Acide CEB2'!D145</f>
+        <v>131.20000000000064</v>
+      </c>
+      <c r="H144" s="4">
+        <f>[1]SBS!E145</f>
+        <v>636.79999999999916</v>
+      </c>
+      <c r="I144" s="4">
+        <f>[1]ASC!D145</f>
+        <v>242.99999999999943</v>
+      </c>
+    </row>
+    <row r="145" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A145" s="3">
+        <f>'[1]NaOCl Pré'!B146</f>
+        <v>45801</v>
+      </c>
+      <c r="B145" s="23">
+        <f>'[1]NaOCl Pré'!D146</f>
+        <v>207.99999999999841</v>
+      </c>
+      <c r="C145" s="4">
+        <f>[1]Acide!D146</f>
+        <v>0</v>
+      </c>
+      <c r="D145" s="4">
+        <f>[1]FeCl3!D146</f>
+        <v>0</v>
+      </c>
+      <c r="E145" s="4">
+        <f>'[1]NaOCl 2 CEB 1'!H146</f>
+        <v>1039.9999999999991</v>
+      </c>
+      <c r="F145" s="4">
+        <f>'[1]Soude CEB 1'!D146</f>
+        <v>0</v>
+      </c>
+      <c r="G145" s="4">
+        <f>'[1]Acide CEB2'!D146</f>
+        <v>47.999999999999154</v>
+      </c>
+      <c r="H145" s="4">
+        <f>[1]SBS!E146</f>
+        <v>563.20000000000186</v>
+      </c>
+      <c r="I145" s="4">
+        <f>[1]ASC!D146</f>
+        <v>253.49999999999983</v>
+      </c>
+    </row>
+    <row r="146" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A146" s="3">
+        <f>'[1]NaOCl Pré'!B147</f>
+        <v>45802</v>
+      </c>
+      <c r="B146" s="23">
+        <f>'[1]NaOCl Pré'!D147</f>
+        <v>198.39999999999947</v>
+      </c>
+      <c r="C146" s="4">
+        <f>[1]Acide!D147</f>
+        <v>0</v>
+      </c>
+      <c r="D146" s="4">
+        <f>[1]FeCl3!D147</f>
+        <v>0</v>
+      </c>
+      <c r="E146" s="4">
+        <f>'[1]NaOCl 2 CEB 1'!H147</f>
+        <v>963.20000000000221</v>
+      </c>
+      <c r="F146" s="4">
+        <f>'[1]Soude CEB 1'!D147</f>
+        <v>0</v>
+      </c>
+      <c r="G146" s="4">
+        <f>'[1]Acide CEB2'!D147</f>
+        <v>60.800000000000409</v>
+      </c>
+      <c r="H146" s="4">
+        <f>[1]SBS!E147</f>
+        <v>623.99999999999875</v>
+      </c>
+      <c r="I146" s="4">
+        <f>[1]ASC!D147</f>
+        <v>253.50000000000074</v>
+      </c>
+    </row>
+    <row r="147" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A147" s="3">
+        <f>'[1]NaOCl Pré'!B148</f>
+        <v>45803</v>
+      </c>
+      <c r="B147" s="23">
+        <f>'[1]NaOCl Pré'!D148</f>
+        <v>208.00000000000196</v>
+      </c>
+      <c r="C147" s="4">
+        <f>[1]Acide!D148</f>
+        <v>0</v>
+      </c>
+      <c r="D147" s="4">
+        <f>[1]FeCl3!D148</f>
+        <v>0</v>
+      </c>
+      <c r="E147" s="4">
+        <f>'[1]NaOCl 2 CEB 1'!H148</f>
+        <v>486.40000000000151</v>
+      </c>
+      <c r="F147" s="4">
+        <f>'[1]Soude CEB 1'!D148</f>
+        <v>0</v>
+      </c>
+      <c r="G147" s="4">
+        <f>'[1]Acide CEB2'!D148</f>
+        <v>76.799999999999528</v>
+      </c>
+      <c r="H147" s="4">
+        <f>[1]SBS!E148</f>
+        <v>649.59999999999945</v>
+      </c>
+      <c r="I147" s="4">
+        <f>[1]ASC!D148</f>
+        <v>242.99999999999943</v>
+      </c>
+    </row>
+    <row r="148" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A148" s="3">
+        <f>'[1]NaOCl Pré'!B149</f>
+        <v>45804</v>
+      </c>
+      <c r="B148" s="23">
+        <f>'[1]NaOCl Pré'!D149</f>
+        <v>134.39999999999941</v>
+      </c>
+      <c r="C148" s="4">
+        <f>[1]Acide!D149</f>
+        <v>0</v>
+      </c>
+      <c r="D148" s="4">
+        <f>[1]FeCl3!D149</f>
+        <v>0</v>
+      </c>
+      <c r="E148" s="4">
+        <f>'[1]NaOCl 2 CEB 1'!H149</f>
+        <v>711.59999999999991</v>
+      </c>
+      <c r="F148" s="4">
+        <f>'[1]Soude CEB 1'!D149</f>
+        <v>0</v>
+      </c>
+      <c r="G148" s="4">
+        <f>'[1]Acide CEB2'!D149</f>
+        <v>92.799999999999557</v>
+      </c>
+      <c r="H148" s="4">
+        <f>[1]SBS!E149</f>
+        <v>236.80000000000058</v>
+      </c>
+      <c r="I148" s="4">
+        <f>[1]ASC!D149</f>
+        <v>232.49999999999994</v>
+      </c>
+    </row>
+    <row r="149" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A149" s="3">
+        <f>'[1]NaOCl Pré'!B150</f>
+        <v>45805</v>
+      </c>
+      <c r="B149" s="23">
+        <f>'[1]NaOCl Pré'!D150</f>
+        <v>147.19999999999999</v>
+      </c>
+      <c r="C149" s="4">
+        <f>[1]Acide!D150</f>
+        <v>0</v>
+      </c>
+      <c r="D149" s="4">
+        <f>[1]FeCl3!D150</f>
+        <v>0</v>
+      </c>
+      <c r="E149" s="4">
+        <f>'[1]NaOCl 2 CEB 1'!H150</f>
+        <v>574.4</v>
+      </c>
+      <c r="F149" s="4">
+        <f>'[1]Soude CEB 1'!D150</f>
+        <v>0</v>
+      </c>
+      <c r="G149" s="4">
+        <f>'[1]Acide CEB2'!D150</f>
+        <v>70.400000000001128</v>
+      </c>
+      <c r="H149" s="4">
+        <f>[1]SBS!E150</f>
+        <v>691.20000000000027</v>
+      </c>
+      <c r="I149" s="4">
+        <f>[1]ASC!D150</f>
+        <v>243.00000000000034</v>
       </c>
     </row>
   </sheetData>

--- a/Consommation spécifique.xlsx
+++ b/Consommation spécifique.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\Projects\wave2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C296D0DE-87EB-43AD-BC44-B4FDD2944E25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{83BA1F13-CBB9-4794-B0B6-F7C926322382}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30612" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{4E830341-EBCA-4A95-9BBE-9CDD49815F8C}"/>
+    <workbookView xWindow="30612" yWindow="-108" windowWidth="30936" windowHeight="16896" activeTab="1" xr2:uid="{4E830341-EBCA-4A95-9BBE-9CDD49815F8C}"/>
   </bookViews>
   <sheets>
     <sheet name="CS Produits chimiques" sheetId="1" r:id="rId1"/>
@@ -2551,6 +2551,17 @@
             <v>1.405773987451175</v>
           </cell>
         </row>
+        <row r="151">
+          <cell r="B151">
+            <v>45806</v>
+          </cell>
+          <cell r="D151">
+            <v>236.79999999999879</v>
+          </cell>
+          <cell r="F151">
+            <v>2.2582921665490359</v>
+          </cell>
+        </row>
       </sheetData>
       <sheetData sheetId="3">
         <row r="3">
@@ -3737,6 +3748,14 @@
             <v>0</v>
           </cell>
         </row>
+        <row r="151">
+          <cell r="D151">
+            <v>0</v>
+          </cell>
+          <cell r="F151">
+            <v>0</v>
+          </cell>
+        </row>
       </sheetData>
       <sheetData sheetId="4">
         <row r="3">
@@ -4920,6 +4939,14 @@
             <v>0</v>
           </cell>
           <cell r="F150">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="151">
+          <cell r="D151">
+            <v>0</v>
+          </cell>
+          <cell r="F151">
             <v>0</v>
           </cell>
         </row>
@@ -6110,6 +6137,14 @@
             <v>5.4855745814670858</v>
           </cell>
         </row>
+        <row r="151">
+          <cell r="H151">
+            <v>656.00000000000227</v>
+          </cell>
+          <cell r="I151">
+            <v>6.2560796505750851</v>
+          </cell>
+        </row>
       </sheetData>
       <sheetData sheetId="7">
         <row r="3">
@@ -7296,6 +7331,14 @@
             <v>0</v>
           </cell>
         </row>
+        <row r="151">
+          <cell r="D151">
+            <v>0</v>
+          </cell>
+          <cell r="F151">
+            <v>0</v>
+          </cell>
+        </row>
       </sheetData>
       <sheetData sheetId="8">
         <row r="3">
@@ -8456,6 +8499,14 @@
           </cell>
           <cell r="F150">
             <v>0.67232668965057274</v>
+          </cell>
+        </row>
+        <row r="151">
+          <cell r="D151">
+            <v>102.40000000000026</v>
+          </cell>
+          <cell r="F151">
+            <v>0.97655877472391472</v>
           </cell>
         </row>
       </sheetData>
@@ -9644,6 +9695,14 @@
             <v>6.6010256802055203</v>
           </cell>
         </row>
+        <row r="151">
+          <cell r="E151">
+            <v>611.20000000000016</v>
+          </cell>
+          <cell r="G151">
+            <v>5.828835186633353</v>
+          </cell>
+        </row>
       </sheetData>
       <sheetData sheetId="10">
         <row r="3">
@@ -10828,6 +10887,14 @@
           </cell>
           <cell r="F150">
             <v>2.3206730906972557</v>
+          </cell>
+        </row>
+        <row r="151">
+          <cell r="D151">
+            <v>249</v>
+          </cell>
+          <cell r="F151">
+            <v>2.3746399893188883</v>
           </cell>
         </row>
       </sheetData>
@@ -10854,6 +10921,9 @@
     <sheetDataSet>
       <sheetData sheetId="0">
         <row r="6">
+          <cell r="L6">
+            <v>141032</v>
+          </cell>
           <cell r="U6">
             <v>53174</v>
           </cell>
@@ -11593,10 +11663,15 @@
             <v>104711</v>
           </cell>
         </row>
+        <row r="154">
+          <cell r="U154">
+            <v>104858</v>
+          </cell>
+        </row>
       </sheetData>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
+      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="3" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -11899,11 +11974,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BC5C344-277E-4945-8E25-AE6A0B860AD5}">
-  <dimension ref="A1:K149"/>
+  <dimension ref="A1:K150"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A128" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A86" sqref="A86:K149"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A114" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A86" sqref="A86:K150"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -17728,6 +17803,45 @@
       <c r="J149" s="4"/>
       <c r="K149" s="29"/>
     </row>
+    <row r="150" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A150" s="21">
+        <v>45806</v>
+      </c>
+      <c r="B150" s="40">
+        <f>'[1]NaOCl Pré'!F151</f>
+        <v>2.2582921665490359</v>
+      </c>
+      <c r="C150" s="4">
+        <f>[1]Acide!F151</f>
+        <v>0</v>
+      </c>
+      <c r="D150" s="4">
+        <f>[1]FeCl3!F151</f>
+        <v>0</v>
+      </c>
+      <c r="E150" s="40">
+        <f>'[1]NaOCl 2 CEB 1'!I151</f>
+        <v>6.2560796505750851</v>
+      </c>
+      <c r="F150" s="4">
+        <f>'[1]Soude CEB 1'!F151</f>
+        <v>0</v>
+      </c>
+      <c r="G150" s="40">
+        <f>'[1]Acide CEB2'!F151</f>
+        <v>0.97655877472391472</v>
+      </c>
+      <c r="H150" s="40">
+        <f>[1]SBS!G151</f>
+        <v>5.828835186633353</v>
+      </c>
+      <c r="I150" s="40">
+        <f>[1]ASC!F151</f>
+        <v>2.3746399893188883</v>
+      </c>
+      <c r="J150" s="4"/>
+      <c r="K150" s="29"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -17736,10 +17850,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07CB649B-6F18-453D-B029-557EF373D866}">
-  <dimension ref="A1:I149"/>
+  <dimension ref="A1:I150"/>
   <sheetViews>
-    <sheetView topLeftCell="A130" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <selection activeCell="A150" sqref="A150:XFD367"/>
+    <sheetView tabSelected="1" topLeftCell="A131" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
+      <selection activeCell="A151" sqref="A151:XFD367"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -20225,7 +20339,7 @@
         <v>29866</v>
       </c>
       <c r="D99" s="54">
-        <f t="shared" ref="D99:D148" si="6">F99-E99</f>
+        <f t="shared" ref="D99:D150" si="6">F99-E99</f>
         <v>27</v>
       </c>
       <c r="E99" s="54">
@@ -20981,8 +21095,8 @@
         <v>2.9855218534206438</v>
       </c>
       <c r="I122" s="60">
-        <f>+SUMIF(F122:F149,"&gt;0")</f>
-        <v>6982.1999999999971</v>
+        <f>+SUMIF(F122:F150,"&gt;0")</f>
+        <v>7281.5</v>
       </c>
     </row>
     <row r="123" spans="1:9" x14ac:dyDescent="0.3">
@@ -21160,7 +21274,7 @@
         <v>70.69999999999709</v>
       </c>
       <c r="E128" s="54">
-        <f t="shared" ref="E128:E145" si="8">C128-C127</f>
+        <f t="shared" ref="E128:E150" si="8">C128-C127</f>
         <v>266</v>
       </c>
       <c r="F128" s="5">
@@ -21332,7 +21446,7 @@
         <v>75076</v>
       </c>
       <c r="H133" s="6">
-        <f t="shared" ref="H133:H149" si="9">F133/G133*1000</f>
+        <f t="shared" ref="H133:H150" si="9">F133/G133*1000</f>
         <v>2.8544408332889728</v>
       </c>
       <c r="I133" s="63"/>
@@ -21516,7 +21630,7 @@
         <v>175</v>
       </c>
       <c r="F139" s="5">
-        <f t="shared" ref="F139:F143" si="10">(B139-B138)</f>
+        <f t="shared" ref="F139:F150" si="10">(B139-B138)</f>
         <v>187.60000000000582</v>
       </c>
       <c r="G139" s="27">
@@ -21849,10 +21963,42 @@
       </c>
       <c r="I149" s="63"/>
     </row>
+    <row r="150" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A150" s="12">
+        <v>45806</v>
+      </c>
+      <c r="B150" s="4">
+        <v>46477.9</v>
+      </c>
+      <c r="C150" s="5">
+        <v>41479</v>
+      </c>
+      <c r="D150" s="54">
+        <f t="shared" si="6"/>
+        <v>29.30000000000291</v>
+      </c>
+      <c r="E150" s="54">
+        <f t="shared" si="8"/>
+        <v>270</v>
+      </c>
+      <c r="F150" s="5">
+        <f t="shared" si="10"/>
+        <v>299.30000000000291</v>
+      </c>
+      <c r="G150" s="27">
+        <f>[2]Sheet1!U154</f>
+        <v>104858</v>
+      </c>
+      <c r="H150" s="6">
+        <f t="shared" si="9"/>
+        <v>2.8543363405749007</v>
+      </c>
+      <c r="I150" s="63"/>
+    </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="I92:I121"/>
-    <mergeCell ref="I122:I149"/>
+    <mergeCell ref="I122:I150"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -21860,10 +22006,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38810916-2DF0-490C-B584-F0F3D6EAB44D}">
-  <dimension ref="A1:K149"/>
+  <dimension ref="A1:K150"/>
   <sheetViews>
-    <sheetView topLeftCell="A113" workbookViewId="0">
-      <selection activeCell="A86" sqref="A86:K149"/>
+    <sheetView topLeftCell="A132" workbookViewId="0">
+      <selection activeCell="A86" sqref="A86:I150"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -27491,7 +27637,7 @@
         <v>232.49999999999994</v>
       </c>
     </row>
-    <row r="149" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A149" s="3">
         <f>'[1]NaOCl Pré'!B150</f>
         <v>45805</v>
@@ -27527,6 +27673,44 @@
       <c r="I149" s="4">
         <f>[1]ASC!D150</f>
         <v>243.00000000000034</v>
+      </c>
+    </row>
+    <row r="150" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A150" s="3">
+        <f>'[1]NaOCl Pré'!B151</f>
+        <v>45806</v>
+      </c>
+      <c r="B150" s="23">
+        <f>'[1]NaOCl Pré'!D151</f>
+        <v>236.79999999999879</v>
+      </c>
+      <c r="C150" s="4">
+        <f>[1]Acide!D151</f>
+        <v>0</v>
+      </c>
+      <c r="D150" s="4">
+        <f>[1]FeCl3!D151</f>
+        <v>0</v>
+      </c>
+      <c r="E150" s="4">
+        <f>'[1]NaOCl 2 CEB 1'!H151</f>
+        <v>656.00000000000227</v>
+      </c>
+      <c r="F150" s="4">
+        <f>'[1]Soude CEB 1'!D151</f>
+        <v>0</v>
+      </c>
+      <c r="G150" s="4">
+        <f>'[1]Acide CEB2'!D151</f>
+        <v>102.40000000000026</v>
+      </c>
+      <c r="H150" s="4">
+        <f>[1]SBS!E151</f>
+        <v>611.20000000000016</v>
+      </c>
+      <c r="I150" s="4">
+        <f>[1]ASC!D151</f>
+        <v>249</v>
       </c>
     </row>
   </sheetData>
